--- a/UPDATE_INFO.xlsx
+++ b/UPDATE_INFO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,12 +384,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>added</t>
+          <t>added_ids</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>removed</t>
+          <t>added_names</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>removed_ids</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>removed_names</t>
         </is>
       </c>
     </row>
@@ -399,15 +409,11 @@
           <t>SDG_1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>['527821871', '549605437', '68062652', '2776605987', '2909852078', '204208750', '2776465305', '2778976928', '2779957034', '36289849', '2778661615', '2776922509', '2780456498', '2779282124', '2778727652', '2779597210', '2911219547', '2778516963', '2776094956', '2778502840', '2776572681', '178511221', '2781436281', '2778452349', '2779566690', '2777553175', '2910435018', '2909647022', '2910997320', '2781426361', '196777733', '142077812', '2781384209', '2781069661', '178377140', '2775950104', '2778151340', '2780750338', '2779363069', '2776615708', '2778882308', '2777533032', '553381038', '43609274', '2777262119', '189326681', '20555606', '186191158', '2778343834', '2779490853', '2776672683', '2778890030', '2781116641', '78302928', '2778216598', '2781094592', '2780290423', '2778096659', '2908684656', '15553842', '2779653078', '2779584631', '2911189839', '2776905528', '2778408412', '2910993519', '2780393519', '2776751285', '129047720', '2778561184', '2908737072', '2776893239', '2781044819', '82341920', '2909895442', '2780761588', '133925201', '2780623907', '28129649', '2777608298', '2778430866', '2780899237', '2781061807', '519300510', '2778054917', '2779206190', '2778140607', '2778754916', '2776554220', '2779501705', '2775868463', '2908621740', '2779575352', '2909509366', '2777433830', '2776237081', '2781304125']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['129047720', '133925201', '142077812', '15553842', '178377140', '178511221', '189326681', '196777733', '204208750', '2775868463', '2775950104', '2776465305', '2776572681', '2776605987', '2776615708', '2776672683', '2776751285', '2776905528', '2777262119', '2777433830', '2777533032', '2777553175', '2777608298', '2778054917', '2778096659', '2778151340', '2778343834', '2778408412', '2778430866', '2778452349', '2778502840', '2778516963', '2778561184', '2778661615', '2778727652', '2778754916', '2778882308', '2778890030', '2778976928', '2779363069', '2779490853', '2779501705', '2779566690', '2779575352', '2779584631', '2779597210', '2779653078', '2779957034', '2780290423', '2780393519', '2780456498', '2780750338', '2780761588', '2781044819', '2781061807', '2781094592', '2781116641', '2781304125', '2781384209', '2781436281', '28129649', '2908621740', '2908684656', '2908737072', '2909509366', '2909647022', '2909852078', '2909895442', '2910435018', '2910993519', '2910997320', '2911219547', '43609274', '519300510', '527821871', '549605437', '553381038', '68062652', '78302928', '82341920']</t>
-        </is>
+      <c r="B2" t="n">
+        <v>97</v>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -416,25 +422,31 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2781069661', '2780623907', '20555606', '36289849', '2776094956', '2780899237', '2776554220', '2781426361', '2776237081', '2776922509', '2911189839', '2778216598', '2778140607', '186191158', '2779282124', '2776893239', '2779206190']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['2781426361', '2776893239', '2776922509', '36289849', '20555606', '2779282124', '2911189839', '186191158', '2776094956', '2781069661', '2776237081', '2778216598', '2780623907', '2776554220', '2780899237', '2779206190', '2778140607']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['Earnings', 'Social isolation', 'Trade and development', 'Social science', 'Empowerment', 'Social insurance', 'Active labour', 'Vulnerability', 'Chronic poverty', 'Vulnerability index', 'Income Support', 'Safety net', 'Disadvantaged', 'Prosperity', 'Pension', 'Gini coefficient', 'e-social science']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SDG_10</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>['2778764706', '2776825616', '161407221', '111141941', '2778660980', '44171179', '53001019', '19159745', '146406624', '27564746', '2779625216', '2776369677', '97713585', '2777111884', '34560132', '2779310246', '25810664', '2779735493', '2779282124', '100607858', '45355965', '109051061', '2777686490', '2781313914', '2778459265', '116019233', '104151175', '2910181401', '2780903623', '106159729', '2777263331', '78780426', '2909000370', '2775848949', '2776758949', '176445938', '191953296', '2909647022', '2910645313', '63805789', '821917', '2781426361', '2779251847', '2776572088', '129603779', '2779795779', '2909439219', '2778055162', '2777129469', '540791928', '510755694', '2777917351', '2778212065', '2908821035', '2780037060', '557691694', '83864248', '134659438', '2908525900', '2777201701', '2909257116', '2779601481', '178283979', '179709323', '168622376', '159176650', '2776344727', '2910442575', '2778566306', '48891531', '2779201187', '2781372952', '2776592576', '162324750', '2909492420', '2781216606', '150432175', '126285488', '73283319', '2780535194', '2777288899', '2909801347', '2776310010', '2778004815', '55447825', '2779490853', '2780950746', '2776327045', '2909549571', '2909342271', '70036468', '2779119184', '35532855', '2781190941', '2776206778', '76485209', '2780031633', '32437296', '2910289302', '176564469', '2778527208', '71909290', '163836022', '516990006', '2776845425', '2776060655', '551499885', '77352025', '75218677', '50549864', '2909400753', '19244329', '37129596', '4162061', '2778968930', '173145845', '86615163', '2780479094', '42298096', '2780892066', '67921825', '166052673', '140816417', '2781196610', '2778716609', '91093795', '2776572589', '2779845407', '55986821', '2777626329', '139719470', '2909635936', '2780155792', '84945661', '2781386606', '160333310', '201915964', '121017731', '177309310', '2780761588', '2780569737', '2780623907', '2780459134', '134215751', '194477218', '2777147431', '506295513', '2780615719', '2776942536', '2779183276', '2778462305', '2909064151', '2781160424', '188116033', '2779997400', '2780899237', '119857082', '2911052175', '162725370', '519300510', '2779206190', '2908766468', '15107229', '2779233565', '190973436', '2776554220', '160443848', '180872759', '2777146892', '128963836', '51067260', '2780962165', '2776636807', '2777209669', '2777807558', '77357849', '2909025839', '2777433830', '2910013236', '155202549', '10688316', '2776237081', '182299520', '2781304125', '2776354556']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['100607858', '104151175', '106159729', '10688316', '109051061', '116019233', '119857082', '121017731', '126285488', '128963836', '134215751', '139719470', '146406624', '150432175', '155202549', '159176650', '160333310', '162324750', '162725370', '163836022', '166052673', '168622376', '176445938', '176564469', '177309310', '179709323', '182299520', '188116033', '190973436', '191953296', '194477218', '201915964', '25810664', '27564746', '2775848949', '2776206778', '2776310010', '2776327045', '2776344727', '2776354556', '2776369677', '2776572088', '2776572589', '2776592576', '2776636807', '2776758949', '2776825616', '2776845425', '2777111884', '2777146892', '2777147431', '2777201701', '2777209669', '2777263331', '2777288899', '2777433830', '2777626329', '2777686490', '2777807558', '2777917351', '2778004815', '2778055162', '2778212065', '2778459265', '2778462305', '2778527208', '2778660980', '2778764706', '2779119184', '2779183276', '2779201187', '2779233565', '2779251847', '2779282124', '2779310246', '2779601481', '2779735493', '2779795779', '2779845407', '2779997400', '2780031633', '2780155792', '2780459134', '2780479094', '2780535194', '2780569737', '2780615719', '2780761588', '2780892066', '2780899237', '2780950746', '2780962165', '2781196610', '2781216606', '2781304125', '2781313914', '2781386606', '2781426361', '2908525900', '2908766468', '2908821035', '2909000370', '2909025839', '2909064151', '2909257116', '2909342271', '2909400753', '2909549571', '2909635936', '2909647022', '2910013236', '2910289302', '2910442575', '2910645313', '2911052175', '32437296', '34560132', '35532855', '4162061', '42298096', '44171179', '45355965', '48891531', '50549864', '506295513', '510755694', '516990006', '540791928', '557691694', '55986821', '63805789', '67921825', '71909290', '73283319', '75218677', '76485209', '77357849', '78780426', '821917', '83864248', '84945661', '86615163', '91093795', '97713585']</t>
-        </is>
+          <t>SDG_2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>773</v>
+      </c>
+      <c r="C3" t="n">
+        <v>703</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -443,52 +455,64 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['53001019', '19244329', '2910181401', '2909439219', '519300510', '178283979', '111141941', '2778968930', '2781190941', '2779625216', '2778716609', '2776554220', '2776237081', '134659438', '173145845', '161407221', '55447825', '2776060655', '2909801347', '2909492420', '2777129469', '2781160424', '2780903623', '2780623907', '51067260', '2781372952', '129603779', '140816417', '2778566306', '551499885', '180872759', '2776942536', '2779490853', '15107229', '37129596', '19159745', '70036468', '2780037060', '77352025', '160443848', '2779206190']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['2780221984', '2776876274', '2779764123', '105639569', '2777782036', '2910212593', '2777129469', '2910706634', '2909296374', '535046627', '2909512196', '2779363069', '2780748813', '507981020', '2780745107', '2779425982', '159879943', '505241676', '2911208417', '112892834', '181607587', '183135511', '2910840360', '2776953683', '2778359420', '2911033078', '2779529612', '203017698', '2780527838', '2778896754', '2780523633', '2910855215', '38774213', '2780655333', '2776111823', '26291073', '2909396454', '2777953396', '2778944361', '150194340', '2780717550', '2776890026', '195092306', '2778596745', '2910321686', '2780192938', '123336316', '98722961', '2910206990', '511355011', '2777341207', '2911219547', '126408429', '2909598931', '81977670', '2909991231', '85675897', '2777617796', '2910406661', '2779483572', '147490202', '2910357638', '2780106736', '2909380268', '2910283248', '2908572884', '2777350553', '175760724', '2779852692', '2779234561']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['Body mass index', 'Food poisoning', 'Wasting', 'Economic policy', 'Inbreeding', 'Special diet', 'Trade agreement', 'Food labelling', 'Regular diet', 'Clinical trial', 'Vitamin D intake', 'Food policy', 'Sustainable management', 'Agricultural education', 'New Economic Policy', 'Generation R', 'Fertilisation', 'Chlorine', 'Pregnancy 2', 'Low residue diet', 'Generation', 'Natural resource management', 'Theileriasis', 'Prune belly syndrome', 'African swine fever virus', 'Severe malnutrition', 'Dioscoreales', 'Modified atmosphere', 'Residual feed intake', 'Stunted growth', 'Labelling', 'Low body mass index', 'Soil fertility', 'Weaning', 'Theileria', 'Ex vivo', 'BMI - Body mass index', 'Nail patella syndrome', 'Dioscorea', 'Gene expression', 'Hypoallergenic', 'Nutrition Education', 'Deficit irrigation', 'Micronutrient deficiency', 'Nutrition care', 'Diet-induced obese', 'Product market', 'Phylogenetic diversity', 'Nutritional care', 'Obesity', 'Sustainable land management', 'Welfare program', 'Soil health', 'Severe Acute Malnutrition', 'Genetic diversity', 'Fresh Tissue', 'Soil management', 'Health effect', 'Pre pregnancy', 'Dementia', 'Food spoilage', 'During feed', 'Cholecalciferol', 'African swine fever', 'Economics policy', 'Poor nutrition', 'Product marketing', 'Crop rotation', 'Melon', 'Pregnancy']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SDG_11</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>['2776300232', '2781077476', '2778073708', '2778944020', '2779369318', '203404855', '2781440851', '2779236963', '58276294', '2779892437', '2776489436', '22212356', '2779507241', '2777874752', '196187386', '2910395587', '2776386368', '202889954', '178021490', '2780656496', '2778203884', '2776774022', '91649852', '2780018693', '2781448223', '7879346', '2778896325', '2777867213', '522453465', '2779154964', '2779372316', '18483071', '519458232', '2776576667', '42045870', '2776018353', '175668461', '555944384', '2781194246', '2781451986', '2781063802', '95389739', '2780210587', '2780903623', '81307892', '411171', '108115952', '206182792', '2910524034', '96756911', '2779679713', '37680443', '147176958', '2778304562', '2777275194', '42222113', '152781226', '2778222686', '2909294104', '130367717', '2910252045', '2780524430', '129603779', '2780642392', '137270730', '2781051360', '2777638134', '174577910', '533363959', '2775953033', '2779422429', '80502414', '2781101838', '2777788812', '62908951', '2780302720', '2780132705', '198428699', '2776825979', '2776508417', '2776061582', '196313609', '168110828', '185656870', '521259446', '2776743756', '129216166', '2779240695', '200070095', '2777463520', '2777663346', '162446236', '109157449', '43126263', '2779567914', '161840515', '2780248506', '4590074', '70673446', '542948173', '179933525', '65059942', '189807693', '47654990', '2778170267', '2776985863', '2779319121', '2780290438', '105776082', '80055088', '2777113093', '134387633', '152068911', '2778343834', '2777305159', '2776432587', '2776497017', '2775987171', '2778679906', '53143962', '2781098347', '75795011', '6514731', '55958113', '61703769', '120144228', '179428456', '88732821', '121850381', '2780743171', '2779126505', '2778844933', '2908581758', '535291247', '2778531465', '2777434770', '24890656', '558565934', '2777579922', '2780886216', '2780805606', '19165224', '71839028', '2781143826', '2780000280', '105297191', '77352025', '518914266', '2779781407', '198766705', '2778788726', '144543869', '533584247', '158049464', '27017288', '54726253', '2778765059', '13184196', '2779534744', '160159729', '554144382', '2777932401', '157150851', '2910645917', '2779449393', '86811826', '78390623', '192360978', '67203356', '2780188654', '139997677', '534859617', '2777534865', '162127614', '151915780', '2779128587', '535899295', '134512083', '2780811172', '93371752', '2777068528', '174378899', '153823671', '107245137', '2776614217', '2780155792', '2777800518', '13951911', '2778099469', '2776777543', '2781119000', '2778674798', '2781323617', '2776809989', '70135194', '2778307483', '2777060688', '2780054715', '26834231', '97053079', '84703498', '85502023', '2910447950', '152754458', '2780784464', '2780039695', '2777257828', '2780147423', '10118631', '168703024', '2779548549', '2909682003', '43472768', '2778437332', '170154142', '92025527', '2781180020', '2777301445', '75779659', '2779016933', '2908647359', '2909261609', '2777087718', '2781233791', '19185018', '94128814', '2549261', '2779833838', '1631582', '2778348292', '2779442796', '79416576', '2777420705', '98528937', '118817725', '2776814445', '202746551', '83854009', '2909838491', '39853841', '190714865', '154108245', '2777853934', '2775859345', '2779192218', '2776323365', '2779707719', '66098623', '60075419', '556340858', '2778226110', '2779888377', '2778330403', '153606108', '507571656', '2908658969', '2781115785', '2781153986', '2910974233', '2778379900', '2776732289', '2909978109', '313442', '67805463', '59742305', '2777412237', '150486481', '181588539', '2909452073', '2777152325', '2909555395', '135121143', '2778289140', '187109078', '2778444957', '139450603', '2780400498', '125209513', '145985676', '176165272', '2776027161', '184603391', '4238864', '2909603817', '2779529814', '2778512005', '125109622', '2779676996', '89505729', '2776931063', '2780849931', '2780957641', '2779589656', '10187730', '2778880830', '87801611', '2779980673', '25197100', '2778924504', '2781462389', '2778554111', '15708023', '2777790407', '2780858551', '205059728', '51575053', '2777856039', '2909426805', '2776720842', '2780884937', '2778906150', '531593650', '2910577671', '157181609', '2778711553', '2776280689', '18533594', '2778215892', '153683151', '135628077', '10708705', '2910740281', '2777944934', '2777747429', '192126672', '113145756', '19417346', '2778682666', '2779979769', '2779578543', '2780028911', '184978287', '60671577', '2780015235', '71760877', '94602187', '2910721061', '2910182162', '109717640', '2779220109', '2780978496', '2778904306', '199491958', '71043370', '16310917', '62555980', '198211336', '160487506', '2777690665', '2777084153', '2776045127', '487182', '522562087', '2780210451', '2778258037', '108865711', '2778166243', '2777939785', '2779910686', '2778632908', '30407753', '2776114235', '149923435', '2910321540', '2780771206', '2778289769', '523173360', '2780871342', '2780943443', '2781328080', '2779331490', '2777397581', '16160715', '2780933944', '2780048828', '183195422', '205300905', '71197132', '20625102', '2776668771', '74294582', '82685317', '2909365296', '79841651', '87616379', '90327742', '112788895', '2777543776', '2780781376', '54956558', '2780840815', '137403100', '2780086982', '35219183', '512170562', '2776044436', '2776878354', '2909984675', '68643176', '2775905063', '71343576', '2780310989', '39014021', '171710264', '89862778', '2911003279', '2776941537', '2776118319', '2910093468', '2778416130', '2780304933', '2776001114', '24992206', '2909338199', '142932270', '504623915', '2777891301', '2777384549', '19275194', '2777855027', '2777212017', '184568831', '20664614', '2908558976', '2775838644', '2779184092', '164913051', '2781190202', '86532276', '2776547389', '2778152846', '2779265402', '185554395', '168630323', '2777075199', '2775923278', '140816417', '2780433478', '2779611286', '70970002', '152192407', '509933004', '2780997931', '83931994', '82834280', '22590252', '151043444', '129047720', '52121051', '2780434240', '103189561', '207141826', '29944414', '2780620191', '151873908', '110269972', '514689293', '195092306', '76344452', '29595303', '2909715940', '93907247', '122341333', '167290972', '2775835988', '139838865', '46890581', '2776648845', '536315585', '118519418', '70789860', '156945495', '141108527', '159032367', '45012715', '109332788', '39323472', '107993555', '76775654', '141392084', '2780481019', '31858485', '33441834', '519580073', '2781261322', '66251956', '179056299', '2778448659', '99484651', '182358397', '2779470537', '147446459', '49545453', '2776325102', '2780300654', '2776114971', '2779973342', '141321718', '2781175455', '112950240', '104304963', '195251586', '2778647138', '64004221', '158739034', '151807755', '2778066700', '2780836893', '110069353', '2776407761', '2780035574', '16678853', '545464746', '183373512', '2777812597', '2779821363', '2778537189', '2776506782', '172614296', '17206440', '2777735972', '2779387731', '107053488', '2777071753', '76155785', '162462552', '48777230', '5455396', '2778625738', '46312422', '2778924419', '501299471', '7576483', '152232337', '520944541', '38976095', '94625758', '4792198', '2779548288', '101351245', '2777162435', '2778495208', '2777958785', '57097009', '2777404476', '2776202055', '521449643', '2781469121', '31168002', '39118121', '2776757670', '2780648208', '2778506879', '2776100843', '2779322298', '86565373', '2776692393', '2779534186', '535247945', '205507351', '45011657', '2780237831', '2778744706', '98940541', '2779367526', '190475667', '100363876', '166957645', '2777570903', '60229501', '192465680', '143389717', '2776834102', '2780661145', '190974861', '2776129789', '2779015675', '199540501', '2776121688', '134698397', '2910057652', '24351657', '136591941', '2910945715', '2780934355', '115051666', '96455323', '2780037060', '2776619914', '3090818', '12429862', '2908570603', '2779204379', '2778192778', '75007070', '2780750338', '79420006', '2777362114', '203299862', '2910432382', '116822448', '34355311', '75058329', '17744445', '159607974', '2910590855', '163428354', '2778583747', '2777228553', '2910765183', '155632674', '76251814', '2779679337', '98375054', '2776310101', '2779794841', '2775896111', '31555180', '83091593', '176205827', '2779622097', '2909330249', '195358072', '2780039742', '6405874', '2776689826', '511192102', '200925200', '2780153333', '2780612607', '190831278', '2778611045', '2778240362', '179454799', '101336846', '70036468', '2777103469', '130858481', '2778021871', '2779948615', '2909047701', '133437341', '2776693075', '146419311', '2908779215', '126182222', '2908584064', '140096630', '2780545837', '2780401329', '2781428518', '144348335', '158007255', '90296322', '91724965', '178405089', '523419034', '2780185008', '2778309149', '557252395', '202702835', '514928085', '199033989', '17005505', '185671874', '2781188222', '540269800', '2777952150', '2778407992', '2779850767', '93377909', '533735693', '2780136137', '20429076', '2781283787', '2776136241', '96089941', '2777408017', '2777268604', '2780521143', '17084088', '2778587875', '111943024', '2777967642', '2779593531', '190253527', '158071213', '203458295', '127145964', '2779382934', '2781337099', '2776873955', '2776371253', '29598333', '2780399737', '2775910013', '2779725038', '2778603423', '2909564673', '537935012', '2777060902', '2780124536', '2909124907', '126053111', '79581498', '2909959731', '138660444', '2778206830', '100339178', '2776974504', '48580701', '148383697', '2910001868', '141354745', '2776663400', '162044005', '2780105985', '2779560216', '2909225797', '33285361', '2778580826', '126408429', '129404179', '41376638', '2778747861', '541528975', '122156500', '128570904', '2778165684', '2780032489', '137471899', '105636585', '526067405', '60943498', '199733313', '2909332087', '138921699', '2776724182', '2777550018', '2777636896', '102017705', '2778351437', '511693568', '2908983889', '151405878', '102690226', '2779838221', '547727832', '51413319', '120177712', '87210426', '115225779', '2777933884', '28539199', '1511901', '49876356', '45262634', '182377489', '122302079', '1813318', '111141941', '2780948093', '2781007418', '2776109892', '25906391', '2778368647', '2779286702', '153646914', '2776526686', '108257041', '94915269', '162084716', '117110933', '2780166988', '196927870', '26623033', '2779095084', '2779276850', '69828861', '121658072', '2780512908', '47798520', '46295352', '2777564511', '178001088', '89836073', '2775991983', '537397655', '2780278329', '2778680390', '2778501065', '104151175', '2780831121', '2779808665', '2777130432', '2909982710', '2780165032', '2780591428', '2781396848', '122783720', '181290262', '186633575', '149039472', '520049643', '19096712', '2779888511', '541743481', '2781039245', '120417685', '157085824', '2776862752', '115038398', '76458491', '2777881528', '189764856', '156996364', '2777380792', '2777341207', '2777388718', '179708759', '66938386', '2777175953', '2780936489', '2781112155', '78175975', '2777404366', '2780400262', '2777805627', '49304495', '2910195350', '2777861868', '2777773042', '2910478969', '2780049196', '34863106', '29760336', '2780723490', '2776756561', '2781123702', '82447923', '2779610281', '2777426340', '2776786559', '116081451', '2781353297', '122445209', '36375443', '190839683', '2776682078', '2909248125', '2777137744', '2778407155', '21955270', '532444271', '2780974818', '59361812', '115314567', '24845683', '144468803', '2776702403', '87427459', '2776867882', '29852176', '2910658325', '9664280', '2777819797', '2778399496', '2778664945', '189261614', '15970080', '2777408600', '145788326', '186229450', '2777908580', '93419950', '539828613', '86085837', '40319758', '957061', '2910149960', '101765175', '91021667', '143700406', '136325355', '2777371558', '2778825863', '107179328', '2777006239', '110158866', '13553968', '2780746032', '2779509574', '202372285', '2781036520', '186764553', '124363303', '2776618947', '2779449021', '1975866', '2779715073', '2778842010', '99546132', '2780113678', '2776930917', '2780273121', '2777080691', '538383745', '73484699', '150513403', '2779488668', '92545706', '47796450', '2909151537', '2778473898', '45051096', '39077098', '2779434045', '61470247', '2776150259', '2776217029', '2779872411', '66862320', '2777887517', '112124176', '201662476', '198394728', '190414344', '88743934', '7131667', '24027999', '167272206', '89648432', '2777966427', '52069626', '7991579', '201960208', '106982986', '139228662', '2781360730', '142600807', '2909933726', '83874454', '2778652117', '510578393', '2777874013', '88764893', '2776443958', '2781243023', '74819829', '539955404', '2779462738', '178895491', '2776568704', '2778787886', '2909765031', '2780492012', '91802169', '2776906386', '2776358401', '2776952685', '2778444522', '6385141', '2779152076', '143392562', '2775867413', '171675602', '69752020', '184386139', '202976495', '160331591', '115901376', '2776431611', '2778207038', '2909120509', '198104137', '129727815', '148803439', '90508534', '2777294933', '132943942', '197487636', '143845886', '146847282', '542344755', '168500671', '2777427512', '2778259003', '196687647', '28519872', '88477975', '2780783439', '519517224', '2779028185', '181536285', '2909148179', '555826173', '2775944049', '2917558', '123253695', '2775889553', '83260615', '2781065775', '2780822005', '184047640', '2781409727', '18065371', '182664415', '2780499841', '193415008', '111852164', '144024400', '2779533120', '513891491', '2776081408', '2780918802', '173560066']</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['100339178', '100363876', '10118631', '101336846', '101351245', '101765175', '10187730', '102017705', '102690226', '103189561', '104151175', '104304963', '105297191', '105636585', '105776082', '106982986', '107053488', '10708705', '107179328', '107245137', '107993555', '108115952', '108257041', '108865711', '109157449', '109332788', '109717640', '110069353', '110158866', '110269972', '111141941', '111852164', '111943024', '112124176', '112788895', '112950240', '113145756', '115038398', '115051666', '115225779', '115314567', '115901376', '116081451', '116822448', '117110933', '118519418', '118817725', '120144228', '120177712', '120417685', '121658072', '122156500', '122302079', '122341333', '122445209', '122783720', '123253695', '124363303', '125109622', '125209513', '126053111', '126182222', '126408429', '128570904', '129047720', '129216166', '129404179', '129603779', '129727815', '130367717', '130858481', '13184196', '132943942', '133437341', '134387633', '134512083', '134698397', '135121143', '13553968', '135628077', '136325355', '136591941', '137270730', '137403100', '137471899', '138660444', '138921699', '139228662', '139450603', '13951911', '139838865', '139997677', '140096630', '140816417', '141108527', '141321718', '141354745', '141392084', '142600807', '142932270', '143389717', '143392562', '143700406', '143845886', '144024400', '144348335', '144468803', '144543869', '145788326', '145985676', '146419311', '146847282', '147176958', '147446459', '148383697', '148803439', '149923435', '150486481', '150513403', '151043444', '1511901', '151807755', '151873908', '151915780', '152068911', '152192407', '152232337', '152754458', '152781226', '153606108', '153646914', '153683151', '153823671', '154108245', '155632674', '156945495', '156996364', '15708023', '157085824', '157150851', '157181609', '158007255', '158049464', '158071213', '159032367', '159607974', '15970080', '160159729', '160331591', '160487506', '16160715', '161840515', '162044005', '162084716', '162127614', '162446236', '162462552', '16310917', '1631582', '163428354', '164913051', '16678853', '166957645', '167272206', '167290972', '168110828', '168500671', '168630323', '168703024', '17005505', '170154142', '17084088', '171675602', '171710264', '17206440', '172614296', '173560066', '174378899', '174577910', '176165272', '176205827', '17744445', '178001088', '178021490', '178405089', '178895491', '179056299', '179428456', '179454799', '179708759', '179933525', '18065371', '181290262', '1813318', '181536285', '181588539', '182358397', '182377489', '182664415', '183195422', '183373512', '184047640', '184386139', '184568831', '184603391', '18483071', '18533594', '185554395', '185656870', '185671874', '186229450', '186633575', '186764553', '187109078', '189261614', '189764856', '189807693', '190253527', '190414344', '190475667', '190714865', '190831278', '190839683', '19096712', '190974861', '19165224', '19185018', '192126672', '192360978', '192465680', '19275194', '193415008', '19417346', '195092306', '195251586', '195358072', '196187386', '196313609', '196687647', '196927870', '197487636', '1975866', '198104137', '198211336', '198394728', '198428699', '198766705', '199033989', '199540501', '199733313', '200070095', '200925200', '201662476', '201960208', '202372285', '202702835', '202746551', '202889954', '203299862', '203404855', '203458295', '20429076', '205059728', '205300905', '205507351', '206182792', '20625102', '20664614', '207141826', '21955270', '22212356', '22590252', '24027999', '24351657', '24845683', '24890656', '24992206', '25197100', '2549261', '25906391', '26623033', '26834231', '27017288', '2775835988', '2775838644', '2775859345', '2775867413', '2775889553', '2775905063', '2775910013', '2775923278', '2775944049', '2775953033', '2775987171', '2775991983', '2776001114', '2776018353', '2776027161', '2776044436', '2776045127', '2776061582', '2776081408', '2776100843', '2776109892', '2776114235', '2776118319', '2776121688', '2776129789', '2776136241', '2776150259', '2776202055', '2776217029', '2776280689', '2776300232', '2776310101', '2776323365', '2776358401', '2776371253', '2776386368', '2776407761', '2776431611', '2776432587', '2776443958', '2776489436', '2776497017', '2776506782', '2776508417', '2776526686', '2776547389', '2776568704', '2776576667', '2776614217', '2776618947', '2776648845', '2776663400', '2776668771', '2776682078', '2776689826', '2776692393', '2776693075', '2776702403', '2776720842', '2776724182', '2776732289', '2776756561', '2776757670', '2776774022', '2776777543', '2776786559', '2776809989', '2776814445', '2776825979', '2776834102', '2776862752', '2776867882', '2776873955', '2776878354', '2776906386', '2776930917', '2776931063', '2776941537', '2776952685', '2776974504', '2776985863', '2777006239', '2777060688', '2777060902', '2777068528', '2777071753', '2777075199', '2777080691', '2777084153', '2777087718', '2777103469', '2777113093', '2777130432', '2777137744', '2777152325', '2777162435', '2777175953', '2777212017', '2777228553', '2777257828', '2777268604', '2777275194', '2777294933', '2777301445', '2777305159', '2777341207', '2777362114', '2777371558', '2777380792', '2777384549', '2777388718', '2777397581', '2777404366', '2777404476', '2777408017', '2777408600', '2777412237', '2777420705', '2777426340', '2777427512', '2777434770', '2777463520', '2777534865', '2777543776', '2777550018', '2777564511', '2777570903', '2777579922', '2777636896', '2777690665', '2777735972', '2777747429', '2777773042', '2777788812', '2777790407', '2777800518', '2777805627', '2777812597', '2777819797', '2777853934', '2777855027', '2777856039', '2777861868', '2777867213', '2777874013', '2777874752', '2777881528', '2777887517', '2777891301', '2777908580', '2777932401', '2777933884', '2777939785', '2777944934', '2777952150', '2777958785', '2777966427', '2777967642', '2778021871', '2778066700', '2778073708', '2778099469', '2778152846', '2778165684', '2778166243', '2778170267', '2778192778', '2778203884', '2778206830', '2778207038', '2778215892', '2778222686', '2778226110', '2778240362', '2778258037', '2778259003', '2778289140', '2778289769', '2778304562', '2778307483', '2778309149', '2778330403', '2778343834', '2778348292', '2778351437', '2778379900', '2778399496', '2778407155', '2778407992', '2778416130', '2778437332', '2778444522', '2778444957', '2778448659', '2778473898', '2778495208', '2778501065', '2778506879', '2778512005', '2778531465', '2778537189', '2778554111', '2778580826', '2778583747', '2778587875', '2778603423', '2778611045', '2778625738', '2778632908', '2778647138', '2778652117', '2778664945', '2778674798', '2778679906', '2778680390', '2778682666', '2778711553', '2778744706', '2778747861', '2778765059', '2778787886', '2778788726', '2778825863', '2778844933', '2778880830', '2778896325', '2778904306', '2778906150', '2778924419', '2778924504', '2778944020', '2779015675', '2779016933', '2779028185', '2779095084', '2779126505', '2779128587', '2779152076', '2779154964', '2779184092', '2779192218', '2779204379', '2779220109', '2779236963', '2779240695', '2779265402', '2779276850', '2779286702', '2779319121', '2779322298', '2779331490', '2779367526', '2779369318', '2779372316', '2779382934', '2779387731', '2779422429', '2779434045', '2779442796', '2779449021', '2779449393', '2779462738', '2779470537', '2779488668', '2779509574', '2779529814', '2779533120', '2779534186', '2779534744', '2779548288', '2779548549', '2779560216', '2779567914', '2779578543', '2779589656', '2779593531', '2779610281', '2779611286', '2779622097', '2779676996', '2779679337', '2779679713', '2779707719', '2779715073', '2779725038', '2779781407', '2779794841', '2779808665', '2779821363', '2779833838', '2779838221', '2779850767', '2779872411', '2779888377', '2779888511', '2779892437', '2779910686', '2779948615', '2779973342', '2779979769', '2779980673', '2780000280', '2780015235', '2780018693', '2780028911', '2780032489', '2780037060', '2780039695', '2780039742', '2780048828', '2780049196', '2780054715', '2780086982', '2780105985', '2780113678', '2780124536', '2780132705', '2780136137', '2780147423', '2780153333', '2780155792', '2780166988', '2780185008', '2780188654', '2780210587', '2780237831', '2780248506', '2780273121', '2780278329', '2780290438', '2780300654', '2780302720', '2780304933', '2780310989', '2780399737', '2780400262', '2780400498', '2780401329', '2780433478', '2780434240', '2780481019', '2780492012', '2780499841', '2780512908', '2780521143', '2780524430', '2780545837', '2780591428', '2780612607', '2780620191', '2780642392', '2780648208', '2780656496', '2780661145', '2780723490', '2780743171', '2780746032', '2780750338', '2780781376', '2780783439', '2780784464', '2780805606', '2780811172', '2780822005', '2780831121', '2780836893', '2780840815', '2780849931', '2780858551', '2780871342', '2780884937', '2780886216', '2780903623', '2780918802', '2780933944', '2780934355', '2780943443', '2780948093', '2780957641', '2780974818', '2780978496', '2780997931', '2781007418', '2781036520', '2781039245', '2781051360', '2781063802', '2781065775', '2781077476', '2781098347', '2781101838', '2781112155', '2781115785', '2781119000', '2781123702', '2781143826', '2781153986', '2781180020', '2781188222', '2781190202', '2781194246', '2781233791', '2781243023', '2781261322', '2781283787', '2781323617', '2781328080', '2781337099', '2781353297', '2781360730', '2781396848', '2781409727', '2781428518', '2781440851', '2781448223', '2781451986', '2781462389', '2781469121', '28519872', '28539199', '2908558976', '2908570603', '2908581758', '2908584064', '2908647359', '2908658969', '2908779215', '2908983889', '2909047701', '2909120509', '2909124907', '2909148179', '2909151537', '2909225797', '2909248125', '2909261609', '2909294104', '2909330249', '2909332087', '2909338199', '2909365296', '2909426805', '2909452073', '2909555395', '2909564673', '2909603817', '2909682003', '2909715940', '2909765031', '2909838491', '2909933726', '2909959731', '2909978109', '2909982710', '2909984675', '2910001868', '2910057652', '2910093468', '2910149960', '2910182162', '2910195350', '2910252045', '2910321540', '2910395587', '2910432382', '2910447950', '2910478969', '2910524034', '2910577671', '2910590855', '2910645917', '2910658325', '2910721061', '2910740281', '2910765183', '2910945715', '2910974233', '2911003279', '2917558', '29595303', '29598333', '29760336', '29852176', '29944414', '30407753', '3090818', '31168002', '313442', '31555180', '31858485', '33285361', '33441834', '34355311', '34863106', '35219183', '36375443', '37680443', '38976095', '39014021', '39077098', '39118121', '39323472', '39853841', '40319758', '411171', '41376638', '42045870', '42222113', '4238864', '43126263', '43472768', '45011657', '45012715', '45051096', '45262634', '4590074', '46295352', '46312422', '46890581', '47654990', '47796450', '47798520', '4792198', '48580701', '487182', '48777230', '49304495', '49545453', '49876356', '501299471', '504623915', '507571656', '509933004', '510578393', '511192102', '511693568', '512170562', '513891491', '51413319', '514689293', '514928085', '51575053', '518914266', '519458232', '519517224', '519580073', '520049643', '52069626', '520944541', '52121051', '521259446', '521449643', '522453465', '522562087', '523173360', '523419034', '526067405', '53143962', '531593650', '532444271', '533363959', '533735693', '534859617', '535247945', '535291247', '535899295', '536315585', '537397655', '537935012', '538383745', '539828613', '539955404', '540269800', '541528975', '541743481', '542344755', '542948173', '545464746', '5455396', '54726253', '547727832', '54956558', '554144382', '555826173', '555944384', '557252395', '558565934', '55958113', '57097009', '58276294', '59361812', '59742305', '60075419', '60229501', '60671577', '60943498', '61470247', '61703769', '62555980', '62908951', '6385141', '64004221', '6405874', '65059942', '6514731', '66098623', '66251956', '66862320', '66938386', '67203356', '67805463', '68643176', '69752020', '69828861', '70036468', '70135194', '70673446', '70789860', '70970002', '71043370', '71197132', '7131667', '71343576', '71760877', '71839028', '73484699', '74294582', '74819829', '75007070', '75058329', '7576483', '75779659', '75795011', '76155785', '76251814', '76344452', '76458491', '76775654', '77352025', '78175975', '78390623', '7879346', '79416576', '79420006', '79581498', '79841651', '7991579', '80055088', '80502414', '81307892', '82447923', '82685317', '82834280', '83091593', '83260615', '83854009', '83874454', '83931994', '84703498', '85502023', '86085837', '86532276', '86565373', '86811826', '87210426', '87427459', '87616379', '87801611', '88477975', '88732821', '88743934', '88764893', '89505729', '89648432', '89836073', '89862778', '90296322', '90327742', '90508534', '91021667', '91649852', '91724965', '91802169', '92025527', '92545706', '93371752', '93377909', '93419950', '93907247', '94128814', '94625758', '94915269', '95389739', '957061', '96089941', '96455323', '9664280', '96756911', '97053079', '98375054', '98528937', '98940541', '99484651', '99546132']</t>
-        </is>
+          <t>SDG_3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24655</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24624</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['14397066', '160911440', '2779886867', '2780859682', '2910046756', '39300077', '2778438165', '2909809890', '149627874', '108516343', '93597524', '2781252958', '66135807', '141087196']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['2776114971', '158739034', '127145964', '533584247', '2776325102', '2780035574', '94602187', '2780771206', '121850381', '12429862', '199491958', '2775896111', '2778842010', '2779507241', '184978287', '2778368647', '149039472', '2776743756', '2780165032', '2777638134', '202976495', '2780210451', '151405878', '175668461', '2777663346', '2780936489', '2776619914', '556340858', '2781175455']</t>
+          <t>['μ-opioid receptor', 'Social exclusion', 'Opioid receptor', 'Bacteriophage Qβ', 'Homocyst(e)ine', 'Breathing', 'NAD(P)H dehydrogenase', 'Balance ability', 'Sensory processing', 'Otorhinolaryngology', 'g-factor', 'NAD(P)H oxidase', 'Gq alpha subunit', 'δ-opioid receptor']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['2910956745', '2780700307', '133462117', '26291073', '117009084', '2776960227', '177766495', '22467394', '2780931059', '113807197', '2779987062', '2777410049', '150194340', '2776640376', '2780120631', '2776695260', '2780771206', '2779909984', '2909764464', '2909902889', '505241676', '79416576', '28718268', '2780822005', '47122089', '2778368647', '508106653', '56995899', '10708705', '2776165558', '2779132545', '127634017', '111852164', '112299071', '2909732843', '2780371127', '2780732545', '2777161012', '203731517', '44403221', '196697905', '516717267', '162466561', '37413474', '135935922']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['Neonatal Deaths', 'Independent living', 'Data collection', 'Ex vivo', 'Facility management', 'Knowledge transfer', 'AP Biology', 'Multidisciplinary approach', 'Child benefit', 'Health education', 'Mussel', 'Self-concept', 'Gene expression', 'Dieldrin', 'Lindane', 'Maximum Contaminant Level', 'Safeguard', 'Mytilus', 'Postneonatal death', 'Water-related Diseases', 'Chlorine', 'African studies', 'Needs assessment', 'Particulate pollution', 'Total fertility rate', 'Urban area', 'Ozone', 'Focus group', 'Africana studies', 'Emission standard', 'Person-centred planning', 'h-vector', 'Handover', 'Infant mortality', 'Early Neonatal Mortality', 'Tetrachloroethylene', 'Response to intervention', 'Institutional research', 'n-vector', 'Industrial wastewater treatment', 'Input/output', 'Food safety', 'Input/output (C++)', 'Liberal arts education', 'Bivector']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SDG_12</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>['7591567', '2908940802', '2776908094', '198628655', '92244383', '64548403', '2779507241', '29985473', '82753439', '536799390', '2742236', '2781211949', '58640550', '2776791387', '32571094', '96966460', '2779046794', '2780797831', '175349315', '560292', '2781400479', '160565873', '182566', '2779570065', '69991583', '59659247', '2776422217', '2775895549', '2777121799', '143020374', '2779212423', '21790881', '30658544', '2779485152', '81751973', '2911027326', '62960913', '2910096992', '2776649597', '2776172590', '2779370158', '2777547266', '2780034618', '2780789714', '141261163', '2776671222', '181697308', '177738377', '2777540987', '2779451145', '2910206359', '164794517', '2777569206', '20533482', '2778706031', '2778578824', '154261466', '12839126', '174634509', '2776192393', '169791255', '2775989791', '2910235963', '2778555391', '36259021', '176239081', '19994219', '9121194', '2779816311', '67203356', '2777916278', '2776822698', '185903656', '2780919596', '2779044675', '2777856171', '107694188', '188284582', '76022803', '2778385950', '21338462', '176049440', '197656079', '175700187', '89702864', '2776633946', '37965861', '105306849', '39143791', '2781041046', '2778640053', '204217086', '59158912', '201903717', '2776253312', '39665741', '2777074724', '2780757305', '2775953691', '2778192726', '2780342986', '552854447', '2908544300', '12858262', '88182573', '2776192439', '2780261490', '2778153913', '2777499484', '82320026', '70746108', '16284718', '45292766', '2781385186', '2779676326', '2779764123', '2779167034', '2910842875', '144992956', '74814400', '169824061', '2780680069', '2779242930', '97615858', '2779301550', '2778714813', '2776092195', '18750672', '53657456', '2778126675', '2781051052', '29140674', '201958364', '2777930111', '161097018', '2776441814', '2776985865', '2778804209', '31972630', '2909633619', '27983359', '162205778', '18975541', '46312889', '108713360', '2779227428', '2778271084', '199491958', '2910251023', '79119010', '2780385446', '2780210451', '2779585013', '2778851808', '2779719771', '77171524', '2776815640', '128712008', '181199279', '25796384', '65545243', '31487907', '206588197', '537773303', '104002121', '2778555274', '131652615', '2776182711', '38070178', '509746633', '2910237699', '200630231', '205537798', '49802076', '2781010802', '41826821', '3963096', '528261146', '2777612826', '502701156', '110240116', '2777276756', '21553396', '176289848', '103474955', '52121051', '49284225', '548081761', '54016721', '551662922', '2781156216', '162416716', '2910476649', '2778706760', '2779151549', '2776936074', '2780473208', '2910656936', '2909963963', '2908744621', '194304873', '2780556867', '12718152', '503285160', '116401354', '88463166', '191555408', '2775886207', '2780569836', '2778746772', '2780848231', '183682340', '2781175455', '2779958842', '2781420532', '2777637287', '2778242978', '2781331233', '2777908453', '2777798390', '2779173918', '2776830933', '198571295', '2776512361', '2776710992', '2910127915', '2777730692', '2908895405', '111643386', '183287310', '2779963790', '2780564743', '2778213206', '124062932', '2781219749', '2777174110', '2780660359', '43073704', '2781469121', '2776467361', '2777191596', '2911193860', '2778380070', '2779436609', '150839157', '2909913919', '2776843555', '2779023109', '2777339832', '95810393', '187949908', '2778157034', '2777566824', '7083945', '141371185', '2779299574', '517489662', '190362163', '2778426384', '38264464', '47737302', '30795975', '2780739461', '2776667712', '28613373', '2909541772', '2778509883', '2778844797', '2778291008', '35861506', '76893819', '89690796', '2778919316', '73916439', '204431084', '189708586', '2775893736', '99578197', '187460315', '2779491486', '2777867642', '2723826', '122173349', '2781106820', '2779048638', '2909402770', '2777826014', '2776125615', '2777323119', '2910337999', '2778202820', '2776314458', '2778733479', '2780252369', '2779027077', '157351795', '2779872728', '88959737', '23213167', '2778011512', '44877443', '156342284', '2781198434', '79795727', '2781419769', '170405466', '39177556', '2776208129', '193254401', '2777539864', '2778206830', '192045728', '173366509', '69029970', '33199155', '2780668729', '2778323372', '171988757', '2781260606', '2910018721', '197685441', '2778580826', '186673887', '2779544189', '117185709', '22507642', '2779711381', '206139338', '2778137661', '2910338039', '5035944', '21177189', '2777707892', '2779229598', '2780748813', '77136645', '146778888', '2777298481', '130497676', '2778076428', '2908977417', '55627697', '62683194', '2780001536', '189123395', '2908895416', '2777167514', '52637938', '2776943663', '2777448596', '2908975095', '192639820', '203663800', '166566181', '121112783', '196781063', '62114133', '2777686624', '30543370', '2779407671', '2779293432', '2776002898', '2779635666', '2778552509', '198118469', '147490202', '80646779', '159821036', '190618007', '2908818896', '2777382958', '2777341207', '2777388718', '44104985', '538221381', '2778917124', '2779035916', '2778128610', '94866938', '147598955', '2909827026', '2779539549', '6907630', '2776648574', '2777326885', '137851953', '2775973758', '54276265', '28328180', '2779190830', '170828538', '2779851234', '2778035492', '32198211', '123703457', '2776618947', '58479451', '2781426840', '2781164615', '24649204', '2778353377', '2780518120', '131046424', '116197896', '521786372', '204983608', '15098985', '28864654', '2908890554', '2776236083', '2909208472', '2776323388', '2778477904', '2776770324', '202132683', '196213036', '2778364132', '164495641', '2778252594', '2778091559', '30305156', '2776443958', '199310239', '2779726014', '49326732', '2776917082', '117009084', '2777480716', '47187476', '2780871101', '202976495', '2780663759', '2778734332', '167740415', '2777342055', '156328458', '38000114', '164822548', '127045886', '2778738845', '78285338', '141675481', '2776952539', '2776600559', '2775841215']</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['104002121', '107694188', '108713360', '110240116', '111643386', '116197896', '116401354', '117185709', '121112783', '122173349', '123703457', '124062932', '127045886', '12718152', '12839126', '12858262', '128712008', '130497676', '131652615', '141371185', '141675481', '144992956', '146778888', '147598955', '150839157', '154261466', '156328458', '156342284', '157351795', '159821036', '160565873', '161097018', '162205778', '162416716', '16284718', '164495641', '164822548', '167740415', '169791255', '169824061', '170405466', '170828538', '171988757', '173366509', '174634509', '175349315', '176049440', '176239081', '177738377', '181199279', '181697308', '182566', '183682340', '185903656', '186673887', '18750672', '187949908', '188284582', '189123395', '18975541', '190362163', '190618007', '191555408', '192045728', '193254401', '194304873', '196213036', '196781063', '197656079', '197685441', '198118469', '198571295', '198628655', '199310239', '19994219', '201958364', '202132683', '203663800', '204217086', '204431084', '20533482', '206139338', '206588197', '21177189', '21338462', '21553396', '22507642', '23213167', '24649204', '25796384', '2723826', '2775841215', '2775895549', '2775953691', '2775973758', '2775989791', '2776002898', '2776092195', '2776172590', '2776182711', '2776192393', '2776192439', '2776236083', '2776253312', '2776314458', '2776323388', '2776441814', '2776443958', '2776467361', '2776600559', '2776618947', '2776633946', '2776648574', '2776649597', '2776671222', '2776710992', '2776770324', '2776791387', '2776815640', '2776822698', '2776843555', '2776908094', '2776917082', '2776936074', '2776952539', '2776985865', '2777074724', '2777121799', '2777167514', '2777174110', '2777191596', '2777276756', '2777298481', '2777323119', '2777326885', '2777341207', '2777342055', '2777382958', '2777388718', '2777448596', '2777480716', '2777499484', '2777539864', '2777540987', '2777547266', '2777566824', '2777569206', '2777612826', '2777637287', '2777686624', '2777707892', '2777730692', '2777826014', '2777867642', '2777908453', '2777916278', '2777930111', '2778011512', '2778035492', '2778076428', '2778091559', '2778126675', '2778128610', '2778137661', '2778153913', '2778192726', '2778202820', '2778206830', '2778213206', '2778242978', '2778252594', '2778271084', '2778353377', '2778364132', '2778380070', '2778385950', '2778426384', '2778477904', '2778509883', '2778555274', '2778578824', '2778640053', '2778706031', '2778714813', '2778746772', '2778804209', '2778919316', '2779023109', '2779027077', '2779044675', '2779046794', '2779048638', '2779151549', '2779167034', '2779173918', '2779190830', '2779212423', '2779227428', '2779229598', '2779293432', '2779299574', '2779301550', '2779370158', '2779407671', '2779436609', '2779451145', '2779485152', '2779491486', '2779539549', '2779544189', '2779570065', '2779585013', '2779635666', '2779676326', '2779711381', '2779719771', '2779726014', '2779764123', '2779816311', '2779851234', '2779872728', '2779958842', '2779963790', '2780001536', '2780034618', '2780252369', '2780261490', '2780342986', '2780385446', '2780473208', '2780518120', '2780556867', '2780564743', '2780569836', '2780660359', '2780663759', '2780668729', '2780680069', '2780739461', '2780748813', '2780789714', '2780871101', '2780919596', '2781010802', '2781041046', '2781106820', '2781156216', '2781198434', '2781211949', '2781219749', '2781260606', '2781331233', '2781385186', '2781400479', '2781419769', '27983359', '28613373', '28864654', '2908544300', '2908744621', '2908818896', '2908890554', '2908895405', '2908895416', '2908940802', '2908975095', '2908977417', '2909208472', '2909402770', '2909541772', '2909633619', '2909827026', '2909913919', '2910018721', '2910096992', '2910127915', '2910206359', '2910235963', '2910251023', '2910337999', '2910476649', '2910656936', '2910842875', '2911027326', '2911193860', '29140674', '29985473', '30305156', '30543370', '30658544', '30795975', '31487907', '31972630', '32198211', '32571094', '33199155', '35861506', '36259021', '38000114', '38070178', '38264464', '39143791', '39177556', '3963096', '39665741', '41826821', '43073704', '45292766', '47187476', '47737302', '49284225', '49326732', '49802076', '503285160', '5035944', '517489662', '521786372', '52637938', '53657456', '538221381', '54016721', '54276265', '548081761', '551662922', '552854447', '55627697', '560292', '58640550', '59158912', '59659247', '62114133', '62683194', '62960913', '64548403', '65545243', '69029970', '6907630', '69991583', '70746108', '7083945', '74814400', '7591567', '76022803', '76893819', '77136645', '77171524', '78285338', '79795727', '80646779', '81751973', '82320026', '82753439', '88182573', '88463166', '88959737', '89690796', '9121194', '92244383', '94866938', '95810393', '96966460']</t>
-        </is>
+          <t>SDG_4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>273</v>
+      </c>
+      <c r="C5" t="n">
+        <v>265</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -497,25 +521,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['2778917124', '2776208129', '2910338039', '2780797831', '2781420532', '67203356', '2910237699', '187460315', '2778851808', '2776830933', '2781426840', '131046424', '2776125615', '2778706760', '202976495', '2909963963', '79119010', '58479451', '44877443', '176289848', '44104985', '536799390', '2778552509', '205537798', '200630231', '2781051052', '2781164615', '2781469121', '2778844797', '2778323372', '2778555391', '37965861', '2778291008', '117009084', '2775886207', '105306849', '2778157034', '2779507241', '2776512361', '21790881', '137851953', '141261163', '73916439', '2742236', '164794517', '2778738845', '537773303', '2781175455', '143020374', '52121051', '166566181', '2778580826', '528261146', '46312889', '2780848231', '192639820', '15098985', '89702864', '2777339832', '28328180', '2776667712', '97615858', '183287310', '2778733479', '2775893736', '2778734332', '2780210451', '502701156', '2776943663', '2779242930', '99578197', '204983608', '103474955', '2779035916', '147490202', '189708586', '199491958', '2777798390', '2777856171', '201903717', '175700187', '2780757305', '2776422217', '509746633']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['522453465', '55958113', '2781349114', '2776526686', '205545832', '2776934989', '2780438764', '521786372']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['Social research', 'Indigenous', 'Wage curve', 'Oppression', 'Young adult', 'Global justice', 'Youth unemployment', 'Waste collection']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SDG_13</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>['23069438', '93941228', '2779507241', '131980223', '146233495', '114203453', '18757010', '2777068471', '151406439', '96240277', '96966460', '143510601', '103215972', '2776780212', '2780797831', '143299363', '54464151', '2910057517', '20985327', '2779169777', '2780713269', '61562682', '2910459661', '2776703984', '521259446', '2779200991', '122629976', '69131732', '18629457', '62279395', '122424190', '83621551', '2780883738', '2778951896', '163379243', '30878456', '186966370', '20992447', '106199856', '2909373799', '535291247', '49999975', '2776349674', '50094484', '2780919918', '2777774347', '177707082', '2778976125', '2778106714', '2780656184', '63562587', '119288801', '205251833', '2780471494', '136856113', '149677717', '195853485', '2775938548', '37965861', '2780621122', '2909261609', '193945104', '39820584', '181060458', '97302686', '108107089', '2776929312', '125460053', '66295139', '141452985', '2779278563', '92546971', '155372631', '171547485', '112964050', '2780021526', '152798702', '76934896', '2777746431', '2776027161', '60757611', '2777586272', '545622115', '2779242930', '200479807', '74501621', '106935595', '196267783', '25022447', '156034889', '64396926', '2776573159', '134906952', '29141058', '13763315', '11308688', '2778822299', '530467964', '2908827874', '165479943', '2908869550', '100405246', '2780756839', '2779910436', '2909303214', '114990195', '189692780', '2777034083', '199491958', '2780210451', '2778851808', '127454912', '136020623', '19369268', '2908604550', '2775855162', '96793861', '183195422', '78091846', '537773303', '2780406490', '2780153765', '142619676', '2779994751', '2776044436', '501529594', '509746633', '16989226', '205537798', '2780899440', '126172416', '2777647863', '173651095', '190930322', '528261146', '2779547961', '2778145313', '96650669', '103474955', '54308172', '2779257452', '2778760939', '135558025', '196875640', '2776744078', '2778595733', '28475054', '163861444', '2776229149', '108352090', '89298926', '13468771', '17278756', '96941661', '2909067155', '139029146', '83516724', '39463204', '11039648', '2777401303', '2775984431', '6964187', '2781420532', '2781281996', '130047971', '2778856288', '2777798390', '168754636', '2776830933', '21405408', '83227832', '188818383', '559400886', '81820708', '2780789708', '108469399', '158984102', '44881016', '65748596', '38870921', '89295123', '2777006462', '120128738', '188364345', '187415303', '2776620235', '638126', '508106653', '2780223605', '86714428', '193436682', '524244815', '71756627', '2780750338', '6792957', '123961466', '203017698', '2909483067', '41873427', '174252726', '2779413794', '115343472', '94061648', '47737302', '111761213', '2780039742', '72319357', '73849760', '11693305', '2777351703', '2779553627', '2910882656', '186699998', '66337317', '87547467', '134097258', '47279414', '53603896', '2780723968', '76882436', '2910483091', '177229130', '126026641', '173253207', '1489048', '2776290281', '199390426', '169752599', '2776445388', '186816422', '99578197', '187460315', '181634566', '75633850', '189109488', '144199811', '2777994876', '42952880', '30236105', '139212797', '33332676', '101638190', '2779155178', '79367842', '3810323', '2780805685', '2777804095', '133517878', '95070492', '207074971', '143906210', '2781067393', '537208039', '65557974', '39464130', '106933524', '134790666', '2780155556', '92033742', '125405218', '2777634575', '2778329665', '81447805', '2778736949', '2779039943', '71502557', '94490329', '39410599', '46068172', '2908711065', '150484471', '143742823', '205325660', '2780948093', '132651083', '2910907392', '47665787', '166566181', '2777460376', '2777564511', '32334204', '513535597', '2778539042', '2909176644', '183191521', '2778552509', '169969230', '18870495', '102561126', '2778136073', '30033324', '2781383829', '183472899', '66472031', '9075549', '2778270655', '2780936489', '2779035916', '89463210', '2910895638', '93707483', '33683781', '2776793327', '156008332', '6582778', '518008717', '2778329001', '137851953', '11472968', '146159881', '116543080', '68753075', '2781415582', '2779345167', '2910645160', '172461840', '58479451', '2781426840', '2781164615', '54513816', '41156917', '123750103', '2775904931', '15098985', '49204034', '2781284990', '2778300782', '2780258550', '2779611803', '197435368', '112115583', '2780181841', '96305052', '2779417324', '46304622', '24474704', '2779258914', '112867187', '2780231331', '2776538475', '139679275', '77044568', '2909068970', '85675897', '2780862826', '105923489', '2779345524', '99743013', '35647692', '2778372335']</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['100405246', '101638190', '102561126', '103215972', '103474955', '106199856', '106933524', '106935595', '108107089', '108352090', '11039648', '111761213', '112115583', '112867187', '112964050', '11308688', '114203453', '11472968', '114990195', '115343472', '116543080', '11693305', '119288801', '120128738', '122424190', '123961466', '125405218', '125460053', '126026641', '126172416', '127454912', '130047971', '131980223', '132651083', '133517878', '13468771', '134790666', '134906952', '135558025', '136856113', '13763315', '137851953', '139029146', '139212797', '139679275', '141452985', '142619676', '143299363', '143510601', '143742823', '143906210', '144199811', '146159881', '146233495', '1489048', '149677717', '150484471', '151406439', '152798702', '155372631', '156008332', '156034889', '158984102', '163379243', '163861444', '165479943', '166566181', '168754636', '169752599', '16989226', '169969230', '171547485', '172461840', '17278756', '173253207', '174252726', '177229130', '177707082', '181060458', '181634566', '183191521', '183472899', '18629457', '186816422', '186966370', '187415303', '187460315', '18757010', '188364345', '18870495', '189109488', '189692780', '190930322', '193436682', '19369268', '193945104', '195853485', '196267783', '196875640', '197435368', '199390426', '199491958', '200479807', '203017698', '205251833', '205325660', '205537798', '207074971', '20985327', '20992447', '21405408', '23069438', '24474704', '25022447', '2775855162', '2775904931', '2775984431', '2776027161', '2776229149', '2776290281', '2776349674', '2776445388', '2776538475', '2776573159', '2776620235', '2776703984', '2776744078', '2776780212', '2776793327', '2776830933', '2776929312', '2777006462', '2777034083', '2777068471', '2777401303', '2777460376', '2777586272', '2777634575', '2777647863', '2777746431', '2777774347', '2777804095', '2777994876', '2778106714', '2778136073', '2778145313', '2778270655', '2778300782', '2778329001', '2778329665', '2778372335', '2778539042', '2778552509', '2778595733', '2778736949', '2778760939', '2778822299', '2778851808', '2778856288', '2778976125', '2779035916', '2779039943', '2779155178', '2779169777', '2779200991', '2779242930', '2779257452', '2779258914', '2779278563', '2779345167', '2779345524', '2779413794', '2779417324', '2779507241', '2779547961', '2779553627', '2779611803', '2779910436', '2779994751', '2780021526', '2780039742', '2780153765', '2780155556', '2780181841', '2780210451', '2780223605', '2780258550', '2780406490', '2780471494', '2780621122', '2780656184', '2780713269', '2780723968', '2780750338', '2780756839', '2780789708', '2780862826', '2780883738', '2780899440', '2780936489', '2780948093', '2781067393', '2781164615', '2781281996', '2781284990', '2781383829', '2781415582', '2781420532', '2781426840', '28475054', '2908604550', '2908711065', '2908827874', '2908869550', '2909067155', '2909068970', '2909176644', '2909261609', '2909373799', '2909483067', '2910057517', '2910459661', '2910483091', '2910645160', '2910882656', '2910895638', '2910907392', '29141058', '30033324', '30236105', '30878456', '32334204', '33332676', '33683781', '35647692', '37965861', '3810323', '38870921', '39410599', '39463204', '39464130', '39820584', '41156917', '41873427', '42952880', '44881016', '46068172', '46304622', '47279414', '47665787', '47737302', '49204034', '49999975', '501529594', '509746633', '513535597', '518008717', '521259446', '524244815', '528261146', '530467964', '53603896', '537208039', '537773303', '54308172', '54464151', '54513816', '545622115', '60757611', '61562682', '62279395', '63562587', '638126', '64396926', '65557974', '65748596', '6582778', '66295139', '66337317', '66472031', '6792957', '68753075', '69131732', '6964187', '71502557', '71756627', '72319357', '75633850', '76882436', '76934896', '77044568', '81447805', '81820708', '83227832', '83516724', '83621551', '86714428', '87547467', '89298926', '89463210', '9075549', '92033742', '92546971', '93707483', '93941228', '94061648', '94490329', '95070492', '96240277', '96305052', '96650669', '96793861', '96941661', '96966460', '97302686', '99578197', '99743013']</t>
-        </is>
+          <t>SDG_5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>150</v>
+      </c>
+      <c r="C6" t="n">
+        <v>126</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -524,25 +554,31 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['508106653', '2777351703', '105923489', '2780797831', '50094484', '15098985', '173651095', '123750103', '2780919918', '78091846', '2777564511', '2780231331', '73849760', '2776044436', '58479451', '186699998', '2775938548', '74501621', '89295123', '79367842', '183195422', '2780805685', '2778951896', '188818383', '2909303214', '2777798390', '122629976', '535291247', '134097258', '85675897', '108469399', '136020623', '559400886']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['2779503283', '102587632', '2910181401', '77352025', '47122089', '70036468', '140816417', '102003337', '2910095232', '2910825703', '2779881493', '2781037291', '2780233487', '48057960', '2779266529', '104151175', '2780438625', '46578552', '2775906418', '2776689383', '518429986', '2777688143', '2781051968', '2779256933']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Millennium Development Goals', 'Criminal justice', 'Ethnic discrimination', 'Population growth', 'Total fertility rate', 'Immigration', 'Zero population growth', 'Care work', 'Sexual aggression', 'Safety water', 'Dihydrotestosterone', 'Disorders of sex development', 'Long-term care', 'Bargaining power', 'Unpaid work', 'Emigration', 'Global Health Initiatives', 'Global health', 'Precarious work', 'Labour supply', 'Fertility', 'Infertility', 'Infibulation', 'Castration']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SDG_14</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>['2910075364', '2779000830', '2779623515', '2779164741', '139369640', '2777183552', '135895429', '2776499504', '2778502483', '2777590139', '129513315', '207769581', '68553557', '130066347', '2909786488', '2781102901', '2780797831', '144492951', '2910800256', '2779409326', '2777631861', '2781206490', '2910224097', '97832226', '2778525234', '2779298159', '143020374', '2775870103', '2777550468', '21790881', '135310875', '2780008901', '2779873548', '22372391', '172567333', '119128265', '2779321494', '122629976', '2778900803', '2777403171', '2776036478', '2776711594', '84766238', '63460653', '2776831678', '2909961269', '20992447', '2908583363', '2911123808', '2908556935', '2777845105', '95803793', '72634772', '117480383', '505870484', '2777774347', '2778753582', '113513581', '2779427263', '149348798', '197248824', '2777526573', '14429324', '553184892', '207177822', '187457775', '508466165', '113516966', '190791664', '2909931160', '2779926843', '2780313869', '116003164', '2776236458', '2780623117', '2779814588', '2908979931', '2778160301', '36516193', '2779071118', '76256466', '98083399', '2779735984', '151152651', '2781118390', '2777784394', '2776384079', '107674354', '2779267909', '74501621', '110175623', '2777542811', '68800169', '2780351957', '106978037', '162284963', '2780853707', '202041845', '101677414', '150320492', '2909678590', '2777751868', '2777246098', '2778896599', '2780495617', '2776874447', '2781352123', '2779708862', '60500638', '2780041246', '2909574991', '86839594', '134486438', '2780466853', '201490090', '2780532849', '46576788', '2776841996', '172269249', '85721925', '2780072470', '105442212', '2776415932', '120441037', '2776654248', '2779042980', '78091846', '82988372', '2780433915', '559758991', '2778902744', '16989226', '509746633', '2779987062', '122120755', '88862950', '2777677976', '2779140988', '2778851755', '2911128794', '88160329', '81855063', '2778586117', '2777110004', '2779215912', '154098486', '173917561', '2777022838', '33275205', '49427245', '2779325724', '2910880568', '132543647', '23531484', '2779429622', '62648534', '19829342', '2777883778', '2909377626', '2779909984', '2781279111', '2780127386', '2781094106', '150418976', '2778478447', '168857316', '141896089', '2909885882', '2777587947', '502230775', '2776620890', '2779522410', '2777138484', '2780429984', '680168', '2776093933', '2775897068', '2777605225', '130094819', '2779950014', '2781257293', '189047708', '18918823', '2780182046', '2908904675', '2776665667', '2779991348', '2779944326', '129934472', '2780737616', '111368507', '76177295', '77867282', '57615671', '108469399', '2777833858', '2776840061', '83873828', '173764188', '2910188331', '156380964', '2778390475', '52881836', '2778771466', '72958200', '2909007308', '81077568', '140302290', '2776056526', '2779000468', '2776115401', '2776364969', '136894858', '2910011389', '165082838', '2777492549', '63398376', '5465852', '113416529', '514101110', '2778484786', '73849760', '2781193452', '120221134', '2777981335', '2777704720', '83419821', '22070199', '186699998', '123281439', '2777676849', '2908713750', '134097258', '2778945231', '2780401329', '2910167436', '2780559241', '2780446934', '2778291008', '153279818', '187599188', '190157891', '514928085', '2778391067', '14362708', '2780384893', '14080524', '2776856712', '2780498771', '2776538778', '2778327988', '2780982499', '2779363728', '115961737', '79367842', '2776082207', '2777187009', '2776675269', '153102810', '2776265578', '186348155', '94386200', '2910001868', '145818215', '158836135', '2777803996', '14849681', '2780417240', '2777798493', '68701300', '159750122', '2777306872', '2779958227', '152382732', '2780727990', '2910560996', '2781288472', '2776824459', '2778316768', '2909168288', '62329434', '3641667', '34824556', '2776445371', '13474642', '2909868111', '2777768678', '2910276620', '47161852', '2779310246', '2908969040', '2781348932', '136571751', '199535368', '2779590308', '145151356', '197531578', '65193109', '42088612', '204676250', '77942228', '165107724', '2910628358', '134037308', '67467970', '149340888', '115314567', '2778662190', '2776367567', '2778018375', '11864286', '2780097091', '2908811810', '2776660552', '2780756971', '2780860784', '2778098436', '2775936106', '2778939721', '2909580760', '2779421218', '510239367', '117773394', '2780513199', '2778867918', '2776023875', '58479451', '123750103', '2777406646', '2779282177', '95628711', '39077098', '14918906', '148809924', '154283680', '2910221061', '186632785', '132000320', '2779290800', '192536144', '2909168245', '146864707', '2777626579', '164958353', '82161046', '2780111930', '2910958197', '2911073633', '2780002354', '2779427562', '2780492012', '31954745', '2781032902', '2776263494', '143517461', '2780040469', '2780143158', '2776139558', '24061886', '2776982523', '2779656528', '33613203', '152613627', '152453397', '2777267482', '2776590149', '81662871', '74126248', '2776362581', '139679275', '544153396', '111874474', '2780277248', '68874143', '2776911068', '2910466017', '2778658382']</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>['101677414', '105442212', '106978037', '108469399', '110175623', '111368507', '113416529', '113516966', '117773394', '11864286', '119128265', '120221134', '122120755', '123281439', '123750103', '129513315', '129934472', '130066347', '132543647', '134037308', '134097258', '134486438', '13474642', '135310875', '136571751', '136894858', '139369640', '139679275', '140302290', '14080524', '143020374', '143517461', '14362708', '14429324', '144492951', '145151356', '145818215', '146864707', '148809924', '149348798', '150320492', '150418976', '151152651', '152382732', '152453397', '153102810', '154283680', '158836135', '159750122', '162284963', '165082838', '16989226', '172567333', '173764188', '186348155', '186632785', '186699998', '187599188', '189047708', '190791664', '197248824', '197531578', '19829342', '204676250', '207177822', '207769581', '21790881', '22372391', '23531484', '24061886', '2775870103', '2775897068', '2775936106', '2776023875', '2776036478', '2776236458', '2776265578', '2776362581', '2776445371', '2776538778', '2776590149', '2776620890', '2776711594', '2776856712', '2776874447', '2776911068', '2776982523', '2777138484', '2777187009', '2777306872', '2777403171', '2777550468', '2777587947', '2777590139', '2777605225', '2777626579', '2777676849', '2777677976', '2777751868', '2777774347', '2777883778', '2778018375', '2778160301', '2778390475', '2778478447', '2778484786', '2778658382', '2778662190', '2778753582', '2778771466', '2778896599', '2778900803', '2778902744', '2778945231', '2779042980', '2779071118', '2779321494', '2779429622', '2779522410', '2779708862', '2779926843', '2780002354', '2780008901', '2780182046', '2780277248', '2780313869', '2780384893', '2780433915', '2780446934', '2780466853', '2780492012', '2780495617', '2780513199', '2780532849', '2780559241', '2780727990', '2780737616', '2780756971', '2780797831', '2780860784', '2781032902', '2781118390', '2781206490', '2781279111', '2781352123', '2908583363', '2908713750', '2908811810', '2908904675', '2908969040', '2908979931', '2909168245', '2909168288', '2909377626', '2909574991', '2909678590', '2909786488', '2909868111', '2909961269', '2910011389', '2910075364', '2910167436', '2910466017', '2910560996', '2910628358', '2910880568', '2910958197', '2911073633', '2911123808', '2911128794', '33275205', '33613203', '34824556', '3641667', '39077098', '42088612', '46576788', '47161852', '49427245', '502230775', '514101110', '514928085', '52881836', '553184892', '559758991', '57615671', '58479451', '60500638', '62329434', '63398376', '63460653', '67467970', '680168', '68701300', '68800169', '68874143', '72634772', '74126248', '74501621', '76177295', '76256466', '77942228', '78091846', '79367842', '81077568', '81662871', '82161046', '82988372', '83419821', '83873828', '84766238', '85721925', '86839594', '88160329', '88862950', '94386200', '97832226', '98083399']</t>
-        </is>
+          <t>SDG_6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>369</v>
+      </c>
+      <c r="C7" t="n">
+        <v>345</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -551,25 +587,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['2779310246', '2910800256', '173917561', '5465852', '2777803996', '2781257293', '135895429', '2780982499', '505870484', '2776115401', '2780417240', '2779164741', '2777784394', '2778586117', '22070199', '132000320', '2776384079', '2777833858', '2779363728', '2779140988', '2776665667', '2779421218', '2781094106', '2776840061', '2776263494', '2781348932', '2909931160', '2780127386', '153279818', '2776139558', '122629976', '2777267482', '2777542811', '2909580760', '156380964', '2780072470', '2778502483', '2779623515', '2777768678', '2779814588', '2779000468', '2778327988', '192536144', '113513581', '2781102901', '2777798493', '81855063', '2776654248', '2780429984', '2779735984', '2780498771', '2777631861', '2910224097', '2778939721', '115961737', '2779944326', '2779267909', '68553557', '2780111930', '2780853707', '164958353', '2777246098', '510239367', '2776367567', '2780351957', '2779656528', '95803793', '2776831678', '187457775', '2779958227', '2777704720', '130094819', '107674354', '2910221061', '168857316', '2780623117', '120441037', '2779427263', '2776093933', '2779987062', '2776660552', '2779325724', '2776841996', '509746633', '2780040469', '2778525234', '199535368', '2776675269', '2779290800', '190157891', '2908556935', '2778316768', '2779873548', '2910276620', '2778867918', '95628711', '2780041246', '2777022838', '2778098436', '73849760', '72958200', '2910001868', '2777110004', '2779590308', '2780401329', '2777981335', '77867282', '115314567', '111874474', '201490090', '31954745', '2776082207', '117480383', '2778291008', '2909885882', '2776415932', '2778391067', '2776364969', '2910188331', '165107724', '2779215912', '154098486', '508466165', '2776499504', '65193109', '2779000830', '2777845105', '2779282177', '2780143158', '2776056526', '152613627', '2777492549', '141896089', '2781288472', '2777183552', '2776824459', '14849681', '36516193', '2781193452', '2780097091', '2777526573', '202041845', '2779427562', '2779409326', '2779298159', '116003164', '149340888', '14918906', '544153396', '2779991348', '172269249', '62648534', '2777406646', '2779950014', '2779909984', '18918823', '2778851755', '2909007308', '20992447']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['49545453', '533363959', '2777919664', '205537798', '28631016', '138921699', '118733760', '131046424', '2780739625', '2780401329', '39410599', '2781117298', '51832835', '2778407992', '523546767', '129513315', '2779833838', '2776256026', '2777690665', '156858999', '2779322298', '190714865', '502990516', '2909603817']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Urban planning', 'Water industry', 'Hand washing', 'Extreme weather', 'Forest management', 'Political economy', 'Purified water', 'Energy policy', 'Portable toilet', 'Microplastics', 'Natural hazard', 'Public toilet', 'Environmental management system', 'Public water system', 'Bacteria', 'Salinity', 'Dam failure', 'Lung cancer', 'New political economy', 'Gallery forest', 'River engineering', 'Sanitary sewer', 'Agricultural land', 'Dam Collapse']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SDG_15</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>['197011783', '2779369318', '91354502', '2778551664', '2776142123', '2910069184', '172817999', '2776191655', '150436541', '20450499', '66782513', '91770344', '2911181876', '2776107028', '2779142801', '2777642157', '2778208748', '2780167305', '2778203884', '40141808', '2776892409', '2776421481', '2780948830', '51244244', '2777707638', '12064787', '2910062542', '2780977904', '2908658503', '25382069', '179345059', '153427425', '2778580364', '121412344', '128058477', '103215972', '35306142', '185933670', '201401522', '2776958554', '155987862', '78991832', '2781182717', '2779860289', '2776554196', '2776057494', '2777988102', '2776678335', '2779485152', '2777658277', '196313609', '157021035', '2775929138', '162501224', '2780066083', '2779562855', '97094461', '2778348119', '2781303777', '4590074', '2781206450', '54286561', '78458016', '2777132354', '199877563', '2780397596', '2776978901', '2778170267', '2910086784', '112276597', '2909135477', '2779287364', '6514731', '2778951896', '61703769', '121850381', '2776654049', '8328733', '2909575586', '2780057273', '33411773', '161189057', '2777758229', '535291247', '130217890', '2777434770', '74948603', '173727605', '2777253841', '145097563', '20535997', '513806601', '2776248522', '2777106113', '2777111047', '156858999', '132124917', '2908538994', '2778899818', '2780696901', '2779779727', '2778898053', '202552767', '2778364563', '74250896', '16884802', '38838508', '2781208722', '2780354846', '2777534865', '167296696', '161272170', '2781275782', '153823671', '2777904157', '64551749', '31568149', '73872442', '95869378', '141005173', '2778673487', '23119410', '2775938548', '191440113', '2777472530', '69514717', '2776596991', '59898753', '195330766', '2780638564', '34070608', '60359462', '42731165', '45920995', '2777042369', '24717449', '52896960', '46685645', '2777299372', '181060458', '2779007161', '67715294', '150381032', '1549246', '2777480484', '204513146', '97854310', '2778055474', '2776385305', '2777989319', '2909659530', '197320908', '2777387638', '2778376790', '91067096', '14624660', '2779562289', '2776070465', '2777084958', '2779658209', '2778728749', '124886560', '184603391', '2779249804', '2777051234', '51832835', '2776709785', '28665490', '2781168613', '172427765', '2775891814', '2779004245', '2776388979', '176585087', '114260506', '33283694', '126914827', '2777701676', '59804570', '2780946806', '144027150', '57664001', '2777952078', '54625482', '71482194', '176943803', '2779442720', '203174812', '2779381216', '39571515', '125620115', '2781003712', '2781131740', '2780473643', '2779979769', '109717640', '2778148510', '23519681', '180440007', '180395843', '89236255', '487182', '62569174', '93765907', '136020623', '155015343', '13558536', '167393769', '2778870400', '43827410', '2779042980', '168368505', '2779081038', '2779329624', '2908870468', '112077630', '189569837', '65857100', '2910297771', '112149622', '89862778', '64015301', '141185391', '201920390', '2778718584', '2779848557', '45152089', '189797535', '162012527', '2780110543', '2780816530', '109902934', '188442384', '2780876601', '2780179066', '173651095', '20664614', '198815454', '2776026763', '521815418', '47936110', '67961754', '28362043', '2780998164', '156086215', '2780328347', '2778483809', '62648534', '2775835988', '2909358641', '73580989', '71762439', '60989497', '2778152828', '20529654', '2776801807', '125069764', '24037442', '2619416', '22344907', '173795300', '2780004239', '31377225', '502990516', '49461877', '63797996', '2776687813', '2776325102', '2780848231', '25989453', '2776096895', '53565203', '2908641340', '2779128174', '18832751', '2778205388', '2016182', '129225989', '2776857380', '130094819', '93944068', '192392207', '2776402519', '70666977', '119249163', '2780505049', '53208351', '55347375', '17206440', '2780528068', '123336316', '2775999090', '2778617593', '2778049214', '111643386', '2781172998', '2776426263', '559400886', '2776724825', '112939947', '4792198', '173979980', '120217122', '2781436638', '67268981', '2780815956', '89295123', '2779223538', '2778506879', '2780648208', '68189081', '58941895', '2776331030', '98940541', '108216600', '2781168966', '154702282', '2910374867', '143389717', '2776834102', '92274894', '2776121688', '186493943', '2776824989', '2780051358', '53002841', '2780900284', '2778157034', '12429862', '532801124', '2779204379', '151788092', '179768671', '71827079', '2775832765', '38774213', '151107107', '162980758', '88776829', '105234605', '2909898454', '2777249847', '2778017510', '2775874878', '30968088', '2776500793', '202682190', '25598563', '194187813', '2777575642', '2776259809', '2780606388', '118592710', '2777256092', '2777944067', '72286879', '2909351924', '2778433175', '2777893444', '73593433', '94598645', '171205284', '158215666', '2780185008', '2777802595', '2910945474', '2780235837', '118694661', '68775195', '15147509', '2777890039', '6330744', '181634566', '2777007095', '127937792', '2910552428', '2910586351', '2776316369', '2779146456', '157460569', '81860439', '205400985', '2779691961', '2778830712', '2778625682', '116607704', '202216756', '146188434', '2779679852', '2780540120', '147103442', '198150046', '2776285232', '2780267512', '2777061799', '122748992', '2780086105', '26785111', '182124840', '116370137', '2780105985', '2777549804', '92494378', '32120771', '126408429', '2779732188', '155461473', '2776853598', '2776159474', '2779796875', '28631016', '133382796', '64229544', '2777399377', '53571324', '2780748813', '175760724', '2775966360', '2779179000', '2776492830', '2780671300', '194229684', '2779294082', '166548495', '2779455803', '2777938942', '73952413', '36727532', '147366489', '25147867', '105462344', '2776623689', '2777498119', '2777350553', '120806208', '2780394310', '183889291', '149207113', '139669111', '48743137', '194691359', '513535597', '139019045', '2779869275', '2777796192', '31262351', '64966480', '555313981', '2777154535', '189518720', '135935922', '2778091200', '56095865', '2780775713', '2776321234', '112058002', '2777341207', '2777380792', '2780297341', '2779043415', '2776042228', '16397148', '2779720641', '2776217272', '2781061397', '2777692458', '29760336', '2778788904', '2781353100', '2779350201', '82447923', '79339454', '93707483', '2778568511', '89920630', '2776682078', '126343540', '102720910', '2777189468', '2778358892', '2777635537', '141151480', '2778226232', '2778399496', '84927040', '139518226', '2775838554', '7435765', '2781166178', '41478065', '2779895041', '2909743892', '96313414', '87621631', '2776565828', '97137747', '2778885274', '22215628', '86409407', '2777380357', '63651461', '2778361644', '189307558', '2780001261', '169282265', '113052830', '2781231445', '2776150259', '154440439', '2781198671', '2780500427', '147273371', '186632785', '62158283', '13112181', '2776054349', '2780713402', '56685638', '203731517', '192241223', '187651312', '2779179816', '2777589951', '2776278397', '188117511', '2776335591', '127634017', '2910587469', '2781181605', '137607661', '65680412', '139496715', '2777253967', '2779152076', '2909590276', '187604713', '2780189059', '2776562576', '2778425908', '2780993040', '108738950', '123917164', '2780871101', '176933379', '126589399', '2777294933', '40667233', '2779867007', '2777707811', '196687554', '85675897', '169684477', '33559203', '24518262', '2781397391', '42435023', '198979508', '43003075', '2780590845', '99743013', '2780074531', '154575652', '514011633', '2775841215', '152491559', '2780339060']</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>['102720910', '103215972', '105234605', '111643386', '113052830', '114260506', '116607704', '118592710', '120217122', '124886560', '125069764', '126408429', '126589399', '127937792', '130217890', '13112181', '132124917', '137607661', '139496715', '141151480', '141185391', '144027150', '145097563', '147366489', '150381032', '150436541', '15147509', '152491559', '153427425', '153823671', '154575652', '155461473', '156086215', '157021035', '157460569', '161272170', '162012527', '162980758', '166548495', '168368505', '172817999', '173727605', '173979980', '175760724', '176585087', '176933379', '179345059', '179768671', '180395843', '180440007', '181634566', '182124840', '185933670', '186493943', '186632785', '187604713', '187651312', '188117511', '18832751', '188442384', '189518720', '189569837', '194187813', '194229684', '198979508', '201920390', '202216756', '202552767', '202682190', '203174812', '20450499', '204513146', '20529654', '20535997', '205400985', '22215628', '24037442', '24518262', '25147867', '25598563', '2775835988', '2775841215', '2775891814', '2776026763', '2776042228', '2776057494', '2776070465', '2776096895', '2776142123', '2776159474', '2776217272', '2776248522', '2776321234', '2776331030', '2776385305', '2776402519', '2776565828', '2776678335', '2776709785', '2776857380', '2776958554', '2777042369', '2777051234', '2777061799', '2777084958', '2777111047', '2777249847', '2777253841', '2777256092', '2777299372', '2777498119', '2777635537', '2777642157', '2777701676', '2777707638', '2777758229', '2777893444', '2777904157', '2777938942', '2777944067', '2777952078', '2777989319', '2778017510', '2778055474', '2778157034', '2778208748', '2778364563', '2778376790', '2778425908', '2778433175', '2778483809', '2778580364', '2778718584', '2778788904', '2778830712', '2778870400', '2778885274', '2778899818', '2778951896', '2779007161', '2779043415', '2779142801', '2779179000', '2779179816', '2779223538', '2779287364', '2779329624', '2779350201', '2779442720', '2779455803', '2779485152', '2779562855', '2779658209', '2779679852', '2779691961', '2779720641', '2779732188', '2779779727', '2779848557', '2779860289', '2779867007', '2780004239', '2780051358', '2780074531', '2780110543', '2780189059', '2780267512', '2780297341', '2780354846', '2780397596', '2780473643', '2780540120', '2780590845', '2780606388', '2780638564', '2780713402', '2780815956', '2780876601', '2780993040', '2781166178', '2781168966', '2781172998', '2781198671', '2781231445', '2781303777', '28631016', '28665490', '2908538994', '2908641340', '2908658503', '2908870468', '2909351924', '2909575586', '2909590276', '2909659530', '2909898454', '2910062542', '2910069184', '2910086784', '2910297771', '2910374867', '2910552428', '2910586351', '2911181876', '30968088', '31262351', '31377225', '31568149', '32120771', '33411773', '33559203', '36727532', '38774213', '38838508', '40141808', '40667233', '43003075', '43827410', '46685645', '4792198', '47936110', '48743137', '513806601', '521815418', '52896960', '53208351', '532801124', '535291247', '53565203', '54286561', '54625482', '559400886', '57664001', '58941895', '59804570', '60989497', '62569174', '6330744', '63651461', '63797996', '64015301', '64229544', '65680412', '65857100', '66782513', '67961754', '68775195', '70666977', '71762439', '71827079', '73872442', '73952413', '7435765', '74948603', '78458016', '78991832', '81860439', '8328733', '84927040', '92274894', '92494378', '93765907', '94598645', '97094461', '97137747', '97854310']</t>
-        </is>
+          <t>SDG_7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>486</v>
+      </c>
+      <c r="C8" t="n">
+        <v>467</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -578,79 +620,97 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['2619416', '2778348119', '2777802595', '161189057', '2776054349', '2776421481', '51244244', '171205284', '2779249804', '2778358892', '191440113', '2910945474', '162501224', '158215666', '154440439', '2777549804', '56685638', '2777988102', '73593433', '22344907', '2909358641', '2781131740', '73580989', '2776325102', '108738950', '2780066083', '2777294933', '2780748813', '2775832765', '121850381', '2780696901', '2777534865', '72286879', '2777658277', '2778205388', '2776278397', '2777707811', '2781168613', '93944068', '16397148', '45920995', '123917164', '125620115', '62158283', '2779152076', '2776150259', '167296696', '184603391', '139518226', '196313609', '2779562289', '2775938548', '189797535', '2779204379', '68189081', '189307558', '112077630', '2776801807', '17206440', '133382796', '169282265', '2016182', '2780948830', '2778361644', '2775874878', '199877563', '198815454', '2777575642', '2781397391', '41478065', '2910587469', '2781181605', '2781206450', '173651095', '95869378', '2780528068', '192241223', '71482194', '2777007095', '89862778', '6514731', '156858999', '2776978901', '149207113', '108216600', '2776259809', '74250896', '2779081038', '2777154535', '173795300', '2776724825', '88776829', '2777434770', '2776316369', '2780977904', '67715294', '2778152828', '2779895041', '42435023', '79339454', '49461877', '35306142', '2775966360', '2777189468', '2777380357', '2780328347', '2780998164', '2778728749', '2777380792', '26785111', '2777589951', '51832835', '2775838554', '2779004245', '60359462', '2776426263', '96313414', '2781003712', '197011783', '2778617593', '122748992', '2780900284', '116370137', '2776492830', '2776682078', '2780167305', '147273371', '126914827', '2776335591', '91354502', '2777399377', '89295123', '12064787', '109717640', '2776388979', '69514717', '2778625682', '16884802', '53571324', '62648534', '2776554196', '2780235837', '126343540', '139019045', '82447923', '167393769', '89920630', '105462344', '20664614', '2777472530', '2778049214', '29760336', '2779979769', '172427765', '12429862', '151107107', '2777387638', '2780179066', '2776654049', '2778399496', '141005173', '2778898053', '119249163', '2778148510', '2776834102', '2778091200', '2780057273', '2775929138', '2776121688', '2776623689', '2776892409', '42731165', '514011633', '53002841', '2781182717', '2777253967', '2777480484', '112149622', '109902934', '2778673487', '129225989', '112939947', '203731517', '151788092', '146188434', '25382069', '2775999090', '555313981', '513535597', '112058002', '2780001261', '2780648208', '2781353100', '13558536', '2777132354', '87621631', '196687554', '23119410', '2778203884', '2780185008', '61703769', '155987862', '2776107028', '93707483', '2776500793', '2780671300', '2780816530', '130094819', '154702282', '2776285232', '2779128174', '139669111', '64966480', '98940541', '2777106113', '183889291', '2776687813', '128058477', '120806208', '201401522', '28362043', '176943803', '67268981', '112276597', '2778170267', '56095865', '89236255', '2780105985', '2909743892', '2779869275', '2780086105', '2778226232', '86409407', '2780871101', '2781275782', '34070608', '14624660', '147103442', '2779146456', '2781208722', '2778568511', '2779294082', '198150046', '2777350553', '194691359', '192392207', '2909135477', '2777341207', '2777692458', '39571515', '127634017', '24717449', '1549246', '55347375', '4590074', '143389717', '33283694', '135935922', '99743013', '155015343', '2779796875', '85675897', '136020623', '181060458', '64551749', '121412344', '2780848231', '2777890039', '91067096', '2781061397', '2776191655', '2778551664', '45152089', '2776853598', '2780775713', '91770344', '2780394310', '2779369318', '2776562576', '487182', '169684477', '2780946806', '2776824989', '25989453', '2780505049', '2776596991', '123336316', '2781436638', '2777796192', '23519681', '2779042980', '197320908', '2778506879', '195330766', '2780339060', '502990516', '118694661', '59898753', '2779381216', '2780500427']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['10558101', '2778153913', '155373166', '176871988', '33039251', '2780182046', '157181609', '165998758', '127145964', '2778970885', '200630231', '2776512361', '2777416314', '2780153765', '183287310', '2778844797', '40675005', '56685638', '2776849302']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Smart grid', 'Plastic recycling', 'Food chain', 'Electric motor', 'Content management', 'Wave power', 'Sustainable transport', 'Imaging technology', 'Heat recovery ventilation', 'Rural electrification', 'Cleaner production', 'Power purchase agreement', 'Energy poverty', 'Low-carbon emission', 'Thermal energy storage', 'Aquifer thermal energy storage', 'Hydropower', 'Power control', 'Energy market']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SDG_16</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>['2778122203', '133462117', '2780597233', '202611063', '2778479971', '2779421777', '2777593458', '2780745107', '2778373993', '2777672627', '522453465', '538168058', '135342440', '2776018353', '2776363604', '2776445043', '80217655', '527648132', '2779304910', '2910283248', '138816342', '62657170', '2781395907', '17058734', '2909566307', '2780967403', '2776417341', '129603779', '2780617971', '2777596936', '34447519', '140311038', '39358052', '2777266375', '22111027', '2777132994', '39389867', '2779777834', '2778299913', '86256295', '178283979', '522003407', '2776143374', '529147693', '201342494', '2781417087', '2777663346', '2778736484', '162446236', '2776454469', '2778249305', '2778348171', '2778736898', '2908836863', '2777367318', '2776007630', '2910948674', '42648095', '2778698251', '82823613', '2780608745', '2780641677', '170007233', '21711469', '113706210', '2776949292', '2779361081', '47822265', '170706310', '2776373247', '2780888467', '102938260', '185874996', '48295401', '2778799533', '99574664', '110099512', '2780224667', '2780443626', '130881749', '2910949744', '2780919918', '533584247', '2776254110', '13184196', '70999106', '2775907854', '147887874', '2779448434', '2777720028', '542530943', '2775938067', '509133132', '2780526558', '2779683958', '2779878133', '2777244724', '2779455174', '2779455057', '41150092', '2781093426', '85973986', '2780155792', '509929229', '121242521', '79528506', '2777221391', '543595228', '10558101', '2778573023', '2780459134', '2777785829', '2778272461', '2775854623', '2780813246', '206836424', '67141207', '160443848', '2777199996', '2778719427', '159926677', '48185193', '2781406855', '2778348292', '2777113782', '36566018', '159517358', '2777098093', '98528937', '524765639', '101173714', '2778391922', '183988256', '146032754', '100505606', '556340858', '28718268', '49135098', '203133693', '2775908996', '83009810', '189105814', '153606108', '2778868856', '47768531', '2778061430', '53001019', '19159745', '2776862595', '2781118332', '202565627', '710854', '2778444957', '2780188385', '2780339416', '2776060186', '184603391', '2780893092', '2910956745', '2775833480', '2780497665', '125109622', '51832835', '27219730', '2779294571', '74501621', '2776325419', '2777838212', '5570062', '2781168613', '2775982628', '2908779519', '116166054', '2779889875', '2778880830', '195755200', '147859227', '2779903281', '2776348852', '2778719706', '142077812', '2777006572', '2779209633', '10511746', '142546437', '2777732099', '47110469', '2780208563', '2777522198', '2778698365', '205112559', '200457426', '2780326160', '199776023', '142947238', '2778682666', '2777963317', '162324750', '104267543', '2909549230', '2778832215', '122308676', '2778148510', '2778431023', '48764862', '2779131519', '2777690665', '2780789983', '2777452579', '55447825', '2778553114', '2778281468', '207096701', '2780747039', '109986646', '43827410', '2780559051', '2779415726', '184196243', '158561935', '2909494222', '506615639', '2780142257', '2776374800', '2776937921', '2779508350', '538473155', '2780781376', '78302928', '204342414', '2780086982', '18414002', '68643176', '39462953', '35278167', '71343576', '37497375', '7340896', '62100270', '2777749871', '2779677289', '2776001114', '2911045616', '2779423641', '155631102', '150710463', '2780495726', '2779149932', '149209484', '2775923278', '2781213906', '2909245448', '509933004', '44249647', '128194758', '98447023', '17520342', '535567245', '2778706760', '524211801', '2779999868', '2779144152', '2776686254', '163877629', '2777608298', '195732255', '2775935494', '2780921165', '2908892503', '2778099626', '43658493', '204434341', '180872759', '2777019632', '2779413435', '139475501', '158129432', '2780005421', '2780300654', '48798503', '522695570', '2776393157', '3116431', '84247811', '84389358', '2779759067', '168646138', '2776855904', '102587632', '42027317', '110952447', '136810230', '58399598', '14224292', '2778617593', '14587133', '200314049', '2777029895', '2777996642', '94625758', '2779279438', '2780808987', '165062768', '2910283986', '2778724510', '22467394', '56617239', '2778204415', '59785166', '2910414234', '2778489266', '2778136243', '64848388', '58823610', '2779534595', '2781402524', '156460124', '2776271424', '521897407', '134659438', '2777395600', '123587114', '18650270', '34355311', '2780862976', '153701036', '2776310101', '56404659', '2778618534', '84515885', '2777386858', '2910901024', '138238384', '2779997466', '2779655753', '2777705106', '2778611045', '179454799', '130064352', '2777103469', '2778809458', '2779170139', '2776581254', '117364978', '2779010840', '538833194', '2781402087', '2778767757', '2778062554', '192015692', '2909732843', '2777704498', '46355384', '557252395', '2775884135', '522325796', '2776393383', '2779850767', '555379026', '37129596', '2779332937', '110346835', '103268943', '2777309835', '2781233147', '2777408017', '2777976496', '2781163912', '2779336638', '42298096', '2776417498', '2910791680', '58583792', '147103442', '35525427', '70587473', '2780723106', '31196326', '182448111', '125209646', '171289174', '199568422', '2776019780', '9765861', '2780093650', '2777826127', '2778488155', '2776663400', '511723319', '2776321090', '105639569', '2775842811', '2910834063', '95691615', '2778140607', '38671928', '2778843087', '2909332087', '2911194376', '2777682447', '2776576545', '138921699', '2778116529', '112299071', '2781171240', '525541732', '2777351106', '71156930', '196697905', '2777666786', '2777360664', '2909735440', '2908634787', '539944628', '167595553', '2781067771', '157120061', '49504249', '2777821299', '147366489', '36727532', '2779864127', '111141941', '2778560467', '8795937', '2777351259', '36289849', '2778103768', '2778815591', '2909764464', '196927870', '78606420', '157424077', '46295352', '157298493', '183761623', '2775994463', '2780851881', '2909257685', '2781012612', '2779541081', '2909996731', '529740132', '2776301878', '131158328', '2776475305', '169437150', '2776598948', '76458491', '2777341207', '2778029865', '2775854416', '2778995842', '2777671340', '2908852235', '2777861868', '162718105', '2775905979', '2778072170', '2779363069', '3981223', '179133015', '17022365', '2780894974', '544040105', '11473988', '2779318504', '2778215748', '115314567', '87427459', '2779755066', '200797679', '183135511', '189261614', '2780481577', '546784017', '162466561', '179755657', '2775975177', '25148115', '2776841582', '2781035477', '2776478993', '2910871427', '22299250', '110888244', '9701087', '2779453331', '2777782036', '2777854444', '135721240', '202372285', '2777367657', '2776301168', '2778568292', '2776849891', '184297639', '106818632', '2780128953', '2780940336', '131046424', '17319257', '2778733213', '2778524814', '73484699', '2780111994', '2779390178', '34372108', '502529886', '2777546454', '2776240701', '2776594853', '508889258', '2781051322', '2781413609', '164429055', '2777688943', '528167355', '201960208', '2775906420', '148834064', '2777821203', '2777825026', '1370556', '2779910420', '2779184190', '207035908', '2776512386', '75398335', '2778958867', '2777339001', '47344431', '2776934989', '191049221', '142806620', '2780700307', '2780110086', '2776243541', '2781078320', '2777543875', '177986884', '2781365798', '2776324910', '170692843', '2779177650', '2778652015', '97460637', '88477975', '2777503682', '175576395', '62760934', '2778605688', '111874474', '2779345233', '555826173', '2780826866', '20780181', '2776612076', '2777234305', '2776325125', '2778064668', '13934251']</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>['100505606', '101173714', '102938260', '103268943', '104267543', '10511746', '105639569', '106818632', '109986646', '110099512', '110346835', '110888244', '110952447', '111141941', '111874474', '112299071', '113706210', '11473988', '116166054', '117364978', '121242521', '122308676', '123587114', '125109622', '125209646', '125748', '128194758', '130064352', '130881749', '131046424', '131158328', '13184196', '133462117', '134659438', '135342440', '135721240', '136810230', '1370556', '138238384', '138816342', '138921699', '13934251', '139475501', '140311038', '142077812', '14224292', '142546437', '142806620', '142947238', '14587133', '146032754', '147103442', '147366489', '147859227', '147887874', '148834064', '149209484', '150710463', '153606108', '153701036', '155631102', '156460124', '157120061', '157298493', '157424077', '158129432', '158561935', '159517358', '159926677', '160911440', '162446236', '162718105', '163877629', '164429055', '165062768', '167595553', '168646138', '169437150', '170007233', '17022365', '17058734', '170692843', '170706310', '171289174', '17319257', '17520342', '175576395', '177986884', '178283979', '179133015', '179454799', '179755657', '180872759', '182448111', '183135511', '183761623', '183988256', '18414002', '184196243', '184297639', '184603391', '185874996', '18650270', '189105814', '189261614', '191049221', '19159745', '192015692', '195732255', '195755200', '196927870', '199568422', '199776023', '200314049', '200457426', '200797679', '201342494', '201960208', '202372285', '202565627', '202611063', '203133693', '204342414', '204434341', '205112559', '206836424', '207035908', '207096701', '20780181', '21711469', '22111027', '22299250', '22467394', '25148115', '27219730', '2775833480', '2775842811', '2775854416', '2775854623', '2775884135', '2775905979', '2775906420', '2775907854', '2775908996', '2775935494', '2775938067', '2775975177', '2775994463', '2776007630', '2776018353', '2776019780', '2776060186', '2776143374', '2776240701', '2776243541', '2776254110', '2776271424', '2776301168', '2776301878', '2776310101', '2776321090', '2776324910', '2776325125', '2776325419', '2776348852', '2776363604', '2776373247', '2776374800', '2776393157', '2776393383', '2776417341', '2776417498', '2776445043', '2776454469', '2776475305', '2776478993', '2776512386', '2776576545', '2776594853', '2776598948', '2776612076', '2776663400', '2776686254', '2776841582', '2776849891', '2776855904', '2776862595', '2776934989', '2776937921', '2776949292', '2777006572', '2777019632', '2777029895', '2777098093', '2777113782', '2777132994', '2777199996', '2777221391', '2777234305', '2777244724', '2777266375', '2777309835', '2777339001', '2777341207', '2777351106', '2777351259', '2777360664', '2777367318', '2777367657', '2777386858', '2777395600', '2777408017', '2777452579', '2777503682', '2777522198', '2777543875', '2777546454', '2777593458', '2777596936', '2777663346', '2777666786', '2777672627', '2777682447', '2777688943', '2777690665', '2777704498', '2777705106', '2777720028', '2777732099', '2777749871', '2777782036', '2777785829', '2777821203', '2777821299', '2777825026', '2777826127', '2777838212', '2777854444', '2777963317', '2777976496', '2777996642', '2778029865', '2778061430', '2778062554', '2778064668', '2778072170', '2778099626', '2778103768', '2778116529', '2778122203', '2778136243', '2778140607', '2778204415', '2778249305', '2778272461', '2778281468', '2778299913', '2778348171', '2778373993', '2778391922', '2778444957', '2778479971', '2778488155', '2778489266', '2778524814', '2778553114', '2778560467', '2778568292', '2778573023', '2778605688', '2778617593', '2778618534', '2778652015', '2778682666', '2778698251', '2778698365', '2778706760', '2778719427', '2778719706', '2778724510', '2778733213', '2778736484', '2778736898', '2778767757', '2778799533', '2778809458', '2778815591', '2778832215', '2778843087', '2778868856', '2778958867', '2778995842', '2779010840', '2779131519', '2779144152', '2779149932', '2779170139', '2779177650', '2779184190', '2779209633', '2779279438', '2779294571', '2779318504', '2779332937', '2779336638', '2779345233', '2779361081', '2779363069', '2779390178', '2779413435', '2779421777', '2779423641', '2779448434', '2779453331', '2779455057', '2779455174', '2779508350', '2779541081', '2779655753', '2779677289', '2779683958', '2779755066', '2779759067', '2779777834', '2779850767', '2779864127', '2779878133', '2779889875', '2779903281', '2779910420', '2779997466', '2779999868', '2780005421', '2780086982', '2780093650', '2780110086', '2780111994', '2780128953', '2780142257', '2780155792', '2780188385', '2780208563', '2780224667', '2780326160', '2780339416', '2780443626', '2780481577', '2780495726', '2780497665', '2780526558', '2780559051', '2780597233', '2780608745', '2780617971', '2780641677', '2780723106', '2780745107', '2780747039', '2780781376', '2780789983', '2780808987', '2780813246', '2780826866', '2780851881', '2780862976', '2780888467', '2780894974', '2780919918', '2780921165', '2780940336', '2780967403', '2781012612', '2781035477', '2781051322', '2781067771', '2781078320', '2781093426', '2781118332', '2781168613', '2781171240', '2781213906', '2781233147', '2781365798', '2781395907', '2781402087', '2781402524', '2781406855', '2781413609', '2781417087', '28718268', '2908634787', '2908779519', '2908836863', '2908892503', '2909245448', '2909257685', '2909332087', '2909494222', '2909549230', '2909566307', '2909732843', '2909764464', '2909996731', '2910283248', '2910414234', '2910834063', '2910871427', '2910901024', '2910948674', '2910949744', '2910956745', '2911045616', '2911194376', '3116431', '31196326', '34355311', '34372108', '35278167', '35525427', '36289849', '36566018', '36727532', '37129596', '37497375', '38671928', '39358052', '39389867', '39462953', '3981223', '41150092', '42027317', '42298096', '42648095', '43658493', '43827410', '46355384', '47110469', '47344431', '47768531', '47822265', '48185193', '48295401', '48764862', '48798503', '49135098', '502529886', '506615639', '508889258', '509133132', '509929229', '509933004', '511723319', '51832835', '521897407', '522003407', '522325796', '522453465', '522695570', '524211801', '524765639', '525541732', '527648132', '528167355', '529147693', '529740132', '53001019', '533584247', '535567245', '538168058', '538473155', '538833194', '539944628', '542530943', '543595228', '544040105', '546784017', '55447825', '555379026', '555826173', '556340858', '5570062', '557252395', '56404659', '56617239', '58399598', '58583792', '58823610', '59785166', '62100270', '62657170', '62760934', '64848388', '67141207', '68643176', '70587473', '70999106', '710854', '71156930', '71343576', '7340896', '75398335', '76458491', '78302928', '78606420', '79528506', '80217655', '82823613', '83009810', '84247811', '84389358', '84515885', '85973986', '86256295', '87427459', '8795937', '88477975', '94625758', '95691615', '9701087', '97460637', '9765861', '98447023', '98528937', '99574664']</t>
-        </is>
+          <t>SDG_8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>231</v>
+      </c>
+      <c r="C9" t="n">
+        <v>202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['125748', '160911440']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['2775982628', '46295352', '44249647', '102587632', '196697905', '2910791680', '2781163912', '73484699', '2910283986', '49504249', '2776001114', '2909735440', '2780700307', '10558101', '2777861868', '2780459134', '2777671340', '2780893092', '2778348292', '2776581254', '162466561', '74501621', '2778148510', '2775923278', '115314567', '2779534595', '2779415726', '2778611045', '2777608298', '129603779', '2778880830', '2908852235', '2778215748', '2779304910', '162324750', '2777103469', '34447519', '2780300654', '160443848', '2778431023']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['2776942536', '2779674044', '68189081', '95389739', '2780638295', '2778431023', '29985473', '132943942', '2775865179', '56995899', '134659438', '39389867', '2781005894', '105639569', '536738050', '2780977596', '2781441816', '2777288899', '147583825', '2780745107', '2910283248', '2777671340', '2780763229', '109986646', '2778712577', '2778381653', '2778021871', '2776581254', '204983608']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['Women in the workforce', 'Glass ceiling', 'Fossil fuel', 'Social order', 'Occupational disease', 'Alliance', 'Natural resource', 'Footprint', 'Technological innovation system', 'Focus group', 'Social exclusion', 'Corporate governance', 'Occupational skin diseases', 'Economic policy', 'Social Welfare', 'Gender pay gap', 'Occupational lung disease', 'Retirement age', 'Body weight', 'New Economic Policy', 'Economics policy', 'Social rights', 'Occupational injury', 'Public policy', 'Retraining', 'Energy efficiency gap', 'Footprinting', 'Social Right', 'Productivity']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SDG_17</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>['2780575108', '56739046', '2780124536', '68307924', '87616379', '2779015535', '28718268', '198891747', '2778711553', '191935318', '66204764', '47344431', '206103860', '2909744077', '138368954', '2910001868', '44171179', '2779503283', '70455891', '2776060655', '15845906', '2777836882', '2776561884', '134632028', '171250308', '160354207', '520434653', '115314567', '2780479094', '2776604539', '2778300220', '2778459265', '199491958', '2779783285', '530175646', '2776553905', '134560507', '2777481183', '2780903623', '2777953023', '186229450', '159317903', '158041659', '2777113093', '2778449271', '552089266', '164767435', '129275984', '2776577793', '190539079', '2781328080', '99743013', '2910910449', '190960625']</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>['115314567', '129275984', '134560507', '134632028', '138368954', '158041659', '15845906', '159317903', '160354207', '171250308', '186229450', '190539079', '191935318', '198891747', '199491958', '206103860', '2776060655', '2776553905', '2776561884', '2776604539', '2777836882', '2778449271', '2779015535', '2779503283', '2779783285', '2780575108', '2780903623', '2781328080', '28718268', '2909744077', '2910001868', '2910910449', '520434653', '552089266', '56739046', '66204764', '68307924', '70455891', '87616379', '99743013']</t>
-        </is>
+          <t>SDG_9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1717</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1657</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['93597524', '2777851029', '92710233']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['2778300220', '2778459265', '44171179', '2780479094', '2776577793', '2780124536', '2777481183', '2777113093', '164767435', '530175646', '2777953023', '190960625', '2778711553', '47344431']</t>
+          <t>['g-factor', 'K factor', 'ω-automaton']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['2778040704', '34447519', '2910166139', '2779503283', '135628077', '16777580', '2776278144', '2776960227', '2775896111', '33039251', '2779318504', '2781117724', '2780576536', '193415008', '509933004', '19244329', '2779652256', '2910950043', '151405878', '92545706', '137813230', '109592283', '176445938', '2779306247', '2779686855', '118519418', '2780328347', '150394285', '160363772', '2911064832', '2910564736', '101677414', '94602187', '101336846', '2780805606', '173906292', '2776422217', '116321358', '2776060655', '22607594', '99752389', '136380597', '176871988', '86504812', '2776922509', '2775960376', '167393769', '2780082420', '2909116566', '88477975', '2780371127', '144468803', '2909816863', '2778720315', '113145756', '8162170', '2779980673', '142600807', '539828613', '2776102385', '2775845787', '13951911', '143517461']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['Solar architecture', 'Market economy', 'Tissue healing', 'Millennium Development Goals', 'Finite element method', 'Scanning ion-conductance microscopy', 'Human leg', 'Knowledge transfer', 'Router', 'Content management', 'Research design', 'Acoustic microscopy', 'Sensitive skin', 'Network architecture', 'Broadband', 'Financial market', 'Cerebellum', 'Reservoir bag', 'Noise', 'Radio spectrum', 'Motor control', 'Photoacoustic tomography', 'Ecological economics', 'Mirror box', 'Colon polyps', 'Reinforced solid', 'Science policy', 'Adsorption', 'Non-renewable resource', 'Colorectal polyposis', 'Colorectal Polyp', 'Surface pressure', 'route', 'Optical switch', 'Tank truck', 'Gait analysis', 'Electric vehicle', 'Industrial computed tomography', 'Tariff', 'Enabling', 'Scanning capacitance microscopy', 'Prehensile tail', 'Electric motor', 'Campaniform sensilla', 'Trade and development', 'Grippers', 'Adaptive strategies', 'Access to finance', 'Hemadsorption', 'Broadbanding', 'Tetrachloroethylene', 'Mixed finite element method', 'Cerebellar disorder', 'Female entrepreneurs', 'Dipole antenna', 'Myelin-associated glycoprotein', 'Fitness to dive', 'Open network architecture', 'Public transport', 'Decompression illness', 'Deep cerebellar nuclei', 'Traffic flow', 'Renewable resource']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SDG_2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>['197011783', '2779623515', '91354502', '2778551664', '2776142123', '2779164741', '130491866', '118643609', '2776191655', '20450499', '64112148', '135895429', '2910174702', '91770344', '2908631853', '2776499504', '2780745107', '2776107028', '2778502483', '2780167305', '115930662', '57269778', '2910206990', '84699730', '2776892409', '2777953396', '2776421481', '2780948830', '54924851', '2909609276', '2777206602', '2777707638', '12064787', '207769581', '2780977904', '68553557', '25382069', '153427425', '2780584575', '2776953683', '121412344', '2910283248', '128058477', '2781102901', '2778134537', '2780797831', '551997983', '2777416314', '2779409326', '144492951', '2910800256', '35306142', '2777631861', '201401522', '2910224097', '67031304', '2776176627', '155987862', '2778402112', '123244313', '2781182717', '2778525234', '2910611143', '2779298159', '2776554196', '143020374', '2777988102', '2777897731', '2779873548', '2909991231', '2911208417', '2779485152', '159879943', '2778554304', '2779316989', '2780106736', '2775929138', '162501224', '2780756937', '2778597767', '2780066083', '2779562855', '2778348119', '122629976', '2781206450', '2909590382', '2777132354', '199877563', '2780397596', '2776978901', '2776946213', '2775980262', '112276597', '2776672683', '2779587474', '2909135477', '2779287364', '2778484053', '2776831678', '121850381', '2776654049', '2910264974', '161189057', '535291247', '130217890', '2777434770', '74948603', '2908556935', '2910294407', '2778036281', '2780238508', '2780781704', '2777845105', '95803793', '118817206', '117480383', '2778333957', '505870484', '87976508', '2908942569', '513806601', '2777106113', '139326070', '156858999', '113513581', '2908538994', '2779427263', '2780696901', '2778898053', '2777526573', '2776962008', '2910493534', '29376679', '2777794352', '16884802', '38838508', '187457775', '2777131864', '2781208722', '167296696', '508466165', '535046627', '197321923', '2781275782', '64551749', '153911025', '2909327039', '31568149', '95869378', '2779687958', '116003164', '2778896754', '93990901', '516717267', '509243982', '2778673487', '2780623117', '2779814588', '2775938548', '191440113', '2777472530', '69514717', '17857428', '2776596991', '59898753', '195330766', '141732470', '2909524676', '2780343512', '2776998673', '2779457888', '2778200843', '34070608', '60359462', '550263199', '8313540', '45920995', '2910212593', '2781121325', '2778724459', '24717449', '84199377', '81977670', '36516193', '2909068147', '54815482', '1549246', '2910840360', '2777480484', '2776420369', '2777499484', '2779735984', '197320908', '2910152589', '2777387638', '37884843', '91067096', '14624660', '2779562289', '2779764123', '2911118914', '128383755', '2778728749', '2777784394', '79355281', '81993482', '2910069897', '2779249804', '2776384079', '2908544876', '2911219547', '107674354', '2910848602', '2779032678', '2779267909', '140413371', '2777542811', '110175623', '68800169', '2909216340', '2909529903', '172427765', '2911039760', '2779004245', '2778003962', '2780351957', '2776388979', '2780192938', '33283694', '126914827', '202041845', '2780853707', '2780946806', '134068817', '2777176278', '2777952078', '513059894', '54625482', '2778329027', '176943803', '203174812', '2775991992', '2777246098', '2779381216', '2778896599', '132964779', '39571515', '2778962194', '2781003712', '125620115', '2781131740', '2780467133', '59582021', '2777617796', '140327455', '2778148510', '156663261', '23519681', '201490090', '2780907584', '2779823546', '2776841996', '172269249', '2780072470', '26291073', '2779697819', '2776708618', '34881761', '155015343', '2779096019', '167393769', '88199923', '2776654248', '2780492159', '2779081038', '2779329624', '189775405', '155373166', '2909463689', '189569837', '96105989', '112149622', '2778165219', '98722961', '24144980', '2779987062', '2778718584', '2779140988', '2780246931', '2775992197', '45152089', '2778851755', '2780816530', '109902934', '2780179066', '93066458', '2778586117', '2777110004', '2780367213', '198815454', '2777589964', '529335014', '192039558', '2779215912', '154098486', '173917561', '2777022838', '33275205', '162889289', '2911036004', '23837897', '96650669', '103474955', '2779325724', '2909753820', '2781218492', '98108635', '195092306', '2780174665', '2909358641', '73580989', '2778152828', '60989497', '70899900', '2778852317', '2776801807', '125069764', '2779909984', '2778173381', '2908572884', '2780127386', '2781094106', '2911033078', '2780003869', '2619416', '22344907', '2775831186', '2909512196', '173795300', '168857316', '2776841711', '49461877', '157777378', '2779824757', '181607587', '141896089', '2776687813', '2776325102', '2780848231', '2775868463', '25989453', '14522933', '2779128174', '2780429984', '45622825', '2776093933', '2909499532', '2778205388', '2016182', '2779950014', '93944068', '192392207', '119249163', '2909807485', '77088390', '2780505049', '2781257293', '55347375', '2780528068', '2779139258', '123336316', '2776665667', '2775999090', '2910706634', '2779991348', '2779944326', '2779957034', '2780065859', '505241676', '2778617593', '137555145', '2776426263', '2909396454', '157717039', '2910375186', '112939947', '4792198', '2781436638', '118518473', '89295123', '2777833858', '2776840061', '2777014122', '134215735', '155739000', '43272882', '2910188331', '108216600', '154702282', '82639676', '2910579474', '2909116410', '72958200', '2779613291', '2776121688', '2776824989', '2777438402', '2779564620', '134643618', '2779000468', '2776115401', '53002841', '2780900284', '2776364969', '532801124', '173419221', '2909399481', '151788092', '120009192', '2777492549', '2910357638', '73495956', '2777476143', '203017698', '5465852', '2776890026', '2909532361', '2775832765', '38774213', '2909101193', '151107107', '113416529', '514101110', '2779023244', '2910708160', '73849760', '2781193452', '16281581', '88776829', '2779885280', '2775874878', '2777981335', '2776500793', '202682190', '2777704720', '2777575642', '2776259809', '123281439', '8673954', '72286879', '2910182614', '507981020', '2777108408', '2910855215', '73593433', '2778291008', '2779529612', '153279818', '171205284', '158215666', '190157891', '2777802595', '2910945474', '2780235837', '2910606548', '2778733383', '118694661', '35158069', '15147509', '2910584990', '2778391067', '2775892496', '2777890039', '2781462481', '149817419', '189109488', '2777007095', '173145845', '2776007641', '2779483572', '2778896901', '47924181', '30455989', '2780289900', '2779146456', '195973872', '2780498771', '2778625682', '116607704', '146188434', '2778327988', '2780982499', '2779425982', '2909639017', '2909152114', '2910406661', '2779363728', '3987366', '115961737', '147103442', '198150046', '2776285232', '2776082207', '2780267512', '112892834', '2780309462', '122748992', '2776675269', '2780086105', '100544194', '153102810', '2908542670', '2910218496', '26785111', '2780067489', '2909066392', '2780556605', '147252523', '201116201', '116370137', '2780589914', '2909999035', '2777549804', '105639569', '32120771', '2911025827', '140130429', '126408429', '2777803996', '14849681', '2780417240', '2777798493', '2776853598', '2779796875', '2778589402', '28631016', '71502557', '133382796', '64229544', '2779852692', '2777399377', '2777306872', '2779958227', '152382732', '53571324', '2780748813', '2778449271', '2910226413', '175760724', '2781168071', '2780488879', '2910933275', '2775966360', '2779179000', '2781288472', '163588314', '2776824459', '2776492830', '2780671300', '16643866', '549605437', '2779294082', '166548495', '2776779347', '2780523633', '2910254177', '2910653396', '2778452849', '2776623689', '2777768678', '2781227287', '2780221984', '2910668823', '2777350553', '120806208', '2780394310', '149207113', '2779310246', '2778661615', '139669111', '2910326811', '194691359', '139019045', '2779869275', '2777796192', '555313981', '2781348932', '177658893', '199535368', '2779590308', '2778452349', '150194340', '2777154535', '139145706', '2776336767', '147490202', '2779843069', '2908797517', '65193109', '2778091200', '2780655333', '56095865', '2780775713', '2911152419', '112058002', '2777341207', '2777129469', '181268634', '77942228', '165107724', '2779234561', '2909380268', '2781061397', '2778368945', '2909409184', '2779363069', '2781353100', '2910137147', '79339454', '93707483', '2909420048', '2778568511', '149340888', '89920630', '126343540', '102720910', '105152847', '2777189468', '2778358892', '74139830', '2776367567', '2777635537', '183135511', '141151480', '2778226232', '2776574334', '130693829', '139518226', '2778018375', '2775838554', '41478065', '2780097091', '2910206840', '2779895041', '2909743892', '51926234', '2776660552', '174553679', '1670747', '14641543', '96313414', '2909857543', '87621631', '2778098436', '2778939721', '2909580760', '2780527838', '2779421218', '2777782036', '97137747', '510239367', '35378473', '30481170', '2778823544', '2778867918', '86409407', '2777762679', '58479451', '2777380357', '63651461', '2910321686', '2777406646', '503900551', '2778361644', '189307558', '2779282177', '2780001261', '169282265', '2910525245', '2781364378', '199724614', '2909725152', '94487597', '2777900319', '14918906', '2780774944', '2910491720', '2776111823', '2780500427', '2778944361', '147273371', '2910221061', '165237769', '62158283', '2776054349', '132000320', '2779290800', '2909296374', '2777858656', '135704130', '192536144', '2776725572', '192241223', '164958353', '2778596745', '1924315', '2777589951', '2776278397', '2780111930', '107888415', '38739810', '2780191829', '165007447', '2776335591', '28781525', '2779427562', '2779979797', '511355011', '31954745', '2910587469', '2780077345', '74893574', '2781181605', '2776263494', '177701732', '2909598931', '112625547', '2780871851', '2777253967', '2780040469', '2780143158', '2776139558', '69907114', '24061886', '2776562576', '2779656528', '108738950', '123917164', '118733760', '126589399', '152613627', '31903555', '2908993845', '2777267482', '2778359420', '40667233', '129360787', '2776876274', '9927688', '2777707811', '196687554', '85675897', '2778312390', '91447561', '2909506248', '169684477', '2777278459', '2780717550', '33559203', '24518262', '2781397391', '33824837', '42435023', '2776733808', '68874143', '2779501324', '198979508', '2911108994', '154575652', '14171219', '2775841215', '152491559', '2780339060']</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>['100544194', '102720910', '103474955', '105152847', '107674354', '107888415', '108216600', '108738950', '109902934', '110175623', '112058002', '112149622', '112276597', '112625547', '112939947', '113416529', '113513581', '115930662', '115961737', '116003164', '116370137', '116607704', '117480383', '118518473', '118643609', '118694661', '118733760', '118817206', '119249163', '120009192', '12064787', '120806208', '121412344', '121850381', '122629976', '122748992', '123244313', '123281439', '123917164', '125069764', '125620115', '126343540', '126589399', '126914827', '128058477', '128383755', '129360787', '130217890', '130491866', '130693829', '132000320', '132964779', '133382796', '134068817', '134215735', '134643618', '135704130', '135895429', '137555145', '139019045', '139145706', '139326070', '139518226', '139669111', '140130429', '140327455', '140413371', '141151480', '14171219', '141732470', '141896089', '143020374', '144492951', '14522933', '146188434', '14624660', '14641543', '147103442', '147252523', '147273371', '14849681', '14918906', '149207113', '149340888', '149817419', '151107107', '15147509', '151788092', '152382732', '152491559', '152613627', '153102810', '153279818', '153427425', '153911025', '154098486', '154575652', '154702282', '1549246', '155015343', '155373166', '155739000', '155987862', '156663261', '156858999', '157717039', '157777378', '158215666', '161189057', '162501224', '16281581', '162889289', '163588314', '164958353', '165007447', '165107724', '165237769', '16643866', '166548495', '1670747', '167296696', '167393769', '16884802', '168857316', '169282265', '169684477', '171205284', '172269249', '172427765', '173145845', '173419221', '173795300', '173917561', '174553679', '176943803', '177658893', '177701732', '17857428', '181268634', '187457775', '189109488', '189307558', '189569837', '189775405', '190157891', '191440113', '192039558', '192241223', '192392207', '1924315', '192536144', '194691359', '195330766', '195973872', '196687554', '197011783', '197320908', '197321923', '198150046', '198815454', '198979508', '199535368', '199724614', '199877563', '201116201', '201401522', '201490090', '2016182', '202041845', '202682190', '203174812', '20450499', '207769581', '22344907', '23519681', '23837897', '24061886', '24144980', '24518262', '24717449', '25382069', '25989453', '2619416', '26785111', '2775831186', '2775832765', '2775838554', '2775841215', '2775868463', '2775874878', '2775892496', '2775929138', '2775938548', '2775966360', '2775980262', '2775991992', '2775992197', '2775999090', '2776007641', '2776054349', '2776082207', '2776093933', '2776107028', '2776115401', '2776121688', '2776139558', '2776142123', '2776176627', '2776191655', '2776259809', '2776263494', '2776278397', '2776285232', '2776325102', '2776335591', '2776336767', '2776364969', '2776367567', '2776384079', '2776388979', '2776420369', '2776421481', '2776426263', '2776492830', '2776499504', '2776500793', '2776554196', '2776562576', '2776574334', '2776596991', '2776623689', '2776654049', '2776654248', '2776660552', '2776665667', '2776672683', '2776675269', '2776687813', '2776708618', '2776725572', '2776733808', '2776779347', '2776801807', '2776824459', '2776824989', '2776831678', '2776840061', '2776841711', '2776841996', '2776853598', '2776892409', '2776946213', '2776962008', '2776978901', '2776998673', '2777007095', '2777014122', '2777022838', '2777106113', '2777108408', '2777110004', '2777131864', '2777132354', '2777154535', '2777176278', '2777189468', '2777206602', '2777246098', '2777253967', '2777267482', '2777278459', '2777306872', '2777380357', '2777387638', '2777399377', '2777406646', '2777416314', '2777434770', '2777438402', '2777472530', '2777476143', '2777480484', '2777492549', '2777499484', '2777526573', '2777542811', '2777549804', '2777575642', '2777589951', '2777589964', '2777631861', '2777635537', '2777704720', '2777707638', '2777707811', '2777762679', '2777768678', '2777784394', '2777794352', '2777796192', '2777798493', '2777802595', '2777803996', '2777833858', '2777845105', '2777858656', '2777890039', '2777897731', '2777900319', '2777952078', '2777981335', '2777988102', '2778003962', '2778018375', '2778036281', '2778091200', '2778098436', '2778134537', '2778148510', '2778152828', '2778165219', '2778173381', '2778200843', '2778205388', '2778226232', '2778291008', '2778312390', '2778327988', '2778329027', '2778333957', '2778348119', '2778358892', '2778361644', '2778368945', '2778391067', '2778402112', '2778449271', '2778452349', '2778452849', '2778484053', '2778502483', '2778525234', '2778551664', '2778554304', '2778568511', '2778586117', '2778589402', '2778597767', '2778617593', '2778625682', '2778661615', '2778673487', '2778718584', '2778724459', '2778728749', '2778733383', '2778823544', '2778851755', '2778852317', '2778867918', '2778896599', '2778896901', '2778898053', '2778939721', '2778962194', '2779000468', '2779004245', '2779023244', '2779032678', '2779081038', '2779096019', '2779128174', '2779139258', '2779140988', '2779146456', '2779164741', '2779179000', '2779215912', '2779249804', '2779267909', '2779282177', '2779287364', '2779290800', '2779294082', '2779298159', '2779310246', '2779316989', '2779325724', '2779329624', '2779363728', '2779381216', '2779409326', '2779421218', '2779427263', '2779427562', '2779457888', '2779485152', '2779501324', '2779562289', '2779562855', '2779564620', '2779587474', '2779590308', '2779613291', '2779623515', '2779656528', '2779687958', '2779697819', '2779735984', '2779796875', '2779814588', '2779823546', '2779824757', '2779843069', '2779869275', '2779873548', '2779885280', '2779895041', '2779909984', '2779944326', '2779950014', '2779957034', '2779958227', '2779979797', '2779987062', '2779991348', '2780001261', '2780003869', '2780040469', '2780065859', '2780066083', '2780067489', '2780072470', '2780077345', '2780086105', '2780097091', '2780111930', '2780127386', '2780143158', '2780167305', '2780174665', '2780179066', '2780191829', '2780235837', '2780238508', '2780246931', '2780267512', '2780289900', '2780309462', '2780339060', '2780343512', '2780351957', '2780367213', '2780394310', '2780397596', '2780417240', '2780429984', '2780467133', '2780488879', '2780492159', '2780498771', '2780500427', '2780505049', '2780528068', '2780556605', '2780584575', '2780589914', '2780623117', '2780671300', '2780696901', '2780756937', '2780774944', '2780775713', '2780781704', '2780797831', '2780816530', '2780848231', '2780853707', '2780871851', '2780900284', '2780907584', '2780946806', '2780948830', '2780977904', '2780982499', '2781003712', '2781061397', '2781094106', '2781102901', '2781121325', '2781131740', '2781168071', '2781181605', '2781182717', '2781193452', '2781206450', '2781208722', '2781218492', '2781227287', '2781257293', '2781275782', '2781288472', '2781348932', '2781353100', '2781364378', '2781397391', '2781436638', '2781462481', '28631016', '28781525', '2908538994', '2908542670', '2908544876', '2908556935', '2908631853', '2908797517', '2908942569', '2908993845', '2909066392', '2909068147', '2909101193', '2909116410', '2909135477', '2909152114', '2909216340', '2909327039', '2909358641', '2909399481', '2909409184', '2909420048', '2909463689', '2909499532', '2909506248', '2909524676', '2909529903', '2909532361', '2909580760', '2909590382', '2909609276', '2909639017', '2909725152', '2909743892', '2909753820', '2909807485', '2909857543', '2909999035', '2910069897', '2910137147', '2910152589', '2910174702', '2910182614', '2910188331', '2910206840', '2910218496', '2910221061', '2910224097', '2910226413', '2910254177', '2910264974', '2910294407', '2910326811', '2910375186', '2910491720', '2910493534', '2910525245', '2910579474', '2910584990', '2910587469', '2910606548', '2910611143', '2910653396', '2910668823', '2910708160', '2910800256', '2910848602', '2910933275', '2910945474', '2911025827', '2911036004', '2911039760', '2911108994', '2911118914', '2911152419', '29376679', '30455989', '30481170', '31568149', '31903555', '31954745', '32120771', '33275205', '33283694', '33559203', '33824837', '34070608', '34881761', '35158069', '35306142', '35378473', '36516193', '37884843', '38739810', '38838508', '39571515', '3987366', '40667233', '41478065', '42435023', '43272882', '45152089', '45622825', '45920995', '4792198', '47924181', '49461877', '503900551', '505870484', '508466165', '509243982', '510239367', '513059894', '513806601', '514101110', '516717267', '51926234', '529335014', '53002841', '532801124', '535291247', '53571324', '54625482', '5465852', '54815482', '54924851', '549605437', '550263199', '551997983', '55347375', '555313981', '56095865', '57269778', '58479451', '59582021', '59898753', '60359462', '60989497', '62158283', '63651461', '64112148', '64229544', '64551749', '65193109', '67031304', '68553557', '68800169', '68874143', '69514717', '69907114', '70899900', '71502557', '72286879', '72958200', '73495956', '73580989', '73593433', '73849760', '74139830', '74893574', '74948603', '77088390', '77942228', '79339454', '79355281', '81993482', '82639676', '8313540', '84199377', '84699730', '86409407', '8673954', '87621631', '87976508', '88199923', '88776829', '89295123', '89920630', '91067096', '91354502', '91447561', '91770344', '93066458', '93707483', '93944068', '93990901', '94487597', '95803793', '95869378', '96105989', '96313414', '96650669', '97137747', '98108635', '9927688']</t>
-        </is>
+          <t>SDG_10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>185</v>
+      </c>
+      <c r="C11" t="n">
+        <v>144</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -659,52 +719,64 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['2776953683', '2910212593', '112892834', '2909380268', '2779852692', '181607587', '535046627', '183135511', '2779764123', '2911219547', '26291073', '2780655333', '2910706634', '2776876274', '511355011', '126408429', '2777129469', '2777350553', '2777341207', '2909296374', '175760724', '2780748813', '159879943', '2911033078', '2776111823', '2780527838', '2910357638', '85675897', '81977670', '150194340', '2779363069', '38774213', '2778359420', '2778896754', '2777617796', '2910840360', '2780717550', '105639569', '2910406661', '2909396454', '2780221984', '505241676', '2911208417', '2779529612', '2779425982', '2776890026', '507981020', '2910283248', '2910321686', '98722961', '2780192938', '2909991231', '2779234561', '2910855215', '2780523633', '203017698', '123336316', '2780745107', '147490202', '2908572884', '2779483572', '2778596745', '2909598931', '2910206990', '2777953396', '195092306', '2909512196', '2778944361', '2780106736', '2777782036']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['2781190941', '173145845', '134659438', '2778716609', '519300510', '2910181401', '2778968930', '2781160424', '2777129469', '51067260', '180872759', '19244329', '2909492420', '178283979', '2778566306', '551499885', '77352025', '161407221', '129603779', '2776554220', '55447825', '53001019', '2779625216', '15107229', '2776942536', '70036468', '2780037060', '2776060655', '160443848', '19159745', '2779490853', '37129596', '2780903623', '140816417', '2909801347', '2776237081', '2781372952', '2780623907', '2909439219', '2779206190', '111141941']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['Minimum wage law', 'Refugee', 'Social exclusion', 'Minimum wage', 'Income distribution', 'Ethnic discrimination', 'Social disintegration', 'Social integration', 'Trade agreement', 'Professional development', 'Social group', 'Financial market', 'A physical disability', 'Public finance', 'Personal income', 'Intellectual disability', 'Population growth', 'Cognitive model', 'Welfare state', 'Prosperity', 'International law', 'Social issues', 'Physical disability', 'Learning disability', 'Women in the workforce', 'Immigration', 'Cross-border region', 'Tariff', 'Per capita income', 'Social policy', 'Conditional cash transfer', 'Social mobility', 'Cross-border cooperation', 'Zero population growth', 'Cognitive Intervention', 'Income Support', 'Visual impairment', 'Disadvantaged', 'Cognitive stimulation', 'Gini coefficient', 'Immigration policy']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SDG_3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>['35294091', '2777740769', '2909636867', '2776451244', '2908800543', '2909721673', '2910727661', '2911216045', '2909200035', '2779329469', '2778333281', '2779543035', '202878990', '2779877776', '2777687476', '2908638431', '2908778918', '2779688492', '2780744026', '2909947164', '2776697053', '2779650986', '2910793863', '2910345293', '205778803', '2777895019', '518773536', '20299238', '2909267907', '2777301891', '33602714', '2776581026', '2909585564', '53467394', '2780915026', '2778328694', '91158637', '2778596372', '20727314', '2911158545', '2776261420', '2780941825', '2777495146', '2777446050', '110586980', '2910538560', '2778465436', '2777218350', '2780932742', '2910292458', '2781007269', '2777006276', '2777235844', '2780635341', '39124391', '2909835169', '2776937108', '2779958370', '2909394654', '163864487', '2909828726', '2781464078', '2776577112', '2777138892', '2909475472', '24590219', '2778767192', '2910060629', '2780291845', '116227048', '2775859590', '2908650173', '115260700', '2910914447', '2908912007', '2908533162', '2777538456', '2910995734', '2908694513', '2910631099', '2909503249', '2780806254', '2909663705', '2909720522', '2779689624', '2777846634', '2776235491', '2779884382', '2781460079', '2779652256', '2909473642', '2910691831', '2910681827', '2910584544', '5039776', '2776548475', '201903717', '2779980732', '2778539424', '2776902491', '2780883591', '2909553258', '2910036540', '2908839686', '2781393798', '170193765', '2909848915', '2778976297', '2909731803', '2781437628', '2910602199', '2780073623', '109110057', '2778930706', '2781265626', '2909778144', '2776634560', '2910262544', '69358794', '2779064019', '157481446', '2776643329', '202015219', '2910704929', '2778186239', '2781461121', '2909371084', '2779387492', '114565086', '2777891184', '2909608569', '2910768427', '2779656843', '97816823', '2909763950', '2910800852', '91894610', '2776834697', '2909141848', '2779123372', '170700871', '2909912835', '2910318506', '2781395839', '2909301675', '2777324038', '2777428986', '2779423988', '2779920756', '2777781617', '2908815282', '2909143790', '204243189', '2910454647', '2777756408', '2777521253', '2776012956', '2910237699', '2778320299', '2909387136', '2908698914', '2778116200', '2776704448', '2908863629', '2778317342', '2909018248', '2780963292', '110894328', '2909925785', '19876734', '97230052', '56952853', '2910366748', '151279926', '48718317', '2777356073', '2779983491', '100094513', '2909445141', '2910826011', '2910110732', '2910487050', '2778207410', '2910433760', '2909544025', '2777286284', '141710004', '2780590625', '2910276969', '2779737434', '2780419564', '2908644067', '2777996791', '2779145073', '2779364145', '2910365214', '2776364478', '2777456732', '2909025873', '2909528415', '2777073666', '2910515819', '2776802755', '2910844981', '96942376', '151495721', '2909060570', '2911034735', '2911131932', '145333580', '2909856348', '2909905744', '2777722682', '2910156288', '73009533', '2779581417', '2777866208', '2909391475', '2910851841', '2777428835', '2911042189', '2778458342', '90269970', '46699223', '2910160587', '2910510515', '2909332496', '2910786474', '2780972224', '2780546585', '128534915', '65245452', '193270364', '2777083390', '2911104713', '2908602776', '2781045504', '2776423169', '2908716937', '2781318281', '135073763', '2776579137', '2777064799', '110113598', '2778315969', '2777818871', '2780261241', '2776406656', '2776704044', '2909918467', '202271784', '2776392104', '14942488', '2775892965', '2909227424', '2781315006', '2780814781', '2910983539', '2780984408', '105662462', '2776615572', '156927020', '2780353946', '2779303165', '171896709', '2779664554', '31573885', '2779192323', '2779291727', '2778718757', '2909094193', '2908707870', '2910220249', '2779714933', '2781400336', '2776541148', '2778605646', '3499601', '37547375', '2776261758', '2777385986', '2778087573', '2910173348', '122635869', '2780282729', '2778837869', '2908567798', '2780892919', '55938493', '73247094', '2909493124', '2779185075', '2909761671', '2909745715', '2777031167', '2780597670', '2779664077', '2910124714', '2779494582', '2778190414', '2780905385', '2909268221', '2778749046', '2780676925', '2908650747', '2776915898', '2908800475', '2777432695', '2909930725', '2780917750', '2908854458', '2909420118', '2780088680', '2911097425', '2778310972', '2910199163', '2778896829', '2909932067', '2908727878', '2910622060', '42781572', '2910700335', '2776246183', '2779057060', '2909592510', '2910159687', '2776919888', '2910897755', '2780479503', '2779446555', '2779048665', '2777199703', '57805442', '2780567641', '136193539', '2910515783', '2779856922', '2778424726', '2779299112', '529618451', '2780886447', '2779695026', '2778909031', '2779278959', '2911170301', '40010229', '2777460106', '2909324537', '2779245863', '2777487068', '2909296374', '2778437423', '2909655604', '2780718992', '526805850', '147990577', '2910211152', '2910017523', '83852419', '2909818935', '2779631380', '161176658', '2780508455', '2908832260', '2781304901', '2777906449', '2910980626', '2777274338', '2908550172', '2909101151', '2779699568', '20251656', '203565725', '2910201930', '2779777798', '2777507709', '2910468864', '2779922520', '2910654035', '2779150110', '2778266237', '2780264453', '2909407141', '2909446656', '2778195096', '126749454', '2779223589', '2776841986', '2911118924', '2780771523', '70192387', '2779555806', '73791607', '2910269413', '2910856221', '2778195246', '2908720584', '2910108487', '2779591118', '2781154746', '2777967479', '2775992772', '2909029107', '2777836068', '2776633033', '2778448856', '2776662205', '2908618836', '2910775918', '2908626383', '2908733174', '2776865833', '11957725', '2776717089', '2910025087', '2777315282', '56837625', '2780533449', '70097482', '2781000418', '2910073837', '2776619873', '2909739154', '2908705592', '94747663', '75799743', '2910409263', '103879163', '2908945509', '2909545109', '2777095659', '2778201750', '2778124894', '2778450339', '2779774761', '2909922595', '2908832373', '2779532201', '2778899366', '163688568', '2909676933', '2910019721', '2779334592', '2779277721', '2781341109', '2779416561', '2911042575', '2910949744', '126398093', '2778432500', '2779359726', '2776887337', '2779422266', '2779676219', '2777590123', '2775946312', '203900970', '2777309587', '2777501473', '42475264', '2909293112', '109384507', '2910422816', '2908548476', '2776970450', '2909544108', '2776101711', '2908650623', '2779832356', '2908616789', '68473852', '2780504744', '2777499811', '2779625551', '2781362458', '2781078528', '2780950165', '20390774', '2910982019', '157207234', '2777131613', '2778904974', '2776619665', '53940066', '2776390723', '2781349093', '2910875745', '2780380082', '2910504710', '87325107', '2909640576', '2909202170', '2777955127', '2910159267', '2779517838', '2780902209', '2780859518', '2910283848', '2909739011', '2908929049', '2908955494', '2910036143', '2777704314', '25770073', '173372395', '2776796748', '20904676', '2911118192', '2909183989', '2777176818', '170370582', '2910377201', '2908958330', '2778039732', '16438837', '60465272', '2910454632', '2778620186', '2780439177', '2909999665', '2776466888', '2909318785', '2910052209', '2909916031', '2778111144', '2776015013', '2909810673', '2910036229', '2777428134', '2908622116', '167734588', '2909252273', '92184847', '2909326880', '2779949763', '2780062933', '2777704003', '2909557563', '2909182145', '2780080693', '2908829209', '2777478702', '121929971', '153112689', '2777929615', '2910136436', '2779439245', '2908866666', '8439097', '116914575', '2910588194', '159693508', '2910241243', '51296783', '2910722050', '2910254342', '2777849778', '2776661782', '2909731932', '49744831', '2910545187', '2776876231', '2781223772', '2778355491', '2909510684', '2779835254', '2781454130', '196166836', '2908529205', '159965564', '2777123777', '2778155620', '2909635826', '2909186428', '2909576165', '2910253179', '2780473477', '2910254670', '2778100702', '2778815751', '2781082889', '2909712178', '2909899372', '2909841141', '2911192292', '2909512196', '2780394083', '2909454697', '2910218167', '2779401946', '2778080812', '2775850156', '2776199212', '2910667552', '2777896191', '2775951664', '2910149566', '81831894', '2910602578', '2909223937', '142724271', '2777545354', '2777007597', '2777028646', '2779664119', '2776997535', '2781178150', '137555145', '2909321479', '2776860028', '2780124378', '2778800853', '2778693907', '2908569177', '2779830281', '2909292722', '2908811375', '2781438226', '2781087799', '2911051176', '2910531687', '2909707708', '2909563892', '2776710957', '2776108767', '137738243', '2776201145', '2910317908', '67258246', '2909477290', '2777312293', '2781074509', '2779399600', '2780249997', '2908815117', '2779600325', '2909330790', '107580501', '2778561785', '2779425088', '168563851', '2778942190', '2776954865', '2780200692', '2780404832', '2910878864', '2911139892', '2775897108', '2778523567', '2909886172', '186615474', '2777429382', '2910055077', '2778095195', '2909003683', '2778002379', '2908663126', '2910182219', '2778310968', '2779348387', '2910855215', '109663412', '2778609544', '2910319263', '2909266116', '201373426', '2780302854', '2776041390', '2776592573', '2776448121', '92899778', '2779854700', '2779015095', '2776230035', '2779812711', '2781283889', '2779491988', '2776890601', '2778607678', '2775868465', '2781001121', '2778619401', '2909681938', '2909403423', '2780361610', '2776438120', '2777512022', '2780520777', '2780005051', '2909247909', '2780868196', '188126409', '2777589315', '2908565935', '2779029879', '2778560516', '2778639011', '2779359454', '2776807919', '2776171489', '142652207', '2780451875', '2910077937', '2910216054', '2908697507', '189216375', '2911121021', '2911030046', '2910667942', '2775958869', '1008401', '2776982972', '2908905877', '2910013935', '2779005923', '2909506770', '2777932810', '2779052582', '2776079296', '2778690821', '2908585274', '2908864174', '2910105144', '2910366181', '2909811463', '2776319443', '2781403555', '2780655333', '2779296616', '2908805171', '2910031357', '2777325788', '2908944351', '2780799252', '2910107048', '2911208848', '173803235', '160941953', '2776549689', '2778376390', '2778763485', '2776941171', '154290542', '2910428653', '2779359763', '2908608937', '2910404750', '2780021956', '2780148635', '2779962030', '2780905192', '2778425758', '64270927', '2776634624', '2779506215', '2911100837', '2909588742', '2778456530', '2779159551', '2779967523', '2909708631', '8305913', '2779973787', '2776127602', '2779824493', '2910003292', '7806222', '2778338918', '2777822169', '2776943133', '2776109754', '2780326628', '2776782570', '2909402390', '20566671', '2911033983', '2910463589', '2780631194', '2908552408', '2779578232', '2780386007', '2779806340', '2908604491', '2909134871', '2909780825', '2780439664', '2781260171', '2776501849', '2910966316', '2778703144', '2779434501', '2779890223', '2777674748', '2910342144', '2780688133', '2910478951', '2909360751', '2777624698', '2776020670', '2776408163', '2777916540', '2777722931', '2779871620', '2781449126', '2775993617', '67419583', '2778334829', '2909265277', '138370407', '2778355574', '2910908196', '2908695031', '2910731796', '2779949828', '2778620428', '2909252803', '2780108899', '2908994268', '2777917003', '2910585295', '2781281211', '2910523756', '2777499176', '59659247', '2910779825', '2911097010', '2777767895', '2778435157', '2778385489', '2908580079', '2911033092', '2778258057', '68236139', '64348721', '2909947248', '2779166600', '2909134967', '2780050217', '2909153595', '2779694073', '49773422', '2909243696', '2908858883', '2911023886', '2780844630', '2780235182', '2781333301', '8162170', '2779501447', '2776826570', '2910584757', '2909730981', '2777543295', '2776247216', '90375314', '164794517', '2909366031', '2778434524', '2778975655', '144374066', '37600318', '2908614676', '135983454', '2778964498', '2908685445', '77061444', '187041448', '2779855586', '2776985229', '60311810', '149971331', '192144188', '2910446708', '2910001071', '2775955815', '2778765379', '2910459840', '2910444366', '2910583406', '2779141898', '2779303349', '2909491145', '177275483', '2776230353', '2910197365', '186706434', '2778025624', '38350389', '2780779046', '2910941237', '2777116130', '2777534427', '2908877890', '2780901464', '2908750483', '200886947', '2910920332', '2909430764', '2909764786', '2779281540', '2909669180', '2910530332', '2780053885', '2776660847', '2778511881', '2781230642', '2780750100', '2780052477', '2776924770', '2780972497', '172873279', '2778455708', '2779427065', '71318922', '2778815482', '2908525482', '2778680817', '2909559960', '2909675724', '2911076113', '2910083442', '2909243047', '2909258383', '2909055108', '2778918178', '4141045', '55932262', '2779322244', '67662055', '139542699', '2908531276', '2778742482', '2779741777', '2777544496', '2781291160', '14977645', '2909611190', '2909141691', '2778510232', '2909899890', '2910560156', '2910442062', '2776111603', '2776657501', '2909142939', '2781335743', '2776625112', '123439759', '2778780766', '2776933373', '2776190367', '2908885413', '2779113265', '2776415932', '2777488582', '2910770083', '2910891752', '2909046659', '2909786458', '2780124106', '2781139644', '2776760755', '2778540859', '2778749613', '88576662', '2776212419', '2910523615', '2909927449', '2778164427', '191597335', '2777813092', '2778401919', '2778030619', '2780451725', '2910209685', '96970771', '193395930', '2779106727', '2911063463', '182683403', '10213722', '2780477327', '2779797108', '2908599710', '2909340361', '2778171954', '82789193', '2909131691', '2780526094', '2777318378', '174483455', '14077384', '2778583881', '2911015437', '2909946173', '2778982777', '2908735916', '2909830472', '2779904257', '2777872592', '2778070212', '2780282741', '2778607538', '2911185262', '2776986829', '2778264360', '2911036208', '2909726801', '2781223538', '2776570981', '2779140760', '2779256057', '2909333923', '2909030593', '946728', '2909560645', '2781142479', '144746171', '2777570183', '17291353', '2908525900', '2776542223', '2780638295', '2777271458', '39961270', '72275087', '2781260279', '93248783', '2777519982', '2777896836', '2779972918', '2779362427', '2778951934', '133239900', '2910633621', '2779109515', '3951539', '20220851', '191548132', '2779742066', '2778860414', '2781001896', '88675164', '2775926640', '2781025758', '2780430637', '2780417328', '2908524910', '2909408791', '2908865982', '2908669801', '2776914184', '2910014858', '109964505', '2910231564', '2778242392', '2911144082', '2779746258', '2778643899', '2778724953', '130907195', '2910420959', '2777696064', '2911149364', '2778395058', '195735259', '2780263000', '2778147599', '2779639602', '126397004', '2777765862', '2910328848', '2776896314', '2780278869', '2909988172', '2777516009', '2781430460', '2780374578', '2780924926', '2781367151', '2910061293', '2777132456', '2776174234', '2911224790', '2781107259', '2911188072', '2776431099', '35519122', '2776510742', '2909003041', '2777363262', '2778190193', '2778886782', '2909961031', '140117577', '2780263450', '2779326848', '2910546734', '2777805810', '2910618077', '2778112660', '116716535', '2778561401', '67359045', '111774379', '2911156200', '2777788442', '83640560', '2909331172', '2776050914', '2909048508', '2909816603', '2776895894', '2777043163', '2908807925', '74505204', '2910040725', '2779059073', '2780179686', '88812974', '2778917124', '2781187916', '2781449700', '27081682', '2781037820', '2780026749', '2777845323', '160262196', '66509814', '2778581513', '99752389', '2776162027', '2779675984', '2910246616', '2777576356', '2909822135', '2910741956', '2910797910', '162466561', '140985366', '2776262250', '2777756538', '200270571', '2778093475', '2908594713', '85434573', '2910730026', '2908662865', '2777276199', '2779335785', '2776586934', '2910794433', '2909639559', '2781453105', '2910057982', '2778568479', '2779999352', '2910899711', '515851188', '2908732126', '2908638368', '2778828106', '2908726928', '2776589458', '2911069045', '2777390192', '2777091541', '2780510475', '2781393001', '2775842073', '2910938706', '17755696', '94176051', '2781414143', '2779066075', '2909106190', '2776290947', '2777697326', '2776873876', '74414138', '2909232728', '2910724458', '2911198927', '2780355897', '2910230336', '2909750111', '2776203871', '2910588183', '2778703501', '2910856874', '2776146329', '2777863537', '2779229383', '2780339557', '2910526516', '2778278907', '90474776', '16777580', '2779137044', '540533750', '2776695260', '2911125324', '2777452062', '2910825823', '140367703', '2780992421', '2777525834', '2777767877', '2909145159', '2910212619', '2910545406', '2778049256', '2781184604', '2909274345', '2780581329', '2779970488', '2909634169', '77957584', '2777944059', '2910508440', '2777997006', '2910910449', '2909061022', '2776237627', '9267231', '2780661788', '2778342957', '2780152582', '11750347', '2909688399', '2779117757', '2778013117', '2776302332', '129235324', '112446052', '2781263782', '2778131192', '2910726249', '91810186', '2910476497', '2778814963', '2910576237', '2910110407', '2778866548', '2777732084', '2908552644', '2909274023', '2908728446', '2778357063', '2781185574', '27016395', '2776919658', '2777388843', '2776759294', '2778041096', '2780529135', '2778307567', '2781088782', '2781117724', '2777391703', '42558546', '2778564307', '2911117634', '2910222551', '2777768864', '2781282915', '2777864624', '2780685332', '114373084', '2781317560', '2909307559', '2908896651', '2775886723', '2781076405', '2777001051', '2910519024', '2909023464', '2796436', '95190672', '2776140257', '202438428', '2909113568', '2780802079', '2909597000', '2778977796', '2780992837', '87396502', '42407357', '2909994101', '2776092581', '2910724155', '2779881037', '2909771307', '107130276', '2779280383', '2778822529', '2909001744', '547475151', '14372207', '2778579951', '2909938333', '96781048', '2777005246', '2779671804', '2910744126', '2776495304', '2778458888', '2908645847', '2780338112', '183786373', '2909010401', '2779255514', '138227536', '2910823671', '2908656328', '34320749', '2911046391', '2776877979', '2910259328', '186594802', '2909998350', '10708705', '5364575', '2776846927', '2777892665', '101083039', '2776246342', '2909377324', '2779404012', '2910121666', '200134340', '2779327488', '2908910360', '166587010', '2911180711', '2779232237', '2909989789', '2910172608', '2911099471', '2777671420', '2776888792', '113520495', '2781217586', '84606932', '2910480946', '99432707', '31897792', '2778575167', '2779924751', '2779367431', '2908754239', '2911221263', '2778548629', '2908590251', '2777474606', '2910259375', '2776164576', '2776260442', '2910834073', '2775876775', '68923441', '2780559412', '2910688913', '2911041505', '2778600029', '2776502132', '45664433', '2910842333', '2775883008', '2910397377', '2908884019', '2779609412', '2780225090', '2779031853', '2778200330', '89916169', '2908792346', '2910248122', '117287731', '2781271842', '2779466056', '2910243419', '2776395126', '2910714487', '2780884612', '2910928554', '2776010925', '2779702909', '2776551325', '2911057145', '2909506313', '2910843617', '2910874386', '2779004600', '2909387163', '121731113', '2911126944', '2780679668', '100207259', '2910779047', '30036603', '2780196419', '2780664722', '28588626', '2780171596', '2777585577', '2780473172', '2909667375', '2910711843', '2909954419', '2777925291', '2778593092', '2778806431', '2777734465', '2780764818', '2780145431', '2776104385', '2779329777', '2781309813', '2908773287', '62826618', '2909313721', '2779914510', '2908984359', '2780079024', '2776853612', '2776006475', '50820595', '2911133705', '2910151648', '2779272165', '24168220', '2778016631', '26410512', '2780919231', '2911116868', '84792229', '179585855', '90423213', '2779448150', '2778693846', '2776045273', '2910486959', '2776245682', '82988395', '13662513', '2908937881', '2908569176', '132096540', '2781163912', '2777669169', '2911212096', '2910607829', '2777645973', '2910389531', '2777662524', '2779978343', '2777520566', '2781357877', '2908636690', '2779906138', '2909716447', '2780017991', '2780408053', '66595182', '2778212101', '2909399630', '2776958162', '2776032170', '2909999035', '2909342898', '2909484270', '2908573545', '2780365284', '2910078463', '2776394411', '2910987955', '2778040462', '2780873584', '2908608199', '2909514060', '2781211901', '2780889667', '117277713', '2776385097', '2780177628', '2779745121', '2911162902', '2909646047', '2775961462', '37140074', '54808283', '2776714187', '2910971429', '141379421', '70410870', '2781286802', '147583825', '2909660725', '2781212463', '2779512504', '2910957612', '135935922', '2776148467', '96851999', '2910106459', '2776326535', '2778347629', '2778144968', '2908910509', '2911017463', '2776042228', '2780504313', '2778509427', '2778922544', '2910900197', '2911114841', '2909523310', '2909695083', '2780868683', '2910934632', '2909042477', '2909829934', '2778689963', '204641814', '2777321227', '2780390030', '2910732065', '2779178101', '2776315796', '2777557582', '147393917', '2911188655', '2909828192', '2780829609', '2909972652', '2780814755', '2777226933', '2910321686', '2776354707', '60291530', '94487597', '2781059491', '2910616887', '2777218474', '201662476', '123741691', '2909795662', '2909146037', '2777556793', '2777023796', '2777078754', '2910162288', '2776952691', '2909570427', '2910858114', '2908814551', '2777361368', '177779419', '2781214320', '2780217654', '511355011', '32363146', '127634017', '2909686017', '2781005124', '43100952', '2779953772', '2776988256', '2776031079', '2781184374', '2778760513', '2777063820', '113362759', '2908595226', '2909181948', '2780717550', '2781278258', '2910716684', '2776473794', '2779352702', '2909349412', '2778875491', '2910598428', '2778974821', '2910234489', '2778066728', '2910659883', '2910070530', '2778086073', '2776731943', '2778543330', '44353895', '2909762448', '2777768476', '2911218481', '2910795285', '2910734926', '2910795018', '2778576187', '46762472', '2776046087', '2910348288', '2780468322', '111853940', '2775926220', '162354598', '2780832309', '2910468371', '2911003583', '2777529043', '2779283013', '2909797067', '2910844663', '2908640290', '71877077', '112012222', '98535976', '2911028106', '2779248548', '2910581506', '2909339692', '2775845063', '11181451', '2778329176', '2778215411', '2908536949', '2910181023', '2909419582', '2910592051', '2909223747', '193206974', '2780999072', '2910800957', '2778064476', '2910959060', '2779376662', '118303440', '2780022331', '2908624301', '2778523565', '91478284', '2779714868', '2909845487', '2776886281', '2909439560', '2910884242', '2909082478', '2776331378', '2909183380', '2778616834', '2777031258', '58415070', '176574934', '98229152', '2780224187', '29694066', '2780086673', '2910097266', '2776572759', '2780674886', '162521499', '2909951594', '2778123908', '2781092957', '2910729685', '2778442980', '2910545473', '2909135397', '2911192235', '2778681941', '2778930769', '2909505405', '2910423619', '2910969529', '2910835569', '555299818', '2776207105', '2910426407', '83898325', '121897927', '2781302539', '2781376033', '2779384505', '522138142', '2910744652', '2911082567', '62746215', '2780911114', '2780252810', '161126747', '2910543931', '2779077671', '2775854548', '134068817', '2910384157', '113217602', '2780275434', '2780742577', '52338299', '2909908890', '2776127031', '2777327098', '2777698862', '2910427980', '2910426550', '2780549859', '2909447094', '2777550365', '2777803847', '2910727132', '111113717', '2780817109', '2911146124', '182303636', '2780658713', '188313352', '26291073', '2909896201', '2909257246', '158328960', '99631742', '2909742758', '2778311284', '2778941884', '77281830', '2776001837', '2776841633', '2777151630', '2779096551', '2777541518', '2780770173', '2910595505', '2910773501', '2778826181', '40479148', '2911143118', '2910829485', '2777472678', '2780801906', '2780327821', '2909111585', '2780824610', '2909828532', '68184109', '2776470351', '2779300802', '2909237501', '2781301203', '2909533791', '2776890697', '2777379352', '2778532077', '164098820', '2910841257', '2911008236', '2779170295', '2909203610', '207886595', '207451115', '2909834198', '2780472472', '2777740455', '45855136', '2911103328', '58548122', '2909253557', '2779696190', '2780187287', '2778258694', '2910279656', '2778943559', '2910592416', '2776169904', '2778222187', '2777072894', '2909852777', '2781459932', '516994506', '44695001', '2780553527', '2780793704', '2779970363', '2909152312', '2780255948', '2777616141', '2909046181', '2780962315', '2780741745', '2908585912', '2779117399', '2909794134', '2910890094', '2778171261', '2910132316', '2777329042', '514793146', '2776573122', '2910194848', '14471711', '2780073493', '167227067', '2780522763', '70466539', '33842487', '2778791338', '2778565105', '2909075564', '2779318228', '5858377', '2781183200', '2781245343', '2910333467', '2778034410', '2781278898', '2777793004', '2777479973', '2910555652', '46617944', '2910018496', '97001182', '2778965110', '540938839', '169885649', '2909992730', '2780395675', '2775892736', '2780654407', '2908988968', '107968991', '2910153935', '2910929040', '2777844706', '167506701', '2779997758', '2910323103', '2778501154', '2780401358', '106358424', '519063684', '134052142', '2909387564', '2777231552', '2776661909', '2779908522', '2778095995', '126451531', '2780353417', '2909900342', '2777302536', '2910731107', '2908767450', '2908832293', '74172505', '2909931228', '2779370443', '2776113144', '2909103211', '2776850375', '2781449511', '188389365', '2908889796', '2909373784', '2776625026', '2909101505', '2776165558', '2909402287', '549366670', '2910204097', '60897473', '117958382', '2779420931', '2778097271', '2780741920', '195267511', '2778534123', '2779237081', '2779017616', '2778045071', '2779850590', '2910620825', '2909400351', '2778492296', '2909257615', '2776459250', '2780887989', '2781177144', '2776667417', '125864771', '186000732', '2779624279', '2777886879', '2778529815', '2776514930', '145430368', '2778993773', '2909139677', '2776835828', '2776551883', '2776161765', '18150654', '2910051566', '2778534349', '2779213276', '2781308992', '2909984949', '2910763605', '2911126425', '135604509', '2911042503', '89138240', '116270902', '2910753976', '2909507971', '2778360059', '2780893507', '4951695', '2777434363', '2908761088', '2778642235', '2779108703', '2779377019', '2777016617', '73248790', '2781071720', '2780757758', '2779470654', '2776468184', '2909257092', '2908826802', '2778401633', '2775926025', '2910324773', '2776387214', '2910470873', '2911014034', '2780414542', '2910392507', '33364599', '130981225', '2909465150', '171790689', '2781144229', '2910081474', '174106267', '2910987222', '2909992395', '2779903241', '2778353619', '2780148200', '2909132733', '2910753673', '2780376277', '2910856241', '192536144', '129642508', '2911142504', '2908996419', '2780094326', '2777194990', '2776667541', '2779293378', '2778334751', '8840205', '2777129507', '2911202927', '2779582425', '2776179406', '2909461310', '2910217441', '2776671928', '2780043985', '2908964206', '190796033', '2780931571', '2778162587', '2909337157', '168507396', '89256451', '2909284606', '2780496750', '2909149441', '2780398090', '2778838027', '2778064278', '2909686077', '2779087320', '2910831396', '109095088', '25095133', '2776754050', '2777478136', '2777674692', '2910895244', '2910423217', '2911127051', '2908882759', '83256716', '103474210', '83330619', '2776371117', '2780952370', '2777088508', '2778989668', '2779705553', '2775932942', '2910316244', '2909179462', '2778472085', '2911163111', '2909151167', '2910885554', '2776062744', '2776756971', '2776366509', '2910179690', '118798702', '2781241564', '169900460', '2909590382', '2909511222', '2910949272', '84250820', '2910582557', '2780508971', '15358309', '2778043341', '2778045388', '158383150', '2908549244', '2776928572', '2781313946', '2778371730', '2908893528', '2779138974', '2909389395', '2909174352', '2909600298', '38027674', '53673613', '2910801214', '2909440331', '2909164899', '207103383', '2777240379', '183476254', '147656717', '2908887829', '2778887763', '126249036', '2778891214', '2779026604', '2908575184', '47042493', '33235085', '2779745421', '2776581510', '2910691218', '2780269264', '2780434050', '68239362', '2776364838', '2909180971', '2780694816', '2778911148', '2910616564', '2910194096', '2910112092', '2781121325', '2908737027', '2909516719', '2910772362', '2778593620', '2781308932', '2778509035', '2777868816', '2909368941', '2911017213', '2777494893', '2778988552', '2777785214', '2776343132', '18468158', '2781083543', '2910460592', '2909817662', '2910824549', '2777011040', '2910241781', '2908765782', '2910070047', '2780640149', '49280892', '2780611866', '95012187', '2778896982', '2781191690', '2909189701', '2909403584', '2910757651', '2909280258', '2779298748', '2779357504', '191942190', '2777044684', '2909395874', '2910029113', '2779705797', '2908611220', '187382586', '2908794349', '2910076437', '2777594644', '2778959117', '2779199973', '2910231079', '2910236225', '2910053146', '2910430321', '2910112148', '2779782008', '2776072629', '2910632454', '2779583294', '14430832', '2776924184', '2909652001', '2776007765', '2910490598', '2910400954', '2908629743', '2779499704', '2777736040', '2780350528', '2777618171', '2779117999', '2909279822', '2780724011', '2910122374', '2778198053', '2911145017', '2777643638', '2780089965', '2777330947', '44519122', '171022839', '52173716', '2777711708', '2780644109', '2911006069', '183193105', '2910417355', '2909629093', '2910570508', '2777178098', '2777375854', '2908566023', '2779504368', '2908816791', '2910404190', '2776291336', '2777172399', '2777546802', '2776165401', '2911031959', '2909560266', '2910125355', '2780608534', '2777591348', '2909646321', '2909966058', '2910736905', '201879378', '2908710734', '2780499067', '14909468', '2777742739', '2910504865', '15084478', '2778132481', '2778561011', '135964268', '2910552717', '2775900799', '2910136099', '2909772526', '2909648505', '2908665234', '2911000389', '2781068581', '2778499278', '2780928941', '2778995054', '2777785093', '204909193', '2909907785', '2777693730', '2781099255', '2781347215', '2909910804', '2910305967', '2779066085', '79904392', '192196715', '2776191035', '85905560', '2909832856', '207701140', '2909786779', '2776448654', '2911059390', '2908630660', '2909273432', '2910154495', '2776613520', '2779078216', '175554068', '2777493462', '2781323092', '2780054614', '2781414619', '155164915', '2780011137', '2776246392', '63929147', '2778105408', '2909980966', '2908767890', '2781032171', '2780062341', '2910093991', '161473406', '2909022807', '2779155698', '2909558004', '2778392474', '2909968983', '24566897', '2911197035', '2777705978', '2776056871', '2910732395', '2777267915', '71928629', '2778524098', '2780660124', '198867934', '2777336333', '189812789', '2777338322', '2909590427', '2777573665', '128709446', '2909746581', '2779444900', '2781049234', '120642132', '2778987889', '2909485820', '2908808525', '2910403374', '2908596826', '2776811147', '2909216229', '2909965686', '2778764654', '2779982284', '2910439810', '2777239080', '2779881954', '2778266373', '2910369898', '2779922434', '2775946357', '25311885', '2777676773', '2909940878', '59491497', '2909380268', '2776466505', '2779528086', '2779497356', '2910951705', '88785568', '2910040087', '2779977602', '2779456496', '2909074196', '2911136255', '2779072444', '2777012931', '2909362864', '2779705967', '2781332345', '2775882741', '2778117581', '2910652323', '2910498184', '2908859039', '80782408', '2909295449', '2776531350', '2779553505', '2909638883', '2910448636', '2777011798', '2909926780', '125473707', '97633540', '2778132581', '2910486316', '2777542379', '2908639176', '2775938633', '2777768114', '2780416959', '2777645581', '2776776819', '2779086471', '53371666', '2777066987', '2776656118', '2911111475', '2910693430', '184834754', '2776311326', '176762198', '2779572014', '104314149', '545314008', '2779662324', '2780439530', '2780043152', '165383583', '2910777914', '2780091579', '2909084885', '2779224224', '2781209748', '2910378429', '2776913061', '2781083702', '2778562196', '2779406938', '2910683987', '2910324532', '2910806931', '2778110834', '2776268974', '2780874087', '2780329011', '2780822005', '2779630707', '2908742820', '2775942659', '2909584134', '2909476064', '2777216955', '2911067400', '2781305912', '2910327704', '2908920599', '2778380114', '2780930691', '2909620887', '2780789225', '182072434', '2909644182', '2777511614', '134527620', '2775882047', '2780668416', '2909680674', '2908564923', '2778689667', '2778162197', '2777207633', '2910558858', '20860254', '2909063110', '2909476600', '2776362883', '2777747462', '2777868179', '2908785520', '527108885', '29095</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>['100068826', '100094513', '100207259', '10021790', '100243477', '100259107', '100368936', '100406419', '100480397', '100548800', '100564792', '10058791', '10064560', '100691959', '100787162', '100798922', '100837961', '1008401', '100924687', '1009742', '101014631', '101027131', '101054994', '101068787', '101070640', '101077360', '101083039', '101181784', '101265243', '101313458', '101414908', '10146269', '101531171', '101544691', '101595628', '10162356', '101635128', '10165471', '101755528', '101812284', '101819947', '101864126', '101972281', '101980400', '101990758', '101997407', '102003337', '102044542', '102054029', '10205521', '102072564', '102107297', '10213722', '102139631', '102190203', '102219930', '102225024', '102309675', '102570824', '102652120', '102655426', '102747710', '102758585', '102793881', '102803821', '102940268', '102942909', '103000137', '103038586', '103041312', '103072069', '103133801', '103191249', '103203806', '103247709', '10324989', '10335311', '103364767', '103378370', '103395026', '103402496', '103432212', '103474210', '103486182', '103488450', '103539492', '103607123', '103637391', '103697762', '103709681', '103728769', '103761620', '103790658', '103813035', '103879163', '10389963', '104122410', '104148171', '104177226', '104202773', '104211972', '104293457', '104314149', '104335537', '104392178', '104397207', '104397665', '104428545', '10446079', '10447061', '104471311', '104545631', '104551158', '104628117', '104629339', '104672736', '104690221', '104745856', '104788683', '104819515', '104826730', '104849204', '104863432', '104950815', '104965131', '104966671', '104978184', '105021932', '105054674', '105063623', '105064666', '105083479', '105099762', '10515644', '105497691', '105538184', '105565629', '105572291', '105619462', '105641010', '105662462', '105696609', '105697748', '105698618', '105702510', '105780059', '105786092', '10590036', '10590107', '105922876', '1060249', '106186310', '106192422', '106207104', '106208931', '106257327', '106285112', '106358424', '106374777', '106420622', '106434640', '106476913', '106646824', '106795968', '10679952', '106812560', '106825092', '106847996', '106881830', '106977388', '107006841', '107130276', '107144379', '107211472', '107400117', '107433012', '107459253', '107533109', '107539642', '107580501', '107641696', '107727221', '10775765', '107824862', '107846503', '107888121', '107968991', '108119643', '108185170', '108215921', '108249834', '108305453', '108318186', '108516343', '10852380', '10854531', '108579999', '108619961', '108625454', '108657112', '108701171', '108737030', '108789577', '108797546', '10882517', '10885799', '108905452', '109046077', '109051061', '109076886', '109095088', '109110057', '109115496', '109130350', '109156525', '109260823', '10928738', '109317608', '109335069', '109344038', '10936531', '109384507', '109419661', '109523444', '109541995', '109549099', '109591128', '109592283', '109650736', '109661977', '109663412', '109827123', '109838722', '109964505', '109982973', '109986877', '110021049', '110113598', '110235638', '11024576', '110387660', '110459506', '110537703', '110539466', '11054436', '110586980', '110726550', '110754006', '110758877', '110894328', '110913234', '110921888', '111001777', '11100694', '111023892', '11105738', '111113717', '111133373', '111203513', '111214947', '111278954', '111289621', '111337013', '111364199', '111369323', '111425858', '111441629', '111459926', '111507845', '111566952', '111599444', '111669997', '111683008', '111684460', '11171543', '111758988', '111774379', '11181451', '111815664', '111829913', '111850983', '111853940', '111926329', '111936080', '111963520', '111998727', '112012222', '112049663', '112098571', '112143881', '112144039', '112190416', '1122143', '112224295', '112365835', '112390072', '112392421', '112418997', '112423150', '112446052', '112476095', '112497637', '112516734', '112570445', '112592302', '112636313', '112641889', '112672928', '112705442', '112892834', '113012060', '113045295', '113062710', '113098757', '113162765', '113214860', '113217602', '113278225', '113280763', '113308832', '113323301', '113362759', '113445564', '113480226', '113514311', '113520495', '113561526', '1135709', '113584667', '113616995', '113646796', '113657865', '113670536', '113675107', '113706061', '113775271', '113835550', '113968399', '113976765', '114009990', '114029902', '114115404', '114200698', '114246631', '114276007', '114373084', '114459686', '114494560', '114538912', '114565086', '114669353', '114682108', '114691636', '11472687', '114735433', '114851261', '114874019', '115085202', '115086926', '115174607', '115260700', '115346097', '115368759', '115448650', '115456853', '115459068', '115464522', '115466790', '115477683', '115490710', '115504290', '115505304', '11569505', '115725540', '115955781', '116003164', '116016267', '116024289', '116030530', '116114238', '116227048', '11625366', '116254018', '116263406', '11626679', '116270902', '116289061', '116321358', '116390426', '116558999', '116567970', '116581196', '11658465', '116592611', '116675565', '116694073', '11671645', '116716535', '116810829', '116856471', '116871256', '116887118', '116914575', '116919411', '116938221', '11701158', '11713176', '117156480', '117214928', '117262875', '117277713', '117287731', '117354338', '117365660', '117437137', '117499352', '11750347', '117568660', '117643217', '117644', '117717151', '117718741', '11772777', '117794106', '117812244', '11783203', '117866178', '117943116', '117958382', '11804247', '118094880', '118131993', '118147538', '118190526', '118220434', '118232355', '11824378', '118303440', '118316555', '118324377', '118441373', '118487528', '118493204', '118494813', '118552586', '1186008', '118646709', '118742737', '118776929', '118798702', '11882975', '118892022', '118934951', '118939319', '118963712', '119072478', '119088629', '119128870', '119157973', '119195557', '119343949', '119421448', '119423318', '119524353', '11957725', '119577978', '119584498', '119653847', '11966187', '119663443', '119671327', '119709500', '119736317', '119765067', '119767625', '119811328', '11988809', '119907115', '119999709', '120039088', '120069818', '120089663', '120095434', '120107772', '120195587', '12021080', '120488504', '120504264', '120575601', '120642132', '120678306', '120750228', '120763696', '120770815', '120791594', '120835403', '120863210', '120863692', '121013533', '121039342', '121117317', '121143604', '121157162', '121207290', '121244757', '121246419', '12125453', '121272143', '121446783', '121528942', '121587040', '121608353', '121731113', '121738310', '121752807', '121857725', '121897927', '121912465', '121929971', '122048520', '122060243', '122129578', '122147968', '122156500', '122229402', '122245378', '122246415', '122247490', '122356138', '122376413', '122428330', '122519844', '122522123', '122635869', '122682173', '122732770', '122816508', '122817143', '122862929', '122881758', '122927707', '12296475', '122980214', '123012128', '123202247', '123233396', '123273963', '123298856', '123321153', '123439759', '123550912', '123576220', '123576724', '123584848', '123593499', '123605464', '123688308', '123719069', '123741691', '123765429', '123792249', '123915805', '123950299', '123982805', '124103328', '124170894', '124223262', '124306116', '124315065', '124320809', '124490489', '124535831', '124594742', '124662488', '124722728', '12487841', '124936440', '124964019', '125017169', '125046197', '125111812', '125118446', '12515866', '125168821', '12519072', '125198404', '125268873', '125311645', '125349252', '125370674', '125439840', '125450847', '12546600', '125473707', '125555471', '125567185', '125590012', '125593758', '125619963', '125667969', '125823703', '125838542', '125864771', '12590561', '125920245', '125929170', '125938697', '125990524', '126009470', '126037660', '126042829', '126086293', '126093377', '126139899', '126189478', '126249036', '126322002', '126397004', '126398093', '126451531', '126511603', '126749454', '126838900', '126855140', '126863065', '126894567', '126965237', '127077266', '127078168', '12722491', '127315564', '127445978', '127549127', '127561419', '127607297', '12770488', '127716648', '127793841', '127801297', '127812441', '127955056', '128056066', '128057223', '128102431', '128107645', '128188215', '12823836', '128240485', '128448793', '12847509', '128526571', '128534915', '128540205', '128544194', '128644962', '128709446', '128717455', '128879288', '128972844', '129013479', '129047720', '129119232', '12914427', '129189402', '129235324', '129301982', '129374314', '129437159', '129470790', '129470801', '129536746', '129564537', '129573333', '129642508', '129692064', '129794360', '129802253', '129853837', '129900496', '129930760', '129979053', '130010870', '13002179', '130049864', '130093455', '130211564', '130217890', '130241916', '130287650', '13028836', '130321593', '130388937', '130452526', '130523297', '130679736', '130693829', '130787975', '130796691', '130832406', '130895681', '130907195', '130914007', '130915335', '130937978', '130959647', '130981225', '131138744', '131140426', '13121076', '131253125', '131509275', '13164669', '131665280', '131667965', '131722271', '131783052', '131793682', '131872663', '132096540', '132141352', '132155493', '132215199', '132351222', '13245373', '132538176', '13255150', '13260007', '132787861', '132922666', '133112747', '13311642', '133165541', '133229898', '133239900', '133354120', '133397671', '13348194', '133488467', '133493029', '133507102', '133529732', '133570447', '133603901', '133604927', '133605539', '133623452', '133652896', '13373296', '133753094', '133828647', '133927893', '133936738', '133944241', '134011695', '134018914', '134040284', '134052142', '134068817', '134093067', '134139212', '134164806', '134170938', '134193097', '134247398', '13425408', '134290984', '134316261', '134362201', '134499376', '134527620', '134534832', '134592886', '134659438', '134659918', '134678942', '134728086', '134786416', '134801348', '13483470', '134897094', '134935766', '134984996', '134995413', '135073763', '135110736', '135139957', '13516070', '135215475', '135285700', '135301140', '135301442', '135448224', '135576274', '135604509', '135691158', '135693964', '135710506', '135760203', '135798562', '135870905', '135903288', '13590703', '135964268', '135983454', '135984084', '135996827', '136011009', '136015124', '136064195', '136193539', '136203487', '136229726', '136269033', '136302470', '136339569', '136357698', '136380597', '136449434', '136496925', '136502266', '136511781', '136524200', '136525101', '136547172', '136569192', '13662513', '136686920', '136712289', '136834591', '13685319', '136935669', '136936797', '136940099', '136948725', '136953436', '137061746', '137130169', '137132547', '137183658', '137265123', '137323160', '137338518', '137361374', '137487509', '137555145', '137627325', '137627569', '137711082', '137738243', '137756551', '137762411', '137813230', '137848329', '137866125', '137878579', '137886200', '137916694', '137992405', '137993225', '138010386', '138040679', '138055712', '138100754', '138227536', '138370407', '138463869', '138603459', '138651985', '138758888', '138798377', '138816342', '138851942', '138873322', '138906646', '138917182', '138976137', '138981284', '139047046', '139059822', '1391233', '139162783', '139174496', '13918539', '139254425', '139265228', '139275648', '139319395', '139407321', '139542699', '139563560', '139566807', '139572402', '139730468', '139733416', '139770010', '139812875', '139940330', '139964883', '139966638', '140027455', '140117577', '140173407', '140206745', '14029885', '140331021', '140367703', '140441792', '140529851', '140530291', '140556311', '140608501', '140658175', '140682164', '140704245', '140764562', '14077384', '140800825', '140840227', '14086860', '140884156', '140933497', '14093617', '140944930', '140985366', '141071460', '141087196', '141102330', '141105273', '141239990', '141330323', '141341695', '141359234', '141363852', '141379421', '141388940', '141421786', '141440757', '14145190', '141480434', '141516989', '141547260', '141666547', '141710004', '141795571', '141832487', '14184104', '14185376', '141882274', '141937037', '141961939', '141983124', '14200731', '142054583', '142083821', '142104173', '142110763', '142164852', '14216870', '14218858', '142225936', '142354902', '142454548', '142462285', '142536801', '142590548', '142600243', '14262774', '142642502', '142652207', '142656374', '142666515', '142716871', '142724271', '142757262', '142773365', '142876473', '142923127', '143016879', '143121216', '143128242', '143128703', '14314382', '14316530', '143172330', '143211211', '143228043', '143380155', '143409427', '143425029', '143432726', '143441281', '14348934', '14356644', '143590678', '14363569', '143647101', '143661069', '143689837', '143701427', '14372207', '143733281', '143753070', '143781015', '143876685', '143910341', '143916079', '143948831', '14397066', '143998085', '144174609', '144251240', '144293060', '144301174', '14430832', '144369459', '144374066', '144382850', '144464004', '144469398', '144494922', '144543706', '144594695', '144621757', '144647389', '144707691', '14471711', '144746171', '144814538', '14482466', '144855686', '1448646', '144980905', '14498672', '145059251', '145065098', '145103041', '145156650', '14522933', '145314362', '145333580', '145352495', '145417883', '145430368', '145458877', '145558887', '14564219', '145642194', '14568323', '145725615', '145734003', '145798840', '145803527', '145822097', '145940234', '146003541', '146033667', '14606030', '146201443', '146285616', '146304588', '146403970', '146470893', '146539212', '146543888', '146556889', '146562846', '146638467', '146819174', '146926590', '146957229', '146998594', '14705128', '147075424', '147080431', '147224300', '147230242', '147268084', '147393917', '147447768', '147454874', '147483822', '147509754', '147532639', '147583825', '147642095', '14764753', '147656717', '147708747', '147717901', '147944092', '147990577', '148001335', '148089829', '148125776', '148132819', '14814345', '148257392', '148318117', '148325268', '148374829', '148482608', '148518437', '14855644', '14858245', '148632171', '14865658', '148736943', '148737382', '148762608', '148792484', '148810546', '14883731', '148968398', '14909468', '149137113', '149151106', '149172746', '149323552', '14942488', '149443304', '149532602', '149550507', '149574134', '149574991', '149577978', '149588370', '149601957', '149616953', '149627874', '149629667', '149734636', '149774189', '14977645', '14982423', '149830592', '149892131', '149971331', '149984733', '150008808', '150011116', '150109051', '150126318', '150149183', '150173298', '150173356', '150253156', '150420422', '15045988', '150489694', '150582083', '150594956', '150670458', '150681269', '150684551', '150710994', '150720761', '150731610', '15084478', '150875184', '150879485', '150960172', '150966472', '151032500', '151054161', '15107229', '151077648', '151166631', '151260436', '151279780', '151279926', '151286553', '1513209611', '15135980', '151484617', '151492266', '151495721', '151626666', '151637689', '151666851', '151678543', '151955695', '151956035', '152000582', '152018380', '152037538', '152091265', '152110520', '15215337', '152163801', '152194808', '152198750', '152204938', '152236973', '15224491', '15227285', '152328610', '152365676', '152443987', '152478114', '152541439', '152572085', '152605822', '152624196', '152662350', '152669594', '152724338', '152755659', '152848526', '152857842', '152918924', '152978389', '153050134', '153074725', '15310415', '153112689', '153209595', '153396756', '153430590', '153461711', '15358309', '153639570', '153668287', '153726182', '153739169', '153852466', '153891595', '153899047', '153939273', '153968139', '153995572', '153997805', '154145042', '154148813', '154253233', '154269507', '154281038', '154290542', '154317770', '154317977', '154387431', '154390347', '154414509', '154456304', '15451672', '154559735', '154602059', '154606282', '15471489', '154743399', '154758884', '1547928', '154808844', '154810607', '154874363', '15490471', '15491014', '154954056', '154988683', '155104915', '155164915', '155164980', '155175808', '155184778', '155261790', '15526883', '155392382', '15546506', '155520015', '155614148', '155619193', '155701950', '155710745', '155730078', '155781438', '155806632', '155863897', '155887181', '155911762', '155955805', '155977592', '156155473', '156168145', '156185480', '156293190', '156300145', '156310829', '156312663', '156321', '156352284', '156399914', '156407911', '156490143', '15660099', '156662089', '156725737', '156730664', '156737912', '156833797', '15686315', '156902634', '156904656', '156927020', '156957248', '156983192', '157014961', '157081693', '157207234', '157263640', '15729860', '157333092', '157481446', '157541749', '157610535', '15763796', '157695867', '157763539', '157767197', '157773166', '157787499', '157820659', '157837121', '157853778', '158026453', '158074577', '158171629', '15824746', '158279846', '158328960', '158383150', '158424129', '158453852', '158457848', '158471640', '158518442', '158553322', '158592959', '158608086', '158685282', '158703441', '158739034', '158767281', '158846371', '158944026', '158951850', '159047783', '159048773', '159110408', '159110652', '159115132', '159167319', '159382316', '159399396', '159431405', '159483092', '15952604', '159545944', '159641895', '159654299', '159674089', '159693508', '159738032', '159824338', '159859350', '159879943', '159894899', '159919123', '159965564', '159973064', '160022790', '16005928', '160099875', '160106267', '160110348', '160145004', '160146798', '160148424', '160225129', '1602351', '160262196', '160268369', '160284661', '160306043', '160351604', '160448771', '160450060', '160507315', '160539049', '160735492', '160802310', '160860887', '160911440', '160941953', '161039048', '161126747', '161167727', '161176658', '161188086', '161200384', '161238802', '16124881', '161312837', '161407221', '161457703', '161471255', '161473406', '161478664', '161517192', '16154277', '161573976', '161600633', '161681244', '161721461', '16184334', '161937551', '161941745', '162151065', '162157009', '1621761', '162264550', '162317418', '16232356', '162354598', '162407555', '16246696', '162521499', '162536842', '162666371', '162740809', '162834538', '162863750', '162948026', '162967406', '163002167', '163015866', '163035849', '163096569', '163100246', '163146387', '163170386', '163181125', '163214680', '163235415', '16328479', '16328936', '163327493', '163424354', '163430725', '163432668', '163498912', '163507328', '163515075', '163588942', '163688568', '163698547', '163713842', '163716698', '163763905', '163764329', '163864487', '163895629', '163949779', '163950791', '164027704', '164098820', '164132191', '164334714', '16438837', '164465091', '164491936', '164585084', '164699527', '164705383', '164718446', '164735488', '164749973', '164794517', '164854266', '164953862', '164974683', '165069038', '165135838', '165220095', '165254790', '16525657', '165258192', '165267168', '165268517', '16527932', '165383583', '16541007', '165455791', '165520287', '165538109', '165616093', '165617652', '165637930', '165637977', '16568411', '165788157', '165864922', '16587737', '165891034', '165901193', '165912504', '165998758', '166029249', '166116840', '16613235', '166151169', '166252455', '166325227', '16634123', '166342909', '166345560', '166397571', '16643866', '166516326', '166565724', '166587010', '166832727', '16685009', '166888038', '166936260', '16693951', '16696662', '166976648', '167007842', '167063184', '167135981', '167168088', '167227067', '167290458', '16741180', '167414201', '16744765', '167454224', '167464567', '167506701', '167508917', '167552308', '167624593', '167639399', '167661972', '167699689', '167704817', '167734588', '167752854', '16777580', '167785021', '167865332', '167925730', '168031717', '168053482', '168129202', '16824249', '168246906', '168258287', '168260308', '168261976', '16837860', '168444539', '168481208', '168507396', '16851059', '168557263', '168557967', '168563851', '168763156', '16884060', '168866064', '16895185', '168976158', '169126688', '169274487', '16930146', '169331234', '169363364', '169382597', '169435470', '169503297', '169554166', '169710862', '169885649', '169900460', '169908864', '169976356', '170033053', '170094789', '170178370', '170193765', '170217031', '170240278', '170286479', '170286685', '170320452', '170322944', '170370582', '17037162', '17039732', '170457331', '170477896', '170493617', '170494330', '170627219', '170700871', '170734499', '17077164', '170774537', '170794382', '17093226', '170933274', '170958749', '170964787', '171020997', '171022839', '171034665', '171039662', '171041071', '171089720', '171122931', '171139928', '171225661', '171279029', '17131424', '171321305', '171342078', '17137333', '17140001', '171504099', '171560490', '171606756', '171614378', '171687745', '171715492', '17172800', '171779818', '171790689', '17189327', '171896709', '172034944', '172070357', '172081034', '172105316', '172110603', '172195485', '172235718', '172268261', '172313692', '17235551', '172399796', '172400760', '172408975', '172467417', '172497186', '172507514', '172525866', '172590197', '172606299', '172659308', '172680121', '172710988', '172712801', '172773627', '172783574', '172829275', '172832842', '172873279', '17289045', '17291353', '172948143', '173172909', '17318760', '173202427', '173283019', '17329761', '173372395', '17341445', '173417002', '173586616', '173622453', '173706397', '173803235', '173811977', '173906292', '173974348', '173988693', '174106267', '174260850', '174286582', '174293024', '174446222', '174459258', '174478892', '174483455', '174618031', '174782155', '174865614', '174884520', '174921431', '174940676', '174982496', '17502307', '175065742', '175079658', '175182502', '175193931', '175239898', '175259745', '175344181', '175347309', '175554068', '175656101', '175668461', '17567262', '175696284', '175732170', '175738201', '175768497', '175773311', '175805485', '175894554', '175933922', '175969161', '176080148', '176080213', '17624336', '176303035', '176400912', '176574934', '176656743', '176672177', '176674119', '176685330', '176743888', '176752191', '17675752', '176762198', '176860957', '176891718', '176912530', '176944494', '177129845', '177242865', '177275483', '177336024', '177430391', '177432677', '17743292', '177446709', '177462420', '177504595', '177532604', '17755696', '177580304', '177658893', '177669144', '177713679', '177752829', '177779419', '177825189', '177857423', '177860879', '177865409', '177907266', '178006227', '178059049', '178108356', '178125196', '178169997', '178195510', '17822864', '178278151', '178352248', '178409289', '178441611', '178469349', '178524689', '17857428', '178592051', '178596483', '178640370', '178697064', '178853913', '178855305', '178910020', '178921289', '178992907', '179053475', '179159245', '179179568', '179185449', '179200502', '179223381', '179226034', '179253579', '179264091', '179265757', '179335377', '179369057', '17938293', '179402230', '179437574', '179464577', '17954761', '179585855', '179603426', '179639408', '179661763', '179671157', '17971392', '179744019', '179755657', '179786068', '179833586', '179852193', '17991360', '179927520', '179933525', '180032290', '18007350', '180081513', '180196505', '180238147', '180296930', '18033762', '180361614', '180526460', '180541679', '180650514', '180675623', '180746962', '180838311', '180899940', '180915046', '181080969', '181152851', '181268634', '181299854', '181389837', '181401712', '18150654', '181588539', '181607587', '181612422', '181628713', '181709278', '18172741', '18183760', '181843262', '181844944', '181901479', '181907467', '181993826', '182025440', '18206936', '182072434', '182203180', '182215343', '182220744', '182276654', '182303636', '182421915', '182531022', '182536299', '182594692', '182601333', '182615771', '182629451', '182676581', '182683403', '182704531', '182707283', '182752723', '182829757', '182843373', '182890174', '182899088', '182928434', '182957341', '183115368', '183141693', '183193105', '183315844', '183418187', '183454016', '183469790', '183476254', '183481951', '183521366', '183529106', '183641309', '183683566', '183698672', '183713625', '183776436', '183786373', '183836922', '183839525', '184112429', '184117892', '184138380', '184149073', '184151982', '18431079', '184389661', '184538305', '18468158', '184710815', '184738001', '184753264', '184760221', '184763741', '184834754', '184937244', '184954099', '184959132', '185032368', '185083961', '185154212', '185263204', '185265303', '185280430', '185298936', '185323287', '185350488', '185361966', '185618831', '185711340', '185734982', '185833185', '185856081', '185867374', '185926286', '185967709', '18597862', '186000732', '18605011', '186060115', '186079640', '186154404', '186187911', '186191158', '186198217', '186199130', '1862650', '186268636', '186382791', '186413461', '186565885', '186594802', '18659502', '186615474', '186697258', '186706434', '186738567', '186744025', '186807665', '186852380', '18699975', '187041448', '187092789', '187120659', '187150481', '187155963', '187179951', '187212893', '187316574', '187316915', '187334104', '187345961', '187382586', '187507357', '187541742', '187566844', '187632348', '187642187', '187696735', '187714386', '187749391', '187765855', '187785154', '187869287', '187921700', '187954543', '187960798', '188048851', '188073675', '18812478', '188126409', '18823058', '188261085', '188280979', '188313352', '188379684', '188389365', '188394188', '188405251', '188413054', '188610204', '188618488', '188758523', '18880352', '188816634', '188884661', '188899842', '188945261', '188947578', '188987157', '189014844', '189036908', '189135053', '189184402', '189216375', '18923293', '189327125', '189413060', '189446657', '189490182', '189528381', '189613389', '189631375', '189660417', '189689871', '189701845', '189708586', '189780591', '18978916', '189812789', '189860405', '18986850', '18987944', '189914332', '189976730', '189978740', '190041318', '190098323', '190104652', '190139176', '190210774', '190249596', '190264587', '190362976', '19038510', '190385971', '190409667', '190429427', '190472901', '190481736', '19052677', '190567982', '190612196', '190672674', '190684412', '190712762', '190727270', '190743605', '190796033', '190798599', '190857496', '190892606', '190944805', '190960625', '19106626', '191089775', '191223288', '191237925', '191290158', '191301653', '191364105', '191384650', '191548132', '191560914', '191597335', '191608507', '191616109', '19163912', '191732599', '191771488', '191789040', '1918360', '191942190', '192039680', '192091488', '192096249', '19210678', '192118531', '192144188', '19218775', '192196715', '192244848', '192327766', '192351223', '192421092', '192536144', '192586883', '192638826', '192670549', '192805744', '192989942', '19317047', '193206974', '193230392', '193270364', '193293595', '193395930', '19351080', '193544012', '193641492', '193646685', '193699699', '193744035', '193812863', '19383871', '193842886', '193976658', '194043247', '194058213', '194082555', '194108754', '194215707', '194242075', '19429091', '194346485', '194409129', '194495517', '194529094', '194544171', '194575299', '194575858', '194661718', '194789388', '19479481', '194828623', '194832188', '194887381', '194896165', '194897815', '194947743', '194973443', '195121873', '195147555', '19519825', '195267511', '19527891', '195286587', '195289149', '195454581', '195475562', '195512701', '195521686', '195548491', '195598365', '195613447', '195616568', '195646399', '195687474', '195735259', '195794163', '195855529', '195910791', '195954836', '195955031', '195973872', '196013638', '196156954', '196166179', '196166836', '19617505', '196235758', '196310339', '196330066', '196347352', '196405362', '196419574', '196467688', '19648533', '196594336', '196762363', '196777733', '19679083', '196822366', '196823706', '196843134', '196955773', '196978929', '197012351', '19702531', '197071334', '19720800', '197248121', '197253505', '197261262', '197268465', '197270303', '197321550', '197328160', '197341189', '197462201', '197471484', '19749203', '197493858', '197525751', '197549326', '197613697', '197636746', '197683979', '197695756', '197711040', '197712280', '197743484', '197746943', '197849852', '197902417', '197914299', '197934379', '197951375', '197968181', '198008173', '19801646', '198171842', '198231283', '19831878', '198399640', '19841687', '198433322', '198451711', '198454886', '198677920', '19869320', '19876734', '198826908', '198865145', '198867934', '198951751', '198999979', '199091049', '199096232', '199106506', '199217515', '199343813', '199360897', '199374082', '199475168', '199509603', '199529486', '199561411', '199596767', '199616788', '199649820', '1998276', '199835354', '199901988', '200134340', '200155923', '200170125', '200180986', '200215109', '200220013', '200270571', '200315206', '200368925', '200385062', '20038557', '200583388', '200678441', '200707615', '200786668', '200852123', '200886947', '201033657', '201052633', '201176492', '201253974', '201267052', '20129857', '201373426', '201419926', '201468095', '201492766', '201508349', '201539569', '201571599', '201614185', '201645570', '201662476', '201716435', '201729690', '201750760', '201770970', '201780435', '201792869', '201815810', '201879378', '201903717', '201923286', '201934248', '201997182', '202015219', '202023056', '202033177', '202061045', '202119489', '202199734', '20220851', '202216756', '202264299', '202265312', '202271784', '2022786', '202438428', '202450454', '202474031', '20251656', '20256973', '202636595', '202645933', '202695956', '202712171', '202870285', '202871150', '202878990', '202953159', '202953179', '202965653', '20299238', '203014093', '203083617', '203092338', '203187845', '203233990', '203244331', '203270574', '203440823', '203473731', '203522944', '20352681', '203531881', '203565725', '203646042', '203681728', '2038122', '203820380', '203857694', '203862802', '20387591', '203880312', '203896682', '203900970', '20390774', '203966977', '203987217', '204171352', '20417620', '204232928', '204243189', '204335518', '204390595', '204442743', '204452808', '204465174', '20463939', '204641814', '204653381', '204664388', '204713865', '204779464', '204787440', '204810001', '204909193', '204999636', '205003668', '205044023', '20512503', '205156047', '205167067', '205190804', '205309164', '205380661', '20552341', '205534843', '205545832', '20566671', '205668238', '205679159', '205778803', '205854390', '206044474', '206111553', '206179267', '206191192', '206332053', '20639190', '206396517', '206412730', '206497026', '206530858', '206631613', '206680393', '206684579', '206772628', '206813253', '206836424', '207001950', '207006810', '207054656', '20706518', '207103383', '207200792', '207230331', '20727314', '207451115', '207480886', '207545495', '207551092', '207583985', '207673951', '207701140', '207721201', '207723603', '207743973', '207787628', '207865475', '207886595', '207936829', '207951395', '2081992', '20860254', '20875687', '20901353', '20904676', '21018380', '21034978', '21046646', '2107291', '2113261', '21143770', '21158919', '21194631', '21269302', '2129178', '21387880', '21593803', '21613296', '21652263', '21705690', '21784809', '21790070', '21833749', '21850170', '21883589', '21936154', '21957315', '21963081', '22070199', '22130703', '22222904', '22304111', '22334291', '22427896', '22502612', '22517002', '22522123', '22607594', '22615655', '22709980', '22723013', '22731427', '2277912', '22801619', '22814914', '22830521', '22845430', '22885893', '22889606', '22894154', '22979827', '23036609', '23131810', '23170571', '23209589', '23276603', '23332255', '23416140', '23458808', '23589133', '236027', '23614021', '23677625', '23785310', '23849879', '24025453', '24040308', '24047667', '24168220', '24223341', '24245907', '2426938', '2434490', '24361215', '24493144', '24530287', '24543465', '24566897', '24590219', '24595384', '24639789', '2483381', '2491326', '24972589', '24998067', '25070020', '25095133', '25110094', '25194021', '2520015', '25205856', '2522874641', '25274449', '25311885', '25330733', '25457674', '25498285', '25515809', '25532541', '25551252', '25642318', '25740722', '25770073', '25815605', '25834368', '25876315', '25897203', '25938499', '259533', '25977355', '26064473', '26170363', '26254459', '26265296', '26344738', '26372392', '26374806', '26375932', '26410512', '26486553', '26567756', '26573533', '26635844', '26702167', '26805974', '26809991', '26828662', '26831200', '2686</t>
-        </is>
+          <t>SDG_11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C12" t="n">
+        <v>987</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['2781252958', '160911440', '149627874', '2909809890', '66135807', '108516343', '14397066', '2910046756', '2778438165', '2779886867', '93597524', '2780859682', '39300077', '141087196']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['508106653', '37413474', '2909902889', '56995899', '112299071', '2776695260', '196697905', '2780732545', '505241676', '2780700307', '26291073', '2776960227', '2776640376', '47122089', '2779132545', '162466561', '2776165558', '177766495', '111852164', '2780120631', '2909764464', '2777410049', '2780931059', '516717267', '117009084', '113807197', '2780771206', '44403221', '127634017', '2909732843', '79416576', '2778368647', '133462117', '2777161012', '22467394', '135935922', '2779987062', '2910956745', '28718268', '2779909984', '2780371127', '203731517', '150194340', '10708705', '2780822005']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['2778368647', '533584247', '199491958', '2780035574', '2776114971', '2780165032', '2776325102', '2780936489', '2776619914', '2775896111', '2777663346', '184978287', '202976495', '2781175455', '149039472', '127145964', '158739034', '12429862', '556340858', '2777638134', '2779507241', '2780771206', '151405878', '2780210451', '2776743756', '175668461', '94602187', '121850381', '2778842010']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['Urban area', 'Public housing', 'Global change', 'Multilingualism', 'Waterborne diseases', 'Energy consumption', 'Water-use efficiency', 'Carbon footprint', 'Fire suppression system', 'Router', 'Affordable housing', 'Zero-energy building', 'Planning', 'World energy consumption', 'Passive solar building design', 'Heat recovery ventilation', 'Metropolitan area', 'Cultural landscape', 'Language policy', 'University system', 'Climate resilience', 'Safeguard', 'Noise', 'Climate risk', 'Safeguarding', 'Active fire protection', 'route', 'Certified wood', 'Solar chimney']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SDG_4</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>['2778243571', '2777394604', '2778782981', '2777080206', '2780035574', '168646138', '49876356', '2910661131', '28718268', '193919354', '2777389919', '2781285556', '2776613822', '86637286', '2777161012', '36727532', '2778712577', '5395021', '2781422250', '2780319001', '2777929519', '2777022483', '2779100972', '2909933943', '113807197', '120912362', '85597727', '2777278836', '25032326', '2910083013', '2781206393', '8795937', '169536714', '204814006', '181575753', '2778617593', '547764534', '20574239', '2776526686', '2779963164', '2777227597', '19352297', '522453465', '2776509339', '2781418458', '47177190', '138296749', '2779089611', '2777082460', '188167160', '98545295', '167055898', '2910249166', '2778908029', '2779304910', '2780438764', '80205793', '114010052', '62657170', '106432739', '2777603413', '2910108987', '501001295', '503872463', '2779791860', '84653758', '134819137', '2776622967', '2778011250', '2780909375', '2777638134', '194519906', '44493715', '188231857', '2776304142', '2779961193', '2776893095', '2778325511', '175801342', '48164120', '150394285', '171041071', '2776291881', '23588892', '2778403301', '2781463719', '668760', '2910745670', '11012388', '177766495', '2779297142', '2775905979', '28858896', '2777765802', '2776900795', '2780198215', '509550671', '2778825498', '19417346', '2909423638', '56423290', '26258499', '2776716048', '2781405653', '2776890026', '2778526452', '2776751993', '12298181', '53173841', '38014559', '2780997200', '2778365744', '159456220', '88610354', '113706210', '2780674924', '2781071349', '136418573', '33923547', '105776082', '2777841733', '203151758', '108771440', '207096701', '192531217', '55958113', '22156102', '79416737', '15500210', '37413474', '2781209966', '148324565', '13553968', '2776603611', '2781240919', '507981020', '10050518', '53537400', '107806365', '2778742788', '2779379842', '110131835', '538133343', '71406770', '187667220', '920782', '97082442', '2781051278', '177291462', '2780144881', '2780117764', '109260823', '2775977231', '8077954', '2910609075', '2777538862', '2778733213', '147077947', '2778968930', '2777861003', '521786372', '108583219', '134895398', '165364887', '2776503146', '2909116566', '2780623789', '2777247013', '150710463', '164449429', '523056402', '2778742815', '45504901', '2780468074', '2779025965', '542530943', '2910655040', '2779132545', '2776429199', '2777075199', '180614257', '103208741', '2776734470', '2777597347', '111366508', '2777244724', '130148452', '182325601', '2779363792', '2778740177', '81369262', '2780491831', '2779063172', '70587473', '44877443', '2780805685', '2909931160', '2910150694', '76188268', '533356498', '2780493508', '2779614053', '2776585938', '2910006436', '2779018934', '2777993278', '2909286781', '125209646', '123960582', '2780623907', '2779447296', '2777776026', '37228920', '2778728124', '2778780117', '140988679', '2778197446', '2776934989', '2779106483', '2777410049', '178229462', '2778903259', '2781160424', '2780266753', '184356942', '188116033', '2778498718', '511723319', '43141900', '136287216', '2777626052', '2779905815', '2779923759', '2776380714', '67141207', '136908173', '197676734', '205545832', '2909619517', '51672120', '92393732', '2779177650', '154482161', '2777189325', '15107229', '549090830', '190973436', '15122004', '552535540', '164403151', '16443162', '2778511055', '124208396', '2776907558', '2776454994', '2777646416', '51067260', '2909807104', '166007726', '2776020796', '2780003333', '2781390853', '2909358322', '2780118692', '2780732545', '2781349114', '134290984', '2780020723', '2779687131', '194943564', '2909284606', '84389358', '42525527']</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>['10050518', '103208741', '105776082', '106432739', '107806365', '108583219', '108771440', '109260823', '11012388', '110131835', '111366508', '113706210', '113807197', '114010052', '120912362', '12298181', '123960582', '124208396', '125209646', '130148452', '134290984', '134819137', '134895398', '13553968', '136287216', '136418573', '136908173', '138296749', '140988679', '147077947', '148324565', '150394285', '150710463', '15107229', '15122004', '154482161', '15500210', '159456220', '164403151', '16443162', '164449429', '165364887', '166007726', '167055898', '168646138', '169536714', '171041071', '175801342', '177291462', '177766495', '178229462', '180614257', '181575753', '182325601', '184356942', '187667220', '188116033', '188167160', '188231857', '190973436', '192531217', '19352297', '193919354', '19417346', '194519906', '194943564', '197676734', '203151758', '204814006', '20574239', '207096701', '22156102', '23588892', '25032326', '26258499', '2775905979', '2775977231', '2776020796', '2776291881', '2776304142', '2776380714', '2776429199', '2776454994', '2776503146', '2776509339', '2776585938', '2776603611', '2776613822', '2776622967', '2776716048', '2776734470', '2776751993', '2776890026', '2776893095', '2776900795', '2776907558', '2777022483', '2777075199', '2777080206', '2777082460', '2777161012', '2777189325', '2777227597', '2777244724', '2777247013', '2777278836', '2777389919', '2777394604', '2777410049', '2777538862', '2777597347', '2777603413', '2777626052', '2777638134', '2777646416', '2777765802', '2777776026', '2777841733', '2777861003', '2777929519', '2777993278', '2778011250', '2778197446', '2778243571', '2778325511', '2778365744', '2778403301', '2778498718', '2778511055', '2778526452', '2778617593', '2778712577', '2778728124', '2778733213', '2778740177', '2778742788', '2778742815', '2778780117', '2778782981', '2778825498', '2778903259', '2778908029', '2778968930', '2779018934', '2779025965', '2779063172', '2779089611', '2779100972', '2779106483', '2779132545', '2779177650', '2779297142', '2779304910', '2779363792', '2779379842', '2779447296', '2779614053', '2779687131', '2779791860', '2779905815', '2779923759', '2779961193', '2779963164', '2780003333', '2780020723', '2780035574', '2780117764', '2780118692', '2780144881', '2780198215', '2780266753', '2780319001', '2780468074', '2780491831', '2780493508', '2780623789', '2780623907', '2780674924', '2780732545', '2780805685', '2780909375', '2780997200', '2781051278', '2781071349', '2781160424', '2781206393', '2781209966', '2781240919', '2781285556', '2781390853', '2781405653', '2781418458', '2781422250', '2781463719', '28718268', '28858896', '2909116566', '2909284606', '2909286781', '2909358322', '2909423638', '2909619517', '2909807104', '2909931160', '2909933943', '2910006436', '2910083013', '2910108987', '2910150694', '2910249166', '2910609075', '2910655040', '2910661131', '2910745670', '33923547', '36727532', '37228920', '37413474', '38014559', '42525527', '43141900', '44493715', '44877443', '45504901', '47177190', '48164120', '49876356', '501001295', '503872463', '507981020', '509550671', '51067260', '511723319', '51672120', '523056402', '53173841', '533356498', '53537400', '538133343', '5395021', '542530943', '547764534', '549090830', '552535540', '56423290', '62657170', '668760', '67141207', '70587473', '71406770', '76188268', '79416737', '80205793', '8077954', '81369262', '84389358', '84653758', '85597727', '86637286', '8795937', '88610354', '920782', '92393732', '97082442', '98545295']</t>
-        </is>
+          <t>SDG_12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>445</v>
+      </c>
+      <c r="C13" t="n">
+        <v>361</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -713,25 +785,31 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['205545832', '2776526686', '522453465', '2780438764', '2781349114', '55958113', '2776934989', '521786372']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['199491958', '2777339832', '2776125615', '2778323372', '2778157034', '89702864', '21790881', '175700187', '528261146', '537773303', '2781051052', '202976495', '46312889', '2742236', '2781164615', '189708586', '2778733479', '73916439', '2778851808', '58479451', '2778917124', '2776512361', '183287310', '2780210451', '2778844797', '2781469121', '2777798390', '105306849', '2778552509', '204983608', '2778291008', '2775886207', '166566181', '143020374', '97615858', '2910338039', '509746633', '205537798', '187460315', '28328180', '2780757305', '2777856171', '2780797831', '2781175455', '2776667712', '37965861', '2779507241', '99578197', '2778706760', '141261163', '44104985', '2776943663', '52121051', '502701156', '2909963963', '117009084', '2775893736', '137851953', '2781420532', '2779242930', '2910237699', '176289848', '2778738845', '192639820', '67203356', '2776422217', '131046424', '536799390', '15098985', '2780848231', '2778555391', '2781426840', '2776830933', '2779035916', '200630231', '147490202', '2778580826', '44877443', '79119010', '2776208129', '103474955', '2778734332', '201903717', '164794517']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['Global change', 'Planetary Data System', 'Economic evaluation', 'Personal carbon trading', 'Sorghum', 'Technology assessment', 'Deep sea', 'Manufacturing', 'Carbon finance', 'Geoengineering', 'Ground segment', 'Planning', 'Nanomanufacturing', 'Efficient energy use', 'Climate justice', 'Systematic review', 'Jatropha', 'Energy storage', 'Climate change adaptation', 'Fish stock', 'Regulatory science', 'Power purchase agreement', 'Thermal energy storage', 'Climate risk', 'Aquifer thermal energy storage', 'Demolition', 'Climate security', 'Storm', 'Peak oil', 'Productivity', 'Rate of exploitation', 'Energy-efficient driving', 'Natural disaster', 'Coral', 'Energy intensity', 'Trichostrongylus axei', 'Climate change mitigation', 'Extreme weather', 'Severe weather', 'Stem cell', 'Certified Emission Reduction', 'Fasciola hepatica', 'Fish stocking', 'World energy consumption', 'Corporate sustainability', 'Carbon credit', 'Climate resilience', 'Radiative forcing', 'Life-cycle assessment', 'Corporate social responsibility', 'Supply chain management', 'Human capital', 'Truck', 'Biomedical sciences', 'Parasite Egg Count', 'Facility management', 'Biomanufacturing', 'Greenhouse effect', 'Carbon accounting', 'Global temperature', 'Device Approval', 'Die (manufacturing)', 'Remanufacturing', 'Supply chain risk management', 'Reinforcement', 'Electric vehicle', 'Energy policy', 'Plastics industry', 'Permafrost', 'Sweet sorghum', 'Trichostrongylus', 'Carbon leakage', 'Climate change denial', 'Climate engineering', 'Cleaner production', 'Food spoilage', 'Life-cycle cost analysis', 'Science education', 'Resource productivity', 'Methane emissions', 'Coral bleaching', 'Research development', 'Cohort study', 'Stem cell niche']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SDG_5</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>['121752807', '21279758', '2910877355', '2910252733', '102587632', '2778269006', '48057960', '2777385265', '2777755331', '2909245243', '2781216213', '2779503283', '2781173052', '2778720315', '2909731803', '191700502', '2778397978', '2777996642', '2777656388', '2779500161', '2779266529', '2910095232', '104151175', '2779213278', '2910181401', '2776778975', '2781403550', '2779937378', '2778272532', '165611974', '2908568261', '2778768284', '2777957789', '169437150', '2777941463', '2777723842', '2779648811', '2909942645', '2778692471', '2779256933', '2776331549', '2780765865', '2909613729', '2776290222', '2781087576', '2779909026', '2779076696', '2780742699', '2777973936', '2909567481', '2777360386', '2908750998', '2778014560', '518429986', '2777457567', '2778808915', '542059537', '2780122648', '2908580512', '2776422986', '47122089', '2909366255', '2908521967', '2776430950', '2779630429', '20555606', '2781071349', '55447825', '131932780', '2781253738', '519513126', '2778919917', '2777877159', '70036468', '2778780663', '2909987495', '2776990493', '2780303468', '2776492025', '2909790936', '2780673001', '2779018073', '122251271', '2778767757', '46578552', '2780090376', '994546', '2780977596', '170806853', '2777749871', '77352025', '2778055648', '2776254110', '2910825703', '102003337', '2778071103', '2780227697', '2776689383', '2775982641', '2776656214', '97917381', '2777177043', '2781049881', '2777961764', '2778595151', '119693030', '2777667586', '26147285', '2777688943', '2909934819', '140816417', '2781037291', '119588120', '162077342', '2910036154', '2775880612', '2779119250', '2777866547', '2779865128', '2775906418', '53596535', '2909781388', '2910225196', '2776491508', '2780416715', '2778354389', '2776051313', '153651392', '2779674044', '2908678251', '2777057682', '2781051968', '2780438625', '2775850206', '2780233487', '2777688143', '2778952541', '2778642596', '2781097296', '2778517334', '2776053703', '2780183969', '17632256', '2911049916', '2911047369', '37512671', '2910429700', '2909462804', '2779881493', '2777666786']</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>['119588120', '119693030', '121752807', '122251271', '131932780', '153651392', '162077342', '165611974', '169437150', '170806853', '17632256', '191700502', '20555606', '21279758', '26147285', '2775850206', '2775880612', '2775982641', '2776051313', '2776053703', '2776254110', '2776290222', '2776331549', '2776422986', '2776430950', '2776491508', '2776492025', '2776656214', '2776778975', '2776990493', '2777057682', '2777177043', '2777360386', '2777385265', '2777457567', '2777656388', '2777666786', '2777667586', '2777688943', '2777723842', '2777749871', '2777755331', '2777866547', '2777877159', '2777941463', '2777957789', '2777961764', '2777973936', '2777996642', '2778014560', '2778055648', '2778071103', '2778269006', '2778272532', '2778354389', '2778397978', '2778517334', '2778595151', '2778642596', '2778692471', '2778720315', '2778767757', '2778768284', '2778780663', '2778808915', '2778919917', '2778952541', '2779018073', '2779076696', '2779119250', '2779213278', '2779500161', '2779630429', '2779648811', '2779674044', '2779865128', '2779909026', '2779937378', '2780090376', '2780122648', '2780183969', '2780227697', '2780303468', '2780416715', '2780673001', '2780742699', '2780765865', '2780977596', '2781049881', '2781071349', '2781087576', '2781097296', '2781173052', '2781216213', '2781253738', '2781403550', '2908521967', '2908568261', '2908580512', '2908678251', '2908750998', '2909245243', '2909366255', '2909462804', '2909567481', '2909613729', '2909731803', '2909781388', '2909790936', '2909934819', '2909942645', '2909987495', '2910036154', '2910225196', '2910252733', '2910429700', '2910877355', '2911047369', '2911049916', '37512671', '519513126', '53596535', '542059537', '55447825', '97917381', '994546']</t>
-        </is>
+          <t>SDG_13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>350</v>
+      </c>
+      <c r="C14" t="n">
+        <v>317</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -740,25 +818,31 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['2779503283', '2910181401', '2776689383', '2780438625', '140816417', '70036468', '2781051968', '102587632', '2910095232', '104151175', '2779256933', '2781037291', '47122089', '2910825703', '2779266529', '2777688143', '46578552', '2775906418', '2780233487', '518429986', '2779881493', '48057960', '77352025', '102003337']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['136020623', '559400886', '122629976', '74501621', '108469399', '2780805685', '173651095', '78091846', '58479451', '2780919918', '186699998', '535291247', '2777798390', '105923489', '2778951896', '50094484', '508106653', '73849760', '188818383', '2776044436', '2777351703', '123750103', '2909303214', '134097258', '2777564511', '2780797831', '15098985', '85675897', '89295123', '2780231331', '2775938548', '79367842', '183195422']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['Invasive species', 'Land management', 'Fringing reef', 'Sea level', 'Plankton', 'Teacher education', 'Introduced species', 'Thermohaline circulation', 'Fish stock', 'Climate Finance', 'Eutrophication', 'Amazon rainforest', 'Climate security', 'Combustion', 'Rangeland management', 'Attribution bias', 'Ozone', 'Coral reef protection', 'Fugitive emissions', 'Persistent organic pollutant', 'Low-carbon fuel standard', 'Ice sheet', 'Sensory Adaptation', 'Sea surface temperature', 'Water conflict', 'Fish stocking', 'Permafrost', 'Soil management', 'Forest pathology', 'CGS-21680', 'Thematic Mapper', 'Coral reef', 'Flood forecasting']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SDG_6</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>['179113317', '132594454', '2780989708', '2780367215', '2776695260', '43632280', '2776812703', '2776799952', '137527640', '7879346', '2779940597', '129513315', '2910654379', '2778395396', '186636678', '2909902889', '2779112213', '2776897705', '19835438', '2909326202', '533363959', '2777434392', '75255083', '81692654', '107836204', '2780151969', '115240124', '2778668878', '521259446', '45145499', '16145799', '94747663', '47654990', '40496375', '2777910687', '185515318', '528615729', '2779099003', '2781117298', '84250820', '39769621', '547231352', '133214962', '2780833732', '2777434770', '49057587', '126933887', '2776628701', '70455891', '2776176531', '2777610350', '2777554443', '2910825703', '156858999', '2780513399', '38626664', '100187453', '81637046', '2910645917', '78302586', '3128022', '37037264', '174091901', '153823671', '49671963', '2777272942', '125572338', '81632477', '176650113', '2777875673', '2779928684', '97053079', '2909415995', '2776236458', '97920779', '69514717', '2778618992', '114993203', '147852310', '105306849', '184947814', '64016661', '4292930', '146763847', '96124884', '2779833838', '46685645', '118416809', '67715294', '190714865', '2781113848', '2777333993', '2778330403', '2780408538', '2778570914', '187109078', '2779386820', '120305227', '2780588113', '2776087716', '2909603817', '51832835', '51193700', '81842627', '128410448', '2909805430', '188287460', '2778893359', '161382645', '2776573520', '2776572357', '94042126', '2909937950', '2779202806', '2777919664', '178254436', '157062255', '108797546', '2778720231', '107708555', '147990551', '1814991', '203380394', '167710798', '2777493420', '2778211487', '2776991799', '2777690665', '2779678948', '2776849319', '2779920756', '2909494222', '88802367', '2909984675', '2777493711', '61661205', '88862950', '205537798', '2778213469', '2776266027', '66465714', '145162277', '81599089', '2780987889', '2776275385', '2779794448', '2910053955', '2776757554', '2781143366', '2860155', '2779283343', '78244369', '2778999818', '2777076574', '28362043', '2780998164', '195092306', '8625798', '2778597325', '122341333', '128168118', '42938798', '198302294', '162602672', '2777399949', '502990516', '99484651', '49545453', '2776325102', '2776849215', '2779547435', '2777138484', '197743484', '162222271', '2778553890', '2776301198', '2777812597', '123157820', '189047708', '19570952', '24939127', '12129029', '2778708356', '103783831', '2777730692', '152232337', '105859001', '2777317380', '2778491029', '76177295', '2777550478', '67268981', '2778934327', '2777106384', '135009316', '155681218', '181843262', '102579867', '207006810', '2779322298', '44403221', '190539079', '2910009623', '2778583955', '499616599', '2776334353', '2776121688', '63358688', '130797344', '2778110159', '2778902904', '124056412', '79303471', '2778192778', '2781360137', '2781427571', '2780965534', '2777679823', '176205827', '2778247438', '94061648', '2780616974', '81446008', '2777129128', '88024347', '2779090549', '83419821', '2779948615', '2776952799', '131227075', '165895018', '2780401329', '2776069950', '2776342442', '2777184272', '157174567', '33556824', '2777383712', '2776870568', '2780012196', '2778407992', '65340099', '2781421531', '2778082681', '90195498', '2777599230', '2778632158', '177964011', '2816523', '2780531901', '2778722473', '2776137031', '2780739625', '2778652552', '2776165558', '186348155', '56858530', '126645576', '2777489503', '148815931', '2778602707', '2668921', '60943498', '28631016', '138921699', '2778674365', '2781364496', '2776256026', '39410599', '61270487', '190960625', '144993055', '523546767', '40241539', '2780573285', '2777015086', '187606762', '68359772', '2778788645', '2779506560', '2779712367', '149207113', '130309983', '2776361503', '2777564511', '162663994', '2910692151', '2778357586', '2776306026', '169488363', '2776256148', '58790150', '115038398', '132165134', '2777388718', '2779835370', '547646559', '34667930', '2910897755', '48663136', '2777364431', '37992848', '167110946', '2776756561', '69661492', '2909248125', '108497213', '21955270', '2779508860', '45020621', '96306036', '152913119', '2775838554', '93419950', '2778217819', '2776332401', '123700513', '182348080', '41625074', '136325355', '110158866', '2778666693', '2780521934', '2780165224', '2781036520', '57442070', '2780797762', '175568690', '99546132', '131046424', '116537', '2779429693', '150513403', '140188727', '147455438', '39077098', '1284942', '40675005', '15098985', '47291792', '94562577', '2908711435', '186295008', '88743934', '53163501', '2778099575', '195154425', '2778652117', '9777977', '2776053758', '97156103', '16828302', '4891672', '118733760', '17538187', '2781357674', '2781028066', '129360787', '2777427512', '54005896', '150547873', '180087314', '195729132', '200890946', '112570922', '33559203', '2781399283', '93983250', '2776299736']</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>['100187453', '102579867', '103783831', '105306849', '105859001', '107708555', '107836204', '108497213', '108797546', '110158866', '112570922', '114993203', '115038398', '115240124', '116537', '118416809', '120305227', '12129029', '122341333', '123157820', '123700513', '124056412', '125572338', '126645576', '126933887', '128168118', '128410448', '1284942', '129360787', '130309983', '130797344', '131227075', '132165134', '132594454', '133214962', '135009316', '136325355', '137527640', '140188727', '144993055', '145162277', '146763847', '147455438', '147852310', '147990551', '148815931', '149207113', '150513403', '150547873', '15098985', '152232337', '152913119', '153823671', '155681218', '157062255', '157174567', '161382645', '16145799', '162222271', '162602672', '162663994', '165895018', '167110946', '167710798', '16828302', '169488363', '174091901', '17538187', '175568690', '176205827', '176650113', '177964011', '178254436', '179113317', '180087314', '1814991', '181843262', '182348080', '184947814', '185515318', '186295008', '186348155', '186636678', '187109078', '187606762', '188287460', '189047708', '190539079', '190960625', '195092306', '195154425', '19570952', '195729132', '197743484', '198302294', '19835438', '200890946', '203380394', '207006810', '21955270', '24939127', '2668921', '2775838554', '2776053758', '2776069950', '2776087716', '2776121688', '2776137031', '2776165558', '2776176531', '2776236458', '2776256148', '2776266027', '2776275385', '2776299736', '2776301198', '2776306026', '2776325102', '2776332401', '2776334353', '2776342442', '2776361503', '2776572357', '2776573520', '2776628701', '2776695260', '2776756561', '2776757554', '2776799952', '2776812703', '2776849215', '2776849319', '2776870568', '2776897705', '2776952799', '2776991799', '2777015086', '2777076574', '2777106384', '2777129128', '2777138484', '2777184272', '2777272942', '2777317380', '2777333993', '2777364431', '2777383712', '2777388718', '2777399949', '2777427512', '2777434392', '2777434770', '2777489503', '2777493420', '2777493711', '2777550478', '2777554443', '2777564511', '2777599230', '2777610350', '2777679823', '2777730692', '2777812597', '2777875673', '2777910687', '2778082681', '2778099575', '2778110159', '2778192778', '2778211487', '2778213469', '2778217819', '2778247438', '2778330403', '2778357586', '2778395396', '2778491029', '2778553890', '2778570914', '2778583955', '2778597325', '2778602707', '2778618992', '2778632158', '2778652117', '2778652552', '2778666693', '2778668878', '2778674365', '2778708356', '2778720231', '2778722473', '2778788645', '2778893359', '2778902904', '2778934327', '2778999818', '2779090549', '2779099003', '2779112213', '2779202806', '2779283343', '2779386820', '2779429693', '2779506560', '2779508860', '2779547435', '2779678948', '2779712367', '2779794448', '2779835370', '2779920756', '2779928684', '2779940597', '2779948615', '2780012196', '2780151969', '2780165224', '2780367215', '2780408538', '2780513399', '2780521934', '2780531901', '2780573285', '2780588113', '2780616974', '2780797762', '2780833732', '2780965534', '2780987889', '2780989708', '2780998164', '2781028066', '2781036520', '2781113848', '2781143366', '2781357674', '2781360137', '2781364496', '2781399283', '2781421531', '2781427571', '2816523', '28362043', '2860155', '2908711435', '2909248125', '2909326202', '2909415995', '2909494222', '2909805430', '2909902889', '2909937950', '2909984675', '2910009623', '2910053955', '2910645917', '2910654379', '2910692151', '2910825703', '2910897755', '3128022', '33556824', '33559203', '34667930', '37037264', '37992848', '38626664', '39077098', '39769621', '40241539', '40496375', '40675005', '41625074', '4292930', '42938798', '43632280', '44403221', '45020621', '45145499', '46685645', '47291792', '47654990', '48663136', '4891672', '49057587', '49671963', '499616599', '51193700', '521259446', '528615729', '53163501', '54005896', '547231352', '547646559', '56858530', '57442070', '58790150', '60943498', '61270487', '61661205', '63358688', '64016661', '65340099', '66465714', '67268981', '67715294', '68359772', '69514717', '69661492', '70455891', '75255083', '76177295', '78244369', '78302586', '7879346', '79303471', '81446008', '81599089', '81632477', '81637046', '81692654', '81842627', '83419821', '84250820', '8625798', '88024347', '88743934', '88802367', '88862950', '90195498', '93419950', '93983250', '94042126', '94061648', '94562577', '94747663', '96124884', '96306036', '97053079', '97156103', '9777977', '97920779', '99484651', '99546132']</t>
-        </is>
+          <t>SDG_14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>377</v>
+      </c>
+      <c r="C15" t="n">
+        <v>218</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -767,25 +851,31 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['533363959', '190714865', '2781117298', '2909603817', '2779833838', '205537798', '2777919664', '523546767', '138921699', '129513315', '51832835', '2780739625', '2778407992', '156858999', '2777690665', '131046424', '28631016', '2779322298', '118733760', '49545453', '502990516', '2780401329', '39410599', '2776256026']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['2779623515', '2777631861', '95803793', '2776263494', '2776499504', '2909931160', '2781102901', '2777798493', '2781288472', '2776824459', '2776841996', '508466165', '165107724', '77867282', '2780982499', '156380964', '2779873548', '36516193', '505870484', '2777492549', '168857316', '2780143158', '117480383', '2780127386', '2778586117', '2778291008', '2777833858', '2910221061', '2780853707', '2776364969', '2779590308', '2779215912', '152613627', '2910800256', '2777183552', '65193109', '2777981335', '2779656528', '2779000830', '81855063', '2776139558', '2780429984', '2776675269', '120441037', '2777845105', '2780351957', '2776082207', '154098486', '2780623117', '20992447', '2781348932', '72958200', '2777267482', '2777526573', '2777803996', '2778316768', '2778098436', '18918823', '190157891', '2777110004', '2779987062', '2777022838', '2778391067', '2779944326', '2780417240', '2777542811', '2910188331', '2777704720', '2779290800', '2779958227', '5465852', '2910224097', '2779000468', '2781094106', '2780498771', '2779363728', '115314567', '2779991348', '2779310246', '2779735984', '31954745', '2780111930', '68553557', '2780097091', '192536144', '2779298159', '2776415932', '2777784394', '201490090', '2777768678', '2779421218', '2910276620', '107674354', '187457775', '2779325724', '2908556935', '2778525234', '2910001868', '2779427263', '2778939721', '2781257293', '62648534', '2779909984', '95628711', '2776115401', '2778502483', '2779409326', '73849760', '202041845', '2779140988', '509746633', '2779267909', '2909885882', '116003164', '2776665667', '2776840061', '2777406646', '2776056526', '149340888', '2776384079', '22070199', '173917561', '115961737', '14849681', '2779950014', '111874474', '2909580760', '172269249', '164958353', '2777246098', '14918906', '544153396', '122629976', '2778851755', '2779427562', '2776831678', '2780072470', '2780041246', '199535368', '2776660552', '2779814588', '2776367567', '153279818', '113513581', '2781193452', '2909007308', '2780040469', '2780401329', '2778867918', '130094819', '2776093933', '2779282177', '135895429', '2779164741', '2776654248', '2778327988', '141896089', '132000320', '510239367']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['Coralline algae', 'Poeciliidae', 'CITES', 'Gillnetting', 'Artificial reef', 'Literature reviewing', 'Hydroacoustics', 'Perch', 'Coral Triangle', 'Fishing net', 'Shrimp', 'Fishing industry', 'International waters', 'Great Pacific garbage patch', 'Abalone', 'Bioenergy', 'Crab fisheries', 'Cod fisheries', 'Fishery', 'Krill', 'Commercial fish feed', 'Porites', 'Atoll', 'Swordfish', 'Fishing line', 'Rate of exploitation', 'Anchoa', 'Blue marlin', 'Deep-water coral', 'Oyster', 'Acropora', 'Sardine', 'Overexploitation', 'Bottlenosed dolphin', 'Ocean acoustic tomography', 'Groundfish', 'Seabird', 'Yellowfin tuna', 'Anisakidae', 'Large marine ecosystem', 'Shrimp fishery', 'Fish reproduction', 'Serranidae', 'Primary energy', 'Deep scattering layer', 'Teleostei', 'Perciformes', 'Big-game fishing', 'Destructive fishing practices', 'Atmospheric escape', 'Anatidae', 'Trophic level', 'Fish aggregating device', 'Freshwater inflow', 'Cetacea', 'Menhaden', 'Demersal fish', 'Tourism', 'Hermatypic coral', 'Vessel monitoring system', 'Mussel', 'Maximum sustainable yield', 'Trawling', 'Bigeye tuna', 'Lamprey', 'Sailfish', 'American shad', 'Whale', 'Herring', 'Hatchery', 'Red tide', 'Lunar Cycle', 'Sprat', 'Commercial fishing', 'Pocillopora damicornis', 'Trout', 'European Union law', 'Skipjack tuna', 'Least Developed Countries', 'Jellyfish', 'Skipjack', 'Artisanal fishing', 'Demersal zone', 'Halimeda', 'Sexual maturity', 'Sustainable fishery', 'Western blot', 'Sturgeon', 'Stock assessment', 'Fish trap', 'Bonefish', 'Anisakis simplex', 'Estuarine water circulation', 'Bottom fishing', 'Anguillidae', 'Stock Recovery', 'Anchovy', 'European union', 'Fish marketing', 'Oyster farming', 'Grass carp', 'Species diversity', 'Mytilus', 'Protolith', 'Prawn', 'Scallop', 'King mackerel', 'Coral reef protection', 'Fisheries management', 'Oncorhynchus', 'Climate change mitigation', 'Marxan', 'External parasites', 'Fish physiology', 'Ocean fisheries', 'Bottlenose dolphin', 'Mackerel', 'Limacina helicina', 'Bycatch', 'Marine mammal', 'Vaccination', 'Catch and release', 'Juvenile', 'Shrimp farming', 'Flatfish', 'Impact assessment', 'Prionace glauca', 'Marine invertebrates', 'Fish measurement', 'Condition index', 'Virtual population analysis', 'Metal', 'Fringing reef', 'Fisheries Act', 'Chondrichthyes', 'Orange roughy', 'Cyprinodontiformes', 'Otolith', 'Coarse fishing', 'Smoked fish', 'Cyprinidae', 'Flounder', 'Stocking', 'Exclusive economic zone', 'Longline fishing', 'Spiny dogfish', 'Catch per unit effort', 'Microplastics', 'Incidental catch', 'Ecosystem management', 'Sea cucumber', 'Turbot', 'Fisheries science', 'Bycatch reduction device', 'Freshwater fish', 'Albacore', 'Fish farming', 'Macrophyte', 'Fisheries law']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SDG_7</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>['2777890234', '160363772', '2776609911', '95926084', '2776469828', '2780165552', '2779848691', '104988666', '108722225', '2776190866', '206658404', '2779715735', '2742236', '151406439', '2780520809', '108869833', '2776576667', '135802936', '2777348173', '2910220436', '2778032857', '53991642', '2776780212', '2780322740', '2777416314', '29267209', '551020850', '78600449', '2777479337', '2778258436', '185220729', '144717724', '184235594', '2780345752', '2778219479', '2777001187', '2779803109', '2777888664', '2778959709', '46465826', '2779200991', '2780066083', '187414654', '140846259', '20744434', '2780068603', '207768971', '2908529875', '2910385868', '1124016', '2780978964', '2780229964', '2778676262', '38677869', '175706755', '39996523', '2780113879', '146733006', '165998758', '2776628701', '103689191', '2778217648', '122039914', '2776169166', '88417058', '2781300650', '2909203356', '2780243441', '2778976125', '176481572', '2777423268', '2778722790', '2777036795', '129456180', '544738498', '72080964', '2781374625', '2778742260', '90509273', '144179057', '2777217638', '10558101', '2776073808', '37107799', '2779968128', '65183824', '2780301381', '2776741288', '2779683600', '2776058518', '37965861', '540793156', '17626397', '2778013412', '2779473208', '2776645009', '2780331013', '40293303', '2778675665', '2781084341', '2777661767', '2779867701', '2777027713', '542589376', '142804171', '2779813444', '2776660518', '2777682434', '24717449', '2777596722', '108225325', '518406490', '137886200', '8735168', '2777811329', '2776127450', '2776705095', '2778381653', '2777008186', '2778153913', '38940224', '59622614', '2779990392', '59167565', '2779172400', '186977519', '2777092252', '423512', '2776756539', '2778032680', '196513747', '2777586272', '154414509', '97615858', '24671956', '2779431981', '106935595', '2910979819', '2776867037', '105994980', '29682386', '2909570586', '47651138', '34153902', '2777930111', '91812121', '2778234585', '74078090', '42060753', '141713623', '52208190', '157181609', '2781150358', '2779748257', '178065520', '206888370', '2779550995', '146231206', '31419778', '61980418', '134178815', '107861326', '100405246', '2777466363', '41291067', '2781327496', '184978287', '189289785', '17648541', '2779796603', '2778330180', '2781184898', '83544830', '161829187', '2778636636', '2781264327', '2776849302', '50551742', '2779677415', '2779623529', '2779769944', '2780430855', '181916410', '105442212', '27037042', '120441037', '204312592', '520343842', '2779081038', '2780059494', '2780406490', '155373166', '103017160', '2780153765', '2776499299', '2779141992', '501529594', '509746633', '2779265950', '17130696', '2780761721', '53914812', '2780991303', '2777821729', '200630231', '2777598616', '126172416', '171666300', '39380314', '2965452', '2779862270', '528261146', '160798176', '2780148753', '2777215464', '91112408', '78244369', '175365462', '2776782565', '2779257452', '1715860', '174493833', '2779252636', '57467194', '513653683', '183739832', '2911192195', '159403789', '86155754', '56085101', '2780415358', '544956773', '2779814830', '98716924', '2780004717', '2780050931', '2780331096', '64298129', '99881593', '2777315079', '2781352779', '2775886207', '2780604391', '2777908284', '2781175455', '2781420532', '2780536370', '2778856288', '143559376', '17485501', '162857116', '2781249646', '83227832', '2780182046', '2776512361', '2780894989', '2779607880', '2778998722', '19065316', '29592376', '188818383', '2779533125', '183287310', '2780814765', '2781036252', '150870023', '2776784348', '149982382', '2909574085', '38870921', '2778829423', '2776740001', '68189081', '2776325313', '156380964', '2778324724', '2781008468', '52881836', '2780242610', '163652712', '68801617', '2779961193', '7817414', '86714428', '2778417203', '2778449969', '2781309322', '9682599', '187949908', '2776886032', '2778309119', '104708988', '154718420', '2776036445', '2779710395', '2778163838', '47737302', '2777351703', '174306757', '117537405', '182501304', '135436540', '2779279529', '2776461528', '89505385', '2778844797', '59633683', '68476402', '95950515', '2777622855', '33039251', '73916439', '206991015', '2776546366', '2776417682', '2778834244', '117127486', '44044945', '2776781735', '197551870', '2779048638', '2777429066', '16941374', '7453809', '206255140', '30236105', '2779019381', '127145964', '2778733479', '2778040493', '520301825', '2909699456', '2778245977', '13119800', '2778869765', '85924503', '2777804095', '2776208129', '196261454', '2911135383', '2776494654', '2778323372', '2777172336', '75027835', '2777563595', '2781393684', '174503800', '203094288', '173372375', '190168584', '15229330', '119494637', '2779868350', '2776033628', '2779430688', '2780902009', '1034443', '2781341389', '174575960', '113740612', '2775888423', '101518730', '2776442348', '43785746', '180553826', '542482507', '2780059578', '66910140', '196340769', '20788544', '128396106', '80845027', '2780394310', '123153844', '541104983', '513535597', '186503672', '2777796192', '52957995', '2778539042', '202417442', '2779745812', '79870159', '134537524', '2780165032', '2780039422', '2777618391', '526406351', '149039472', '151174772', '123197309', '2780088643', '45882903', '2778040704', '2780936489', '75825664', '37415627', '2909690246', '2776615292', '2777031842', '176871988', '159559250', '2777692458', '2780427980', '2776793327', '118493204', '119338728', '2779371384', '135881395', '2778474792', '2779973532', '2781217054', '32866371', '2776867696', '2781465288', '137851953', '111766609', '2776970089', '24345647', '2779895041', '2775903348', '2780789856', '2777210892', '132853815', '2909203570', '2776726243', '2776128071', '2780572083', '2781426840', '2776327409', '2780115483', '76047896', '121119573', '2778842010', '131046424', '2777512574', '183237670', '59427239', '175461058', '40675005', '2778970885', '139315637', '2779961549', '56685638', '2778156585', '2776078904', '8744930', '188573790', '2779173739', '2910697279', '2776205842', '2780181841', '92311004', '75684735', '78635371', '55037315', '2777141785', '38864968', '2780824857', '2779258914', '143517461', '2908830279', '2779610122', '90530108', '2779877863', '2778787560', '2781335544', '2779765720', '108655655', '183762234', '2776538475', '194945478', '559228080', '2779969000', '19473024', '105923489', '2778656736', '149768029', '31395832', '2777028372', '2777325068', '107645774', '40018170', '9132272', '99743013', '2779434388']</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>['100405246', '101518730', '103017160', '1034443', '103689191', '104708988', '104988666', '105442212', '105923489', '105994980', '106935595', '107645774', '107861326', '108225325', '108655655', '108722225', '108869833', '111766609', '1124016', '113740612', '117127486', '117537405', '118493204', '119338728', '119494637', '120441037', '121119573', '122039914', '123153844', '123197309', '126172416', '128396106', '129456180', '131046424', '13119800', '132853815', '134178815', '134537524', '135436540', '135802936', '135881395', '137851953', '137886200', '139315637', '140846259', '141713623', '142804171', '143517461', '143559376', '144179057', '144717724', '146231206', '146733006', '149039472', '149768029', '149982382', '150870023', '151174772', '151406439', '15229330', '154414509', '154718420', '156380964', '159403789', '159559250', '160363772', '160798176', '161829187', '162857116', '163652712', '16941374', '17130696', '1715860', '171666300', '173372375', '174306757', '174493833', '174503800', '174575960', '17485501', '175365462', '175461058', '175706755', '17626397', '176481572', '17648541', '178065520', '180553826', '181916410', '182501304', '183237670', '183739832', '183762234', '184235594', '184978287', '185220729', '186503672', '186977519', '187414654', '187949908', '188573790', '188818383', '189289785', '190168584', '19065316', '19473024', '194945478', '196261454', '196340769', '196513747', '197551870', '202417442', '203094288', '204312592', '206255140', '206658404', '206888370', '206991015', '20744434', '207768971', '20788544', '24345647', '24671956', '24717449', '27037042', '2742236', '2775886207', '2775888423', '2775903348', '2776033628', '2776036445', '2776058518', '2776073808', '2776078904', '2776127450', '2776128071', '2776169166', '2776190866', '2776205842', '2776208129', '2776325313', '2776327409', '2776417682', '2776442348', '2776461528', '2776469828', '2776494654', '2776499299', '2776538475', '2776546366', '2776576667', '2776609911', '2776615292', '2776628701', '2776645009', '2776660518', '2776705095', '2776726243', '2776740001', '2776741288', '2776756539', '2776780212', '2776781735', '2776782565', '2776784348', '2776793327', '2776867037', '2776867696', '2776886032', '2776970089', '2777001187', '2777008186', '2777027713', '2777028372', '2777031842', '2777036795', '2777092252', '2777141785', '2777172336', '2777210892', '2777215464', '2777217638', '2777315079', '2777325068', '2777348173', '2777351703', '2777423268', '2777429066', '2777466363', '2777479337', '2777512574', '2777563595', '2777586272', '2777596722', '2777598616', '2777618391', '2777622855', '2777661767', '2777682434', '2777692458', '2777796192', '2777804095', '2777811329', '2777821729', '2777888664', '2777890234', '2777908284', '2777930111', '2778013412', '2778032680', '2778032857', '2778040493', '2778040704', '2778156585', '2778163838', '2778217648', '2778219479', '2778234585', '2778245977', '2778258436', '2778309119', '2778323372', '2778324724', '2778330180', '2778381653', '2778417203', '2778449969', '2778474792', '2778539042', '2778636636', '2778656736', '2778675665', '2778676262', '2778722790', '2778733479', '2778742260', '2778787560', '2778829423', '2778834244', '2778842010', '2778856288', '2778869765', '2778959709', '2778976125', '2778998722', '2779019381', '2779048638', '2779081038', '2779141992', '2779172400', '2779173739', '2779200991', '2779252636', '2779257452', '2779258914', '2779265950', '2779279529', '2779371384', '2779430688', '2779431981', '2779434388', '2779473208', '2779533125', '2779550995', '2779607880', '2779610122', '2779623529', '2779677415', '2779683600', '2779710395', '2779715735', '2779745812', '2779748257', '2779765720', '2779769944', '2779796603', '2779803109', '2779813444', '2779814830', '2779848691', '2779862270', '2779867701', '2779868350', '2779877863', '2779895041', '2779961193', '2779961549', '2779968128', '2779969000', '2779973532', '2779990392', '2780004717', '2780039422', '2780050931', '2780059494', '2780059578', '2780066083', '2780068603', '2780088643', '2780113879', '2780115483', '2780148753', '2780165032', '2780165552', '2780181841', '2780229964', '2780242610', '2780243441', '2780301381', '2780322740', '2780331013', '2780331096', '2780345752', '2780394310', '2780406490', '2780415358', '2780427980', '2780430855', '2780520809', '2780536370', '2780572083', '2780604391', '2780761721', '2780789856', '2780814765', '2780824857', '2780894989', '2780902009', '2780936489', '2780978964', '2780991303', '2781008468', '2781036252', '2781084341', '2781150358', '2781175455', '2781184898', '2781217054', '2781249646', '2781264327', '2781300650', '2781309322', '2781327496', '2781335544', '2781341389', '2781352779', '2781374625', '2781393684', '2781420532', '2781426840', '2781465288', '2908529875', '2908830279', '2909203356', '2909203570', '2909570586', '2909574085', '2909690246', '2909699456', '2910220436', '2910385868', '2910697279', '2910979819', '2911135383', '2911192195', '29267209', '29592376', '2965452', '29682386', '30236105', '31395832', '31419778', '32866371', '34153902', '37107799', '37415627', '37965861', '38677869', '38864968', '38870921', '38940224', '39380314', '39996523', '40018170', '40293303', '41291067', '42060753', '423512', '43785746', '44044945', '45882903', '46465826', '47651138', '47737302', '501529594', '50551742', '509746633', '513535597', '513653683', '518406490', '520301825', '520343842', '52208190', '526406351', '528261146', '52881836', '52957995', '53914812', '53991642', '540793156', '541104983', '542482507', '542589376', '544738498', '544956773', '55037315', '551020850', '559228080', '56085101', '57467194', '59167565', '59427239', '59622614', '59633683', '61980418', '64298129', '65183824', '66910140', '68189081', '68476402', '68801617', '72080964', '73916439', '74078090', '7453809', '75027835', '75684735', '75825664', '76047896', '7817414', '78244369', '78600449', '78635371', '79870159', '80845027', '83227832', '83544830', '85924503', '86155754', '86714428', '8735168', '8744930', '88417058', '89505385', '90509273', '90530108', '91112408', '9132272', '91812121', '92311004', '95926084', '95950515', '9682599', '97615858', '98716924', '99743013', '99881593']</t>
-        </is>
+          <t>SDG_15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>566</v>
+      </c>
+      <c r="C16" t="n">
+        <v>266</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -794,61 +884,83 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['56685638', '2776849302', '127145964', '155373166', '200630231', '2780153765', '165998758', '2778844797', '2778970885', '2778153913', '176871988', '183287310', '33039251', '2776512361', '10558101', '157181609', '40675005', '2777416314', '2780182046']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['2780671300', '34070608', '191440113', '2780696901', '45920995', '2778152828', '2780235837', '4590074', '2776562576', '122748992', '2778728749', '2910587469', '118694661', '79339454', '2777480484', '2780946806', '151107107', '2780748813', '98940541', '88776829', '169684477', '2909135477', '2776834102', '126343540', '2780185008', '112077630', '184603391', '112939947', '2779979769', '2776150259', '2777399377', '181060458', '2777575642', '51832835', '73580989', '89295123', '2777692458', '2779128174', '2776388979', '2776500793', '2778551664', '42435023', '2775938548', '2778617593', '2780977904', '2780648208', '194691359', '61703769', '2775838554', '555313981', '2775929138', '2780066083', '16884802', '35306142', '2778049214', '2779004245', '2777253967', '139669111', '176943803', '2779369318', '16397148', '151788092', '198150046', '129225989', '62158283', '155987862', '2779895041', '2776107028', '2776978901', '2778673487', '189307558', '2780848231', '33283694', '2777472530', '41478065', '17206440', '198815454', '2780179066', '192241223', '2016182', '2779204379', '154440439', '141005173', '42731165', '2778361644', '2781397391', '2777658277', '2780528068', '2778399496', '196687554', '2776724825', '2776623689', '133382796', '95869378', '26785111', '2777387638', '2776824989', '64966480', '2776687813', '2778506879', '2781182717', '2775999090', '2776191655', '2780505049', '147103442', '2780001261', '112276597', '201401522', '2776325102', '2779146456', '2779381216', '2780105985', '87621631', '146188434', '2775832765', '20664614', '2775966360', '2776426263', '149207113', '2777890039', '2778348119', '2777988102', '2780394310', '2777534865', '2780816530', '2780057273', '23519681', '126914827', '93707483', '2776316369', '2776259809', '156858999', '192392207', '2776892409', '13558536', '2775874878', '2780328347', '108738950', '2777549804', '123336316', '2777154535', '6514731', '14624660', '2909358641', '55347375', '2777341207', '197011783', '86409407', '23119410', '2780900284', '2777796192', '2778898053', '2776335591', '2776853598', '2781436638', '203731517', '172427765', '72286879', '135935922', '2776421481', '162501224', '89236255', '68189081', '2779042980', '147273371', '53571324', '2781353100', '2780167305', '2777132354', '12429862', '199877563', '2781003712', '2781131740', '2776801807', '121850381', '29760336', '22344907', '28362043', '127634017', '2910945474', '2777380792', '64551749', '24717449', '154702282', '2779869275', '2909743892', '93944068', '2779796875', '109902934', '12064787', '128058477', '108216600', '139019045', '2778568511', '71482194', '2777294933', '91354502', '2777589951', '155015343', '119249163', '2780775713', '2781181605', '189797535', '82447923', '2777802595', '51244244', '59898753', '2780500427', '161189057', '67268981', '105462344', '89862778', '25989453', '169282265', '56685638', '1549246', '2776278397', '109717640', '2778170267', '53002841', '2777434770', '120806208', '2776492830', '49461877', '195330766', '139518226', '197320908', '2780871101', '2777350553', '514011633', '2780086105', '2779294082', '74250896', '2777007095', '2778226232', '99743013', '2781275782', '167296696', '2781208722', '62648534', '173651095', '2776596991', '2778148510', '173795300', '60359462', '2777189468', '2779152076', '56095865', '2777707811', '2780948830', '2619416', '196313609', '125620115', '67715294', '143389717', '2778205388', '91067096', '112149622', '91770344', '2776554196', '45152089', '39571515', '2779562289', '136020623', '96313414', '2781206450', '116370137', '69514717', '2781168613', '2778625682', '2779249804', '487182', '2779081038', '2778358892', '2776654049', '121412344', '2776054349', '171205284', '112058002', '2780339060', '123917164', '2776121688', '25382069', '513535597', '183889291', '2776682078', '167393769', '2776285232', '85675897', '130094819', '2780998164', '89920630', '2778091200', '2781061397', '502990516', '2777380357', '2778203884', '73593433', '158215666', '2777106113']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['Mixed grass prairie', 'Cover crop', 'DNS root zone', 'Conventional tillage', 'Intraspecific breeding', 'Clogging', 'Nothofagus', 'Community', 'Plant strategies', 'Gradient analysis', 'Molinia caerulea', 'Panicum miliaceum', 'Climax community', 'Regional Red List', 'Advanced very-high-resolution radiometer', 'Plant functional type', 'Terroir', 'Sustainable management', 'Environmental design and planning', 'Tussock', 'Minimum tillage', 'Cluster beans', 'Land consumption', 'Crop yield', 'Land-use conflict', 'Irrigation management', 'Land-use planning', 'Green Revolution', 'Watershed Central', 'Automobile dependency', 'DSSAT', 'Aridification', 'Sesbania', 'Environmental management system', 'Biodiversity action plan', 'Forest pathology', 'Relative growth rate', 'Scots pine', 'Red edge', 'Beech', 'Larch', 'Animal nutrition', 'Thematic Mapper', 'Biocultural diversity', 'Urban forestry', 'Land cover', 'Liana', 'Land information system', 'Consumptive water use', 'Tropical rainforest', 'Coffea', 'Repartition', 'Secondary succession', 'Extinction event', 'Sigma', 'Tilth', 'Sphagnum', 'Understory', 'Vulcanian eruption', 'UrbanSim', 'Tillage', 'Moorland', 'Biogeomorphology', 'Cash crop', 'Species translocation', 'Selection cutting', 'Land footprint', 'Forest dynamics', 'Tree breeding', 'Moisture stress', 'Great Green Wall', 'Sweet sorghum', 'Deciduous', 'Catch crop', 'Surface irrigation', 'Land development', 'Soil seed bank', 'Disc harrow', 'Volcanic rock', 'Animal breeding', 'Farmland protection', 'Indigenous and community conserved area', 'Shifting cultivation', 'Environmental soil science', 'Yield gap', 'Raphanus raphanistrum', 'Urban growth boundary', 'Plant nutrition', 'Transit-oriented development', 'De-extinction', 'Stillage', 'Yield mapping', 'Secondary forest', 'Pyroclastic rock', 'Soybean management practices', 'Forestry law', 'Metavolcanic rock', 'Edaphology', 'Brachypodium pinnatum', 'Land Values', 'Deschampsia flexuosa', 'Joint Forest Management', 'Ecoregion', 'Tamarix', 'Forest inventory', 'Amazonian', 'Measurement of biodiversity', 'Plant cover', 'Water-use efficiency', 'Sustained yield', 'Stipa tenacissima', 'Built-up area', 'Taiga', 'Tropical savanna climate', 'Striga', 'Urban ecosystem', 'Silviculture', 'Urban forest', 'Water use', 'Weed science', 'Wood industry', 'Pratylenchus', 'Bouteloua gracilis', 'Land consolidation', 'Forest protection', 'Green infrastructure', 'Montane ecology', 'Flagship species', 'Bioclimatology', 'United Nations Convention to Combat Desertification', 'Ammophila arenaria', 'Gallery forest', 'Clearcutting', 'Brassica carinata', 'Cropping', 'Marginal land', 'Science policy', 'Summer fallow', 'Ratooning', 'Product market', 'Controlled traffic farming', 'National Hydrography Dataset', 'Pilotage', 'Cherimoyas', 'Cultural control', 'Sustainable land management', 'Denitrifying bacteria', 'Dendrometry', 'Six Sigma', 'Nardus stricta', 'Exclosure', 'Vegetation type', 'Forest Vegetation Simulator', 'Stand development', 'Whitefly', 'n-vector', 'Vegetation', 'Prescribed burn', 'Bivector', 'Monodominance', 'Palynology', 'Traditional knowledge GIS', 'Fossil fuel', 'Ecosystem-based management', 'Weed control', 'Nature reserve', 'Thinning', 'Agrometeorology', 'Shelterwood cutting', 'Cultural landscape', 'Ecotone', 'Ruminant', 'Pinus pinaster', 'Pinus radiata', 'Certified wood', 'Site plan', 'Agricultural diversification', 'Hydric soil', 'h-vector', 'Gooseberries', 'Exclusionary zoning', 'Volcanic ash', 'Primary production', 'Temperate deciduous forest', 'Calluna', 'Brazil nut', 'Phytogeography', 'Lupinus angustifolius', 'Volcanology', 'Alternative stable state', 'Contour plowing', 'Tropical and subtropical dry broadleaf forests', 'Viticulture', 'Monogastric', 'Dryland salinity', 'Mixed-use development', 'Basal area', 'Irrigation scheduling', 'Plant breeding', 'Felling', 'Iliana', 'Soil solarization', 'Drought tolerance', 'Sagebrush Rebellion', 'Crop insurance', 'Planet', 'Shrubland', 'Stover', 'Coulee', 'Marsh', 'Nutrient management', 'Air rights', 'Leaf area index', 'Molecular breeding', 'Power control', 'Normalized Difference Vegetation Index', 'Revegetation', 'Biological pollution', 'Land-use forecasting', 'Plant community', 'Water pricing', 'Volcano', 'Dipterocarpaceae', 'Mixed farming', 'Fire ecology', 'Sclerophyll', 'Pioneer species', 'Paper recycling', 'Product marketing', 'Traditional knowledge', 'Forest product', 'Lolium rigidum', 'Planet V', 'Moderate-resolution imaging spectroradiometer', 'Pesticide application', 'Kyoto Protocol', 'Biodiversity offsetting', 'Fertigation', 'Intercropping', 'Species diversity', 'Introduced species', 'Cultural methods', 'Bioeconomics', 'Salvage logging', 'Extinction', 'Anthracology', 'Smart growth', 'Afforestation', 'Chaparral', 'Stubble-mulching', 'Rainforest', 'Land improvement', 'Logging', 'Wetland', 'Prime farmland', 'Extinction probability', 'Megafauna', 'Biotope', 'Overgrazing', 'Evergreen forest', 'Floristics', 'Undergrowth', 'Continuous cover forestry', 'Invasive species', 'Primary succession', 'Multiple use', 'No-till farming', 'Ecohydrology', 'Conservation development', 'High forest', 'Staple food', 'Urban sprawl', 'Grazing pressure', 'Ruminantia', 'Conservation finance', 'Pulpwood', 'Vegetation classification', 'Plant reproduction', 'Hardwood timber production', 'Subsoiler', 'Bumper crop', 'Virtual water', 'Seral community', 'Low-carbon economy', 'Crop residue', 'Farmland preservation', 'Adaptive strategies', 'Tropical forest', 'Soil management', 'Ecosystem management', 'Safe Drinking Water Act', 'Biome', 'Shrub', 'Trifolium subterraneum', 'Agricultural land', 'Rainfed agriculture', 'National Resources Inventory', 'Denitrification', 'Formant', 'Crop simulation model']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SDG_8</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>['2908822358', '2776883808', '2777950934', '142323842', '15302153', '2776888587', '2780431834', '2909045595', '2781188878', '2778734068', '2780695613', '2780370025', '2909644561', '2779687257', '2778381653', '2909538334', '18918823', '190175210', '48057960', '2778712577', '50522688', '2776943663', '2780745107', '2778806149', '2781068852', '2779986911', '29985473', '64089585', '2777540445', '2780536516', '2775844827', '2776544115', '23032112', '2779266529', '147583825', '145236788', '87980944', '95389739', '2780763229', '134827381', '2910283248', '2780438764', '2775982628', '111226992', '48879800', '2781441816', '68189081', '139203340', '202063016', '2775865179', '2909916548', '2911183331', '2781426361', '155109394', '41708089', '2779795779', '2777731549', '2780289447', '56995899', '2780836627', '2777671340', '2778116346', '2777581918', '2910129406', '134659438', '39389867', '2908562352', '2776737852', '76073288', '536738050', '54750564', '2775969135', '2780127002', '2780000394', '2778566306', '2780638295', '2777885895', '162324750', '2778000738', '506796395', '2910004771', '2780625504', '46312889', '2778215748', '2778148510', '121087249', '2778597803', '2776849302', '2778431023', '2779723664', '2780618658', '2909148432', '79119010', '105578763', '2777439000', '181230689', '2780946114', '2777288899', '2780286488', '2776988154', '34099160', '2779014257', '10144844', '206713868', '2777877159', '2778021871', '109986646', '40800819', '6968784', '2777358941', '38104776', '30228293', '2775876557', '2781190941', '2776332928', '2778556080', '2910941953', '72614640', '2776581254', '9778290', '2780931059', '2908915227', '107806365', '2910887555', '2778774626', '2776245402', '110458093', '2778002999', '26595155', '2780977596', '2909899567', '2908823330', '2775867934', '2910471639', '67886934', '2775893736', '2776325488', '2779290559', '2779719641', '2777747085', '2780082420', '2780516171', '195742910', '2781005894', '2776689383', '2911189839', '204983608', '2779739803', '80984254', '2778970885', '2775965751', '2778300220', '49906088', '43071985', '2776125615', '2776498708', '2910547974', '2776880170', '2776698172', '93236110', '2778716609', '2776167287', '2780498437', '6927289', '63545947', '176289848', '23925645', '2776805697', '11092464', '135335626', '2781257228', '2910343112', '2778576984', '81502235', '136264566', '68286588', '2775906418', '2777464741', '2778837545', '2781455901', '2776358859', '2779152076', '2776665811', '78597825', '2777211311', '2909201987', '2776942536', '175700187', '2778395451', '2910578545', '2779257778', '2779674044', '2778581803', '2909732560', '105639569', '22541086', '2776465609', '2909274781', '2781096511', '2775963177', '132943942', '2776255816', '2910181414', '527784420', '84309077', '139043278', '10138342', '2779783368', '2778126366', '2779264144', '2778517334', '2911089958', '2778038044', '51067260', '2779443769', '2778139618', '2778738845', '21839126', '2778762746', '107645774', '510346563', '2780085806', '2780407378', '158886217', '187212893', '2779011557', '2781349114', '2909356555', '2776237081', '2780870317', '155508913']</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>['10138342', '10144844', '105578763', '107645774', '107806365', '110458093', '11092464', '111226992', '121087249', '134827381', '135335626', '136264566', '139043278', '139203340', '142323842', '145236788', '15302153', '155109394', '155508913', '158886217', '162324750', '175700187', '176289848', '181230689', '187212893', '18918823', '190175210', '195742910', '202063016', '206713868', '21839126', '22541086', '23032112', '23925645', '26595155', '2775844827', '2775867934', '2775876557', '2775893736', '2775906418', '2775963177', '2775965751', '2775969135', '2775982628', '2776125615', '2776167287', '2776237081', '2776245402', '2776255816', '2776325488', '2776332928', '2776358859', '2776465609', '2776498708', '2776544115', '2776665811', '2776689383', '2776698172', '2776737852', '2776805697', '2776849302', '2776880170', '2776883808', '2776888587', '2776943663', '2776988154', '2777211311', '2777358941', '2777439000', '2777464741', '2777540445', '2777581918', '2777731549', '2777747085', '2777877159', '2777885895', '2777950934', '2778000738', '2778002999', '2778038044', '2778116346', '2778126366', '2778139618', '2778148510', '2778215748', '2778300220', '2778395451', '2778517334', '2778556080', '2778566306', '2778576984', '2778581803', '2778597803', '2778716609', '2778734068', '2778738845', '2778762746', '2778774626', '2778806149', '2778837545', '2778970885', '2779011557', '2779014257', '2779152076', '2779257778', '2779264144', '2779266529', '2779290559', '2779443769', '2779687257', '2779719641', '2779723664', '2779739803', '2779783368', '2779795779', '2779986911', '2780000394', '2780082420', '2780085806', '2780127002', '2780286488', '2780289447', '2780370025', '2780407378', '2780431834', '2780438764', '2780498437', '2780516171', '2780536516', '2780618658', '2780625504', '2780695613', '2780836627', '2780870317', '2780931059', '2780946114', '2781068852', '2781096511', '2781188878', '2781190941', '2781257228', '2781349114', '2781426361', '2781455901', '2908562352', '2908822358', '2908823330', '2908915227', '2909045595', '2909148432', '2909201987', '2909274781', '2909356555', '2909538334', '2909644561', '2909732560', '2909899567', '2909916548', '2910004771', '2910129406', '2910181414', '2910343112', '2910471639', '2910547974', '2910578545', '2910887555', '2910941953', '2911089958', '2911183331', '2911189839', '30228293', '34099160', '38104776', '40800819', '41708089', '43071985', '46312889', '48057960', '48879800', '49906088', '50522688', '506796395', '510346563', '51067260', '527784420', '54750564', '63545947', '64089585', '67886934', '68286588', '6927289', '6968784', '72614640', '76073288', '78597825', '79119010', '80984254', '81502235', '84309077', '87980944', '93236110', '9778290']</t>
-        </is>
+          <t>SDG_16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>562</v>
+      </c>
+      <c r="C17" t="n">
+        <v>524</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['160911440', '125748']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['2780638295', '68189081', '2780977596', '204983608', '536738050', '56995899', '132943942', '2775865179', '2778712577', '2777288899', '2780745107', '105639569', '2779674044', '2781005894', '147583825', '2776942536', '109986646', '2780763229', '134659438', '2781441816', '2910283248', '2777671340', '2778381653', '2778021871', '29985473', '2776581254', '2778431023', '95389739', '39389867']</t>
+          <t>['Social exclusion', 'Complex system']</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['34447519', '2778431023', '2780700307', '162324750', '44249647', '2777608298', '10558101', '74501621', '46295352', '102587632', '2781163912', '2775982628', '73484699', '2910283986', '2910791680', '2775923278', '2908852235', '2778348292', '2779415726', '2777671340', '2778611045', '129603779', '2777103469', '2778148510', '2909735440', '115314567', '2780893092', '2780300654', '160443848', '2779534595', '2778215748', '196697905', '162466561', '2780459134', '2779304910', '2778880830', '2776581254', '2776001114', '49504249', '2777861868']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['Market economy', 'Alliance', 'Independent living', 'Economics', 'Confidence interval', 'Right to food', 'Smart grid', 'Sea level', 'Legitimacy', 'Criminal justice', 'Right to die', 'Geoeconomics', 'Criminology', 'Violent behaviour', 'Drug market', 'Civil liberties', 'Patient Consent', 'Identity politics', 'Child protection', 'Social rights', 'Diaspora', 'Welfare state', 'Smart city', 'Bioeconomics', 'Drug marketing', 'European Union law', 'Right to health', 'Emergency vehicle', 'Per capita income', 'Social model of disability', 'Work–life balance', 'Input/output', 'Input/output (C++)', 'Right to social security', 'Academic freedom', 'Homeland', 'Social Right', 'Indigenous rights', 'Military intelligence', 'Member state']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SDG_9</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>['2777830566', '102871797', '2775906366', '15241564', '54525549', '2777731942', '2779727067', '76856003', '175285421', '2777777821', '74426580', '85608190', '2781027376', '114290370', '519458232', '193690875', '2780663833', '137813230', '136380597', '207190284', '2776030121', '2779525993', '6518042', '61742228', '36628996', '2779936157', '2775865179', '159249277', '205379176', '2779559744', '2780036518', '72648740', '2781020372', '2780936238', '2778617657', '2777327484', '2780089039', '2778809601', '118916094', '118168178', '540522513', '164062900', '202542152', '25761169', '2779944601', '100087112', '2779492575', '2779850335', '2776136876', '2778435127', '127705205', '2776205647', '2776697088', '154587522', '2778140759', '39399123', '187612029', '2780782035', '32283439', '29513896', '51399673', '2777481183', '60595047', '2777937549', '2778691696', '2779072820', '34521246', '136319028', '26022165', '2779937201', '98907195', '134718785', '179145077', '2780057273', '2779498771', '14551309', '2909830505', '2909344626', '14928880', '2910765841', '118121272', '166566249', '2778284051', '2779816654', '187394410', '2777747085', '2780082420', '40160088', '197417287', '110893760', '40046163', '171562612', '168068576', '151800584', '2780652884', '169715780', '74250896', '2781101175', '2776102385', '85973986', '2780985968', '185705118', '13951911', '2781298581', '109086967', '2776822914', '36038061', '203542878', '172630978', '2776222033', '182731298', '202992132', '23119410', '2777551599', '2779260511', '2776994558', '2777765789', '121058817', '196351127', '2779652256', '39518161', '169466946', '182769425', '2776354922', '75434695', '46722567', '44079730', '68183290', '2781148867', '2910485920', '2780352317', '2778197767', '2911051535', '146032754', '111309251', '2778101592', '13021490', '171142967', '2778360186', '139321929', '130143024', '2776874963', '42043438', '80364944', '2910396183', '200947169', '2911118914', '185254563', '2911061381', '133969743', '120961793', '74524168', '67427781', '2778329844', '73413767', '77122620', '2776138580', '2781051052', '38052585', '2778812306', '121518397', '2779026181', '2910412189', '203715995', '2776277307', '40937832', '2909333728', '2780530572', '113145756', '2779998766', '779372', '2910556911', '94602187', '155292070', '204329753', '58817359', '2778555145', '150818752', '166595027', '2779271213', '70388272', '200185824', '2779432455', '156708679', '130635790', '2781164033', '202662744', '167393769', '2779423988', '2911217838', '513153333', '537773303', '26355699', '2779747408', '2910545671', '112184408', '2780814149', '51936796', '151431374', '2777592538', '2781013037', '2780364048', '2777089699', '2777862630', '2910889294', '4345497', '116696211', '2780643059', '2908558976', '2781042210', '192039558', '2777564445', '163849874', '2777909563', '2780667421', '2910618856', '509933004', '28849524', '2778798718', '2779959790', '2777571838', '137996800', '2777007952', '127196793', '24733836', '2780655307', '2778693464', '73225119', '2779424011', '27462124', '118519418', '2779073172', '96473913', '166667406', '69298649', '2778571651', '18949120', '112505250', '39084254', '206521022', '186072955', '2775960376', '2777527080', '2776481522', '152146699', '186967261', '62402440', '551646850', '137488568', '2776960227', '2909575431', '74714110', '2776778800', '29984679', '2910733581', '538199239', '102451475', '64089585', '2910522325', '101468663', '2776921476', '2779082914', '172265290', '99541287', '137641188', '141218545', '2777246536', '2777006462', '2778831993', '63553672', '19582560', '39118121', '2780537718', '2777619693', '2776457032', '2777817576', '22607594', '177409738', '24561367', '2779245141', '163952510', '2776450708', '2779698641', '2777339832', '2911112108', '2776258540', '43653141', '21651964', '40367268', '162027153', '97812054', '186150311', '188985296', '2781325599', '46724921', '98375054', '127732161', '77390884', '2780689689', '127592171', '21538904', '103423482', '113878180', '54290928', '47659340', '158523808', '2776667712', '2779684419', '2776797291', '541491724', '2777889803', '520409616', '2781113784', '2777835026', '62897895', '2781385195', '172750839', '2777276890', '166972891', '67656411', '196713837', '2776642717', '2776698168', '2779199053', '2780634410', '992767', '199726164', '38639735', '2779742141', '2909472621', '2910845796', '2775899781', '2779769603', '136336744', '2778156880', '110363677', '2909427711', '128450285', '196423136', '52761205', '114237682', '2775919224', '102458011', '154910267', '9671652', '184782024', '155092808', '113461152', '2778937263', '13164978', '2777905004', '2779073270', '2781013843', '2778086310', '2778775284', '96709497', '160191386', '2780120631', '2909921707', '182173840', '120835403', '23230815', '2778920187', '96814336', '150012182', '151405878', '12090584', '184422994', '2780872544', '57061188', '2780865476', '116659846', '117110933', '2780052205', '2778386843', '89448510', '2779826969', '2909179353', '70636015', '2779855849', '2776192736', '97744766', '130230704', '149947181', '158258876', '2778040704', '2779680598', '150394285', '2909071395', '138108440', '2775845787', '139213188', '10879293', '2780678602', '11189877', '2776194824', '2778022221', '2780667210', '139744980', '12703456', '554616519', '2778703219', '2776035571', '172860338', '146345970', '146270425', '57814208', '2910512453', '184551789', '2776593022', '2778142872', '157547923', '84662259', '198667719', '154945302', '2777866876', '58202505', '143616835', '2780662705', '2779501970', '166690567', '2909316267', '127413603', '23898865', '2779898492', '2909116566', '184454961', '311688', '2781241367', '2781155252', '197654239', '554190296', '43540301', '70401792', '166556878', '132983000', '37428701', '78834623', '183847335', '2778779970', '95349148', '2777887233', '2779606945', '2778952998', '76831024', '12892243', '60584519', '195563490', '143588538', '2780635410', '150903083', '2778049420', '2778420160', '2777138346', '152551177', '193415008', '2910983087', '528626486', '110956428', '46352929', '82653869', '2779104393', '45502583', '643704', '2909631073', '2780626145', '957247', '2777230600', '166693061', '534819032', '2908741780', '2911124959', '2780403918', '2778228685', '2910859387', '26466937', '2777159256', '2779782174', '2778171436', '124806180', '2780026712', '121327165', '186037533', '140619461', '2910681755', '49853544', '53893814', '2776422217', '34447519', '106125477', '541409800', '519688237', '2777058048', '138942068', '2780383739', '2778344433', '131055897', '90638607', '2780242733', '2777311342', '156336011', '2776310492', '56751440', '39173455', '2908850610', '4924752', '88654294', '79381805', '2780443747', '2779868332', '106809287', '181236821', '2778516001', '2777575374', '78401558', '2776184083', '144618238', '2776054589', '2776588719', '44832474', '2780267684', '2780652538', '138224501', '2778459932', '2780371127', '2776164336', '131100506', '2778183165', '177274176', '2909155221', '2776899970', '101396714', '198766705', '2779015050', '18419278', '2779920640', '2779586902', '2778233930', '178365465', '2776244466', '131043120', '166689943', '2776777543', '2910470413', '2777425764', '2781127917', '2778119891', '96711827', '181932105', '2778993590', '2780373723', '40586070', '113508815', '77667144', '2777347882', '2777215697', '166634970', '149672775', '2776923346', '49113467', '59061988', '57527310', '523214423', '45058047', '2777223244', '2778600265', '2776440744', '2910381287', '2780431167', '190834728', '2776100724', '14740148', '71376005', '187212893', '162096220', '16635281', '2776051353', '149265406', '37025074', '41794268', '2777869240', '161352937', '19023663', '103697071', '99874240', '2910974233', '80962145', '2777865929', '130946814', '144992956', '135377553', '2781424430', '150185637', '2780848835', '129792486', '2779978421', '187725362', '2780308056', '2780439177', '2780922921', '2778827957', '37696544', '555048382', '34146451', '173801870', '63436455', '2780720960', '135628077', '87161607', '134240934', '32977378', '16405173', '100405246', '2778972723', '2779306247', '196054291', '2776445415', '30838235', '2777751223', '88105052', '2775926494', '46820840', '2910199060', '53524968', '93389723', '150708132', '31910662', '71813955', '160394919', '41132950', '179618828', '47696715', '20977289', '2777496290', '2779738552', '2909944768', '11799548', '2778027091', '2910841016', '62352918', '2779208285', '2779490540', '32860805', '2777190053', '2908907010', '2779576378', '539450922', '203833370', '125616564', '187529661', '192932206', '62427370', '2776229149', '2910989632', '12334850', '141131685', '125502', '178260956', '131232501', '2781183794', '175604262', '31533079', '2776638905', '54285103', '2778320157', '2779630230', '2777720951', '2778452465', '2909544240', '2910680965', '144408495', '127210992', '2909475385', '506065880', '24604422', '2776787376', '102232406', '9761082', '538505008', '544072693', '58300830', '29705727', '2777445446', '2778049214', '29216876', '145073311', '155296804', '166576357', '2908935387', '2779917225', '2779437720', '2910216150', '2777343860', '2778058665', '115958267', '186579879', '92851284', '32900221', '65601320', '72768775', '2780626102', '2777754422', '2777051993', '189326492', '76444178', '503427281', '83893533', '172123370', '2776299913', '45859991', '130403756', '2779135771', '138868233', '2909305023', '55118286', '200246849', '2780962792', '23576306', '2777738643', '2780466208', '142784634', '2910631570', '2909251282', '101336846', '2909175755', '2778479235', '72045907', '2778285946', '2776895459', '148554410', '41243669', '78382760', '2779158102', '2778793053', '2775893736', '148798159', '2965921', '2779030575', '179737136', '11067248', '2908952454', '121308736', '2775859485', '146978453', '51576277', '42298096', '541182425', '27819379', '66018809', '2780710336', '89094514', '19269812', '2779473651', '2776810648', '2911128630', '38693133', '180500224', '2909816863', '162100613', '200274948', '2777980634', '86504812', '188805328', '138171918', '132094186', '2781376611', '2778702902', '193611912', '2779686855', '32258923', '3503070', '122196380', '80323366', '58396970', '2910017386', '107316180', '157846364', '520752033', '2910633225', '2778776759', '2776509796', '2778865806', '2780500733', '5903713', '85260623', '2777166562', '23061349', '66594872', '2776405685', '49504249', '2910463473', '2775849312', '50291824', '2778720315', '2778499088', '145565327', '139968098', '50630238', '2341566', '529740132', '199845137', '41056977', '169851745', '59345209', '42133412', '160919093', '2910319113', '2779893281', '1276947', '2780358262', '2775936651', '2908879008', '2182769', '176871988', '155334826', '2909386086', '2777895876', '17993994', '6929976', '2779687700', '95914496', '2778832859', '2780066276', '175966412', '2779318504', '144468803', '14919245', '117670421', '2778447519', '139353612', '123566451', '2776321517', '2777588356', '2776126113', '2910569055', '539828613', '205899878', '2909709171', '16710848', '40630565', '46891859', '12248821', '91881484', '2777064627', '204911340', '2776060655', '2778135664', '159951928', '2781300000', '105030818', '2780862241', '68793194', '2777109904', '2778529423', '53371666', '24027999', '107756529', '2780198632', '528167355', '165650700', '2777553912', '2591305', '142600807', '2780626000', '2778435994', '2776979432', '180861198', '2776811073', '64980692', '3866505', '139345896', '2778692605', '204573209', '2910833221', '2776736150', '82740854', '2910475472', '2777680864', '2780187858', '64346931', '2778734332', '206530858', '2779166880', '154193497', '2776977519', '2779951582', '2778478046', '2778025062', '145437242', '34612862', '2778842860', '2778738845', '12534583', '2780285038', '12143843', '2778464233', '54936624', '11727466', '2909866401', '50720040', '2776023280', '2776456419', '160363772', '151543262', '74872398', '173906292', '25074200', '78687567', '203582535', '536799390', '2909195514', '2778223847', '138481207', '84999194', '138370407', '53838383', '2776104920', '51244244', '2779095429', '22837933', '2779006324', '2777674469', '2779224189', '159549609', '2911004254', '110350745', '2778857364', '185051836', '5339829', '2780193958', '2779919027', '2779241781', '120302604', '33588617', '2780469320', '133482787', '2775838418', '2777661930', '50406972', '35777598', '2779697334', '37135326', '30471927', '2778928165', '142000545', '107166191', '2778370875', '8162170', '147196274', '2776985863', '37482258', '2776624666', '169337768', '183208416', '179145894', '148415826', '141261163', '98851261', '5408304', '134215040', '2779952096', '58142911', '13263538', '170290021', '41231900', '2908703028', '2777526511', '2777306163', '12287442', '2780471320', '2780874159', '2779571069', '524878704', '203864433', '143977109', '10929652', '175097422', '2779839180', '17599544', '2776363543', '2777590503', '167296696', '174771821', '2777089626', '2779478308', '2776784398', '2777646807', '2781366932', '42143788', '2908850654', '2780366299', '2780365336', '4848560', '137364921', '91432469', '2777783080', '89702864', '2781048479', '188045654', '2908723665', '109578324', '2775981511', '2778761393', '106165642', '36770926', '2780027527', '2910897919', '2911180396', '2776894995', '2777969390', '32243926', '65567647', '144836735', '73859625', '41994538', '2910445219', '109592283', '2776445639', '2777426639', '33947775', '2780965034', '83849155', '2779391383', '24463637', '101826366', '54971619', '140075996', '2780729894', '170674324', '2776698388', '161813005', '173408217', '31510193', '54108766', '2777799566', '2780615885', '2779980673', '2778820799', '101677414', '2779535233', '2776916405', '207857233', '2780892144', '73412179', '92237259', '559253537', '2778357024', '106848363', '2777537072', '119751540', '200657195', '2910122108', '2780541193', '190430219', '121087249', '2776676641', '198211336', '66402592', '119701452', '2778275008', '26926545', '192220659', '2780355671', '148221864', '2776304672', '16671190', '2910061995', '2781209966', '72293138', '141112555', '2777563242', '25902001', '154742593', '110120631', '2780682718', '2776986690', '190774637', '2777959984', '102180281', '153553885', '2777623114', '159631557', '61298376', '544778455', '2778895906', '2780556460', '2780328347', '4166634', '1700975', '185172162', '181447626', '154978347', '202986899', '2778837361', '2780705272', '175457265', '174920882', '134535237', '2781338159', '27142793', '166961238', '58074150', '192887742', '202802212', '2776125036', '201784641', '3720319', '2911064832', '111806078', '2779436495', '46754376', '2777132090', '130391077', '2909042360', '27289702', '98528093', '2776077392', '2778552832', '2777709473', '158843486', '73862843', '2781110076', '183735805', '2778358729', '108572070', '2780013003', '2910035481', '122136912', '10390740', '89508514', '43091971', '2779383134', '2779900269', '2776074547', '2776602342', '2779150755', '164767435', '2780625085', '551230270', '88005923', '2779817378', '2776663509', '451841', '178669061', '2779610630', '27881333', '2781024063', '155355069', '104453602', '140604960', '68702407', '162005631', '160088933', '2911190354', '2780889106', '2781023928', '2775896111', '71800255', '89309335', '2781399071', '2780766832', '2780560099', '2779439448', '2776881904', '191920346', '130574115', '54654163', '2775916975', '104745612', '2776142628', '2779771641', '2781129822', '199168358', '2778397825', '2777200204', '178859891', '2779760629', '159091798', '193794138', '2777232610', '140551693', '2781283277', '205904022', '19244329', '6268609', '48314217', '511782119', '2910073301', '129880937', '2780903246', '53688548', '157764524', '2778080089', '79689650', '117089332', '204948658', '2779799902', '67936045', '15476950', '139378739', '2779303621', '165537544', '2777635934', '2776640376', '67862953', '2775914053', '2910342993', '2779989747', '109932267', '95418871', '125550954', '63655563', '158379750', '2910741372', '118813454', '81376181', '11982227', '38008478', '23903533', '2776667075', '137335462', '11432220', '2909802026', '2779581428', '2779817440', '41999313', '2779609627', '128519102', '2777710951', '2776578615', '2910050528', '71832216', '192639820', '137126227', '2776922509', '2777796192', '20885615', '2910905531', '2781283035', '176445938', '2777789335', '2909065553', '198054911', '132882038', '178570572', '94922259', '2909332535', '2776440409', '2777662197', '203570394', '110619738', '118314422', '126230835', '2777062904', '5546195', '140016664', '2779097976', '99752389', '108037233', '141603559', '186834915', '2776080111', '30112582', '56919463', '71681937', '2776395564', '26593445', '22550940', '131739630', '513985346', '61776360', '2910871427', '83479923', '34630208', '2775959666', '31531917', '41972984', '163540240', '101273638', '8442714', '2779376387', '2777178879', '2776500315', '2777925586', '2780330172', '92545706', '104407772', '2781335571', '193237570', '2909446438', '2780179797', '2776775114', '43867161', '2779135357', '2780188227', '2777421447', '547195049', '150256626', '2778398154', '2778102629', '143517461', '7923174', '92995354', '170401851', '2779752676', '196923211', '94200605', '186867162', '2778240782', '2779284651', '194110935', '2780642438', '2779303498', '2909435489', '2776199826', '57863822', '105600410', '46788351', '544153396', '83260615', '37624559', '50878840', '198621165', '27267504', '16777580', '7573999', '2778488525', '15535662', '206923515', '164468515', '541019422', '129828019', '2776576667', '2777191329', '5871375', '98535783', '119781247', '79127381', '204223013', '94921317', '160894760', '103888896', '2910732896', '2777314014', '2781395907', '2778715912', '2779269999', '97784730', '2776584721', '2910755285', '2910222011', '118572532', '138293262', '40834362', '201547687', '2781086688', '2909707298', '2765594', '2910364823', '85884896', '107763842', '137757676', '2909896708', '205817836', '2779833257', '159554100', '33271190', '522053795', '2779595939', '2781053203', '20060776', '115903097', '169915972', '18787249', '175115632', '2777785971', '78949437', '138774019', '138569888', '2780805606', '150846664', '15476841', '2779282880', '110850998', '2781117724', '145995521', '88417058', '45293964', '158550234', '98906903', '144534570', '2778770744', '61218518', '2777820359', '75100901', '119498932', '15401063', '2777963174', '47878483', '2778231660', '509929229', '156696300', '22286887', '153015087', '143066371', '205783811', '35096461', '201100257', '16644385', '99970624', '186795189', '2908681449', '6405472', '2910564736', '5829439', '2780516175', '181573087', '144820252', '2778794710', '2780576536', '2779851693', '15655602', '206826598', '2778965516', '2910242987', '2910950043', '2778100165', '2780119549', '182891698', '44740213', '86060186', '2777107361', '2777805442', '10393806', '2776060186', '2779664251', '1486788', '2779689694', '113378356', '145595949', '160730041', '2781373936', '2781027520', '2777098202', '72981366', '101457746', '2781042915', '2780204815', '2780437230', '30467622', '29829512', '74478641', '2780725026', '2908614855', '156975606', '2780625559', '117671659', '173409883', '18595123', '121017423', '2780690664', '504039657', '527607', '46312889', '2781130449', '33842695', '56906281', '115023222', '2908865798', '115816120', '161156560', '2909712328', '124511130', '12965471', '2781381157', '2778583532', '82687282', '2776907800', '2910323515', '2780832955', '2776038537', '190330329', '2776166442', '12303254', '2781438671', '150495011', '2776104089', '2779511760', '2780788825', '72422203', '170563983', '2776091240', '2781367577', '2908828389', '126909462', '161657702', '2778706760', '2909928070', '56828936', '2778255315', '22495355', '2910908761', '171900002', '2780820837', '164866673', '131923401', '110407247', '70520399', '8898347', '41608201', '2778778939', '2910275393', '23375383', '97121743', '161866238', '163581340', '50296614', '28442783', '158711907', '2910706634', '2779503283', '149835862', '14914868', '26405456', '157469704', '543218039', '75254596', '182521987', '60511073', '532361734', '2776326889', '101252448', '2910450386', '2909942976', '2778869280', '162882748', '134428707', '2777926032', '2781183675', '41866144', '504270822', '159188206', '545171759', '1781132', '18051801', '80343103', '98444146', '2779622097', '2777215911', '2780972165', '77624028', '188817802', '2780039072', '139078358', '72898154', '206477279', '42222760', '184896649', '2779933583', '518104683', '2910166139', '94081185', '2776052592', '33039251', '133347240', '104434177', '2776212561', '2909055331', '2910677061', '118541297', '2778944269', '36091686', '40458791', '19979193', '2780722187', '2910818388', '2778559676', '2780368237', '511503438', '2778372311', '133925201', '179687394', '97850793', '2776330005', '2780029314', '182019814', '126300421', '18293161', '2778580826', '2779017103', '76969082', '2908643474', '2909240815', '134560507', '185298936', '134816702', '190729725', '197231348', '115537861', '159391843', '158488048', '200687136', '2779962586', '2780523633', '2777047555', '108326461', '42411736', '26915998', '87379069', '2776740192', '68386048', '77671233', '2777341996', '96191372', '132646400', '134224410', '202798467', '84967159', '171367847', '60154766', '144308804', '106246969', '2910060944', '64671776', '152153834', '2777450992', '2910157646', '2776915473', '190989730', '2779842916', '128669082', '2909082439', '2778561511', '9593695', '2780298425', '33296510', '44104985', '2909685383', '2779606561', '2780338368', '2779542357', '2908912629', '63401691', '77854861', '2779073454', '2777796589', '119474132', '129446986', '2777562361', '2777565064', '149672232', '2779145874', '2908853934', '24722842', '2908666506', '31548570', '2777672618', '150711758', '2779950589', '508800617', '98156149', '137314826', '16686006', '88001094', '95478058', '2909009270', '2776278144', '21946209', '106597312', '46721378', '138721006', '93106096', '2780083220', '116321358', '2780841897', '2778627824', '2779191767', '31081114', '164495641', '2908629581', '193149544', '2779770443', '2778206073', '2909288663', '32993116', '44435123', '2779608769', '110682481', '3285680', '2780873938', '95548782', '2779081050', '2776339268', '51456978', '2777024025', '2777277180', '104205377', '31163007', '135642988', '2781087836', '2910731964', '38653338', '88477975', '2776936202', '94267665', '164862427', '530175646', '120823896', '2780826866', '35341882', '204517386', '71515424', '2910156419', '2777925978', '39400828', '2780170866', '2776782996']</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>['100087112', '100405246', '101252448', '101273638', '101396714', '101457746', '101468663', '101826366', '102180281', '102232406', '102451475', '102458011', '102871797', '103423482', '103697071', '103888896', '10390740', '10393806', '104205377', '104407772', '104434177', '104453602', '104745612', '105030818', '105600410', '106125477', '106165642', '106246969', '106597312', '106809287', '106848363', '107166191', '107316180', '107756529', '107763842', '108037233', '108326461', '108572070', '10879293', '109086967', '10929652', '109578324', '109932267', '110120631', '110350745', '110363677', '110407247', '110619738', '11067248', '110682481', '110850998', '110893760', '110956428', '111309251', '111806078', '11189877', '112184408', '112505250', '113378356', '113461152', '113508815', '113878180', '114237682', '114290370', '11432220', '115023222', '115537861', '115816120', '115903097', '115958267', '116659846', '116696211', '117089332', '117110933', '11727466', '117670421', '117671659', '11799548', '118121272', '118168178', '118314422', '118541297', '118572532', '118813454', '118916094', '119474132', '119498932', '119701452', '119751540', '119781247', '11982227', '120302604', '120823896', '120835403', '12090584', '120961793', '121017423', '121058817', '121087249', '121308736', '121327165', '12143843', '121518397', '122136912', '122196380', '12248821', '12287442', '12303254', '12334850', '123566451', '124511130', '124806180', '12534583', '125502', '125550954', '125616564', '126230835', '126300421', '126909462', '12703456', '127196793', '127210992', '127413603', '127592171', '1276947', '127705205', '127732161', '128450285', '128519102', '128669082', '12892243', '129446986', '12965471', '129792486', '129828019', '129880937', '130143024', '13021490', '130230704', '130391077', '130403756', '130574115', '130635790', '130946814', '131043120', '131055897', '131100506', '131232501', '13164978', '131739630', '131923401', '132094186', '13263538', '132646400', '132882038', '132983000', '133347240', '133482787', '133925201', '133969743', '134215040', '134224410', '134240934', '134428707', '134535237', '134560507', '134718785', '134816702', '135377553', '135642988', '136319028', '136336744', '137126227', '137314826', '137335462', '137364921', '137488568', '137641188', '137757676', '137996800', '138108440', '138171918', '138224501', '138293262', '138370407', '138481207', '138569888', '138721006', '138774019', '138868233', '138942068', '139078358', '139213188', '139321929', '139345896', '139353612', '139378739', '139744980', '139968098', '140016664', '140075996', '140551693', '140604960', '140619461', '141112555', '141131685', '141218545', '141261163', '141603559', '142000545', '142784634', '143066371', '143588538', '143616835', '143977109', '144308804', '144408495', '144534570', '144618238', '144820252', '144836735', '144992956', '145073311', '145437242', '14551309', '145565327', '145595949', '145995521', '146032754', '146270425', '146345970', '146978453', '147196274', '14740148', '148221864', '148415826', '148554410', '1486788', '148798159', '14914868', '14919245', '149265406', '14928880', '149672232', '149672775', '149835862', '149947181', '150012182', '150185637', '150256626', '150495011', '150708132', '150711758', '150818752', '150846664', '150903083', '151431374', '151543262', '151800584', '152146699', '152153834', '15241564', '152551177', '153015087', '153553885', '15401063', '154193497', '154587522', '154742593', '15476841', '15476950', '154910267', '154945302', '154978347', '155092808', '155292070', '155296804', '155334826', '155355069', '15535662', '156336011', '15655602', '156696300', '156708679', '156975606', '157469704', '157547923', '157764524', '157846364', '158258876', '158379750', '158488048', '158523808', '158550234', '158711907', '158843486', '159091798', '159188206', '159249277', '159391843', '159549609', '159554100', '159631557', '159951928', '160088933', '160191386', '160394919', '160730041', '160894760', '160919093', '161156560', '161352937', '161657702', '161813005', '161866238', '162005631', '162027153', '162096220', '162100613', '162882748', '163540240', '163581340', '163849874', '163952510', '16405173', '164062900', '164468515', '164495641', '164767435', '164862427', '164866673', '165537544', '165650700', '16635281', '16644385', '166556878', '166566249', '166576357', '166595027', '166634970', '166667406', '166689943', '166690567', '166693061', '16671190', '16686006', '166961238', '166972891', '16710848', '167296696', '168068576', '169337768', '169466946', '169715780', '169851745', '169915972', '1700975', '170290021', '170401851', '170563983', '170674324', '171142967', '171367847', '171562612', '171900002', '172123370', '172265290', '172630978', '172750839', '172860338', '173408217', '173409883', '173801870', '174771821', '174920882', '175097422', '175115632', '175285421', '175457265', '175604262', '175966412', '17599544', '177274176', '177409738', '1781132', '178260956', '178365465', '178570572', '178669061', '178859891', '179145077', '179145894', '179618828', '179687394', '179737136', '17993994', '180500224', '18051801', '180861198', '181236821', '181447626', '181573087', '181932105', '182019814', '182173840', '182521987', '182731298', '182769425', '182891698', '18293161', '183208416', '183735805', '183847335', '18419278', '184422994', '184454961', '184551789', '184782024', '184896649', '185051836', '185172162', '185254563', '185298936', '185705118', '18595123', '186037533', '186072955', '186150311', '186579879', '186795189', '186834915', '186867162', '186967261', '187212893', '187394410', '187529661', '187612029', '187725362', '18787249', '188045654', '188805328', '188817802', '188985296', '189326492', '18949120', '19023663', '190330329', '190430219', '190729725', '190774637', '190834728', '190989730', '191920346', '192039558', '192220659', '192639820', '19269812', '192887742', '192932206', '193149544', '193237570', '193611912', '193690875', '193794138', '194110935', '195563490', '19582560', '196054291', '196351127', '196423136', '196713837', '196923211', '197231348', '197417287', '197654239', '198054911', '198211336', '198621165', '198667719', '198766705', '199168358', '199726164', '19979193', '199845137', '200185824', '200246849', '200274948', '20060776', '200657195', '200687136', '200947169', '201100257', '201547687', '201784641', '202542152', '202662744', '202798467', '202802212', '202986899', '202992132', '203542878', '203570394', '203582535', '203715995', '203833370', '203864433', '204223013', '204329753', '204517386', '204573209', '204911340', '204948658', '205379176', '205783811', '205817836', '205899878', '205904022', '206477279', '206521022', '206530858', '206826598', '206923515', '207190284', '207857233', '20885615', '20977289', '21538904', '21651964', '2182769', '21946209', '22286887', '22495355', '22550940', '22837933', '23061349', '23119410', '23230815', '23375383', '2341566', '23576306', '23898865', '23903533', '24027999', '24463637', '24561367', '24604422', '24722842', '24733836', '25074200', '25761169', '25902001', '2591305', '26022165', '26355699', '26405456', '26466937', '26593445', '26915998', '26926545', '27142793', '27267504', '27289702', '27462124', '2765594', '2775838418', '2775849312', '2775859485', '2775865179', '2775893736', '2775899781', '2775906366', '2775914053', '2775916975', '2775919224', '2775926494', '2775936651', '2775959666', '2775981511', '2776023280', '2776030121', '2776035571', '2776038537', '2776051353', '2776052592', '2776054589', '2776060186', '2776074547', '2776077392', '2776080111', '2776091240', '2776100724', '2776104089', '2776104920', '2776125036', '2776126113', '2776136876', '2776138580', '2776142628', '2776164336', '2776166442', '2776184083', '2776192736', '2776194824', '2776199826', '2776205647', '2776212561', '2776222033', '2776229149', '2776244466', '2776258540', '2776277307', '2776299913', '2776304672', '2776310492', '2776321517', '2776326889', '2776330005', '2776339268', '2776354922', '2776363543', '2776395564', '2776405685', '2776440409', '2776440744', '2776445415', '2776445639', '2776450708', '2776456419', '2776457032', '2776481522', '2776500315', '2776509796', '2776576667', '2776578615', '2776584721', '2776588719', '2776593022', '2776602342', '2776624666', '2776638905', '2776640376', '2776642717', '2776663509', '2776667075', '2776667712', '2776676641', '2776697088', '2776698168', '2776698388', '2776736150', '2776740192', '2776775114', '2776777543', '2776778800', '2776782996', '2776784398', '2776787376', '2776797291', '2776810648', '2776811073', '2776822914', '2776874963', '2776881904', '2776894995', '2776895459', '2776899970', '2776907800', '2776915473', '2776916405', '2776921476', '2776923346', '2776936202', '2776977519', '2776979432', '2776985863', '2776986690', '2776994558', '2777006462', '2777007952', '2777024025', '2777047555', '2777051993', '2777058048', '2777062904', '2777064627', '2777089626', '2777089699', '2777098202', '2777107361', '2777109904', '2777132090', '2777138346', '2777159256', '2777166562', '2777178879', '2777190053', '2777191329', '2777200204', '2777215697', '2777215911', '2777223244', '2777230600', '2777232610', '2777246536', '2777276890', '2777277180', '2777306163', '2777311342', '2777314014', '2777327484', '2777339832', '2777341996', '2777343860', '2777347882', '2777421447', '2777425764', '2777426639', '2777445446', '2777450992', '2777481183', '2777496290', '2777526511', '2777527080', '2777537072', '2777551599', '2777553912', '2777562361', '2777563242', '2777564445', '2777565064', '2777571838', '2777575374', '2777588356', '2777590503', '2777592538', '2777619693', '2777623114', '2777635934', '2777646807', '2777661930', '2777662197', '2777672618', '2777674469', '2777680864', '2777709473', '2777710951', '2777720951', '2777731942', '2777738643', '2777747085', '2777751223', '2777754422', '2777765789', '2777777821', '2777783080', '2777785971', '2777789335', '2777796192', '2777796589', '2777799566', '2777805442', '2777817576', '2777820359', '2777830566', '2777835026', '2777851029', '2777862630', '2777865929', '2777866876', '2777869240', '2777887233', '2777889803', '2777895876', '2777905004', '2777909563', '2777925586', '2777925978', '2777926032', '2777937549', '2777959984', '2777963174', '2777969390', '2777980634', '2778022221', '2778025062', '2778027091', '2778049214', '2778049420', '2778058665', '2778080089', '2778086310', '2778100165', '2778101592', '2778102629', '2778119891', '2778135664', '2778140759', '2778142872', '2778156880', '2778171436', '2778183165', '2778197767', '2778206073', '2778223847', '2778228685', '2778231660', '2778233930', '2778240782', '2778255315', '2778275008', '2778284051', '2778285946', '2778320157', '2778329844', '2778344433', '2778357024', '2778358729', '2778360186', '2778370875', '2778372311', '2778386843', '2778397825', '2778398154', '2778420160', '2778435127', '2778435994', '2778447519', '2778452465', '2778459932', '2778464233', '2778478046', '2778479235', '2778488525', '2778499088', '2778516001', '2778529423', '2778552832', '2778555145', '2778559676', '2778561511', '2778571651', '2778580826', '2778583532', '2778600265', '2778617657', '2778627824', '2778691696', '2778692605', '2778693464', '2778702902', '2778703219', '2778706760', '2778715912', '2778734332', '2778738845', '2778761393', '2778770744', '2778775284', '2778776759', '2778778939', '2778779970', '2778793053', '2778794710', '2778798718', '2778809601', '2778812306', '2778820799', '2778827957', '2778831993', '2778832859', '2778837361', '2778842860', '2778857364', '2778865806', '2778869280', '2778895906', '2778920187', '2778928165', '2778937263', '2778944269', '2778952998', '2778965516', '2778972723', '2778993590', '2779006324', '2779015050', '2779017103', '2779026181', '2779030575', '2779072820', '2779073172', '2779073270', '2779073454', '2779081050', '2779082914', '2779095429', '2779097976', '2779104393', '2779135357', '2779135771', '2779145874', '2779150755', '2779158102', '2779166880', '2779191767', '2779199053', '2779208285', '2779224189', '2779241781', '2779245141', '2779260511', '2779269999', '2779271213', '2779282880', '2779284651', '2779303498', '2779303621', '2779376387', '2779383134', '2779391383', '2779423988', '2779424011', '2779432455', '2779436495', '2779437720', '2779439448', '2779473651', '2779478308', '2779490540', '2779492575', '2779498771', '2779501970', '2779511760', '2779525993', '2779535233', '2779542357', '2779559744', '2779571069', '2779576378', '2779581428', '2779586902', '2779595939', '2779606561', '2779606945', '2779608769', '2779609627', '2779610630', '2779622097', '2779630230', '2779664251', '2779680598', '2779684419', '2779687700', '2779689694', '2779697334', '2779698641', '2779727067', '2779738552', '2779742141', '2779747408', '2779752676', '2779760629', '2779769603', '2779770443', '2779771641', '2779782174', '2779799902', '2779816654', '2779817378', '2779817440', '2779826969', '2779833257', '2779839180', '2779842916', '2779850335', '2779851693', '2779855849', '2779868332', '2779893281', '2779898492', '2779900269', '2779917225', '2779919027', '2779920640', '2779933583', '2779936157', '2779937201', '2779944601', '2779950589', '2779951582', '2779952096', '2779959790', '2779962586', '2779978421', '2779989747', '2779998766', '2780013003', '2780026712', '2780027527', '2780029314', '2780036518', '2780039072', '2780052205', '2780057273', '2780066276', '2780083220', '2780089039', '2780119549', '2780120631', '2780170866', '2780179797', '2780187858', '2780188227', '2780193958', '2780198632', '2780204815', '2780242733', '2780267684', '2780285038', '2780298425', '2780308056', '2780330172', '2780338368', '2780352317', '2780355671', '2780358262', '2780364048', '2780365336', '2780366299', '2780368237', '2780373723', '2780383739', '2780403918', '2780431167', '2780437230', '2780439177', '2780443747', '2780466208', '2780469320', '2780471320', '2780500733', '2780516175', '2780523633', '2780530572', '2780537718', '2780541193', '2780556460', '2780560099', '2780615885', '2780625085', '2780625559', '2780626000', '2780626102', '2780626145', '2780634410', '2780635410', '2780642438', '2780643059', '2780652538', '2780652884', '2780655307', '2780662705', '2780663833', '2780667210', '2780667421', '2780678602', '2780682718', '2780689689', '2780690664', '2780705272', '2780710336', '2780720960', '2780722187', '2780725026', '2780729894', '2780766832', '2780782035', '2780788825', '2780814149', '2780820837', '2780826866', '2780832955', '2780841897', '2780848835', '2780862241', '2780865476', '2780872544', '2780873938', '2780874159', '2780889106', '2780892144', '2780903246', '2780922921', '2780936238', '2780962792', '2780965034', '2780972165', '2780985968', '2781013037', '2781013843', '2781020372', '2781023928', '2781024063', '2781027376', '2781027520', '2781042210', '2781042915', '2781048479', '2781051052', '2781053203', '2781086688', '2781087836', '2781101175', '2781110076', '2781113784', '2781127917', '2781129822', '2781130449', '2781148867', '2781155252', '2781164033', '2781183675', '2781183794', '2781209966', '2781241367', '2781283035', '2781283277', '2781298581', '2781300000', '2781325599', '2781335571', '2781338159', '2781366932', '2781367577', '2781373936', '2781376611', '2781381157', '2781385195', '2781395907', '2781399071', '2781424430', '2781438671', '27819379', '27881333', '28442783', '28849524', '2908558976', '2908614855', '2908629581', '2908643474', '2908666506', '2908681449', '2908703028', '2908723665', '2908741780', '2908828389', '2908850610', '2908850654', '2908853934', '2908865798', '2908879008', '2908907010', '2908912629', '2908935387', '2908952454', '2909009270', '2909042360', '2909055331', '2909065553', '2909071395', '2909082439', '2909155221', '2909175755', '2909179353', '2909195514', '2909240815', '2909251282', '2909288663', '2909305023', '2909316267', '2909332535', '2909333728', '2909344626', '2909386086', '2909427711', '2909435489', '2909446438', '2909472621', '2909475385', '2909544240', '2909575431', '2909631073', '2909685383', '2909707298', '2909709171', '2909712328', '2909802026', '2909830505', '2909866401', '2909896708', '2909921707', '2909928070', '2909942976', '2909944768', '2910017386', '2910035481', '2910050528', '2910060944', '2910061995', '2910073301', '2910122108', '2910156419', '2910157646', '2910199060', '2910216150', '2910222011', '2910242987', '2910275393', '2910319113', '2910323515', '2910342993', '2910364823', '2910381287', '2910396183', '2910412189', '2910445219', '2910450386', '2910463473', '2910470413', '2910475472', '2910485920', '2910512453', '2910522325', '2910545671', '2910556911', '2910569055', '2910618856', '2910631570', '2910633225', '2910677061', '2910680965', '2910681755', '2910706634', '2910731964', '2910732896', '2910733581', '2910741372', '2910755285', '2910765841', '2910818388', '2910833221', '2910841016', '2910845796', '2910859387', '2910871427', '2910889294', '2910897919', '2910905531', '2910908761', '2910974233', '2910983087', '2910989632', '2911004254', '2911051535', '2911061381', '2911112108', '2911118914', '2911124959', '2911128630', '2911180396', '2911190354', '2911217838', '29216876', '29513896', '2965921', '29705727', '29829512', '29984679', '30112582', '30467622', '30471927', '30838235', '31081114', '31163007', '311688', '31510193', '31531917', '31533079', '31548570', '31910662', '32243926', '32258923', '32283439', '3285680', '32860805', '32900221', '32977378', '32993116', '33271190', '33296510', '33588617', '33842695', '33947775', '34146451', '34521246', '34612862', '34630208', '3503070', '35096461', '35341882', '35777598', '36038061', '36091686', '36628996', '36770926', '37025074', '37135326', '3720319', '37428701', '37482258', '37624559', '37696544', '38008478', '38052585', '38639735', '38653338', '3866505', '38693133', '39084254', '39118121', '39173455', '39399123', '39400828', '39518161', '40046163', '40160088', '40367268', '40458791', '40586070', '40630565', '40834362', '40937832', '41056977', '41132950', '41231900', '41243669', '41608201', '4166634', '41794268', '41866144', '41972984', '41994538', '41999313', '42043438', '42133412', '42143788', '42222760', '42298096', '42411736', '43091971', '4345497', '43540301', '43653141', '43867161', '44079730', '44104985', '44435123', '44740213', '44832474', '45058047', '451841', '45293964', '45502583', '45859991', '46312889', '46352929', '46721378', '46722567', '46724921', '46754376', '46788351', '46820840', '46891859', '47659340', '47696715', '47878483', '48314217', '4848560', '49113467', '4924752', '49504249', '49853544', '50291824', '50296614', '503427281', '504039657', '50406972', '504270822', '506065880', '50630238', '50720040', '50878840', '508800617', '509929229', '511503438', '511782119', '51244244', '513153333', '513985346', '51399673', '51456978', '51576277', '518104683', '51936796', '519458232', '519688237', '520409616', '520752033', '522053795', '523214423', '524878704', '527607', '52761205', '528167355', '528626486', '529740132', '530175646', '532361734', '53371666', '5339829', '534819032', '53524968', '536799390', '53688548', '537773303', '538199239', '53838383', '538505008', '53893814', '539450922', '540522513', '5408304', '541019422', '54108766', '541182425', '541409800', '541491724', '54285103', '54290928', '543218039', '544072693', '544153396', '544778455', '545171759', '54525549', '54654163', '547195049', '54936624', '54971619', '55118286', '551230270', '551646850', '554190296', '554616519', '5546195', '555048382', '559253537', '56751440', '56828936', '56906281', '56919463', '57061188', '57527310', '57814208', '57863822', '58074150', '58142911', '58202505', '5829439', '58300830', '58396970', '5871375', '58817359', '5903713', '59061988', '59345209', '60154766', '60511073', '60584519', '60595047', '61218518', '61298376', '61742228', '61776360', '62352918', '62402440', '62427370', '6268609', '62897895', '63401691', '63436455', '63553672', '63655563', '6405472', '64089585', '64346931', '643704', '64671776', '64980692', '6518042', '65567647', '65601320', '66018809', '66402592', '66594872', '67427781', '67656411', '67862953', '67936045', '68183290', '68386048', '68702407', '68793194', '69298649', '6929976', '70388272', '70401792', '70520399', '70636015', '71376005', '71515424', '71681937', '71800255', '71813955', '71832216', '72045907', '72293138', '72422203', '72648740', '72768775', '72898154', '72981366', '73225119', '73412179', '73413767', '73859625', '73862843', '74250896', '74426580', '74478641', '74524168', '74714110', '74872398', '75100901', '75254596', '75434695', '7573999', '76444178', '76831024', '76856003', '76969082', '77122620', '77390884', '77624028', '77667144', '77671233', '77854861', '779372', '78382760', '78401558', '78687567', '78834623', '78949437', '79127381', '7923174', '79381805', '79689650', '80323366', '80343103', '80364944', '80962145', '81376181', '82653869', '82687282', '82740854', '83260615', '83479923', '83849155', '83893533', '8442714', '84662259', '84967159', '84999194', '85260623', '85608190', '85884896', '85973986', '86060186', '87161607', '87379069', '88001094', '88005923', '88105052', '88417058', '88654294', '8898347', '89094514', '89309335', '89448510', '89508514', '89702864', '90638607', '91432469', '91881484', '92237259', '92710233', '92851284', '92995354', '93106096', '93389723', '93597524', '94081185', '94200605', '94267665', '94921317', '94922259', '95349148', '95418871', '95478058', '95548782', '957247', '95914496', '9593695', '96191372', '96473913', '96709497', '96711827', '9671652', '96814336', '97121743', '9761082', '97744766', '97784730', '97812054', '97850793', '98156149', '98375054', '98444146', '98528093', '98535783', '98851261', '98906903', '98907195', '992767', '99541287', '99874240', '99970624']</t>
-        </is>
+          <t>SDG_17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>54</v>
+      </c>
+      <c r="C18" t="n">
+        <v>40</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['92710233', '2777851029', '93597524']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['2911064832', '2779503283', '88477975', '19244329', '2779306247', '2780576536', '150394285', '2778040704', '176871988', '2779686855', '193415008', '94602187', '118519418', '176445938', '2779318504', '2775896111', '2780805606', '2776922509', '33039251', '2776960227', '2779980673', '101336846', '2909116566', '2779652256', '151405878', '8162170', '113145756', '2776060655', '136380597', '2910166139', '539828613', '92545706', '509933004', '2776102385', '22607594', '2910564736', '101677414', '2775960376', '2781117724', '116321358', '86504812', '2778720315', '137813230', '2909816863', '144468803', '99752389', '2910950043', '2780082420', '173906292', '2780371127', '135628077', '142600807', '16777580', '143517461', '34447519', '160363772', '109592283', '13951911', '167393769', '2775845787', '2776278144', '2780328347', '2776422217']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['2778711553', '2780124536', '2777113093', '2778459265', '44171179', '2776577793', '2778300220', '2780479094', '2777481183', '190960625', '164767435', '47344431', '530175646', '2777953023']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['Transport network', 'Air Transport Network', 'Pedestrian', 'South–South cooperation', 'External debt', 'Non-communicable disease', 'Financial crisis', 'Third-Worldism', 'Market access', 'Water treatment', 'Textile', 'Health policy', 'Clothing', 'Heart rate']</t>
         </is>
       </c>
     </row>

--- a/UPDATE_INFO.xlsx
+++ b/UPDATE_INFO.xlsx
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C2" t="n">
         <v>80</v>
@@ -427,12 +427,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['2781426361', '2776893239', '2776922509', '36289849', '20555606', '2779282124', '2911189839', '186191158', '2776094956', '2781069661', '2776237081', '2778216598', '2780623907', '2776554220', '2780899237', '2779206190', '2778140607']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Earnings', 'Social isolation', 'Trade and development', 'Social science', 'Empowerment', 'Social insurance', 'Active labour', 'Vulnerability', 'Chronic poverty', 'Vulnerability index', 'Income Support', 'Safety net', 'Disadvantaged', 'Prosperity', 'Pension', 'Gini coefficient', 'e-social science']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>773</v>
+        <v>703</v>
       </c>
       <c r="C3" t="n">
         <v>703</v>
@@ -460,12 +460,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['2780221984', '2776876274', '2779764123', '105639569', '2777782036', '2910212593', '2777129469', '2910706634', '2909296374', '535046627', '2909512196', '2779363069', '2780748813', '507981020', '2780745107', '2779425982', '159879943', '505241676', '2911208417', '112892834', '181607587', '183135511', '2910840360', '2776953683', '2778359420', '2911033078', '2779529612', '203017698', '2780527838', '2778896754', '2780523633', '2910855215', '38774213', '2780655333', '2776111823', '26291073', '2909396454', '2777953396', '2778944361', '150194340', '2780717550', '2776890026', '195092306', '2778596745', '2910321686', '2780192938', '123336316', '98722961', '2910206990', '511355011', '2777341207', '2911219547', '126408429', '2909598931', '81977670', '2909991231', '85675897', '2777617796', '2910406661', '2779483572', '147490202', '2910357638', '2780106736', '2909380268', '2910283248', '2908572884', '2777350553', '175760724', '2779852692', '2779234561']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Body mass index', 'Food poisoning', 'Wasting', 'Economic policy', 'Inbreeding', 'Special diet', 'Trade agreement', 'Food labelling', 'Regular diet', 'Clinical trial', 'Vitamin D intake', 'Food policy', 'Sustainable management', 'Agricultural education', 'New Economic Policy', 'Generation R', 'Fertilisation', 'Chlorine', 'Pregnancy 2', 'Low residue diet', 'Generation', 'Natural resource management', 'Theileriasis', 'Prune belly syndrome', 'African swine fever virus', 'Severe malnutrition', 'Dioscoreales', 'Modified atmosphere', 'Residual feed intake', 'Stunted growth', 'Labelling', 'Low body mass index', 'Soil fertility', 'Weaning', 'Theileria', 'Ex vivo', 'BMI - Body mass index', 'Nail patella syndrome', 'Dioscorea', 'Gene expression', 'Hypoallergenic', 'Nutrition Education', 'Deficit irrigation', 'Micronutrient deficiency', 'Nutrition care', 'Diet-induced obese', 'Product market', 'Phylogenetic diversity', 'Nutritional care', 'Obesity', 'Sustainable land management', 'Welfare program', 'Soil health', 'Severe Acute Malnutrition', 'Genetic diversity', 'Fresh Tissue', 'Soil management', 'Health effect', 'Pre pregnancy', 'Dementia', 'Food spoilage', 'During feed', 'Cholecalciferol', 'African swine fever', 'Economics policy', 'Poor nutrition', 'Product marketing', 'Crop rotation', 'Melon', 'Pregnancy']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -476,29 +476,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24655</v>
+        <v>24624</v>
       </c>
       <c r="C4" t="n">
         <v>24624</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['14397066', '160911440', '2779886867', '2780859682', '2910046756', '39300077', '2778438165', '2909809890', '149627874', '108516343', '93597524', '2781252958', '66135807', '141087196']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['μ-opioid receptor', 'Social exclusion', 'Opioid receptor', 'Bacteriophage Qβ', 'Homocyst(e)ine', 'Breathing', 'NAD(P)H dehydrogenase', 'Balance ability', 'Sensory processing', 'Otorhinolaryngology', 'g-factor', 'NAD(P)H oxidase', 'Gq alpha subunit', 'δ-opioid receptor']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['2910956745', '2780700307', '133462117', '26291073', '117009084', '2776960227', '177766495', '22467394', '2780931059', '113807197', '2779987062', '2777410049', '150194340', '2776640376', '2780120631', '2776695260', '2780771206', '2779909984', '2909764464', '2909902889', '505241676', '79416576', '28718268', '2780822005', '47122089', '2778368647', '508106653', '56995899', '10708705', '2776165558', '2779132545', '127634017', '111852164', '112299071', '2909732843', '2780371127', '2780732545', '2777161012', '203731517', '44403221', '196697905', '516717267', '162466561', '37413474', '135935922']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Neonatal Deaths', 'Independent living', 'Data collection', 'Ex vivo', 'Facility management', 'Knowledge transfer', 'AP Biology', 'Multidisciplinary approach', 'Child benefit', 'Health education', 'Mussel', 'Self-concept', 'Gene expression', 'Dieldrin', 'Lindane', 'Maximum Contaminant Level', 'Safeguard', 'Mytilus', 'Postneonatal death', 'Water-related Diseases', 'Chlorine', 'African studies', 'Needs assessment', 'Particulate pollution', 'Total fertility rate', 'Urban area', 'Ozone', 'Focus group', 'Africana studies', 'Emission standard', 'Person-centred planning', 'h-vector', 'Handover', 'Infant mortality', 'Early Neonatal Mortality', 'Tetrachloroethylene', 'Response to intervention', 'Institutional research', 'n-vector', 'Industrial wastewater treatment', 'Input/output', 'Food safety', 'Input/output (C++)', 'Liberal arts education', 'Bivector']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C5" t="n">
         <v>265</v>
@@ -526,12 +526,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['522453465', '55958113', '2781349114', '2776526686', '205545832', '2776934989', '2780438764', '521786372']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Social research', 'Indigenous', 'Wage curve', 'Oppression', 'Young adult', 'Global justice', 'Youth unemployment', 'Waste collection']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C6" t="n">
         <v>126</v>
@@ -559,12 +559,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['2779503283', '102587632', '2910181401', '77352025', '47122089', '70036468', '140816417', '102003337', '2910095232', '2910825703', '2779881493', '2781037291', '2780233487', '48057960', '2779266529', '104151175', '2780438625', '46578552', '2775906418', '2776689383', '518429986', '2777688143', '2781051968', '2779256933']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Millennium Development Goals', 'Criminal justice', 'Ethnic discrimination', 'Population growth', 'Total fertility rate', 'Immigration', 'Zero population growth', 'Care work', 'Sexual aggression', 'Safety water', 'Dihydrotestosterone', 'Disorders of sex development', 'Long-term care', 'Bargaining power', 'Unpaid work', 'Emigration', 'Global Health Initiatives', 'Global health', 'Precarious work', 'Labour supply', 'Fertility', 'Infertility', 'Infibulation', 'Castration']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="C7" t="n">
         <v>345</v>
@@ -592,12 +592,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['49545453', '533363959', '2777919664', '205537798', '28631016', '138921699', '118733760', '131046424', '2780739625', '2780401329', '39410599', '2781117298', '51832835', '2778407992', '523546767', '129513315', '2779833838', '2776256026', '2777690665', '156858999', '2779322298', '190714865', '502990516', '2909603817']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Urban planning', 'Water industry', 'Hand washing', 'Extreme weather', 'Forest management', 'Political economy', 'Purified water', 'Energy policy', 'Portable toilet', 'Microplastics', 'Natural hazard', 'Public toilet', 'Environmental management system', 'Public water system', 'Bacteria', 'Salinity', 'Dam failure', 'Lung cancer', 'New political economy', 'Gallery forest', 'River engineering', 'Sanitary sewer', 'Agricultural land', 'Dam Collapse']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="C8" t="n">
         <v>467</v>
@@ -625,12 +625,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['10558101', '2778153913', '155373166', '176871988', '33039251', '2780182046', '157181609', '165998758', '127145964', '2778970885', '200630231', '2776512361', '2777416314', '2780153765', '183287310', '2778844797', '40675005', '56685638', '2776849302']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Smart grid', 'Plastic recycling', 'Food chain', 'Electric motor', 'Content management', 'Wave power', 'Sustainable transport', 'Imaging technology', 'Heat recovery ventilation', 'Rural electrification', 'Cleaner production', 'Power purchase agreement', 'Energy poverty', 'Low-carbon emission', 'Thermal energy storage', 'Aquifer thermal energy storage', 'Hydropower', 'Power control', 'Energy market']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C9" t="n">
         <v>202</v>
@@ -658,12 +658,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['2776942536', '2779674044', '68189081', '95389739', '2780638295', '2778431023', '29985473', '132943942', '2775865179', '56995899', '134659438', '39389867', '2781005894', '105639569', '536738050', '2780977596', '2781441816', '2777288899', '147583825', '2780745107', '2910283248', '2777671340', '2780763229', '109986646', '2778712577', '2778381653', '2778021871', '2776581254', '204983608']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Women in the workforce', 'Glass ceiling', 'Fossil fuel', 'Social order', 'Occupational disease', 'Alliance', 'Natural resource', 'Footprint', 'Technological innovation system', 'Focus group', 'Social exclusion', 'Corporate governance', 'Occupational skin diseases', 'Economic policy', 'Social Welfare', 'Gender pay gap', 'Occupational lung disease', 'Retirement age', 'Body weight', 'New Economic Policy', 'Economics policy', 'Social rights', 'Occupational injury', 'Public policy', 'Retraining', 'Energy efficiency gap', 'Footprinting', 'Social Right', 'Productivity']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -674,29 +674,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1717</v>
+        <v>1657</v>
       </c>
       <c r="C10" t="n">
         <v>1657</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['93597524', '2777851029', '92710233']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['g-factor', 'K factor', 'ω-automaton']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['2778040704', '34447519', '2910166139', '2779503283', '135628077', '16777580', '2776278144', '2776960227', '2775896111', '33039251', '2779318504', '2781117724', '2780576536', '193415008', '509933004', '19244329', '2779652256', '2910950043', '151405878', '92545706', '137813230', '109592283', '176445938', '2779306247', '2779686855', '118519418', '2780328347', '150394285', '160363772', '2911064832', '2910564736', '101677414', '94602187', '101336846', '2780805606', '173906292', '2776422217', '116321358', '2776060655', '22607594', '99752389', '136380597', '176871988', '86504812', '2776922509', '2775960376', '167393769', '2780082420', '2909116566', '88477975', '2780371127', '144468803', '2909816863', '2778720315', '113145756', '8162170', '2779980673', '142600807', '539828613', '2776102385', '2775845787', '13951911', '143517461']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Solar architecture', 'Market economy', 'Tissue healing', 'Millennium Development Goals', 'Finite element method', 'Scanning ion-conductance microscopy', 'Human leg', 'Knowledge transfer', 'Router', 'Content management', 'Research design', 'Acoustic microscopy', 'Sensitive skin', 'Network architecture', 'Broadband', 'Financial market', 'Cerebellum', 'Reservoir bag', 'Noise', 'Radio spectrum', 'Motor control', 'Photoacoustic tomography', 'Ecological economics', 'Mirror box', 'Colon polyps', 'Reinforced solid', 'Science policy', 'Adsorption', 'Non-renewable resource', 'Colorectal polyposis', 'Colorectal Polyp', 'Surface pressure', 'route', 'Optical switch', 'Tank truck', 'Gait analysis', 'Electric vehicle', 'Industrial computed tomography', 'Tariff', 'Enabling', 'Scanning capacitance microscopy', 'Prehensile tail', 'Electric motor', 'Campaniform sensilla', 'Trade and development', 'Grippers', 'Adaptive strategies', 'Access to finance', 'Hemadsorption', 'Broadbanding', 'Tetrachloroethylene', 'Mixed finite element method', 'Cerebellar disorder', 'Female entrepreneurs', 'Dipole antenna', 'Myelin-associated glycoprotein', 'Fitness to dive', 'Open network architecture', 'Public transport', 'Decompression illness', 'Deep cerebellar nuclei', 'Traffic flow', 'Renewable resource']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="C11" t="n">
         <v>144</v>
@@ -724,12 +724,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['2781190941', '173145845', '134659438', '2778716609', '519300510', '2910181401', '2778968930', '2781160424', '2777129469', '51067260', '180872759', '19244329', '2909492420', '178283979', '2778566306', '551499885', '77352025', '161407221', '129603779', '2776554220', '55447825', '53001019', '2779625216', '15107229', '2776942536', '70036468', '2780037060', '2776060655', '160443848', '19159745', '2779490853', '37129596', '2780903623', '140816417', '2909801347', '2776237081', '2781372952', '2780623907', '2909439219', '2779206190', '111141941']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Minimum wage law', 'Refugee', 'Social exclusion', 'Minimum wage', 'Income distribution', 'Ethnic discrimination', 'Social disintegration', 'Social integration', 'Trade agreement', 'Professional development', 'Social group', 'Financial market', 'A physical disability', 'Public finance', 'Personal income', 'Intellectual disability', 'Population growth', 'Cognitive model', 'Welfare state', 'Prosperity', 'International law', 'Social issues', 'Physical disability', 'Learning disability', 'Women in the workforce', 'Immigration', 'Cross-border region', 'Tariff', 'Per capita income', 'Social policy', 'Conditional cash transfer', 'Social mobility', 'Cross-border cooperation', 'Zero population growth', 'Cognitive Intervention', 'Income Support', 'Visual impairment', 'Disadvantaged', 'Cognitive stimulation', 'Gini coefficient', 'Immigration policy']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1016</v>
+        <v>987</v>
       </c>
       <c r="C12" t="n">
         <v>987</v>
@@ -757,12 +757,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['2778368647', '533584247', '199491958', '2780035574', '2776114971', '2780165032', '2776325102', '2780936489', '2776619914', '2775896111', '2777663346', '184978287', '202976495', '2781175455', '149039472', '127145964', '158739034', '12429862', '556340858', '2777638134', '2779507241', '2780771206', '151405878', '2780210451', '2776743756', '175668461', '94602187', '121850381', '2778842010']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Urban area', 'Public housing', 'Global change', 'Multilingualism', 'Waterborne diseases', 'Energy consumption', 'Water-use efficiency', 'Carbon footprint', 'Fire suppression system', 'Router', 'Affordable housing', 'Zero-energy building', 'Planning', 'World energy consumption', 'Passive solar building design', 'Heat recovery ventilation', 'Metropolitan area', 'Cultural landscape', 'Language policy', 'University system', 'Climate resilience', 'Safeguard', 'Noise', 'Climate risk', 'Safeguarding', 'Active fire protection', 'route', 'Certified wood', 'Solar chimney']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>445</v>
+        <v>361</v>
       </c>
       <c r="C13" t="n">
         <v>361</v>
@@ -790,12 +790,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['199491958', '2777339832', '2776125615', '2778323372', '2778157034', '89702864', '21790881', '175700187', '528261146', '537773303', '2781051052', '202976495', '46312889', '2742236', '2781164615', '189708586', '2778733479', '73916439', '2778851808', '58479451', '2778917124', '2776512361', '183287310', '2780210451', '2778844797', '2781469121', '2777798390', '105306849', '2778552509', '204983608', '2778291008', '2775886207', '166566181', '143020374', '97615858', '2910338039', '509746633', '205537798', '187460315', '28328180', '2780757305', '2777856171', '2780797831', '2781175455', '2776667712', '37965861', '2779507241', '99578197', '2778706760', '141261163', '44104985', '2776943663', '52121051', '502701156', '2909963963', '117009084', '2775893736', '137851953', '2781420532', '2779242930', '2910237699', '176289848', '2778738845', '192639820', '67203356', '2776422217', '131046424', '536799390', '15098985', '2780848231', '2778555391', '2781426840', '2776830933', '2779035916', '200630231', '147490202', '2778580826', '44877443', '79119010', '2776208129', '103474955', '2778734332', '201903717', '164794517']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['Global change', 'Planetary Data System', 'Economic evaluation', 'Personal carbon trading', 'Sorghum', 'Technology assessment', 'Deep sea', 'Manufacturing', 'Carbon finance', 'Geoengineering', 'Ground segment', 'Planning', 'Nanomanufacturing', 'Efficient energy use', 'Climate justice', 'Systematic review', 'Jatropha', 'Energy storage', 'Climate change adaptation', 'Fish stock', 'Regulatory science', 'Power purchase agreement', 'Thermal energy storage', 'Climate risk', 'Aquifer thermal energy storage', 'Demolition', 'Climate security', 'Storm', 'Peak oil', 'Productivity', 'Rate of exploitation', 'Energy-efficient driving', 'Natural disaster', 'Coral', 'Energy intensity', 'Trichostrongylus axei', 'Climate change mitigation', 'Extreme weather', 'Severe weather', 'Stem cell', 'Certified Emission Reduction', 'Fasciola hepatica', 'Fish stocking', 'World energy consumption', 'Corporate sustainability', 'Carbon credit', 'Climate resilience', 'Radiative forcing', 'Life-cycle assessment', 'Corporate social responsibility', 'Supply chain management', 'Human capital', 'Truck', 'Biomedical sciences', 'Parasite Egg Count', 'Facility management', 'Biomanufacturing', 'Greenhouse effect', 'Carbon accounting', 'Global temperature', 'Device Approval', 'Die (manufacturing)', 'Remanufacturing', 'Supply chain risk management', 'Reinforcement', 'Electric vehicle', 'Energy policy', 'Plastics industry', 'Permafrost', 'Sweet sorghum', 'Trichostrongylus', 'Carbon leakage', 'Climate change denial', 'Climate engineering', 'Cleaner production', 'Food spoilage', 'Life-cycle cost analysis', 'Science education', 'Resource productivity', 'Methane emissions', 'Coral bleaching', 'Research development', 'Cohort study', 'Stem cell niche']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="C14" t="n">
         <v>317</v>
@@ -823,12 +823,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['136020623', '559400886', '122629976', '74501621', '108469399', '2780805685', '173651095', '78091846', '58479451', '2780919918', '186699998', '535291247', '2777798390', '105923489', '2778951896', '50094484', '508106653', '73849760', '188818383', '2776044436', '2777351703', '123750103', '2909303214', '134097258', '2777564511', '2780797831', '15098985', '85675897', '89295123', '2780231331', '2775938548', '79367842', '183195422']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Invasive species', 'Land management', 'Fringing reef', 'Sea level', 'Plankton', 'Teacher education', 'Introduced species', 'Thermohaline circulation', 'Fish stock', 'Climate Finance', 'Eutrophication', 'Amazon rainforest', 'Climate security', 'Combustion', 'Rangeland management', 'Attribution bias', 'Ozone', 'Coral reef protection', 'Fugitive emissions', 'Persistent organic pollutant', 'Low-carbon fuel standard', 'Ice sheet', 'Sensory Adaptation', 'Sea surface temperature', 'Water conflict', 'Fish stocking', 'Permafrost', 'Soil management', 'Forest pathology', 'CGS-21680', 'Thematic Mapper', 'Coral reef', 'Flood forecasting']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>377</v>
+        <v>218</v>
       </c>
       <c r="C15" t="n">
         <v>218</v>
@@ -856,12 +856,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['2779623515', '2777631861', '95803793', '2776263494', '2776499504', '2909931160', '2781102901', '2777798493', '2781288472', '2776824459', '2776841996', '508466165', '165107724', '77867282', '2780982499', '156380964', '2779873548', '36516193', '505870484', '2777492549', '168857316', '2780143158', '117480383', '2780127386', '2778586117', '2778291008', '2777833858', '2910221061', '2780853707', '2776364969', '2779590308', '2779215912', '152613627', '2910800256', '2777183552', '65193109', '2777981335', '2779656528', '2779000830', '81855063', '2776139558', '2780429984', '2776675269', '120441037', '2777845105', '2780351957', '2776082207', '154098486', '2780623117', '20992447', '2781348932', '72958200', '2777267482', '2777526573', '2777803996', '2778316768', '2778098436', '18918823', '190157891', '2777110004', '2779987062', '2777022838', '2778391067', '2779944326', '2780417240', '2777542811', '2910188331', '2777704720', '2779290800', '2779958227', '5465852', '2910224097', '2779000468', '2781094106', '2780498771', '2779363728', '115314567', '2779991348', '2779310246', '2779735984', '31954745', '2780111930', '68553557', '2780097091', '192536144', '2779298159', '2776415932', '2777784394', '201490090', '2777768678', '2779421218', '2910276620', '107674354', '187457775', '2779325724', '2908556935', '2778525234', '2910001868', '2779427263', '2778939721', '2781257293', '62648534', '2779909984', '95628711', '2776115401', '2778502483', '2779409326', '73849760', '202041845', '2779140988', '509746633', '2779267909', '2909885882', '116003164', '2776665667', '2776840061', '2777406646', '2776056526', '149340888', '2776384079', '22070199', '173917561', '115961737', '14849681', '2779950014', '111874474', '2909580760', '172269249', '164958353', '2777246098', '14918906', '544153396', '122629976', '2778851755', '2779427562', '2776831678', '2780072470', '2780041246', '199535368', '2776660552', '2779814588', '2776367567', '153279818', '113513581', '2781193452', '2909007308', '2780040469', '2780401329', '2778867918', '130094819', '2776093933', '2779282177', '135895429', '2779164741', '2776654248', '2778327988', '141896089', '132000320', '510239367']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Coralline algae', 'Poeciliidae', 'CITES', 'Gillnetting', 'Artificial reef', 'Literature reviewing', 'Hydroacoustics', 'Perch', 'Coral Triangle', 'Fishing net', 'Shrimp', 'Fishing industry', 'International waters', 'Great Pacific garbage patch', 'Abalone', 'Bioenergy', 'Crab fisheries', 'Cod fisheries', 'Fishery', 'Krill', 'Commercial fish feed', 'Porites', 'Atoll', 'Swordfish', 'Fishing line', 'Rate of exploitation', 'Anchoa', 'Blue marlin', 'Deep-water coral', 'Oyster', 'Acropora', 'Sardine', 'Overexploitation', 'Bottlenosed dolphin', 'Ocean acoustic tomography', 'Groundfish', 'Seabird', 'Yellowfin tuna', 'Anisakidae', 'Large marine ecosystem', 'Shrimp fishery', 'Fish reproduction', 'Serranidae', 'Primary energy', 'Deep scattering layer', 'Teleostei', 'Perciformes', 'Big-game fishing', 'Destructive fishing practices', 'Atmospheric escape', 'Anatidae', 'Trophic level', 'Fish aggregating device', 'Freshwater inflow', 'Cetacea', 'Menhaden', 'Demersal fish', 'Tourism', 'Hermatypic coral', 'Vessel monitoring system', 'Mussel', 'Maximum sustainable yield', 'Trawling', 'Bigeye tuna', 'Lamprey', 'Sailfish', 'American shad', 'Whale', 'Herring', 'Hatchery', 'Red tide', 'Lunar Cycle', 'Sprat', 'Commercial fishing', 'Pocillopora damicornis', 'Trout', 'European Union law', 'Skipjack tuna', 'Least Developed Countries', 'Jellyfish', 'Skipjack', 'Artisanal fishing', 'Demersal zone', 'Halimeda', 'Sexual maturity', 'Sustainable fishery', 'Western blot', 'Sturgeon', 'Stock assessment', 'Fish trap', 'Bonefish', 'Anisakis simplex', 'Estuarine water circulation', 'Bottom fishing', 'Anguillidae', 'Stock Recovery', 'Anchovy', 'European union', 'Fish marketing', 'Oyster farming', 'Grass carp', 'Species diversity', 'Mytilus', 'Protolith', 'Prawn', 'Scallop', 'King mackerel', 'Coral reef protection', 'Fisheries management', 'Oncorhynchus', 'Climate change mitigation', 'Marxan', 'External parasites', 'Fish physiology', 'Ocean fisheries', 'Bottlenose dolphin', 'Mackerel', 'Limacina helicina', 'Bycatch', 'Marine mammal', 'Vaccination', 'Catch and release', 'Juvenile', 'Shrimp farming', 'Flatfish', 'Impact assessment', 'Prionace glauca', 'Marine invertebrates', 'Fish measurement', 'Condition index', 'Virtual population analysis', 'Metal', 'Fringing reef', 'Fisheries Act', 'Chondrichthyes', 'Orange roughy', 'Cyprinodontiformes', 'Otolith', 'Coarse fishing', 'Smoked fish', 'Cyprinidae', 'Flounder', 'Stocking', 'Exclusive economic zone', 'Longline fishing', 'Spiny dogfish', 'Catch per unit effort', 'Microplastics', 'Incidental catch', 'Ecosystem management', 'Sea cucumber', 'Turbot', 'Fisheries science', 'Bycatch reduction device', 'Freshwater fish', 'Albacore', 'Fish farming', 'Macrophyte', 'Fisheries law']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>566</v>
+        <v>266</v>
       </c>
       <c r="C16" t="n">
         <v>266</v>
@@ -889,12 +889,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['2780671300', '34070608', '191440113', '2780696901', '45920995', '2778152828', '2780235837', '4590074', '2776562576', '122748992', '2778728749', '2910587469', '118694661', '79339454', '2777480484', '2780946806', '151107107', '2780748813', '98940541', '88776829', '169684477', '2909135477', '2776834102', '126343540', '2780185008', '112077630', '184603391', '112939947', '2779979769', '2776150259', '2777399377', '181060458', '2777575642', '51832835', '73580989', '89295123', '2777692458', '2779128174', '2776388979', '2776500793', '2778551664', '42435023', '2775938548', '2778617593', '2780977904', '2780648208', '194691359', '61703769', '2775838554', '555313981', '2775929138', '2780066083', '16884802', '35306142', '2778049214', '2779004245', '2777253967', '139669111', '176943803', '2779369318', '16397148', '151788092', '198150046', '129225989', '62158283', '155987862', '2779895041', '2776107028', '2776978901', '2778673487', '189307558', '2780848231', '33283694', '2777472530', '41478065', '17206440', '198815454', '2780179066', '192241223', '2016182', '2779204379', '154440439', '141005173', '42731165', '2778361644', '2781397391', '2777658277', '2780528068', '2778399496', '196687554', '2776724825', '2776623689', '133382796', '95869378', '26785111', '2777387638', '2776824989', '64966480', '2776687813', '2778506879', '2781182717', '2775999090', '2776191655', '2780505049', '147103442', '2780001261', '112276597', '201401522', '2776325102', '2779146456', '2779381216', '2780105985', '87621631', '146188434', '2775832765', '20664614', '2775966360', '2776426263', '149207113', '2777890039', '2778348119', '2777988102', '2780394310', '2777534865', '2780816530', '2780057273', '23519681', '126914827', '93707483', '2776316369', '2776259809', '156858999', '192392207', '2776892409', '13558536', '2775874878', '2780328347', '108738950', '2777549804', '123336316', '2777154535', '6514731', '14624660', '2909358641', '55347375', '2777341207', '197011783', '86409407', '23119410', '2780900284', '2777796192', '2778898053', '2776335591', '2776853598', '2781436638', '203731517', '172427765', '72286879', '135935922', '2776421481', '162501224', '89236255', '68189081', '2779042980', '147273371', '53571324', '2781353100', '2780167305', '2777132354', '12429862', '199877563', '2781003712', '2781131740', '2776801807', '121850381', '29760336', '22344907', '28362043', '127634017', '2910945474', '2777380792', '64551749', '24717449', '154702282', '2779869275', '2909743892', '93944068', '2779796875', '109902934', '12064787', '128058477', '108216600', '139019045', '2778568511', '71482194', '2777294933', '91354502', '2777589951', '155015343', '119249163', '2780775713', '2781181605', '189797535', '82447923', '2777802595', '51244244', '59898753', '2780500427', '161189057', '67268981', '105462344', '89862778', '25989453', '169282265', '56685638', '1549246', '2776278397', '109717640', '2778170267', '53002841', '2777434770', '120806208', '2776492830', '49461877', '195330766', '139518226', '197320908', '2780871101', '2777350553', '514011633', '2780086105', '2779294082', '74250896', '2777007095', '2778226232', '99743013', '2781275782', '167296696', '2781208722', '62648534', '173651095', '2776596991', '2778148510', '173795300', '60359462', '2777189468', '2779152076', '56095865', '2777707811', '2780948830', '2619416', '196313609', '125620115', '67715294', '143389717', '2778205388', '91067096', '112149622', '91770344', '2776554196', '45152089', '39571515', '2779562289', '136020623', '96313414', '2781206450', '116370137', '69514717', '2781168613', '2778625682', '2779249804', '487182', '2779081038', '2778358892', '2776654049', '121412344', '2776054349', '171205284', '112058002', '2780339060', '123917164', '2776121688', '25382069', '513535597', '183889291', '2776682078', '167393769', '2776285232', '85675897', '130094819', '2780998164', '89920630', '2778091200', '2781061397', '502990516', '2777380357', '2778203884', '73593433', '158215666', '2777106113']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Mixed grass prairie', 'Cover crop', 'DNS root zone', 'Conventional tillage', 'Intraspecific breeding', 'Clogging', 'Nothofagus', 'Community', 'Plant strategies', 'Gradient analysis', 'Molinia caerulea', 'Panicum miliaceum', 'Climax community', 'Regional Red List', 'Advanced very-high-resolution radiometer', 'Plant functional type', 'Terroir', 'Sustainable management', 'Environmental design and planning', 'Tussock', 'Minimum tillage', 'Cluster beans', 'Land consumption', 'Crop yield', 'Land-use conflict', 'Irrigation management', 'Land-use planning', 'Green Revolution', 'Watershed Central', 'Automobile dependency', 'DSSAT', 'Aridification', 'Sesbania', 'Environmental management system', 'Biodiversity action plan', 'Forest pathology', 'Relative growth rate', 'Scots pine', 'Red edge', 'Beech', 'Larch', 'Animal nutrition', 'Thematic Mapper', 'Biocultural diversity', 'Urban forestry', 'Land cover', 'Liana', 'Land information system', 'Consumptive water use', 'Tropical rainforest', 'Coffea', 'Repartition', 'Secondary succession', 'Extinction event', 'Sigma', 'Tilth', 'Sphagnum', 'Understory', 'Vulcanian eruption', 'UrbanSim', 'Tillage', 'Moorland', 'Biogeomorphology', 'Cash crop', 'Species translocation', 'Selection cutting', 'Land footprint', 'Forest dynamics', 'Tree breeding', 'Moisture stress', 'Great Green Wall', 'Sweet sorghum', 'Deciduous', 'Catch crop', 'Surface irrigation', 'Land development', 'Soil seed bank', 'Disc harrow', 'Volcanic rock', 'Animal breeding', 'Farmland protection', 'Indigenous and community conserved area', 'Shifting cultivation', 'Environmental soil science', 'Yield gap', 'Raphanus raphanistrum', 'Urban growth boundary', 'Plant nutrition', 'Transit-oriented development', 'De-extinction', 'Stillage', 'Yield mapping', 'Secondary forest', 'Pyroclastic rock', 'Soybean management practices', 'Forestry law', 'Metavolcanic rock', 'Edaphology', 'Brachypodium pinnatum', 'Land Values', 'Deschampsia flexuosa', 'Joint Forest Management', 'Ecoregion', 'Tamarix', 'Forest inventory', 'Amazonian', 'Measurement of biodiversity', 'Plant cover', 'Water-use efficiency', 'Sustained yield', 'Stipa tenacissima', 'Built-up area', 'Taiga', 'Tropical savanna climate', 'Striga', 'Urban ecosystem', 'Silviculture', 'Urban forest', 'Water use', 'Weed science', 'Wood industry', 'Pratylenchus', 'Bouteloua gracilis', 'Land consolidation', 'Forest protection', 'Green infrastructure', 'Montane ecology', 'Flagship species', 'Bioclimatology', 'United Nations Convention to Combat Desertification', 'Ammophila arenaria', 'Gallery forest', 'Clearcutting', 'Brassica carinata', 'Cropping', 'Marginal land', 'Science policy', 'Summer fallow', 'Ratooning', 'Product market', 'Controlled traffic farming', 'National Hydrography Dataset', 'Pilotage', 'Cherimoyas', 'Cultural control', 'Sustainable land management', 'Denitrifying bacteria', 'Dendrometry', 'Six Sigma', 'Nardus stricta', 'Exclosure', 'Vegetation type', 'Forest Vegetation Simulator', 'Stand development', 'Whitefly', 'n-vector', 'Vegetation', 'Prescribed burn', 'Bivector', 'Monodominance', 'Palynology', 'Traditional knowledge GIS', 'Fossil fuel', 'Ecosystem-based management', 'Weed control', 'Nature reserve', 'Thinning', 'Agrometeorology', 'Shelterwood cutting', 'Cultural landscape', 'Ecotone', 'Ruminant', 'Pinus pinaster', 'Pinus radiata', 'Certified wood', 'Site plan', 'Agricultural diversification', 'Hydric soil', 'h-vector', 'Gooseberries', 'Exclusionary zoning', 'Volcanic ash', 'Primary production', 'Temperate deciduous forest', 'Calluna', 'Brazil nut', 'Phytogeography', 'Lupinus angustifolius', 'Volcanology', 'Alternative stable state', 'Contour plowing', 'Tropical and subtropical dry broadleaf forests', 'Viticulture', 'Monogastric', 'Dryland salinity', 'Mixed-use development', 'Basal area', 'Irrigation scheduling', 'Plant breeding', 'Felling', 'Iliana', 'Soil solarization', 'Drought tolerance', 'Sagebrush Rebellion', 'Crop insurance', 'Planet', 'Shrubland', 'Stover', 'Coulee', 'Marsh', 'Nutrient management', 'Air rights', 'Leaf area index', 'Molecular breeding', 'Power control', 'Normalized Difference Vegetation Index', 'Revegetation', 'Biological pollution', 'Land-use forecasting', 'Plant community', 'Water pricing', 'Volcano', 'Dipterocarpaceae', 'Mixed farming', 'Fire ecology', 'Sclerophyll', 'Pioneer species', 'Paper recycling', 'Product marketing', 'Traditional knowledge', 'Forest product', 'Lolium rigidum', 'Planet V', 'Moderate-resolution imaging spectroradiometer', 'Pesticide application', 'Kyoto Protocol', 'Biodiversity offsetting', 'Fertigation', 'Intercropping', 'Species diversity', 'Introduced species', 'Cultural methods', 'Bioeconomics', 'Salvage logging', 'Extinction', 'Anthracology', 'Smart growth', 'Afforestation', 'Chaparral', 'Stubble-mulching', 'Rainforest', 'Land improvement', 'Logging', 'Wetland', 'Prime farmland', 'Extinction probability', 'Megafauna', 'Biotope', 'Overgrazing', 'Evergreen forest', 'Floristics', 'Undergrowth', 'Continuous cover forestry', 'Invasive species', 'Primary succession', 'Multiple use', 'No-till farming', 'Ecohydrology', 'Conservation development', 'High forest', 'Staple food', 'Urban sprawl', 'Grazing pressure', 'Ruminantia', 'Conservation finance', 'Pulpwood', 'Vegetation classification', 'Plant reproduction', 'Hardwood timber production', 'Subsoiler', 'Bumper crop', 'Virtual water', 'Seral community', 'Low-carbon economy', 'Crop residue', 'Farmland preservation', 'Adaptive strategies', 'Tropical forest', 'Soil management', 'Ecosystem management', 'Safe Drinking Water Act', 'Biome', 'Shrub', 'Trifolium subterraneum', 'Agricultural land', 'Rainfed agriculture', 'National Resources Inventory', 'Denitrification', 'Formant', 'Crop simulation model']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -905,29 +905,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>562</v>
+        <v>524</v>
       </c>
       <c r="C17" t="n">
         <v>524</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['160911440', '125748']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['Social exclusion', 'Complex system']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['34447519', '2778431023', '2780700307', '162324750', '44249647', '2777608298', '10558101', '74501621', '46295352', '102587632', '2781163912', '2775982628', '73484699', '2910283986', '2910791680', '2775923278', '2908852235', '2778348292', '2779415726', '2777671340', '2778611045', '129603779', '2777103469', '2778148510', '2909735440', '115314567', '2780893092', '2780300654', '160443848', '2779534595', '2778215748', '196697905', '162466561', '2780459134', '2779304910', '2778880830', '2776581254', '2776001114', '49504249', '2777861868']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Market economy', 'Alliance', 'Independent living', 'Economics', 'Confidence interval', 'Right to food', 'Smart grid', 'Sea level', 'Legitimacy', 'Criminal justice', 'Right to die', 'Geoeconomics', 'Criminology', 'Violent behaviour', 'Drug market', 'Civil liberties', 'Patient Consent', 'Identity politics', 'Child protection', 'Social rights', 'Diaspora', 'Welfare state', 'Smart city', 'Bioeconomics', 'Drug marketing', 'European Union law', 'Right to health', 'Emergency vehicle', 'Per capita income', 'Social model of disability', 'Work–life balance', 'Input/output', 'Input/output (C++)', 'Right to social security', 'Academic freedom', 'Homeland', 'Social Right', 'Indigenous rights', 'Military intelligence', 'Member state']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
         <v>40</v>
@@ -955,12 +955,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['2778711553', '2780124536', '2777113093', '2778459265', '44171179', '2776577793', '2778300220', '2780479094', '2777481183', '190960625', '164767435', '47344431', '530175646', '2777953023']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['Transport network', 'Air Transport Network', 'Pedestrian', 'South–South cooperation', 'External debt', 'Non-communicable disease', 'Financial crisis', 'Third-Worldism', 'Market access', 'Water treatment', 'Textile', 'Health policy', 'Clothing', 'Heart rate']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>

--- a/UPDATE_INFO.xlsx
+++ b/UPDATE_INFO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,6 +66,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,10 +478,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C2" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -443,10 +511,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>703</v>
+        <v>785</v>
       </c>
       <c r="C3" t="n">
-        <v>703</v>
+        <v>785</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -476,10 +544,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24624</v>
+        <v>20940</v>
       </c>
       <c r="C4" t="n">
-        <v>24624</v>
+        <v>20940</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -509,10 +577,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C5" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -542,10 +610,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -575,10 +643,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="C7" t="n">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -608,10 +676,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>467</v>
+        <v>634</v>
       </c>
       <c r="C8" t="n">
-        <v>467</v>
+        <v>634</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -641,10 +709,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C9" t="n">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -674,10 +742,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1657</v>
+        <v>634</v>
       </c>
       <c r="C10" t="n">
-        <v>1657</v>
+        <v>634</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -707,10 +775,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -740,10 +808,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987</v>
+        <v>1108</v>
       </c>
       <c r="C12" t="n">
-        <v>987</v>
+        <v>1108</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -773,10 +841,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361</v>
+        <v>106</v>
       </c>
       <c r="C13" t="n">
-        <v>361</v>
+        <v>106</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -806,10 +874,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C14" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -839,10 +907,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="C15" t="n">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -872,10 +940,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="C16" t="n">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -905,10 +973,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>524</v>
+        <v>188</v>
       </c>
       <c r="C17" t="n">
-        <v>524</v>
+        <v>188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -926,39 +994,6 @@
         </is>
       </c>
       <c r="G17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>SDG_17</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>40</v>
-      </c>
-      <c r="C18" t="n">
-        <v>40</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/UPDATE_INFO.xlsx
+++ b/UPDATE_INFO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,74 +66,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/UPDATE_INFO.xlsx
+++ b/UPDATE_INFO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,29 +410,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" t="n">
         <v>96</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2780750338, 2778882308, 196777733, 2992390665, 2993137673, 2776572681, 3019992330, 2781384209, 2909895442, 2778096659, 3020146199, 2775950104, 3019587353, 2776615708, 2779490853, 2779957034, 2780456498, 165148211, 2779575352, 2776905528, 2911148093, 2781304125, 3019970365, 2779246405, 2910997320, 2910993999, 133925201, 2781044819, 2910838356, 189326681, 2994385754, 2911219547, 3020528475, 45555294, 3019115872, 2779566690, 2778754916, 2777857893, 2992337253, 2777533032, 2777608298, 2910993519, 2908684656, 2994533747, 2779584631, 2780290423, 2781436281, 513380476, 3020110719, 2994404737, 3017755267, 2779501705, 2781311888, 2776465305, 2778343834, 2994452890, 519300510, 2778976928, 3018114213, 129047720, 2908916908, 2778151340, 553381038, 3017930926, 2908621740, 2776751285, 2779813301, 2993049015, 2778502840, 2992021695, 2992323265, 2775939779, 2910644676, 2994526152, 2910435018, 2778068430, 2992104146, 2993342163, 2993166291, 2779653078, 2992595674, 2994086107, 3019853531, 2781116641, 2778727652, 2909482212, 2777433830, 2909789161, 2778661615, 3017910513, 2780761588, 2909509366, 2778806008, 3020038652, 2779363069, 3020798462]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Disaster risk reduction', 'Feminization of poverty', 'Basic needs', 'Wealth distribution', 'Urban poverty', 'Working poor', 'Multidimensional poverty', 'Cycle of poverty', 'Food relief', 'Distribution of wealth', 'Poverty measurement', 'Measuring poverty', 'Rural dwellers', 'Inclusive growth', 'Conditional cash transfer', 'Food prices', 'Poor relief', 'Social inequality', 'Bottom of the pyramid', 'Poverty law', 'Subemployment', 'Social risk management', 'Food insufficiency', 'Participatory poverty assessment', 'Food Assistance Programs', 'Anti-poverty program', 'Life expectancy', 'Child poverty', 'Homeless family', 'Poverty', 'Food poverty', 'Welfare program', 'Pro poor', 'Inequality', 'Childhood poverty', 'Economic mobility', 'Concentrated poverty', 'Social protection floor', 'Rural income', 'Moving to Opportunity', 'Right to food', 'Poverty Areas', 'Poverty status', 'Gender inequality', 'Pauperism', 'Poverty map', 'HOPE VI', 'Economic inequality', 'Poor people', 'Sustainable food production', 'Food aid', 'Disability and poverty', 'Mean log deviation', 'Underclass', 'Slum upgrading', 'Food basket', 'Income distribution', 'Welfare dependency', 'Micro credit', 'Rural area', 'Inadequate housing', 'Asset poverty', 'Extreme poverty', 'Neighborhood poverty', 'Food Stamp Program', 'Public distribution system', 'Global Acute Malnutrition', 'Slum area', 'Cash transfers', 'Micro finance', 'Food bank', 'Poverty-Growth-Inequality Triangle', 'Remunerative employment', 'Rural society', 'Food stamps', 'Income deficit', 'Poverty reduction', 'Food insecurity', 'Rural economy', 'Rural housing', 'Food assistance', 'Wage inequality', 'Below poverty line', 'Guaranteed minimum income', 'Poverty gap index', 'Public housing resident', 'Social protection', 'Slum housing', 'Multidimensional Poverty Index', 'Poverty level', 'Median income', 'Economic deprivation', 'Gender and food security', 'High poverty', 'Food policy', 'Poverty rate']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2778754916', '196777733', '2778151340', '2778452349', '2781304125', '2778516963', '2779566690', '2776905528', '2778976928', '178511221', '142077812', '2779501705', '2781426361', '15553842', '36289849', '2776465305', '2910997320', '2778054917', '2778430866', '2780623907', '68062652', '2909647022', '133925201', '43609274', '2909852078', '2777433830', '549605437', '2778408412', '2779363069', '20555606', '2776554220', '2779490853', '2777533032', '2781061807', '527821871', '2780393519', '2776094956', '2776605987', '2781116641', '2908737072', '2780290423', '2909895442', '2780750338', '2779206190', '553381038', '2780761588', '2779575352', '2776572681', '2778502840', '2776893239', '2775868463', '78302928', '2776615708', '186191158', '2777262119', '2908621740', '2911219547', '2781436281', '129047720', '2779597210', '178377140', '2778343834', '2777553175', '2777608298', '2909509366', '82341920', '28129649', '519300510', '2778561184', '2776237081', '2780899237', '2775950104', '2776672683', '2781094592', '2778096659', '2911189839', '2779282124', '2778216598', '2779957034', '2780456498', '2781069661', '2779584631', '2778727652', '204208750', '2778140607', '2778890030', '2778882308', '2781384209', '2776751285', '2910993519', '2910435018', '2779653078', '2776922509', '2781044819', '2908684656', '2778661615', '189326681']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Concentrated poverty', 'Basic needs', 'Asset poverty', 'Rural poverty', 'Social risk management', 'Relative deprivation', 'Economic mobility', 'Poverty law', 'Welfare dependency', 'Basic service', 'Standard of living', 'Disability and poverty', 'Earnings', 'Proletariat', 'Social science', 'Underclass', 'Food Assistance Programs', 'Lump sum', 'Unbanked', 'Disadvantaged', 'Social capital', 'Working Woman', 'Life expectancy', 'Disinvestment', 'Fat redistribution', 'Social protection', 'Food security', 'Underbanked', 'Food policy', 'Empowerment', 'Prosperity', 'Conditional cash transfer', 'Moving to Opportunity', 'Universalism', 'Access control', 'Tent city', 'Chronic poverty', 'Diseases of poverty', 'Guaranteed minimum income', 'Concentrated Disadvantage', 'Poverty map', 'Food relief', 'Disaster risk reduction', 'Gini coefficient', 'Extreme poverty', 'Median income', 'Bottom of the pyramid', 'Working poor', 'Cash transfers', 'Social isolation', 'Poverty threshold', 'Crisis', 'Inclusive growth', 'Vulnerability', 'Microinsurance', 'Food Stamp Program', 'Welfare program', 'HOPE VI', 'Rural area', 'Begging', 'Culture of poverty', 'Slum upgrading', 'Head of Household', 'Right to food', 'Economic deprivation', 'Lumpenproletariat', 'Microfinance', 'Income distribution', 'Shanty town', 'Income Support', 'Pension', 'Measuring poverty', 'Poverty trap', 'Frugal innovation', 'Distribution of wealth', 'Active labour', 'Social insurance', 'Safety net', 'Food prices', 'Poor relief', 'Vulnerability index', 'Pauperism', 'Poverty gap index', 'Short run', 'e-social science', 'Head count ratio', 'Feminization of poverty', 'Cycle of poverty', 'Public distribution system', 'Poverty Areas', 'Food stamps', 'Rural housing', 'Trade and development', 'Child poverty', 'Poverty status', 'Multidimensional Poverty Index', 'Poverty']</t>
         </is>
       </c>
     </row>
@@ -443,29 +443,29 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="C3" t="n">
         <v>785</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2776989701, 2994243589, 2994333706, 2992357387, 165107724, 174200844, 2993004556, 2994122767, 2776420369, 152100882, 12064787, 2776107028, 2619416, 109162521, 2781288472, 2780397596, 123281439, 3018637345, 182745123, 3020429347, 2780121125, 2779215912, 2993233962, 2776285232, 60989497, 2778036281, 39571515, 2992977978, 2780235837, 122748992, 2909722689, 2991951937, 2780065859, 2776725572, 2779164741, 96313414, 149207113, 2777784394, 2992842828, 2993745997, 2777253967, 34070608, 2777399377, 2993524817, 2779623515, 2779869275, 3019774043, 2780848231, 2993104999, 2778724459, 53706860, 2779793521, 88776829, 160934017, 2994548865, 2779621508, 24717449, 2780248203, 164958353, 146188434, 2781208722, 505870484, 2994382997, 3020296344, 181268634, 2777542811, 2780127386, 70957220, 2779310246, 64229544, 55347375, 155015343, 74139830, 70899900, 2775832765, 2777743550, 86409407, 2777589951, 2992029884, 2910945474, 2994589889, 2776115401, 53145804, 197320908, 2778867918, 2992814287, 2777176278, 2778896599, 2779146456, 2777575642, 2781094106, 2994170080, 2776654049, 2775980262, 38838508, 187457775, 2775845107, 72958200, 2992165118, 2910218496, 93944068, 67031304, 513806601, 119249163, 126914827, 2779873548, 2780623117, 2777704720, 2993189137, 139518226, 89295123, 2993213714, 31568149, 2781061397, 2781227287, 108216600, 2991976725, 2994424083, 194691359, 2910796063, 2779992354, 2780066083, 182124840, 2776142123, 2777526573, 2778728749, 2779562289, 2775929138, 2993498417, 2909628724, 2780696901, 197011783, 2993008967, 2778939721, 25989453, 2779081038, 2778673487, 2779656528, 113416529, 2991870291, 143020374, 2776121688, 116003164, 2780948830, 36516193, 2779128174, 141185391, 2779298159, 31900019, 126343540, 2777022838, 2780946806, 2778718584, 3020462461, 2776336767, 2777833858, 2779294082, 2780189059, 135895429, 108738950, 14641543, 152494472, 2778597767, 2993895817, 2982998413, 2781397391, 2779363728, 95803793, 2777246098, 144492951, 2777981335, 55312793, 141896089, 2992318875, 2993326493, 3018822051, 2992267684, 2994553254, 2776654248, 2778851755, 73580989, 2910302653, 2775841215, 2779427263, 23519681, 95869378, 125069764, 154702282, 2780500427, 3019129290, 42435023, 2776367567, 3017812434, 126589399, 2994246104, 153102810, 2779746779, 3019069916, 159390177, 2992343522, 2993508834, 2777106918, 167393769, 139145706, 2992069104, 2987370995, 15147509, 20529654, 172427765, 202041845, 2992398841, 2779843069, 2776596991, 141650431, 2994199040, 143837700, 2909123076, 2992841220, 2992957956, 2781202952, 2993013254, 2992050699, 121850381, 5589519, 2776801807, 2778006036, 2780072470, 2986433049, 2778391067, 2988270110, 140327455, 2991880734, 2779421218, 2778577444, 2911148592, 2909358641, 2776500793, 2781338170, 3019985465, 151788092, 132000320, 2780097091, 2992130629, 2776660552, 2776623689, 2778876492, 2776054349, 509243982, 2776384079, 2779564620, 2910587469, 2993248848, 2776779347, 2778348119, 114426456, 53002841, 73593433, 2993375840, 2994485859, 162501224, 2992632426, 2775999090, 2779658867, 2992573043, 49461877, 2777387638, 156858999, 7959160, 2909135477, 2780179066, 2993887863, 510239367, 2776824459, 133382796, 2781031054, 198072978, 2777434770, 2780691090, 2779394710, 2993349271, 2775966360, 35306142, 72286879, 2778897056, 2994580129, 33559203, 189307558, 2776191655, 2776763056, 2986842804, 2992700085, 2776722102, 176943803, 2779814588, 33411773, 2993728194, 2993404611, 162902727, 195330766, 2983627472, 2776554196, 2984704726, 91067096, 116370137, 116607704, 149340888, 169282265, 71502557, 2781436638, 2992057050, 2994113244, 45920995, 529335014, 2777768678, 2779427562, 50516716, 75195119, 195973872, 2780977904, 107674354, 2993556214, 121412344, 152613627, 2991733499, 2781182717, 2992151296, 2779282177, 3020520192, 2777897731, 2778098436, 118694661, 2910221061, 199535368, 2993605384, 2983469836, 2781301517, 2776998673, 2909743892, 2775857941, 2776492830, 154575652, 139019045, 60359462, 2991934246, 2910188331, 189569837, 2781102901, 154098486, 2993120057, 2993355577, 555313981, 120806208, 2778291008, 2993091396, 64551749, 2776263494, 2779267909, 2780394310, 2780498771, 68553557, 2993505111, 58479451, 2992151387, 2908855133, 2779562855, 2992407401, 123917164, 2780289900, 2778452849, 2780339060, 2779140988, 3017487232, 59898753, 2992423815, 2983338891, 2776562576, 2779587474, 129360787, 17857428, 59804570, 203174812, 2781193117, 205726622, 73849760, 2991661988, 2992831405, 2779409326, 2778327988, 2992976820, 2016182, 199877563, 2780900284, 1549246, 156634047, 117480383, 118733760, 2779950014, 2780386243, 2993212356, 2776675269, 2780756937, 58395597, 125596622, 2992497614, 2779096019, 2779958227, 28781525, 2991881172, 2778801112, 2780505049, 2988377048, 2992587736, 2781131740, 2777154535, 2993224680, 2992010217, 2994459623, 2779845611, 2777549804, 2780001261, 2776325102, 508466165, 2777007095, 2780267512, 2776892409, 2994062330, 2778586117, 2777988102, 2993132551, 166548495, 192392207, 2988944400, 2993779736, 51592225, 2779493411, 94487597, 513059894, 2780111930, 16884802, 190157891, 2781348932, 2777492549, 134906952, 2993849424, 14171219, 97137747, 109902934, 2779329624, 2777189468, 2776853598, 3018466404, 2779032678, 2776421481, 113513581, 128058477, 112276597, 89920630, 112149622, 2777631861, 56095865, 2777707638, 2779987062, 2776781948, 3019361399, 2777027713, 2780167305, 2779249804, 2781353100, 2780816530, 65193109, 2992639136, 2994341026, 2780488879, 2779290800, 201401522, 25382069, 2777406646, 29510844, 2910254271, 161189057, 39464130, 20450499, 2776687813, 54625482, 22344907, 2778205388, 2910835919, 2991797460, 2991889622, 2991971542, 2780343512, 2780417240, 93707483, 2777803996, 2993900768, 2776259809, 2983513313, 2780982499, 2993792229, 2776335591, 2781193452, 2776093933, 3742959, 189109488, 191440113, 2777890039, 141151480, 14918906, 2779895041, 104471815, 2778553607, 2993009931, 152382732, 2993143054, 154885393, 2777310483, 2780040469, 2777267482, 2994269467, 2779325724, 2993288478, 2780077345, 2777707811, 2777480484, 2779249956, 2994269480, 35378473, 56235305, 2776499504, 2779991348, 2994095414, 2993900857, 28362043, 2780556605, 2775874878, 2777132354, 2993403203, 2780671300, 33275205, 2994548035, 153279818, 2910956874, 2778502483, 2778484053, 2779004245, 26785111, 2781412696, 535291247, 2778551664, 2777845105, 2776388979, 173917561, 2988184953, 2993839484, 2776278397, 107394435, 188206468, 91354502, 110175623, 2779944326, 2992885126, 2779796875, 102720910, 2994417038, 2992184722, 3019955603, 3018139031, 2909961624, 2778125729, 2993931681, 96650669, 154414509, 2776642990, 2994550192, 2993685944, 2993591741, 2993432003, 2780528068, 38774213, 2992174532, 2994419139, 62158283, 2780853707, 45020621, 120991184, 77942228, 2776978901, 2780351957, 2909580760, 130491866, 2993397211, 69514717, 2779381216, 153427425, 157777378, 2780861936, 2993452528, 158215666, 2775938548, 2777110004, 2993522167, 169684477, 172365310, 2992117250, 2777380357, 2777472530, 2991709714, 2777073172, 2991808018, 2993552916, 2780003869, 2781279775, 120217122, 151107107, 152491559, 2992336426, 189775405, 2909500973, 2994357808, 2778525234, 3020265010, 2776452661, 2780143158, 2778226232, 2780794424, 2994527806, 2776665667, 192241223, 2781257293, 172817999, 192536144, 2992820216, 2777796192, 532801124, 33283694, 2993092206, 24518262, 139669111, 160212601, 2988977785, 2992809593, 2993892992, 2992971396, 63651461, 2778898053, 2781275782, 2908556935, 2993108616, 2993940100, 14849681, 112058002, 2778625682, 2779000468, 2987718291, 147273371, 42731165, 2778148510, 2780429984, 2779590308, 2781181605, 3020113576, 68800169, 201490090, 3020396200, 167296696, 2909107899, 2776831678, 2992111295, 2778091200, 172269249, 100544194, 2777106113, 2777194177, 2780257989, 2910199490, 2777214671, 71864017, 147103442, 2992998108, 198815454, 2779885280, 2910224097, 2994376416, 168857316, 2993686252, 126408429, 2992033518, 175963888, 2991761137, 2991841010, 2993028854, 2778617593, 53571324, 5465852, 121923324, 2992054019, 2993088260, 2992975623, 103474955, 2776841996, 2776426263, 16643866, 2776082207, 53421856, 2776182560, 2776139558, 2777278459, 2778361644, 2991812402, 31954745, 2982913853, 2778568511, 2993248064, 31903555, 2778818373, 202682190, 2777952078, 2993559379, 122629976, 45152089, 2775838554, 2780086105, 2780589914, 2777798493, 2779909984, 2991671138, 65580899, 2777802595, 3018719075, 2777014122, 63696750, 514101110, 85675897, 2776840061, 2779422593, 2909816706, 2993883011, 2988769156, 2775992197, 4792198, 115961737, 2992035722, 2779023244, 100474770, 125620115, 14624660, 155987862, 3018968983, 198150046, 68874143, 2781071265, 130217890, 134643618, 2992172967, 2776364969, 2778163119, 2779735984, 41478065, 2781206450, 198979508, 24061886, 79339454, 2781003712, 2909110210, 32120771, 3019009989, 156086215, 87709641, 2991949773, 2777178062, 84199377, 2780309462, 2993524706, 173795300, 28631016, 16281581, 207769581, 2993711086, 2991804400, 2779179000, 2992353273, 74948603, 2777491454, 87621631]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Polygonum arenastrum', 'Land uplift', 'Irish sea', 'Root crops', 'International waters', 'Unified Soil Classification System', 'Vegetation height', 'Sorghum bicolor', 'Sodium bicarbonate', 'Soil color', 'Alternative stable state', 'Forest dynamics', 'Rainforest', 'Soil conservation', 'Coral Triangle', 'Distinct population segment', 'Fishing down the food web', 'Fishing trip', 'Soil gradation', 'Agro biodiversity', 'Fertilizer tree', 'Sardine', 'Coral skeleton', 'Tropical forest', 'Red List Index', 'Phytic acid', 'Undergrowth', 'Forest landscape', 'Nothofagus', 'Gradient analysis', 'Soil Pollutants', 'Salmon fishery', 'Feed additive', 'Guar gum', 'Bycatch reduction device', 'Primary succession', 'Water use', 'Sturgeon', 'Livestock grazing', 'Boreal zone', 'Sphagnum', 'Cover crop', 'DSSAT', 'Urban vegetation', 'Coralline algae', 'Calluna', 'Forest type', 'Sweet sorghum', 'Groundwater use', 'Lactose', 'Soil morphology', 'Plant Resources of Tropical Africa', 'Tussock', 'Soil type', 'Agricultural intensification', 'Amsterdam albatross', 'Primary production', 'Fishing techniques', 'Fish measurement', 'Tropical savanna climate', 'Intercropping', 'Fishery', 'Coral species', '15n balance', 'Aseptic processing', 'Sailfish', 'Swordfish', 'Soil compaction', 'Least Developed Countries', 'Habitat destruction', 'Cultural control', 'Plant breeding', 'Food packaging', 'Polyphenol', 'Striga', 'Squid', 'Dendrometry', 'Irrigation scheduling', 'Illegal fishing', 'Gooseberries', 'Nitrogen fertilization', 'Prawn', 'Soil food web', 'Pioneer species', 'Incidental catch', 'Green tea', 'Starter', 'Fish products', 'Sustained yield', 'Sesbania', 'Commercial fishing', 'Forest regeneration', 'Conservation finance', 'Prebiotic', 'Local extinction', 'Bottom fishing', 'Sodic soil', 'Trophic level', 'Physical control', 'Tinned food', 'Phytogeography', 'Preservative', 'Applied ecology', 'Felling', 'Flagship species', 'Crab fisheries', 'Destructive fishing practices', 'Whale', 'Denitrification process', 'Sclerophyll', 'Forest pathology', 'Food material', 'Near-threatened species', 'Trifolium subterraneum', 'Carrageenan', 'Tropical and subtropical dry broadleaf forests', 'Dead tree', 'Grassland ecosystem', 'Liana', 'Centrolobium microchaete', 'Red morwong', 'Repartition', 'Soil organic matter', 'Species at Risk Act', 'Freshwater inflow', 'Molinia caerulea', 'Continuous cover forestry', 'Coffea', 'Reef system', 'Melilotus siculus', 'Conventional tillage', 'Denitrifying bacteria', 'Loblolly pine', 'Oyster farming', 'Leaf area index', 'Grazing pressure', 'Moisture stress', 'Yellowfin tuna', 'Marine conservation', 'Spawning site', 'Coral', 'Virtual water', 'Fish physiology', 'Stubble-mulching', 'Cod fisheries', 'Scots pine', 'Soil retrogression and degradation', 'Sustainable fishery', 'Optimum sustainable yield', 'Crop yield', 'Maximum sustainable yield', 'Plant functional type', 'Environment Protection and Biodiversity Conservation Act 1999', 'Genetics genomics', 'Gluten', 'Anchoa', 'Lolium rigidum', 'Soil stabilization', 'Fisheries science', 'Summer fallow', 'Group cohesiveness', 'Soil classification', 'Sucrose', 'Tropical rain forest', 'Land surface temperature', 'Raphanus raphanistrum', 'Trout', 'CITES', 'Condition index', 'Coral reef fish', 'Seabird', 'National Cooperative Soil Survey', 'Fish farming', 'Coastal dunes', 'Crop land', 'Gonadal histology', 'Tropical biodiversity', 'Agricultural management', 'Freshwater fish', 'Fisheries Act', 'Biodiversity action plan', 'SOIL EXPOSURE', 'Sustainable forest management', 'Fish marketing', 'Montane ecology', 'Pyroclastic rock', 'Tundra', 'Temperate deciduous forest', 'Stover', 'Fat content', 'Animal nutrition', 'Flounder', 'Vegetable crops', 'Umbrella species', 'Biodiversity conservation', 'Diel vertical migration', 'Serpentine soil', 'Protein content', 'Soil science', 'Fishing fleet', 'Natural park', 'Heck cattle', 'Adaptive strategies', 'Food additive', 'Mineral fertilization', 'Vegetation dynamics', 'Conservation reliant species', 'Topsoil', 'Vegetation', 'Fisheries management', 'Fuel moisture content', 'Butyric acid', 'Cultural methods', 'Soil salinity', 'Food availability', 'Aquaculture of coral', 'British Indian Ocean Territory', 'Timber management', 'Marine fish', 'Ecological thinning', 'Perennial crop', 'Ice cream', 'Certified wood', 'Soil series', 'Pinus radiata', 'Turtle excluder device', 'Cyprinodontiformes', 'Baltic sea', 'Trawling', 'Crop management', 'Roasting', 'Forest health', 'Bonefish', 'Soil bioengineering', 'Light machinery', 'Cherimoyas', 'Beech', 'Catch reporting', 'Wheat flour', 'Moorland', 'Macrophyte', 'Halimeda', 'Vegetation composition', 'Smoked fish', 'Yield mapping', 'Oxygen cocktail', 'Vegetation classification', 'Animal feed', 'Marine mammal', 'Lecithin', 'Panicum miliaceum', 'Biodiversity index', 'Sorbitol', 'Wood industry', 'Soil thermal properties', 'Plant community', 'Denitrification', 'Plant canopy', 'Domestic water consumption', 'Palynology', 'Amazon rain forest', 'Joint Forest Management', 'Shark finning', 'Functional biodiversity', 'Mixed farming', 'Forestry law', 'Gallery forest', 'Soil biodiversity', 'Cluster beans', 'Disc harrow', 'Wet tropics', 'Fisheries law', 'Fishing net', 'Secondary forest', 'International Tropical Timber Organization', 'Soil pH', 'Water pricing', 'Community based forest management in the Philippines', 'Marine ecoregions', 'Extinction rate', 'Silviculture', 'Extinction event', 'Prescribed burn', 'African Convention on the Conservation of Nature and Natural Resources', 'Irrigation efficiency', 'Desertification', 'Great Green Wall', 'Ecoregion', 'Tangle net', 'Black sea', 'Fodder crops', 'Social forestry in India', 'Vulcanian eruption', 'Cyprinidae', 'Bulk soil', 'Rice crop', 'Mediterranean ecosystem', 'Soil conditioner', 'Fire ecology', 'Vegetation water content', 'Evergreen forest', 'Agricultural crops', 'Megafauna', 'No-till farming', 'Population viability analysis', 'Bycatch', 'Molecular breeding', 'Tree line', 'Whitefly', 'Dead wood', 'Vegetation effect', 'Intraspecific breeding', 'Starch', 'Fish trap', 'Chondrichthyes', 'Soil test', 'Pop-up satellite archival tag', 'Eggshell', 'Urban forestry', 'Estuarine water circulation', 'Field crop', 'Pulpwood', 'Overexploitation', 'Crop failure', 'Deschampsia flexuosa', 'Sustainable forestry', 'Turbot', 'Swimming speed', 'Whey protein', 'Demersal fish', 'Climax community', 'Blue marlin', 'Coarse fishing', 'Nitrogen fertilizer', 'Forest structure', 'Cassava brown streak virus disease', 'Carotene', 'Brazil nut', 'Dichistius', 'Dipterocarpaceae', 'Reforestation', 'Viticulture', 'Extinction', 'Water productivity', 'American shad', 'Metapopulation', 'Hydroacoustics', 'Big-game fishing', 'Crop productivity', 'Forest management planning', 'Tropical rainforest', 'Volcano', 'Rate of exploitation', 'Fire history', 'Volcanic ash', 'Gillnetting', 'Marxan', 'Bouteloua gracilis', 'Pocillopora damicornis', 'Demersal zone', 'Tree cover', 'Fish stock', 'Stock synthesis', 'Dipteryx panamensis', 'Insect biodiversity', 'Groundwater nitrate', 'Bumper crop', 'Broiler', 'Trehalose', 'Subsoiler', 'Oncorhynchus', 'Quality characteristics', 'Shrubland', 'Coral reef management', 'Great barrier reef', 'Plant strategies', 'Spray drying', 'Total dissolved solids', 'Nutraceutical', 'Soil governance', 'Woodland', 'Midwater trawling', 'Soil mechanics', 'Coral reef protection', 'Organic manure', 'Agricultural statistics', 'King mackerel', 'Albacore', 'Remnant vegetation', 'Animal breeding', 'Ecotone', 'Nardus stricta', 'Normalized Difference Vegetation Index', 'Soil horizon', 'Atoll', 'Purified water', 'Flatfish', 'Important Plant Areas', 'Agricultural system', 'Serranidae', 'Pectin', 'Red soil', 'Soil resilience', 'Forest recovery', 'Vegetable oil', 'Hatchery', 'Carotenoid', 'Surplus production', 'Oasification', 'Tamarix', 'Olive oil', 'Native forest', 'Pinus pinaster', 'Controlled traffic farming', 'Soil tillage', 'Timber volume', 'Participatory plant breeding', 'World Database on Protected Areas', 'Ratooning', 'Amazonian', 'Water-use efficiency', 'Fishing industry', 'Moderate-resolution imaging spectroradiometer', 'Nestedness', 'Brassica carinata', 'Douglas fir', 'Fishing line', 'Pratylenchus', 'Coral growth', 'Wildlife management', 'Clearcutting', 'Amazon basin', 'Horticultural crops', 'Food quality', 'Comprehensive Assessment of Water Management in Agriculture', 'Sensory system', 'Food industry', 'Artisanal fishing', 'Secondary succession', 'Hermatypic coral', 'Anatidae', 'Krill', 'Soil plant atmosphere continuum', 'Fire effect', 'Agricultural soil science', 'Forestry', 'Volcanology', 'Important Bird Area', 'Anthracology', 'Stand development', 'Microbial biodiversity', 'Citric acid', 'Monodominance', 'Exclusive economic zone', 'Contour plowing', 'Measurement of biodiversity', 'Biome', 'Biotope', 'Poeciliidae', 'Afforestation', 'Vascular plant', 'Mussel', 'Physical water scarcity', 'Barrier reef', 'Soil gas', 'Agrometeorology', 'Staple food', 'Thinning', 'Forest protection', 'Groundfish', 'Conservation science', 'Vegetation types', 'Propolis', 'Herring', 'Plant cover', 'Seral community', 'Mackerel', 'Soil chemistry', 'Notolabrus tetricus', 'Coulee', 'Soil carbon', 'Detrended correspondence analysis', 'Brachypodium pinnatum', 'Community forestry', 'Agricultural diversification', 'Extinction probability', 'Mineral excess', 'Vegetation analysis', 'Waste generation', 'Tropical forestry', 'Skin care', 'Lamprey', 'Bioclimatology', 'Cetacea', 'Tree transpiration', 'Ammophila arenaria', 'Conservation planning', 'Abalone', 'Nitrite nitrogen', 'Forest Vegetation Simulator', 'Longline fishing', 'Sea cucumber', 'Soil survey', 'Small Island Developing States', 'DNS root zone', 'Weed science', 'Agricultural biodiversity', 'Virtual population analysis', 'Land footprint', 'Digital soil mapping', 'Economics of biodiversity', 'Extinct species', 'Shore', 'Biomass yield', 'Soil mesofauna', 'Chrysoblephus laticeps', 'Catch per unit effort', 'Fish aggregating device', 'Red edge position', 'Anguillidae', 'Urban forest management', 'Spice', 'Chaparral', 'Advanced very-high-resolution radiometer', 'Quota Management System', 'Biodiversity assessment', 'Maillard reaction', 'Inga alley cropping', 'Artificial reef', 'Skipjack tuna', 'National nature reserve', 'Spawning habitat', 'Hydric soil', 'Sunflower oil', 'Marginal land', 'Shelterwood cutting', 'Crop quality', 'Mixed grass prairie', 'Mesopelagic zone', 'National forest inventory', 'Stocking', 'Nitrate dissimilation', 'Scallop', 'Egg white', 'Tilth', 'Soybean management practices', 'Chitting', 'Amazon rainforest', 'Larch', 'Deep scattering layer', 'Red edge', 'Catch and release', 'Vegetation canopy', 'Plant diversity', 'Revegetation', 'Quadrat', 'Coextinction', 'Basal area', 'Broodstock', 'Bigeye tuna', 'Greenhouse crops', 'Lupinus angustifolius', 'Canonical correspondence analysis', 'Amazon forest', 'Crop simulation models', 'Fish species', 'Chisel plow', 'Ceruchus chrysomelinus', 'Fire coral', 'Ecological connectivity', 'Biosphere model', 'Soil respiration', 'Fish diseases and parasites', 'Nature policy', 'Artificial reefs', 'Recreational fishing', 'Alley cropping', 'Plant nutrition', 'Soil fertility', 'Mountain forest', 'Topographic complexity', 'Species translocation', 'Deep-water coral', 'Soil salinity control', 'Soil structure', 'Pelagic zone', 'Tree breeding', 'Teleostei', 'Prionace glauca', 'Brining', 'Rocky desertification', 'Ecohydrology', 'Stipa tenacissima', 'Biodiversity hotspot', 'Boiling', 'Close to nature forestry', 'Amazon river basin', 'Formant', 'Thematic Mapper', 'Vessel monitoring system', 'Species at risk', 'Minimum tillage', 'Soil microbiology', 'Environmental policy integrated climate', 'Rainfed agriculture', 'Catch crop', 'Mediterranean vegetation', 'Soil zoology', 'Water demand management', 'Nitrate leaching', 'Tenderness', 'Galjoen', 'Precision agriculture', 'Terroir', 'Macroecology', 'Crop loss', 'Titratable acid', 'Partridge - meat', 'Carassius auratus', 'Anchovy', 'Small scale fishing', 'Flindersia brayleyana', 'Porites', 'Pesticide application', 'Freshwater prawn farming', 'Arid ecosystems', 'Ocean fisheries', 'Volcanic rock', 'Grass carp', 'Soil functions', 'Sexual maturity', 'Biodiversity management', 'Exclosure', 'Crop protection', 'Deciduous', 'Tree density', 'Threatened species', 'Understory', 'World Reference Base for Soil Resources', 'Crop growth', 'Forest vegetation', 'Land suitability', 'Land productivity', 'Tropical agriculture', 'Vegetation type', 'Biodiversity offsetting', 'Stock Recovery', 'Natural forest', 'Plant production', 'Shrimp farming', 'Hardwood timber production', 'High forest', 'Sprat', 'Food products', 'Weed control', 'Environmental soil science', 'Bioeconomics', 'Fish reproduction', 'Acropora', 'Soil solarization', 'Fungal biodiversity', 'Marine protected area', 'Stock assessment', 'Fruits and vegetables', 'Fertigation', 'Soil scientist', 'Orange roughy', 'Vegetation succession', 'Shrub', 'Marine invertebrates', 'Fermentation', 'Crop simulation model', 'Forest Principles', 'Biological soil crust', 'Mortierella spinosa', 'Endeavour Hydrothermal Vents', 'Soil map', 'Forest inventory', 'Forest planning', 'Soil seed bank', 'Soybean oil', 'Lunar Cycle', 'Water requirement', 'Commercial fish feed', 'Fire frequency', 'Soil health', 'Irrigated agriculture', 'Soil texture', 'Coral cover', 'Forest harvesting', 'Fish resources', 'Biocultural diversity', 'Nature reserve', 'Red tide', 'Subsoil', 'Reef lagoon', 'Landscape conservation', 'Wind damage', 'Coral bleaching', 'Shrimp', 'Urban forest', 'Digestion', 'Perciformes', 'Soil biology', 'Choice editing', 'Shrimp fishery', 'Essential oil', 'Yield gap', 'Nitrogen management', 'Skipjack', 'Tree species', 'Monogastric', 'Marine fisheries', 'Food science', 'Plant–soil feedback', 'Insular biogeography', 'Nature Conservation', 'Crop water use', 'Fringing reef', 'Floristics', 'Consumptive water use', 'Forest product', 'Ingredient', 'Perch', 'Mytilus', 'Land preparation', 'Soil contamination', 'Crop insurance', 'Fishing village', 'Soy protein', 'USDA soil taxonomy', 'Fishing', 'Soil management', 'Bottlenose dolphin', 'Soil crust', 'Etelis coruscans', 'Rain use efficiency', 'Nitrogen removal', 'Raw milk', 'Land use', 'Juvenile', 'Forest development', 'Steaming', 'Soil physics', 'Logging', 'Pilotage', 'Selection cutting', 'Fruit juice', 'Biogeomorphology', 'Mangrove', 'Monitoring control and surveillance', 'Biodiversity', 'Bagasse', 'Amazon floodplain', 'Oyster', 'Acid sulfate soil', 'Jellyfish', 'Surface irrigation', 'Multiple use', 'Forest fragmentation', 'Overfishing', 'Regional Red List', 'Ruminant', 'MAP protocol', 'Ecosystem engineer', 'Plant protein', 'Soil ecology', 'Aquatic science', 'Nearest neighbor imputation', 'Phalaris aquatica', 'Freeze-drying', 'Tannin', 'Salmon farming', 'Salvage logging', 'Forest management', 'Flavour', 'Marine reserve', 'Ecosystem degradation', 'Fire season', 'Grassland degradation', 'Baltic basin', 'Calcareous grassland', 'World fisheries production', 'Taiga']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2909524676', '173795300', '35158069', '2778449271', '192241223', '137555145', '2776285232', '2780505049', '2778673487', '14849681', '2909327039', '2776139558', '2781193452', '2779146456', '2781094106', '2778091200', '189569837', '192536144', '20450499', '2910708160', '508466165', '107674354', '79355281', '2910587469', '2777206602', '59898753', '2777416314', '2908544876', '2778359420', '81993482', '2778333957', '2778391067', '2778852317', '40667233', '134068817', '2779140988', '2777476143', '2778291008', '2780775713', '118518473', '2776278397', '2777480484', '2779979797', '22344907', '2910182614', '181607587', '2780086105', '118643609', '8673954', '2779824757', '112058002', '2779843069', '2778312390', '2780246931', '2776978901', '2779363728', '2776335591', '2910321686', '2776998673', '192039558', '2780067489', '2780781704', '2776364969', '2776093933', '2778823544', '91447561', '134215735', '2776660552', '2776054349', '2781227287', '2780106736', '2779950014', '1670747', '93066458', '2779032678', '551997983', '2776687813', '2909725152', '2776500793', '118817206', '2776672683', '201490090', '141896089', '2777707638', '88199923', '2780066083', '119249163', '173145845', '123244313', '1924315', '157777378', '2910294407', '45152089', '2909753820', '516717267', '203174812', '2779958227', '2779310246', '2777108408', '2780655333', '2777129469', '2777704720', '32120771', '28631016', '2780235837', '2910212593', '2780072470', '2778098436', '2779564620', '2909066392', '2780671300', '172427765', '63651461', '2781353100', '2779215912', '2910848602', '505241676', '2777981335', '2776336767', '2776263494', '2777022838', '2780429984', '2779427263', '194691359', '120009192', '2781364378', '91354502', '2909609276', '85675897', '2777131864', '153279818', '17857428', '2780523633', '2780238508', '94487597', '2908542670', '2776840061', '2908797517', '2775929138', '2016182', '2776841996', '2776420369', '2909216340', '2775832765', '140130429', '9927688', '2910491720', '2779457888', '2779823546', '172269249', '2776007641', '89920630', '2777472530', '122748992', '2778617593', '2779735984', '2780467133', '147103442', '2911219547', '38739810', '74139830', '2910174702', '514101110', '2780623117', '2778148510', '2779656528', '121412344', '2779282177', '2910525245', '2778962194', '2776654248', '2777499484', '2777380357', '2779004245', '64112148', '77942228', '2781181605', '2776841711', '140413371', '73593433', '126343540', '2779081038', '2779179000', '164958353', '2909999035', '2777575642', '62158283', '120806208', '112625547', '2776876274', '2777953396', '3987366', '503900551', '2776733808', '2909639017', '2777952078', '2910840360', '153102810', '105639569', '2777762679', '2781168071', '2778358892', '2779991348', '31903555', '2776725572', '2777253967', '126408429', '2779128174', '2777549804', '2778452349', '197011783', '189307558', '2780097091', '2775892496', '16281581', '2779267909', '2781218492', '2778173381', '2780589914', '2776325102', '2779409326', '2781131740', '2909399481', '57269778', '2911208417', '116607704', '2778728749', '2910706634', '2778205388', '93944068', '197321923', '2909532361', '35378473', '2779483572', '2909506248', '187457775', '2779381216', '45622825', '154098486', '2780174665', '2911033078', '2775966360', '2779325724', '2776121688', '2779796875', '2778554304', '2781275782', '113416529', '118694661', '2910264974', '49461877', '2779249804', '191440113', '2776421481', '2776962008', '38838508', '2776675269', '2778361644', '2779562855', '2909420048', '2775992197', '173419221', '2780289900', '125069764', '2779873548', '535291247', '535046627', '2780717550', '56095865', '121850381', '2781208722', '2908942569', '2777890039', '511355011', '2908631853', '2776708618', '169684477', '14624660', '110175623', '2775991992', '202041845', '2776946213', '195330766', '2776499504', '2779814588', '108216600', '129360787', '159879943', '2779944326', '2780191829', '73849760', '91770344', '2777267482', '2910206840', '2778596745', '2780367213', '29376679', '141732470', '2778036281', '2776824989', '2778718584', '33275205', '2779316989', '38774213', '16643866', '2776111823', '2776953683', '2777617796', '116370137', '2911025827', '155987862', '2779687958', '2778867918', '2780900284', '2777132354', '2908556935', '2780774944', '2778724459', '15147509', '2909807485', '2778625682', '125620115', '82639676', '2777796192', '2910221061', '549605437', '151788092', '36516193', '2778851755', '207769581', '24144980', '71502557', '161189057', '2780309462', '2909857543', '149817419', '139145706', '14641543', '139669111', '139326070', '2910283248', '155739000', '2777794352', '162501224', '59582021', '16884802', '2779234561', '88776829', '28781525', '149207113', '31568149', '189109488', '2776654049', '116003164', '2910493534', '2780003869', '2778329027', '2780982499', '2910800256', '2780816530', '2777631861', '2777782036', '123917164', '2780339060', '25382069', '2911039760', '2776426263', '513059894', '176943803', '47924181', '14522933', '2909598931', '2777306872', '155373166', '2778200843', '2779425982', '2780065859', '2777106113', '2910152589', '2777014122', '37884843', '2910611143', '167296696', '192392207', '155015343', '64551749', '529335014', '2778402112', '2780077345', '67031304', '43272882', '2908538994', '2775874878', '2779427562', '98108635', '154575652', '102720910', '2780948830', '74948603', '2778134537', '2779023244', '2775999090', '73580989', '135895429', '26785111', '2780167305', '2778586117', '2781436638', '2780397596', '2776831678', '203017698', '130217890', '2777803996', '162889289', '2909380268', '2909396454', '2776388979', '2779613291', '199877563', '2776082207', '2777900319', '2910855215', '2776115401', '31954745', '2779987062', '2779485152', '2779290800', '2780267512', '2780394310', '2775838554', '2909512196', '199535368', '98722961', '2776892409', '2776890026', '2780907584', '158215666', '2779298159', '2910137147', '198979508', '2780143158', '73495956', '2777350553', '198150046', '126914827', '2781121325', '165007447', '147490202', '2777341207', '2779529612', '2780556605', '2779764123', '2909743892', '2777845105', '2779096019', '177658893', '2911152419', '113513581', '150194340', '2776562576', '60989497', '173917561', '135704130', '196687554', '2910933275', '156858999', '2909296374', '2776492830', '4792198', '2778896901', '8313540', '2781288472', '2911036004', '2776142123', '2777635537', '132000320', '26291073', '147252523', '2780797831', '39571515', '141151480', '134643618', '2910224097', '2776554196', '510239367', '2778568511', '14171219', '163588314', '2780756937', '2777007095', '532801124', '2778597767', '96650669', '2780748813', '93990901', '152382732', '2780221984', '2779587474', '89295123', '149340888', '2777802595', '2778226232', '2778152828', '133382796', '64229544', '95803793', '2776623689', '2777176278', '2778484053', '2909358641', '2779000468', '167393769', '2779885280', '2777833858', '2780001261', '84699730', '2779363069', '2909529903', '2777492549', '2778896754', '143020374', '2780584575', '118733760', '2780492159', '2777434770', '2777189468', '152491559', '2909409184', '2777278459', '24717449', '2776665667', '183135511', '5465852', '2780417240', '2779139258', '2910326811', '96313414', '2780871851', '128058477', '2779852692', '112149622', '2775841215', '2910653396', '2910069897', '2909991231', '2780853707', '2776384079', '34881761', '2778502483', '2776259809', '2910579474', '54924851', '122629976', '2909463689', '2781102901', '97137747', '2776574334', '195092306', '2780343512', '112892834', '93707483', '2777154535', '54815482', '128383755', '2911108994', '153427425', '2780745107', '112939947', '35306142', '2911118914', '2781462481', '2909152114', '2775938548', '2776853598', '2778661615', '2780127386', '2781206450', '2910375186', '175760724', '34070608', '117480383', '2780179066', '65193109', '177701732', '30455989', '2778551664', '79339454', '2619416', '198815454', '2777897731', '1549246', '2776824459', '2780111930', '2781257293', '74893574', '69514717', '2780946806', '87621631', '33283694', '132964779', '41478065', '2777988102', '2778452849', '72286879', '2779501324', '2779562289', '2777589964', '2779909984', '139019045', '2779623515', '2776176627', '2775831186', '51926234', '2781061397', '107888415', '68874143', '100544194', '2779329624', '2910254177', '109902934', '105152847', '2909101193', '95869378', '24061886', '168857316', '108738950', '112276597', '2910206990', '33559203', '169282265', '2778898053', '156663261', '154702282', '30481170', '33824837', '2910357638', '2781348932', '165107724', '77088390', '507981020', '2777858656', '2908993845', '2779287364', '201116201', '2778944361', '2778368945', '2779590308', '505870484', '202682190', '2780977904', '2777768678', '2778939721', '58479451', '2776191655', '14918906', '72958200', '550263199', '115961737', '2776107028', '2778589402', '153911025', '53002841', '2777707811', '144492951', '2778896599', '181268634', '2778733383', '2910226413', '23837897', '2910406661', '2779869275', '2780498771', '2778003962', '23519681', '123336316', '2780488879', '201401522', '189775405', '2776596991', '2779697819', '174553679', '171205284', '2779164741', '2909590382', '2908572884', '151107107', '2910945474', '70899900', '2777387638', '2777542811', '197320908', '2779294082', '2780040469', '115930662', '166548495', '199724614', '91067096', '81977670', '2777399377', '53571324', '2909135477', '84199377', '2780696901', '2910188331', '2777589951', '2777784394', '2777246098', '2781397391', '68553557', '96105989', '2910668823', '555313981', '2780528068', '2777438402', '2780527838', '2778165219', '2909068147', '68800169', '2777526573', '2781182717', '2780192938', '123281439', '24518262', '513806601', '140327455', '2780500427', '60359462', '2775868463', '2777798493', '130693829', '139518226', '190157891', '2781003712', '2775980262', '25989453', '152613627', '2778348119', '55347375', '2910584990', '69907114', '2778018375', '2776801807', '509243982', '2909580760', '2780351957', '42435023', '2779895041', '2777406646', '12064787', '146188434', '2909499532', '2780848231', '2779957034', '2910606548', '54625482', '2776367567', '2778525234', '2779421218', '103474955', '86409407', '126589399', '2909116410', '157717039', '147273371', '2777110004', '2776779347', '2778327988', '2910218496', '130491866', '87976508', '195973872', '45920995', '165237769']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['W chromosome', 'Salvage logging', 'X chromosome', 'Development aid', 'Volcanic rock', 'Chromosome 21', 'Tropical forest', 'Tamarix', 'Moisture stress', 'Shrimp farming', 'Body Fat Measurement', 'Shrimp fishery', 'Longline fishing', 'Sustained yield', 'Commercial fishing', 'Shrub', 'Metapopulation', 'Sexual maturity', 'Detrended correspondence analysis', 'Bacterial Physiological Phenomena', 'Fishing industry', 'Estuarine water circulation', 'Dutch disease', 'Panicum miliaceum', 'Food sampling', 'Shrubland', 'Energy poverty', 'Nutrition Disorders', 'African swine fever virus', 'Integrated farming', 'Baby food', 'Trawling', 'Agricultural policy', 'Agroecological restoration', 'Chromosome 4', 'Oncorhynchus', 'Nutrition analysis', 'Rate of exploitation', 'Iliana', 'Agriculture', 'Revegetation', 'Advanced very-high-resolution radiometer', 'Tyrosine decarboxylase', 'Agricultural diversification', 'Product Label', 'Generation', 'Forest product', 'Web application', 'Microfluidics', 'Fat substitute', 'Hardwood timber production', 'Butyric acid', 'Growth rate', 'Y chromosome', 'Tree breeding', 'Trout', 'Forest Vegetation Simulator', 'Nutrition care', 'Carotene', 'Biofertilizer', 'Isocitric acid', 'Short food supply chains', 'Oyster', 'Sea cucumber', 'nutritionDay', 'Photosynthesis system', 'Flock', 'Smoked fish', 'Vegetation classification', 'Carrageenan', 'Cholecalciferol', 'Flatfish', 'Agribusiness', 'Salting', 'Citric acid', 'Malnutrition', 'Brachypodium pinnatum', 'Holstein Cattle', 'Beech', 'Organic farming', 'Poverty trap', 'Stock assessment', 'Fish farming', 'Vascular plant', 'Food processing', 'Repartition', 'Felling', 'Refugee', 'Molecular microbiology', 'Crop diversity', 'Boiling', 'Apple extract', 'Floristics', 'Z chromosome', 'Food safety', 'Woodland', 'Hatchery', 'Least Developed Countries', 'Sugar', 'Weaning', 'Trade agreement', 'Whale', 'Ecosystem engineer', 'Forest management', 'Nothofagus', 'Special diet', 'Cyprinodontiformes', 'Demersal fish', 'Lecithin', 'Biological Stress', 'Mixed grass prairie', 'Vegetation', 'Tropical agriculture', 'Thinning', 'Sardine', 'Nutrition outcomes', 'Chlorine', 'Seabird', 'Gluten', 'Gillnetting', 'Maximum sustainable yield', 'Fish reproduction', 'Fish marketing', 'Liana', 'Total factor productivity', 'Seed saving', 'Basal area', 'D-Sorbitol', 'Soil management', 'Equine nutrition', 'Stocking', 'Nutraceutical', 'Labelling', 'Chromosome 9', 'Sensory system', 'Sus scrofa domestica', 'Bottlenose dolphin', 'Fat Measurement', 'Coffea', 'Animal breeding', 'Shrimp', 'Sodium bicarbonate', 'Chronic malnutrition', 'Striga', 'Conservation agriculture', 'Biological pathway', 'Consumer Product Safety', 'Food defense', 'Nutritionist', 'Marine invertebrates', 'Price band', 'Biome', 'Catch crop', 'Gradient analysis', 'Biocultural diversity', 'Jellyfish', 'Dutch elm disease', 'Forest inventory', 'Welfare program', 'Ecological farming', 'Food packaging', 'Ground food', 'Fishing', 'Destructive fishing practices', 'Bioeconomics', 'Yellowfin tuna', 'Pulpwood', 'Turbot', 'N-Butyric acid', 'Mediterranean diet', 'Freshwater fish', 'Food waste', 'Rainfed agriculture', 'Tilth', 'Market price', 'Pelagic zone', 'Soil solarization', 'Barcode', 'Commercial policy', 'Denitrification', 'Crop yield', 'Grazing pressure', 'Grassland degradation', 'Fish measurement', 'Dietary change', 'Sesbania', 'Species translocation', 'Volcano', 'Food composition data', 'Food poisoning', 'Nail patella syndrome', 'Livelihood', 'Urban agriculture', 'Food sovereignty', 'Food shortage', 'Nature Conservation', 'Theileriasis', 'Diel vertical migration', 'Economic policy', 'Food contact materials', 'Peri-urban agriculture', 'Ruminantia', 'Skipjack tuna', 'Food science', 'Guar gum', 'Sphagnum', 'Soil health', 'Scots pine', 'Ratooning', 'Rural poverty', 'Denitrifying bacteria', 'Great Green Wall', 'Halimeda', 'Apocarotenoid', 'Flavour', 'Marxan', 'Wildlife crossing', 'Galactose', 'Ingredient', 'Water-use efficiency', 'King mackerel', 'Pinus pinaster', 'Mycotoxicosis', 'Isochromosome', 'Pregnancy 2', 'Population viability analysis', 'Molinia caerulea', 'Food labelling', 'Extinction probability', 'Phytogeography', 'Cultivar', 'High air pressure', 'Maillard reaction', 'Dementia', 'West Africans', 'Bottom fishing', 'Stipa tenacissima', 'Factor price', 'Big-game fishing', 'Traditionalism', 'Severe malnutrition', 'Silviculture', 'Anguillidae', 'Virtual water', 'Lupinus angustifolius', 'Welfare rights', 'Biodiversity offsetting', 'Marine conservation', 'Climax community', 'Fish allergy', 'Mixed farming', 'Staple food', 'DNS root zone', 'Monodominance', 'Infant nutrition', 'Local extinction', 'Serranidae', 'Yield gap', 'Insect biodiversity', 'Green teas', 'Raw milk', 'Crossbreed', 'Broiler', 'Tundra', 'Crab fisheries', 'Amazon rainforest', 'Clinical trial', 'Hypoallergenic', 'Afforestation', 'Certified wood', 'Intercropping', 'B-Carotene', 'Weed science', 'Obesity', 'Vitamin D supplement', 'Oenococcus', 'Minimum tillage', 'Pilotage', 'Broodstock', 'Lactobacillus hilgardii', 'Fisheries management', 'Indigestion', 'Fire ecology', 'Artificial reef', 'Cyprinidae', 'Tropical and subtropical dry broadleaf forests', 'Total dissolved solids', 'Fertilisation', 'Bigeye tuna', 'Food distribution', 'Coral reef protection', 'Overgrazing', 'Fish aggregating device', 'Feed analysis', 'Micronutrient deficiency', 'Agricultural biotechnology', 'Wildlife', 'DNA barcoding', 'Phytic acid', 'Metavolcanic rock', 'Environment Protection and Biodiversity Conservation Act 1999', 'Mesopelagic zone', 'Cytochrome c oxidase subunit III', 'Soil fertility', 'Digestion', 'Theileria', 'Prune belly syndrome', 'Health effect', 'No-till farming', 'Water salt', 'Selection cutting', 'Glutenin', 'Incidental catch', 'Nardus stricta', 'Shelterwood cutting', 'Stock Recovery', 'Salt substitute', 'Lactose', 'Conservation reliant species', 'Cytochrome C Oxidase Subunit 1', 'High forest', 'Logging', 'Tornado family', 'Exclosure', 'Blue marlin', 'Food security', 'Moorland', 'Cod fisheries', 'Fisheries Act', 'Marine reserve', 'Chromosome 18', 'Tree line', 'Coulee', 'Tannin', 'Fat bodies', 'Ecoagriculture', 'Food additive', 'Group cohesiveness', 'Understory', '5:2 diet', 'Economics policy', 'Market structure', 'Dioscorea rotundata', 'Palynology', 'Contig', 'Secondary succession', 'Pregnancy', 'Tussock', 'Carotenoid', 'Water use', 'Near-threatened species', 'Small Island Developing States', 'Conservation finance', 'Fish physiology', 'Campylobacter species', 'Tenderness', 'Poverty Reduction Strategy Paper', 'Abalone', 'Bottlenosed dolphin', 'Forest protection', 'Poeciliidae', 'Inbreeding', 'Bumper crop', 'Subsoiler', 'Seral community', 'Salt sodium', 'Urban forest', 'Food industry', 'Vulcanian eruption', 'Chromosome 3', 'Micronutrient', 'Severe Acute Malnutrition', 'Shorea', 'Food chain', 'Cytochrome c oxidase subunit I', 'Generation R', 'Feed additive', 'Crop simulation model', 'Nutritional monitoring', 'Soy protein', 'Ecotope', 'Controlled diets', 'Fertigation', 'Clearcutting', 'Plant breeding', 'Volcanic ash', 'Starch', 'Agricultural extension', 'Spice', 'Preservative', 'Statistical data type', 'Vascular implant', 'Marginal land', 'Chondrichthyes', 'Phenomics', 'Reforestation', 'Canonical correspondence analysis', 'Stubble-mulching', 'Calcareous grassland', 'Domestic pig', 'Steaming', 'Joint Forest Management', 'Biodiversity action plan', 'Fisheries science', 'Soybean management practices', 'Agrometeorology', 'Fishing line', 'Whitefly', 'Distinct population segment', 'Orange roughy', 'Modified atmosphere', 'Biodiversity', 'Cetacea', 'Mid price', 'African swine fever', 'BMI - Body mass index', 'Red edge', 'Protein–energy malnutrition', 'Ecotone', 'Perciformes', 'Food fortification', 'Low body mass index', 'Prawn', 'Skipjack', 'Mussel', 'Convention on Biological Diversity', 'Herring', 'Nestedness', 'Bouteloua gracilis', 'Consumptive water use', 'Vitamin D intake', 'Coarse fishing', 'Phylogenetic diversity', 'Brassica carinata', 'Nutrition Education', 'Chromosome 13', 'Formant', 'Sustainable fishery', 'Pineapple extract', 'Forest fragmentation', 'Porites', 'Self-sufficiency', 'Product marketing', 'Biogeomorphology', 'Flagship species', 'Underweight', 'Nutritional science', 'Food spoilage', 'Sustainable land management', 'Dioscoreales', 'Sunflower oil', 'Wasting', 'Brazil nut', 'Deep scattering layer', 'Vegetable oil', 'Chromosome 12', 'Pediatric nutrition', 'Exclusive economic zone', 'Gene expression', 'Plant strategies', 'Red List Index', 'Catch and release', 'Food preservation', 'De-extinction', 'Product Labeling', 'Gallery forest', 'Regular diet', 'Dipterocarpaceae', 'Land use', 'Distillers grains', 'B chromosome', 'Coral Triangle', 'Child Nutrition Disorders', 'Species at Risk Act', 'Landscape-scale conservation', 'Macrophyte', 'Ex vivo', 'Purebred', 'Fish stocking', 'Undergrowth', 'Agricultural biodiversity', 'Bagasse', 'Lunar Cycle', 'Evergreen forest', 'Fisheries law', 'Monogastric', 'Agricultural soil science', 'Chromosome 16', 'Pectin', 'Moderate-resolution imaging spectroradiometer', 'Crop protection', 'Sucrose', 'Biosphere model', 'Sustainable management', 'Multiple cropping', 'Shore', 'Body mass index', 'Spray drying', 'Forest pathology', 'Bycatch', 'Crop insurance', 'Pesticide application', 'Clogging', 'Secondary forest', 'Habitat destruction', 'CITES', 'Yield mapping', 'Starter', 'Egg white', 'Cherimoyas', 'Sprat', 'Adaptive strategies', 'Soybean oil', 'Anchoa', 'Amazonian', 'Mycotoxin', 'Food policy', '1-hydroxypyrene', 'Krill', 'Stunted growth', 'Coral', 'Isobutyric acid', 'Purified water', 'Animal feeding operation', 'Water pricing', 'Anthracology', 'Macroecology', 'Ice Creams', 'Essential oil', 'Primary production', 'Ocean fisheries', 'Natural resource management', 'Red tide', 'Lamprey', 'E-agriculture', 'Nutrition Monitoring', 'Primary succession', 'Sulfatase', 'Contour plowing', 'Melon', 'Biotope', 'Sustainable forest management', 'Followup study', 'Nutrition Labeling', 'Fresh Tissue', 'Deep-water coral', 'Marine mammal', 'Price level', 'Scallop', 'Ammophila arenaria', 'Fruit intake', 'Sustainable agriculture', 'Fringing reef', 'Food intakes', 'Hydroacoustics', 'Forestry', 'Agricultural robot', 'Deficit irrigation', 'Skin care', 'Low residue diet', 'Bioclimatology', 'Controlled traffic farming', 'Chromosome 22', 'Agricultural productivity', 'Nutritious food', 'Biodiversity hotspot', 'New Economic Policy', 'Green Revolution', 'Extinction event', 'Product Labelling', 'Fumonisin B2', 'Dioscorea cayenensis', 'Thematic Mapper', 'Stand development', 'Multidimensional Poverty Index', 'Swordfish', 'Multiple use', 'M2 Macrophage', 'Crop rotation', 'Cover crop', 'Atoll', 'Disc harrow', 'Groundfish', 'Organic horticulture', 'Domestic market', 'Larch', 'Regional Red List', 'Rainforest', 'Soil seed bank', 'Whey protein', 'Normalized Difference Vegetation Index', 'Fishing net', 'Artisanal fishing', 'Grass carp', 'Food systems', 'Ecohydrology', 'Plant functional type', 'Taiga', 'Deciduous', 'Raw data', 'Surface irrigation', 'Pratylenchus', 'Trehalose', 'Prescribed burn', 'Social vulnerability', 'Continuous cover forestry', 'Co-fermentation', 'Mytilus', 'Viticulture', 'Coralline algae', 'Child survival', 'Small farm', 'Market microstructure', 'Trifolium subterraneum', 'Salt pan', 'Mangrove', 'Fermentation', 'Important Bird Area', 'Plant Immunity', 'Volcanology', 'Call to action', 'Food label', 'Pyroclastic rock', 'Overfishing', 'Commercial fish feed', 'Summer fallow', 'Measurement of biodiversity', 'Nutritional care', 'Desertification', 'Molecular breeding', 'Vegetation type', 'Agroecology', 'Temperate deciduous forest', 'Chromosome', 'Rank-size distribution', 'During feed', 'Anatidae', 'International waters', 'Database', 'Agricultural education', 'Campylobacteriosis', 'Infant Malnutrition', 'Statistical database', 'Food chemistry', 'Dioscorea', 'Agreement on Agriculture', 'Acropora', 'Fishery', 'Insular biogeography', 'Urban forestry', 'Fish trap', 'Oyster farming', 'Fish stock', 'Ecoregion', 'Virtual population analysis', 'Trophic level', 'Permaculture', 'Juvenile', 'Forest dynamics', 'Famine', 'Molecular biology', 'Plant community', 'Chaparral', 'Coral reef fish', 'Fish products', 'Aseptic processing', 'Brown Swiss', 'Convenience food', 'Genetic engineering', 'Pre pregnancy', 'Calluna', 'Pocillopora damicornis', 'Cytochrome c oxidase subunit II', 'Montane ecology', 'Product market', 'Propolis', 'Plant cover', 'Titratable acid', 'Cultural methods', 'Biosignature', 'Gene map', 'Plant reproduction', 'Bycatch reduction device', 'Protein-calorie malnutrition', 'Poor nutrition', 'Terroir', 'Gooseberries', 'Polyphenol', 'Forestry law', 'Sailfish', 'Pioneer species', 'Lolium rigidum', 'Catch per unit effort', 'Shelf life', 'Wildlife management', 'Prices of production', 'Megafauna', 'Genetic diversity', 'DSSAT', 'Nature reserve', 'Cluster beans', 'Freeze-drying', 'Conventional tillage', 'American shad', 'Irrigation scheduling', 'Sturgeon', 'Condition index', 'Raphanus raphanistrum', 'Demersal zone', 'Guideline Daily Amount', 'Nutritional analysis', 'Tropical rainforest', 'Plant nutrition', 'Location transparency', 'Residual feed intake', 'Botanical drug', 'Red Meat Consumption', 'Marine protected area', 'Freshwater inflow', 'Deschampsia flexuosa', 'Diet-induced obese', 'Fishing down the food web', 'Threatened species', 'Applied ecology', 'Roasting', 'Stover', 'Extinction', 'Poverty threshold', 'Perch', 'Chromosome 19', 'Sclerophyll', 'Hermatypic coral', 'Ruminant', 'Prebiotic', 'Leaf area index', 'Overexploitation', 'Wood industry', 'Cultural control', 'Risks benefits', 'Refrigeration', 'Fisheries co-management', 'Pinus radiata', 'Animal feed', 'Prionace glauca', 'Teleostei', 'Animal nutrition', 'Land footprint', 'Mackerel', 'Alternative stable state', 'Tropical savanna climate', 'Domestic pigeon', 'Sweet sorghum', 'Food prices', 'Multifunctional Enzymes', 'Community forestry', 'Flounder', 'Anchovy', 'Bonefish', 'Coral bleaching', 'Dendrometry', 'Umbrella species', 'Unbalanced diet', 'Chromosome 20', 'Weed control', 'Vessel monitoring system', 'Sorbitol', 'Albacore', 'Tinned food', 'Brining', 'Microstructure', 'Eggshell', 'Intraspecific breeding', 'Chromosome 15']</t>
         </is>
       </c>
     </row>
@@ -476,29 +476,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20940</v>
+        <v>24655</v>
       </c>
       <c r="C4" t="n">
         <v>20940</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2909601795, 179437574, 2778988552, 2779840525, 2911043599, 2777153553, 2778923028, 2778529815, 2781347865, 2909143065, 2777284639, 2780954659, 2909143077, 2909339692, 2779054126, 2909143089, 2777546802, 2779054139, 2911109181, 2780561475, 2778464334, 2781020239, 2908618836, 2910060629, 2909601878, 2779906138, 2779709535, 2778333281, 2781151331, 2779316324, 2781282405, 2908684387, 2910584931, 2910781544, 2910584937, 2780168309, 2779185275, 2780299388, 2910322816, 2780496003, 2777284740, 2780037252, 56623246, 540213393, 2776301714, 2775842971, 2781348000, 2911043746, 2909274277, 2777940137, 2779906218, 2779578545, 2910388401, 2909077684, 136380597, 2776629433, 2777284795, 2910322876, 2780561598, 2778661064, 2780889289, 2908618953, 2779185355, 125567185, 2778726610, 2781151446, 2776170712, 2910585051, 2778661090, 2781413609, 2777022698, 2781151469, 2781217009, 197525751, 2781020410, 2908684544, 2909667588, 2780365064, 2779644171, 2780954891, 176685330, 14942488, 2778005785, 2776826141, 74187038, 2781085983, 136511781, 2777415973, 2909864232, 2908684587, 2908553516, 125370674, 97124661, 2908815670, 2911043893, 2910126395, 2909798717, 66322754, 2910323011, 2781348165, 2777022797, 2781348184, 2909339994, 2909274461, 111214947, 2780889450, 16777580, 2778005868, 17039732, 2778726772, 2910388607, 2780758401, 109838722, 2776301958, 35127690, 2911043990, 2779513239, 2780103070, 2910257566, 2910323103, 122356138, 2776236459, 2778595754, 2910192050, 2776760755, 6881719, 2778792376, 2776957369, 2908619192, 2909536698, 2777678268, 2909798847, 2777547206, 31785415, 2908946886, 2779316685, 2779972045, 2910585295, 2778464720, 105054674, 2781151714, 2910454251, 2910454253, 2781282799, 2776302068, 2777154038, 2776367607, 2777088508, 2779709957, 2776760841, 2777612814, 2910388750, 2779185683, 104202773, 2779841045, 2776433176, 2777874974, 2909274656, 2779513377, 2908619299, 2780561956, 2909209124, 68026918, 2780955175, 80020023, 2908881465, 2780365373, 2909733438, 2776039999, 2780889667, 2909798980, 2910192197, 2779710023, 2908881489, 87753298, 2780365402, 177275483, 2780168796, 2910913117, 2908947038, 2778202721, 2780365412, 2910913124, 2911109733, 2910061165, 2780430958, 2778333808, 174260850, 2780299902, 2781151872, 2780299905, 2778792578, 2910061196, 185926286, 2780955279, 2776236688, 2909799055, 2779382419, 202965653, 2777154197, 2777940629, 2777285272, 2909078165, 2777547418, 2780037786, 2910126741, 2777416354, 2777547430, 2776433325, 2777612989, 2778137277, 177865409, 2909078210, 2777678532, 2909930183, 2776826570, 146539212, 2777350860, 2910651086, 2910323407, 2778399450, 82641631, 8651493, 2781283050, 123273963, 2910061293, 2909143790, 2778792689, 2776236792, 2908685049, 2776302332, 2909078269, 2909799168, 42468098, 2777416452, 89916169, 2909340425, 2910257930, 2780758796, 2910716684, 2522874641, 131793682, 2777940757, 2911175447, 2779906846, 2778137379, 2781152039, 2776433454, 2781217586, 2777154362, 206111553, 2911044417, 2909668165, 2908816204, 2780955469, 2909864785, 2779448149, 2779448150, 2910913367, 2780037985, 2910454632, 2780562284, 2909143917, 2780496750, 2778071919, 2910847855, 37225329, 2910454647, 2781414266, 2779186046, 2908947327, 27853696, 2779513729, 56165258, 2909864873, 175768497, 76743606, 130679736, 2775843772, 2910651325, 2491326, 2778072000, 2910585801, 29688787, 2779120600, 2780496858, 2779317211, 2776171489, 2909275108, 2776892390, 2910782442, 2780824555, 2780627948, 2779055095, 2908816375, 2779775996, 2910520321, 2778203143, 20251656, 2777744392, 2779710473, 2778006543, 2778596372, 2780431383, 177669144, 123012128, 2780824610, 2910192676, 2778399782, 2775974952, 2908750889, 2776957994, 2909668393, 2909668398, 2910258234, 2780234812, 113706061, 8651855, 2779186261, 2779317333, 2779120738, 2776040547, 2778989668, 57476199, 2777351272, 2780038259, 2779055221, 2780103800, 2780955771, 2778727551, 2780955776, 2781283455, 2910913669, 2777810057, 2778858636, 2780890252, 90375314, 2778465436, 2909734057, 2778072234, 2780366003, 2778793143, 131138744, 2778531004, 2777482430, 15729860, 2778858694, 139265228, 2909865167, 2776958162, 2776892627, 2779317461, 2778399959, 2781414619, 2780300509, 2780103909, 2781349093, 2778072299, 2776761581, 183698672, 2780759288, 2909209853, 2908620032, 2910455041, 2779841796, 2775844104, 8979722, 2778334475, 2779120906, 2781283594, 113968399, 143590678, 70976792, 2910389531, 2776106272, 2911044897, 2777482532, 2778465573, 2776892710, 2780955941, 2910717222, 148374829, 2910061872, 2777023796, 2779972918, 2776302905, 146998594, 2776171842, 2778465605, 2780235077, 2777154897, 2776565077, 2911044959, 174982496, 2781283680, 2910717282, 2776106345, 2909865321, 2780890490, 106825092, 2779055493, 2910979460, 2778596745, 2779252107, 2777351567, 2776237456, 2779186577, 2909603225, 23332255, 2778400160, 112592302, 2776040879, 2778269102, 2780235182, 2909668786, 2776040883, 152110520, 2910520760, 2778793413, 2909078986, 2780562891, 2910520778, 2777220567, 196347352, 2781152736, 66520545, 2777286116, 2775975398, 2776434150, 2910979559, 37291498, 2909734381, 2908947950, 2909472238, 2777023991, 2781087230, 2779907587, 2910389767, 2776696333, 2776958478, 2909144591, 2910914061, 82183700, 2776368665, 2776106523, 2776237595, 2778334751, 2779121184, 2781152799, 2909275681, 2909341217, 2777286182, 2910389800, 2910455336, 2778793514, 2778990124, 2910389804, 2777810479, 2781283889, 2778793523, 2776237627, 176752191, 2777155141, 140117577, 2910783051, 2910193228, 3409486, 2909406799, 2780104272, 2778269268, 2776368728, 2776761947, 2909275743, 2908685929, 2778334829, 2909210223, 2909472367, 2909537908, 2910520953, 2908620412, 2908882559, 166397571, 2778596996, 2780366471, 2778531465, 2781021840, 2777089681, 2908685968, 2781021844, 2777089686, 2908554902, 2910127782, 187041448, 2909406889, 2776827564, 2777745069, 2777745080, 2780628665, 2909931192, 2910717625, 137627325, 2777614013, 2909537987, 2776106695, 2778597067, 2775910092, 2909079248, 158074577, 2779252433, 2780301010, 2779317972, 2780301011, 7407320, 2908554969, 2909734619, 8193761, 2909669089, 173803235, 2909144803, 8521452, 142083821, 2776172268, 2777351918, 2911110901, 2781087480, 2780890875, 2910914307, 2777220873, 62850831, 160106267, 59377437, 2777155358, 2778400541, 2909603615, 2778662690, 2780366628, 2910127911, 2910455596, 2910652207, 2778728240, 2910324532, 47056694, 2776893239, 2908817208, 2777417529, 2909013816, 2778072891, 2779842363, 2910062394, 2911176510, 74909509, 2908882759, 2909275977, 88016717, 2779121489, 2909013848, 2775844698, 2909276006, 2776958826, 2777155444, 2776303477, 2780890998, 155977592, 2909669253, 36964233, 2780366729, 2910979979, 2908555154, 2909669275, 2778466210, 7341990, 27396008, 2776827821, 2780891057, 2779252662, 2779383735, 2777679800, 2775910329, 2910717882, 2910390209, 2776369090, 2778073030, 2909800390, 2909997003, 64948172, 2909603797, 2778597338, 2779121626, 2909407198, 2910980067, 71829478, 2909013993, 2779777004, 2779580398, 2910980088, 2776631291, 122816508, 2909734909, 2909603838, 2908751872, 2776041477, 2779580426, 2778990603, 2781218831, 2909734928, 2909800465, 2910849039, 2779056147, 56952853, 191301653, 2779908123, 2779056158, 130287650, 2777352226, 2777417762, 2910324773, 2779252780, 2777548846, 2780104750, 2910586930, 2779187253, 2781087799, 2426938, 2908751931, 126093377, 2778007619, 2909276229, 2909145159, 2910521418, 2910128205, 2909603918, 76679254, 2908817495, 2909669468, 2779777117, 44107871, 2778531937, 2909210735, 2779908214, 2781218938, 2910259328, 2909014148, 2778728583, 2909014160, 2910914704, 9832595, 6162580, 195954836, 2778859668, 2910849172, 2909210776, 2779973787, 2910587037, 102107297, 2781153452, 74254510, 2910259375, 66324658, 2779646130, 2908883125, 2777614518, 2908686518, 2780170424, 197462201, 42404028, 2910718140, 2910521537, 2909014210, 2779777220, 2775845063, 2909669578, 2909669586, 2781219028, 2777942232, 2781284571, 2779121891, 2908948707, 2909276389, 2778400998, 2908817639, 2909079782, 2778532077, 161941745, 2777352433, 513476851, 2779711729, 2781087989, 2910193907, 2776631543, 2908686587, 502991105, 2780104962, 2910587157, 2910587160, 2910718239, 2780694816, 8784161, 2910652704, 2909276452, 2778007845, 2909538597, 2911176998, 2909341992, 2778532138, 2777483564, 2908752173, 2777745713, 2911111475, 2908948793, 155781438, 2909604158, 17172800, 2777024832, 2778794311, 2780498249, 2909145422, 2776238416, 2778597717, 195955031, 2779318624, 2780301668, 2909079918, 2910521719, 174459258, 2778859900, 5048701, 73009533, 2776762749, 2909866369, 2780760462, 2781022608, 2778139025, 99223954, 2776893843, 12847509, 2910783895, 134678942, 2778466722, 2780236201, 2779908522, 2779318699, 2910980524, 8718766, 2910194096, 2910325170, 2777876916, 2781284789, 2908948926, 2777549248, 2779253184, 2779646400, 2911046081, 2909997509, 2910259653, 2776828364, 2778335692, 2780236236, 2908752338, 2778204628, 2911177176, 2779777497, 40438245, 2778991078, 138873322, 2910718445, 116263406, 2910325231, 2909669872, 186518008, 2780957178, 2779253243, 2909145594, 2780498434, 120195587, 2780498440, 2778466831, 2909342225, 2779384338, 2910980626, 2908949014, 75368989, 2776304158, 119671327, 2777090595, 2909669934, 526584372, 189860405, 7146039, 2779908668, 2910325308, 2778335811, 52103748, 200215109, 35064395, 154602059, 2909801038, 2908949072, 2909669971, 2909080149, 2775976544, 2780498532, 2780760677, 2780826214, 2908883558, 2908752488, 2910259815, 2780039790, 2779974255, 122817143, 2909211255, 2776304256, 2781416072, 2908686987, 141363852, 2779384463, 2776697488, 2779318932, 2776566421, 100207259, 2778794651, 2776173214, 2777746085, 2777483942, 2779318953, 2776238763, 2779777708, 2778794669, 2779974317, 115346097, 2779384505, 2910063291, 113445564, 21957315, 163515075, 2780957381, 2776566471, 2909735642, 187632348, 34343649, 2908621539, 2778925797, 2780695269, 2909276904, 2776238826, 2780236525, 2777418479, 2777877232, 179833586, 2775976690, 2776042228, 2911046391, 2776369912, 2779056891, 187566844, 2779515644, 2780826366, 2777287423, 2910259973, 2777811718, 2779777798, 2781088518, 2910391049, 126749454, 2777287443, 2781219604, 527108885, 2910784278, 2909211418, 2909080349, 2910653213, 2777877281, 2909801250, 2777942821, 2777942826, 2910849840, 2910456628, 2779122487, 2778991426, 2776369991, 2779056968, 131140426, 2778598218, 119343949, 2909801294, 35785553, 2908752721, 2778401633, 2775976807, 2909473642, 523307889, 2778860414, 172034944, 2909604738, 2909801347, 2910129036, 2908949392, 2908752785, 127077266, 2778729363, 2779777945, 2909146009, 2775845787, 2777090975, 2779057060, 2908949413, 2908883878, 2910587818, 2909146037, 2780892088, 190712762, 49744831, 34868163, 206179267, 2776107976, 2775976905, 2776042442, 2910260169, 2776370125, 16124881, 204999636, 2781088732, 110758877, 2778794976, 2776566753, 2909735910, 2778336232, 2779581417, 2909408234, 92998641, 2776763380, 2779319286, 192351223, 2781350904, 2778270713, 2777025531, 2908818428, 2781023229, 2780433416, 2778205193, 2910522381, 2781088782, 155520015, 2909342735, 2909211665, 2781023255, 2779319320, 2777418782, 2777025580, 2908752941, 2908949552, 2908884019, 2909539381, 178195510, 2908752955, 2910850107, 2776632385, 2909932609, 2911046722, 2776829005, 2910129229, 2780302416, 2908884048, 2779188306, 121244757, 2779450455, 2909408347, 2780826716, 114494560, 2780564577, 2781219945, 2911177835, 2776501357, 2779188335, 2780695664, 2909736048, 116919411, 2780630137, 2780499067, 2778401919, 2780236928, 2779384962, 2910784643, 2778139780, 2910981251, 2777484424, 14814345, 2778270857, 2909932690, 2908949651, 2908687512, 2776763545, 2778074268, 2909605021, 2910194848, 2780695715, 67636389, 2777222312, 2781416619, 2779057330, 115477683, 2908622003, 2909342898, 2779778235, 2779909307, 2780499131, 2779778239, 2777943237, 2776239304, 2780695755, 2776239313, 2778926291, 2778860756, 2779319517, 2779909341, 2780499168, 2778729698, 2778336483, 2779188454, 2781416681, 2910915821, 2908622069, 2908753142, 2910915829, 141102330, 2776370428, 542903549, 2909867262, 2780630273, 70192387, 2777943302, 2780105995, 2778336525, 2909998350, 2909277456, 2776960273, 151260436, 2777681179, 2778664220, 2779516188, 2909146395, 140840227, 2908622116, 2781089062, 2776239401, 24972589, 14093617, 186191158, 2776370487, 2776763702, 2776304953, 2777484599, 2910719288, 2779778371, 2780368197, 2779647303, 2779647306, 2780171596, 2775846227, 2909998425, 203820380, 2776108384, 2776173921, 2780368226, 145558887, 2780040553, 2780302697, 2777025900, 2778402161, 2910457203, 2909605239, 2909801847, 2908622201, 2776894844, 147393917, 131665280, 2910522754, 2779450755, 2777812360, 95423882, 2780171668, 2779647382, 136449434, 2776632733, 2911112606, 2779385247, 2777877921, 2776436130, 2779450786, 2909736353, 2777288102, 2780564907, 2908622253, 125046197, 2909081016, 2781154746, 2777157052, 2909212092, 90770895, 2778205648, 2780761556, 10882517, 2777091541, 2777681368, 2778533338, 2776305115, 187960798, 2778729956, 97652199, 129437159, 2777812459, 2909670896, 2776370673, 2909408758, 2777615863, 2910785020, 2911047166, 2777615873, 85528070, 2778729991, 2780302854, 2911047177, 2781285907, 2910653973, 2909408791, 2909670936, 2910457371, 2780433948, 2777550365, 2909408797, 2777878052, 2908622374, 2780827179, 2780106285, 2777878062, 2776239663, 2779778607, 2909277742, 2910850605, 114691636, 2777615928, 2778074680, 3673659, 2775846464, 2776960578, 2908622408, 2908687945, 2779254346, 2909539914, 2909867593, 2776895053, 2780892749, 2909867595, 2778402387, 2909081172, 2909212245, 2910654035, 2776501849, 2910785118, 2780171871, 2780958309, 2910785126, 2778467961, 2780040827, 2909081213, 2776632958, 2780434050, 2909605514, 2780761739, 2778205836, 2776698514, 2776174234, 2780761756, 2777157280, 2908556961, 2781089442, 2777353892, 2908688039, 2779385521, 2910129844, 2909408951, 2778402494, 2908819134, 2778271429, 43060935, 2776633033, 2778468042, 2781417161, 2910785236, 2777747160, 2778926808, 2780303067, 2776108767, 2778599137, 2909671140, 2780237542, 2776436463, 2777485043, 2780892919, 2909146873, 12914427, 165220095, 2908622593, 39587587, 194973443, 2909081349, 2909802245, 2778926858, 2778664715, 62525196, 2777616141, 2779320081, 2908622614, 2778205975, 127078168, 2780040984, 2777091866, 2909933336, 191237925, 2781155112, 11472687, 57085743, 190385971, 2909474611, 2909146933, 2909540148, 2908753719, 2909015863, 2909278008, 2909736762, 2910719800, 2910719796, 2910326592, 2910261060, 2776371013, 2908622664, 49418065, 2777091921, 70913881, 2779058012, 125439840, 53940066, 2779123554, 2908688231, 2781089641, 2910523244, 2777550702, 13373296, 2776502132, 2777747321, 2778337148, 2778206077, 2909409151, 2778206080, 2780499841, 2910982019, 85004164, 2778402693, 2777223053, 2776960910, 2779058063, 2910850958, 115085202, 2777550742, 2910654363, 2909015964, 2778206117, 2909015974, 2778730409, 2775912362, 103813035, 2776174506, 2776371117, 86380466, 2779779000, 2776108986, 2909999035, 2780172221, 2777419714, 2908557252, 2909540293, 2776436680, 2777354188, 2909540304, 2910457814, 2778140631, 2779582425, 2776109025, 116592611, 135073763, 2908950501, 2781351911, 2779123688, 63180777, 2776109033, 2910588904, 2910982124, 2778075117, 2909999080, 2909605871, 2780106736, 110235638, 2780631030, 2779975672, 2910719993, 2777944059, 33230849, 2909278211, 2777747462, 2910654473, 529928208, 2777223184, 2910326800, 2910588946, 118493204, 2911178769, 2909016087, 2780434460, 2780041246, 2781024287, 2909081632, 2775978019, 133828647, 2779910183, 2776829999, 9506865, 2777288759, 2777223228, 2777026625, 28774466, 2778271809, 2909999176, 2910720072, 106434640, 54530129, 2776567890, 2909933650, 2909081684, 2777616469, 2780434524, 6492254, 2909147231, 2778075232, 136712289, 2778271842, 17502307, 2775847012, 2777813092, 2780368995, 2909999207, 2778271848, 144707691, 2777026668, 2910720111, 2777419892, 2781220982, 2780893303, 2779910283, 2910064783, 2776371345, 2909933713, 2780631194, 2909933723, 2776502428, 2910130331, 2777944223, 14356644, 2777944236, 2908688558, 2778861743, 2909409456, 10162356, 152572085, 2780500152, 2910916793, 2911178952, 2908688587, 2776043724, 2777813197, 2910785741, 2779779279, 2908885201, 2909868253, 32706783, 73470177, 2778534123, 2775912687, 2778271984, 2909999348, 33362165, 2778468602, 2775847163, 2777026814, 2777551103, 2909147399, 2909081869, 2910130447, 2908623121, 154145042, 2777616661, 2780303639, 2776699164, 2777944355, 2778337571, 2910982439, 2908688687, 2779975986, 2780827966, 2908754239, 2779124032, 2776699218, 2775847253, 2776043867, 116003164, 2908950880, 2780696933, 37097830, 2777878887, 2778993000, 95293801, 2910196075, 2910523756, 2780238192, 2909737330, 2777747828, 2778534260, 2779124084, 2781286774, 2780828045, 145822097, 2781286802, 2776895894, 2780434838, 2778534296, 2909082010, 2910523804, 2909999518, 2910982560, 2776830370, 2777944498, 2778272181, 2776306103, 2777747896, 2779713988, 2776961477, 2908950985, 100798922, 2778534349, 91754966, 123605464, 2780434908, 2778141155, 197071334, 78254567, 2910130665, 48632299, 2911113710, 2910654967, 103879163, 2776175100, 2909999620, 2775847430, 2776306185, 2777682441, 37753355, 2776502797, 2780631566, 178524689, 2777551382, 2910196247, 2778927644, 2910851616, 2775847465, 2777485865, 2779320873, 2780303919, 71635504, 2909999665, 2908885563, 2911179324, 2780238400, 2910130755, 2776633943, 2909606489, 193270364, 2778600029, 2908623468, 2778534509, 55775858, 41882227, 135139957, 2908754555, 2780566141, 2909868671, 2908623488, 2776175234, 2779517570, 2908623492, 2909016711, 2777092746, 2908623501, 2777289358, 2908623503, 2909475472, 2910065304, 122229402, 2780238495, 2778403493, 175182502, 113775271, 2775847590, 2776109735, 2777223847, 25498285, 2779714222, 551621295, 2909082288, 2781418162, 2910786226, 2779386548, 2780238520, 2780304057, 2776109754, 2911048386, 2909606595, 90378955, 2778141389, 7869135, 121246419, 73798356, 2910851796, 2909410006, 2777813720, 2910524122, 2777551583, 2776175330, 2781352674, 2909147877, 103486182, 2910720746, 2778600172, 2777748206, 2910261998, 2778993397, 2780762869, 2909344506, 2775913212, 2781025020, 2777748223, 2910327552, 2781418243, 2776699657, 2778534666, 29561615, 2777289489, 2777092883, 2780959517, 57742111, 180032290, 2908689187, 2909016868, 2779648807, 2777617192, 2910589737, 2909213482, 2910130992, 163713842, 109384507, 2779583294, 2777682752, 2779321154, 53875530, 2779190097, 2778207058, 2778993495, 2911179607, 88675164, 2779976542, 2911179620, 2910196583, 2909999976, 2909541227, 2777355116, 188945261, 2778796910, 2909082478, 2776109941, 2778010489, 160306043, 2780631933, 2778076030, 2909868925, 2910000000, 15471489, 2779059073, 2910000002, 2909606788, 2776175493, 2779714439, 175969161, 181080969, 2776765323, 78254988, 2779517838, 2910851985, 2777420699, 2779583389, 2779845534, 2909410209, 2781221799, 2778600374, 2780763067, 2908623805, 2910458818, 2909803459, 2777158596, 2778862538, 148968398, 2777879506, 2779780051, 2910983122, 2908689371, 2909410280, 2780500969, 2910262250, 2779780077, 2781090800, 197268465, 2777682930, 2780238834, 2776175608, 2910000129, 2776110084, 2776110085, 2910786564, 2777355271, 2781352967, 2910852105, 2909410314, 2908623884, 2778076174, 2779714575, 2908623891, 2909738003, 2908754965, 2910655518, 2780042274, 2776437795, 2779976743, 2776896556, 2777158700, 2780304432, 2781090866, 14029885, 2778338367, 557651011, 2909082692, 2779321416, 2779190346, 2910852173, 2908886097, 2910393425, 2779845715, 2909082709, 2779452502, 2780632150, 2779190360, 133239900, 2780763229, 2910786653, 187765855, 2908755045, 2911179879, 2910852199, 2778993773, 2777617518, 179639408, 2909017200, 46797941, 2910393468, 2777420927, 2779124865, 2910000266, 168563851, 2780959883, 2910721166, 37754001, 2779911313, 100406419, 2909803667, 2776306840, 2908886174, 2909017246, 2909082789, 2908755113, 2911048874, 2778404011, 2778141868, 2780107948, 2778207410, 2910917812, 2776634555, 2776634560, 2778731716, 2779518148, 2778141896, 2908755146, 2909541580, 518460624, 2776175824, 2781156571, 2908689634, 2778010851, 2909934819, 2778928357, 2776241388, 56366318, 2778535154, 2777814262, 2775848184, 2779256057, 2778666239, 2776634624, 2910983431, 2781025544, 2910065935, 146543888, 2910262544, 2777945365, 2909082902, 2910328095, 118232355, 78976303, 2778010927, 2778076468, 2779714868, 2909803828, 2781156664, 2910131515, 2779911484, 2909476164, 2779911496, 2779125066, 2779321674, 2776372563, 2780960084, 2909410647, 2778010969, 2780829020, 2908755292, 192091488, 2910131554, 2910393698, 2776438120, 2780829032, 2779714933, 2777617796, 2909345156, 2909410694, 2910655878, 2777683338, 2778731914, 2781418897, 2909934999, 2776176026, 2778273184, 2777683361, 2909345187, 2908689829, 2778469799, 2908624301, 2779911601, 2780304817, 2780763569, 2909279666, 37557685, 2778011067, 2778994108, 42407357, 2780566971, 2776962512, 2779321808, 2910000593, 2780566999, 158471640, 2781287897, 2909148633, 2908886491, 97785308, 2781025758, 2779583969, 2908624353, 2778994148, 2779452902, 2911114726, 2776962539, 2775848428, 2909935085, 2779583982, 2909738485, 2909869565, 2780435969, 2781156865, 2910328324, 2910983684, 2781091344, 2910721555, 93984277, 2910131736, 2909148701, 2779911711, 207951395, 40506919, 2908624440, 2778601017, 2909476417, 2780370499, 2781222467, 2779190853, 2781353541, 2908689992, 115086926, 2909279822, 2911049295, 2909214290, 2779518551, 2911114841, 118494813, 2910328414, 2908821087, 2910590557, 2779387492, 2778338918, 2780501606, 2776372842, 137762411, 2778797674, 2910459502, 2778994288, 2908886640, 2910197365, 175773311, 72423040, 2781025919, 2780829314, 2909017731, 2780567172, 26809991, 2909607560, 2775848585, 2780567184, 2910131856, 2776503955, 2778338976, 2910394017, 2780632750, 2911049392, 205854390, 2777028278, 2780370617, 2776962759, 104863432, 2908755655, 2909935303, 56432331, 173283019, 2780632789, 2780108502, 2910459608, 2776045273, 2777224922, 2776831707, 2777487068, 2776307423, 79959777, 49878776, 188618488, 2909476600, 2777618171, 2780894973, 2910918399, 2781222656, 2908559106, 2910918403, 2910000901, 20387591, 2910983944, 2778994441, 2911049483, 160110348, 2777814797, 2776635150, 2779649809, 111023892, 2775848727, 2781419290, 2776045340, 2909345572, 2776373030, 2777356073, 2910197546, 2780829489, 2776766258, 2777683767, 27924281, 2778208062, 2779846462, 2778470209, 113514311, 2777093960, 2777683783, 2776700747, 2781419344, 2777093970, 2908690268, 2909280095, 18880352, 145430368, 2776373090, 2776045411, 2911049572, 2778535784, 201267052, 2777159539, 2909935476, 2909149047, 2779977602, 88020867, 162666371, 2779322244, 2910328709, 2779060110, 2778077071, 2780043152, 2779387793, 2777028498, 38606739, 2780698514, 2908690325, 2909017999, 2909804439, 2781288345, 2780829607, 2911180711, 2780829609, 2910001071, 45946802, 2909280193, 2779715522, 2777356233, 117643217, 127801297, 2910722001, 2777421782, 2778470358, 2781353949, 2909345759, 194058213, 2780764133, 2778339303, 2909935589, 2776438761, 2909083626, 2909345776, 2776176627, 2780502008, 2776700923, 131667965, 2780305405, 2780436477, 2910590975, 2909280258, 156833797, 2910197767, 81729549, 143661069, 4134927, 2908887053, 2775914520, 178853913, 2776045599, 2779912225, 2777552930, 2911049763, 2777421860, 2776307749, 2777028646, 2909804582, 2779387952, 2909018163, 2908624950, 2910984248, 22222904, 2775849017, 2909804602, 2910853177, 2909280317, 150149183, 2779846724, 2777946188, 2911115350, 2780567641, 2776504411, 2910132316, 11671645, 77076574, 2779453535, 2778470496, 2910197856, 2780108899, 2779256933, 129374314, 60627051, 2911115370, 5970030, 29694066, 2778732662, 141105273, 2909870204, 2777553025, 2778011777, 2910394502, 2776766599, 2909018248, 2909411463, 2775980177, 2781223058, 2909739154, 2779977878, 2776176791, 2909214880, 2777094313, 2910984364, 2910722220, 2908690606, 2776242352, 2780829873, 2908952752, 2776701107, 2911049907, 2911115442, 2776897722, 2776963261, 2909411517, 20256973, 2781157581, 2908887249, 2911115477, 2908559583, 2781026528, 2781092067, 2781354215, 2910263532, 2775914734, 2780895475, 2780895476, 2910066932, 2909739256, 2909411579, 989437, 2778142974, 2776832255, 2910132479, 2909149441, 207886595, 2910066949, 2780829959, 90642696, 134093067, 2777618700, 2776045837, 62724370, 2778863898, 2909870366, 2780567839, 2781288737, 172497186, 2910591265, 2778863912, 2778143017, 2779126056, 2780240169, 2776176941, 2909083950, 178592051, 2778732851, 2777880890, 2910787902, 202119489, 2778143042, 2910067010, 2909542726, 2778667336, 87234903, 2776045914, 2779978075, 2910329180, 2910787933, 43587935, 2775980384, 2910722407, 2778143080, 2038122, 2909542764, 2909084013, 2778995054, 2777749871, 2910132600, 2910132601, 52697466, 155392382, 2778405248, 2911181187, 2778536324, 2780764554, 2910001548, 180361614, 2777553296, 2908821904, 8264082, 2778208658, 206772628, 2778012055, 2779912601, 2778208673, 2909477290, 84613547, 2910132651, 2908559789, 2778536371, 2776439223, 99752389, 2779453894, 2780043718, 2775849417, 29694410, 2777553358, 2780961231, 2777160144, 2779388368, 2910525902, 2777422296, 2779650520, 2779912665, 2781419993, 2908953049, 165616093, 2909870554, 2777225697, 2776832483, 2778864100, 2780371428, 2780699112, 2776111594, 2779781611, 2781223406, 2776111603, 2777553398, 2909411830, 2775915008, 2776046087, 2908756492, 2910853649, 68557331, 2908953109, 2909542953, 2778143274, 2777029164, 2909870636, 2781289014, 2780109367, 2908822073, 2777422395, 2909346370, 2779060814, 2776832592, 2779126354, 2777422422, 2908887638, 2909542999, 2779257441, 2779978343, 2910198379, 2781223538, 2910853750, 33364599, 2779650682, 2780174970, 2778012290, 121117317, 162863750, 2780895877, 555293320, 2778274448, 2908691089, 2780764818, 125311645, 2909739679, 2910853791, 10885799, 2910722728, 2909477551, 2910460592, 51911345, 2775980723, 2779323059, 2910067383, 2781223611, 2775849661, 193206974, 2909477570, 2776046275, 2778012357, 1448646, 203233990, 2778995398, 154606282, 2908625612, 2778077901, 2908691150, 2776111823, 2780043985, 201923286, 2778405590, 2779060952, 2779912925, 2909280995, 2779978487, 2780109559, 2780175098, 2779847420, 2779519742, 47323905, 2775849729, 2777160453, 2910657287, 2778733324, 2780437262, 104471311, 2908887829, 2777094939, 2781289246, 197270303, 56302369, 2909805348, 2779061029, 2909477669, 2776570665, 2780371755, 2779847468, 2910133037, 2777619251, 49290038, 2779388726, 2780437304, 55450435, 2910198599, 102570824, 2778012502, 2775915353, 2781223772, 2776636253, 155261790, 2781092707, 2909215587, 2775915366, 2910002025, 2778930028, 2775915377, 2780568436, 2781289335, 2779782008, 2778602366, 2776832895, 2779126656, 2780306303, 144382850, 2909412227, 519248777, 2777815949, 2776308622, 2781158288, 14883731, 205003668, 2776767379, 2908691347, 2781092759, 2777357209, 2779519902, 122428330, 2779650986, 2910591919, 2776439734, 13245373, 2909477825, 103488450, 2777095108, 172235718, 2777422794, 2909805516, 2777422806, 16587737, 2910264285, 6757342, 2910788575, 2909346784, 2781223905, 2781289450, 536681454, 2909871090, 2780240888, 2778078201, 2781223928, 2779716603, 2780634109, 2778471422, 2910723071, 2777750529, 2779192323, 2776833033, 2776833037, 2777029650, 2776112149, 2910198813, 2780306465, 2776767524, 2779192358, 2909412390, 2779454504, 200678441, 2778405929, 2910592051, 2776046644, 2777226302, 2908757056, 2777553985, 2909609026, 2910460993, 2781355080, 8330315, 2776702029, 2780437581, 2777160784, 152443987, 500440147, 2780044377, 2781092957, 2781027423, 2781092963, 2776570981, 185867374, 2777160814, 184753264, 2775981168, 2908560496, 80944243, 2910461042, 188947578, 2777750650, 2908953726, 2909019263, 499784838, 2909019274, 2908888204, 2779126938, 2781355164, 2779913379, 2909346979, 2776636583, 129047720, 2775850156, 2779651244, 2779192497, 2776898743, 2778930362, 2777488582, 2778143943, 71376074, 2776767690, 113646796, 2779389132, 2779389133, 2909084885, 2777816278, 2779454681, 2775850206, 180296930, 192421092, 2909150453, 188816634, 2780372218, 2777423100, 2779192573, 2910330113, 2776112390, 5512455, 2908560648, 2780830986, 2778864907, 7806222, 2779520277, 2776636696, 2778275096, 2911182112, 2777423138, 2777160999, 156310829, 2910068015, 558898480, 2910264628, 89267518, 2777226563, 2777619780, 2780634440, 2908560713, 2778144076, 2910199120, 2909216081, 2909150547, 2779454807, 2780306776, 40312155, 2776046940, 2776505691, 2777292125, 2779192670, 2910264669, 201792869, 2909609317, 200220013, 2779979121, 2780700022, 2910199163, 164699527, 178855305, 162536842, 2778996113, 2909937042, 2909674901, 2910526869, 2908560794, 2910199195, 2778340768, 2776178081, 2910592416, 2909674915, 2911051176, 2780175798, 543890873, 2778734009, 2780110267, 2775981500, 2778013117, 2910264766, 2779585989, 2777030092, 2908626383, 2779520467, 2776964564, 81862102, 2779979230, 12590561, 2909216229, 2778406374, 2777882087, 2778275304, 2779717098, 2777095659, 2910002668, 2908626413, 2776309230, 2779258352, 2776243700, 2779913722, 2910723583, 2780962315, 2910461455, 70917649, 2778930706, 2778013207, 196156954, 2779520540, 2776768029, 2779192864, 2910854689, 139730468, 124722728, 134290984, 2910133801, 2781290027, 2777751087, 2778340925, 2911116868, 2776309324, 2779061837, 2781355599, 2781027925, 41426520, 2909544025, 163716698, 172105316, 2778996325, 108797546, 2780307058, 2908823155, 2909806198, 2778668663, 2909347448, 2908954234, 2780372603, 2776768124, 2777882243, 2910723730, 2909675155, 58793620, 2778472085, 2779324052, 13311642, 2780831388, 2775850654, 2776243873, 2910199465, 2909544108, 2776571570, 2777226933, 2777882293, 2909019831, 2911116982, 120069818, 514793146, 2778209978, 2908626632, 2776178377, 2776178378, 2778799817, 2779717322, 2777226972, 97001182, 2781028063, 2908823264, 2776571617, 2778406628, 2775981797, 2908823279, 2910330609, 2777751282, 2777751288, 2909478654, 42475264, 2777685762, 2778013446, 2779717382, 2909216521, 2909216522, 2778930955, 2781290252, 2779455247, 2910461712, 168763156, 509026070, 57089818, 135798562, 2780831525, 2909871909, 2776637226, 102309675, 2776112939, 2776244011, 2909937456, 2776964913, 2779127605, 142876473, 2909019963, 2910003003, 2778013503, 2779127617, 2781093698, 2777358149, 2909085511, 178921289, 2909347662, 1122143, 2778275680, 2778996579, 2779651940, 2908954468, 2910855011, 2776047466, 2911051628, 2778341247, 2779258753, 2781093762, 133570447, 2779193238, 98246554, 2908954532, 2780569511, 2775916456, 2780241833, 2909937578, 2778537899, 2780962732, 41623484, 2908757948, 2909151167, 199106506, 2909347786, 154148813, 2778079182, 2779652045, 2776768464, 129900496, 2779717584, 2780110798, 2909151182, 2909413335, 2909413336, 2909478873, 2775982045, 114565086, 2909806565, 2910068711, 2778537969, 2777227250, 165617652, 196419574, 2776113144, 2909020152, 2910265338, 2775851010, 2910658566, 92020748, 201662476, 2776309775, 2779783198, 2910330911, 2908758051, 2909020202, 2908954671, 2777292849, 2776309818, 2778996794, 2910724155, 2777423934, 2778341440, 2781093953, 2779127879, 2779193416, 509550671, 2781159505, 2777489490, 2778538070, 2778210392, 2910003292, 2780373086, 2780438623, 2780831840, 2910068830, 2911117412, 2780962921, 2778144876, 2910265453, 2778538096, 16851059, 2776703092, 2908561527, 2777686142, 85663871, 2780504191, 2778931329, 2777161859, 2780045450, 33235085, 2909413520, 2909479059, 2909544596, 2909806749, 2779652256, 2910986406, 2779390119, 2778210472, 2777292972, 2910658733, 2778996910, 2909741232, 2778865844, 2778013878, 2909675713, 22814914, 2780176578, 2908627140, 2778144972, 2775982285, 2780635341, 2781421772, 2909675724, 2908561617, 49815771, 2908758235, 2778865887, 2779390175, 2910003425, 2776899810, 2910396643, 2781094116, 2910855392, 2780307688, 2910396648, 2909217002, 2910003435, 70983919, 2910658799, 171122931, 2780504313, 2776310010, 2908758277, 2908823819, 2779914510, 2776703255, 51257634, 2910593315, 2908954928, 2910462257, 2776310068, 2779455797, 2910396726, 2909741370, 12722491, 2776244541, 2911117634, 71246147, 2779783494, 21963081, 2779914569, 2910921039, 2778341716, 97329493, 2910331221, 2779324764, 2910134620, 2780045663, 2780832096, 525541732, 2778079588, 2780766565, 2775982439, 82714985, 2910724458, 2780897648, 2779324785, 2908561783, 2778734968, 2908955001, 2776572282, 3875195, 2909282682, 2779324797, 2776703358, 121446783, 2779324799, 2780045698, 2908627335, 2777489803, 159654299, 39133596, 2909282718, 2780635560, 39920043, 2780438955, 2909020593, 19210678, 83042744, 2779062720, 2779390400, 2777031107, 2778341832, 2778931659, 129573333, 2778931672, 2910331354, 2910724571, 2780963292, 2780504541, 2777096672, 2776179171, 2781028839, 2780963305, 147268084, 2780307956, 2910134782, 198451711, 2777031167, 127607297, 2911117829</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Obstructive hydrocephalus', 'Ligation', 'Carbachol', 'Anal cancer', 'Mandible Fracture', 'Cystic duct', 'Leukocytosis', 'Neurotropic virus', 'Eosinopenia', 'Frail Older Adults', 'Damage control surgery', 'Cutaneous lymphoma', 'Pediatric oncology', 'Intracranial lesions', 'Meal replacement', 'Popliteal aneurysm', 'Influenza A virus', 'Hydropneumothorax', 'Coated vesicle', 'Chronic gastritis', 'Lobeline', 'Butorphanol', 'Blood parasites', 'Exudative age-related macular degeneration', 'Cardiac abnormality', 'Piriform sinus', 'Aggressive angiomyxoma', 'Airway obstruction', 'Cardiac muscle cell', 'Hydroxycarbamide', 'Osteolysis', 'Radiostereometric Analysis', 'Possible diagnosis', 'Glutaminase activity', 'High recurrence rate', 'Central sleep apnea', 'Selective internal radiation therapy', 'Laquinimod', 'Cervical adenocarcinoma', 'Citicoline', 'Cloprostenol', 'Prolonged labour', 'Apolipoprotein C2', 'Environmental medicine', 'Sputum', 'Neuroectodermal tumor', 'Fenbendazole', 'Lateral incisor', 'Dental Pulp Capping', 'Beta thalassemia', 'Transplacental', 'Topical medication', 'Electrophysiologic study', 'Polysaccharide Vaccine', 'Prehensile tail', 'Cholescintigraphy', 'Urinary diversion', 'Androgen Receptor Antagonists', 'Marfan syndrome', 'Orchiopexy', 'Heat therapy', 'RESPIRATORY DISTRESS SYNDROME NEWBORN', 'Capsulitis', 'Supine position', 'Encephalization', 'Brachial plexus', 'Fine-needle aspiration', 'Left shoulder', 'Rivaroxaban', 'Regimen', 'Verapamil', 'Carcinoid syndrome', 'Prostate biopsy', 'Neuroprosthetics', 'Tolterodine', 'Root Canal Obturation', 'Ventricular extrasystoles', 'Hierarchy of evidence', 'Respiratory tract', 'Nuremberg Code', 'Radioimmunoassay', 'Granulocyte colony-stimulating factor receptor', 'Drotrecogin alfa', 'Clobetasol', 'Drug discovery', 'Dermal papillae', 'Peripheral chemoreceptors', 'Parasitiformes', 'Retinal damage', 'Lumbar lordosis', 'Peripheral Primitive Neuroectodermal Tumor', 'Stressor', 'Tropomyosin receptor kinase B', 'Needle exchange', 'Metastatic lung cancer', 'Preimplantation Embryos', 'Laparoscopic radical nephrectomy', 'Birth weight', 'Four-Dimensional Computed Tomography', 'Mometasone furoate', 'Asthenozoospermia', 'Vibrio anguillarum', 'Finger injury', 'Hypophagia', 'Classification of obesity', 'Allotype', 'Scanning ion-conductance microscopy', 'Pericardiocentesis', 'Pseudoscience', 'Prothorax', 'Poliomyelitis vaccine', 'Lectin', 'GPR119', 'Warfarin', 'Human nutrition', 'Mucosal disease', 'Corneal abrasion', 'Bassinet', 'Phagocytic index', 'Auricular cartilage', 'Cortical spreading depression', 'Geriatric psychiatry', 'Frailty syndrome', 'Cytochrome P-450 CYP3A', 'Azathioprine', 'Group-specific antigen', 'Overeating', 'Decompression sickness', 'Periodontal Membrane', 'HT29 Cells', 'Receptivity', 'Hemodynamically stable', 'Pain tolerance', 'Trough level', 'Positional Nystagmus', 'Myofascial pain syndrome', 'Mephedrone', 'Colonoscopic Polypectomy', 'EQ-5D', 'Mean difference', 'Photostimulation', 'Total energy expenditure', 'Pharyngeal Diseases', 'Weight for Age', 'Vitreous humour', 'Perineural invasion', 'Papilledema', 'Endometrial cancer', 'Median follow-up', 'Geriatric Depression Scale', 'Chloral hydrate', 'Vena porta', 'Retinyl acetate', 'P70-S6 Kinase 1', 'Tetanus', 'Heat illness', 'Berylliosis', 'Normal heart', 'Current Procedural Terminology', 'Pubertal stage', 'Cromakalim', 'Mitotic cycle', 'Senile plaques', 'Scoliosis', 'Ouchterlony double immunodiffusion', 'Prophylactic Oophorectomy', 'Trisomy 8', 'Blinded study', 'Sucrase', 'Benzethonium chloride', 'Repeat Surgery', 'Mirizzi Syndrome', 'Exodermis', 'Tocolytic agent', 'Neuroinflammation', 'Anisometropia', 'Retinal regeneration', 'Rehabilitation engineering', 'Horseback riding', 'Marital problems', 'Binge-eating disorder', 'Rectal prolapse', 'Emergency Caesarean Section', 'Japanese Medaka', 'Medial part', 'Nodular sclerosis', 'Internal carotid artery', 'Interleukin 25', 'Inferior epigastric artery', 'Laboratory safety', 'Miglitol', 'Argon plasma coagulation', 'Hip joint prosthesis', 'Systemic therapy', 'Daidzein', 'Brain abscess', 'Lipid Metabolism Disorder', 'Pancytopenia', 'Histocompatibility', 'Phlegmon', 'Biorhythm', 'Hyperventilation syndrome', 'NHANES III', 'Not Otherwise Specified', 'Osteoradionecrosis', 'Invasive pulmonary aspergillosis', 'Danazol', 'Aconitine', 'Common variable immunodeficiency', 'Cardiomyoplasty', 'Betacoronavirus', 'ACTH receptor', 'Internal carotid artery dissection', 'School refusal', 'Accidental fall', 'Birthmark', 'Growth differentiation factor', 'Acute tubular necrosis', 'Lumbosacral spine', 'Antithrombins', 'Clonidine', 'Intravoxel incoherent motion', 'Xeroradiography', 'Gastrinoma', 'Psychopathology', 'Cholestanol', 'Ventral hernia repair', 'African trypanosomiasis', 'Hematometra', 'Blood Disorder', 'Spiroplasma', 'Cervical spondylopathy', 'Stellate ganglion block', 'CDF-based nonparametric confidence interval', 'Brachytherapy', 'Fractional anisotropy', 'CADMIUM EXPOSURE', 'Adrenal Hemorrhage', 'Pentosidine', 'Rheumatic carditis', 'Virus', 'Motilin', 'Porphyria', 'Endothelin 3', 'Erythema chronicum migrans', 'Electrolyte imbalance', 'Reverse vaccinology', 'Rimonabant', 'Hemoglobin E', 'Spectrum disorder', 'Echogenicity', 'Intraoperative care', 'Pulsatility index', 'Axis deviation', 'Platelet-activating factor receptor', 'Abnormal results', 'Aggression', 'Triptorelin', 'Resuscitation Orders', 'Exhaled breath condensate', 'Augmentation Mammoplasty', 'Congenital lobar emphysema', 'Shoulder Prosthesis', 'Ascites', 'Pain disorder', 'Tissue Degeneration', 'Genetic discrimination', 'Surgical Staplers', 'Aortic valve stenosis', 'Mycoplasma hominis', 'Numeric Rating Scale', 'Interference theory', 'Anterior temporal lobectomy', 'Interleukin-13 receptor', 'Psychosomatic disease', 'Urination', 'CYP24A1', 'Bacterial circadian rhythms', 'Senile osteoporosis', 'Lymphoproliferative disease', 'Energy homeostasis', 'Breast pump', 'Synthetic drugs', 'Calmodulin', 'Coxsackievirus', 'Olfactory bulb', 'Peramivir', 'Dalteparin sodium', 'Leukocyte Rolling', 'Urokinase', 'Infant bed', 'Lymphadenectomy', 'Advanced trauma life support', 'Stethoscope', 'Arterial pH', 'Melioidosis', 'Stretching exercises', 'Nedaplatin', 'Glycolysis', 'Vagina', 'Pseudobulbar palsy', 'Acoustic trauma', 'Membranous labyrinth', 'Opisthorchis', 'PAH clearance', 'Endothelial stem cell', 'Brachioradialis', 'Diabetic Eye Disease', 'Synaptic pruning', 'Toxascaris leonina', 'Heart Function Tests', 'Cordectomy', 'Orbital Diseases', 'Diskectomy', 'Modified Radical Neck Dissection', 'Cancer prevention', 'Bandicoot', 'Sensory substitution', 'Glucuronide', 'Inverted papilloma', 'Familial hypercholesterolemia', 'Limulus amebocyte lysate', 'Chorioretinitis', 'Renal sodium reabsorption', 'Zollinger-Ellison syndrome', 'Enterostomy', 'OLIG2', 'Multiple endocrine neoplasia', 'Abdominal pain', 'Bacillary dysentery', 'Mouthpiece', 'Atypia', 'Surgical blade', 'Zopiclone', 'Prescription drug', 'Ticagrelor', 'Adoptive cell transfer', 'Progeria', 'Giraffa camelopardalis', 'Dissociative Experiences Scale', 'Cytopenia', 'Regurgitant fraction', 'Completed Staff Work', 'Urinary incontinence', 'Peripheral edema', 'Progenitor', 'Nuss procedure', 'Distress', 'Individual risk factors', 'Diabetes insipidus', 'Insufflation', 'Mycobacterium phlei', 'Technostress', 'SERCA', 'Infundibulum', 'Neurooncology', 'Docosapentaenoic acid', 'Scrophularia ningpoensis', 'Cortisone acetate', 'Behavioral medicine', 'Magnolia officinalis', 'Losartan Potassium', 'Virus maturation', 'Severe Malaria', 'Plexin', 'Phenylbutazone', 'Griess test', 'Spinal cord injury', 'Urachus', 'Mind-wandering', 'Somatic evolution in cancer', 'Latency stage', 'Boundary cell', 'Pes planus', 'Foramen magnum', 'Coronary sclerosis', 'Atorvastatin', 'Breast lumps', 'Youth sports', 'Thyrotoxic periodic paralysis', 'Mycoplasma pneumoniae pneumonia', 'Behavioral activation', 'Laser Angioplasty', 'Trichomoniasis', 'Graft-versus-host disease', 'Chondrosarcoma', 'Viral tegument', 'Benznidazole', 'Pleuropneumonia', 'Benzocaine', 'Dysmetria', 'Dermatobia hominis', 'Oral Hygiene Index', 'Reality therapy', 'Visual field test', 'Ankle instability', 'Chronic venous insufficiency', 'HYPERTENSION PORTAL', 'Vaginal fistula', 'Leukemia inhibitory factor receptor', 'Oxygenator', 'Orthopedic Procedures', 'Micronutrient deficiency', 'Bullous pemphigoid', 'Toxoid', 'Interleukin 27', 'Botulism', 'Ecdysterone', 'Fear-potentiated startle', 'Hydrothorax', 'Excitatory postsynaptic potential', 'Cancer Medicine', 'Coronary steal', 'Decitabine', 'Nutrition counseling', 'Canine distemper', 'Cell-free fetal DNA', 'Cocaine users', 'Phenobarbital', 'High frequency oscillatory ventilation', 'Aortic sinus', 'Rotavirus vaccination', 'Dermatophyte', 'SH3 domain', 'Mouth breathing', 'Robust confidence intervals', 'Flunarizine', 'Survivin', 'Spontaneous remission', 'Reproductive hormones', 'Ontogeny', 'Partial laryngectomy', 'Arterial blood gas analysis', 'Obscure gastrointestinal bleeding', 'Merozoite surface protein', 'Marsupialization', 'Glucuronidation', 'Enterovirus Infections', 'Mesenteric ischemia', 'Thrombopoiesis', 'Splanchnic Circulation', 'Penile Carcinoma', 'GRB10', 'Retroperitoneal fibrosis', 'Abortifacient', 'Joint pain', 'Malleolus', 'Erythema', 'Adjustment disorders', 'Congenital Rubella', 'Prolonged fever', 'Management of depression', 'Small intestinal mucosa', 'Toxicology studies', 'Pharmaceutical Benefits Scheme', 'Research Diagnostic Criteria', 'Mouse Leukemia', 'Hagfish', 'Diabetic ketoacidosis', 'DESOXY', 'SF-36', 'Cardiac skeleton', 'Eye examination', 'Nursing Interventions Classification', 'Narcotic analgesics', 'Antifibrinolytic agent', 'Pentose phosphate pathway', 'Cartilage transplantation', 'Hypophysectomy', 'Venography', 'Human T-lymphotropic virus', 'Carotid ultrasonography', 'Self-Help Devices', 'Heart abnormality', 'Mohs surgery', 'Comfort care', 'Retinal perforation', 'Balanced Anesthesia', 'Diagnostic Specificity', 'Delayed Graft Function', 'Facial nerve palsy', 'Vascular tissue', 'Polymicrogyria', 'Primary biliary cirrhosis', 'Exercise-induced asthma', 'Daunorubicin', 'Young Mania Rating Scale', 'Abnormal PAP Smear', 'Prostaglandin F2alpha', 'Mandibular canine', 'Hemorrhagic Fevers', 'Upper abdomen', 'Baculum', 'Continuous ambulatory peritoneal dialysis', 'Subcutaneous abscess', 'Continuous performance task', 'Dimethylhydrazine', 'Digitoxin', 'Bladder Pain Syndrome', 'Registered dietitian', 'Etiology', 'Evidence-based dentistry', 'Birch pollen', 'Pericardiectomy', 'Inguinal lymph nodes', 'Acetylcholine', 'Degenerative Disorder', 'Midkine', 'Intraventricular hemorrhage', 'Parasitic disease', 'Suprachiasmatic nucleus', 'Alveolar mucosa', 'Properdin', 'Permanent tooth', 'Pediatric clinic', 'Magical thinking', 'Memory training', 'Guanylate cyclase', 'Dental Plaque Index', 'Connectionism', 'Chewing tobacco', 'Burning mouth syndrome', 'Reverse-transcriptase inhibitor', 'Skin Cancer Prevention', 'Sperm', 'Hexestrol', 'Classical Hodgkin lymphoma', 'Endolymphatic sac', 'Psychometry', 'Deuteronomist', 'Mucous membrane of nose', 'Cyproterone acetate', 'Cucurbita moschata', 'Arterial grafts', 'Spatial ability', 'Rowing', 'Eicosanoid Production', 'Cocaine abuse', 'Secondary Infections', 'Trandolapril', 'Neuronal Growth', 'Chronotype', 'Social isolation', 'Subcutaneous nodule', 'State-Trait Anxiety Inventory', 'Pelvic region', 'Dermatome', 'Cucumovirus', 'Necrotizing pancreatitis', 'Endoscopic Procedure', 'Gerontology', 'Tissue Preservation', 'Juvenile nasopharyngeal angiofibroma', 'Opioid peptide', 'Anodontia', 'ENT department', 'Pneumocephalus', 'Bilateral Nephrectomy', 'Diastasis', 'Pharyngeal arch', 'Electron beam tomography', 'Neonatal cholestasis', 'Stereo microscope', 'Tibial tuberosity', 'Verbal reasoning', 'Oligoarthritis', 'Ergotamine Tartrate', 'Mouth neoplasm', 'Juvenile onset', 'Germinal epithelium', 'PPAR agonist', 'H antigen', 'Ataxin', 'Vaginal fornix', 'Adipokinetic hormone', 'Sulfasalazine', 'Axillary nerve', 'Cystectomy', 'Mercury column', 'Localized Scleroderma', 'Thebaine', 'Timolol', 'Dendropanax morbifera', 'Allergic symptoms', 'Brain stimulation reward', 'Somatotypes', 'Trier social stress test', 'Growth hormone secretagogue', 'Blood vessel walls', 'Angiotensin I converting enzyme', 'Immunoprecipitation', 'Incised wound', 'Pseudoephedrine', 'Positive affectivity', 'Epidemic Keratoconjunctivitis', 'Nephropathia epidemica', 'Medical psychology', 'Cigarette use', 'Resident physician', 'Congenital Neutropenia', 'Locust', 'Calycosin', 'Laminotomy', 'Renal agenesis', 'Foreign Body Removal', 'POLYGONUM CUSPIDATUM', 'Cold Agglutinin', 'Immunosenescence', 'Histone-modifying enzymes', 'Rational analysis', 'Insulin aspart', 'Peritoneal dialysis', 'Growth factor receptor inhibitor', 'TBARS', 'Joint replacement', 'Tubercidin', 'Antipyretic', 'Urine cytology', 'Involuntary treatment', 'Second rib', 'Xanthurenic acid', 'Renal biopsy', 'Medical prescription', 'Proto-Oncogene Proteins c-ret', 'Oxoglutarate dehydrogenase complex', 'Intraocular lymphoma', 'Hip implant', 'Blast Crisis', 'Adrenodoxin', 'Water-Electrolyte Balance', 'Malacoplakia', 'Context-dependent memory', 'Neglected Disease', 'Herpes Zoster Vaccine', 'Scapula', 'Interpeduncular nucleus', 'Demyelinating disease', 'Collateral vessels', 'Crime of aggression', 'Fibrocartilage', 'Occlusal surface', 'Prosthetic Valve Thrombosis', 'Dermatitis herpetiformis', 'Recurrent Rectal Cancer', 'Zymogen granule', 'Klotho', 'Neurophysins', 'Psychosexual development', 'Severe acute respiratory syndrome', 'Vaginal mucosa', 'Bone allograft', 'Emerging infectious disease', 'Viral diarrhoea', 'Western Hemisphere Warm Pool', 'Pedunculopontine nucleus', 'Premovement neuronal activity', 'Ranitidine Hydrochloride', 'Resting state fMRI', 'Amlodipine', 'Middle phalanx', 'Mitochondrial disease', 'Pregnancy Trimesters', '3D ultrasound', 'Cell surface receptor', 'Bioequivalence', 'Mixed cryoglobulinemia', 'External fixators', 'Lost Weight', 'Protopterus', 'Brachiocephalic vein', 'Meniscal tears', 'Primary healing', 'Hyperfibrinolysis', 'Total mixed ration', 'Enteroglucagon', 'Kinetoplastida', 'Fluorophotometry', 'Vocal function', 'Pestivirus', 'EGFR Gene Mutation', 'Human menopausal gonadotrophin', 'End organ damage', 'Somatosensory evoked potential', 'Electronystagmography', 'Dopamine', 'Minoxidil', 'Monocytosis', 'Skin Injury', 'Virilization', 'Adjuvanticity', 'Clinical research', 'Santonin', 'Chronic Migraine', 'Distal radioulnar joint', 'Vitreomacular traction', 'Adrenal gland', 'Error-related negativity', 'ABO incompatibility', 'Leukemic Infiltration', 'Corticotomy', 'Orthodontic Appliance Design', 'Renal lithiasis', 'Adrenergic beta-Antagonists', 'Cardiac marker', 'Pleocytosis', 'Fetal Body Weight', 'Signal crayfish', 'Cytoplasmic receptor', 'Study Author', 'Club drug', 'Slow progression', 'Pyroptosis', 'Polygonatum odoratum', 'Allelic exclusion', 'Ischemic optic neuropathy', 'Cardiotoxin', '8-OH-DPAT', 'Phospholipase C', 'Inhibition of return', 'Anorectal anomalies', 'Capacitation', 'Cerebrospinal Fluid Leakage', 'C4 photosynthesis', 'Natriuresis', 'beta-Carotene', 'Deep transcranial magnetic stimulation', 'Long-term depression', 'Asbestosis', 'Mucinous Tumor', 'Video modeling', 'Suidae', 'Piroxicam', 'Excitatory synapse', 'Patent foramen ovale', 'Power walking', 'Exteriorization', 'CCL22', 'Blood alcohol content', 'Hydrodynamic theory', 'Fotemustine', 'Superior ophthalmic vein', 'Hydroxymethylglutaryl-CoA Reductase Inhibitors', 'Bone wax', 'Functional Treatment', 'Checkpoint Kinase 2', 'Brachial plexus block', 'Intracavernous injection', 'Liver Iron Concentration', 'Cephalopelvic disproportion', 'Quitline', 'Inborn error of metabolism', 'Iron intake', 'Chest circumference', 'Dissecting aortic aneurysm', 'Beta cell', 'Neurosarcoidosis', 'Corpectomy', 'Facial bone', 'Esomeprazole', 'Pulmonary infiltrates', 'Mouse mammary tumor virus', 'Calorie', 'Filum terminale', 'Complement control protein', 'Intracranial vascular', 'Acute toxicity', 'Connective Tissue Disorder', 'Metaproterenol', 'PRKCQ', 'Bronchiole', 'Carbamazepine', 'Asian Indian', 'Olopatadine', 'Absolute risk reduction', 'Patella fracture', 'Motor neurone disease', 'Prognostic score', 'Coenzyme Q10', 'Telangiectases', 'Divalproex', 'Charlatan', 'Progressive muscle relaxation', 'Cerebral circulation', 'Homocysteine', 'Acute anterior poliomyelitis', 'Thyroid', 'Interleukin-4 receptor', 'Lumbosacral joint', 'Bupropion', 'Adenylate Cyclase Toxin', 'Xenodiagnosis', 'Susceptible individual', 'Mouthfeel', 'Cognitive ergonomics', 'Not evaluated', 'Neutrophil gelatinase-associated lipocalin', 'Dopamine Uptake Inhibitors', 'Hemiplegic cerebral palsy', 'Deviation standard', 'Pure tone', 'Tubule', 'Febrile seizure', 'Transient elastography', 'Intravenous Patient-Controlled Analgesia', 'Keratocystic Odontogenic Tumor', 'RELIABILITY VALIDITY', 'Working Formulation', 'Leukocyte extravasation', 'Vineland Adaptive Behavior Scale', 'Subdural Hematomas', 'Hepatoblastoma', 'Superior colliculus', 'ALLERGEN EXPOSURE', 'Health Administration Informatics', 'Red nucleus', 'Urinary calcium', 'Atheroma', 'Central Zone', 'Commissure', 'Promethazine', 'Laminar organization', 'Pannus', 'Nasalance', 'Pituitary adenoma', 'Bronchial hyperresponsiveness', 'Inhalation exposure', 'Neuron', 'Livedo reticularis', 'Ecotoxicology', 'Concomitant', 'Bodily secretions', 'Self-perception theory', 'Beta-2 microglobulin', 'Psychological testing', 'Pregnenolone sulfate', 'Autoimmune regulator', 'Sarcandra glabra', 'Transmembrane channels', 'Hemagglutination', 'Anal stenosis', 'Jejunoileal bypass', 'Leprosy', 'Obstructive Nephropathy', 'Human T-lymphotropic virus 1', 'Inulinase', 'Pyonephrosis', 'Immunogenic cell death', 'Chronesthesia', 'Impedance cardiography', 'Asthma', 'Dental Care for Children', 'Heat meter', 'Galantamine', 'Cystathionine gamma-lyase', 'Drug eruption', 'Oxygenation index', 'Buspirone', 'Deep sclerectomy', 'Silicosis', 'Tramadol', 'Esthesioneuroblastoma', 'Pancreatic Extracts', 'Neural crest', 'Tubal factor infertility', 'Forward head posture', 'Physical examination', 'Schizophrenic disorders', 'Solitary plasmacytoma', 'Secretory Rate', 'Tissue Dissection', 'Hypoactive sexual desire disorder', 'Venous Obstruction', 'Cluster headache', 'Fenestration', 'Sesamoid bone', 'Dietary advice', 'Germ cell', 'Neurosecretion', 'Tinea versicolor', 'Thoracoscopy', 'Intoxicative inhalant', 'Glans penis', 'Functional training', 'Bone Marrow Diseases', 'Ambulatory', 'Drug Utilization', 'Malondialdehyde', 'Aminoglutethimide', 'Surgical preparation', 'Phytochemistry', 'Airway pressure release ventilation', 'Unsharpness', 'Cochlear microphonic potential', 'Cognitive Intervention', 'Hemorrhagic disorder', 'Foot Orthoses', 'MHC class II antigen', 'PET-CT', 'Myeloid leukemia', 'Bile duct', 'Consolidation Chemotherapy', 'Deep cerebellar nuclei', 'Mineral trioxide aggregate', 'Synovial chondromatosis', 'Taking medication', 'Pneumatosis Cystoides Intestinalis', 'Right ventricular dysfunction', 'Schizophrenic Psychology', 'Gonioscopy', 'Ryanodine receptor 2', 'Virotherapy', 'Cognitive imitation', 'Medical history', 'Tumor microenvironment', 'Equine herpesvirus 1', 'Tunnel vision', 'Lymph circulation', 'Anaplasma phagocytophilum', 'Coagulation testing', 'ATP citrate lyase', 'Idoxuridine', 'Pronucleus', 'Emotional dysregulation', 'Rhipicephalus', 'Secretory IgA', 'Loxapine', 'Thrombolysis', 'Histone H3 Lysine 4', 'Schmidt sting pain index', 'Anterior ischemic optic neuropathy', 'Riluzole', 'Pretectal area', 'Schizotypal personality disorder', 'Phytoestrogens', 'Multi-drug-resistant tuberculosis', 'Mass Casualty', 'Apicomplexa', 'Cannabinoid receptor antagonist', 'Nucleus basalis', 'Intramural hematoma', 'Endoscopic endonasal surgery', 'TRPV6', 'Removal procedure', 'Memory retention', 'Costal cartilage', 'Uterine rupture', 'Fibromuscular dysplasia', 'Depressant', 'Canine Lymphoma', 'Axillary Lymph Node Dissection', 'Outcome monitoring', 'Femur bone', 'Facial symmetry', 'Retinal Prosthesis', 'Tissue Polypeptide Antigen', 'Spermatozoon', 'Body mechanics', 'Muscle Hypotonia', 'Morphinan', 'Hypofibrinogenemia', 'Ovarian cyst', 'Infectious pancreatic necrosis virus', 'Sideroblastic anemia', 'Convergent validity', 'Arteriotomy', 'Neuromuscular stimulation', 'National Crime Victimization Survey', 'Binomial regression', 'Psoriasis', 'Glucagon-like peptide-2', 'Operative wound', 'Thiouracil', 'Muscimol', 'Tripterygium wilfordii', 'Muscle attachment', 'Photoactivated localization microscopy', 'Facial canal', 'Rosuvastatin', 'Tooth loss', 'Posterior cranial fossa', 'Cytochrome b5', 'Tarsal Joint', 'Lacosamide', 'Lung lesion', 'Seborrheic dermatitis', 'Theriogenology', 'Lipid profile', 'X-ray treatment', 'Drug Storage', 'Skull bone', 'QuantiFERON', 'Seminoma', 'Accelerated Growth', 'Speech Processor', 'Krill oil', 'Genetic predisposition', 'Neocortex', 'Luzindole', 'Vesicular stomatitis virus', 'Transillumination', 'Retroperitoneal mass', 'Dorsolateral', 'Immune reconstitution inflammatory syndrome', 'Immunogen', 'Calcium nitrate', 'Emtricitabine', 'Diaphragmatic hernia', 'NONMEM', 'Anterolateral ligament', 'Cath lab', 'Predictive medicine', 'Scaphoid fracture', 'Hepatic artery embolization', 'Ureteral neoplasm', 'History of tuberculosis', 'Retirement community', 'Chemotherapy regimen', 'Tumor budding', 'Orthomyxoviridae', 'Scleral buckling', 'Panax quinquefolium', 'Hepatitis b e antigen', 'Spiritual support', 'Critical closing pressure', 'Vasopressin', 'Monoclonal antibody', 'Protein-Tyrosine Kinases', 'Oxygen therapy', 'Axoplasmic transport', 'Agenesis', 'Tendon', 'Arthroplasty', 'Essential drugs', 'Medial femoral condyle', 'Chronic myelogenous leukemia', 'Test panel', 'Ibotenic acid', 'Hyperthermia therapy', 'Travel medicine', 'Coated Pit', 'CYP2C19', 'Drug vehicle', 'Chenodeoxycholic acid', 'Azacitidine', 'adipocyte protein 2', 'Peroxisome proliferator-activated receptor delta', 'Vulnerability', 'Sitting', 'Eleutherococcus senticosus', 'Riociguat', 'Langerhans cell histiocytosis', 'Tongue body', 'Congenital disorder', 'Pressure support ventilation', 'Percutaneous pinning', 'Female infertility', 'Nintedanib', 'Endometritis', 'Guanylate cyclase activity', 'Dominance hierarchy', 'Kainic acid', 'Dermatology Life Quality Index', 'Frontal eye fields', 'B-1 cell', 'Exsufflation', 'Process tomography', 'Vascular endothelial growth factor', 'Anterior cingulate cortex', 'Distal interphalangeal joint', 'Increased physical activity', 'Ferumoxytol', 'Mandibulectomy', 'Fissipedia', 'Crown-rump length', 'Interleukin 3', 'Pegylated Liposomal Doxorubicin', 'Cerebral infarction', 'Ejaculation', 'Sleep debt', 'Internuclear ophthalmoplegia', 'Hearing test', 'Innate immune system', 'Melanin-concentrating hormone', 'Famous persons', 'Hypodontia', 'Immunolabeling', 'Australopithecus afarensis', 'Aciclovir', 'Longissimus Thoracis', 'Oxidopamine', 'Migraine treatment', 'Choristoma', 'Hippocratic Oath', 'Surgical history', 'Neospora caninum', 'Superior orbital fissure', 'Anterior margin', 'Gap-43 protein', 'Anticoagulant', 'Coomassie Brilliant Blue', 'Cell therapy', 'Neonatal intensive care unit', 'Paracoccidioides brasiliensis', 'Virtual patient', 'Discoidin domain', 'Subgroup analysis', 'Surfactant protein C', 'Otic placode', 'Beta defensin', 'Internet addiction disorder', 'Watery diarrhea', 'Trabeculoplasty', 'Turbinates', 'Left atrium', 'Transcription Factor CHOP', 'Salivary flow rate', 'Rhinosporidiosis', 'Protein tyrosine phosphatase', 'Medical procedure', 'Hypergonadotropic hypogonadism', 'Virus Release', 'Aortic arch', 'Hepatic disorders', 'Care giver', 'Head impulse test', 'Ischemic necrosis', 'Bacopa monnieri', 'Sphingosine kinase 1', 'Osteochondrosis dissecans', 'Thrombotic microangiopathy', 'Secondary procedure', 'Retinal', 'Cryosurgery', 'Standard treatment', 'Nootropic', 'Plantar warts', 'Cord blood transplantation', 'Mucosal inflammation', 'Cancer epigenetics', 'Raphe', 'Cannula', 'Threshold of pain', 'Brain natriuretic peptide', 'Photoaging', 'Hyperviscosity', 'Gallbladder surgery', 'Ctenocephalides', 'Acellular pertussis', 'Elective caesarean section', 'Cannabidiol', 'Expanded Disability Status Scale', 'Jaw Diseases', 'Central retinal vein', 'Skin Cream', 'Antiseptic Agent', 'Intracellular Fluid', 'Back pain', 'Red cell volume', 'Mechanobiology', 'Hidradenoma', 'Pulmonary artery stenosis', 'Atypical teratoid rhabdoid tumor', 'Ribavirin', 'Ketamine hydrochloride', 'Montreal Cognitive Assessment', 'Left atrial appendage occlusion', 'Capparis spinosa', 'Engineering controls', 'Geriatric rehabilitation', 'Sciatica', 'Albuminuria', 'Parasympathetic nervous system', 'Proctolin', 'Lyme Arthritis', 'Specialty pharmacy', 'Profile of mood states', 'Nitric Oxide Synthase Type III', 'Nitrotyrosine', 'Bacterial overgrowth', 'Intracranial haemorrhage', 'National Cholesterol Education Program', 'Antipsychotic Medications', 'Neovascularization', 'RPTOR', 'History of psychiatry', 'Blockade', 'Miltefosine', 'Alcohol policy', 'Caliciviridae', 'Roflumilast', 'Methylcholanthrene', 'Lycium', 'Trochophore', 'B-cell activation', 'Peganum harmala', 'Brief intervention', 'Comfrey', 'Sphincter of Oddi dysfunction', 'Angiopoietin 2', 'Viral shedding', 'Islet', 'Synovial Cell', 'Epithelial polarity', 'Metaplasticity', 'Nicotinic Acids', 'One Hundred Fifty', 'Spiritual transformation', 'Epworth Sleepiness Scale', 'Microinjection', 'Bartter syndrome', 'Wakefulness', 'Cardiovascular Disorder', 'Polysomnography', 'Peroxisome', 'Electrocardiography', 'Pituitrin', 'Acute hemorrhage', 'Baroreflex', 'Naegleria fowleri', 'PTK2B', 'Volume contraction', 'Injury prevention', 'Bufo marinus', 'Sialorrhea', 'Drug receptor', 'Arterial occlusions', 'Pelvic lymphadenectomy', 'Thromboxanes', 'Older Populations', 'Pulpectomy', 'Haemorrhagic fever', 'Vaginal surgery', 'Screening colonoscopy', 'hirsutism', 'Bovine lactoferrin', 'Fibroblast growth factor receptor 1', 'Prothrombin complex concentrate', 'Virus quantification', 'Menstrual cycle', 'Nociceptin receptor', 'Anterior teeth', 'Organification', 'Liver perfusion', 'Relapse prevention', 'Bronchial Diseases', 'Leukoplakia', 'Chemokine', 'Psilocybin', 'Doxepin', 'Phenytoin', 'Primary ciliary dyskinesia', 'Humidifiers', 'Corn oil', 'Polycentrism', 'Intraocular fluid', 'Injury Severity Score', 'Lymnaeidae', 'Central neurocytoma', 'Pleuropulmonary blastoma', 'Salamandra', 'Otorhinolaryngologic Surgical Procedures', 'Immunotoxin', 'Macrocytic anemia', 'Ischemic brain injury', 'Os Odontoideum', 'Cyproheptadine', 'Intracardiac echocardiography', 'Working memory training', 'Blastoid', 'Lymphotoxin alpha', 'Bipolar disorder', 'Bronchodilatation', 'Drug action', 'Malunion', 'Heart rate turbulence', 'Dietary change', 'Interventional pain management', 'Dry-powder inhaler', 'Thoracic Oncology', 'Microvascular Density', 'Microvessel', 'Fresh gas flow', 'Brain Ventricle', 'Pigmented Nevus', 'Opiate', 'Carotid artery dissection', 'Thyroarytenoid muscle', 'Metabotropic glutamate receptor 4', 'Neuroectoderm', 'Memory problems', 'Prostacyclin synthase', 'Hydroxychloroquine', 'Histamine H3 receptor', 'Akkermansia', 'Hypertrophic Pyloric Stenosis', 'Myoclonic Jerk', 'Pemphigoid', 'Soft Tissue Neoplasm', 'Laboratory Infection', 'Cholecalciferol', 'Sensory threshold', 'Pulmonary valve stenosis', 'Dynamic hyperinflation', 'Intraoral approach', 'Selective estrogen receptor modulator', 'Gastrointestinal pathology', 'Lumbar Curve', 'Stimulus onset asynchrony', 'Caudal epidural', 'Harm reduction', 'Cholecystostomy', 'Balloon valvuloplasty', 'Total Mastectomy', 'Bacterivore', 'Testicular biopsy', 'Anterior myocardial infarction', 'Dynamic compression plate', 'Otolith', 'Thromboxane A2', 'Trophoblastic Tumor', 'Hypoxic hypoxia', 'Vasoactive', 'Fluvoxamine', 'Toileting', 'Pyruvate dehydrogenase kinase', 'Dosing', 'Pregnanetriol', 'Brachycephaly', 'Transmethylation', 'Sternoclavicular joint', 'Chronic Active', 'Preventive therapy', 'Amelogenin', 'Specific dynamic action', 'Abbreviated Injury Scale', 'Middle column', 'Skin elasticity', 'Piperaquine', 'Prothrombin time', 'Secretory pathway', 'Chronic pneumonia', 'Macular telangiectasia', 'Augmented cognition', 'Irritable bowel syndrome', 'CXCL9', 'Occupational science', 'Nursing literature', 'Glomerulonephritis', 'Horny layer', 'Hirudin', 'Tobacco mosaic virus', 'Deep frying', 'Sleep loss', 'Odontoma', 'Stomatognathic system', 'Inflammatory fibroid polyp', 'HLA-DQ', 'Peste-des-petits-ruminants virus', 'Circulatory collapse', 'During menstruation', 'Deep hypothermic circulatory arrest', 'Teratozoospermia', 'Ivacaftor', 'Herpes simplex virus infection', 'Dead space', 'Factor H', 'Extensor digitorum muscle', 'Emergency Stop Button', 'Murine typhus', 'Neutrophil Engraftment', 'Pathophysiology', 'Reference Daily Intake', 'Amsacrine', 'Physiatrists', 'Vegan Diet', 'RR interval', 'Dicrocoelium dendriticum', 'Cycloartenol', 'RESPIRATORY MOVEMENTS', 'Corticospinal tract', 'Atypical Lymphocyte', 'Rifamycin SV', 'Lefty', 'GDF11', 'Ovariole', 'Motor nerve', 'Pressure overload', 'Nuchal Translucency Measurement', 'Airway resistance', 'Locus coeruleus', 'Calmodulin-binding proteins', 'Tourette syndrome', 'Prism adaptation', 'Plantago major', 'Cardiac chamber', 'Serum cholinesterase', 'Anaesthetic Agent', 'Phosphene', 'Polyglutamine tract', 'Kidney transplantation', 'Lumbar plexus', 'Aural rehabilitation', 'Blood substitute', 'Patient Acuity', 'Perioperative care', 'Metastatic carcinoma', 'Microsporidia', 'Vulvar neoplasm', 'Abdominal distension', 'Renal osteodystrophy', 'Spontaneous alternation', 'Olivopontocerebellar atrophy', 'Fish physiology', 'Alcohol-related disorders', 'Fossa', 'Positron emission', 'Gangliosidosis', 'Transoral laser microsurgery', 'Synaptic augmentation', 'Arthropod Vector', 'Veratrum alkaloid', 'Spiritual development', 'Parasympatholytics', 'Minimal change disease', 'Erythropoietin', 'Magnetic resonance elastography', 'Lachman test', 'Inferior vena cava filter', 'Chloride channel', 'Trypsinogen', 'Prevotella intermedia', 'Spinal and bulbar muscular atrophy', 'Adlerian', 'Hormone refractory prostate cancer', 'Blood Indices', 'GASTRIC CARDIA', 'Anatomic Variation', 'Methylthiouracil', 'Inferior parietal lobule', 'Porokeratosis', 'Niclosamide', 'Typhus', 'Neurocranium', 'Methoctramine', 'Psychomotor function', 'Fear processing in the brain', 'Urine osmolality', 'Phosphoglycerate mutase', 'Imidazoline receptor', 'Pungency', 'Shoulder girdle', 'Gynandromorph', 'Weather balloon', 'Audiologist', 'Citrullination', 'Dental cleaning', 'Fast foods', 'Mental age', 'Concomitant drug', 'Tooth roots', 'Exophthalmos', 'Medroxyprogesterone acetate', 'Transthoracic echocardiogram', 'Nissl body', 'Amblyomma cajennense', 'Gastroenterostomy', 'Body Shape Index', 'Vitamin E', 'Cardiac procedures', 'Trans fat', 'Technetium Tc 99m Sestamibi', 'Anterograde amnesia', 'Zellweger syndrome', 'Megestrol', 'Elephantiasis', 'Heart rate variability', 'Zygapophyseal Joint', 'Aldesleukin', 'Swan Ganz Catheter', 'Clonorchis sinensis', 'Photosensitivity Disorder', 'Facilitated communication', 'Contralateral Prophylactic Mastectomy', 'Tissue microarray', 'Podarcis', 'Sulfur colloid', 'Overtraining', 'Pharmacogenetics', 'Liver X receptor beta', 'Telepathy', 'Tissue fluid', 'Cognitive disorder', 'Bile secretion', 'Orthotic device', 'Adipocyte', 'Patient-reported outcome', 'Mouth parts', 'Dental personnel', 'Humanized antibody', 'Bladder Pain', 'Oryzias', 'High-Dose Rate Brachytherapy', 'Ventricular tachyarrhythmia', 'Cannabinoid Receptor Agonists', 'Calcium-binding protein', 'Signet ring cell carcinoma', 'Lytechinus variegatus', 'Diplococcus', 'Dyscrasia', 'Plasmodium ovale', 'Cissus quadrangularis', 'Air trapping', 'Neuroprotection', 'Putamen', 'Brainstem', 'Cardiovascular Surgical Procedure', 'Lacing', 'Diuretic Activity', 'Vertebral compression fracture', 'Blepharitis', 'Myotonia', 'Esophageal spasm', 'Sacrococcygeal Region', 'Cutaneous Mastocytosis', 'Foveolar cell', 'Cancer-related fatigue', 'Cryofixation', 'Unlicensed assistive personnel', 'Prototype theory', 'Ruptured abdominal aortic aneurysm', 'Tear secretion', 'Coinfection', 'Magnesium calcium', 'Prognathism', 'Steatosis', 'Ross River virus', 'Twin Twin Transfusion Syndrome', 'Isometric exercise', 'Chylomicron remnant', 'Peer victimization', 'Amaurosis', 'Quadriceps Muscles', 'Gamma delta T cell', 'Plasma osmolality', 'Folic Acid Antagonists', 'Flatulence', 'Octreotide', 'Indapamide', 'Acacia catechu', 'Hand eczema', 'Hepatitis D', 'Ototoxicity', 'Neural facilitation', 'Cardioversion', 'Red pulp', 'Medial vestibular nucleus', 'Histology', 'Inoculation', '</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['152572085', '2781073817', '2775850156', '2779421657', '2910520687', '2909937042', '2780205128', '92324200', '2909592290', '2909331969', '2776898743', '2779563453', '2781247642', '31288803', '2910671496', '2777175280', '2777626840', '2776462458', '2779771385', '2909667884', '2779179668', '2777299493', '2909150547', '2778936819', '2911117829', '2779209236', '2775941076', '2909926780', '2778141389', '2777556957', '2776761947', '2780447993', '2780051777', '105641010', '2909806565', '2779401946', '2909575379', '2777452900', '2778970670', '2776820786', '2911129990', '2781117939', '188413054', '2909141848', '107211472', '2781460105', '2781225692', '2776372563', '49578298', '2910487085', '2780244788', '2909005653', '2909580181', '2910842440', '2777767828', '2910152890', '2911099678', '2909339097', '2781223406', '2776108767', '2911100837', '2780805593', '2776109941', '2778526072', '2909601795', '142225936', '2778875871', '2778233873', '100368936', '2780496858', '106207104', '2909173543', '88537330', '2781088782', '2780581805', '2908921886', '62231903', '172507514', '79381400', '2776315342', '2781166303', '2779392123', '2909099676', '2779690104', '2908861771', '2776973423', '2778368355', '2908758937', '2910758459', '207230331', '532751654', '2781223928', '2911078657', '2908932589', '194575858', '2777921445', '2778971682', '2909433417', '2776874759', '56329447', '2911200043', '2776537878', '79592252', '2911082130', '144469398', '2778740727', '2777569460', '2778292693', '2781468244', '2777029650', '158608086', '127955056', '2910142988', '2910550395', '2780037252', '2778248277', '2910989242', '2910595225', '2777594791', '2777577063', '2909360751', '19801646', '2910752263', '2781391105', '2909665077', '2909301675', '2908611220', '2779674439', '2908876518', '26372392', '2779680196', '2777936119', '2910587157', '2780274812', '2779822359', '2909269591', '2778362869', '2776792119', '147642095', '2909179485', '2780930700', '2779982284', '2908838063', '2779891985', '2909799168', '2776175100', '2909716825', '2780149145', '2778894326', '2909005528', '163688568', '2777696881', '2778484676', '2910241781', '2909806198', '2776789287', '2779935178', '2910586930', '2776900724', '2777993699', '2781123077', '499784838', '2776575956', '2779984560', '2911144722', '2780190802', '2911158559', '2909842281', '2776780178', '2909385286', '2910018853', '2777350860', '2780184260', '2778206080', '2910299752', '2778583300', '2908944668', '2779216453', '2778399959', '2909797067', '2777374719', '2778863912', '2908841079', '2910366725', '2777126507', '2779908522', '2777482532', '2909225943', '2911034049', '2779491700', '2780614586', '2910982124', '2910806127', '117499352', '2777837822', '2909781215', '2778496887', '12722491', '2777204234', '2779733151', '125590012', '41007239', '2910236285', '2910320583', '2781335743', '2776021941', '2776700747', '2909966895', '123298856', '2776233030', '2776629433', '2779391668', '2780886150', '2777440324', '2779399600', '2777108446', '2908980077', '2908752488', '44107871', '2910454251', '2781460036', '14029885', '2777905771', '2909609317', '2911219579', '2781182431', '2910256720', '2779610619', '158592959', '2777346404', '2779317972', '2776610495', '2908681455', '2909415960', '2910259340', '2909629409', '2781171867', '2909653941', '2780585919', '2780942790', '2780377017', '2776668709', '2778125672', '2908815117', '2910932597', '2781186391', '204787440', '2778600029', '182531022', '2910332505', '2777939402', '2777754649', '2777890820', '2778991078', '2910797729', '2780796126', '2779491571', '2776050358', '2776611634', '18812478', '2911163174', '2908752955', '138370407', '2780750233', '2780880470', '204999636', '2780394545', '43310041', '2779853308', '2908623121', '2910088674', '2777371824', '2911152203', '2776199458', '2776617576', '3951539', '2781218831', '2908885201', '2781093953', '2780180277', '2779340996', '2781444538', '2909035245', '163235415', '2779571634', '2909819602', '2776834367', '2778576062', '2780806160', '2909786779', '2779657035', '2775890610', '2777637130', '2908923351', '2778143274', '2909188714', '2910966927', '2777244444', '2908844906', '2777595160', '144293060', '2908524910', '540213393', '49059817', '2776169613', '2909082288', '2778641792', '2781192897', '2908525482', '2911058998', '2910097660', '61705674', '2778173343', '2779937474', '2909376806', '2779000548', '71220013', '2776077123', '2908613125', '2779138974', '2911145996', '2776255841', '124936440', '541082541', '2779310134', '2909702991', '2780850621', '2776897722', '2909616414', '2778871979', '126451531', '2777886324', '2909383221', '2910359755', '2781468188', '120195587', '2910429865', '2776741159', '2908833097', '2779981555', '2910288590', '2776070282', '125111812', '2776215756', '2909243863', '2776767690', '2909892341', '2779484572', '2780852908', '2776813713', '2909844004', '2777506830', '2909346784', '2777977426', '2778200158', '80862487', '2908983484', '2776406656', '2910669151', '2910225729', '77018033', '2909445175', '2909410647', '2779192497', '2910704159', '2780013240', '2781281211', '51296783', '2909006028', '2776148967', '2775905491', '13002179', '2775905939', '2779528491', '2778451633', '2779700439', '2909669872', '2776377604', '2779673145', '2909064751', '2778465436', '2910647623', '2910315398', '2909818479', '2910678782', '2909342898', '134164806', '2909817662', '2776299002', '2910680602', '2911077589', '2909992823', '8162170', '2910934819', '150879485', '2777561782', '2908866186', '57634137', '2908832333', '2909288437', '2910566576', '2910815910', '2779458710', '115085202', '2779676829', '2779591629', '2779726759', '158453852', '2779564974', '2778900538', '2910757651', '2910719991', '2778951355', '2909746007', '2910031780', '2776976509', '116390426', '2777863537', '2778007619', '2909889181', '2778284417', '2781206205', '2780886939', '155184778', '2909448170', '16777580', '2911053797', '2911064819', '2781118164', '2780423099', '2779117757', '2780870513', '2910053894', '2780891057', '2779164789', '141710004', '187316915', '2778871607', '2775980177', '2780767800', '2777793004', '21143770', '2909982947', '2909046873', '2777609668', '2778508898', '33230849', '2778599137', '2910478951', '2910658734', '2909697059', '2776476023', '177658893', '2780920918', '2908730403', '2776780031', '2780574415', '2780744974', '2779855038', '2909777121', '2910465555', '2909689681', '2779056147', '2779365888', '196235758', '2776392104', '43060935', '2776987312', '179755657', '2910530332', '2910733768', '2781228144', '176762198', '2781070647', '2910647024', '2776395653', '2778461978', '118094880', '2910115945', '2779486068', '2780122544', '2779553184', '2779089960', '2910472664', '2779819551', '81831894', '2776751720', '2779106727', '78214289', '2778935260', '117958382', '2910039337', '2909686017', '15824746', '2910231009', '2780438625', '29730261', '2780596994', '4134927', '2778897192', '2777982735', '2778112473', '2778650287', '2776513736', '2776514860', '2781139653', '2777391703', '2910029487', '2779257473', '2776190025', '64710057', '2776614356', '2909215587', '2775941134', '36417994', '2776366509', '2779994444', '2777301948', '2778236407', '2777822169', '2776039999', '2910511117', '2776357993', '2780929364', '2781167935', '2780263296', '16741180', '2779264955', '2908660218', '57380142', '23276603', '48660041', '2781313415', '2778788455', '2779686855', '75799743', '2908520205', '2776194053', '207936829', '2909060570', '2909404852', '2780475312', '2908896651', '2911009288', '2780401358', '2909593689', '2781067114', '2909969496', '137265123', '2778300832', '2909999176', '2778626300', '2780833929', '2779357208', '2911211780', '2910667256', '2780772644', '2781410774', '2780343435', '2911194756', '2777162945', '2776167589', '2776264508', '14865658', '2777988727', '2909630643', '2909440589', '2778589756', '2909440823', '2776832996', '2910684466', '2908812238', '2910152587', '2776183862', '2911207228', '2908669727', '146957229', '2777239854', '2778420804', '2910987629', '128102431', '67339327', '2910588946', '2776939681', '2908766111', '2777288759', '96307122', '2778522376', '2776638464', '2910844710', '2780231548', '2779664670', '2909186138', '94030615', '2778258057', '188261085', '2778569047', '2779688209', '2776904924', '116024289', '2910093947', '2778610743', '165538109', '2909761780', '2909048508', '2909513887', '44315111', '2910428557', '61702054', '2778861743', '2776453879', '50952357', '2910099480', '111214947', '2779577794', '2908975491', '153939273', '2909411517', '19210678', '2778585322', '2779066075', '2779262571', '2781142479', '2909956956', '2776907564', '2781471917', '2777529043', '2778177282', '2779211342', '122247490', '2781175652', '83455156', '2776550738', '2910794437', '2777574038', '2777284740', '2776591724', '2777023796', '2780862961', '2910603918', '2779344132', '2781065037', '2781177144', '2910941035', '2777237215', '2777991845', '2908970474', '2776625791', '2777503522', '2781380062', '2780278673', '2776403814', '2910726249', '2779200604', '137061746', '75786153', '136940099', '2779880527', '2777478136', '2775901119', '2778643591', '2779137508', '2776503184', '2781255352', '2777329821', '2910298268', '2779705797', '2779866169', '2776376825', '2910579278', '2910231564', '136948725', '2779549974', '2779056158', '2781209916', '152918924', '2781414793', '2780236236', '2779651940', '2911091166', '2776669363', '2780272996', '2909503368', '2909294634', '2908662865', '2909234849', '206631613', '2908826780', '2779161898', '2776601460', '2909724629', '2777228722', '2778955358', '2909112448', '2909319767', '2777512643', '2909720670', '2777747462', '2776987626', '2910096629', '2776625714', '2910912111', '44228677', '2081992', '2775910092', '2910687406', '2910110592', '2910125277', '2781267111', '2780191036', '2776727803', '2778712721', '2778039513', '2911060469', '81977670', '2778549279', '2778317145', '2910497219', '2908978196', '2911000389', '2781449126', '2779141489', '2909253166', '83100098', '2908962876', '2779179908', '181843262', '2911049295', '2909345572', '2778620141', '2909972957', '2910546260', '2910905871', '2777307743', '116016267', '2781140480', '2777423138', '161681244', '2778904781', '2910354793', '2859252', '2778984665', '2780741286', '2777070484', '2908929308', '2911098887', '2776495794', '2776389721', '2910428653', '2909597118', '2909676883', '2780076729', '2910455576', '50171091', '2778451229', '2908941940', '2779537366', '2778157533', '2778297330', '2779171977', '2777842393', '2778279030', '2909104662', '2909439560', '2908971123', '2910465712', '2776287375', '2908646103', '2781210436', '2909948008', '2780139667', '121117317', '2781005279', '2781064554', '116919411', '2910170634', '179264091', '2777158368', '159674089', '2779527866', '2779630084', '2779751750', '2909234372', '2908594456', '60870556', '2909174268', '2776532573', '150420422', '2779456298', '2776816377', '2779480072', '2910715078', '2911126560', '2778288313', '2779884411', '2776330896', '2779008522', '2780836959', '2911102743', '2911164019', '2909747468', '2910207198', '24223341', '2780394083', '2778452354', '25194021', '106881830', '2908734668', '2910068711', '2776244919', '2779076967', '2780520971', '2779277721', '2776989520', '2779416561', '2780731448', '2776524530', '2777640609', '27101514', '2908579795', '143211211', '2908634787', '2908668639', '2780877353', '2780270805', '2909292722', '2909974199', '2779854700', '2910324532', '2777426075', '2909908503', '2909356871', '2778094803', '2909286352', '2780194698', '2778093883', '2779688324', '2909851952', '2910779825', '2779108703', '2909082692', '2780700307', '2909233680', '2910021609', '178352248', '520798596', '2910447894', '2777233064', '2910357314', '2779480328', '2778799817', '2778598218', '2776054733', '2778490853', '2778945811', '2780611847', '2778560701', '2777222312', '2777339539', '2778248655', '2909633629', '2909734909', '2776372842', '2776292634', '2910646857', '2780323712', '2777786686', '207545495', '2909729337', '2781269140', '2910855829', '2777390665', '2909184750', '22723013', '2781439815', '2778103839', '2781094566', '545288138', '2910305673', '2910124592', '2911175825', '2780928941', '2909695142', '2908923111', '2779823546', '2911150718', '2779012798', '2777678268', '2780750100', '139542699', '2910418295', '2909358281', '2910483394', '2781195946', '2779164085', '2909815946', '2780739625', '2908892010', '18987944', '56837625', '198999979', '2908928831', '2778199505', '2780185716', '2910889947', '2777417524', '176672177', '2779642851', '2780600973', '2780521871', '2780521442', '81088708', '43270747', '2910992061', '2777537440', '2780202543', '2780861368', '2776490512', '2910208248', '2780523958', '2781005686', '134786416', '118316555', '2781142857', '2910431431', '2779632909', '2779241435', '64502627', '2776550021', '2777052929', '2777076221', '2908684544', '136525101', '105054674', '50442881', '2776678776', '2910571731', '112144039', '44778022', '2780393176', '2778525166', '76856502', '2776677263', '2909313385', '30028475', '2776400185', '2911192251', '184112429', '2908871031', '2909177772', '2911004955', '2777560510', '2778889167', '2910873209', '2911146124', '2777929075', '2909354746', '2911002200', '2908690606', '2776741419', '2779919695', '2776396487', '2777180064', '2778149918', '2911084887', '59994255', '2908665842', '2776632733', '2779831896', '2780084446', '2908521982', '2778822529', '2781140337', '2909398057', '2776379899', '2777972943', '2909617120', '2781164565', '2776974961', '189413060', '2909441826', '2781006864', '19218775', '2779790309', '2781418243', '2777152744', '2777508679', '2908993661', '2781359426', '2777204207', '2908704504', '2911095166', '2908895846', '2779797997', '2909818935', '2911184235', '2908814104', '2776097590', '2781387506', '17172800', '2910474655', '2778201146', '2776087441', '2776811147', '2909223148', '2776670291', '2777390192', '2779425088', '502523893', '165864922', '2779423722', '2778970755', '2776870353', '9281262', '66971888', '2781278919', '2781305896', '2911087972', '2910810584', '61326887', '2776977715', '165069038', '2909845032', '2909940878', '152478114', '28225019', '2780280601', '2911090098', '2776853793', '2780650716', '195548491', '2777621362', '2779012181', '111369323', '111507845', '2777685762', '2777649267', '115725540', '2910108043', '2779517838', '2778542668', '2778014663', '47042493', '103539492', '2908725511', '2778550298', '2910786653', '2781087989', '14216870', '2776953683', '2779168175', '2909656692', '2777435962', '2778983183', '2778715156', '2779365249', '139319395', '2779863229', '117287731', '2910226455', '106257327', '2776232647', '2909337630', '2910097024', '2778539967', '2780009322', '2778764654', '2909062048', '133570447', '159431405', '2909744576', '2780224187', '2908915366', '2776159604', '2780177628', '87227347', '2779786854', '2778993000', '2775908076', '2780793064', '2910236334', '2775981797', '2779534595', '2909767651', '2776889139', '103072069', '2910480513', '2909811801', '2910441907', '2909084885', '2780632750', '2779954635', '2910155430', '2778426790', '2777184050', '2910971544', '2910977262', '2911110450', '2909636889', '2911010140', '2909830472', '2780731827', '41007966', '81835627', '2780256643', '2910186798', '2909573581', '2911126944', '2777346684', '2780703679', '2908959957', '2777469378', '2776280689', '2909459310', '2778437423', '2776286101', '2910236214', '2910266460', '2911195050', '174884520', '2779922254', '2909890534', '2909991059', '2911154194', '2909429473', '148737382', '2776846927', '2780927675', '2910604447', '2911147118', '2778939600', '2910404990', '2778492296', '203857694', '2781246285', '2778769751', '2909019263', '2779801569', '2777387769', '98713420', '2777971728', '2781053850', '173417002', '2909253557', '2908757056', '20417620', '2911103640', '2776264592', '2778864735', '17822864', '2777657843', '2910969970', '2778985418', '2910584991', '2778801703', '2908795679', '2776919888', '2776888792', '2780320949', '2778807442', '2909056869', '2779526882', '13245373', '2911192094', '2910804846', '48221581', '53940066', '170958749', '49926397', '2779790121', '2909461182', '2780847992', '2910834664', '2910893945', '117365660', '60278653', '2911101141', '2781356689', '2911196830', '2777967479', '2775888733', '2777995511', '2778216619', '2909462722', '2910334000', '2777267695', '2779875672', '2911214630', '2908795327', '2781460488', '2776470705', '2910207710', '2909190889', '202015219', '2776370125', '2776886188', '2910782442', '125439840', '2777116383', '54039966', '2777771985', '103191249', '14200731', '2909941525', '2909000798', '2910396643', '2778207064', '2779036270', '2780415970', '2776930981', '2910221698', '2911064356', '2778766689', '2779171459', '2779415522', '2777146706', '2909102712', '2779615590', '2779518148', '2911218769', '2776152004', '2779066155', '2909848408', '2908688039', '50001416', '2778258207', '2908795789', '2778707650', '177766495', '4175445', '2909676412', '2909335104', '2909501200', '2778206077', '2777120189', '2780992421', '2780425889', '2781254715', '2909582584', '2780322006', '2910561697', '2778660654', '2908905459', '2780004339', '2910083664', '49923114', '2908758277', '2910944628', '2777107124', '2780075904', '2776441376', '2779965577', '58747440', '2775893369', '2777832143', '2779398211', '2909487783', '2908563864', '2781329793', '2776535583', '2780783166', '2778506969', '2910162304', '2779616870', '103761620', '2910515842', '176743888', '2776960227', '2909802245', '2778092261', '2908953049', '2781145037', '2910259375', '2910031431', '99207889', '2909545047', '2909485499', '2910647763', '2780103070', '2777595113', '37557685', '104335537', '2910353367', '2779079599', '2909379828', '2910900973', '116871256', '2909260447', '2779955248', '2779350334', '2779899204', '38137600', '2779589923', '2909021095', '2780327212', '2777452171', '125555471', '2776114971', '2779980618', '134093067', '2781163205', '169554166', '2776398474', '2779359726', '8880881', '1008401', '2778862538', '2779211832', '2910076437', '96376961', '2909628859', '2910776193', '2778081122', '2780287645', '2910936745', '177825189', '2776599340', '129470801', '2778904085', '2779658331', '2779203663', '2908924875', '2910344450', '2909611997', '2910877098', '2909264855', '2777676773', '2909029650', '2910899711', '2910959326', '2779589740', '58632812', '2909188207', '2781080829', '2777570183', '2911103339', '2908532722', '2908953726', '2909948366', '2910594169', '2778478263', '184138380', '2910868991', '2775985167', '113775271', '2909024776', '79186569', '2778976402', '2909532979', '2910974942', '2780127118', '2909292024', '2781046184', '2910993914', '2909990731', '2908523384', '2909005433', '2908619192', '112672928', '2910810327', '2908925755', '2909999976', '2908646376', '2911103978', '2779892997', '2778707443', '2778038603', '2779147656', '2780070761', '2777479560', '2780271722', '2777704247', '2777419892', '7821365', '2911104446', '2909227875', '2777545354', '19052677', '2910061165', '2776760841', '141666547', '2781369853', '2776078045', '2909910173', '2910128379', '2910915821', '2909957684', '2779294768', '2776725920', '2909775688', '2780231137', '2908683193', '2909484148', '2781036101', '2909359390', '2909475472', '2781273456', '2776875633', '2780229392', '2777045440', '2781274105', '2780283643', '2779655305', '2776210078', '2778698291', '2777446050', '2778840193', '2911117634', '2911078484', '2908689634', '2778618412', '2780087125', '2778794976', '2780974877', '2910025087', '2909851727', '2781282915', '2910514942', '2776663378', '2910760457', '2777420927', '76100544', '2778821649', '2910695271', '2910797673', '2777868816', '2909757456', '96291035', '2910740169', '3449773', '2910824762', '2776530083', '2781454130', '171715492', '2778200873', '2910129229', '2777504804', '2909819027', '2780739003', '2910302756', '2910011643', '2908604124', '32610206', '45121317', '2909873957', '2779470898', '2910396470', '2777722682', '2778479196', '2909925444', '2910730519', '2776480101', '2910227674', '185867374', '86473631', '2781047461', '2909439513', '2781176205', '2909521186', '104148171', '2908838615', '2911158158', '2911088228', '2908853785', '2781465214', '2779217157', '116938221', '2909321479', '2776159415', '2777604165', '2780689522', '2775866039', '2911212096', '2781406150', '143733281', '2781096941', '2780344330', '2777227250', '2776042228', '2777658017', '2909897797', '2909990072', '2779670087', '2910344807', '2910138006', '2780084704', '2780238834', '93042943', '2780775713', '134728086', '2777346216', '2910973187', '197261262', '2779841045', '2909868253', '2781025020', '2779740913', '2910126967', '155701950', '2910740951', '2777622882', '2780057760', '2908611948', '2777725460', '2780600940', '2778367240', '2780530410', '2910052784', '2909667163', '2781197730', '2910515783', '2910572566', '2776611563', '2776329913', '2909923852', '84084929', '2910447036', '2781068581', '24025453', '16895185', '2910942381', '2909113772', '2909712894', '2910510930', '2775969318', '2776711289', '2777073666', '2778056992', '2909648069', '514793146', '2909635826', '2779709535', '2909441243', '2908879540', '2779260929', '2779780077', '2778642235', '202474031', '2780265533', '2910753673', '2777259179', '2910450856', '104428545', '2777037522', '2780625307', '2779904719', '2779056891', '2780661791', '2778792123', '2910796902', '99726746', '50548948', '2780124472', '190249596', '10708705', '2910885888', '174782155', '2779026020', '2909767798', '2910162420', '2908866808', '122816508', '2909161740', '2910619355', '2910679346', '120863210', '161721461', '2909306241', '2779605129', '2777476445', '2776148467', '2910180299', '2781090866', '2909289247', '25977355', '2780264453', '2909418356', '2909892840', '130010870', '2909216081', '63759246', '121608353', '2909560028', '2909130672', '2911115607', '2779639298', '196419574', '2776156579', '2776944266', '2775934075', '134011695', '2779306247', '2911089662', '2778703501', '2910330609', '2910974163', '192638826', '2780387140', '518429986', '2775983024', '2777524370', '2910946499', '2908696523', '2909746380', '2778886798', '2778134817', '2910851391', '2909034570', '2779687537', '102309675', '200886947', '2776619502', '2908933607', '2776354303', '2780829314', '2780802667', '2909309629', '2776294035', '2910856874', '2778812414', '2781375796', '2908544483', '192421092', '2777094939', '2909880373', '2910243004', '2908833630', '2909937578', '2778435157', '2780219170', '2910372796', '2909924856', '2779179121', '2779318699', '2781065829', '86807702', '2910702586', '2777543295', '2779976542', '2910512544', '2910580931', '2776876274', '2910873529', '2777263331', '2781427535', '91523082', '2909013882', '2779572924', '186060115', '2909176266', '2781236523', '118493204', '2908716116', '2909289354', '2909074196', '2779547902', '2778205836', '2781079905', '2781155112', '2776672577', '109335069', '2908626383', '2780961768', '2777995074', '140173407', '2910351883', '2780327369', '2911055744', '2777039924', '76334062', '2775887326', '193641492', '2776271655', '2908639710', '2777601251', '2778926808', '76318530', '2908597655', '2909217002', '2777119779', '2778364623', '2776849203', '2908571974', '2779989835', '2909124741', '2780078609', '2778778528', '96024061', '2777096885', '2778326925', '2909060831', '2910393698', '2909003343', '2909554094', '2780117679', '2909400315', '66518211', '2777001087', '2911195910', '52237779', '2910347904', '2909187439', '2909478654', '2776371013', '192989942', '2908887053', '2909013848', '2909571003', '2909819211', '2778582513', '2779553658', '2779330695', '2908558035', '2777122282', '2909798717', '2779463451', '2777183381', '2909496250', '2908783082', '2778302484', '122881758', '2776347944', '2778108741', '2910538949', '2908680708', '2910957042', '2777251534', '2781146222', '2780064007', '2780400174', '148762608', '136339569', '2909166674', '2910047555', '2908824208', '2909179462', '2776202747', '2910052307', '2780370499', '2781069445', '2781190966', '2777327098', '2781149210', '2910795874', '2908816204', '2909082010', '2778236049', '2776877979', '2778083953', '2777815949', '2910564629', '2777325788', '2908612870', '62085286', '14498672', '2777063560', '2908794571', '2909863685', '2910929040', '122245378', '2910589545', '2910509200', '2781143854', '2778815482', '2776365654', '2909510862', '2908908890', '2911142504', '23458808', '2777274916', '2780128776', '2777904497', '2776618447', '192144188', '2910720111', '2780911694', '66509814', '2780253789', '2778849806', '152541439', '2909646321', '2910268463', '2778196918', '2909258576', '2909400247', '45946802', '167785021', '2909820145', '70976792', '177242865', '2776394215', '2908870636', '2909237513', '109986877', '70508372', '2779574689', '2776232661', '2781145721', '2910115531', '2909426422', '2777262533', '2910449239', '2776008845', '2776153500', '163214680', '2779117320', '2780740339', '61943457', '2910694641', '2910825464', '82407246', '2780486423', '2776442642', '2776193487', '2781320305', '2775983084', '2779820661', '2911189471', '2781404787', '2910059436', '2780313191', '61535369', '2910055077', '2776852548', '2778373633', '2777035104', '2777024832', '2779783494', '24639789', '163015866', '2776823004', '2776598537', '2910501321', '72859922', '2777148671', '66332616', '2909730276', '2780463659', '2910841907', '521466935', '2911218661', '43100952', '2908954532', '2908825957', '2776441662', '2778166195', '2780158643', '2778931672', '2778402387', '2779782549', '2910852173', '2909922364', '2909380268', '2909396454', '2779560327', '2779727006', '2775955145', '2909709259', '2777909021', '109110057', '2776614240', '2780808130', '2910552071', '2908817208', '2909191862', '175239898', '2910790459', '2909688399', '2776056826', '2910435271', '2910547607', '2909271675', '2909909390', '2777846895', '57827392', '31861589', '2780778915', '2778413174', '2777608072', '2776907518', '2779625713', '2910629037', '2779256933', '2779566273', '2780036600', '2776002628', '2779798986', '2910304164', '2778077901', '2779155165', '2910983684', '2909069917', '87115717', '2777629877', '2779292878', '2779015095', '2910295775', '2909439219', '2909096955', '2780194577', '2776881634', '2781058065', '2776750431', '2779134260', '49790547', '2780788075', '128534915', '2909275977', '2775926220', '2778721783', '86589073', '2909390350', '135215475', '2778000598', '2780074459', '50738837', '75648832', '168557263', '2910076441', '2781051968', '2780716463', '2777012970', '2777010014', '2776858399', '2780314596', '2778564307', '2777511904', '2778341440', '2778230777', '2780041246', '2778460930', '2780317664', '2778886182', '2909921777', '2776362216', '2777343845', '2780017991', '102747710', '2910671571', '2908859737', '2776002364', '2778252442', '2777434363', '90642696', '2776572573', '2778843546', '2909443401', '2776260265', '165135838', '2779740938', '115466790', '2910812615', '153891595', '2780985703', '2778702312', '2778307567', '2909706936', '2778003512', '2776634560', '2781085983', '143590678', '2908564923', '22889606', '2781343717', '2779399171', '2909235696', '2776821229', '2910510208', '2778049957', '2780557958', '183476254', '2778629024', '2910665464', '2909916134', '2779434656', '2909645836', '2776025840', '2909999080', '2776969849', '2777545690', '2909203042', '2778914577', '76944698', '2779528915', '105083479', '2780394722', '58693492', '201770970', '2911041505', '2776119998', '106476913', '2908892365', '2776782570', '2780861865', '2909570427', '2778954852', '2908996419', '2775991916', '2781176444', '2909786013', '2779910497', '2780017199', '84029825', '2777793825', '2781113838', '2779450786', '35127690', '2777980482', '2911092792', '2779862289', '2908807597', '125168821', '2779399491', '546668722', '2777799353', '2908826541', '2910810122', '2910665998', '2779158372', '2779984678', '2910404347', '2780092158', '2910413752', '107400117', '2779359454', '29144244', '2780211071', '60987743', '186697258', '2779996878', '128644962', '67649825', '2776592573', '2910659883', '2908869576', '2776246508', '2779295919', '2780223747', '2778496288', '2779307360', '2911034623', '2780215918', '2778393178', '156310829', '2779934757', '2910319698', '2909738003', '2910348580', '164953862', '2777280662', '109964505', '2780732942', '63527458', '94277651', '2908771931', '177857423', '48424934', '131140426', '2779613421', '200368925', '2777000465', '2778470496', '108737030', '2910619602', '2778587949', '2910881853', '2781436128', '2779845715', '2910732721', '2781173052', '2777655228', '2779468541', '2780875711', '2909345990', '175182502', '57322979', '63412515', '169274487', '2908762713', '2910357638', '2909285522', '2776291583', '2908797038', '2911014816', '2780839761', '2776982972', '2778891214', '2908880353', '2776712624', '2778489779', '2780882493', '17954761', '2781347138', '2779226451', '2776570665', '2909780162', '2910490598', '75806775', '2777818683', '2910672876', '2777063151', '2909722292', '2778255925', '2910344022', '27081682', '113214860', '2779245893', '2908713542', '2911054351', '2776032975', '2910364982', '94561458', '194789388', '2778885411', '2778058069', '2777135737', '2910584937', '2778952445', '502991105', '2776805190', '2778945730', '2779564212', '195855529', '2909510218', '2909897970', '2911087006', '2779117456', '2910272010', '71829478', '2777195788', '2777683767', '2781294074', '2780485487', '60325843', '127812441', '2776728740', '2910834954', '2779491988', '2911123837', '2911010818', '2780035233', '2910687863', '2780815205', '2909353518', '2778052368', '2908929649', '2776743756', '2780616540', '2776777198', '2910076740', '191548132', '2908809738', '2779454681', '2776418732', '2776397665', '2781325737', '2780408053', '2909353894', '20387591', '2778753352', '44695001', '2908738455', '2780705028', '2777342061', '2777863708', '2780526094', '2778759172', '2776255415', '2910800504', '2778822642', '2908940412', '2908844159', '2908932708', '2779625551', '2909395874', '2776863245', '2909965934', '536800656', '2909352924', '2779176400', '2781068499', '2777215034', '2908645000', '2776687534', '2780965534', '946728', '16525657', '138816342', '2780898057', '2776282453', '2775855180', '2780333324', '2910685284', '2909109107', '2775880387', '90061646', '2910053781', '95209845', '2908807754', '2909128952', '2780636014', '2779250420', '2778826181', '2777636572', '2908910360', '2776096487', '64618202', '2909897528', '518773536', '2911028106', '2781031557', '2910221598', '2779630960', '2779278165', '150684551', '2777297899', '143380155', '2779309623', '2780993623', '2777982462', '2778994441', '2781232182', '2777210190', '7301908', '2780571819', '2909232352', '2776035513', '2779543035', '2776978955', '2781058662', '81603835', '2909762784', '182421915', '155175808', '2909836580', '2909210223', '2777585161', '2910730351', '83898325', '75141282', '2777952589', '2777913248', '2780325297', '2780605044', '2777859073', '2777241137', '2776165368', '2776964564', '2776289493', '2780080261', '2779490353', '2778820342', '2910335277', '2778503633', '2780473363', '2776531937', '2781371259', '2780814755', '2777615863', '2910491341', '120488504', '2909198672', '2910238016', '85813293', '2775955205', '2776165558', '187749391', '2780404832', '2909222946', '2778766267', '2910404190', '2909081213', '2776924286', '2780748539', '2780096663', '2777956591', '90620890', '2778311097', '2910451168', '2778091532', '2778754328', '2776285023', '2777475103', '187785154', '2778096610', '104672736', '2777218350', '2911060498', '2908652930', '2778689963', '2909567013', '2910962080', '2910730981', '2779055221', '128526571', '2781232936', '2776356786', '2776687281', '2910472296', '2910135376', '2909735910', '2777300220', '2776353288', '2781046454', '153074725', '2777957205', '2776599710', '18823058', '522683910', '2910316244', '2909408797', '2910177379', '170370582', '2777257487', '2776280935', '2780292510', '2779123372', '93173128', '102107297', '2780914113', '2778093539', '2911049483', '2779357504', '2910908060', '2909439922', '2911216061', '2777785214', '2776872704', '51915194', '114565086', '2910794633', '2776048318', '2778931329', '2910308925', '2781260171', '2780632150', '2779466945', '2780146029', '2910457814', '2777425297', '2781290027', '2780959883', '2909157853', '2908666080', '2908561617', '2910073138', '2778504769', '2778263588', '88675164', '2780568436', '2778432232', '2780647328', '2909836756', '2910697110', '2775942659', '2908549696', '116887118', '2909381126', '104628117', '2781167329', '2910083286', '2778894405', '2780333948', '2910760841', '2776919953', '2909502862', '2779237934', '2911006069', '2775992611', '2778517091', '2908839835', '2910098560', '2778497218', '10775765', '2910721166', '2910530570', '78150878', '2777977768', '2780140890', '2776629196', '2779358675', '2910574371', '2910427980', '2776752996', '278</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Reference Daily Intake', 'Medical technology assessment', 'Arterial stiffness', 'Necrobiosis lipoidica', 'Hemorrhagic fever virus', 'Every Four Weeks', 'Ciona', 'Ovule', 'Oral Surgical Procedures', 'Dental stone', 'Topographic Wetness Index', 'Lung biopsy', 'Adolescent medicine', 'Systems neuroscience', 'Helicobacter Infections', 'Revised Trauma Score', 'Peanut agglutinin', 'Superior mesenteric artery syndrome', 'Thrombocytopenic purpura', 'Tobacco users', 'Pigmentation disorder', 'Sphinx', 'Anger Control', 'Emotional and behavioral disorders', 'Anticoagulant drug', 'Hypoglossal nerve', 'Prostate cancer screening', 'Pulmonary vessels', 'Cancer-related fatigue', 'Osteonecrosis of the jaw', 'Carotid ultrasonography', 'Stibophen', 'Paratyphoid fever', 'Verbal memory', 'Primary amenorrhea', 'Childhood leukemia', 'Maternal infection', 'Geniculate', 'Acute kidney failure', 'Endoscope', 'Cuff pressure', 'Empirical likelihood', 'Peroxisome proliferator-activated receptor alpha', 'Atrial Remodeling', 'Human decontamination', 'Autoimmune encephalitis', 'Myxoid liposarcoma', 'Invasive lobular carcinoma', 'Grain elevator', 'Tendon graft', 'Solitary pulmonary nodule', 'High-Grade Glioma', 'Vulvar Carcinoma', 'Pregnancy Report', 'Palmitoylethanolamide', 'Veterinary microbiology', 'Capsular Invasion', 'Immunologic memory', 'Ventricular system', 'Lycium', 'Ultrasound Radiation', 'Upper respiratory tract infection', 'Recurrent laryngeal nerve', 'Barostat', 'Obstructive hydrocephalus', 'Renal blood flow', 'Animal models of depression', 'Optic neuropathy', 'Crawling', 'Olfactory bulb', 'Fibula', 'Vocal tics', 'Urethral sphincter', 'Endoscopic endonasal surgery', 'Babesia', 'Inflammation Process', 'Metabolism', 'Arsenic toxicity', 'Corticotropic cell', 'SAMHD1', 'Plasmablastic lymphoma', 'Stearidonic acid', 'Pathology reporting', 'Helpline', 'Skin tumours', 'Organic mental disorders', 'Aplasia', 'Prenatal Exposure Delayed Effects', 'Early Hepatocellular Carcinoma', 'GPS2', 'Terrestrial locomotion', 'Porphyria cutanea tarda', 'Carotid Artery Thrombosis', 'Leptin Receptor Gene', 'Axoplasm', 'Nervous tissue', 'Cabazitaxel', 'Opioid Receptor Binding', 'Development communication', 'Behavior change methods', 'Immunoblot Analysis', 'Pregnancy rate', 'Transfusion medicine', 'Contact Transmission', 'Troponin T', 'Mixed lymphocyte reaction', 'Intrinsic factor', 'Calprotectin', 'Gastropexy', 'Claustrophobia', 'Prosocial behavior', 'Netrin', 'Branchial Cyst', 'Caliciviridae Infections', 'Prolonged labour', 'Content processor', 'Autonomic Nerve Block', 'Long Saphenous Vein', 'Vernonia amygdalina', 'Didelphis', 'Negative HIV', 'Lower limbs venous ultrasonography', 'Premature Beats', 'Bay K8644', 'Dental auxiliary', 'Contrast-enhanced Magnetic Resonance Imaging', 'Cardiospasm', 'Global developmental delay', 'Hamstring Tendons', 'Industrial radiography', 'Orexin', 'Virtual reality simulator', 'Chronic Migraine', 'Non-Hispanic whites', 'Interstitial fluid', 'Preterm Births', 'Golden hamster', 'Somatic cell count', 'Dental lamina', 'Antiandrogen Therapy', 'Pulmonary hypertension', 'Deformity', 'Mammary tumor virus', 'Telemedicine', 'Stellate ganglion block', 'Concomitant drug', 'Neonatal age', 'Cryotherapy', 'Caseous lymphadenitis', 'Radioligand Assay', 'Beta particle', 'Cognitive inhibition', 'Nonsteroidal', 'CDC2 Protein Kinase', 'Gluteal region', 'Peptide vaccine', 'Urotensin-II', 'Second rib', 'Laryngeal mask airway', 'Adalia', 'Hemoperfusion', 'Muscular system', 'Strongylocentrotus droebachiensis', 'Experiential avoidance', 'Heart-Lung Transplantation', 'TIRAP', 'NFATC Transcription Factors', 'Liposomal Bupivacaine', 'COPD', 'Chemokine secretion', 'General physician', 'Acute tubular necrosis', 'Pelvic kidney', 'Corn oil', 'Psychological disturbance', 'Streptococcus zooepidemicus', 'Aortic occlusion', 'Bleeding time', 'Technostress', 'Motherwort', 'Systemic vasculitis', 'Clot retraction', 'Rhesus Isoimmunization', 'Phage types', 'Paliperidone', 'Fotemustine', 'Atorvastatin', 'NADPH oxidation', 'Viral antigens', 'Scrotum', 'Local lymph node assay', 'Myoclonic Jerk', 'Percutaneous transluminal coronary angioplasty', 'L-type calcium channel', 'Embryonic heart', 'Abrupt onset', 'Acitretin', 'Microcirculation', 'Indican', 'Polypus', 'Co-receptor', 'HLA-B', 'Fibrin Monomer', 'Hepatitis vaccine', 'Dipsacus', 'Myocardial bridge', 'Spinal trigeminal nucleus', 'Gastric acidity', 'NFKB1', 'Janus kinase inhibitor', 'Cholescintigraphy', 'STAT5', 'Edema', 'Dihydroxyphenylalanine', 'Paraphilia', 'Carney complex', 'Ostertagiasis', 'Keratocystic Odontogenic Tumor', 'Interpeduncular nucleus', 'Total energy expenditure', 'Internal iliac artery', 'Dissolution testing', 'Sorbitol dehydrogenase', 'Review Literature as Topic', 'Nasopharyngeal neoplasm', 'Adenocarcinoma', 'Inflammation mediators', 'Micropenis', 'Blended learning', 'Monogenea', 'Suprachiasmatic nucleus', 'ORAI1', 'Hand therapy', 'Cortical Synchronization', 'Induced ventricular tachycardia', 'Sugar intake', 'Abdominoperineal resection', 'Free triiodothyronine', 'Adult Children of Alcoholics', 'Pathogenesis', 'Biperiden', 'Minute virus of mice', 'Odontogenic', 'Sex preselection', 'Riboflavin deficiency', 'Microdensitometer', 'Alternative medicine', 'Podarcis', 'Homogentisate 1,2-dioxygenase', 'Adnexa Uteri', 'Hyperacusis', 'Metropolitan planning organization', 'Phosphodiesterase 2', 'Filum terminale', 'Coeliac syndrome', 'Peptide YY', 'Lipoic acid', 'Muscle contraction', 'Cerebral veins', 'Dopamine receptor D5', 'Cavernous hemangiomas', 'Retinal Prosthesis', 'Interstimulus interval', 'Lacrimal apparatus', 'Masseter muscle', 'ATP citrate lyase', 'Femoral nerve', 'Neuromelanin', 'Receptor editing', 'Anaesthetic Agent', 'Chest surgery', 'SAPS II', 'Histamine secretion', 'Motor speech disorders', 'Acarbose', 'Matrix gla protein', 'Renal agenesis', 'Atypical Lymphocyte', '5-HT1A receptor', 'Polyuria', 'Biliary fistula', 'Hair transplantation', 'Benign condition', 'Second messenger system', 'Thyroid hormones', 'Communicating hydrocephalus', 'Methyl isocyanide', 'Ixodes ricinus', 'Oil Red O', 'Anal Region', 'Ehrlichia', 'CIITA', 'Atypical hemolytic uremic syndrome', 'Recommended Intake', 'Reference range', 'Subset Analysis', 'Adrenal Cyst', 'NADPH dehydrogenase', 'Microphthalmos', 'Esophageal varices', 'GABBR1', 'Helicobacter Pylori Infections', 'Environmental medicine', 'P2Y12', 'Newborn screening', 'Cardiovascular Surgical Procedure', 'Clomifene', 'White matter', 'Fetal Heart Rate Variability', 'Acute ulcerative colitis', 'Autoimmune Process', 'Sphingolipid', 'Human back', 'Feline infectious peritonitis', 'ORTHODONTIC PROCEDURES', 'Protein A', 'Juvenile hormone', 'Cocaethylene', 'Labor presentation', 'Ebselen', 'Colonic obstruction', 'Hand strength', 'Meta-regression', 'Limbic system', 'Eimeria acervulina', 'Cell Cycle Gene', 'Cytokine release syndrome', 'Acyl CoA dehydrogenase', 'Intestinal resection', 'Cobb angle', 'Years of potential life lost', 'Superior longitudinal fasciculus', 'Coping resources', 'HIV Antigens', 'Blepharoplasty', 'Absolute risk reduction', 'Before Bedtime', 'Beriberi', 'Cardioverter-Defibrillator', 'Adrenocortical hyperfunction', 'Cardiac Ventricle', 'Phlebovirus', 'Chemostat', 'Certolizumab pegol', 'Endogenous opioids', 'Myotonia congenita', 'Plant sterols', "2',3'-Cyclic-nucleotide 3'-phosphodiesterase", 'Vomiting', 'External fixation', 'Cholesterol biosynthesis', 'Inner nuclear layer', 'Trypanosoma brucei rhodesiense', 'Adrenal cortex', 'Cisterna magna', 'Somatomedin', 'Hypotensive agents', 'Community-based rehabilitation', 'Blood Glucose Measurement', 'Heart bypass', 'Secondary sex characteristic', 'Retinaldehyde', 'Beta-thalassaemia', 'Fat necrosis', 'Lysholm Knee Score', 'Henoch-Schonlein purpura', 'Repaglinide', 'Microgram', 'Developmental anomaly', 'Paraproteinemia', 'Costus', 'Monooxygenase', 'Positron emission tomography–magnetic resonance imaging', 'Valdecoxib', 'HIV drug resistance', 'Semen extender', 'Metaproterenol', 'Subependymoma', 'Pyroglyphidae', 'Profound sensorineural hearing loss', 'Progeria', 'Clear Cell Renal Carcinoma', 'Inhalation anesthesia', 'Epidemic hemorrhagic fever', 'Postpartum haemorrhage', 'Dorsolateral', 'Neuraminidase', 'Burn scars', 'Smoking ban', 'Tissue surface', 'Mucolytic Agent', 'Planar Imaging', 'Myelin-associated glycoprotein', 'Duodenal Neoplasm', 'Single-use bioreactor', 'Mexiletine', 'Viral hemorrhagic septicemia', 'Translational science', 'Flap necrosis', 'Tissue respiration', 'Crimean-Congo haemorrhagic fever', 'Mouse Submandibular Gland', 'Chronic allograft nephropathy', 'Immunotoxin', 'Connected health', 'Bradykinin', 'Metallosis', 'Adrenergic', 'Adenosine triphosphate', 'Maspin', 'Local cancer', 'Engineered tissue', 'Diaphysis', 'Oral region', 'Patient representatives', 'Leukemia cutis', 'Photoplethysmogram', 'Adjuvant', 'Intraocular lymphoma', 'Methylprednisolone acetate', 'Norverapamil', 'Shock position', 'New Zealand white rabbit', 'Job safety analysis', 'Posterior mediastinum', 'Scanning ion-conductance microscopy', 'Insoluble fiber', 'Metabolic aspects', 'Chronic pain', 'Medial meniscus', 'Natamycin', 'Allergic conjunctivitis', 'Liver circulation', 'Vaginal fornix', '5-Hydroxyindoleacetic acid', 'Clastogen', 'Case fatality rate', 'Sumatriptan', 'Inferior colliculus', 'Infraorbital nerve', 'Brodmann area 10', 'End-diastolic volume', 'Disease reservoir', 'Normal appearance', 'Mediastinal tumor', 'Interstitial cystitis', 'Gastrointestinal pathology', 'Trochophore', 'CYSTIC DEGENERATION', 'Vascular smooth muscle cell migration', 'Acute obstruction', 'Purine', 'Chromosome 12', 'Radiation oncologist', 'Nursery pig', 'Pancreatic abscess', 'Impella', 'Lateral ventricles', 'Psoralea corylifolia', 'Nosocomial transmission', 'Orphan diseases', 'Ambulatory Surgical Procedure', 'Immunosenescence', 'Antidote', 'Primary metabolite', 'Suspensory ligament', 'RPTOR', 'First responder', 'Mortality rate', 'Cervical insufficiency', 'Eczematous dermatitis', 'Interferon alfa', 'Homeopathy', 'Sphingomyelin phosphodiesterase', 'Radical excision', 'Scramble for Africa', 'Leukemia', 'Amadori rearrangement', 'Hair mercury', 'Knee arthritis', 'Sodium stibogluconate', 'Tospovirus', 'Vanillylmandelic acid', 'Ct scanners', 'Ichthyophthirius multifiliis', 'Glutamate dehydrogenase 1', 'Tenosynovitis', 'Movement assessment', 'Blastema', 'Student nurse', 'Magnetoresistance', 'Prophylactic Mastectomy', 'Ginsenoside Rd', 'Ghost cell', 'Cross immunity', 'Global Health Initiatives', 'Toxicity', 'Oral allergy syndrome', 'TRH stimulation test', 'Serotonin transporter', 'Computed tomography dose index', 'Monoclonal gammopathy', 'Tremelimumab', 'Dichlorodifluoromethane', 'Hepatoprotection', 'Ventriculotomy', 'Insulin resistance', 'Prescribed medications', 'Paraumbilical vein', 'Facial tissue', 'Ovoviviparity', 'Carnitine palmitoyltransferase I', 'Mental suffering', 'Goblet cell', 'Pyrenoid', 'Congenital hepatic fibrosis', 'Otoplasty', 'Cytisine', 'Generally recognized as safe', 'Cistanche', 'Sucrase', 'Screening cancer', 'Bacteroidaceae', 'Ranavirus', 'Palpation', 'Anaplasia', 'Suicide methods', 'Barratt Impulsiveness Scale', 'D-lysergic acid diethylamide', 'Pancreatic juice', 'Pharmacoepidemiology', 'Idiotopes', 'Pemphigus vulgaris', 'Vinpocetine', 'Colon polyps', 'Gömöri trichrome stain', 'Chronic Cystitis', 'Uveitis', 'Major histocompatibility complex', 'Disodium cromoglycate', 'Viral membrane', 'Neurotensin receptor 1', 'Fibrinopeptide A', 'Peptic Ulcer Perforation', 'Dexamethasone', 'Well Differentiated Hepatocellular Carcinoma', 'Glucose meter', 'Subtotal pancreatectomy', 'Ecophysiology', 'Premedication', 'Chronic Active', 'Phosphocreatine', 'Glucose tolerance test', 'Myelin oligodendrocyte glycoprotein', 'Rotavirus detection', 'Ocular motility', 'Shea butter', 'Cognitive strategy', 'Products of conception', 'RESTING HEART RATE', 'HpaII', 'Probucol', 'Lenvatinib', 'Benign early repolarization', 'Heart Aneurysm', 'CARBON TETRACHLORIDE POISONING', 'Subjective variables', 'Rational emotive behavior therapy', 'Right index finger', 'Exon junction complex', 'All fingers', 'Ragweed pollen', 'Asbestos fibers', 'Hypomagnesemia', 'Pulse oximeters', 'Ambystoma mexicanum', 'Perfusion', 'Excipient', 'Cold urticaria', 'Enzyme therapy', 'Immunoperoxidase', 'Gene regulatory network', 'Total Mastectomy', 'Frontotemporal lobar degeneration', 'Tumor Cell Migration', 'Dosing', 'Estrogen receptor beta', 'Acid alpha-glucosidase', 'Penicilliosis', 'Myocardial oxygen consumption', 'Benzamide', 'Parakeratosis', 'Hyperlactatemia', 'Necroptosis', 'Prenatal diagnosis', 'Enucleation', 'Contrast-induced nephropathy', 'Mantis', 'Phenylacetylcarbinol', 'Interleukin 20', 'Routine immunization', 'Retrograde ejaculation', 'Interleukin 32', 'Ophthalmologic examination', 'EP4 Receptor', 'Caries Removal', 'Enteral administration', 'Hip disarticulation', 'Signal-averaged electrocardiogram', 'Murine typhus', 'Biomphalaria glabrata', 'Sodium channel', 'Leg exercise', 'Classification of obesity', 'GABA transporter 1', 'Organic anion transport', 'Bradykinin receptor', 'Minor injury', 'Basophilic', 'Hair cell', 'Vasa recta', 'Parecoxib', 'Sauria', 'Gingival inflammation', 'Polyhydramnios', 'Gonad', 'Panic disorder', 'Farinograph', 'Dehydroascorbic acid', 'Absolute threshold of hearing', 'Nephrosis', 'Encephalitis', 'Bronchial thermoplasty', 'Normal intraocular pressure', 'Sodium benzoate', 'Cloprostenol', 'Flip', 'Trichomoniasis', 'Ductal carcinoma', 'Metastatic gastric cancer', 'Tenofovir', 'Salmonella', 'Pure autonomic failure', "Descemet's stripping endothelial keratoplasty", 'Plasmodium berghei', 'Isotype', 'Masked Hypertension', 'Potyvirus', 'Thunderclap headaches', 'Folk medicine', 'Nude mouse', 'Macular degeneration', 'Ophthalmic solutions', 'Adenomatoid odontogenic tumor', 'Peripheral blood mononuclear cell', 'Fibrocyte', 'Nerve guidance conduit', 'Breast disease', 'Heparanase', 'Computer-assisted surgery', 'Minimally invasive procedures', 'Osteotome', 'HIV superinfection', 'Proprotein convertase 1', 'Drug user', 'Treatment Schedule', 'Angiolymphoid hyperplasia with eosinophilia', 'Chemotaxis assay', 'Cognitive reappraisal', 'Elderly homes', 'Nasal Airway Obstruction', 'Soft tissue', 'Trypanosoma', 'Peritoneal dialysis', 'Typing', 'Sieving coefficient', 'Dexmethylphenidate', 'Corpectomy', 'Cerebrospinal fluid', 'Transplantation', 'Medial forebrain bundle', 'Therapeutic drug monitoring', 'Peripheral Facial Paralysis', 'Stomach ulcers', 'Indocyanine green videoangiography', 'AN - Acoustic neuroma', 'Karyorrhexis', 'Influenza virus RNA', 'Metanephrines', 'Delusional disorder', 'Vitamin K3', 'CDC25A', 'Sports nutrition', 'Platelet aggregation inhibitor', 'Maternal Hypotension', 'Ergometrine', 'Graft tissue', 'Stimulus onset asynchrony', 'Xenarthra', 'Anti-Arrhythmia Agents', 'Erythromelalgia', 'Rapid response team', 'Polymerization', 'Clinical neuroscience', 'Acetylcholine', 'Donor tissue', 'Elective Cesarean Delivery', 'Chronic eczema', 'Catheter', 'Hemangioma', 'Keyhole limpet hemocyanin', 'Eclipta prostrata', 'Altitude sickness', 'Apexification', 'Genetic diversity', 'Cervical lymph nodes', 'Perirhinal cortex', 'Population Replacement', 'Angiotensin II Type 1 Receptor Blockers', 'Subjective phenomena', 'Alpha-synuclein', 'Group home', 'Post-radiation', 'NS2-3 protease', 'Gastrointestinal complications', 'Glutathione disulfide', 'Digital elevation model', 'Balneology', 'Ascorbic Acid Deficiency', 'Ovotestis', 'Vagal stimulation', 'Artemisinins', 'Immunodeficiency Syndrome', 'Neurotensin receptor', 'Interleukin-21 receptor', 'Foreskin', 'H-Y antigen', 'Curative care', 'Kupffer cell', 'Intracranial meningioma', 'Intravital microscopy', 'Ephedrine', 'Posterior column', 'Schizonepeta', 'Disease markers', 'Yoshida Sarcoma', 'Fibrosarcoma', 'Osteotomy', 'Sodium pentobarbital', 'Amiodarone-induced thyrotoxicosis', 'Hyperkinesis', 'Myelofibrosis', 'Immunoglobulin genes', 'EZH2', 'Endoscopy', 'Partial Hydatidiform Mole', 'Ventricular remodeling', 'Visceral larva migrans', 'Procambarus clarkii', 'Filgrastim', 'Reserpine', 'Live birth', 'Theileria annulata', 'Skull Neoplasm', 'Acinetobacter sp', 'Axonal loss', 'Basal forebrain', 'Culture bacteria', 'Cingulate cortex', 'Laryngoplasty', 'Sulfalene', 'Credible interval', 'Desmoplasia', 'Ketoconazole', 'Photoactivated localization microscopy', 'Classification treatment', 'Mucin', 'Command neuron', 'Immunotoxicology', 'O-6-methylguanine-DNA methyltransferase', 'Filipin', 'Meloxicam', 'Colorectal adenocarcinoma', 'Chronic ulcers', 'Transdifferentiation', 'Single tumor', 'Periodic paralysis', 'Cognitive resource theory', 'Neurotrophin-3', 'Endothelial protein C receptor', 'Tectum', 'Neurotransmitter Agents', 'Influenzavirus B', 'BCG vaccine', 'Biological imaging', 'Telangiectasia', 'Faecal calprotectin', 'Mansonia', 'HIV Seronegativity', 'Puerperal sepsis', 'Small tumors', 'Oesophageal obstruction', 'Sensory analysis', 'Angiogenesis', 'Azoxymethane', 'Mechanosensation', 'Team nursing', 'Dental Enamel Hypoplasia', 'Forceps delivery', 'Management of schizophrenia', 'TXNIP', 'Abdominal aorta', 'Sclerostin', 'Respiratory acidosis', 'Reoviridae', 'Supraorbital nerve', 'Microsoma', 'Dapsone', 'Lung volumes', 'Lysosomal storage disorders', 'Enhancer trap', 'Pre-Registration', 'Synaptic vesicle recycling', 'Health services research', 'Angioma', 'CSF pleocytosis', 'Pterygoid Muscles', 'Portography', 'Neuronal Growth', 'Erythrocyte aggregation', 'Atheromatosis', 'Penile Intraepithelial Neoplasia', 'Amiodarone', 'Pharmaceutic Adjuvant', 'Immune dysregulation', 'Sexual dysfunction', 'Alfalfa mosaic virus', 'Nasal passages', 'Pharmaceutical Adjuvants', 'Ciliary arteries', 'Adrenergic beta-Agonists', 'Independent living', 'Retroperitoneal Neoplasm', 'Serum amylase', 'Fluid extract', 'Clinical pastoral education', 'Myofibroblastoma', 'Mycoplasmataceae', 'Escherichia coli Vaccines', 'Decompression', 'Addictive behavior', 'Glans penis', 'Levamlodipine', 'Peripartum cardiomyopathy', 'Pyloric stenosis', 'Busulfan', 'Neuregulin 1', 'Neocortex', 'Neointima', 'Carbohydrate deficient transferrin', 'Psychiatric Training', 'Cigarette use', 'Hypervitaminosis', 'Hyperaldosteronism', 'Pseudogout', 'Metformin', 'Penis', 'Agglutinin', 'Oesophageal pressure', 'Melatonin receptor', 'Heart transplants', 'Glomerulosclerosis', 'Nasal Cannulae', 'Samara', 'Safety behaviors', 'Home management', 'Cochlear duct', 'Emergency medical services', 'Pneumococcal Diseases', 'Involved muscles', 'High-pitched', 'Rating of perceived exertion', 'Arterial diseases', 'Brachialis', 'Nutritionist', 'Hematological Diseases', 'Spasticity', 'Receptivity', 'N-Nitrosodimethylamine', 'Phalanx', 'Right inferior frontal gyrus', 'Touch Perception', 'Chronic ischemic heart disease', 'Occupational exposure limit', 'Presenting problem', 'Lateral femoral condyle', 'Portable toilet', 'Circulation disorders', 'Chronaxie', 'Acupuncture', 'Concurrent validity', 'Cellular Infiltrate', 'Postprandial', 'Papillary adenocarcinoma', 'Complete rupture', 'Precision Medicine Initiative', 'IEEE 802.1Q', 'Functional constipation', 'Borderline personality disorder', 'Predictive marker', 'Hydralazine', 'Fair computational tree logic', 'Reflux', 'Profound hypothermia', 'Benzoylecgonine', 'Temporomandibular joint', 'Actinobacillus pleuropneumoniae', 'Prostatic acid phosphatase', 'Ophthalmology clinic', 'Hashish', 'Ventricular fibrillation', 'Vernier acuity', 'Spin valve', 'Exhaled nitric oxide', 'Allergy history', 'Cementoblastoma', 'Common hepatic duct', 'Pathogenicity', 'RIPK1', 'Dapoxetine', 'Conduit metaphor', 'Root Canal Obturation', 'Fabrication', 'Mean difference', 'Macrophage colony-stimulating factor', 'S9 fraction', 'Cleaning teeth', 'K-complex', 'Wechsler Preschool and Primary Scale of Intelligence', 'Climbing fiber', 'Rochester Epidemiology Project', 'Ablation zone', 'Melasma', 'Triple Negative Breast Neoplasms', 'Opsin', 'Bordetella parapertussis', 'Minor surgical procedure', 'Serial dilution', 'Pharyngocutaneous Fistula', 'Hydrophobia', 'Buccal Surface', 'Chordee', 'Immature teratoma', 'Femoral epiphysis', 'Antibiotic Stewardship', 'Echinoderm', 'Palliative Care Nursing', 'Choroiditis', 'Transvaginal ultrasonography', 'Cavernous sinus', 'CD11c', 'Generic drug', 'Oval window', 'Population health', 'Multiorgan failure', 'Digital holographic microscopy', 'Sedative Effects', 'Melanin-concentrating hormone', 'CLN3', 'Cnidium', 'Motor speech', 'Progressive disease', 'Argasidae', 'Low cholesterol', 'Tibialis anterior muscle', 'Naltrexone', 'Uterine Neoplasm', 'Adhesive bandage', 'Thoracostomy', 'Mannan-binding lectin', 'Enzootic Bovine Leukosis', 'Temazepam', 'Anchoring fibrils', 'Neuroligin', 'Hand eczema', 'Adrenomedullin', 'Language and thought', 'Small tumours', 'Neurokinin B', 'Mycobacterium smegmatis', 'Smooth muscle cell differentiation', 'Allogeneic Lymphocyte', 'Acute respiratory disease', 'Optic chiasm', 'Cribriform', 'Breech delivery', 'Femoral Neoplasms', 'Asbestos cement', 'Inositol trisphosphate', 'Pyroptosis', 'Glomerulonephritis iga', 'Epileptic spasms', 'Nicotine patch', 'Drug packaging', 'Small finger', 'Connective tissue disease', 'Hypothermia', 'Triamcinolone hexacetonide', 'Skin physiology', 'Regulation of gene expression', 'Relative age effect', 'Oncofertility', 'Sigmoid colon', 'Neuropeptide Y receptor Y2', 'Log-logistic distribution', 'Gamma-glutamyltransferase', 'Misonidazole', 'Ion channel blocker', 'Abnormal ECG', 'Right to know', 'Coccidiostat', 'Glutathione reductase', 'Work Capacity Evaluation', 'Heart rate response', 'Neurophysiology', 'Biological network', 'Calcimimetic', 'Rocuronium Bromide', 'Lymphangiomatosis', 'Ligamentous laxity', 'Self-monitoring', 'Hypereosinophilic syndrome', 'Cytokeratin', 'FLACC scale', 'Paternal care', 'Skinning', 'Axillary lymph nodes', 'Troponin I', 'Fluid shift', 'Adefovir', 'Deep brain stimulation', 'Microwave ablation', 'Human genetics', 'Neuroanatomy of memory', 'Gastroepiploic Artery', 'Sudden cardiac arrest', 'Surgical clinics', 'Monocytosis', 'Neuropsychology', 'Prune belly syndrome', 'Dysexecutive syndrome', 'Injury mechanisms', 'Emotional eating', 'Syndrome of inappropriate antidiuretic hormone secretion', 'ADAM10', 'Stapes', 'Hydrostatic weighing', 'Heparinoid', 'Antivenom', 'Confocal scanning laser ophthalmoscopy', 'C-type lectin', 'Rheumatoid factor', 'Polyglutamate', 'Wound culture', 'Do not resuscitate', 'Platelet adhesiveness', 'Pancreas', 'Tumor Virus', 'Adapter molecule crk', 'GFAP stain', 'Brucella Vaccine', 'IgG4-related disease', 'Bone Marrow Stem Cell', 'Play therapy', 'Renal sympathetic denervation', 'Ordered logit', 'Secukinumab', 'Transoral laser microsurgery', 'Sensory neuron', 'Arteriolosclerosis', 'Pilocytic Astrocytomas', 'Breath test', 'Social model of disability', 'Delta-9-tetrahydrocannabinol', 'Electrical muscle stimulation', 'Cellular neuroscience', 'Pyloric Antrum', 'Hendra Virus', 'Peptic ulcer bleeding', 'Musculocutaneous Flaps', '5-HT2C receptor', 'Influenza-like illness', 'Test sensitivity', 'Organ dysfunction', 'Xanthelasma', 'Monosomy X', 'Opiate receptors', 'Influenza B viruses', 'Coturnix japonica', 'Right Common Carotid Artery', 'Right breast', 'Dexoxadrol', 'Alpha secretase', 'Criollo tobacco', 'Anaplastic thyroid cancer', 'Anabolic Agents', 'Self Referral', 'Gestation length', 'Uncaria gambir', 'Hepatic veins', 'SAIDS Vaccines', 'UGT2B7', 'Community of practice', 'Deep Inferior Epigastric Artery', 'Cyclin B1', 'Denosumab', 'Left internal mammary artery', 'Brain Contusion', 'Vascular Medicine', 'Dendritic spine', 'Cyclin H', 'Estrogen receptor binding', 'Epidemiologic Surveillance', 'Spontaneous ventilation', 'Advanced oxidation protein products', 'Body plan', 'Liolaemus', 'Stretch marks', 'Primary position', 'Frozen Section Diagnosis', 'Rasburicase', 'Infantile colic', 'Mastoparan', 'Concentric hypertrophy', 'Ulinastatin', 'Cystoscopy', 'Solitary tract nucleus', 'Ajmaline', 'Valsartan', 'Crista', 'Fall protection', 'Sleep onset latency', 'Electrolarynx', 'Available drugs', 'Pericardial sac', 'Glutamate carboxypeptidase II', 'Contrast enema', 'Language production', 'Panstrongylus geniculatus', 'Impression formation', 'Epidural space', 'Diffuse interstitial pulmonary fibrosis', 'Stress shielding', 'Methylmethacrylates', 'Nasal cavity', 'Follicular Cyst', 'Haematoxylin', 'Laryngoscopy', 'Anisotropy energy', 'Treatment of lung cancer', 'Endocardial disease', 'Salidroside', 'Drug carrier', 'Magnesium salts', 'Chemical toxicity', 'Germ plasm', 'Anterior teeth', 'Magnetic resonance neurography', 'Exemplar theory', 'Mycobacterium tuberculosis complex', 'Left internal carotid artery', 'GB virus C', 'Foreign-Body Migration', 'AIDS Epidemiology', 'Myokine', 'C2C12', 'Private club', 'Vaccinia', 'Herpes Labialis', 'Berenice', 'Acetophenone', 'TIMI', 'Wrist', 'Primary immune response', 'Tumor vaccines', 'Total care', 'Serum iron', 'Ferroxidase activity', 'Korean ginseng', 'Intravenous leiomyomatosis', 'Tenotomy', 'Complex posttraumatic stress disorder', 'Viral Myocarditis', 'Local bus', 'Anaplasma phagocytophilum', 'Victimisation', 'Infant bed', 'Nociceptin receptor', 'Mucin 2', 'Stress management', 'gamma-Aminobutyric acid', 'In vivo magnetic resonance spectroscopy', 'D2-like receptor', 'Pectoralis major muscle flap', 'Articular cavity', 'Bone Lengthening', 'College application', 'Keratin 17', 'Emergency nursing', 'Lifestyle management', 'Chest wall reconstruction', 'Low glucose', 'Colostomy', 'Orbital cellulitis', 'Ear tag', 'Thapsigargin', 'Maternal-fetal exchange', 'Paraldehyde', 'Dronedarone', 'Femur length', 'Cyclospora cayetanensis', 'Nondisjunction', 'Schistosoma Japonicum Infection', 'Nitric Oxide Synthase Type III', 'CHEK1', 'Dopamine agonist', 'ANILINE BLUE', 'P-glycoprotein', 'AP Biology', 'Addressin', 'Abnormal Liver Function Test', 'Chest tightness', 'Hindlimb Suspension', 'Primary ciliary dyskinesia', 'Triage', 'Salicylhydroxamic acid', 'Acute generalized exanthematous pustulosis', 'Infection rate', 'Type VII collagen', 'Sleep study', 'Tammar wallaby', 'Tonsillitis', 'Skin substitutes', 'Denervation supersensitivity', 'Retinal ischemia', 'Lipofectamine', 'Ventricular Tachyarrhythmias', 'Recurrent infections', 'Translabyrinthine approach', 'Percutaneous endoscopic gastrostomy', 'Bacteriophage', 'Kowsar', 'Gingival and periodontal pocket', 'Hexamethonium', 'Carpal tunnel', 'Audiometer', 'Coronary heart diseases', 'Bladder volume', 'Anaplasmosis', 'Mentorship', 'Melancholia', 'Legalization', 'Ovarian Cortex', 'Active immunotherapy', 'MutS-1', 'Giardia intestinalis', 'Observational methods in psychology', 'Knowledge transfer', 'One Hundred Fifty', 'Posterior commissure', 'Spermatic Cord Torsion', 'CINAHL', 'Ranitidine Hydrochloride', 'Iliac Aneurysm', 'Chemical ligation', 'Presumptive diagnosis', 'Brain weight', 'Esophageal Disorder', 'Bassinet', 'Acetaldehyde', 'Blood volume', 'Silicon photomultiplier', 'Proto-Oncogene Proteins c-myc', 'Iliac crest', 'Left brachiocephalic vein', 'Seborrhoea', 'Membrane channel', 'Lone atrial fibrillation', 'Biliary dyskinesia', 'Protein Z', 'Occlusive dressing', 'Interleukin 31', 'Pulmonary shunt', 'Cellular Debris', 'Hypoplasia', 'Ossification center', 'TGF alpha', 'Waterborne diseases', 'Vitiligo', 'Computed radiography', 'Perineum', 'Systole', 'Glucagon-like peptide-1', 'Memory B cell', 'Troponin complex', 'Anabolism', 'Pemphigus foliaceus', 'Oculomotor nerve palsy', 'Posterior Semicircular Canal', 'Orthodromic', 'Cardiac infarction', 'Salmonella Food Poisoning', 'Rosacea', 'Dental floss', 'Transabdominal approach', 'Electrical brain stimulation', 'Collagenase clostridium histolyticum', 'Embryonated', 'Cancer pain', 'Nerve conduction study', 'Dentin sialophosphoprotein', 'Thyroid tumors', 'Bradykinin B2 Receptor', 'Brain stimulators', 'Blood coagulation factors', 'Cassia-bark', 'Yohimbine', 'Chondromalacia', 'Recipient site', 'Expiratory Time', 'Norwalk virus', 'Visual short-term memory', 'Traction belt', 'Thromboxane B2', 'Enteric coating', 'MutS Homolog 2 Protein', 'Palliative Therapy', 'Avian Influenza A Virus', 'Manifest Anxiety Scale', 'Organ Motion', 'Acanthosis', 'Paradoxical reaction', 'Bleomycin A2', 'Rubeosis iridis', 'Dyscrasia', 'Telomere Homeostasis', 'Tropomyosin receptor kinase C', 'Coronary thrombosis', 'Flexor Carpi Ulnaris', 'Triplet Pregnancy', 'Thiomorpholine', 'Retinal pigments', 'Superior mesenteric artery', 'Opium alkaloids', 'Transition Care', 'Pathology Report', 'Disease mortality', 'Periodontal Membrane', 'Offspring', 'Historical Cohort', 'Infant Care', 'Cardioembolic stroke', 'Bronchodilation', 'Swine Erysipelas', 'Human granulocytic anaplasmosis', 'Coronary flow reserve', 'Callitrichidae', 'Dysfunctional uterine bleeding', 'Hyrax', 'Cervical canal', 'High-output heart failure', 'Sexual coercion', 'Odontoma', 'Proteolipid protein 1', 'Nerve growth factor production', 'Oral temperature', 'Social anxiety', 'Scatchard plot', 'Medial part', 'Geriatric Depression Scale', 'Control banding', 'Wheat allergy', 'Fast track', 'Oral habits', '3 Tesla Magnetic Resonance Imaging', 'Scleral buckling', 'Metabolic clearance rate', 'Fistulectomy', 'External carotid artery', 'Moderate depression', 'Left coronary artery', 'Canine parvovirus infection', 'Dietary Cholesterol', 'Adenovirus infection', 'Hard Capsule', 'Ventricular tachyarrhythmia', 'Chikungunya', 'Fluorocarbon', 'Pulmonary contusion', 'Mesothelin', 'Amygdalin', 'Primary tumor', 'Cervical lymphadenopathy', 'Reproductive medicine', 'Oral thrush', 'Multiple Sleep Latency Test', 'Trichostrongyloidea', 'Dental Assistant', 'Sex Determination Analysis', 'Anal verge', 'Postoperative hematoma', 'Vagus nerve stimulation', 'Emotional dysregulation', 'Thyroxine-binding proteins', 'Patient Care Delivery', 'Muscle injury', 'Free flap breast reconstruction', 'Ovarian Granulosa Cell Tumor', 'Ependyma', 'Dose-Limiting', 'Cardiac fibrosis', 'Batch distillation', 'Bronchiolitis', 'Nurse staff', 'Prolapse repair', 'Clonal deletion', 'Cognitive deterioration', 'Patch dynamics', 'Tumor Escape', 'Melanopsin', 'Psychotic illness', 'Head and neck cancer', 'Dialysis catheter', 'Orthopaedic nursing', 'Herniated disk', 'Hypofibrinogenemia', 'Genistin', 'Specialist palliative care', 'Early childhood caries', 'Unicystic Ameloblastoma', 'Vigabatrine', 'Stiff neck', 'Dorsal raphe nucleus', 'Blocking antibody', 'Child Well-Being', 'Granuloma annulare', 'Contraceptive Availability', 'Tension headache', 'Metoclopramide', 'Left Testis', 'Immunoglobulin Fc', 'Disease surveillance', 'Immunological Factors', 'Physiologically based pharmacokinetic modelling', 'Synaptotagmin 1', 'Biopharmaceutical', 'Cyclophilin A', 'Leukotriene B4 receptor', 'Multiple tumors', 'Physis', 'Myoepithelioma', 'Acute rheumatic carditis', 'Brachial Plexopathy', 'Aneurysm rupture', 'Cystic hygroma', 'Gulf War syndrome', 'Breathing gas', 'Angiopoietin-1', 'Varicella zoster virus', 'Brachial artery', 'Pulmonary vein', 'HLA-A', 'Adjuvant Trials', 'Pyomyositis', 'Bipedalism', 'FODMAP', 'Fournier gangrene', 'Rotavirus vaccine', 'Asthma', 'Pituitary gland', 'Chronic ankle instability', 'Refractory heart failure', 'Internal thoracic artery', 'Radiology report', 'Blood-brain barrier disruption', 'Turbinectomy', 'Blood-oxygen-level dependent', 'Suspensor', 'Iliana', 'Drug delivery to the brain', 'Paroxysmal nocturnal hemoglobinuria', 'Chronic Kidney Diseases', 'Integrative bioinformatics', 'Tetanus', 'Rifamycin SV', 'Octreotide', 'Cresyl violet', 'Cellular Ageing', 'CYP1B1', 'Bronchoscopies', 'Nitric oxide synthase', 'Pembrolizumab', 'Parotid tumors', 'Psychiatric epidemiology', 'Introducer sheath', 'Precocious puberty', 'Credentialing', 'Tibia Fracture', 'TF binding', 'Umbilical hernia', 'Postural tremor', 'Peripherally-inserted central venous catheter', 'Toxic megacolon', 'Simvastatin', 'Dinitrofluorobenzene', 'Human biology', 'Prefilled Syringe', 'Carotid endarterectomy', 'Social control theory', 'Perfectly matched layer', 'Anesthesia Recovery Period', 'Muscular tension', 'Whole liver', 'Blood Bactericidal Activity', 'Diencephalon', 'Fexofenadine', 'Pseudolymphoma', 'Cysticercosis', 'B-Cell Epitopes', 'Spirituality', 'Menstrual period', 'Aggressive angiomyxoma', 'Biceps brachii muscle', 'Knee joint stability', 'Idelalisib', 'Tick infestation', 'Cardiac pacemaker', 'Rostral migratory stream', 'Epidermodysplasia verruciformis', 'Downward displacement', 'Perilla frutescens', 'Implantation procedure', 'Biopanning', 'Postural drainage', 'Periplaneta', 'Ganglioglioma', 'Galantamine', 'Mycobacterium ulcerans', 'Diet and obesity', 'Epithelial tissue', 'Chemical space', 'Keratin 8', 'Isodesmosine', 'Theta model', 'Africana studies', 'A</t>
         </is>
       </c>
     </row>
@@ -509,29 +509,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C5" t="n">
         <v>261</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2779447296, 2778742788, 2780003333, 2781390853, 2986176519, 2983850000, 2777022483, 2992554003, 2909423638, 109260823, 3019225112, 20574239, 2993319970, 2780623907, 2984060964, 125209646, 2987942958, 2780491831, 51672120, 2779198524, 2983172159, 2992473152, 26258499, 2910745670, 181575753, 97082442, 70587473, 668760, 177766495, 2992694370, 130148452, 108771440, 74672266, 2908575882, 2992813203, 15107229, 2993022114, 2910006436, 2781463719, 2992421032, 2982832299, 81369262, 2993339566, 188231857, 71406770, 28718268, 2983621821, 150710463, 177291462, 2992450760, 169536714, 2910249166, 2988115150, 2993597649, 2993580244, 178229462, 2779687131, 113706210, 2992461029, 2780144881, 2909358322, 2777638134, 2778303734, 3020528894, 2779649281, 19417346, 2992445699, 92393732, 2778782981, 123960582, 140988679, 124208396, 136418573, 523056402, 3017858323, 2911154454, 48164120, 11012388, 2777247013, 2994204966, 2777538862, 171041071, 13553968, 2993439025, 2984407347, 2777161012, 547764534, 2909619517, 134819137, 2994446662, 3017531719, 2776105288, 2777227597, 2908770643, 2989181274, 3019848036, 111366508, 2994015600, 2777278836, 2779297142, 2909933943, 37228920, 193919354, 51067260, 2778908029, 2909286781, 2994102653, 49876356, 45504901, 2909840772, 203151758, 2777080206, 2993404303, 79416737, 2777597347, 2777513383, 2777394604, 2988746165, 2984567223, 2992195000, 2777626052, 2992277958, 2778727880, 2779363792, 2778780117, 2781405653, 2992446942, 2778403301, 47177190, 120912362, 84389358, 2778243571, 552535540, 190248442, 168646138, 190973436, 2909807104, 2777410049, 549090830, 2776304142, 28858896, 167055898, 2992752155, 3018393127, 2776291881, 2779025965, 88610354, 2780805685, 2992615994, 2910655040, 3020410443, 194943564, 5395021, 2780997200, 53173841, 2987496018, 67141207, 2781240919, 2777082460, 38014559, 37413474, 2994274923, 76188268, 2994209391, 2910598768, 2778011250, 110131835, 2779132545, 44877443, 25032326, 2778715790, 98545295, 62657170, 2987567764, 3020207766, 107806365, 2778498718, 2780118692, 2781422250, 2779177650, 2778728124, 84653758, 2780493508, 2992330440, 2778733259, 2779089611, 2776585938, 2992982746, 2778903259, 36727532, 2994195184, 3020757746, 2994280184, 2993403650, 2776734470, 2993061643, 43141900, 187667220, 87156501, 2993369876, 16443162, 2778825498, 2908854044, 2988635931, 2991811357, 8795937, 2993368868, 134895398, 2778365744, 2991926073, 2776020796, 2776580927, 2780909375, 2910574415, 2776454994, 42525527, 538133343, 2777389919, 194519906, 2779614053, 2776503146, 2994453354, 2780674924, 2781206393, 56423290, 2994529146, 207096701, 2777861003, 2778505106, 44493715, 2991904662, 2776509339, 2988261282, 2993786793, 2777765802, 2993668011, 166007726, 2994481073, 2991997884, 2776613822, 2992036801, 114010052, 2910083013, 2779304910, 503872463, 2983454672, 105776082, 533356498, 2984419285, 10050518, 2984552405, 2776603611, 159456220, 2992902113, 2992302050, 2781160424, 136287216, 2780020723, 2781071349, 188167160]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Senior secondary education', 'Teacher leadership', 'Extended School Year', 'Challenging behaviour', 'Educational systems', 'Training program', 'Basic writing', 'Writing instruction', 'Montessori method', 'Child development', 'Vocational school', 'Transferable skills analysis', 'Educational development', 'Disadvantaged', 'Program development', 'Cultural diversity', 'Virtual university', 'Elementary and Secondary Education Act', 'Cooperative learning', 'Secondary education in Italy', 'No child left behind', 'Career education', 'Active learning', 'Primary student', 'Further education', 'Skills management', 'Transformative learning', 'Vocational education', 'AP Biology', 'High education', 'Cooperative education', 'Lifelong learning', 'Language acquisition', 'Early childhood level', 'College enrollment', 'Learning disability', 'Fund raising', 'Early childhood program', 'Grade inflation', 'Mass education', 'Social justice', 'Achievement test', 'Early childhood curriculum', 'Educational assessment', 'Physical education', 'Needs assessment', 'Digital skills', 'Social studies', 'Active listening', 'Academic literacy', 'Cultural competence', 'Minimal Brain Dysfunction', 'Communication skills', 'Academic profession', 'Institutional diversity', 'Early childhood education', 'School-to-work transition', 'Critical theory', 'Educational quality', 'Adult Learning', 'Moderate learning difficulties', 'University system', 'Adequate Yearly Progress', 'Graduate students', 'Language-based learning disability', 'Pedagogy', 'Private education', 'Learning theory', 'Resource room', 'Language education', 'Participatory action research', 'Class rank', 'Microteaching', 'Business education', 'University teachers', 'Specific learning problems', 'Concept learning', 'Creativity', 'Career development', 'Academic education', 'Gross enrolment ratio', 'First language', 'Music education', 'College classroom', 'Postsecondary education', 'Institutional research', 'Literacy', 'Specific learning disability', 'Comparative education', 'Early childhood classroom', 'Teacher preparation', 'Characteristics of dyslexia', 'Student loan', 'Disability learning', 'Industrial education', 'Non completion', 'Educational leadership', 'Student employment', 'Reggio Emilia approach', 'Educational attainment', 'Student promotion', 'Experiential learning', 'General Certificate of Education', 'Professional development', 'Twice exceptional', 'Vocational evaluation', 'Childhood education', 'Neuroscience of multilingualism', 'Syllabus', 'Developmental aphasia', 'Standardized test', 'Lifewide learning', 'Academic development', 'Social learning', 'Access to Higher Education', 'Cross-battery assessment', 'Pupil', 'Peer evaluation', 'E learning', 'Instructional development', 'Bachelor', 'Early childhood educator', 'Chisanbop', 'Coaching', 'Reading comprehension', 'Student affairs', 'Early childhood research', 'Student-centred learning', 'Curriculum', 'Higher education', 'Discourse analysis', 'Academic probation', 'Education reform', 'Qualitative research', 'Cross-cultural', 'Informal education', 'Computer-Assisted Instruction', 'Self-concept', 'Attitude change', 'Grantsmanship', 'Special education', 'Applied linguistics', 'Academic program', 'Faculty mentoring', 'Knowledge level', 'Student approaches to learning', 'Teaching method', 'Teacher education', 'Early childhood mathematics', 'Student aid', 'Academic quality', 'Participant observation', 'Program evaluation', 'Initial Teaching Alphabet', 'Action research', 'English language', 'Education policy', 'Dyscalculia', 'Early childhood', 'Education theory', 'Liberal arts education', 'Rhetorical theory', 'Context effect', 'Learning to teach', 'Borderline learning disability', 'Internationalization of Higher Education', 'Self-efficacy', 'Person-centred planning', 'Science education', 'Socialization', 'Anti-bias curriculum', 'Technical writing', 'Social value orientations', 'Second language', 'Student teacher', 'Apprenticeship', 'Long-range planning', 'Universal preschool', 'Constructive alignment', 'International education', 'Student debt', 'Goal orientation', 'Academic administration', 'Educational finance', 'Taking Children Seriously', 'Rhetorical criticism', 'Student teaching', 'Doctoral education', 'Enrollment management', 'Educational research', 'Academic integration', 'Learning disorders', 'Institutional commitment', 'Academic culture', 'Adult learner', 'College instruction', 'Environmental education', 'Preparatory school', 'Qualitative property', 'Nonformal education', 'Educational technology', 'Humanistic education', 'Learning disabilities nurse', 'Special educational needs', 'Reflective teaching', 'Discipline', 'Sex bias', 'Educational psychology', 'Learning environment', 'Open enrollment', 'Shiksha', 'Senioritis', 'Problem-based learning', 'Mathematics disorder', 'Alternative teacher certification', 'Formative assessment', 'Economics education', 'Historically black colleges and universities', 'Student engagement', 'Education Act', 'Academic mobility', 'Learning society', 'Academic capital', 'Academic achievement', 'Counselor education', 'Personnel policy', 'Philosophy of education', 'Research Assessment Exercise', 'International Standard Classification of Education', 'Adult education', 'Enterprise education', 'Academic advising', 'Student learning', 'Academic preparation', 'Andragogy', 'Private institution', 'Language assessment', 'Student development', 'Teacher learning', 'Adult educator', 'Audience awareness', 'Foreign language', 'Baccalaureate Degree', 'Academic freedom', 'Distance education', 'Secondary education', 'Likert scale', 'Critical thinking', 'Learning disabled', 'Primary education', 'Web based learning environment', 'Academic dishonesty', 'Instructional design', 'Educational planning', 'Early childhood teacher', 'Social integration', 'Academic standards', 'College athletics', 'Gender Parity Index', 'Experiential education']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2781160424', '84653758', '2779963164', '114010052', '2778197446', '2777538862', '86637286', '2776291881', '522453465', '2779132545', '2777597347', '2777227597', '80205793', '2778498718', '56423290', '136418573', '194519906', '134290984', '97082442', '2775977231', '2779089611', '2777161012', '164449429', '552535540', '2781349114', '2776890026', '8077954', '2780266753', '171041071', '2776751993', '2779447296', '2776380714', '2909807104', '547764534', '2778733213', '180614257', '81369262', '2780805685', '192531217', '168646138', '2779923759', '113807197', '2910108987', '2780438764', '2775905979', '2776585938', '138296749', '2777247013', '184356942', '113706210', '103208741', '2780035574', '70587473', '190973436', '2778742815', '2779177650', '501001295', '2780732545', '2777410049', '2777993278', '22156102', '503872463', '2779791860', '2781285556', '62657170', '107806365', '2776613822', '2777244724', '2778526452', '12298181', '2776934989', '16443162', '2777603413', '67141207', '2777861003', '182325601', '2778908029', '2780117764', '2909423638', '2779063172', '2777075199', '2910006436', '2780623907', '154482161', '2779297142', '2779106483', '109260823', '136287216', '2781209966', '23588892', '177766495', '2780493508', '2776304142', '2910655040', '549090830', '2776503146', '2778243571', '188167160', '2779025965', '2781051278', '193919354', '2780144881', '125209646', '523056402', '2778825498', '2777389919', '2780491831', '120912362', '2778617593', '28858896', '147077947', '26258499', '20574239', '2778740177', '2778712577', '84389358', '106432739', '2779363792', '2781463719', '2779100972', '148324565', '38014559', '71406770', '2778903259', '167055898', '28718268', '165364887', '2776526686', '2780020723', '44877443', '2910249166', '538133343', '2779905815', '15122004', '2779961193', '2910745670', '2909933943', '2776429199', '2909286781', '2910609075', '2780909375', '2777765802', '92393732', '48164120', '2910083013', '2780319001', '2781422250', '2776893095', '2778011250', '134895398', '44493715', '51672120', '2776020796', '2780198215', '2776716048', '2779018934', '2776454994', '542530943', '2777638134', '37228920', '2779687131', '2778968930', '2909284606', '920782', '2777841733', '2779304910', '175801342', '2781071349', '177291462', '194943564', '124208396', '19417346', '2780623789', '10050518', '164403151', '36727532', '507981020', '53537400', '521786372', '187667220', '2778742788', '150394285', '511723319', '203151758', '2778325511', '509550671', '166007726', '2778728124', '197676734', '204814006', '51067260', '108583219', '178229462', '2909358322', '2776734470', '136908173', '2909931160', '19352297', '2779379842', '2780468074', '2780003333', '2781405653', '188231857', '2778511055', '110131835', '134819137', '47177190', '98545295', '25032326', '111366508', '2777189325', '2777776026', '2776907558', '43141900', '2910661131', '2779614053', '2777022483', '123960582', '2777394604', '2781206393', '108771440', '2909116566', '2781390853', '533356498', '668760', '181575753', '159456220', '11012388', '33923547', '2777080206', '15107229', '2778365744', '105776082', '45504901', '188116033', '2778403301', '5395021', '88610354', '205545832', '13553968', '2780118692', '150710463', '207096701', '49876356', '2781240919', '76188268', '2776622967', '2776900795', '2777929519', '2777278836', '37413474', '2910150694', '2780997200', '2777646416', '2776509339', '85597727', '55958113', '2777082460', '169536714', '2776603611', '2778780117', '2781418458', '15500210', '42525527', '79416737', '2909619517', '130148452', '2778782981', '53173841', '2777626052', '140988679', '8795937', '2780674924']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Social integration', 'Goal orientation', 'Family literacy', 'Foreign language', 'Capital I', 'Gross enrolment ratio', 'Rate of return', 'Knowledge level', 'Social research', 'Person-centred planning', 'Access to Higher Education', 'Student loan', 'Environmental adult education', 'Long-range planning', 'Counselor education', 'Microteaching', 'Student engagement', 'Cognitive skill', 'Skills management', 'Education for sustainable development', 'Rhetorical criticism', 'Institutional research', 'Geomathematics', 'Education reform', 'Wage curve', 'Nutrition Education', 'Miscue analysis', 'Teacher induction', 'First language', 'Intercultural competence', 'Senior secondary education', 'Academic Training', 'Computer-Assisted Instruction', 'Literacy', 'Social injustice', 'Aliteracy', 'Achievement test', 'Teacher education', 'Computer literacy', 'Cross-cultural', 'Classroom management', 'Health education', 'Student attendance', 'Youth unemployment', 'Critical race theory', 'Student teaching', 'Global citizenship', 'Career development', 'Best practice', 'Critical theory', 'Service life', 'Multilingualism', 'Transformative learning', 'Informal education', 'Student–teacher ratio', 'International education', 'Life skills', 'Response to intervention', 'Self-concept', 'Popular education', 'Educational measurement', 'Distance education', 'Compulsory education', 'Learning styles', 'Social value orientations', 'Apprenticeship', 'Adult educator', 'Racial politics', 'Open educational resources', 'Proactive learning', 'Global justice', 'Educational technology', 'Phonics', 'Education policy', 'Research Assessment Exercise', 'Learner autonomy', 'Twice exceptional', 'Work-based learning', 'Montessori method', 'Family child care', 'Cosmopolitanism', 'Early childhood program', 'Disadvantaged', 'Mainstreaming', 'Educational attainment', 'M-learning', 'Child development', 'Academic standards', 'Educational institution', 'Surveyor', 'AP Biology', 'Academic administration', 'Grantsmanship', 'Student aid', 'Attitude change', 'Academic mobility', 'Academic probation', 'Experiential education', 'Student approaches to learning', 'Market integration', 'General Certificate of Education', 'Adult Learning', 'Cultural diversity', 'Business education', 'Humanistic education', 'Historically black colleges and universities', 'Elementary and Secondary Education Act', 'Higher education', 'Biocultural diversity', 'Special education', 'Socioeconomic status', 'Active learning', 'Transferable skills analysis', 'Cross-cultural competence', 'Retraining', 'Discourse analysis', 'Education', 'Coaching', 'Grade inflation', 'Human rights education', 'Rote learning', 'Education theory', 'Physical education', 'Enrollment management', 'Applied linguistics', 'Needs assessment', 'Whole language', 'Oppression', 'College athletics', 'Science education', 'Minimal Brain Dysfunction', 'Economics education', 'Social progress', 'Open learning', 'Biobased economy', 'Primary student', 'Student promotion', 'Peace education', 'Vocational evaluation', 'SOCIOECONOMICALLY DISADVANTAGED', 'Problem-based learning', 'Andragogy', 'Learning theory', 'Concept learning', 'Baccalaureate Degree', 'Work experience', 'Constructive alignment', 'Faculty development', 'Internationalization of Higher Education', 'Educational psychology', 'Adult education', 'Cooperative learning', 'Shiksha', 'Informal learning', 'Interactive Learning', 'Everyday life', 'Alternative teacher certification', 'Multiculturalism', 'University system', 'Experiential learning', 'School-to-work transition', 'Social disintegration', 'Farsi language', 'Team learning', 'Pregnancy Discrimination Act', 'Academic freedom', 'Data analysis', 'Gender Parity Index', 'Active listening', 'Participant observation', 'Class rank', 'Pedagogy', 'Basic skills', 'Primary education', 'Risk management framework', 'Educational research', 'Agricultural education', 'Numeracy', 'Waste collection', 'Preparatory school', 'Teacher leadership', 'Adsorption', 'Philosophy education', 'Standardized test', 'White supremacy', 'Medical education', 'Language assessment', 'Student debt', 'Developmentally Appropriate Practice', 'PU learning', 'Professional development', 'Deep learning', 'Early childhood education', 'Moderate learning difficulties', 'Adult learner', 'Resocialization', 'Literature reviewing', 'Religious education', 'Nonformal learning', 'Digital learning', 'Extended School Year', 'Student affairs', 'Educational assessment', 'Free education', 'Self-efficacy', 'Comparative education', 'Curriculum', 'Technical writing', 'Socialization', 'Educational leadership', 'Officer', 'Peer learning', 'Categorical imperative', 'Environmental education', 'Training skills', 'Education Act', 'Basic writing', 'Language education', 'Pupil', 'Academic achievement', 'Lifelong learning', 'Hemadsorption', 'Challenging behaviour', 'Critical thinking', 'Vocational education', 'Further education', 'Instructional design', 'Creativity', 'Mathematics', 'Lifewide learning', 'Learning disability', 'Learning environment', 'Likert scale', 'Syllabus', 'Q-learning', 'Student-centred learning', 'Program evaluation', 'Teaching method', 'Young adult', 'Music education', 'Universal preschool', 'Social studies', 'Philosophy of education', 'Neuroscience of multilingualism', 'Dyscalculia', 'Context effect', 'Social criticism', 'Global citizenship education', 'Patient education', 'Reggio Emilia approach', 'Liberal arts education', 'On work experience', 'Initial Teaching Alphabet', 'Digital literacy', 'Academic advising', 'Tivoli Management Framework', 'Indigenous', 'Early childhood', 'Cultural competence', 'Academic dishonesty', 'Reading comprehension', 'World language', 'Inclusion (education)', 'Formative assessment', 'Social learning', 'Specific learning disability', 'Cooperative education', 'Resource room', 'Action research', 'Bachelor', 'Participatory action research', 'Discipline', 'Academic capital']</t>
         </is>
       </c>
     </row>
@@ -542,29 +542,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="C6" t="n">
         <v>58</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2779500161, 2781007623, 2993271050, 2909781388, 542059537, 2910553721, 2909462804, 2780122648, 2777957789, 2776990493, 2781403550, 519513126, 2780765865, 3017617067, 2910225196, 3019426347, 3020021935, 2778720315, 2779674044, 2780977596, 2781173052, 2910252733, 2992354236, 2908568261, 2776053703, 2911136712, 3018726217, 2776422986, 2780416715, 2992429133, 2781097296, 2984776528, 2778808915, 2778517334, 2779076696, 2991854812, 2779213278, 169437150, 2778014560, 2777996642, 2779937378, 2909305570, 2909934819, 121752807, 2777948265, 2780673001, 2908678251, 131932780, 2909428718, 2777749871, 2911136494, 2776051313, 2992299759, 2911224692, 2781071349, 2778692471, 2909567481, 2993821311]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Femicide', 'Domestic violence and pregnancy', 'Gender discrimination', 'Abusive relationship', 'Domestic violence', 'Psychosexual counseling', 'Sex offense', 'Glass cliff', 'Violence Against Women Act', 'Gender budgeting', 'Gender role', 'Psychological abuse', 'Gender mainstreaming', 'Reproductive healthcare', 'Sexual molestation', 'Intimate partner', 'Dating violence', 'Female entrepreneurs', 'Glass ceiling', 'Gender pay gap', 'Marital rape', 'Sexual harrassment', 'Sexual abuse', 'Battered woman syndrome', 'No-fault divorce', 'Battered spouse', 'Gender relations', 'Sex and Relationships Education', 'Physical abuse', 'Intimate partner abuse', 'Bem Sex-Role Inventory', 'Gender equity', 'Common-law marriage', 'Parental leave', 'Family planning', 'Women entrepreneurs', 'Domestic relations', 'Human rights', 'Covenant marriage', 'Sexual violence', 'Shared parenting', 'Battered wife', 'Marital violence', 'Reproductive health', 'Declaration on the Elimination of Violence Against Women', 'Child marriage', 'Contraceptive Devices', 'Family law', 'Battered husband', 'Reproductive rights', 'Battered spouse syndrome', 'Comprehensive sex education', 'Gender equality', 'Genital mutilations', 'Gender Parity Index', 'State feminism', 'Wife abuse', 'Sexual health education']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2781087576', '2909942645', '2776689383', '2778952541', '2779648811', '2780303468', '2778642596', '2776656214', '2781049881', '2777973936', '53596535', '2778014560', '2778808915', '2777666786', '2780416715', '2779500161', '2778919917', '2780227697', '2778720315', '37512671', '2777688143', '2777749871', '2780183969', '2910095232', '2909613729', '2909987495', '2778397978', '2776331549', '46578552', '2777656388', '104151175', '2778692471', '2776290222', '2781037291', '2781097296', '2777961764', '169437150', '2910825703', '2780765865', '170806853', '2781173052', '2779256933', '2781071349', '2777877159', '2781403550', '2775850206', '2779909026', '2777688943', '2776430950', '2779674044', '2779937378', '2777996642', '2777057682', '2909462804', '70036468', '2908750998', '2780742699', '2781216213', '2779119250', '2779881493', '2909790936', '2777723842', '2778595151', '2778269006', '2777385265', '2781051968', '55447825', '2779503283', '2911047369', '2776491508', '2780233487', '2780090376', '165611974', '131932780', '2776422986', '2780438625', '2777177043', '102587632', '2911049916', '2779630429', '140816417', '2909731803', '2778272532', '2776254110', '2910036154', '2779018073', '2780122648', '2778517334', '2777957789', '2910181401', '2776492025', '2778768284', '2909366255', '2777667586', '21279758', '2778354389', '2910877355', '2777755331', '2908568261', '2909567481', '2775880612', '20555606', '121752807', '2779266529', '2777866547', '519513126', '2908678251', '162077342', '2908580512', '2778071103', '518429986', '17632256', '2778055648', '2778767757', '2775982641', '77352025', '26147285', '2908521967', '153651392', '2780673001', '2779213278', '994546', '119588120', '2910225196', '2781253738', '2777941463', '2779865128', '122251271', '2909245243', '2780977596', '119693030', '2776778975', '2776990493', '2777457567', '2776051313', '2776053703', '2910429700', '2778780663', '48057960', '102003337', '542059537', '2775906418', '2909934819', '191700502', '2777360386', '2779076696', '2909781388', '47122089', '2910252733', '97917381']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Gender systems', 'Maternal risk factors', 'Labour supply', 'Self-objectification', 'Gender empowerment', 'Forced prostitution', 'Abortion', 'Anti-discrimination law', 'Sex in advertising', 'Small business', 'Discrimination testing', 'Covenant marriage', 'Common-law marriage', 'Gender Development Index', 'Physical abuse', 'Femicide', 'Gender sensitization', 'Gender-blind', 'Female entrepreneurs', 'Birth rate', 'Infertility', 'Reproductive rights', 'Child support', 'Sexual aggression', 'Sexual assaults', 'Maternal Ages', 'Gender diversity', 'Defeminization', 'Global health', 'Gender dysphoria', 'Emigration', 'State feminism', 'Sex change', 'Disorders of sex development', 'Bem Sex-Role Inventory', 'Hague Convention on the Civil Aspects of International Child Abduction', 'Human rights', 'Safety water', 'Gender mainstreaming', 'Gemma', 'Marital rape', 'Castration', 'Gender Parity Index', 'Working time', 'Gender role', 'Conflict tactics scale', 'Wrongful birth', 'Feminism', 'Ancillary relief', 'Glass ceiling', 'Shared parenting', 'Sexual violence', 'Hegemonic masculinity', 'Sex offense', 'Immigration', 'Laws regulations', 'Sexual partner', 'Remarriage', 'Gender analysis', 'Dihydrotestosterone', 'Sexual offense', 'Male privilege', 'Doing gender', 'Gender binary', 'Abolitionism', 'Infibulation', 'International law', 'Millennium Development Goals', 'Differential Fertility', 'Reverse discrimination', 'Long-term care', 'Objectification', 'Gender schema theory', 'Family law', 'Sex and Relationships Education', 'Global Health Initiatives', 'Migrant education', 'Criminal justice', 'Unsafe Sex', 'Gender neutrality', 'Zero population growth', 'Early Pregnancy Loss', 'Liberal feminism', 'Gender &amp; Development', 'Fertility Determinants', 'Patriarchalism', 'Glass cliff', 'Parental leave', 'Violence Against Women Act', 'Ethnic discrimination', 'Third-party reproduction', 'Teen dating violence', "Women's Status", 'Wright', 'Venture capital', 'Forced marriage', 'Fertility Preferences', 'Rape culture', 'Battered woman syndrome', 'Wife abuse', 'Luganda', 'Empowerment', 'Reproductive health', 'Unpaid work', 'Sexual misconduct', 'Psychological abuse', 'Contraceptive Devices', 'Tax credit', 'Sexual abuses', 'Precarity', 'Fertility', 'Digital media', 'Joint custody', 'Gender and development', "Women's empowerment", 'Population growth', 'Age and female fertility', 'Fertility Study', 'Gender history', 'Child marriage', 'Domestic relations', 'Division of labour', 'Proportional representation', 'Sexual molestation', 'Women in development', 'Financial literacy', 'Digital Life', 'Ex-ante', 'Below Replacement Fertility', 'Gender pay gap', 'Economic model', 'Natural fertility', 'Gender budgeting', 'Motherhood penalty', 'Comprehensive sex education', 'No-fault divorce', 'Sexual discrimination', 'Sisterhood method', 'Bargaining power', 'Care work', 'Domestic violence', 'Precarious work', 'Marital violence', 'Gender psychology', 'Maternal near miss', 'Family planning', 'Abusive relationship', 'Total fertility rate', 'Sexual harrassment', 'Sub-replacement fertility']</t>
         </is>
       </c>
     </row>
@@ -575,29 +575,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="C7" t="n">
         <v>403</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[176205827, 2775897094, 97156103, 2781360137, 2778999818, 94042126, 94747663, 2777184272, 2779533328, 2778134546, 110158866, 99546132, 2993762326, 4891672, 2780355613, 2994183204, 2991839271, 2909902889, 2775878704, 2776991799, 140188727, 2777383994, 2910105670, 3018880073, 2992425036, 2993051725, 47654990, 167710798, 94061648, 2780588113, 2992584787, 2992746579, 2985522263, 2994175064, 207006810, 2778213469, 2777489503, 2994059361, 2991936611, 184947814, 2993104999, 2780165224, 2779928684, 2983696493, 2777610350, 2992304237, 2991908976, 2776332401, 2991714417, 2778618992, 81446008, 2860155, 2994348156, 2776781948, 2992974972, 2992808063, 2992479358, 2778888322, 54005896, 60943498, 107708555, 2779860107, 2776912013, 2992996493, 2776927374, 2992194703, 3018430610, 2992841877, 2992453791, 2778211487, 2780151969, 2993022113, 2993888420, 2776897705, 2778722473, 2911176876, 2778652849, 128168118, 2776165558, 2993054902, 2778369210, 2778674365, 115038398, 2780531901, 2988608701, 2994046147, 84250820, 2994105540, 2777493711, 2778110159, 2992367824, 3017977039, 37037264, 2776299736, 2993237208, 2777875673, 81632477, 67715294, 2993894624, 2779678948, 2777333993, 39077098, 136325355, 2984149230, 125572338, 2781399283, 161382645, 88743934, 2993962236, 2778474753, 2994554119, 19570952, 2778247438, 94562577, 64016661, 2992435477, 2910009623, 2777434392, 2993254683, 2909937950, 2992511263, 2992757024, 123700513, 167110946, 2778330403, 2910183716, 3018530083, 2991724838, 2992372011, 2776266027, 2779691309, 182348080, 2776757554, 185515318, 2992824635, 28362043, 108497213, 2992902462, 123157820, 100187453, 181843262, 4292930, 2776137031, 126645576, 2780072265, 2776928589, 183030095, 2776756561, 2993394005, 2993475927, 137527640, 2776121688, 2778217819, 3020055899, 2993659230, 2777564511, 2993786211, 179113317, 38626664, 2989017451, 2780367215, 2779920756, 67268981, 2778902904, 2668921, 2993103225, 2994452858, 2992029049, 2909269371, 2992729472, 2994539907, 2778708356, 2993610120, 2993471882, 47291792, 152232337, 2777774481, 3017717751, 97053079, 2777910687, 150547873, 3018255777, 2994196905, 118416809, 2993409449, 42938798, 93419950, 153823671, 2776275385, 2992181689, 2780103101, 2992876990, 155681218, 131227075, 2776572357, 2991765958, 2991657416, 2992662985, 2994409929, 2992912847, 3018912210, 3019508178, 2910436818, 2985852370, 2994406868, 61270487, 2778652117, 2991994326, 2993051095, 2776695260, 2776628701, 2985191904, 2992458216, 2909330924, 2986309107, 2994202102, 2781113848, 195154425, 2993191420, 3018924553, 2816523, 2908711435, 2777554443, 2991801868, 132165134, 2781045264, 180087314, 2984938003, 2780998164, 44403221, 2991808018, 2993552916, 39769621, 2993549852, 2993807900, 2778654236, 2992940572, 2778553890, 112570922, 90195498, 2779199018, 3020635693, 2908941878, 2992675384, 2777427512, 162663994, 2909415995, 2993141307, 51880511, 2910053955, 2992206404, 2779948615, 2776479305, 2909266511, 2991682127, 2991930961, 2984826451, 198302294, 2991690327, 3020040793, 2910897755, 2993207901, 48663136, 2777272942, 2992321136, 2777812597, 2779090549, 24939127, 186348155, 2778692220, 2909248125, 174091901, 2778844797, 2777730692, 2994299526, 8625798, 2776301198, 2994155152, 2777434770, 2991808148, 2991873690, 102579867, 2910645917, 2780965534, 2994000543, 33559203, 2780012196, 2991961770, 2911050413, 7879346, 40675005, 3017894592, 2992313025, 65340099, 21955270, 2776782544, 2993155797, 187109078, 2780408538, 186295008, 105306849, 2776320736, 2994411235, 2992772836, 187606762, 195729132, 3020382960, 133214962, 2994146034, 44259058, 2779940597, 2991664886, 150513403, 2994227965, 12129029, 2991761161, 97920779, 2909019920, 2780797713, 2994083603, 2779112213, 132594454, 2993252117, 2993314589, 2777383712, 2992241441, 2994208550, 157174567, 107836204, 26568496, 2989071153, 175568690, 49057587, 69661492, 2992921396, 9777977, 2992016186, 2993658685, 45680448, 2780797762, 2991897412, 2992143177, 2778668878, 2993274702, 195092306, 2992547673, 2994536283, 2993796956, 2777076574, 130309983, 2986623841, 2992407401, 2991743853, 2994436976, 2993155952, 2994307955, 2781427571, 2909805430, 2122615, 2909326202, 197743484, 176650113, 2992145287, 2778192778, 78761867, 16828302, 76177295, 2779283343, 2781109137, 2993883022, 129360787, 2993346454, 189047708, 75622301, 2909984675, 2776849319, 2776342442, 2910654379, 2777493420, 97512367, 2779254706, 2993298360, 2985473987, 2779386820, 2992993221, 2993120196, 2994500551, 2991748047, 122341333, 2781421531, 2778632158, 2993929183, 2776952799, 2993646561, 2778720231, 2781036520, 99484651, 2994129899, 81692654, 2987348982, 2776349687, 2780181497, 2993495038]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Farm water', 'Waste pond', 'Open defecation', 'River basin management plans', 'Struvite', 'Index of biological integrity', 'Spatial variability', 'National Water Policy', 'Simplified sewerage', 'ZOOMQ3D', 'Water conservation', 'Peak water', 'Steep slope', 'Total suspended solids', 'Sequencing batch reactor', 'Water sustainability', 'Water development', 'Water-related Diseases', 'Aqueous geochemistry', 'Groundwater-dependent ecosystems', 'Piper diagram', 'Fine bubble diffusers', 'Biological Waste Disposal', 'Swine wastewater', 'Activated sludge flocs', 'Water vulnerability', 'Conventional pollutant', 'Wet oxidation', 'Wastewater', 'Urban stream', 'In situ biodegradation', 'Phreatic water', 'Hydro power', 'Karst water', 'Improved water source', 'Water tariff', 'Temporal scales', 'Water sharing', 'Sludge settling', 'Water chemistry analysis', 'Groundwater use', 'Potentiometric surface', 'Destratification', 'Test site', 'Water Framework Directive', 'Fluoride contamination', 'Public supply', 'Sodium adsorption ratio', 'Groundwater sampling', 'Revetment', 'Capillary fringe', 'Enhanced biological phosphorus removal', 'Wastewater reuse', 'Physical water scarcity', 'Residual chlorine', 'Carbonate aquifer', 'Aquifer management', 'Water pollution in India', 'Urban heat island', 'Water resource policy', 'Hydraulic tomography', 'Water resources of China', 'Anal cleansing', 'Coastal aquifer', 'Water quality modelling', 'Sustainable water management', 'Three gorges', 'Waste water treatment plant', 'Crystalline aquifer', 'Tube well', 'Sanitation', 'Groundwater quality', 'Solid waste collection', 'Activated sludge model', 'Source water protection', 'Private water well', 'Dense non-aqueous phase liquid', 'Aerated lagoon', 'Emission standard', 'Water chemistry', 'Aufeis', 'Sustainable sanitation', 'Levee', 'Sphaerotilus natans', 'Open water', 'Groundwater vulnerability assessment', 'Hydraulic retention time', 'Refinery wastewater', 'Submarine groundwater discharge', 'Karst spring', 'Water clarity', 'Oily wastewater', 'Hydrology', 'Wastewater engineering', 'Groundwater seepage', 'Clean Water Act', 'Water testing', 'Wetland', 'Catalytic ozonation', 'Drinking water quality standards', 'Hyporheic zone', 'Biosurvey', 'Low-flow irrigation systems', 'Surface water quality', 'Geostatistics', 'Community-led total sanitation', 'Environmental isotopes', 'Hydraulic structure', 'Nitrate pollution', 'Aquifer storage and recovery', 'Ground water pollution', 'Suspended solids', 'Conjunctive use', 'Segmented filamentous bacteria', 'Turbidity', 'Aquaculture wastewater', 'Textile dye', 'Effluent limitation', 'Saturated flow', 'Chlorinated solvents', 'Activated sludge system', 'Water withdrawal', 'Culvert', 'Sand dune stabilization', 'Agricultural pollution', 'Underground Streams', 'On site sanitation', 'Groundwater transport', 'River assessment', 'Membrane bioreactor', 'Hebeloma radicosum', 'Karst', 'Hydrogeomorphology', 'Loess', 'Petrochemical wastewater', 'Hydric soil', 'Landform', 'Aquifer contamination', 'Erosion', 'Subsurface flow', 'Digital elevation model', 'Distributed element model', 'Air stripping', 'Drainage basin', 'Losing stream', 'Recirculating aquaculture system', 'Equifinality', 'Xeriscaping', 'Groundwater aquifer', 'Groundwater storage', 'Bedrock', 'Virtual water', 'Advanced oxidation process', 'Density dependent flow', 'Water planning', 'Water conflict', 'River valley', 'Trickling filter', 'Volatile suspended solids', 'Field data', 'Constructed wetland', 'Ecological sanitation', 'Marsh', 'Dissolved air flotation', 'Impervious surface', 'Surface water body', 'Water resource planning', 'Groundwater pumping', 'Uncontaminated zone', 'Coking wastewater', 'Alluvial aquifer', 'Sustainable Services', 'Ground water quality', 'Water market', 'Slug test', 'Total maximum daily load', 'Water quality law', 'Filamentous microorganisms', 'Water supply', 'Improved sanitation', 'Watershed', 'Bio filtration', 'Water resources carrying capacity', 'Water well', 'Current velocity', 'Water remote sensing', 'Nutrient pollution', 'Water resources', 'Sludge volume index', 'Limestone aquifer', 'Aquifer properties', 'Petroleum wastewater', 'Floodplain', 'Groundwater flow', 'Groundwater sapping', 'Ground temperature', 'Wastewater disposal', 'Saline aquifer', 'Intrinsic vulnerability', 'Surface water resources', 'Untreated wastewater', 'Dyeing wastewater', 'Treated water sample', 'Water demand', 'Canal water', 'Interception', 'Water banking', 'Water resource development', 'Freshwater resources', 'Maximum Contaminant Level', 'Seasonal thermal energy storage', 'Ammonia nitrogen', 'Agricultural reuse', 'Sulfide generation', 'Water body', 'Karstic aquifer', 'Geological survey', 'Cesspit', 'Fenton reagent', 'Fenton oxidation', 'Sediment', 'Head measurements', 'Coastal engineering', 'Groundwater chemistry', 'Arsenic contamination of groundwater', 'Output-based aid', 'Phreatic', 'River pollution', 'Safe Drinking Water Act', 'Industrial wastewater treatment', 'Water demand management', 'Nitrate leaching', 'Water table', 'Slope angle', 'Groundwater resources', 'Qanat', 'Water supply and demand', 'Drinking water directive', 'Contamination', 'Water pollution', 'Convention on the Protection and Use of Transboundary Watercourses and International Lakes', 'Faecal indicator', 'Inadequate sanitation', 'Ground water contamination', 'Parking lot', 'Cone of depression', 'Water pollutants', 'Artesian basin', 'Wastewater quality indicators', 'Municipal well', 'Watershed land use', 'Water right', 'ISO 7027', 'Promoting hygiene', 'Groundwater arsenic', 'Water exchange', 'River water', 'Biochemical oxygen demand', 'Aquifer remediation', 'Pit latrines', 'Toilet Facility', 'Groundwater vulnerability', 'Geochemical modeling', 'Zoogloea', 'River quality', 'Assimilative capacity', 'Chemcatcher', 'Water content', 'Waves and shallow water', 'Swimming pool sanitation', 'Bathing Beaches', 'Groundwater recharge', 'Aquifer thermal energy storage', 'Activated sludge', 'Suspended matter', 'Surface water', 'Extended aeration', 'River health', 'Water pricing', 'Textile dyeing', 'Surface water pollution', 'Pore water pressure', 'Drinking water pollution', 'Pit latrine', 'Groundwater abstraction', 'Desertification', 'Netpath', 'Groundwater irrigation', 'Well drillers', 'Hydraulic engineering', 'Hydropower', 'Wastewater based epidemiology', 'Conduit flow', 'Ravine', 'Greywater', 'Commodification of water', 'Sandstone aquifer', 'Non-revenue water', 'Ancillary data', 'Landslide', 'Storm', 'Urine-diverting dry toilet', 'Groundwater salinity', 'Aquifer vulnerability', 'Depression-focused recharge', 'Specific storage', 'Waste site', 'Aerial photography', 'Water reform', 'Artesian aquifer', 'Composting toilet', 'Water area', 'Effluent guidelines', 'Groundwater velocity', 'Groundwater discharge', 'Treated water', 'Aerobic treatment system', 'Inadequate water supply', 'Water quality', 'Wastewater systems', 'Sluice', 'Saltwater intrusion', 'Water cut', 'Industrial effluent', 'Aerobic digestion', 'Groundwater arsenic contamination', 'Saline intrusion', 'Overdrafting', 'Fossil water', 'Surficial aquifer', 'Groundwater contamination', 'Dye tracing', 'Piezometer', 'Transect', 'Hydraulic diffusivity', 'Dry season', 'Ground water level', 'Bengal delta', 'Mound system', 'Septage', 'Seawater intrusion', 'Water transfer', 'Reservoir simulation', 'Nitrate contamination', 'Deficit irrigation', 'Water age', 'Stream assessment', 'Water reservoir', 'Carbonate hardness', 'Biogeochemistry', 'Water quality management', 'Groundwater nitrate', 'Crystalline bedrock', 'Groundwater governance', 'High plains aquifer', 'Industrial waste water', 'Biosand filter', 'Biological Oxygen Demand Analysis', 'Groundwater flow equation', 'Natural Springs', 'Latrine', 'Groundwater model', 'Water sampling', 'Groundwater pollution', 'Mixed liquor suspended solids', 'Tributary', 'Groundwater', 'Stabilization pond', 'Catchment-sensitive farming', 'Hydraulic barrier', 'Total dissolved solids', 'Urban water demand', 'Limnology', 'Aquifer', 'Private well', 'Water reclamation', 'Stygofauna', 'Magnesium ammonium phosphate', 'Reclaimed water', 'Aquifer test', 'Coarse bubble diffusers', 'River monitoring', 'Cell residence time', 'Water safety', 'Vulnerability mapping', 'Water poverty', 'Ground water flow', 'Oxygen uptake rate', 'Water trading', 'Urine diversion', 'Bottled water', 'Coke wastewater', 'Lead and Copper Rule', 'Saline groundwater', 'Hydrogeophysics', 'Infiltration gallery', 'Water year', 'Water volume', 'Kriging', 'Groundwater management', 'In situ water treatment', 'Joint Monitoring Programme for Water Supply and Sanitation', 'Arsenic pollution']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['112570922', '124056412', '2781399283', '2778583955', '48663136', '2910654379', '2779112213', '167710798', '2781360137', '186295008', '140188727', '2780998164', '2776256148', '123157820', '2776991799', '2777106384', '93419950', '147455438', '132165134', '99546132', '157062255', '115240124', '2860155', '2776137031', '108497213', '2779386820', '2776301198', '2780987889', '2775838554', '88024347', '2779322298', '177964011', '2777184272', '169488363', '69661492', '2780151969', '162663994', '135009316', '66465714', '107836204', '2779928684', '2779090549', '2776165558', '2778902904', '200890946', '97920779', '8625798', '81446008', '2776756561', '2778708356', '39769621', '97156103', '132594454', '57442070', '2777333993', '2780616974', '78302586', '2776849319', '45020621', '2777489503', '38626664', '15098985', '37992848', '2777875673', '64016661', '61270487', '120305227', '94042126', '2780401329', '17538187', '60943498', '2776275385', '2780367215', '2776334353', '147990551', '186636678', '162602672', '2776870568', '100187453', '187606762', '156858999', '2779940597', '2776573520', '2780989708', '51193700', '83419821', '2776266027', '198302294', '523546767', '502990516', '2776695260', '47654990', '2777383712', '115038398', '45145499', '186348155', '2777550478', '28631016', '190539079', '125572338', '155681218', '190714865', '110158866', '2910053955', '2776849215', '2778192778', '81637046', '145162277', '178254436', '175568690', '180087314', '2909248125', '65340099', '2776256026', '2777919664', '2780012196', '2780408538', '2776087716', '2776952799', '157174567', '162222271', '2781117298', '185515318', '2779283343', '33556824', '2777493420', '2816523', '39410599', '37037264', '153823671', '53163501', '126933887', '2780513399', '118733760', '2780833732', '2778788645', '2778652552', '2777434770', '2910692151', '28362043', '146763847', '40241539', '88862950', '547646559', '2778099575', '2779833838', '41625074', '2776799952', '129513315', '2780739625', '148815931', '4292930', '2779202806', '2778407992', '150513403', '137527640', '165895018', '2777564511', '176650113', '197743484', '123700513', '2776897705', '19570952', '1284942', '40675005', '190960625', '2778247438', '3128022', '2776236458', '79303471', '2777434392', '1814991', '2778330403', '2777138484', '195092306', '2777388718', '9777977', '176205827', '2776332401', '2779794448', '49671963', '21955270', '189047708', '528615729', '2779429693', '2778722473', '97053079', '2910645917', '195154425', '182348080', '2781357674', '67268981', '2777272942', '2909415995', '2777910687', '2778632158', '152913119', '4891672', '2778213469', '2909805430', '2778602707', '56858530', '131046424', '2777679823', '12129029', '69514717', '2668921', '2776325102', '2781143366', '133214962', '2778357586', '2780165224', '188287460', '2781028066', '2777599230', '2779678948', '499616599', '105859001', '207006810', '2780797762', '2779508860', '78244369', '24939127', '2777399949', '128168118', '2779712367', '81599089', '94061648', '105306849', '67715294', '2910825703', '2909902889', '2779099003', '2778110159', '136325355', '90195498', '2776121688', '63358688', '33559203', '49057587', '2910009623', '76177295', '2778668878', '2908711435', '70455891', '75255083', '2777812597', '2777129128', '2777730692', '81632477', '49545453', '533363959', '2778570914', '2778211487', '2777493711', '2909937950', '94562577', '2778491029', '19835438', '547231352', '161382645', '129360787', '2910897755', '144993055', '2776306026', '147852310', '2778217819', '58790150', '2776069950', '40496375', '2909603817', '2778553890', '2777317380', '2909984675', '2778395396', '130309983', '107708555', '102579867', '2779835370', '2781036520', '2779547435', '2778720231', '2781427571', '2779506560', '138921699', '150547873', '2777554443', '2778652117', '203380394', '2776572357', '122341333', '96306036', '94747663', '2777427512', '51832835', '43632280', '2778597325', '128410448', '174091901', '2777610350', '521259446', '2780573285', '103783831', '2776628701', '108797546', '187109078', '2780531901', '44403221', '2776342442', '68359772', '46685645', '2909326202', '181843262', '42938798', '81692654', '2909494222', '2776053758', '2777076574', '179113317', '2781113848', '149207113', '2779948615', '61661205', '118416809', '84250820', '2778893359', '195729132', '93983250', '126645576', '2777015086', '2776757554', '2778082681', '16828302', '2780965534', '7879346', '2776812703', '54005896', '39077098', '205537798', '81842627', '2777364431', '99484651', '88743934', '116537', '2778666693', '16145799', '2778999818', '96124884', '2780521934', '2776299736', '2777690665', '2776176531', '167110946', '130797344', '114993203', '88802367', '2778618992', '184947814', '2781364496', '2778674365', '2780588113', '2778934327', '2779920756', '152232337', '47291792', '2776361503', '2781421531', '131227075', '34667930']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Contamination', 'Scientific evidence', 'Community-led total sanitation', 'Combined sewer', 'Geochemical modeling', 'Magnesium ammonium phosphate', 'Sluice', 'Wet oxidation', 'River basin management plans', 'Landslide', 'Piper diagram', 'Safe Drinking Water Act', 'ERA-40', 'Erosion', 'Groundwater-dependent ecosystems', 'Cadmium poisoning', 'Nutrient pollution', 'Effluent', 'Arsenic contamination of groundwater', 'Peak water', 'Capital cost', 'Earth remote sensing', 'Enhanced biological phosphorus removal', 'Air stripping', 'Landform', 'Water safety', 'Extended aeration', 'Capacitive deionization', 'Consumptive water use', 'Redintegration', 'River engineering', 'Nanotechnology education', 'National Water Policy', 'Consumption function', 'Transect', 'Sanitation', 'Cone of depression', 'Colored dissolved organic matter', 'Water balance', 'Fossil water', 'Destratification', 'Chemcatcher', 'Emission standard', 'Dissolved air flotation', 'Autonomous consumption', 'Aerobic treatment system', 'Surface water', 'Capillary fringe', 'Xeriscaping', 'Sustainable Services', 'Water table', 'Open defecation', 'Saltwater intrusion', 'Sewage treatment', 'Hyporheic zone', "Fenton's reagent", 'MODFLOW', 'Water reclamation', 'Soil salinity control', 'Temporal scales', 'Volatile suspended solids', 'Permafrost', 'Groundwater remediation', 'Clean Water Act', 'Turbidity', 'Interception', 'Algal bloom', 'Index of biological integrity', 'Microplastics', 'Tap water', 'Water resource policy', 'Sludge volume index', 'Constructed wetland', 'Air sparging', 'Lime softening', 'Dry lake', 'Molecularly imprinted polymer', 'Desalination', 'Subsurface flow', 'Depression-focused recharge', 'Gallery forest', 'Composting toilet', 'Legal instrument', 'Fluvial terrace', 'Water scarcity', 'Rainwater harvesting', 'Membrane bioreactor', 'Biochemical oxygen demand', 'Bacteria', 'Agricultural land', 'Maximum Contaminant Level', 'Conventional pollutant', 'Aerobic digestion', 'Levee', 'Buffer strip', 'Waves and shallow water', 'Pesticide drift', 'Forest management', 'Revaluation', 'Geostatistics', 'Floodplain', 'Sanitary sewer', 'Water conservation', 'Municipal well', 'Chloramination', 'Groundwater pollution', 'Multiple-effect distillation', 'Cointegration', 'Solar humidification', 'Dye tracing', 'Phreatic', 'Bathing Beaches', 'Ravine', 'Lung cancer', 'Hand washing', 'Netpath', 'Ancillary data', 'Permeable reactive barrier', 'Lead and Copper Rule', 'Overdrafting', 'Public good', 'Public toilet', 'Loess', 'Stabilization pond', 'Hydrogeology', 'Reclaimed water', 'Sediment', 'Natural hazard', 'Hydrology', 'Water resources', 'Cross-flow filtration', 'Urban runoff', 'Electrodeionization', 'Purified water', 'Erosion control', 'Coliform bacteria', 'Aerobic granulation', 'Water pricing', 'Diarrhoeal diseases', 'Hydric soil', 'Nanofiltration', 'Base metal', 'Irrigation', 'Hygiene', 'Consumption distribution', 'Dam failure', 'Membrane', 'Water efficiency', 'Salinity', 'Portable toilet', 'Flocculation', 'Distributed element model', 'Dumping', 'Public water system', 'Effluent guidelines', 'Bedrock', 'Sewerage', 'Water conflict', 'Groundwater model', 'Latrine', 'Culvert', 'Activated sludge model', 'Suspended solids', 'Water level', 'Hydropower', 'Water treatment', 'Conjunctive use', 'Electrodialysis', 'Bioirrigation', 'Agricultural wastewater treatment', 'Effluent limitation', 'Multi-stage flash distillation', 'Agricultural pollution', 'Subirrigation', 'Deficit irrigation', 'Waste framework directive', 'Dry season', 'Farm water', 'Sodium adsorption ratio', 'Ethylene glycol dimethacrylate', 'Biofilter', 'Greywater', 'Limnology', 'Appropriate technology', 'Distilled water', 'Source water protection', 'Water supply', 'Drinking water pollution', 'Cesspit', 'Karst', 'PERSIANN', 'Marsh', 'Zoogloea', 'Water pollutants', 'Improved sanitation', 'Bottled water', 'Trophic state index', 'Total suspended solids', 'Water tariff', 'Biological Oxygen Demand Analysis', 'Water chlorination', 'Reduction strategy', 'Energy policy', 'Megadrought', 'Groundwater discharge', 'Ecohydrology', 'Impervious surface', 'Water-use efficiency', 'Human waste', 'Aerial photography', 'Toilet', 'Potentiometric surface', 'Chemical oxygen demand', 'Stormwater harvesting', 'Rhizofiltration', 'Drinking water quality standards', 'Anaerobic digestion', 'Hypolimnion', 'Improved water source', 'Septage', 'Ductile iron pipe', 'Added value', 'Water content', 'Technology dynamics', 'Aerated lagoon', 'Water wheel', 'Rotating biological contactor', 'Wastewater', 'Storm', 'Wetland', 'Safety water', 'Water-related Diseases', 'Stream restoration', 'Karst spring', 'Low-flow irrigation systems', 'Water pollution', 'Virtual water', 'Limnic eruption', 'Desertification', 'Piezometer', 'Textile dye', 'Groundwater', 'Reservoir simulation', 'Head measurements', 'Devaluation', 'Water point mapping', 'Assimilative capacity', 'Water stagnation', 'Activated sludge', 'Water testing', 'Urban planning', 'Water industry', 'Water security', 'Tube well', 'Submarine groundwater discharge', 'Chlorinated solvents', 'Segmented filamentous bacteria', 'Bioprecipitation', 'Interbasin transfer', 'Technology education', 'Environmental isotopes', 'Total dissolved solids', 'Toilet Facility', 'Shelf ice', 'Secondary treatment', 'Environmental impact of pharmaceuticals and personal care products', 'Advanced oxidation process', 'Sewage', 'Pit water', 'Well drainage', 'Dam Collapse', 'Drinking water directive', 'Backswamp', 'Private well', 'Solar water disinfection', 'Biogeochemistry', 'Hydraulic tomography', 'Pore water pressure', 'Dam removal', 'Infiltration gallery', 'Directive', 'Hydrogeophysics', 'Biosand filter', 'Hand pump', 'Political economy', 'Watershed', 'Coastal engineering', 'Water banking', 'Multiple-effect humidification', 'Groundwater sapping', 'Water trading', 'Integrated water resources management', 'Spatial variability', 'Parking lot', 'Environmental management system', 'Watershed management', 'Water damage', 'Coliform index', 'Groundwater recharge', 'Water Framework Directive', 'Pollution', 'Clarifying agent', 'Point source', 'Seasonal thermal energy storage', 'Defecation', 'Non-revenue water', 'Sphaerotilus natans', 'Industrial wastewater treatment', 'Stygofauna', 'Opportunity cost', 'Freshwater ecosystem', 'Natural Springs', 'Digital elevation model', 'Water remote sensing', 'Kriging', 'DNA Contamination', 'Heavy metals', 'Carbonate hardness', 'Trickling filter', 'Geological survey', 'Water use', 'Water right', 'Land reclamation', 'Water well', 'Hydraulic retention time', 'Water cycle management', 'Specific storage', 'Cost estimate', 'Drainage basin', 'High water mark', 'Hydrogeomorphology', 'Ammoniacal nitrogen', 'Tributary', 'Pit latrine', 'Hydraulic engineering', 'Biosorption', 'Urban heat island', 'Biosurvey', 'Extreme weather', 'Forward osmosis', 'Willingness to pay', 'Water year', 'Hydraulic structure', 'Service provider', 'Fog collection', 'GIS and hydrology', 'Struvite', 'Infiltration basin', 'Integrationism', 'Wastewater engineering', 'New political economy', 'Biometal', 'Sand dune stabilization', 'Reverse osmosis', 'Detention basin', 'Lake-effect snow', 'Revetment', 'Water chemistry analysis', 'River source', 'Sustainable sanitation', 'Urban stream', 'Dry toilet', 'Ecological sanitation', 'Total maximum daily load', 'Slug test', 'Integrated urban water management', 'Urine diversion', 'Groundwater flow', 'Profundal zone']</t>
         </is>
       </c>
     </row>
@@ -608,29 +608,29 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>634</v>
+        <v>486</v>
       </c>
       <c r="C8" t="n">
         <v>634</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[150870023, 2911004683, 2777210892, 2777939980, 204312592, 2776594448, 59633683, 118493204, 2986715156, 73916439, 528261146, 2779258914, 2992998436, 102019113, 2779357232, 2993729586, 2778417203, 2993137716, 132853815, 2777008186, 190351424, 2777475136, 2993698881, 2780301381, 2776705095, 38864968, 542482507, 2778318924, 2777348173, 65183824, 2984075350, 37107799, 3020742749, 188573790, 180553826, 2983178341, 2779623529, 2780303473, 2776037492, 2987182204, 187414654, 24717449, 2994112653, 2993858707, 2780457114, 162857116, 2777092252, 2993623197, 2777434272, 2781374625, 2776705190, 2777479337, 2779279529, 2986461359, 2993635508, 2992619708, 108869833, 2909259978, 120441037, 2779961549, 79870159, 2985879762, 154718420, 2993701077, 141713623, 2776461528, 2992503001, 53991642, 2776867037, 2988949726, 3020576991, 2776793327, 20744434, 2985924853, 2994327797, 2994487541, 40018170, 2988792059, 2993891579, 2780039422, 78600449, 2994194693, 2993377546, 203094288, 2994424083, 91812121, 2993604891, 2781217054, 520343842, 2982926626, 2991690020, 2992181541, 2992220451, 2778474792, 2777692458, 2994395435, 115343661, 2780547375, 2991862064, 2992597296, 551020850, 2778409267, 134537524, 13119800, 57467194, 2776756539, 90530108, 16941374, 47651138, 161829187, 540793156, 2780088643, 2989238598, 2777661767, 2991673673, 2780229964, 2779081038, 518406490, 2776033628, 2778636636, 2777692510, 2780363100, 2991974759, 78635371, 2776158574, 149039472, 2777172336, 2991872370, 2779990392, 2776615292, 2993168764, 2775886207, 2777930111, 2777811329, 2778040704, 2778894723, 2984362373, 2993305990, 147190151, 2985367953, 15229330, 2994018710, 2991995288, 2993095066, 3019557281, 59427239, 2778874281, 52881836, 2778323372, 2780572083, 139315637, 3019108789, 8735168, 542589376, 2781264327, 2987923913, 2777563595, 2780819922, 2992359891, 2781299157, 47737302, 2994479587, 19065316, 2778722790, 2985347565, 2776244720, 186503672, 2986566136, 3020036601, 2986717691, 75825664, 2779593220, 2988585476, 2780430855, 2994571788, 2776205842, 2983461400, 2777141785, 2780115483, 2909395487, 2777821729, 2776660518, 2775888423, 2778032680, 2777057837, 2982953526, 52208190, 2776494654, 2992910915, 2779834948, 2776128071, 2780871240, 2908830279, 2992114249, 2992560715, 2993607248, 2779275860, 2781008468, 2994578009, 2992722522, 2776220264, 2779257452, 56085101, 2778829423, 99881593, 2780902009, 2777512574, 2778163838, 2779968128, 175706755, 2986283658, 2994457228, 44044945, 2991800981, 85924503, 2777598616, 2991696540, 2987309725, 2993083046, 2777623212, 2780242610, 135881395, 2781084341, 2984604348, 2779048638, 2777922239, 175461058, 103017160, 2781465288, 2776169166, 2778032857, 2780406490, 2776937181, 2993085153, 2776726243, 2779677415, 2991872743, 2984741612, 2779587310, 2780941038, 2779278070, 2778395384, 2779931384, 181916410, 2993437432, 83544830, 2776208129, 2781414147, 2992952076, 2781293329, 2781393684, 2988141336, 2780947237, 2992596987, 2992456489, 2993472298, 2777596722, 2994144052, 2983187255, 2780306233, 2780394310, 59167565, 2986791757, 187949908, 121119573, 541104983, 2985378647, 2778856288, 204696417, 2779173739, 184978287, 2984156018, 2778420085, 104708988, 171666300, 2781184898, 2992266116, 2776945542, 2779241351, 2992171914, 2777895831, 68189081, 2778842010, 2992032665, 2992937881, 2988786589, 105442212, 2993240997, 2776781735, 2778733479, 2779814830, 2993988528, 2991999921, 513653683, 2780322740, 2779276218, 2987649980, 50551742, 166456254, 2780842947, 2992968644, 42060753, 2780113879, 91112408, 2778219479, 2994318295, 2993218524, 2992114654, 2985872356, 2993177573, 103689191, 2992274416, 2776171505, 2781420532, 6743033, 2992004092, 2779610122, 2780148753, 2993368085, 2994590742, 131046424, 2993167385, 2991705116, 2987025437, 206255140, 183237670, 108655655, 2778676262, 2779431981, 24345647, 2993865786, 2777908284, 2776546366, 2987007045, 2777429066, 2987629642, 2780331096, 2984805465, 35232858, 2779477085, 2776499299, 2992116837, 2993710181, 39996523, 2989077615, 7453809, 2780646515, 2775903348, 2776609911, 2993345656, 2779796603, 2987875455, 2993425548, 2781426840, 2987594904, 3018488985, 2776245404, 2991729823, 2988536993, 2777031842, 2992516262, 149982382, 559228080, 2778217648, 140846259, 2777705660, 2994445503, 52896960, 544738498, 2780509378, 17130696, 2908529875, 2992055509, 59622614, 2992211158, 2992698585, 2992504026, 2993005790, 2992104674, 2777001187, 2992252132, 2986665189, 2992997602, 2779858156, 2983054573, 2993321197, 186977519, 2992157936, 2776327409, 3017921773, 2991848694, 98716924, 14034172, 160363772, 2779862270, 520301825, 2993917189, 2994081031, 29267209, 2993143054, 2779550995, 2992198934, 2991705369, 2780300578, 176481572, 99743013, 106935595, 2776266027, 2780073262, 2779473208, 189289785, 183762234, 2777804095, 2778834244, 2986440005, 2993073479, 2993511753, 2778352971, 2777611596, 2908558667, 2776388943, 2780181841, 2780841300, 2778381653, 39380314, 2909570409, 2776538475, 169031021, 27037042, 2994328954, 75027835, 2780415358, 2994376064, 2993116549, 207768971, 2779544974, 2775995793, 2776417682, 2779434388, 2780345752, 2992225691, 2776741288, 154414509, 34153902, 2780814765, 2780165552, 2987394478, 2987869619, 123153844, 2776780212, 2993302964, 2991682999, 183739832, 2777890234, 2983687614, 2993124799, 2993137092, 174306757, 30236105, 2983939529, 2781079000, 92311004, 2776628701, 2776784348, 160798176, 3018489312, 2779803109, 2779969000, 2991764970, 2780243441, 2778742260, 2992268788, 2994284025, 2992240122, 2989006339, 2777523716, 190168584, 2777325068, 2984431121, 43785746, 2779745812, 2986561044, 2777351703, 2909570586, 2991846938, 2994175521, 2992727591, 2779172400, 2992950832, 2780536370, 2781290048, 2779813444, 2992991817, 196261454, 2776073808, 159559250, 2992746067, 2993759828, 2993933909, 3020451413, 24872536, 423512, 2776788573, 2777796192, 2994108000, 2983032423, 2993274471, 2908804715, 513535597, 2994400878, 2988766832, 2987458167, 2780761721, 2992848506, 2780831356, 2993495681, 2779416208, 2992101008, 2993397392, 2994216592, 2985199253, 2992514717, 2781175455, 2992051875, 9682599, 2910045864, 162393771, 2993946284, 2994235053, 2775942830, 1124016, 2989010609, 2992012976, 95950515, 2992361139, 2987501237, 2993847991, 2994503357, 2776530628, 2993397445, 2993546949, 2908991178, 2781341389, 2992428752, 2983646930, 2993786584, 2778234585, 2781036252, 2779901664, 2993735392, 2987933411, 2778013412, 2988512999, 119338728, 2910979819, 2992152313, 2993780475, 2777315079, 14843661, 159403789, 2777028372, 143517461, 2778486548, 2779430688, 2994411298, 156380964, 2992529192, 2993674024, 2993481519, 2992867123, 2991746877, 2994253630, 95926084, 2779533125, 2780751684, 3017541451, 2991767374, 2991892302, 188669788, 2778959709, 144179057, 2994171764, 174503800, 2982989690, 2993667963, 2778976125, 2982928256, 3017990018, 2993602438, 38870921, 74078090, 2780948363, 2780915601, 2992134036, 122406805, 2988459927, 2777888664, 2779973532, 2778967968, 2779748257, 2992244643, 2992775077, 146231206, 2994487207, 2781300650, 2984888246, 182501304, 2780059578, 2777495483, 66910140, 2994104255, 2778998722, 2909460419, 2992607171, 3019446223, 2983790549, 2777618391, 2986889175, 2776127450, 2778480603, 2742236, 2987945947, 2778656736, 2780604391, 2994575338, 2989510637, 97615858, 2779848691, 2987202547, 104988666, 2777036795, 2987669501, 100405246, 134178815]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Associated petroleum gas', 'Isobutanol biosynthesis', 'Wood fuel', 'Marine current power', 'Storage heater', 'Carbon diet', 'Weatherization', 'Bacterivore', 'Wind generator', 'Energy storage', 'Carbon finance', 'Carbon emission trading', 'Oil and gas production', 'Runaway greenhouse effect', 'BioBus', 'Algal growth', 'Salix viminalis', 'Biomass ash', 'Energy accounting', 'Wind atlas', 'Biosequestration', 'European Climate Change Programme', 'Energy supply chain', 'Biorefinery', 'Maintenance respiration', 'Grid energy storage', 'Hydrogen technologies', 'Renewable energy in Denmark', 'Solar furnace', 'Ethanol fuel', 'Internet of energy', 'Regasification', 'Homer software', 'Renewable energy', 'Mesocosm', 'Virtual synchronous generator', 'Renewable energy law', 'International Nuclear Event Scale', 'Wind power in Denmark', 'Power awareness', 'Cofiring', 'Primary production', 'Solar heater', 'Energy education', 'Crosswind kite power', 'Torrefaction', 'Green certificate', 'National inventory', 'Climate change feedback', 'Energy-Efficient Ethernet', 'Solar Renewable Energy Certificate', 'Uranium market', 'Fossil fuel divestment', 'Wind energy penetration', 'Parabolic concentrator', 'Chlorella vulgaris', 'Nuclear renaissance', 'Trifluoromethyl sulfur pentafluoride', 'Primary energy', 'Net metering', 'Solar shingle', 'Smart microgrid', 'Wind profile power law', 'Carbon management', 'Heat pump and refrigeration cycle', 'Heat pump', 'Solar thermal electricity', 'Biofuel', 'Follow-the-sun', 'Renewable energy system', 'Fossil fuel combustion', 'Carbon Pollution Reduction Scheme', 'Photoelectrochemical cell', 'Energy consumption minimization', 'Solar absorber', 'Solar air collector', 'Tidal power', 'Green networking', 'Climate protection', 'Floating wind turbine', 'Wind power', 'Intermittent power', 'Software energy consumption', 'Ramp generator', 'Grassland ecosystem', 'Regenerative fuel cell', 'Solar cooker', 'Rhinanthus minor', 'Energy engineering', 'Sustainable energy', 'Suction caissons', 'Energy efficient lighting', 'Wind climate', 'Nuclear option', 'Relative growth rate', 'Energy strategy', 'Barrel of oil equivalent', 'Renewable energy in the European Union', 'Sustainable power', 'Solar water', 'Energy development', 'Soft energy path', 'Photobioreactor', 'Coefficient of performance', 'Power system simulator for engineering', 'Cogeneration', 'Low-energy house', 'Epact', 'Concentrated photovoltaics', 'LEED for Neighborhood Development', 'Solar vehicle', 'Clean Power Plan', 'Solar power satellites', 'Miscanthus sinensis', 'Energy plan', 'Trombe wall', 'Grazing pressure', 'Geothermal energy', 'Virtual power plant', 'Reactor protection system', 'Hydrocarbon economy', 'Deep energy retrofit', 'Solar energy conversion efficiency', 'Energy subsidies', 'Climate Change Levy', 'Passive solar building design', 'Energy security', 'Tropical peatland', 'Energy independence', 'Specific leaf area', 'Solar industry', 'Energy-efficient driving', 'Nuclear fuel cycle', 'Hydrogen infrastructure', 'Solar architecture', 'Nuclear power debate', 'Green building', 'Unit sizing', 'Uses of radioactivity in oil and gas wells', 'Power generation system', 'Wood gas generator', 'Shoot biomass', 'Forest age', 'Solar technology', 'Biomass fuels', 'Natural gas', 'Business action on climate change', 'Marine energy', 'Personal carbon trading', 'Nuclear Knowledge Management', 'Tidal barrage', 'Absorption compression', 'Offshore wind power', 'Photovoltaics', 'Geothermal heat pump', 'Solar thermal energy', 'Inertial response', 'Methanol economy', 'Root shoot', 'Environmental impact of nuclear power', 'Greenhouse gas', 'Allometric model', 'Hydrogen vehicle', 'CASBEE', 'Energy sector', 'SPECpower', 'Grid parity', 'Solar electricity', 'Co benefits', 'Peak load shaving', 'Transcritical cycle', 'Carbon label', 'Wind integration', 'Bioproducts', 'Carbon mitigation', 'Electrical grid', 'Wind system', 'Nannochloropsis', 'Chlorococcum', 'Sustainable Energies', 'Energy Policy Act of 2005', 'Solar power forecasting', 'Natural refrigerant', 'Solar-assisted heat pump', 'Renewables Obligation', 'Natural gas industry', 'Renewable fuels', 'Ocean thermal energy conversion', 'Wind forecast', 'Climate footprint', 'BREEAM', 'Energy liberalisation', 'Copper indium diselenide', 'Energy indicators', 'Concentrator photovoltaic', 'Oil and natural gas', 'House Energy Rating', 'Nuclear law', 'Gas market', 'Green house gas emission', 'Climate change in the European Union', 'Common But Differentiated Responsibilities', 'Biochar', 'Solar access', 'Power usage effectiveness', 'Bothriochloa ischaemum', 'Tip-speed ratio', 'Geothermal power', 'Energy conservation measure', 'Rooftop photovoltaic power station', 'Distributed power generation', 'Renewable distributed generation', 'Hybrid heat', 'Green gas', 'Dispatchable generation', 'Solar desalination', 'Heat pumping', 'Energy per instruction', 'Building integration', 'Million standard cubic feet per day', 'Public Utility Regulatory Policies Act', 'Environmental impact of electricity generation', 'Wind power forecasting', 'Energy efficient architecture', 'Atomic Energy Act', 'Dynamic tidal power', 'Vegetable oil refining', 'Coppicing', 'Solar-pumped laser', 'Green River Formation', 'Solar pond', 'Greenhouse gas inventory', 'Embedded emissions', 'Palm biodiesel', 'Corn stover', 'Ulva prolifera', 'Solar water heating system', 'Transactive energy', 'Metal hydride fuel cell', 'Renewable Polyethylene', 'Energy policy of the European Union', 'Green retrofit', 'Earth sheltering', 'Hydrogen station', 'Solar drying', 'Industrial gas', 'Methane emissions', 'Convention on Nuclear Safety', 'Energy infrastructure', 'Solar savings fraction', 'Solar combisystem', 'Energy efficient transmission', 'Wind Powering America', 'Direct combustion', 'Fermentable sugar', 'Maximum energy capture', 'Vertical axis wind turbine', 'Borehole thermal resistance', 'Solar power plant', 'Energy conservation in the United States', 'Bouteloua gracilis', 'Periphyton', 'Power industry deregulation', 'Air source heat pumps', 'Intermittent energy source', 'Solar energy', 'Green data center', 'European Union Emission Trading Scheme', 'Vulnerability of nuclear plants to attack', 'Renewable portfolio standard', 'Zero-energy building', 'Self excited induction generator', 'Avoiding Dangerous Climate Change', 'Stand-alone power system', 'Small hydro', 'Fluorinated gases', 'Root mass', 'Worldwide energy supply', 'Tidal farm', 'Final energy', 'Bioliquids', 'Fossil fuel', 'Solar chimney', 'Geothermal reservoir', 'Biomass gasification', 'Direct normal irradiance', 'Feed-in tariff', 'Market barriers', 'Climate Change Agreement', 'Jatropha', 'Energy Policy Act of 1992', 'Solar space heating', 'Hydroelectric reservoir', 'Nuclear power', 'Passive house', 'Hydrothermal liquefaction', 'Energy metrics', 'Divisia index', 'British thermal unit', 'Core damage frequency', 'Hyperdimensional computing', 'Biomass partitioning', 'Compressed air energy storage', 'Nuclear energy policy', 'Scenedesmus', 'Above ground', 'Nuclear power reactor', 'International climate policy', 'Power coefficient', 'Solar data', 'Unitized regenerative fuel cell', 'Geothermal water', 'Danish oil', 'Carbon accounting', 'Floating liquefied natural gas', 'Nuclear power system', 'Biogasoline', 'National Energy Act', 'Natural gas consumption', 'Micro power generator', 'Energy policy', 'Energy assessment', 'Energy productivity', 'Sequential monte carlo simulation', 'Sour gas', 'Clean coal technology', 'Solar fuel', 'Solar Resource', 'Luminescent solar concentrator', 'Unconventional oil', 'Photovoltaic solar energy', 'LNG storage tank', 'Energy tower', 'Wind energy conversion', 'Conference of the parties', 'Wind power generation', 'Energy modeling', 'Mechanical energy storage', 'Faint young Sun paradox', 'Water heat recycling', 'Production sharing agreement', 'Petroleum processing', 'Thermal recovery', 'Renewable energy credit', 'Wind power penetration', 'Energy carrier', 'Voluntary Emission Reduction', 'Home energy rating', 'Energy management software', 'Zero carbon', 'Performance per watt', 'Electronic load controller', 'Natural gas fuel', 'Carbon leakage', 'Solar energy harvesting', 'Transport fuel', 'Downhole heat exchanger', 'Solar intensity', 'Energy sustainability', 'Solar water heating', 'Solar energy storage', 'Typical meteorological year', 'Energy statistics', 'Micro combined heat and power', 'United States Hydrogen Policy', 'Gas reinjection', 'Leaf mass', 'Biodiesel', 'Distributed generation', 'German Renewable Energy Sources Act', 'Photoelectrolysis', 'Biofuel Cells', 'Renewable energy consumption', 'SuperGrid', 'Inertial control', 'Fluid injection', 'Hydro energy', 'Biomass combustion', 'Environmental energy', 'Schizachyrium scoparium', 'Photovoltaic electricity', 'Probabilistic load flow', 'Transportation fuel', 'Carbon bubble', 'Wind park', 'Solar absorptivity', 'Wave farm', 'Nano grid', 'Arundo donax', 'Herbaceous biomass', 'Nutrient allocation', 'Induction generator', 'Liquefied natural gas', 'Non-renewable resource', 'Small wind turbine', 'Energy conservation', 'Hydroelectric generation', 'Carbon stock', 'Wind hybrid power systems', 'Biomass yield', 'Fuel poverty', 'Solar air heater', 'Solar generator', 'United States energy independence', 'Natural gasoline', 'Kyoto Protocol', 'Greenhouse gas removal', 'Membrane bioreactor', 'Mandatory renewable energy target', 'Concentrated solar power', 'Hydrocarbon dew point', 'Standing crop', 'Flexible Mechanisms', 'Energy planning', 'Residual energy', 'Tidal current energy', 'Catalytic pyrolysis', 'Sustainable lighting', 'National Renewable Energy Action Plan', 'Conservation energy', 'Energy policy of the United States', 'Green paradox', 'Energy monitoring and targeting', 'Energy efficiency gap', 'Hydrogen economy', 'Batch Cell Culture Techniques', 'Climate legislation', 'Biomass to liquid', 'Natural gas vehicle', 'Distributed generation planning', 'Green computing', 'Natural gas storage', 'Solar potential', 'Energy supply and demand', 'Self-shrinking generator', 'Reserves-to-production ratio', 'Sustainable Energy Utility', 'Low-carbon power', 'Active Network Management', 'Wind resource assessment', 'Fossil fuel emissions', 'Ground heat exchanger', 'Soil respiration', 'Tree allometry', 'Vuilleumier cycle', 'Absorption heat pump', 'Global solar radiation', 'Geothermal power generation', 'Base load power plant', 'Marginal abatement cost', 'Electricity intensity', 'Hybrid poplar', 'Pumped-storage hydroelectricity', 'Energy transition', 'Micro grid', 'Embodied carbon', 'Solar tower', 'Geothermal exploration', 'Sustainability and systemic change resistance', 'Virtual inertia', 'GHG footprint', 'Hydroelectricity', 'Seasonal thermal energy storage', 'Microgrid', 'Solar air conditioning', 'Fungal biomass', 'World Energy Outlook', 'Manure management', 'Pine sawdust', 'Thermal response test', 'Green star', 'Water source heat pump', 'Central receiver', 'Solar forecasting', 'Renewable materials', 'Energy proportional computing', 'Solar cell efficiency', 'Market transformation', 'Energy efficient computation', 'API gravity', 'Energy Independence and Security Act of 2007', 'Wind power generator', 'Low-carbon fuel standard', 'Nannochloropsis oculata', 'Microbial respiration', 'Ocean current turbine', 'Renewable biomass', 'Renewable Energy Certificate', 'Geothermal fluid', 'Pyrolysis oil', 'Aquatic Species Program', 'Proven reserves', 'Renewable energy policy', 'Cold filter plugging point', 'Hemicellulose', 'Nitrogen rejection unit', 'Energy storage sizing', 'Evacuated tube', 'Coal rank', 'Aboveground biomass', 'Coal liquefaction', 'Electricity generation', 'Seawater greenhouse', 'Exclosure', 'Biomass degradation', 'Fuel gasification', 'Temperate grassland', 'Energy conservation training', 'Low-carbon economy', 'Nuclear power industry', 'Squirrel cage induction generator', 'Photovoltaic power generation', 'Organosolv', 'Energy auditing', 'Hot summer cold winter zone', 'Solar plant', 'Environmental impact of wind power', 'Underground gas storage', 'Voltage violation', 'Solar absorptance', 'Solar powered', 'Greenhouse gas flux', 'World energy consumption', 'Energy storage efficiency', 'Hydrogen fuel', 'Acutodesmus', 'Keeling Curve', 'Carbon market', 'Energy dispatch', 'Bioasphalt', 'Biohydrogen', 'Distributed generator', 'Solar absorption', 'Shale oil', 'Biomass composition', 'Energy scheduling', 'Photovoltaic power plants', 'Greenhouse gas balance', 'Energy Tax Act', 'Hydroelectric development', 'Wind simulation', 'Thermodynamic energy conservation', 'Energy system', 'Greenhouse warming', 'Renewable power generation', 'Emission abatement', 'Lignocellulosic biomass', 'Approximate computing', 'Green trading', 'Fossil fuel power plant', 'Greenhouse gas reduction', 'Enhanced geothermal system', 'Hydrothermal power systems', 'Solar tracker', 'Pontoscolex corethrurus', 'Primary productivity', 'Storage energy', 'Natural-gas condensate', 'Idealized greenhouse model', 'Algae fuel', 'Adsorption refrigeration', 'Renewable resource', 'Carbon emission label', 'Energy Policy and Conservation Act', 'Wind variability', 'Bioenergy', 'Algae biomass', 'Emergency operating procedures', 'Fossil carbon', 'Solar heat', 'Fossil fuel consumption', 'Offshore renewable energy', 'Life-cycle greenhouse-gas emissions of energy sources', 'Advanced Fuel Cycle Initiative', 'Alden Research Laboratory', 'First generation biofuels', 'Biomass carbon', 'Heat pump water heater', 'United States Department of Energy International Energy Storage Database', 'Woodchips', 'Renewable heat', 'Operational energy', 'Environmental impact of the energy industry', 'Wind power system', 'Bituminous materials', 'Carbon tax', 'Energy performance', 'Below ground biomass', 'Renewable resource management', 'Environmental impact of aviation', 'Natural-gas processing', 'STEAM fields', 'Renewable energy in Argentina', 'Agricultural residue', 'Hydrogen pinch', 'Clean energy', 'Energy and environmental engineering', 'Solar dryer', 'Cap and Share', 'Solar thermal collector', 'Carbon storage', 'Conservative power theory', 'Solar cell research', 'Agricultural biomass', 'Renewable energy in China', 'Wave power generation', 'Seasonal energy efficiency ratio', 'Levoglucosan', 'Anti-greenhouse effect', 'Biodiesel production', 'Solar heating system', 'Solar car', 'Energy conservation behaviour', 'Solar power system', 'Wind resource', 'Green power', 'Solar power', 'Solar concentrator', 'High-altitude wind power', 'Energy returned on energy invested', 'Efficient energy use', 'Climate policy', 'Measurement and Verification', 'Levulinic acid', 'Marine current energy', 'Gas industry', 'Energy intensity', 'Solar charger', 'Energy awareness', 'Alternative energy', 'Leymus', 'Energy reduction', 'Emissions trading', 'Cryogenic energy storage']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2777031842', '19473024', '182501304', '17648541', '187414654', '157181609', '53914812', '2778330180', '2777811329', '2778656736', '2777466363', '207768971', '2777888664', '2780406490', '520343842', '108869833', '47651138', '2779868350', '33039251', '86155754', '2777210892', '2778234585', '85924503', '2780148753', '2777416314', '2779745812', '27037042', '2780394310', '123197309', '162857116', '117537405', '2775886207', '2776782565', '46465826', '2776867037', '2780113879', '2777618391', '9132272', '2776461528', '2775888423', '2780520809', '111766609', '2780814765', '2778032680', '151174772', '2776538475', '117127486', '2777348173', '160363772', '2777429066', '2776128071', '2779803109', '2779173739', '171666300', '2911192195', '104708988', '2781465288', '2779715735', '2778245977', '174306757', '206255140', '2781426840', '2779814830', '2778842010', '2780894989', '173372375', '105994980', '174493833', '53991642', '2778787560', '2780761721', '2779677415', '200630231', '2908529875', '196513747', '175365462', '2776327409', '154718420', '175461058', '137886200', '29267209', '2777821729', '2779683600', '2780066083', '2776033628', '2779252636', '55037315', '2779796603', '2780243441', '165998758', '2780902009', '175706755', '2781184898', '56085101', '2909574085', '188818383', '2779258914', '159403789', '38677869', '95926084', '105442212', '107645774', '203094288', '19065316', '146231206', '2781309322', '2777008186', '80845027', '2778675665', '2776660518', '2778998722', '174575960', '2776886032', '2779019381', '68189081', '184978287', '2779431981', '183287310', '2776205842', '2778539042', '2780572083', '9682599', '59622614', '2780229964', '2778163838', '2778742260', '2779048638', '43785746', '2778156585', '2910220436', '139315637', '101518730', '2777622855', '92311004', '107861326', '2781420532', '2779961549', '38864968', '186977519', '64298129', '2779862270', '2910697279', '16941374', '2778217648', '188573790', '2776442348', '2777215464', '37965861', '68801617', '2779430688', '2776469828', '38940224', '2777423268', '2780068603', '75825664', '100405246', '2779769944', '2778733479', '119494637', '2780182046', '2779990392', '2779813444', '24717449', '89505385', '45882903', '2776793327', '78635371', '1124016', '73916439', '143517461', '1715860', '2776208129', '509746633', '83227832', '2776740001', '2781374625', '181916410', '2778324724', '520301825', '79870159', '2909203570', '2779969000', '129456180', '2778722790', '2778636636', '2778013412', '150870023', '2778040493', '2780604391', '2778676262', '42060753', '74078090', '2780345752', '2777172336', '2780824857', '90509273', '37415627', '2780331013', '2781249646', '2777351703', '40675005', '2742236', '2776190866', '72080964', '2779172400', '2777586272', '2777479337', '57467194', '2778258436', '149982382', '2776058518', '2778829423', '160798176', '2909203356', '501529594', '151406439', '206991015', '2778153913', '2910979819', '2781300650', '2779081038', '2776546366', '7453809', '149039472', '2778834244', '518406490', '2779371384', '2781352779', '2781175455', '542482507', '2776499299', '135802936', '2776781735', '2780415358', '423512', '56685638', '2780978964', '2776705095', '2781341389', '86714428', '52208190', '2780059578', '118493204', '105923489', '31419778', '190168584', '2776645009', '99881593', '176871988', '2776078904', '15229330', '2779434388', '2776512361', '2780181841', '2779961193', '39380314', '2779533125', '40293303', '2776756539', '131046424', '119338728', '174503800', '2778856288', '98716924', '2780088643', '2779141992', '2781150358', '183237670', '2778032857', '2779968128', '2779550995', '196340769', '78244369', '20744434', '108722225', '95950515', '2780322740', '2777596722', '37107799', '2781008468', '2776726243', '526406351', '2777217638', '2781036252', '2777315079', '156380964', '40018170', '178065520', '20788544', '134178815', '540793156', '206658404', '135436540', '161829187', '17626397', '2776494654', '59167565', '196261454', '52881836', '2779257452', '176481572', '44044945', '2909690246', '187949908', '2777930111', '123153844', '2777908284', '2776741288', '544738498', '97615858', '2780059494', '154414509', '206888370', '75027835', '2780115483', '2781327496', '185220729', '2776576667', '2779877863', '113740612', '2779867701', '2778976125', '2779607880', '513535597', '2778844797', '103689191', '121119573', '108225325', '8735168', '2909570586', '2780004717', '2781084341', '2775903348', '2776849302', '2776417682', '2909699456', '2780050931', '159559250', '1034443', '135881395', '544956773', '2777027713', '2780301381', '10558101', '2778970885', '103017160', '39996523', '513653683', '143559376', '204312592', '2779200991', '2911135383', '2910385868', '29592376', '2780165552', '2776127450', '2781393684', '2778219479', '2780536370', '2777036795', '186503672', '163652712', '141713623', '2779710395', '91812121', '2776970089', '183739832', '2778474792', '132853815', '2778323372', '65183824', '2779848691', '83544830', '197551870', '183762234', '2776036445', '30236105', '127145964', '2776784348', '134537524', '184235594', '2777796192', '2780242610', '137851953', '142804171', '2776169166', '528261146', '104988666', '202417442', '2777804095', '122039914', '2776628701', '180553826', '99743013', '146733006', '78600449', '2780991303', '7817414', '41291067', '541104983', '2779623529', '2777563595', '2776780212', '2780430855', '24345647', '144179057', '68476402', '2780427980', '194945478', '2777682434', '88417058', '50551742', '2776325313', '542589376', '2779279529', '2776073808', '90530108', '38870921', '8744930', '2908830279', '106935595', '2777092252', '2776867696', '2780039422', '2777890234', '17485501', '2780165032', '2965452', '59427239', '2779765720', '66910140', '2777661767', '2778417203', '108655655', '551020850', '61980418', '2778040704', '91112408', '559228080', '2778869765', '32866371', '2779610122', '2780789856', '2779265950', '2778959709', '17130696', '120441037', '2780936489', '2780331096', '2781264327', '144717724', '2780153765', '2779895041', '155373166', '2777598616', '76047896', '34153902', '2777325068', '13119800', '2777028372', '2779973532', '2779748257', '128396106', '2777141785', '29682386', '140846259', '149768029', '2781335544', '2777692458', '2779473208', '2776609911', '2777512574', '2776615292', '189289785', '47737302', '52957995', '2778381653', '59633683', '31395832', '2781217054', '24671956', '2777001187', '126172416', '2778449969', '2778309119', '75684735']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Solar water heating', 'Reversed electrodialysis', 'Seasonal energy efficiency ratio', 'Efficiency', 'Cofiring', 'Sustainable transport', 'Geothermal heating', 'Pitch control', 'Hydrogen infrastructure', 'Measurement and Verification', 'Design tool', 'Self-shrinking generator', 'Energy and environmental engineering', 'Greenhouse gas inventory', 'Energy engineering', 'Nuclear renaissance', 'Concentrated photovoltaics', 'Polycaprolactone', 'Content management', 'Hybrid power', 'Wood fuel', 'Lignocellulosic biomass', 'Dispatchable generation', 'National Energy Act', 'Energy poverty', 'Energy Independence and Security Act of 2007', 'Natural gas vehicle', 'Bouteloua gracilis', 'Multi-armed bandit', 'Torrefaction', 'Thermophotovoltaic', 'Energy-efficient driving', 'Greenhouse gas accounting', 'Biophotonics', 'Follow-the-sun', 'Compressed air energy storage', 'Solar power', 'IEC 62700', 'Heat pump', 'Natural refrigerant', 'Clean technology', 'Geothermal gradient', 'Vuilleumier cycle', 'Solar-assisted heat pump', 'Propulsor', 'Climate legislation', 'Thermoelectric generator', 'Solar furnace', 'Non-renewable resource', 'Conference of the parties', 'BREEAM', 'World Energy Outlook', 'Renewable portfolio standard', 'Small hydro', 'Energy pathways', 'Stand-alone power system', 'Solar-pumped laser', 'Ducted propeller', 'Photovoltaic power station', 'Geothermal exploration', 'Sour gas', 'Carbon leakage', 'Energy Policy Act of 1992', 'Solar chimney', 'Polarization-division multiplexing', 'Cokernel', 'Waste heat recovery unit', 'Thermophotonics', 'Biofuel', 'Power-system automation', 'Organosolv', 'Ulva prolifera', 'Cleaner production', 'Biofuel Cells', 'Remedial action', 'Methanol fuel', 'Arundo donax', 'Wind profile power law', 'Vegetable oil refining', 'Biopsychosocial model', 'Wind hybrid power systems', 'Energy Policy Act of 2005', 'Distributed key generation', 'Repartition', 'Virtual power plant', 'Mailing list', 'Experimental data', 'Performance per watt', 'Thermal response test', 'Imaging technology', 'Bothriochloa ischaemum', 'Rooftop photovoltaic power station', 'Fluorinated gases', 'Biochar', 'Geothermal Springs', 'Fugitive emissions', 'Carbon emission trading', 'Algae fuel', 'Petri net', 'Life-cycle greenhouse-gas emissions of energy sources', 'Feed-in tariff', 'Human resources', 'Ramp generator', 'Hydrogen vehicle', 'Solar cell research', 'Cardiorenal syndrome', 'Wind atlas', 'Continuous spectrum', 'Islanding', 'Solar power forecasting', 'Solar car', 'Renewable natural gas', 'Roboty', 'Relocation', 'Fossil fuel', 'Zero-energy building', 'Luminescent solar concentrator', 'Thermal energy storage', 'Electrical grid', 'United Nations Framework Convention on Climate Change', 'Nuclear Knowledge Management', 'Hydrogen fuel', 'SuperGrid', 'Trombe wall', 'Geothermal power', 'Green star', 'Atomic Energy Act', 'API gravity', 'Relay', 'Thermal Problem', 'Tidal barrage', 'Energy harvesting', 'User information', 'Hydroelectricity', 'Thermal energy', 'Carbon accounting', 'Net metering', 'Grid energy storage', 'Wave farm', 'Ram air turbine', 'Small wind turbine', 'Cardio-Renal Syndrome', 'Epact', 'Micro combined heat and power', 'Renewable energy', '100% renewable energy', 'Formic acid fuel cell', 'Carbon credit', 'Electrolyte', 'Energy Policy and Conservation Act', 'Coalbed methane', 'Load bank', 'Energy balance', 'Vehicle-to-grid', 'Transcritical cycle', 'Emissions trading', 'Silicone', 'Jatropha', 'Projective representation', 'Wave power', 'Energy independence', 'Proven reserves', 'Primary production', 'User interface', 'Fuel efficiency', 'Carbon Pollution Reduction Scheme', 'Energy subsidies', 'Biohydrogen', 'Energy storage', 'Renewable resource', 'Recuperator', 'Methane emissions', 'Climate change mitigation', 'Carbon offset', 'Project Independence', 'Energy-Efficient Ethernet', 'Hydrogen station', 'Electrification', 'Energy conservation', 'Solar shingle', 'Local-Regional', 'Manure management', 'PH partition', 'CASBEE', 'Reactor protection system', 'Enhanced geothermal system', 'Associated petroleum gas', 'Peak gas', 'Levulinic acid', 'Solar Resource', 'Biomass partitioning', 'Natural-gas processing', 'Wind resource assessment', 'Energy security', 'Solar cell', 'Robot', 'Capacity factor', 'Carbon lock-in', 'Parabolic trough', 'Low-carbon fuel standard', 'Hydropower', 'Efficient energy use', 'Energy supply', 'Meker-Fisher burner', 'Renewable Energy Certificate', 'Copenhagen Accord', 'Uranium market', 'Power system simulator for engineering', 'Outage probability', 'Typical meteorological year', 'Solar still', 'Solar access', 'Solar air conditioning', 'Nannochloropsis sp.', 'Carbon', 'Time series', 'Energy conversion efficiency', 'Plastic recycling', 'Pontoscolex corethrurus', 'Renewable energy in China', 'Grazing pressure', 'Energy tower', 'Energy carrier', 'Passive solar building design', 'Energy planning', 'Geothermal energy', 'Biomass', 'Thermal profiling', 'World energy consumption', 'Hydrogen technologies', 'Production sharing agreement', 'Middleware', 'Climate Change Agreement', 'Natural gas storage', 'Electricity generation', 'Power control', 'Nuclear safety and security', 'Maintenance respiration', 'Energy system', 'Atmospheric methane', 'Renewable fuels', 'Levoglucosan', 'Bacterivore', 'Combustion', 'Trickle charging', 'Solar cell efficiency', 'Higher Power', 'Power usage effectiveness', 'Electric motor', 'RT middleware', 'Wood gas generator', 'Active Network Management', 'Power purchase agreement', 'Green paradox', 'Biobased economy', 'Hydrogen economy', 'Advanced Fuel Cycle Initiative', 'Electric power', 'Cogeneration', 'Energy policy', 'Solar tracker', 'Environmental impact of the energy industry', 'European Union Emission Trading Scheme', 'Induction generator', 'Clean Power Plan', 'Solar updraft tower', 'Acinonyx', 'Clean coal technology', 'Solar pond', 'Energy conservation measure', 'Fuel poverty', 'Temporal difference learning', 'Added value', 'Photoelectrochemical cell', 'Alcohol fuel', 'Shale oil', 'Passive house', 'Vertical axis wind turbine', 'Regasification', 'Nuclear law', 'Corn stover', 'Charcoal', 'Emergency power system', 'Approximate computing', 'Natural-gas condensate', 'Bioenergy', 'Tidal power', 'Miller cycle', 'Photonics', 'Cryogenic energy storage', 'Solar vehicle', 'Electricity', 'Heliostat', 'LEED for Neighborhood Development', 'Automatic test pattern generation', 'Ocean thermal energy conversion', 'Periphyton', 'Cold filter plugging point', 'Marine energy', 'Common But Differentiated Responsibilities', 'Natural gasoline', 'Hybrid heat', 'Prepared Material', 'Air source heat pumps', 'Nuclear fuel cycle', 'Base load power plant', 'LNG storage tank', 'Ground heat exchanger', 'Distributed generation', 'Energy intensity', 'Boswellia sacra', 'Soil respiration', 'Electric power distribution', 'Green computing', 'Chlorococcum', 'Partially premixed combustion', 'Algae bioreactor', 'Biofortification', 'Carbon project', 'Natural gas field', 'Secondary reference', 'Carbon tax', 'Charging station', 'Low-carbon economy', 'Aquifer thermal energy storage', 'Unitized regenerative fuel cell', 'Intermittent energy source', 'Semiconductor', 'Offshore wind power', 'Nannochloropsis oculata', 'Binary cycle', 'Wind power forecasting', 'Home energy rating', 'Energy market', 'Low-carbon power', 'Absolute Change', 'Energy forecasting', 'Nitrogen rejection unit', 'Propulsion', 'Environmental impact of electricity generation', 'Silicon', 'Soil gas', 'Biorefinery', 'Smart grid', 'Rural electrification', 'Coppicing', 'Renewable energy credit', 'Nuclear power', 'Plane partition', 'Storage heater', 'Carbon price', 'Rescue vehicle', 'Low body temperature', 'Electric energy', 'Absorption heat pump', 'High-altitude wind power', 'Solar combisystem', 'Scenedesmus', 'Pyrolysis oil', 'Leymus', 'Grid parity', 'Carbon dioxide scrubber', 'Heat pump and refrigeration cycle', 'Alkaline fuel cell', 'Regenerative fuel cell', 'Ethics committee', 'Pumped-storage hydroelectricity', 'Nuclear option', 'Energy accounting', 'Personal carbon trading', 'Ethanol fuel', 'Solar charger', 'Industrial gas', 'Stochastic Petri net', 'Standing crop', 'Pellet fuel', 'Sustainability and systemic change resistance', 'Heat recovery ventilation', 'Microgrid', 'Photobioreactor', 'Waste heat', 'Exclosure', 'Public Utility Regulatory Policies Act', 'Greenhouse effect', 'Blue carbon', 'Green River Formation', 'Carbon finance', 'Alternative energy', 'Synthetic fuel', 'Flexible Mechanisms', 'G-network', 'Seasonal thermal energy storage', 'Mesocosm', 'Kyoto Protocol', 'Electricity market', 'Wind power', 'Photoactive layer', 'Energy management', 'Photovoltaic system', 'Solar energy', 'Renewable energy law', 'Inertial response', 'Marginal abatement cost', 'Bioproducts', 'Unconventional oil', 'Renewable heat', 'Table of contents', 'Carpool', 'Heat capacity rate', 'Energy mix', 'Solar sail', 'Divisia index', 'Zinc–air battery', 'Photovoltaics', 'Fossil fuel divestment', 'Hemicellulose', 'Low-energy house', 'Environmental impact of aviation', 'Aluminium recycling', 'Copper indium diselenide', 'Greenhouse gas removal', 'Green certificate', 'Telmatology', 'Floating wind turbine', 'Energy transition', 'Thermal engineering', 'Energy consumption', 'Energy crop', 'Natural gas', 'C-RAN', 'Biodiesel production', 'Miscanthus sinensis', 'Salix viminalis', 'Solar fuel', 'Energy development', 'Location', 'Solar architecture', 'Nuclear energy policy', 'Energy statistics', 'Inefficiency', 'Discrete event dynamic system', 'Biogasoline', 'Variable renewable energy', 'Absolute scale', 'Woodchips', 'Photoelectrolysis', 'Primary energy', 'Carbon footprint', 'Energy modeling', 'Geothermal heat pump', 'Osmotic power', 'Low-carbon emission', 'Land footprint', 'Food chain', 'Solar desalination', 'Powertrain', 'Tree allometry', 'Market transformation', 'Coefficient of performance', 'Adsorption refrigeration', 'Solar dryer', 'Solar thermal collector', 'LED stage lighting', 'Nannochloropsis', 'Geothermal desalination', 'United States Hydrogen Policy', 'Power budget', 'Magnesium battery', 'Relative growth rate', 'Concentrated solar power', 'Energy management software', 'Tip-speed ratio', 'Specific leaf area', 'Hydrocarbon dew point', 'Greenhouse gas', 'Conservation of energy', 'Energy efficiency gap', 'Weatherization', 'Testbed', 'Rhinanthus minor', 'Fusion power', 'Schizachyrium scoparium', 'Carbon neutrality', 'Turbine', 'Circuit reliability', 'Big data']</t>
         </is>
       </c>
     </row>
@@ -641,29 +641,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="C9" t="n">
         <v>186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2780498437, 2910547974, 2993229322, 2909356555, 2781257228, 2992540694, 2780286488, 2776237081, 78285338, 2908915227, 2781455901, 2775867934, 2778126366, 2909538334, 2909404707, 2910004771, 2910181414, 3019956774, 2775963177, 2778837545, 2993469481, 2777382958, 2776943663, 2780085806, 2993927728, 2781068852, 2775965751, 2778002999, 2993991226, 2780695613, 2911148093, 2781096511, 2994164801, 2909201987, 2993970755, 10144844, 2991728206, 2780407378, 2993683034, 63545947, 2777358941, 3017757278, 2993429599, 2776883808, 2780625504, 2778774626, 2781198434, 48057960, 2780370025, 3018262634, 2779014257, 2775906418, 2779709558, 2993235063, 68286588, 2994420861, 2776332928, 2993321602, 2910887555, 2776344712, 2780000394, 2992782987, 2994236555, 2909423246, 2779264144, 2993597074, 2779739803, 107806365, 2909274781, 2994220193, 2778566306, 560292, 202063016, 155508913, 48879800, 2781426361, 80984254, 2992410305, 2780946114, 3020136643, 2778202820, 2780536516, 2777885895, 38104776, 2776465609, 135335626, 2909732560, 2776665811, 2777950934, 2778237654, 3963096, 2994086107, 3017953504, 3018961124, 2776689383, 2780438764, 110458093, 2992230124, 72614640, 2780082420, 2778116346, 2781349114, 2910129406, 2910941953, 3017687300, 2777597704, 2776888587, 139203340, 2909644561, 2777439000, 2992712473, 2780127002, 2778038044, 2993248028, 2908823330, 2778380070, 2911089958, 3018504486, 2778581803, 145236788, 2992966452, 158324025, 2778395451, 2776698172, 2993482556, 510346563, 2779795779, 30228293, 2776255816, 551662922, 2780516171, 2911189839, 26595155, 2777276756, 67886934, 2778517334, 2991865689, 2777540445, 2777581918, 2991866208, 2994488168, 2993530730, 2777120107, 2775969135, 2776325488, 2992710511, 2992741232, 2776544115, 2909916548, 2778806149, 3020566922, 2779723664, 3017427350, 2993526173, 38070178, 81751973, 2910599589, 2776090537, 2778597803, 2776718767, 2777211311, 2991787442, 2993505719, 2779290559, 2778716609, 2776358859, 6968784, 2985703379, 2994300884, 2781154774, 2910471639, 2779872728, 2987171289, 2780431834, 2992110047, 2779266529, 2909338083, 2911183331, 190175210, 2778639343, 11092464, 2780931059, 24649204, 2993906167, 2994519032, 2778762746]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Labour market flexibility', 'Insurance benefit', 'Wage bargaining', 'Part-time employment', 'Labor disputes', 'Job creation', 'Works council', 'Income Support', 'Materials management', 'Grievance procedures', 'Eurosclerosis', 'Disparate treatment', 'Unemployment', 'Industrial conflict', 'Marketable skill', 'Collective labor agreements', 'Job losses', 'Long term unemployment', 'Labour code', 'Core Labor Standards', 'Job loss', 'Reverse logistics', 'Human capital', 'Layoff', 'High unemployment', 'Union density', 'Active labour market policies', 'Retirement planning', 'Labor management', 'Reservation wage', 'Subemployment', 'Mandatory retirement', 'Maternity leave', 'Labor Forces', 'Income loss', 'Labour law', 'Employment growth', 'Overtime', 'Wage rate', 'Individual capital', 'Temporary work', 'Paid work', 'Wage earner', 'Added worker effect', 'Structural estimation', 'Phillips curve', 'Amortization', 'Bargaining power', 'Labor mobility', 'Re employment', 'Natural rate of unemployment', 'Precarious work', 'Low-level equilibrium trap', 'Labour force survey', 'Full employment', 'Market policy', 'Termination of employment', 'Labor contract', 'Occupational mobility', 'Supply creates its own demand', 'Family economics', 'Domestic work', 'Employment structure', 'Job Ladders', 'Basic income', 'Educational investment', 'Labor demand', 'Apprenticeship', 'Fringe Benefit', 'Household finance', 'Personal income', 'Fixed capital', 'Marginal product', 'Misery index', 'Small and medium-sized enterprises', 'Earnings', 'Labor relations', 'Employment sector', 'Dual labour market', 'Work effort', 'Substitution effect', 'Displaced workers', 'Real wages', 'Industrial relations', 'Labor market segmentation', 'Discouraged worker', 'Chronic unemployment', 'Collective bargaining', 'Skilled worker', 'Labour is not a commodity', 'Official cash rate', 'Wage inequality', 'Labor union', 'Non employment', 'Labour supply', 'Youth unemployment', 'Redistribution of income and wealth', 'Labor market dynamics', 'Secondary labor market', 'Access to finance', 'Labor shortage', 'Wage curve', 'Seeking work', 'Employment history', 'Job tenure', 'Maximum wage', 'Unemployment in the United States', 'Monopsony', 'Active Labor', 'Housing tenure', 'Market wage', 'Frictional unemployment', 'Living wage', 'Job quality', 'Full-time employment', 'Intangible asset', 'Precarious Employment', 'Employment outcomes', 'Unfair labor practice', 'Labour economics', 'Public employment', 'Insider-outsider theory of employment', 'Occupational segregation', 'Underemployment', 'Productivity gap', 'United States labor law', 'Payroll tax', 'Stagflation', 'Employment protection legislation', 'Tax reform', 'Public employment service', 'Active labour', 'Constructive dismissal', 'Customer base', 'Marginal product of labor', 'Parental leave', 'Labor income', 'Collective agreement', 'Job security', 'Income risk', 'Unemployment rate', 'Wage growth', 'Equal pay for equal work', 'NAIRU', 'Employment contract', 'Earnings distribution', 'Wage equation', 'Involuntary unemployment', 'Marginal Employment', 'International labour law', 'Unskilled labour', 'Household economics', 'Duration dependence', 'Employment relationship', 'Bank rate', 'Capital accumulation', 'Pay Equity', 'Employment-to-population ratio', 'Labour power', 'Labor geography', 'Graduate unemployment', 'High wage', 'Human capital theory', 'Jobless recovery', 'Minimum wage', 'Structural unemployment', 'Efficiency wage', 'Market participation', 'Wage level', 'Welfare cost of business cycles', 'Family Leave', 'Gross value added', 'Medium enterprises', 'Flexicurity', 'Market states', 'Unpaid work', 'Invalidity benefit', 'Hourly wage', 'Beveridge curve', 'Economic activity rate', 'The labor problem', 'Child benefit', 'Capital deepening', 'Domestic labour', 'Employment discrimination', 'Consumption smoothing']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2909899567', '2775844827', '2776689383', '2910578545', '202063016', '2778126366', '72614640', '2908915227', '2776883808', '2776498708', '87980944', '2778597803', '2779014257', '111226992', '2779795779', '132943942', '2778038044', '2780085806', '134659438', '95389739', '2776245402', '81502235', '2908822358', '2780625504', '2781005894', '43071985', '2778581803', '23032112', '195742910', '2910887555', '46312889', '2908823330', '2780289447', '2779257778', '48879800', '2780431834', '10138342', '2781349114', '18918823', '2778116346', '506796395', '155109394', '2780946114', '2780618658', '2910471639', '2780082420', '2780286488', '134827381', '2778300220', '2910129406', '2778734068', '136264566', '181230689', '2777877159', '2910941953', '2778021871', '68286588', '15302153', '2777358941', '2776581254', '80984254', '2776465609', '2779719641', '54750564', '23925645', '145236788', '2775965751', '2779674044', '2779290559', '76073288', '2776988154', '2776943663', '2778716609', '2780836627', '2780438764', '2781455901', '187212893', '2777671340', '2776237081', '39389867', '79119010', '2778837545', '176289848', '2776325488', '64089585', '190175210', '2776332928', '2776888587', '2778762746', '2909916548', '2776849302', '50522688', '2777464741', '2779783368', '2911089958', '2776255816', '2776544115', '84309077', '51067260', '2778215748', '2775963177', '2778556080', '2778576984', '2778002999', '2780370025', '2777885895', '93236110', '2777540445', '2778970885', '2777211311', '107645774', '206713868', '2781257228', '2909201987', '2780000394', '2780763229', '2780870317', '510346563', '56995899', '2778806149', '2778566306', '107806365', '2776737852', '2780516171', '68189081', '2910181414', '2779986911', '2780498437', '2909045595', '11092464', '2779739803', '2781190941', '2778517334', '2778139618', '158886217', '2780931059', '2781426361', '135335626', '2778000738', '139203340', '22541086', '105578763', '147583825', '2909732560', '2909356555', '2778431023', '527784420', '155508913', '2778774626', '2909644561', '2908562352', '204983608', '2779266529', '2781068852', '29985473', '63545947', '2775876557', '2776125615', '2777950934', '2910283248', '2775865179', '2775867934', '2775893736', '49906088', '2775982628', '67886934', '162324750', '26595155', '2910004771', '2780127002', '2910547974', '2776698172', '78597825', '536738050', '41708089', '2780638295', '142323842', '139043278', '34099160', '2779264144', '30228293', '2909274781', '2780695613', '2779723664', '2777439000', '2776805697', '2778395451', '121087249', '175700187', '2781096511', '2781188878', '10144844', '21839126', '2778148510', '2781441816', '2776167287', '2776942536', '2778738845', '2777581918', '2778712577', '2776880170', '2777731549', '2777747085', '2780977596', '2911183331', '2910343112', '6927289', '109986646', '2779152076', '2911189839', '2777288899', '2779443769', '2909148432', '6968784', '2776665811', '48057960', '38104776', '2780745107', '40800819', '2780536516', '2775906418', '2779011557', '2778381653', '2779687257', '2909538334', '2775969135', '2776358859', '105639569', '9778290', '2780407378', '110458093']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Work injury', 'Financial independence', 'Labour supply', 'Occupational activity', 'Marginal product', 'Unemployment', 'Secondary labor market', 'Grievance procedures', 'Added worker effect', 'Demining', 'Industrial policy', 'Labour power', 'Natural rate of unemployment', 'Teamwork', 'Payroll tax', 'Footprint', 'Living wage', 'Layoff', 'Social exclusion', 'Social order', 'Playoffs', 'Precession', 'Organizational Case Studies', 'Structural estimation', 'Occupational skin diseases', 'Financial risk management', 'Unfair labor practice', 'Enterprise value', 'Recession', 'Occupational mobility', 'Nanomanufacturing', 'Full-time employment', 'Disability pension', 'Working age', 'Small and medium-sized enterprises', 'Flexicurity', 'Finance', 'Wage curve', 'Tourism', 'Labor shortage', 'Financial management', 'Organizational studies', 'Dual labour market', 'Annual growth rate', 'Family Leave', 'Access to finance', 'Works council', 'Social venture capital', 'Financial crisis', 'Seeking work', 'Sustainable tourism', 'Economy', 'Net present value', 'Working time', 'Employment history', 'Footprinting', 'Full employment', 'Employability', 'Temporary work', 'Social Right', 'Labor relations', 'Labor market segmentation', 'Work motivation', 'Commerce', 'Financial modeling', 'Labour economics', 'Active labour market policies', 'Glass ceiling', 'Jobless recovery', 'Financial risk', 'Exchange rate', 'Human capital', 'Minimum wage', 'Technological fix', 'Youth unemployment', 'Eurosclerosis', 'Pediatrics', 'Social rights', 'Income Support', 'Corporate governance', 'Resource productivity', 'Core Labor Standards', 'Die (manufacturing)', 'Employment contract', 'Informal sector', 'Beveridge curve', 'Termination of employment', 'Unemployment in the United States', 'Consumption smoothing', 'Marginal Employment', 'Energy market', 'Economic growth', 'Child labour', 'Marriage market', 'Precarious Employment', 'Employment protection legislation', 'Involuntary unemployment', 'Entrepreneurship', 'Professional development', 'Work–life balance', 'Labour code', 'Green growth', 'Outplacement', 'Retirement planning', 'Labor mobility', 'Real wages', 'Club deal', 'Collective agreement', 'Rural electrification', 'Graduate unemployment', 'Human resources', 'Near miss', 'Labor disputes', 'Labor Forces', 'Family economics', 'Occupational injury', 'Equal employment opportunity', 'United States labor law', 'Focus group', 'International labour law', 'Personal income', 'Apprenticeship', 'Sick leave', 'Public employment service', 'Fossil fuel', 'Job losses', 'Environmental issue', 'Labour market flexibility', 'Migrant labor', 'The labor problem', 'Labor demand', 'Minimum wage law', 'Parental leave', 'Workforce', 'Latin Americans', 'Child benefit', 'Earnings', 'Discouraged worker', 'Self-employment', 'Monopsony', 'Dependency ratio', 'Age grade', 'Body weight', 'Chronic unemployment', 'Part-time employment', 'Alliance', 'Market socialism', 'Misery index', 'Phillips curve', 'Active Labor', 'Current employment', 'Productivity', 'Unpaid work', 'Union density', 'Natural resource', 'Individual capital', 'T-commerce', 'Economic evaluation', 'Skilled worker', 'Economics policy', 'Technological innovation system', 'Disparate treatment', 'Biomanufacturing', 'Latin American art', 'Geoeconomics', 'Marginal product of labor', 'Economics', 'Constructive dismissal', 'Collective labor agreements', 'Frictional unemployment', 'Insurance benefit', 'Underemployment', 'E-commerce', 'Social Welfare', 'GDF7', 'Occupational disease', 'Weighted network', 'Financial services', 'Kickoff meeting', 'Basic income', 'Stagflation', 'Fringe Benefit', 'Reservation wage', 'Household economics', 'Housing tenure', 'Tax policy', 'Occupational segregation', 'Emerging markets', 'Manufacturing', 'Mandatory retirement', 'Degrowth', 'Labour law', 'Green economy', 'Bioeconomics', 'Occupational lung disease', 'Trade promotion', 'Women in the workforce', 'Remanufacturing', 'Job security', 'Retraining', 'Enterprise 2.0', 'Consumer Protection Act', 'Financial sector development', 'Gender pay gap', 'Hourly wage', 'Obstetric Labor', 'Present value', 'Public policy', 'Smart growth', 'Active labour', 'Retirement age', 'Foreign worker', 'Employment problem', 'Efficiency wage', 'Collective bargaining', 'Bargaining power', 'Industrial relations', 'New Economic Policy', 'Population pyramid', 'Displaced workers', 'Precarious work', 'Curriculum development', 'Energy efficiency gap', 'Occupational fatality', 'Industrial conflict', 'NAIRU', 'Structural unemployment', 'Economic policy', 'Market value added', 'Overtime', 'Redistribution of income and wealth']</t>
         </is>
       </c>
     </row>
@@ -674,29 +674,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>634</v>
+        <v>1717</v>
       </c>
       <c r="C10" t="n">
         <v>634</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[103888896, 2909896708, 2984781834, 130635790, 2780889106, 203833370, 559253537, 2909071395, 154978347, 2777341996, 519688237, 2992728114, 136319028, 169715780, 134535237, 2779009096, 181932105, 2983403601, 2993328211, 21538904, 120823896, 3017967705, 2776500315, 2781087836, 2778368093, 159391843, 2781376611, 2993735781, 205899878, 106848363, 2776797291, 2993406060, 198766705, 2776750197, 33947775, 165941376, 77854861, 2777559184, 170674324, 2777452695, 2778142872, 3018221721, 2778738845, 536799390, 2908879008, 94081185, 522053795, 26593445, 2778589350, 106125477, 155334826, 2780965034, 2781051052, 2993074350, 19269812, 119498932, 2987528374, 2776754364, 2780330172, 58142911, 2992187585, 2994589889, 3019376837, 68702407, 2994127048, 10393806, 2779424974, 2993516752, 503427281, 2992046290, 544778455, 534819032, 2778372311, 2779080924, 2993799388, 2992136416, 73687267, 53688548, 2779752676, 2983635171, 132094186, 2910916848, 2993488112, 2776035571, 3017459955, 2993948939, 2993256716, 90638607, 2779498771, 2911121686, 2908928279, 2910974233, 2776676641, 40630565, 2780879142, 545171759, 126230835, 2776074547, 513153333, 2779072820, 2908703028, 2992853305, 121518397, 2776205647, 122136912, 2779439448, 2993496409, 2777925978, 203542878, 2779799902, 2909430115, 529740132, 2779842916, 2993703275, 2780014956, 2993811820, 192932206, 2992372078, 543218039, 50878840, 2993850748, 2776899970, 2779095429, 2985036169, 2992998793, 2778386843, 142000545, 2909866401, 2986715561, 2776588719, 125616564, 2776916405, 528167355, 98851261, 2987866557, 3018369469, 127732161, 111309251, 2780013003, 2989040080, 2908723665, 2993617365, 541182425, 2992939484, 2780682718, 2779394531, 61776360, 2991917547, 2779959790, 2777919984, 2778452465, 2992069104, 2908764659, 2776744436, 2780383739, 3020384764, 2780119549, 2777887233, 2993060353, 2777047555, 532361734, 2993984007, 541409800, 161813005, 2993322509, 520409616, 2776363543, 2778516001, 2992040483, 2780729894, 22286887, 2776255022, 179737136, 2777537072, 2778972723, 159554100, 77054526, 48937544, 2591305, 139321929, 2777623114, 2986328650, 26405456, 2779245141, 2994201174, 2779208285, 2992810593, 2992036454, 71094894, 2780766832, 2775919224, 3019383416, 2776593022, 31163007, 2983713407, 2777805442, 2991774355, 71832216, 2779437720, 31081114, 102458011, 2910681755, 2779085470, 2776126113, 2992394914, 134240934, 137335462, 148554410, 103697071, 3285680, 2779919027, 14740148, 16405173, 2781106871, 2341566, 2778049214, 2780848835, 2989322953, 2776453839, 2777426639, 2781438671, 139078358, 18051801, 2779689694, 2777166562, 2780560099, 2991669986, 2908828389, 2780052205, 2780437230, 2777277180, 2780500733, 120961793, 205783811, 2779376387, 3018050310, 2993605384, 2778944269, 118813454, 2909135635, 88417058, 32283439, 54285103, 2992569135, 12534583, 72422203, 2778370875, 71813955, 75254596, 2909082439, 2779646792, 2778600265, 2994146123, 2910065492, 2993605462, 40160088, 2777051993, 2778080089, 2908656481, 2994332516, 2778102629, 2777731942, 2910473068, 2779269999, 98444146, 119751540, 2776640376, 159249277, 2779571069, 2988069767, 2985851797, 2993253269, 2777789335, 2776572824, 97784730, 2909053856, 520752033, 2777191329, 2991661988, 2778086310, 2984309673, 2993349549, 2779073454, 2992466863, 3018761134, 2909348785, 2778993590, 2777869240, 192887742, 172630978, 2780865476, 2778358729, 2910706634, 2781283277, 2779511760, 51456978, 506065880, 140075996, 153553885, 2992051167, 2779952096, 2909025255, 2778391529, 2911140847, 2992837615, 107756529, 118541297, 150256626, 175457265, 2908912629, 2777553912, 2777762811, 74714110, 18949120, 2984791041, 182862853, 2781015046, 120302604, 1276947, 2778719256, 43867161, 84999194, 110363677, 37696544, 2776304672, 2780466208, 2777269283, 202802212, 2909658145, 2781013037, 74478641, 113378356, 117089332, 2778702902, 2988289079, 17599544, 2777132090, 78949437, 35777598, 2983511111, 2984481863, 3019863117, 511503438, 2776212561, 2778027091, 92851284, 2993558618, 2777635934, 171900002, 2780443747, 2989411428, 2994205794, 50291824, 2780523633, 2778831993, 2776822914, 73413767, 2908986515, 166689943, 196351127, 2910364823, 189326492, 26915998, 2779595939, 42222760, 2778827957, 2780626102, 2778776759, 2994261173, 2778559676, 16710848, 83260615, 150846664, 2780615885, 2910438611, 51244244, 2781326552, 2910807270, 511782119, 2910618856, 2994412783, 2776503538, 2779423988, 527607, 2778920187, 68386048, 451841, 2910633225, 2908663050, 2911079695, 2984566044, 541019422, 2992999721, 2993685806, 2909472054, 3019099447, 2776698168, 2778770744, 201784641, 2910512453, 2780667210, 120835403, 2910889294, 2985362781, 2992393571, 2780820837, 2992463205, 2992485735, 136336744, 175115632, 28849524, 2779006324, 39400828, 2992975229, 2994587014, 16635281, 25761169, 11982227, 2779501970, 24722842, 105600410, 203715995, 190989730, 2993341861, 171367847, 2993747368, 2993393068, 2778873272, 102180281, 2776638905, 71800255, 86201792, 2779282880, 67427781, 2992125384, 131923401, 2778398154, 92237259, 2910744012, 2779436495, 12287442, 2780782035, 2992485845, 194110935, 554190296, 190330329, 186867162, 2780366299, 2778478046, 2779031008, 7923174, 123110896, 2909199857, 10929652, 66018809, 2992338426, 183735805, 29705727, 121058817, 138774019, 2779610630, 139353612, 140551693, 138171918, 2776784398, 2988881424, 2992565774, 3018087953, 2993552916, 2777239061, 2776624666, 2984300060, 2780667421, 2781042210, 539450922, 2908741168, 23119410, 2909679158, 2780120631, 2780362298, 108326461, 121327165, 99970624, 121308736, 2911118914, 2779684419, 169915972, 2775914053, 2780188227, 2984576578, 3017457221, 2779199053, 18419278, 40046163, 523214423, 2777159256, 2777089626, 2911004254, 2779260511, 518104683, 2779313775, 82740854, 2780704378, 2781087355, 2910230141, 2908558976, 551646850, 2909685383, 167523981, 2777937549, 2987718291, 2776450708, 146978453, 2776051353, 4345497, 2779944601, 2993540762, 38008478, 530175646, 2778447519, 2777190053, 2987947686, 2777642663, 78382760, 2993292969, 2908853934, 44435123, 2993106613, 110120631, 167296696, 2777751223, 2781023928, 2779608769, 140619461, 2993661637, 554616519, 164767435, 2993086161, 39399123, 2994106069, 63401691, 2775926494, 2909769440, 59061988, 2984281830, 2775893736, 9055977, 117671659, 127592171, 2776080111, 2778627824, 2776481522, 2779989747, 30471927, 2779762430, 145995521, 2910254849, 3017406211, 2778197767, 198211336, 152551177, 2776194824, 509929229, 2778240782, 2780204815, 2910138127, 2985289492, 2780862241, 2778912549, 36091686, 2992197414, 2993581864, 2994609957, 2776395564, 2991812402, 544153396, 2778617657, 101826366, 2779559744, 154742593, 2780720960, 156708679, 2776457032, 2910342993, 101457746, 25136982, 2779680598, 2778693464, 2780026712, 2780671841, 2991671138, 2985860971, 2994222956, 2776100724, 186072955, 2777327484, 2779664251, 2779535233, 2908952454, 2777565064, 156336011, 110956428, 35096461, 2780530572, 2778857364, 2986821532, 2777765789, 113461152, 2911010720, 2984574881, 201547687, 2780841897, 144408495, 2780538803, 2984296375, 2777339832, 2992084923, 2778546111, 2909175755, 2991726540, 521781200, 2993305554, 163176407, 2994423770, 2778832859, 2777755612, 2776895459, 504270822, 2778464233, 2993985515, 2776258540, 26355699, 49504249, 2909427711]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Spaceflight', 'Willow bark', 'Mars surface', 'Meteorite', 'Cargo spacecraft', 'Intercontinental ballistic missile', 'Missile defense', 'Navy Personnel', 'Geocentric orbit', 'Leaf mold', 'Military logistics', 'Atmospheric drag', 'Orbital maneuver', 'Linea', 'Industrial design', 'Small Arms Survey', 'Mars Orbiter Laser Altimeter', 'Manufacturing capability', 'Economic optimum', 'Extrusion moulding', 'Product design', 'U s navy', 'No first use', 'Foundry', 'BALTOPS', 'Hydrographic office', 'Defence in depth', 'Space craft', 'Mission creep', 'Pesticide residue', 'Lost-foam casting', 'Manufacturing data', 'Infantry', 'Mars Hand Lens Imager', 'Elongation', 'Production Systems Engineering', 'Advanced manufacturing', 'Solar panels on spacecraft', 'Flyby anomaly', 'Hot metal gas forming', 'Knowledge-based engineering', 'Conventional casting', 'Remanufacturing', 'Plastics industry', 'Persian gulf syndrome', 'Comet', 'Missile guidance', 'Thermoforming', 'Thermonuclear weapon', 'Space Shuttle', 'Lunar orbit', 'Humic acid', 'Ground segment', 'Casting mold', 'Satellite', 'Space Launch System', 'Chemical products', 'Active radar homing', 'Ultrasonic machining', 'Asteroid', 'Automotive gasoline', 'Nitrogen fertilization', 'Farmyard manure', 'Exploration of Mars', 'Livestock manure', 'Meteoroid', 'Project Icarus', 'Plug and produce', 'Military sociology', 'Plastic molding', 'Copper', 'Human spaceflight', 'Machine shop', 'Near-equatorial orbit', 'Integrated manufacturing', 'Human space flight', 'Gun data computer', 'Computer-integrated manufacturing', 'Permethrin', 'Planetary missions', 'Clutter', 'Artillery missile', 'Manufacture execution system', 'Pyrethroid', 'Precision casting', 'Fertilizer industry', 'Gasoline fuel', 'Interstellar travel', 'Vision for Space Exploration', 'Fosamine-ammonium', 'Secondary Missiles', 'Unleaded petrol', 'Minesweeping', 'Launch escape system', 'Atmosphere of Pluto', 'Nuclear ethics', 'Japanese post-war economic miracle', 'Diamond turning', 'Aluminium', 'Military personnel', 'Combat exposure', 'Adaptive manufacturing', 'Sheet moulding compound', 'Nuclear explosive', 'Ballistic missile', 'Ecodesign', 'Molten steel', 'Submarine warfare', 'Pioneer anomaly', 'Bill of materials', 'Maidenhair Trees', 'Civil defense', 'Diazinon', 'Metal mold', 'Payload fraction', 'Solid state recorder', 'Convective storm detection', 'Material removal', 'Magnesium', 'Ambiguity function', 'Factory floor', 'Diammonium phosphate', 'Reconfigurable Manufacturing System', 'Missile autopilot', 'Laser microfabrication', 'Laser beam machining', 'Build to order', 'Missile injury', 'Radar antennas', 'Organophosphate', 'Space rendezvous', 'Process manufacturing', 'National security', 'Black hole', 'Mission operations', 'Self hardening', 'Slush', 'Cosmic ray', 'Ammonium molybdate', 'Green manufacturing', 'Lime-nitrogen', 'Orbit plane', 'Military psychology', 'Forming force', 'Production control', 'Colonization of the Moon', 'Deep space exploration', 'Nuclear nonproliferation', 'Radio Science', 'A3 problem solving', 'Metal fabrication', 'Mineral fertilization', 'Excentrodendron hsienmu', 'Holston Army Ammunition Plant', 'Nuclear fallout', 'Tobacco product', 'Chicken manure', 'Electrochemical machining', 'Interplanetary spacecraft', 'Terminal guidance', 'Naval warfare', 'Pressure casting', 'Military theory', 'Radio telescope', 'Molding machine', 'Non-rocket spacelaunch', 'Surface integrity', 'Castability', 'Nuclear testing', 'Toyota Production System', 'Interferometric synthetic aperture radar', 'Incendiary ammunition', 'Design technology', 'Naval history', 'Effective microorganism', 'Lost-wax casting', 'Micro-g environment', 'Next Generation Jammer', 'Aerobraking', 'Forming processes', 'Trench warfare', 'Manufacturing systems', 'Cosmology', 'Molding sand', 'Space program', 'Fire support', 'Soil nitrate', 'Missile attack', 'General-purpose bomb', 'Machining time', 'Akadama', 'Continuous cropping', 'Life Cycle Engineering', 'Hydrographer of the Navy', 'Deep space missions', 'Star tracker', 'Depth of cut', 'Combined operations', 'Cypermethrin', 'Blow molding', 'Deep hole drilling', 'Chicken droppings', 'Planetary flyby', 'Industrial robot', 'Squeeze casting', 'Parking orbit', 'Lean manufacturing', 'Orbit', 'Gasoline', 'Total productive maintenance', 'Observatory', 'IDEF0', 'Geostationary orbit', 'Overall equipment effectiveness', 'Cow dung', 'Sigma', 'Telescope', 'Manufacturing management', 'Worm cast', 'Agreed Framework', 'Battlespace', 'Intermediate-range ballistic missile', 'Sample return mission', 'Sun sensor', 'Hilling', 'Fertilizer', 'Molten alloy', 'Naval Science', 'Treaty on the Non-Proliferation of Nuclear Weapons', 'Inertial Upper Stage', 'State secrets privilege', 'Ensign', 'Rain gauge', 'Painting', 'Virtual metrology', 'Synthetic fertilizer', 'Nitrogen fertilizer', 'Sand casting', 'Military strategy', 'MAGNESIUM SULFATE MONOHYDRATE', 'Solar sail', 'Radar tracker', 'Ammonia volatilization from urea', 'Nuclear program', 'Potash', 'SPHERES', 'Parting line', 'Ground-penetrating radar', 'Second strike', 'Calcium magnesium phosphate', 'Production leveling', 'Martian', 'Injection molding process', 'Dental Casting Technique', 'Liquid steel', 'Mechanical engineering technology', 'Rifle', 'Military deployment', 'Nitroammophoska', 'Orbital flight', 'Satellite imagery', 'Cutting fluid', 'Servicing Facility', 'Foreign Intelligence Surveillance Act', 'Galaxy', 'Child-resistant packaging', 'Dieldrin', 'Dark matter', 'Rake angle', 'Cutting force', 'Production logistics', 'Human space exploration', 'Process validation', 'Nuclear peace', 'Orbital elements', 'Ammonium hydrogen phosphate', 'International Space Station', 'Long-term experiment', 'Organic manure', 'Investment casting', 'Launch vehicle', 'Phosphate fertilizer', 'Nuclear weapons testing', 'Lunar gravity', 'Tool material', 'Zinc sulfate monohydrate', 'Injection moulding', 'Flexible manufacturing system', 'Neutron star', 'Order of battle', 'Light infantry', 'Steel casting', 'Food labelling', 'Sheet metal forming simulation', 'Fallout shelter', 'Vacuum forming', 'Titanium', 'Electrical discharge machining', 'Exploration of Mercury', 'Molten metal', 'End mill', 'Magnesium potassium sulfate', 'Microthermoforming', 'Military-civilian relations', 'Insecticide resistance', 'Beyond-visual-range missile', 'In situ resource utilization', 'Integrated Computer-Aided Manufacturing', 'Numerical control', 'Dental casting', 'Deltamethrin', 'Tiger mother', 'Acaricide', 'Space debris', 'Semiconductor fab', 'Pulse repetition frequency', 'Submarine communications cable', 'Military operations other than war', 'Astronomy', 'Strategic victory', 'Solar cycle', 'Universe', 'Pulsar', 'Transfer molding', 'Chlorpyrifos', 'Impressment', 'Autonomation', 'Air-to-air missile', 'Ordinary seaman', 'Nowcasting', 'Artillery', 'Design for assembly', 'Roll program', 'Space logistics', 'Mission design', 'Gamma-ray burst', 'Aircraft flight control system', 'Mars landing', 'Incoherent scatter', 'Semiconductor wafer fabrication', 'Attitude determination', 'Specific labelling', 'Saturn', 'Scatterometer', 'Satellite system', 'Space research', 'Batch manufacturing', 'Just-in-time manufacturing', 'Two-stage-to-orbit', 'Group technology', 'Planetary exploration', 'Manufacturing intelligence', 'Flamethrower', 'Labelling', 'Nitrate test', 'Active duty', 'MIL-STD-188', 'ZINC SULFATE HEPTAHYDRATE', 'Interferometry', 'Strategic defence', 'Combat Disorders', 'Revolution in Military Affairs', 'Industrial technology', 'Atrazine', 'Exploration of Saturn', 'Diamond tool', 'Monopotassium phosphate', 'Sprue', 'Artificial potential function', 'Doppler radar', 'Retrorocket', 'Mars Exploration Program', 'Stars', 'Agile manufacturing', 'Reserve military', 'Planet', 'Field propulsion', 'Marine corp', 'Nuclear terrorism', 'Labelling machine', 'Nuclear proliferation', 'CLP Regulation', 'Hexachlorobenzene', 'Microfabrication', 'Guerrilla warfare', 'Maneuver warfare', 'Military science', 'Submarine medicine', 'Microfabrications', 'Phosphate potassium', 'Mars exploration rover', 'Military technology', 'Saturnian system', 'Relative orbit', 'Hydrogen Bombs', 'Tool path', 'Explosives safety', 'Space exposure', 'Silumin', 'Insect disease', 'Military Pay', 'Biopesticide', 'Artillery shell', 'Spacecraft electronics', 'Fertilizer plant', 'Space Transportation System', 'Field management', 'Machining system', 'Halo orbit', 'Submarine landslide', 'Cruise missile', 'Permanent mold casting', 'Evidence of water on Mars from Mars Odyssey', 'Nuclear threat', 'Flexible manufacture system', 'Casting', 'Mission control center', 'Nuclear warfare', 'Anti-ship missile', 'Ejection charge', 'Orbit of Mars', 'Asymmetric warfare', 'Military tactics', 'Strategic stability', 'Launch window', 'Spacecraft formation', 'Furniture manufacturing', 'Fish emulsion', 'Atomic Clock Ensemble in Space', 'Malathion', 'Surface-to-surface missile', 'Robotic Refueling Mission', 'Hot runner', 'Anti-submarine warfare', 'Wood product', 'Planetary protection', 'Reaction injection molding', 'Weather radar', 'Missile wound', 'Gas porosity', 'Luminosity', 'Ballistic capture', 'Spacecraft system', 'Nuclear weapon', 'Radar', 'Gravitational wave', 'Compression molding', 'Pursuit guidance', 'Bronze', 'CCSDS File Delivery Protocol', 'Manufacturing execution system', 'Bunker buster', 'Zinc sulphate heptahydrate', 'Radar imaging', 'Semiconductor device fabrication', 'Product variant', 'Strategic goal', 'Polar', 'Space colonization', 'Planetary surface', 'Military recruitment', 'Surface-to-air missile', 'Order of magnitude', 'Diesel fuel', 'Imidacloprid', 'Machining process', 'Phosphorus fertilizer', 'Metal cutting', 'Nitrate leaching', 'Convention on the Physical Protection of Nuclear Material', 'Die casting', 'Spacecraft autonomy', 'Submarine navigation', 'Potassium sulfate', 'Solar System', 'UREA SULFATE', 'Six Sigma', 'Navy Bean Powder', 'Lindane', 'Alpha particle X-ray spectrometer', 'Tactical nuclear weapon', 'Submarine', 'Paper engineering', 'Communications satellite', 'Product Labelling', 'Continuous casting', 'Expendable launch system', 'Kanban', 'Nuclear strategy', 'Mars sample return', 'Machined surface', 'Fractionated spacecraft', 'Astrobiology Science and Technology for Exploring Planets', 'Intelligence cycle', 'Machining', 'Naval Surface Warfare Center', 'Constellation program', 'Atomic Bombs', 'Ductile iron', 'Platinum', 'Colonization of Mars', 'Lean project management', 'Hohmann transfer orbit', 'Unmanned NASA missions', 'Nitrohumic acid', 'Leaded petrol', 'Spacecraft design', 'Single fertilization', 'Material requirements planning', 'Folding endurance', 'Food products', 'Tool wear', 'Aerospace engineering', 'Carbaryl', 'Scientific research on the International Space Station', 'Ibuprofen', 'Innovation design', 'Neutron bomb', 'Clothing', 'Nuclear thermal rocket', 'Incremental sheet forming', 'Satellite data', 'Tracer ammunition', 'Concurrent engineering', 'Missile system', 'Submariner', 'Gunpowder', 'Strip casting', 'Injection molding machine', 'Fertigation', 'Ammonium dihydrogen phosphate', 'Modern warfare', 'Military operation', 'Lagrangian point', 'Environmentally conscious manufacturing', 'Ammunition', 'Textile', 'Manhattan project', 'Earth observation', 'Nuclear arsenal', 'Hobbing', 'Machinability', 'Culture-free self-esteem inventory', 'Military branch', 'Manufacturing enterprises', 'Biomanufacturing', 'Burn pit', 'Manufacturing engineering', 'Supernova', 'Naval Tactical Data System', 'Battle', 'Orbiter', 'Radiological warfare', 'Meridiani Planum', 'Plutonium in the environment', 'Pulse compression', 'Infantry soldier', 'Service member', 'Ammonium phosphate', 'Fortification', 'Planetary science', 'Urea phosphate', 'International security', 'Infrared homing', 'Satellite bus', 'Space-Walk', 'Intelligent manufacturing system', 'Carbofuran', 'Liquid manure', 'Nuclear fission', 'Pressure hull', 'Triple superphosphate', 'Hot press', 'Amphibious warfare', 'Nitrogen management', 'Metal', 'Submarine cable', 'Production engineering', 'Casting defect', 'Manufacturing operations', 'Discrete manufacturing', 'Mobilization', 'Automated Transfer Vehicle', 'Diethyl aminoethyl hexanoate', 'Radar cross-section', 'Neutron Star Interior Composition Explorer', 'Endosulfan', 'Pesticide resistance', 'Alloy', 'Quick response manufacturing', 'Land preparation', 'Holonic manufacturing system', 'Soil preparation', 'Milling cutter', 'Corona', 'Acoustic homing', 'Propellant tank', 'Pharmaceutical drug', 'Selenium salt', 'Parathion', 'Spacefaring', 'Military threat', 'Computer-aided technologies', 'Distributed manufacturing', 'Missile', 'Mars pathfinder', 'Weapon of mass destruction', 'Globular cluster', 'Zinc sulphate monohydrate', 'Manufacturing planning', 'Process development execution system', 'Digital manufacturing', 'Drop tank', 'Fertilizer burn', 'Radar systems', 'Planetary Data System', 'Drug labelling', 'Isobutylidenediurea', 'Calcium superphosphate', 'Advanced manufacturing systems', 'Nuclear weapon design', 'Plastic injection molding', 'Unrestricted submarine warfare', 'Ultra precision', 'Alloy wheel', 'Peaceful nuclear explosion', 'Signal corps', 'Nickel', 'Proportional navigation', 'Lean healthcare', 'Gray iron', 'Robotic spacecraft', 'Military intelligence', 'Microbial agent']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2777661930', '2777909563', '2182769', '2778464233', '184422994', '2777783080', '192639820', '129446986', '72422203', '2776258540', '2778831993', '2779769603', '311688', '5829439', '129880937', '119781247', '2776060655', '33842695', '33039251', '134240934', '136319028', '2910450386', '2779260511', '170563983', '45502583', '2910677061', '545171759', '2765594', '2778778939', '992767', '2908912629', '46820840', '60595047', '71376005', '207857233', '551230270', '35341882', '2780720960', '184454961', '115023222', '169337768', '2777215911', '2781381157', '2780626145', '187394410', '555048382', '160363772', '2910731964', '2779199053', '2908666506', '2780198632', '57061188', '2780892144', '2777575374', '2775914053', '113145756', '58817359', '3866505', '2908879008', '161813005', '143066371', '101336846', '2777777821', '21946209', '148221864', '120302604', '72293138', '2777215697', '201547687', '164862427', '114290370', '2909631073', '37428701', '2779511760', '183208416', '107756529', '14914868', '185172162', '2777450992', '169715780', '2776077392', '2781148867', '73412179', '2778086310', '99970624', '2910631570', '2776588719', '2778555145', '122136912', '130230704', '74524168', '2780403918', '41056977', '2778499088', '2909195514', '9593695', '2778459932', '71681937', '2910050528', '2777565064', '178365465', '2780179797', '2911124959', '2908681449', '138721006', '2781113784', '34612862', '104205377', '41132950', '98535783', '31531917', '2776676641', '2780615885', '2776142628', '118519418', '176445938', '78401558', '2777835026', '110350745', '2779771641', '2778516001', '2776782996', '110956428', '2779622097', '60511073', '2908558976', '2777959984', '2781338159', '2776509796', '539828613', '137126227', '5871375', '2780523633', '23119410', '2909712328', '79127381', '520752033', '2778398154', '93389723', '71813955', '2777232610', '131232501', '2778183165', '2776136876', '166556878', '2910681755', '42133412', '2778255315', '121017423', '100405246', '2777862630', '46891859', '203715995', '2779842916', '2778197767', '56919463', '153553885', '2779306247', '2909316267', '11799548', '2779006324', '2779610630', '5546195', '193415008', '118572532', '192220659', '171900002', '85973986', '110407247', '544153396', '171142967', '89094514', '2777526511', '200657195', '179145077', '13021490', '30112582', '2911004254', '160919093', '2780805606', '16635281', '2778865806', '72898154', '2779689694', '2780516175', '2780652884', '158843486', '163581340', '150185637', '2779135357', '201784641', '199845137', '158711907', '2778119891', '2781117724', '2780873938', '2777347882', '2777132090', '5408304', '62402440', '38653338', '2775849312', '2778820799', '2910741372', '2909709171', '2781399071', '2778360186', '160088933', '15476841', '142784634', '2776405685', '193237570', '179687394', '2779072820', '130946814', '73413767', '2781155252', '513985346', '2777592538', '2778344433', '7923174', '2779490540', '2780766832', '2910470413', '1781132', '2778920187', '74250896', '150256626', '46724921', '21538904', '32243926', '2910706634', '2777200204', '31163007', '2780188227', '6268609', '206826598', '102458011', '187612029', '178859891', '2776310492', '2777314014', '75434695', '40046163', '11727466', '181236821', '12143843', '2775899781', '2909055331', '40937832', '2779015050', '2779436495', '2776456419', '94922259', '2778842860', '2777098202', '53688548', '2779241781', '74478641', '172750839', '201100257', '2779919027', '113878180', '149947181', '58142911', '203582535', '68702407', '138370407', '12090584', '2910381287', '79689650', '192887742', '528626486', '109578324', '2778693464', '144820252', '101826366', '2910905531', '4345497', '190330329', '159549609', '70520399', '118916094', '186967261', '2778793053', '101457746', '80343103', '23576306', '152551177', '98444146', '205817836', '96814336', '2778275008', '2776986690', '957247', '2779503283', '2778372311', '131055897', '77390884', '23375383', '63436455', '2779950589', '158523808', '2776440409', '2779752676', '68183290', '2780443747', '2780026712', '128450285', '186795189', '44104985', '136380597', '134215040', '161352937', '158379750', '175966412', '198621165', '103888896', '511503438', '2780626102', '68793194', '2908629581', '2781013037', '2781376611', '97812054', '2776060186', '175604262', '40630565', '522053795', '43091971', '2781183794', '2779501970', '195563490', '2910216150', '104453602', '102232406', '118314422', '2780556460', '2776740192', '204517386', '77667144', '2780437230', '89309335', '44435123', '27462124', '2780560099', '2778809601', '2909816863', '2777564445', '2778571651', '186072955', '39084254', '2775959666', '164767435', '86504812', '2775865179', '2777830566', '104407772', '2779432455', '2780663833', '2777646807', '541491724', '36628996', '112184408', '2778993590', '148415826', '32993116', '188045654', '177409738', '37482258', '24604422', '166693061', '60584519', '139353612', '2777223244', '175097422', '2780655307', '163952510', '151431374', '159249277', '2777062904', '2779423988', '158550234', '144468803', '10393806', '54525549', '168068576', '76856003', '54108766', '36091686', '518104683', '2776923346', '34146451', '2780848835', '2778529423', '2777865929', '2779576378', '143977109', '15535662', '181447626', '2780820837', '3285680', '2781298581', '2776051353', '133347240', '50406972', '2909472621', '62897895', '167296696', '126909462', '43540301', '2779738552', '47878483', '12303254', '18293161', '161657702', '46722567', '2779952096', '2779284651', '2909475385', '2910035481', '187529661', '19979193', '2776023280', '83849155', '39118121', '8162170', '140604960', '2781283035', '99874240', '41794268', '5339829', '136336744', '19269812', '54971619', '2778140759', '2779816654', '10390740', '196923211', '2776899970', '206477279', '2777889803', '12534583', '73859625', '206521022', '26466937', '2779989747', '2777895876', '9761082', '192932206', '2777425764', '156696300', '64671776', '5903713', '2776874963', '6518042', '2776584721', '16777580', '185051836', '2780826866', '78949437', '129828019', '67936045', '2778715912', '96709497', '175457265', '106848363', '128519102', '94921317', '166667406', '138942068', '2780066276', '77854861', '144534570', '537773303', '2780082420', '58300830', '2780119549', '2777571838', '109086967', '2780576536', '2777496290', '2778370875', '77122620', '177274176', '54290928', '47696715', '2775926494', '2780832955', '27142793', '19244329', '2780652538', '159188206', '2779376387', '2780364048', '2910908761', '2909830505', '155292070', '85608190', '2779073172', '155355069', '182521987', '22286887', '2780662705', '2779581428', '2778561511', '117089332', '101396714', '2778794710', '2780029314', '2780537718', '2910512453', '2909082439', '15655602', '73225119', '2777107361', '49504249', '56906281', '2909866401', '182731298', '57527310', '2776593022', '74426580', '51399673', '2780635410', '66594872', '2778812306', '24733836', '2781042210', '101677414', '149672775', '35777598', '30471927', '110363677', '145073311', '2778703219', '31510193', '138481207', '2779893281', '2778928165', '164062900', '171562612', '204329753', '530175646', '68386048', '2778049214', '134816702', '63401691', '117671659', '104745612', '184551789', '74714110', '2781385195', '538199239', '2780352317', '2778101592', '2777635934', '123566451', '166595027', '49853544', '139744980', '26405456', '185298936', '2781209966', '61742228', '38008478', '51936796', '115903097', '199726164', '186834915', '2778552832', '135628077', '2777341996', '2779959790', '2779686855', '190774637', '127210992', '511782119', '2778452465', '2776907800', '2780729894', '509933004', '547195049', '2779104393', '106165642', '41866144', '2780625559', '93106096', '2777537072', '2781110076', '50291824', '165650700', '2779303621', '127413603', '117670421', '2776304672', '144992956', '34630208', '106246969', '140016664', '2779698641', '103697071', '2777339832', '154587522', '2780371127', '2778738845', '106809287', '144618238', '44740213', '74872398', '40586070', '2777623114', '2775896111', '166689943', '2910859387', '2780874159', '140619461', '2779978421', '2777190053', '31548570', '37696544', '204911340', '2776199826', '182019814', '2780373723', '137335462', '2778617657', '196423136', '138108440', '2781020372', '178570572', '2781051052', '130574115', '539450922', '554190296', '2780962792', '60154766', '2780170866', '193690875', '190834728', '156336011', '2778580826', '2778734332', '2781367577', '203570394', '2910680965', '145437242', '2780788825', '2777662197', '145995521', '108326461', '2780642438', '106597312', '2776074547', '67862953', '67656411', '184782024', '184896649', '102180281', '22837933', '146032754', '15241564', '206923515', '2778779970', '157469704', '2779697334', '75100901', '2780678602', '59345209', '14740148', '140075996', '65601320', '200185824', '2910989632', '58074150', '203833370', '43867161', '158258876', '2908935387', '138293262', '15476950', '2911061381', '186150311', '2776104089', '2777551599', '22495355', '27267504', '137488568', '144308804', '2777527080', '99541287', '98907195', '2778058665', '2778025062', '146345970', '77671233', '116659846', '205783811', '2776363543', '2779630230', '2777553912', '23898865', '541182425', '2781395907', '200274948', '2591305', '2778171436', '2781183675', '170290021', '2776184083', '79381805', '115537861', '12703456', '2778776759', '2781366932', '541409800', '132882038', '2780285038', '35096461', '178260956', '178669061', '2780710336', '2779817440', '2779026181', '2777720951', '188985296', '148798159', '190729725', '115958267', '2776229149', '61298376', '92237259', '2777159256', '2781164033', '2780431167', '15401063', '28849524', '2777969390', '190430219', '182173840', '166961238', '69298649', '2908643474', '39173455', '185254563', '137641188', '83260615', '2779652256', '160730041', '2780328347', '175115632', '41972984', '2910983087', '2779571069', '2779097976', '127705205', '2776104920', '2777796589', '91432469', '2777230600', '2779608769', '2780841897', '33588617', '131100506', '2779269999', '2779282880', '66402592', '2779303498', '551646850', '104434177', '150495011', '203542878', '2775859485', '22550940', '2778479235', '101273638', '2778357024', '2775845787', '2776100724', '2778775284', '44079730', '2779030575', '88001094', '2777327484', '85260623', '186579879', '26593445', '2779826969', '37025074', '174771821', '138868233', '45859991', '14928880', '2776979432', '2909288663', '2909575431', '143616835', '2780039072', '2780922921', '2777311342', '2778832859', '2910818388', '51576277', '2909179353', '73862843', '48314217', '149672232', '113378356', '172630978', '544072693', '20885615', '2910633225', '202802212', '98851261', '2909446438', '121518397', '131923401', '2780267684', '2910166139', '2910342993', '12287442', '2778435127', '99752389', '2778040704', '2779150755', '72045907', '2776244466', '88005923', '41243669', '16710848', '81376181', '199168358', '2778952998', '187725362', '544778455', '2778320157', '91881484', '2910755285', '202798467', '102871797', '121058817', '50878840', '2910122108', '2911112108', '2776030121', '42043438', '2778156880', '24561367', '25902001', '2776698388', '119701452', '2780865476', '95418871', '2776222033', '2909544240', '2780667421', '2776922509', '2776915473', '141112555', '102451475', '95349148', '145565327', '126230835', '38639735', '2776500315', '152153834', '92995354', '198211336', '2778583532', '13263538', '2777731942', '2777246536', '2776054589', '95914496', '2776921476', '125550954', '2776481522', '2777925586', '2780903246', '46788351', '198054911', '2909896708', '559253537', '2781373936', '2778869280', '61218518', '23903533', '111309251', '120823896', '46754376', '2779684419', '2779191767', '96473913', '71832216', '2781027376', '140551693', '2778937263', '32900221', '32860805', '2779145874', '2778102629', '8442714', '32283439', '125502', '202992132', '119474132', '2778022221', '3503070', '144408495', '2778761393', '2776205647', '2778142872', '2779782174', '2776126113', '34521246', '2777866876', '2910475472', '2910017386', '133482787', '2777064627', '88477975', '146978453', '186867162', '67427781', '2777799566', '2910061995', '2778857364', '200246849', '2776440744', '135377553', '33296510', '40367268', '192039558', '53524968', '2781283277', '109592283', '2780330172', '2780439177', '2778478046', '11432220', '40834362', '528167355', '2908703028', '2775960376', '142600807', '139321929', '118541297', '141603559', '17599544', '64089585', '2909305023', '130143024', '103423482', '100087112', '114237682', '2777089626', '204573209', '2779135771', '61776360', '127592171', '2911180396', '2910323515', '2910545671', '172860338', '2910765841', '204948658', '2909065553', '2780338368', '28442783', '2779224189', '96191372', '62352918', '191920346', '128669082', '186037533', '72768775', '162027153', '130391077', '2909175755', '2779525993', '2779898492', '2779473651', '2911051535', '2911064832', '2908850610', '2910242987', '198766705', '2778702902', '162100613', '183735805', '46352929', '51244244', '2776784398', '2780027527', '166634970', '172123370', '2779318504', '2777980634', '84662259', '87161607', '2910841016', '1486788', '105600410', '125616564', '2776810648', '150903083', '2777178879', '150846664', '2781042915', '2780936238', '2781300000', '2779606561', '2777051993', '2776994558', '137813230', '2909071395', '118813454', '2776102385', '2910396183', '113508815', '152146699', '2910974233', '2910889294', '42143788', '2910157646', '11067248', '62427370', '2910897919', '2776916405', '31910662', '34447519', '143517461', '2779936157', '2778895906', '2776778800', '2779727067', '2776936202', '158488048', '121327165', '2776038537', '2910556911', '181573087', '4166634', '2777887233', '2780690664', '2779868332', '173408217', '2780355671', '180861198', '2780985968', '159391843', '188805328', '138569888', '2779933583', '41999313', '204223013', '50720040', '2780634410', '2776977519', '2910564736', '108572070', '2776212561', '24463637', '166576357', '538505008', '2776663509', '202986899', '9671652', '2779082914', '82653869', '2776787376', '2778972723', '155092808', '2779839180', '529740132', '41231900', '2778488525', '97850793', '2776277307', '107316180', '2779770443', '2910485920', '2780358262', '2776192736', '70388272', '2909921707', '2909042360', '160894760', '76969082', '14551309', '2779424011', '2910275393', '198667719', '2778944269', '92545706', '90638607', '58202505', '2778692605', '2776080111', '44832474', '205899878', '23061349', '2777191329', '46312889', '134428707', '21651964', '150818752', '115816120', '120835403', '509929229', '40458791', '135642988', '143588538', '2779687700', '8898347', '2910156419', '45058047', '2780089039', '1276947', '2778965516', '2778329844', '11982227', '2776166442', '132983000', '6929976', '2909332535', '2909928070', '2778080089', '2777047555', '83479923', '2910199060', '154193497', '24722842', '37135326', '77624028', '2776894995', '2779799902', '2778285946', '27881333', '133969743', '2780725026', '2777709473', '2909240815', '179145894', '39400828', '159554100', '2779208285', '2779245141', '187212893', '2776576667', '2779980673', '2776445639', '2778231660', '2909802026', '2778049420', '2779081050', '122196380', '29513896', '130635790', '2910522325', '42222760', '84967159', '66018809', '2781127917', '57863822', '2910222011', '2778827957', '31081114', '78382760', '89448510', '2779900269', '24027999', '56828936', '2777925978', '2778206073', '2779951582', '2777277180', '2910732896', '2909344626', '2776775114', '2908741780', '2778447519', '4924752', '2779998766', '2780013003', '541019422', '532361734', '180500224', '2780782035', '2776640376', '2778228685', '2777805442', '29216876', '3720319', '124806180', '76444178', '2779383134', '2911190354', '160191386', '47659340', '146270425', '12248821', '109932267', '2776326889', '2779937201', '16671190', '2777796192', '2911217838', '2777426639', '2777926032', '2780365336', '2777166562', '2777817576', '151543262', '23230815', '205904022', '154910267', '53371666', '111806078', '2910871427', '2778100165', '26022165', '2779492575', '155296804', '80323366', '138774019', '202662744', '2778798718', '98528093', '2778358729', '36038061', '2779747408', '2778027091', '2777963174', '42411736', '2777619693', '166690567', '36770926', '2776125036', '76831024', '41994538', '2777007952', '2910073301', '45293964', '126300421', '134718785', '18787249', '2908850654', '2775919224', '130403756', '2780500733', '2781087836', '31533079', '110850998', '2777006462', '72648740', '2776138580', '53838383', '197417287', '2779095429', '141261163', '205379176', '92851284', '2779437720', '138224501', '2778706760', '161156560', '25761169', '42298096', '543218039', '527607', '2781013843', '84999194', '173801870', '12965471', '2777343860', '20977289', '540522513', '170401851', '2780872544', '188817802', '159631557', '2778435994', '18595123', '2776638905', '2909435489', '2780626000', '2908952454', '54936624', '30838235', '2775936651', '154945302', '2777905004', '2778233930', '65567647', '150711758', '89702864', '2776395564', '2779680598', '96711827', '162005631', '2909333728', '2776697088', '110120631', '106125477', '2779166880', '2779855849', '2778240782', '2778691696', '524878704', '133925201', '58396970', '2778720315', '2776578615', '2778135664', '2780242733', '2780625085', '2776457032', '127732161', '2776299913', '97744766', '107166191', '2909251282', '196054291', '179618828', '52761205', '29829512', '2777738643', '38052585', '53893814', '101468663', '2779073270', '2776624666', '26355699', '182891698', '2779158102', '2780193958', '2777789335', '166566249', '107763842', '159951928', '2780965034', '164495641', '197654239', '2777869240', '40160088', '50296614', '119498932', '4848560', '151405878', '2780889106', '30467622', '2908723665', '200687136', '97784730', '2776354922', '2910733581', '2910412189', '80962145', '150012182', '2781024063', '503427281', '27819379', '82687282', '2779944601', '554616519', '10879293', '2775916975', '137364921', '2779586902', '71515424', '2777481183', '2780667210', '2908907010', '2780298425', '18949120', '2776450708', '2781424430', '2777306163', '2776822914', '139345896', '156708679', '2778837361', '20060776', '27289702', '2776091240', '2910833221', '41608201', '2908828389', '89508514', '2776777543', '169915972', '97121743', '83893533', '2910845796', '12892243', '153015087', '49113467', '2777785971', '2779920640', '63655563', '161866238', '118121272', '2909155221', '39399123', '2777058048', '167393769', '451841', '95548782', '183847335', '2908865798', '2777590503', '72981366', '110893760', '2779850335', '150708132', '2777138346', '64980692', '182769425', '2910618856', '64346931', '203864433', '2908614855', '13164978', '2777588356', '2780643059', '2778627824', '2779535233', '16644385', '160394919', '43653141', '18419278', '10929652', '2775893736', '87379069', '2777562361', '88654294', '88105052', '2776321517', '2779609627', '2909386086', '2780682718', '194110935', '165537544', '157846364', '2779742141', '2777109904', '2780469320', '2910060944', '193794138', '2780036518', '2776985863', '142000545', '132646400', '2775981511', '75254596', '2777765789', '200947169', '2776960227', '118168178', '131739630', '2776736150', '173906292', '2779760629', '196351127', '504039657', '63553672', '196713837', '110682481', '149835862', '170674324', '2779817378', '70401792', '157764524', '779372', '179737136', '193611912', '2778600265', '504270822', '54285103', '116321358', '55118286', '12334850', '82740854', '13951911', '197231348', '2779542357', '2779271213', '2780471320', '508800617', '2910463473', '2780530572', '2776052592', '2911118914', '105030818', '2910445219', '22607594', '2776422217', '134535237', '94200605', '2775906366', '176871988', '137996800', '2910319113', '206530858', '2909942976', '2780689689', '101252448', '56751440', '98906903', '98156149', '147196274', '519688237', '2778770744', '26915998', '2776667712', '2776642717', '2910364823', '2777024025', '166972891', '19023663', '14919245', '2780368237', '154742593', '2779017103', '139378739', '16405173', '173409883', '156975606', '643704', '162882748', '85884896', '2780366299', '141218545', '2781023928', '2780466208', '134224410', '536799390', '164468515', '2779962586', '38693133', '57814208', '172265290', '80364944', '2776278144', '169466946', '162096220', '2781325599', '174920882', '124511130', '149265406', '2779917225', '113461152', '145595949', '2780862241', '2910950043', '6405472', '29705727', '139968098', '138171918', '175285421', '513153333', '110619738', '150394285', '116696211', '2781086688', '2779595939', '2779851693', '2778397825', '2780052205', '2776881904', '2776445415', '2777754422', '2779391383', '181932105', '163849874', '207190284', '33947775', '17993994', '2777680864', '86060186', '33271190', '2776811073', '39518161', '163540240', '2780120631', '2781438671', '2780541193', '2778386843', '7573999', '159091798', '37624559', '18051801', '2909427711', '2779664251', '144836735', '2776667075', '141131685', '94081185', '2778284051', '2776698168', '2776164336', '29984679', '2780308056', '119751540', '189326492', '2780187858', '71800255', '190989730', '185705118', '25074200', '2909944768', '132094186', '2779498771', '127196793', '32258923', '26926545', '506065880', '154978347', '108037233', '519458232', '117110933', '2780972165', '2777937549', '2779606945', '2776330005', '523214423', '164866673', '2779559744', '51456978', '2965921', '2781048479', '139213188', '2780814149', '2909116566', '11189877', '32977378', '2781241367', '2781335571', '2779833257', '2777820359', '2908853934', '157547923', '131043120', '2776602342', '2777674469', '78687567', '2777563242', '94267665', '95478058', '88417058', '151800584', '19582560', '2776797291', '59061988', '134560507', '2779073454', '139078358', '2780722187', '2909707298', '121308736', '121087249', '46721378', '2777672618', '2777710951', '2911128630', '50630238', '2780705272', '94602187', '120961793', '2777747085', '16686006', '2779439448', '78834623', '2776895459', '2776194824', '2776035571', '2910569055', '2781101175', '137757676', '2777276890', '155334826', '2775838418', '137314826', '54654163', '2778420160', '2780383739', '2778223847', '148554410', '70636015', '2779478308', '2341566', '193149544', '2776339268', '129792486', '2909685383', '2777445446', '2781129822', '2780057273', '2909009270', '2781053203', '2781027520', '171367847', '2777751223', '2780204815', '2777421447', '534819032', '169851745', '2778559676', '2780083220', '112505250', '2781130449', '202542152', '520409616', '98375054', '2777089699', '1700975']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Embedded intelligence', 'Trident', 'Ionic bonding', 'Proportional navigation', 'Core language', 'Memory virtualization', 'Supply chain risk management', 'Thermal analysis', 'SPHERES', 'Gray iron', 'Nitrate test', 'Indium gallium arsenide', 'Time complexity', 'Vibrational partition function', 'Multiprotocol Label Switching', 'Block nested loop', 'Tariff', 'Foreign direct investment', 'Content management', 'Parking orbit', 'Orbital maneuver', 'Plasmid maintenance', 'Ductile iron', 'Terahertz gap', 'Hele-Shaw flow', 'Object Class', 'Nuclear ethics', 'Integrated circuit layout', 'Entrepreneurship ecosystem', 'Boundary scan', 'Dental casting', 'Pitching moment', 'Laser dye', 'Synchronous motor', 'Particle image velocimetry', 'Data retrieval', 'Internet Protocol', 'Discrete manufacturing', 'Intensity interferometer', 'Fast packet switching', 'Swarm robotics', 'Commodity computing', 'Verilog-A', 'Real-time communication', 'Hybrid positioning system', 'Thin-film optics', 'Non-renewable resource', 'Leaf morphogenesis', 'Fractionated spacecraft', 'Hand structure', 'Diamond cutting', 'Hot band', 'Dysbaric osteonecrosis', 'MicroBlaze', 'Kanban', 'Dipole antenna', 'Bandwidth-delay product', 'Optical communications repeater', 'Persian gulf syndrome', 'Radio telescope', 'Digifant engine management system', 'Optical switch', 'Heat transfer enhancement', 'Nanofluid', 'Vector operator', 'Military operations other than war', 'Temperature measurement', 'Golay cell', 'Process development execution system', 'Flash ADC', 'Null-move heuristic', 'Laser velocimetry', 'Polygraph', 'Fallout shelter', 'Safe prime', 'Beyond-visual-range missile', 'Counter-scanning', 'Soft goal', 'Martiana', 'Linea', 'Vibrational temperature', 'Reaction bonded silicon carbide', 'Logarithmic mean temperature difference', 'Investment casting', 'Paper engineering', 'Joints anatomy', 'Organophosphate', 'Mobility management', 'Ballistic missile', 'Nusselt number', 'Integrated circuit design', 'Flight test instrumentation', 'Molecular models of DNA', 'Scanning probe lithography', 'Packaging Tank', 'Scientific terminology', 'Emerging market debt', 'Object-class detection', 'Vision problem', 'Parathion', 'Carrier grade', 'Crew', 'CELLULAR SHEET', 'Fresh coconut', 'Continuous simulation', 'Halite', 'Reflection mapping', 'Cockpit display system', 'Strategy pattern', 'Bermuda Atlantic Time-series Study', 'Robust control', 'Minesweeping', 'Agile manufacturing', 'Nitroxyl', 'Reinforced solid', 'Ecological economics', 'Standard cell', 'Polymer clay', 'Advertising campaign', 'Hot stamping', 'Castability', 'Medical robot', 'Military threat', 'Capacity building', 'Semiconductor optical gain', 'Leaded petrol', 'Forming limit diagram', 'Sack', 'Content creation', 'Public transport', 'Nitrox', 'Compact convergence', 'Labelling', 'Six Sigma', 'Free diving', 'Formability', 'International Space Station', 'Reaction injection molding', 'Process variation', 'Ground-penetrating radar', 'Life cycle thinking', 'Operator-precedence grammar', 'Magneto-optical trap', 'Fact table', 'Automatic-tracking satellite dish', 'Chicken droppings', 'Adventure', 'Native-language identification', 'Adaptive grammar', 'Emissions trading', 'Antiwear additive', 'Magnetoresistive random-access memory', 'Asymmetric warfare', 'Diazinon', 'Ammonium phosphate', 'Number One Crossbar Switching System', 'Exploration of Mercury', 'Mirror box', 'Surgical errors', 'Loop tiling', 'Permanent mold casting', 'Military recruitment', 'IC layout editor', 'Network architecture', 'Gummel–Poon model', 'Universal Software Radio Peripheral', 'Two-stage-to-orbit', 'Exploratory research', 'Inertia', 'Metal', 'Hydrogen sulfide sensor', 'Network management application', 'Pace', 'Thermal grease', 'Communication complexity', 'Wireless site survey', 'Artificial Intelligence System', 'Atomic Bombs', 'Mode volume', 'Tank truck', 'Casting', 'Investment decisions', 'Flight envelope', 'Sun sensor', 'Path computation element', 'EMPA', 'Complex geometry', 'Next-generation lithography', 'Test functions for optimization', 'Network traffic measurement', 'Silumin', 'Network topology', 'Fluorescence spectroscopy', 'CUDA', 'Acoustic microscopy', 'iSight', 'User innovation', 'Aircraft flight control system', 'Electrochemical scanning tunneling microscope', 'Emirp', 'Interfacial thermal resistance', 'Diamond dust', 'Cost reduction', 'More language', 'Leg stiffness', 'Increasing process', 'Engine test stand', 'Efficiency factor', 'Rate gyro', 'Slosh dynamics', 'Metal leaf', 'Alloy Analyzer', 'Autofluorescence', 'Military personnel', 'MIMO-OFDM', 'MIL-STD-188', 'Co-creation', 'Virtualization', 'S band', 'Interband cascade laser', 'Manufacturing execution system', 'Yarrowia', 'Machining time', 'Content Model', 'Optical rectification', 'Guerrilla warfare', 'Planet V', 'Integrated Computer-Aided Manufacturing', 'Rate integrating gyroscope', 'Extrusion moulding', 'Upset welding', 'Food labelling', 'Artificial intelligence and law', 'Hydrographer of the Navy', 'Nuclear strategy', 'Strong prime', 'Molecular memory', 'Deep hole drilling', 'Noise floor', 'Time-Slot Interchange', '12-bit', 'Technological revolution', 'Product innovation', 'Intelligence cycle', 'Inpainting', 'Loop inversion', 'Langmuir adsorption model', 'Portlandite', 'Scanning Force Microscopy', 'Electric charge', 'Global financial system', 'Gas porosity', 'Proton conductor', 'Constructed language', 'Cross-language information retrieval', 'Technical change', 'Computer-integrated manufacturing', 'Brand architecture', 'Artillery', 'Zero Defects', 'Network traffic control', 'Observatory', 'Scalar projection', 'Free flight', 'Asteroid', 'Plastic welding', 'Exploration of Mars', 'Interstimulus interval', 'Switched reluctance motor', 'Venus (Planet)', 'Surface states', 'Neutron star', 'Fair trade', 'Random optimization', 'Pesticide resistance', 'C-DNA', 'Production engineering', 'Original report', 'Scientific research on the International Space Station', 'Gravitational wave', 'Tank locomotive', 'Stencil lithography', 'Technological convergence', 'Mobile device', 'Design specification', 'Radar cross-section', 'T-DNA Binary system', 'Astronomical interferometer', 'Planetary science', 'Galaxy', 'Terahertz time-domain spectroscopy', 'Cost engineering', 'First-order reliability method', 'Crew scheduling', 'Link grammar', 'Millennium Development Goals', 'Machine shop', 'Semi-active radar homing', 'Application-specific integrated circuit', 'Unconventional computing', 'Orbital plane', 'Smart contract', 'Cable Internet access', 'Wire protocol', 'Permethrin', 'Programmable metallization cell', 'Group technology', 'Alloy', 'Monolithic microwave integrated circuit', 'Environmental biotechnology', 'Supply chain management', 'Prehensile tail', 'Defined process', 'Nonlinear metamaterials', 'Network packet', 'Ring modulation', 'Strong electrolyte', 'Spaceflight', 'Saturn', 'Monopotassium phosphate', 'Hardware virtualization', 'POWDERED CELLULOSE', 'Nowcasting', 'Defence in depth', 'Intersymbol interference', 'Local economic development', 'Near field communication', 'Launch escape system', 'Missile guidance', 'Fiber Bragg grating', 'W band', 'Anti-ship missile', 'Network congestion', 'DNA transport', 'Interlingual machine translation', 'Thermal conductivity measurement', 'Solar cycle 14', 'Secondary mirror', 'Base flow', 'Relative intensity noise', 'Plasma pencil', 'Inertial Upper Stage', 'Inside plant', 'Gunpowder', 'Demobilization', 'Fertilizer', 'Passivity', 'Cerebellar disorder', 'Adaptive performance', 'Reverse innovation', 'Corona', "Simon's problem", 'Formamidinium', 'Textile', 'Campaniform sensilla', 'Technological innovation system', 'Golgi cell', 'Slow flight', 'Eco-industrial development', 'Robot leg', 'N-Ethylmaleimide', 'Internet presence management', 'Scanning probe microscopy', 'Terahertz metamaterials', 'Injection moulding', 'Open innovation', 'Pyrometer', 'Memory bandwidth', 'Multiple patterning', 'Mirror image', 'Average-case complexity', 'Flow velocity', 'Strain gauge', 'Surface-to-air missile', 'Acoustic radiation', 'Micro-Opto-Electro-Mechanical Systems', 'Phaeodactylum tricornutum', 'Cell fate determination', 'Saturation velocity', 'Dark matter', 'Toolchain', 'Hexachlorobenzene', 'Flammability', 'Mixed finite element method', 'Meteoroid', 'Weaving', 'Thermocouple', 'Baseflow', 'Packet loss', 'Nuclear fission', 'Platinum', 'IEEE 802.11ax', 'Cascade', 'Telescope', 'Rite', 'Social venture', 'Technology policy', 'Ball-and-stick model', 'Relative fluorescence units', 'Differential item functioning', 'Space Transportation System', 'Total productive maintenance', 'IBMX', 'Carbaryl', 'Synthetic geometry', 'Probable prime', 'Cerebellar function', 'Mean opinion score', 'Fertigation', 'Embarrassingly parallel', 'Paradigm shift', 'Diamond blade', 'Full virtualization', 'Traffic policing', 'Ellipsometry', 'Face perception', 'Tactile sensor', 'End mill', 'Innovation competition', 'X-Ray Fluorescence Spectroscopy', 'Intestinal polyp', 'Static secondary-ion mass spectrometry', 'Kinetic theory', 'Packet-switching node', 'Internet access', 'Transportation planning', 'Myelin-associated glycoprotein', 'Crew cut', 'RF switch', 'Loop dependence analysis', 'X-ray lithography', 'Machine vision', 'Halo orbit', 'Satellite', 'Layout Versus Schematic', 'Manufacturing process management', 'Leapfrogging', 'Analyte', 'Network intelligence', 'Diammonium phosphate', 'Bonfire', 'Named entity', 'Potash', 'Metamaterial cloaking', 'Microphotonics', 'Design management', 'Radiological warfare', 'Selective adsorption', 'Space Shuttle thermal protection system', 'Convective storm detection', 'Heterostructure barrier varactor', 'Prime triplet', 'Directional antenna', 'Polymer characterization', 'Virtual network', 'Scanning tunneling microscope', 'Text annotation', 'Scanning ion-conductance microscopy', 'Screw', 'Crew resource management', 'Mars landing', 'Metamaterial antenna', 'Open standard', 'Vortex lattice method', 'Molecular self-assembly', 'Numerical control', 'Pesticide residue', 'Network on a chip', 'Castalia', 'Creative problem-solving', 'Lab-on-a-chip', 'National Energy Modeling System', 'Advanced manufacturing', 'Inductor', 'Geoengineering', 'Access to finance', 'F region', 'Chicken manure', 'Solar cycle 20', 'Test script', 'Sensitive skin', 'Power user', 'Parting line', 'Z-DNA', 'Particle tracking velocimetry', 'Wearable technology', 'Code division multiple access', 'Machinability', 'Concurrent user', 'Autonomous logistics', 'Financial market', 'ISM band', 'Heat flux', 'Virtual metrology', 'Subtitle', 'Azasteroid', 'Small hand', 'Location-based service', 'Wireless broadband', 'Transport document', 'Antiferromagnetism', 'Viola–Jones object detection framework', 'Interferometric synthetic aperture radar', 'Distributed Bragg reflector laser', 'Packet processing', 'Electrospark deposition', 'Roll program', 'Default-free zone', 'Funding of science', 'Calcium aluminate cements', 'Library consortium', 'Insect disease', 'Calcium magnesium phosphate', 'LIDA', 'Impact pressure', 'Titanium aluminium nitride', 'Military intelligence', 'Reabsorption', 'Missile injury', 'Join dependency', 'Nanofluidics', 'Life Cycle Engineering', 'Memory map', 'Lidar', 'Virtual product development', 'Polyatomic ion', 'Channel spacing', 'Web mapping', 'Potassium sulfate', 'Surface pressure', 'Hypertext Transfer Protocol', 'Incoherent scatter', 'Meridiani Planum', 'Pulsar', 'Method of image charges', 'Inconel', 'Facial recognition system', 'AVM Navigator', 'Web indexing', 'Therapeutic inertia', 'Physical acoustics', 'Musical tuning', 'Provable prime', 'Clothing', 'Maneuver warfare', 'Sigma', 'Vertical-external-cavity surface-emitting-laser', 'Hobbing', 'Manufacturing engineering', 'Technological evolution', 'Atom interferometer', 'Acaricide', 'Holding tank', 'Aviation safety', 'IEEE 802.11ah', 'Organic memory', 'Just-in-time manufacturing', 'Latching switch', 'Epoxy', 'Biomolecule', 'Aerobot', 'Cosmology', 'IEEE 802.11', 'Educational institution', 'DIP switch', 'Neutron bomb', 'Bulbous bow', 'Online machine learning', 'K-factor', 'European Geostationary Navigation Overlay Service', 'Embedded C', 'Finite element method', 'Leaf mold', 'Radio Science', 'Colon polyps', 'Flight control modes', 'Volume of fluid method', 'Nuclear terrorism', 'Metal fabrication', 'Scanning thermal microscopy', 'Toyota Production System', 'Broadband', 'Terminology', 'Management agent', 'Dead reckoning', 'Industrialisation', 'Commercialization', 'Ion beam deposition', 'Naval history', 'Reindustrialization', 'Flamethrower', '3G MIMO', 'Agricultural value chain', 'Engineering', 'Loop splitting', 'Chlorpyrifos', 'Solar cycle 24', 'New business development', 'Vertical-cavity surface-emitting laser', 'Phugoid', 'Graphite', 'Gasoline', 'Planetary Data System', 'Islands of automation', 'Tetrachloroethylene', 'Remanufacturing', 'Ongoing reliability test', 'Fluorescence correlation spectroscopy', 'Total pressure', 'Ecotechnology', 'Modern language', 'Trench warfare', 'Router', 'Interferometry', 'Stimulus interval', 'Lubricant', 'Lagrangian point', 'Plain weave', 'Incremental sheet forming', 'Wireless mesh network', 'Transfer molding', 'PipeRench', 'Trite', 'Resistive random-access memory', 'Aerial video', 'Lean manufacturing', 'Submarine cable', 'Policy-based routing', 'Shared Risk Resource Group', 'On the fly', 'Worsted', 'Ground segment', 'Mode field diameter', 'Solar System', 'Radar', 'Next Generation Air Transportation System', 'Successive approximation ADC', 'Magic formula', 'Optical modulator', 'Do while loop', 'Spacefaring', 'Life-cycle cost analysis', 'Research development', 'Local parameter', 'Sort-merge join', 'Pressure Rate', 'Erlang distribution', 'Tank container', 'Primary station', 'Pulse compression', 'Tactical nuclear weapon', 'Nuclear pasta', 'Selective chemistry of single-walled nanotubes', 'Diamond turning', 'Relaxation length', 'DNA field-effect transistor', 'Thermal fluids', 'Routing table', 'Atomic Clock Ensemble in Space', 'Franck–Condon principle', 'National Security Area', 'Investment banking', 'Flight dynamics', 'Adventure therapy', 'Maximum flow problem', 'Bus rapid transit', 'Conoscopic interference pattern', 'Saturation diving', 'Green marketing', 'IDEF0', 'Electrical discharge machining', 'Semiconductor process simulation', 'Internetwork protocol', 'Healing tissues', 'Fixed wireless', 'Intercontinental ballistic missile', 'Solar cycle', 'Adcock antenna', 'Colonic Polyp', 'Linear network coding', 'Turbulence kinetic energy', 'Multiple Polyps', 'Availability heuristic', 'Location awareness', 'Industrial district', 'Cryotank', 'Nanoarchitectonics', 'Resistor', 'Two-phase flow', 'Digital ecosystem', 'Saturated calomel electrode', 'Facial motion capture', 'Supply chain sustainability', 'Fixed–mobile convergence', 'Hybrid-pi model', 'Secondary ion mass spectrometry', 'Photomixing', 'Painting', 'Surface integrity', 'Future proof', 'Deltamethrin', 'Isothermal flow', 'Military psychology', 'Peacebuilding', 'Electron-beam lithography', 'Aerobraking', 'Mantra', 'Terminology extraction', 'Fiber to the x', 'Adventure education', 'Micropipe', 'Surface modification', 'Pore pressure gradient', 'Sprue', 'Solid state ionics', 'Military theory', 'Induced high electron mobility transistor', 'Paravirtualization', 'Computer-aided technologies', '10G-PON', 'Desoldering', 'Wet cleaning', 'Suberites domuncula', 'sFlow', 'Ka band', 'Page layout', 'Twyman–Green interferometer', 'CLs upper limits', 'Langmuir', 'Eco-innovation', 'Explicit Congestion Notification', 'Weather radar', 'Naval Surface Warfare Center', 'Bowman–Birk protease inhibitor', 'Innovation intermediary', 'Thermophoresis', 'Cruise missile', 'International Electron Devices Meeting', 'Endogenous growth theory', 'Normal surface', 'Air traffic control', 'Emergent grammar', 'Short legs', 'Diamond type', 'Mode coupling', 'Reserved IP addresses', 'Mars Exploration Program', 'Cerebellum', 'Software-defined data center', 'Science policy', 'Submarine landslide', 'Flight inspection', 'Vibration treatment', 'Rake angle', 'Ammonium heptamolybdate', 'Heuristics', 'Technology governance', 'Transmitter station', 'Vortex stretching', 'RISC-V', 'Military operation', 'Digital manufacturing', 'Transmission Control Protocol', 'Russian literature', 'Foreign Intelligence Surveillance Act', 'Hot runner', 'Sentiment analysis', 'Leaf size', 'Spacecraft design', 'Photon entanglement', 'Concurrent computing', 'Pioneer anomaly', 'Xylanase', 'Ternary tree', 'Mirror mount', 'Signal station', 'Solution process', 'Deep cerebellar nuclei', 'Milling cutter', 'Cyclic prefix', 'Solar cycle 12', 'Verilog', 'Protein adsorption', 'Acoustic homing', 'Comprehensive layout', 'Hybrid intelligent system', 'Thermoforming', 'Steady flight', 'ZAP File', 'Exchange interaction', 'Dot gain', 'Mode 2', 'Normal convergence', 'Native copper', 'Mental Healing', 'Vortex Formation', 'Network Convergence', 'Muscidae', 'Paraphrase', 'Shared space', 'Alloy wheel', 'Resource Provider', 'Physical vapor deposition', 'R Plasmids', 'Split-ring resonator', 'Microfiltration', 'Adaptive optimization', 'Design for assembly', 'Order of battle', 'Technology strategy', 'Surface reconstruction', 'Submarine medicine', 'Air-to-air missile', 'Black hole', 'Dental alloys', 'Sheet moulding compound', 'Planetary protection', 'Design paradigm', 'Tissue healing', 'Diethyl aminoethyl hexanoate', 'Luminosity', 'Coated paper', 'Scanning capacitance microscopy', 'Solar architecture', 'Perovskite', 'Carbon nanotube supported catalyst', 'Dictyoceratida', 'REMUS', 'Tape hiss', 'Retrorocket', 'Municipal wireless network', 'Orchestration', 'Electronics cooling', 'Q factor', 'Copper', 'Business plan', 'Fluorescence', 'Cellulose phosphate', 'TOP500', 'Atkinson cycle', 'Space colonization', 'Ambiguity function', 'Enzyme Commission', 'Hand problems', 'Many antennas', 'Buck–boost converter', 'Potassium pyrosulfate', 'Forced convection', 'Flow map', 'Common-path interferometer', 'Control reconfiguration', 'Light infantry', 'Interferometric visibility', 'Transmon', 'Inspired gas', 'Submarine navigation', 'Trade and development', 'Join point', 'Radiation mode', 'GLONASS', 'Web of Things', 'Motion control', 'Japanese post-war economic miracle', 'Access network discovery and selection function', 'No first use', 'Wi-Fi array', 'Continuous optimization', 'Fortification', 'Synthetic diamond', 'Metropolitan area network', 'Cutting fluid', 'Bilateral investment treaty', 'Dexibuprofen', 'Exchange bias', 'Diamond', 'Aerodynamic potential-flow code', 'Orbiter', 'Metal matrix composite', 'Induced innovation', 'Wire speed', 'Ionic potential', 'Willow bark', 'Missile defense', 'Γ-convergence', 'DC-to-DC converter', 'Solar cycle 11', 'Reprojection error', 'Cosmic ray', 'Product design', 'Seismic metamaterials', 'Continuous casting', 'Mobile cloud computing', 'Photon polarization', 'Combined operations', 'F-factor', 'Order of magnitude', 'Ionic transfer', 'Dot product', 'Strain energy release rate', 'Sustainable engineering', 'Satellite imagery', 'Mode scrambler', 'Radar tracker', 'Early adopter', 'Limit switch', 'Expansion tunnel', 'Stable fly', 'Living lab', 'Drop tank', 'Steel design', 'Nuclear explosive', 'Knowledge-based engineering', 'Ionic compound', 'Industrial robot', 'Heuristic function', 'Exploratory search', 'Entire foot', 'Cost share', 'Memory ordering', 'Financial innovation', 'Broadbanding', 'Aerospace engineering', 'Compression molding', 'Anti-submarine warfare', 'Aerocapture', 'Composite joint', 'Missile', 'Consistent heuristic', 'Cognitive module', 'Rule of mixtures', 'P-factor', 'Friction stir welding', 'Biofertilizer', 'Resist', 'Sheet metal forming simulation', 'Photoacoustic tomography', 'Ultrasonic machining', 'Malabsorption', 'Bronze', 'Dispersity', 'Horizontal scan rate', 'National security', 'Combat exposure', 'Grippers', 'Open network architecture', 'Forming processes', 'In situ resource utilization', 'Cellulase', 'Gamma-ray burst', 'Informal sector', 'B type natriuretic peptides', 'Partial discharge', 'Competitive intelligence', 'Modes of convergence', 'Channel allocation schemes', 'Constellation program', 'Turbulence modeling', 'Named-entity recognition', 'Deep space exploration', 'Supernova', 'Intestinal Polyposis', 'Motor test', 'Cellulose degradation', 'Dynamic pressure', 'Modified cellulose', 'Static routing', 'Stable gait', 'Information and communication technologies for development', 'Multidisciplinary design optimization', 'Saturnus', 'Z-factor', 'Friction welding', 'High tech', 'Randomized algorithm', 'Innovation management', 'Vibrating structure gyroscope', 'Artificial general intelligence', 'Neurorobotics', 'Calcium superphosphate', 'Carausius morosus', 'Network virtualization', 'Melting tank', 'Membrane coat', 'Colorectal polyposis', 'Cost Comparisons', 'Leg moving', 'Infantry', 'Space logistics', 'Lateral thinking', 'Strategic goal', 'Parallel Extensions', 'Planet', 'Imidacloprid', 'Musca autumnalis', 'Observations and explorations of Venus', 'Solar cycle 10', 'Research design', 'Rotating tank', 'Vibrational energy relaxation', 'Transformation optics', 'General/global', 'Linear actuator', 'Orbit of Mars', 'Space rendezvous', 'NarrowBand IOT', 'Biotechnology', 'Carbon fiber reinforced polymer', 'Stars', 'Trimethylene carbonate', 'Biosatellite', 'Q-analysis', 'Air traffic flow management', 'Rifle', 'Flow show', 'Motor control', 'Navy Personnel', 'Military strategy', 'Decompression illness', 'Powered wheelchairs', 'Packet switching', 'Leaf gap', 'Unleaded petrol', 'Artillery shell', 'Hardware description language', 'Surgical action', 'Prime k-tuple', 'BiCMOS', 'Flying debris', 'Process manufacturing', 'Service set', 'Market economy', 'Renewable resource', 'Base oil', 'Intelligent environment', 'Oxygen-free copper', 'RF modulator', 'Spin-exchange interaction', 'Gyroscope', 'Submarine', 'Mushroom bodies', 'Hand mirror', 'Two-electron atom', 'Environmental full-cost accounting', 'Electrochemical machining', 'Economic transformation', 'Super-channel', 'Heterojunction bipolar transistor', 'Interface position', 'Single-mode optical fiber', 'Mashing', 'Hydrographic office', 'Hash join', 'Panopticon', 'Phoenicopteridae', 'Molecular physics', 'Lithography', 'Long mode', 'Ammonium polyphosphate', '3D interaction', 'Colorectal Polyp', 'Inductive sensor', 'Scatterometer', 'Chiller boiler system', 'Y-factor', 'Convergence tests', 'Mamba', 'Design and Technology', 'Trimix', 'Social entrepreneurship', 'Loop fusion', 'Collaboratory', 'Effective microorganism', 'Computational linguistics', 'Transfusion associated circulatory overload', 'Civil defense', 'Convective heat transfer', 'N-Methylmorpholine N-oxide', 'Wave soldering', 'Stratix', 'Local positioning system', 'Son of man', 'Single-Walled Nanotube', 'Surface charge', 'Leg mechanism', 'IBM', 'Water-Lilies', 'Pressure decrease', 'Pellicle mirror', 'Mathematical model', '3D single-object recognition', 'Lead(II) iodide', 'Ethidium monoazide', 'Higher-order factor analysis', 'Sand casting', 'Radio spectrum', 'Interstellar travel', 'Capital formation', 'Joins', 'Naval Tactical Data System', 'Ant robotics', 'Mission creep', 'Bipolar junction transistor', 'Long-term experiment', 'Nanomanufacturing', 'RINEX', 'IEEE 802.11u', 'Buck converter', 'Thermal transmittance', 'Biopesticide', 'International security', 'Interactive systems engineering', 'End-user computing', 'Primary mirror', 'Blockchain', 'Post-perovskite', 'Translation language', 'Thermal contact conductance', 'Perovskite solar cell', 'Astronomy', 'S-factor', 'Mischmetal', 'Nuclear warfare', 'Dwarf coconut', 'Simulation heuristic', 'Regulator', 'Cell determination', 'Metis people', 'Military deployment', 'Terminal guidance', 'Universal Networking Language', 'Tricalcium silicate', 'Economic sector', 'Ejection charge', 'Design flow', 'Rolling resistance', 'Autonomic networking', 'Bill of materials', 'Food coating', 'Biotransformation', 'L band', 'Social business', 'University spin-off', 'Hand region', 'Design layout record', 'Evidence of water on Mars from Mars Odyssey', 'Lost-wax casting', 'Fire support', 'Molding sand', 'Pediatrics', 'Biofortification', 'Fitness to dive', 'Composite construction', 'Small Business Innovation Research', 'Aluminium-27', 'Hybrid array', 'Dive computer', 'ID/LP grammar', 'Shape optimization', 'Meteorite', 'Design Error', 'Exploration of Saturn', 'E band', 'Semiconductor device fabrication', 'Potassium persulfate', 'Flat memory model', 'Process output', 'Diamond tool', 'Blow molding', 'Concurrent engineering', 'Dielectric barrier discharge', 'Venus', 'Omnidirectional antenna', "Sylvester's law of inertia", 'Submarine warfare', 'IEEE 802.11p', 'Nano manufacturing', 'State secrets privilege', 'Leaf formation', 'Copper binding', 'Hydration reaction', 'Surgical extraction', 'Nuclear thermal rocket', 'Plug-in', 'Generalised cost', 'Ammonium molybdate', 'Military technology', 'Naval warfare', 'File Control Block', 'Ballistic capture', 'Dieldrin', 'Knowledge broker', 'Star tracker', 'Copper plating', 'Cache-only memory architecture', 'Overtone band', 'Connectivity', 'Ku band', 'Saw (device)', 'Control flow', 'Engine control unit', 'Analysis of flows', 'TCP congestion-avoidance algorithm', 'Plasmid preparation', 'Technical diving', 'Occupancy sensor', 'Effective number of bits', 'Exclosure', 'Cellulose synthesis', 'Agreed Framework', 'Network economics', 'Single-core', 'Hilling', 'Coat', 'Switch statement', 'Lexical grammar', 'Mean flow', 'Non-line-of-sight propagation', 'Need for cognition', 'Diatomic molecule', 'Economic underdevelopment', 'Memory hierarchy', 'Grammar', 'Issued shares', 'Tread', 'Value added', 'Planetary surface', 'Cloning', 'Mechanical metamaterial', 'Probabilistic-based design optimization', 'Steel casting', 'Fluorescence cross-correlation spectroscopy', 'Sheet metal', 'Satellite system', 'Environmental technology', 'Selectable marker', 'Nanotube', 'Class implementation file', 'Diving physics', 'Trichoderma reesei', 'Data-intensive computing', 'Pressure coefficient', 'Virtual engineering', 'Diagnostic scan', 'Plasmonic metamaterials', 'Bufferbloat', 'Loop fission', 'Electrode potential', 'Air traffic controller', 'Akadama', 'Marker gene', 'Ensign', 'Foundry', 'IEEE 802.11s', 'Engineering optimization', 'Adaptive capacity', 'Public key infrastructure', 'Local analysis', 'Conventional memory', 'Optical burst switching', 'Reconfigurable Manufacturing System', 'Corporate social responsibility', 'Ropes course', 'Space research', 'Cypermethrin', 'Mirror galvanometer', 'Life-cycle assessment', 'Document retrieval', 'Mission control center', 'Socioeconomic development', 'Magnesium', 'Microfabrication', 'RAMP3', 'Universe', 'Heuristic', 'Glass cockpit', 'Wavelength switched optical network', 'Loop interchange', 'Videotelephony', 'Pneumatic actuator', 'Tetrafluoroborate', 'Physical design', 'Networking hardware', 'Global Innovation Index', 'Network protector', 'Malathion', 'Shape object', 'Human-in-the-loop', 'Selenium salt', 'Sorption isotherm', 'TCP Friendly Rate Control', 'Transfer station', 'Artificial intelligence', 'Memory module', 'Electrical tuning', 'Internet protocol suite', 'K-epsilon turbulence model', 'Technology assessment', 'Amphibious warfare', 'Endosulfan', 'Entity linking', 'Data Web', 'Body temperature measurement', 'Development ethics', 'Injection molding machine', 'Space Shuttle', 'Multipath TCP', 'Demosponge', 'Infrared homing', 'Dairy farming', 'Fiscal policy', 'Life expectancy', 'Cracking', 'Female entrepreneurs', 'Hot pressing', 'Open economy', 'Hybrid plasmid', 'Transient erythroblastopenia of childhood', 'Automated Transfer Vehicle', 'Slush', 'TO-18', 'Channel capacity', 'Stanton number', 'Head movements', 'RF power amplifier', 'Self-organizing network', 'Multilayer switch', 'Spacecraft', 'Tax incentive', 'Elastomer', 'Rule-based machine translation', 'Modular design', 'Charge number', 'Die casting', 'Robotic spacecraft', 'Glass electrode', 'Cognitive closure', 'Rho factor', 'Process validation', 'Gain', 'Clef', 'Nanoengineering', 'Humic acid', 'Solar cycle 23', 'Scene statistics', 'Flexible manufacturing system', 'Mechanical engineering technology', 'Soldering', 'Space Launch System', 'Motor controller', 'Noise', 'Cargo spacecraft', 'Compact tension specimen', 'Lime-nitrogen', 'Waveguide', 'Orbital elements', 'Machine Age', 'Cellulose biosynthesis', 'Material Crack', 'Induction motor', 'Scan chain', 'Bag-in-box', 'Military sociology', 'Stochastic geometry models of wireless networks', 'Auxiliary memory', 'Ibuprofen', 'Ammunition', 'Factor analysis', 'Waveguide flange', 'Parallel programming model', 'Accelerating change', 'Rotational–vibrational coupling', 'Market access', 'Military Pay', 'Dynamic Scan', 'V band', 'Space debris', 'Tool wear', 'Flow conditions', 'Microbial consortium', 'Active duty', 'Charging order', 'Mobilization', 'Exascale computing', 'Intersection', 'Nanophotonics', 'Plant identification', 'Nickel Chromium Alloys', 'Embedding', 'Naval Science', 'Electric discharge', 'Air traffic management', 'Expendable launch system', 'Algorithmic skeleton', 'Flow visualization', 'Magnetic Bead Separation', 'Partial charge', 'Diamond cubic', 'Optical add-drop multiplexer', 'Disruptive innovation', 'Xylobiose', 'Plane mirror', 'Focused ion beam', 'K band', 'Linear Scan', 'Earth observation', 'Innovative financing', 'Adaptive strategies', 'Military science', '128-bit', 'Single Euro Payments Area', 'Phylum Porifera', 'Saturnia', 'Leaf angle distribution', 'Named graph', 'Calcium silicate hydrate', 'Charge density', 'Performance tuning', 'Symbolic convergence theory', 'Trade barrier', 'Labelling machine', 'Functional design', 'FPGA prototype', 'AIDS dementia complex', 'Hardware acceleration', 'Local property', 'Synthetic oil', 'Battle', 'Pharmaceutical drug', 'Hydraulic diameter', 'Pressure exchanger', 'FCAPS', 'Astrobiology Science and Technology for Exploring Planets', 'Radar imaging', 'Biomanufacturing', 'Wireless WAN', 'Active antenna', 'Adaptive value', 'Banyan switch', 'Regenerated cellulose', 'Link level', 'Charge type', 'Production control', 'Nuclear weapon', 'Element management system', 'Military operations area', 'Spectacle', 'Bass diffusion model', 'Trade facilitation', 'Protein surface', 'DSRFLOW', 'Fantom', 'Sustainable urbanism', 'Build to order', 'Internal combustion engine cooling', 'Seafloor mapping', 'Second strike', 'Weapon of mass destruction', 'Infranet', 'Knowledge transfer', 'Module pattern', 'Real mode', 'MEMS testing', 'Gait analysis', 'Resistin', 'Strategic defence', 'Layout', 'Binary logarithm', 'Recursive join', 'Rotary actuator', 'Robotic mapping', 'Flyby anomaly', 'Atacama Large Millimeter Array', 'Industrial ecology', 'Throughput', 'Ferrimagnetism', 'Design technology', 'Active vision', 'Martian', 'Nickel', 'Ammonia volatilization from urea', 'Industrial computed tomography', 'Forward converter', 'Crossover switch', 'Lean project management', 'Traffic flow', 'Flight control surfaces', 'Large-signal model', 'Channel use', 'Certificate of origin', 'Wi-Fi', 'Traffic station', 'Distributed manufacturing', 'Ettringite', 'Product Labelling', 'Scalable TCP', 'C-type natriuretic peptide', 'Enabling', 'Electric vehicle', 'Industrial design', 'Nuclear cross section', 'Leaf expansion', 'Electric motor', 'Technological change', 'Level activity', 'g factor', 'Normal face', 'Bilingual lexicon', 'Shares outstanding', 'Burgers vortex', 'Large segment offload', 'Pressure gradient', 'Reynolds stress', 'Military logistics', 'Space exposure', 'Industrial technology', 'Corporate sustainability', 'Coati', 'Combat Disorders', '6to4', 'Gate dielectric', '10G-EPON', 'Language technology', 'Sustainable urban infrastructure', 'Manufacturing operations', 'Laser-induced incandescence', 'Surface science', 'Geostationary orbit', 'Nanoelectromechanical systems', 'Aerodynamic heating', 'Network allocation vector', 'Material properties of diamond', 'Spatial multiplexing', 'Pursuit guidance', 'Simulation language', 'Modern warfare', 'Impressment', 'While loop', 'Plastics industry', 'Internal fan-cooled electric motor', 'Policy mix', 'Gastronomy', 'Tiered service', 'Mildly context-sensitive grammar formalism', 'Affix grammar', 'Human leg', 'Reflective array antenna', 'Lyocell', 'Acoustic radiation force', 'Molecular wire', 'Motorcycle tyre', 'Cotransformation', 'Sauter mean diameter', 'Globular cluster', 'Routing control plane', 'Carbofuran', 'Reservoir bag', 'Atmospheric entry', 'Polar', 'Development environment', 'Diesel fuel', 'Recognition heuristic', 'Aluminium', 'Solar cycle 22', 'Adsorption', 'Nitrogen-vacancy center', 'Regional innovation system', 'Atrazine', 'Graphi</t>
         </is>
       </c>
     </row>
@@ -707,29 +707,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="C11" t="n">
         <v>47</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2909549571, 2779169798, 2993528582, 2777146892, 2776825616, 139838865, 2776344727, 2991771927, 2991981721, 2909257116, 94298141, 151174432, 2780899237, 71909290, 2779183276, 109332788, 2910013236, 2779047222, 2994097847, 3020357689, 2781304125, 2909342271, 2776592576, 2777288899, 2779795779, 2777209669, 2909020486, 2909863621, 2994127690, 2777111884, 2779282124, 2778004815, 2910442575, 2778986839, 76485209, 2780950746, 2909635936, 2909338083, 2777857893, 2777433830, 2993303399, 2778527208, 3017914597, 2781386606, 2909538934, 2780459134, 2992684415]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Retirement Benefit', 'Registered Retirement Savings Plan', 'Retirement pension', 'Pension Credit', 'Private pension', 'Racism', 'Disability insurance', 'Public pension', 'Pension plan', 'Retirement pensions', 'Enrolled actuary', 'Legacy costs', 'Pension', 'Actuarial reserves', 'Disability benefits', 'Economic efficiency', 'Benefit eligibility', 'Pensions crisis', 'Pension system', 'Pay as you go', 'Social risk management', 'Sickness benefit', 'Social Security Act', 'Retirement age', 'Payroll tax', 'IAS 19', 'Invalidity pension', 'Employee Pension Plans', 'Income security', 'Social security', 'Social insurance', 'Defined contribution plan', 'Supplementary benefit', 'Civil list', 'Life annuity', 'Social pension', 'Old age assistance', 'Invalidity benefit', 'Social protection floor', 'Social protection', 'Pension insurance', 'PAYGO', 'Old age pension', 'Longevity risk', 'Maternity allowance', 'Right to social security', 'Social insurance system']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2777146892', '2909000370', '134215751', '2781160424', '557691694', '2779183276', '2781304125', '821917', '63805789', '160333310', '34560132', '121017731', '2780615719', '2909257116', '2779795779', '2776060655', '134659438', '2778004815', '2779735493', '2781372952', '4162061', '2777433830', '2777807558', '2779997400', '2781313914', '2777201701', '2779490853', '155202549', '104151175', '2777626329', '179709323', '2780903623', '86615163', '55986821', '2779206190', '2778968930', '2779233565', '48891531', '129603779', '76485209', '2780761588', '2778660980', '2777111884', '2779625216', '2776845425', '2781386606', '2776572088', '10688316', '83864248', '19244329', '2909439219', '2778055162', '2777917351', '2780479094', '19159745', '67921825', '160443848', '2776206778', '2781196610', '2778716609', '506295513', '25810664', '37129596', '45355965', '519300510', '2776237081', '70036468', '2909064151', '516990006', '2909635936', '2776592576', '139719470', '173145845', '2779282124', '2908525900', '116019233', '2775848949', '551499885', '2778212065', '109051061', '2779845407', '51067260', '77357849', '2777147431', '176564469', '190973436', '182299520', '2779310246', '55447825', '2777129469', '2910442575', '2910645313', '2779251847', '73283319', '2777209669', '163836022', '2780962165', '2779119184', '2780459134', '106159729', '2909025839', '2776758949', '2778459265', '2778566306', '140816417', '119857082', '176445938', '32437296', '510755694', '2781190941', '78780426', '2910181401', '177309310', '2781426361', '97713585', '2909492420', '2910289302', '2776572589', '2776327045', '2780623907', '2909647022', '2780535194', '2776354556', '146406624', '2776636807', '2909342271', '75218677', '2780892066', '2776554220', '111141941', '91093795', '2909549571', '194477218', '162725370', '162324750', '191953296', '2780155792', '161407221', '15107229', '2779201187', '188116033', '2776825616', '2778462305', '540791928', '77352025', '53001019', '35532855', '71909290', '2777686490', '2908821035', '201915964', '150432175', '27564746', '2776942536', '159176650', '2779601481', '2778527208', '2911052175', '2908766468', '2778764706', '2776369677', '2776344727', '2909801347', '2776310010', '2780899237', '2910013236', '166052673', '2777288899', '84945661', '44171179', '42298096', '178283979', '180872759', '2780031633', '2781216606', '2780569737', '126285488', '168622376', '50549864', '2777263331', '2909400753', '100607858', '128963836', '2780950746', '2780037060']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Pension Credit', 'Work women', 'Professional association', 'Social integration', 'Remote control', 'Disability benefits', 'Social risk management', 'Capital outflow', 'Net national income', 'Key distribution', 'Steady state', 'Information technology', 'Financial integration', 'Retirement pensions', 'Payroll tax', 'Tariff', 'Social exclusion', 'Defined contribution plan', 'Human Development Index', 'Visual impairment', 'F-distribution', 'Social protection', 'Biodistribution', 'Irreligion', 'International Action', 'Means test', 'Conditional cash transfer', 'International trade', 'Emigration', 'International trade law', 'Lévy distribution', 'Cross-border cooperation', 'International human rights law', 'Macroeconomic model', 'Gini coefficient', 'Social disintegration', 'Middle class', 'Marketing research', 'Welfare state', 'Life annuity', 'Median income', 'Bank regulation', 'Social security', 'Physical disability', 'Stereotype threat', 'Longevity risk', 'Microaggression', 'New Keynesian economics', 'Developing country', 'Financial market', 'Cognitive stimulation', 'Financial accelerator', 'Internal migration', 'Third-Worldism', 'Social policy', 'Distribution law', 'Per capita income', 'Special needs', 'Co-development', 'Minimum wage', 'Economic integration', 'Ontology', 'Social mobility', 'Socioeconomics', 'Income distribution', 'Income Support', 'Immigration', 'Less-Developed Nations', 'Organizational economics', 'Old age assistance', 'Social Security Act', 'Macroeconomics', 'Refugee', 'Social insurance', 'Kin discrimination', 'Food energy', 'Regulation Q', 'Intellectual disability', 'Invisible disability', 'Biomonitoring', 'World Development Indicators', 'Professional development', 'Origin', 'Green Information Technology', 'Total personal income', 'Informal education', 'Total cost', 'Least Developed Countries', 'International law', 'Trade agreement', 'Supplementary benefit', 'Monitoring ph', 'Financial inclusion', 'Financial system', 'IAS 19', 'Markov model', 'Remittance', 'ALARM', 'Right to social security', 'Financial economics', 'Ph regulation', 'Stigmata', 'South–South cooperation', 'Personal income', 'Zero population growth', 'Machine learning', 'Ecological economics', 'Life chances', 'Financial regulation', 'Minimum wage law', 'Deregulation', 'Ethnic discrimination', 'Information technology audit', 'Earnings', 'Mark to model', 'A physical disability', 'Bp monitoring', 'Lower middle class', 'Professional boundaries', 'Disadvantaged', 'Working Woman', 'Open data', 'Health information technology', 'Unearned income', 'Mutual aid', 'Sickness benefit', 'Inflation', 'Household income', 'Prosperity', 'Immigration policy', 'Information Age', 'Retirement Benefit', 'Income in kind', 'Daytime', 'Economics', 'Young professional', 'Redevelopment', 'Cognitive model', 'Learning disability', 'Information leakage', 'Q-learning', 'Private pension', "Women's work", 'Professional studies', 'Population growth', 'Social issues', 'Free trade', 'Actuarial reserves', 'Border enforcement', 'Job discrimination', 'AP Macroeconomics', 'Chi distribution', 'Market research', 'Women in the workforce', 'Horizon', 'Financial institution', 'PAYGO', 'Intersectoral Cooperation', 'Consent Forms', 'Global value chain', 'Human Development Report', 'Disability insurance', 'Cognitive Intervention', 'Maldevelopment', 'Pension', 'Benefit eligibility', 'Empirical evidence', 'Retirement age', 'Root cause', 'External debt', 'Socioeconomic development', 'Public finance', 'Social group', 'Irregular migration', 'Ecological debt', 'Disinflation', 'Monetary policy', 'Ecological Debt Day', 'S.M.A.R.T.', 'Co-regulation', 'Hue discrimination', 'Meontology', 'K-distribution', 'Social pension', 'Cross-border region']</t>
         </is>
       </c>
     </row>
@@ -740,29 +740,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1108</v>
+        <v>1016</v>
       </c>
       <c r="C12" t="n">
         <v>1108</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[90296322, 176205827, 201662476, 200925200, 2775867413, 2780000280, 2776027161, 3018043421, 2910122018, 2779865127, 19165224, 2779095084, 2778304562, 2993246259, 2776371253, 101765175, 2776547389, 2992377917, 2988879937, 2777305159, 2777407568, 2992779345, 2992660569, 2992959584, 2992930927, 2994028655, 2781180020, 2993660026, 2776825979, 64004221, 144543869, 2781188222, 157085824, 2994548865, 2776080521, 2777071753, 2993393817, 2777006239, 2780045472, 2994548900, 3018653863, 2776932522, 521449643, 2779578543, 86532276, 3017937076, 2992275638, 2993422519, 185671874, 539955404, 86085837, 2780934355, 2987552981, 2992156887, 518914266, 2986840282, 2992505053, 3017797855, 2993799392, 47796450, 130367717, 2780492012, 49545453, 2984149230, 2776150259, 2778407155, 3019403512, 2777084153, 69828861, 2776129789, 173560066, 2992050445, 35377427, 3018031380, 67805463, 2778542359, 2910974233, 7991579, 67203356, 3020775707, 169242911, 103711010, 20664614, 13553968, 2780746032, 2909151537, 3017453878, 2994303289, 79581498, 2992193852, 2777874752, 104304963, 2779676996, 51413319, 2776756561, 154108245, 2776310101, 2776121688, 2992132446, 2994454878, 2781323617, 2777268604, 182358397, 204222849, 539828613, 2984362373, 2992120199, 2993471882, 152232337, 2777534865, 2777579922, 2776506782, 2777600414, 2992685476, 2994196905, 152781226, 545464746, 2910245291, 107053488, 116822448, 2780185008, 2910945715, 2909614546, 2986820053, 522453465, 1511901, 88764893, 3020063206, 139997677, 2992923117, 2993508850, 86565373, 2780750338, 2778116611, 2776809989, 2777113093, 2991763974, 2993783303, 196313609, 54956558, 2987479567, 2777408017, 192360978, 7131667, 2993664535, 2985468441, 2778309149, 42222113, 124363303, 2993820207, 181588539, 3020522044, 17744445, 2992206404, 2777137744, 2908983889, 2988954192, 2778149459, 2992235091, 2779529814, 2781360730, 184386139, 2982806110, 2991796840, 2992321136, 2777932401, 74064498, 2910478969, 89862778, 29598333, 554144382, 2781233791, 2776732289, 2780877451, 2780512908, 2777412237, 2911003279, 166417041, 2993656466, 83874454, 2993189540, 76251814, 92545706, 2780521143, 2991702721, 2777162435, 2994426568, 45011657, 186229450, 2778632908, 3017560780, 2908779215, 2776724182, 2992370393, 2984739556, 2778444522, 184603391, 511693568, 2993574659, 3017814787, 2778399496, 156996364, 2780648208, 2781143826, 2778448659, 2911085332, 3018142482, 3017757462, 3019014930, 2992829217, 2993263396, 2775905063, 2780545837, 152068911, 2777805627, 2778207038, 2776109892, 2779509574, 126182222, 144024400, 129909587, 2778866518, 24027999, 2777944934, 2993283943, 82834280, 2779534186, 2776814445, 2780840815, 2780656496, 2777080691, 2778788726, 2776568704, 2779980673, 2984326018, 541528975, 2993808273, 2993419154, 2776044436, 2779808665, 2778170267, 2993234844, 2777420705, 2777371558, 13951911, 24351657, 2989523885, 49304495, 2993288118, 2993947574, 118817725, 2982826943, 2992755650, 2780365763, 2993120196, 2776847301, 2777867213, 200070095, 10187730, 105776082, 2909148120, 3018802138, 2778461148, 2776941537, 2775987171, 99484651, 520049643, 2776687596, 190714865, 2777773042, 2992632818, 2778289140, 2778416130, 2992325636, 2910577671, 110158866, 99546132, 143389717, 2780836893, 2992587810, 2910721061, 70673446, 519517224, 2780455979, 2987619373, 120177712, 168703024, 2777855027, 2984780852, 111141941, 2910991414, 2778407992, 2776114235, 2777404476, 2908939325, 2982716477, 2777171014, 198104137, 2993951818, 2777408600, 75007070, 2777543776, 2992895082, 532444271, 2777212017, 178021490, 2909426805, 140096630, 2776781948, 199033989, 19096712, 2776757386, 2992194703, 2993112219, 2778997920, 2776229029, 205300905, 2993976494, 96756911, 144348335, 115225779, 158049464, 2780054715, 83260615, 2776581319, 2780886216, 153683151, 69752020, 51377365, 39077098, 33285361, 2985563377, 189764856, 52069626, 196187386, 2987853052, 3018786045, 2777724159, 2992366847, 2994554119, 2777228553, 2991727888, 181290262, 2778105115, 2779030815, 2778330403, 2776323365, 2908697894, 105297191, 39118121, 2778682666, 135628077, 2992317742, 141108527, 2779821363, 26834231, 2780591428, 2776614217, 2781353297, 2994324828, 2993816925, 1631582, 2777564511, 2780132705, 2777908580, 2776663400, 2778240362, 2991965549, 2780300654, 535291247, 2993636719, 93377909, 125109622, 538383745, 2778924419, 2776774022, 2993005960, 2781115785, 98375054, 152192407, 2779534744, 2780661145, 134698397, 112788895, 2778633635, 2776757670, 2778473898, 2780685743, 2984191411, 2988545469, 2993591741, 66098623, 2777130432, 2776217029, 137270730, 2776720842, 509933004, 2781283787, 122156500, 2778215892, 2991994326, 2993051095, 2778924504, 2993370586, 185554395, 2994173404, 2992539108, 10118631, 2994206189, 2779833838, 2987210228, 2780153333, 139228662, 2780481019, 2778711553, 31168002, 2779715073, 2781001224, 2778293771, 2781337099, 66938386, 110269972, 2992940572, 181536285, 411171, 2780304933, 185656870, 2777060902, 2992879144, 2779199018, 2984674859, 154592814, 146847282, 2779276850, 2909959731, 3017795126, 203404855, 1975866, 2776045127, 2779948615, 2910557768, 2780919382, 60671577, 61703769, 3019183709, 2776237668, 110069353, 2778289769, 2781038186, 2991658607, 118519418, 2993440378, 2778379900, 98940541, 2775910013, 2776786559, 2778506879, 2780948093, 2908558976, 2778531465, 2781243023, 205059728, 2775889553, 2985109136, 2991707792, 3017864863, 29595303, 2776692393, 136255149, 2777388718, 104892082, 2779449021, 3018364605, 2983139010, 2993915587, 2992154313, 2778625738, 2994280141, 2776782544, 2781451986, 2778437332, 2779096792, 138921699, 45012715, 2778203884, 126408429, 35219183, 2993129200, 2778904306, 203458295, 141354745, 150513403, 2778765059, 2984703750, 2780849931, 2779838221, 101336846, 183195422, 2983061281, 2909452073, 2779567914, 2993145642, 189261614, 2991998767, 2994194226, 91649852, 153646914, 3018544965, 160331591, 2992117579, 62555980, 96089941, 2778580826, 2777966427, 193415008, 2991658862, 2994104177, 60229501, 18483071, 2991830913, 2910590855, 2992650120, 2993842057, 2993346454, 137471899, 113145756, 133437341, 2982889377, 2909984675, 2778851255, 2777380792, 2779322298, 57882556, 2776618947, 2778896325, 16160715, 2993215436, 148383697, 2983131089, 122341333, 2992424917, 153606108, 2992633830, 122783720, 2909603817, 2989357034, 2992240620, 108115952, 160159729, 2993420280, 3019712509, 2780018693, 2909931525, 2994497548, 48777230, 2994440207, 2908698646, 184047640, 2781448223, 2910488614, 2991839271, 33441834, 6514731, 95389739, 2908543018, 168630323, 2992621622, 2781190202, 2984253498, 2993113146, 190351424, 17033282, 85502023, 2991872071, 2993051725, 47654990, 126314574, 160487506, 2777294933, 2908694616, 167290972, 48580701, 2992592990, 2993248350, 59742305, 313442, 2993191010, 2994059361, 2779367526, 2992253032, 34355311, 2780399737, 3020114046, 2908584064, 2778888322, 109717640, 2992257161, 2779220109, 3019106449, 117110933, 2987534486, 170154142, 2992535714, 3019557027, 2987370661, 108865711, 3020699826, 2991925429, 3017394358, 2986088632, 2993641661, 115038398, 2983860417, 129603779, 2780903623, 2991950033, 141392084, 2779678948, 2993948902, 2778495208, 136325355, 139450603, 81307892, 2992281844, 135121143, 47798520, 2779240695, 19417346, 51575053, 514689293, 501299471, 533735693, 20429076, 2994014488, 2992195866, 2779781407, 2992757024, 2780723490, 2993797417, 71043370, 2780997931, 2909124907, 142932270, 93907247, 2985707824, 2994280752, 46295352, 28539199, 2993207622, 2779707719, 2991802695, 2777397581, 2910447950, 2779437392, 2776693075, 2909682003, 2993318240, 68643176, 79841651, 151873908, 2779265402, 2994452858, 3090818, 87427459, 206182792, 2909534610, 97053079, 537397655, 53143962, 73484699, 2992490906, 2993326493, 519580073, 2994063785, 158071213, 93419950, 531593650, 521259446, 153823671, 2986359222, 87210426, 555944384, 2781469121, 24992206, 2992912847, 107993555, 3017689557, 190253527, 547727832, 2992011738, 2781051360, 2780273121, 2780805606, 2780822005, 76458491, 2779015675, 2780039695, 2993486354, 2984938003, 2779154964, 2988907029, 522562087, 89836073, 25197100, 558565934, 2911148592, 2776119857, 2776136241, 2910800445, 2780039742, 3017628222, 3018697281, 512170562, 75795011, 2775923278, 52075106, 2778647138, 2778679906, 79420006, 2983832167, 2779679337, 2778258037, 2781063802, 2776902267, 2909248125, 2779548288, 178895491, 111852164, 957061, 2780400262, 2991884931, 2994104972, 2781039245, 70970002, 2776906386, 2777434770, 2983819930, 96455323, 2984352414, 2983262885, 94128814, 190831278, 2780871342, 7879346, 147446459, 90327742, 2781153986, 94915269, 2776300232, 2779470537, 2910001868, 33508045, 2992761553, 2991999700, 2779892437, 2994457302, 2985708247, 121658072, 2779028185, 2984602331, 137403100, 2777463520, 202889954, 70789860, 2993052388, 168110828, 2994146034, 2779028214, 126053111, 2776931063, 2779888377, 2777164546, 2778348292, 2984717066, 2992503562, 40319758, 2780113678, 201960208, 2910182162, 3019422483, 205507351, 2779204379, 2779372316, 2993376032, 2991819557, 80055088, 2993630001, 3018459956, 2777275194, 2779593531, 2994338618, 2778880830, 2776386368, 2777152325, 2780166988, 542948173, 29760336, 2779319121, 2781440851, 162462552, 2776288101, 2991819626, 2775944049, 2908969848, 2776497017, 2779888511, 2910321540, 2779548549, 2993367940, 76155785, 190974861, 2994494352, 36375443, 2909047701, 2779192218, 149126043, 162446236, 520944541, 2778307483, 2991922077, 2993544092, 3017866148, 125209513, 2986363827, 2993081267, 2777881528, 2780957641, 3020782553, 2777623515, 2779184092, 112950240, 2776873955, 46312422, 2777521127, 71760877, 2776431611, 555826173, 2993495038, 2994519045, 2910252045, 182377489, 197487636, 2992147476, 203299862, 2779589656, 2777967642, 2994183204, 511192102, 2993400877, 2776443958, 103189561, 2779434045, 2983615550, 2993425470, 2994449473, 2780433478, 2994388040, 30407753, 109157449, 189807693, 2986609742, 2779253841, 2779462738, 156945495, 2780642392, 2992688223, 2987236452, 2992544869, 65059942, 2910112873, 2992479339, 2988166257, 153533565, 2910432382, 76344452, 2993175689, 60943498, 2779860107, 2776648845, 115051666, 75058329, 2779872411, 2983775389, 535899295, 2776689826, 91724965, 159607974, 17206440, 2779610281, 2991897768, 2993069225, 3019562157, 2779286702, 2992151728, 66251956, 2777181365, 2991983806, 13184196, 2988805333, 45051096, 2993224921, 3019652312, 182664415, 2988039391, 540269800, 3019685099, 3019222255, 66862320, 90508534, 533363959, 79416576, 2780105985, 151915780, 186764553, 129404179, 2777341207, 2994351402, 2992479540, 2994011458, 2992000325, 2994396486, 2994597191, 2910149960, 2992786762, 2910293346, 2778611045, 186633575, 111943024, 24845683, 151043444, 2993180019, 195358072, 2983619961, 19185018, 2910346624, 161840515, 2780290438, 2985758088, 2776419724, 2780831121, 190475667, 120417685, 122445209, 523419034, 87858587, 2986229148, 2781191591, 2909765031, 2993233325, 2911067568, 102690226, 2993843641, 19275194, 2780048828, 2778226110, 168500671, 28519872, 2910035393, 2776702403, 2780310989, 2992315853, 2985852370, 134512083, 514928085, 2778652117, 52121051, 2776489436, 2780032489, 100339178, 523173360, 130858481, 6385141, 2992020985, 2909978109, 147176958, 2777075199, 2776358401, 2781261322, 4238864, 2779627024, 2991808018, 2994187793, 2992446998, 2991713821, 5455396, 2778906150, 82447923, 2910674484, 2777427512, 2778259003, 2779082310, 2993290825, 75779659, 2992774734, 46890581, 2777570903, 2776571483, 2776682078, 2781048416, 100363876, 2992602724, 2984562283, 31555180, 54726253, 2909359727, 2777812597, 122302079, 2993892992, 2993917568, 157150851, 2992971396, 2985733770, 2778451604, 2910195350, 2991873690, 2910645917, 98528937, 2780401329, 2992602803, 17084088, 3020127932, 2777362114, 2991791815, 183373512, 2779152076, 192126672, 187109078, 2992320215, 510578393, 2779422429, 2994278109, 2780147423, 178405089, 2780974818, 2779016933, 5119721, 2777861868, 2778783470, 2988969716, 2992226037, 162127614, 2991656707, 22212356, 2778844933, 487182, 2781101838, 199540501, 2910658325, 2994220825, 2777050911, 2909261609, 2993336105, 557252395, 2780049196, 143392562, 2982801203, 31858485, 2780933944, 2910740281, 2780434240, 2777800518, 2992811848, 2777939785, 101351245, 2994569041, 195092306, 206745429, 2993651543, 2776526686, 534859617, 2777579366, 2779369318, 2776952685, 2910474093, 148803439, 3018653551, 2992914290, 2781462389, 2988277623, 2780499841, 2993119107, 4792198, 115314567, 2991923085, 2780524430, 2780155792, 164913051, 2993737627, 2778603423, 2908540851, 2909183934, 89505729, 2780037060, 2778501065, 2780884937, 2776432587, 171675602, 158007255, 94625758, 2777747429, 2781036520, 2994339824, 2778664945, 202702835, 2779594741, 2992701429, 2779979769, 88743934]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Concentric', 'Farm water', 'Track and field athletics', 'STRIPS', 'Pigovian tax', 'Gap Analysis Program', 'Forest dieback', 'Freeze thaw cycling', 'RECREATIONAL EQUIPMENT', 'Greenfield land', 'Anthropology', 'Piping', 'Pollution in China', 'Mercury pollution', 'Alley', 'Communications system', 'Notational analysis', 'Railway line', 'Fluid pressure', 'Fleet management', 'National Information Exchange Model', 'Pollution management', 'River flood', 'Concrete beams', 'Land use transition', 'Population exposure', 'European Public Prosecutor', 'Rock breaking', 'Residential area', 'T-beam', 'Mobile computing', 'Grassroots', 'TRIPS architecture', 'Agricultural intensification', 'Federal-Aid Highway Act', 'Urban structure', 'Subway station', 'Geosteering', 'Cancer Alley', 'Land use suitability', 'Disaster response', 'Defensive expenditures', 'Nationalism', 'Technical progress', 'Delegation', 'Power relations', 'Cycling rate', 'Return to play', 'E number', 'Flood control', 'Site analysis', 'Land transport', 'Interactive entertainment', 'Deep excavation', 'Romance', 'Landscape pattern', 'Urban land', 'Football players', 'Land utilization', 'Intelligent transportation system', 'Diagonal', 'Marine pollution', 'Urban planning', 'Surface water quality', 'Automobile dependency', 'National identity', 'Near road', 'Polluter pays principle', 'Austerity', 'Presidential election', 'Interior design', 'Land availability', 'Axial symmetry', 'European level', 'Sculpture', 'Model Cities Program', 'Unleaded petrol', 'Criticism', 'Reinforcement', 'Car drivers', 'Hydrological transport model', 'Earthquake engineering', 'Urban ecosystem', 'Music education', 'Economic partnership agreement', 'Disaster Victims', 'Penalty kick', 'Flood discharge', 'Suite', 'Urban innovation', 'Outburst flood', 'Durability', 'European Employment Strategy', 'Pallet', 'Xeriscaping', 'Surge', 'Global governance', 'Virtual water', 'Urban policy', 'Land allocation', 'Pedestrian zone', 'Incident Command System', 'Seismic analysis', 'Radio-frequency identification', 'Public transport', 'Green building', 'High rise', 'Water market', 'Total maximum daily load', 'Land consolidation', 'Rush hour', 'Information display systems', 'Gross vehicle weight rating', 'Flood preparedness', 'Water resources carrying capacity', 'Sound transmission class', 'Military communications', 'Recreational Safety', 'Construction engineering', 'Noise control', 'Land-use conflict', 'Pollutant transport', 'Snowshoeing', 'Knowledge based development', 'Social research', 'Geomatics engineering', 'Ground plane', 'Urban form', 'Semiotics', 'Flood defence', 'Eu countries', 'Social anthropology', 'Disaster risk reduction', 'Frequency band', 'Adaptive reuse', 'Pedestrian', 'Metropolitan development', 'Urban system', 'Land improvement', 'Modulation', 'Land cover change detection', 'Governmentality', 'Nomenclature of Territorial Units for Statistics', 'Delamination', 'Haze pollution', 'Millimeter wave communication systems', 'Emergency evacuation', 'Measurement while drilling', 'Fire test', 'Road surface temperature', 'Physical exercise', 'Football match', 'Political science', 'Watershed land use', 'Blowout preventer', 'Amateur sports', 'Regional development', 'In-car entertainment', 'Plume dispersion', 'European Single Market', 'Aerotropolis', 'Bourgeoisie', 'Oil pollution', 'Residential land', 'River quality', 'Collective action', 'Radio frequency', 'Ground Level Ozone', 'Air rights', 'Historiography', 'Performance art', 'Well drilling', 'New Deal', 'International Map of the World', 'TA Luft', 'Sustainable regional development', 'Recreational facility', 'AP 42 Compilation of Air Pollutant Emission Factors', 'Grass land', 'Terraced house', 'Spatial strategy', 'Recreational therapy', 'Radio spectrum', 'State highway', 'Landscape diversity', 'Political violence', 'Ozone pollution', 'Limiter', 'Sovereignty', 'Enhanced cooperation', 'Pollution monitoring', 'Lead pollution', 'Database Directive', 'Traffic pollution', 'Super resolution mapping', 'Football', 'Land-use planning', 'Feudalism', 'Sediment contamination', 'Pb pollution', 'Transit-oriented development', 'Communication channel', 'Land cover', 'Offshore drilling', 'Overtaking', 'Active physical exercise', 'School bus', 'Ambient air pollution', 'Soft classification', 'Sedentary group', 'Design guide', 'Road traffic control', 'European Neighbourhood Policy', 'Drilling fluid', 'Stereotype', 'Vehicle miles of travel', 'Economic and monetary union', 'Caste', 'Splice joint', 'Sociology', 'Reverse 911', 'Research question', 'Omnidirectional antenna', 'Northern Dimension', 'Seawater pollution', 'Comparative politics', 'Cycle track', 'Common commercial policy', 'Pseudevernia furfuracea', 'Building life cycle', 'Emergency operations center', 'Air cargo', 'Comprehensive Economic and Trade Agreement', 'Fitness to dive', 'Maintenance management', 'Cycling', 'Seawater quality', 'Unused land', 'Persistent organic pollutant', 'Militant', 'Land-use forecasting', 'Traffic emission', 'Flood mitigation', 'Council of Ministers', 'Traffic flow', 'Digital humanities', 'Urban infrastructure', 'Projectile', 'Thematic resolution', 'Land use policy', 'Place identity', 'Disaster information system', 'Football club', 'Permanent crop', 'Water poverty', 'Rule of law', 'European Spatial Development Perspective', 'Structural material', 'Cultural history', 'Likert scale', 'Pollutant interaction', 'Road cycling', 'Zoning in the United States', 'Banking union', 'Elite', 'Water year', 'Voting', 'Tibouchina pulchra', 'Sanitary sewer', 'Traffic calming', 'Automotive emissions', 'Textile-reinforced concrete', 'Porch', 'Town planning', 'Bed extension', 'Water conservation', 'Peak water', 'Prime farmland', 'Fire detection', 'Hazardous air pollutants', 'Recreational Parks', 'Bending moment', 'Mythology', 'TRANUS', 'Tunnel boring machine', 'Transportation geography', 'Major stationary source', 'Preliminary ruling', 'Rail transportation', 'Immigration policy', 'Therapy recreation', 'Public water system', 'Digital Single Market', 'Clean Air Act', 'Motor boating', 'Town and country planning', 'European paradox', 'Communication source', 'Phosphorus cycling', 'Summer smog', 'Return period', 'Subsidiary protection', 'Rc frames', 'Traffic management', 'Building code', 'Cultural analysis', 'Building renovation', 'Damper', 'Physical water scarcity', 'Narrative', 'Single-family detached home', 'Air quality law', 'Sustainable water management', 'Load cycling', 'Form-based code', 'Environmental dumping', 'Urban design', 'Air pollution meteorology', 'Political science of religion', 'Kinship', 'Distortion', 'Urban climate', 'Drilling rig', 'Mars Exploration Program', 'Federal-aid highway program', 'Prestressed concrete', 'Essentialism', 'Building science', 'Standard cubic foot', 'Biosurvey', 'Culture of the United States', 'Emergency management system', 'Atmospheric dispersion modeling', 'The Renaissance', 'Sociocultural evolution', 'Air pollutants', 'Communication methods', 'Specialized Mobile Radio', 'Planning support systems', 'Ground water pollution', 'Reign', 'Environmental capacity', 'Ekistics', 'Photochemical Assessment Monitoring Station', 'Theories of urban planning', 'Agricultural pollution', 'Taboo', 'Urban Renewals', 'Folklore', 'Transportation planning', 'Modernity', 'Finite element method', 'Impact pathway', 'Leaky feeder', 'Containerization', 'Political sociology', 'Accident analysis', 'Transnationalism', 'Traffic noise', 'Water authority', 'Landscape change', 'Regional planning', 'Water conflict', 'Urban spatial structure', 'Recreation ecology', 'Publics', 'Hole drilling method', 'Truck appointment system', 'Emergency vehicle', 'Amazon rainforest', 'Pollution dispersion', 'Foreign policy', 'Social history', 'Global politics', 'Flood warning', 'Development plan', 'Urban evolution', 'Silence', 'Enclosure', 'Political history', 'Reinforced concrete column', 'Top drive', 'Public opinion', 'Control communications', 'Calamagrostis villosa', 'Brownfield', 'Repertoire', 'Recreation resource planning', 'Flood mapping', 'Construction method', 'Recreational fishing', 'Inflatable', 'Framework decision', 'Football hooliganism', 'Detection theory', 'Emission inventory', 'Broadband', 'Right of way', 'Fire protection', 'Post-occupancy evaluation', 'Water resource development', 'Freshwater resources', 'Branded entertainment', 'Gross efficiency', 'Human evolution', 'River flooding', 'Photochemical pollution', 'Tactical communications system', 'Nested logit', 'Dam failure', 'Central business district', 'Europeanisation', 'Comparative historical research', 'Kuznets curve', 'Transport network', 'International political economy', 'Fortress Europe', 'Concentric zone model', 'Vacuum truck', 'Bike lane', 'Structural engineering', 'Recreation', 'Water supply and demand', 'Chronology', 'Habitus', 'Cultural pluralism', 'Technocracy', 'Air pollution episode', 'Rock cutting', 'Convention on the Protection and Use of Transboundary Watercourses and International Lakes', 'Urban expansion', 'Scale test car', 'Subsidiarity', 'Compact city', 'Recreation therapy', 'Taihu basin', 'Environmentalism', 'Level crossing', 'Irish theatre', 'Water right', 'Sports anaemia', 'Federal Land Policy and Management Act', 'Cultural heritage', 'Land information system', 'Recreational sports', 'Collections maintenance', 'Slope stability', 'Bedroom', 'Masonry heater', 'Flood season', 'Reinforced solid', 'Structural fund', 'Good engineering practice', 'Environmental design and planning', 'Nation state', 'Patriotism', 'Land Values', 'International Geosphere-Biosphere Programme', 'Leaded petrol', 'Exercise-induced asthma', 'Presidency', 'Integrally closed', 'Satellite Image Time Series', 'Transport infrastructure', 'Horizontal wells', 'Exercise tolerance test', 'Media studies', 'In-flight entertainment', 'Earthquake resistant structures', 'Waste framework directive', 'Low frequency', 'Peak power output', 'Passenger transport', 'Computer entertainment', 'Land use pattern', 'Heritage building', 'Street network', 'Disaster operations management', 'Commodification of water', 'Cross-docking', 'Setback', 'Motorboating', 'Political economy', 'Studio', 'National Resources Inventory', 'Soil health', 'Portuguese', 'Normative power', 'Well control', 'Monarchy', 'Cantilever', 'Effluent guidelines', 'Concrete pump', 'Emergency planning', 'House of Representatives', 'Turnout', 'Optical switch', 'Flood forecasting', 'Car sharing', 'Euro currency', 'Mode of transport', 'Pickup truck', 'Multi-level governance', 'Pesticide pollution', 'Normal strength concrete', 'Constructability', 'Cellular network', 'Air quality monitoring', 'Occupancy', 'Land quality', 'Emergency management', 'Popular culture', 'Life-cycle cost analysis', 'Pallet jack', 'Network architecture', 'Field hockey', 'Hydrocarbon pollution', 'Global Positioning System', 'Anchoring', 'Regional studies', 'Sustained exercise', 'Land type', 'Urban noise', 'Urban water demand', 'Local area network', 'Dipole antenna', 'Marxist philosophy', 'Maximum likelihood classifier', 'Private well', 'Subsurface utility engineering', 'Exclusionary zoning', 'River engineering', 'Isodapane', 'Landfill Directive', 'Lisbon Strategy', 'Traffic engineering', 'Land conversion', 'Regional science', 'Land resources', 'Water trading', 'Residential density', 'Humanism', 'Communicative planning', 'Interpreter', 'Dam Collapse', 'Transportation infrastructure', 'Urban road', 'Comparative research', 'Class conflict', 'Contribution function', 'Locking mechanism', 'Entertainment technology', 'Xanthoria fallax', 'Aerodynamic diameter', 'Abutment', 'Noise annoyance', 'Ramalina lacera', 'Illusion', 'Collar', 'Excessive physical exercise', 'Water development', 'Transmission line', 'National Hydrography Dataset', 'Social order', 'Panel truck', 'Directional drilling', 'Steel fibre', 'Bottom hole assembly', 'Impact studies', 'American history', 'Biosequestration', 'Uniformat', 'Renting', 'Bond slip', 'Water vulnerability', 'Conventional pollutant', 'Air quality index', 'Highway engineering', 'Mixed-use development', 'Lichen material', 'Thermal pollution', 'French', 'Housing design', 'Disaster vulnerability', 'General election', 'Persona', 'Sea pollution', 'Water sharing', 'Hybridity', 'Land fragmentation', 'International relations', 'Road texture', 'American football', 'Leisure Skills', 'Water pollution in India', 'Biological pollution', 'Land user', 'Victory', 'Hole making', 'Construction management', 'Real time communication systems', 'Architectural engineering', 'Road surface roughness', 'Football soccer', 'Land use land cover', 'Landscape design', 'Disaster preparedness', 'Water sector', 'Toxic pollution', 'Forest cover', 'Accidental pollution', 'Levee', 'Traffic sign', 'Welfare state', 'Cross-border cooperation', 'Bridge inspection', 'Excavator', 'Drinking water quality standards', 'Disaster management system', 'Empire', 'Low-flow irrigation systems', 'Railway engineering', 'Political culture', 'Construction design', 'Hegemony', 'Transmitter', 'Headway', 'Pedagogy', 'Bureaucracy', 'American political science', 'Socialism', 'Federalism', 'Public choice', 'Disaster impact', 'Ocean pollution', 'Free throw', 'Water withdrawal', 'Nitrogen dioxide', 'Territorial development', 'Jurisprudence', 'Laser drilling', 'Trailer truck', 'Literary criticism', 'Geotechnics', 'Urban simulation', 'Flood detection', 'Legitimacy', 'Stress concentration', 'Environmental inequality', 'Polity', 'Urban model', 'Flavoparmelia caperata', 'Basketball court', 'Circumcellions', 'Match fixing', 'Pollution water', 'Rural land', 'Cultural studies', 'Political philosophy', 'Two-way communication', 'Apartment', 'Water resource planning', 'General Data Protection Regulation', 'Human geography', 'Civil engineering software', 'Installation Review', 'Water supply', 'Urban geography', 'Silicon on insulator', 'Criminology', 'Game refinement theory', 'Crop land', 'Movie theater', 'Football stadium', 'Ideology', 'Nutrient pollution', 'Colonialism', 'Pollution', 'Water resources', 'Cold war', 'Bending', 'Wireless', 'Demolition', 'Roadway noise', 'Surface water resources', 'Gender studies', 'Vehicular pollution', 'Law and economics', 'Liberalism', 'Political change', 'Knowledge City', 'Curse', 'Tank truck', 'Particulate pollution', 'Social organization', 'Breakage', 'Cultural exception', 'Prime minister', 'River pollution', 'Semi-trailer', 'Cultivated land', 'Politics of the United States', 'Electrical conduit', 'Drilling', 'Musical', 'Light machinery', 'National Ambient Air Quality Standards', 'Concrete cover', 'Pacs radiology', 'Urban resilience', 'Microbial pollution', 'Off road cycling', 'Entertainment', 'Typology', 'Civil liberties', 'Exercise trends', 'Salary cap', 'Dublin Regulation', 'Thrust', 'Maximum likelihood classification', 'International airport', 'Pollution prevention', 'Town centre', 'Bicycle performance', 'Bathing Beaches', 'Airshed', 'Social structure', 'Handover', 'Noise regulation', 'Public debate', 'High ozone', 'Land rights', 'Severance', 'Multiplexer', 'Urban consolidation', 'Water pricing', 'Ambient air', 'Arabic', 'Land use mapping', 'Construction planning', 'Right angle', 'Building design', 'Underpinning', 'Hydraulic engineering', 'Dance', 'Insertion loss', 'Emancipation', 'Detector', 'Modified Compression Field Theory', 'Urban studies', 'European union', 'Macro-engineering', 'Iron redox', 'Oil well drilling', 'Plastic pollution', 'Disaster plan', 'Entertainment industry', 'Neoliberalism', 'Directional well', 'Traffic conditions', 'Ethnic group', 'Porter hypothesis', 'Subjectivity', 'The arts', 'Public health preparedness', 'Spectral density', 'Water reform', 'Socrates programme', 'Separation of powers', 'Appropriation', 'Open method of coordination', 'Boil-water advisory', 'Identity politics', 'Traffic system', 'Land market', 'Geometric design', 'Facade', 'Geopolitics', 'Trucking industry', 'Member states', 'Drilling and blasting', 'Farmland protection', 'Stiffness', 'Municipal planning', 'Landscape dynamics', 'Propeller', 'Flood risk management', 'Anthropogenic pollution', 'European Arrest Warrant', 'Design speed', 'Urban change', 'Homeland', 'Logging while drilling', 'Proposition', 'Transatlantic Trade and Investment Partnership', 'Communism', 'Site plan', 'Moment-resisting frame', 'Parliament', 'Portrait', 'Slam-dunk', 'Local climate zone', 'Strategic urban planning', 'Parmotrema praesorediosum', 'Rate of penetration', 'Traffic congestion', 'Football field', 'Punctuality', 'Flood tide', 'Telecommunications', 'European integration', 'Flood defense', 'Rational planning model', 'Disaster nursing', 'Elaboration', 'Certificate of occupancy', 'Content analysis', 'Zoning', 'Colored', 'Thematic layer', 'Membrane action', 'Industrial pollution', 'Doors', 'Road networks', 'Reinforcement corrosion', 'Common Security and Defence Policy', 'Spell', 'European commission', 'Precycling', 'Carriageway', 'Ultimate tensile strength', 'Central place theory', 'Communication', 'Air pollution in India', 'Cultural identity', 'Civic engagement', 'Democracy', 'Arsenic pollution', 'Air quality management', 'Vehicular Emissions', 'Subgrade', 'Presidential system', 'Moderate exercise', 'Shotcrete', 'Water supply network', 'Eurobarometer', 'Water sustainability', 'Comprehension', 'Football team', 'ESPACE', 'Basketball', 'Driveway', 'Advanced wide field sensor', 'Single currency', 'Land transformation', 'European social model', 'Land use allocation', 'Compressive strength', 'Roundabout', 'American studies', 'Atmospheric pollution', 'Street hierarchy', 'Realisation', 'Earthworks', 'Idle reduction', 'Impervious surface area', 'Air transport', 'Economic reform', 'Argumentation theory', 'Recreation equipment', 'Land scarcity', 'Traffic network', 'Roadway air dispersion modeling', 'Basketball games', 'Fibre-reinforced plastic', 'Emission tax', 'Water resource policy', 'Water resources of China', 'Flood insurance', 'Ranging', 'Leisure studies', 'International community', 'Chaotic modulation', 'Masonry', 'Convention on Long-Range Transboundary Air Pollution', 'Biopower', 'Flood pulse concept', 'Land development', 'Public sphere', 'Ozone fumigation', 'Preparedness planning', 'Prolonged exercise', 'Ukrainian crisis', 'Water utility', 'Sensor array', 'Air pollution in the United Kingdom', 'Deep drilling', 'Dialectic', 'Reinforced concrete', 'Single market', 'Highway maintenance', 'Diffuse pollution', 'Coil spring', 'Urban analysis', 'Postcolonialism', 'College football', 'Road transport', 'Building information modeling', 'Political communication', 'Water industry', 'African studies', 'Built-up area', 'Collective identity', 'Free market', 'Optical communication', 'Sustainable land management', 'Urban governance', 'Land use model', 'Car parking', 'Frp reinforcement', 'Vehicle type', 'Land clearance', 'Public drinking', 'Disaster education', 'Parmotrema austrosinense', 'Diaspora', 'Maxima and minima', 'Telephone line', 'Interview', 'Lane departure warning system', 'Land use map', 'Telephony', 'Fiber optic communication systems', 'Devolution', 'Cycling helmet', 'Terrain', 'Shelter in place', 'Transportation industry', 'Locally unwanted land use', 'Hobby', 'Political radicalism', 'Flash flood', 'Ethnocentrism', 'Drama', 'Quantitative research', 'Satellite image classification', 'Neighbourhood character', 'Hypogymnia physodes', 'Land take', 'Transportation Noises', 'Cultural anthropology', 'Flood prevention', 'Multiplexing', 'Public bad', 'Trip generation', 'Transport economics', 'Sociolinguistics', 'Outdoor recreation area', 'Mud pump', 'Time trial', 'Water company', 'Water demand', 'Seismic risk', 'Capitalism', 'Water banking', 'Truck', 'Sliding glass door', 'Sustainable city', 'Collective behavior', 'Dissent', 'Noise pollution', 'Coring', 'Travel cost', 'Time series study', 'Civil engineering', 'Cosmopolitanism', 'Eco-cities', 'Home advantage', 'Urban density', 'Trans-European Transport Networks', 'Water demand management', 'Human comfort', 'Acid deposition', 'Inhalable particles', 'Aristocracy', 'Tunnel construction', 'Sagebrush Rebellion', 'Diplodus sargus capensis', 'Parking lot', 'Building inspection', 'Wildland fire emission', 'Industrial land', 'Municipal solid waste', 'European policy', 'Scientific drilling', 'Air Pollution Index', 'Africover', 'Farmland preservation', 'Noise Control Act', 'Nonprobability sampling', 'Background pollution', 'Change vector analysis', 'Material properties', 'Social contract', 'Pollutant flux', 'Assimilative capacity', 'Civilization', 'Land suitability', 'Land cover land use', 'Feminist theory', 'Land productivity', 'Travel time', 'HUD USER', 'Urban dweller', 'Surface water pollution', 'Drinking water pollution', 'Social conflict', 'Microplastics', 'Accident risk', 'Civil Emergency Message', 'Longitudinal direction', 'Advocate General', 'Land use change modeling', 'Taxis', 'Smart growth', 'Telecommunications network', 'Non-revenue water', 'Air emission', 'Insurgency', 'Guiding Principles', 'Industrial emission', 'Social dumping', 'Flexural strength', 'Oral history', 'Fiber-reinforced concrete', 'Quality of service', 'Member state', 'Historical geographic information system', 'Railway transportation', 'Sustainable urbanization', 'Ambivalence', 'Motor carrier', 'Transport engineering', 'Interlocking', 'Urban sprawl', 'Formation evaluation', 'Bobbin', 'Flood water', 'Rail network', 'Salt extraction process', 'Man-Made Disasters', 'Driver support systems', 'Diplomacy', 'Provenance', 'Subdivision', 'Disaster mitigation', 'Excavation', 'Infill wall', 'Ozone exposure', 'Urban rail transit', 'Mineral wool', 'Land change', 'Economic Partnership Agreements', 'Sociological imagination', 'Flood hazard', 'Deficit irrigation', 'MegaTexture', 'Ambient monitoring', 'Oppression', 'Fantasy', 'Non-attainment area', 'UrbanSim', 'Building management', 'Truck camper', 'Built environment', 'Forklift truck', 'Highway system', 'Referendum', 'Disaster planning', 'Polycentrism', 'Urban water supply', 'Land use', 'European Union law', 'Urban services', 'Hasta', 'Redevelopment', 'Poetry', 'Surface urban heat island', 'City region', 'Ramalina celastri', 'Pachymetopon grande', 'Smart lighting', 'Cross-border region', 'Floodplain restoration', 'Bicycle commuting', 'Tapered element oscillating microbalance', 'Drilling riser', 'Spectrum analyzer', 'Politics', 'Airport city', 'Infiltration gallery', 'Urban sustainability', 'Pollution haven hypothesis', 'Embodied energy', 'Recreational use of nitrous oxide', 'Rail transit', 'Watershed Central', 'Hydraulic structure']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2777228553', '2780591428', '116081451', '203299862', '71760877', '2775991983', '537935012', '195251586', '162044005', '157181609', '2780871342', '198211336', '541743481', '522453465', '2910945715', '2777800518', '2776952685', '2778554111', '182358397', '83091593', '125109622', '2776663400', '2780997931', '2777855027', '2781039245', '2781188222', '2911003279', '2781261322', '521449643', '151807755', '70970002', '2780512908', '74294582', '82447923', '115901376', '168703024', '2778399496', '2779236963', '48580701', '2780048828', '68643176', '129603779', '115051666', '113145756', '168630323', '1975866', '2778289769', '101336846', '2780948093', '122156500', '2776756561', '2776310101', '88477975', '90327742', '2781007418', '2780188654', '2777257828', '175668461', '19165224', '198104137', '2780521143', '2776045127', '535247945', '2780210451', '45051096', '2778787886', '179056299', '2776941537', '2781323617', '84703498', '128570904', '2777362114', '22590252', '60943498', '202372285', '155632674', '70036468', '142600807', '2781440851', '2778844933', '2778603423', '2780918802', '2781119000', '2781098347', '2780035574', '2779434045', '76251814', '168500671', '18065371', '2776974504', '26834231', '178895491', '2776018353', '2777579922', '2780746032', '60075419', '2780723490', '2776906386', '78390623', '205300905', '2779331490', '2780153333', '185656870', '166957645', '20664614', '2910447950', '2778192778', '83874454', '158739034', '54956558', '2777874013', '159607974', '94915269', '42045870', '10708705', '88732821', '140816417', '118519418', '48777230', '96455323', '196313609', '184978287', '2779850767', '2909248125', '107179328', '198766705', '160159729', '108115952', '2777534865', '2778674798', '2779622097', '13184196', '120177712', '2779589656', '2910057652', '2778379900', '2908558976', '539828613', '2777075199', '64004221', '179428456', '205507351', '2909338199', '184568831', '161840515', '2779560216', '2781123702', '2777939785', '28519872', '62908951', '206182792', '153823671', '2776027161', '59742305', '35219183', '2778448659', '2909564673', '111141941', '43472768', '2776508417', '2776061582', '2779128587', '2917558', '2776862752', '179454799', '542948173', '83854009', '182664415', '2910974233', '2777212017', '2780124536', '193415008', '22212356', '200925200', '2777908580', '174378899', '1511901', '79416576', '173560066', '2780811172', '2780524430', '150513403', '102017705', '107993555', '2910182162', '76344452', '86565373', '2909225797', '2909330249', '2777006239', '20625102', '558565934', '129216166', '2778348292', '79420006', '2779794841', '2777275194', '2778711553', '85502023', '141392084', '144024400', '100339178', '2776129789', '104304963', '2780805606', '2779611286', '2779973342', '2910590855', '115314567', '2779888511', '2777867213', '17005505', '2909959731', '156996364', '523173360', '2779910686', '186633575', '2781353297', '2781360730', '2779367526', '2777060902', '2781175455', '2775859345', '176205827', '91724965', '2778583747', '109332788', '2780049196', '2776702403', '2778611045', '2777874752', '2776386368', '2775944049', '130858481', '2780957641', '2780974818', '2780840815', '2776358401', '2779593531', '2778765059', '134698397', '178405089', '176165272', '2780304933', '2781409727', '126408429', '29595303', '45262634', '2780037060', '2781051360', '7991579', '93907247', '5455396', '2910577671', '2908570603', '2779578543', '2781428518', '2909148179', '2777087718', '2775910013', '2778259003', '2776325102', '2778351437', '92545706', '557252395', '2779016933', '2777426340', '75058329', '2780166988', '2778587875', '2909047701', '24992206', '66251956', '138660444', '159032367', '167272206', '183195422', '140096630', '2777638134', '2779534186', '69828861', '60229501', '2781065775', '542344755', '146847282', '2781194246', '2777420705', '2778896325', '2778066700', '2780903623', '2781115785', '46890581', '501299471', '41376638', '168110828', '2776150259', '313442', '2777958785', '112950240', '2780858551', '181588539', '2776121688', '2779442796', '115225779', '89836073', '108865711', '45012715', '2778825863', '60671577', '2781396848', '7131667', '106982986', '31555180', '2780054715', '2780642392', '139997677', '94625758', '2777130432', '19417346', '2778152846', '189764856', '2909682003', '2779725038', '46295352', '2909452073', '4590074', '535291247', '2776044436', '121850381', '2776576667', '2779980673', '2778880830', '103189561', '49545453', '141321718', '38976095', '195358072', '2780836893', '2909120509', '147176958', '192360978', '2776114235', '139228662', '96756911', '137471899', '111852164', '2780481019', '174577910', '2779892437', '137270730', '2776834102', '2776814445', '121658072', '2909603817', '87616379', '192465680', '75007070', '24027999', '2780248506', '533735693', '2910478969', '520944541', '120417685', '2777175953', '126182222', '157150851', '2779204379', '2779548549', '555944384', '147446459', '29760336', '139838865', '148803439', '156945495', '199733313', '207141826', '170154142', '957061', '36375443', '2780400498', '2780433478', '25197100', '2778679906', '15708023', '2776202055', '2778647138', '2780943443', '2778744706', '148383697', '2776109892', '2779679337', '2910721061', '2777397581', '29852176', '2776001114', '2776619914', '135121143', '2777427512', '2776443958', '145985676', '2908584064', '2780302720', '2781190202', '521259446', '2776825979', '547727832', '129404179', '2779015675', '181290262', '2780113678', '25906391', '198428699', '187109078', '2777932401', '2909838491', '2779715073', '2781451986', '70789860', '34863106', '98528937', '69752020', '519517224', '2779888377', '2779240695', '2778307483', '190839683', '556340858', '137403100', '545464746', '39853841', '2909365296', '2780155792', '178021490', '20429076', '2781153986', '539955404', '110069353', '2776432587', '2777463520', '86811826', '2777301445', '77352025', '2779192218', '118817725', '144468803', '2779872411', '150486481', '143389717', '2778473898', '2780661145', '7879346', '2908779215', '2908581758', '2779276850', '2909982710', '190974861', '2910658325', '151043444', '2780434240', '2779028185', '1813318', '88743934', '2777137744', '2779470537', '2780039742', '17206440', '124363303', '2778444522', '81307892', '52069626', '2775889553', '2780783439', '2778289140', '82834280', '3090818', '86085837', '2777690665', '2909151537', '24845683', '2779529814', '2778664945', '89862778', '153606108', '2776689826', '87801611', '39118121', '143700406', '487182', '102690226', '2780028911', '202889954', '2778682666', '78175975', '2780039695', '2776280689', '2777080691', '2909555395', '2776217029', '181536285', '2777305159', '46312422', '2778368647', '152781226', '2777967642', '197487636', '2779154964', '134387633', '71043370', '2778788726', '2778073708', '190253527', '2778495208', '2909765031', '2777380792', '202976495', '70673446', '95389739', '93419950', '2776693075', '66098623', '411171', '2779286702', '2776100843', '2777570903', '76155785', '2780648208', '2779372316', '184386139', '112788895', '196927870', '79841651', '2776489436', '2779382934', '99546132', '2778222686', '202746551', '2781143826', '2779369318', '2781233791', '2908658969', '2779821363', '31168002', '2779322298', '80055088', '2776878354', '2778501065', '2777543776', '2776497017', '70135194', '90508534', '2781462389', '2778632908', '31858485', '171675602', '143392562', '2780300654', '2777788812', '107053488', '61470247', '2778747861', '2778416130', '534859617', '507571656', '2781448223', '2910321540', '2910432382', '2778021871', '2777341207', '2780831121', '129047720', '2779449393', '2779422429', '511192102', '151405878', '2778842010', '19185018', '2909715940', '179933525', '105636585', '152068911', '2781243023', '2777663346', '62555980', '7576483', '2776720842', '2777152325', '10187730', '2776081408', '2780401329', '2908983889', '66862320', '24351657', '71343576', '151915780', '19275194', '4792198', '141354745', '105297191', '2781283787', '80502414', '2781112155', '162127614', '178001088', '2775905063', '196187386', '184603391', '522562087', '47654990', '83931994', '2780886216', '2909332087', '2775987171', '2780185008', '2775923278', '2780136137', '115038398', '129727815', '2910524034', '2780849931', '511693568', '91649852', '190714865', '93371752', '2779548288', '2776724182', '110158866', '30407753', '90296322', '2780492012', '2780105985', '2780884937', '205059728', '2776777543', '73484699', '89505729', '17744445', '520049643', '6405874', '43126263', '504623915', '87210426', '2909933726', '2777636896', '6514731', '190475667', '2778206830', '192126672', '2910740281', '29944414', '2777853934', '2777071753', '16678853', '126053111', '2780290438', '2776300232', '2778444957', '59361812', '2776431611', '2781077476', '122783720', '52121051', '2780237831', '2777881528', '171710264', '2778904306', '2778407155', '203458295', '2779509574', '160331591', '2780822005', '135628077', '2779676996', '2777084153', '531593650', '57097009', '122445209', '514689293', '2777819797', '39014021', '2778099469', '2778512005', '2777294933', '2549261', '101765175', '143845886', '536315585', '518914266', '2777434770', '509933004', '164913051', '109717640', '34355311', '2910093468', '2776618947', '2780750338', '2908647359', '87427459', '158049464', '2779507241', '183373512', '2779126505', '2776568704', '2776786559', '2779833838', '2776668771', '2778407992', '2780086982', '2776692393', '203404855', '39323472', '2776985863', '2777564511', '2779808665', '79581498', '144348335', '2781101838', '153646914', '91802169', '189807693', '199491958', '2780499841', '162084716', '2777856039', '533584247', '33285361', '535899295', '2780781376', '199033989', '122302079', '2775896111', '2777966427', '162446236', '541528975', '71197132', '40319758', '2777404476', '2779152076', '107245137', '75779659', '149039472', '2778330403', '2776931063', '195092306', '2777388718', '53143962', '18533594', '199540501', '202702835', '532444271', '2780132705', '2776732289', '189261614', '13951911', '71839028', '2778226110', '21955270', '186764553', '2777735972', '6385141', '97053079', '2779449021', '2910645917', '2780278329', '15970080', '2776648845', '134512083', '2776873955', '2909978109', '2778580826', '67805463', '2776526686', '185671874', '9664280', '2780743171', '2780933944', '2777805627', '2780545837', '2776114971', '201662476', '198394728', '27017288', '2779265402', '130367717', '2776118319', '2776774022', '54726253', '132943942', '123253695', '2776136241', '2780000280', '37680443', '2910195350', '538383745', '29598333', '2909294104', '2777412237', '45011657', '88764893', '136591941', '51575053', '2778165684', '190414344', '2775953033', '2779610281', '2777408017', '2776506782', '2909124907', '2776930917', '104151175', '16310917', '2778531465', '139450603', '42222113', '2778680390', '2779488668', '2780656496', '136325355', '157085824', '2780784464', '2779534744', '2779679713', '109157449', '125209513', '2909261609', '2778343834', '540269800', '184047640', '2777812597', '2781063802', '120144228', '82685317', '110269972', '533363959', '2778506879', '526067405', '2775867413', '2779319121', '2779567914', '67203356', '94128814', '153683151', '179708759', '2780934355', '2779095084', '2778924504', '2776614217', '2780771206', '2781180020', '33441834', '2780273121', '2910149960', '111943024', '2778437332', '2779838221', '141108527', '133437341', '76775654', '185554395', '61703769', '2910765183', '142932270', '186229450', '2779462738', '1631582', '523419034', '2780399737', '2778170267', '158007255', '2909984675', '18483071', '2775835988', '182377489', '2778166243', '162462552', '2779184092', '83260615', '74819829', '2780620191', '49304495', '2780015235', '2776682078', '2777408600', '2781036520', '138921699', '2779979769', '519580073', '2776547389', '2779781407', '2777944934', '2777384549', '112124176', '2778652117', '2778304562', '2781337099', '122341333', '510578393', '101351245', '2776743756', '519458232', '65059942', '554144382', '117110933', '127145964', '151873908', '2777790407', '2781328080', '514928085', '2777887517', '2776757670', '2777891301', '2777952150', '2777933884', '76458491', '47796450', '4238864', '2780210587', '2776809989', '2910001868', '2779707719', '145788326', '2776407761', '100363876', '2777068528', '2780400262', '2776371253', '201960208', '2778258037', '2777060688', '24890656', '2778203884', '2909426805', '146419311', '2780310989', '2777404366', '2780147423', '89648432', '2777268604', '98940541', '2778215892', '167290972', '2778240362', '2777371558', '2779220109', '2779948615', '2910395587', '105776082', '2780612607', '158071213', '144543869', '12429862', '16160715', '2778906150', '96089941', '2780165032', '555826173', '116822448', '190831278', '13553968', '2777747429', '10118631', '2778309149', '66938386', '2776323365', '39077098', '2777103469', '94602187', '49876356', '2780936489', '172614296', '2776867882', '93377909', '2777113093', '75795011', '154108245', '99484651', '2777550018', '26623033', '200070095', '92025527', '86532276', '17084088', '51413319', '2779533120', '537397655', '2777773042', '196687647', '163428354', '58276294', '2777861868', '2780978496', '512170562', '149923435', '19096712', '2780032489', '28539199', '55958113', '152754458', '2775838644', '2778944020', '91021667', '160487506', '513891491', '2778537189', '2778625738', '2778207038', '152232337', '152192407', '2779387731', '2777162435', '2780018693', '108257041', '98375054', '2778924419', '2781469121', '2910252045', '47798520']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Reign', 'Accident analysis', 'Language transfer', 'Shotcrete', 'Cultural identity', 'Asset-based community development', 'Urban decay', 'Demodulation', 'Bioarchaeology', 'Sustainable transport', 'Underpinning', 'Fortification', 'Archaeological science', 'Social research', 'Pollutant transport', 'Mineral wool', 'Building management', 'Sound level meter', 'Seismic analysis', 'Biocommunication', 'Social history', 'Publics', 'Laser drilling', 'Preliminary ruling', 'Severance', 'Grassroots', 'Recreational facility', 'Home advantage', 'Nationalism', 'Ecotourism', 'Multiplexer', 'TA Luft', 'Urban sociology', 'Sagebrush Rebellion', 'Automation', 'Major stationary source', 'Transit-oriented development', 'Microeconomic reform', 'French', 'Public bad', 'Cultural studies', 'Welfare state', 'Ranging', 'Dipole antenna', 'Directional drilling', 'Level crossing', 'Bedroom', 'Optical switch', 'International Geosphere-Biosphere Programme', 'Fire protection', 'Xeriscaping', 'Global governance', 'Broadbanding', 'Insertion loss', 'Capacity planning', 'Ecovillage', 'Virtual archaeology', 'Active fire protection', 'Anthropology', 'Communication source', 'State highway', 'Irish theatre', 'Vehicle emissions control', 'Climate risk', 'Single market', 'Positive train control', 'Landscape contracting', 'Banking union', 'Pedestrian zone', 'Free boundary condition', 'Building', 'Advocate General', 'Shortest path problem', 'Water resource policy', 'Human resource management', 'Convection heater', 'Immigration', 'Open network architecture', 'Parliament', 'Interlocking', 'City region', 'Repopulation', 'Conditioners', 'Green roof', 'Multilingualism', 'Driveway', 'Recreational therapy', 'Transport economics', 'Geoarchaeology', 'Bicultural identity', 'Political sociology', 'Social structure', 'Rural community development', 'Rush hour', 'Economic partnership agreement', 'Fire damper', 'Nitrogen dioxide', 'Urban consolidation', 'Totally integrated automation', 'Urban design', 'Flat roof', 'Europeanisation', 'Technocracy', 'Archaeology', 'Urban ecosystem', 'Basketball court', 'Groundwater pollution', 'Terraced house', 'Metropolitan area', 'Modulation', 'Urban politics', 'Flood pulse concept', 'Detector', 'Mixed boundary condition', 'Africana studies', "Newell's car-following model", 'Zero population growth', 'Reinforced solid', 'Abutment', 'Arabic', 'Land improvement', 'Zero-energy building', 'E-democracy', 'Bathing Beaches', 'Sustainable Drainage System', 'Infantry', 'Class conflict', 'Comparative research', 'Land consolidation', 'Digital preservation', 'Capacity building', 'Dialectic', 'Transportation geography', 'Water supply network', 'Entity identifier', 'Good engineering practice', 'Leaded petrol', 'Public transport', 'Cosmopolitanism', 'T-beam', 'Biosemiotics', 'Drilling and blasting', 'Tunnel under construction', 'Socially optimal firm size', 'Terrain', 'Portal axle', 'Governing Council', 'Economic Partnership Agreements', 'Sociolinguistics', 'Central government', 'Civil engineering software', 'Water resources', 'Forest dieback', 'General election', 'Portuguese', 'Overtaking', 'Fatigue Problem', 'Immigration policy', 'Turn-by-turn navigation', 'Belite', 'Mobile edge computing', 'Language Management', 'Ligne', 'Political communications', 'Ethnography', 'Communism', 'Environmental design', 'Coil spring', 'Unleaded petrol', 'Building code', 'Air Transport Network', 'Network architecture', 'Transport engineering', 'STRIPS', 'Recreation ecology', 'Sustainable community', 'Geomatics engineering', 'African studies', 'Interior design', 'Excommunication', 'Hasta', 'Effluent guidelines', 'Delimiter', 'Gender studies', 'Trucking industry', 'Fibre-reinforced plastic', 'Social anthropology', 'Derealisation', 'Zebra crossing', 'Geosteering', 'Corrosion', 'Musical', 'Natural landscape', 'Identity politics', 'Thrust', 'Historical ecology', 'European Arrest Warrant', 'Transport network', 'Renting', 'Excavator', 'Sociology', 'Collective behavior', 'Presidential election', 'Durability', 'Tank truck', 'L-number', 'Environmental Performance Index', 'Sustained exercise', 'European Union law', 'Traffic congestion', 'European Spatial Development Perspective', 'Energy recovery ventilation', 'Recreation therapy', 'Communication channel', 'Dissent', 'Reappropriation', 'Maxima and minima', 'Traffic noise', 'Aerotropolis', 'Hybridity', 'Air pollution episode', 'World energy consumption', 'Virtual heritage', 'Farm water', 'Biopower', 'Upcycling', 'Economic efficiency', 'Provenance', 'Mud pump', 'Diaspora', 'Outburst flood', 'Logging while drilling', 'Strategic urban planning', 'Noise pollution', 'Spell', 'Oral history', 'Pseudevernia furfuracea', 'Eco-cities', 'Design speed', 'Concrete pump', 'Public opinion', 'Flexural strength', 'Human resource management system', 'Cultural pluralism', 'Stationary engine', 'Soil health', 'Media studies', 'Conditioning', 'Cross-border region', 'Knowledge City', 'Criticism', 'Geotechnics', 'Aristocracy', 'Bed extension', 'Project Officer', 'Technical progress', 'Natural building', 'Visual reinforcement audiometry', 'Radiant cooling', 'Nation state', 'Building inspection', 'Water-use efficiency', 'Metacomprehension', 'Radio spectrum', 'Diplomacy', 'Fiber-reinforced concrete', 'Demographic surveillance system', 'Leisure studies', 'Transatlantic Trade and Investment Partnership', 'Predistortion', 'Disaster nursing', 'Roadway noise', 'Sensor array', 'Telecommunications link', 'Sociology of language', 'Traffic intensity', 'Flood forecasting', 'Damper', 'University system', 'Cycle track', 'Austerity', 'Global Positioning System', 'Cohousing', 'Looted art', 'Subsidiarity', 'FM transmitter', 'Flood mitigation', 'Lisbon Strategy', 'Convention for the Safeguarding of the Intangible Cultural Heritage', 'Cross-border cooperation', 'Silence', 'Scientific drilling', 'Socialism', 'Flight simulator', 'Spectral density', 'Automobile dependency', 'Persona', 'Resource efficiency', 'Ultimate tensile strength', 'Misappropriation', 'Physical exercise', 'Virtual water', 'Communications-based train control', 'Distortion', 'Electrical conduit', 'Landscape design', 'Studio', 'Fire extinguisher', 'Cultural heritage', 'Social infrastructure', 'Delamination', 'Noise barrier', 'Material properties', 'Drilling rig', 'Idle reduction', 'Semiotics', 'Politics', 'Framework decision', 'Pedagogy', 'R-symmetry', 'Atmospheric dispersion modeling', 'Pollution water', 'Biodemography', 'Legitimacy', 'Euro currency', 'Community', 'Amazon rainforest', 'Persistent organic pollutant', 'Certified wood', 'Biofortification', 'Fitness to dive', 'Homeland', 'Basketball', 'Urban planning', 'Zooarchaeology', 'Asymmetry', 'Telephony', 'Fire detection', 'Transport medium', 'Civil engineering', 'Nomenclature of Territorial Units for Statistics', 'Digital Single Market', 'Comparative historical research', 'Political science of religion', 'Local area network', 'Handover', 'Kuznets curve', 'Instrument meteorological conditions', 'Plastic pollution', 'Detection theory', 'Land consumption', 'Common commercial policy', 'Neoliberalism', 'Dam Collapse', 'International development', 'Precondition', 'Return period', 'Omnidirectional antenna', 'Community management', 'Federalism', 'Ground Level Ozone', 'Zoning', 'Flash flood', 'Green exercise', 'Splice joint', 'Feminist theory', 'Farmland protection', 'Punctuality', 'Wireless', 'Dance', 'Site plan', 'Racism', 'Built environment', 'Earthworks', 'Population density', 'Urbanism', 'Architectural engineering', 'Noise regulation', 'Rational planning model', 'Retranslation', 'European social model', 'Drilling', 'Dublin Regulation', 'Humanities', 'Automatic train operation', 'Salary cap', 'Telecommunications cable', 'Europeanism', 'Regional science', 'Economic and monetary union', 'International airport', 'Recreational Parks', 'Flavoparmelia caperata', 'Critical infrastructure', 'Indigenous rights', 'Fire suppression system', 'Hegemony', 'Parking lot', 'ESPACE', 'Performance-based navigation', 'Leisure Skills', 'GSM-R', 'Bottom hole assembly', 'Pollution', 'Residential area', 'Liberalism', 'Optical communication', 'Breakage', 'Ekistics', 'Facade', 'Hop (telecommunications)', 'Environmental degradation', 'Non-revenue water', 'Collective action', 'Telephone Hotline', 'Fortress Europe', 'Cross-docking', 'The arts', 'Linguistic demography', 'Social conflict', 'Building science', 'Mythology', 'Open method of coordination', 'Headway', 'Colored', 'Train', 'Language policy', 'Ethnic group', 'Military communications', 'Urbanization', 'Temperature control mode', 'Redevelopment', 'Cultural analysis', 'Public choice', 'Emancipation', 'Flood control', 'Slope stability', 'Tapered element oscillating microbalance', 'Porter hypothesis', 'Wing configuration', 'Neocolonialism', 'Population growth', 'Elaboration', 'Place identity', 'Mixed finite element method', 'International community', 'Lift coefficient', 'Prime farmland', 'Repertoire', 'Top drive', 'Hydraulic engineering', 'Lead pollution', 'Immunity Testing', 'Compact city', 'Recommendations or guidelines', 'European integration', 'Flood water', 'Lane departure warning system', 'Urban rail transit', 'Directional well', 'Language industry', 'Hydraulic structure', 'Blowout preventer', 'Urban studies', 'Urban resilience', 'Land development', 'Fire test', 'Football', 'Political culture', 'The Renaissance', 'Satellite Image Time Series', 'Heritage interpretation', 'Textile-reinforced concrete', 'Comparative politics', 'General Data Protection Regulation', 'Site analysis', 'New political economy', 'Disaster Victims', 'Interview', 'European Single Market', 'Pollution haven hypothesis', 'Air rights', 'Humanism', 'Convention on Long-Range Transboundary Air Pollution', 'C-number', 'Transportation planning', 'Maritime archaeology', 'Urban sprawl', 'Cultural anthropology', 'Building material', 'Subjectivity', 'Modernity', 'Design for the Environment', 'Cultural exception', 'Community of practice', 'Emergency operations center', 'Preservation solutions', 'Football hooliganism', 'Chronology', 'Fleet management', 'Communication', 'Urban area', 'Sound transmission class', 'Eurobarometer', 'Presidential system', 'Semi-trailer', 'Domestication', 'Jurisprudence', 'Air cargo', 'Language development', 'Law and economics', 'Empire', 'Hypogymnia physodes', 'Exclusionary zoning', 'Planning', 'Bending moment', 'Social order', 'Nutrient pollution', 'Match fixing', 'Inflatable', 'Habitus', 'Ukrainian crisis', 'Community-based care', 'Air Pollution Index', 'Telecommunications', 'Land cover', 'Stiffness', 'Bourgeoisie', 'Control communications', 'International relations theory', 'Political philosophy', 'Sliding glass door', 'Local Development', 'Peak water', 'Feminist film theory', 'Geochronology', 'Offshore drilling', 'UrbanSim', 'Well drilling', 'Private public', 'Containerization', 'International political economy', 'River engineering', 'Propeller', 'Roof garden', 'Floodplain restoration', 'Subsidiary protection', 'Rate of penetration', 'Last mile', 'Political communication', 'Referendum', 'Enhanced cooperation', 'Excavation', 'Drilling riser', 'Subdivision', 'Emergency vehicle', 'Community mobilization', 'Construction engineering', 'Population study', 'New Home Economics', 'Porch', 'Fantasy', 'Home automation', 'Collar', 'Football field', 'Basketball games', 'Footprinting', 'Sustainable land management', 'Hobby', 'Rural area', 'Human security', 'Guiding Principles', 'Comprehension', 'Noise', 'Solar chimney', 'Devolution', 'Bowel control', 'Cryopreservation', 'Dosimeter', 'Drilling fluid', 'Presidency', 'Affordable housing', 'Emergency management', 'Environmental tests', 'Emission inventory', 'Proposition', 'Cultural history', 'Suburbanization', 'Microplastics', 'Amateur sports', 'Building information modeling', 'Digital humanities', 'Community development', 'Collective identity', 'Multiplexing', 'Land use', 'Cantilever', 'Folklore', 'Right of way', 'Global shipping network', 'Capacity development', 'Ambivalence', 'Wind triangle', 'Road traffic control', 'Sociocultural evolution', 'Land-use planning', 'Politics of the United States', 'Conventional pollutant', 'Building automation', 'Prestressed concrete', 'DNA Content Analysis', 'Elite', 'Land-use conflict', 'Civil liberties', 'Geocriticism', 'Levee', 'Axle', 'Plastic object', 'House of Representatives', 'Feudalism', 'Constructability', 'Sanitary sewer', 'Cultural heritage management', 'Airshed', 'Database Directive', 'Water conservation', 'Compressive strength', 'Concentric', 'Marine pollution', 'Built-up area', 'Bicycle commuting', 'Integrally closed', 'Air traffic management', 'Criminology', 'Smart lighting', 'Political science', 'Voting', 'Route planning software', 'Source code', 'Air navigation', 'Bending', 'Communication aid', 'Road traffic safety', 'National Hydrography Dataset', 'Political radicalism', 'Near abroad', 'Telecommunications network', 'Ozone exposure', 'Erosion corrosion of copper water tubes', 'Paratransit', 'Urban structure', 'Human settlement', 'Separation of powers', 'Shelter in place', 'Modified Compression Field Theory', 'Community youth development', 'Caster', 'Civic engagement', 'European Train Control System', 'Interpreter', 'Truck', 'National Development Plan', 'Common Security and Defence Policy', 'Pelite', 'Well control', 'National identity', 'Monarchy', 'Caste', 'Occupancy', 'Particulate pollution', 'Finite element method', 'European Employment Strategy', 'Polluter pays principle', 'Colonialism', 'Page table', 'Ethnocentrism', 'American political science', 'Pedestrian crossing', 'Precision approach radar', 'Language politics', 'H bridge', 'Mixed-use development', 'Ethnology', 'Communications system', 'Demographic transition', 'Temperature control', 'Romance', 'Water pricing', 'Broadband', 'Poetry', 'Biological pollution', 'International relations', 'Transport facility', 'Landfill Directive', 'Disaster risk reduction', 'Population', 'Human geography', 'Urban climate', 'Climate resilience', 'Taxis', 'Transport law', 'Comprehensive Economic and Trade Agreement', 'Patriotism', 'Dam failure', 'Displacement ventilation', 'Public water system', 'Community-driven development', 'In-flight entertainment', 'Environmentalism', 'Language shift', 'Sustainable urbanism', 'Water conflict', 'Militant', 'Suite', 'Kinship', 'Formation evaluation', 'Cellular network', 'Ecocriticism', 'American studies', 'Global change', 'Polycentrism', 'Right triangle', 'Entertainment law', 'Public housing', 'Culture of the United States', 'Masonry', 'Citizenship', 'Narrative', 'Civilization', 'Router', 'Pallet jack', 'Content analysis', 'Cycling', 'Zoosemiotics', 'Geometric design', 'Clean Air Act', 'Smart growth', 'Spectral flux density', 'Municipal solid waste', 'Passive solar building design', 'Agricultural pollution', 'Appropriation', 'Deficit irrigation', 'Waste framework directive', 'Silicon on insulator', 'Direct numerical simulation', 'Bobbin', 'Embodied energy', 'Traffic management', 'Urban spatial structure', 'New Deal', 'Multi-level governance', 'Traffic flow', 'Washout', 'Trip generation', 'Greywater', 'Free market', 'Platoon', 'Coring', 'Water supply', 'Peak power output', 'Drinking water pollution', 'Project finance', 'Teletraffic engineering', 'Flood insurance', 'Seismic risk', 'Central place theory', 'Time series study', 'Life-cycle cost analysis', 'Sculpture', 'Oppression', 'E number', 'Sociocultural anthropology', 'Executive summary', 'Infill wall', 'Stereotype', 'European Neighbourhood Policy', 'Waterborne diseases', 'Track and field athletics', 'Vibration', 'Visual meteorological conditions', 'Apartment', 'Diagonal', 'Flight director', 'Development plan', 'Social contract', 'Footprint', 'Industrial heritage', 'Concrete cover', 'Gap Analysis Program', 'Oswald efficiency number', 'Urban dweller', 'Global politics', 'Historiography', 'Transportation Facility', 'Sustainable regional development', 'Limiter', 'Ground plane', 'Superinsulation', 'Bureaucracy', 'Online community', 'Silencer', 'Digital curation', 'Public sphere', 'Governmentality', 'Information display systems', 'Trailer truck', 'Urban revolution', 'Emigration', 'Wide area multilateration', 'Exercise-induced asthma', 'Railway engineering', 'Measurement while drilling', 'Population projection', 'Community resilience', 'Building life cycle', 'Low-flow irrigation systems', 'TRIPS architecture', 'Knowledge society', 'Reinforced concrete column', 'Native-language instruction', 'Roundabout', 'Doors', 'Man-Made Disasters', 'Slum upgrading', 'Postcolonialism', 'Illusion', 'Assimilative capacity', 'Town centre', 'Centralized government', 'Pollutant', 'Recreation', 'Water industry', 'Land Values', 'New Urbanism', 'Pigovian tax', 'Moment-resisting frame', 'Mode of transport', 'Reinforcement', 'Right angle', 'Essentialism', 'Sound baffle', 'Land transport', 'Piping', 'Branded entertainment', 'Transnationalism', 'Safeguard', 'European Public Prosecutor', 'Transmission line', 'Curse', 'Public drinking', 'Telephone line', 'Setback', 'Turnout', 'Leaky feeder', 'Marxist philosophy', 'East Asia', 'Human evolution', 'Land information system', 'Aid communication', 'Literary criticism', 'Sovereignty', 'Realisation', 'Regional planning', 'Drama', 'Road texture', 'Land-use forecasting', 'Spectrum analyzer', 'Private well', 'Anchoring', 'Grassland', 'Subgrade', 'Diversity training', 'Portrait', 'Carriageway', 'Mars Exploration Program', 'Demultiplexer', 'Tilting train', 'Projectile', 'Microsimulation', 'Farmland preservation', 'Summer smog', 'Infiltration gallery', 'Political economy', 'Watershed Central', 'Movie theater', 'Notational analysis', 'Free throw', 'Northern Dimension', 'Visual flight rules', 'Airfoil', 'Water banking', 'Pollution in China', 'Bike lane', 'Water trading', 'Insurgency', 'Sociological imagination', 'Safeguarding', 'Rail freight transport', 'Argumentation theory', 'Performance art', 'Construction management', 'Heat recovery ventilation', 'Two-way communication', 'Flight training', 'Turban', 'Capitalism', 'New media studies', 'Brownfield', 'Navigation system', 'Noise dosimeter', 'Daylight factor', 'Social organization', 'Intelligent transportation system', 'Urban density', 'Speed limit', 'Adaptive reuse', 'European union', 'Polity', 'CASTEP', 'Route assignment', 'Nonprobability sampling', 'National language', 'Public debate', 'Alley', 'Geopolitics', 'Pollution prevention', 'Natural heritage', 'Acoustics', 'National Resources Inventory', 'Building renovation', 'Area navigation', 'Time trial', 'Mobile news', 'Social dumping', 'Ecological design', 'Incident Command System', 'Environmental design and planning', 'Post-occupancy evaluation', 'Thermal pollution', 'Hole drilling method', 'Council of Ministers', 'Victory', 'Water right', 'Transport Pathway', 'Likert scale', 'Community practice', 'Ideology', 'Mobile computing', 'Cultural landscape', 'Traffic engineering', 'Tunnel construction', 'Popular culture', 'Energy consumption', 'Democracy', 'Noise control', 'Building design', 'Music education', 'Airport city', 'Tactical communications system', 'Emergency evacuation', 'Structural engineering', 'Taboo', 'Biosurvey', 'Smart city', 'route', 'Neuroscience of multilingualism', 'Carbon footprint', 'Independent suspension', 'Biochronology', 'Foreign policy', 'Pedestrian', 'Typology', 'Surge', 'Water year', 'Endurability', 'High-lift device', 'Structural material', 'Thrust-to-weight ratio', 'Delegation', 'Civil Emergency Message', 'Pallet', 'Information society', 'Urban geography', 'Traffic calming', 'Technical management', 'Cash flow', 'Sustainable landscaping', 'Member state', 'Visual flight', 'Entertainment', 'Demography', 'Single-family detached home', 'Sustainable city', 'Stress concentration', 'Indigenous', 'T-symmetry', 'Radiant heating', 'Domestic robot', 'Active traffic management', 'Highway engineering', 'Civil society', 'Biopreservation', 'Street network', 'Vehicle miles of travel', 'Total maximum daily load', 'Political history', 'Community-based management', 'Political violence', 'Entertainment technology', 'Robin boundary condition', 'Enclosure', 'Flood warning', 'Demolition', 'Vehicular Emissions', 'Transmitter']</t>
         </is>
       </c>
     </row>
@@ -773,29 +773,29 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106</v>
+        <v>445</v>
       </c>
       <c r="C13" t="n">
         <v>106</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2781414147, 521786372, 2777547780, 2993936643, 131652615, 77136645, 156342284, 2778885645, 2777174284, 164822548, 104306197, 169791255, 2776815640, 181697308, 2779173918, 198571295, 2781331233, 2777074724, 2909232423, 185903656, 196213036, 2781123118, 2994314031, 141371185, 2778252594, 18975541, 2779958842, 2993175098, 2779436609, 2779862342, 191555408, 2991837265, 2776710992, 2909633619, 2778192726, 170405466, 2776633946, 2776791387, 2986463069, 2992072290, 2992321123, 2994214499, 21177189, 2992625000, 2992070761, 19994219, 2778706031, 2780303473, 2780346740, 2781053045, 2778011512, 2993665404, 2777772286, 2777930111, 2780680069, 2778578824, 2776192393, 2909541772, 2993481360, 2779819667, 2779711381, 3018115224, 2993888420, 122173349, 2779676326, 2781219749, 43073704, 2992859048, 7083945, 89690796, 2777191596, 2777388718, 2992024237, 2993820844, 2776654262, 2777569206, 2778153913, 2910479802, 2780871101, 2779048638, 2992564671, 2776618947, 2776949446, 2993959369, 116401354, 54016721, 2776227026, 2779635666, 32571094, 2991889622, 2992590296, 2776952539, 2777826014, 2778353377, 3020414690, 2778364132, 2779050981, 204431084, 2780037101, 70746108, 21553396, 2776671222, 2992733688, 2994034172, 2779762430]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Convention on Nuclear Safety', 'Waste collection', 'KBS-3', 'Nuclear waste storage', 'Synroc', 'Fuel element failure', 'Spent fuel pool', 'Uranium in the environment', 'Thermal Oxide Reprocessing Plant', 'Transuranic waste', 'Orphan source', 'Materials recovery facility', 'Waste treatment technologies', 'Ocean disposal of radioactive waste', 'Deep borehole disposal', 'Transuranium element', 'Minor actinide', 'Schoepite', 'Waste Dump Sites', 'Glass recycling', 'Waste-to-energy', 'Kerbside collection', 'Urban solid waste', 'Mobile incinerator', 'Commercial waste', 'Refuse-derived fuel', 'Mixed waste', 'Urban waste', 'Savannah River Site', 'Gorleben salt dome', 'Mechanical biological treatment', 'Sustainable waste management', 'Waste hierarchy', 'Cesium Isotopes', 'Hanford Site', 'High-level radioactive waste management', 'Bulky waste', 'Waste Isolation Pilot Plant', 'Solid waste management', 'Underground storage', 'Glass corrosion', 'Municipal solid waste incinerator', 'Bioreactor landfill', 'Waste recycling', 'Municipal waste management', 'Thorium fuel cycle', 'Landfill mining', 'International Nuclear Event Scale', 'Recycling symbol', 'PET bottle recycling', 'Deep geological repository', 'Waste processing', 'Gate fee', 'Nuclear fuel cycle', 'Low-level waste', 'Waste sorting', 'Waste compaction', 'Radioactive Pollutants', 'Municipal solid waste management', 'Nuclear fuel', 'Yucca', 'Shallow land burial', 'Solid waste collection', 'Uranium-233', 'Pay as you throw', 'Waste-to-energy plant', 'Dirty bomb', 'Organic fraction', 'Spent nuclear fuel', 'Radioactive waste', 'Waste characterisation', 'Waste framework directive', 'Plutonium isotopes', 'Clay rock', 'Actinides in the environment', 'Resource recovery', 'Plastic recycling', 'Ceramicrete', 'Paper recycling', 'Atomic Energy Act', 'Waste management system', 'Landfill Directive', 'Joint Convention on the Safety of Spent Fuel Management and on the Safety of Radioactive Waste Management', 'Glass dissolution', 'Landfill gas utilization', 'Nuclear reprocessing', 'Studtite', 'Pyroprocessing', 'Landfill gas', 'Waste generation', 'Organic solid waste', 'Landfill diversion', 'Biodrying', 'Zirconolite', 'Fuel reprocessing', 'Molten salt oxidation', 'Waste picker', 'Radioecology', 'Landfill gas migration', 'Naturally occurring radioactive material', 'High-level waste', 'Integral fast reactor', 'Dry storage', 'Municipal solid waste landfill', 'Plutonium in the environment']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2775953691', '2780556867', '196781063', '2776648574', '192639820', '21790881', '502701156', '2777342055', '3963096', '2776092195', '89702864', '2779299574', '2777276756', '2781156216', '202976495', '156328458', '31972630', '28613373', '24649204', '2779151549', '2779167034', '53657456', '2778202820', '176239081', '2780680069', '29140674', '188284582', '2779485152', '2777908453', '2779719771', '2775886207', '2910251023', '2776236083', '197685441', '182566', '59158912', '116197896', '2778291008', '160565873', '2776830933', '2779958842', '2776649597', '2777566824', '202132683', '2780518120', '49284225', '206139338', '2775989791', '537773303', '177738377', '560292', '55627697', '186673887', '517489662', '2779539549', '2779872728', '147490202', '2777341207', '164495641', '2779764123', '2781426840', '2779570065', '2779491486', '2779544189', '162416716', '2910476649', '161097018', '2776770324', '2781219749', '33199155', '538221381', '2908744621', '88959737', '74814400', '2779436609', '15098985', '2781419769', '200630231', '2779451145', '2780210451', '2778157034', '25796384', '2780385446', '2777826014', '2780668729', '2778137661', '92244383', '2776182711', '62114133', '30305156', '2781041046', '2778353377', '204217086', '146778888', '2776791387', '2908975095', '2910235963', '2911193860', '2909541772', '2780797831', '166566181', '58640550', '204431084', '2780252369', '5035944', '30658544', '2777298481', '2779229598', '52637938', '2777612826', '12718152', '2777191596', '2776843555', '2778714813', '2781198434', '169824061', '96966460', '2909913919', '2780748813', '2779585013', '2909208472', '104002121', '2908818896', '2781331233', '2776323388', '2780789714', '2776633946', '80646779', '22507642', '2780757305', '183287310', '28864654', '2778206830', '2780473208', '2779711381', '147598955', '2779293432', '2777637287', '2776253312', '2779048638', '2780261490', '2776985865', '2778640053', '18975541', '2779301550', '176049440', '110240116', '2779242930', '2781420532', '141371185', '52121051', '117185709', '38000114', '38070178', '204983608', '189708586', '143020374', '37965861', '29985473', '203663800', '32571094', '2781385186', '183682340', '2781400479', '2776314458', '2908977417', '552854447', '2778733479', '2776618947', '2775893736', '2779507241', '191555408', '127045886', '2780739461', '2778126675', '73916439', '2910842875', '2910206359', '20533482', '2778271084', '2910237699', '509746633', '2776208129', '2779726014', '2780569836', '30795975', '141675481', '175700187', '2779044675', '144992956', '2775841215', '70746108', '2777339832', '2776192393', '2781211949', '2910018721', '12858262', '199491958', '2777547266', '41826821', '2778738845', '2777499484', '28328180', '2908544300', '30543370', '2742236', '35861506', '2778509883', '2909963963', '2778426384', '201903717', '121112783', '156342284', '2777539864', '2778153913', '197656079', '2908940802', '2777388718', '2778804209', '2777121799', '2778213206', '164822548', '2776671222', '2781175455', '2778192726', '7591567', '49802076', '69029970', '2777326885', '2781051052', '88182573', '82320026', '2908890554', '2780871101', '2780001536', '2777382958', '2777856171', '2778580826', '2776600559', '18750672', '2776422217', '2778734332', '173366509', '44877443', '131652615', '201958364', '2776512361', '2778128610', '192045728', '187460315', '175349315', '23213167', '2776815640', '2909633619', '131046424', '167740415', '116401354', '2776667712', '2778385950', '95810393', '46312889', '107694188', '123703457', '2776952539', '124062932', '45292766', '2777074724', '2780564743', '2778746772', '2778035492', '2779676326', '2779212423', '2910096992', '7083945', '2776917082', '2908895416', '2776908094', '105306849', '89690796', '536799390', '19994219', '2778242978', '2909827026', '548081761', '59659247', '2776467361', '69991583', '2776710992', '2776002898', '21553396', '39143791', '503285160', '2778076428', '79795727', '170828538', '2776822698', '187949908', '2777930111', '196213036', '2779190830', '97615858', '2910338039', '190618007', '2778477904', '2780660359', '521786372', '2776943663', '2781260606', '2776441814', '94866938', '2777730692', '49326732', '2781010802', '162205778', '79119010', '194304873', '2777540987', '67203356', '2778844797', '181697308', '6907630', '176289848', '2778555391', '2909402770', '36259021', '2777569206', '16284718', '58479451', '2779370158', '2778011512', '2778252594', '2779963790', '2780919596', '185903656', '82753439', '77136645', '171988757', '122173349', '164794517', '2780034618', '154261466', '174634509', '157351795', '65545243', '31487907', '2777167514', '76893819', '44104985', '47187476', '64548403', '2779635666', '2910337999', '62683194', '2908895405', '2779816311', '2776172590', '2779407671', '190362163', '2776936074', '2778323372', '77171524', '2777686624', '170405466', '54016721', '2781106820', '2776443958', '62960913', '2778851808', '2777174110', '206588197', '137851953', '2777916278', '2911027326', '2778380070', '2779173918', '528261146', '32198211', '2777867642', '198628655', '2778555274', '117009084', '2778552509', '193254401', '2776125615', '2723826', '130497676', '2778917124', '2778706031', '88463166', '2779851234', '21338462', '76022803', '128712008', '99578197', '189123395', '38264464', '2910127915', '2777798390', '169791255', '39665741', '2777448596', '2781164615', '2780342986', '159821036', '21177189', '2775973758', '205537798', '2780663759', '198571295', '2910656936', '2778578824', '78285338', '27983359', '2777323119', '2779046794', '141261163', '199310239', '2777707892', '81751973', '2779035916', '2779227428', '2778706760', '198118469', '2778364132', '2780848231', '39177556', '2778091559', '2775895549', '111643386', '108713360', '181199279', '103474955', '150839157', '2779023109', '551662922', '2777480716', '47737302', '2778919316', '54276265', '43073704', '2776192439', '9121194', '12839126', '2781469121', '2779027077']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['CRFS', 'Thermal depolymerization', 'Maglev', 'Social collaboration', 'Supply chain risk management', 'Deep sea', 'Biomedical sciences', 'Tryptone', 'Official cash rate', 'Waste minimisation', 'Technology assessment', 'Brookite', 'Customer base', 'Rubber technology', 'Planning', 'Diffuse reflectance infrared fourier transform', 'Computer vision', 'Parent company', 'Capital deepening', 'Landfill liner', 'Phoenix', 'Peat', 'Substitution effect', 'Stakeholder theory', 'Low-level waste', 'Computer cluster', 'Means of production', 'Convention on Biological Diversity', 'By-product', 'Social business model', 'Energy-efficient driving', 'O2 consumption', 'Sustainable procurement', 'PSPACE', 'Organizational structure', 'Electromagnetic propulsion', 'Hall effect thruster', 'Rate of exploitation', 'Cyclone', 'Climate change denial', 'Mixed waste', 'Climate ethics', 'Third order', 'Molecular nanotechnology', 'Ruta', 'EDAS', 'Raw material', 'Scientific communication', 'Geoengineering', 'Tangle', 'Fixed capital', 'Space-based architecture', 'Limited company', 'Petroleum politics', 'Hevea brasiliensis', 'Gross value added', 'Food spoilage', 'Sustainable land management', 'Solar cycle 23', 'Wasting', 'Carbon leakage', 'Leading edge', 'X-parameters', 'Manual labour', 'Moving target indication', 'PH reduction', 'Process substitution', 'Sustainable consumption', 'Waste-to-energy plant', 'Sharing economy', 'Vedas', 'Road grading', 'Strategy', 'Gas cracker', 'Savannah River Site', 'Permafrost', 'Carbon-to-nitrogen ratio', 'Cleaner production', 'Rural tourism', 'Climate risk', 'Sorghum', 'Metagaming', 'Industrial symbiosis', 'Biodrying', 'Social finance', 'Parthenium argentatum', 'Discontinuous Galerkin method', 'Creative industries', 'L-reduction', 'Zeta-TCP', 'Succinic acid', 'Zirconolite', 'Strength of materials', 'Installation', 'Waste Isolation Pilot Plant', 'Industrial/Organizational Psychology', 'Parasite Control', 'Toxicogenetics', 'Radioactive Pollutants', 'Fish stocking', 'Natural disaster', 'Phase-contrast imaging', 'Radioecology', 'Q-machine', 'Apse', 'Mobile collaboration', 'Distributed collaboration', 'Resource nationalism', 'Waste converter', 'Insect', 'Fuel saving device', 'Waste characterisation', 'Reinforced rubber', 'Wage labour', 'Amortization', 'Book value', 'Shutdown of thermohaline circulation', 'Food Consumption Patterns', 'Sustainable management', 'Order condition', 'Raw rubber', 'Joint-stock company', 'Product substitution', 'Minor actinide', 'Energy tax', 'Taraxacum kok-saghyz', 'Bulky waste', 'Game art design', 'Hazardous waste', 'Certified Emission Reduction', 'Thermal energy storage', 'Consumer', 'Near abroad', 'Sustainability reporting', 'Yucca', 'Social responsibility', 'Solvolysis', 'Companies Act', 'Construction waste', 'Atomic Energy Act', 'Minerals Yearbook', 'Reducer', 'Surplus product', 'Refuse-derived fuel', 'Working fluid', 'Public awareness of science', 'Ecological engineering', 'Global temperature', 'Carbon accounting', 'Mobile incinerator', 'Truck', 'Aeroelasticity', 'Mineral rights', 'Bank rate', 'Productivity', 'Systematic review', 'Coral', 'Carbon credit', 'Natural resource', 'Citizen journalism', 'Landfill gas', 'Consumerism', 'Solar physics', 'Outreach', 'Betulina', 'Insect identification', 'Sustainable development', 'Jatropha', 'Landfill Directive', 'Biomanufacturing', 'Climate resilience', 'Mechanical biological treatment', 'Glacier mass balance', 'Compost', 'ISO 26000', 'Energy storage', 'Life spans', 'Adverse Outcome Pathway', 'Overconsumption', 'European Capital of Culture', 'Device Approval', 'Climate change mitigation', 'Methane emissions', 'Rapeseed', 'Nanoindenter', 'Obsolescence', 'Energy recovery', 'Manufacturing', 'Flat rate', 'Solar cycle 24', 'Sustainable forest management', 'Naturally occurring radioactive material', 'Planetary Data System', 'Waste compaction', 'Surplus value', 'Protein processing', 'Continuous gusts', 'Global change', 'Creative services', 'Game Developer', 'Remanufacturing', 'Food waste', 'Stem cell', 'Recycled products', 'Phase-contrast X-ray imaging', 'Efficient energy use', 'Stereo cameras', 'Betulin', 'Parasite Egg Count', 'Exploitation of labour', 'Cohort study', 'Reduction of order', 'Spent fuel pool', 'Hybrid seed', 'Plastic recycling', 'Polynomial chaos', 'Product base', 'Waste framework directive', 'Insect collecting', 'Hermetia illucens', 'Deinking', 'Transuranic waste', 'Integral fast reactor', 'World energy consumption', 'Hanford Site', 'Game testing', 'Degranulation', 'In-vessel composting', 'Geotourism', 'Ground segment', 'High voltage', 'Reinforcement theory', 'PK Parameters', 'Paper recycling', 'Space architecture', 'Reverse logistics', 'Fasciola hepatica', 'Life-cycle cost analysis', 'Material efficiency', 'Installation art', 'Electric vehicle', 'Research development', 'Reductionism', 'Science education', 'Synroc', 'NSPACE', 'Power purchase agreement', 'Carbon dioxide flooding', 'DRMAA', 'Severe weather', 'Nuclear decommissioning', 'Scientific progress', 'Waste treatment technologies', 'Cesium Isotopes', 'Energy policy', 'Aerospace', 'Landfill gas utilization', 'Corporate sustainability', 'Insect physiology', 'Underground storage tank', 'Nanomanufacturing', 'Growth accounting', 'Methanation', 'Landfill diversion', 'Conspicuous consumption', 'Bark', 'Schoepite', 'Social CRM', 'Coproduction', 'Research program', 'Pay as you throw', 'Underconsumption', 'Adult insect', 'Spent nuclear fuel', 'Plant secondary metabolism', 'Body Temperature Changes', 'Anthelmintic', 'Storm', 'Radioactive waste', 'Plastics industry', 'Thorium fuel cycle', 'Rubber cement', 'Cesium Radioisotopes', 'Waste management', 'Reproduction', 'Open design', 'Candidate gene', 'Waste hierarchy', 'Rhodamine B', 'High-level waste', 'Substitution method', 'Game design', 'Demolition waste', 'Passive cooling', 'Game mechanics', 'Green consumption', 'Air source heat pumps', 'Nuclear fuel cycle', 'Waste-to-energy', 'Green New Deal', 'Energy intensity', 'Trichostrongylus axei', 'Submarine canyon', 'Dynamic shear rheometer', 'Market distortion', 'Waste collection', 'Human capital', 'Rate of reinforcement', 'Sustainable product development', 'Bank run', 'Activated sludge', 'Nanoindentation', 'Scientific collaboration network', 'Biproduct', 'Resource productivity', 'Product lifecycle', 'Hotbed', 'Reinforcement', 'Aquifer thermal energy storage', 'Ocean disposal of radioactive waste', 'Game design document', 'Die (manufacturing)', 'Trichostrongylus', 'Soy product', 'Coproduct', 'Resource recovery', 'Landfill tax', 'Fish stock', 'Virtual collaboration', 'Deep geological repository', 'Commercial waste', 'Exhaust heat recovery system', 'Growth medium', 'Glass recycling', 'Industrial production', 'Fuel element failure', 'Camera interface', 'Uranium-233', 'Stem cell niche', 'Hevea', 'Coastal erosion', 'Industrial production index', 'Insect ecology', 'Waste treatment', 'Polygon mesh', 'Environmental compliance', 'Rut', 'Supply chain management', 'Video game design', 'Planned obsolescence', 'Pyroprocessing', 'Tumor Stem Cells', 'Use value', 'Insect Proteins', 'Press cake', 'Style analysis', 'Gordon Research Conferences', 'TCP hole punching', 'Knowledge spillover', 'Personal carbon trading', 'Waste', 'Faecal egg count reduction test', 'High-level radioactive waste management', 'Nuclear reprocessing', 'Spongia officinalis', 'ESPACE', 'Layer by layer', 'Climate change adaptation', 'Bar product', 'Reuse', 'Greenhouse effect', 'Entomophagy', 'Nursing conference', 'Intangible asset', 'Deep borehole disposal', 'Carbon finance', 'Greenhouse', 'Robust decision-making', 'Flat rated', 'Science outreach', 'Facility management', 'Peak oil', 'Robust optimization', 'Economic evaluation', 'Game studies', 'Industrial and organizational psychology', 'Regulatory science', 'Landfill mining', 'Granulation', 'Oxide', 'Information model', 'Ozone cracking', 'Deconstruction', 'Radiative forcing', 'Political economy of climate change', 'DSPACE', 'X-Ray Phase-Contrast Imaging', 'Climate security', 'Materials recovery facility', 'New production', 'Circular economy', 'Climate justice', 'Economic impacts of climate change', 'Mobile deep linking', 'Bioreactor landfill', 'Collaboration tool', 'Extreme weather', 'Paper cup', 'Transuranium element', 'Mastic asphalt', 'Waste sorting', 'Materials management', 'Zeolitic imidazolate framework', 'Energy recycling', 'Magnetic sail', 'Corporate social responsibility', 'Impact', 'Mass collaboration', 'Capital accumulation', 'Climate engineering', 'Bioproduction', 'Life-cycle assessment', 'Hydrolyzed protein', 'Molten salt oxidation', 'Sweet sorghum', 'Order of accuracy', 'Carbonyl reduction', 'Corporate behaviour', 'UV degradation', 'Supply chain', 'Enzyme', 'Coral bleaching', 'Software design document', 'Succinic acid fermentation', 'Tax reform', 'Resource consumption', 'Greenhouse gas', 'Industrial PC', 'Video game development', 'Dirty bomb', 'Automotive shredder residue', 'Energy efficient transformer', 'Dynamic load testing', 'Demolition', 'Electric energy consumption']</t>
         </is>
       </c>
     </row>
@@ -806,29 +806,29 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="C14" t="n">
         <v>319</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2910907392, 2994553857, 2993020933, 2989375497, 193436682, 3810323, 41873427, 2993792022, 2776027161, 528261146, 2776929312, 2778539042, 2779258914, 37965861, 2994309158, 102019113, 163379243, 101638190, 137851953, 2993643576, 86714428, 190351424, 2777475136, 29141058, 2781164615, 11472968, 134906952, 177707082, 132651083, 2777407568, 2986440788, 35232858, 2993248350, 13468771, 2993607780, 49999975, 115343472, 2780899440, 114990195, 2991811701, 2993595511, 2993220731, 2994122879, 2993272960, 2781067393, 144199811, 2776744078, 1489048, 54513816, 2781426840, 97302686, 195853485, 83227832, 2991710394, 3020298426, 2778552509, 2992821438, 142054593, 2781254854, 2779039943, 2776620235, 35647692, 2992589003, 2993701077, 199390426, 18870495, 2993876191, 120128738, 2908827874, 2993948902, 2776573159, 2994254057, 2776793327, 189109488, 2778372335, 2780397810, 2780258550, 537773303, 11693305, 205251833, 2993891579, 3017512189, 2993126654, 126172416, 2994190597, 2994081031, 146159881, 2777774347, 2779035916, 2780210451, 106933524, 2993190167, 2994014488, 2992113945, 2993336609, 39463204, 99743013, 166566181, 2779910436, 39820584, 2780367144, 2988944679, 106935595, 2775984431, 19369268, 41156917, 47279414, 2994323764, 2994030904, 2986774844, 2777804095, 2779252034, 2780621122, 3020675398, 2993202505, 54308172, 2993110352, 2780181841, 99578197, 2993659230, 186966370, 2777034083, 102561126, 2909373799, 2992679270, 2776538475, 2776158574, 199491958, 196875640, 32334204, 2777006462, 2993971592, 2910227852, 2992799117, 2910465422, 18757010, 190930322, 2988298649, 2992225691, 2993044892, 2776885665, 143906210, 2993773992, 96650669, 2992223664, 2779242930, 2780494259, 2776780212, 2993397182, 20992447, 2986459584, 2993739202, 2992164295, 30236105, 509746633, 46068172, 168754636, 2776445388, 65557974, 2779200991, 2778851808, 203017698, 2993266147, 2992684518, 2994271718, 93941228, 152798702, 2992456177, 3018581489, 2994067962, 2780750338, 181634566, 165479943, 205537798, 2778136073, 134790666, 2994571788, 193945104, 2993652250, 2778145313, 2779507241, 2993490476, 2985137709, 2775859763, 2992593463, 188364345, 2780039742, 2778329665, 150527554, 105367107, 2993491522, 2992166474, 2992722522, 2777586272, 2776220264, 2993796714, 60757611, 2779257452, 513535597, 2991906422, 47665787, 2780948093, 64396926, 2779994751, 2781284990, 2994424460, 2992816783, 96240277, 149677717, 54464151, 2991840920, 2775904931, 2991817383, 2993946284, 83621551, 2994449071, 68753075, 173451957, 141452985, 2780210877, 2994503357, 45589183, 2994085571, 2994211527, 2781281996, 2992594638, 2992428752, 2993432275, 94490329, 2780406490, 187460315, 2776097500, 71502557, 62279395, 2987933411, 2779155178, 2778760939, 2779417324, 2777678574, 76934896, 2777647863, 2993959672, 2780723968, 2780779268, 2987765510, 187415303, 103474955, 14843661, 2780883738, 2985143073, 2909261609, 2994546479, 2992370483, 61562682, 111761213, 114203453, 2994067266, 156034889, 18629457, 2993966930, 71756627, 2778106714, 63562587, 9075549, 171547485, 2994393950, 2778856288, 103215972, 143742823, 181060458, 2992698222, 2993736561, 112867187, 2993683320, 2778976125, 122424190, 2983146365, 2993798022, 2993728391, 38870921, 156008332, 126026641, 92546971, 96305052, 11039648, 67097510, 39410599, 158984102, 186816422, 2777173930, 2778329001, 2910645160, 2777068471, 2777495483, 131980223, 163861444, 2986497989, 2779167689, 2780789708, 2985609169, 2776830933, 2987945947, 144264156, 2992114654, 182034399, 119288801, 183191521, 130047971, 2992084963, 2992109537, 2776290281, 76053486, 89298926, 2992325616, 2781420532, 2909818870, 139212797, 100405246]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Arctic climate', 'Atmospheric emissions', 'Catastrophe risk', 'Air ground interface', 'Tropical cyclone scales', 'Integrated assessment modelling', 'International Standard Atmosphere', 'Annealing atmosphere', 'Forest dieback', 'Carbon finance', 'Atmospheric lidar', 'United Nations Framework Convention on Climate Change', 'Carbon emission trading', 'Carbon credit', 'Tropical atmosphere', 'Runaway greenhouse effect', 'Landfall', 'Stellar atmosphere', 'Greenhouse effect', 'Climate extremes', 'Atmospheric methane', 'Biosequestration', 'European Climate Change Programme', 'Tropical cyclone', 'Climate justice', 'Tropical cyclone rainfall forecasting', 'Soil plant atmosphere continuum', 'Atmospheric wave', 'Climate change', 'National Information Exchange Model', 'Climate science', 'Faint young Sun paradox', 'Disaster vulnerability', 'Atmospheric refraction', 'Climate impact', 'Atmospheric chemistry', 'Global warming', 'Special Report on Emissions Scenarios', 'Effects of global warming', 'Drought risk', 'Longwave radiation', 'Heat wave', 'Vegetation response', 'Meridional circulation', 'Trend surface analysis', 'Dropsonde', 'Early Earth', 'Scale height', 'Managed retreat', 'Carbon leakage', 'Cyclogenesis', 'Tholin', 'Carbon offset', 'Atmospheric layer', 'Heat related mortality', 'Peak oil', 'Line list', 'Geophysical Fluid Dynamics Laboratory Coupled Model', 'Politics of global warming', 'Scientific consensus', 'DICE model', 'Atlantic hurricane', 'Climate services', 'Carbon management', 'Atmospheric radiative transfer codes', 'Historical climatology', 'Ensemble simulation', 'Atmosphere of Titan', 'Pressure Atmosphere', 'Disaster management system', 'Solar zenith angle', 'Climatic warming', 'Carbon Pollution Reduction Scheme', 'Small Island Developing States', 'Climate change scenario', 'Global warming game', 'Ozone depletion potential', 'Geoengineering', 'Coastal flood', 'Climate classification', 'Climate protection', 'Polluted atmosphere', 'Climatic variability', 'Carbon neutrality', 'Sintering atmosphere', 'Carbon stock', 'Norwegian cyclone model', 'Sea level rise', 'Climate engineering', 'Climate risk', 'Chromosphere', 'Extreme heat', 'Disaster impact', 'Plant phenology', 'Weather patterns', 'Coastal hazards', 'Kyoto Protocol', 'Natural disaster', 'Ocean deoxygenation', 'Climate pattern', 'Free-air concentration enrichment', 'Global climate', 'Greenhouse gas removal', 'Global Change Biology', 'Shortwave radiation', 'Downscaling', 'Atmospheric electricity', 'Surface air temperature', 'Atmospheric dynamics', 'Atmospheric humidity', 'Flexible Mechanisms', 'Bred vector', 'Global and Planetary Change', 'Future climate', 'Regional warming', 'Atmospheric optics', 'Atmospheric water', 'Green paradox', 'Radiative forcing', 'Water planning', 'Reducing atmosphere', 'Radio occultation', 'Tropical cyclone forecast model', 'Increased carbon dioxide', 'Atmospheric reactions', 'Climate legislation', 'Climate Change Levy', 'Global change', 'Diffuse sky radiation', 'Planetary boundaries', 'Adaptive capacity', 'Atmospheric diffusion', 'Erigeron speciosus', 'Atmospheric transparency', 'Umingmakstrongylus pallikuukensis', 'Lifted index', 'Tornado', 'Extreme events', 'Fossil fuel emissions', 'Stellar occultation', 'International Human Dimensions Programme', 'Atmosphere', 'Radiation budget', 'Biosphere model', 'Soil atmosphere', 'Global temperature', 'Tornado preparedness', 'Marginal abatement cost', 'Rapid intensification', 'Atmospheric escape', 'Precipitable water vapor', 'Climate variation', 'Atmospheric ozone', 'Sustainability and systemic change resistance', 'Climate change mitigation', 'Assisted colonization', 'Climate model', 'MODTRAN', 'African easterly jet', 'Carbon price', 'Climate change adaptation', 'Modified atmosphere', 'Permafrost degradation', 'Atmospheric dust', 'Surface warming', 'Enhanced Fujita scale', 'Atmosphere of Earth', 'Meridional wind', 'Adaptation strategies', 'Climate system', 'Disaster risk reduction', 'Realized niche width', 'Rainband', 'Extreme weather', 'Eocene Thermal Maximum 2', 'Atmospheric Model Intercomparison Project', 'Carbon mitigation', 'Bolide', 'Climate envelope', 'Solar radiation management', 'Climate resilience', 'Climatic gradient', 'Global change observation mission', 'Climate change in the United States', 'Soil warming', 'Global dimming', 'Urban resilience', 'IPCC Fourth Assessment Report', 'Pulse storm', 'Carbon dioxide equivalent', 'Climate impact assessment', 'Atmospheric water vapour', 'Green house gas emission', 'Copenhagen Accord', 'Climate change in the European Union', 'Atmospheric column', 'Atmospheric thermodynamics', 'Common But Differentiated Responsibilities', 'Low-carbon economy', 'Weather generator', 'Transient climate simulation', 'International Geosphere-Biosphere Programme', 'Atmospheric sounding', 'ECHAM', 'Centrostephanus rodgersii', 'Climate forecast', 'Climate change vulnerability', 'Ecological forecasting', 'Carbon sink', 'Climate sensitivity', 'Atmospheric change', 'Past sea level', 'Storm intensity', 'Carbon market', 'Limb darkening', 'Atmospheric exposure', 'Dendroclimatology', 'Arctic methane release', 'General Circulation Model', 'Maximum potential intensity', 'Greenhouse gas balance', 'EdGCM', 'Hurricane intensity', 'Ecosystem response', 'Ocean general circulation model', 'Climatic variables', 'Greenhouse warming', 'Neutral atmosphere', 'Atmosphere of Venus', 'Greenhouse gas inventory', 'Severe weather', 'Climate ensemble', 'Tree line', 'Atmospheric models', 'Greenhouse gas reduction', 'Longwave', 'Representative Concentration Pathways', 'Climate governance', 'TC-PAM', 'HadCM3', 'Climate change in China', 'Salinity intrusion', 'Outgoing longwave radiation', 'Economics of global warming', 'Climate simulation', 'Permafrost carbon cycle', 'Coral bleaching', 'Idealized greenhouse model', 'Secondary organic aerosols', 'Atmospheric composition', 'Man-Made Disasters', 'Tropical ocean', 'Moist convection', 'Tropical cyclogenesis', 'Polar amplification', 'Cloud forcing', 'Climate dynamics', 'Airglow', 'Hadley cell', 'Carbon exchange', 'Microbarom', 'Cataclysme', 'Typhoon Tip', 'Troposphere', 'Atmospheric physics', 'Sea surface cooling', 'European Union Emission Trading Scheme', 'Environmental niche modelling', 'GCM transcription factors', 'Aridification', 'Meridional overturning', 'Latent heating', 'Cottrell atmosphere', 'Climate effects', 'Carbon tax', 'Typhon', 'Atmospheric absorption', 'Global climate warming', 'Tropical circulation', 'Environmental impact of aviation', 'Precipitable water', 'Hydrosphere', 'Controlled atmosphere', 'Effects of global warming on oceans', 'Tornado intensity and damage', 'King tide', 'Natural hazard', 'Tropical wave', 'Lapse rate', 'Severe thunderstorm warning', 'Atmospheric correction', 'Climatic Processes', 'Sea surface microlayer', 'Anti-greenhouse effect', 'Thermosphere', 'Stratosphere', 'Atmospheric radiation', 'Intermediate General Circulation Model', 'Yedoma', 'Earth system science education', 'Climate change denial', 'Climate policy', 'How Global Warming Works', 'International climate policy', 'Overshooting top', 'Global-warming potential', 'Aeronomy', 'Trace gas', 'Solar atmosphere', 'Antarctic plateau', 'Enhanced weathering', 'Radiative equilibrium', 'Atmospheric instability', 'Ecosystem change', 'Carbon accounting', 'Silene ciliata', 'Global warming hiatus', 'Emissions trading']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['9075549', '2780471494', '63562587', '103215972', '64396926', '203017698', '33683781', '2780406490', '18757010', '2780756839', '2777994876', '2909303214', '2779278563', '18629457', '2775904931', '106199856', '20992447', '112867187', '158984102', '2780723968', '11308688', '2781067393', '169969230', '163861444', '96240277', '2777647863', '72319357', '96793861', '35647692', '2776830933', '78091846', '156008332', '92033742', '2776538475', '2776744078', '537773303', '2778136073', '39463204', '101638190', '2780948093', '508106653', '2781426840', '2780805685', '146159881', '2780231331', '152798702', '15098985', '2780210451', '62279395', '193436682', '2780021526', '6792957', '39464130', '53603896', '61562682', '196875640', '95070492', '2780797831', '166566181', '183472899', '119288801', '195853485', '188818383', '2779258914', '143742823', '2909483067', '108107089', '89463210', '2780899440', '96966460', '2778736949', '2776349674', '96650669', '2779417324', '143299363', '2777774347', '537208039', '89295123', '69131732', '2778539042', '85675897', '2780223605', '75633850', '2777401303', '193945104', '163379243', '2779242930', '2781420532', '181060458', '2776445388', '2910459661', '2780789708', '2776620235', '39410599', '139212797', '207074971', '2779345524', '2776027161', '6582778', '136856113', '3810323', '37965861', '144199811', '2775984431', '2780258550', '100405246', '126026641', '65748596', '174252726', '2780750338', '125405218', '2778329665', '2779507241', '2908869550', '139679275', '2778106714', '2776793327', '133517878', '509746633', '83227832', '108352090', '190930322', '115343472', '2776290281', '2777564511', '188364345', '66337317', '2776929312', '131980223', '139029146', '199491958', '165479943', '2777351703', '199390426', '156034889', '155372631', '33332676', '186699998', '74501621', '2781415582', '2780155556', '18870495', '2777586272', '177229130', '122629976', '501529594', '83621551', '151406439', '46304622', '65557974', '2778372335', '2910907392', '2780713269', '177707082', '134097258', '146233495', '111761213', '81447805', '93707483', '32334204', '169752599', '54464151', '130047971', '2778270655', '134906952', '518008717', '2778329001', '86714428', '47279414', '30878456', '200479807', '105923489', '2775938548', '21405408', '29141058', '41156917', '2780181841', '127454912', '187460315', '136020623', '68753075', '2778145313', '559400886', '11693305', '173651095', '2778856288', '2778951896', '49204034', '142619676', '54308172', '205251833', '112115583', '168754636', '116543080', '524244815', '71756627', '183195422', '2909068970', '60757611', '638126', '2779547961', '24474704', '11472968', '94061648', '2778822299', '2780621122', '66295139', '2779345167', '141452985', '46068172', '2777034083', '106933524', '2909176644', '181634566', '123961466', '112964050', '2910882656', '44881016', '2779257452', '2910645160', '2777460376', '173253207', '2909261609', '11039648', '2781284990', '535291247', '2776044436', '93941228', '2778976125', '513535597', '2780862826', '96305052', '25022447', '114990195', '58479451', '49999975', '2779169777', '2780656184', '2776229149', '73849760', '2780883738', '89298926', '97302686', '2910483091', '96941661', '108469399', '2778300782', '30033324', '2779200991', '530467964', '189692780', '20985327', '205325660', '2909373799', '2777068471', '2779155178', '76934896', '196267783', '77044568', '2908604550', '2909067155', '2776703984', '23069438', '2910895638', '6964187', '13468771', '30236105', '94490329', '120128738', '2778851808', '28475054', '197435368', '137851953', '521259446', '66472031', '528261146', '125460053', '2777804095', '2779611803', '99743013', '71502557', '2779910436', '83516724', '2779994751', '50094484', '2776780212', '2778552509', '81820708', '2910057517', '2781281996', '186816422', '76882436', '99578197', '2908827874', '114203453', '186966370', '2775855162', '2777798390', '189109488', '2778760939', '19369268', '38870921', '2778595733', '106935595', '102561126', '135558025', '187415303', '2779553627', '2781164615', '41873427', '92546971', '54513816', '123750103', '143510601', '87547467', '47665787', '183191521', '205537798', '79367842', '2780936489', '39820584', '172461840', '2777006462', '2780153765', '2776573159', '2780039742', '2779035916', '545622115', '17278756', '150484471', '122424190', '2779039943', '132651083', '2908711065', '1489048', '2780919918', '103474955', '171547485', '2777634575', '143906210', '2781383829', '2779413794', '47737302', '13763315', '134790666', '16989226', '126172416', '2777746431', '42952880', '149677717']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Troposphere', 'Solvent', 'Typhoon Tip', 'Environmental niche modelling', 'Atmospheric sounding', 'Modified atmosphere', 'Paleoclimatology', 'Greenhouse gas inventory', 'Lifted index', 'WEAP', 'Pacific Plate', 'Sensory Adaptation', 'Talik', 'Hadley cell', 'Past sea level', 'Parametrization', 'Atmospheric escape', 'Cottrell atmosphere', 'Tropical wave', 'Outgoing longwave radiation', 'Atlantic multidecadal oscillation', 'Trend surface analysis', 'Sea salt aerosol', 'Stratosphere', 'Ecological forecasting', 'Climate change in China', 'Extratropical cyclone', 'Polar seas', 'Atlantic hurricane', 'Climate change denial', 'Thermohaline circulation', 'Precipitable water', 'Arctic front', 'Climate legislation', 'Early Earth', 'Geoengineering', 'Eocene Thermal Maximum 2', 'Coastal hazards', 'Stellar atmosphere', 'International Geosphere-Biosphere Programme', 'Ozone', 'Carbon leakage', 'Teacher education', 'Norwegian cyclone model', 'CGS-21680', 'Atmosphere of Earth', 'Permafrost', 'Climate risk', 'Atmospheric models', 'Tropical cyclone scales', 'Greenland ice sheet', 'Twomey effect', 'Soil carbon', 'Black carbon', 'Tropical cyclogenesis', 'Diffuse sky radiation', 'Metres above sea level', 'Fish stocking', 'Natural disaster', 'Attribution of recent climate change', 'Global-warming potential', 'Tholin', 'Fugitive emissions', 'Carbon emission trading', 'GCM transcription factors', 'Application site', 'Oxygen plant', 'Coral reef organizations', 'Special Report on Emissions Scenarios', 'Shutdown of thermohaline circulation', 'Pacific Solution', 'Tropospheric ozone', 'Biosphere model', 'Climate governance', 'Attribution', 'Sea level rise', 'Nitrogen', 'Forest pathology', 'Abrupt climate change', 'United Nations Framework Convention on Climate Change', 'Soil management', 'Antarctic ice sheet', 'Ocean fertilization', 'CGS-8216', 'Bolide', 'Landfall', 'Global temperature', 'Carbon accounting', 'Aridification', 'MODTRAN', 'Prevention campaign', 'Yedoma', 'DICE model', 'Natural hazard', 'Global warming hiatus', 'Environmental issues with coral reefs', 'Replantation', 'Forest dieback', 'North Atlantic Deep Water', 'Tide gauge', 'Integrated assessment modelling', 'Carbon credit', 'Dropsonde', 'Global Change Biology', 'Ozone depletion potential', 'Emissions trading', 'Hydrosphere', 'Ice field', 'Ice divide', 'Disaster risk reduction', 'Polar vortex', 'IPCC Fourth Assessment Report', 'Climate resilience', 'Pacific Area', 'Oceanic climate', 'Cataclysme', 'Carbon Pollution Reduction Scheme', 'Extended producer responsibility', 'Climate change mitigation', 'Carbon offset', 'Catchment hydrology', 'Tornado', 'Global warming', 'Enhanced weathering', 'Water conflict', 'Global dimming', 'Sustainability and environmental management', 'Atmospheric lidar', 'Thermosphere', 'Subtropical cyclone', 'Global change', 'Rainband', 'Low-carbon fuel standard', 'Atmospheric radiative transfer codes', 'Airglow', 'Arctic geoengineering', 'Cloud condensation nuclei', 'Eutrophication', 'Sea level', 'Performance attribution', 'Thermokarst', 'Historical climatology', 'Copenhagen Accord', 'Monroney sticker', 'Fringing reef', 'Carbon', 'Limb darkening', 'Time series', 'Certification', 'African easterly jet', 'Climate change scenario', 'Arctic climate', 'Mars general circulation model', 'Atmospheric wave', 'Sea surface temperature', 'Future sea level', 'Polar amplification', 'Subarctic climate', 'Bioclimatology', 'Planetary boundaries', 'Recovery', 'Climate sensitivity', 'Trace gas', 'Marine stratocumulus', 'Soil plant atmosphere continuum', 'Arctic', 'Atmospheric correction', 'Atmospheric methane', 'Atmospheric electricity', 'Arctic vegetation', 'Biological pump', 'Combustion', 'Thematic Mapper', 'Pacific Islands Families Study', 'Tropical cyclone', 'Downscaling', 'Green paradox', 'Cost–benefit analysis', 'Severe weather', 'Invasive species', 'Dendroclimatology', 'Solar radiation management', 'Land management', 'Coastal flood', 'Introduced species', 'European Union Emission Trading Scheme', 'Rangeland management', 'Climatology', 'Arctic ecology', 'Atmospheric optics', 'Climate classification', 'Change management', 'Climate model', 'Post-tropical cyclone', 'Pacific studies', 'Microbarom', 'Flood forecasting', 'Low carbon dioxide', 'Atmospheric thermodynamics', 'Fundamental attribution error', 'Tropical Atlantic', 'Ice tongue', 'Tropical cyclone rainfall forecasting', 'Wastewater', 'Integrated catchment management', 'Global and Planetary Change', 'C change', 'Aerosol', 'General Circulation Model', 'Assisted colonization', 'Radio occultation', 'Chromosphere', 'Risk-benefit analysis', 'Realized niche width', 'Change management (ITSM)', 'Livestock', 'Aerosol generator', 'Carbon cycle re-balancing', 'Common But Differentiated Responsibilities', 'Climatic Processes', 'Fuel tax', 'Polar ecology', 'Man-Made Disasters', 'Tornado intensity and damage', 'Centrostephanus rodgersii', 'Amazon rainforest', 'Persistent organic pollutant', 'Enhanced Fujita scale', 'Carbon tax', 'Low-carbon economy', 'Tropical Atlantic Variability', 'Effects of global warming on oceans', 'Coupled model intercomparison project', 'Effects of global warming', 'Fish stock', 'Atmospheric chemistry', 'DayCent', 'Ruppia cirrhosa', 'Eco-innovation', 'Coral reef protection', 'Secondary organic aerosols', 'Atmospheric instability', 'Cyclogenesis', 'Permafrost Zone', 'Community Climate System Model', 'Plankton', 'Polar meteorology', 'Carbon respiration', 'Carbon price', 'Carbon dioxide', 'Sponge reef', 'Thaw depth', 'Ice core', 'Increased carbon dioxide', 'Sea surface microlayer', 'Longwave', 'HadCM3', 'Resolvent', 'Reef', 'Central Site', 'Arctic environment', 'Deforestation and climate change', 'Wave flume', 'Cook island', 'Indirect costs', 'Atmospheric refraction', 'Sustainability and systemic change resistance', 'Atmosphere of Venus', 'Atmosphere of Titan', 'Climate change adaptation', 'Thermal wind', 'Cryosphere', 'Greenhouse effect', 'Pollution', 'Prediction and Research Moored Array in the Atlantic', 'Carbon finance', 'Resilience of coral reefs', 'Flexible Mechanisms', 'Hydrothermal carbonization', 'Kyoto Protocol', 'Tree line', 'Ocean deoxygenation', 'Ecological footprint', 'ECHAM', 'Attribution bias', 'Marginal abatement cost', 'Peak oil', 'Ice stream', 'Pacific States', 'Ocean general circulation model', 'Lapse rate', 'Site manager', 'Radiative forcing', 'Pressure Atmosphere', 'Cloud forcing', 'Reducing atmosphere', 'GNSS radio occultation', 'Climate security', 'Small Island Developing States', 'Representative Concentration Pathways', 'Shortwave radiation', 'Environmental impact of aviation', 'Enteric fermentation', 'Greenhouse gas removal', 'Tropical cyclone forecast model', 'Wind shear', 'Permafrost carbon cycle', 'Arctic studies', 'Climate justice', 'International Standard Atmosphere', 'Controlled atmosphere', 'Managed retreat', 'Ice sheet', 'Arctic sea ice decline', 'Ice shelf', 'Transient climate simulation', 'Aeronomy', 'Extreme weather', 'Coral reef', 'Carbon footprint', 'Climate pattern', 'Angstrom exponent', 'Adaptive capacity', 'Low-carbon emission', 'Solar zenith angle', 'Urban resilience', 'Climate engineering', 'Microphysics', 'Palsa', 'Climate oscillation', 'Typhon', 'Scientific consensus', 'Climate change', 'Antarctic climate', 'Scale height', 'Climate Finance', 'Coral bleaching', 'Atmospheric physics', 'AERONET', 'Atmosphere', 'CLOUD experiment', 'Aerosol mass spectrometry', 'Greenhouse gas', 'Alternative fuel vehicle', 'Atmospheric Model Intercomparison Project', 'Environmental change', 'Carbon neutrality', 'Earth System Grid', 'Cloud feedback', 'Carbon sink']</t>
         </is>
       </c>
     </row>
@@ -839,29 +839,29 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>137</v>
+        <v>377</v>
       </c>
       <c r="C15" t="n">
         <v>137</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2780277248, 2994403328, 21591045, 154213384, 2986433049, 2984876570, 135310875, 84766238, 123281439, 2780182046, 92486177, 83873828, 2992178217, 16989226, 85829167, 2910618672, 2778484786, 122120755, 2994167347, 2779314743, 2909576252, 2992852541, 2992874044, 146864707, 2779679811, 78091846, 98083399, 2991726665, 2780737616, 186632785, 117773394, 2909377626, 119850591, 2777324131, 2993629804, 152327789, 68701300, 186348155, 2983223943, 129934472, 2910015115, 14429324, 2908838540, 108469399, 2777677976, 158278297, 2910618780, 60500638, 21790881, 79367842, 2910008995, 42088612, 2993244835, 117294248, 68800169, 2910139052, 71202995, 2986842804, 2777246908, 2776208574, 2781085374, 2985189572, 526797001, 2992865997, 76256466, 81352406, 123750103, 165082838, 2778902744, 2780446934, 2776911068, 2991872239, 2908851450, 2776974093, 2992435477, 2908808471, 2780018463, 111368507, 134037308, 107192645, 2776928589, 13474642, 24238931, 187599188, 2909226325, 143020374, 129513315, 2994027364, 34771814, 101677414, 2988134249, 134097258, 2992963954, 145151356, 2994059133, 110175623, 2781279111, 2779357577, 136894858, 2994491787, 2910167436, 33613203, 82161046, 81662871, 144492951, 2991714712, 2993063323, 189047708, 162284963, 113516966, 158836135, 2911170984, 52881836, 2780513199, 2781118390, 149348798, 2780008901, 2993954760, 120221134, 2993679310, 140302290, 77942228, 153102810, 2991995357, 2910466017, 2910075364, 2910767078, 63398376, 2775897068, 207769581, 86909935, 74501621, 2993729017, 2779203578, 2984306683, 2987590141]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Coastal Zone Management Act', 'Fish health', 'Integrated multi-trophic aquaculture', 'Aquaculture of catfish', 'Baltic sea', 'Pacific ocean', 'Fjord', 'Crustacean', 'Fishing down the food web', 'Wave power', 'Aquaculture engineering', 'Coarse woody debris', 'Cage culture', 'Environmental change', 'Skretting', 'Chilean flounder', 'Striped trumpeter', 'Mixed layer', 'Rainbow trout', 'Lysekil Project', 'Trichodina reticulata', 'Sea cage', 'Marine aquaculture', 'Internal wave', 'River shiner', 'Thermohaline circulation', 'Underwater', 'Shrimp aquaculture', 'Conservation status', 'Littoral zone', 'Fish migration', 'Artificial feeds', 'Aquaponics', 'Best Aquaculture Practices', 'Live feed', 'Aquatic biodiversity research', 'Polyculture', 'Waves and shallow water', 'North sea', 'River ecosystem', 'Caligus elongatus', 'Mariculture', 'Nemipterus furcosus', 'Plankton', 'Epizootic ulcerative syndrome', 'Aquatic animal', 'Chilodonella hexasticha', 'Physical oceanography', 'Deep sea', 'Coral reef', 'Ichthyobodo necator', 'Lake ecosystem', 'Marine biodiversity', 'Octopus aquaculture', 'Marine protected area', 'Diplectanum aequans', 'AquAdvantage salmon', 'Black sea', 'Aquaculture in Canada', 'Chanidae', 'Feeder fish', 'Indian ocean', 'Algaculture', 'Aquatic organisms', 'Hydrography', 'Organic aquaculture', 'Ice sheet', 'Wind wave', 'Diatom', 'Wild fisheries', 'Sea louse', 'Salmon aquaculture', 'JAW MALFORMATION', 'Mangrove red snapper', 'Aquaculture wastewater', 'Oreochromis shiranus', 'Oreochromis karongae', 'Oceanography', 'Marine habitats', 'Aquaculture of tilapia', 'Recirculating aquaculture system', 'Invertebrate', 'Aquaculture of cobia', 'Ocean current', 'Aurantiactinomyxon', 'Coral', 'Salinity', 'Intensive culture', 'Aquatic plant', 'Surface pressure', 'Deep water', 'Sea surface temperature', 'Sargasso sea', 'Rossby wave', 'Marine power system', 'Broodstock', 'Dredging', 'Aquaculture in China', 'Sea ice', 'Aquaculture management', 'Gilthead Seabream', 'Seabed', 'Arboreal locomotion', 'Hydrobiology', 'Coral reef fish', 'Aquatic environment', 'Sustainable aquaculture', 'Limnology', 'Submarine pipeline', 'Fish hatchery', 'Zooplankton', 'Oreochromis spilurus', 'Marine energy', 'Electrofishing', 'Integrated coastal zone management', 'Upwelling', 'Sea bass', 'Fish growth', 'Gulf Stream', 'Aquaculture industry', 'Water mass', 'Pelagic zone', 'Diel vertical migration', 'Cage aquaculture', 'Hippoglossus hippoglossus', 'Solea senegalensis', 'Chromophycota', 'SWEAT', 'Milkfish', 'Marine reserve', 'Aquaculture', 'Sea level', 'Fish pond', 'Geoduck aquaculture', 'Coastal zone', 'Wave power plants']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['57615671', '21790881', '2778586117', '19829342', '14849681', '2776831678', '2780433915', '63398376', '2776139558', '2781193452', '2776265578', '2909868111', '2777803996', '2781206490', '2781094106', '192536144', '3641667', '119128265', '2776082207', '508466165', '107674354', '148809924', '20992447', '2776115401', '31954745', '2779987062', '2779290800', '2778391067', '199535368', '2779140988', '197248824', '2780860784', '190791664', '2778291008', '136571751', '159750122', '78091846', '14362708', '2778771466', '2779071118', '46576788', '2779298159', '82161046', '2780143158', '2909168288', '2780737616', '502230775', '23531484', '2776023875', '2778160301', '2779363728', '2777845105', '2778658382', '204676250', '68701300', '113513581', '2776445371', '2776364969', '2776093933', '2776660552', '2780401329', '2779950014', '173917561', '680168', '2777626579', '141896089', '201490090', '2778390475', '81662871', '2780466853', '2777605225', '2781288472', '34824556', '83419821', '132000320', '2780797831', '2779958227', '2779310246', '2910880568', '2910224097', '2779708862', '510239367', '2777704720', '186348155', '122120755', '105442212', '150320492', '2776711594', '111368507', '2780072470', '2778098436', '62329434', '101677414', '2777183552', '2780727990', '2777774347', '2775870103', '2780492012', '2779429622', '152382732', '2780041246', '2779215912', '2778316768', '2908904675', '2776856712', '2777981335', '130094819', '14080524', '2910167436', '149340888', '67467970', '149348798', '2911123808', '2776263494', '2908583363', '2909007308', '95803793', '97832226', '2777022838', '2780429984', '2779427263', '2911073633', '2779000468', '2778902744', '11864286', '153279818', '2777833858', '2775936106', '2780513199', '84766238', '2778484786', '2781352123', '2776840061', '553184892', '2777492549', '143020374', '22372391', '139369640', '2776841996', '2779926843', '2910276620', '76256466', '2780182046', '172269249', '2776665667', '88862950', '139679275', '5465852', '151152651', '129513315', '2780417240', '143517461', '2775897068', '2910628358', '197531578', '509746633', '2779735984', '544153396', '94386200', '514101110', '2780623117', '2779656528', '2776036478', '2779000830', '2779282177', '2780853707', '2777590139', '2777751868', '2776384079', '2776654248', '2778502483', '2780313869', '186699998', '2780277248', '115314567', '74501621', '2777677976', '135310875', '106978037', '77942228', '122629976', '2781102901', '2776236458', '145818215', '2910560996', '186632785', '2777138484', '172567333', '134097258', '164958353', '559758991', '2911128794', '152453397', '117773394', '113516966', '189047708', '72634772', '42088612', '2910011389', '95628711', '158836135', '153102810', '111874474', '2779991348', '14429324', '2780127386', '2776620890', '117480383', '65193109', '2780097091', '2776982523', '165082838', '2776824459', '2780111930', '2779267909', '2781257293', '2908713750', '2779409326', '2778662190', '2779909984', '2779623515', '134486438', '187457775', '2778753582', '68874143', '18918823', '2778945231', '74126248', '2781118390', '2780008901', '154098486', '173764188', '156380964', '2779325724', '24061886', '2777550468', '168857316', '113416529', '81077568', '52881836', '76177295', '2776675269', '2909786488', '2781279111', '2781348932', '165107724', '81855063', '207177822', '2779321494', '2779873548', '146864707', '62648534', '2777883778', '2910075364', '2779590308', '2776911068', '505870484', '2908811810', '2776362581', '2777768678', '110175623', '58479451', '202041845', '2778939721', '2776499504', '2779814588', '134037308', '14918906', '2779944326', '2780559241', '73849760', '72958200', '115961737', '2777187009', '2780384893', '2777267482', '2909931160', '98083399', '144492951', '2778896599', '108469399', '2909678590', '187599188', '2780498771', '2781032902', '33275205', '2779522410', '120221134', '83873828', '2909961269', '2778900803', '88160329', '2779164741', '162284963', '132543647', '2778867918', '85721925', '2777542811', '2780040469', '2776538778', '2908556935', '514928085', '2910221061', '77867282', '2910188331', '36516193', '2778851755', '22070199', '2777784394', '207769581', '2777246098', '2910001868', '68553557', '2909574991', '68800169', '2777526573', '49427245', '123281439', '2910958197', '2780756971', '140302290', '13474642', '116003164', '2779042980', '2780532849', '2777798493', '190157891', '2780982499', '130066347', '2910800256', '2777403171', '152613627', '2777631861', '82988372', '2909168245', '2776874447', '123750103', '2908979931', '2778018375', '2909885882', '2909580760', '39077098', '79367842', '120441037', '2776056526', '150418976', '2780002354', '2777587947', '2780351957', '2777306872', '2777676849', '2778478447', '2777406646', '2909377626', '2910466017', '2780446934', '2908969040', '63460653', '2776367567', '2778525234', '2779421218', '2776590149', '86839594', '145151356', '60500638', '129934472', '2779427562', '136894858', '2780495617', '16989226', '33613203', '2777110004', '2778327988', '2776415932', '135895429', '47161852', '154283680']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Genetic monitoring', 'Deep sea', 'Fishing line', 'Ocean acidification', 'Shrimp farming', 'Orange roughy', 'Pocillopora', 'SWEAT', 'Shrimp fishery', 'Longline fishing', 'Clothing technology', 'Silky shark', 'Cetacea', 'Stakeholder management', 'Commercial fishing', 'Sexual maturity', 'Effective population size', 'Detection limit', 'Perciformes', 'Fishing industry', 'Estuarine water circulation', 'Wave setup', 'Atmospheric escape', 'Prawn', 'Skipjack', 'Mussel', 'Herring', 'Trawling', 'Coarse fishing', 'Oncorhynchus', 'Seawater', 'Tiger shark', 'Infragravity wave', 'Rate of exploitation', 'Morpholino', 'Soil water', 'Thermohaline circulation', 'Iterative deepening depth-first search', 'Fish as food', 'Ecosystem approach', 'Genetic structure', 'Sustainable fishery', 'Arboreal locomotion', 'Porites', 'Tissue calcification', 'Conservation status', 'Arsenic', 'Calibration curve', 'Debris', 'Penaeus monodon', 'Trout', 'Deep scattering layer', 'Oreochromis', 'Morphant', 'Polyculture', 'Exclusive economic zone', 'Dicentrarchus', 'Oyster', 'Sea cucumber', 'Smoked fish', 'Microplastics', 'Flatfish', 'Catch and release', 'Pharyngula', 'Anthozoa', 'Fish farming', 'Stock assessment', 'E-research', 'Hydrobiology', 'Porcupine Abyssal Plain', 'Dried fish', 'Coral Triangle', 'Underwater glider', 'Rainwater harvesting', 'Macrophyte', 'Fish stocking', 'Hatchery', 'Least Developed Countries', 'Dietary fish oil', 'Lunar Cycle', 'Robot fish', 'Fisheries law', 'Whale', 'Waves and shallow water', 'Mixed layer', 'Feed-in tariff', 'Ocean surface topography', 'Lamniformes', 'Oceanography', 'Cyprinodontiformes', 'Demersal fish', 'Marine debris', 'Surface pressure', 'Ocean acoustic tomography', 'Onchocerciasis', 'Sea level rise', 'Commoner', 'Marine pollution', 'Litter', 'Shore', 'Otolith', 'Sardine', 'Menhaden', 'Search - action', 'Shortfin mako shark', 'Seabird', 'Ecosystem management', 'Wave–current interaction', 'Gilthead Seabream', 'Bycatch', 'Underwater acoustics', 'Upwelling', 'Th1 immune response', 'Gillnetting', 'Human population genetics', 'Spiny dogfish', 'CITES', 'Spring bloom', 'Maximum sustainable yield', 'Fish reproduction', 'Fish marketing', 'Immune response gene', 'Sprat', 'Diatom', 'Paleoceanography', 'Stocking', 'Anchoa', 'Aphanizomenon', 'Electrofishing', 'Crustacean', 'Striped trumpeter', 'Bottom trawling', 'Bottlenose dolphin', 'Flow cytometry', 'Krill', 'Coral', 'Marine technology', 'Amperometry', 'Shrimp', 'Organic form', 'Anisakis simplex', 'Hydrography', 'Wave power', 'Marine invertebrates', 'Ocean fisheries', 'Irrigation', 'Oceanic climate', 'Red tide', 'Marine ecosystem', 'Salinity', 'Lamprey', 'Renewable resource', 'Milkfish', 'Increased body temperature', 'Cabled observatory', 'Climate change mitigation', 'Jellyfish', 'Metal', 'Fish mortality', 'Fishing', 'Destructive fishing practices', 'Yellowfin tuna', 'Anabaena circinalis', 'Anisakidae', 'Turbot', 'Deep-water coral', 'Live food', 'Carcharhinus', 'Marine mammal', 'Freshwater fish', 'Scallop', 'Sparidae', 'Eutrophication', 'Coastal Zone Management Act', 'European Union law', 'Sea level', 'Epizootic ulcerative syndrome', 'Fjord', 'Panmixia', 'Pelagic zone', 'Fringing reef', 'Hydroacoustics', 'Bioirrigation', 'Aphotic zone', 'Blood Screening', 'Littoral zone', 'Subirrigation', 'Game fish', 'Sea surface temperature', 'Fish measurement', 'Algae', 'Prepared fish', 'Drip irrigation', 'Fish migration', 'Fish hatchery', 'Limnology', 'Data integration', 'Lake ecosystem', 'Dietary Fish', 'Protolith', 'Zooplankton', 'Diel vertical migration', 'Impact assessment', 'Skipjack tuna', 'Mariculture', 'Swordfish', 'Macrobrachium', 'Atoll', 'Groundfish', 'Halimeda', 'Amberjack', 'Wind wave', 'Fishing net', 'Artisanal fishing', 'Marxan', 'Grass carp', 'PH decrease', 'King mackerel', 'Common sole', 'Mytilus', 'Coralline algae', 'Forward genetics', 'Bottom fishing', 'Aureococcus anophagefferens', 'Mangrove', 'Tourism', 'Smith–Magenis syndrome', 'Shoaling and schooling', 'Integrated coastal zone management', 'Sea bass', 'Big-game fishing', 'Bioreporter', 'Bioenergy', 'Anguillidae', 'Overfishing', 'Antarctic toothfish', 'Commercial fish feed', 'Marine conservation', 'Escape response', 'Marine energy', 'Groundwater', 'Serranidae', 'Sea herring', 'Dredging', 'Anatidae', 'International waters', 'Large marine ecosystem', 'Genetic screen', 'Whiteleg shrimp', 'Crab fisheries', 'Internal wave', 'Species diversity', 'Gadus', 'Solea senegalensis', 'Acropora', 'Sea louse', 'Fishery', 'Papua New Guinean', 'Essential fish habitat', 'Fish trap', 'Broodstock', 'Fish stock', 'Fisheries management', 'Oyster farming', 'Artificial reef', 'Cyprinidae', 'Marine habitats', 'Virtual population analysis', 'Bigeye tuna', 'Seine fishing', 'Coral reef protection', 'Trophic level', 'Juvenile', 'Intermagnet', 'Danio', 'Fish aggregating device', 'Literature reviewing', 'Underwater', 'Coral reef fish', 'Fish products', 'Plankton', 'Sprattus sprattus', 'Ocean current', 'Pocillopora damicornis', 'Fisheries Research', 'Mesopelagic zone', 'Scratchpad memory', 'Gulf Stream', 'Coarse woody debris', 'Anisakis sp.', 'Coastal management', 'Estuary', 'Bycatch reduction device', 'Submarine pipeline', 'Electrochemical cell', 'Incidental catch', 'Population genetics', 'Sailfish', 'Catch per unit effort', 'SensorML', 'Stock Recovery', 'Capitalism', 'Blue marlin', 'Great Pacific garbage patch', 'American shad', 'Cod fisheries', 'Fisheries Act', 'Vaccination', 'Sturgeon', 'Marine reserve', 'Condition index', 'European union', 'Demersal zone', 'New Guinean', 'Marine protected area', 'Freshwater inflow', 'Commons', 'Fishing down the food web', 'Argyrosomus regius', 'Management fad', 'Water mass', 'Invertebrate', 'Fish physiology', 'Ecosystem-based management', 'Tuna', 'Perch', 'Hermatypic coral', 'Abalone', 'Spectroradiometer', 'Bottlenosed dolphin', 'Splitter', 'Overexploitation', 'Poeciliidae', 'H5N1 genetic structure', 'Autoimmune responses', 'Anglerfish', 'Ice sheet', 'Simple sample', 'Fisheries co-management', 'External parasites', 'Prionace glauca', 'Biosurvey', 'Coral reef', 'Primary energy', 'Limacina helicina', 'Stock management', 'Fish preservation', 'Ocean Observatories Initiative', 'Teleostei', 'Shorea', 'Glitter', 'Mercury in fish', 'Mackerel', 'Artificial feeds', 'Hippoglossus hippoglossus', 'Wild fisheries', 'Reference Document', 'Fish locomotion', 'Flounder', 'Anchovy', 'Bonefish', 'Hydrodynamic escape', 'Photic zone', 'Rossby wave', 'Physical oceanography', 'River ecosystem', 'Chondrichthyes', 'Sea ice', 'Marine life', 'Environmental change', 'Seabed', 'Vessel monitoring system', 'Albacore', 'Western blot', 'Fisheries science', 'Forage fish', 'Organic base']</t>
         </is>
       </c>
     </row>
@@ -872,29 +872,29 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89</v>
+        <v>566</v>
       </c>
       <c r="C16" t="n">
         <v>89</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[127937792, 2781082115, 2991716355, 2993522167, 181634566, 188117511, 513806601, 166548495, 53565203, 30968088, 2780397596, 124886560, 2780296995, 152491559, 2994269480, 2776142123, 189569837, 2992994097, 2910933305, 2781377344, 2779860289, 180395843, 2911066951, 65857100, 2910366284, 202682190, 2777952078, 2993248848, 2779329624, 147366489, 179768671, 155461473, 2776889954, 25598563, 103215972, 2780638564, 2779562855, 2778899818, 13112181, 24518262, 2777707638, 173727605, 2778718584, 6330744, 2993839484, 189518720, 188206468, 201920390, 2781135501, 102720910, 31262351, 2992867484, 2992639136, 2992267684, 64229544, 2993989291, 105234605, 198979508, 2908851637, 2780267512, 20450499, 32120771, 2780386243, 180440007, 2992462279, 22215628, 92274894, 43827410, 126589399, 116607704, 78991832, 2992057050, 2994246104, 25147867, 2779485152, 2983513313, 2781303777, 153427425, 2910018276, 2780769250, 38838508, 2778208748, 40141808, 132124917, 15147509, 186493943, 141151480, 74948603, 2777938942]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Species evenness', 'Picathartes', 'Nest site', 'Species at risk', 'Realized niche width', 'Biological integrity', 'Applied ecology', 'Wildlife management', 'Species richness', 'Diversity index', 'Distinct population segment', 'Habitat fragmentation', 'Asclepias meadii', 'Macroecology', 'Biodiversity assessment', 'Species at Risk Act', 'Metapopulation', 'Animal ecology', 'Isotria medeoloides', 'Conservation of fungi', 'Population decline', 'Rare species', 'Dalmatian pelican', 'Conservation psychology', 'Poephila cincta', 'Insular biogeography', 'Nature Conservation', 'Biodiversity index', 'Important Bird Area', 'Wildlife conservation', 'Ecosystem diversity', 'Critically endangered', 'Howellia', 'Plant life-form', 'Environmental niche modelling', 'Bird conservation', 'Insect biodiversity', 'Metacommunity', 'Ecological release', 'Threatened species', 'Vascular plant', 'Ruderal species', 'Environment Protection and Biodiversity Conservation Act 1999', 'Habitat conservation', 'Plant diversity', 'EDGE species', 'Coextinction', 'Home range', 'Boltonia decurrens', 'Canonical correspondence analysis', 'Foundation species', 'Habitat suitability', 'Conservation science', 'Tropical biodiversity', 'Habitat destruction', 'Community diversity', 'Keystone species', 'Forest fragmentation', 'Eastern bristlebird', 'Nestedness', 'Detrended correspondence analysis', 'Ecosystem engineer', 'Important Plant Areas', 'Novel ecosystem', 'Food resources', 'Indicator species', 'Sympatry', 'IUCN Red List', 'Umbrella species', 'Population viability analysis', 'Niche differentiation', 'Dead wood', 'Biodiversity conservation', 'Beta diversity', 'Convention on Biological Diversity', 'Conservation planning', 'Assembly rules', 'Biodiversity hotspot', 'Little spotted kiwi', 'Curassow', 'Local extinction', 'Ungulate', 'Niche segregation', 'Species distribution', 'Conservation reliant species', 'Conservation grazing', 'Agricultural biodiversity', 'Calcareous grassland', 'Wildlife refuge']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['173795300', '192241223', '112077630', '2776285232', '2780505049', '2778673487', '2779146456', '2778091200', '189569837', '2780998164', '202216756', '2780606388', '20450499', '78458016', '2910587469', '59898753', '2779860289', '2776042228', '2778425908', '40667233', '156086215', '82447923', '2780775713', '2776278397', '2777480484', '2778399496', '2908641340', '6330744', '22344907', '2780086105', '81860439', '173979980', '112058002', '97854310', '2776978901', '2776335591', '2778157034', '2776054349', '66782513', '2776687813', '186493943', '2776500793', '2778788904', '2909351924', '2777707638', '119249163', '2780066083', '62569174', '45152089', '502990516', '203174812', '32120771', '28631016', '2780235837', '20664614', '2780671300', '172427765', '63651461', '84927040', '48743137', '2776857380', '2781353100', '196313609', '130094819', '154440439', '2777534865', '51244244', '2781198671', '194691359', '141185391', '91354502', '85675897', '172817999', '203731517', '23119410', '181060458', '153823671', '2775929138', '2016182', '2775832765', '144027150', '2780540120', '89920630', '2777472530', '122748992', '2778617593', '147103442', '2776248522', '2777658277', '2778148510', '2779223538', '2779848557', '121412344', '2777380357', '2779004245', '2778830712', '2778364563', '31262351', '2781181605', '2910297771', '73593433', '126343540', '2781168613', '2779081038', '205400985', '186632785', '2779179000', '139496715', '2779867007', '25598563', '2777575642', '62158283', '120806208', '2779350201', '179345059', '2779732188', '2777952078', '2780871101', '2778358892', '67268981', '2777253967', '126408429', '2779128174', '2908870468', '2777549804', '197011783', '189307558', '2779779727', '136020623', '173651095', '147366489', '2781172998', '2776159474', '105234605', '2776325102', '40141808', '2781131740', '2910062542', '74250896', '116607704', '2778728749', '2778205388', '2779442720', '93944068', '180395843', '2779381216', '2778017510', '2776150259', '2775966360', '2910069184', '2776121688', '2779796875', '2781275782', '118694661', '2781166178', '187651312', '97094461', '181634566', '49461877', '2779249804', '191440113', '2776421481', '38838508', '2778361644', '2779562855', '188117511', '2910374867', '2779179816', '125069764', '4590074', '535291247', '56095865', '121850381', '2781208722', '71482194', '2777890039', '145097563', '169684477', '14624660', '195330766', '108216600', '2776834102', '91770344', '514011633', '2780189059', '2777084958', '2778580364', '118592710', '188442384', '63797996', '2779204379', '29760336', '68775195', '2776824989', '2778718584', '2777758229', '38774213', '116370137', '155987862', '2780900284', '78991832', '2777132354', '51832835', '15147509', '2778625682', '125620115', '2777796192', '151788092', '2909659530', '162980758', '99743013', '161189057', '176585087', '132124917', '2779679852', '13558536', '139669111', '162501224', '2776678335', '150381032', '16884802', '88776829', '2776217272', '70666977', '31568149', '149207113', '2776654049', '141005173', '64015301', '2780816530', '123917164', '2780339060', '16397148', '25382069', '143389717', '2776426263', '2780993040', '176943803', '43003075', '120217122', '33411773', '17206440', '2777106113', '111643386', '167296696', '192392207', '155015343', '64551749', '42731165', '2908538994', '89862778', '2775874878', '30968088', '94598645', '114260506', '154575652', '73872442', '102720910', '2778899818', '2780948830', '74948603', '157021035', '487182', '182124840', '2775999090', '2780713402', '65857100', '73580989', '26785111', '2780167305', '2777256092', '25147867', '103215972', '2781436638', '2780397596', '130217890', '2777380792', '2776388979', '199877563', '2780648208', '2777299372', '2776316369', '157460569', '204513146', '2779485152', '2779369318', '2780267512', '2780876601', '2780394310', '2775838554', '2777642157', '127937792', '2776892409', '2777944067', '2776565828', '158215666', '198979508', '2777350553', '198150046', '65680412', '2776070465', '126914827', '2777701676', '92494378', '2777341207', '2909743892', '2779007161', '2909898454', '2776026763', '22215628', '2776562576', '60989497', '202552767', '196687554', '2777051234', '2779455803', '156858999', '2781231445', '2776492830', '4792198', '2776142123', '28665490', '184603391', '2777635537', '39571515', '2910586351', '141151480', '2780185008', '2776554196', '20535997', '2778568511', '2777007095', '532801124', '2778208748', '2780748813', '2778376790', '2780051358', '2780074531', '2777061799', '2780105985', '173727605', '89295123', '194187813', '68189081', '2777802595', '6514731', '2778152828', '2779691961', '133382796', '64229544', '2776623689', '2778049214', '53208351', '521815418', '113052830', '2909358641', '2776958554', '167393769', '2780001261', '2909590276', '194229684', '13112181', '89236255', '52896960', '2777253841', '2777294933', '2777893444', '127634017', '2777904157', '2777434770', '2777189468', '152491559', '109717640', '47936110', '28362043', '24717449', '2910552428', '2780815956', '96313414', '2776321234', '8328733', '128058477', '2776724825', '112149622', '2780590845', '2775841215', '2776402519', '57664001', '2779142801', '2777111047', '53565203', '18832751', '2776259809', '2777042369', '2776331030', '2779152076', '97137747', '187604713', '93707483', '2777154535', '93765907', '153427425', '56685638', '112939947', '35306142', '2778055474', '168368505', '2778885274', '2778433175', '2775938548', '185933670', '2776853598', '2781206450', '175760724', '34070608', '2781303777', '2780179066', '2778551664', '79339454', '2619416', '198815454', '559400886', '1549246', '2778951896', '69514717', '2780946806', '87621631', '33283694', '189797535', '2779658209', '41478065', '2777988102', '71762439', '72286879', '179768671', '2779562289', '2779043415', '2780638564', '2777498119', '2776385305', '139019045', '73952413', '2781061397', '2779329624', '109902934', '67715294', '71827079', '2780110543', '95869378', '64966480', '135935922', '108738950', '112276597', '33559203', '2781168966', '2778898053', '169282265', '154702282', '43827410', '201920390', '36727532', '2909575586', '2779720641', '2911181876', '2779287364', '2778506879', '62648534', '513535597', '137607661', '202682190', '2780977904', '176933379', '2776191655', '2778870400', '61703769', '2776057494', '2776107028', '20529654', '53002841', '2777707811', '31377225', '2778170267', '2779869275', '2775835988', '2780328347', '2776682078', '23519681', '123336316', '201401522', '124886560', '2776596991', '2779979769', '162012527', '171205284', '151107107', '180440007', '2910945474', '2780004239', '2777387638', '2779294082', '197320908', '2775891814', '166548495', '183889291', '91067096', '2780354846', '2777399377', '53571324', '2909135477', '7435765', '2780696901', '2777589951', '2781397391', '2776096895', '46685645', '555313981', '2778203884', '2780528068', '189518720', '24518262', '2781182717', '129225989', '155461473', '513806601', '98940541', '2780500427', '60359462', '150436541', '2908658503', '2776709785', '2779042980', '139518226', '2781003712', '25989453', '12429862', '2778348119', '55347375', '2777989319', '2776801807', '58941895', '2777938942', '161272170', '2777249847', '42435023', '2779895041', '12064787', '146188434', '2780297341', '2780848231', '54625482', '54286561', '2777692458', '92274894', '86409407', '2778483809', '126589399', '2780057273', '59804570', '2910086784', '147273371', '24037442', '67961754', '105462344', '2778226232', '45920995', '2780473643']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Salvage logging', 'Volcanic rock', 'Irrigation management', 'Tropical forest', 'Tamarix', 'Moisture stress', 'Sustained yield', 'Shrub', 'Metapopulation', 'Safe Drinking Water Act', 'Ethnobotany', 'Protection forest', 'Detrended correspondence analysis', 'Evolutionary biology', 'Panicum miliaceum', 'Shrubland', 'Population decline', 'Asthma', 'Forest genetic resources', 'Agroecological restoration', 'Soil ecology', 'Sagebrush Rebellion', 'Iliana', 'Revegetation', 'Advanced very-high-resolution radiometer', 'Transit-oriented development', 'Induced malaria', 'Habitat conservation', 'Agricultural diversification', 'Forest product', 'Internet of Things', 'Metasearch engine', 'Hardwood timber production', 'Search engine', 'Tree breeding', 'Forest Vegetation Simulator', 'Sorghum', 'Vegetation classification', 'Biomedicine', 'Brachypodium pinnatum', 'Conservation grazing', 'Beech', 'Bactris', 'Annual Weeds', 'Vascular plant', 'Felling', 'Repartition', 'Tropical and subtropical grasslands, savannas, and shrublands', 'Floristics', 'Agricultural land', 'Woodland', 'Ecosystem engineer', 'Forest management', 'Nothofagus', 'Urban ecosystem', 'Mixed grass prairie', 'Vegetation', 'Tropical agriculture', 'Interval tree', 'Organic matter', 'Xylophilus', 'Thinning', 'Land improvement', 'Ecosystem management', 'Indigenous and community conserved area', 'Land consolidation', 'Planet', 'Aphelenchoididae', 'Liana', 'Soil retrogression and degradation', 'Basal area', 'Soil management', 'Soil functions', 'n-vector', 'Six Sigma', 'Aridification', 'Water resources', 'Coffea', 'Animal breeding', 'Striga', 'Horticulture', 'Wetland conservation', 'Biome', 'Catch crop', 'Gradient analysis', 'Biocultural diversity', 'Forest inventory', 'Conservation Plan', 'Urban growth boundary', 'Bioeconomics', 'Protected area', 'Copayment', 'Pulpwood', 'Rainfed agriculture', 'Tilth', 'Nematode', 'Luxembourgish', 'Foundation species', 'Soil solarization', 'Bioindicator Species', 'Denitrification', 'Crop yield', 'Conservation development', 'Grazing pressure', 'DMAIC', 'Littoral zone', 'Grassland degradation', 'Deforestation', 'Ex situ conservation', 'Plant life-form', 'Sesbania', 'Species translocation', 'Volcano', 'Rhabditidae', 'Endangered species', 'Tax exemption', 'Nature Conservation', 'Paper recycling', 'Ruminantia', 'Marsh', 'Sphagnum', 'Soil health', 'Scots pine', 'Fire forest', 'Ratooning', 'Denitrifying bacteria', 'Great Green Wall', 'Agrostis capillaris', 'Invasive species', 'Introduced species', 'Wildlife conservation', 'Attalea', 'Wetland methane emissions', 'Keystone species', 'Water-use efficiency', 'Niche segregation', 'Pinus pinaster', 'Monochamus alternatus', 'Planet V', 'Population viability analysis', 'Molinia caerulea', 'Extinction probability', 'Bursaphelenchus xylophilus', 'Phytogeography', 'Rare species', 'Stipa tenacissima', 'Land grabbing', 'Automobile dependency', 'Silviculture', 'Right palm', 'Virtual water', 'Lupinus angustifolius', 'Biodiversity offsetting', 'Climax community', 'Stump harvesting', 'Kenya', 'Forest farming', 'Realized niche width', 'Mixed farming', 'Staple food', 'DNS root zone', 'Monodominance', 'Local extinction', 'Yield gap', 'Insect biodiversity', 'Biological integrity', 'Heterorhabditis megidis', 'pH indicator', 'Tundra', 'Community', 'Amazon rainforest', 'Afforestation', 'Certified wood', 'Intercropping', 'Dryland salinity', 'Weed science', 'Payment', 'Minimum tillage', 'Pilotage', 'Fire ecology', 'Tropical and subtropical dry broadleaf forests', 'Land consumption', 'Overgrazing', 'Traditional knowledge', 'Soil stabilization', 'POWER8', 'SIPOC', 'OLE for Process Control', 'Temperate forest', 'Phytoremediation', 'Farmland protection', 'Site plan', 'Range tree', 'Metavolcanic rock', 'Environment Protection and Biodiversity Conservation Act 1999', 'Coryphoideae', 'Soil fertility', 'No-till farming', 'Selection cutting', 'Nardus stricta', 'Niche differentiation', 'Shelterwood cutting', 'Environmental management system', 'Conservation reliant species', 'High forest', 'Logging', 'Exclosure', 'Moorland', 'Motorized vehicle', 'Ignition SCADA', 'Kyoto Protocol', 'Coulee', 'Bioindicator', 'Species distribution', 'Land titling', 'Cropping', 'Understory', 'Palynology', 'Wilt disease', 'Special Area of Conservation', 'Secondary succession', 'Tussock', 'Poaching', 'Line of greatest slope', 'Near-threatened species', 'Water use', 'Conservation finance', 'Shifting cultivation', 'Genome Biology', 'Forest protection', 'Bumper crop', 'Subsoiler', 'Tillage', 'Seral community', 'Prime farmland', 'Urban forest', 'National park', 'Vulcanian eruption', 'Socialist economics', 'Precision agriculture', 'Bulk soil', 'Land development', 'Crop simulation model', 'UV degradation', 'Fertigation', 'Clearcutting', 'Plant breeding', 'Volcanic ash', 'Environmental soil science', 'Vascular implant', 'Air rights', 'Marginal land', 'Diversity index', 'Palm', 'Hyperaccumulator', 'Reforestation', 'Land restoration', 'Canonical correspondence analysis', 'Metacommunity', 'Stubble-mulching', 'Calcareous grassland', 'Biodegradation', 'Urban sprawl', 'Soil organic matter', 'Joint Forest Management', 'Acacia', 'Conservation psychology', 'Biodiversity action plan', 'Soybean management practices', 'Agrometeorology', "People's Republic", 'Beta diversity', 'Environmental niche modelling', 'Whitefly', 'Distinct population segment', 'Biodiversity', 'Exclusionary zoning', 'Red edge', 'Ecotone', 'Land cover', 'Glucuronoxylan', 'United Nations Convention to Combat Desertification', 'Synergy', 'Indicator plant', 'Convention on Biological Diversity', 'UrbanSim', 'Nestedness', 'Rhabditida', 'Bouteloua gracilis', 'Consumptive water use', 'Phoenix canariensis', 'Species evenness', 'Brassica carinata', 'Crop weed', 'Tree inventory', 'Formant', 'Forest fragmentation', 'Product marketing', 'Biogeomorphology', 'Terrestrial ecosystem', 'Heterorhabditis', 'Flagship species', 'Bursaphelenchus', 'Temperate rainforest', 'Sustainable land management', 'Brazil nut', 'Forest degradation', 'Plant Weeds', 'Sanjiang Plain', 'Indicator species', 'Plant strategies', 'Red List Index', 'Market value', 'De-extinction', 'POWER5', 'Local community', 'Gallery forest', 'Asynergy', 'Dipterocarpaceae', 'Land use', 'Species at Risk Act', 'Lowland semi-natural grassland', 'Land-use planning', 'Landscape-scale conservation', 'Undergrowth', 'Orange Tree', 'Agricultural biodiversity', 'Land-use conflict', 'Evergreen forest', 'Tree rotation', 'Monogastric', 'Moderate-resolution imaging spectroradiometer', 'Crop protection', 'Ungulate', 'Sustainable management', 'Habitat Conservation Plan', 'Astrocaryum', 'Public land', 'Crop wild relative', 'Built-up area', 'Ruderal species', 'Forest pathology', 'Genetic erosion', 'Fossil fuel', 'Crop insurance', 'National Hydrography Dataset', 'Clogging', 'Artemisia annua', 'Secondary forest', 'Habitat destruction', 'Yield mapping', 'Sigma', 'Tree rearrangement', 'Web search engine', 'Land degradation', 'Cherimoyas', 'Plant nursery', 'Adaptive strategies', 'Amazonian', 'UV resistance', 'Values', 'Ecological release', 'Traditional knowledge GIS', 'Biodiesel', 'Evidence-based conservation', 'Mixed-use development', 'Land administration', 'h-vector', 'Grazing', 'Water pricing', 'Anthracology', 'Macroecology', 'Biological pollution', 'Natural farming', 'Hydric soil', 'Primary production', 'Pinewood nematode', 'Natura 2000', 'Primary succession', 'Common land', 'Tree planting', 'Contour plowing', 'Stillage', 'Biotope', 'Iriartea', 'Sustainable forest management', 'OPC Unified Architecture', 'Agroecosystem', 'Q value', 'Forestal', 'Species richness', 'Ecological genetics', 'Ammophila arenaria', 'Mechanical weed control', 'Forester', 'Smart growth', 'Forestry', 'Global biodiversity', 'Bioclimatology', 'Controlled traffic farming', 'Phytoextraction process', 'Biodiversity hotspot', 'Power control', 'Green Revolution', 'Extinction event', 'Tree farm', 'OPC Historical Data Access', 'Oenocarpus bataua', 'Brazilin', 'Thematic Mapper', 'Habitat', 'Stand development', 'Multiple use', 'Crop rotation', 'Cover crop', 'Assembly rules', 'Disc harrow', 'Larch', 'Regional Red List', 'Rainforest', 'Soil seed bank', 'Land management', 'Normalized Difference Vegetation Index', 'Rangeland management', 'Ecohydrology', 'Plant functional type', 'Taiga', 'Deciduous', 'Drought tolerance', 'Monochamus', 'Surface irrigation', 'Pratylenchus', 'Arable land', 'Prescribed burn', 'Ecosystem diversity', 'Continuous cover forestry', 'Mediterranean sea', 'Bird conservation', 'Fire prevention', 'Industrial fire', 'Viticulture', 'OPC Data Access', 'Trifolium subterraneum', 'Important Bird Area', 'Volcanology', 'Wetland', 'Acid rain', 'Arecaceae', 'Pyroclastic rock', 'Edaphology', 'Bivector', 'Summer fallow', 'Measurement of biodiversity', 'Desertification', 'In situ conservation', 'Vegetation type', 'Molecular breeding', 'Temperate deciduous forest', 'IUCN Red List', 'Home range', 'Educational research', 'Steinernema carpocapsae', 'Ecological resilience', 'Heterorhabditis sp.', 'Statistical database', 'Land Values', 'Species diversity', 'Low-carbon economy', 'Land tenure', 'Insular biogeography', 'Urban forestry', 'Natural rubber', 'Ecoregion', 'Mitigation banking', 'Land information system', 'Monochamus galloprovincialis', 'Forest dynamics', 'Topsoil', 'Plant community', 'Chaparral', 'Defects per million opportunities', 'Land-use forecasting', 'Calluna', 'Grassland', 'Science policy', 'Farmland preservation', 'Montane ecology', 'Product market', 'Plant cover', 'Habitat fragmentation', 'Cultural methods', 'Watershed Central', 'Natural capital', 'Plant reproduction', 'Terroir', 'Novel ecosystem', 'Gooseberries', 'Heterorhabditis bacteriophora', 'Forestry law', 'Lolium rigidum', 'Pioneer species', 'Weed', 'Wildlife management', 'Crop residue', 'Megafauna', 'Local adaptation', 'DSSAT', 'Nature reserve', 'Cluster beans', 'Test Management Approach', 'Conventional tillage', 'Irrigation scheduling', 'Raphanus raphanistrum', 'Seedling', 'Freshwater ecosystem', 'Tropical rainforest', 'National Resources Inventory', 'Plant nutrition', 'EDGE species', 'Threatened species', 'Deschampsia flexuosa', 'Cash crop', 'Critically endangered', 'Applied ecology', 'Environmental design and planning', 'Stover', 'Extinction', 'Forb', 'Workshop building', 'Dryland farming', 'Ecosystem-based management', 'Sclerophyll', 'Ruminant', 'Leaf area index', 'Cultural landscape', 'Wood industry', 'Cultural control', 'Illegal logging', 'Pinus radiata', 'Ecosystem services', 'Wildlife refuge', 'Design for Six Sigma', 'Forest produce', 'Animal nutrition', 'Land footprint', 'Alternative stable state', 'Tropical savanna climate', 'Ramsar site', 'Sweet sorghum', 'Community forestry', 'Agroforestry', 'Relative growth rate', 'Sympatry', 'Dendrometry', 'Pinus thunbergii', 'Umbrella species', 'Green infrastructure', 'Soil governance', 'Wild Fires', 'Weed control', 'Forest restoration', 'Arboriculture', 'Nutrient management', 'Pesticide application', 'Intraspecific breeding', 'Entomopathogenic nematode']</t>
         </is>
       </c>
     </row>
@@ -905,29 +905,62 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>188</v>
+        <v>562</v>
       </c>
       <c r="C17" t="n">
         <v>188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>[2777732099, 142546437, 100505606, 2777596936, 2982933515, 5570062, 2778958867, 2991699479, 37497375, 199568422, 39462953, 123587114, 2776949292, 139475501, 125209646, 2779449393, 185874996, 180872759, 110099512, 157120061, 2779184190, 11473988, 106818632, 2992442957, 2779279438, 70587473, 110346835, 179133015, 524211801, 2777351259, 142806620, 133462117, 2994117223, 2779149932, 21711469, 2778061430, 2779999868, 2778698365, 2779508350, 2779131519, 2993939581, 2994386558, 2993465482, 2988891790, 62657170, 184196243, 18650270, 31196326, 86256295, 98528937, 2776475305, 39389867, 98447023, 2777976496, 2778136243, 539944628, 150710463, 195755200, 2777543875, 13184196, 128194758, 2779455174, 206836424, 2778272461, 2781213906, 25148115, 183761623, 9701087, 113706210, 59364581, 2779318504, 2780608745, 170692843, 36727532, 205112559, 58583792, 2986640111, 136810230, 163877629, 164429055, 2777825026, 2780110086, 509929229, 2778099469, 2780326160, 55447825, 83009810, 2994225426, 2994509585, 56617239, 158129432, 199776023, 2779010840, 147859227, 2780808987, 195732255, 8795937, 3020360482, 48798503, 538833194, 2778682666, 62100270, 2779903281, 110888244, 42027317, 131158328, 36289849, 2779361081, 53001019, 2780781376, 22467394, 177986884, 2777727814, 175576395, 509133132, 179454799, 2777826127, 109986646, 17319257, 2994510176, 529740132, 2778736484, 2775884135, 68643176, 2991972201, 134659438, 2776841582, 2777688943, 2777663346, 2992605556, 125109622, 202611063, 533584247, 37129596, 207096701, 542530943, 87427459, 2776862595, 170706310, 2775833480, 2983413640, 149209484, 535567245, 2778767757, 3116431, 2780155792, 2780641677, 522695570, 121242521, 162446236, 17022365, 97460637, 14224292, 204434341, 142947238, 2776598948, 111874474, 46355384, 47822265, 528167355, 1370556, 2993985469, 48764862, 521897407, 2777351106, 2781395907, 2776007630, 101173714, 2994364884, 71343576, 522453465, 2778719706, 153606108, 169437150, 130064352, 85973986, 2779353061, 62760934, 2781233147, 2780443626, 2777006572, 192562157, 84389358, 2780597233, 168646138, 76458491, 140311038, 110952447]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['Affirmative action', 'Descriptive research', 'Judicial opinion', 'Charter', 'Public access', 'Behavioural sciences', 'Decree', 'Public involvement', 'Social control', 'Voluntary association', 'Argument', 'Policy analysis', 'Jurisdiction', 'Social heuristics', 'Cultural diversity', 'Human security', 'Interdependence', 'Social group', 'Philosophy of science', 'Social development theory', 'Amendment', 'History of the United States', 'Social inertia', 'National system', 'Managerialism', 'Transformative learning', 'Precedent', 'Social system', 'Legal education', 'Regulatory reform', 'Social status', 'Data collection', 'Religious organization', 'Social conflict theory', 'Conflict resolution', 'Scholarship', 'Fiscal year', 'General assembly', 'Institutional analysis', 'Critical social work', 'Local authority', 'Vice president', 'Public work', 'Freedom of expression', 'Social value orientations', 'Philosophy of social science', 'Constitutional law', 'Public institution', 'Social network', 'Social conflict', 'Public interest', 'Corporate governance', 'Social identity theory', 'Public participation', 'School choice', 'Community building', 'Social studies', 'Social identity approach', 'Waiver', 'Dialectic', 'Development anthropology', 'Information policy', 'Social change', 'Supreme court', 'National Policy', 'Social competence', 'Peacekeeping', 'Social engagement', 'Critical theory', 'Questionnaire', 'Research design', 'Convention', 'Legal profession', 'Educational research', 'Public engagement', 'Administrative law', 'Research policy', 'Decentralization', 'Social constructionism', 'Institutionalisation', 'Public trust', 'Public service', 'International security', 'Language politics', 'Enlightenment', 'International law', 'Legislature', 'Civil rights', 'Public welfare', 'Dissenting opinion', 'Statutory law', 'Negotiation', 'Treaty', 'Public sector', 'Repeal', 'Sociology of scientific knowledge', 'Discipline', 'Policy implementation', 'Reputation', 'Civil procedure', 'Modernity', 'Conflict of laws', 'Modalities', 'Social class', 'Principle of legality', 'Social influence', 'Social science', 'Desegregation', 'Social issues', 'Citizenship', 'Multidisciplinary approach', 'Public law', 'Identity control theory', 'Consensus theory', 'Community organization', 'Ethnography', 'Commonwealth', 'Public policy', 'Statute', 'National education', 'Civil defense', 'Friendship', 'Mandate', 'Cultural studies', 'Personal competence', 'Social exclusion', 'Law reform', 'Feminism', 'Affordable housing', 'Emotional development', 'Social history', 'Social pedagogy', 'Public housing', 'Social mobility', 'Philosophy of education', 'Multiculturalism', 'Human geography', 'High Court', 'Common law', 'Freedom of information', 'Public education', 'Comparative law', 'Social philosophy', 'Gender and development', 'Public administration', 'Redevelopment', 'Solidarity', 'Legal research', 'Philosophy of medicine', 'Content analysis', 'Individualism', 'Plaintiff', 'Conceptual framework', 'Adjudication', 'Social technology', 'History of social work', 'Impact assessment', 'Compromise', 'Complex system', 'National security', 'Rhetoric', 'Public affair', 'Judicial review', 'Humanitarian aid', 'Legislation', 'Peacebuilding', 'Accountability', 'Retrenchment', 'Global transition', 'Community development', 'Social research', 'Local government', 'Humanism', 'Human rights', 'Social relation', 'Exploratory research', 'Transformative social change', 'Social transformation', 'Governor', 'Borough', 'Federal law', 'Rhetorical question', 'Discourse analysis', 'Deference', 'Cross-cultural', 'Social organization', 'Social position', 'Communication for social change']</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>['2779455057', '62100270', '140311038', '2779455174', '2780111994', '522453465', '36289849', '125109622', '2779889875', '2776663400', '538473155', '195755200', '2776325125', '34372108', '522695570', '2777785829', '2780862976', '11473988', '22111027', '2777221391', '2777838212', '2780142257', '22299250', '149209484', '2778122203', '136810230', '2776475305', '68643176', '78606420', '129603779', '142546437', '3116431', '2775907854', '131158328', '14587133', '2776310101', '88477975', '2776581254', '2908634787', '2778249305', '2776325419', '2777608298', '160443848', '2777963317', '2778029865', '205112559', '2781067771', '37129596', '2776393157', '2777671340', '202372285', '47344431', '2777234305', '2779508350', '528167355', '2777522198', '2780940336', '113706210', '2775935494', '2780700307', '2777367318', '2779184190', '70587473', '200797679', '2776018353', '2781365798', '2778215748', '2776417498', '46355384', '2779177650', '2781093426', '2776363604', '142947238', '2778618534', '2779850767', '2777244724', '2777339001', '2776934989', '2776949292', '2778479971', '2778062554', '13184196', '2777596936', '163877629', '2780005421', '2779318504', '2777705106', '2910414234', '189105814', '130064352', '202611063', '2779415726', '112299071', '2779910420', '2776373247', '111141941', '110888244', '179454799', '555379026', '525541732', '2778103768', '2776348852', '2775982628', '2780723106', '2779759067', '135342440', '162324750', '85973986', '34447519', '2778995842', '2778617593', '147103442', '2780481577', '53001019', '2778348292', '509133132', '42648095', '17319257', '2778148510', '110099512', '2776374800', '84389358', '153701036', '2778524814', '2777826127', '115314567', '74501621', '2780559051', '138238384', '2781168613', '178283979', '2777543875', '147887874', '75398335', '2778099626', '2778868856', '2778611045', '9701087', '2777132994', '122308676', '133462117', '155631102', '2779336638', '529740132', '28718268', '2911045616', '105639569', '2781078320', '2776417341', '2778299913', '2775906420', '97460637', '182448111', '2777672627', '2910956745', '2777720028', '142077812', '147366489', '131046424', '2778072170', '116166054', '557252395', '99574664', '157120061', '2779777834', '506615639', '2779448434', '509929229', '2778136243', '13934251', '22467394', '38671928', '2777351259', '169437150', '47768531', '2781406855', '538833194', '2775884135', '2779209633', '2777821299', '2779304910', '25148115', '80217655', '2779421777', '18414002', '2777854444', '2776324910', '94625758', '128194758', '46295352', '2780526558', '2780617971', '2776612076', '2777996642', '70999106', '21711469', '2778809458', '529147693', '2780813246', '2778880830', '2910948674', '48798503', '203133693', '2909257685', '2775938067', '64848388', '502529886', '2775842811', '110952447', '2780967403', '2777006572', '2780851881', '10558101', '535567245', '44249647', '2776019780', '2776271424', '2776841582', '102587632', '117364978', '2778719427', '148834064', '7340896', '121242521', '2776060186', '2909996731', '2777098093', '164429055', '2778116529', '2781213906', '39358052', '2776001114', '2908836863', '51832835', '98447023', '2780894974', '157298493', '2779390178', '2780188385', '2779683958', '98528937', '2910283248', '2910901024', '9765861', '2910871427', '2776240701', '710854', '2779677289', '2776143374', '556340858', '162718105', '35278167', '2779332937', '2779010840', '2909764464', '2780155792', '2780224667', '2778064668', '2778061430', '158561935', '2777782036', '2909735440', '82823613', '162466561', '36566018', '200314049', '49135098', '2779534595', '2781402087', '2780497665', '10511746', '2778204415', '2776855904', '204434341', '2775994463', '2778706760', '3981223', '100505606', '42298096', '524211801', '180872759', '2781035477', '2777690665', '2778736898', '2780919918', '17058734', '2778573023', '508889258', '31196326', '153606108', '2910834063', '2779999868', '2777309835', '2781012612', '2780110086', '2778682666', '2781171240', '8795937', '41150092', '2778652015', '2781051322', '2777199996', '522325796', '2780597233', '2776598948', '2776454469', '2776686254', '2777704498', '2911194376', '2781413609', '2776243541', '2780888467', '134659438', '2780808987', '58583792', '2780789983', '196927870', '2776301878', '2777386858', '2776393383', '18650270', '123587114', '2779755066', '2780826866', '2779361081', '2780300654', '184196243', '142806620', '2777341207', '35525427', '2778733213', '200457426', '104267543', '2775854416', '2777688943', '2908852235', '19159745', '168646138', '2777663346', '2780128953', '110346835', '2777503682', '48764862', '71343576', '2775905979', '62760934', '179755657', '42027317', '2776301168', '199776023', '184603391', '49504249', '2778140607', '43658493', '2910791680', '58399598', '2909332087', '71156930', '2775923278', '2778843087', '2780208563', '17520342', '2910949744', '195732255', '2780459134', '2779131519', '62657170', '73484699', '2777019632', '2776254110', '2777825026', '56404659', '2778815591', '2778348171', '2777367657', '48295401', '67141207', '20780181', '2778560467', '156460124', '2778444957', '175576395', '2778488155', '521897407', '2776576545', '2777682447', '2909566307', '2778431023', '2779363069', '2779149932', '2780495726', '158129432', '2780093650', '170007233', '2777452579', '509933004', '2779541081', '2781417087', '2779903281', '34355311', '102938260', '87427459', '2908892503', '544040105', '183135511', '14224292', '2779997466', '125209646', '171289174', '2778373993', '2781163912', '159926677', '78302928', '47822265', '191049221', '2780086982', '5570062', '39462953', '192015692', '2781233147', '533584247', '2909549230', '2780781376', '543595228', '527648132', '162446236', '2778736484', '2777546454', '2778568292', '538168058', '2777029895', '2777732099', '2776007630', '79528506', '2775833480', '2777395600', '2778391922', '2780745107', '2779423641', '189261614', '37497375', '111874474', '2779279438', '2776321090', '2780326160', '2777113782', '84515885', '83009810', '2777351106', '146032754', '2777666786', '179133015', '106818632', '2779864127', '2777749871', '542530943', '2777408017', '196697905', '2780641677', '183988256', '167595553', '199568422', '2777266375', '2910283986', '524765639', '2778719706', '2780921165', '185874996', '43827410', '36727532', '2776862595', '2909732843', '2781395907', '2778799533', '511723319', '2777360664', '184297639', '2777821203', '39389867', '2775975177', '1370556', '17022365', '2780443626', '2779453331', '2908779519', '59785166', '2779345233', '2777593458', '522003407', '55447825', '170706310', '2775908996', '202565627', '2778272461', '539944628', '2780339416', '2781402524', '27219730', '207035908', '56617239', '2780893092', '177986884', '2776594853', '138921699', '2777976496', '2776445043', '2780747039', '2778605688', '86256295', '2781118332', '159517358', '47110469', '76458491', '58823610', '2778698251', '101173714', '201960208', '2778724510', '201342494', '2909494222', '2909245448', '546784017', '2778553114', '2780608745', '2778958867', '206836424', '2776512386', '2779144152', '2778281468', '139475501', '2778767757', '2776937921', '2778698365', '555826173', '2779413435', '2778832215', '150710463', '207096701', '135721240', '2777103469', '2775854623', '138816342', '2776849891', '2779294571', '84247811', '183761623', '109986646', '48185193', '147859227', '103268943', '2777861868', '170692843', '204342414', '130881749', '2779170139', '2779878133', '2776478993', '2779655753', '2778489266', '157424077', '95691615', '165062768']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['Environmental security', 'Conflict of laws', 'Social position', 'Information policy', 'Electoral fraud', 'Social research', 'Social science', 'Social history', 'Device fingerprint', 'Publics', 'Media management', 'Social identity approach', 'Religious terrorism', 'High Resolution Melt', 'Legal research', 'Targeted surveillance', 'Conflict transformation', 'History of the United States', 'Internet security', 'Open government', 'World government', 'Metropolitan police', 'Right to property', 'Comparative law', 'Crime mapping', 'Decentralization', 'Public interest', 'Cultural studies', 'Police science', 'Welfare state', 'Descriptive research', 'Public administration', 'Security forces', 'Social influence', 'The Right to Privacy', 'Global governance', 'Broadbanding', 'Social Right', 'Pre-Registration', 'Mobbing', 'Intellectual freedom', 'Right to food', 'Per capita income', 'Competition model', 'Patent analysis', 'Public engagement', 'National DNA database', 'Social mobility', 'Digital rights', 'Social rights', 'Human resource management', 'Health policy', 'Ramsar Convention', 'Institutional analysis', 'National security', 'Universal suffrage', 'Attribute-based access control', 'Critical theory', 'Search and rescue', 'Independent living', 'Administrative law judge', 'Amendment', 'Transformative learning', 'Fingerprint', 'Rural community development', 'Online politics', 'Work–life balance', 'Transatlantic relations', 'Compromise', 'International education', 'Deliberative democracy', 'Paradata', 'Social technology', 'Preventive detention', 'E-democracy', 'Racial politics', 'Neopatrimonialism', 'Global justice', 'Jurisdiction', 'M-government', 'Security community', 'Dialectic', 'Charter', 'Social constructionism', 'Money laundering', 'Research design', 'Collaborative governance', 'Postneonatal Mortality', 'Attack', 'Social relation', 'Social pedagogy', 'Child protection', 'Infant mortality', 'Gerrymandering', 'Great Divergence', 'Immigration policy', 'Social class', 'Ethnography', 'Identity management', 'Homicide', 'Right of return', 'Crime prevention', 'Geoeconomics', 'Self-governance', 'Freedom of thought', 'Scenario', 'Economics', 'Exploratory research', 'Market economy', 'Terrorism financing', 'Biocultural diversity', 'Forest inventory', 'Small Arms and Light Weapons', 'Social issues', 'Identity politics', 'Community organization', 'State of the Environment', 'Statute', 'Bioeconomics', 'Philosophy of science', 'Reproductive coercion', 'Discourse analysis', 'Trustworthiness', 'Civil registration', 'Commonwealth', 'European Union law', 'Sea level', 'Cultural sustainability', 'Key authentication', 'Conservation development', 'Public finance', 'Waiver', 'Institutional theory', 'Collective security', 'Right to be forgotten', 'Threat assessment', 'Diaspora', 'Social engagement', 'Boundary-work', 'Decision-making', 'Data collection', 'Peace economics', 'Market abuse', 'Civil defense', 'Needs assessment', 'Civil rights law', 'Economic policy', 'Insider trading', 'Freedom of education', 'Peace movement', 'Registration fee', 'Plaintiff', 'Radio resource management', 'Domestic terrorism', 'Neonatal Deaths', 'Responsible Research and Innovation', 'Standard of living', 'Wildlife conservation', 'Energy policy', 'Dataveillance', 'Political spectrum', 'Diplomacy', 'New media', 'Social development theory', 'Enforcement', 'Command and control', 'Just society', 'International security', 'School choice', 'Internally displaced person', 'Multidisciplinary approach', 'Habeas corpus', 'Regulatory reform', 'Human rights', 'Development economics', 'Trusted system', 'Civil procedure', 'Mandate', 'Birth order', 'Developmental state', 'Academic freedom', 'Social competence', 'Realistic conflict theory', 'Administration of justice', 'Right to privacy', 'Higher education policy', 'Territorial integrity', 'Politics', 'Development anthropology', 'Legitimacy', 'Good governance', 'Hatred', 'Language-based security', 'Sexual violence', 'Constitutionalism', 'Conflict resolution', 'Political class', 'News media', 'Police Act', 'Homeland', 'Vital Status', 'Reputation', 'Terrorism', 'Biological terrorism', 'Ableism', 'Futures studies', 'Citizen media', 'Peacemaking', 'Communication for social change', 'Bilateral trade', 'Federal law', 'Crisis management', 'Smart grid', 'Social philosophy', 'Confidence interval', 'Opinion evidence', 'Discrimination in education', 'Law reform', 'Criminal justice', 'Information Framework', 'Patent Cooperation Treaty', 'Government', 'Theory of change', 'Philosophy of medicine', 'Local economic development', 'Child prostitution', 'World economy', 'Institutionalisation', 'Freedom from discrimination', 'National Policy', 'Information security audit', 'Indigenous rights', 'Legal evidence', 'Environmental management system', 'Social identity theory', 'C corporation', 'Ethical leadership', 'Cybercrime', 'E-Administration', 'Conflict management', 'Social conflict', 'Economics policy', 'Drug legislation', 'Resource management', 'Economic underdevelopment', 'Right to housing', 'Hybrid mass spectrometer', 'Policy advocacy', 'Neosaxitoxin', 'Language policy', 'Public administration theory', 'International finance', 'Election monitoring', 'Treaty', 'Postneonatal death', 'Redevelopment', 'Impunity', 'Intelligence studies', 'Scholarship', 'Peace and conflict studies', 'Inbreeding', 'Drug marketing', 'Bare trust', 'Input/output (C++)', 'Rights of Nature', 'Representative APR', 'Economic expansion', 'Social model of disability', 'Risk-based inspection', 'Police accountability', 'Data security', 'Maritime security', 'Security sector reform', 'Adjudication', 'Social data analysis', 'Life-cycle assessment', 'Guard (information security)', 'Judicial opinion', 'Socioeconomic development', 'Legal education', 'Social group', 'Clientelism', 'New political economy', 'Patent valuation', 'Climate Finance', 'Democratization', 'International humanitarian law', 'Political corruption', 'Public institution', 'Humanism', 'Exercise history', 'Fiscal year', 'Critical terrorism studies', 'Mixed government', 'Public service', 'Modernity', 'Convention on the Rights of the Child', 'Discipline', 'Link Control Protocol', 'Security awareness', 'Convention on Cybercrime', 'Political movement', 'Identity theft', 'Deference', 'History of social work', 'Right to work', 'Protocol I', 'Asylum seeker', 'Sociocultural values', 'Regimen', 'Universal jurisdiction', 'Family centered care', 'Social exclusion', 'Repeal', 'Administrative law', 'Fundamentalism', 'International relations theory', 'Freedom of association', 'Maladministration', 'Institutional complementarity', 'Constitutional law', 'Policy analysis', 'Diaspora politics', 'Crew resource management', 'Desegregation', 'Emergency vehicle', 'Philosophy of social science', 'Social status', 'Sustainable land management', 'Intrusion detection system', 'Social injustice', 'Authority', 'Signal processing', 'Freedom of religion', 'Feminism', 'Patient Consent', 'Social policy', 'Cross-cultural', 'Affordable housing', 'Inner peace', 'Precedent', 'Evidence-based policy', 'Judicial review', 'Community development', 'Critical race theory', 'Social transformation', 'Mortality rate', 'Principle of legality', 'Police action', 'Negotiation', 'Land-use planning', 'Military intelligence', 'e-social science', 'European debt crisis', 'Drug market', 'Police state', 'DNA Content Analysis', 'Internal communications', 'Civil liberties', 'Freedom of assembly', 'Corrupt practices', 'Threat', 'Legislation as Topic', 'Sociology of scientific knowledge', 'Right to social security', 'Critical social work', 'Social value orientations', 'Criminology', 'Customary international humanitarian law', 'Gender &amp; Development', 'Public trust', 'Public participation GIS', 'Freedom from fear', 'Corporation', 'Toxin', 'Flexible intermediate bulk container', 'Education policy', 'National Strategy to Secure Cyberspace', 'Environmental justice', 'Median', 'Community youth development', 'Consensus theory', 'Double standard', 'Humanitarian aid', 'Resulting trust', 'Environmental governance', 'Perinatal Deaths', 'Alliance', 'Food policy', 'Social conflict theory', 'Estate', 'Statutory law', 'Regime change', 'E-Government', 'New Public Administration', 'Broadband', 'Patent Act', 'Evidence-based policing', 'Modalities', 'International relations', 'Privacy policy', 'Human geography', 'Maternal death', 'Torture', 'Natural resource management', 'Conceptual framework', 'Sexual and reproductive health and rights', 'Cultural diversity', 'Authentication', 'Document imaging', 'Right to die', 'Admissible evidence', 'Crisis', 'Complex system', 'Collective dose', 'Community-driven development', 'Behavioural sciences', 'Argument', 'Intermediate bulk container', 'Governor', 'Public housing', 'Radiation Accidents', 'Citizenship', 'Linguistic rights', 'Information security', 'Content analysis', 'Friendship', 'Odious debt', 'The Conceptual Framework', 'Arms control', 'Public Health Act', 'Affirmative action', 'Accountability', 'Problem-oriented policing', 'Freedom of information', 'Local Government Act', 'Physical punishment', 'New Economic Policy', 'Democracy promotion', 'Multi-level governance', 'Social control', 'Impact assessment', 'Managerialism', 'Agent detection', 'Enlightenment', 'Political freedom', 'Free migration', 'Legislature', 'Legislation', 'National Security Area', 'Gender Development Index', 'Social system', 'Social inertia', 'Public interest law', 'Reproductive rights', 'Multiculturalism', 'Governmentality', 'Input/output', 'Solidarity', 'United Nations Convention on the Law of the Sea', 'Book burning', 'Voluntary association', 'Injustice', 'Violent behaviour', 'Water resource management', 'Local government', 'Communication rights', 'Interdependence', 'IUCN Red List', 'Educational research', 'High Court', 'Early Neonatal Mortality', 'Peacebuilding', 'Illicit financial flows', 'Philosophy education', 'Nationality law', 'Biometrics', 'Electoral integrity', 'Corporate governance', 'E-governance', 'Rhetoric', 'Individualism', 'Borough', 'State police', 'Relief Work', 'Political ecology', 'Toxic anterior segment syndrome', 'Ethnic conflict', 'Criminal justice ethics', 'International law', 'Common law', 'Trade restriction', 'Criminal law', 'Supreme court', 'Community building', 'Cultural rights', 'Kleptocracy', 'Organised crime', 'Institutional model theory', 'Dissenting opinion', 'Right to health', 'Public law', 'Civil Conflict', 'Political economy', 'Public participation', 'LPWAN', 'Debt crisis', 'Freedom of movement', 'Social network', 'Capability approach', 'Communications management', 'Trusted service manager', 'Social organization', 'Liberalization', 'Human rights movement', 'Retrenchment', 'Geopolitics', 'TIMIT', 'Corruption', 'DNA Contamination', 'Police investigation', 'Egalitarianism', 'Database security', 'Convention', 'Decree', 'Social change', 'Constitutionality', 'Chemical terrorism', 'Local government area', 'Social heuristics', 'Gender and development', 'Right to petition', 'General assembly', 'Democracy', 'Institutional System', 'Nepotism', 'Social studies', 'Philosophy of education', 'Ciphertext-only attack', 'Smart city', 'Community design', 'Public health', 'Right of asylum', 'Public health law', 'Unattended ground sensor', 'Peacekeeping', 'Public policy', 'Media', 'Public sector', 'Forensic profiling', 'Member state', 'Legal profession', 'Genocide', 'Security association', 'Radiation monitoring', 'Presumption of innocence', 'Sex trafficking', 'Power politics', 'Color management', 'Web of trust', 'Fundamental rights', 'Biomimetics']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SDG_17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>54</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[]</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>['2909744077', '66204764', '15845906', '2778449271', '2778459265', '191935318', '2776553905', '2780479094', '160354207', '134632028', '158041659', '70455891', '68307924', '56739046', '2778711553', '199491958', '2776060655', '171250308', '530175646', '2776561884', '2777113093', '47344431', '159317903', '115314567', '190960625', '2781328080', '206103860', '44171179', '2777836882', '138368954', '2910001868', '2779783285', '2777481183', '99743013', '186229450', '2776604539', '552089266', '164767435', '2779503283', '2780903623', '87616379', '129275984', '520434653', '2780124536', '2779015535', '198891747', '2777953023', '28718268', '2776577793', '190539079', '2778300220', '2910910449', '2780575108', '134560507']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['Public-Private Sector Partnership', 'Sustainability', 'Data exchange', 'Development aid', 'South–South cooperation', 'China', 'Public–private partnership', 'Third-Worldism', 'Bicoherence', 'Sustainable growth rate', 'Determinant', 'Devaluation', 'Global commons', 'Knowledge management', 'Transport network', 'Global change', 'Tariff', 'Nanotechnology', 'Clothing', 'IR evaluation', 'Pedestrian', 'Health policy', 'Photon', 'European Union law', 'Water treatment', 'Turban', 'Global strategy', 'External debt', 'Pretargeting', 'Peer review', 'European union', 'Washington Consensus', 'Market access', 'Kyoto Protocol', 'Sovereignty', 'Knowledge sharing', 'Voice', 'Textile', 'Millennium Development Goals', 'Cross-border cooperation', 'International development', 'DNA nanotechnology', 'Laser', 'Air Transport Network', 'Regional integration', 'Systemics', 'Heart rate', 'Needs assessment', 'Non-communicable disease', 'Revaluation', 'Financial crisis', 'Postnatal Care', 'Retargeting', 'Environmental economics']</t>
         </is>
       </c>
     </row>

--- a/UPDATE_INFO.xlsx
+++ b/UPDATE_INFO.xlsx
@@ -427,12 +427,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['2778754916', '196777733', '2778151340', '2778452349', '2781304125', '2778516963', '2779566690', '2776905528', '2778976928', '178511221', '142077812', '2779501705', '2781426361', '15553842', '36289849', '2776465305', '2910997320', '2778054917', '2778430866', '2780623907', '68062652', '2909647022', '133925201', '43609274', '2909852078', '2777433830', '549605437', '2778408412', '2779363069', '20555606', '2776554220', '2779490853', '2777533032', '2781061807', '527821871', '2780393519', '2776094956', '2776605987', '2781116641', '2908737072', '2780290423', '2909895442', '2780750338', '2779206190', '553381038', '2780761588', '2779575352', '2776572681', '2778502840', '2776893239', '2775868463', '78302928', '2776615708', '186191158', '2777262119', '2908621740', '2911219547', '2781436281', '129047720', '2779597210', '178377140', '2778343834', '2777553175', '2777608298', '2909509366', '82341920', '28129649', '519300510', '2778561184', '2776237081', '2780899237', '2775950104', '2776672683', '2781094592', '2778096659', '2911189839', '2779282124', '2778216598', '2779957034', '2780456498', '2781069661', '2779584631', '2778727652', '204208750', '2778140607', '2778890030', '2778882308', '2781384209', '2776751285', '2910993519', '2910435018', '2779653078', '2776922509', '2781044819', '2908684656', '2778661615', '189326681']</t>
+          <t>['2777608298', '2781061807', '2780393519', '2778430866', '2775868463', '178511221', '2775950104', '2781116641', '2908737072', '2779363069', '2779501705', '2776905528', '2778661615', '2779597210', '2780761588', '2777553175', '2778890030', '189326681', '2776615708', '20555606', '82341920', '15553842', '28129649', '2776572681', '2778408412', '2777262119', '43609274', '2776672683', '2910997320', '2779957034', '2779206190', '527821871', '2778151340', '129047720', '2776237081', '36289849', '2778727652', '2780623907', '2778976928', '549605437', '2776922509', '2779653078', '2778882308', '2781384209', '133925201', '2776094956', '2909895442', '2778054917', '2780750338', '78302928', '2781044819', '2908621740', '2776605987', '2909647022', '2778754916', '2776893239', '2778502840', '2776751285', '2777533032', '2781069661', '553381038', '2779566690', '2779584631', '2780290423', '2909509366', '2909852078', '2910993519', '2778561184', '2908684656', '2778216598', '2779282124', '2778140607', '2781094592', '68062652', '2781304125', '2778096659', '2777433830', '186191158', '2781436281', '2778452349', '2779575352', '2779490853', '196777733', '2776465305', '519300510', '2776554220', '2780899237', '2911219547', '204208750', '2781426361', '178377140', '2778343834', '142077812', '2910435018', '2911189839', '2778516963', '2780456498']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Concentrated poverty', 'Basic needs', 'Asset poverty', 'Rural poverty', 'Social risk management', 'Relative deprivation', 'Economic mobility', 'Poverty law', 'Welfare dependency', 'Basic service', 'Standard of living', 'Disability and poverty', 'Earnings', 'Proletariat', 'Social science', 'Underclass', 'Food Assistance Programs', 'Lump sum', 'Unbanked', 'Disadvantaged', 'Social capital', 'Working Woman', 'Life expectancy', 'Disinvestment', 'Fat redistribution', 'Social protection', 'Food security', 'Underbanked', 'Food policy', 'Empowerment', 'Prosperity', 'Conditional cash transfer', 'Moving to Opportunity', 'Universalism', 'Access control', 'Tent city', 'Chronic poverty', 'Diseases of poverty', 'Guaranteed minimum income', 'Concentrated Disadvantage', 'Poverty map', 'Food relief', 'Disaster risk reduction', 'Gini coefficient', 'Extreme poverty', 'Median income', 'Bottom of the pyramid', 'Working poor', 'Cash transfers', 'Social isolation', 'Poverty threshold', 'Crisis', 'Inclusive growth', 'Vulnerability', 'Microinsurance', 'Food Stamp Program', 'Welfare program', 'HOPE VI', 'Rural area', 'Begging', 'Culture of poverty', 'Slum upgrading', 'Head of Household', 'Right to food', 'Economic deprivation', 'Lumpenproletariat', 'Microfinance', 'Income distribution', 'Shanty town', 'Income Support', 'Pension', 'Measuring poverty', 'Poverty trap', 'Frugal innovation', 'Distribution of wealth', 'Active labour', 'Social insurance', 'Safety net', 'Food prices', 'Poor relief', 'Vulnerability index', 'Pauperism', 'Poverty gap index', 'Short run', 'e-social science', 'Head count ratio', 'Feminization of poverty', 'Cycle of poverty', 'Public distribution system', 'Poverty Areas', 'Food stamps', 'Rural housing', 'Trade and development', 'Child poverty', 'Poverty status', 'Multidimensional Poverty Index', 'Poverty']</t>
+          <t>['Right to food', 'Universalism', 'Tent city', 'Unbanked', 'Poverty threshold', 'Basic service', 'Measuring poverty', 'Guaranteed minimum income', 'Concentrated Disadvantage', 'Food policy', 'Disability and poverty', 'Poverty law', 'Multidimensional Poverty Index', 'Begging', 'Median income', 'Head of Household', 'Head count ratio', 'Poverty', 'Inclusive growth', 'Empowerment', 'Lumpenproletariat', 'Proletariat', 'Microfinance', 'Working poor', 'Underbanked', 'Microinsurance', 'Disinvestment', 'Poverty trap', 'Food Assistance Programs', 'Food prices', 'Gini coefficient', 'Access control', 'Asset poverty', 'Rural area', 'Income Support', 'Social science', 'Poverty gap index', 'Disadvantaged', 'Welfare dependency', 'Food security', 'Trade and development', 'Rural housing', 'Feminization of poverty', 'Cycle of poverty', 'Life expectancy', 'Chronic poverty', 'Food relief', 'Lump sum', 'Disaster risk reduction', 'Crisis', 'Child poverty', 'Food Stamp Program', 'Diseases of poverty', 'Working Woman', 'Concentrated poverty', 'Social isolation', 'Cash transfers', 'Public distribution system', 'Moving to Opportunity', 'Vulnerability index', 'Extreme poverty', 'Economic mobility', 'Pauperism', 'Poverty map', 'Economic deprivation', 'Fat redistribution', 'Poverty Areas', 'Shanty town', 'Poverty status', 'Safety net', 'Social insurance', 'e-social science', 'Frugal innovation', 'Social capital', 'Social risk management', 'Distribution of wealth', 'Social protection', 'Vulnerability', 'HOPE VI', 'Rural poverty', 'Bottom of the pyramid', 'Conditional cash transfer', 'Basic needs', 'Underclass', 'Income distribution', 'Prosperity', 'Pension', 'Welfare program', 'Short run', 'Earnings', 'Culture of poverty', 'Slum upgrading', 'Standard of living', 'Food stamps', 'Active labour', 'Relative deprivation', 'Poor relief']</t>
         </is>
       </c>
     </row>
@@ -446,26 +446,26 @@
         <v>773</v>
       </c>
       <c r="C3" t="n">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[2776989701, 2994243589, 2994333706, 2992357387, 165107724, 174200844, 2993004556, 2994122767, 2776420369, 152100882, 12064787, 2776107028, 2619416, 109162521, 2781288472, 2780397596, 123281439, 3018637345, 182745123, 3020429347, 2780121125, 2779215912, 2993233962, 2776285232, 60989497, 2778036281, 39571515, 2992977978, 2780235837, 122748992, 2909722689, 2991951937, 2780065859, 2776725572, 2779164741, 96313414, 149207113, 2777784394, 2992842828, 2993745997, 2777253967, 34070608, 2777399377, 2993524817, 2779623515, 2779869275, 3019774043, 2780848231, 2993104999, 2778724459, 53706860, 2779793521, 88776829, 160934017, 2994548865, 2779621508, 24717449, 2780248203, 164958353, 146188434, 2781208722, 505870484, 2994382997, 3020296344, 181268634, 2777542811, 2780127386, 70957220, 2779310246, 64229544, 55347375, 155015343, 74139830, 70899900, 2775832765, 2777743550, 86409407, 2777589951, 2992029884, 2910945474, 2994589889, 2776115401, 53145804, 197320908, 2778867918, 2992814287, 2777176278, 2778896599, 2779146456, 2777575642, 2781094106, 2994170080, 2776654049, 2775980262, 38838508, 187457775, 2775845107, 72958200, 2992165118, 2910218496, 93944068, 67031304, 513806601, 119249163, 126914827, 2779873548, 2780623117, 2777704720, 2993189137, 139518226, 89295123, 2993213714, 31568149, 2781061397, 2781227287, 108216600, 2991976725, 2994424083, 194691359, 2910796063, 2779992354, 2780066083, 182124840, 2776142123, 2777526573, 2778728749, 2779562289, 2775929138, 2993498417, 2909628724, 2780696901, 197011783, 2993008967, 2778939721, 25989453, 2779081038, 2778673487, 2779656528, 113416529, 2991870291, 143020374, 2776121688, 116003164, 2780948830, 36516193, 2779128174, 141185391, 2779298159, 31900019, 126343540, 2777022838, 2780946806, 2778718584, 3020462461, 2776336767, 2777833858, 2779294082, 2780189059, 135895429, 108738950, 14641543, 152494472, 2778597767, 2993895817, 2982998413, 2781397391, 2779363728, 95803793, 2777246098, 144492951, 2777981335, 55312793, 141896089, 2992318875, 2993326493, 3018822051, 2992267684, 2994553254, 2776654248, 2778851755, 73580989, 2910302653, 2775841215, 2779427263, 23519681, 95869378, 125069764, 154702282, 2780500427, 3019129290, 42435023, 2776367567, 3017812434, 126589399, 2994246104, 153102810, 2779746779, 3019069916, 159390177, 2992343522, 2993508834, 2777106918, 167393769, 139145706, 2992069104, 2987370995, 15147509, 20529654, 172427765, 202041845, 2992398841, 2779843069, 2776596991, 141650431, 2994199040, 143837700, 2909123076, 2992841220, 2992957956, 2781202952, 2993013254, 2992050699, 121850381, 5589519, 2776801807, 2778006036, 2780072470, 2986433049, 2778391067, 2988270110, 140327455, 2991880734, 2779421218, 2778577444, 2911148592, 2909358641, 2776500793, 2781338170, 3019985465, 151788092, 132000320, 2780097091, 2992130629, 2776660552, 2776623689, 2778876492, 2776054349, 509243982, 2776384079, 2779564620, 2910587469, 2993248848, 2776779347, 2778348119, 114426456, 53002841, 73593433, 2993375840, 2994485859, 162501224, 2992632426, 2775999090, 2779658867, 2992573043, 49461877, 2777387638, 156858999, 7959160, 2909135477, 2780179066, 2993887863, 510239367, 2776824459, 133382796, 2781031054, 198072978, 2777434770, 2780691090, 2779394710, 2993349271, 2775966360, 35306142, 72286879, 2778897056, 2994580129, 33559203, 189307558, 2776191655, 2776763056, 2986842804, 2992700085, 2776722102, 176943803, 2779814588, 33411773, 2993728194, 2993404611, 162902727, 195330766, 2983627472, 2776554196, 2984704726, 91067096, 116370137, 116607704, 149340888, 169282265, 71502557, 2781436638, 2992057050, 2994113244, 45920995, 529335014, 2777768678, 2779427562, 50516716, 75195119, 195973872, 2780977904, 107674354, 2993556214, 121412344, 152613627, 2991733499, 2781182717, 2992151296, 2779282177, 3020520192, 2777897731, 2778098436, 118694661, 2910221061, 199535368, 2993605384, 2983469836, 2781301517, 2776998673, 2909743892, 2775857941, 2776492830, 154575652, 139019045, 60359462, 2991934246, 2910188331, 189569837, 2781102901, 154098486, 2993120057, 2993355577, 555313981, 120806208, 2778291008, 2993091396, 64551749, 2776263494, 2779267909, 2780394310, 2780498771, 68553557, 2993505111, 58479451, 2992151387, 2908855133, 2779562855, 2992407401, 123917164, 2780289900, 2778452849, 2780339060, 2779140988, 3017487232, 59898753, 2992423815, 2983338891, 2776562576, 2779587474, 129360787, 17857428, 59804570, 203174812, 2781193117, 205726622, 73849760, 2991661988, 2992831405, 2779409326, 2778327988, 2992976820, 2016182, 199877563, 2780900284, 1549246, 156634047, 117480383, 118733760, 2779950014, 2780386243, 2993212356, 2776675269, 2780756937, 58395597, 125596622, 2992497614, 2779096019, 2779958227, 28781525, 2991881172, 2778801112, 2780505049, 2988377048, 2992587736, 2781131740, 2777154535, 2993224680, 2992010217, 2994459623, 2779845611, 2777549804, 2780001261, 2776325102, 508466165, 2777007095, 2780267512, 2776892409, 2994062330, 2778586117, 2777988102, 2993132551, 166548495, 192392207, 2988944400, 2993779736, 51592225, 2779493411, 94487597, 513059894, 2780111930, 16884802, 190157891, 2781348932, 2777492549, 134906952, 2993849424, 14171219, 97137747, 109902934, 2779329624, 2777189468, 2776853598, 3018466404, 2779032678, 2776421481, 113513581, 128058477, 112276597, 89920630, 112149622, 2777631861, 56095865, 2777707638, 2779987062, 2776781948, 3019361399, 2777027713, 2780167305, 2779249804, 2781353100, 2780816530, 65193109, 2992639136, 2994341026, 2780488879, 2779290800, 201401522, 25382069, 2777406646, 29510844, 2910254271, 161189057, 39464130, 20450499, 2776687813, 54625482, 22344907, 2778205388, 2910835919, 2991797460, 2991889622, 2991971542, 2780343512, 2780417240, 93707483, 2777803996, 2993900768, 2776259809, 2983513313, 2780982499, 2993792229, 2776335591, 2781193452, 2776093933, 3742959, 189109488, 191440113, 2777890039, 141151480, 14918906, 2779895041, 104471815, 2778553607, 2993009931, 152382732, 2993143054, 154885393, 2777310483, 2780040469, 2777267482, 2994269467, 2779325724, 2993288478, 2780077345, 2777707811, 2777480484, 2779249956, 2994269480, 35378473, 56235305, 2776499504, 2779991348, 2994095414, 2993900857, 28362043, 2780556605, 2775874878, 2777132354, 2993403203, 2780671300, 33275205, 2994548035, 153279818, 2910956874, 2778502483, 2778484053, 2779004245, 26785111, 2781412696, 535291247, 2778551664, 2777845105, 2776388979, 173917561, 2988184953, 2993839484, 2776278397, 107394435, 188206468, 91354502, 110175623, 2779944326, 2992885126, 2779796875, 102720910, 2994417038, 2992184722, 3019955603, 3018139031, 2909961624, 2778125729, 2993931681, 96650669, 154414509, 2776642990, 2994550192, 2993685944, 2993591741, 2993432003, 2780528068, 38774213, 2992174532, 2994419139, 62158283, 2780853707, 45020621, 120991184, 77942228, 2776978901, 2780351957, 2909580760, 130491866, 2993397211, 69514717, 2779381216, 153427425, 157777378, 2780861936, 2993452528, 158215666, 2775938548, 2777110004, 2993522167, 169684477, 172365310, 2992117250, 2777380357, 2777472530, 2991709714, 2777073172, 2991808018, 2993552916, 2780003869, 2781279775, 120217122, 151107107, 152491559, 2992336426, 189775405, 2909500973, 2994357808, 2778525234, 3020265010, 2776452661, 2780143158, 2778226232, 2780794424, 2994527806, 2776665667, 192241223, 2781257293, 172817999, 192536144, 2992820216, 2777796192, 532801124, 33283694, 2993092206, 24518262, 139669111, 160212601, 2988977785, 2992809593, 2993892992, 2992971396, 63651461, 2778898053, 2781275782, 2908556935, 2993108616, 2993940100, 14849681, 112058002, 2778625682, 2779000468, 2987718291, 147273371, 42731165, 2778148510, 2780429984, 2779590308, 2781181605, 3020113576, 68800169, 201490090, 3020396200, 167296696, 2909107899, 2776831678, 2992111295, 2778091200, 172269249, 100544194, 2777106113, 2777194177, 2780257989, 2910199490, 2777214671, 71864017, 147103442, 2992998108, 198815454, 2779885280, 2910224097, 2994376416, 168857316, 2993686252, 126408429, 2992033518, 175963888, 2991761137, 2991841010, 2993028854, 2778617593, 53571324, 5465852, 121923324, 2992054019, 2993088260, 2992975623, 103474955, 2776841996, 2776426263, 16643866, 2776082207, 53421856, 2776182560, 2776139558, 2777278459, 2778361644, 2991812402, 31954745, 2982913853, 2778568511, 2993248064, 31903555, 2778818373, 202682190, 2777952078, 2993559379, 122629976, 45152089, 2775838554, 2780086105, 2780589914, 2777798493, 2779909984, 2991671138, 65580899, 2777802595, 3018719075, 2777014122, 63696750, 514101110, 85675897, 2776840061, 2779422593, 2909816706, 2993883011, 2988769156, 2775992197, 4792198, 115961737, 2992035722, 2779023244, 100474770, 125620115, 14624660, 155987862, 3018968983, 198150046, 68874143, 2781071265, 130217890, 134643618, 2992172967, 2776364969, 2778163119, 2779735984, 41478065, 2781206450, 198979508, 24061886, 79339454, 2781003712, 2909110210, 32120771, 3019009989, 156086215, 87709641, 2991949773, 2777178062, 84199377, 2780309462, 2993524706, 173795300, 28631016, 16281581, 207769581, 2993711086, 2991804400, 2779179000, 2992353273, 74948603, 2777491454, 87621631]</t>
+          <t>[2776989701, 2994243589, 2994333706, 2992357387, 165107724, 174200844, 2993004556, 2994122767, 2776420369, 152100882, 12064787, 2776107028, 2619416, 2781288472, 2780397596, 123281439, 3018637345, 182745123, 3020429347, 2780121125, 2779215912, 2993233962, 2776285232, 60989497, 2778036281, 39571515, 2992977978, 2780235837, 122748992, 2909722689, 2991951937, 2780065859, 2776725572, 2779164741, 96313414, 149207113, 2777784394, 2992842828, 2993745997, 2777253967, 34070608, 2777399377, 2993524817, 2779623515, 2779869275, 3019774043, 2780848231, 2993104999, 2778724459, 53706860, 2779793521, 88776829, 160934017, 2994548865, 2779621508, 24717449, 2780248203, 164958353, 146188434, 2781208722, 505870484, 2994382997, 3020296344, 181268634, 2777542811, 2780127386, 70957220, 2779310246, 64229544, 55347375, 155015343, 74139830, 70899900, 2775832765, 2777743550, 86409407, 2777589951, 2992029884, 2910945474, 2994589889, 2776115401, 53145804, 197320908, 2778867918, 2992814287, 2777176278, 2778896599, 2779146456, 2777575642, 2781094106, 2994170080, 2776654049, 2775980262, 38838508, 187457775, 2775845107, 72958200, 2992165118, 2910218496, 93944068, 67031304, 513806601, 119249163, 126914827, 2779873548, 2780623117, 2777704720, 2993189137, 139518226, 89295123, 2993213714, 31568149, 2781061397, 2781227287, 108216600, 2991976725, 2994424083, 194691359, 2910796063, 2779992354, 2780066083, 182124840, 2776142123, 2777526573, 2778728749, 2779562289, 2775929138, 2993498417, 2909628724, 2780696901, 197011783, 2993008967, 2778939721, 25989453, 2779081038, 2778673487, 2779656528, 113416529, 2991870291, 143020374, 2776121688, 116003164, 2780948830, 36516193, 2779128174, 141185391, 2779298159, 31900019, 126343540, 2777022838, 2780946806, 2778718584, 3020462461, 2776336767, 2777833858, 2779294082, 2780189059, 135895429, 108738950, 14641543, 152494472, 2778597767, 2993895817, 2982998413, 2781397391, 2779363728, 95803793, 2777246098, 144492951, 2777981335, 55312793, 141896089, 2992318875, 2993326493, 3018822051, 2992267684, 2994553254, 2776654248, 2778851755, 73580989, 2910302653, 2775841215, 2779427263, 23519681, 95869378, 125069764, 154702282, 2780500427, 3019129290, 42435023, 2776367567, 3017812434, 126589399, 2994246104, 153102810, 2779746779, 3019069916, 159390177, 2992343522, 2993508834, 2777106918, 167393769, 139145706, 2992069104, 2987370995, 15147509, 20529654, 172427765, 202041845, 2992398841, 2779843069, 2776596991, 141650431, 2994199040, 143837700, 2909123076, 2992841220, 2992957956, 2781202952, 2993013254, 2992050699, 121850381, 5589519, 2776801807, 2778006036, 2780072470, 2986433049, 2778391067, 2988270110, 140327455, 2991880734, 2779421218, 2778577444, 2911148592, 2909358641, 2776500793, 2781338170, 3019985465, 151788092, 132000320, 2780097091, 2992130629, 2776660552, 2776623689, 2778876492, 2776054349, 509243982, 2776384079, 2779564620, 2910587469, 2993248848, 2776779347, 2778348119, 114426456, 53002841, 73593433, 2993375840, 2994485859, 162501224, 2992632426, 2775999090, 2779658867, 2992573043, 49461877, 2777387638, 156858999, 7959160, 2909135477, 2780179066, 2993887863, 510239367, 2776824459, 133382796, 2781031054, 198072978, 2777434770, 2780691090, 2779394710, 2993349271, 2775966360, 35306142, 72286879, 2778897056, 2994580129, 33559203, 189307558, 2776191655, 2776763056, 2986842804, 2992700085, 2776722102, 176943803, 2779814588, 33411773, 2993728194, 2993404611, 162902727, 195330766, 2983627472, 2776554196, 2984704726, 91067096, 116370137, 116607704, 149340888, 169282265, 71502557, 2781436638, 2992057050, 2994113244, 45920995, 529335014, 2777768678, 2779427562, 50516716, 75195119, 195973872, 2780977904, 107674354, 2993556214, 121412344, 152613627, 2991733499, 2781182717, 2992151296, 2779282177, 3020520192, 2777897731, 2778098436, 118694661, 2910221061, 199535368, 2993605384, 2983469836, 2781301517, 2776998673, 2909743892, 2775857941, 2776492830, 154575652, 139019045, 60359462, 2991934246, 2910188331, 189569837, 2781102901, 154098486, 2993120057, 2993355577, 555313981, 120806208, 2778291008, 2993091396, 64551749, 2776263494, 2779267909, 2780394310, 2780498771, 68553557, 2993505111, 58479451, 2992151387, 2908855133, 2779562855, 2992407401, 123917164, 2780289900, 2778452849, 2780339060, 2779140988, 3017487232, 59898753, 2992423815, 2983338891, 2776562576, 2779587474, 129360787, 17857428, 59804570, 203174812, 2781193117, 205726622, 73849760, 2991661988, 2992831405, 2779409326, 2778327988, 2992976820, 2016182, 199877563, 2780900284, 1549246, 156634047, 117480383, 118733760, 2779950014, 2780386243, 2993212356, 2776675269, 2780756937, 58395597, 125596622, 2992497614, 2779096019, 2779958227, 28781525, 2991881172, 2778801112, 2780505049, 2988377048, 2992587736, 2781131740, 2777154535, 2993224680, 2992010217, 2994459623, 2779845611, 2777549804, 2780001261, 2776325102, 508466165, 2777007095, 2780267512, 2776892409, 2994062330, 2778586117, 2777988102, 2993132551, 166548495, 192392207, 2988944400, 2993779736, 51592225, 2779493411, 94487597, 513059894, 2780111930, 16884802, 190157891, 2781348932, 2777492549, 134906952, 2993849424, 14171219, 97137747, 109902934, 2779329624, 2777189468, 2776853598, 3018466404, 2779032678, 2776421481, 113513581, 128058477, 112276597, 89920630, 112149622, 2777631861, 56095865, 2777707638, 2779987062, 2776781948, 3019361399, 2777027713, 2780167305, 2779249804, 2781353100, 2780816530, 65193109, 2992639136, 2994341026, 2780488879, 2779290800, 201401522, 25382069, 2777406646, 29510844, 2910254271, 161189057, 39464130, 20450499, 2776687813, 54625482, 22344907, 2778205388, 2910835919, 2991797460, 2991889622, 2991971542, 2780343512, 2780417240, 93707483, 2777803996, 2993900768, 2776259809, 2983513313, 2780982499, 2993792229, 2776335591, 2781193452, 2776093933, 3742959, 189109488, 191440113, 2777890039, 141151480, 14918906, 2779895041, 104471815, 2778553607, 2993009931, 152382732, 2993143054, 154885393, 2777310483, 2780040469, 2777267482, 2994269467, 2779325724, 2993288478, 2780077345, 2777707811, 2777480484, 2779249956, 2994269480, 35378473, 56235305, 2776499504, 2779991348, 2994095414, 2993900857, 28362043, 2780556605, 2775874878, 2777132354, 2993403203, 2780671300, 33275205, 2994548035, 153279818, 2910956874, 2778502483, 2778484053, 2779004245, 26785111, 2781412696, 535291247, 2778551664, 2777845105, 2776388979, 173917561, 2988184953, 2993839484, 2776278397, 107394435, 188206468, 91354502, 110175623, 2779944326, 2992885126, 2779796875, 102720910, 2994417038, 2992184722, 3019955603, 3018139031, 2909961624, 2778125729, 2993931681, 96650669, 154414509, 2776642990, 2994550192, 2993685944, 2993591741, 2993432003, 2780528068, 38774213, 2992174532, 2994419139, 62158283, 2780853707, 45020621, 120991184, 77942228, 2776978901, 2780351957, 2909580760, 130491866, 2993397211, 69514717, 2779381216, 153427425, 157777378, 2780861936, 2993452528, 158215666, 2775938548, 2777110004, 2993522167, 169684477, 172365310, 2992117250, 2777380357, 2777472530, 2991709714, 2777073172, 2991808018, 2993552916, 2780003869, 2781279775, 151107107, 152491559, 2992336426, 189775405, 2909500973, 2994357808, 2778525234, 3020265010, 2776452661, 2780143158, 2778226232, 2780794424, 2994527806, 2776665667, 192241223, 2781257293, 172817999, 192536144, 2992820216, 2777796192, 532801124, 33283694, 2993092206, 24518262, 139669111, 160212601, 2988977785, 2992809593, 2993892992, 2992971396, 63651461, 2778898053, 2781275782, 2908556935, 2993108616, 2993940100, 14849681, 112058002, 2778625682, 2779000468, 2987718291, 147273371, 42731165, 2778148510, 2780429984, 2779590308, 2781181605, 3020113576, 68800169, 201490090, 3020396200, 167296696, 2909107899, 2776831678, 2992111295, 2778091200, 172269249, 100544194, 2777106113, 2777194177, 2780257989, 2910199490, 2777214671, 71864017, 147103442, 2992998108, 198815454, 2779885280, 2910224097, 2994376416, 168857316, 2993686252, 126408429, 2992033518, 175963888, 2991761137, 2991841010, 2993028854, 2778617593, 53571324, 5465852, 121923324, 2992054019, 2993088260, 2992975623, 103474955, 2776841996, 2776426263, 16643866, 2776082207, 53421856, 2776182560, 2776139558, 2777278459, 2778361644, 2991812402, 31954745, 2982913853, 2778568511, 2993248064, 31903555, 2778818373, 202682190, 2777952078, 2993559379, 122629976, 45152089, 2775838554, 2780086105, 2780589914, 2777798493, 2779909984, 2991671138, 65580899, 2777802595, 3018719075, 2777014122, 63696750, 514101110, 2776840061, 2909816706, 2993883011, 2988769156, 2775992197, 4792198, 115961737, 2992035722, 2779023244, 100474770, 125620115, 14624660, 155987862, 3018968983, 198150046, 68874143, 2781071265, 130217890, 134643618, 2992172967, 2776364969, 2778163119, 2779735984, 41478065, 2781206450, 198979508, 24061886, 79339454, 2781003712, 2909110210, 32120771, 3019009989, 156086215, 87709641, 2991949773, 2777178062, 84199377, 2780309462, 2993524706, 173795300, 28631016, 16281581, 207769581, 2993711086, 2991804400, 2779179000, 2992353273, 74948603, 2777491454, 87621631]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Polygonum arenastrum', 'Land uplift', 'Irish sea', 'Root crops', 'International waters', 'Unified Soil Classification System', 'Vegetation height', 'Sorghum bicolor', 'Sodium bicarbonate', 'Soil color', 'Alternative stable state', 'Forest dynamics', 'Rainforest', 'Soil conservation', 'Coral Triangle', 'Distinct population segment', 'Fishing down the food web', 'Fishing trip', 'Soil gradation', 'Agro biodiversity', 'Fertilizer tree', 'Sardine', 'Coral skeleton', 'Tropical forest', 'Red List Index', 'Phytic acid', 'Undergrowth', 'Forest landscape', 'Nothofagus', 'Gradient analysis', 'Soil Pollutants', 'Salmon fishery', 'Feed additive', 'Guar gum', 'Bycatch reduction device', 'Primary succession', 'Water use', 'Sturgeon', 'Livestock grazing', 'Boreal zone', 'Sphagnum', 'Cover crop', 'DSSAT', 'Urban vegetation', 'Coralline algae', 'Calluna', 'Forest type', 'Sweet sorghum', 'Groundwater use', 'Lactose', 'Soil morphology', 'Plant Resources of Tropical Africa', 'Tussock', 'Soil type', 'Agricultural intensification', 'Amsterdam albatross', 'Primary production', 'Fishing techniques', 'Fish measurement', 'Tropical savanna climate', 'Intercropping', 'Fishery', 'Coral species', '15n balance', 'Aseptic processing', 'Sailfish', 'Swordfish', 'Soil compaction', 'Least Developed Countries', 'Habitat destruction', 'Cultural control', 'Plant breeding', 'Food packaging', 'Polyphenol', 'Striga', 'Squid', 'Dendrometry', 'Irrigation scheduling', 'Illegal fishing', 'Gooseberries', 'Nitrogen fertilization', 'Prawn', 'Soil food web', 'Pioneer species', 'Incidental catch', 'Green tea', 'Starter', 'Fish products', 'Sustained yield', 'Sesbania', 'Commercial fishing', 'Forest regeneration', 'Conservation finance', 'Prebiotic', 'Local extinction', 'Bottom fishing', 'Sodic soil', 'Trophic level', 'Physical control', 'Tinned food', 'Phytogeography', 'Preservative', 'Applied ecology', 'Felling', 'Flagship species', 'Crab fisheries', 'Destructive fishing practices', 'Whale', 'Denitrification process', 'Sclerophyll', 'Forest pathology', 'Food material', 'Near-threatened species', 'Trifolium subterraneum', 'Carrageenan', 'Tropical and subtropical dry broadleaf forests', 'Dead tree', 'Grassland ecosystem', 'Liana', 'Centrolobium microchaete', 'Red morwong', 'Repartition', 'Soil organic matter', 'Species at Risk Act', 'Freshwater inflow', 'Molinia caerulea', 'Continuous cover forestry', 'Coffea', 'Reef system', 'Melilotus siculus', 'Conventional tillage', 'Denitrifying bacteria', 'Loblolly pine', 'Oyster farming', 'Leaf area index', 'Grazing pressure', 'Moisture stress', 'Yellowfin tuna', 'Marine conservation', 'Spawning site', 'Coral', 'Virtual water', 'Fish physiology', 'Stubble-mulching', 'Cod fisheries', 'Scots pine', 'Soil retrogression and degradation', 'Sustainable fishery', 'Optimum sustainable yield', 'Crop yield', 'Maximum sustainable yield', 'Plant functional type', 'Environment Protection and Biodiversity Conservation Act 1999', 'Genetics genomics', 'Gluten', 'Anchoa', 'Lolium rigidum', 'Soil stabilization', 'Fisheries science', 'Summer fallow', 'Group cohesiveness', 'Soil classification', 'Sucrose', 'Tropical rain forest', 'Land surface temperature', 'Raphanus raphanistrum', 'Trout', 'CITES', 'Condition index', 'Coral reef fish', 'Seabird', 'National Cooperative Soil Survey', 'Fish farming', 'Coastal dunes', 'Crop land', 'Gonadal histology', 'Tropical biodiversity', 'Agricultural management', 'Freshwater fish', 'Fisheries Act', 'Biodiversity action plan', 'SOIL EXPOSURE', 'Sustainable forest management', 'Fish marketing', 'Montane ecology', 'Pyroclastic rock', 'Tundra', 'Temperate deciduous forest', 'Stover', 'Fat content', 'Animal nutrition', 'Flounder', 'Vegetable crops', 'Umbrella species', 'Biodiversity conservation', 'Diel vertical migration', 'Serpentine soil', 'Protein content', 'Soil science', 'Fishing fleet', 'Natural park', 'Heck cattle', 'Adaptive strategies', 'Food additive', 'Mineral fertilization', 'Vegetation dynamics', 'Conservation reliant species', 'Topsoil', 'Vegetation', 'Fisheries management', 'Fuel moisture content', 'Butyric acid', 'Cultural methods', 'Soil salinity', 'Food availability', 'Aquaculture of coral', 'British Indian Ocean Territory', 'Timber management', 'Marine fish', 'Ecological thinning', 'Perennial crop', 'Ice cream', 'Certified wood', 'Soil series', 'Pinus radiata', 'Turtle excluder device', 'Cyprinodontiformes', 'Baltic sea', 'Trawling', 'Crop management', 'Roasting', 'Forest health', 'Bonefish', 'Soil bioengineering', 'Light machinery', 'Cherimoyas', 'Beech', 'Catch reporting', 'Wheat flour', 'Moorland', 'Macrophyte', 'Halimeda', 'Vegetation composition', 'Smoked fish', 'Yield mapping', 'Oxygen cocktail', 'Vegetation classification', 'Animal feed', 'Marine mammal', 'Lecithin', 'Panicum miliaceum', 'Biodiversity index', 'Sorbitol', 'Wood industry', 'Soil thermal properties', 'Plant community', 'Denitrification', 'Plant canopy', 'Domestic water consumption', 'Palynology', 'Amazon rain forest', 'Joint Forest Management', 'Shark finning', 'Functional biodiversity', 'Mixed farming', 'Forestry law', 'Gallery forest', 'Soil biodiversity', 'Cluster beans', 'Disc harrow', 'Wet tropics', 'Fisheries law', 'Fishing net', 'Secondary forest', 'International Tropical Timber Organization', 'Soil pH', 'Water pricing', 'Community based forest management in the Philippines', 'Marine ecoregions', 'Extinction rate', 'Silviculture', 'Extinction event', 'Prescribed burn', 'African Convention on the Conservation of Nature and Natural Resources', 'Irrigation efficiency', 'Desertification', 'Great Green Wall', 'Ecoregion', 'Tangle net', 'Black sea', 'Fodder crops', 'Social forestry in India', 'Vulcanian eruption', 'Cyprinidae', 'Bulk soil', 'Rice crop', 'Mediterranean ecosystem', 'Soil conditioner', 'Fire ecology', 'Vegetation water content', 'Evergreen forest', 'Agricultural crops', 'Megafauna', 'No-till farming', 'Population viability analysis', 'Bycatch', 'Molecular breeding', 'Tree line', 'Whitefly', 'Dead wood', 'Vegetation effect', 'Intraspecific breeding', 'Starch', 'Fish trap', 'Chondrichthyes', 'Soil test', 'Pop-up satellite archival tag', 'Eggshell', 'Urban forestry', 'Estuarine water circulation', 'Field crop', 'Pulpwood', 'Overexploitation', 'Crop failure', 'Deschampsia flexuosa', 'Sustainable forestry', 'Turbot', 'Swimming speed', 'Whey protein', 'Demersal fish', 'Climax community', 'Blue marlin', 'Coarse fishing', 'Nitrogen fertilizer', 'Forest structure', 'Cassava brown streak virus disease', 'Carotene', 'Brazil nut', 'Dichistius', 'Dipterocarpaceae', 'Reforestation', 'Viticulture', 'Extinction', 'Water productivity', 'American shad', 'Metapopulation', 'Hydroacoustics', 'Big-game fishing', 'Crop productivity', 'Forest management planning', 'Tropical rainforest', 'Volcano', 'Rate of exploitation', 'Fire history', 'Volcanic ash', 'Gillnetting', 'Marxan', 'Bouteloua gracilis', 'Pocillopora damicornis', 'Demersal zone', 'Tree cover', 'Fish stock', 'Stock synthesis', 'Dipteryx panamensis', 'Insect biodiversity', 'Groundwater nitrate', 'Bumper crop', 'Broiler', 'Trehalose', 'Subsoiler', 'Oncorhynchus', 'Quality characteristics', 'Shrubland', 'Coral reef management', 'Great barrier reef', 'Plant strategies', 'Spray drying', 'Total dissolved solids', 'Nutraceutical', 'Soil governance', 'Woodland', 'Midwater trawling', 'Soil mechanics', 'Coral reef protection', 'Organic manure', 'Agricultural statistics', 'King mackerel', 'Albacore', 'Remnant vegetation', 'Animal breeding', 'Ecotone', 'Nardus stricta', 'Normalized Difference Vegetation Index', 'Soil horizon', 'Atoll', 'Purified water', 'Flatfish', 'Important Plant Areas', 'Agricultural system', 'Serranidae', 'Pectin', 'Red soil', 'Soil resilience', 'Forest recovery', 'Vegetable oil', 'Hatchery', 'Carotenoid', 'Surplus production', 'Oasification', 'Tamarix', 'Olive oil', 'Native forest', 'Pinus pinaster', 'Controlled traffic farming', 'Soil tillage', 'Timber volume', 'Participatory plant breeding', 'World Database on Protected Areas', 'Ratooning', 'Amazonian', 'Water-use efficiency', 'Fishing industry', 'Moderate-resolution imaging spectroradiometer', 'Nestedness', 'Brassica carinata', 'Douglas fir', 'Fishing line', 'Pratylenchus', 'Coral growth', 'Wildlife management', 'Clearcutting', 'Amazon basin', 'Horticultural crops', 'Food quality', 'Comprehensive Assessment of Water Management in Agriculture', 'Sensory system', 'Food industry', 'Artisanal fishing', 'Secondary succession', 'Hermatypic coral', 'Anatidae', 'Krill', 'Soil plant atmosphere continuum', 'Fire effect', 'Agricultural soil science', 'Forestry', 'Volcanology', 'Important Bird Area', 'Anthracology', 'Stand development', 'Microbial biodiversity', 'Citric acid', 'Monodominance', 'Exclusive economic zone', 'Contour plowing', 'Measurement of biodiversity', 'Biome', 'Biotope', 'Poeciliidae', 'Afforestation', 'Vascular plant', 'Mussel', 'Physical water scarcity', 'Barrier reef', 'Soil gas', 'Agrometeorology', 'Staple food', 'Thinning', 'Forest protection', 'Groundfish', 'Conservation science', 'Vegetation types', 'Propolis', 'Herring', 'Plant cover', 'Seral community', 'Mackerel', 'Soil chemistry', 'Notolabrus tetricus', 'Coulee', 'Soil carbon', 'Detrended correspondence analysis', 'Brachypodium pinnatum', 'Community forestry', 'Agricultural diversification', 'Extinction probability', 'Mineral excess', 'Vegetation analysis', 'Waste generation', 'Tropical forestry', 'Skin care', 'Lamprey', 'Bioclimatology', 'Cetacea', 'Tree transpiration', 'Ammophila arenaria', 'Conservation planning', 'Abalone', 'Nitrite nitrogen', 'Forest Vegetation Simulator', 'Longline fishing', 'Sea cucumber', 'Soil survey', 'Small Island Developing States', 'DNS root zone', 'Weed science', 'Agricultural biodiversity', 'Virtual population analysis', 'Land footprint', 'Digital soil mapping', 'Economics of biodiversity', 'Extinct species', 'Shore', 'Biomass yield', 'Soil mesofauna', 'Chrysoblephus laticeps', 'Catch per unit effort', 'Fish aggregating device', 'Red edge position', 'Anguillidae', 'Urban forest management', 'Spice', 'Chaparral', 'Advanced very-high-resolution radiometer', 'Quota Management System', 'Biodiversity assessment', 'Maillard reaction', 'Inga alley cropping', 'Artificial reef', 'Skipjack tuna', 'National nature reserve', 'Spawning habitat', 'Hydric soil', 'Sunflower oil', 'Marginal land', 'Shelterwood cutting', 'Crop quality', 'Mixed grass prairie', 'Mesopelagic zone', 'National forest inventory', 'Stocking', 'Nitrate dissimilation', 'Scallop', 'Egg white', 'Tilth', 'Soybean management practices', 'Chitting', 'Amazon rainforest', 'Larch', 'Deep scattering layer', 'Red edge', 'Catch and release', 'Vegetation canopy', 'Plant diversity', 'Revegetation', 'Quadrat', 'Coextinction', 'Basal area', 'Broodstock', 'Bigeye tuna', 'Greenhouse crops', 'Lupinus angustifolius', 'Canonical correspondence analysis', 'Amazon forest', 'Crop simulation models', 'Fish species', 'Chisel plow', 'Ceruchus chrysomelinus', 'Fire coral', 'Ecological connectivity', 'Biosphere model', 'Soil respiration', 'Fish diseases and parasites', 'Nature policy', 'Artificial reefs', 'Recreational fishing', 'Alley cropping', 'Plant nutrition', 'Soil fertility', 'Mountain forest', 'Topographic complexity', 'Species translocation', 'Deep-water coral', 'Soil salinity control', 'Soil structure', 'Pelagic zone', 'Tree breeding', 'Teleostei', 'Prionace glauca', 'Brining', 'Rocky desertification', 'Ecohydrology', 'Stipa tenacissima', 'Biodiversity hotspot', 'Boiling', 'Close to nature forestry', 'Amazon river basin', 'Formant', 'Thematic Mapper', 'Vessel monitoring system', 'Species at risk', 'Minimum tillage', 'Soil microbiology', 'Environmental policy integrated climate', 'Rainfed agriculture', 'Catch crop', 'Mediterranean vegetation', 'Soil zoology', 'Water demand management', 'Nitrate leaching', 'Tenderness', 'Galjoen', 'Precision agriculture', 'Terroir', 'Macroecology', 'Crop loss', 'Titratable acid', 'Partridge - meat', 'Carassius auratus', 'Anchovy', 'Small scale fishing', 'Flindersia brayleyana', 'Porites', 'Pesticide application', 'Freshwater prawn farming', 'Arid ecosystems', 'Ocean fisheries', 'Volcanic rock', 'Grass carp', 'Soil functions', 'Sexual maturity', 'Biodiversity management', 'Exclosure', 'Crop protection', 'Deciduous', 'Tree density', 'Threatened species', 'Understory', 'World Reference Base for Soil Resources', 'Crop growth', 'Forest vegetation', 'Land suitability', 'Land productivity', 'Tropical agriculture', 'Vegetation type', 'Biodiversity offsetting', 'Stock Recovery', 'Natural forest', 'Plant production', 'Shrimp farming', 'Hardwood timber production', 'High forest', 'Sprat', 'Food products', 'Weed control', 'Environmental soil science', 'Bioeconomics', 'Fish reproduction', 'Acropora', 'Soil solarization', 'Fungal biodiversity', 'Marine protected area', 'Stock assessment', 'Fruits and vegetables', 'Fertigation', 'Soil scientist', 'Orange roughy', 'Vegetation succession', 'Shrub', 'Marine invertebrates', 'Fermentation', 'Crop simulation model', 'Forest Principles', 'Biological soil crust', 'Mortierella spinosa', 'Endeavour Hydrothermal Vents', 'Soil map', 'Forest inventory', 'Forest planning', 'Soil seed bank', 'Soybean oil', 'Lunar Cycle', 'Water requirement', 'Commercial fish feed', 'Fire frequency', 'Soil health', 'Irrigated agriculture', 'Soil texture', 'Coral cover', 'Forest harvesting', 'Fish resources', 'Biocultural diversity', 'Nature reserve', 'Red tide', 'Subsoil', 'Reef lagoon', 'Landscape conservation', 'Wind damage', 'Coral bleaching', 'Shrimp', 'Urban forest', 'Digestion', 'Perciformes', 'Soil biology', 'Choice editing', 'Shrimp fishery', 'Essential oil', 'Yield gap', 'Nitrogen management', 'Skipjack', 'Tree species', 'Monogastric', 'Marine fisheries', 'Food science', 'Plant–soil feedback', 'Insular biogeography', 'Nature Conservation', 'Crop water use', 'Fringing reef', 'Floristics', 'Consumptive water use', 'Forest product', 'Ingredient', 'Perch', 'Mytilus', 'Land preparation', 'Soil contamination', 'Crop insurance', 'Fishing village', 'Soy protein', 'USDA soil taxonomy', 'Fishing', 'Soil management', 'Bottlenose dolphin', 'Soil crust', 'Etelis coruscans', 'Rain use efficiency', 'Nitrogen removal', 'Raw milk', 'Land use', 'Juvenile', 'Forest development', 'Steaming', 'Soil physics', 'Logging', 'Pilotage', 'Selection cutting', 'Fruit juice', 'Biogeomorphology', 'Mangrove', 'Monitoring control and surveillance', 'Biodiversity', 'Bagasse', 'Amazon floodplain', 'Oyster', 'Acid sulfate soil', 'Jellyfish', 'Surface irrigation', 'Multiple use', 'Forest fragmentation', 'Overfishing', 'Regional Red List', 'Ruminant', 'MAP protocol', 'Ecosystem engineer', 'Plant protein', 'Soil ecology', 'Aquatic science', 'Nearest neighbor imputation', 'Phalaris aquatica', 'Freeze-drying', 'Tannin', 'Salmon farming', 'Salvage logging', 'Forest management', 'Flavour', 'Marine reserve', 'Ecosystem degradation', 'Fire season', 'Grassland degradation', 'Baltic basin', 'Calcareous grassland', 'World fisheries production', 'Taiga']</t>
+          <t>['Polygonum arenastrum', 'Land uplift', 'Irish sea', 'Root crops', 'International waters', 'Unified Soil Classification System', 'Vegetation height', 'Sorghum bicolor', 'Sodium bicarbonate', 'Soil color', 'Alternative stable state', 'Forest dynamics', 'Rainforest', 'Coral Triangle', 'Distinct population segment', 'Fishing down the food web', 'Fishing trip', 'Soil gradation', 'Agro biodiversity', 'Fertilizer tree', 'Sardine', 'Coral skeleton', 'Tropical forest', 'Red List Index', 'Phytic acid', 'Undergrowth', 'Forest landscape', 'Nothofagus', 'Gradient analysis', 'Soil Pollutants', 'Salmon fishery', 'Feed additive', 'Guar gum', 'Bycatch reduction device', 'Primary succession', 'Water use', 'Sturgeon', 'Livestock grazing', 'Boreal zone', 'Sphagnum', 'Cover crop', 'DSSAT', 'Urban vegetation', 'Coralline algae', 'Calluna', 'Forest type', 'Sweet sorghum', 'Groundwater use', 'Lactose', 'Soil morphology', 'Plant Resources of Tropical Africa', 'Tussock', 'Soil type', 'Agricultural intensification', 'Amsterdam albatross', 'Primary production', 'Fishing techniques', 'Fish measurement', 'Tropical savanna climate', 'Intercropping', 'Fishery', 'Coral species', '15n balance', 'Aseptic processing', 'Sailfish', 'Swordfish', 'Soil compaction', 'Least Developed Countries', 'Habitat destruction', 'Cultural control', 'Plant breeding', 'Food packaging', 'Polyphenol', 'Striga', 'Squid', 'Dendrometry', 'Irrigation scheduling', 'Illegal fishing', 'Gooseberries', 'Nitrogen fertilization', 'Prawn', 'Soil food web', 'Pioneer species', 'Incidental catch', 'Green tea', 'Starter', 'Fish products', 'Sustained yield', 'Sesbania', 'Commercial fishing', 'Forest regeneration', 'Conservation finance', 'Prebiotic', 'Local extinction', 'Bottom fishing', 'Sodic soil', 'Trophic level', 'Physical control', 'Tinned food', 'Phytogeography', 'Preservative', 'Applied ecology', 'Felling', 'Flagship species', 'Crab fisheries', 'Destructive fishing practices', 'Whale', 'Denitrification process', 'Sclerophyll', 'Forest pathology', 'Food material', 'Near-threatened species', 'Trifolium subterraneum', 'Carrageenan', 'Tropical and subtropical dry broadleaf forests', 'Dead tree', 'Grassland ecosystem', 'Liana', 'Centrolobium microchaete', 'Red morwong', 'Repartition', 'Soil organic matter', 'Species at Risk Act', 'Freshwater inflow', 'Molinia caerulea', 'Continuous cover forestry', 'Coffea', 'Reef system', 'Melilotus siculus', 'Conventional tillage', 'Denitrifying bacteria', 'Loblolly pine', 'Oyster farming', 'Leaf area index', 'Grazing pressure', 'Moisture stress', 'Yellowfin tuna', 'Marine conservation', 'Spawning site', 'Coral', 'Virtual water', 'Fish physiology', 'Stubble-mulching', 'Cod fisheries', 'Scots pine', 'Soil retrogression and degradation', 'Sustainable fishery', 'Optimum sustainable yield', 'Crop yield', 'Maximum sustainable yield', 'Plant functional type', 'Environment Protection and Biodiversity Conservation Act 1999', 'Genetics genomics', 'Gluten', 'Anchoa', 'Lolium rigidum', 'Soil stabilization', 'Fisheries science', 'Summer fallow', 'Group cohesiveness', 'Soil classification', 'Sucrose', 'Tropical rain forest', 'Land surface temperature', 'Raphanus raphanistrum', 'Trout', 'CITES', 'Condition index', 'Coral reef fish', 'Seabird', 'National Cooperative Soil Survey', 'Fish farming', 'Coastal dunes', 'Crop land', 'Gonadal histology', 'Tropical biodiversity', 'Agricultural management', 'Freshwater fish', 'Fisheries Act', 'Biodiversity action plan', 'SOIL EXPOSURE', 'Sustainable forest management', 'Fish marketing', 'Montane ecology', 'Pyroclastic rock', 'Tundra', 'Temperate deciduous forest', 'Stover', 'Fat content', 'Animal nutrition', 'Flounder', 'Vegetable crops', 'Umbrella species', 'Biodiversity conservation', 'Diel vertical migration', 'Serpentine soil', 'Protein content', 'Soil science', 'Fishing fleet', 'Natural park', 'Heck cattle', 'Adaptive strategies', 'Food additive', 'Mineral fertilization', 'Vegetation dynamics', 'Conservation reliant species', 'Topsoil', 'Vegetation', 'Fisheries management', 'Fuel moisture content', 'Butyric acid', 'Cultural methods', 'Soil salinity', 'Food availability', 'Aquaculture of coral', 'British Indian Ocean Territory', 'Timber management', 'Marine fish', 'Ecological thinning', 'Perennial crop', 'Ice cream', 'Certified wood', 'Soil series', 'Pinus radiata', 'Turtle excluder device', 'Cyprinodontiformes', 'Baltic sea', 'Trawling', 'Crop management', 'Roasting', 'Forest health', 'Bonefish', 'Soil bioengineering', 'Light machinery', 'Cherimoyas', 'Beech', 'Catch reporting', 'Wheat flour', 'Moorland', 'Macrophyte', 'Halimeda', 'Vegetation composition', 'Smoked fish', 'Yield mapping', 'Oxygen cocktail', 'Vegetation classification', 'Animal feed', 'Marine mammal', 'Lecithin', 'Panicum miliaceum', 'Biodiversity index', 'Sorbitol', 'Wood industry', 'Soil thermal properties', 'Plant community', 'Denitrification', 'Plant canopy', 'Domestic water consumption', 'Palynology', 'Amazon rain forest', 'Joint Forest Management', 'Shark finning', 'Functional biodiversity', 'Mixed farming', 'Forestry law', 'Gallery forest', 'Soil biodiversity', 'Cluster beans', 'Disc harrow', 'Wet tropics', 'Fisheries law', 'Fishing net', 'Secondary forest', 'International Tropical Timber Organization', 'Soil pH', 'Water pricing', 'Community based forest management in the Philippines', 'Marine ecoregions', 'Extinction rate', 'Silviculture', 'Extinction event', 'Prescribed burn', 'African Convention on the Conservation of Nature and Natural Resources', 'Irrigation efficiency', 'Desertification', 'Great Green Wall', 'Ecoregion', 'Tangle net', 'Black sea', 'Fodder crops', 'Social forestry in India', 'Vulcanian eruption', 'Cyprinidae', 'Bulk soil', 'Rice crop', 'Mediterranean ecosystem', 'Soil conditioner', 'Fire ecology', 'Vegetation water content', 'Evergreen forest', 'Agricultural crops', 'Megafauna', 'No-till farming', 'Population viability analysis', 'Bycatch', 'Molecular breeding', 'Tree line', 'Whitefly', 'Dead wood', 'Vegetation effect', 'Intraspecific breeding', 'Starch', 'Fish trap', 'Chondrichthyes', 'Soil test', 'Pop-up satellite archival tag', 'Eggshell', 'Urban forestry', 'Estuarine water circulation', 'Field crop', 'Pulpwood', 'Overexploitation', 'Crop failure', 'Deschampsia flexuosa', 'Sustainable forestry', 'Turbot', 'Swimming speed', 'Whey protein', 'Demersal fish', 'Climax community', 'Blue marlin', 'Coarse fishing', 'Nitrogen fertilizer', 'Forest structure', 'Cassava brown streak virus disease', 'Carotene', 'Brazil nut', 'Dichistius', 'Dipterocarpaceae', 'Reforestation', 'Viticulture', 'Extinction', 'Water productivity', 'American shad', 'Metapopulation', 'Hydroacoustics', 'Big-game fishing', 'Crop productivity', 'Forest management planning', 'Tropical rainforest', 'Volcano', 'Rate of exploitation', 'Fire history', 'Volcanic ash', 'Gillnetting', 'Marxan', 'Bouteloua gracilis', 'Pocillopora damicornis', 'Demersal zone', 'Tree cover', 'Fish stock', 'Stock synthesis', 'Dipteryx panamensis', 'Insect biodiversity', 'Groundwater nitrate', 'Bumper crop', 'Broiler', 'Trehalose', 'Subsoiler', 'Oncorhynchus', 'Quality characteristics', 'Shrubland', 'Coral reef management', 'Great barrier reef', 'Plant strategies', 'Spray drying', 'Total dissolved solids', 'Nutraceutical', 'Soil governance', 'Woodland', 'Midwater trawling', 'Soil mechanics', 'Coral reef protection', 'Organic manure', 'Agricultural statistics', 'King mackerel', 'Albacore', 'Remnant vegetation', 'Animal breeding', 'Ecotone', 'Nardus stricta', 'Normalized Difference Vegetation Index', 'Soil horizon', 'Atoll', 'Purified water', 'Flatfish', 'Important Plant Areas', 'Agricultural system', 'Serranidae', 'Pectin', 'Red soil', 'Soil resilience', 'Forest recovery', 'Vegetable oil', 'Hatchery', 'Carotenoid', 'Surplus production', 'Oasification', 'Tamarix', 'Olive oil', 'Native forest', 'Pinus pinaster', 'Controlled traffic farming', 'Soil tillage', 'Timber volume', 'Participatory plant breeding', 'World Database on Protected Areas', 'Ratooning', 'Amazonian', 'Water-use efficiency', 'Fishing industry', 'Moderate-resolution imaging spectroradiometer', 'Nestedness', 'Brassica carinata', 'Douglas fir', 'Fishing line', 'Pratylenchus', 'Coral growth', 'Wildlife management', 'Clearcutting', 'Amazon basin', 'Horticultural crops', 'Food quality', 'Comprehensive Assessment of Water Management in Agriculture', 'Sensory system', 'Food industry', 'Artisanal fishing', 'Secondary succession', 'Hermatypic coral', 'Anatidae', 'Krill', 'Soil plant atmosphere continuum', 'Fire effect', 'Agricultural soil science', 'Forestry', 'Volcanology', 'Important Bird Area', 'Anthracology', 'Stand development', 'Microbial biodiversity', 'Citric acid', 'Monodominance', 'Exclusive economic zone', 'Contour plowing', 'Measurement of biodiversity', 'Biome', 'Biotope', 'Poeciliidae', 'Afforestation', 'Vascular plant', 'Mussel', 'Physical water scarcity', 'Barrier reef', 'Soil gas', 'Agrometeorology', 'Staple food', 'Thinning', 'Forest protection', 'Groundfish', 'Conservation science', 'Vegetation types', 'Propolis', 'Herring', 'Plant cover', 'Seral community', 'Mackerel', 'Soil chemistry', 'Notolabrus tetricus', 'Coulee', 'Soil carbon', 'Detrended correspondence analysis', 'Brachypodium pinnatum', 'Community forestry', 'Agricultural diversification', 'Extinction probability', 'Mineral excess', 'Vegetation analysis', 'Waste generation', 'Tropical forestry', 'Skin care', 'Lamprey', 'Bioclimatology', 'Cetacea', 'Tree transpiration', 'Ammophila arenaria', 'Conservation planning', 'Abalone', 'Nitrite nitrogen', 'Forest Vegetation Simulator', 'Longline fishing', 'Sea cucumber', 'Soil survey', 'Small Island Developing States', 'DNS root zone', 'Weed science', 'Agricultural biodiversity', 'Virtual population analysis', 'Land footprint', 'Digital soil mapping', 'Economics of biodiversity', 'Extinct species', 'Shore', 'Biomass yield', 'Soil mesofauna', 'Chrysoblephus laticeps', 'Catch per unit effort', 'Fish aggregating device', 'Red edge position', 'Anguillidae', 'Urban forest management', 'Spice', 'Chaparral', 'Advanced very-high-resolution radiometer', 'Quota Management System', 'Biodiversity assessment', 'Maillard reaction', 'Inga alley cropping', 'Artificial reef', 'Skipjack tuna', 'National nature reserve', 'Spawning habitat', 'Hydric soil', 'Sunflower oil', 'Marginal land', 'Shelterwood cutting', 'Crop quality', 'Mixed grass prairie', 'Mesopelagic zone', 'National forest inventory', 'Stocking', 'Nitrate dissimilation', 'Scallop', 'Egg white', 'Tilth', 'Soybean management practices', 'Chitting', 'Amazon rainforest', 'Larch', 'Deep scattering layer', 'Red edge', 'Catch and release', 'Vegetation canopy', 'Plant diversity', 'Revegetation', 'Quadrat', 'Coextinction', 'Basal area', 'Broodstock', 'Bigeye tuna', 'Greenhouse crops', 'Lupinus angustifolius', 'Canonical correspondence analysis', 'Amazon forest', 'Crop simulation models', 'Fish species', 'Chisel plow', 'Ceruchus chrysomelinus', 'Fire coral', 'Ecological connectivity', 'Biosphere model', 'Soil respiration', 'Fish diseases and parasites', 'Nature policy', 'Artificial reefs', 'Recreational fishing', 'Alley cropping', 'Plant nutrition', 'Soil fertility', 'Mountain forest', 'Topographic complexity', 'Species translocation', 'Deep-water coral', 'Soil salinity control', 'Soil structure', 'Pelagic zone', 'Tree breeding', 'Teleostei', 'Prionace glauca', 'Brining', 'Rocky desertification', 'Ecohydrology', 'Stipa tenacissima', 'Biodiversity hotspot', 'Boiling', 'Close to nature forestry', 'Amazon river basin', 'Formant', 'Thematic Mapper', 'Vessel monitoring system', 'Species at risk', 'Minimum tillage', 'Soil microbiology', 'Environmental policy integrated climate', 'Rainfed agriculture', 'Catch crop', 'Mediterranean vegetation', 'Soil zoology', 'Water demand management', 'Nitrate leaching', 'Tenderness', 'Galjoen', 'Terroir', 'Macroecology', 'Crop loss', 'Titratable acid', 'Partridge - meat', 'Carassius auratus', 'Anchovy', 'Small scale fishing', 'Flindersia brayleyana', 'Porites', 'Pesticide application', 'Freshwater prawn farming', 'Arid ecosystems', 'Ocean fisheries', 'Volcanic rock', 'Grass carp', 'Soil functions', 'Sexual maturity', 'Biodiversity management', 'Exclosure', 'Crop protection', 'Deciduous', 'Tree density', 'Threatened species', 'Understory', 'World Reference Base for Soil Resources', 'Crop growth', 'Forest vegetation', 'Land suitability', 'Land productivity', 'Tropical agriculture', 'Vegetation type', 'Biodiversity offsetting', 'Stock Recovery', 'Natural forest', 'Plant production', 'Shrimp farming', 'Hardwood timber production', 'High forest', 'Sprat', 'Food products', 'Weed control', 'Environmental soil science', 'Bioeconomics', 'Fish reproduction', 'Acropora', 'Soil solarization', 'Fungal biodiversity', 'Marine protected area', 'Stock assessment', 'Fruits and vegetables', 'Fertigation', 'Soil scientist', 'Orange roughy', 'Vegetation succession', 'Shrub', 'Marine invertebrates', 'Fermentation', 'Crop simulation model', 'Forest Principles', 'Biological soil crust', 'Mortierella spinosa', 'Endeavour Hydrothermal Vents', 'Soil map', 'Forest inventory', 'Forest planning', 'Soil seed bank', 'Soybean oil', 'Lunar Cycle', 'Water requirement', 'Commercial fish feed', 'Fire frequency', 'Soil health', 'Irrigated agriculture', 'Soil texture', 'Coral cover', 'Forest harvesting', 'Fish resources', 'Biocultural diversity', 'Nature reserve', 'Red tide', 'Subsoil', 'Reef lagoon', 'Landscape conservation', 'Wind damage', 'Coral bleaching', 'Shrimp', 'Urban forest', 'Digestion', 'Perciformes', 'Soil biology', 'Choice editing', 'Shrimp fishery', 'Essential oil', 'Yield gap', 'Nitrogen management', 'Skipjack', 'Tree species', 'Monogastric', 'Marine fisheries', 'Food science', 'Plant–soil feedback', 'Insular biogeography', 'Nature Conservation', 'Crop water use', 'Fringing reef', 'Floristics', 'Consumptive water use', 'Forest product', 'Ingredient', 'Perch', 'Mytilus', 'Land preparation', 'Soil contamination', 'Crop insurance', 'Fishing village', 'Soy protein', 'USDA soil taxonomy', 'Fishing', 'Bottlenose dolphin', 'Etelis coruscans', 'Rain use efficiency', 'Nitrogen removal', 'Raw milk', 'Land use', 'Juvenile', 'Forest development', 'Steaming', 'Soil physics', 'Logging', 'Pilotage', 'Selection cutting', 'Fruit juice', 'Biogeomorphology', 'Mangrove', 'Monitoring control and surveillance', 'Biodiversity', 'Bagasse', 'Amazon floodplain', 'Oyster', 'Acid sulfate soil', 'Jellyfish', 'Surface irrigation', 'Multiple use', 'Forest fragmentation', 'Overfishing', 'Regional Red List', 'Ruminant', 'MAP protocol', 'Ecosystem engineer', 'Plant protein', 'Soil ecology', 'Aquatic science', 'Nearest neighbor imputation', 'Phalaris aquatica', 'Freeze-drying', 'Tannin', 'Salmon farming', 'Salvage logging', 'Forest management', 'Flavour', 'Marine reserve', 'Ecosystem degradation', 'Fire season', 'Grassland degradation', 'Baltic basin', 'Calcareous grassland', 'World fisheries production', 'Taiga']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['2909524676', '173795300', '35158069', '2778449271', '192241223', '137555145', '2776285232', '2780505049', '2778673487', '14849681', '2909327039', '2776139558', '2781193452', '2779146456', '2781094106', '2778091200', '189569837', '192536144', '20450499', '2910708160', '508466165', '107674354', '79355281', '2910587469', '2777206602', '59898753', '2777416314', '2908544876', '2778359420', '81993482', '2778333957', '2778391067', '2778852317', '40667233', '134068817', '2779140988', '2777476143', '2778291008', '2780775713', '118518473', '2776278397', '2777480484', '2779979797', '22344907', '2910182614', '181607587', '2780086105', '118643609', '8673954', '2779824757', '112058002', '2779843069', '2778312390', '2780246931', '2776978901', '2779363728', '2776335591', '2910321686', '2776998673', '192039558', '2780067489', '2780781704', '2776364969', '2776093933', '2778823544', '91447561', '134215735', '2776660552', '2776054349', '2781227287', '2780106736', '2779950014', '1670747', '93066458', '2779032678', '551997983', '2776687813', '2909725152', '2776500793', '118817206', '2776672683', '201490090', '141896089', '2777707638', '88199923', '2780066083', '119249163', '173145845', '123244313', '1924315', '157777378', '2910294407', '45152089', '2909753820', '516717267', '203174812', '2779958227', '2779310246', '2777108408', '2780655333', '2777129469', '2777704720', '32120771', '28631016', '2780235837', '2910212593', '2780072470', '2778098436', '2779564620', '2909066392', '2780671300', '172427765', '63651461', '2781353100', '2779215912', '2910848602', '505241676', '2777981335', '2776336767', '2776263494', '2777022838', '2780429984', '2779427263', '194691359', '120009192', '2781364378', '91354502', '2909609276', '85675897', '2777131864', '153279818', '17857428', '2780523633', '2780238508', '94487597', '2908542670', '2776840061', '2908797517', '2775929138', '2016182', '2776841996', '2776420369', '2909216340', '2775832765', '140130429', '9927688', '2910491720', '2779457888', '2779823546', '172269249', '2776007641', '89920630', '2777472530', '122748992', '2778617593', '2779735984', '2780467133', '147103442', '2911219547', '38739810', '74139830', '2910174702', '514101110', '2780623117', '2778148510', '2779656528', '121412344', '2779282177', '2910525245', '2778962194', '2776654248', '2777499484', '2777380357', '2779004245', '64112148', '77942228', '2781181605', '2776841711', '140413371', '73593433', '126343540', '2779081038', '2779179000', '164958353', '2909999035', '2777575642', '62158283', '120806208', '112625547', '2776876274', '2777953396', '3987366', '503900551', '2776733808', '2909639017', '2777952078', '2910840360', '153102810', '105639569', '2777762679', '2781168071', '2778358892', '2779991348', '31903555', '2776725572', '2777253967', '126408429', '2779128174', '2777549804', '2778452349', '197011783', '189307558', '2780097091', '2775892496', '16281581', '2779267909', '2781218492', '2778173381', '2780589914', '2776325102', '2779409326', '2781131740', '2909399481', '57269778', '2911208417', '116607704', '2778728749', '2910706634', '2778205388', '93944068', '197321923', '2909532361', '35378473', '2779483572', '2909506248', '187457775', '2779381216', '45622825', '154098486', '2780174665', '2911033078', '2775966360', '2779325724', '2776121688', '2779796875', '2778554304', '2781275782', '113416529', '118694661', '2910264974', '49461877', '2779249804', '191440113', '2776421481', '2776962008', '38838508', '2776675269', '2778361644', '2779562855', '2909420048', '2775992197', '173419221', '2780289900', '125069764', '2779873548', '535291247', '535046627', '2780717550', '56095865', '121850381', '2781208722', '2908942569', '2777890039', '511355011', '2908631853', '2776708618', '169684477', '14624660', '110175623', '2775991992', '202041845', '2776946213', '195330766', '2776499504', '2779814588', '108216600', '129360787', '159879943', '2779944326', '2780191829', '73849760', '91770344', '2777267482', '2910206840', '2778596745', '2780367213', '29376679', '141732470', '2778036281', '2776824989', '2778718584', '33275205', '2779316989', '38774213', '16643866', '2776111823', '2776953683', '2777617796', '116370137', '2911025827', '155987862', '2779687958', '2778867918', '2780900284', '2777132354', '2908556935', '2780774944', '2778724459', '15147509', '2909807485', '2778625682', '125620115', '82639676', '2777796192', '2910221061', '549605437', '151788092', '36516193', '2778851755', '207769581', '24144980', '71502557', '161189057', '2780309462', '2909857543', '149817419', '139145706', '14641543', '139669111', '139326070', '2910283248', '155739000', '2777794352', '162501224', '59582021', '16884802', '2779234561', '88776829', '28781525', '149207113', '31568149', '189109488', '2776654049', '116003164', '2910493534', '2780003869', '2778329027', '2780982499', '2910800256', '2780816530', '2777631861', '2777782036', '123917164', '2780339060', '25382069', '2911039760', '2776426263', '513059894', '176943803', '47924181', '14522933', '2909598931', '2777306872', '155373166', '2778200843', '2779425982', '2780065859', '2777106113', '2910152589', '2777014122', '37884843', '2910611143', '167296696', '192392207', '155015343', '64551749', '529335014', '2778402112', '2780077345', '67031304', '43272882', '2908538994', '2775874878', '2779427562', '98108635', '154575652', '102720910', '2780948830', '74948603', '2778134537', '2779023244', '2775999090', '73580989', '135895429', '26785111', '2780167305', '2778586117', '2781436638', '2780397596', '2776831678', '203017698', '130217890', '2777803996', '162889289', '2909380268', '2909396454', '2776388979', '2779613291', '199877563', '2776082207', '2777900319', '2910855215', '2776115401', '31954745', '2779987062', '2779485152', '2779290800', '2780267512', '2780394310', '2775838554', '2909512196', '199535368', '98722961', '2776892409', '2776890026', '2780907584', '158215666', '2779298159', '2910137147', '198979508', '2780143158', '73495956', '2777350553', '198150046', '126914827', '2781121325', '165007447', '147490202', '2777341207', '2779529612', '2780556605', '2779764123', '2909743892', '2777845105', '2779096019', '177658893', '2911152419', '113513581', '150194340', '2776562576', '60989497', '173917561', '135704130', '196687554', '2910933275', '156858999', '2909296374', '2776492830', '4792198', '2778896901', '8313540', '2781288472', '2911036004', '2776142123', '2777635537', '132000320', '26291073', '147252523', '2780797831', '39571515', '141151480', '134643618', '2910224097', '2776554196', '510239367', '2778568511', '14171219', '163588314', '2780756937', '2777007095', '532801124', '2778597767', '96650669', '2780748813', '93990901', '152382732', '2780221984', '2779587474', '89295123', '149340888', '2777802595', '2778226232', '2778152828', '133382796', '64229544', '95803793', '2776623689', '2777176278', '2778484053', '2909358641', '2779000468', '167393769', '2779885280', '2777833858', '2780001261', '84699730', '2779363069', '2909529903', '2777492549', '2778896754', '143020374', '2780584575', '118733760', '2780492159', '2777434770', '2777189468', '152491559', '2909409184', '2777278459', '24717449', '2776665667', '183135511', '5465852', '2780417240', '2779139258', '2910326811', '96313414', '2780871851', '128058477', '2779852692', '112149622', '2775841215', '2910653396', '2910069897', '2909991231', '2780853707', '2776384079', '34881761', '2778502483', '2776259809', '2910579474', '54924851', '122629976', '2909463689', '2781102901', '97137747', '2776574334', '195092306', '2780343512', '112892834', '93707483', '2777154535', '54815482', '128383755', '2911108994', '153427425', '2780745107', '112939947', '35306142', '2911118914', '2781462481', '2909152114', '2775938548', '2776853598', '2778661615', '2780127386', '2781206450', '2910375186', '175760724', '34070608', '117480383', '2780179066', '65193109', '177701732', '30455989', '2778551664', '79339454', '2619416', '198815454', '2777897731', '1549246', '2776824459', '2780111930', '2781257293', '74893574', '69514717', '2780946806', '87621631', '33283694', '132964779', '41478065', '2777988102', '2778452849', '72286879', '2779501324', '2779562289', '2777589964', '2779909984', '139019045', '2779623515', '2776176627', '2775831186', '51926234', '2781061397', '107888415', '68874143', '100544194', '2779329624', '2910254177', '109902934', '105152847', '2909101193', '95869378', '24061886', '168857316', '108738950', '112276597', '2910206990', '33559203', '169282265', '2778898053', '156663261', '154702282', '30481170', '33824837', '2910357638', '2781348932', '165107724', '77088390', '507981020', '2777858656', '2908993845', '2779287364', '201116201', '2778944361', '2778368945', '2779590308', '505870484', '202682190', '2780977904', '2777768678', '2778939721', '58479451', '2776191655', '14918906', '72958200', '550263199', '115961737', '2776107028', '2778589402', '153911025', '53002841', '2777707811', '144492951', '2778896599', '181268634', '2778733383', '2910226413', '23837897', '2910406661', '2779869275', '2780498771', '2778003962', '23519681', '123336316', '2780488879', '201401522', '189775405', '2776596991', '2779697819', '174553679', '171205284', '2779164741', '2909590382', '2908572884', '151107107', '2910945474', '70899900', '2777387638', '2777542811', '197320908', '2779294082', '2780040469', '115930662', '166548495', '199724614', '91067096', '81977670', '2777399377', '53571324', '2909135477', '84199377', '2780696901', '2910188331', '2777589951', '2777784394', '2777246098', '2781397391', '68553557', '96105989', '2910668823', '555313981', '2780528068', '2777438402', '2780527838', '2778165219', '2909068147', '68800169', '2777526573', '2781182717', '2780192938', '123281439', '24518262', '513806601', '140327455', '2780500427', '60359462', '2775868463', '2777798493', '130693829', '139518226', '190157891', '2781003712', '2775980262', '25989453', '152613627', '2778348119', '55347375', '2910584990', '69907114', '2778018375', '2776801807', '509243982', '2909580760', '2780351957', '42435023', '2779895041', '2777406646', '12064787', '146188434', '2909499532', '2780848231', '2779957034', '2910606548', '54625482', '2776367567', '2778525234', '2779421218', '103474955', '86409407', '126589399', '2909116410', '157717039', '147273371', '2777110004', '2776779347', '2778327988', '2910218496', '130491866', '87976508', '195973872', '45920995', '165237769']</t>
+          <t>['2909991231', '2777022838', '2775868463', '2909753820', '118643609', '64112148', '2778173381', '2778661615', '2776824989', '2776853598', '147490202', '2779613291', '88199923', '155739000', '2778551664', '113416529', '2780143158', '112058002', '153427425', '2779298159', '2776325102', '2779529612', '2780238508', '14624660', '152613627', '514101110', '2778568511', '2777890039', '123244313', '2776364969', '2780351957', '2909327039', '2776779347', '1549246', '2909216340', '2909409184', '9927688', '113513581', '2778205388', '121412344', '139326070', '65193109', '2777631861', '2778329027', '2777704720', '2780174665', '2777784394', '159879943', '74893574', '2910137147', '55347375', '201490090', '156858999', '2781193452', '128383755', '2780498771', '2778018375', '68800169', '198979508', '189109488', '128058477', '152491559', '3987366', '2778036281', '176943803', '2780339060', '2909068147', '2778003962', '2778368945', '2777707811', '2781206450', '140413371', '2779944326', '2910855215', '73495956', '2779023244', '132000320', '31568149', '139145706', '2775992197', '2911152419', '53002841', '2780066083', '2909609276', '49461877', '2777492549', '2775841215', '2778327988', '2911039760', '2908556935', '103474955', '2778733383', '2777635537', '2779885280', '2910218496', '173145845', '2779287364', '2910254177', '155373166', '14522933', '115930662', '2781182717', '507981020', '2778554304', '2779869275', '2909580760', '2776082207', '2779381216', '30455989', '2776892409', '15147509', '84699730', '163588314', '2910708160', '33559203', '2776824459', '2777416314', '2780417240', '2780086105', '2909807485', '17857428', '72286879', '2776278397', '69907114', '2909506248', '199877563', '2778896754', '2779501324', '2778673487', '63651461', '118733760', '24717449', '2775874878', '2778200843', '16884802', '2909590382', '2776687813', '73593433', '2777953396', '2908542670', '100544194', '2778402112', '177701732', '112276597', '2910264974', '2911108994', '2779814588', '2779000468', '155015343', '2779958227', '510239367', '2779081038', '2778348119', '130217890', '2780040469', '2777106113', '2909358641', '2911036004', '156663261', '2780246931', '2911025827', '2779485152', '2780111930', '107674354', '34881761', '2910406661', '79339454', '2778312390', '2776107028', '2777253967', '2777952078', '2777833858', '53571324', '129360787', '31954745', '2777803996', '2909380268', '2779425982', '2909463689', '2781436638', '2776492830', '139019045', '2780900284', '84199377', '2778091200', '141732470', '2781348932', '155987862', '93990901', '2776111823', '2776725572', '24061886', '154098486', '2779427263', '125620115', '2776554196', '73580989', '2780946806', '2778724459', '2780127386', '2776191655', '2778939721', '2778291008', '2779656528', '2910375186', '2780467133', '60989497', '35378473', '2780343512', '201116201', '2778867918', '96650669', '2780397596', '173795300', '2780907584', '2776285232', '2779140988', '2777129469', '2776420369', '2778596745', '532801124', '47924181', '154702282', '123917164', '2776672683', '2779421218', '2776841711', '2779234561', '191440113', '118694661', '1924315', '192392207', '38774213', '36516193', '2910152589', '535291247', '2781397391', '2779215912', '516717267', '198150046', '2779587474', '2779427562', '37884843', '2781181605', '2778098436', '134643618', '2909296374', '91354502', '2778896901', '2910587469', '146188434', '64229544', '2909116410', '2781227287', '28781525', '2778484053', '2780429984', '2778165219', '28631016', '2779179000', '33824837', '2779909984', '2777480484', '2780982499', '2780523633', '2776708618', '194691359', '2780696901', '2910206840', '2779796875', '43272882', '58479451', '2910611143', '2779483572', '2776335591', '26291073', '2780671300', '2779824757', '2779991348', '2780065859', '107888415', '56095865', '164958353', '2776562576', '2776384079', '29376679', '195092306', '147273371', '62158283', '2777549804', '116370137', '14849681', '2777798493', '181268634', '2780797831', '2780072470', '165107724', '2781257293', '2776263494', '2779687958', '126914827', '2776596991', '2775832765', '39571515', '2777267482', '149207113', '2909529903', '2777110004', '151788092', '2778359420', '38739810', '2778962194', '118817206', '30481170', '2777206602', '2778898053', '2776499504', '2780871851', '172427765', '108216600', '2909999035', '2777617796', '181607587', '2780781704', '134068817', '2777802595', '2776176627', '2910212593', '122629976', '91067096', '2777278459', '2908993845', '2780717550', '102720910', '135895429', '2908572884', '550263199', '198815454', '2780067489', '119249163', '2779409326', '2910206990', '2775929138', '95803793', '2779562289', '71502557', '133382796', '2909499532', '2777438402', '69514717', '2778525234', '2776115401', '2910326811', '2779325724', '503900551', '115961737', '2777306872', '2775966360', '169684477', '22344907', '2776654248', '118518473', '2779249804', '2779294082', '2908544876', '2779562855', '2775991992', '70899900', '2781364378', '2776093933', '85675897', '93066458', '2911033078', '2619416', '23519681', '67031304', '195330766', '2778586117', '2909396454', '2776841996', '2781218492', '2910800256', '123336316', '105639569', '126343540', '2775838554', '2777434770', '2780528068', '2776121688', '135704130', '2779852692', '2776675269', '2776946213', '151107107', '197320908', '174553679', '130491866', '26785111', '2780556605', '2775980262', '2776139558', '2910174702', '16281581', '2780584575', '51926234', '112625547', '2779267909', '2910525245', '2780977904', '2779957034', '2779139258', '529335014', '2778333957', '505241676', '45920995', '2777476143', '2777176278', '2776574334', '2778152828', '2780948830', '2909598931', '189569837', '202682190', '152382732', '2776665667', '2779823546', '2778391067', '87621631', '508466165', '2779282177', '40667233', '2776367567', '153279818', '2780816530', '2910653396', '2910945474', '2776801807', '112892834', '2779457888', '74139830', '199535368', '38838508', '25382069', '2778852317', '196687554', '144492951', '2780179066', '2908538994', '2016182', '2779735984', '2780505049', '167296696', '2780745107', '2777796192', '96313414', '2779843069', '157777378', '112939947', '2779004245', '2778502483', '2911118914', '2779697819', '2780488879', '117480383', '165237769', '158215666', '2910321686', '68553557', '2777794352', '2776388979', '4792198', '77942228', '2777131864', '2910848602', '2780167305', '147103442', '2910933275', '149340888', '89920630', '2780748813', '2909101193', '2911208417', '81977670', '35158069', '2776998673', '116003164', '157717039', '2778134537', '2776623689', '2776660552', '2778728749', '2777499484', '139669111', '116607704', '2777399377', '2910579474', '91770344', '54625482', '2909743892', '110175623', '2910226413', '168857316', '126408429', '197011783', '105152847', '2778823544', '2778896599', '2779987062', '2910357638', '2779363728', '2777589951', '93707483', '87976508', '2778452849', '54924851', '2779564620', '14171219', '549605437', '2780774944', '173419221', '2780367213', '95869378', '120806208', '2910840360', '33275205', '91447561', '555313981', '2777350553', '88776829', '140327455', '2910706634', '2777380357', '141896089', '2778944361', '187457775', '2779873548', '535046627', '54815482', '2909135477', '8313540', '35306142', '73849760', '2776733808', '2777014122', '2777387638', '2780267512', '2781462481', '24144980', '94487597', '192536144', '2780756937', '121850381', '2910224097', '2776142123', '2909725152', '2780853707', '2780003869', '2779950014', '2777007095', '2781288472', '24518262', '120009192', '513059894', '2779096019', '2780191829', '2908631853', '551997983', '2777406646', '96105989', '2776336767', '2780589914', '2779310246', '2779623515', '2778597767', '2781094106', '98722961', '2910606548', '203017698', '2780655333', '2779979797', '108738950', '2779363069', '2779329624', '177658893', '2777900319', '2776259809', '172269249', '2778625682', '2779164741', '2909639017', '183135511', '169282265', '149817419', '2776978901', '82639676', '2780235837', '2777897731', '150194340', '2776890026', '33283694', '2910283248', '109902934', '2780775713', '197321923', '2776007641', '2777762679', '2777341207', '2781003712', '125069764', '2777981335', '2777988102', '2910221061', '165007447', '175760724', '2778851755', '2778226232', '2909420048', '59898753', '189307558', '132964779', '195973872', '97137747', '2780192938', '64551749', '2910491720', '2781275782', '147252523', '2779032678', '2780309462', '23837897', '2778589402', '2781121325', '2780623117', '2777246098', '201401522', '2777108408', '167393769', '2909512196', '2777858656', '14641543', '2781061397', '2776426263', '192241223', '25989453', '2777154535', '41478065', '2780289900', '2776654049', '2780394310', '2776421481', '162889289', '2777132354', '161189057', '2909524676', '2778358892', '2779290800', '162501224', '511355011', '203174812', '139518226', '68874143', '45152089', '5465852', '8673954', '2777542811', '2781168071', '2778718584', '2778361644', '2780077345', '42435023', '2778617593', '189775405', '2908797517', '2777589964', '2908942569', '2776953683', '79355281', '2909399481', '14918906', '2776876274', '2910294407', '2779128174', '153102810', '2910668823', '130693829', '190157891', '2777472530', '141151480', '32120771', '2781131740', '60359462', '2910188331', '153911025', '2777707638', '137555145', '2909152114', '2780492159', '20450499', '2780848231', '505870484', '2776500793', '199724614', '2777526573', '112149622', '126589399', '2780106736', '2777575642', '2777845105', '59582021', '2777768678', '2780221984', '2776054349', '2780527838', '2909532361', '16643866', '140130429', '2779895041', '2909857543', '45622825', '2910584990', '2910069897', '513806601', '192039558', '2775892496', '81993482', '12064787', '171205284', '2779146456', '89295123', '31903555', '509243982', '2777782036', '166548495', '207769581', '2779316989', '2781208722', '123281439', '2777189468', '2775831186', '34070608', '93944068', '134215735', '57269778', '2776840061', '77088390', '2910493534', '122748992', '72958200', '2778452349', '173917561', '2779764123', '2775999090', '2776962008', '1670747', '98108635', '74948603', '2780097091', '86409407', '202041845', '2781102901', '2911219547', '2909066392', '2780500427', '2781353100', '2780001261', '2779590308', '143020374', '2910182614', '2778148510', '154575652', '2778449271', '2775938548', '2776831678']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['W chromosome', 'Salvage logging', 'X chromosome', 'Development aid', 'Volcanic rock', 'Chromosome 21', 'Tropical forest', 'Tamarix', 'Moisture stress', 'Shrimp farming', 'Body Fat Measurement', 'Shrimp fishery', 'Longline fishing', 'Sustained yield', 'Commercial fishing', 'Shrub', 'Metapopulation', 'Sexual maturity', 'Detrended correspondence analysis', 'Bacterial Physiological Phenomena', 'Fishing industry', 'Estuarine water circulation', 'Dutch disease', 'Panicum miliaceum', 'Food sampling', 'Shrubland', 'Energy poverty', 'Nutrition Disorders', 'African swine fever virus', 'Integrated farming', 'Baby food', 'Trawling', 'Agricultural policy', 'Agroecological restoration', 'Chromosome 4', 'Oncorhynchus', 'Nutrition analysis', 'Rate of exploitation', 'Iliana', 'Agriculture', 'Revegetation', 'Advanced very-high-resolution radiometer', 'Tyrosine decarboxylase', 'Agricultural diversification', 'Product Label', 'Generation', 'Forest product', 'Web application', 'Microfluidics', 'Fat substitute', 'Hardwood timber production', 'Butyric acid', 'Growth rate', 'Y chromosome', 'Tree breeding', 'Trout', 'Forest Vegetation Simulator', 'Nutrition care', 'Carotene', 'Biofertilizer', 'Isocitric acid', 'Short food supply chains', 'Oyster', 'Sea cucumber', 'nutritionDay', 'Photosynthesis system', 'Flock', 'Smoked fish', 'Vegetation classification', 'Carrageenan', 'Cholecalciferol', 'Flatfish', 'Agribusiness', 'Salting', 'Citric acid', 'Malnutrition', 'Brachypodium pinnatum', 'Holstein Cattle', 'Beech', 'Organic farming', 'Poverty trap', 'Stock assessment', 'Fish farming', 'Vascular plant', 'Food processing', 'Repartition', 'Felling', 'Refugee', 'Molecular microbiology', 'Crop diversity', 'Boiling', 'Apple extract', 'Floristics', 'Z chromosome', 'Food safety', 'Woodland', 'Hatchery', 'Least Developed Countries', 'Sugar', 'Weaning', 'Trade agreement', 'Whale', 'Ecosystem engineer', 'Forest management', 'Nothofagus', 'Special diet', 'Cyprinodontiformes', 'Demersal fish', 'Lecithin', 'Biological Stress', 'Mixed grass prairie', 'Vegetation', 'Tropical agriculture', 'Thinning', 'Sardine', 'Nutrition outcomes', 'Chlorine', 'Seabird', 'Gluten', 'Gillnetting', 'Maximum sustainable yield', 'Fish reproduction', 'Fish marketing', 'Liana', 'Total factor productivity', 'Seed saving', 'Basal area', 'D-Sorbitol', 'Soil management', 'Equine nutrition', 'Stocking', 'Nutraceutical', 'Labelling', 'Chromosome 9', 'Sensory system', 'Sus scrofa domestica', 'Bottlenose dolphin', 'Fat Measurement', 'Coffea', 'Animal breeding', 'Shrimp', 'Sodium bicarbonate', 'Chronic malnutrition', 'Striga', 'Conservation agriculture', 'Biological pathway', 'Consumer Product Safety', 'Food defense', 'Nutritionist', 'Marine invertebrates', 'Price band', 'Biome', 'Catch crop', 'Gradient analysis', 'Biocultural diversity', 'Jellyfish', 'Dutch elm disease', 'Forest inventory', 'Welfare program', 'Ecological farming', 'Food packaging', 'Ground food', 'Fishing', 'Destructive fishing practices', 'Bioeconomics', 'Yellowfin tuna', 'Pulpwood', 'Turbot', 'N-Butyric acid', 'Mediterranean diet', 'Freshwater fish', 'Food waste', 'Rainfed agriculture', 'Tilth', 'Market price', 'Pelagic zone', 'Soil solarization', 'Barcode', 'Commercial policy', 'Denitrification', 'Crop yield', 'Grazing pressure', 'Grassland degradation', 'Fish measurement', 'Dietary change', 'Sesbania', 'Species translocation', 'Volcano', 'Food composition data', 'Food poisoning', 'Nail patella syndrome', 'Livelihood', 'Urban agriculture', 'Food sovereignty', 'Food shortage', 'Nature Conservation', 'Theileriasis', 'Diel vertical migration', 'Economic policy', 'Food contact materials', 'Peri-urban agriculture', 'Ruminantia', 'Skipjack tuna', 'Food science', 'Guar gum', 'Sphagnum', 'Soil health', 'Scots pine', 'Ratooning', 'Rural poverty', 'Denitrifying bacteria', 'Great Green Wall', 'Halimeda', 'Apocarotenoid', 'Flavour', 'Marxan', 'Wildlife crossing', 'Galactose', 'Ingredient', 'Water-use efficiency', 'King mackerel', 'Pinus pinaster', 'Mycotoxicosis', 'Isochromosome', 'Pregnancy 2', 'Population viability analysis', 'Molinia caerulea', 'Food labelling', 'Extinction probability', 'Phytogeography', 'Cultivar', 'High air pressure', 'Maillard reaction', 'Dementia', 'West Africans', 'Bottom fishing', 'Stipa tenacissima', 'Factor price', 'Big-game fishing', 'Traditionalism', 'Severe malnutrition', 'Silviculture', 'Anguillidae', 'Virtual water', 'Lupinus angustifolius', 'Welfare rights', 'Biodiversity offsetting', 'Marine conservation', 'Climax community', 'Fish allergy', 'Mixed farming', 'Staple food', 'DNS root zone', 'Monodominance', 'Infant nutrition', 'Local extinction', 'Serranidae', 'Yield gap', 'Insect biodiversity', 'Green teas', 'Raw milk', 'Crossbreed', 'Broiler', 'Tundra', 'Crab fisheries', 'Amazon rainforest', 'Clinical trial', 'Hypoallergenic', 'Afforestation', 'Certified wood', 'Intercropping', 'B-Carotene', 'Weed science', 'Obesity', 'Vitamin D supplement', 'Oenococcus', 'Minimum tillage', 'Pilotage', 'Broodstock', 'Lactobacillus hilgardii', 'Fisheries management', 'Indigestion', 'Fire ecology', 'Artificial reef', 'Cyprinidae', 'Tropical and subtropical dry broadleaf forests', 'Total dissolved solids', 'Fertilisation', 'Bigeye tuna', 'Food distribution', 'Coral reef protection', 'Overgrazing', 'Fish aggregating device', 'Feed analysis', 'Micronutrient deficiency', 'Agricultural biotechnology', 'Wildlife', 'DNA barcoding', 'Phytic acid', 'Metavolcanic rock', 'Environment Protection and Biodiversity Conservation Act 1999', 'Mesopelagic zone', 'Cytochrome c oxidase subunit III', 'Soil fertility', 'Digestion', 'Theileria', 'Prune belly syndrome', 'Health effect', 'No-till farming', 'Water salt', 'Selection cutting', 'Glutenin', 'Incidental catch', 'Nardus stricta', 'Shelterwood cutting', 'Stock Recovery', 'Salt substitute', 'Lactose', 'Conservation reliant species', 'Cytochrome C Oxidase Subunit 1', 'High forest', 'Logging', 'Tornado family', 'Exclosure', 'Blue marlin', 'Food security', 'Moorland', 'Cod fisheries', 'Fisheries Act', 'Marine reserve', 'Chromosome 18', 'Tree line', 'Coulee', 'Tannin', 'Fat bodies', 'Ecoagriculture', 'Food additive', 'Group cohesiveness', 'Understory', '5:2 diet', 'Economics policy', 'Market structure', 'Dioscorea rotundata', 'Palynology', 'Contig', 'Secondary succession', 'Pregnancy', 'Tussock', 'Carotenoid', 'Water use', 'Near-threatened species', 'Small Island Developing States', 'Conservation finance', 'Fish physiology', 'Campylobacter species', 'Tenderness', 'Poverty Reduction Strategy Paper', 'Abalone', 'Bottlenosed dolphin', 'Forest protection', 'Poeciliidae', 'Inbreeding', 'Bumper crop', 'Subsoiler', 'Seral community', 'Salt sodium', 'Urban forest', 'Food industry', 'Vulcanian eruption', 'Chromosome 3', 'Micronutrient', 'Severe Acute Malnutrition', 'Shorea', 'Food chain', 'Cytochrome c oxidase subunit I', 'Generation R', 'Feed additive', 'Crop simulation model', 'Nutritional monitoring', 'Soy protein', 'Ecotope', 'Controlled diets', 'Fertigation', 'Clearcutting', 'Plant breeding', 'Volcanic ash', 'Starch', 'Agricultural extension', 'Spice', 'Preservative', 'Statistical data type', 'Vascular implant', 'Marginal land', 'Chondrichthyes', 'Phenomics', 'Reforestation', 'Canonical correspondence analysis', 'Stubble-mulching', 'Calcareous grassland', 'Domestic pig', 'Steaming', 'Joint Forest Management', 'Biodiversity action plan', 'Fisheries science', 'Soybean management practices', 'Agrometeorology', 'Fishing line', 'Whitefly', 'Distinct population segment', 'Orange roughy', 'Modified atmosphere', 'Biodiversity', 'Cetacea', 'Mid price', 'African swine fever', 'BMI - Body mass index', 'Red edge', 'Protein–energy malnutrition', 'Ecotone', 'Perciformes', 'Food fortification', 'Low body mass index', 'Prawn', 'Skipjack', 'Mussel', 'Convention on Biological Diversity', 'Herring', 'Nestedness', 'Bouteloua gracilis', 'Consumptive water use', 'Vitamin D intake', 'Coarse fishing', 'Phylogenetic diversity', 'Brassica carinata', 'Nutrition Education', 'Chromosome 13', 'Formant', 'Sustainable fishery', 'Pineapple extract', 'Forest fragmentation', 'Porites', 'Self-sufficiency', 'Product marketing', 'Biogeomorphology', 'Flagship species', 'Underweight', 'Nutritional science', 'Food spoilage', 'Sustainable land management', 'Dioscoreales', 'Sunflower oil', 'Wasting', 'Brazil nut', 'Deep scattering layer', 'Vegetable oil', 'Chromosome 12', 'Pediatric nutrition', 'Exclusive economic zone', 'Gene expression', 'Plant strategies', 'Red List Index', 'Catch and release', 'Food preservation', 'De-extinction', 'Product Labeling', 'Gallery forest', 'Regular diet', 'Dipterocarpaceae', 'Land use', 'Distillers grains', 'B chromosome', 'Coral Triangle', 'Child Nutrition Disorders', 'Species at Risk Act', 'Landscape-scale conservation', 'Macrophyte', 'Ex vivo', 'Purebred', 'Fish stocking', 'Undergrowth', 'Agricultural biodiversity', 'Bagasse', 'Lunar Cycle', 'Evergreen forest', 'Fisheries law', 'Monogastric', 'Agricultural soil science', 'Chromosome 16', 'Pectin', 'Moderate-resolution imaging spectroradiometer', 'Crop protection', 'Sucrose', 'Biosphere model', 'Sustainable management', 'Multiple cropping', 'Shore', 'Body mass index', 'Spray drying', 'Forest pathology', 'Bycatch', 'Crop insurance', 'Pesticide application', 'Clogging', 'Secondary forest', 'Habitat destruction', 'CITES', 'Yield mapping', 'Starter', 'Egg white', 'Cherimoyas', 'Sprat', 'Adaptive strategies', 'Soybean oil', 'Anchoa', 'Amazonian', 'Mycotoxin', 'Food policy', '1-hydroxypyrene', 'Krill', 'Stunted growth', 'Coral', 'Isobutyric acid', 'Purified water', 'Animal feeding operation', 'Water pricing', 'Anthracology', 'Macroecology', 'Ice Creams', 'Essential oil', 'Primary production', 'Ocean fisheries', 'Natural resource management', 'Red tide', 'Lamprey', 'E-agriculture', 'Nutrition Monitoring', 'Primary succession', 'Sulfatase', 'Contour plowing', 'Melon', 'Biotope', 'Sustainable forest management', 'Followup study', 'Nutrition Labeling', 'Fresh Tissue', 'Deep-water coral', 'Marine mammal', 'Price level', 'Scallop', 'Ammophila arenaria', 'Fruit intake', 'Sustainable agriculture', 'Fringing reef', 'Food intakes', 'Hydroacoustics', 'Forestry', 'Agricultural robot', 'Deficit irrigation', 'Skin care', 'Low residue diet', 'Bioclimatology', 'Controlled traffic farming', 'Chromosome 22', 'Agricultural productivity', 'Nutritious food', 'Biodiversity hotspot', 'New Economic Policy', 'Green Revolution', 'Extinction event', 'Product Labelling', 'Fumonisin B2', 'Dioscorea cayenensis', 'Thematic Mapper', 'Stand development', 'Multidimensional Poverty Index', 'Swordfish', 'Multiple use', 'M2 Macrophage', 'Crop rotation', 'Cover crop', 'Atoll', 'Disc harrow', 'Groundfish', 'Organic horticulture', 'Domestic market', 'Larch', 'Regional Red List', 'Rainforest', 'Soil seed bank', 'Whey protein', 'Normalized Difference Vegetation Index', 'Fishing net', 'Artisanal fishing', 'Grass carp', 'Food systems', 'Ecohydrology', 'Plant functional type', 'Taiga', 'Deciduous', 'Raw data', 'Surface irrigation', 'Pratylenchus', 'Trehalose', 'Prescribed burn', 'Social vulnerability', 'Continuous cover forestry', 'Co-fermentation', 'Mytilus', 'Viticulture', 'Coralline algae', 'Child survival', 'Small farm', 'Market microstructure', 'Trifolium subterraneum', 'Salt pan', 'Mangrove', 'Fermentation', 'Important Bird Area', 'Plant Immunity', 'Volcanology', 'Call to action', 'Food label', 'Pyroclastic rock', 'Overfishing', 'Commercial fish feed', 'Summer fallow', 'Measurement of biodiversity', 'Nutritional care', 'Desertification', 'Molecular breeding', 'Vegetation type', 'Agroecology', 'Temperate deciduous forest', 'Chromosome', 'Rank-size distribution', 'During feed', 'Anatidae', 'International waters', 'Database', 'Agricultural education', 'Campylobacteriosis', 'Infant Malnutrition', 'Statistical database', 'Food chemistry', 'Dioscorea', 'Agreement on Agriculture', 'Acropora', 'Fishery', 'Insular biogeography', 'Urban forestry', 'Fish trap', 'Oyster farming', 'Fish stock', 'Ecoregion', 'Virtual population analysis', 'Trophic level', 'Permaculture', 'Juvenile', 'Forest dynamics', 'Famine', 'Molecular biology', 'Plant community', 'Chaparral', 'Coral reef fish', 'Fish products', 'Aseptic processing', 'Brown Swiss', 'Convenience food', 'Genetic engineering', 'Pre pregnancy', 'Calluna', 'Pocillopora damicornis', 'Cytochrome c oxidase subunit II', 'Montane ecology', 'Product market', 'Propolis', 'Plant cover', 'Titratable acid', 'Cultural methods', 'Biosignature', 'Gene map', 'Plant reproduction', 'Bycatch reduction device', 'Protein-calorie malnutrition', 'Poor nutrition', 'Terroir', 'Gooseberries', 'Polyphenol', 'Forestry law', 'Sailfish', 'Pioneer species', 'Lolium rigidum', 'Catch per unit effort', 'Shelf life', 'Wildlife management', 'Prices of production', 'Megafauna', 'Genetic diversity', 'DSSAT', 'Nature reserve', 'Cluster beans', 'Freeze-drying', 'Conventional tillage', 'American shad', 'Irrigation scheduling', 'Sturgeon', 'Condition index', 'Raphanus raphanistrum', 'Demersal zone', 'Guideline Daily Amount', 'Nutritional analysis', 'Tropical rainforest', 'Plant nutrition', 'Location transparency', 'Residual feed intake', 'Botanical drug', 'Red Meat Consumption', 'Marine protected area', 'Freshwater inflow', 'Deschampsia flexuosa', 'Diet-induced obese', 'Fishing down the food web', 'Threatened species', 'Applied ecology', 'Roasting', 'Stover', 'Extinction', 'Poverty threshold', 'Perch', 'Chromosome 19', 'Sclerophyll', 'Hermatypic coral', 'Ruminant', 'Prebiotic', 'Leaf area index', 'Overexploitation', 'Wood industry', 'Cultural control', 'Risks benefits', 'Refrigeration', 'Fisheries co-management', 'Pinus radiata', 'Animal feed', 'Prionace glauca', 'Teleostei', 'Animal nutrition', 'Land footprint', 'Mackerel', 'Alternative stable state', 'Tropical savanna climate', 'Domestic pigeon', 'Sweet sorghum', 'Food prices', 'Multifunctional Enzymes', 'Community forestry', 'Flounder', 'Anchovy', 'Bonefish', 'Coral bleaching', 'Dendrometry', 'Umbrella species', 'Unbalanced diet', 'Chromosome 20', 'Weed control', 'Vessel monitoring system', 'Sorbitol', 'Albacore', 'Tinned food', 'Brining', 'Microstructure', 'Eggshell', 'Intraspecific breeding', 'Chromosome 15']</t>
+          <t>['Fresh Tissue', 'Maximum sustainable yield', 'Poverty threshold', 'Z chromosome', 'Web application', 'Market price', 'Galactose', 'Multidimensional Poverty Index', 'Metavolcanic rock', 'Stand development', 'Food spoilage', 'Protein–energy malnutrition', 'Food processing', 'Market structure', 'Larch', 'Marine conservation', 'Porites', 'Hardwood timber production', 'Biodiversity hotspot', 'Sustainable fishery', 'Water-use efficiency', 'Dioscoreales', 'Chromosome 9', 'Pilotage', 'Overexploitation', 'Fishing', 'Monogastric', 'Weed science', 'Molecular microbiology', 'Oyster', 'Teleostei', 'Body Fat Measurement', 'Sorbitol', 'Normalized Difference Vegetation Index', 'Chronic malnutrition', 'Ice Creams', 'Biological pathway', 'Exclusive economic zone', 'Extinction probability', 'Pulpwood', '5:2 diet', 'Groundfish', 'Poeciliidae', 'Poverty Reduction Strategy Paper', 'Whale', 'Traditionalism', 'Sturgeon', 'Fertilisation', 'Food systems', 'Pineapple extract', 'Cultural control', 'Stock assessment', 'Gallery forest', 'Longline fishing', 'Agricultural productivity', 'Pocillopora damicornis', 'Fisheries co-management', 'Marine protected area', 'Forest fragmentation', 'Small Island Developing States', 'Contour plowing', 'Macroecology', 'Livelihood', 'Phytic acid', 'Vulcanian eruption', 'Subsoiler', 'Red Meat Consumption', 'Cytochrome c oxidase subunit II', 'Agreement on Agriculture', 'Chaparral', 'Multiple use', 'Commercial policy', 'Bigeye tuna', 'Low body mass index', 'Self-sufficiency', 'Steaming', 'Macrophyte', 'Near-threatened species', 'Food additive', 'Raw milk', 'Pediatric nutrition', 'Plant community', 'Repartition', 'D-Sorbitol', 'Mixed farming', 'Krill', 'Sustainable forest management', 'Albacore', 'Salt sodium', 'Stock Recovery', 'Coral bleaching', 'Brown Swiss', 'Landscape-scale conservation', 'Soybean oil', 'Tinned food', 'Refugee', 'Statistical database', 'Plant Immunity', 'Food chain', 'Micronutrient', 'Shelf life', 'Deschampsia flexuosa', 'Agricultural education', 'Welfare rights', 'Calluna', 'Prionace glauca', 'Perciformes', 'Stipa tenacissima', 'Domestic market', 'Brassica carinata', 'Conservation reliant species', 'Mycotoxin', 'Chromosome 16', 'Bacterial Physiological Phenomena', 'Desertification', 'Fishing net', 'Energy poverty', 'Lamprey', 'Forest product', 'Cytochrome C Oxidase Subunit 1', 'Nutraceutical', 'Prescribed burn', 'Revegetation', 'Refrigeration', 'West Africans', 'Ecotone', 'Stunted growth', 'Social vulnerability', 'Moisture stress', 'Tropical agriculture', 'Purified water', 'Primary production', 'Marginal land', 'Cytochrome c oxidase subunit I', 'Secondary succession', 'Protein-calorie malnutrition', 'Brachypodium pinnatum', 'Denitrification', 'Nail patella syndrome', 'Sus scrofa domestica', 'Fermentation', 'Agricultural extension', 'Organic horticulture', 'Measurement of biodiversity', 'Fish allergy', 'Nutritious food', 'Cyprinidae', 'Sprat', 'Plant breeding', 'Hatchery', 'Fisheries law', 'Grazing pressure', 'Wood industry', 'Biodiversity', 'Catch per unit effort', 'Crop simulation model', 'Cherimoyas', 'Child Nutrition Disorders', 'Agroecology', 'Y chromosome', 'Water salt', 'Convention on Biological Diversity', 'Artisanal fishing', 'Estuarine water circulation', 'Price level', 'Pre pregnancy', 'Regional Red List', 'Growth rate', 'Forest dynamics', 'Sphagnum', 'Nature Conservation', 'Anchoa', 'Nature reserve', 'Total dissolved solids', 'Skipjack', 'Cetacea', 'African swine fever', 'Generation R', 'Food intakes', 'Whitefly', 'Dipterocarpaceae', 'Viticulture', 'Nardus stricta', 'Freeze-drying', 'Shrub', 'DNA barcoding', 'Anatidae', 'Selection cutting', 'Multiple cropping', 'Theileria', 'Guar gum', 'Overfishing', 'Big-game fishing', 'Fish marketing', 'Logging', 'Evergreen forest', 'Biodiversity action plan', 'Plant functional type', 'Lactose', 'Swordfish', 'Ecoregion', 'Oyster farming', 'Rate of exploitation', 'Yellowfin tuna', 'M2 Macrophage', 'Dutch elm disease', 'Red List Index', 'Maillard reaction', 'Skin care', 'Food chemistry', 'Incidental catch', 'Biosphere model', 'Distinct population segment', 'Salvage logging', 'Chromosome 13', 'Tropical forest', 'Oncorhynchus', 'Trade agreement', 'Sodium bicarbonate', 'Micronutrient deficiency', 'Crop protection', 'Chromosome 3', 'Temperate deciduous forest', 'Bumper crop', 'Poverty trap', 'Bonefish', 'Barcode', 'Pregnancy', 'DNS root zone', 'Climax community', 'Crop diversity', 'Clearcutting', 'Soil fertility', 'Cod fisheries', 'Nutritional monitoring', 'Amazon rainforest', 'Raphanus raphanistrum', 'Sardine', 'Food safety', 'Biogeomorphology', 'Spray drying', 'Chondrichthyes', 'Ecotope', 'Soil solarization', 'Demersal fish', 'Bagasse', 'Regular diet', 'Basal area', 'Distillers grains', 'Panicum miliaceum', 'Tropical savanna climate', 'Habitat destruction', 'Unbalanced diet', 'Carrageenan', 'Carotenoid', 'Egg white', 'Fish reproduction', 'Botanical drug', 'Forest management', 'Grassland degradation', 'Rank-size distribution', 'Mytilus', 'Advanced very-high-resolution radiometer', 'Abalone', 'Labelling', 'Oenococcus', 'Liana', 'Conventional tillage', 'Feed analysis', 'Lupinus angustifolius', 'Statistical data type', 'Fish stock', 'Controlled diets', 'Dementia', 'Forest Vegetation Simulator', 'Ex vivo', 'Mixed grass prairie', 'Fat substitute', 'Skipjack tuna', 'Feed additive', 'Salt pan', 'Afforestation', 'Fish measurement', 'Plant strategies', 'Marine mammal', 'Wildlife', 'Deficit irrigation', 'Weed control', 'Species translocation', 'Ratooning', 'No-till farming', 'Shrimp farming', 'Perch', 'Aseptic processing', 'Fish stocking', 'Cyprinodontiformes', 'International waters', 'Grass carp', 'Gillnetting', 'Glutenin', 'Flagship species', 'Cultural methods', 'Striga', 'Undergrowth', 'Fish aggregating device', 'Water use', '1-hydroxypyrene', 'Vessel monitoring system', 'Moorland', 'African swine fever virus', 'Ecological farming', 'Mediterranean diet', 'Organic farming', 'Chromosome', 'Food sampling', 'Vegetation type', 'Artificial reef', 'Sulfatase', 'Vegetation', 'Tropical and subtropical dry broadleaf forests', 'Dietary change', 'Health effect', 'Generation', 'Short food supply chains', 'Chromosome 4', 'Crop insurance', 'Child survival', 'Special diet', 'Fringing reef', 'Megafauna', 'Essential oil', 'Infant Malnutrition', 'Hypoallergenic', 'Canonical correspondence analysis', 'Fisheries science', 'Poor nutrition', 'Permaculture', 'Soil seed bank', 'Isocitric acid', 'Felling', 'King mackerel', 'Nutritional care', 'Coffea', 'CITES', 'Continuous cover forestry', 'Tree line', 'Secondary forest', 'Domestic pigeon', 'Location transparency', 'Ecohydrology', 'Anchovy', 'Prawn', 'Nutrition Monitoring', 'Anguillidae', 'Urban agriculture', 'Juvenile', 'Shorea', 'Silviculture', 'Minimum tillage', 'Agricultural diversification', 'Freshwater fish', 'Agriculture', 'Staple food', 'Lolium rigidum', 'Nutrition Disorders', 'Insect biodiversity', 'Lactobacillus hilgardii', 'Polyphenol', 'Seed saving', 'Sea cucumber', 'Soil management', 'Salting', 'Severe malnutrition', 'Rainforest', 'Montane ecology', 'Preservative', 'Fire ecology', 'Fishing line', 'BMI - Body mass index', 'Shrimp', 'Wildlife crossing', 'Bottlenosed dolphin', 'Product market', 'Economic policy', 'Crop yield', 'Consumptive water use', 'Water pricing', 'Plant nutrition', 'Virtual water', 'Food preservation', 'Melon', 'Serranidae', 'Indigestion', 'Terroir', 'Pioneer species', 'Gene map', 'Brining', 'Soybean management practices', 'Sunflower oil', 'Prebiotic', 'Shrimp fishery', 'Ground food', 'Flavour', 'Isobutyric acid', 'Market microstructure', 'Food composition data', 'Marxan', 'N-Butyric acid', 'Urban forestry', 'Food prices', 'E-agriculture', 'Starch', 'Baby food', 'Chlorine', 'Intraspecific breeding', 'Nutrition analysis', 'Starter', 'Agricultural robot', 'Clogging', 'Stubble-mulching', 'Severe Acute Malnutrition', 'Metapopulation', 'Insular biogeography', 'Shore', 'Ocean fisheries', 'Nutritionist', 'Trawling', 'Taiga', 'Fishing industry', 'Turbot', 'Agroecological restoration', 'Flounder', 'Stocking', 'Forest protection', 'Followup study', 'Gooseberries', 'Pinus radiata', 'Low residue diet', 'Food defense', 'Food packaging', 'Coarse fishing', 'Local extinction', 'Seral community', 'Agricultural policy', 'De-extinction', 'Coral reef fish', 'Disc harrow', 'Vascular implant', 'Animal breeding', 'Jellyfish', 'Tamarix', 'Fertigation', 'New Economic Policy', 'Exclosure', 'Primary succession', 'Butyric acid', 'Boiling', 'Green Revolution', 'Tilth', 'Scallop', 'Product Labelling', 'Biosignature', 'Propolis', 'Atoll', 'Chromosome 15', 'Formant', 'Nutrition care', 'Demersal zone', 'Dioscorea rotundata', 'Red edge', 'Land use', 'Pelagic zone', 'Equine nutrition', 'Nutrition outcomes', 'Agrometeorology', 'Forest inventory', 'Product Labeling', 'Bycatch', 'Biome', 'Sustainable management', 'Food label', 'Pregnancy 2', 'Genetic diversity', 'X chromosome', 'Carotene', 'Fish physiology', 'Chromosome 20', 'Domestic pig', 'Yield mapping', 'Smoked fish', 'Molinia caerulea', 'Food waste', 'Understory', 'Population viability analysis', 'DSSAT', 'Fruit intake', 'Overgrazing', 'Community forestry', 'Brazil nut', 'Broodstock', 'Convenience food', 'Commercial fish feed', 'Soil health', 'Denitrifying bacteria', 'Call to action', 'nutritionDay', 'Fish products', 'Mussel', 'During feed', 'Trout', 'Irrigation scheduling', 'Bioclimatology', 'Microstructure', 'Trehalose', 'Sustainable agriculture', 'Lecithin', 'Agricultural soil science', 'Food security', 'Salt substitute', 'Crossbreed', 'Agricultural biotechnology', 'Pyroclastic rock', 'Volcano', 'Theileriasis', 'Mesopelagic zone', 'Photosynthesis system', 'Tropical rainforest', 'Product marketing', 'Tussock', 'Roasting', 'Food labelling', 'Rainfed agriculture', 'Fish farming', 'Dioscorea', 'Bottom fishing', 'Crab fisheries', 'Clinical trial', 'Chromosome 22', 'Cluster beans', 'B chromosome', 'Extinction event', 'Coral reef protection', 'Food sovereignty', 'Soy protein', 'Forestry law', 'Nestedness', 'Fumonisin B2', 'Chromosome 18', 'Sensory system', 'Sexual maturity', 'Pectin', 'Certified wood', 'Lunar Cycle', 'Species at Risk Act', 'Holstein Cattle', 'Deep-water coral', 'Tenderness', 'Flatfish', 'Moderate-resolution imaging spectroradiometer', 'Coral Triangle', 'Threatened species', 'Total factor productivity', 'Food industry', 'Vegetable oil', 'Food distribution', 'Vitamin D supplement', 'Malnutrition', 'Mackerel', 'Guideline Daily Amount', 'Gluten', 'Ingredient', 'Least Developed Countries', 'Coralline algae', 'Sucrose', 'Commercial fishing', 'Phylogenetic diversity', 'Multifunctional Enzymes', 'Modified atmosphere', 'Weaning', 'Tyrosine decarboxylase', 'Summer fallow', 'Food policy', 'Important Bird Area', 'Chromosome 12', 'Food fortification', 'Ammophila arenaria', 'Marine invertebrates', 'High forest', 'Bycatch reduction device', 'Food shortage', 'Natural resource management', 'Molecular breeding', 'Ecoagriculture', 'Tree breeding', 'Tornado family', 'Nothofagus', 'Whey protein', 'Gene expression', 'Nutrition Education', 'Deciduous', 'Economics policy', 'Volcanology', 'Iliana', 'Cultivar', 'Price band', 'Food contact materials', 'Sustainable land management', 'Ruminant', 'Tundra', 'Seabird', 'Pratylenchus', 'Blue marlin', 'Nutritional science', 'Crop rotation', 'Fisheries Act', 'Pesticide application', 'Green teas', 'Shrubland', 'Great Green Wall', 'Raw data', 'Eggshell', 'Forestry', 'Diet-induced obese', 'Volcanic ash', 'Consumer Product Safety', 'Biodiversity offsetting', 'Purebred', 'Citric acid', 'Tannin', 'Genetic engineering', 'Famine', 'Underweight', 'Destructive fishing practices', 'Condition index', 'Plant cover', 'Sugar', 'Adaptive strategies', 'Vitamin D intake', 'Campylobacteriosis', 'Group cohesiveness', 'Trifolium subterraneum', 'Urban forest', 'Volcanic rock', 'Leaf area index', 'Controlled traffic farming', 'Surface irrigation', 'Broiler', 'Conservation finance', 'Bouteloua gracilis', 'Monodominance', 'Mid price', 'Shelterwood cutting', 'Coulee', 'W chromosome', 'Ruminantia', 'Herring', 'Palynology', 'Obesity', 'Woodland', 'Sclerophyll', 'Mangrove', 'Floristics', 'Red tide', 'Microfluidics', 'Sailfish', 'Peri-urban agriculture', 'Environment Protection and Biodiversity Conservation Act 1999', 'Yield gap', 'Spice', 'Animal nutrition', 'Biocultural diversity', 'Titratable acid', 'Fat Measurement', 'Co-fermentation', 'B-Carotene', 'Prune belly syndrome', 'Dutch disease', 'Mycotoxicosis', 'Virtual population analysis', 'Food poisoning', 'Apple extract', 'Scots pine', 'Diel vertical migration', 'Nutritional analysis', 'Chromosome 19', 'Hermatypic coral', 'Catch crop', 'Agricultural biodiversity', 'Ecosystem engineer', 'Pinus pinaster', 'Extinction', 'American shad', 'Molecular biology', 'Vascular plant', 'Chromosome 21', 'Dioscorea cayenensis', 'Animal feeding operation', 'Detrended correspondence analysis', 'Sweet sorghum', 'Fishery', 'Beech', 'Prices of production', 'Freshwater inflow', 'Biotope', 'Umbrella species', 'Cholecalciferol', 'Sesbania', 'Deep scattering layer', 'Contig', 'Fish trap', 'Body mass index', 'Vegetation classification', 'Residual feed intake', 'High air pressure', 'Digestion', 'Conservation agriculture', 'Land footprint', 'Fat bodies', 'Factor price', 'Risks benefits', 'Nutrition Labeling', 'Applied ecology', 'Biofertilizer', 'Apocarotenoid', 'Integrated farming', 'Alternative stable state', 'Plant reproduction', 'Sustained yield', 'Forest pathology', 'Food science', 'Animal feed', 'Inbreeding', 'Wildlife management', 'Marine reserve', 'Cytochrome c oxidase subunit III', 'Intercropping', 'Fishing down the food web', 'Anthracology', 'Small farm', 'Cover crop', 'Phytogeography', 'Flock', 'Isochromosome', 'Bottlenose dolphin', 'Database', 'Campylobacter species', 'Gradient analysis', 'Trophic level', 'Rural poverty', 'Catch and release', 'Wasting', 'Joint Forest Management', 'Infant nutrition', 'Agribusiness', 'Phenomics', 'Calcareous grassland', 'Halimeda', 'Dendrometry', 'Fisheries management', 'Hydroacoustics', 'Welfare program', 'Biological Stress', 'Stover', 'Thinning', 'Amazonian', 'Acropora', 'Coral', 'Product Label', 'Bioeconomics', 'Reforestation', 'Development aid', 'Thematic Mapper', 'Orange roughy']</t>
         </is>
       </c>
     </row>
@@ -493,12 +493,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['152572085', '2781073817', '2775850156', '2779421657', '2910520687', '2909937042', '2780205128', '92324200', '2909592290', '2909331969', '2776898743', '2779563453', '2781247642', '31288803', '2910671496', '2777175280', '2777626840', '2776462458', '2779771385', '2909667884', '2779179668', '2777299493', '2909150547', '2778936819', '2911117829', '2779209236', '2775941076', '2909926780', '2778141389', '2777556957', '2776761947', '2780447993', '2780051777', '105641010', '2909806565', '2779401946', '2909575379', '2777452900', '2778970670', '2776820786', '2911129990', '2781117939', '188413054', '2909141848', '107211472', '2781460105', '2781225692', '2776372563', '49578298', '2910487085', '2780244788', '2909005653', '2909580181', '2910842440', '2777767828', '2910152890', '2911099678', '2909339097', '2781223406', '2776108767', '2911100837', '2780805593', '2776109941', '2778526072', '2909601795', '142225936', '2778875871', '2778233873', '100368936', '2780496858', '106207104', '2909173543', '88537330', '2781088782', '2780581805', '2908921886', '62231903', '172507514', '79381400', '2776315342', '2781166303', '2779392123', '2909099676', '2779690104', '2908861771', '2776973423', '2778368355', '2908758937', '2910758459', '207230331', '532751654', '2781223928', '2911078657', '2908932589', '194575858', '2777921445', '2778971682', '2909433417', '2776874759', '56329447', '2911200043', '2776537878', '79592252', '2911082130', '144469398', '2778740727', '2777569460', '2778292693', '2781468244', '2777029650', '158608086', '127955056', '2910142988', '2910550395', '2780037252', '2778248277', '2910989242', '2910595225', '2777594791', '2777577063', '2909360751', '19801646', '2910752263', '2781391105', '2909665077', '2909301675', '2908611220', '2779674439', '2908876518', '26372392', '2779680196', '2777936119', '2910587157', '2780274812', '2779822359', '2909269591', '2778362869', '2776792119', '147642095', '2909179485', '2780930700', '2779982284', '2908838063', '2779891985', '2909799168', '2776175100', '2909716825', '2780149145', '2778894326', '2909005528', '163688568', '2777696881', '2778484676', '2910241781', '2909806198', '2776789287', '2779935178', '2910586930', '2776900724', '2777993699', '2781123077', '499784838', '2776575956', '2779984560', '2911144722', '2780190802', '2911158559', '2909842281', '2776780178', '2909385286', '2910018853', '2777350860', '2780184260', '2778206080', '2910299752', '2778583300', '2908944668', '2779216453', '2778399959', '2909797067', '2777374719', '2778863912', '2908841079', '2910366725', '2777126507', '2779908522', '2777482532', '2909225943', '2911034049', '2779491700', '2780614586', '2910982124', '2910806127', '117499352', '2777837822', '2909781215', '2778496887', '12722491', '2777204234', '2779733151', '125590012', '41007239', '2910236285', '2910320583', '2781335743', '2776021941', '2776700747', '2909966895', '123298856', '2776233030', '2776629433', '2779391668', '2780886150', '2777440324', '2779399600', '2777108446', '2908980077', '2908752488', '44107871', '2910454251', '2781460036', '14029885', '2777905771', '2909609317', '2911219579', '2781182431', '2910256720', '2779610619', '158592959', '2777346404', '2779317972', '2776610495', '2908681455', '2909415960', '2910259340', '2909629409', '2781171867', '2909653941', '2780585919', '2780942790', '2780377017', '2776668709', '2778125672', '2908815117', '2910932597', '2781186391', '204787440', '2778600029', '182531022', '2910332505', '2777939402', '2777754649', '2777890820', '2778991078', '2910797729', '2780796126', '2779491571', '2776050358', '2776611634', '18812478', '2911163174', '2908752955', '138370407', '2780750233', '2780880470', '204999636', '2780394545', '43310041', '2779853308', '2908623121', '2910088674', '2777371824', '2911152203', '2776199458', '2776617576', '3951539', '2781218831', '2908885201', '2781093953', '2780180277', '2779340996', '2781444538', '2909035245', '163235415', '2779571634', '2909819602', '2776834367', '2778576062', '2780806160', '2909786779', '2779657035', '2775890610', '2777637130', '2908923351', '2778143274', '2909188714', '2910966927', '2777244444', '2908844906', '2777595160', '144293060', '2908524910', '540213393', '49059817', '2776169613', '2909082288', '2778641792', '2781192897', '2908525482', '2911058998', '2910097660', '61705674', '2778173343', '2779937474', '2909376806', '2779000548', '71220013', '2776077123', '2908613125', '2779138974', '2911145996', '2776255841', '124936440', '541082541', '2779310134', '2909702991', '2780850621', '2776897722', '2909616414', '2778871979', '126451531', '2777886324', '2909383221', '2910359755', '2781468188', '120195587', '2910429865', '2776741159', '2908833097', '2779981555', '2910288590', '2776070282', '125111812', '2776215756', '2909243863', '2776767690', '2909892341', '2779484572', '2780852908', '2776813713', '2909844004', '2777506830', '2909346784', '2777977426', '2778200158', '80862487', '2908983484', '2776406656', '2910669151', '2910225729', '77018033', '2909445175', '2909410647', '2779192497', '2910704159', '2780013240', '2781281211', '51296783', '2909006028', '2776148967', '2775905491', '13002179', '2775905939', '2779528491', '2778451633', '2779700439', '2909669872', '2776377604', '2779673145', '2909064751', '2778465436', '2910647623', '2910315398', '2909818479', '2910678782', '2909342898', '134164806', '2909817662', '2776299002', '2910680602', '2911077589', '2909992823', '8162170', '2910934819', '150879485', '2777561782', '2908866186', '57634137', '2908832333', '2909288437', '2910566576', '2910815910', '2779458710', '115085202', '2779676829', '2779591629', '2779726759', '158453852', '2779564974', '2778900538', '2910757651', '2910719991', '2778951355', '2909746007', '2910031780', '2776976509', '116390426', '2777863537', '2778007619', '2909889181', '2778284417', '2781206205', '2780886939', '155184778', '2909448170', '16777580', '2911053797', '2911064819', '2781118164', '2780423099', '2779117757', '2780870513', '2910053894', '2780891057', '2779164789', '141710004', '187316915', '2778871607', '2775980177', '2780767800', '2777793004', '21143770', '2909982947', '2909046873', '2777609668', '2778508898', '33230849', '2778599137', '2910478951', '2910658734', '2909697059', '2776476023', '177658893', '2780920918', '2908730403', '2776780031', '2780574415', '2780744974', '2779855038', '2909777121', '2910465555', '2909689681', '2779056147', '2779365888', '196235758', '2776392104', '43060935', '2776987312', '179755657', '2910530332', '2910733768', '2781228144', '176762198', '2781070647', '2910647024', '2776395653', '2778461978', '118094880', '2910115945', '2779486068', '2780122544', '2779553184', '2779089960', '2910472664', '2779819551', '81831894', '2776751720', '2779106727', '78214289', '2778935260', '117958382', '2910039337', '2909686017', '15824746', '2910231009', '2780438625', '29730261', '2780596994', '4134927', '2778897192', '2777982735', '2778112473', '2778650287', '2776513736', '2776514860', '2781139653', '2777391703', '2910029487', '2779257473', '2776190025', '64710057', '2776614356', '2909215587', '2775941134', '36417994', '2776366509', '2779994444', '2777301948', '2778236407', '2777822169', '2776039999', '2910511117', '2776357993', '2780929364', '2781167935', '2780263296', '16741180', '2779264955', '2908660218', '57380142', '23276603', '48660041', '2781313415', '2778788455', '2779686855', '75799743', '2908520205', '2776194053', '207936829', '2909060570', '2909404852', '2780475312', '2908896651', '2911009288', '2780401358', '2909593689', '2781067114', '2909969496', '137265123', '2778300832', '2909999176', '2778626300', '2780833929', '2779357208', '2911211780', '2910667256', '2780772644', '2781410774', '2780343435', '2911194756', '2777162945', '2776167589', '2776264508', '14865658', '2777988727', '2909630643', '2909440589', '2778589756', '2909440823', '2776832996', '2910684466', '2908812238', '2910152587', '2776183862', '2911207228', '2908669727', '146957229', '2777239854', '2778420804', '2910987629', '128102431', '67339327', '2910588946', '2776939681', '2908766111', '2777288759', '96307122', '2778522376', '2776638464', '2910844710', '2780231548', '2779664670', '2909186138', '94030615', '2778258057', '188261085', '2778569047', '2779688209', '2776904924', '116024289', '2910093947', '2778610743', '165538109', '2909761780', '2909048508', '2909513887', '44315111', '2910428557', '61702054', '2778861743', '2776453879', '50952357', '2910099480', '111214947', '2779577794', '2908975491', '153939273', '2909411517', '19210678', '2778585322', '2779066075', '2779262571', '2781142479', '2909956956', '2776907564', '2781471917', '2777529043', '2778177282', '2779211342', '122247490', '2781175652', '83455156', '2776550738', '2910794437', '2777574038', '2777284740', '2776591724', '2777023796', '2780862961', '2910603918', '2779344132', '2781065037', '2781177144', '2910941035', '2777237215', '2777991845', '2908970474', '2776625791', '2777503522', '2781380062', '2780278673', '2776403814', '2910726249', '2779200604', '137061746', '75786153', '136940099', '2779880527', '2777478136', '2775901119', '2778643591', '2779137508', '2776503184', '2781255352', '2777329821', '2910298268', '2779705797', '2779866169', '2776376825', '2910579278', '2910231564', '136948725', '2779549974', '2779056158', '2781209916', '152918924', '2781414793', '2780236236', '2779651940', '2911091166', '2776669363', '2780272996', '2909503368', '2909294634', '2908662865', '2909234849', '206631613', '2908826780', '2779161898', '2776601460', '2909724629', '2777228722', '2778955358', '2909112448', '2909319767', '2777512643', '2909720670', '2777747462', '2776987626', '2910096629', '2776625714', '2910912111', '44228677', '2081992', '2775910092', '2910687406', '2910110592', '2910125277', '2781267111', '2780191036', '2776727803', '2778712721', '2778039513', '2911060469', '81977670', '2778549279', '2778317145', '2910497219', '2908978196', '2911000389', '2781449126', '2779141489', '2909253166', '83100098', '2908962876', '2779179908', '181843262', '2911049295', '2909345572', '2778620141', '2909972957', '2910546260', '2910905871', '2777307743', '116016267', '2781140480', '2777423138', '161681244', '2778904781', '2910354793', '2859252', '2778984665', '2780741286', '2777070484', '2908929308', '2911098887', '2776495794', '2776389721', '2910428653', '2909597118', '2909676883', '2780076729', '2910455576', '50171091', '2778451229', '2908941940', '2779537366', '2778157533', '2778297330', '2779171977', '2777842393', '2778279030', '2909104662', '2909439560', '2908971123', '2910465712', '2776287375', '2908646103', '2781210436', '2909948008', '2780139667', '121117317', '2781005279', '2781064554', '116919411', '2910170634', '179264091', '2777158368', '159674089', '2779527866', '2779630084', '2779751750', '2909234372', '2908594456', '60870556', '2909174268', '2776532573', '150420422', '2779456298', '2776816377', '2779480072', '2910715078', '2911126560', '2778288313', '2779884411', '2776330896', '2779008522', '2780836959', '2911102743', '2911164019', '2909747468', '2910207198', '24223341', '2780394083', '2778452354', '25194021', '106881830', '2908734668', '2910068711', '2776244919', '2779076967', '2780520971', '2779277721', '2776989520', '2779416561', '2780731448', '2776524530', '2777640609', '27101514', '2908579795', '143211211', '2908634787', '2908668639', '2780877353', '2780270805', '2909292722', '2909974199', '2779854700', '2910324532', '2777426075', '2909908503', '2909356871', '2778094803', '2909286352', '2780194698', '2778093883', '2779688324', '2909851952', '2910779825', '2779108703', '2909082692', '2780700307', '2909233680', '2910021609', '178352248', '520798596', '2910447894', '2777233064', '2910357314', '2779480328', '2778799817', '2778598218', '2776054733', '2778490853', '2778945811', '2780611847', '2778560701', '2777222312', '2777339539', '2778248655', '2909633629', '2909734909', '2776372842', '2776292634', '2910646857', '2780323712', '2777786686', '207545495', '2909729337', '2781269140', '2910855829', '2777390665', '2909184750', '22723013', '2781439815', '2778103839', '2781094566', '545288138', '2910305673', '2910124592', '2911175825', '2780928941', '2909695142', '2908923111', '2779823546', '2911150718', '2779012798', '2777678268', '2780750100', '139542699', '2910418295', '2909358281', '2910483394', '2781195946', '2779164085', '2909815946', '2780739625', '2908892010', '18987944', '56837625', '198999979', '2908928831', '2778199505', '2780185716', '2910889947', '2777417524', '176672177', '2779642851', '2780600973', '2780521871', '2780521442', '81088708', '43270747', '2910992061', '2777537440', '2780202543', '2780861368', '2776490512', '2910208248', '2780523958', '2781005686', '134786416', '118316555', '2781142857', '2910431431', '2779632909', '2779241435', '64502627', '2776550021', '2777052929', '2777076221', '2908684544', '136525101', '105054674', '50442881', '2776678776', '2910571731', '112144039', '44778022', '2780393176', '2778525166', '76856502', '2776677263', '2909313385', '30028475', '2776400185', '2911192251', '184112429', '2908871031', '2909177772', '2911004955', '2777560510', '2778889167', '2910873209', '2911146124', '2777929075', '2909354746', '2911002200', '2908690606', '2776741419', '2779919695', '2776396487', '2777180064', '2778149918', '2911084887', '59994255', '2908665842', '2776632733', '2779831896', '2780084446', '2908521982', '2778822529', '2781140337', '2909398057', '2776379899', '2777972943', '2909617120', '2781164565', '2776974961', '189413060', '2909441826', '2781006864', '19218775', '2779790309', '2781418243', '2777152744', '2777508679', '2908993661', '2781359426', '2777204207', '2908704504', '2911095166', '2908895846', '2779797997', '2909818935', '2911184235', '2908814104', '2776097590', '2781387506', '17172800', '2910474655', '2778201146', '2776087441', '2776811147', '2909223148', '2776670291', '2777390192', '2779425088', '502523893', '165864922', '2779423722', '2778970755', '2776870353', '9281262', '66971888', '2781278919', '2781305896', '2911087972', '2910810584', '61326887', '2776977715', '165069038', '2909845032', '2909940878', '152478114', '28225019', '2780280601', '2911090098', '2776853793', '2780650716', '195548491', '2777621362', '2779012181', '111369323', '111507845', '2777685762', '2777649267', '115725540', '2910108043', '2779517838', '2778542668', '2778014663', '47042493', '103539492', '2908725511', '2778550298', '2910786653', '2781087989', '14216870', '2776953683', '2779168175', '2909656692', '2777435962', '2778983183', '2778715156', '2779365249', '139319395', '2779863229', '117287731', '2910226455', '106257327', '2776232647', '2909337630', '2910097024', '2778539967', '2780009322', '2778764654', '2909062048', '133570447', '159431405', '2909744576', '2780224187', '2908915366', '2776159604', '2780177628', '87227347', '2779786854', '2778993000', '2775908076', '2780793064', '2910236334', '2775981797', '2779534595', '2909767651', '2776889139', '103072069', '2910480513', '2909811801', '2910441907', '2909084885', '2780632750', '2779954635', '2910155430', '2778426790', '2777184050', '2910971544', '2910977262', '2911110450', '2909636889', '2911010140', '2909830472', '2780731827', '41007966', '81835627', '2780256643', '2910186798', '2909573581', '2911126944', '2777346684', '2780703679', '2908959957', '2777469378', '2776280689', '2909459310', '2778437423', '2776286101', '2910236214', '2910266460', '2911195050', '174884520', '2779922254', '2909890534', '2909991059', '2911154194', '2909429473', '148737382', '2776846927', '2780927675', '2910604447', '2911147118', '2778939600', '2910404990', '2778492296', '203857694', '2781246285', '2778769751', '2909019263', '2779801569', '2777387769', '98713420', '2777971728', '2781053850', '173417002', '2909253557', '2908757056', '20417620', '2911103640', '2776264592', '2778864735', '17822864', '2777657843', '2910969970', '2778985418', '2910584991', '2778801703', '2908795679', '2776919888', '2776888792', '2780320949', '2778807442', '2909056869', '2779526882', '13245373', '2911192094', '2910804846', '48221581', '53940066', '170958749', '49926397', '2779790121', '2909461182', '2780847992', '2910834664', '2910893945', '117365660', '60278653', '2911101141', '2781356689', '2911196830', '2777967479', '2775888733', '2777995511', '2778216619', '2909462722', '2910334000', '2777267695', '2779875672', '2911214630', '2908795327', '2781460488', '2776470705', '2910207710', '2909190889', '202015219', '2776370125', '2776886188', '2910782442', '125439840', '2777116383', '54039966', '2777771985', '103191249', '14200731', '2909941525', '2909000798', '2910396643', '2778207064', '2779036270', '2780415970', '2776930981', '2910221698', '2911064356', '2778766689', '2779171459', '2779415522', '2777146706', '2909102712', '2779615590', '2779518148', '2911218769', '2776152004', '2779066155', '2909848408', '2908688039', '50001416', '2778258207', '2908795789', '2778707650', '177766495', '4175445', '2909676412', '2909335104', '2909501200', '2778206077', '2777120189', '2780992421', '2780425889', '2781254715', '2909582584', '2780322006', '2910561697', '2778660654', '2908905459', '2780004339', '2910083664', '49923114', '2908758277', '2910944628', '2777107124', '2780075904', '2776441376', '2779965577', '58747440', '2775893369', '2777832143', '2779398211', '2909487783', '2908563864', '2781329793', '2776535583', '2780783166', '2778506969', '2910162304', '2779616870', '103761620', '2910515842', '176743888', '2776960227', '2909802245', '2778092261', '2908953049', '2781145037', '2910259375', '2910031431', '99207889', '2909545047', '2909485499', '2910647763', '2780103070', '2777595113', '37557685', '104335537', '2910353367', '2779079599', '2909379828', '2910900973', '116871256', '2909260447', '2779955248', '2779350334', '2779899204', '38137600', '2779589923', '2909021095', '2780327212', '2777452171', '125555471', '2776114971', '2779980618', '134093067', '2781163205', '169554166', '2776398474', '2779359726', '8880881', '1008401', '2778862538', '2779211832', '2910076437', '96376961', '2909628859', '2910776193', '2778081122', '2780287645', '2910936745', '177825189', '2776599340', '129470801', '2778904085', '2779658331', '2779203663', '2908924875', '2910344450', '2909611997', '2910877098', '2909264855', '2777676773', '2909029650', '2910899711', '2910959326', '2779589740', '58632812', '2909188207', '2781080829', '2777570183', '2911103339', '2908532722', '2908953726', '2909948366', '2910594169', '2778478263', '184138380', '2910868991', '2775985167', '113775271', '2909024776', '79186569', '2778976402', '2909532979', '2910974942', '2780127118', '2909292024', '2781046184', '2910993914', '2909990731', '2908523384', '2909005433', '2908619192', '112672928', '2910810327', '2908925755', '2909999976', '2908646376', '2911103978', '2779892997', '2778707443', '2778038603', '2779147656', '2780070761', '2777479560', '2780271722', '2777704247', '2777419892', '7821365', '2911104446', '2909227875', '2777545354', '19052677', '2910061165', '2776760841', '141666547', '2781369853', '2776078045', '2909910173', '2910128379', '2910915821', '2909957684', '2779294768', '2776725920', '2909775688', '2780231137', '2908683193', '2909484148', '2781036101', '2909359390', '2909475472', '2781273456', '2776875633', '2780229392', '2777045440', '2781274105', '2780283643', '2779655305', '2776210078', '2778698291', '2777446050', '2778840193', '2911117634', '2911078484', '2908689634', '2778618412', '2780087125', '2778794976', '2780974877', '2910025087', '2909851727', '2781282915', '2910514942', '2776663378', '2910760457', '2777420927', '76100544', '2778821649', '2910695271', '2910797673', '2777868816', '2909757456', '96291035', '2910740169', '3449773', '2910824762', '2776530083', '2781454130', '171715492', '2778200873', '2910129229', '2777504804', '2909819027', '2780739003', '2910302756', '2910011643', '2908604124', '32610206', '45121317', '2909873957', '2779470898', '2910396470', '2777722682', '2778479196', '2909925444', '2910730519', '2776480101', '2910227674', '185867374', '86473631', '2781047461', '2909439513', '2781176205', '2909521186', '104148171', '2908838615', '2911158158', '2911088228', '2908853785', '2781465214', '2779217157', '116938221', '2909321479', '2776159415', '2777604165', '2780689522', '2775866039', '2911212096', '2781406150', '143733281', '2781096941', '2780344330', '2777227250', '2776042228', '2777658017', '2909897797', '2909990072', '2779670087', '2910344807', '2910138006', '2780084704', '2780238834', '93042943', '2780775713', '134728086', '2777346216', '2910973187', '197261262', '2779841045', '2909868253', '2781025020', '2779740913', '2910126967', '155701950', '2910740951', '2777622882', '2780057760', '2908611948', '2777725460', '2780600940', '2778367240', '2780530410', '2910052784', '2909667163', '2781197730', '2910515783', '2910572566', '2776611563', '2776329913', '2909923852', '84084929', '2910447036', '2781068581', '24025453', '16895185', '2910942381', '2909113772', '2909712894', '2910510930', '2775969318', '2776711289', '2777073666', '2778056992', '2909648069', '514793146', '2909635826', '2779709535', '2909441243', '2908879540', '2779260929', '2779780077', '2778642235', '202474031', '2780265533', '2910753673', '2777259179', '2910450856', '104428545', '2777037522', '2780625307', '2779904719', '2779056891', '2780661791', '2778792123', '2910796902', '99726746', '50548948', '2780124472', '190249596', '10708705', '2910885888', '174782155', '2779026020', '2909767798', '2910162420', '2908866808', '122816508', '2909161740', '2910619355', '2910679346', '120863210', '161721461', '2909306241', '2779605129', '2777476445', '2776148467', '2910180299', '2781090866', '2909289247', '25977355', '2780264453', '2909418356', '2909892840', '130010870', '2909216081', '63759246', '121608353', '2909560028', '2909130672', '2911115607', '2779639298', '196419574', '2776156579', '2776944266', '2775934075', '134011695', '2779306247', '2911089662', '2778703501', '2910330609', '2910974163', '192638826', '2780387140', '518429986', '2775983024', '2777524370', '2910946499', '2908696523', '2909746380', '2778886798', '2778134817', '2910851391', '2909034570', '2779687537', '102309675', '200886947', '2776619502', '2908933607', '2776354303', '2780829314', '2780802667', '2909309629', '2776294035', '2910856874', '2778812414', '2781375796', '2908544483', '192421092', '2777094939', '2909880373', '2910243004', '2908833630', '2909937578', '2778435157', '2780219170', '2910372796', '2909924856', '2779179121', '2779318699', '2781065829', '86807702', '2910702586', '2777543295', '2779976542', '2910512544', '2910580931', '2776876274', '2910873529', '2777263331', '2781427535', '91523082', '2909013882', '2779572924', '186060115', '2909176266', '2781236523', '118493204', '2908716116', '2909289354', '2909074196', '2779547902', '2778205836', '2781079905', '2781155112', '2776672577', '109335069', '2908626383', '2780961768', '2777995074', '140173407', '2910351883', '2780327369', '2911055744', '2777039924', '76334062', '2775887326', '193641492', '2776271655', '2908639710', '2777601251', '2778926808', '76318530', '2908597655', '2909217002', '2777119779', '2778364623', '2776849203', '2908571974', '2779989835', '2909124741', '2780078609', '2778778528', '96024061', '2777096885', '2778326925', '2909060831', '2910393698', '2909003343', '2909554094', '2780117679', '2909400315', '66518211', '2777001087', '2911195910', '52237779', '2910347904', '2909187439', '2909478654', '2776371013', '192989942', '2908887053', '2909013848', '2909571003', '2909819211', '2778582513', '2779553658', '2779330695', '2908558035', '2777122282', '2909798717', '2779463451', '2777183381', '2909496250', '2908783082', '2778302484', '122881758', '2776347944', '2778108741', '2910538949', '2908680708', '2910957042', '2777251534', '2781146222', '2780064007', '2780400174', '148762608', '136339569', '2909166674', '2910047555', '2908824208', '2909179462', '2776202747', '2910052307', '2780370499', '2781069445', '2781190966', '2777327098', '2781149210', '2910795874', '2908816204', '2909082010', '2778236049', '2776877979', '2778083953', '2777815949', '2910564629', '2777325788', '2908612870', '62085286', '14498672', '2777063560', '2908794571', '2909863685', '2910929040', '122245378', '2910589545', '2910509200', '2781143854', '2778815482', '2776365654', '2909510862', '2908908890', '2911142504', '23458808', '2777274916', '2780128776', '2777904497', '2776618447', '192144188', '2910720111', '2780911694', '66509814', '2780253789', '2778849806', '152541439', '2909646321', '2910268463', '2778196918', '2909258576', '2909400247', '45946802', '167785021', '2909820145', '70976792', '177242865', '2776394215', '2908870636', '2909237513', '109986877', '70508372', '2779574689', '2776232661', '2781145721', '2910115531', '2909426422', '2777262533', '2910449239', '2776008845', '2776153500', '163214680', '2779117320', '2780740339', '61943457', '2910694641', '2910825464', '82407246', '2780486423', '2776442642', '2776193487', '2781320305', '2775983084', '2779820661', '2911189471', '2781404787', '2910059436', '2780313191', '61535369', '2910055077', '2776852548', '2778373633', '2777035104', '2777024832', '2779783494', '24639789', '163015866', '2776823004', '2776598537', '2910501321', '72859922', '2777148671', '66332616', '2909730276', '2780463659', '2910841907', '521466935', '2911218661', '43100952', '2908954532', '2908825957', '2776441662', '2778166195', '2780158643', '2778931672', '2778402387', '2779782549', '2910852173', '2909922364', '2909380268', '2909396454', '2779560327', '2779727006', '2775955145', '2909709259', '2777909021', '109110057', '2776614240', '2780808130', '2910552071', '2908817208', '2909191862', '175239898', '2910790459', '2909688399', '2776056826', '2910435271', '2910547607', '2909271675', '2909909390', '2777846895', '57827392', '31861589', '2780778915', '2778413174', '2777608072', '2776907518', '2779625713', '2910629037', '2779256933', '2779566273', '2780036600', '2776002628', '2779798986', '2910304164', '2778077901', '2779155165', '2910983684', '2909069917', '87115717', '2777629877', '2779292878', '2779015095', '2910295775', '2909439219', '2909096955', '2780194577', '2776881634', '2781058065', '2776750431', '2779134260', '49790547', '2780788075', '128534915', '2909275977', '2775926220', '2778721783', '86589073', '2909390350', '135215475', '2778000598', '2780074459', '50738837', '75648832', '168557263', '2910076441', '2781051968', '2780716463', '2777012970', '2777010014', '2776858399', '2780314596', '2778564307', '2777511904', '2778341440', '2778230777', '2780041246', '2778460930', '2780317664', '2778886182', '2909921777', '2776362216', '2777343845', '2780017991', '102747710', '2910671571', '2908859737', '2776002364', '2778252442', '2777434363', '90642696', '2776572573', '2778843546', '2909443401', '2776260265', '165135838', '2779740938', '115466790', '2910812615', '153891595', '2780985703', '2778702312', '2778307567', '2909706936', '2778003512', '2776634560', '2781085983', '143590678', '2908564923', '22889606', '2781343717', '2779399171', '2909235696', '2776821229', '2910510208', '2778049957', '2780557958', '183476254', '2778629024', '2910665464', '2909916134', '2779434656', '2909645836', '2776025840', '2909999080', '2776969849', '2777545690', '2909203042', '2778914577', '76944698', '2779528915', '105083479', '2780394722', '58693492', '201770970', '2911041505', '2776119998', '106476913', '2908892365', '2776782570', '2780861865', '2909570427', '2778954852', '2908996419', '2775991916', '2781176444', '2909786013', '2779910497', '2780017199', '84029825', '2777793825', '2781113838', '2779450786', '35127690', '2777980482', '2911092792', '2779862289', '2908807597', '125168821', '2779399491', '546668722', '2777799353', '2908826541', '2910810122', '2910665998', '2779158372', '2779984678', '2910404347', '2780092158', '2910413752', '107400117', '2779359454', '29144244', '2780211071', '60987743', '186697258', '2779996878', '128644962', '67649825', '2776592573', '2910659883', '2908869576', '2776246508', '2779295919', '2780223747', '2778496288', '2779307360', '2911034623', '2780215918', '2778393178', '156310829', '2779934757', '2910319698', '2909738003', '2910348580', '164953862', '2777280662', '109964505', '2780732942', '63527458', '94277651', '2908771931', '177857423', '48424934', '131140426', '2779613421', '200368925', '2777000465', '2778470496', '108737030', '2910619602', '2778587949', '2910881853', '2781436128', '2779845715', '2910732721', '2781173052', '2777655228', '2779468541', '2780875711', '2909345990', '175182502', '57322979', '63412515', '169274487', '2908762713', '2910357638', '2909285522', '2776291583', '2908797038', '2911014816', '2780839761', '2776982972', '2778891214', '2908880353', '2776712624', '2778489779', '2780882493', '17954761', '2781347138', '2779226451', '2776570665', '2909780162', '2910490598', '75806775', '2777818683', '2910672876', '2777063151', '2909722292', '2778255925', '2910344022', '27081682', '113214860', '2779245893', '2908713542', '2911054351', '2776032975', '2910364982', '94561458', '194789388', '2778885411', '2778058069', '2777135737', '2910584937', '2778952445', '502991105', '2776805190', '2778945730', '2779564212', '195855529', '2909510218', '2909897970', '2911087006', '2779117456', '2910272010', '71829478', '2777195788', '2777683767', '2781294074', '2780485487', '60325843', '127812441', '2776728740', '2910834954', '2779491988', '2911123837', '2911010818', '2780035233', '2910687863', '2780815205', '2909353518', '2778052368', '2908929649', '2776743756', '2780616540', '2776777198', '2910076740', '191548132', '2908809738', '2779454681', '2776418732', '2776397665', '2781325737', '2780408053', '2909353894', '20387591', '2778753352', '44695001', '2908738455', '2780705028', '2777342061', '2777863708', '2780526094', '2778759172', '2776255415', '2910800504', '2778822642', '2908940412', '2908844159', '2908932708', '2779625551', '2909395874', '2776863245', '2909965934', '536800656', '2909352924', '2779176400', '2781068499', '2777215034', '2908645000', '2776687534', '2780965534', '946728', '16525657', '138816342', '2780898057', '2776282453', '2775855180', '2780333324', '2910685284', '2909109107', '2775880387', '90061646', '2910053781', '95209845', '2908807754', '2909128952', '2780636014', '2779250420', '2778826181', '2777636572', '2908910360', '2776096487', '64618202', '2909897528', '518773536', '2911028106', '2781031557', '2910221598', '2779630960', '2779278165', '150684551', '2777297899', '143380155', '2779309623', '2780993623', '2777982462', '2778994441', '2781232182', '2777210190', '7301908', '2780571819', '2909232352', '2776035513', '2779543035', '2776978955', '2781058662', '81603835', '2909762784', '182421915', '155175808', '2909836580', '2909210223', '2777585161', '2910730351', '83898325', '75141282', '2777952589', '2777913248', '2780325297', '2780605044', '2777859073', '2777241137', '2776165368', '2776964564', '2776289493', '2780080261', '2779490353', '2778820342', '2910335277', '2778503633', '2780473363', '2776531937', '2781371259', '2780814755', '2777615863', '2910491341', '120488504', '2909198672', '2910238016', '85813293', '2775955205', '2776165558', '187749391', '2780404832', '2909222946', '2778766267', '2910404190', '2909081213', '2776924286', '2780748539', '2780096663', '2777956591', '90620890', '2778311097', '2910451168', '2778091532', '2778754328', '2776285023', '2777475103', '187785154', '2778096610', '104672736', '2777218350', '2911060498', '2908652930', '2778689963', '2909567013', '2910962080', '2910730981', '2779055221', '128526571', '2781232936', '2776356786', '2776687281', '2910472296', '2910135376', '2909735910', '2777300220', '2776353288', '2781046454', '153074725', '2777957205', '2776599710', '18823058', '522683910', '2910316244', '2909408797', '2910177379', '170370582', '2777257487', '2776280935', '2780292510', '2779123372', '93173128', '102107297', '2780914113', '2778093539', '2911049483', '2779357504', '2910908060', '2909439922', '2911216061', '2777785214', '2776872704', '51915194', '114565086', '2910794633', '2776048318', '2778931329', '2910308925', '2781260171', '2780632150', '2779466945', '2780146029', '2910457814', '2777425297', '2781290027', '2780959883', '2909157853', '2908666080', '2908561617', '2910073138', '2778504769', '2778263588', '88675164', '2780568436', '2778432232', '2780647328', '2909836756', '2910697110', '2775942659', '2908549696', '116887118', '2909381126', '104628117', '2781167329', '2910083286', '2778894405', '2780333948', '2910760841', '2776919953', '2909502862', '2779237934', '2911006069', '2775992611', '2778517091', '2908839835', '2910098560', '2778497218', '10775765', '2910721166', '2910530570', '78150878', '2777977768', '2780140890', '2776629196', '2779358675', '2910574371', '2910427980', '2776752996', '278</t>
+          <t>['2778399959', '2777953354', '2777975874', '2776063141', '2910465242', '2910972258', '2909372251', '2779420972', '2781460105', '2909963963', '187507357', '2909589967', '183469790', '2909408758', '156662089', '2780297037', '68760520', '2909576165', '2779675166', '2911146124', '2910730351', '159973064', '2777698361', '14218858', '2778722691', '2909600631', '2776576667', '2780571441', '2909466675', '2909189701', '2776188179', '2779246250', '2780265253', '2777076305', '2776052360', '2777425892', '2775866039', '99322962', '2910856221', '2910535204', '2779820218', '2909078269', '67359045', '158951850', '2777390754', '2780368226', '2780797203', '2780846426', '2910442062', '47056694', '81877008', '2909717218', '2909233451', '95057490', '152724338', '2780640149', '2778373884', '2778484150', '100837961', '2781056747', '2780144520', '192989942', '2910162420', '164585084', '2777537440', '2910759140', '2776535644', '2776964284', '178278151', '161937551', '2778199330', '2911009407', '2780350682', '2911158559', '2778820342', '2910007037', '2776273225', '2777217371', '2775992197', '2909491377', '2909606595', '2778678623', '2777977757', '2777417762', '2910291054', '2778641792', '151956035', '74167732', '2909717553', '2777160814', '2776459540', '2777343712', '2779832703', '2777154038', '2910584685', '2909869565', '2780073355', '2777691041', '2781087989', '512399662', '2779339292', '2776478399', '2780534909', '37080517', '2909636024', '2778356392', '2909469847', '2778359929', '2909419136', '2781468244', '2781377487', '2777000465', '2778239845', '153074725', '2781406297', '4051589', '2779837120', '2908872766', '2910962159', '2779830541', '31697123', '2777814797', '2781233496', '2909289205', '27101514', '190104652', '2778409475', '97664909', '193842886', '2780194963', '2776956477', '2776813713', '2910036229', '2780888721', '2778177356', '2908934917', '2780487920', '2911163904', '2776513736', '2778334829', '187541742', '43060935', '2778730409', '2779229956', '146998594', '2777306413', '2776266639', '2776188103', '160735492', '2779946112', '132351222', '2911023157', '130211564', '2780455818', '2908570994', '51915194', '22615655', '2776317666', '2779881493', '2908835861', '2779708716', '2776664896', '114115404', '2776504411', '2908914191', '2780819817', '2777585455', '2908626413', '2908688687', '2910172056', '2776356578', '2780307688', '545542383', '2909932690', '2909474349', '2778097013', '88667222', '2908741780', '2779544376', '2909894915', '2779310008', '113362759', '2909086583', '95293801', '2909860376', '154253233', '2775893642', '2777056410', '2909888880', '2909435783', '40986600', '2779902710', '2908817639', '2780612607', '2910450373', '2777508537', '2777271380', '2910341085', '2777530519', '2910077937', '2777043721', '2911164631', '2779307360', '2776639339', '2780985857', '2908889796', '2908916285', '97749175', '8840205', '2909083626', '50952357', '31995883', '40808061', '2780001606', '2776615572', '2909476064', '2777028646', '2775895618', '2781056559', '2777165109', '2776808119', '2780576314', '1862650', '2910936492', '181401712', '2778698291', '2909497934', '2780789458', '2780842079', '2776514915', '96781048', '2908957110', '2778580320', '112392421', '2777991916', '2781284789', '2910370000', '196843134', '2775847163', '16613235', '2910996002', '159382316', '2909608569', '2911129431', '2778302498', '66538056', '2910933853', '44695244', '2909677198', '2776471321', '2777096672', '40442364', '2909801250', '2779546753', '2781123077', '2910667942', '2910389800', '2911065597', '56366318', '59166482', '2780539906', '2910646903', '150008808', '2910727132', '2910824023', '2777747896', '2909484270', '2910277799', '2776166849', '2781301203', '2777956591', '2908571974', '2909640657', '2776805002', '2781053155', '2909663705', '2776430567', '2778208532', '2779327488', '166888038', '2779117399', '82736064', '2908807201', '2909800390', '2909146933', '2781151446', '2910341556', '2777871504', '2908956463', '2780764133', '2780559512', '2910247243', '2909466535', '2910398102', '2910607126', '2780935168', '2776151748', '2777177465', '24530287', '2778692027', '58415070', '2781088518', '2778897966', '2909158238', '2910678782', '43563269', '2909527422', '2780959883', '2909551178', '201903717', '2909941344', '2909680498', '189708586', '2778316768', '2780482068', '48556533', '2910830690', '2776988256', '2129178', '2780483514', '2776093070', '182676581', '2781057395', '2910009925', '2910654894', '2780348253', '2910663240', '2771230', '193699699', '2908564923', '60172819', '2778129406', '2911202200', '2909801038', '2910090174', '2909331411', '2777335581', '70508372', '112592302', '2908619610', '2780113767', '2778335811', '2909212245', '2908953109', '43018099', '2779408582', '12722491', '2909321672', '2780689927', '199360897', '2775860198', '2909010983', '2910426550', '2779254829', '2910127076', '2909535362', '175193931', '2776392104', '16587737', '58793620', '2908849193', '2776683971', '2780796293', '2777416452', '2780761556', '2909459615', '2779983491', '2908786790', '2778448707', '2777625098', '2776070282', '113775271', '2777346155', '2780476085', '2775978019', '2777006689', '2909780825', '2910531384', '2777972467', '2908626826', '2908707517', '2909663337', '118646709', '2909579892', '2776894844', '2910500838', '109317608', '2776682811', '2911100837', '2910974163', '2909118936', '2909683868', '2775965924', '2776992908', '2775854910', '2910404347', '2910305673', '45516822', '45827449', '2776035513', '204779464', '2908646064', '2778583881', '2776112390', '2778015638', '2911180711', '2779825392', '2910380316', '90924648', '2781234862', '44403221', '104397207', '2910450773', '2776443989', '2779960720', '2908561979', '2909697991', '96307122', '2778877834', '2778236061', '2776379505', '2910076441', '2909984949', '2780941728', '3409486', '103790658', '2910969103', '2911073662', '2778720886', '2780365284', '2777432695', '2781001490', '2911043454', '2908785520', '2909925444', '2910236268', '549673821', '121446783', '2779736190', '2779318932', '2779823546', '2781099131', '2908787063', '2910769085', '2776194053', '2910944628', '2909897528', '2775855016', '2779415522', '86257020', '2909886946', '2908523243', '2781087480', '2908882759', '53601487', '2776309818', '5284366', '2911174253', '2778164554', '2777398673', '2780914630', '2776214540', '2777646271', '2910185763', '2910731194', '2908522608', '2909601030', '2779287101', '2780535078', '2776501357', '2778812778', '2909082692', '20860254', '78795084', '170964787', '2779504368', '2781263782', '2911184074', '2909400059', '2910335277', '2909237324', '2778897197', '2778132481', '2779294709', '95190672', '2780287645', '2777133385', '2910210001', '2910428653', '101864126', '2911092792', '2910472162', '2779395532', '2780657872', '2909232720', '2908613175', '2778117643', '2909664645', '2781380102', '2776159415', '19052677', '2776206344', '2779961880', '2778051828', '2911062063', '2776193999', '2779763456', '2910477827', '2909113873', '2908594466', '2780566141', '2908774751', '2909560645', '2781236523', '2776821674', '2778420804', '90423213', '2776814716', '2780196416', '2908801081', '152198750', '2909327461', '2779078858', '188394188', '12125453', '2909885882', '2780535462', '2910961719', '501734568', '2778019847', '2910753976', '2777608072', '2909388778', '2910932248', '2777528758', '2778837869', '2777446050', '147583825', '2780189389', '44778022', '2777227250', '2910120708', '2910906864', '2780851604', '103000137', '49651878', '2779806549', '2910095249', '2780478335', '2776953283', '107433012', '36076068', '2910977130', '2776193436', '2910584544', '2777055891', '2908923426', '2908853348', '2779891985', '34737976', '14564219', '2780477327', '2909096955', '29323129', '551997983', '190857496', '2779117999', '2911100080', '2908657616', '2909397744', '2776827821', '2909017603', '2776145723', '2779715522', '2780135496', '2775935104', '2777203538', '2776553844', '2780676250', '2910225729', '77076574', '2780101865', '2910960421', '2909999518', '2779147130', '2779615886', '2778064476', '2909461408', '2776841403', '149532602', '2909225943', '2909966814', '2781053850', '117354338', '2780752271', '2781333626', '2909365210', '2778083979', '2779458634', '86007234', '2781457826', '2776808056', '172399796', '2776816829', '2780101021', '2909635684', '2910539084', '2781038880', '2776622691', '2779077069', '2910000002', '2779134260', '2778199621', '201780435', '97928714', '123576220', '2778662690', '2780865859', '2909132851', '2778941218', '2776964564', '2775885956', '2780145008', '2909069315', '2776941976', '2909831978', '2781183990', '2909770972', '2910780630', '2909453773', '2781433018', '2910283986', '2781005915', '2909666568', '2910626431', '95730909', '2778255263', '2777675387', '2910299298', '2910934447', '108625454', '2776409635', '2778963024', '44980441', '2777890820', '2909145594', '2910429138', '2911101950', '2778801244', '2777343278', '2911179607', '7182335', '2776834367', '14372207', '2779777945', '2776998989', '2777132076', '2908571571', '2776978879', '2778709874', '2910246410', '2909371084', '2781142959', '2909843942', '2909774845', '2777730150', '2776888042', '2779284873', '2778295384', '2911139892', '2776874759', '2908824208', '2909562708', '2911171335', '2779314966', '2908792780', '2780589465', '2781027925', '2778714489', '2778110834', '2780948618', '2780930249', '2779746161', '2780775027', '2779185355', '2776172268', '2778542873', '2910509766', '2910916536', '529618451', '2777015399', '2910384166', '2908575377', '2776310896', '2780657994', '116856471', '2909742758', '530470458', '2779564212', '2911066865', '2778988552', '2910192197', '2779728475', '2909781388', '2909719624', '2776089418', '2777429807', '545706735', '2777515774', '2778803959', '2779562246', '2778256703', '2776754145', '2910488691', '2778176773', '2779760629', '2777417524', '2775933685', '2911079008', '195521686', '136357698', '2778195246', '2908685445', '132096540', '2909039468', '25834368', '71527416', '2777987278', '2909853988', '2780760662', '2910453370', '2910778100', '2777280662', '2780433948', '2778420026', '2908523384', '2777754422', '2777315031', '2908569227', '2779960253', '2778446825', '155392382', '2779067128', '68731436', '2776660947', '2780927675', '2779124032', '2778279177', '2778279454', '2776847746', '2778519648', '2909815946', '2910515535', '2776141087', '2777879506', '161188086', '2777952488', '2777202849', '2777063393', '2777205943', '2778010489', '2781171867', '518773536', '2778607413', '2908842871', '2910521759', '2776591724', '79636183', '2780430637', '2909702156', '2776090121', '2777176818', '2779014961', '2778927644', '71928629', '2909156430', '2776957994', '2909570084', '178352248', '2909331172', '2779611823', '2780148517', '2911049572', '2911022636', '56940625', '2780567184', '2909682719', '31532488', '123584848', '46973012', '2775944032', '143647101', '2776362844', '2775832928', '196347352', '2780760462', '2777746085', '2778242859', '2908655827', '2781050511', '2910918403', '527108885', '114373084', '95150158', '195855529', '2781244666', '2908733782', '2909823619', '2909028682', '2775998654', '2777704247', '2910246402', '2910993415', '159674089', '2778672379', '2910949744', '2779033964', '68239362', '63103864', '100207259', '2781455916', '103191249', '2781036514', '2910734998', '2778075232', '2909056068', '143733281', '2780860654', '2779126167', '2909905686', '8290200', '2778227567', '2777545730', '2777226075', '2910419188', '2780092233', '3075310', '2775847253', '2911096375', '2909192171', '162264550', '2776260442', '10590036', '2781352674', '2910675177', '2779812711', '2910805231', '2909059089', '2909127511', '2778048899', '2908705917', '2781011581', '2778384578', '136193539', '2777407796', '87520248', '2779256223', '2779216453', '2778922544', '2778967368', '2781281211', '2777330947', '2780451725', '2910574371', '2780019924', '186697258', '2777921445', '2777939402', '2779018223', '2779770810', '2910732721', '2776649359', '2776867765', '99432707', '2780688631', '2778236407', '2909290400', '2776687281', '2909063161', '2780833581', '2777175894', '2780975770', '2778767360', '2909959974', '2909933723', '2909345156', '2780454388', '2909394687', '2910466267', '2776016174', '161039048', '2909827854', '2776976047', '2779714439', '2778946701', '2780965833', '2776625714', '2777160784', '2777700019', '2779671804', '2780122209', '2909616078', '2776248978', '2909974469', '2779018177', '2909160644', '2780347916', '2909735440', '2910724458', '2911100317', '2776009832', '2780381907', '2910902742', '2910793512', '2780644872', '2908848679', '17954761', '2781121460', '2777650959', '198454886', '2910032273', '2780522931', '85030129', '2780972224', '2780994212', '2781217586', '104428545', '2910031431', '2780393724', '2778013878', '2780647781', '122245378', '2779399491', '2908907863', '2777768864', '2776004912', '2910644452', '2911052160', '2777918570', '2779534489', '112144039', '2908868296', '2780540183', '2910504710', '2780942278', '182025440', '2778506969', '2779075527', '2780713498', '2778609137', '2778944870', '112224295', '2777334348', '2777823863', '2909771165', '2909700134', '40956017', '166029249', '2910951957', '2781074409', '2778951934', '2908534919', '2778976402', '2908634787', '2776924286', '117958382', '2911019706', '2778623998', '2908941940', '2909549470', '2909798980', '2779488543', '18033762', '153050134', '89484641', '2909455342', '2777767828', '2909161740', '2909004547', '2780240888', '2777437443', '44221107', '2779588740', '2780144141', '2781432083', '2778794311', '2780471426', '2910105704', '2776298325', '2909997509', '2911172176', '2779794483', '2780415110', '2777689261', '2778160350', '2909157853', '2908668323', '2779026464', '2911192443', '2778108375', '2778635641', '2780035688', '35138650', '2908891590', '2777548347', '150594956', '2777974785', '2780133158', '2778409180', '2780577055', '2777270591', '2779790309', '48424934', '2908545147', '2910814840', '2909061476', '2777445420', '2909824962', '2909347786', '2780790343', '2909585089', '2780708007', '2777452171', '525541732', '2776289866', '2780427545', '2910210000', '2779314293', '2777945365', '2909503172', '2780545995', '2908726200', '2776778849', '2781087925', '2778643307', '2910243004', '2780898380', '2776091944', '2910862628', '2780045663', '2909143790', '2780844640', '2908603949', '2910982019', '2777251271', '21833749', '2780561475', '2778338367', '2910380369', '2776572282', '5140985', '2781305912', '2780664029', '168444539', '2777581317', '2780416715', '2780458105', '2778081958', '2781030672', '159483092', '2776881634', '203857694', '2909205543', '177504595', '99971728', '2909445175', '2777851258', '2780502008', '24047667', '2778944715', '2778586271', '2780940807', '2781064340', '2776848118', '2779821038', '2909835301', '2908959886', '2777790613', '2775860004', '2777122282', '2778098279', '2911012991', '2909082607', '131783052', '2777756408', '2910955920', '2776662205', '2781325599', '2909095640', '2908918659', '2909190889', '18150654', '35785553', '2779868778', '29719523', '2910824264', '2909931398', '2776305115', '2780884295', '23036609', '145059251', '2776748497', '2776333679', '2910357078', '2776134451', '2778571141', '2777508679', '2778492647', '160284661', '51738704', '2779964219', '2910599447', '2910742204', '2909216229', '195598365', '2909711689', '2776134090', '2778455285', '33511622', '22723013', '116114238', '2775992772', '2781163603', '2781335228', '2781249495', '2911047819', '2780905385', '2910323103', '2909726849', '2780695664', '84787856', '2779072444', '2779399171', '2910047555', '187150481', '2909101151', '2909226329', '125046197', '2780113510', '2910173995', '2909452553', '2910043293', '2780934452', '2778652608', '2911082567', '2909406799', '2908731928', '2776996728', '2910825776', '2779913722', '167704817', '2908766111', '2910616052', '2909676883', '2911064607', '205679159', '2780955279', '2777151030', '2779435821', '2777582894', '2909171998', '2776385097', '2777370841', '38643226', '2776884468', '2778904691', '2780250439', '2778434417', '2910919162', '191560914', '2909560678', '2909041971', '2777932276', '105698618', '2776452501', '2908688558', '2777333352', '2909440198', '2776998901', '2778828131', '2779457091', '2778638198', '2779198267', '2910448010', '2781254305', '2910931359', '2777968807', '2781362533', '30352789', '2778805089', '2777052087', '2778941581', '2780814781', '175894554', '2779100257', '58772458', '2780848204', '2910922878', '2779022940', '2908567798', '2780053885', '135139957', '2781188250', '2910311221', '2779234475', '2777313579', '2777507495', '2778815084', '2780806966', '2909124324', '2780319870', '8330315', '2776244541', '2777590997', '2775859210', '2909312755', '2777198256', '2910454146', '2910515819', '2780807236', '2777982226', '2910794258', '156399914', '2781432121', '2781335186', '183521366', '2781178804', '24245907', '2779279117', '2779963736', '2910604149', '2778648961', '130959647', '2780957178', '2777341132', '536435272', '2778464334', '2910877098', '145065098', '2776379899', '2779920387', '2777143102', '2910632525', '2909746993', '2909060831', '129235324', '2781395839', '2909581452', '197902417', '2776256026', '2910267521', '2780739625', '2909960190', '2910274054', '2780165273', '2909182395', '2910893417', '2781335528', '2910126395', '2780225090', '2910907916', '2780211496', '2780168142', '27081682', '2911162902', '14568323', '2910684466', '24223341', '2909843733', '55775858', '2778398512', '34981463', '2910710179', '2778933494', '129374314', '2776666601', '2909620887', '2780180277', '2910364982', '2777034029', '2778549279', '2780252810', '2779812621', '2777311785', '2776747576', '2909403559', '2910217441', '2779317333', '2908894394', '2911044087', '2910279700', '2775895833', '2779200603', '4951695', '2779018908', '2780377017', '2777166712', '2909897056', '2779213384', '2910461042', '2909751219', '2908819134', '2778928357', '2908944216', '2780504720', '32268604', '2909795662', '96739231', '2909278008', '514090530', '2908945509', '2776116199', '189812789', '15490471', '2910581506', '2778891273', '2778751422', '2909358959', '2910209214', '2910480946', '2910040365', '2777929075', '2781185574', '2908701176', '2909007587', '2909219627', '2909352924', '2777177866', '2909656692', '2776880894', '2910669998', '2777215511', '2776313812', '2910224416', '2910352305', '161681244', '174884520', '2909181948', '2776603314', '62826618', '112423150', '2908987861', '2777411675', '2777892068', '2909942728', '2780130679', '2781095222', '2778095195', '2780269388', '2778030639', '2909565469', '2908611931', '2909682785', '2909359390', '2910254342', '2778001906', '2909637203', '2910230878', '513090587', '2778750487', '2780329011', '2909974199', '2910585295', '2776664737', '2910131554', '2778038603', '150966472', '2778015747', '2777807888', '2777482430', '2780344330', '2909798345', '28774466', '2779769559', '2778065167', '2908752488', '2780762869', '2776678776', '2780737065', '2910870021', '2778514029', '2778602366', '32611913', '2909937042', '2908616789', '2779341817', '2911198927', '2909273432', '2910183347', '2779033913', '2909799195', '2776559941', '2778140631', '2909459800', '4892016', '2910602479', '2908711114', '2777582095', '2780075904', '2910019571', '2909287173', '2910400954', '2780283655', '2778807442', '158457848', '139059822', '2779357504', '2910710802', '2776289493', '2908805280', '2780561598', '2778613593', '2909946173', '42084846', '2779710473', '2780229479', '77281830', '2911000433', '2779519742', '2909187439', '2781168792', '2776610909', '2780052202', '2780656811', '2780231208', '2911189494', '2776692505', '2777692091', '44249647', '2910220699', '8051207', '2779214519', '2910802627', '157481446', '2908689992', '2778528637', '2777615887', '2777371436', '2781179364', '2908682257', '2780662894', '2781094116', '2776041477', '2910754541', '2780929364', '2910048620', '2908531242', '2781328992', '2910282157', '2776709541', '2781313946', '2909088125', '2779717584', '2777965375', '2910348288', '2911105077', '2909513626', '2778934254', '111926329', '2781446524', '2779010597', '2778814963', '176685330', '162967406', '2908694303', '2776700747', '2780127125', '2777538368', '2780533449', '2780057945', '2909958923', '2777209535', '2780867798', '2781031023', '2911057444', '2910885888', '2911006864', '2777183552', '2910675294', '2781196997', '2910834664', '2777026814', '2910653213', '2910054325', '2909311223', '191608507', '2777538456', '2910886357', '147656717', '2910017599', '2910082707', '203014093', '2778670441', '190712762', '2909134871', '2910465471', '2909294874', '2909047091', '2778775820', '6505270', '2776652256', '2910810009', '2776784659', '2776258884', '97425143', '79061702', '2908993668', '2779054126', '2909021529', '45505151', '2781430460', '174483455', '2780744026', '2910760457', '2776546559', '2776337968', '2909670896', '2779916348', '163716698', '38829236', '2780227034', '2778880498', '2780390057', '2776883082', '2777195935', '2908638431', '2909243863', '2777557582', '2777257067', '2779188306', '2909991231', '2909168046', '34935008', '2776474662', '2779356665', '53927964', '2781367151', '2780303919', '2909974400', '2909673367', '2776428644', '2779328685', '72404758', '48261664', '2776096205', '128544194', '2779747150', '2777075493', '29390026', '2910198379', '2909971043', '2779192497', '2779717098', '2779751288', '2777938653', '2909289745', '2776341189', '2909939529', '2778681053', '2778638681', '2778580959', '2779533435', '2908770081', '2778902264', '2909608312', '2908868585', '188945261', '2778749371', '2776235749', '2909794420', '2909986567', '2777802829', '2776290861', '152236973', '2778917124', '2780404832', '137132547', '142054583', '2779640190', '2910619355', '2776045273', '2909088828', '2779452902', '2780835470', '2779130552', '2909561987', '2778329239', '2779098763', '2777057672', '2910478701', '2778275680', '2779560602', '2780954891', '2910102116', '2777862052', '2779646400', '2910650385', '66972969', '2777457466', '2910818726', '2909603797', '2779673892', '2776207728', '2779835638', '2778690381', '112641889', '2909720742', '2909823427', '109156525', '2777615459', '2910520875', '2781033279', '2776266264', '2909147877', '2909297007', '2909091063', '2909770347', '2781333164', '2910171990', '151666851', '2780661987', '2908707692', '2909718394', '2780873365', '86282344', '198867934', '2908687608', '2909135458', '2777016536', '2776194525', '75150742', '2910979876', '2911216512', '2910545766', '110387660', '2780692415', '2778214642', '2910920450', '2909437798', '2776561140', '2780750233', '2911172444', '2910568072', '2910426116', '2777445226', '2781410774', '2909734619', '2909403623', '2909829953', '2777393122', '2780203217', '2909413335', '2910923817', '44315111', '2908644067', '2780417240', '2908707063', '2779558481', '2908755113', '17093226', '2778471422', '2909026906', '14430832', '2776311326', '2779537928', '104314149', '2777028498', '6742658', '2908678506', '2776940978', '2910353821', '25311885', '2909848915', '2780226346', '2777543607', '130010870', '2911015291', '2778740236', '184538305', '2909622525', '2909011058', '2909875689', '2910568048', '2910010793', '2910053701', '163864487', '2780355799', '2778986146', '2779127605', '2777930144', '2781019087', '111998727', '2777382798', '2781471045', '2779890911', '2908861538', '2910994418', '2909113056', '2777649267', '2779695342', '2909611190', '2780356878', '2908591018', '2910511042', '2779140760', '2910433760', '2910367453', '2911204043', '2778319317', '2781309135', '2777542384', '2909926780', '2910160605', '2909217002', '2908984972', '2908619299', '2911221801', '2781138129', '2779634917', '2780542314', '2781000923', '31734879', '2910319392', '2910445844', '2910882873', '2778806077', '2908973738', '2779293866', '2779419017', '114538912', '2777529286', '2909135397', '2779496938', '2777402515', '2909287870', '84815855', '2777621572', '2778452426', '2910614109', '88532467', '2780366628', '2908814426', '2908915170', '2909111395', '2776938444', '2910616045', '2909299586', '2781058234', '2777479973', '2780235182', '2780732545', '2910360725', '2779506587', '2778596745', '2909462486', '2780056126', '2779863674', '46111723', '2910617863', '2777546739', '41443022', '2908951638', '2780217633', '2910367472', '2777671420', '2775961468', '2778005785', '2781443149', '2777153553', '2908872746', '2910211553', '2777459323', '2910584931', '2781092032', '2781430139', '2909448170', '63405582', '2908964528', '2910842200', '2776397665', '2909218482', '2778830639', '2776241388', '2780835546', '2778348428', '2776970978', '2909021095', '2776343132', '34425596', '2909137948', '2909620273', '2779801569', '2910587157', '2778040916', '2775882903', '2778161530', '2910336839', '2778236049', '2780480104', '2778347918', '2910940345', '2909989789', '2909733438', '2778993773', '2778432232', '2910405283', '2779941686', '2778840127', '2779372652', '2780053029', '2779171459', '127801297', '2909744209', '2776733727', '29993825', '2778159538', '2910777914', '2779578232', '2781441883', '2777552930', '2909642817', '2909872244', '2909939291', '2777358149', '2910508087', '66949984', '2778270857', '2909322270', '2779029879', '2776979040', '181268634', '2779656172', '2777396833', '2780764818', '2909505099', '2778324535', '522857546', '2780559468', '2909257975', '2781460226', '171089720', '2908988598', '2909616470', '114565086', '2778836808', '2776604044', '2910285059', '2909962599', '2908829762', '41727105', '2909200558', '2908626632', '2780848588', '78245214', '2778155611', '2780067814', '2909623057', '2777042810', '2908624950', '2780255948', '2909184305', '2781399573', '196762363', '107400117', '2908623503', '2775877586', '2778478650', '2776844884', '2779982054', '38137600', '2778350249', '20463939', '90642696', '2777636852', '2909807062', '2778242392', '2779140873', '2781240919', '2775872116', '2777819096', '181612422', '2780504541', '2780283014', '2908572884', '2908602901', '2909575379', '2777216955', '2778653282', '2908788405', '104211972', '2910988456', '2910662323', '2908781503', '2777813720', '2910733088', '2909200035', '2778230176', '2911202535', '2780864610', '2776114971', '2910491948', '2780775834', '2909774446', '2777547430', '58865670', '2777185836', '2778485902', '2778313021', '2909450026', '68784500', '2909531777', '2908921747', '2908781282', '24998067', '2777575956', '2781083702', '2780977457', '2779789940', '2909957015', '2780554921', '2780373117', '170320452', '2777023796', '2909044596', '2778934081', '67761136', '2911049907', '2909880635', '2777113529', '2775952470', '2780656570', '2909524538', '2777363262', '2780683386', '2779066535', '2776067312', '2780051777', '2908883545', '2909022959', '2909829934', '2911019494', '160941953', '2781323092', '2778808290', '2776796639', '2778058069', '2781362769', '111023892', '2911064531', '2910946668', '2779165098', '2777472119', '2781003276', '2781223058', '199217515', '2780962921', '7876069', '3060791', '2910207546', '2781465214', '202953179', '2777888504', '2776387214', '202636595', '2775946041', '2775886723', '5041914', '2779168441', '148737382', '2911024752', '2777851494', '2777786686', '2909457707', '4507703', '2776408163', '2909267907', '2910602578', '2777960172', '2779473686', '2910107048', '106825092', '2780959517', '2910045204', '2908758235', '2779488553', '2909286685', '2776727336', '2779196318', '2779516188', '2778260499', '2776755627', '2780200183', '2909579140', '2777922258', '2781468836', '2778677841', '2908920599', '2777655228', '2778710640', '2780300509', '33235085', '2909021283', '2909660725', '2908681542', '2908873319', '2909568678', '2910264766', '2778966966', '2776541429', '2910260090', '2776040883', '2778758220', '2909232226', '37225329', '2778523567', '2780675426', '2776674806', '180361614', '156407911', '2909427789', '2910693993', '7243750', '2910766733', '2776449402', '2909638883', '55359608', '2777578945', '2776933761', '2779835222', '2777338322', '2909423636', '2909363567', '156293190', '2777626661', '2776328245', '2777489803', '29537977', '2781443798', '2909993419', '2908963026', '2777943302', '2909648573', '2776955481', '66442614', '2777980614', '2776178378', '7033854', '152662350', '2909240200', '2778050454', '2779338263', '2779407169', '2910166804', '2780608848', '102107297', '2778173252', '112570445', '2909709311', '2909986810', '2909225826', '2780005051', '34320192', '2910686401', '2910517311', '2910979460', '2778836221', '170193765', '2778409550', '2778680573', '2909357195', '2909235696', '159399396', '2779299482', '2780764554', '2779690883', '2909489265', '167552308', '2911218010', '2909597701', '2910934819', '2777736543', '2910959326', '2779097696', '2779305415', '2776866189', '99752389', '2910168157', '2779138974', '2777954177', '2910355629', '2908799931', '2776343214', '2780566971', '153939273', '106285112', '2909442410', '42251903', '2776663553', '128534915', '2777007179', '2910928352', '2779435489', '190960625', '111425858', '2776263479', '2781161787', '94561458', '2909705586', '2776828318', '2909074800', '2910564362', '2911015175', '2909433017', '2780882860', '2781371782', '2910804505', '23416140', '2908845642', '2780613262', '2908949413', '2779925090', '2780757305', '2778712213', '2780577388', '2780442968', '2780329156', '2779683556', '122129578', '2910592416', '10708705', '2777043484', '2777596629', '2781244292', '2910098535', '2777289228', '2779704270', '101083039', '2780657110', '2911077705', '2778899366', '2781100537', '2908565423', '2777707475', '164491936', '168763156', '2911212829', '2780022331', '2910802169', '100480397', '2910015671', '2776540679', '2776278343', '2780425889', '2911042930', '2776981409', '2910412466', '2778996910', '2776349684', '194575858', '2781158288', '2911127567', '2778940316', '2778176471', '2778606649', '2910442187', '2779796075', '2779644819', '2781028063', '118742737', '2910040962', '2776928572', '2777483942', '2779000936', '2781093762', '2781162121', '2776855637', '2910646857', '83674893', '2778177303', '2911104824', '2781200033', '2779357283', '2781101655', '2909454188', '2776752467', '2910531579', '2778680817', '2908998664', '2908594456', '2780375630', '2779186577', '2779152698', '2779967523', '2779740467', '2780342937', '107459253', '170774537', '2779217266', '11966187', '2910296299', '2911204201', '2776443654', '116227048', '2910599151', '2909973708', '2776885722', '2909125492', '2779728849', '2910125345', '2908623884', '204335518', '2910720111', '2779662324', '2776461080', '2781151714', '2780199430', '2780075673', '88606150', '2910470696', '2908860468', '2910936068', '14858245', '2909015863', '2780335518', '2781312054', '2776634624', '2779117456', '2908745861', '2776512019', '10515644', '2776946255', '2776611563', '2909265136', '2779037185', '2778891214', '2778120723', '2780534256', '2780325254', '2909410006', '2778524067', '2775980177', '2776445023', '2779487296', '113062710', '2910957042', '2781134285', '2776422140', '2778500651', '2777148671', '2780557958', '2779778602', '2776388928', '2781184683', '27415008', '2780955941', '2911049392', '2908792066', '178195510', '33410366', '2777821979', '2910717282', '2778175462', '2909520295', '2777172399', '2779752389', '2775882741', '90157343', '2777456892', '2776140610', '2910216054', '77318859', '2777842550', '2910876649', '12590561', '185967709', '14029885', '2780361610', '2909705220', '2781005279', '2910670426', '2908628012', '124320809', '2908662865', '2776093513', '2778930362', '8305913', '2909957245', '2909870366', '2909460093', '2910095232', '2777239080', '539274931', '2777003273', '2778593092', '2910390209', '2777910687', '2777868816', '2779219270', '2910992061', '159110408', '2910661677', '2910106207', '2908849872', '2908752721', '2910262250', '2910449711', '2778403493', '2778334751', '2909097316', '2779416561', '20220851', '2911170226', '2778548629', '38533456', '2910134620', '2776509667', '2910531687', '2780734605', '2776291823', '2778048844', '2780962315', '2910379458', '2777490116', '2909955805', '2777896836', '178125196', '2779004600', '551499885', '2911002200', '2777046141', '2776866151', '2909070644', '2779024559', '2775895862', '2908770327', '2909184621', '2781427258', '159894899', '2776372842', '2909303247', '2909038310', '2779639602', '2779621917', '118303440', '2778697850', '2781425848', '22830521', '2777660648', '2776735402', '2778987478', '2910891085', '2776370673', '2779247111', '2778518303', '2910011555', '2778784831', '2910202354', '2778128430', '2780040984', '152443987', '2909013848', '2909306498', '2910343153', '91999924', '2778426790', '2909641611', '2776653193', '2780830986', '2909833499', '2778552304', '2909476650', '2909731001', '2780642338', '2781228260', '2777762789', '2910610636', '2779005926', '2781006323', '2781406822', '2908548915', '2781295650', '2909195468', '2776313096', '2909537983', '119195557', '2775938904'</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Reference Daily Intake', 'Medical technology assessment', 'Arterial stiffness', 'Necrobiosis lipoidica', 'Hemorrhagic fever virus', 'Every Four Weeks', 'Ciona', 'Ovule', 'Oral Surgical Procedures', 'Dental stone', 'Topographic Wetness Index', 'Lung biopsy', 'Adolescent medicine', 'Systems neuroscience', 'Helicobacter Infections', 'Revised Trauma Score', 'Peanut agglutinin', 'Superior mesenteric artery syndrome', 'Thrombocytopenic purpura', 'Tobacco users', 'Pigmentation disorder', 'Sphinx', 'Anger Control', 'Emotional and behavioral disorders', 'Anticoagulant drug', 'Hypoglossal nerve', 'Prostate cancer screening', 'Pulmonary vessels', 'Cancer-related fatigue', 'Osteonecrosis of the jaw', 'Carotid ultrasonography', 'Stibophen', 'Paratyphoid fever', 'Verbal memory', 'Primary amenorrhea', 'Childhood leukemia', 'Maternal infection', 'Geniculate', 'Acute kidney failure', 'Endoscope', 'Cuff pressure', 'Empirical likelihood', 'Peroxisome proliferator-activated receptor alpha', 'Atrial Remodeling', 'Human decontamination', 'Autoimmune encephalitis', 'Myxoid liposarcoma', 'Invasive lobular carcinoma', 'Grain elevator', 'Tendon graft', 'Solitary pulmonary nodule', 'High-Grade Glioma', 'Vulvar Carcinoma', 'Pregnancy Report', 'Palmitoylethanolamide', 'Veterinary microbiology', 'Capsular Invasion', 'Immunologic memory', 'Ventricular system', 'Lycium', 'Ultrasound Radiation', 'Upper respiratory tract infection', 'Recurrent laryngeal nerve', 'Barostat', 'Obstructive hydrocephalus', 'Renal blood flow', 'Animal models of depression', 'Optic neuropathy', 'Crawling', 'Olfactory bulb', 'Fibula', 'Vocal tics', 'Urethral sphincter', 'Endoscopic endonasal surgery', 'Babesia', 'Inflammation Process', 'Metabolism', 'Arsenic toxicity', 'Corticotropic cell', 'SAMHD1', 'Plasmablastic lymphoma', 'Stearidonic acid', 'Pathology reporting', 'Helpline', 'Skin tumours', 'Organic mental disorders', 'Aplasia', 'Prenatal Exposure Delayed Effects', 'Early Hepatocellular Carcinoma', 'GPS2', 'Terrestrial locomotion', 'Porphyria cutanea tarda', 'Carotid Artery Thrombosis', 'Leptin Receptor Gene', 'Axoplasm', 'Nervous tissue', 'Cabazitaxel', 'Opioid Receptor Binding', 'Development communication', 'Behavior change methods', 'Immunoblot Analysis', 'Pregnancy rate', 'Transfusion medicine', 'Contact Transmission', 'Troponin T', 'Mixed lymphocyte reaction', 'Intrinsic factor', 'Calprotectin', 'Gastropexy', 'Claustrophobia', 'Prosocial behavior', 'Netrin', 'Branchial Cyst', 'Caliciviridae Infections', 'Prolonged labour', 'Content processor', 'Autonomic Nerve Block', 'Long Saphenous Vein', 'Vernonia amygdalina', 'Didelphis', 'Negative HIV', 'Lower limbs venous ultrasonography', 'Premature Beats', 'Bay K8644', 'Dental auxiliary', 'Contrast-enhanced Magnetic Resonance Imaging', 'Cardiospasm', 'Global developmental delay', 'Hamstring Tendons', 'Industrial radiography', 'Orexin', 'Virtual reality simulator', 'Chronic Migraine', 'Non-Hispanic whites', 'Interstitial fluid', 'Preterm Births', 'Golden hamster', 'Somatic cell count', 'Dental lamina', 'Antiandrogen Therapy', 'Pulmonary hypertension', 'Deformity', 'Mammary tumor virus', 'Telemedicine', 'Stellate ganglion block', 'Concomitant drug', 'Neonatal age', 'Cryotherapy', 'Caseous lymphadenitis', 'Radioligand Assay', 'Beta particle', 'Cognitive inhibition', 'Nonsteroidal', 'CDC2 Protein Kinase', 'Gluteal region', 'Peptide vaccine', 'Urotensin-II', 'Second rib', 'Laryngeal mask airway', 'Adalia', 'Hemoperfusion', 'Muscular system', 'Strongylocentrotus droebachiensis', 'Experiential avoidance', 'Heart-Lung Transplantation', 'TIRAP', 'NFATC Transcription Factors', 'Liposomal Bupivacaine', 'COPD', 'Chemokine secretion', 'General physician', 'Acute tubular necrosis', 'Pelvic kidney', 'Corn oil', 'Psychological disturbance', 'Streptococcus zooepidemicus', 'Aortic occlusion', 'Bleeding time', 'Technostress', 'Motherwort', 'Systemic vasculitis', 'Clot retraction', 'Rhesus Isoimmunization', 'Phage types', 'Paliperidone', 'Fotemustine', 'Atorvastatin', 'NADPH oxidation', 'Viral antigens', 'Scrotum', 'Local lymph node assay', 'Myoclonic Jerk', 'Percutaneous transluminal coronary angioplasty', 'L-type calcium channel', 'Embryonic heart', 'Abrupt onset', 'Acitretin', 'Microcirculation', 'Indican', 'Polypus', 'Co-receptor', 'HLA-B', 'Fibrin Monomer', 'Hepatitis vaccine', 'Dipsacus', 'Myocardial bridge', 'Spinal trigeminal nucleus', 'Gastric acidity', 'NFKB1', 'Janus kinase inhibitor', 'Cholescintigraphy', 'STAT5', 'Edema', 'Dihydroxyphenylalanine', 'Paraphilia', 'Carney complex', 'Ostertagiasis', 'Keratocystic Odontogenic Tumor', 'Interpeduncular nucleus', 'Total energy expenditure', 'Internal iliac artery', 'Dissolution testing', 'Sorbitol dehydrogenase', 'Review Literature as Topic', 'Nasopharyngeal neoplasm', 'Adenocarcinoma', 'Inflammation mediators', 'Micropenis', 'Blended learning', 'Monogenea', 'Suprachiasmatic nucleus', 'ORAI1', 'Hand therapy', 'Cortical Synchronization', 'Induced ventricular tachycardia', 'Sugar intake', 'Abdominoperineal resection', 'Free triiodothyronine', 'Adult Children of Alcoholics', 'Pathogenesis', 'Biperiden', 'Minute virus of mice', 'Odontogenic', 'Sex preselection', 'Riboflavin deficiency', 'Microdensitometer', 'Alternative medicine', 'Podarcis', 'Homogentisate 1,2-dioxygenase', 'Adnexa Uteri', 'Hyperacusis', 'Metropolitan planning organization', 'Phosphodiesterase 2', 'Filum terminale', 'Coeliac syndrome', 'Peptide YY', 'Lipoic acid', 'Muscle contraction', 'Cerebral veins', 'Dopamine receptor D5', 'Cavernous hemangiomas', 'Retinal Prosthesis', 'Interstimulus interval', 'Lacrimal apparatus', 'Masseter muscle', 'ATP citrate lyase', 'Femoral nerve', 'Neuromelanin', 'Receptor editing', 'Anaesthetic Agent', 'Chest surgery', 'SAPS II', 'Histamine secretion', 'Motor speech disorders', 'Acarbose', 'Matrix gla protein', 'Renal agenesis', 'Atypical Lymphocyte', '5-HT1A receptor', 'Polyuria', 'Biliary fistula', 'Hair transplantation', 'Benign condition', 'Second messenger system', 'Thyroid hormones', 'Communicating hydrocephalus', 'Methyl isocyanide', 'Ixodes ricinus', 'Oil Red O', 'Anal Region', 'Ehrlichia', 'CIITA', 'Atypical hemolytic uremic syndrome', 'Recommended Intake', 'Reference range', 'Subset Analysis', 'Adrenal Cyst', 'NADPH dehydrogenase', 'Microphthalmos', 'Esophageal varices', 'GABBR1', 'Helicobacter Pylori Infections', 'Environmental medicine', 'P2Y12', 'Newborn screening', 'Cardiovascular Surgical Procedure', 'Clomifene', 'White matter', 'Fetal Heart Rate Variability', 'Acute ulcerative colitis', 'Autoimmune Process', 'Sphingolipid', 'Human back', 'Feline infectious peritonitis', 'ORTHODONTIC PROCEDURES', 'Protein A', 'Juvenile hormone', 'Cocaethylene', 'Labor presentation', 'Ebselen', 'Colonic obstruction', 'Hand strength', 'Meta-regression', 'Limbic system', 'Eimeria acervulina', 'Cell Cycle Gene', 'Cytokine release syndrome', 'Acyl CoA dehydrogenase', 'Intestinal resection', 'Cobb angle', 'Years of potential life lost', 'Superior longitudinal fasciculus', 'Coping resources', 'HIV Antigens', 'Blepharoplasty', 'Absolute risk reduction', 'Before Bedtime', 'Beriberi', 'Cardioverter-Defibrillator', 'Adrenocortical hyperfunction', 'Cardiac Ventricle', 'Phlebovirus', 'Chemostat', 'Certolizumab pegol', 'Endogenous opioids', 'Myotonia congenita', 'Plant sterols', "2',3'-Cyclic-nucleotide 3'-phosphodiesterase", 'Vomiting', 'External fixation', 'Cholesterol biosynthesis', 'Inner nuclear layer', 'Trypanosoma brucei rhodesiense', 'Adrenal cortex', 'Cisterna magna', 'Somatomedin', 'Hypotensive agents', 'Community-based rehabilitation', 'Blood Glucose Measurement', 'Heart bypass', 'Secondary sex characteristic', 'Retinaldehyde', 'Beta-thalassaemia', 'Fat necrosis', 'Lysholm Knee Score', 'Henoch-Schonlein purpura', 'Repaglinide', 'Microgram', 'Developmental anomaly', 'Paraproteinemia', 'Costus', 'Monooxygenase', 'Positron emission tomography–magnetic resonance imaging', 'Valdecoxib', 'HIV drug resistance', 'Semen extender', 'Metaproterenol', 'Subependymoma', 'Pyroglyphidae', 'Profound sensorineural hearing loss', 'Progeria', 'Clear Cell Renal Carcinoma', 'Inhalation anesthesia', 'Epidemic hemorrhagic fever', 'Postpartum haemorrhage', 'Dorsolateral', 'Neuraminidase', 'Burn scars', 'Smoking ban', 'Tissue surface', 'Mucolytic Agent', 'Planar Imaging', 'Myelin-associated glycoprotein', 'Duodenal Neoplasm', 'Single-use bioreactor', 'Mexiletine', 'Viral hemorrhagic septicemia', 'Translational science', 'Flap necrosis', 'Tissue respiration', 'Crimean-Congo haemorrhagic fever', 'Mouse Submandibular Gland', 'Chronic allograft nephropathy', 'Immunotoxin', 'Connected health', 'Bradykinin', 'Metallosis', 'Adrenergic', 'Adenosine triphosphate', 'Maspin', 'Local cancer', 'Engineered tissue', 'Diaphysis', 'Oral region', 'Patient representatives', 'Leukemia cutis', 'Photoplethysmogram', 'Adjuvant', 'Intraocular lymphoma', 'Methylprednisolone acetate', 'Norverapamil', 'Shock position', 'New Zealand white rabbit', 'Job safety analysis', 'Posterior mediastinum', 'Scanning ion-conductance microscopy', 'Insoluble fiber', 'Metabolic aspects', 'Chronic pain', 'Medial meniscus', 'Natamycin', 'Allergic conjunctivitis', 'Liver circulation', 'Vaginal fornix', '5-Hydroxyindoleacetic acid', 'Clastogen', 'Case fatality rate', 'Sumatriptan', 'Inferior colliculus', 'Infraorbital nerve', 'Brodmann area 10', 'End-diastolic volume', 'Disease reservoir', 'Normal appearance', 'Mediastinal tumor', 'Interstitial cystitis', 'Gastrointestinal pathology', 'Trochophore', 'CYSTIC DEGENERATION', 'Vascular smooth muscle cell migration', 'Acute obstruction', 'Purine', 'Chromosome 12', 'Radiation oncologist', 'Nursery pig', 'Pancreatic abscess', 'Impella', 'Lateral ventricles', 'Psoralea corylifolia', 'Nosocomial transmission', 'Orphan diseases', 'Ambulatory Surgical Procedure', 'Immunosenescence', 'Antidote', 'Primary metabolite', 'Suspensory ligament', 'RPTOR', 'First responder', 'Mortality rate', 'Cervical insufficiency', 'Eczematous dermatitis', 'Interferon alfa', 'Homeopathy', 'Sphingomyelin phosphodiesterase', 'Radical excision', 'Scramble for Africa', 'Leukemia', 'Amadori rearrangement', 'Hair mercury', 'Knee arthritis', 'Sodium stibogluconate', 'Tospovirus', 'Vanillylmandelic acid', 'Ct scanners', 'Ichthyophthirius multifiliis', 'Glutamate dehydrogenase 1', 'Tenosynovitis', 'Movement assessment', 'Blastema', 'Student nurse', 'Magnetoresistance', 'Prophylactic Mastectomy', 'Ginsenoside Rd', 'Ghost cell', 'Cross immunity', 'Global Health Initiatives', 'Toxicity', 'Oral allergy syndrome', 'TRH stimulation test', 'Serotonin transporter', 'Computed tomography dose index', 'Monoclonal gammopathy', 'Tremelimumab', 'Dichlorodifluoromethane', 'Hepatoprotection', 'Ventriculotomy', 'Insulin resistance', 'Prescribed medications', 'Paraumbilical vein', 'Facial tissue', 'Ovoviviparity', 'Carnitine palmitoyltransferase I', 'Mental suffering', 'Goblet cell', 'Pyrenoid', 'Congenital hepatic fibrosis', 'Otoplasty', 'Cytisine', 'Generally recognized as safe', 'Cistanche', 'Sucrase', 'Screening cancer', 'Bacteroidaceae', 'Ranavirus', 'Palpation', 'Anaplasia', 'Suicide methods', 'Barratt Impulsiveness Scale', 'D-lysergic acid diethylamide', 'Pancreatic juice', 'Pharmacoepidemiology', 'Idiotopes', 'Pemphigus vulgaris', 'Vinpocetine', 'Colon polyps', 'Gömöri trichrome stain', 'Chronic Cystitis', 'Uveitis', 'Major histocompatibility complex', 'Disodium cromoglycate', 'Viral membrane', 'Neurotensin receptor 1', 'Fibrinopeptide A', 'Peptic Ulcer Perforation', 'Dexamethasone', 'Well Differentiated Hepatocellular Carcinoma', 'Glucose meter', 'Subtotal pancreatectomy', 'Ecophysiology', 'Premedication', 'Chronic Active', 'Phosphocreatine', 'Glucose tolerance test', 'Myelin oligodendrocyte glycoprotein', 'Rotavirus detection', 'Ocular motility', 'Shea butter', 'Cognitive strategy', 'Products of conception', 'RESTING HEART RATE', 'HpaII', 'Probucol', 'Lenvatinib', 'Benign early repolarization', 'Heart Aneurysm', 'CARBON TETRACHLORIDE POISONING', 'Subjective variables', 'Rational emotive behavior therapy', 'Right index finger', 'Exon junction complex', 'All fingers', 'Ragweed pollen', 'Asbestos fibers', 'Hypomagnesemia', 'Pulse oximeters', 'Ambystoma mexicanum', 'Perfusion', 'Excipient', 'Cold urticaria', 'Enzyme therapy', 'Immunoperoxidase', 'Gene regulatory network', 'Total Mastectomy', 'Frontotemporal lobar degeneration', 'Tumor Cell Migration', 'Dosing', 'Estrogen receptor beta', 'Acid alpha-glucosidase', 'Penicilliosis', 'Myocardial oxygen consumption', 'Benzamide', 'Parakeratosis', 'Hyperlactatemia', 'Necroptosis', 'Prenatal diagnosis', 'Enucleation', 'Contrast-induced nephropathy', 'Mantis', 'Phenylacetylcarbinol', 'Interleukin 20', 'Routine immunization', 'Retrograde ejaculation', 'Interleukin 32', 'Ophthalmologic examination', 'EP4 Receptor', 'Caries Removal', 'Enteral administration', 'Hip disarticulation', 'Signal-averaged electrocardiogram', 'Murine typhus', 'Biomphalaria glabrata', 'Sodium channel', 'Leg exercise', 'Classification of obesity', 'GABA transporter 1', 'Organic anion transport', 'Bradykinin receptor', 'Minor injury', 'Basophilic', 'Hair cell', 'Vasa recta', 'Parecoxib', 'Sauria', 'Gingival inflammation', 'Polyhydramnios', 'Gonad', 'Panic disorder', 'Farinograph', 'Dehydroascorbic acid', 'Absolute threshold of hearing', 'Nephrosis', 'Encephalitis', 'Bronchial thermoplasty', 'Normal intraocular pressure', 'Sodium benzoate', 'Cloprostenol', 'Flip', 'Trichomoniasis', 'Ductal carcinoma', 'Metastatic gastric cancer', 'Tenofovir', 'Salmonella', 'Pure autonomic failure', "Descemet's stripping endothelial keratoplasty", 'Plasmodium berghei', 'Isotype', 'Masked Hypertension', 'Potyvirus', 'Thunderclap headaches', 'Folk medicine', 'Nude mouse', 'Macular degeneration', 'Ophthalmic solutions', 'Adenomatoid odontogenic tumor', 'Peripheral blood mononuclear cell', 'Fibrocyte', 'Nerve guidance conduit', 'Breast disease', 'Heparanase', 'Computer-assisted surgery', 'Minimally invasive procedures', 'Osteotome', 'HIV superinfection', 'Proprotein convertase 1', 'Drug user', 'Treatment Schedule', 'Angiolymphoid hyperplasia with eosinophilia', 'Chemotaxis assay', 'Cognitive reappraisal', 'Elderly homes', 'Nasal Airway Obstruction', 'Soft tissue', 'Trypanosoma', 'Peritoneal dialysis', 'Typing', 'Sieving coefficient', 'Dexmethylphenidate', 'Corpectomy', 'Cerebrospinal fluid', 'Transplantation', 'Medial forebrain bundle', 'Therapeutic drug monitoring', 'Peripheral Facial Paralysis', 'Stomach ulcers', 'Indocyanine green videoangiography', 'AN - Acoustic neuroma', 'Karyorrhexis', 'Influenza virus RNA', 'Metanephrines', 'Delusional disorder', 'Vitamin K3', 'CDC25A', 'Sports nutrition', 'Platelet aggregation inhibitor', 'Maternal Hypotension', 'Ergometrine', 'Graft tissue', 'Stimulus onset asynchrony', 'Xenarthra', 'Anti-Arrhythmia Agents', 'Erythromelalgia', 'Rapid response team', 'Polymerization', 'Clinical neuroscience', 'Acetylcholine', 'Donor tissue', 'Elective Cesarean Delivery', 'Chronic eczema', 'Catheter', 'Hemangioma', 'Keyhole limpet hemocyanin', 'Eclipta prostrata', 'Altitude sickness', 'Apexification', 'Genetic diversity', 'Cervical lymph nodes', 'Perirhinal cortex', 'Population Replacement', 'Angiotensin II Type 1 Receptor Blockers', 'Subjective phenomena', 'Alpha-synuclein', 'Group home', 'Post-radiation', 'NS2-3 protease', 'Gastrointestinal complications', 'Glutathione disulfide', 'Digital elevation model', 'Balneology', 'Ascorbic Acid Deficiency', 'Ovotestis', 'Vagal stimulation', 'Artemisinins', 'Immunodeficiency Syndrome', 'Neurotensin receptor', 'Interleukin-21 receptor', 'Foreskin', 'H-Y antigen', 'Curative care', 'Kupffer cell', 'Intracranial meningioma', 'Intravital microscopy', 'Ephedrine', 'Posterior column', 'Schizonepeta', 'Disease markers', 'Yoshida Sarcoma', 'Fibrosarcoma', 'Osteotomy', 'Sodium pentobarbital', 'Amiodarone-induced thyrotoxicosis', 'Hyperkinesis', 'Myelofibrosis', 'Immunoglobulin genes', 'EZH2', 'Endoscopy', 'Partial Hydatidiform Mole', 'Ventricular remodeling', 'Visceral larva migrans', 'Procambarus clarkii', 'Filgrastim', 'Reserpine', 'Live birth', 'Theileria annulata', 'Skull Neoplasm', 'Acinetobacter sp', 'Axonal loss', 'Basal forebrain', 'Culture bacteria', 'Cingulate cortex', 'Laryngoplasty', 'Sulfalene', 'Credible interval', 'Desmoplasia', 'Ketoconazole', 'Photoactivated localization microscopy', 'Classification treatment', 'Mucin', 'Command neuron', 'Immunotoxicology', 'O-6-methylguanine-DNA methyltransferase', 'Filipin', 'Meloxicam', 'Colorectal adenocarcinoma', 'Chronic ulcers', 'Transdifferentiation', 'Single tumor', 'Periodic paralysis', 'Cognitive resource theory', 'Neurotrophin-3', 'Endothelial protein C receptor', 'Tectum', 'Neurotransmitter Agents', 'Influenzavirus B', 'BCG vaccine', 'Biological imaging', 'Telangiectasia', 'Faecal calprotectin', 'Mansonia', 'HIV Seronegativity', 'Puerperal sepsis', 'Small tumors', 'Oesophageal obstruction', 'Sensory analysis', 'Angiogenesis', 'Azoxymethane', 'Mechanosensation', 'Team nursing', 'Dental Enamel Hypoplasia', 'Forceps delivery', 'Management of schizophrenia', 'TXNIP', 'Abdominal aorta', 'Sclerostin', 'Respiratory acidosis', 'Reoviridae', 'Supraorbital nerve', 'Microsoma', 'Dapsone', 'Lung volumes', 'Lysosomal storage disorders', 'Enhancer trap', 'Pre-Registration', 'Synaptic vesicle recycling', 'Health services research', 'Angioma', 'CSF pleocytosis', 'Pterygoid Muscles', 'Portography', 'Neuronal Growth', 'Erythrocyte aggregation', 'Atheromatosis', 'Penile Intraepithelial Neoplasia', 'Amiodarone', 'Pharmaceutic Adjuvant', 'Immune dysregulation', 'Sexual dysfunction', 'Alfalfa mosaic virus', 'Nasal passages', 'Pharmaceutical Adjuvants', 'Ciliary arteries', 'Adrenergic beta-Agonists', 'Independent living', 'Retroperitoneal Neoplasm', 'Serum amylase', 'Fluid extract', 'Clinical pastoral education', 'Myofibroblastoma', 'Mycoplasmataceae', 'Escherichia coli Vaccines', 'Decompression', 'Addictive behavior', 'Glans penis', 'Levamlodipine', 'Peripartum cardiomyopathy', 'Pyloric stenosis', 'Busulfan', 'Neuregulin 1', 'Neocortex', 'Neointima', 'Carbohydrate deficient transferrin', 'Psychiatric Training', 'Cigarette use', 'Hypervitaminosis', 'Hyperaldosteronism', 'Pseudogout', 'Metformin', 'Penis', 'Agglutinin', 'Oesophageal pressure', 'Melatonin receptor', 'Heart transplants', 'Glomerulosclerosis', 'Nasal Cannulae', 'Samara', 'Safety behaviors', 'Home management', 'Cochlear duct', 'Emergency medical services', 'Pneumococcal Diseases', 'Involved muscles', 'High-pitched', 'Rating of perceived exertion', 'Arterial diseases', 'Brachialis', 'Nutritionist', 'Hematological Diseases', 'Spasticity', 'Receptivity', 'N-Nitrosodimethylamine', 'Phalanx', 'Right inferior frontal gyrus', 'Touch Perception', 'Chronic ischemic heart disease', 'Occupational exposure limit', 'Presenting problem', 'Lateral femoral condyle', 'Portable toilet', 'Circulation disorders', 'Chronaxie', 'Acupuncture', 'Concurrent validity', 'Cellular Infiltrate', 'Postprandial', 'Papillary adenocarcinoma', 'Complete rupture', 'Precision Medicine Initiative', 'IEEE 802.1Q', 'Functional constipation', 'Borderline personality disorder', 'Predictive marker', 'Hydralazine', 'Fair computational tree logic', 'Reflux', 'Profound hypothermia', 'Benzoylecgonine', 'Temporomandibular joint', 'Actinobacillus pleuropneumoniae', 'Prostatic acid phosphatase', 'Ophthalmology clinic', 'Hashish', 'Ventricular fibrillation', 'Vernier acuity', 'Spin valve', 'Exhaled nitric oxide', 'Allergy history', 'Cementoblastoma', 'Common hepatic duct', 'Pathogenicity', 'RIPK1', 'Dapoxetine', 'Conduit metaphor', 'Root Canal Obturation', 'Fabrication', 'Mean difference', 'Macrophage colony-stimulating factor', 'S9 fraction', 'Cleaning teeth', 'K-complex', 'Wechsler Preschool and Primary Scale of Intelligence', 'Climbing fiber', 'Rochester Epidemiology Project', 'Ablation zone', 'Melasma', 'Triple Negative Breast Neoplasms', 'Opsin', 'Bordetella parapertussis', 'Minor surgical procedure', 'Serial dilution', 'Pharyngocutaneous Fistula', 'Hydrophobia', 'Buccal Surface', 'Chordee', 'Immature teratoma', 'Femoral epiphysis', 'Antibiotic Stewardship', 'Echinoderm', 'Palliative Care Nursing', 'Choroiditis', 'Transvaginal ultrasonography', 'Cavernous sinus', 'CD11c', 'Generic drug', 'Oval window', 'Population health', 'Multiorgan failure', 'Digital holographic microscopy', 'Sedative Effects', 'Melanin-concentrating hormone', 'CLN3', 'Cnidium', 'Motor speech', 'Progressive disease', 'Argasidae', 'Low cholesterol', 'Tibialis anterior muscle', 'Naltrexone', 'Uterine Neoplasm', 'Adhesive bandage', 'Thoracostomy', 'Mannan-binding lectin', 'Enzootic Bovine Leukosis', 'Temazepam', 'Anchoring fibrils', 'Neuroligin', 'Hand eczema', 'Adrenomedullin', 'Language and thought', 'Small tumours', 'Neurokinin B', 'Mycobacterium smegmatis', 'Smooth muscle cell differentiation', 'Allogeneic Lymphocyte', 'Acute respiratory disease', 'Optic chiasm', 'Cribriform', 'Breech delivery', 'Femoral Neoplasms', 'Asbestos cement', 'Inositol trisphosphate', 'Pyroptosis', 'Glomerulonephritis iga', 'Epileptic spasms', 'Nicotine patch', 'Drug packaging', 'Small finger', 'Connective tissue disease', 'Hypothermia', 'Triamcinolone hexacetonide', 'Skin physiology', 'Regulation of gene expression', 'Relative age effect', 'Oncofertility', 'Sigmoid colon', 'Neuropeptide Y receptor Y2', 'Log-logistic distribution', 'Gamma-glutamyltransferase', 'Misonidazole', 'Ion channel blocker', 'Abnormal ECG', 'Right to know', 'Coccidiostat', 'Glutathione reductase', 'Work Capacity Evaluation', 'Heart rate response', 'Neurophysiology', 'Biological network', 'Calcimimetic', 'Rocuronium Bromide', 'Lymphangiomatosis', 'Ligamentous laxity', 'Self-monitoring', 'Hypereosinophilic syndrome', 'Cytokeratin', 'FLACC scale', 'Paternal care', 'Skinning', 'Axillary lymph nodes', 'Troponin I', 'Fluid shift', 'Adefovir', 'Deep brain stimulation', 'Microwave ablation', 'Human genetics', 'Neuroanatomy of memory', 'Gastroepiploic Artery', 'Sudden cardiac arrest', 'Surgical clinics', 'Monocytosis', 'Neuropsychology', 'Prune belly syndrome', 'Dysexecutive syndrome', 'Injury mechanisms', 'Emotional eating', 'Syndrome of inappropriate antidiuretic hormone secretion', 'ADAM10', 'Stapes', 'Hydrostatic weighing', 'Heparinoid', 'Antivenom', 'Confocal scanning laser ophthalmoscopy', 'C-type lectin', 'Rheumatoid factor', 'Polyglutamate', 'Wound culture', 'Do not resuscitate', 'Platelet adhesiveness', 'Pancreas', 'Tumor Virus', 'Adapter molecule crk', 'GFAP stain', 'Brucella Vaccine', 'IgG4-related disease', 'Bone Marrow Stem Cell', 'Play therapy', 'Renal sympathetic denervation', 'Ordered logit', 'Secukinumab', 'Transoral laser microsurgery', 'Sensory neuron', 'Arteriolosclerosis', 'Pilocytic Astrocytomas', 'Breath test', 'Social model of disability', 'Delta-9-tetrahydrocannabinol', 'Electrical muscle stimulation', 'Cellular neuroscience', 'Pyloric Antrum', 'Hendra Virus', 'Peptic ulcer bleeding', 'Musculocutaneous Flaps', '5-HT2C receptor', 'Influenza-like illness', 'Test sensitivity', 'Organ dysfunction', 'Xanthelasma', 'Monosomy X', 'Opiate receptors', 'Influenza B viruses', 'Coturnix japonica', 'Right Common Carotid Artery', 'Right breast', 'Dexoxadrol', 'Alpha secretase', 'Criollo tobacco', 'Anaplastic thyroid cancer', 'Anabolic Agents', 'Self Referral', 'Gestation length', 'Uncaria gambir', 'Hepatic veins', 'SAIDS Vaccines', 'UGT2B7', 'Community of practice', 'Deep Inferior Epigastric Artery', 'Cyclin B1', 'Denosumab', 'Left internal mammary artery', 'Brain Contusion', 'Vascular Medicine', 'Dendritic spine', 'Cyclin H', 'Estrogen receptor binding', 'Epidemiologic Surveillance', 'Spontaneous ventilation', 'Advanced oxidation protein products', 'Body plan', 'Liolaemus', 'Stretch marks', 'Primary position', 'Frozen Section Diagnosis', 'Rasburicase', 'Infantile colic', 'Mastoparan', 'Concentric hypertrophy', 'Ulinastatin', 'Cystoscopy', 'Solitary tract nucleus', 'Ajmaline', 'Valsartan', 'Crista', 'Fall protection', 'Sleep onset latency', 'Electrolarynx', 'Available drugs', 'Pericardial sac', 'Glutamate carboxypeptidase II', 'Contrast enema', 'Language production', 'Panstrongylus geniculatus', 'Impression formation', 'Epidural space', 'Diffuse interstitial pulmonary fibrosis', 'Stress shielding', 'Methylmethacrylates', 'Nasal cavity', 'Follicular Cyst', 'Haematoxylin', 'Laryngoscopy', 'Anisotropy energy', 'Treatment of lung cancer', 'Endocardial disease', 'Salidroside', 'Drug carrier', 'Magnesium salts', 'Chemical toxicity', 'Germ plasm', 'Anterior teeth', 'Magnetic resonance neurography', 'Exemplar theory', 'Mycobacterium tuberculosis complex', 'Left internal carotid artery', 'GB virus C', 'Foreign-Body Migration', 'AIDS Epidemiology', 'Myokine', 'C2C12', 'Private club', 'Vaccinia', 'Herpes Labialis', 'Berenice', 'Acetophenone', 'TIMI', 'Wrist', 'Primary immune response', 'Tumor vaccines', 'Total care', 'Serum iron', 'Ferroxidase activity', 'Korean ginseng', 'Intravenous leiomyomatosis', 'Tenotomy', 'Complex posttraumatic stress disorder', 'Viral Myocarditis', 'Local bus', 'Anaplasma phagocytophilum', 'Victimisation', 'Infant bed', 'Nociceptin receptor', 'Mucin 2', 'Stress management', 'gamma-Aminobutyric acid', 'In vivo magnetic resonance spectroscopy', 'D2-like receptor', 'Pectoralis major muscle flap', 'Articular cavity', 'Bone Lengthening', 'College application', 'Keratin 17', 'Emergency nursing', 'Lifestyle management', 'Chest wall reconstruction', 'Low glucose', 'Colostomy', 'Orbital cellulitis', 'Ear tag', 'Thapsigargin', 'Maternal-fetal exchange', 'Paraldehyde', 'Dronedarone', 'Femur length', 'Cyclospora cayetanensis', 'Nondisjunction', 'Schistosoma Japonicum Infection', 'Nitric Oxide Synthase Type III', 'CHEK1', 'Dopamine agonist', 'ANILINE BLUE', 'P-glycoprotein', 'AP Biology', 'Addressin', 'Abnormal Liver Function Test', 'Chest tightness', 'Hindlimb Suspension', 'Primary ciliary dyskinesia', 'Triage', 'Salicylhydroxamic acid', 'Acute generalized exanthematous pustulosis', 'Infection rate', 'Type VII collagen', 'Sleep study', 'Tammar wallaby', 'Tonsillitis', 'Skin substitutes', 'Denervation supersensitivity', 'Retinal ischemia', 'Lipofectamine', 'Ventricular Tachyarrhythmias', 'Recurrent infections', 'Translabyrinthine approach', 'Percutaneous endoscopic gastrostomy', 'Bacteriophage', 'Kowsar', 'Gingival and periodontal pocket', 'Hexamethonium', 'Carpal tunnel', 'Audiometer', 'Coronary heart diseases', 'Bladder volume', 'Anaplasmosis', 'Mentorship', 'Melancholia', 'Legalization', 'Ovarian Cortex', 'Active immunotherapy', 'MutS-1', 'Giardia intestinalis', 'Observational methods in psychology', 'Knowledge transfer', 'One Hundred Fifty', 'Posterior commissure', 'Spermatic Cord Torsion', 'CINAHL', 'Ranitidine Hydrochloride', 'Iliac Aneurysm', 'Chemical ligation', 'Presumptive diagnosis', 'Brain weight', 'Esophageal Disorder', 'Bassinet', 'Acetaldehyde', 'Blood volume', 'Silicon photomultiplier', 'Proto-Oncogene Proteins c-myc', 'Iliac crest', 'Left brachiocephalic vein', 'Seborrhoea', 'Membrane channel', 'Lone atrial fibrillation', 'Biliary dyskinesia', 'Protein Z', 'Occlusive dressing', 'Interleukin 31', 'Pulmonary shunt', 'Cellular Debris', 'Hypoplasia', 'Ossification center', 'TGF alpha', 'Waterborne diseases', 'Vitiligo', 'Computed radiography', 'Perineum', 'Systole', 'Glucagon-like peptide-1', 'Memory B cell', 'Troponin complex', 'Anabolism', 'Pemphigus foliaceus', 'Oculomotor nerve palsy', 'Posterior Semicircular Canal', 'Orthodromic', 'Cardiac infarction', 'Salmonella Food Poisoning', 'Rosacea', 'Dental floss', 'Transabdominal approach', 'Electrical brain stimulation', 'Collagenase clostridium histolyticum', 'Embryonated', 'Cancer pain', 'Nerve conduction study', 'Dentin sialophosphoprotein', 'Thyroid tumors', 'Bradykinin B2 Receptor', 'Brain stimulators', 'Blood coagulation factors', 'Cassia-bark', 'Yohimbine', 'Chondromalacia', 'Recipient site', 'Expiratory Time', 'Norwalk virus', 'Visual short-term memory', 'Traction belt', 'Thromboxane B2', 'Enteric coating', 'MutS Homolog 2 Protein', 'Palliative Therapy', 'Avian Influenza A Virus', 'Manifest Anxiety Scale', 'Organ Motion', 'Acanthosis', 'Paradoxical reaction', 'Bleomycin A2', 'Rubeosis iridis', 'Dyscrasia', 'Telomere Homeostasis', 'Tropomyosin receptor kinase C', 'Coronary thrombosis', 'Flexor Carpi Ulnaris', 'Triplet Pregnancy', 'Thiomorpholine', 'Retinal pigments', 'Superior mesenteric artery', 'Opium alkaloids', 'Transition Care', 'Pathology Report', 'Disease mortality', 'Periodontal Membrane', 'Offspring', 'Historical Cohort', 'Infant Care', 'Cardioembolic stroke', 'Bronchodilation', 'Swine Erysipelas', 'Human granulocytic anaplasmosis', 'Coronary flow reserve', 'Callitrichidae', 'Dysfunctional uterine bleeding', 'Hyrax', 'Cervical canal', 'High-output heart failure', 'Sexual coercion', 'Odontoma', 'Proteolipid protein 1', 'Nerve growth factor production', 'Oral temperature', 'Social anxiety', 'Scatchard plot', 'Medial part', 'Geriatric Depression Scale', 'Control banding', 'Wheat allergy', 'Fast track', 'Oral habits', '3 Tesla Magnetic Resonance Imaging', 'Scleral buckling', 'Metabolic clearance rate', 'Fistulectomy', 'External carotid artery', 'Moderate depression', 'Left coronary artery', 'Canine parvovirus infection', 'Dietary Cholesterol', 'Adenovirus infection', 'Hard Capsule', 'Ventricular tachyarrhythmia', 'Chikungunya', 'Fluorocarbon', 'Pulmonary contusion', 'Mesothelin', 'Amygdalin', 'Primary tumor', 'Cervical lymphadenopathy', 'Reproductive medicine', 'Oral thrush', 'Multiple Sleep Latency Test', 'Trichostrongyloidea', 'Dental Assistant', 'Sex Determination Analysis', 'Anal verge', 'Postoperative hematoma', 'Vagus nerve stimulation', 'Emotional dysregulation', 'Thyroxine-binding proteins', 'Patient Care Delivery', 'Muscle injury', 'Free flap breast reconstruction', 'Ovarian Granulosa Cell Tumor', 'Ependyma', 'Dose-Limiting', 'Cardiac fibrosis', 'Batch distillation', 'Bronchiolitis', 'Nurse staff', 'Prolapse repair', 'Clonal deletion', 'Cognitive deterioration', 'Patch dynamics', 'Tumor Escape', 'Melanopsin', 'Psychotic illness', 'Head and neck cancer', 'Dialysis catheter', 'Orthopaedic nursing', 'Herniated disk', 'Hypofibrinogenemia', 'Genistin', 'Specialist palliative care', 'Early childhood caries', 'Unicystic Ameloblastoma', 'Vigabatrine', 'Stiff neck', 'Dorsal raphe nucleus', 'Blocking antibody', 'Child Well-Being', 'Granuloma annulare', 'Contraceptive Availability', 'Tension headache', 'Metoclopramide', 'Left Testis', 'Immunoglobulin Fc', 'Disease surveillance', 'Immunological Factors', 'Physiologically based pharmacokinetic modelling', 'Synaptotagmin 1', 'Biopharmaceutical', 'Cyclophilin A', 'Leukotriene B4 receptor', 'Multiple tumors', 'Physis', 'Myoepithelioma', 'Acute rheumatic carditis', 'Brachial Plexopathy', 'Aneurysm rupture', 'Cystic hygroma', 'Gulf War syndrome', 'Breathing gas', 'Angiopoietin-1', 'Varicella zoster virus', 'Brachial artery', 'Pulmonary vein', 'HLA-A', 'Adjuvant Trials', 'Pyomyositis', 'Bipedalism', 'FODMAP', 'Fournier gangrene', 'Rotavirus vaccine', 'Asthma', 'Pituitary gland', 'Chronic ankle instability', 'Refractory heart failure', 'Internal thoracic artery', 'Radiology report', 'Blood-brain barrier disruption', 'Turbinectomy', 'Blood-oxygen-level dependent', 'Suspensor', 'Iliana', 'Drug delivery to the brain', 'Paroxysmal nocturnal hemoglobinuria', 'Chronic Kidney Diseases', 'Integrative bioinformatics', 'Tetanus', 'Rifamycin SV', 'Octreotide', 'Cresyl violet', 'Cellular Ageing', 'CYP1B1', 'Bronchoscopies', 'Nitric oxide synthase', 'Pembrolizumab', 'Parotid tumors', 'Psychiatric epidemiology', 'Introducer sheath', 'Precocious puberty', 'Credentialing', 'Tibia Fracture', 'TF binding', 'Umbilical hernia', 'Postural tremor', 'Peripherally-inserted central venous catheter', 'Toxic megacolon', 'Simvastatin', 'Dinitrofluorobenzene', 'Human biology', 'Prefilled Syringe', 'Carotid endarterectomy', 'Social control theory', 'Perfectly matched layer', 'Anesthesia Recovery Period', 'Muscular tension', 'Whole liver', 'Blood Bactericidal Activity', 'Diencephalon', 'Fexofenadine', 'Pseudolymphoma', 'Cysticercosis', 'B-Cell Epitopes', 'Spirituality', 'Menstrual period', 'Aggressive angiomyxoma', 'Biceps brachii muscle', 'Knee joint stability', 'Idelalisib', 'Tick infestation', 'Cardiac pacemaker', 'Rostral migratory stream', 'Epidermodysplasia verruciformis', 'Downward displacement', 'Perilla frutescens', 'Implantation procedure', 'Biopanning', 'Postural drainage', 'Periplaneta', 'Ganglioglioma', 'Galantamine', 'Mycobacterium ulcerans', 'Diet and obesity', 'Epithelial tissue', 'Chemical space', 'Keratin 8', 'Isodesmosine', 'Theta model', 'Africana studies', 'A</t>
+          <t>['Technostress', 'Superior vena cava syndrome', 'Head injury', 'Lenalidomide', 'Lobar lung transplantation', 'Cutaneous Vasculitis', 'Diabetes status', 'Haemaphysalis longicornis', 'Autoimmune encephalitis', 'Parasite Egg Count', 'Histamine N-methyltransferase', 'Intraventricular conduction delay', 'Crash', 'Turbinates', 'Mucocutaneous zone', 'Posterior pituitary', 'Blastomere', 'Dietary Copper', 'Allergic inflammation', 'Antibiotic Stewardship', 'Complex partial seizures', 'Platelet factor 4', 'Sacrococcygeal teratoma', 'Stem cell theory of aging', 'Acetaminophen', 'Neural Pathway', 'Biofortification', 'Ketotifen', 'Myocardial necrosis', 'Catheter hub', 'GLUT4', 'Metabolic acidosis', 'Managed care', 'Posterior interosseous nerve', 'Glycogen storage disease type V', 'Renin inhibitor', 'HLA-A', 'Vascular remodelling in the embryo', 'Coronary artery calcium score', 'Adolescent Obesity', 'Fetal viability', 'Cervical spondylopathy', 'Event-related potential', 'Carrier testing', 'Smoke inhalation', 'Frontal eye fields', 'Zotarolimus', 'Cowden syndrome', 'Tangerine Peel', 'Chronotype', 'Sperm bank', 'Mental deterioration', 'Microinjections', 'Mixed logit', 'KEGG', 'Extracorporeal cardiopulmonary resuscitation', 'Rutter', 'Ichthyosis vulgaris', 'Voltage clamp', 'Oligohydramnios', 'Synthetic vaccine', 'Metabolic pathway', 'Pulmonary fat embolism', 'Nephelometry', 'Benzoylecgonine', 'Pyrilamine', 'Atosiban', 'Polyethylene glycol', 'Visual memory', 'Rouleaux', 'BK virus', 'Trauma ICU', 'Echoencephalography', 'NFATC Transcription Factors', 'Tyrosine-kinase inhibitor', 'Corticosteroid use', 'German cockroach', 'Gait training', 'Raw milk', 'Tension-Type Headaches', 'Cutaneous Mastocytosis', 'Half-logistic distribution', 'Tubular proteinuria', 'Joint replacement', 'Video-Assisted Surgery', 'Clomifene', 'Logistic regression', 'Chromatophore', 'Tosylmethyl isocyanide', 'Arthrotomy', 'Paragonimus', 'Terror management theory', 'Alligator', 'Perineural invasion', 'Pediatric hematology', 'Nasopharyngeal airway', 'Carpometacarpal joint', 'Middle East respiratory syndrome coronavirus', 'Monocytosis', 'Family medicine', 'Melorheostosis', 'ADAMTS4', 'Nizatidine', 'Epigenetics of physical exercise', 'Airways disease', 'Puerarin', 'Hemilaryngectomy', 'Trematoda', 'Lipid-lowering therapy', 'Gastropexy', 'International Classification of Headache Disorders', 'Parapneumonic effusion', 'Cisplatin', 'Glycosaminoglycan', 'Prostate-specific antigen', 'Mental image', 'Prostaglandin E1', 'Lower anterior', 'Thiopental Sodium', 'Microglia', 'Pronephros', 'Spinal fracture', 'Adenitis', "Valsalva's maneuver", 'Lung volumes', 'Military psychiatry', 'Flumazenil', 'Myotoxin', 'Arthropod mouthparts', 'Mesylate', 'Lateral reticular nucleus', 'External fixation', 'Ginsenoside Rg1', 'Interstitial nephritis', 'Dinitrophenyl', 'Vena cava filters', 'Eustachian tube', 'Functional Brain Imaging', 'Dichlorodifluoromethane', 'Mohs surgery', 'Postsynaptic density', 'RPTOR', 'Working memory training', 'Depersonalization', 'Viral tegument', 'Pancreatic stellate cell', 'Autosomal dominant polycystic kidney disease', 'Negative priming', 'Health care', 'Cordotomy', 'Serial passage', 'Distal third', 'Type three secretion system', 'Dexamethasone suppression test', 'Uveal Neoplasm', 'Point of care', 'Small interfering RNA', 'Fetal hemoglobin', 'Dihydrotestosterone', 'Cytoplasmic antibody', 'Tumor necrosis factor receptor 1', 'Common peroneal nerve', 'Divergent thinking', 'Rauwolscine', 'Molecular Profile', 'Nephrin', 'Krabbe disease', 'Factor VIIa', 'Perioperative care', 'Stapes surgery', 'Neuromuscular disease', 'Spondylolysis', 'Medical emergency', 'X-ray treatment', 'Fluorodeoxyglucose PET', 'Palsy', 'Assay', 'Surgical extraction', 'Hypromellose', 'CHLAMYDIAL INFECTIONS', 'Interpenetrating polymer network', 'Optical radiation', 'Pharyngeal flap', 'Synaptic augmentation', 'Horizontal diameter', 'Differentially methylated regions', 'Heart rate monitor', 'Neurokinin A', 'Papio anubis', 'Selective laser trabeculoplasty', 'Social information processing', 'Scintigraphy', 'EGFR Gene Mutation', 'Community practice', 'Pcp prophylaxis', 'Visual reasoning', 'Behavioral addiction', 'Nadroparin', 'Pentamidine', 'Parental anxiety', 'Yolk sac', 'Asthma attack', 'Trimetrexate', 'Sotalol', 'Meconium', 'Cardiovascular malformations', 'Pulse Wave Analysis', 'Retinol binding protein', 'Streptamer', 'Ephedrine hydrochloride', 'Sodium channel', 'Exogenous bacteria', 'Unconscious thought theory', 'Multisystemic therapy', 'Oxazepam', 'DNA Mutational Analysis', 'Prasugrel', 'Datura stramonium', 'Eptifibatide', 'Malar rash', 'Kisspeptin', 'Acanthamoeba keratitis', 'Physical therapy', 'Wolfberries', 'Isocenter', 'Oral thrush', 'Calcium Oxalate Crystals', 'Neurasthenia', 'Laryngospasm', 'Continuous passive motion', 'Magnetic resonance spectroscopic imaging', 'Thymic Tissue', 'International Standards on Auditing', 'Janus kinase', 'Eculizumab', 'Intracavernous injection', 'Suburethral Sling', 'Embryo', 'Calmodulin-binding proteins', 'Endogeny', 'Intranuclear Inclusions', 'Mean circulatory filling pressure', 'Kangaroo-Mother Care Method', 'Right-Sided', 'Tremolite', 'Torpor', 'Intraocular Pressure Rise', 'Searching the conformational space for docking', 'Serum lipid levels', 'Peptide library', 'Spinal decompression', 'Cam', 'Venous Obstruction', 'Apelin', 'Hemoperfusion', 'Cerebrospinal meningitis', 'Small intestinal mucosa', 'Induced Hypotension', 'Vitellogenesis', 'Complement component 5a', 'Insular cortex', 'Ovarian Endometriosis', 'Somatostatin receptor 2', 'Hepatic portal vein', 'Vascular structure', 'Typhus', 'Liver Lobe', 'Deoxycoformycin', 'Nornicotine', 'Atrioventricular canal', 'Ethinylestradiol', 'Auditory nuclei', 'Cartilage degeneration', 'Fluoroscopy', 'Deferasirox', 'Skin hypersensitivity', 'Frontal sinus', 'Arylsulfatase B', 'Financing cost', 'Infection control', 'Historical trauma', 'Basal metabolic rate', 'Periareolar', 'Dendropanax morbifera', 'Sialorrhea', 'Brachial plexus', 'Antibiotic combinations', 'Chancroid', 'Anticoagulant Agent', 'Job-exposure matrix', 'Fibrosis', 'Blood protein disorder', 'Mental well-being', 'Bilobectomy', 'Multiparametric MRI', 'Delivery point', 'Extractable nuclear antigens', 'EDTMP', 'Transmembrane protein', 'Substance abuse prevention', 'Osmoregulation', 'Esthesioneuroblastoma', 'Fosfomycin', 'Hamstring muscles', 'Postpartum haemorrhage', 'Methylenetetrahydrofolate reductase', 'N-Myc Proto-Oncogene Protein', 'Hematocrit', 'Associate degree - Nursing', 'Cohort study', 'Electric stimulation therapy', 'Fascial flap', 'Systematic review', 'Menhaden', 'Fulvestrant', 'Minor histocompatibility antigen', 'Arterial trunk', 'Hepatorenal syndrome', 'Metabotropic glutamate receptor 8', 'Hairy cell leukemia', 'Route of administration', 'CD49b', 'Intermittent pneumatic compression', 'Zinc Transporter 8', 'Annual physical examination', 'Soft tissue injury', 'Spine injury', 'Blinding', 'Parathyroid chief cell', 'Antirheumatic drugs', 'Canthus', 'Adrenal insufficiency', 'Hollow viscus', 'Neutrophil gelatinase-associated lipocalin', 'Dental malocclusion', 'Rheumatic Heart Diseases', 'Estriol', 'Langhans giant cell', 'Excitatory postsynaptic potential', 'Anaplastic Lymphoma Kinase Positive', 'Veterinary surgery', 'Xenodiagnosis', 'Antiseptic Agent', 'Small teeth', 'Auer rod', 'Hypothenar eminence', 'Microcirculation', 'Pleurectomy', 'Insulin-like growth factor', 'Programming language', 'Public hospital', 'IgM Monoclonal Gammopathy', 'Biological therapies', "Mirizzi's syndrome", 'Pro-Brain Natriuretic Peptide', 'Stage I Non-Small Cell Lung Cancer', 'DNA replication factor CDT1', 'Suspensory ligament', 'Adenosine A2B receptor', 'HDAC4', 'Laryngeal Stenosis', 'Androstenedione', 'Hyoscyamine', 'Brachytherapy', 'Coomassie Brilliant Blue', 'Ganglionic blocking agent', 'Bare-metal stent', 'Intellectual impairment', 'Sonodynamic therapy', 'Hematinic', 'Phlebovirus', 'Dyscrasia', 'Cockroach', 'Catalepsy', 'Hypoxic hypoxia', 'Sobriety', 'Prostaglandin-Endoperoxide Synthases', 'Tympanic Membrane Perforation', 'Lobar pneumonia', 'UV Radiation Exposure', 'Single patch', 'Urethral pressure', 'CA15-3', 'Urinary obstruction', 'Fissipedia', 'Trimethylene glycol', 'Biological target', 'Porphobilinogen', 'Ultrasound Radiation', 'Bone biopsy', 'Live donor', 'Nicotine Addiction', 'Ascidiacea', 'Dehydroepiandrosterone', 'Femoral neck', 'Unintentional injury', 'Pneumococcal Diseases', 'KcsA potassium channel', 'Diagnosis code', 'Bone cancer', 'Glycogen phosphorylase', 'Immunologic Factors', 'Stent', 'Anemarrhena asphodeloides', 'Premenstrual dysphoric disorder', 'Testicular Germ Cell Tumor', 'Carlavirus', 'Familial predisposition', 'Gastroenterology', 'Licensure', 'Industrial wastewater treatment', 'Electrical conduction system of the heart', 'Myxofibrosarcoma', 'Tetrafluoromethane', 'Pancreatic duct', 'Military nursing', 'N-3 fatty acids', 'Estrogen receptor beta', 'Saltatory conduction', 'Dematiaceous', 'Spironolactone', 'Tongue movement', 'Metastasis Gene', 'Cleanser', 'Pentose phosphate pathway', 'Protoplasm', 'Spirochaetales', 'Sleep apnea syndromes', 'Vagotomy', 'Gelatinase B', 'Leukostasis', 'Ionotropic glutamate receptor', 'Sudden sensorineural hearing loss', 'Panendoscopy', 'Left Testis', 'American tobacco', 'Anatomical pathology', 'Circadian rhythm', 'Dens invaginatus', 'Atheroma', 'Nutritionist', 'Temporal lobe', 'Dentin Sensitivity', 'Selenoprotein S', 'Uveitis', 'Recurrent infections', 'Cineradiography', 'Diffuse axonal injury', 'Ear tag', 'Base excess', 'Plasmodium vivax infection', 'Mechanotherapy', 'Sperm', 'Tissue Preservation', 'Molecular virology', 'ATP-sensitive potassium channel', '5-HTTLPR', 'Laryngeal Obstruction', 'Myometrium', 'Cyanovirin-N', 'Cord blood', 'Etoricoxib', 'Sympathetic ganglion', 'Follicular carcinoma', 'Creutzfeldt-Jakob Syndrome', 'Sebum secretion', 'Sympathomimetic Amines', 'Acoustic rhinometry', 'Sugar phosphates', 'Thiouracil', 'Pierre Robin syndrome', 'Adrenergic beta-Agonists', 'Optical instrument', 'Chromophobe cell', 'Stepwise regression', 'Zusanli', 'Famotidine', 'Involuntary movements', 'General Fatigue', 'Chondroitin sulphate', 'Disease Presentation', 'First aid', 'Resection margin', 'Urodynamic testing', 'Meta-analysis', 'Dental floss', 'Sleep paralysis', 'Anterior Eye Segment', 'Sodium pentobarbital', 'Prescription costs', 'Visual symptoms', 'Heat Stress Disorders', 'Vascular smooth muscle', 'Measles vaccine', 'Platelet Engraftment', 'Fat emulsions', 'Pes cavus', 'Cochlear function', 'Lacerta', 'Varicella zoster virus', 'Scatchard plot', 'Carcinosis', 'Vasoconstriction', 'Terminalia', 'Platelet Membrane Glycoprotein IIb', 'Pectus excavatum', 'Pancreatic pseudocyst', 'Nasal decongestant', 'Spore coat', 'Mandibular molar', 'Cognitive disorder', 'Vaginal canal', 'Chronic hepatitis E', 'Natural history of disease', 'Nickel allergy', 'Cold urticaria', 'Enterochromaffin cell', 'Sedation', 'Health human resources', 'Open Resection', 'Neurogenetics', 'Pharmacologic therapy', 'Juxtaglomerular apparatus', 'Sleep medicine', 'Compound heterozygosity', 'External parasites', 'Alpha 1-antitrypsin deficiency', 'Positional vertigo', 'Mutation', 'Dactylitis', 'Perineal pain', 'Thyrotropin receptor', 'Limb amputation', 'Lymphocytic lymphoma', 'Ullrich congenital muscular dystrophy', 'Catharanthine', 'Multiple Sleep Latency Test', 'Body weight', 'Ferrous Fumarate', 'Wechsler Preschool and Primary Scale of Intelligence', 'Rotavirus vaccine', 'Protein antigen', 'Need treatment', 'S100 protein', 'Medical model', 'Radial immunodiffusion', 'Air embolism', 'Fuchs Endothelial Dystrophy', 'Anopheles stephensi', 'Surfactant therapy', 'Septum secundum', 'Galanin receptor', 'Recessive dystrophic epidermolysis bullosa', 'Waist', 'Prophylactic Surgery', 'Cardiopulmonary resuscitation', 'Foetal death', 'Smoke-Free Policy', 'Telemedicine', 'Depurination', 'Social cognitive theory', 'Psychoeducation', 'Interleukin 1B', 'Hypoxic pulmonary vasoconstriction', 'Malnutrition', 'Hospital pharmacy', 'High-functioning autism', 'Visual changes', 'Antibody-Producing Cells', 'Vaginal speculum', 'Ataxin', 'BK Virus Infection', 'Paneth cell', 'Forebrain', 'Conduct disorder', 'Planarian', 'Granulosa cell', 'Immunoglobulin M', 'Cobalamin', 'Heart bypass', 'Giant cell', 'Thyroid storm', 'Early Cancer Detection', 'GASTRIC CARDIA', 'Nephritic syndrome', 'Thymectomy', 'Keratoconjunctivitis', 'Sympatholytics', 'Selenoprotein', 'Interleukin 12', 'NADPH oxidation', 'Angiotensin Receptor Antagonists', 'Sleep onset latency', 'Singleton', 'Trabectedin', 'Janani Suraksha Yojana', 'Mycobacterium paratuberculosis', 'Sneeze', 'Debiasing', 'Multifunction cardiogram', 'Apolipoprotein D', 'Sudan Black B', 'Medical model of disability', 'Resveratrol', 'Myxedema', 'Pulse Wave Transit Time', 'Doppler device', 'Precordium', 'Cervical dilation', 'Centella', 'Extra-Adrenal', 'Disease', 'Apicoectomy', 'Health geography', 'Protective factor', 'Teleconnection', 'Spatial ability', 'Myocardial contusion', 'Chronic skin disease', 'Overactive bladder', 'Mastopexy', 'Supraspinatus muscle', 'Prolotherapy', 'Exploratory behaviour', 'Calcifediol', 'Temporalis muscle flap', 'Uncaria tomentosa', 'Motor Endplate', 'Soluble Tumor Necrosis Factor Receptor', 'TUMOUR DETECTION', 'Pseudomonadales', 'Violent behaviour', 'Alloxan', 'Gluten intolerance', 'Acidulated Phosphate Fluoride', 'Disenfranchised grief', 'Monoarthritis', 'MF59', 'Surgical Intensive Care', 'Antigen-antibody reactions', 'Glycoprotein', 'Helicobacter pylori', 'Neutrophil to lymphocyte ratio', 'Computation of cyclic redundancy checks', 'Phosphodiesterase 2', 'Asian Indian', 'Paget Disease', 'Median Line', 'Ovarian artery', 'Annelid', 'Copper acetoarsenite', 'Target peptide', 'Methyl isocyanide', 'Leptin receptor', 'Bile duct', 'Gastrin-releasing peptide', 'Sulcus', 'Unresected', 'Fluphenazine', 'Hydrocortisone', 'Shoulder injury', 'Prion Proteins', 'Inhibitor protein', 'Renal clear cell carcinoma', 'Neuromuscular Nondepolarizing Agents', 'Calcar', 'Steroid hormone', 'Sitagliptin', 'Drug court', 'Tissue Banking', 'Development communication', 'Umbilical Cord Blood Transplantation', 'Descemet Stripping Endothelial Keratoplasty', 'Main Bronchus', 'Frataxin', 'Pediatric nuclear medicine', 'Acral lentiginous melanoma', 'Pelvic exenteration', 'Aggregatibacter actinomycetemcomitans', 'Fenofibrate', 'Extended amygdala', 'Factor VII', 'Androsterone', 'Salvage therapy', 'Capsulitis', 'Burning mouth syndrome', 'Sinoatrial node', 'Mucopolysaccharidosis type I', 'Left ventricular dilatation', 'Ultrasonography', 'Antithrombotic', 'Sitting height', 'Radiculopathies', 'Malignant histiocytosis', 'Toothpick', 'Toponymy', 'Well child', 'Breast cancer', 'Nitrofen', 'Bovine leukosis', 'Carbachol', 'Mirizzi Syndrome', 'Chronic wasting disease', 'Abusive relationship', 'Oropharyngeal Carcinoma', 'Malas', 'NOPAT', 'Nervous system', 'Crankcase ventilation system', 'Tunica', 'Prophylactic cranial irradiation', 'Syntaxin', 'Carbidopa', 'Ventilation mode', 'Drug class', 'Resistin', 'Precision Medicine Initiative', 'Donation', 'Perianal Abscess', 'Liver cytology', 'Free nerve ending', 'Physical dependence', 'Eye Movement Desensitization Reprocessing', 'Elephant trunks', 'Kanamycin B', 'Dermoepidermal junction', 'Cathartic', 'Activated clotting time', 'Illegal drug use', 'Survey of Health, Ageing and Retirement in Europe', 'Alpha ketoglutarate', 'PROTEIN KINASE D', 'Lafora disease', 'Bacopa monnieri', 'Ceramidase', 'Pathology Report', 'Social marketing', 'Tympanostomy tube', 'Pseudoexfoliation', 'Reflex arc', 'Ketorolac', 'Steroid 11-beta-hydroxylase', 'HLA-DR', 'Sarcomere', 'Upper limb', 'Stretch marks', 'Abdominal distension', 'IGFBP3', 'Child abandonment', 'Prenatal development', 'Accessory spleen', 'Lateral femoral condyle', 'Bone Infection', 'Watchful waiting', 'Systematic desensitization', 'Putative gene', 'Diphosphenes', 'Syndactyly', 'Irritation', 'Contagious Diseases Acts', 'Vitallium', 'Abdominoperineal resection', 'Nursing research', 'Vulvitis', 'Chronic disorders', 'Benign Essential Hypertension', 'Flip', 'GABA receptor antagonist', 'Galanin receptor 1', 'Standing Positions', 'T cell', 'Tamoxifen', 'Ionophore', 'Trans fat', 'Parasite hosting', 'Disgerminoma', 'Cordectomy', 'Pure gonadal dysgenesis', 'Fluid extract', 'Cross-sectional imaging', 'Phytanic acid', 'Premorbidity', 'Peripheral Nerve Sheath Tumors', 'QTC PROLONGATION', 'Metabotropic glutamate receptor 6', 'Transvenous pacing', 'Trypanosoma rhodesiense', 'Ketone bodies', 'Organic anion transporter 1', 'Gestation', 'Patient satisfaction', 'Sleep spindle', 'Inguinal ligament', 'Expanded access', 'SH3 domain', 'Video modeling', 'Pannus', 'Aryldialkylphosphatase', 'Central compartment', 'Telehealth', 'Gravid uterus', 'Physical examination', 'Chemical synthesis', 'Transepidermal water loss', 'Integumentary system', 'Pulmonary fibrosis', 'Estrogen binding', 'Mitral valvuloplasty', 'Right Renal Artery', 'Oswestry Disability Index', 'Sexual coercion', 'Biliary Intraepithelial Neoplasia', 'Acoustic Startle Reflex', 'Immunotoxicology', 'Venule', 'Legislation as Topic', 'Polycyclic aromatic hydrocarbon', 'Interleukin 18', 'Fructolysis', 'Commissure', 'Acquired immunodeficiency syndrome (AIDS)', 'In vivo magnetic resonance spectroscopy', 'Membranoproliferative glomerulonephritis', 'Underrepresented Minority', 'Macular telangiectasia', 'Plantar surface', 'Bipedalism', 'Patient-centered care', 'Multiple endocrine neoplasia type 2b', 'Impacted tooth', 'California Verbal Learning Test', 'Uterine horns', 'Melarsoprol', 'Diphosphorus', 'Work Schedule Tolerance', 'Betamethasone valerate', 'Energy charge', 'Spontaneous alternation', 'Drug overdoses', 'Hemosorption', 'Translational medicine', '2-Methoxyestradiol', 'Exome', 'Ross River virus', 'Type I interferon production', 'Dysgenesis', 'Recurrent acute', 'Radiologic examination', 'Leukotriene B', 'Goldenhar syndrome', 'Cardiovascular Physiological Phenomena', 'Felbamate', 'Therapeutic approach', 'Functional magnetic resonance spectroscopy of the brain', 'Rupture of membranes', 'Atrial action potential', 'Phage therapy', 'Bleeding time', 'Cryoglobulinemia', 'Nitisinone', 'Repaglinide', 'Popliteal fossa', 'Basolateral amygdala', 'Hydroureter', 'PPADS', 'Traction power network', 'Nervous tissue', 'Hyperacusis', 'Glycogen storage disease type I', 'Sirius Red', 'Hypospadias repair', 'Thrombogenicity', 'Job strain', 'Reproductive toxicity', 'Aedes', 'Generally recognized as safe', 'Carotid angiography', 'Rapid plasma reagin', 'Pulmonary Diffusing Capacity', 'Ascending colon', 'Factor V Leiden', 'Sleep hygiene', 'Methadone', 'Proximal phalanx', 'Teratozoospermia', 'BETA THALASSEMIA MAJOR', 'TRIPS Agreement', 'Isoamyl nitrite', 'Drug-drug interaction', 'Vascular access', 'Barbel', 'Menotropins', 'Skin flora', 'Cilnidipine', 'Hair disease', 'Ursodeoxycholic acid', 'Erythromelalgia', 'Interstitial keratitis', 'Medical writing', 'Protoporphyrin IX', 'Chlamydia', 'Parental monitoring', 'Regorafenib', 'PROTHROMBIN COMPLEX', 'Traditional Korean medicine', 'Surgical Gloves', 'Macular edema', 'Drug marketing', 'Esophageal Fistula', 'Initial sample', 'Metacarpal bones', 'Ponatinib', 'Every Six Months', 'Foot surgery', 'Type I collagen', 'Intravenous sedation', 'Harem', 'Ectopia lentis', 'Left ventricular thrombus', 'Climacteric', 'Platelet Distribution Width', 'Moniezia', 'Psychological dependence', 'Brain atlas', 'Cyclic guanosine monophosphate', 'Hemoglobin E', 'Biopanning', 'Iliac Aneurysm', 'Pseudotyping', 'Grey matter', 'Intervention mapping', 'Phosphofructokinase', '5-Hydroxytryptophan', 'Colorectal anastomosis', 'Culture conversion', 'Hypertensive retinopathy', 'Endovascular interventions', 'Adult growth hormone deficiency', 'Axon terminal', 'Premotor cortex', 'K-complex', 'Helicobacter pylori infection', 'Nervous system disease', 'Cell Cycle Kinetics', 'Eosinophilic pneumonia', 'Maladaptation', 'Legalization', 'n-back', 'Dyskeratosis', 'Myelin', 'Yankee', 'Rejuvenation', 'Carriage return', 'Myofascial trigger point', 'Three dimensional conformal radiotherapy', 'Capillary Leak Syndrome', 'Cough reflex', 'Negative stain', 'Vibration disease', 'Rectum', 'Craniofacial abnormality', 'Hearing disability', 'Coronary thrombosis', 'Pre-Registration', 'Protein losing enteropathy', 'Magnetoresistance', 'Right Lateral Decubitus Position', 'Retroperitoneal space', 'Partial Hydatidiform Mole', 'Cervical approach', 'Repeat Surgery', 'Propionic acidemia', 'Framework region', 'Eye movement', 'Standardized rate', 'Venous Plasma', 'Palmitoylethanolamide', 'Impulse Oscillometry', 'Vestibular nystagmus', 'International Prognostic Scoring System', 'Prototheca', 'Spin wave', 'Epenthesis', 'Alpha-1 blocker', 'Efavirenz', 'Allelic exclusion', 'Pancreatic injury', 'Glutamate binding', 'Childhood schizophrenia', 'Chest circumference', 'Right lower lobe', 'Health risk assessment', 'Lipoxin', 'Endometrial hyperplasia', 'Wearable cardioverter defibrillator', 'NF-kappa B p50 Subunit', 'Weight lifting', 'Fanconi syndrome', 'Entry into host', 'Pancreatic polypeptide', 'Ectopic pancreas', 'Anal canal', 'X-ray microscope', 'Sigmoid volvulus', 'Flagging', 'Wearable computer', 'Rhabdoviridae', 'Piperine', 'Resummation', 'Penumbra', 'Kanger', 'Neuroligin', 'Coupling reaction', 'Dental technician', 'Pediatric unit', 'Dengue shock syndrome', 'Sick role', 'Increased hdl', 'Narcotic drugs', 'Chemoimmunotherapy', 'Forensic autopsy', 'Angiotensin II receptor antagonist', 'Ossification center', 'Homicide', 'Clivus', 'Thyroid lymphoma', 'Giving Up Smoking', 'Endothelin B receptor', 'Convalescence', 'Cardiac Valves', 'PDGFB', 'Forty Nine', 'Metrizamide', 'Chloroethane', 'Optic canal', 'Pituitary-Adrenal Function Tests', 'Nipple discharge', 'Eicosapentaenoic acid', 'True Precocious Puberty', 'Comedo', 'Ventral hernia repair', 'History of depression', 'Suicide mortality', 'Intraocular fluid', 'Bioastronautics', 'Viral phylodynamics', 'Chronic gastritis', 'Leishmania tropica', 'Syphilis serology', 'Tissue plasminogen activator', 'Anaerobic exercise', 'Digital radiography', 'Disease burden', 'Organ transplantation', 'Trichinella', 'Physical abuse', 'Ractopamine', 'Eosinophil peroxidase', 'Mitral valve prolapse', 'Medical anthropology', 'Vicryl', 'Concentric hypertrophy', 'Hepatitis B virus HBV', 'Microphthalmia-associated transcription factor', 'Respiratory burst', 'Retinaldehyde', 'Relationship education', 'Sotos syndrome', 'Pharyngeal groove', 'Porencephaly', 'Secondary somatosensory cortex', 'Lovastatin', 'ESAT-6', 'Pediatric gastroenterology', 'Methylmalonic acid', 'Mental condition', 'Local Reaction', 'Cerebral amyloid angiopathy', 'Pneumoencephalography', 'Fetal surgery', 'Tay-Sachs disease', 'Child Nutritional Physiological Phenomena', 'Herpes simplex virus DNA', 'Righting reflex', 'Extracorporeal shock wave lithotripsy', 'Esophageal Obstruction', 'Tumor antigen', 'Acoustic radiation force', 'Ultrasound elastography', 'Blood Glucose Self-Monitoring', 'Viral Myocarditis', 'Nanocarriers', 'Ambulatory', 'Vestibular nerve', 'Social epidemiology', 'Primary spontaneous pneumothorax', 'Primary Fibrosarcoma', 'Discoidin domain', 'Antiemetic', 'Parasternal line', 'microRNA', 'Trypanosoma vivax', 'Angiomatosis', 'Pathology diagnosis', 'Fluoxetine', 'Syringe', 'Language and thought', 'Isosorbide mononitrate', 'Life review', 'Hindlimb', 'Palatoplasty', 'BROWN NORWAY', "Turner's syndrome", 'Interobserver Variation', 'Nuclear receptor coactivator 1', 'Coturnix coturnix', 'Selegiline', 'Transcatheter arterial chemoembolization', 'Morphometrics', 'Samara', 'Methylated DNA immunoprecipitation', 'Hantavirus', 'Epineurium', 'Circulating tumor DNA', 'Rasagiline', 'S100 Calcium Binding Protein G', 'Mucolipidosis', 'Auricular cartilage', 'Biomechanical Phenomena', 'Tripterygium wilfordii', 'Tractography', 'Desmin', 'Malignancy', 'Hearing Impaired Persons', 'Allostatic load', 'Dark-adapted', 'Sagittal Split Ramus Osteotomy', 'Hippocratic Oath', 'Epicondylitis', 'Craniospinal Irradiation', 'Periodic syndrome', 'Likely outcome', 'Micromixing', 'Salutogenesis', 'Dose Length Product', 'Cartilage transplantation', 'Both atria', 'Synovial osteochondromatosis', 'Deutetrabenazine', 'Acupuncture point', 'Rate ratio', 'Tumor Cell Migration', 'Perivascular Epithelioid Cell Neoplasms', 'Hyperkinesis', 'Gamma hydroxybutyrate', 'Transdermal', 'Daidzein', 'Current clamp', 'Cushing syndrome', 'Bordetella pertussis', 'Cartilaginous Tissue', 'Calcium hydride', 'Tennis elbow', 'Activin type 2 receptors', 'Common bile duct', 'Sympathetic ophthalmia', 'Desipramine', 'Rickettsiosis', 'Family Cancer History', 'SKBR3', 'Elderly parents', 'Intracranial Thrombosis', 'Elastic bandage', 'Blunt', 'Leukotriene', 'Emergency Stop Button', 'Nucleoside analogue', 'Remove blood', 'Hair washing', 'Parathyroid hormone-related protein', 'Pharmacist', 'Interferon tau', 'Mycoplasma bovis', 'Delivery location', 'Epididymis', 'Biopsy sample', 'Bleeding on probing', 'Fibrous dysplasia', 'Bone morphogenetic protein 2', 'Jaw claudication', 'Polyradiculoneuropathy', 'Sonographer', 'Familial adenomatous polyposis', 'Stem cell lineage database', 'Femoral head', 'Capacitive micromachined ultrasonic transducers', 'Fixative', 'Intravenous use', 'Androgen replacement therapy', 'Low high-density lipoprotein cholesterol', 'Brain-reading', 'Telepathy', 'Therapeutic angiogenesis', 'Calf muscles', 'CD154', 'Glycosylation', 'Cecum', 'Guinea pig', 'Sulpiride', 'Polish population', 'Sanguisorba', 'Vasoactive intestinal peptide', 'Pinellia', 'Doxazosin', 'Atropine', 'Nucleated cell', 'Prostaglandin E', 'Rat Urinary Bladder', 'MULTI-SLICE SPIRAL CT', 'Basilar membrane', 'Dental arch', 'Aortic Diseases', 'Secretory protein', 'Lacrimal sac', 'Schistocerca', 'Psychology of reasoning', 'Exoglycosidase', 'Particulates', 'Rhinomanometry', 'Self-regulation theory', 'Fibrinolytic therapy', 'Keratosis', 'Olfactory memory', 'Bronchiole', 'Medical library', 'Projectional radiography', 'Lobeline', 'Blood coagulation factors', 'Whisking in animals', 'Tibialis anterior muscle', 'Insulin glargine', 'Amniotic fluid embolism', 'FDG-Positron Emission Tomography', 'Thigh part', 'Pilomatrixoma', 'Complex systems biology', 'Enchondromatosis', 'Glycopyrrolate', 'IRS2', 'Lung cancer', 'Allergen extract', 'Portable toilet', 'Metastasis Suppressor Gene', 'Neurologic status', 'Prolamin', 'Sigmoid mesocolon', 'Reagent strip', 'Ras superfamily', 'Preimplantation Embryos', 'Ventricular outflow tract obstruction', 'Cognitive problems', 'Aripiprazole', 'Cerebellar vermis', 'Placebo', 'Anti-Androgen', 'Perioperative nursing', 'All fingers', 'Sensory analysis', 'Disease Notification', 'Pharmacogenetics', 'Orientation and Mobility', 'Suicide gene', 'Unilateral neglect', 'Bulinus', 'Interleukin 21', 'Resistome', 'Childhood Neuroblastoma', 'Polyuria', 'Sleep Stages', 'Trachoma', 'Cervical lymph nodes', 'Immunosuppression', 'Ear canal', 'Thecoma', 'Craniate', 'Posterior margin', 'Mechanical heart', 'Inverted papilloma', 'Definitive Therapy', 'Cerebral neocortex', 'Orthopedics surgery', 'Lophatherum', 'Perindopril', 'HDAC11', 'Doramectin', 'Biperiden', 'Selective IgA deficiency', 'Upper digestive tract', 'Rapid eye movement sleep', 'Beta-Arrestins', 'Insulin-like growth factor-II', 'Antipsychotic Medications', 'Cumulus oophorus', 'Ileal Perforation', 'Ambrosia artemisiifolia', 'Self-justification', 'Pedicled Flap', 'Binding selectivity', 'Thromboxanes', 'Medical malpractice', 'Tooth hypersensitivity', 'Trapezius muscle', 'Facility information model', 'Nociception', 'Pulmonary Langerhans cell histiocytosis', 'Clitoridectomy', '2-Imidazoline', '13C urea breath test', 'Hormonal activity', 'Ataxic Gait', 'Reticulum Cell Sarcoma', 'Echinoderm', 'Immune privilege', 'Biological drugs', 'AMBROXOL HYDROCHLORIDE', 'Decreased Sensitivity', 'Posterolateral approach', 'Post-concussion syndrome', 'Injury mechanisms', 'Antihistamine', 'Heart insufficiency', 'Lost to follow-up', 'Mucinous cystadenoma', 'Cerebral dysfunction', 'Glycoprotein complex', 'Curative care', 'Dendritic spine', 'Right posterior', 'Neopterin', 'Phosphodiesterase', 'Michael reaction', 'Epicardial fat', 'Umbilical vein', 'Toothbrush', 'PANMYELOPATHY', 'Witch hazel', 'Suicide intervention', 'Theophylline', 'Tuberculum sellae', 'Stalking', 'Blood transfusion reactions', 'F2-Isoprostanes', 'Rotavirus Antigen', 'Hard Capsule', 'Prostatic adenocarcinoma', 'Estradiol valerate', 'Phorbol Myristate Acetate', 'Intestinal Hemorrhage', 'Interventional radiology', 'Aortoiliac occlusive disease', 'Rickettsia prowazekii', 'Pterygoid Muscles', 'Colonoscopic Polypectomy', 'Ureter', 'EEG Findings', 'Callitrichidae', 'Psychosocial', 'Intercostal muscle', 'Right gastroepiploic artery', 'Peripheral edema', 'Fournier gangrene', 'Mineral balance', 'Transmethylation', 'Melanocyte', 'ACTH stimulation test', 'Keratocystic Odontogenic Tumor', 'Plasma osmolality', 'S9 fraction', 'Radium-223', 'Surgical Drape', 'Ossicles', 'Murine norovirus', 'Titer', 'Every Four Weeks', 'Cyclophilin D', 'Follicular thyroid cancer', 'Upper teeth', 'Auditory thresholds', 'EBSTEIN ANOMALY', 'Hui nationality', 'Co-Culture', 'Lynch syndrome', 'Opiate', 'Veterinary Nurses', 'Package insert', 'Febrile neutrophilic dermatosis', 'Digitalis Toxicity', 'Multifocal intraocular lens', 'Percutaneous endoscopic gastrostomy', 'IV injection', 'Ureteroscopes', 'General activity', 'Tympanometry', 'Treatment of lung cancer', 'Scanning gate microscopy', 'Balloon', 'Neospora', 'Screening mammography', 'Flu season', 'Life Pattern', 'Marfan syndrome', 'Myeloid sarcoma', 'Lumbar Nerve', 'Pulsed-field gel electrophoresis', 'Pseudobulbar palsy', 'Renal papillary necrosis', 'Dosage form', 'Lipid particle', 'D-dimer', 'Stoma care', 'Pethidine', 'Stromal cell-derived factor 1', 'Almitrine', 'Developmental profile', 'Hemopneumothorax', 'Duodenal mucosa', 'Pitavastatin', 'Brucella melitensis', 'Confidence interval', 'Esophageal pressure', 'Monoacylglycerol lipase', 'Maple syrup urine disease', 'Single Embryo Transfer', 'Diagnostic odds ratio', 'Biparietal diameter', 'Brief Psychiatric Rating Scale', 'SOD1', 'Leukapheresis', 'Intercostal arteries', 'Attenuated Live Vaccine', 'Ophthalmic artery', 'Peer support', 'Locust', 'Pre-Analytical Phase', 'Ranavirus', 'Pulmonary Valve Insufficiency', 'Central precocious puberty', 'Bupivacaine', 'Pneumococcal vaccination', 'Sambucus nigra', 'Alphavirus infection', 'Psychological therapy', 'Loranthus', 'Ganciclovir', 'Congenital glaucoma', 'Ornithine carbamyl transferase', 'Reduced bone mineral density', 'Cutis', 'Axillary lines', 'Pyrrosia lingua', 'Convoluted tubule', 'Rhytidectomy', 'Radioimmunoassay', 'Stroop effect', 'Congenital megacolon', 'Spinal trigeminal nucleus', 'Alcohol septal ablation', 'Convergence insufficiency', 'Exenatide', 'Risperidone', 'Hashimoto Disease', 'Synaptophysin', 'Rifabutin', 'H1 antagonist', 'Cellular aspects', 'Anorectal Fistula', 'Microscopic Anatomy', 'Ocean acoustic tomography', 'Invasive Procedure', 'Herpes simplex virus', 'Foreign-Body Migration', 'Tourette syndrome', 'Tissue Dissection', 'Leishmania sp', 'Magnetic field exposure', 'ChIP-on-chip', 'Glycated hemoglobin', 'Factor IXa', 'Clinomics', 'Premature Closure', 'Lumbar disc degeneration', 'Immunology', 'Gemfibrozil', 'Ryanodine receptor 2', 'Chicken Pox', 'Vascular supply', 'Entire gastrointestinal tract', 'Arthritis therapy', 'Chlorpromazine', 'Multistate Pharmacy Jurisprudence Examination', 'Pterygopalatine fossa', 'Helminth infections', 'Human T-lymphotropic virus 2', 'Enterocolitis', '1000 Genomes Project', 'Syntaxin 3', 'Transglutaminase activity', 'Meal replacement', 'Ambulatory ECG', 'Cholesterylester transfer protein', 'Chromoblastomycosis', 'Fragment-based lead discovery', 'Ketoprofen', 'Dose-Limiting', 'Dumbbell', 'Bone grafting', 'Watery diarrhea', 'Polyostotic fibrous dysplasia', 'Tomography', 'Euphoriant', 'Longissimus', 'Total body irradiation', 'Cerebritis', 'Dry eyes', 'Fat pad', 'ErbB Receptors', 'Endogenous opioids', 'Heparin', 'Reproductive justice', 'Sideroblastic anemia', 'Fresh Tissue', 'Burn shock', 'EVH1 domain', 'Magnetic resonance cholangiopancreatography', "Leber's congenital amaurosis", 'Environmental enrichment', 'Rotavirus', 'Elephantiasis', 'Aggravating Factor', 'Dibenzazepines', 'Radiosensitizer', 'Patient safety', 'Addition polymer', 'Gliogenesis', 'Valeriana', 'Translational research', 'Regional hospital', 'Hindbrain', 'Follicle-stimulating hormone receptor', 'Expectant mothers', 'Chronic uremia', 'Fat necrosis', 'Cosmetics', 'Eosin', 'Chronic lymphocytic leukemia', 'Urological oncology', 'Fistula', 'Chemosensitization', 'Glial tumor', 'Anter</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
         <v>273</v>
       </c>
       <c r="C5" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -526,12 +526,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['2781160424', '84653758', '2779963164', '114010052', '2778197446', '2777538862', '86637286', '2776291881', '522453465', '2779132545', '2777597347', '2777227597', '80205793', '2778498718', '56423290', '136418573', '194519906', '134290984', '97082442', '2775977231', '2779089611', '2777161012', '164449429', '552535540', '2781349114', '2776890026', '8077954', '2780266753', '171041071', '2776751993', '2779447296', '2776380714', '2909807104', '547764534', '2778733213', '180614257', '81369262', '2780805685', '192531217', '168646138', '2779923759', '113807197', '2910108987', '2780438764', '2775905979', '2776585938', '138296749', '2777247013', '184356942', '113706210', '103208741', '2780035574', '70587473', '190973436', '2778742815', '2779177650', '501001295', '2780732545', '2777410049', '2777993278', '22156102', '503872463', '2779791860', '2781285556', '62657170', '107806365', '2776613822', '2777244724', '2778526452', '12298181', '2776934989', '16443162', '2777603413', '67141207', '2777861003', '182325601', '2778908029', '2780117764', '2909423638', '2779063172', '2777075199', '2910006436', '2780623907', '154482161', '2779297142', '2779106483', '109260823', '136287216', '2781209966', '23588892', '177766495', '2780493508', '2776304142', '2910655040', '549090830', '2776503146', '2778243571', '188167160', '2779025965', '2781051278', '193919354', '2780144881', '125209646', '523056402', '2778825498', '2777389919', '2780491831', '120912362', '2778617593', '28858896', '147077947', '26258499', '20574239', '2778740177', '2778712577', '84389358', '106432739', '2779363792', '2781463719', '2779100972', '148324565', '38014559', '71406770', '2778903259', '167055898', '28718268', '165364887', '2776526686', '2780020723', '44877443', '2910249166', '538133343', '2779905815', '15122004', '2779961193', '2910745670', '2909933943', '2776429199', '2909286781', '2910609075', '2780909375', '2777765802', '92393732', '48164120', '2910083013', '2780319001', '2781422250', '2776893095', '2778011250', '134895398', '44493715', '51672120', '2776020796', '2780198215', '2776716048', '2779018934', '2776454994', '542530943', '2777638134', '37228920', '2779687131', '2778968930', '2909284606', '920782', '2777841733', '2779304910', '175801342', '2781071349', '177291462', '194943564', '124208396', '19417346', '2780623789', '10050518', '164403151', '36727532', '507981020', '53537400', '521786372', '187667220', '2778742788', '150394285', '511723319', '203151758', '2778325511', '509550671', '166007726', '2778728124', '197676734', '204814006', '51067260', '108583219', '178229462', '2909358322', '2776734470', '136908173', '2909931160', '19352297', '2779379842', '2780468074', '2780003333', '2781405653', '188231857', '2778511055', '110131835', '134819137', '47177190', '98545295', '25032326', '111366508', '2777189325', '2777776026', '2776907558', '43141900', '2910661131', '2779614053', '2777022483', '123960582', '2777394604', '2781206393', '108771440', '2909116566', '2781390853', '533356498', '668760', '181575753', '159456220', '11012388', '33923547', '2777080206', '15107229', '2778365744', '105776082', '45504901', '188116033', '2778403301', '5395021', '88610354', '205545832', '13553968', '2780118692', '150710463', '207096701', '49876356', '2781240919', '76188268', '2776622967', '2776900795', '2777929519', '2777278836', '37413474', '2910150694', '2780997200', '2777646416', '2776509339', '85597727', '55958113', '2777082460', '169536714', '2776603611', '2778780117', '2781418458', '15500210', '42525527', '79416737', '2909619517', '130148452', '2778782981', '53173841', '2777626052', '140988679', '8795937', '2780674924']</t>
+          <t>['2781422250', '5395021', '109260823', '193919354', '2775977231', '2775905979', '2777389919', '2910609075', '55958113', '8077954', '2776380714', '521786372', '51067260', '108583219', '48164120', '2780003333', '56423290', '20574239', '2781418458', '2780319001', '2776454994', '2909358322', '2910108987', '2780909375', '103208741', '187667220', '533356498', '2776622967', '2776893095', '12298181', '164449429', '2779905815', '2779018934', '2776603611', '2777841733', '2780805685', '25032326', '13553968', '53537400', '97082442', '2909423638', '2779923759', '182325601', '2776503146', '2781206393', '140988679', '2781051278', '2777638134', '190973436', '53173841', '2777646416', '2777227597', '159456220', '2777082460', '113706210', '2776734470', '2776291881', '76188268', '522453465', '2910150694', '134819137', '2777538862', '194519906', '167055898', '2910655040', '2777410049', '2781390853', '43141900', '177291462', '2778243571', '38014559', '507981020', '136287216', '2776526686', '2910083013', '110131835', '2777929519', '2777189325', '33923547', '2779297142', '138296749', '2778526452', '2779132545', '154482161', '2777861003', '549090830', '188116033', '123960582', '164403151', '2909284606', '2780623907', '2780118692', '2779063172', '2777394604', '2781071349', '2779089611', '11012388', '2779106483', '168646138', '36727532', '205545832', '136418573', '2910745670', '2776613822', '107806365', '538133343', '192531217', '552535540', '71406770', '15500210', '2779177650', '2779363792', '22156102', '2778197446', '2777244724', '2781285556', '2780198215', '920782', '114010052', '2777776026', '45504901', '2780035574', '204814006', '42525527', '188167160', '120912362', '80205793', '2780674924', '37413474', '147077947', '511723319', '2780266753', '111366508', '37228920', '2779100972', '86637286', '2776934989', '2778968930', '49876356', '2778403301', '2778825498', '84389358', '2778740177', '2778498718', '2777603413', '2909619517', '2776585938', '194943564', '2777626052', '2780491831', '542530943', '2779447296', '175801342', '2780144881', '15122004', '2780732545', '2777247013', '2909807104', '2776890026', '197676734', '88610354', '2778903259', '2777022483', '85597727', '2778728124', '2780468074', '2909931160', '2909116566', '169536714', '2781160424', '171041071', '2776751993', '2779304910', '2777075199', '79416737', '2778712577', '2910006436', '125209646', '166007726', '2779687131', '8795937', '2777597347', '47177190', '2910661131', '2778365744', '15107229', '2778325511', '2780997200', '2779963164', '165364887', '523056402', '2781463719', '181575753', '19352297', '108771440', '28858896', '180614257', '2778617593', '23588892', '501001295', '203151758', '509550671', '668760', '98545295', '2777278836', '105776082', '2776429199', '130148452', '2778780117', '113807197', '2779614053', '2778908029', '44877443', '2777161012', '106432739', '67141207', '503872463', '134290984', '26258499', '2778782981', '2776900795', '2779961193', '207096701', '134895398', '177766495', '2781405653', '150710463', '2781240919', '2778011250', '2781349114', '2777080206', '2776509339', '84653758', '2776020796', '2780623789', '2778742788', '2776907558', '2776304142', '2909286781', '2778733213', '124208396', '92393732', '547764534', '2776716048', '2779379842', '178229462', '19417346', '51672120', '2780020723', '70587473', '2779025965', '2777765802', '2779791860', '150394285', '28718268', '188231857', '2781209966', '2777993278', '62657170', '2910249166', '184356942', '148324565', '81369262', '2909933943', '44493715', '10050518', '16443162', '2778742815', '2778511055', '2780493508', '2780438764', '2780117764', '136908173']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Social integration', 'Goal orientation', 'Family literacy', 'Foreign language', 'Capital I', 'Gross enrolment ratio', 'Rate of return', 'Knowledge level', 'Social research', 'Person-centred planning', 'Access to Higher Education', 'Student loan', 'Environmental adult education', 'Long-range planning', 'Counselor education', 'Microteaching', 'Student engagement', 'Cognitive skill', 'Skills management', 'Education for sustainable development', 'Rhetorical criticism', 'Institutional research', 'Geomathematics', 'Education reform', 'Wage curve', 'Nutrition Education', 'Miscue analysis', 'Teacher induction', 'First language', 'Intercultural competence', 'Senior secondary education', 'Academic Training', 'Computer-Assisted Instruction', 'Literacy', 'Social injustice', 'Aliteracy', 'Achievement test', 'Teacher education', 'Computer literacy', 'Cross-cultural', 'Classroom management', 'Health education', 'Student attendance', 'Youth unemployment', 'Critical race theory', 'Student teaching', 'Global citizenship', 'Career development', 'Best practice', 'Critical theory', 'Service life', 'Multilingualism', 'Transformative learning', 'Informal education', 'Student–teacher ratio', 'International education', 'Life skills', 'Response to intervention', 'Self-concept', 'Popular education', 'Educational measurement', 'Distance education', 'Compulsory education', 'Learning styles', 'Social value orientations', 'Apprenticeship', 'Adult educator', 'Racial politics', 'Open educational resources', 'Proactive learning', 'Global justice', 'Educational technology', 'Phonics', 'Education policy', 'Research Assessment Exercise', 'Learner autonomy', 'Twice exceptional', 'Work-based learning', 'Montessori method', 'Family child care', 'Cosmopolitanism', 'Early childhood program', 'Disadvantaged', 'Mainstreaming', 'Educational attainment', 'M-learning', 'Child development', 'Academic standards', 'Educational institution', 'Surveyor', 'AP Biology', 'Academic administration', 'Grantsmanship', 'Student aid', 'Attitude change', 'Academic mobility', 'Academic probation', 'Experiential education', 'Student approaches to learning', 'Market integration', 'General Certificate of Education', 'Adult Learning', 'Cultural diversity', 'Business education', 'Humanistic education', 'Historically black colleges and universities', 'Elementary and Secondary Education Act', 'Higher education', 'Biocultural diversity', 'Special education', 'Socioeconomic status', 'Active learning', 'Transferable skills analysis', 'Cross-cultural competence', 'Retraining', 'Discourse analysis', 'Education', 'Coaching', 'Grade inflation', 'Human rights education', 'Rote learning', 'Education theory', 'Physical education', 'Enrollment management', 'Applied linguistics', 'Needs assessment', 'Whole language', 'Oppression', 'College athletics', 'Science education', 'Minimal Brain Dysfunction', 'Economics education', 'Social progress', 'Open learning', 'Biobased economy', 'Primary student', 'Student promotion', 'Peace education', 'Vocational evaluation', 'SOCIOECONOMICALLY DISADVANTAGED', 'Problem-based learning', 'Andragogy', 'Learning theory', 'Concept learning', 'Baccalaureate Degree', 'Work experience', 'Constructive alignment', 'Faculty development', 'Internationalization of Higher Education', 'Educational psychology', 'Adult education', 'Cooperative learning', 'Shiksha', 'Informal learning', 'Interactive Learning', 'Everyday life', 'Alternative teacher certification', 'Multiculturalism', 'University system', 'Experiential learning', 'School-to-work transition', 'Social disintegration', 'Farsi language', 'Team learning', 'Pregnancy Discrimination Act', 'Academic freedom', 'Data analysis', 'Gender Parity Index', 'Active listening', 'Participant observation', 'Class rank', 'Pedagogy', 'Basic skills', 'Primary education', 'Risk management framework', 'Educational research', 'Agricultural education', 'Numeracy', 'Waste collection', 'Preparatory school', 'Teacher leadership', 'Adsorption', 'Philosophy education', 'Standardized test', 'White supremacy', 'Medical education', 'Language assessment', 'Student debt', 'Developmentally Appropriate Practice', 'PU learning', 'Professional development', 'Deep learning', 'Early childhood education', 'Moderate learning difficulties', 'Adult learner', 'Resocialization', 'Literature reviewing', 'Religious education', 'Nonformal learning', 'Digital learning', 'Extended School Year', 'Student affairs', 'Educational assessment', 'Free education', 'Self-efficacy', 'Comparative education', 'Curriculum', 'Technical writing', 'Socialization', 'Educational leadership', 'Officer', 'Peer learning', 'Categorical imperative', 'Environmental education', 'Training skills', 'Education Act', 'Basic writing', 'Language education', 'Pupil', 'Academic achievement', 'Lifelong learning', 'Hemadsorption', 'Challenging behaviour', 'Critical thinking', 'Vocational education', 'Further education', 'Instructional design', 'Creativity', 'Mathematics', 'Lifewide learning', 'Learning disability', 'Learning environment', 'Likert scale', 'Syllabus', 'Q-learning', 'Student-centred learning', 'Program evaluation', 'Teaching method', 'Young adult', 'Music education', 'Universal preschool', 'Social studies', 'Philosophy of education', 'Neuroscience of multilingualism', 'Dyscalculia', 'Context effect', 'Social criticism', 'Global citizenship education', 'Patient education', 'Reggio Emilia approach', 'Liberal arts education', 'On work experience', 'Initial Teaching Alphabet', 'Digital literacy', 'Academic advising', 'Tivoli Management Framework', 'Indigenous', 'Early childhood', 'Cultural competence', 'Academic dishonesty', 'Reading comprehension', 'World language', 'Inclusion (education)', 'Formative assessment', 'Social learning', 'Specific learning disability', 'Cooperative education', 'Resource room', 'Action research', 'Bachelor', 'Participatory action research', 'Discipline', 'Academic capital']</t>
+          <t>['Constructive alignment', 'Program evaluation', 'Child development', 'General Certificate of Education', 'Education for sustainable development', 'Critical race theory', 'Historically black colleges and universities', 'SOCIOECONOMICALLY DISADVANTAGED', 'Indigenous', 'Miscue analysis', 'Academic Training', 'Waste collection', 'Professional development', 'Deep learning', 'Concept learning', 'Extended School Year', 'Counselor education', 'Transferable skills analysis', 'World language', 'Work experience', 'Alternative teacher certification', 'Moderate learning difficulties', 'Student attendance', 'Problem-based learning', 'Service life', 'Preparatory school', 'Critical thinking', 'Social criticism', 'Faculty development', 'Proactive learning', 'Geomathematics', 'Social progress', 'Everyday life', 'Academic dishonesty', 'Pregnancy Discrimination Act', 'Teacher education', 'Socialization', 'Music education', 'Numeracy', 'Skills management', 'Montessori method', 'Classroom management', 'Learner autonomy', 'Academic mobility', 'Academic achievement', 'Participatory action research', 'Market integration', 'University system', 'Informal education', 'Action research', 'Digital literacy', 'Student loan', 'Instructional design', 'Early childhood', 'Critical theory', 'Adult learner', 'Knowledge level', 'Context effect', 'Social research', 'On work experience', 'Comparative education', 'Gross enrolment ratio', 'Student engagement', 'Applied linguistics', 'Student aid', 'Self-concept', 'Challenging behaviour', 'Environmental education', 'Active listening', 'Academic probation', 'Education theory', 'Agricultural education', 'Academic standards', 'Oppression', 'Baccalaureate Degree', 'Self-efficacy', 'Patient education', 'Officer', 'Mathematics', 'Educational attainment', 'Global citizenship', 'Open educational resources', 'Person-centred planning', 'Mainstreaming', 'Research Assessment Exercise', 'Attitude change', 'Q-learning', 'Language education', 'Risk management framework', 'Farsi language', 'Disadvantaged', 'Universal preschool', 'Family child care', 'Pupil', 'Gender Parity Index', 'Rhetorical criticism', 'Creativity', 'M-learning', 'Cross-cultural', 'Educational research', 'Young adult', 'Microteaching', 'Primary student', 'Adult educator', 'Apprenticeship', 'Economics education', 'Computer literacy', 'Education reform', 'Physical education', 'Inclusion (education)', 'International education', 'Coaching', 'Educational measurement', 'Capital I', 'Racial politics', 'Learning styles', 'Informal learning', 'Team learning', 'Foreign language', 'Peer learning', 'Syllabus', 'Multilingualism', 'PU learning', 'Formative assessment', 'Experiential education', 'Higher education', 'Environmental adult education', 'Academic capital', 'Liberal arts education', 'Socioeconomic status', 'Philosophy education', 'Teacher induction', 'Educational leadership', 'Experiential learning', 'Human rights education', 'Rate of return', 'Global justice', 'Social disintegration', 'Neuroscience of multilingualism', 'Student-centred learning', 'Humanistic education', 'Discourse analysis', 'Cross-cultural competence', 'Long-range planning', 'Phonics', 'Specific learning disability', 'Student teaching', 'Participant observation', 'Bachelor', 'Elementary and Secondary Education Act', 'Multiculturalism', 'Senior secondary education', 'Data analysis', 'Adult Learning', 'Open learning', 'Response to intervention', 'Career development', 'Computer-Assisted Instruction', 'Nutrition Education', 'Developmentally Appropriate Practice', 'Teaching method', 'Enrollment management', 'Basic writing', 'Tivoli Management Framework', 'Student debt', 'Digital learning', 'Literature reviewing', 'Hemadsorption', 'Cultural competence', 'Social integration', 'First language', 'Intercultural competence', 'Academic freedom', 'Cosmopolitanism', 'Social learning', 'Retraining', 'Early childhood program', 'Cultural diversity', 'Language assessment', 'School-to-work transition', 'Discipline', 'Access to Higher Education', 'Curriculum', 'Training skills', 'Learning environment', 'Learning disability', 'White supremacy', 'Initial Teaching Alphabet', 'Family literacy', 'Whole language', 'Business education', 'Grade inflation', 'Further education', 'Religious education', 'Lifelong learning', 'Special education', 'Aliteracy', 'Biocultural diversity', 'Surveyor', 'Life skills', 'Standardized test', 'Medical education', 'Vocational education', 'Technical writing', 'Reggio Emilia approach', 'Likert scale', 'Peace education', 'Cooperative education', 'Reading comprehension', 'Health education', 'Education Act', 'Twice exceptional', 'Science education', 'Institutional research', 'Education', 'Education policy', 'Distance education', 'Cognitive skill', 'Active learning', 'Resource room', 'Global citizenship education', 'Biobased economy', 'Philosophy of education', 'Educational psychology', 'AP Biology', 'Student affairs', 'Social studies', 'Dyscalculia', 'Internationalization of Higher Education', 'Wage curve', 'Lifewide learning', 'Academic advising', 'Goal orientation', 'Shiksha', 'Basic skills', 'Teacher leadership', 'Categorical imperative', 'Grantsmanship', 'Vocational evaluation', 'Social injustice', 'Class rank', 'Learning theory', 'Literacy', 'Interactive Learning', 'Nonformal learning', 'Early childhood education', 'Pedagogy', 'Cooperative learning', 'College athletics', 'Transformative learning', 'Student approaches to learning', 'Andragogy', 'Compulsory education', 'Adsorption', 'Needs assessment', 'Educational assessment', 'Educational institution', 'Popular education', 'Social value orientations', 'Minimal Brain Dysfunction', 'Best practice', 'Rote learning', 'Achievement test', 'Student promotion', 'Adult education', 'Primary education', 'Educational technology', 'Student–teacher ratio', 'Free education', 'Academic administration', 'Youth unemployment', 'Work-based learning', 'Resocialization']</t>
         </is>
       </c>
     </row>
@@ -559,12 +559,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['2781087576', '2909942645', '2776689383', '2778952541', '2779648811', '2780303468', '2778642596', '2776656214', '2781049881', '2777973936', '53596535', '2778014560', '2778808915', '2777666786', '2780416715', '2779500161', '2778919917', '2780227697', '2778720315', '37512671', '2777688143', '2777749871', '2780183969', '2910095232', '2909613729', '2909987495', '2778397978', '2776331549', '46578552', '2777656388', '104151175', '2778692471', '2776290222', '2781037291', '2781097296', '2777961764', '169437150', '2910825703', '2780765865', '170806853', '2781173052', '2779256933', '2781071349', '2777877159', '2781403550', '2775850206', '2779909026', '2777688943', '2776430950', '2779674044', '2779937378', '2777996642', '2777057682', '2909462804', '70036468', '2908750998', '2780742699', '2781216213', '2779119250', '2779881493', '2909790936', '2777723842', '2778595151', '2778269006', '2777385265', '2781051968', '55447825', '2779503283', '2911047369', '2776491508', '2780233487', '2780090376', '165611974', '131932780', '2776422986', '2780438625', '2777177043', '102587632', '2911049916', '2779630429', '140816417', '2909731803', '2778272532', '2776254110', '2910036154', '2779018073', '2780122648', '2778517334', '2777957789', '2910181401', '2776492025', '2778768284', '2909366255', '2777667586', '21279758', '2778354389', '2910877355', '2777755331', '2908568261', '2909567481', '2775880612', '20555606', '121752807', '2779266529', '2777866547', '519513126', '2908678251', '162077342', '2908580512', '2778071103', '518429986', '17632256', '2778055648', '2778767757', '2775982641', '77352025', '26147285', '2908521967', '153651392', '2780673001', '2779213278', '994546', '119588120', '2910225196', '2781253738', '2777941463', '2779865128', '122251271', '2909245243', '2780977596', '119693030', '2776778975', '2776990493', '2777457567', '2776051313', '2776053703', '2910429700', '2778780663', '48057960', '102003337', '542059537', '2775906418', '2909934819', '191700502', '2777360386', '2779076696', '2909781388', '47122089', '2910252733', '97917381']</t>
+          <t>['2779648811', '2778014560', '2780227697', '2777723842', '2780303468', '2909731803', '2910181401', '2909613729', '2910877355', '2778780663', '2777941463', '2775982641', '2776430950', '2779865128', '2910252733', '2777755331', '2777656388', '2780742699', '2776491508', '2778397978', '2781049881', '2910429700', '2909790936', '2910225196', '2909934819', '2781173052', '2781216213', '2778595151', '542059537', '2908521967', '994546', '2778272532', '97917381', '2778692471', '2775906418', '2779630429', '2911049916', '2909942645', '46578552', '2777057682', '2780090376', '53596535', '121752807', '122251271', '2909462804', '2776656214', '2777666786', '2777457567', '2778055648', '26147285', '119693030', '2777688943', '2778517334', '153651392', '2775850206', '2779503283', '2778767757', '2779256933', '2776331549', '47122089', '2779500161', '2909567481', '2780977596', '2776778975', '2778354389', '2781403550', '2776053703', '2908678251', '48057960', '2780183969', '2781087576', '21279758', '2776422986', '2776492025', '2781097296', '191700502', '2910825703', '2775880612', '119588120', '2781253738', '2777961764', '2780416715', '2776990493', '140816417', '2778952541', '169437150', '102003337', '2909245243', '2908568261', '162077342', '2777877159', '2777385265', '2780122648', '131932780', '2778269006', '2779076696', '2777749871', '17632256', '2779266529', '2780673001', '2776689383', '20555606', '70036468', '2780765865', '2909781388', '2776051313', '170806853', '2777996642', '2780233487', '2909987495', '2779119250', '2779937378', '2908750998', '2781071349', '2777866547', '2777688143', '77352025', '2908580512', '2776254110', '104151175', '519513126', '2781051968', '2779881493', '2779213278', '2778808915', '2777177043', '2909366255', '2777360386', '2778720315', '55447825', '2777973936', '2776290222', '2910036154', '2778642596', '2781037291', '2910095232', '2778768284', '2777667586', '37512671', '2778919917', '2778071103', '2779674044', '2777957789', '2780438625', '518429986', '2779909026', '102587632', '165611974', '2779018073', '2911047369']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Gender systems', 'Maternal risk factors', 'Labour supply', 'Self-objectification', 'Gender empowerment', 'Forced prostitution', 'Abortion', 'Anti-discrimination law', 'Sex in advertising', 'Small business', 'Discrimination testing', 'Covenant marriage', 'Common-law marriage', 'Gender Development Index', 'Physical abuse', 'Femicide', 'Gender sensitization', 'Gender-blind', 'Female entrepreneurs', 'Birth rate', 'Infertility', 'Reproductive rights', 'Child support', 'Sexual aggression', 'Sexual assaults', 'Maternal Ages', 'Gender diversity', 'Defeminization', 'Global health', 'Gender dysphoria', 'Emigration', 'State feminism', 'Sex change', 'Disorders of sex development', 'Bem Sex-Role Inventory', 'Hague Convention on the Civil Aspects of International Child Abduction', 'Human rights', 'Safety water', 'Gender mainstreaming', 'Gemma', 'Marital rape', 'Castration', 'Gender Parity Index', 'Working time', 'Gender role', 'Conflict tactics scale', 'Wrongful birth', 'Feminism', 'Ancillary relief', 'Glass ceiling', 'Shared parenting', 'Sexual violence', 'Hegemonic masculinity', 'Sex offense', 'Immigration', 'Laws regulations', 'Sexual partner', 'Remarriage', 'Gender analysis', 'Dihydrotestosterone', 'Sexual offense', 'Male privilege', 'Doing gender', 'Gender binary', 'Abolitionism', 'Infibulation', 'International law', 'Millennium Development Goals', 'Differential Fertility', 'Reverse discrimination', 'Long-term care', 'Objectification', 'Gender schema theory', 'Family law', 'Sex and Relationships Education', 'Global Health Initiatives', 'Migrant education', 'Criminal justice', 'Unsafe Sex', 'Gender neutrality', 'Zero population growth', 'Early Pregnancy Loss', 'Liberal feminism', 'Gender &amp; Development', 'Fertility Determinants', 'Patriarchalism', 'Glass cliff', 'Parental leave', 'Violence Against Women Act', 'Ethnic discrimination', 'Third-party reproduction', 'Teen dating violence', "Women's Status", 'Wright', 'Venture capital', 'Forced marriage', 'Fertility Preferences', 'Rape culture', 'Battered woman syndrome', 'Wife abuse', 'Luganda', 'Empowerment', 'Reproductive health', 'Unpaid work', 'Sexual misconduct', 'Psychological abuse', 'Contraceptive Devices', 'Tax credit', 'Sexual abuses', 'Precarity', 'Fertility', 'Digital media', 'Joint custody', 'Gender and development', "Women's empowerment", 'Population growth', 'Age and female fertility', 'Fertility Study', 'Gender history', 'Child marriage', 'Domestic relations', 'Division of labour', 'Proportional representation', 'Sexual molestation', 'Women in development', 'Financial literacy', 'Digital Life', 'Ex-ante', 'Below Replacement Fertility', 'Gender pay gap', 'Economic model', 'Natural fertility', 'Gender budgeting', 'Motherhood penalty', 'Comprehensive sex education', 'No-fault divorce', 'Sexual discrimination', 'Sisterhood method', 'Bargaining power', 'Care work', 'Domestic violence', 'Precarious work', 'Marital violence', 'Gender psychology', 'Maternal near miss', 'Family planning', 'Abusive relationship', 'Total fertility rate', 'Sexual harrassment', 'Sub-replacement fertility']</t>
+          <t>['Gender empowerment', 'Covenant marriage', 'Gender-blind', 'Male privilege', 'Forced prostitution', 'Early Pregnancy Loss', 'Ethnic discrimination', 'Sexual assaults', 'Fertility Preferences', 'Sisterhood method', 'Financial literacy', "Women's empowerment", 'Ancillary relief', 'Digital Life', 'Sexual harrassment', 'Rape culture', 'Gender dysphoria', 'Sexual partner', 'Reverse discrimination', 'Gender diversity', 'Sex in advertising', 'Sexual discrimination', 'Sexual offense', 'Sexual molestation', 'Marital violence', 'Marital rape', 'Remarriage', 'Doing gender', 'Domestic violence', 'Fertility Study', 'Division of labour', 'Liberal feminism', 'Sub-replacement fertility', 'State feminism', 'Precarious work', 'Gender neutrality', 'Unsafe Sex', 'Maternal risk factors', 'Global health', 'Hegemonic masculinity', 'Objectification', 'Discrimination testing', 'Reproductive health', 'Ex-ante', 'Sex offense', 'Anti-discrimination law', 'Gender Development Index', 'Motherhood penalty', 'Joint custody', 'Age and female fertility', 'Economic model', 'Feminism', 'Parental leave', 'Gender history', 'Conflict tactics scale', 'Millennium Development Goals', 'Gender and development', 'Castration', 'Defeminization', 'Total fertility rate', 'Femicide', 'Wife abuse', 'Gender pay gap', 'Natural fertility', 'Forced marriage', 'Gender role', 'No-fault divorce', 'Contraceptive Devices', 'Bargaining power', 'Child support', 'Gender systems', 'Venture capital', 'Sex and Relationships Education', 'Third-party reproduction', 'Bem Sex-Role Inventory', 'Gender psychology', 'Safety water', 'Luganda', 'Proportional representation', 'Women in development', 'Hague Convention on the Civil Aspects of International Child Abduction', 'Physical abuse', 'Gender budgeting', 'Zero population growth', 'Self-objectification', 'Human rights', 'Care work', 'Below Replacement Fertility', 'Battered woman syndrome', 'Tax credit', 'Working time', 'Abolitionism', 'Glass cliff', 'Family law', 'Gender binary', 'Family planning', 'Reproductive rights', 'Digital media', 'Unpaid work', 'Child marriage', 'Labour supply', 'Empowerment', 'Immigration', 'Gender mainstreaming', 'Abusive relationship', 'Comprehensive sex education', 'Gemma', 'Sexual violence', 'Long-term care', 'Maternal Ages', 'Gender analysis', 'Shared parenting', 'Laws regulations', 'Gender Parity Index', 'Sexual misconduct', 'Infertility', 'Population growth', 'Sexual abuses', 'Gender &amp; Development', 'Emigration', 'Psychological abuse', 'Infibulation', 'Dihydrotestosterone', 'Domestic relations', 'Common-law marriage', 'Migrant education', "Women's Status", 'Maternal near miss', 'Female entrepreneurs', 'International law', 'Small business', 'Sex change', 'Fertility Determinants', 'Abortion', 'Disorders of sex development', 'Sexual aggression', 'Teen dating violence', 'Wright', 'Birth rate', 'Gender sensitization', 'Precarity', 'Glass ceiling', 'Violence Against Women Act', 'Global Health Initiatives', 'Fertility', 'Wrongful birth', 'Criminal justice', 'Gender schema theory', 'Patriarchalism', 'Differential Fertility']</t>
         </is>
       </c>
     </row>
@@ -592,12 +592,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['112570922', '124056412', '2781399283', '2778583955', '48663136', '2910654379', '2779112213', '167710798', '2781360137', '186295008', '140188727', '2780998164', '2776256148', '123157820', '2776991799', '2777106384', '93419950', '147455438', '132165134', '99546132', '157062255', '115240124', '2860155', '2776137031', '108497213', '2779386820', '2776301198', '2780987889', '2775838554', '88024347', '2779322298', '177964011', '2777184272', '169488363', '69661492', '2780151969', '162663994', '135009316', '66465714', '107836204', '2779928684', '2779090549', '2776165558', '2778902904', '200890946', '97920779', '8625798', '81446008', '2776756561', '2778708356', '39769621', '97156103', '132594454', '57442070', '2777333993', '2780616974', '78302586', '2776849319', '45020621', '2777489503', '38626664', '15098985', '37992848', '2777875673', '64016661', '61270487', '120305227', '94042126', '2780401329', '17538187', '60943498', '2776275385', '2780367215', '2776334353', '147990551', '186636678', '162602672', '2776870568', '100187453', '187606762', '156858999', '2779940597', '2776573520', '2780989708', '51193700', '83419821', '2776266027', '198302294', '523546767', '502990516', '2776695260', '47654990', '2777383712', '115038398', '45145499', '186348155', '2777550478', '28631016', '190539079', '125572338', '155681218', '190714865', '110158866', '2910053955', '2776849215', '2778192778', '81637046', '145162277', '178254436', '175568690', '180087314', '2909248125', '65340099', '2776256026', '2777919664', '2780012196', '2780408538', '2776087716', '2776952799', '157174567', '162222271', '2781117298', '185515318', '2779283343', '33556824', '2777493420', '2816523', '39410599', '37037264', '153823671', '53163501', '126933887', '2780513399', '118733760', '2780833732', '2778788645', '2778652552', '2777434770', '2910692151', '28362043', '146763847', '40241539', '88862950', '547646559', '2778099575', '2779833838', '41625074', '2776799952', '129513315', '2780739625', '148815931', '4292930', '2779202806', '2778407992', '150513403', '137527640', '165895018', '2777564511', '176650113', '197743484', '123700513', '2776897705', '19570952', '1284942', '40675005', '190960625', '2778247438', '3128022', '2776236458', '79303471', '2777434392', '1814991', '2778330403', '2777138484', '195092306', '2777388718', '9777977', '176205827', '2776332401', '2779794448', '49671963', '21955270', '189047708', '528615729', '2779429693', '2778722473', '97053079', '2910645917', '195154425', '182348080', '2781357674', '67268981', '2777272942', '2909415995', '2777910687', '2778632158', '152913119', '4891672', '2778213469', '2909805430', '2778602707', '56858530', '131046424', '2777679823', '12129029', '69514717', '2668921', '2776325102', '2781143366', '133214962', '2778357586', '2780165224', '188287460', '2781028066', '2777599230', '2779678948', '499616599', '105859001', '207006810', '2780797762', '2779508860', '78244369', '24939127', '2777399949', '128168118', '2779712367', '81599089', '94061648', '105306849', '67715294', '2910825703', '2909902889', '2779099003', '2778110159', '136325355', '90195498', '2776121688', '63358688', '33559203', '49057587', '2910009623', '76177295', '2778668878', '2908711435', '70455891', '75255083', '2777812597', '2777129128', '2777730692', '81632477', '49545453', '533363959', '2778570914', '2778211487', '2777493711', '2909937950', '94562577', '2778491029', '19835438', '547231352', '161382645', '129360787', '2910897755', '144993055', '2776306026', '147852310', '2778217819', '58790150', '2776069950', '40496375', '2909603817', '2778553890', '2777317380', '2909984675', '2778395396', '130309983', '107708555', '102579867', '2779835370', '2781036520', '2779547435', '2778720231', '2781427571', '2779506560', '138921699', '150547873', '2777554443', '2778652117', '203380394', '2776572357', '122341333', '96306036', '94747663', '2777427512', '51832835', '43632280', '2778597325', '128410448', '174091901', '2777610350', '521259446', '2780573285', '103783831', '2776628701', '108797546', '187109078', '2780531901', '44403221', '2776342442', '68359772', '46685645', '2909326202', '181843262', '42938798', '81692654', '2909494222', '2776053758', '2777076574', '179113317', '2781113848', '149207113', '2779948615', '61661205', '118416809', '84250820', '2778893359', '195729132', '93983250', '126645576', '2777015086', '2776757554', '2778082681', '16828302', '2780965534', '7879346', '2776812703', '54005896', '39077098', '205537798', '81842627', '2777364431', '99484651', '88743934', '116537', '2778666693', '16145799', '2778999818', '96124884', '2780521934', '2776299736', '2777690665', '2776176531', '167110946', '130797344', '114993203', '88802367', '2778618992', '184947814', '2781364496', '2778674365', '2780588113', '2778934327', '2779920756', '152232337', '47291792', '2776361503', '2781421531', '131227075', '34667930']</t>
+          <t>['2909326202', '2777106384', '2777554443', '2777383712', '2776236458', '9777977', '2816523', '41625074', '110158866', '49545453', '2776087716', '118416809', '2778652117', '162602672', '61270487', '2909902889', '44403221', '2776325102', '1814991', '2778902904', '2780797762', '135009316', '148815931', '15098985', '2777138484', '547231352', '78302586', '2910009623', '2908711435', '195154425', '108797546', '2778934327', '97920779', '2780989708', '66465714', '70455891', '2778602707', '156858999', '40496375', '2780401329', '33556824', '2779920756', '107836204', '2778553890', '2777679823', '132594454', '2780513399', '2778652552', '2780367215', '2776301198', '2910897755', '103783831', '88743934', '2777599230', '2781117298', '2776334353', '2778674365', '115240124', '2779099003', '115038398', '147455438', '2777129128', '97156103', '2780573285', '2910654379', '88862950', '207006810', '123157820', '186295008', '47654990', '2777015086', '205537798', '2776849215', '97053079', '2776053758', '157174567', '2778999818', '177964011', '39769621', '140188727', '499616599', '2779429693', '4891672', '2777434392', '2776266027', '2910825703', '116537', '2779794448', '126645576', '2668921', '2776256026', '81632477', '147852310', '2780739625', '2780408538', '120305227', '528615729', '182348080', '102579867', '58790150', '180087314', '186348155', '2781421531', '123700513', '2779322298', '56858530', '2780531901', '132165134', '174091901', '179113317', '2779833838', '49671963', '125572338', '128410448', '33559203', '137527640', '16828302', '157062255', '197743484', '2781399283', '2778395396', '2778618992', '99546132', '51832835', '2779678948', '45145499', '2778893359', '2778570914', '2909805430', '12129029', '2777317380', '17538187', '150547873', '118733760', '2779928684', '162222271', '2776757554', '2777399949', '2909603817', '165895018', '69661492', '185515318', '131227075', '2777076574', '2777564511', '2781427571', '76177295', '96306036', '2777489503', '131046424', '153823671', '3128022', '2780012196', '100187453', '181843262', '2779508860', '189047708', '2780151969', '190960625', '2780165224', '65340099', '2777875673', '2778708356', '40675005', '2779835370', '2779940597', '105306849', '2781364496', '2780521934', '94562577', '2776342442', '187109078', '2780588113', '2776628701', '2776256148', '2909415995', '94061648', '129360787', '2780833732', '2779283343', '147990551', '2778213469', '2778407992', '138921699', '7879346', '2776870568', '2777493420', '190539079', '150513403', '145162277', '2776756561', '2776176531', '93983250', '2910645917', '2781143366', '152913119', '2777333993', '2780965534', '43632280', '2781360137', '107708555', '8625798', '4292930', '2779712367', '2777364431', '2779090549', '2781028066', '96124884', '1284942', '84250820', '39077098', '2777427512', '130797344', '2777690665', '19570952', '2777730692', '167110946', '2778722473', '81842627', '2776361503', '78244369', '502990516', '39410599', '2776812703', '195729132', '2777550478', '152232337', '2778099575', '99484651', '61661205', '176650113', '60943498', '2910053955', '175568690', '28362043', '28631016', '2779547435', '2780987889', '114993203', '2909984675', '2778597325', '49057587', '2776991799', '2780998164', '63358688', '48663136', '2781357674', '75255083', '146763847', '2909937950', '2779506560', '2778110159', '81446008', '2778247438', '523546767', '2778217819', '54005896', '2776799952', '195092306', '2780616974', '155681218', '2778491029', '2781036520', '2777184272', '122341333', '2776165558', '47291792', '2781113848', '167710798', '203380394', '2778668878', '2778632158', '105859001', '45020621', '547646559', '2779948615', '129513315', '149207113', '2779112213', '38626664', '46685645', '19835438', '51193700', '2776299736', '176205827', '40241539', '2778720231', '2776137031', '136325355', '198302294', '2776275385', '37992848', '53163501', '81599089', '108497213', '133214962', '2778192778', '184947814', '2776069950', '2778082681', '2777388718', '2778357586', '533363959', '188287460', '130309983', '2779386820', '67268981', '94042126', '124056412', '2777610350', '94747663', '187606762', '2909248125', '190714865', '161382645', '2776332401', '81692654', '69514717', '88024347', '2776306026', '2778211487', '2779202806', '2776695260', '2778666693', '2776849319', '2777812597', '2777919664', '162663994', '126933887', '2776572357', '144993055', '16145799', '57442070', '2777272942', '2860155', '2776952799', '79303471', '112570922', '81637046', '24939127', '93419950', '68359772', '200890946', '37037264', '83419821', '2778788645', '34667930', '2777910687', '21955270', '169488363', '2778330403', '67715294', '90195498', '186636678', '2777493711', '128168118', '88802367', '178254436', '2776897705', '42938798', '2775838554', '2777434770', '2776573520', '521259446', '2910692151', '2776121688', '2909494222', '2778583955', '64016661']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Contamination', 'Scientific evidence', 'Community-led total sanitation', 'Combined sewer', 'Geochemical modeling', 'Magnesium ammonium phosphate', 'Sluice', 'Wet oxidation', 'River basin management plans', 'Landslide', 'Piper diagram', 'Safe Drinking Water Act', 'ERA-40', 'Erosion', 'Groundwater-dependent ecosystems', 'Cadmium poisoning', 'Nutrient pollution', 'Effluent', 'Arsenic contamination of groundwater', 'Peak water', 'Capital cost', 'Earth remote sensing', 'Enhanced biological phosphorus removal', 'Air stripping', 'Landform', 'Water safety', 'Extended aeration', 'Capacitive deionization', 'Consumptive water use', 'Redintegration', 'River engineering', 'Nanotechnology education', 'National Water Policy', 'Consumption function', 'Transect', 'Sanitation', 'Cone of depression', 'Colored dissolved organic matter', 'Water balance', 'Fossil water', 'Destratification', 'Chemcatcher', 'Emission standard', 'Dissolved air flotation', 'Autonomous consumption', 'Aerobic treatment system', 'Surface water', 'Capillary fringe', 'Xeriscaping', 'Sustainable Services', 'Water table', 'Open defecation', 'Saltwater intrusion', 'Sewage treatment', 'Hyporheic zone', "Fenton's reagent", 'MODFLOW', 'Water reclamation', 'Soil salinity control', 'Temporal scales', 'Volatile suspended solids', 'Permafrost', 'Groundwater remediation', 'Clean Water Act', 'Turbidity', 'Interception', 'Algal bloom', 'Index of biological integrity', 'Microplastics', 'Tap water', 'Water resource policy', 'Sludge volume index', 'Constructed wetland', 'Air sparging', 'Lime softening', 'Dry lake', 'Molecularly imprinted polymer', 'Desalination', 'Subsurface flow', 'Depression-focused recharge', 'Gallery forest', 'Composting toilet', 'Legal instrument', 'Fluvial terrace', 'Water scarcity', 'Rainwater harvesting', 'Membrane bioreactor', 'Biochemical oxygen demand', 'Bacteria', 'Agricultural land', 'Maximum Contaminant Level', 'Conventional pollutant', 'Aerobic digestion', 'Levee', 'Buffer strip', 'Waves and shallow water', 'Pesticide drift', 'Forest management', 'Revaluation', 'Geostatistics', 'Floodplain', 'Sanitary sewer', 'Water conservation', 'Municipal well', 'Chloramination', 'Groundwater pollution', 'Multiple-effect distillation', 'Cointegration', 'Solar humidification', 'Dye tracing', 'Phreatic', 'Bathing Beaches', 'Ravine', 'Lung cancer', 'Hand washing', 'Netpath', 'Ancillary data', 'Permeable reactive barrier', 'Lead and Copper Rule', 'Overdrafting', 'Public good', 'Public toilet', 'Loess', 'Stabilization pond', 'Hydrogeology', 'Reclaimed water', 'Sediment', 'Natural hazard', 'Hydrology', 'Water resources', 'Cross-flow filtration', 'Urban runoff', 'Electrodeionization', 'Purified water', 'Erosion control', 'Coliform bacteria', 'Aerobic granulation', 'Water pricing', 'Diarrhoeal diseases', 'Hydric soil', 'Nanofiltration', 'Base metal', 'Irrigation', 'Hygiene', 'Consumption distribution', 'Dam failure', 'Membrane', 'Water efficiency', 'Salinity', 'Portable toilet', 'Flocculation', 'Distributed element model', 'Dumping', 'Public water system', 'Effluent guidelines', 'Bedrock', 'Sewerage', 'Water conflict', 'Groundwater model', 'Latrine', 'Culvert', 'Activated sludge model', 'Suspended solids', 'Water level', 'Hydropower', 'Water treatment', 'Conjunctive use', 'Electrodialysis', 'Bioirrigation', 'Agricultural wastewater treatment', 'Effluent limitation', 'Multi-stage flash distillation', 'Agricultural pollution', 'Subirrigation', 'Deficit irrigation', 'Waste framework directive', 'Dry season', 'Farm water', 'Sodium adsorption ratio', 'Ethylene glycol dimethacrylate', 'Biofilter', 'Greywater', 'Limnology', 'Appropriate technology', 'Distilled water', 'Source water protection', 'Water supply', 'Drinking water pollution', 'Cesspit', 'Karst', 'PERSIANN', 'Marsh', 'Zoogloea', 'Water pollutants', 'Improved sanitation', 'Bottled water', 'Trophic state index', 'Total suspended solids', 'Water tariff', 'Biological Oxygen Demand Analysis', 'Water chlorination', 'Reduction strategy', 'Energy policy', 'Megadrought', 'Groundwater discharge', 'Ecohydrology', 'Impervious surface', 'Water-use efficiency', 'Human waste', 'Aerial photography', 'Toilet', 'Potentiometric surface', 'Chemical oxygen demand', 'Stormwater harvesting', 'Rhizofiltration', 'Drinking water quality standards', 'Anaerobic digestion', 'Hypolimnion', 'Improved water source', 'Septage', 'Ductile iron pipe', 'Added value', 'Water content', 'Technology dynamics', 'Aerated lagoon', 'Water wheel', 'Rotating biological contactor', 'Wastewater', 'Storm', 'Wetland', 'Safety water', 'Water-related Diseases', 'Stream restoration', 'Karst spring', 'Low-flow irrigation systems', 'Water pollution', 'Virtual water', 'Limnic eruption', 'Desertification', 'Piezometer', 'Textile dye', 'Groundwater', 'Reservoir simulation', 'Head measurements', 'Devaluation', 'Water point mapping', 'Assimilative capacity', 'Water stagnation', 'Activated sludge', 'Water testing', 'Urban planning', 'Water industry', 'Water security', 'Tube well', 'Submarine groundwater discharge', 'Chlorinated solvents', 'Segmented filamentous bacteria', 'Bioprecipitation', 'Interbasin transfer', 'Technology education', 'Environmental isotopes', 'Total dissolved solids', 'Toilet Facility', 'Shelf ice', 'Secondary treatment', 'Environmental impact of pharmaceuticals and personal care products', 'Advanced oxidation process', 'Sewage', 'Pit water', 'Well drainage', 'Dam Collapse', 'Drinking water directive', 'Backswamp', 'Private well', 'Solar water disinfection', 'Biogeochemistry', 'Hydraulic tomography', 'Pore water pressure', 'Dam removal', 'Infiltration gallery', 'Directive', 'Hydrogeophysics', 'Biosand filter', 'Hand pump', 'Political economy', 'Watershed', 'Coastal engineering', 'Water banking', 'Multiple-effect humidification', 'Groundwater sapping', 'Water trading', 'Integrated water resources management', 'Spatial variability', 'Parking lot', 'Environmental management system', 'Watershed management', 'Water damage', 'Coliform index', 'Groundwater recharge', 'Water Framework Directive', 'Pollution', 'Clarifying agent', 'Point source', 'Seasonal thermal energy storage', 'Defecation', 'Non-revenue water', 'Sphaerotilus natans', 'Industrial wastewater treatment', 'Stygofauna', 'Opportunity cost', 'Freshwater ecosystem', 'Natural Springs', 'Digital elevation model', 'Water remote sensing', 'Kriging', 'DNA Contamination', 'Heavy metals', 'Carbonate hardness', 'Trickling filter', 'Geological survey', 'Water use', 'Water right', 'Land reclamation', 'Water well', 'Hydraulic retention time', 'Water cycle management', 'Specific storage', 'Cost estimate', 'Drainage basin', 'High water mark', 'Hydrogeomorphology', 'Ammoniacal nitrogen', 'Tributary', 'Pit latrine', 'Hydraulic engineering', 'Biosorption', 'Urban heat island', 'Biosurvey', 'Extreme weather', 'Forward osmosis', 'Willingness to pay', 'Water year', 'Hydraulic structure', 'Service provider', 'Fog collection', 'GIS and hydrology', 'Struvite', 'Infiltration basin', 'Integrationism', 'Wastewater engineering', 'New political economy', 'Biometal', 'Sand dune stabilization', 'Reverse osmosis', 'Detention basin', 'Lake-effect snow', 'Revetment', 'Water chemistry analysis', 'River source', 'Sustainable sanitation', 'Urban stream', 'Dry toilet', 'Ecological sanitation', 'Total maximum daily load', 'Slug test', 'Integrated urban water management', 'Urine diversion', 'Groundwater flow', 'Profundal zone']</t>
+          <t>['Natural Springs', 'Cadmium poisoning', 'Coastal engineering', 'Aerobic digestion', 'Bioirrigation', 'Dry season', 'Sediment', 'Membrane', 'Water conservation', 'Urban planning', 'Permeable reactive barrier', 'Water well', 'Water banking', 'Molecularly imprinted polymer', 'Interception', 'Water-related Diseases', 'Industrial wastewater treatment', 'Water-use efficiency', 'Multi-stage flash distillation', 'Dissolved air flotation', 'Septage', 'Colored dissolved organic matter', 'Flocculation', 'Permafrost', 'Subirrigation', 'Technology education', 'MODFLOW', 'Textile dye', 'Head measurements', 'Cesspit', 'Defecation', 'Dry toilet', 'Aerobic treatment system', 'Fluvial terrace', 'Water balance', 'Devaluation', 'Water chlorination', 'Gallery forest', 'Well drainage', 'Microplastics', 'Hydrogeology', 'Ecological sanitation', 'Fossil water', 'Drinking water directive', 'Megadrought', 'Saltwater intrusion', 'Electrodeionization', 'Aerobic granulation', 'Constructed wetland', 'Extended aeration', 'Toilet Facility', 'Point source', 'Hydraulic structure', 'Rhizofiltration', 'Public toilet', 'Air sparging', 'Sustainable sanitation', 'Earth remote sensing', 'Stream restoration', 'Levee', 'Effluent', 'Water stagnation', 'Open defecation', 'Clarifying agent', 'Magnesium ammonium phosphate', 'Irrigation', 'Improved water source', 'Erosion', 'Landslide', 'Conventional pollutant', 'High water mark', 'Extreme weather', 'Chloramination', 'Water supply', 'Heavy metals', 'Overdrafting', 'Struvite', 'Nanotechnology education', 'Water table', 'Piper diagram', 'Anaerobic digestion', 'Distilled water', 'Total suspended solids', 'Effluent limitation', 'Membrane bioreactor', 'Safety water', 'Service provider', 'Ethylene glycol dimethacrylate', 'Drainage basin', 'Impervious surface', 'Lung cancer', 'Water testing', 'Environmental impact of pharmaceuticals and personal care products', 'Portable toilet', 'Ancillary data', 'Algal bloom', 'Appropriate technology', 'Karst', 'Pore water pressure', 'Sewage', 'Phreatic', 'Waves and shallow water', 'Urine diversion', 'Culvert', 'River engineering', 'Reduction strategy', 'Sphaerotilus natans', 'Arsenic contamination of groundwater', 'Groundwater recharge', 'Trickling filter', 'Dam failure', 'Biofilter', 'Geostatistics', 'Coliform index', 'Desertification', 'Bedrock', 'Tributary', 'Capital cost', 'Latrine', 'Community-led total sanitation', 'Solar water disinfection', 'Revetment', 'Peak water', 'Environmental management system', 'Drinking water quality standards', 'Buffer strip', 'Water cycle management', 'Water security', 'Biological Oxygen Demand Analysis', 'Groundwater discharge', 'Backswamp', 'Tap water', 'Watershed', 'Purified water', 'Destratification', 'Public good', 'Hydrogeomorphology', 'Technology dynamics', 'Dam Collapse', 'Sewerage', 'Transect', 'Loess', 'Groundwater flow', 'Carbonate hardness', 'Water conflict', 'Biosand filter', 'Groundwater', 'Integrated water resources management', 'Temporal scales', 'Energy policy', 'Water resources', 'Electrodialysis', 'Netpath', 'Subsurface flow', 'Digital elevation model', 'Ductile iron pipe', 'Limnology', 'Sanitation', 'Water treatment', 'Potentiometric surface', 'Ravine', 'Clean Water Act', 'Sustainable Services', 'Hydropower', 'Dam removal', 'Composting toilet', 'Storm', 'River source', 'Integrationism', 'Segmented filamentous bacteria', 'Stygofauna', 'Non-revenue water', 'Urban stream', 'Seasonal thermal energy storage', 'ERA-40', 'Water pollutants', 'Wastewater', 'Total dissolved solids', 'Erosion control', 'Stabilization pond', 'Lime softening', 'Water tariff', 'Public water system', 'Political economy', 'Hydraulic engineering', 'Desalination', 'Reclaimed water', 'Revaluation', 'Effluent guidelines', 'Cointegration', 'Xeriscaping', 'Biometal', 'Cost estimate', 'Drinking water pollution', 'Human waste', 'Trophic state index', 'Hyporheic zone', 'Pit latrine', 'Watershed management', 'River basin management plans', 'Hydraulic tomography', 'Surface water', 'Distributed element model', 'Water wheel', 'Willingness to pay', 'Chemcatcher', 'Stormwater harvesting', 'Infiltration basin', 'Water level', 'Hydraulic retention time', 'Biosurvey', 'Parking lot', 'Reverse osmosis', 'New political economy', 'Suspended solids', 'Activated sludge', 'Sand dune stabilization', 'Source water protection', 'Forward osmosis', 'Integrated urban water management', 'Added value', 'Agricultural land', 'Natural hazard', 'Biosorption', 'Specific storage', 'Pesticide drift', 'Total maximum daily load', 'Consumption distribution', 'Water year', 'Land reclamation', 'Groundwater model', 'Water resource policy', 'Municipal well', 'Dye tracing', 'Hydric soil', 'Forest management', 'Directive', 'Capacitive deionization', 'Detention basin', 'Private well', 'Water damage', 'Piezometer', 'Groundwater-dependent ecosystems', 'Safe Drinking Water Act', 'Limnic eruption', 'Geochemical modeling', 'PERSIANN', 'Water point mapping', 'Nanofiltration', 'Chlorinated solvents', 'Hand pump', 'Karst spring', 'Capillary fringe', 'Conjunctive use', 'Bacteria', 'Advanced oxidation process', 'Urban heat island', 'Water efficiency', 'Deficit irrigation', "Fenton's reagent", 'Floodplain', 'Bioprecipitation', 'Infiltration gallery', 'National Water Policy', 'Water trading', 'Emission standard', 'Slug test', 'Geological survey', 'Wet oxidation', 'Multiple-effect humidification', 'Reservoir simulation', 'Bottled water', 'Hypolimnion', 'Soil salinity control', 'Hygiene', 'Water right', 'Salinity', 'Water use', 'Sluice', 'Volatile suspended solids', 'Freshwater ecosystem', 'Interbasin transfer', 'Water scarcity', 'Wastewater engineering', 'Farm water', 'Base metal', 'Hydrogeophysics', 'Air stripping', 'Low-flow irrigation systems', 'Biochemical oxygen demand', 'Sludge volume index', 'Groundwater remediation', 'Cross-flow filtration', 'Rotating biological contactor', 'Landform', 'Aerial photography', 'Groundwater pollution', 'Water chemistry analysis', 'Pit water', 'Ammoniacal nitrogen', 'Waste framework directive', 'Toilet', 'Water industry', 'Chemical oxygen demand', 'Biogeochemistry', 'Water safety', 'Marsh', 'Index of biological integrity', 'Scientific evidence', 'Water Framework Directive', 'Spatial variability', 'Depression-focused recharge', 'Bathing Beaches', 'Sanitary sewer', 'Environmental isotopes', 'Sodium adsorption ratio', 'Kriging', 'Ecohydrology', 'Redintegration', 'Secondary treatment', 'Tube well', 'Dumping', 'Maximum Contaminant Level', 'Fog collection', 'Water reclamation', 'Assimilative capacity', 'Hand washing', 'Cone of depression', 'Urban runoff', 'Groundwater sapping', 'Shelf ice', 'GIS and hydrology', 'Sewage treatment', 'Zoogloea', 'Enhanced biological phosphorus removal', 'Lead and Copper Rule', 'Agricultural wastewater treatment', 'Contamination', 'Multiple-effect distillation', 'Water content', 'Nutrient pollution', 'Opportunity cost', 'Autonomous consumption', 'Hydrology', 'Rainwater harvesting', 'Coliform bacteria', 'Profundal zone', 'Improved sanitation', 'Greywater', 'Consumption function', 'Agricultural pollution', 'Wetland', 'Water pollution', 'Dry lake', 'Submarine groundwater discharge', 'Aerated lagoon', 'Lake-effect snow', 'Solar humidification', 'Activated sludge model', 'Water remote sensing', 'Consumptive water use', 'Water pricing', 'Legal instrument', 'Pollution', 'Diarrhoeal diseases', 'Virtual water', 'DNA Contamination', 'Combined sewer', 'Turbidity']</t>
         </is>
       </c>
     </row>
@@ -625,12 +625,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['2777031842', '19473024', '182501304', '17648541', '187414654', '157181609', '53914812', '2778330180', '2777811329', '2778656736', '2777466363', '207768971', '2777888664', '2780406490', '520343842', '108869833', '47651138', '2779868350', '33039251', '86155754', '2777210892', '2778234585', '85924503', '2780148753', '2777416314', '2779745812', '27037042', '2780394310', '123197309', '162857116', '117537405', '2775886207', '2776782565', '46465826', '2776867037', '2780113879', '2777618391', '9132272', '2776461528', '2775888423', '2780520809', '111766609', '2780814765', '2778032680', '151174772', '2776538475', '117127486', '2777348173', '160363772', '2777429066', '2776128071', '2779803109', '2779173739', '171666300', '2911192195', '104708988', '2781465288', '2779715735', '2778245977', '174306757', '206255140', '2781426840', '2779814830', '2778842010', '2780894989', '173372375', '105994980', '174493833', '53991642', '2778787560', '2780761721', '2779677415', '200630231', '2908529875', '196513747', '175365462', '2776327409', '154718420', '175461058', '137886200', '29267209', '2777821729', '2779683600', '2780066083', '2776033628', '2779252636', '55037315', '2779796603', '2780243441', '165998758', '2780902009', '175706755', '2781184898', '56085101', '2909574085', '188818383', '2779258914', '159403789', '38677869', '95926084', '105442212', '107645774', '203094288', '19065316', '146231206', '2781309322', '2777008186', '80845027', '2778675665', '2776660518', '2778998722', '174575960', '2776886032', '2779019381', '68189081', '184978287', '2779431981', '183287310', '2776205842', '2778539042', '2780572083', '9682599', '59622614', '2780229964', '2778163838', '2778742260', '2779048638', '43785746', '2778156585', '2910220436', '139315637', '101518730', '2777622855', '92311004', '107861326', '2781420532', '2779961549', '38864968', '186977519', '64298129', '2779862270', '2910697279', '16941374', '2778217648', '188573790', '2776442348', '2777215464', '37965861', '68801617', '2779430688', '2776469828', '38940224', '2777423268', '2780068603', '75825664', '100405246', '2779769944', '2778733479', '119494637', '2780182046', '2779990392', '2779813444', '24717449', '89505385', '45882903', '2776793327', '78635371', '1124016', '73916439', '143517461', '1715860', '2776208129', '509746633', '83227832', '2776740001', '2781374625', '181916410', '2778324724', '520301825', '79870159', '2909203570', '2779969000', '129456180', '2778722790', '2778636636', '2778013412', '150870023', '2778040493', '2780604391', '2778676262', '42060753', '74078090', '2780345752', '2777172336', '2780824857', '90509273', '37415627', '2780331013', '2781249646', '2777351703', '40675005', '2742236', '2776190866', '72080964', '2779172400', '2777586272', '2777479337', '57467194', '2778258436', '149982382', '2776058518', '2778829423', '160798176', '2909203356', '501529594', '151406439', '206991015', '2778153913', '2910979819', '2781300650', '2779081038', '2776546366', '7453809', '149039472', '2778834244', '518406490', '2779371384', '2781352779', '2781175455', '542482507', '2776499299', '135802936', '2776781735', '2780415358', '423512', '56685638', '2780978964', '2776705095', '2781341389', '86714428', '52208190', '2780059578', '118493204', '105923489', '31419778', '190168584', '2776645009', '99881593', '176871988', '2776078904', '15229330', '2779434388', '2776512361', '2780181841', '2779961193', '39380314', '2779533125', '40293303', '2776756539', '131046424', '119338728', '174503800', '2778856288', '98716924', '2780088643', '2779141992', '2781150358', '183237670', '2778032857', '2779968128', '2779550995', '196340769', '78244369', '20744434', '108722225', '95950515', '2780322740', '2777596722', '37107799', '2781008468', '2776726243', '526406351', '2777217638', '2781036252', '2777315079', '156380964', '40018170', '178065520', '20788544', '134178815', '540793156', '206658404', '135436540', '161829187', '17626397', '2776494654', '59167565', '196261454', '52881836', '2779257452', '176481572', '44044945', '2909690246', '187949908', '2777930111', '123153844', '2777908284', '2776741288', '544738498', '97615858', '2780059494', '154414509', '206888370', '75027835', '2780115483', '2781327496', '185220729', '2776576667', '2779877863', '113740612', '2779867701', '2778976125', '2779607880', '513535597', '2778844797', '103689191', '121119573', '108225325', '8735168', '2909570586', '2780004717', '2781084341', '2775903348', '2776849302', '2776417682', '2909699456', '2780050931', '159559250', '1034443', '135881395', '544956773', '2777027713', '2780301381', '10558101', '2778970885', '103017160', '39996523', '513653683', '143559376', '204312592', '2779200991', '2911135383', '2910385868', '29592376', '2780165552', '2776127450', '2781393684', '2778219479', '2780536370', '2777036795', '186503672', '163652712', '141713623', '2779710395', '91812121', '2776970089', '183739832', '2778474792', '132853815', '2778323372', '65183824', '2779848691', '83544830', '197551870', '183762234', '2776036445', '30236105', '127145964', '2776784348', '134537524', '184235594', '2777796192', '2780242610', '137851953', '142804171', '2776169166', '528261146', '104988666', '202417442', '2777804095', '122039914', '2776628701', '180553826', '99743013', '146733006', '78600449', '2780991303', '7817414', '41291067', '541104983', '2779623529', '2777563595', '2776780212', '2780430855', '24345647', '144179057', '68476402', '2780427980', '194945478', '2777682434', '88417058', '50551742', '2776325313', '542589376', '2779279529', '2776073808', '90530108', '38870921', '8744930', '2908830279', '106935595', '2777092252', '2776867696', '2780039422', '2777890234', '17485501', '2780165032', '2965452', '59427239', '2779765720', '66910140', '2777661767', '2778417203', '108655655', '551020850', '61980418', '2778040704', '91112408', '559228080', '2778869765', '32866371', '2779610122', '2780789856', '2779265950', '2778959709', '17130696', '120441037', '2780936489', '2780331096', '2781264327', '144717724', '2780153765', '2779895041', '155373166', '2777598616', '76047896', '34153902', '2777325068', '13119800', '2777028372', '2779973532', '2779748257', '128396106', '2777141785', '29682386', '140846259', '149768029', '2781335544', '2777692458', '2779473208', '2776609911', '2777512574', '2776615292', '189289785', '47737302', '52957995', '2778381653', '59633683', '31395832', '2781217054', '24671956', '2777001187', '126172416', '2778449969', '2778309119', '75684735']</t>
+          <t>['2780068603', '176481572', '91812121', '20744434', '2777351703', '123197309', '2779172400', '175365462', '19473024', '2776886032', '2776417682', '2780115483', '2775886207', '2777031842', '2776756539', '137886200', '2779877863', '140846259', '159403789', '2910220436', '86155754', '91112408', '126172416', '2777618391', '101518730', '78635371', '2778153913', '2909690246', '207768971', '154414509', '38677869', '2778417203', '53914812', '2781335544', '2779430688', '59622614', '2778829423', '2776576667', '2777325068', '176871988', '119338728', '37415627', '7453809', '2780572083', '89505385', '2780761721', '2778258436', '16941374', '2778040493', '2780322740', '108722225', '2779968128', '75825664', '2778856288', '161829187', '160363772', '551020850', '10558101', '2780113879', '2781327496', '2779677415', '111766609', '52957995', '2779431981', '175461058', '204312592', '203094288', '8744930', '64298129', '2781374625', '2777315079', '2780427980', '55037315', '2777466363', '513653683', '2779279529', '2776058518', '56085101', '2777512574', '59427239', '2777141785', '2778013412', '2781150358', '59167565', '151406439', '2778219479', '2776128071', '206991015', '2779814830', '2780242610', '2777888664', '2777811329', '2780978964', '2780902009', '31419778', '2775888423', '2779796603', '39996523', '2780088643', '2777563595', '542482507', '2779715735', '2776073808', '196261454', '2776782565', '2776849302', '43785746', '135881395', '2777796192', '92311004', '2780066083', '174306757', '2777622855', '13119800', '122039914', '2776538475', '42060753', '2778842010', '2909570586', '2778787560', '2781341389', '137851953', '2777008186', '2910979819', '2777692458', '2781309322', '119494637', '72080964', '2779258914', '95950515', '184235594', '2777804095', '155373166', '194945478', '2779813444', '95926084', '1715860', '2781426840', '83227832', '2780182046', '542589376', '2781465288', '2777429066', '509746633', '45882903', '1034443', '171666300', '2780936489', '27037042', '142804171', '106935595', '2776127450', '146231206', '108869833', '2780039422', '2778040704', '2780059578', '141713623', '185220729', '105923489', '520301825', '2777036795', '2781175455', '2777416314', '182501304', '134537524', '2778324724', '2776190866', '2776325313', '2777001187', '2780814765', '29682386', '2778539042', '544738498', '24717449', '2780243441', '2781184898', '2779252636', '2777596722', '99743013', '144717724', '38940224', '526406351', '68189081', '2776078904', '2779473208', '2778381653', '40293303', '131046424', '186503672', '2776036445', '183287310', '183739832', '2780331013', '2779848691', '120441037', '2779081038', '2778032857', '2778234585', '40675005', '2780991303', '90509273', '2779969000', '2779745812', '2776469828', '2778676262', '135802936', '2777348173', '90530108', '2777930111', '2776628701', '2910697279', '99881593', '80845027', '162857116', '66910140', '30236105', '2779019381', '2776970089', '38864968', '78600449', '117537405', '29592376', '86714428', '175706755', '1124016', '2778330180', '103017160', '2777215464', '2781420532', '105994980', '149039472', '113740612', '2909699456', '2780153765', '544956773', '2781008468', '200630231', '31395832', '29267209', '40018170', '37965861', '149982382', '151174772', '129456180', '2776660518', '53991642', '2776615292', '2777661767', '108225325', '68476402', '159559250', '559228080', '2777027713', '2780520809', '2780430855', '2778156585', '528261146', '2778834244', '174493833', '2779769944', '2909203356', '108655655', '2779748257', '98716924', '2780824857', '2780229964', '2781084341', '423512', '47651138', '2776645009', '2780165032', '2780894989', '46465826', '52208190', '2778309119', '2777092252', '2777890234', '518406490', '2779257452', '118493204', '180553826', '2779371384', '2778656736', '2779765720', '2778869765', '2778998722', '32866371', '2780415358', '2780050931', '37107799', '57467194', '2777172336', '2780148753', '2776741288', '501529594', '2908830279', '163652712', '139315637', '173372375', '50551742', '2779550995', '78244369', '83544830', '202417442', '183762234', '2779973532', '2778245977', '2777210892', '107645774', '187414654', '2776205842', '188573790', '97615858', '2776780212', '2776867696', '79870159', '2776169166', '2911192195', '206255140', '8735168', '156380964', '2776609911', '2779610122', '2781300650', '33039251', '19065316', '2780394310', '107861326', '76047896', '2908529875', '2776442348', '2777821729', '2780345752', '2776793327', '59633683', '2778742260', '68801617', '2776208129', '2781393684', '100405246', '2779862270', '2776461528', '2779961549', '540793156', '2777423268', '2778733479', '154718420', '24345647', '520343842', '9132272', '75684735', '121119573', '2778032680', '52881836', '2775903348', '2778844797', '104988666', '134178815', '41291067', '206658404', '2776033628', '127145964', '2779868350', '165998758', '85924503', '2776726243', '2965452', '2781264327', '2778722790', '88417058', '2781352779', '2778323372', '189289785', '184978287', '34153902', '15229330', '2776784348', '2778163838', '56685638', '2778217648', '2778970885', '2777217638', '150870023', '2909203570', '103689191', '2780604391', '17485501', '2742236', '2909574085', '2780406490', '38870921', '2779607880', '196340769', '2777908284', '2779961193', '2780181841', '513535597', '186977519', '2780301381', '2779434388', '2777598616', '132853815', '2777479337', '157181609', '2779895041', '2776499299', '2779265950', '174503800', '2776705095', '2910385868', '74078090', '2781217054', '2776546366', '24671956', '2780789856', '146733006', '2778675665', '2777586272', '39380314', '47737302', '17648541', '160798176', '181916410', '541104983', '2777028372', '2779048638', '2779710395', '178065520', '2780536370', '44044945', '144179057', '2779683600', '2779803109', '135436540', '2780331096', '2776512361', '143517461', '2778449969', '7817414', '2779990392', '190168584', '9682599', '123153844', '188818383', '2781249646', '174575960', '2779173739', '128396106', '2776327409', '75027835', '17626397', '61980418', '2911135383', '17130696', '2776781735', '2776867037', '2778474792', '187949908', '197551870', '2779533125', '2778959709', '2776494654', '206888370', '2778976125', '183237670', '2779141992', '117127486', '73916439', '2779200991', '105442212', '196513747', '149768029', '143559376', '65183824', '2779867701', '2777682434', '2780004717', '2776740001', '104708988', '2779623529', '2778636636', '2780059494', '20788544', '2780165552', '2781036252']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Solar water heating', 'Reversed electrodialysis', 'Seasonal energy efficiency ratio', 'Efficiency', 'Cofiring', 'Sustainable transport', 'Geothermal heating', 'Pitch control', 'Hydrogen infrastructure', 'Measurement and Verification', 'Design tool', 'Self-shrinking generator', 'Energy and environmental engineering', 'Greenhouse gas inventory', 'Energy engineering', 'Nuclear renaissance', 'Concentrated photovoltaics', 'Polycaprolactone', 'Content management', 'Hybrid power', 'Wood fuel', 'Lignocellulosic biomass', 'Dispatchable generation', 'National Energy Act', 'Energy poverty', 'Energy Independence and Security Act of 2007', 'Natural gas vehicle', 'Bouteloua gracilis', 'Multi-armed bandit', 'Torrefaction', 'Thermophotovoltaic', 'Energy-efficient driving', 'Greenhouse gas accounting', 'Biophotonics', 'Follow-the-sun', 'Compressed air energy storage', 'Solar power', 'IEC 62700', 'Heat pump', 'Natural refrigerant', 'Clean technology', 'Geothermal gradient', 'Vuilleumier cycle', 'Solar-assisted heat pump', 'Propulsor', 'Climate legislation', 'Thermoelectric generator', 'Solar furnace', 'Non-renewable resource', 'Conference of the parties', 'BREEAM', 'World Energy Outlook', 'Renewable portfolio standard', 'Small hydro', 'Energy pathways', 'Stand-alone power system', 'Solar-pumped laser', 'Ducted propeller', 'Photovoltaic power station', 'Geothermal exploration', 'Sour gas', 'Carbon leakage', 'Energy Policy Act of 1992', 'Solar chimney', 'Polarization-division multiplexing', 'Cokernel', 'Waste heat recovery unit', 'Thermophotonics', 'Biofuel', 'Power-system automation', 'Organosolv', 'Ulva prolifera', 'Cleaner production', 'Biofuel Cells', 'Remedial action', 'Methanol fuel', 'Arundo donax', 'Wind profile power law', 'Vegetable oil refining', 'Biopsychosocial model', 'Wind hybrid power systems', 'Energy Policy Act of 2005', 'Distributed key generation', 'Repartition', 'Virtual power plant', 'Mailing list', 'Experimental data', 'Performance per watt', 'Thermal response test', 'Imaging technology', 'Bothriochloa ischaemum', 'Rooftop photovoltaic power station', 'Fluorinated gases', 'Biochar', 'Geothermal Springs', 'Fugitive emissions', 'Carbon emission trading', 'Algae fuel', 'Petri net', 'Life-cycle greenhouse-gas emissions of energy sources', 'Feed-in tariff', 'Human resources', 'Ramp generator', 'Hydrogen vehicle', 'Solar cell research', 'Cardiorenal syndrome', 'Wind atlas', 'Continuous spectrum', 'Islanding', 'Solar power forecasting', 'Solar car', 'Renewable natural gas', 'Roboty', 'Relocation', 'Fossil fuel', 'Zero-energy building', 'Luminescent solar concentrator', 'Thermal energy storage', 'Electrical grid', 'United Nations Framework Convention on Climate Change', 'Nuclear Knowledge Management', 'Hydrogen fuel', 'SuperGrid', 'Trombe wall', 'Geothermal power', 'Green star', 'Atomic Energy Act', 'API gravity', 'Relay', 'Thermal Problem', 'Tidal barrage', 'Energy harvesting', 'User information', 'Hydroelectricity', 'Thermal energy', 'Carbon accounting', 'Net metering', 'Grid energy storage', 'Wave farm', 'Ram air turbine', 'Small wind turbine', 'Cardio-Renal Syndrome', 'Epact', 'Micro combined heat and power', 'Renewable energy', '100% renewable energy', 'Formic acid fuel cell', 'Carbon credit', 'Electrolyte', 'Energy Policy and Conservation Act', 'Coalbed methane', 'Load bank', 'Energy balance', 'Vehicle-to-grid', 'Transcritical cycle', 'Emissions trading', 'Silicone', 'Jatropha', 'Projective representation', 'Wave power', 'Energy independence', 'Proven reserves', 'Primary production', 'User interface', 'Fuel efficiency', 'Carbon Pollution Reduction Scheme', 'Energy subsidies', 'Biohydrogen', 'Energy storage', 'Renewable resource', 'Recuperator', 'Methane emissions', 'Climate change mitigation', 'Carbon offset', 'Project Independence', 'Energy-Efficient Ethernet', 'Hydrogen station', 'Electrification', 'Energy conservation', 'Solar shingle', 'Local-Regional', 'Manure management', 'PH partition', 'CASBEE', 'Reactor protection system', 'Enhanced geothermal system', 'Associated petroleum gas', 'Peak gas', 'Levulinic acid', 'Solar Resource', 'Biomass partitioning', 'Natural-gas processing', 'Wind resource assessment', 'Energy security', 'Solar cell', 'Robot', 'Capacity factor', 'Carbon lock-in', 'Parabolic trough', 'Low-carbon fuel standard', 'Hydropower', 'Efficient energy use', 'Energy supply', 'Meker-Fisher burner', 'Renewable Energy Certificate', 'Copenhagen Accord', 'Uranium market', 'Power system simulator for engineering', 'Outage probability', 'Typical meteorological year', 'Solar still', 'Solar access', 'Solar air conditioning', 'Nannochloropsis sp.', 'Carbon', 'Time series', 'Energy conversion efficiency', 'Plastic recycling', 'Pontoscolex corethrurus', 'Renewable energy in China', 'Grazing pressure', 'Energy tower', 'Energy carrier', 'Passive solar building design', 'Energy planning', 'Geothermal energy', 'Biomass', 'Thermal profiling', 'World energy consumption', 'Hydrogen technologies', 'Production sharing agreement', 'Middleware', 'Climate Change Agreement', 'Natural gas storage', 'Electricity generation', 'Power control', 'Nuclear safety and security', 'Maintenance respiration', 'Energy system', 'Atmospheric methane', 'Renewable fuels', 'Levoglucosan', 'Bacterivore', 'Combustion', 'Trickle charging', 'Solar cell efficiency', 'Higher Power', 'Power usage effectiveness', 'Electric motor', 'RT middleware', 'Wood gas generator', 'Active Network Management', 'Power purchase agreement', 'Green paradox', 'Biobased economy', 'Hydrogen economy', 'Advanced Fuel Cycle Initiative', 'Electric power', 'Cogeneration', 'Energy policy', 'Solar tracker', 'Environmental impact of the energy industry', 'European Union Emission Trading Scheme', 'Induction generator', 'Clean Power Plan', 'Solar updraft tower', 'Acinonyx', 'Clean coal technology', 'Solar pond', 'Energy conservation measure', 'Fuel poverty', 'Temporal difference learning', 'Added value', 'Photoelectrochemical cell', 'Alcohol fuel', 'Shale oil', 'Passive house', 'Vertical axis wind turbine', 'Regasification', 'Nuclear law', 'Corn stover', 'Charcoal', 'Emergency power system', 'Approximate computing', 'Natural-gas condensate', 'Bioenergy', 'Tidal power', 'Miller cycle', 'Photonics', 'Cryogenic energy storage', 'Solar vehicle', 'Electricity', 'Heliostat', 'LEED for Neighborhood Development', 'Automatic test pattern generation', 'Ocean thermal energy conversion', 'Periphyton', 'Cold filter plugging point', 'Marine energy', 'Common But Differentiated Responsibilities', 'Natural gasoline', 'Hybrid heat', 'Prepared Material', 'Air source heat pumps', 'Nuclear fuel cycle', 'Base load power plant', 'LNG storage tank', 'Ground heat exchanger', 'Distributed generation', 'Energy intensity', 'Boswellia sacra', 'Soil respiration', 'Electric power distribution', 'Green computing', 'Chlorococcum', 'Partially premixed combustion', 'Algae bioreactor', 'Biofortification', 'Carbon project', 'Natural gas field', 'Secondary reference', 'Carbon tax', 'Charging station', 'Low-carbon economy', 'Aquifer thermal energy storage', 'Unitized regenerative fuel cell', 'Intermittent energy source', 'Semiconductor', 'Offshore wind power', 'Nannochloropsis oculata', 'Binary cycle', 'Wind power forecasting', 'Home energy rating', 'Energy market', 'Low-carbon power', 'Absolute Change', 'Energy forecasting', 'Nitrogen rejection unit', 'Propulsion', 'Environmental impact of electricity generation', 'Silicon', 'Soil gas', 'Biorefinery', 'Smart grid', 'Rural electrification', 'Coppicing', 'Renewable energy credit', 'Nuclear power', 'Plane partition', 'Storage heater', 'Carbon price', 'Rescue vehicle', 'Low body temperature', 'Electric energy', 'Absorption heat pump', 'High-altitude wind power', 'Solar combisystem', 'Scenedesmus', 'Pyrolysis oil', 'Leymus', 'Grid parity', 'Carbon dioxide scrubber', 'Heat pump and refrigeration cycle', 'Alkaline fuel cell', 'Regenerative fuel cell', 'Ethics committee', 'Pumped-storage hydroelectricity', 'Nuclear option', 'Energy accounting', 'Personal carbon trading', 'Ethanol fuel', 'Solar charger', 'Industrial gas', 'Stochastic Petri net', 'Standing crop', 'Pellet fuel', 'Sustainability and systemic change resistance', 'Heat recovery ventilation', 'Microgrid', 'Photobioreactor', 'Waste heat', 'Exclosure', 'Public Utility Regulatory Policies Act', 'Greenhouse effect', 'Blue carbon', 'Green River Formation', 'Carbon finance', 'Alternative energy', 'Synthetic fuel', 'Flexible Mechanisms', 'G-network', 'Seasonal thermal energy storage', 'Mesocosm', 'Kyoto Protocol', 'Electricity market', 'Wind power', 'Photoactive layer', 'Energy management', 'Photovoltaic system', 'Solar energy', 'Renewable energy law', 'Inertial response', 'Marginal abatement cost', 'Bioproducts', 'Unconventional oil', 'Renewable heat', 'Table of contents', 'Carpool', 'Heat capacity rate', 'Energy mix', 'Solar sail', 'Divisia index', 'Zinc–air battery', 'Photovoltaics', 'Fossil fuel divestment', 'Hemicellulose', 'Low-energy house', 'Environmental impact of aviation', 'Aluminium recycling', 'Copper indium diselenide', 'Greenhouse gas removal', 'Green certificate', 'Telmatology', 'Floating wind turbine', 'Energy transition', 'Thermal engineering', 'Energy consumption', 'Energy crop', 'Natural gas', 'C-RAN', 'Biodiesel production', 'Miscanthus sinensis', 'Salix viminalis', 'Solar fuel', 'Energy development', 'Location', 'Solar architecture', 'Nuclear energy policy', 'Energy statistics', 'Inefficiency', 'Discrete event dynamic system', 'Biogasoline', 'Variable renewable energy', 'Absolute scale', 'Woodchips', 'Photoelectrolysis', 'Primary energy', 'Carbon footprint', 'Energy modeling', 'Geothermal heat pump', 'Osmotic power', 'Low-carbon emission', 'Land footprint', 'Food chain', 'Solar desalination', 'Powertrain', 'Tree allometry', 'Market transformation', 'Coefficient of performance', 'Adsorption refrigeration', 'Solar dryer', 'Solar thermal collector', 'LED stage lighting', 'Nannochloropsis', 'Geothermal desalination', 'United States Hydrogen Policy', 'Power budget', 'Magnesium battery', 'Relative growth rate', 'Concentrated solar power', 'Energy management software', 'Tip-speed ratio', 'Specific leaf area', 'Hydrocarbon dew point', 'Greenhouse gas', 'Conservation of energy', 'Energy efficiency gap', 'Weatherization', 'Testbed', 'Rhinanthus minor', 'Fusion power', 'Schizachyrium scoparium', 'Carbon neutrality', 'Turbine', 'Circuit reliability', 'Big data']</t>
+          <t>['Vehicle-to-grid', 'Natural gasoline', 'Regenerative fuel cell', 'Photoelectrochemical cell', 'Low-carbon fuel standard', 'Multi-armed bandit', 'Renewable Energy Certificate', 'Methanol fuel', 'Reversed electrodialysis', 'Roboty', 'Low-carbon power', 'Chlorococcum', 'Energy-efficient driving', 'Solar water heating', 'Cogeneration', 'Biopsychosocial model', 'Carbon project', 'United States Hydrogen Policy', 'Algae fuel', 'Thermal Problem', 'Hybrid power', 'Nuclear energy policy', 'Carbon neutrality', 'Solar power', 'Energy harvesting', 'Energy subsidies', 'Plastic recycling', 'Prepared Material', 'Self-shrinking generator', 'Soil respiration', 'Petri net', 'Salix viminalis', 'Geothermal heating', 'Magnesium battery', 'Energy Policy and Conservation Act', 'SuperGrid', 'Solar access', 'Biofortification', 'Market transformation', 'Electric motor', 'Solar tracker', 'Capacity factor', 'Energy carrier', 'Nuclear Knowledge Management', 'User interface', 'Organosolv', 'Outage probability', 'Epact', 'Peak gas', 'Passive house', 'Alcohol fuel', 'Energy conservation measure', 'Transcritical cycle', 'European Union Emission Trading Scheme', 'LEED for Neighborhood Development', 'Non-renewable resource', 'Energy development', 'Smart grid', 'Compressed air energy storage', 'Partially premixed combustion', 'Ulva prolifera', 'Geothermal gradient', 'Conservation of energy', 'Luminescent solar concentrator', 'Vegetable oil refining', 'Storage heater', 'Ramp generator', 'Aluminium recycling', 'Ram air turbine', 'Energy-Efficient Ethernet', 'Natural-gas condensate', 'Carpool', 'Experimental data', 'Design tool', 'Nuclear power', 'Fossil fuel divestment', 'Solar still', 'Biochar', 'Tip-speed ratio', 'Natural gas', 'Nannochloropsis', 'Enhanced geothermal system', 'Acinonyx', 'Periphyton', 'Time series', 'Scenedesmus', 'BREEAM', 'Energy conversion efficiency', 'Energy Policy Act of 1992', 'Public Utility Regulatory Policies Act', 'Energy and environmental engineering', 'Hydrogen infrastructure', 'Nuclear safety and security', 'Bothriochloa ischaemum', 'Trickle charging', 'Natural refrigerant', 'Performance per watt', 'Renewable energy credit', 'Clean Power Plan', 'Inertial response', 'Hydrogen technologies', 'Ducted propeller', 'Hemicellulose', 'Cold filter plugging point', 'Greenhouse gas accounting', 'Energy market', 'API gravity', 'Environmental impact of electricity generation', 'Exclosure', 'Hydroelectricity', 'Repartition', 'Geothermal exploration', 'User information', 'Coefficient of performance', 'G-network', 'Climate legislation', 'Biomass partitioning', 'Solar chimney', 'Nannochloropsis oculata', 'Power-system automation', 'Energy system', 'Greenhouse effect', 'Wind atlas', 'Pontoscolex corethrurus', 'Relative growth rate', 'Cardiorenal syndrome', 'Projective representation', 'Meker-Fisher burner', 'Carbon emission trading', 'Shale oil', 'Waste heat', 'Flexible Mechanisms', 'Food chain', 'Heat capacity rate', 'Proven reserves', 'Life-cycle greenhouse-gas emissions of energy sources', 'Recuperator', 'Carbon leakage', 'Carbon offset', 'Wave power', 'Photovoltaics', 'Solar-pumped laser', 'Conference of the parties', 'Climate change mitigation', 'Fuel efficiency', 'Propulsion', 'Small hydro', 'Carbon footprint', 'Natural gas vehicle', 'Blue carbon', 'Greenhouse gas removal', 'High-altitude wind power', 'Solar cell research', 'Nuclear renaissance', 'Floating wind turbine', 'Solar architecture', 'Levoglucosan', 'Heat pump and refrigeration cycle', 'Algae bioreactor', 'Combustion', 'Energy conservation', 'Leymus', 'World energy consumption', 'Energy poverty', 'Seasonal energy efficiency ratio', 'Photobioreactor', 'Electrification', 'Energy supply', 'Zinc–air battery', 'Schizachyrium scoparium', 'Vuilleumier cycle', 'Geothermal desalination', 'United Nations Framework Convention on Climate Change', 'Distributed generation', 'Primary production', 'Thermal response test', 'Fluorinated gases', 'Mailing list', 'Vertical axis wind turbine', 'Kyoto Protocol', 'Osmotic power', 'Load bank', 'Charcoal', 'Fossil fuel', 'RT middleware', 'Concentrated solar power', 'Energy efficiency gap', 'Electric power', 'Energy policy', 'Grid parity', 'Pellet fuel', 'Thermal energy storage', 'Pumped-storage hydroelectricity', 'Carbon lock-in', 'Solar charger', 'Primary energy', 'Grazing pressure', 'Solar pond', 'Lignocellulosic biomass', 'Hydropower', 'Photoactive layer', 'Robot', 'Manure management', 'Energy Independence and Security Act of 2007', 'Coalbed methane', 'Solar Resource', 'Middleware', 'Solar furnace', 'Low-energy house', 'Nuclear fuel cycle', 'Seasonal thermal energy storage', 'Cardio-Renal Syndrome', 'Power usage effectiveness', 'Continuous spectrum', 'Torrefaction', 'Biodiesel production', 'Sustainability and systemic change resistance', 'Relocation', 'Ethics committee', 'Grid energy storage', 'Wind power', 'Thermophotovoltaic', 'Electric energy', 'Atmospheric methane', 'Rooftop photovoltaic power station', 'Biohydrogen', 'Pitch control', 'Coppicing', 'Formic acid fuel cell', 'Carbon accounting', 'Waste heat recovery unit', 'Passive solar building design', 'Natural gas field', 'Absolute Change', 'Low-carbon emission', 'Silicon', 'Nuclear law', 'Cleaner production', 'Testbed', 'Wind hybrid power systems', 'Tidal power', 'Carbon credit', 'Typical meteorological year', 'Propulsor', 'PH partition', 'Solar power forecasting', 'Biofuel', 'Specific leaf area', 'Miscanthus sinensis', 'Semiconductor', 'Table of contents', 'Nitrogen rejection unit', 'Energy statistics', 'Soil gas', 'Clean technology', 'Bioproducts', 'Relay', 'Carbon finance', 'Energy planning', 'Thermophotonics', 'Silicone', 'Nannochloropsis sp.', 'Solar fuel', 'Solar thermal collector', 'Induction generator', 'Solar cell', 'Trombe wall', 'Wind power forecasting', 'Electricity generation', 'Concentrated photovoltaics', 'Higher Power', 'Energy consumption', 'Polarization-division multiplexing', 'Biophotonics', 'Renewable fuels', 'Circuit reliability', 'Green certificate', 'Energy transition', 'Geothermal energy', 'Common But Differentiated Responsibilities', 'Bacterivore', 'Mesocosm', 'Biomass', 'Measurement and Verification', 'C-RAN', 'Inefficiency', 'Solar car', 'Discrete event dynamic system', 'Natural gas storage', 'Energy forecasting', 'Regasification', 'Power system simulator for engineering', 'Energy security', 'National Energy Act', 'Ground heat exchanger', 'Carbon', 'Copper indium diselenide', 'Carbon dioxide scrubber', 'Tidal barrage', 'Cokernel', 'Divisia index', 'Fuel poverty', 'Added value', 'Industrial gas', 'Synthetic fuel', 'Standing crop', 'Solar dryer', 'Photovoltaic power station', 'Wood fuel', 'Human resources', 'Cofiring', 'Electrical grid', 'Renewable energy', 'Energy intensity', 'Marginal abatement cost', 'Telmatology', 'Solar shingle', 'Green River Formation', 'Energy pathways', 'Sour gas', 'Offshore wind power', 'Bioenergy', 'Energy management software', 'Biogasoline', 'Renewable energy in China', 'Content management', 'Hydrogen vehicle', 'Bouteloua gracilis', 'Thermal energy', 'Powertrain', 'Biofuel Cells', '100% renewable energy', 'Energy Policy Act of 2005', 'Wind resource assessment', 'Carbon Pollution Reduction Scheme', 'Weatherization', 'Green star', 'Electrolyte', 'Methane emissions', 'Solar combisystem', 'Emissions trading', 'Small wind turbine', 'Heat pump', 'Net metering', 'Solar vehicle', 'Energy balance', 'Jatropha', 'Wind profile power law', 'Unconventional oil', 'Energy engineering', 'IEC 62700', 'Big data', 'Intermittent energy source', 'Solar-assisted heat pump', 'Marine energy', 'Home energy rating', 'Aquifer thermal energy storage', 'Alternative energy', 'Cryogenic energy storage', 'Photovoltaic system', 'Electricity', 'Virtual power plant', 'Heat recovery ventilation', 'Polycaprolactone', 'Imaging technology', 'Dispatchable generation', 'Corn stover', 'Energy crop', 'Geothermal heat pump', 'CASBEE', 'Solar sail', 'Thermal profiling', 'Personal carbon trading', 'Hydrocarbon dew point', 'Zero-energy building', 'Tree allometry', 'Wood gas generator', 'Microgrid', 'Geothermal power', 'Power control', 'Micro combined heat and power', 'Rural electrification', 'Emergency power system', 'Associated petroleum gas', 'Local-Regional', 'Unitized regenerative fuel cell', 'Levulinic acid', 'Thermal engineering', 'Efficient energy use', 'Geothermal Springs', 'Greenhouse gas inventory', 'Environmental impact of aviation', 'Charging station', 'Temporal difference learning', 'LNG storage tank', 'Biobased economy', 'Green paradox', 'Low-carbon economy', 'Wave farm', 'Biorefinery', 'Active Network Management', 'Solar desalination', 'Energy accounting', 'Uranium market', 'Sustainable transport', 'Land footprint', 'Production sharing agreement', 'Absolute scale', 'Environmental impact of the energy industry', 'Maintenance respiration', 'Low body temperature', 'Natural-gas processing', 'Rhinanthus minor', 'Energy tower', 'Fusion power', 'Variable renewable energy', 'Electricity market', 'Islanding', 'Copenhagen Accord', 'Hydrogen economy', 'Greenhouse gas', 'Efficiency', 'Solar air conditioning', 'Hydrogen station', 'Solar energy', 'Adsorption refrigeration', 'Atomic Energy Act', 'Alkaline fuel cell', 'Miller cycle', 'Pyrolysis oil', 'Hybrid heat', 'Renewable heat', 'Distributed key generation', 'World Energy Outlook', 'Heliostat', 'Energy modeling', 'Power purchase agreement', 'Renewable resource', 'Turbine', 'Energy management', 'Energy independence', 'Solar cell efficiency', 'Hydrogen fuel', 'Base load power plant', 'Fugitive emissions', 'Parabolic trough', 'Renewable natural gas', 'Renewable portfolio standard', 'LED stage lighting', 'Arundo donax', 'Green computing', 'Automatic test pattern generation', 'Location', 'Rescue vehicle', 'Photoelectrolysis', 'Climate Change Agreement', 'Follow-the-sun', 'Nuclear option', 'Air source heat pumps', 'Stochastic Petri net', 'Advanced Fuel Cycle Initiative', 'Woodchips', 'Ocean thermal energy conversion', 'Electric power distribution', 'Carbon tax', 'Clean coal technology', 'Solar updraft tower', 'Thermoelectric generator', 'Energy storage', 'Carbon price', 'Feed-in tariff', 'Remedial action', 'Power budget', 'Plane partition', 'Ethanol fuel', 'Secondary reference', 'Energy mix', 'Binary cycle', 'Project Independence', 'Stand-alone power system', 'Renewable energy law', 'Reactor protection system', 'Boswellia sacra', 'Photonics', 'Absorption heat pump', 'Approximate computing']</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['2909899567', '2775844827', '2776689383', '2910578545', '202063016', '2778126366', '72614640', '2908915227', '2776883808', '2776498708', '87980944', '2778597803', '2779014257', '111226992', '2779795779', '132943942', '2778038044', '2780085806', '134659438', '95389739', '2776245402', '81502235', '2908822358', '2780625504', '2781005894', '43071985', '2778581803', '23032112', '195742910', '2910887555', '46312889', '2908823330', '2780289447', '2779257778', '48879800', '2780431834', '10138342', '2781349114', '18918823', '2778116346', '506796395', '155109394', '2780946114', '2780618658', '2910471639', '2780082420', '2780286488', '134827381', '2778300220', '2910129406', '2778734068', '136264566', '181230689', '2777877159', '2910941953', '2778021871', '68286588', '15302153', '2777358941', '2776581254', '80984254', '2776465609', '2779719641', '54750564', '23925645', '145236788', '2775965751', '2779674044', '2779290559', '76073288', '2776988154', '2776943663', '2778716609', '2780836627', '2780438764', '2781455901', '187212893', '2777671340', '2776237081', '39389867', '79119010', '2778837545', '176289848', '2776325488', '64089585', '190175210', '2776332928', '2776888587', '2778762746', '2909916548', '2776849302', '50522688', '2777464741', '2779783368', '2911089958', '2776255816', '2776544115', '84309077', '51067260', '2778215748', '2775963177', '2778556080', '2778576984', '2778002999', '2780370025', '2777885895', '93236110', '2777540445', '2778970885', '2777211311', '107645774', '206713868', '2781257228', '2909201987', '2780000394', '2780763229', '2780870317', '510346563', '56995899', '2778806149', '2778566306', '107806365', '2776737852', '2780516171', '68189081', '2910181414', '2779986911', '2780498437', '2909045595', '11092464', '2779739803', '2781190941', '2778517334', '2778139618', '158886217', '2780931059', '2781426361', '135335626', '2778000738', '139203340', '22541086', '105578763', '147583825', '2909732560', '2909356555', '2778431023', '527784420', '155508913', '2778774626', '2909644561', '2908562352', '204983608', '2779266529', '2781068852', '29985473', '63545947', '2775876557', '2776125615', '2777950934', '2910283248', '2775865179', '2775867934', '2775893736', '49906088', '2775982628', '67886934', '162324750', '26595155', '2910004771', '2780127002', '2910547974', '2776698172', '78597825', '536738050', '41708089', '2780638295', '142323842', '139043278', '34099160', '2779264144', '30228293', '2909274781', '2780695613', '2779723664', '2777439000', '2776805697', '2778395451', '121087249', '175700187', '2781096511', '2781188878', '10144844', '21839126', '2778148510', '2781441816', '2776167287', '2776942536', '2778738845', '2777581918', '2778712577', '2776880170', '2777731549', '2777747085', '2780977596', '2911183331', '2910343112', '6927289', '109986646', '2779152076', '2911189839', '2777288899', '2779443769', '2909148432', '6968784', '2776665811', '48057960', '38104776', '2780745107', '40800819', '2780536516', '2775906418', '2779011557', '2778381653', '2779687257', '2909538334', '2775969135', '2776358859', '105639569', '9778290', '2780407378', '110458093']</t>
+          <t>['2908823330', '510346563', '2908562352', '2775982628', '2776581254', '34099160', '10144844', '2776245402', '78597825', '63545947', '2910181414', '38104776', '2781455901', '2780870317', '2778431023', '2775876557', '2910887555', '2781096511', '2779723664', '2780289447', '23925645', '2777439000', '2910283248', '51067260', '2775893736', '2909538334', '2778597803', '2777211311', '2778395451', '2780618658', '2775965751', '50522688', '41708089', '2778000738', '2909644561', '64089585', '2776737852', '30228293', '2780763229', '2776332928', '2910547974', '2779795779', '2776988154', '2909148432', '2778021871', '2910941953', '2781257228', '2911089958', '105578763', '2776358859', '2778734068', '2775844827', '2778038044', '2910004771', '9778290', '2909274781', '2775969135', '204983608', '6927289', '158886217', '2777288899', '2775906418', '2780082420', '107645774', '2778139618', '206713868', '2779290559', '2780431834', '2778712577', '145236788', '2776943663', '2776665811', '40800819', '2781188878', '2778716609', '2777950934', '2781441816', '18918823', '15302153', '93236110', '2780536516', '2778517334', '2776498708', '155109394', '2779011557', '2777747085', '2909916548', '2780977596', '2910343112', '134659438', '2776849302', '2780745107', '2779739803', '84309077', '2780625504', '48057960', '87980944', '72614640', '2780370025', '2780836627', '2777358941', '79119010', '49906088', '39389867', '2778300220', '2780638295', '132943942', '136264566', '2909356555', '2776255816', '46312889', '2778566306', '2776698172', '2779783368', '48879800', '2781426361', '2781005894', '2778215748', '2910471639', '2776167287', '22541086', '155508913', '2911189839', '2780931059', '139203340', '81502235', '2780516171', '139043278', '2778126366', '121087249', '2777581918', '2776544115', '2777877159', '76073288', '2780946114', '111226992', '2911183331', '2778556080', '2778970885', '134827381', '2779266529', '2776689383', '2778738845', '2778581803', '2908822358', '26595155', '2778002999', '2778116346', '2776942536', '2781068852', '2778762746', '68286588', '2778774626', '2779257778', '80984254', '2776237081', '202063016', '95389739', '2781349114', '2780000394', '2781190941', '2777671340', '536738050', '175700187', '29985473', '2909045595', '56995899', '107806365', '2776125615', '2778806149', '2776805697', '68189081', '109986646', '2778381653', '2775867934', '2778837545', '2780085806', '142323842', '135335626', '2908915227', '54750564', '2775963177', '147583825', '2779719641', '2780127002', '2779014257', '2777731549', '2778576984', '195742910', '43071985', '527784420', '2779687257', '2779986911', '2779152076', '6968784', '2909899567', '2775865179', '2777540445', '110458093', '23032112', '2909732560', '2910578545', '2779264144', '2777885895', '2780498437', '2780407378', '506796395', '2776465609', '190175210', '176289848', '2776883808', '181230689', '21839126', '162324750', '2779674044', '2777464741', '105639569', '2780286488', '67886934', '2776888587', '2909201987', '2776325488', '10138342', '2910129406', '2778148510', '187212893', '2780438764', '2779443769', '2780695613', '2776880170', '11092464']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Work injury', 'Financial independence', 'Labour supply', 'Occupational activity', 'Marginal product', 'Unemployment', 'Secondary labor market', 'Grievance procedures', 'Added worker effect', 'Demining', 'Industrial policy', 'Labour power', 'Natural rate of unemployment', 'Teamwork', 'Payroll tax', 'Footprint', 'Living wage', 'Layoff', 'Social exclusion', 'Social order', 'Playoffs', 'Precession', 'Organizational Case Studies', 'Structural estimation', 'Occupational skin diseases', 'Financial risk management', 'Unfair labor practice', 'Enterprise value', 'Recession', 'Occupational mobility', 'Nanomanufacturing', 'Full-time employment', 'Disability pension', 'Working age', 'Small and medium-sized enterprises', 'Flexicurity', 'Finance', 'Wage curve', 'Tourism', 'Labor shortage', 'Financial management', 'Organizational studies', 'Dual labour market', 'Annual growth rate', 'Family Leave', 'Access to finance', 'Works council', 'Social venture capital', 'Financial crisis', 'Seeking work', 'Sustainable tourism', 'Economy', 'Net present value', 'Working time', 'Employment history', 'Footprinting', 'Full employment', 'Employability', 'Temporary work', 'Social Right', 'Labor relations', 'Labor market segmentation', 'Work motivation', 'Commerce', 'Financial modeling', 'Labour economics', 'Active labour market policies', 'Glass ceiling', 'Jobless recovery', 'Financial risk', 'Exchange rate', 'Human capital', 'Minimum wage', 'Technological fix', 'Youth unemployment', 'Eurosclerosis', 'Pediatrics', 'Social rights', 'Income Support', 'Corporate governance', 'Resource productivity', 'Core Labor Standards', 'Die (manufacturing)', 'Employment contract', 'Informal sector', 'Beveridge curve', 'Termination of employment', 'Unemployment in the United States', 'Consumption smoothing', 'Marginal Employment', 'Energy market', 'Economic growth', 'Child labour', 'Marriage market', 'Precarious Employment', 'Employment protection legislation', 'Involuntary unemployment', 'Entrepreneurship', 'Professional development', 'Work–life balance', 'Labour code', 'Green growth', 'Outplacement', 'Retirement planning', 'Labor mobility', 'Real wages', 'Club deal', 'Collective agreement', 'Rural electrification', 'Graduate unemployment', 'Human resources', 'Near miss', 'Labor disputes', 'Labor Forces', 'Family economics', 'Occupational injury', 'Equal employment opportunity', 'United States labor law', 'Focus group', 'International labour law', 'Personal income', 'Apprenticeship', 'Sick leave', 'Public employment service', 'Fossil fuel', 'Job losses', 'Environmental issue', 'Labour market flexibility', 'Migrant labor', 'The labor problem', 'Labor demand', 'Minimum wage law', 'Parental leave', 'Workforce', 'Latin Americans', 'Child benefit', 'Earnings', 'Discouraged worker', 'Self-employment', 'Monopsony', 'Dependency ratio', 'Age grade', 'Body weight', 'Chronic unemployment', 'Part-time employment', 'Alliance', 'Market socialism', 'Misery index', 'Phillips curve', 'Active Labor', 'Current employment', 'Productivity', 'Unpaid work', 'Union density', 'Natural resource', 'Individual capital', 'T-commerce', 'Economic evaluation', 'Skilled worker', 'Economics policy', 'Technological innovation system', 'Disparate treatment', 'Biomanufacturing', 'Latin American art', 'Geoeconomics', 'Marginal product of labor', 'Economics', 'Constructive dismissal', 'Collective labor agreements', 'Frictional unemployment', 'Insurance benefit', 'Underemployment', 'E-commerce', 'Social Welfare', 'GDF7', 'Occupational disease', 'Weighted network', 'Financial services', 'Kickoff meeting', 'Basic income', 'Stagflation', 'Fringe Benefit', 'Reservation wage', 'Household economics', 'Housing tenure', 'Tax policy', 'Occupational segregation', 'Emerging markets', 'Manufacturing', 'Mandatory retirement', 'Degrowth', 'Labour law', 'Green economy', 'Bioeconomics', 'Occupational lung disease', 'Trade promotion', 'Women in the workforce', 'Remanufacturing', 'Job security', 'Retraining', 'Enterprise 2.0', 'Consumer Protection Act', 'Financial sector development', 'Gender pay gap', 'Hourly wage', 'Obstetric Labor', 'Present value', 'Public policy', 'Smart growth', 'Active labour', 'Retirement age', 'Foreign worker', 'Employment problem', 'Efficiency wage', 'Collective bargaining', 'Bargaining power', 'Industrial relations', 'New Economic Policy', 'Population pyramid', 'Displaced workers', 'Precarious work', 'Curriculum development', 'Energy efficiency gap', 'Occupational fatality', 'Industrial conflict', 'NAIRU', 'Structural unemployment', 'Economic policy', 'Market value added', 'Overtime', 'Redistribution of income and wealth']</t>
+          <t>['Full-time employment', 'United States labor law', 'Current employment', 'Geoeconomics', 'Social Right', 'Kickoff meeting', 'Labour law', 'Playoffs', 'E-commerce', 'Individual capital', 'Job losses', 'Industrial relations', 'Eurosclerosis', 'Equal employment opportunity', 'Alliance', 'T-commerce', 'Occupational mobility', 'Mandatory retirement', 'Household economics', 'Disability pension', 'Financial modeling', 'Housing tenure', 'Economics policy', 'Professional development', 'Biomanufacturing', 'Industrial conflict', 'Labour power', 'Graduate unemployment', 'Occupational segregation', 'Annual growth rate', 'Active labour market policies', 'Economic growth', 'GDF7', 'Self-employment', 'Active Labor', 'Informal sector', 'Sick leave', 'Stagflation', 'Occupational injury', 'Termination of employment', 'Insurance benefit', 'Payroll tax', 'Exchange rate', 'Employment problem', 'Footprinting', 'Employment history', 'Labor disputes', 'Precarious Employment', 'Age grade', 'Structural unemployment', 'Sustainable tourism', 'Financial independence', 'Living wage', 'Collective labor agreements', 'Market value added', 'Fringe Benefit', 'NAIRU', 'Productivity', 'Present value', 'Latin Americans', 'Retirement age', 'Precarious work', 'Access to finance', 'Human resources', 'Workforce', 'Near miss', 'Jobless recovery', 'Flexicurity', 'Retraining', 'Labour economics', 'Human capital', 'Collective bargaining', 'Population pyramid', 'Degrowth', 'Minimum wage', 'Skilled worker', 'Occupational lung disease', 'Tourism', 'Employability', 'Club deal', 'Displaced workers', 'Parental leave', 'Demining', 'Organizational studies', 'Curriculum development', 'Financial sector development', 'Marginal Employment', 'Gender pay gap', 'Obstetric Labor', 'Social exclusion', 'Energy market', 'New Economic Policy', 'Labor demand', 'Entrepreneurship', 'Structural estimation', 'Bargaining power', 'Industrial policy', 'Secondary labor market', 'Labor mobility', 'Technological fix', 'Temporary work', 'Resource productivity', 'Latin American art', 'Corporate governance', 'Financial crisis', 'Occupational disease', 'Footprint', 'Economy', 'Part-time employment', 'Employment protection legislation', 'Nanomanufacturing', 'Personal income', 'Underemployment', 'Marriage market', 'Small and medium-sized enterprises', 'Earnings', 'Occupational skin diseases', 'Work–life balance', 'Family Leave', 'Trade promotion', 'Dependency ratio', 'Misery index', 'Active labour', 'Child benefit', 'Monopsony', 'Precession', 'Public employment service', 'Financial services', 'Unemployment', 'Emerging markets', 'Job security', 'Involuntary unemployment', 'Working time', 'Financial risk', 'Dual labour market', 'Teamwork', 'Hourly wage', 'Green growth', 'Rural electrification', 'Social venture capital', 'Unpaid work', 'Labour supply', 'Remanufacturing', 'Unfair labor practice', 'Organizational Case Studies', 'Constructive dismissal', 'Retirement planning', 'Labor shortage', 'Women in the workforce', 'Union density', 'Consumption smoothing', 'Full employment', 'Phillips curve', 'Working age', 'Labor relations', 'Income Support', 'Marginal product', 'Social order', 'Wage curve', 'Family economics', 'Minimum wage law', 'Social rights', 'Social Welfare', 'Manufacturing', 'Natural resource', 'Migrant labor', 'Focus group', 'Apprenticeship', 'Economic evaluation', 'International labour law', 'Tax policy', 'Fossil fuel', 'Public policy', 'Energy efficiency gap', 'Disparate treatment', 'Core Labor Standards', 'Layoff', 'Weighted network', 'Discouraged worker', 'Grievance procedures', 'Commerce', 'Labour code', 'Body weight', 'Work motivation', 'Frictional unemployment', 'Natural rate of unemployment', 'Consumer Protection Act', 'Outplacement', 'Recession', 'Financial risk management', 'Market socialism', 'Occupational fatality', 'Environmental issue', 'Smart growth', 'Efficiency wage', 'Work injury', 'Technological innovation system', 'Collective agreement', 'Redistribution of income and wealth', 'Enterprise value', 'Chronic unemployment', 'Occupational activity', 'Basic income', 'Real wages', 'Labour market flexibility', 'Overtime', 'Financial management', 'Labor market segmentation', 'Beveridge curve', 'Die (manufacturing)', 'Added worker effect', 'Net present value', 'Green economy', 'Economics', 'Glass ceiling', 'Child labour', 'Economic policy', 'Works council', 'Marginal product of labor', 'Unemployment in the United States', 'Labor Forces', 'Employment contract', 'Finance', 'Seeking work', 'Bioeconomics', 'Pediatrics', 'Youth unemployment', 'Foreign worker', 'Reservation wage', 'Enterprise 2.0', 'The labor problem']</t>
         </is>
       </c>
     </row>
@@ -691,12 +691,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['2777661930', '2777909563', '2182769', '2778464233', '184422994', '2777783080', '192639820', '129446986', '72422203', '2776258540', '2778831993', '2779769603', '311688', '5829439', '129880937', '119781247', '2776060655', '33842695', '33039251', '134240934', '136319028', '2910450386', '2779260511', '170563983', '45502583', '2910677061', '545171759', '2765594', '2778778939', '992767', '2908912629', '46820840', '60595047', '71376005', '207857233', '551230270', '35341882', '2780720960', '184454961', '115023222', '169337768', '2777215911', '2781381157', '2780626145', '187394410', '555048382', '160363772', '2910731964', '2779199053', '2908666506', '2780198632', '57061188', '2780892144', '2777575374', '2775914053', '113145756', '58817359', '3866505', '2908879008', '161813005', '143066371', '101336846', '2777777821', '21946209', '148221864', '120302604', '72293138', '2777215697', '201547687', '164862427', '114290370', '2909631073', '37428701', '2779511760', '183208416', '107756529', '14914868', '185172162', '2777450992', '169715780', '2776077392', '2781148867', '73412179', '2778086310', '99970624', '2910631570', '2776588719', '2778555145', '122136912', '130230704', '74524168', '2780403918', '41056977', '2778499088', '2909195514', '9593695', '2778459932', '71681937', '2910050528', '2777565064', '178365465', '2780179797', '2911124959', '2908681449', '138721006', '2781113784', '34612862', '104205377', '41132950', '98535783', '31531917', '2776676641', '2780615885', '2776142628', '118519418', '176445938', '78401558', '2777835026', '110350745', '2779771641', '2778516001', '2776782996', '110956428', '2779622097', '60511073', '2908558976', '2777959984', '2781338159', '2776509796', '539828613', '137126227', '5871375', '2780523633', '23119410', '2909712328', '79127381', '520752033', '2778398154', '93389723', '71813955', '2777232610', '131232501', '2778183165', '2776136876', '166556878', '2910681755', '42133412', '2778255315', '121017423', '100405246', '2777862630', '46891859', '203715995', '2779842916', '2778197767', '56919463', '153553885', '2779306247', '2909316267', '11799548', '2779006324', '2779610630', '5546195', '193415008', '118572532', '192220659', '171900002', '85973986', '110407247', '544153396', '171142967', '89094514', '2777526511', '200657195', '179145077', '13021490', '30112582', '2911004254', '160919093', '2780805606', '16635281', '2778865806', '72898154', '2779689694', '2780516175', '2780652884', '158843486', '163581340', '150185637', '2779135357', '201784641', '199845137', '158711907', '2778119891', '2781117724', '2780873938', '2777347882', '2777132090', '5408304', '62402440', '38653338', '2775849312', '2778820799', '2910741372', '2909709171', '2781399071', '2778360186', '160088933', '15476841', '142784634', '2776405685', '193237570', '179687394', '2779072820', '130946814', '73413767', '2781155252', '513985346', '2777592538', '2778344433', '7923174', '2779490540', '2780766832', '2910470413', '1781132', '2778920187', '74250896', '150256626', '46724921', '21538904', '32243926', '2910706634', '2777200204', '31163007', '2780188227', '6268609', '206826598', '102458011', '187612029', '178859891', '2776310492', '2777314014', '75434695', '40046163', '11727466', '181236821', '12143843', '2775899781', '2909055331', '40937832', '2779015050', '2779436495', '2776456419', '94922259', '2778842860', '2777098202', '53688548', '2779241781', '74478641', '172750839', '201100257', '2779919027', '113878180', '149947181', '58142911', '203582535', '68702407', '138370407', '12090584', '2910381287', '79689650', '192887742', '528626486', '109578324', '2778693464', '144820252', '101826366', '2910905531', '4345497', '190330329', '159549609', '70520399', '118916094', '186967261', '2778793053', '101457746', '80343103', '23576306', '152551177', '98444146', '205817836', '96814336', '2778275008', '2776986690', '957247', '2779503283', '2778372311', '131055897', '77390884', '23375383', '63436455', '2779950589', '158523808', '2776440409', '2779752676', '68183290', '2780443747', '2780026712', '128450285', '186795189', '44104985', '136380597', '134215040', '161352937', '158379750', '175966412', '198621165', '103888896', '511503438', '2780626102', '68793194', '2908629581', '2781013037', '2781376611', '97812054', '2776060186', '175604262', '40630565', '522053795', '43091971', '2781183794', '2779501970', '195563490', '2910216150', '104453602', '102232406', '118314422', '2780556460', '2776740192', '204517386', '77667144', '2780437230', '89309335', '44435123', '27462124', '2780560099', '2778809601', '2909816863', '2777564445', '2778571651', '186072955', '39084254', '2775959666', '164767435', '86504812', '2775865179', '2777830566', '104407772', '2779432455', '2780663833', '2777646807', '541491724', '36628996', '112184408', '2778993590', '148415826', '32993116', '188045654', '177409738', '37482258', '24604422', '166693061', '60584519', '139353612', '2777223244', '175097422', '2780655307', '163952510', '151431374', '159249277', '2777062904', '2779423988', '158550234', '144468803', '10393806', '54525549', '168068576', '76856003', '54108766', '36091686', '518104683', '2776923346', '34146451', '2780848835', '2778529423', '2777865929', '2779576378', '143977109', '15535662', '181447626', '2780820837', '3285680', '2781298581', '2776051353', '133347240', '50406972', '2909472621', '62897895', '167296696', '126909462', '43540301', '2779738552', '47878483', '12303254', '18293161', '161657702', '46722567', '2779952096', '2779284651', '2909475385', '2910035481', '187529661', '19979193', '2776023280', '83849155', '39118121', '8162170', '140604960', '2781283035', '99874240', '41794268', '5339829', '136336744', '19269812', '54971619', '2778140759', '2779816654', '10390740', '196923211', '2776899970', '206477279', '2777889803', '12534583', '73859625', '206521022', '26466937', '2779989747', '2777895876', '9761082', '192932206', '2777425764', '156696300', '64671776', '5903713', '2776874963', '6518042', '2776584721', '16777580', '185051836', '2780826866', '78949437', '129828019', '67936045', '2778715912', '96709497', '175457265', '106848363', '128519102', '94921317', '166667406', '138942068', '2780066276', '77854861', '144534570', '537773303', '2780082420', '58300830', '2780119549', '2777571838', '109086967', '2780576536', '2777496290', '2778370875', '77122620', '177274176', '54290928', '47696715', '2775926494', '2780832955', '27142793', '19244329', '2780652538', '159188206', '2779376387', '2780364048', '2910908761', '2909830505', '155292070', '85608190', '2779073172', '155355069', '182521987', '22286887', '2780662705', '2779581428', '2778561511', '117089332', '101396714', '2778794710', '2780029314', '2780537718', '2910512453', '2909082439', '15655602', '73225119', '2777107361', '49504249', '56906281', '2909866401', '182731298', '57527310', '2776593022', '74426580', '51399673', '2780635410', '66594872', '2778812306', '24733836', '2781042210', '101677414', '149672775', '35777598', '30471927', '110363677', '145073311', '2778703219', '31510193', '138481207', '2779893281', '2778928165', '164062900', '171562612', '204329753', '530175646', '68386048', '2778049214', '134816702', '63401691', '117671659', '104745612', '184551789', '74714110', '2781385195', '538199239', '2780352317', '2778101592', '2777635934', '123566451', '166595027', '49853544', '139744980', '26405456', '185298936', '2781209966', '61742228', '38008478', '51936796', '115903097', '199726164', '186834915', '2778552832', '135628077', '2777341996', '2779959790', '2779686855', '190774637', '127210992', '511782119', '2778452465', '2776907800', '2780729894', '509933004', '547195049', '2779104393', '106165642', '41866144', '2780625559', '93106096', '2777537072', '2781110076', '50291824', '165650700', '2779303621', '127413603', '117670421', '2776304672', '144992956', '34630208', '106246969', '140016664', '2779698641', '103697071', '2777339832', '154587522', '2780371127', '2778738845', '106809287', '144618238', '44740213', '74872398', '40586070', '2777623114', '2775896111', '166689943', '2910859387', '2780874159', '140619461', '2779978421', '2777190053', '31548570', '37696544', '204911340', '2776199826', '182019814', '2780373723', '137335462', '2778617657', '196423136', '138108440', '2781020372', '178570572', '2781051052', '130574115', '539450922', '554190296', '2780962792', '60154766', '2780170866', '193690875', '190834728', '156336011', '2778580826', '2778734332', '2781367577', '203570394', '2910680965', '145437242', '2780788825', '2777662197', '145995521', '108326461', '2780642438', '106597312', '2776074547', '67862953', '67656411', '184782024', '184896649', '102180281', '22837933', '146032754', '15241564', '206923515', '2778779970', '157469704', '2779697334', '75100901', '2780678602', '59345209', '14740148', '140075996', '65601320', '200185824', '2910989632', '58074150', '203833370', '43867161', '158258876', '2908935387', '138293262', '15476950', '2911061381', '186150311', '2776104089', '2777551599', '22495355', '27267504', '137488568', '144308804', '2777527080', '99541287', '98907195', '2778058665', '2778025062', '146345970', '77671233', '116659846', '205783811', '2776363543', '2779630230', '2777553912', '23898865', '541182425', '2781395907', '200274948', '2591305', '2778171436', '2781183675', '170290021', '2776184083', '79381805', '115537861', '12703456', '2778776759', '2781366932', '541409800', '132882038', '2780285038', '35096461', '178260956', '178669061', '2780710336', '2779817440', '2779026181', '2777720951', '188985296', '148798159', '190729725', '115958267', '2776229149', '61298376', '92237259', '2777159256', '2781164033', '2780431167', '15401063', '28849524', '2777969390', '190430219', '182173840', '166961238', '69298649', '2908643474', '39173455', '185254563', '137641188', '83260615', '2779652256', '160730041', '2780328347', '175115632', '41972984', '2910983087', '2779571069', '2779097976', '127705205', '2776104920', '2777796589', '91432469', '2777230600', '2779608769', '2780841897', '33588617', '131100506', '2779269999', '2779282880', '66402592', '2779303498', '551646850', '104434177', '150495011', '203542878', '2775859485', '22550940', '2778479235', '101273638', '2778357024', '2775845787', '2776100724', '2778775284', '44079730', '2779030575', '88001094', '2777327484', '85260623', '186579879', '26593445', '2779826969', '37025074', '174771821', '138868233', '45859991', '14928880', '2776979432', '2909288663', '2909575431', '143616835', '2780039072', '2780922921', '2777311342', '2778832859', '2910818388', '51576277', '2909179353', '73862843', '48314217', '149672232', '113378356', '172630978', '544072693', '20885615', '2910633225', '202802212', '98851261', '2909446438', '121518397', '131923401', '2780267684', '2910166139', '2910342993', '12287442', '2778435127', '99752389', '2778040704', '2779150755', '72045907', '2776244466', '88005923', '41243669', '16710848', '81376181', '199168358', '2778952998', '187725362', '544778455', '2778320157', '91881484', '2910755285', '202798467', '102871797', '121058817', '50878840', '2910122108', '2911112108', '2776030121', '42043438', '2778156880', '24561367', '25902001', '2776698388', '119701452', '2780865476', '95418871', '2776222033', '2909544240', '2780667421', '2776922509', '2776915473', '141112555', '102451475', '95349148', '145565327', '126230835', '38639735', '2776500315', '152153834', '92995354', '198211336', '2778583532', '13263538', '2777731942', '2777246536', '2776054589', '95914496', '2776921476', '125550954', '2776481522', '2777925586', '2780903246', '46788351', '198054911', '2909896708', '559253537', '2781373936', '2778869280', '61218518', '23903533', '111309251', '120823896', '46754376', '2779684419', '2779191767', '96473913', '71832216', '2781027376', '140551693', '2778937263', '32900221', '32860805', '2779145874', '2778102629', '8442714', '32283439', '125502', '202992132', '119474132', '2778022221', '3503070', '144408495', '2778761393', '2776205647', '2778142872', '2779782174', '2776126113', '34521246', '2777866876', '2910475472', '2910017386', '133482787', '2777064627', '88477975', '146978453', '186867162', '67427781', '2777799566', '2910061995', '2778857364', '200246849', '2776440744', '135377553', '33296510', '40367268', '192039558', '53524968', '2781283277', '109592283', '2780330172', '2780439177', '2778478046', '11432220', '40834362', '528167355', '2908703028', '2775960376', '142600807', '139321929', '118541297', '141603559', '17599544', '64089585', '2909305023', '130143024', '103423482', '100087112', '114237682', '2777089626', '204573209', '2779135771', '61776360', '127592171', '2911180396', '2910323515', '2910545671', '172860338', '2910765841', '204948658', '2909065553', '2780338368', '28442783', '2779224189', '96191372', '62352918', '191920346', '128669082', '186037533', '72768775', '162027153', '130391077', '2909175755', '2779525993', '2779898492', '2779473651', '2911051535', '2911064832', '2908850610', '2910242987', '198766705', '2778702902', '162100613', '183735805', '46352929', '51244244', '2776784398', '2780027527', '166634970', '172123370', '2779318504', '2777980634', '84662259', '87161607', '2910841016', '1486788', '105600410', '125616564', '2776810648', '150903083', '2777178879', '150846664', '2781042915', '2780936238', '2781300000', '2779606561', '2777051993', '2776994558', '137813230', '2909071395', '118813454', '2776102385', '2910396183', '113508815', '152146699', '2910974233', '2910889294', '42143788', '2910157646', '11067248', '62427370', '2910897919', '2776916405', '31910662', '34447519', '143517461', '2779936157', '2778895906', '2776778800', '2779727067', '2776936202', '158488048', '121327165', '2776038537', '2910556911', '181573087', '4166634', '2777887233', '2780690664', '2779868332', '173408217', '2780355671', '180861198', '2780985968', '159391843', '188805328', '138569888', '2779933583', '41999313', '204223013', '50720040', '2780634410', '2776977519', '2910564736', '108572070', '2776212561', '24463637', '166576357', '538505008', '2776663509', '202986899', '9671652', '2779082914', '82653869', '2776787376', '2778972723', '155092808', '2779839180', '529740132', '41231900', '2778488525', '97850793', '2776277307', '107316180', '2779770443', '2910485920', '2780358262', '2776192736', '70388272', '2909921707', '2909042360', '160894760', '76969082', '14551309', '2779424011', '2910275393', '198667719', '2778944269', '92545706', '90638607', '58202505', '2778692605', '2776080111', '44832474', '205899878', '23061349', '2777191329', '46312889', '134428707', '21651964', '150818752', '115816120', '120835403', '509929229', '40458791', '135642988', '143588538', '2779687700', '8898347', '2910156419', '45058047', '2780089039', '1276947', '2778965516', '2778329844', '11982227', '2776166442', '132983000', '6929976', '2909332535', '2909928070', '2778080089', '2777047555', '83479923', '2910199060', '154193497', '24722842', '37135326', '77624028', '2776894995', '2779799902', '2778285946', '27881333', '133969743', '2780725026', '2777709473', '2909240815', '179145894', '39400828', '159554100', '2779208285', '2779245141', '187212893', '2776576667', '2779980673', '2776445639', '2778231660', '2909802026', '2778049420', '2779081050', '122196380', '29513896', '130635790', '2910522325', '42222760', '84967159', '66018809', '2781127917', '57863822', '2910222011', '2778827957', '31081114', '78382760', '89448510', '2779900269', '24027999', '56828936', '2777925978', '2778206073', '2779951582', '2777277180', '2910732896', '2909344626', '2776775114', '2908741780', '2778447519', '4924752', '2779998766', '2780013003', '541019422', '532361734', '180500224', '2780782035', '2776640376', '2778228685', '2777805442', '29216876', '3720319', '124806180', '76444178', '2779383134', '2911190354', '160191386', '47659340', '146270425', '12248821', '109932267', '2776326889', '2779937201', '16671190', '2777796192', '2911217838', '2777426639', '2777926032', '2780365336', '2777166562', '2777817576', '151543262', '23230815', '205904022', '154910267', '53371666', '111806078', '2910871427', '2778100165', '26022165', '2779492575', '155296804', '80323366', '138774019', '202662744', '2778798718', '98528093', '2778358729', '36038061', '2779747408', '2778027091', '2777963174', '42411736', '2777619693', '166690567', '36770926', '2776125036', '76831024', '41994538', '2777007952', '2910073301', '45293964', '126300421', '134718785', '18787249', '2908850654', '2775919224', '130403756', '2780500733', '2781087836', '31533079', '110850998', '2777006462', '72648740', '2776138580', '53838383', '197417287', '2779095429', '141261163', '205379176', '92851284', '2779437720', '138224501', '2778706760', '161156560', '25761169', '42298096', '543218039', '527607', '2781013843', '84999194', '173801870', '12965471', '2777343860', '20977289', '540522513', '170401851', '2780872544', '188817802', '159631557', '2778435994', '18595123', '2776638905', '2909435489', '2780626000', '2908952454', '54936624', '30838235', '2775936651', '154945302', '2777905004', '2778233930', '65567647', '150711758', '89702864', '2776395564', '2779680598', '96711827', '162005631', '2909333728', '2776697088', '110120631', '106125477', '2779166880', '2779855849', '2778240782', '2778691696', '524878704', '133925201', '58396970', '2778720315', '2776578615', '2778135664', '2780242733', '2780625085', '2776457032', '127732161', '2776299913', '97744766', '107166191', '2909251282', '196054291', '179618828', '52761205', '29829512', '2777738643', '38052585', '53893814', '101468663', '2779073270', '2776624666', '26355699', '182891698', '2779158102', '2780193958', '2777789335', '166566249', '107763842', '159951928', '2780965034', '164495641', '197654239', '2777869240', '40160088', '50296614', '119498932', '4848560', '151405878', '2780889106', '30467622', '2908723665', '200687136', '97784730', '2776354922', '2910733581', '2910412189', '80962145', '150012182', '2781024063', '503427281', '27819379', '82687282', '2779944601', '554616519', '10879293', '2775916975', '137364921', '2779586902', '71515424', '2777481183', '2780667210', '2908907010', '2780298425', '18949120', '2776450708', '2781424430', '2777306163', '2776822914', '139345896', '156708679', '2778837361', '20060776', '27289702', '2776091240', '2910833221', '41608201', '2908828389', '89508514', '2776777543', '169915972', '97121743', '83893533', '2910845796', '12892243', '153015087', '49113467', '2777785971', '2779920640', '63655563', '161866238', '118121272', '2909155221', '39399123', '2777058048', '167393769', '451841', '95548782', '183847335', '2908865798', '2777590503', '72981366', '110893760', '2779850335', '150708132', '2777138346', '64980692', '182769425', '2910618856', '64346931', '203864433', '2908614855', '13164978', '2777588356', '2780643059', '2778627824', '2779535233', '16644385', '160394919', '43653141', '18419278', '10929652', '2775893736', '87379069', '2777562361', '88654294', '88105052', '2776321517', '2779609627', '2909386086', '2780682718', '194110935', '165537544', '157846364', '2779742141', '2777109904', '2780469320', '2910060944', '193794138', '2780036518', '2776985863', '142000545', '132646400', '2775981511', '75254596', '2777765789', '200947169', '2776960227', '118168178', '131739630', '2776736150', '173906292', '2779760629', '196351127', '504039657', '63553672', '196713837', '110682481', '149835862', '170674324', '2779817378', '70401792', '157764524', '779372', '179737136', '193611912', '2778600265', '504270822', '54285103', '116321358', '55118286', '12334850', '82740854', '13951911', '197231348', '2779542357', '2779271213', '2780471320', '508800617', '2910463473', '2780530572', '2776052592', '2911118914', '105030818', '2910445219', '22607594', '2776422217', '134535237', '94200605', '2775906366', '176871988', '137996800', '2910319113', '206530858', '2909942976', '2780689689', '101252448', '56751440', '98906903', '98156149', '147196274', '519688237', '2778770744', '26915998', '2776667712', '2776642717', '2910364823', '2777024025', '166972891', '19023663', '14919245', '2780368237', '154742593', '2779017103', '139378739', '16405173', '173409883', '156975606', '643704', '162882748', '85884896', '2780366299', '141218545', '2781023928', '2780466208', '134224410', '536799390', '164468515', '2779962586', '38693133', '57814208', '172265290', '80364944', '2776278144', '169466946', '162096220', '2781325599', '174920882', '124511130', '149265406', '2779917225', '113461152', '145595949', '2780862241', '2910950043', '6405472', '29705727', '139968098', '138171918', '175285421', '513153333', '110619738', '150394285', '116696211', '2781086688', '2779595939', '2779851693', '2778397825', '2780052205', '2776881904', '2776445415', '2777754422', '2779391383', '181932105', '163849874', '207190284', '33947775', '17993994', '2777680864', '86060186', '33271190', '2776811073', '39518161', '163540240', '2780120631', '2781438671', '2780541193', '2778386843', '7573999', '159091798', '37624559', '18051801', '2909427711', '2779664251', '144836735', '2776667075', '141131685', '94081185', '2778284051', '2776698168', '2776164336', '29984679', '2780308056', '119751540', '189326492', '2780187858', '71800255', '190989730', '185705118', '25074200', '2909944768', '132094186', '2779498771', '127196793', '32258923', '26926545', '506065880', '154978347', '108037233', '519458232', '117110933', '2780972165', '2777937549', '2779606945', '2776330005', '523214423', '164866673', '2779559744', '51456978', '2965921', '2781048479', '139213188', '2780814149', '2909116566', '11189877', '32977378', '2781241367', '2781335571', '2779833257', '2777820359', '2908853934', '157547923', '131043120', '2776602342', '2777674469', '78687567', '2777563242', '94267665', '95478058', '88417058', '151800584', '19582560', '2776797291', '59061988', '134560507', '2779073454', '139078358', '2780722187', '2909707298', '121308736', '121087249', '46721378', '2777672618', '2777710951', '2911128630', '50630238', '2780705272', '94602187', '120961793', '2777747085', '16686006', '2779439448', '78834623', '2776895459', '2776194824', '2776035571', '2910569055', '2781101175', '137757676', '2777276890', '155334826', '2775838418', '137314826', '54654163', '2778420160', '2780383739', '2778223847', '148554410', '70636015', '2779478308', '2341566', '193149544', '2776339268', '129792486', '2909685383', '2777445446', '2781129822', '2780057273', '2909009270', '2781053203', '2781027520', '171367847', '2777751223', '2780204815', '2777421447', '534819032', '169851745', '2778559676', '2780083220', '112505250', '2781130449', '202542152', '520409616', '98375054', '2777089699', '1700975']</t>
+          <t>['2779697334', '2781367577', '2910841016', '107166191', '534819032', '186150311', '28442783', '77390884', '2909344626', '202542152', '2781399071', '2778706760', '166576357', '79689650', '2909928070', '172630978', '2777132090', '109578324', '47659340', '2775893736', '2910556911', '82740854', '80323366', '95418871', '2776576667', '2781438671', '527607', '2777562361', '2778255315', '30467622', '164062900', '2780635410', '2780667210', '98444146', '2910974233', '2779855849', '133925201', '2779095429', '957247', '2909055331', '2778397825', '2777751223', '2777058048', '2779017103', '121058817', '11727466', '62402440', '2779752676', '2909305023', '2776354922', '148798159', '54971619', '2780082420', '2910983087', '2776578615', '2777563242', '190774637', '92545706', '187612029', '187725362', '154193497', '2776304672', '2910897919', '97121743', '54525549', '2776778800', '2776164336', '63553672', '69298649', '175097422', '2909816863', '2777327484', '2776775114', '2781373936', '83260615', '154742593', '180861198', '2777783080', '2776667075', '190729725', '106125477', '160894760', '2910122108', '50878840', '2776023280', '2780667421', '95478058', '2777963174', '2777590503', '158843486', '116659846', '196923211', '2779747408', '2776060186', '2779842916', '12334850', '38008478', '134718785', '191920346', '2777865929', '118541297', '106597312', '90638607', '2780720960', '29829512', '2910412189', '2778794710', '154978347', '109086967', '2776450708', '2778156880', '196423136', '149947181', '62897895', '138293262', '84662259', '122136912', '2781117724', '2780889106', '120835403', '532361734', '15476841', '2779391383', '11799548', '118121272', '157764524', '171367847', '13021490', '2776077392', '129446986', '203715995', '178859891', '173408217', '2780036518', '72768775', '37428701', '97812054', '519688237', '131739630', '170290021', '520752033', '2780678602', '2908681449', '2776907800', '150012182', '206477279', '2776874963', '2777619693', '2779919027', '2778357024', '2775845787', '56828936', '113878180', '6405472', '164767435', '14551309', '2776822914', '2781241367', '2781024063', '73413767', '2779571069', '30838235', '145437242', '29216876', '105030818', '179618828', '2776481522', '23119410', '195563490', '2909544240', '42222760', '2781385195', '174920882', '2776787376', '2778435127', '110120631', '21538904', '2910741372', '2779535233', '2910475472', '2908741780', '2777895876', '2779944601', '24561367', '2777166562', '2780690664', '2779833257', '84999194', '2776697088', '204573209', '137641188', '2777887233', '36628996', '145995521', '2780873938', '74872398', '2965921', '65601320', '133969743', '186867162', '2779850335', '175285421', '2777339832', '110893760', '114290370', '2780626102', '2777306163', '121518397', '2909251282', '9761082', '20060776', '2776104920', '2780371127', '2909009270', '134240934', '60584519', '19582560', '2909830505', '2776199826', '12287442', '126300421', '92995354', '2910905531', '161156560', '56751440', '98906903', '37025074', '24722842', '154910267', '2780120631', '2779608769', '2779303621', '2779383134', '187394410', '2778027091', '58300830', '2910222011', '2779241781', '75434695', '154587522', '992767', '159631557', '138721006', '2776138580', '146978453', '139744980', '133482787', '2909475385', '72422203', '2779026181', '2777709473', '25761169', '128669082', '198054911', '39118121', '504039657', '54936624', '2778692605', '185254563', '152551177', '2780431167', '2908703028', '107763842', '179687394', '101252448', '2780355671', '2778285946', '2775896111', '178260956', '157547923', '137757676', '203864433', '2909240815', '134224410', '2778627824', '538505008', '145595949', '172265290', '23375383', '134428707', '74714110', '23576306', '2777925586', '159091798', '130230704', '2779135771', '2910871427', '50291824', '2780267684', '2910512453', '2776136876', '8442714', '2780560099', '2778398154', '2780625085', '2776104089', '162027153', '2780862241', '6518042', '2779503283', '158379750', '2778842860', '2778809601', '2778776759', '2779501970', '2910677061', '77122620', '2777731942', '160394919', '108037233', '2777246536', '503427281', '2910323515', '16710848', '194110935', '19269812', '2779303498', '32283439', '53524968', '2779269999', '2781130449', '200274948', '146345970', '2910061995', '2908865798', '2777343860', '2910733581', '2909082439', '16686006', '62352918', '184782024', '204911340', '2779437720', '2910342993', '166595027', '2776994558', '4345497', '132983000', '2778488525', '170563983', '49853544', '61218518', '151405878', '2778837361', '130403756', '29513896', '2780642438', '2778580826', '201784641', '19023663', '73225119', '126909462', '18051801', '2780026712', '2776923346', '47878483', '2779851693', '164862427', '46724921', '113461152', '161657702', '111309251', '779372', '2778972723', '41243669', '2911128630', '2781086688', '16405173', '106246969', '2909896708', '2779893281', '116321358', '2778691696', '2779306247', '2778101592', '2777862630', '2910242987', '139378739', '139968098', '2776977519', '173801870', '128519102', '2776060655', '130574115', '188985296', '2777588356', '2778720315', '2908935387', '91881484', '101677414', '2777710951', '51456978', '2910157646', '46754376', '2779771641', '160191386', '150903083', '2778703219', '2911217838', '150394285', '34146451', '2777635934', '15401063', '53893814', '179737136', '18293161', '95349148', '2778928165', '192887742', '545171759', '643704', '200657195', '186037533', '60595047', '121308736', '2780643059', '67862953', '2908952454', '37135326', '22837933', '2911064832', '141131685', '47696715', '2780766832', '95914496', '159549609', '155292070', '2777980634', '2776102385', '2781376611', '73412179', '205783811', '40046163', '104205377', '110619738', '206530858', '55118286', '2775849312', '200185824', '2777738643', '2777926032', '21651964', '2780985968', '66594872', '74426580', '33296510', '2780841897', '176871988', '2776915473', '554190296', '34521246', '2779473651', '141261163', '110363677', '187529661', '117671659', '2778857364', '98535783', '2778702902', '160363772', '2779770443', '166693061', '2778499088', '65567647', '2908614855', '3503070', '40630565', '2779166880', '50720040', '29705727', '2780013003', '2778798718', '2780437230', '2778761393', '68793194', '70636015', '524878704', '192639820', '2779072820', '82653869', '2780530572', '181573087', '98907195', '186834915', '2776080111', '2777341996', '2777481183', '2778344433', '2777925978', '2780865476', '172123370', '121327165', '2776593022', '167296696', '86060186', '31910662', '2775936651', '89309335', '2777796192', '77667144', '2776192736', '2778529423', '2911112108', '172750839', '63655563', '2778233930', '107316180', '2776602342', '2911118914', '544072693', '2779581428', '139321929', '159188206', '94602187', '311688', '2776100724', '155092808', '51576277', '2776624666', '2776339268', '2776405685', '2778284051', '2781183675', '2777107361', '11432220', '127196793', '2779898492', '161813005', '2777805442', '58142911', '46721378', '541019422', '14928880', '121087249', '2780066276', '110850998', '32258923', '193690875', '41866144', '2776184083', '118168178', '74524168', '2780576536', '70401792', '16644385', '2779376387', '2781020372', '118916094', '2779799902', '2777777821', '36038061', '102871797', '77671233', '2777835026', '2910216150', '111806078', '2778571651', '2780083220', '2780358262', '67936045', '2778049420', '178365465', '36770926', '144308804', '2781148867', '2781381157', '41994538', '2776584721', '181236821', '2776278144', '2775899781', '150846664', '162100613', '2778583532', '115816120', '40586070', '2777680864', '138481207', '158488048', '2908643474', '2910463473', '99752389', '2776784398', '95548782', '188045654', '142784634', '2910706634', '2776440744', '97850793', '37624559', '61298376', '144468803', '2776894995', '2777089626', '2777565064', '32860805', '58396970', '132882038', '2781042210', '26405456', '540522513', '2776074547', '2908666506', '2780403918', '513985346', '54290928', '519458232', '34447519', '2781110076', '39400828', '2780892144', '2777215697', '2776258540', '200687136', '179145894', '110956428', '2781300000', '2777817576', '2910060944', '2780179797', '2779432455', '26355699', '103423482', '2778820799', '2779015050', '168068576', '99874240', '134535237', '206826598', '150708132', '162882748', '2775926494', '54285103', '2779424011', '132094186', '2780615885', '101396714', '2780626145', '2776736150', '104434177', '119474132', '2776960227', '31548570', '2910765841', '2780805606', '2781027376', '149265406', '2780029314', '2778920187', '57061188', '2908850610', '183735805', '23230815', '84967159', '182173840', '2779742141', '504270822', '2779817440', '2777178879', '2779689694', '2779738552', '2776698388', '2780705272', '50406972', '183208416', '25074200', '94081185', '78382760', '2909042360', '192932206', '554616519', '18419278', '40937832', '159249277', '40834362', '2778600265', '139353612', '31531917', '64089585', '2776500315', '2778370875', '2780439177', '2778447519', '8898347', '2776422217', '2777062904', '71832216', '42043438', '68386048', '2778812306', '51936796', '112184408', '551646850', '2909116566', '130946814', '2777230600', '153015087', '2779284651', '160088933', '559253537', '2780328347', '72898154', '2778770744', '175457265', '2779952096', '2910631570', '19244329', '2778452465', '160730041', '2776330005', '2779606945', '167393769', '2781051052', '155355069', '132646400', '185705118', '206923515', '5829439', '2909707298', '96814336', '85884896', '10879293', '135377553', '204948658', '2777592538', '72293138', '115903097', '2776936202', '15476950', '2778022221', '100405246', '2775859485', '2776030121', '49504249', '149835862', '2780682718', '2776035571', '2781113784', '18787249', '166634970', '2779937201', '38653338', '153553885', '2911190354', '46312889', '141112555', '12534583', '203582535', '117110933', '93106096', '541182425', '53688548', '2780338368', '2778459932', '523214423', '103697071', '188805328', '2775838418', '2777661930', '2778228685', '26926545', '2780872544', '43653141', '59345209', '2777276890', '144408495', '148554410', '68183290', '2780057273', '2778693464', '14914868', '6929976', '76856003', '2910818388', '36091686', '143588538', '2776899970', '2779208285', '42298096', '104453602', '102232406', '80962145', '125616564', '169851745', '53371666', '137335462', '197417287', '166972891', '2780874159', '119498932', '2778895906', '2776142628', '2779900269', '2909944768', '21946209', '7923174', '58817359', '2765594', '119751540', '2779760629', '2910364823', '2910050528', '2909179353', '2777672618', '2779191767', '528626486', '2779951582', '2779104393', '2776445639', '2780826866', '2779082914', '40367268', '44104985', '41231900', '150256626', '118314422', '178570572', '2780242733', '2778832859', '205904022', '27289702', '190330329', '2777754422', '96709497', '2780308056', '46788351', '2780089039', '2778329844', '2777314014', '2909427711', '2780188227', '2910833221', '138224501', '2778993590', '182521987', '94200605', '104745612', '2909316267', '2777051993', '529740132', '2778058665', '2775981511', '140619461', '148221864', '12248821', '2778555145', '2779950589', '32900221', '2777720951', '2778100165', '2780922921', '101457746', '2776457032', '2776588719', '38639735', '8162170', '2776979432', '506065880', '2780466208', '131100506', '2776363543', '93389723', '187212893', '73859625', '2776640376', '2780652538', '125502', '19979193', '2909175755', '2908853934', '2777646807', '92851284', '193415008', '2780848835', '166690567', '2776126113', '2908723665', '2780965034', '70520399', '2775916975', '133347240', '129880937', '3285680', '145565327', '2779917225', '2780814149', '45058047', '15655602', '536799390', '186795189', '17993994', '92237259', '2908629581', '72648740', '2780027527', '138774019', '131923401', '2777830566', '2777969390', '63401691', '42133412', '27462124', '63436455', '2777866876', '2776922509', '541409800', '148415826', '74478641', '198211336', '2775960376', '193237570', '2776456419', '2780689689', '12892243', '2780903246', '110350745', '2911124959', '125550954', '2781013037', '2776222033', '2777277180', '2777551599', '99541287', '117670421', '82687282', '2778516001', '15241564', '79127381', '2910845796', '2780298425', '136380597', '170674324', '143616835', '147196274', '119701452', '2778775284', '44079730', '68702407', '48314217', '124511130', '2776321517', '2778734332', '201100257', '2778831993', '2776091240', '2777747085', '139213188', '2776194824', '2777674469', '185298936', '2779158102', '2779511760', '201547687', '2775919224', '2779073270', '14919245', '38052585', '184454961', '2779610630', '154945302', '2182769', '2776663509', '46891859', '2780383739', '39518161', '96711827', '89094514', '169466946', '2778080089', '43867161', '2776698168', '2776395564', '7573999', '2778197767', '2780556460', '2910908761', '2780373723', '134560507', '75254596', '2778275008', '2779686855', '138868233', '2779030575', '2777190053', '138370407', '2778086310', '2777553912', '156975606', '94267665', '66018809', '2777425764', '199845137', '198621165', '2778040704', '138171918', '2778171436', '104407772', '126230835', '520409616', '2776038537', '118519418', '180500224', '60511073', '171900002', '2778119891', '137813230', '97784730', '27267504', '22607594', '41132950', '2778240782', '34612862', '88654294', '62427370', '67656411', '204517386', '2779260511', '2779282880', '101336846', '538199239', '2909155221', '2777047555', '2777024025', '152153834', '2778617657', '131055897', '2779097976', '116696211', '2780541193', '2910396183', '509929229', '23061349', '2779081050', '85260623', '2910680965', '544778455', '199168358', '135642988', '2778793053', '78401558', '61742228', '173906292', '165650700', '27881333', '2909446438', '2909195514', '2777869240', '2908879008', '137488568', '2779609627', '179145077', '198766705', '171142967', '2779652256', '2909631073', '77624028', '78949437', '129792486', '2910859387', '38693133', '2910569055', '2779839180', '2910445219', '34630208', '9593695', '146270425', '127732161', '2781395907', '137126227', '152146699', '189326492', '32993116', '173409883', '2781127917', '11067248', '45502583', '2779073172', '109592283', '71681937', '18595123', '2778435994', '101826366', '146032754', '41056977', '113378356', '196351127', '11982227', '2776051353', '71515424', '2776782996', '123566451', '2779622097', '134816702', '2780725026', '2776667712', '2910485920', '2781023928', '101273638', '2780832955', '110682481', '2779959790', '35341882', '2781087836', '2910732896', '158523808', '537773303', '39173455', '186579879', '14740148', '2776916405', '57814208', '130635790', '2910633225', '2780330172', '2778779970', '12303254', '78687567', '2780285038', '2781283035', '2781164033', '166556878', '2778952998', '140604960', '2910156419', '2776777543', '2779224189', '2780537718', '128450285', '156336011', '151543262', '2779135357', '121017423', '46820840', '83479923', '2779318504', '2778478046', '2776797291', '30112582', '2780782035', '2777311342', '2910950043', '2778320157', '106809287', '16777580', '539450922', '541491724', '164866673', '2780523633', '150711758', '2776740192', '2778223847', '2775914053', '2778965516', '2780722187', '2780936238', '197654239', '98156149', '2780972165', '2777109904', '2780170866', '29984679', '2781338159', '22550940', '134215040', '509933004', '178669061', '2779989747', '2910618856', '2779271213', '2909472621', '12090584', '3866505', '2779980673', '127705205', '2777785971', '2777347882', '2780187858', '203833370', '78834623', '24604422', '2780368237', '150495011', '16635281', '44832474', '2779826969', '2778944269', '31081114', '2910755285', '544153396', '120961793', '33947775', '127413603', '190989730', '140551693', '2779490540', '207190284', '2776277307', '2777426639', '2910470413', '135628077', '71813955', '20977289', '88005923', '64346931', '115958267', '2776229149', '170401851', '2777789335', '182019814', '2910989632', '139078358', '2779782174', '2777159256', '508800617', '2778135664', '86504812', '2777527080', '2776811073', '60154766', '530175646', '166566249', '141218545', '6268609', '158258876', '2779498771', '10393806', '2779073454', '2781325599', '33842695', '543218039', '83849155', '202798467', '136319028', '188817802', '2910450386', '2779199053', '2778552832', '57527310', '205379176', '2777496290', '75100901', '190430219', '2780469320', '2909866401', '197231348', '2777191329', '2777006462', '61776360', '57863822', '204329753', '31163007', '70388272', '2780516175', '166667406', '100087112', '177274176', '1276947', '151800584', '2911004254', '2909435489', '129828019', '2777820359', '2779245141', '66402592', '2776326889', '205817836', '2777889803', '124806180', '192220659', '2779998766', '13263538', '2779439448', '551230270', '80364944', '91432469', '2780352317', '2776895459', '2779816654', '2781209966', '2778869280', '528167355', '71800255', '522053795', '27819379', '2910275393', '97744766', '175966412', '159554100', '110407247', '42143788', '85608190', '96473913', '130391077', '161866238', '2778231660', '103888896', '2778865806', '157846364', '51244244', '169915972', '196713837', '31510193', '2778358729', '49113467', '88105052', '24027999', '143066371', '89508514', '184422994', '2776244466', '18949120', '144820252', '157469704', '2776676641', '2780710336', '45293964', '518104683', '2910319113', '2911061381', '2776985863', '2341566', '2778561511', '2778360186', '58202505', '555048382', '2908558976', '2909709171', '2908907010', '185051836', '31533079', '138942068', '140016664', '2911051535', '115023222', '2780626000', '2779576378', '2779606561', '2779664251', '2780962792', '99970624', '44740213', '176445938', '77854861', '12703456', '2779006324', '2780471320', '53838383', '2781048479', '45859991', '2781424430', '2779680598', '30471927', '26022165', '40458791', '2777064627', '2776921476', '2777905004', '2909333728', '2910522325', '2780364048', '2778049214', '2777215911', '32977378', '12143843', '102451475', '2779933583', '138569888', '137996800', '39084254', '2775959666', '2778827957', '2777232610', '2780366299', '2781335571', '87379069', '51399673', '41794268', '4848560', '5546195', '200246849', '2909802026', '2778206073', '24733836', '182731298', '2776986690', '32243926', '25902001', '112505250', '2777623114', '163540240', '144992956', '2781027520', '108326461', '145073311', '2781101175', '174771821', '2908828389', '2780652884', '79381805', '2779586902', '76831024', '2777526511', '74250896', '2780729894', '2910564736', '2779684419', '2910731964', '41608201', '2777421447', '117089332', '2909065553', '115537861', '22495355', '2777200204', '72981366', '181447626', '76444178', '202986899', '451841', '547195049', '158711907', '2778738845', '2776638905', '2780119549', '169715780', '17599544', '41999313', '150185637', '2777223244', '28849524', '207857233', '202662744', '2777575374', '23903533', '64980692', '2779525993', '22286887', '2778142872', '2781155252', '2779630230', '2780662705', '4924752', '13951911', '175115632', '2776054589', '56919463', '35777598', '2775906366', '163581340', '46722567', '202992132', '101468663', '2781283277', '2777571838', '118813454', '193794138', '2780443747', '59061988', '2776205647', '5339829', '2780500733', '2776299913', '54108766', '52761205', '2779436495', '2780204815', '166689943', '164468515', '156708679', '37482258', '46352929', '106165642', '120823896', '72045907', '113145756', '2909921707', '2777796589', '13164978', '87161607', '26593445', '149672232', '43540301', '83893533', '2909332535', '161352937', '2909386086', '10390740', '2779978421', '204223013', '142600807', '171562612', '73862843', '2780039072', '169337768', '89448510', '200947169', '175604262', '2779423988', '139345896', '54654163', '2781129822', '2780625559', '1486788', '2777909563', '196054291', '539828613', '137314826', '164495641', '2776445415', '5408304', '2591305', '2779962586', '5903713', '2910681755', '2776642717', '85973986', '203542878', '2777662197', '113508815', '193611912', '182769425', '119781247', '2779559744', '2780663833', '2779817378', '186072955', '50296614', '143977109', '2910199060', '9671652', '94921317', '41972984', '2910035481', '80343103', '140075996', '206521022', '142000545', '122196380', '151431374', '98851261', '2910889294', '2781013843', '144618238', '2780788825', '118572532', '114237682', '15535662', '89702864', '177409738', '2776125036', '2778102629', '2776310492', '166961238', '2779595939', '24463637', '184551789', '1700975', '2778778939', '2779920640', '2778715912', '511782119', '193149544', '181932105', '5871375', '2909575431', '2777959984', '2780193958', '2781042915', '94922259', '155334826', '2777799566', '2781053203', '2779698641', '138108440', '2781183794', '2910166139', '33271190', '2779687700', '158550234', '2776212561', '120302604', '2781298581', '2776509796', '2779145874', '2778420160', '44435123', '11189877', '165537544', '33039251', '40160088', '2908850654', '2779868332', '107756529', '182891698', '162096220', '130143024', '98528093', '185172162', '141603559', '2910545671', '2778025062', '108572070', '71376005', '2778479235', '163952510', '199726164', '2780052205', '2776881904', '96191372', '172860338', '98375054', '10929652', '50630238', '58074150', '2780820837', '23898865', '16671190', '64671776', '2909288663', '2779492575', '149672775', '137364921', '88417058', '202802212', '2777098202', '2778140759', '105600410', '2910073301', '102458011', '88477975', '2909071395', '2777007952', '2779542357', '2909942976', '190834728', '20885615', '2777937549', '2776052592', '159391843', '155296804', '205899878', '2776166442', '511503438', '2777564445', '3720319', '513153333', '26466937', '2777445446', '2777089699', '33588617', '2778372311', '4166634', '2781366932', '127592171', '2779727067', '144534570', '2910017386', '102180281', '67427781', '2778559676', '2778464233', '88001094', '2779769603', '192039558', '160919093', '2778183165', '2776810648', '2911180396', '184896649', '127210992', '2777138346', '106848363', '143517461', '203570394', '159951928', '150818752', '162005631', '2779150755', '183847335', '81376181', '1781132', '37696544', '136336744', '2909712328', '2777450992', '2778386843', '2775865179', '2908912629', '56906281', '2777537072', '2780198632', '2776440409', '109932267', '43091971', '39399123', '2910381287', '163849874', '2909685383', '2780655307', '156696300', '76969082', '2779936157', '186967261', '27142793', '12965471', '2779478308', '144836735', '2780365336', '35096461', '198667719', '131232501', '2777765789', '42411736', '26915998', '2780634410', '131043120', '2778937263']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Embedded intelligence', 'Trident', 'Ionic bonding', 'Proportional navigation', 'Core language', 'Memory virtualization', 'Supply chain risk management', 'Thermal analysis', 'SPHERES', 'Gray iron', 'Nitrate test', 'Indium gallium arsenide', 'Time complexity', 'Vibrational partition function', 'Multiprotocol Label Switching', 'Block nested loop', 'Tariff', 'Foreign direct investment', 'Content management', 'Parking orbit', 'Orbital maneuver', 'Plasmid maintenance', 'Ductile iron', 'Terahertz gap', 'Hele-Shaw flow', 'Object Class', 'Nuclear ethics', 'Integrated circuit layout', 'Entrepreneurship ecosystem', 'Boundary scan', 'Dental casting', 'Pitching moment', 'Laser dye', 'Synchronous motor', 'Particle image velocimetry', 'Data retrieval', 'Internet Protocol', 'Discrete manufacturing', 'Intensity interferometer', 'Fast packet switching', 'Swarm robotics', 'Commodity computing', 'Verilog-A', 'Real-time communication', 'Hybrid positioning system', 'Thin-film optics', 'Non-renewable resource', 'Leaf morphogenesis', 'Fractionated spacecraft', 'Hand structure', 'Diamond cutting', 'Hot band', 'Dysbaric osteonecrosis', 'MicroBlaze', 'Kanban', 'Dipole antenna', 'Bandwidth-delay product', 'Optical communications repeater', 'Persian gulf syndrome', 'Radio telescope', 'Digifant engine management system', 'Optical switch', 'Heat transfer enhancement', 'Nanofluid', 'Vector operator', 'Military operations other than war', 'Temperature measurement', 'Golay cell', 'Process development execution system', 'Flash ADC', 'Null-move heuristic', 'Laser velocimetry', 'Polygraph', 'Fallout shelter', 'Safe prime', 'Beyond-visual-range missile', 'Counter-scanning', 'Soft goal', 'Martiana', 'Linea', 'Vibrational temperature', 'Reaction bonded silicon carbide', 'Logarithmic mean temperature difference', 'Investment casting', 'Paper engineering', 'Joints anatomy', 'Organophosphate', 'Mobility management', 'Ballistic missile', 'Nusselt number', 'Integrated circuit design', 'Flight test instrumentation', 'Molecular models of DNA', 'Scanning probe lithography', 'Packaging Tank', 'Scientific terminology', 'Emerging market debt', 'Object-class detection', 'Vision problem', 'Parathion', 'Carrier grade', 'Crew', 'CELLULAR SHEET', 'Fresh coconut', 'Continuous simulation', 'Halite', 'Reflection mapping', 'Cockpit display system', 'Strategy pattern', 'Bermuda Atlantic Time-series Study', 'Robust control', 'Minesweeping', 'Agile manufacturing', 'Nitroxyl', 'Reinforced solid', 'Ecological economics', 'Standard cell', 'Polymer clay', 'Advertising campaign', 'Hot stamping', 'Castability', 'Medical robot', 'Military threat', 'Capacity building', 'Semiconductor optical gain', 'Leaded petrol', 'Forming limit diagram', 'Sack', 'Content creation', 'Public transport', 'Nitrox', 'Compact convergence', 'Labelling', 'Six Sigma', 'Free diving', 'Formability', 'International Space Station', 'Reaction injection molding', 'Process variation', 'Ground-penetrating radar', 'Life cycle thinking', 'Operator-precedence grammar', 'Magneto-optical trap', 'Fact table', 'Automatic-tracking satellite dish', 'Chicken droppings', 'Adventure', 'Native-language identification', 'Adaptive grammar', 'Emissions trading', 'Antiwear additive', 'Magnetoresistive random-access memory', 'Asymmetric warfare', 'Diazinon', 'Ammonium phosphate', 'Number One Crossbar Switching System', 'Exploration of Mercury', 'Mirror box', 'Surgical errors', 'Loop tiling', 'Permanent mold casting', 'Military recruitment', 'IC layout editor', 'Network architecture', 'Gummel–Poon model', 'Universal Software Radio Peripheral', 'Two-stage-to-orbit', 'Exploratory research', 'Inertia', 'Metal', 'Hydrogen sulfide sensor', 'Network management application', 'Pace', 'Thermal grease', 'Communication complexity', 'Wireless site survey', 'Artificial Intelligence System', 'Atomic Bombs', 'Mode volume', 'Tank truck', 'Casting', 'Investment decisions', 'Flight envelope', 'Sun sensor', 'Path computation element', 'EMPA', 'Complex geometry', 'Next-generation lithography', 'Test functions for optimization', 'Network traffic measurement', 'Silumin', 'Network topology', 'Fluorescence spectroscopy', 'CUDA', 'Acoustic microscopy', 'iSight', 'User innovation', 'Aircraft flight control system', 'Electrochemical scanning tunneling microscope', 'Emirp', 'Interfacial thermal resistance', 'Diamond dust', 'Cost reduction', 'More language', 'Leg stiffness', 'Increasing process', 'Engine test stand', 'Efficiency factor', 'Rate gyro', 'Slosh dynamics', 'Metal leaf', 'Alloy Analyzer', 'Autofluorescence', 'Military personnel', 'MIMO-OFDM', 'MIL-STD-188', 'Co-creation', 'Virtualization', 'S band', 'Interband cascade laser', 'Manufacturing execution system', 'Yarrowia', 'Machining time', 'Content Model', 'Optical rectification', 'Guerrilla warfare', 'Planet V', 'Integrated Computer-Aided Manufacturing', 'Rate integrating gyroscope', 'Extrusion moulding', 'Upset welding', 'Food labelling', 'Artificial intelligence and law', 'Hydrographer of the Navy', 'Nuclear strategy', 'Strong prime', 'Molecular memory', 'Deep hole drilling', 'Noise floor', 'Time-Slot Interchange', '12-bit', 'Technological revolution', 'Product innovation', 'Intelligence cycle', 'Inpainting', 'Loop inversion', 'Langmuir adsorption model', 'Portlandite', 'Scanning Force Microscopy', 'Electric charge', 'Global financial system', 'Gas porosity', 'Proton conductor', 'Constructed language', 'Cross-language information retrieval', 'Technical change', 'Computer-integrated manufacturing', 'Brand architecture', 'Artillery', 'Zero Defects', 'Network traffic control', 'Observatory', 'Scalar projection', 'Free flight', 'Asteroid', 'Plastic welding', 'Exploration of Mars', 'Interstimulus interval', 'Switched reluctance motor', 'Venus (Planet)', 'Surface states', 'Neutron star', 'Fair trade', 'Random optimization', 'Pesticide resistance', 'C-DNA', 'Production engineering', 'Original report', 'Scientific research on the International Space Station', 'Gravitational wave', 'Tank locomotive', 'Stencil lithography', 'Technological convergence', 'Mobile device', 'Design specification', 'Radar cross-section', 'T-DNA Binary system', 'Astronomical interferometer', 'Planetary science', 'Galaxy', 'Terahertz time-domain spectroscopy', 'Cost engineering', 'First-order reliability method', 'Crew scheduling', 'Link grammar', 'Millennium Development Goals', 'Machine shop', 'Semi-active radar homing', 'Application-specific integrated circuit', 'Unconventional computing', 'Orbital plane', 'Smart contract', 'Cable Internet access', 'Wire protocol', 'Permethrin', 'Programmable metallization cell', 'Group technology', 'Alloy', 'Monolithic microwave integrated circuit', 'Environmental biotechnology', 'Supply chain management', 'Prehensile tail', 'Defined process', 'Nonlinear metamaterials', 'Network packet', 'Ring modulation', 'Strong electrolyte', 'Spaceflight', 'Saturn', 'Monopotassium phosphate', 'Hardware virtualization', 'POWDERED CELLULOSE', 'Nowcasting', 'Defence in depth', 'Intersymbol interference', 'Local economic development', 'Near field communication', 'Launch escape system', 'Missile guidance', 'Fiber Bragg grating', 'W band', 'Anti-ship missile', 'Network congestion', 'DNA transport', 'Interlingual machine translation', 'Thermal conductivity measurement', 'Solar cycle 14', 'Secondary mirror', 'Base flow', 'Relative intensity noise', 'Plasma pencil', 'Inertial Upper Stage', 'Inside plant', 'Gunpowder', 'Demobilization', 'Fertilizer', 'Passivity', 'Cerebellar disorder', 'Adaptive performance', 'Reverse innovation', 'Corona', "Simon's problem", 'Formamidinium', 'Textile', 'Campaniform sensilla', 'Technological innovation system', 'Golgi cell', 'Slow flight', 'Eco-industrial development', 'Robot leg', 'N-Ethylmaleimide', 'Internet presence management', 'Scanning probe microscopy', 'Terahertz metamaterials', 'Injection moulding', 'Open innovation', 'Pyrometer', 'Memory bandwidth', 'Multiple patterning', 'Mirror image', 'Average-case complexity', 'Flow velocity', 'Strain gauge', 'Surface-to-air missile', 'Acoustic radiation', 'Micro-Opto-Electro-Mechanical Systems', 'Phaeodactylum tricornutum', 'Cell fate determination', 'Saturation velocity', 'Dark matter', 'Toolchain', 'Hexachlorobenzene', 'Flammability', 'Mixed finite element method', 'Meteoroid', 'Weaving', 'Thermocouple', 'Baseflow', 'Packet loss', 'Nuclear fission', 'Platinum', 'IEEE 802.11ax', 'Cascade', 'Telescope', 'Rite', 'Social venture', 'Technology policy', 'Ball-and-stick model', 'Relative fluorescence units', 'Differential item functioning', 'Space Transportation System', 'Total productive maintenance', 'IBMX', 'Carbaryl', 'Synthetic geometry', 'Probable prime', 'Cerebellar function', 'Mean opinion score', 'Fertigation', 'Embarrassingly parallel', 'Paradigm shift', 'Diamond blade', 'Full virtualization', 'Traffic policing', 'Ellipsometry', 'Face perception', 'Tactile sensor', 'End mill', 'Innovation competition', 'X-Ray Fluorescence Spectroscopy', 'Intestinal polyp', 'Static secondary-ion mass spectrometry', 'Kinetic theory', 'Packet-switching node', 'Internet access', 'Transportation planning', 'Myelin-associated glycoprotein', 'Crew cut', 'RF switch', 'Loop dependence analysis', 'X-ray lithography', 'Machine vision', 'Halo orbit', 'Satellite', 'Layout Versus Schematic', 'Manufacturing process management', 'Leapfrogging', 'Analyte', 'Network intelligence', 'Diammonium phosphate', 'Bonfire', 'Named entity', 'Potash', 'Metamaterial cloaking', 'Microphotonics', 'Design management', 'Radiological warfare', 'Selective adsorption', 'Space Shuttle thermal protection system', 'Convective storm detection', 'Heterostructure barrier varactor', 'Prime triplet', 'Directional antenna', 'Polymer characterization', 'Virtual network', 'Scanning tunneling microscope', 'Text annotation', 'Scanning ion-conductance microscopy', 'Screw', 'Crew resource management', 'Mars landing', 'Metamaterial antenna', 'Open standard', 'Vortex lattice method', 'Molecular self-assembly', 'Numerical control', 'Pesticide residue', 'Network on a chip', 'Castalia', 'Creative problem-solving', 'Lab-on-a-chip', 'National Energy Modeling System', 'Advanced manufacturing', 'Inductor', 'Geoengineering', 'Access to finance', 'F region', 'Chicken manure', 'Solar cycle 20', 'Test script', 'Sensitive skin', 'Power user', 'Parting line', 'Z-DNA', 'Particle tracking velocimetry', 'Wearable technology', 'Code division multiple access', 'Machinability', 'Concurrent user', 'Autonomous logistics', 'Financial market', 'ISM band', 'Heat flux', 'Virtual metrology', 'Subtitle', 'Azasteroid', 'Small hand', 'Location-based service', 'Wireless broadband', 'Transport document', 'Antiferromagnetism', 'Viola–Jones object detection framework', 'Interferometric synthetic aperture radar', 'Distributed Bragg reflector laser', 'Packet processing', 'Electrospark deposition', 'Roll program', 'Default-free zone', 'Funding of science', 'Calcium aluminate cements', 'Library consortium', 'Insect disease', 'Calcium magnesium phosphate', 'LIDA', 'Impact pressure', 'Titanium aluminium nitride', 'Military intelligence', 'Reabsorption', 'Missile injury', 'Join dependency', 'Nanofluidics', 'Life Cycle Engineering', 'Memory map', 'Lidar', 'Virtual product development', 'Polyatomic ion', 'Channel spacing', 'Web mapping', 'Potassium sulfate', 'Surface pressure', 'Hypertext Transfer Protocol', 'Incoherent scatter', 'Meridiani Planum', 'Pulsar', 'Method of image charges', 'Inconel', 'Facial recognition system', 'AVM Navigator', 'Web indexing', 'Therapeutic inertia', 'Physical acoustics', 'Musical tuning', 'Provable prime', 'Clothing', 'Maneuver warfare', 'Sigma', 'Vertical-external-cavity surface-emitting-laser', 'Hobbing', 'Manufacturing engineering', 'Technological evolution', 'Atom interferometer', 'Acaricide', 'Holding tank', 'Aviation safety', 'IEEE 802.11ah', 'Organic memory', 'Just-in-time manufacturing', 'Latching switch', 'Epoxy', 'Biomolecule', 'Aerobot', 'Cosmology', 'IEEE 802.11', 'Educational institution', 'DIP switch', 'Neutron bomb', 'Bulbous bow', 'Online machine learning', 'K-factor', 'European Geostationary Navigation Overlay Service', 'Embedded C', 'Finite element method', 'Leaf mold', 'Radio Science', 'Colon polyps', 'Flight control modes', 'Volume of fluid method', 'Nuclear terrorism', 'Metal fabrication', 'Scanning thermal microscopy', 'Toyota Production System', 'Broadband', 'Terminology', 'Management agent', 'Dead reckoning', 'Industrialisation', 'Commercialization', 'Ion beam deposition', 'Naval history', 'Reindustrialization', 'Flamethrower', '3G MIMO', 'Agricultural value chain', 'Engineering', 'Loop splitting', 'Chlorpyrifos', 'Solar cycle 24', 'New business development', 'Vertical-cavity surface-emitting laser', 'Phugoid', 'Graphite', 'Gasoline', 'Planetary Data System', 'Islands of automation', 'Tetrachloroethylene', 'Remanufacturing', 'Ongoing reliability test', 'Fluorescence correlation spectroscopy', 'Total pressure', 'Ecotechnology', 'Modern language', 'Trench warfare', 'Router', 'Interferometry', 'Stimulus interval', 'Lubricant', 'Lagrangian point', 'Plain weave', 'Incremental sheet forming', 'Wireless mesh network', 'Transfer molding', 'PipeRench', 'Trite', 'Resistive random-access memory', 'Aerial video', 'Lean manufacturing', 'Submarine cable', 'Policy-based routing', 'Shared Risk Resource Group', 'On the fly', 'Worsted', 'Ground segment', 'Mode field diameter', 'Solar System', 'Radar', 'Next Generation Air Transportation System', 'Successive approximation ADC', 'Magic formula', 'Optical modulator', 'Do while loop', 'Spacefaring', 'Life-cycle cost analysis', 'Research development', 'Local parameter', 'Sort-merge join', 'Pressure Rate', 'Erlang distribution', 'Tank container', 'Primary station', 'Pulse compression', 'Tactical nuclear weapon', 'Nuclear pasta', 'Selective chemistry of single-walled nanotubes', 'Diamond turning', 'Relaxation length', 'DNA field-effect transistor', 'Thermal fluids', 'Routing table', 'Atomic Clock Ensemble in Space', 'Franck–Condon principle', 'National Security Area', 'Investment banking', 'Flight dynamics', 'Adventure therapy', 'Maximum flow problem', 'Bus rapid transit', 'Conoscopic interference pattern', 'Saturation diving', 'Green marketing', 'IDEF0', 'Electrical discharge machining', 'Semiconductor process simulation', 'Internetwork protocol', 'Healing tissues', 'Fixed wireless', 'Intercontinental ballistic missile', 'Solar cycle', 'Adcock antenna', 'Colonic Polyp', 'Linear network coding', 'Turbulence kinetic energy', 'Multiple Polyps', 'Availability heuristic', 'Location awareness', 'Industrial district', 'Cryotank', 'Nanoarchitectonics', 'Resistor', 'Two-phase flow', 'Digital ecosystem', 'Saturated calomel electrode', 'Facial motion capture', 'Supply chain sustainability', 'Fixed–mobile convergence', 'Hybrid-pi model', 'Secondary ion mass spectrometry', 'Photomixing', 'Painting', 'Surface integrity', 'Future proof', 'Deltamethrin', 'Isothermal flow', 'Military psychology', 'Peacebuilding', 'Electron-beam lithography', 'Aerobraking', 'Mantra', 'Terminology extraction', 'Fiber to the x', 'Adventure education', 'Micropipe', 'Surface modification', 'Pore pressure gradient', 'Sprue', 'Solid state ionics', 'Military theory', 'Induced high electron mobility transistor', 'Paravirtualization', 'Computer-aided technologies', '10G-PON', 'Desoldering', 'Wet cleaning', 'Suberites domuncula', 'sFlow', 'Ka band', 'Page layout', 'Twyman–Green interferometer', 'CLs upper limits', 'Langmuir', 'Eco-innovation', 'Explicit Congestion Notification', 'Weather radar', 'Naval Surface Warfare Center', 'Bowman–Birk protease inhibitor', 'Innovation intermediary', 'Thermophoresis', 'Cruise missile', 'International Electron Devices Meeting', 'Endogenous growth theory', 'Normal surface', 'Air traffic control', 'Emergent grammar', 'Short legs', 'Diamond type', 'Mode coupling', 'Reserved IP addresses', 'Mars Exploration Program', 'Cerebellum', 'Software-defined data center', 'Science policy', 'Submarine landslide', 'Flight inspection', 'Vibration treatment', 'Rake angle', 'Ammonium heptamolybdate', 'Heuristics', 'Technology governance', 'Transmitter station', 'Vortex stretching', 'RISC-V', 'Military operation', 'Digital manufacturing', 'Transmission Control Protocol', 'Russian literature', 'Foreign Intelligence Surveillance Act', 'Hot runner', 'Sentiment analysis', 'Leaf size', 'Spacecraft design', 'Photon entanglement', 'Concurrent computing', 'Pioneer anomaly', 'Xylanase', 'Ternary tree', 'Mirror mount', 'Signal station', 'Solution process', 'Deep cerebellar nuclei', 'Milling cutter', 'Cyclic prefix', 'Solar cycle 12', 'Verilog', 'Protein adsorption', 'Acoustic homing', 'Comprehensive layout', 'Hybrid intelligent system', 'Thermoforming', 'Steady flight', 'ZAP File', 'Exchange interaction', 'Dot gain', 'Mode 2', 'Normal convergence', 'Native copper', 'Mental Healing', 'Vortex Formation', 'Network Convergence', 'Muscidae', 'Paraphrase', 'Shared space', 'Alloy wheel', 'Resource Provider', 'Physical vapor deposition', 'R Plasmids', 'Split-ring resonator', 'Microfiltration', 'Adaptive optimization', 'Design for assembly', 'Order of battle', 'Technology strategy', 'Surface reconstruction', 'Submarine medicine', 'Air-to-air missile', 'Black hole', 'Dental alloys', 'Sheet moulding compound', 'Planetary protection', 'Design paradigm', 'Tissue healing', 'Diethyl aminoethyl hexanoate', 'Luminosity', 'Coated paper', 'Scanning capacitance microscopy', 'Solar architecture', 'Perovskite', 'Carbon nanotube supported catalyst', 'Dictyoceratida', 'REMUS', 'Tape hiss', 'Retrorocket', 'Municipal wireless network', 'Orchestration', 'Electronics cooling', 'Q factor', 'Copper', 'Business plan', 'Fluorescence', 'Cellulose phosphate', 'TOP500', 'Atkinson cycle', 'Space colonization', 'Ambiguity function', 'Enzyme Commission', 'Hand problems', 'Many antennas', 'Buck–boost converter', 'Potassium pyrosulfate', 'Forced convection', 'Flow map', 'Common-path interferometer', 'Control reconfiguration', 'Light infantry', 'Interferometric visibility', 'Transmon', 'Inspired gas', 'Submarine navigation', 'Trade and development', 'Join point', 'Radiation mode', 'GLONASS', 'Web of Things', 'Motion control', 'Japanese post-war economic miracle', 'Access network discovery and selection function', 'No first use', 'Wi-Fi array', 'Continuous optimization', 'Fortification', 'Synthetic diamond', 'Metropolitan area network', 'Cutting fluid', 'Bilateral investment treaty', 'Dexibuprofen', 'Exchange bias', 'Diamond', 'Aerodynamic potential-flow code', 'Orbiter', 'Metal matrix composite', 'Induced innovation', 'Wire speed', 'Ionic potential', 'Willow bark', 'Missile defense', 'Γ-convergence', 'DC-to-DC converter', 'Solar cycle 11', 'Reprojection error', 'Cosmic ray', 'Product design', 'Seismic metamaterials', 'Continuous casting', 'Mobile cloud computing', 'Photon polarization', 'Combined operations', 'F-factor', 'Order of magnitude', 'Ionic transfer', 'Dot product', 'Strain energy release rate', 'Sustainable engineering', 'Satellite imagery', 'Mode scrambler', 'Radar tracker', 'Early adopter', 'Limit switch', 'Expansion tunnel', 'Stable fly', 'Living lab', 'Drop tank', 'Steel design', 'Nuclear explosive', 'Knowledge-based engineering', 'Ionic compound', 'Industrial robot', 'Heuristic function', 'Exploratory search', 'Entire foot', 'Cost share', 'Memory ordering', 'Financial innovation', 'Broadbanding', 'Aerospace engineering', 'Compression molding', 'Anti-submarine warfare', 'Aerocapture', 'Composite joint', 'Missile', 'Consistent heuristic', 'Cognitive module', 'Rule of mixtures', 'P-factor', 'Friction stir welding', 'Biofertilizer', 'Resist', 'Sheet metal forming simulation', 'Photoacoustic tomography', 'Ultrasonic machining', 'Malabsorption', 'Bronze', 'Dispersity', 'Horizontal scan rate', 'National security', 'Combat exposure', 'Grippers', 'Open network architecture', 'Forming processes', 'In situ resource utilization', 'Cellulase', 'Gamma-ray burst', 'Informal sector', 'B type natriuretic peptides', 'Partial discharge', 'Competitive intelligence', 'Modes of convergence', 'Channel allocation schemes', 'Constellation program', 'Turbulence modeling', 'Named-entity recognition', 'Deep space exploration', 'Supernova', 'Intestinal Polyposis', 'Motor test', 'Cellulose degradation', 'Dynamic pressure', 'Modified cellulose', 'Static routing', 'Stable gait', 'Information and communication technologies for development', 'Multidisciplinary design optimization', 'Saturnus', 'Z-factor', 'Friction welding', 'High tech', 'Randomized algorithm', 'Innovation management', 'Vibrating structure gyroscope', 'Artificial general intelligence', 'Neurorobotics', 'Calcium superphosphate', 'Carausius morosus', 'Network virtualization', 'Melting tank', 'Membrane coat', 'Colorectal polyposis', 'Cost Comparisons', 'Leg moving', 'Infantry', 'Space logistics', 'Lateral thinking', 'Strategic goal', 'Parallel Extensions', 'Planet', 'Imidacloprid', 'Musca autumnalis', 'Observations and explorations of Venus', 'Solar cycle 10', 'Research design', 'Rotating tank', 'Vibrational energy relaxation', 'Transformation optics', 'General/global', 'Linear actuator', 'Orbit of Mars', 'Space rendezvous', 'NarrowBand IOT', 'Biotechnology', 'Carbon fiber reinforced polymer', 'Stars', 'Trimethylene carbonate', 'Biosatellite', 'Q-analysis', 'Air traffic flow management', 'Rifle', 'Flow show', 'Motor control', 'Navy Personnel', 'Military strategy', 'Decompression illness', 'Powered wheelchairs', 'Packet switching', 'Leaf gap', 'Unleaded petrol', 'Artillery shell', 'Hardware description language', 'Surgical action', 'Prime k-tuple', 'BiCMOS', 'Flying debris', 'Process manufacturing', 'Service set', 'Market economy', 'Renewable resource', 'Base oil', 'Intelligent environment', 'Oxygen-free copper', 'RF modulator', 'Spin-exchange interaction', 'Gyroscope', 'Submarine', 'Mushroom bodies', 'Hand mirror', 'Two-electron atom', 'Environmental full-cost accounting', 'Electrochemical machining', 'Economic transformation', 'Super-channel', 'Heterojunction bipolar transistor', 'Interface position', 'Single-mode optical fiber', 'Mashing', 'Hydrographic office', 'Hash join', 'Panopticon', 'Phoenicopteridae', 'Molecular physics', 'Lithography', 'Long mode', 'Ammonium polyphosphate', '3D interaction', 'Colorectal Polyp', 'Inductive sensor', 'Scatterometer', 'Chiller boiler system', 'Y-factor', 'Convergence tests', 'Mamba', 'Design and Technology', 'Trimix', 'Social entrepreneurship', 'Loop fusion', 'Collaboratory', 'Effective microorganism', 'Computational linguistics', 'Transfusion associated circulatory overload', 'Civil defense', 'Convective heat transfer', 'N-Methylmorpholine N-oxide', 'Wave soldering', 'Stratix', 'Local positioning system', 'Son of man', 'Single-Walled Nanotube', 'Surface charge', 'Leg mechanism', 'IBM', 'Water-Lilies', 'Pressure decrease', 'Pellicle mirror', 'Mathematical model', '3D single-object recognition', 'Lead(II) iodide', 'Ethidium monoazide', 'Higher-order factor analysis', 'Sand casting', 'Radio spectrum', 'Interstellar travel', 'Capital formation', 'Joins', 'Naval Tactical Data System', 'Ant robotics', 'Mission creep', 'Bipolar junction transistor', 'Long-term experiment', 'Nanomanufacturing', 'RINEX', 'IEEE 802.11u', 'Buck converter', 'Thermal transmittance', 'Biopesticide', 'International security', 'Interactive systems engineering', 'End-user computing', 'Primary mirror', 'Blockchain', 'Post-perovskite', 'Translation language', 'Thermal contact conductance', 'Perovskite solar cell', 'Astronomy', 'S-factor', 'Mischmetal', 'Nuclear warfare', 'Dwarf coconut', 'Simulation heuristic', 'Regulator', 'Cell determination', 'Metis people', 'Military deployment', 'Terminal guidance', 'Universal Networking Language', 'Tricalcium silicate', 'Economic sector', 'Ejection charge', 'Design flow', 'Rolling resistance', 'Autonomic networking', 'Bill of materials', 'Food coating', 'Biotransformation', 'L band', 'Social business', 'University spin-off', 'Hand region', 'Design layout record', 'Evidence of water on Mars from Mars Odyssey', 'Lost-wax casting', 'Fire support', 'Molding sand', 'Pediatrics', 'Biofortification', 'Fitness to dive', 'Composite construction', 'Small Business Innovation Research', 'Aluminium-27', 'Hybrid array', 'Dive computer', 'ID/LP grammar', 'Shape optimization', 'Meteorite', 'Design Error', 'Exploration of Saturn', 'E band', 'Semiconductor device fabrication', 'Potassium persulfate', 'Flat memory model', 'Process output', 'Diamond tool', 'Blow molding', 'Concurrent engineering', 'Dielectric barrier discharge', 'Venus', 'Omnidirectional antenna', "Sylvester's law of inertia", 'Submarine warfare', 'IEEE 802.11p', 'Nano manufacturing', 'State secrets privilege', 'Leaf formation', 'Copper binding', 'Hydration reaction', 'Surgical extraction', 'Nuclear thermal rocket', 'Plug-in', 'Generalised cost', 'Ammonium molybdate', 'Military technology', 'Naval warfare', 'File Control Block', 'Ballistic capture', 'Dieldrin', 'Knowledge broker', 'Star tracker', 'Copper plating', 'Cache-only memory architecture', 'Overtone band', 'Connectivity', 'Ku band', 'Saw (device)', 'Control flow', 'Engine control unit', 'Analysis of flows', 'TCP congestion-avoidance algorithm', 'Plasmid preparation', 'Technical diving', 'Occupancy sensor', 'Effective number of bits', 'Exclosure', 'Cellulose synthesis', 'Agreed Framework', 'Network economics', 'Single-core', 'Hilling', 'Coat', 'Switch statement', 'Lexical grammar', 'Mean flow', 'Non-line-of-sight propagation', 'Need for cognition', 'Diatomic molecule', 'Economic underdevelopment', 'Memory hierarchy', 'Grammar', 'Issued shares', 'Tread', 'Value added', 'Planetary surface', 'Cloning', 'Mechanical metamaterial', 'Probabilistic-based design optimization', 'Steel casting', 'Fluorescence cross-correlation spectroscopy', 'Sheet metal', 'Satellite system', 'Environmental technology', 'Selectable marker', 'Nanotube', 'Class implementation file', 'Diving physics', 'Trichoderma reesei', 'Data-intensive computing', 'Pressure coefficient', 'Virtual engineering', 'Diagnostic scan', 'Plasmonic metamaterials', 'Bufferbloat', 'Loop fission', 'Electrode potential', 'Air traffic controller', 'Akadama', 'Marker gene', 'Ensign', 'Foundry', 'IEEE 802.11s', 'Engineering optimization', 'Adaptive capacity', 'Public key infrastructure', 'Local analysis', 'Conventional memory', 'Optical burst switching', 'Reconfigurable Manufacturing System', 'Corporate social responsibility', 'Ropes course', 'Space research', 'Cypermethrin', 'Mirror galvanometer', 'Life-cycle assessment', 'Document retrieval', 'Mission control center', 'Socioeconomic development', 'Magnesium', 'Microfabrication', 'RAMP3', 'Universe', 'Heuristic', 'Glass cockpit', 'Wavelength switched optical network', 'Loop interchange', 'Videotelephony', 'Pneumatic actuator', 'Tetrafluoroborate', 'Physical design', 'Networking hardware', 'Global Innovation Index', 'Network protector', 'Malathion', 'Shape object', 'Human-in-the-loop', 'Selenium salt', 'Sorption isotherm', 'TCP Friendly Rate Control', 'Transfer station', 'Artificial intelligence', 'Memory module', 'Electrical tuning', 'Internet protocol suite', 'K-epsilon turbulence model', 'Technology assessment', 'Amphibious warfare', 'Endosulfan', 'Entity linking', 'Data Web', 'Body temperature measurement', 'Development ethics', 'Injection molding machine', 'Space Shuttle', 'Multipath TCP', 'Demosponge', 'Infrared homing', 'Dairy farming', 'Fiscal policy', 'Life expectancy', 'Cracking', 'Female entrepreneurs', 'Hot pressing', 'Open economy', 'Hybrid plasmid', 'Transient erythroblastopenia of childhood', 'Automated Transfer Vehicle', 'Slush', 'TO-18', 'Channel capacity', 'Stanton number', 'Head movements', 'RF power amplifier', 'Self-organizing network', 'Multilayer switch', 'Spacecraft', 'Tax incentive', 'Elastomer', 'Rule-based machine translation', 'Modular design', 'Charge number', 'Die casting', 'Robotic spacecraft', 'Glass electrode', 'Cognitive closure', 'Rho factor', 'Process validation', 'Gain', 'Clef', 'Nanoengineering', 'Humic acid', 'Solar cycle 23', 'Scene statistics', 'Flexible manufacturing system', 'Mechanical engineering technology', 'Soldering', 'Space Launch System', 'Motor controller', 'Noise', 'Cargo spacecraft', 'Compact tension specimen', 'Lime-nitrogen', 'Waveguide', 'Orbital elements', 'Machine Age', 'Cellulose biosynthesis', 'Material Crack', 'Induction motor', 'Scan chain', 'Bag-in-box', 'Military sociology', 'Stochastic geometry models of wireless networks', 'Auxiliary memory', 'Ibuprofen', 'Ammunition', 'Factor analysis', 'Waveguide flange', 'Parallel programming model', 'Accelerating change', 'Rotational–vibrational coupling', 'Market access', 'Military Pay', 'Dynamic Scan', 'V band', 'Space debris', 'Tool wear', 'Flow conditions', 'Microbial consortium', 'Active duty', 'Charging order', 'Mobilization', 'Exascale computing', 'Intersection', 'Nanophotonics', 'Plant identification', 'Nickel Chromium Alloys', 'Embedding', 'Naval Science', 'Electric discharge', 'Air traffic management', 'Expendable launch system', 'Algorithmic skeleton', 'Flow visualization', 'Magnetic Bead Separation', 'Partial charge', 'Diamond cubic', 'Optical add-drop multiplexer', 'Disruptive innovation', 'Xylobiose', 'Plane mirror', 'Focused ion beam', 'K band', 'Linear Scan', 'Earth observation', 'Innovative financing', 'Adaptive strategies', 'Military science', '128-bit', 'Single Euro Payments Area', 'Phylum Porifera', 'Saturnia', 'Leaf angle distribution', 'Named graph', 'Calcium silicate hydrate', 'Charge density', 'Performance tuning', 'Symbolic convergence theory', 'Trade barrier', 'Labelling machine', 'Functional design', 'FPGA prototype', 'AIDS dementia complex', 'Hardware acceleration', 'Local property', 'Synthetic oil', 'Battle', 'Pharmaceutical drug', 'Hydraulic diameter', 'Pressure exchanger', 'FCAPS', 'Astrobiology Science and Technology for Exploring Planets', 'Radar imaging', 'Biomanufacturing', 'Wireless WAN', 'Active antenna', 'Adaptive value', 'Banyan switch', 'Regenerated cellulose', 'Link level', 'Charge type', 'Production control', 'Nuclear weapon', 'Element management system', 'Military operations area', 'Spectacle', 'Bass diffusion model', 'Trade facilitation', 'Protein surface', 'DSRFLOW', 'Fantom', 'Sustainable urbanism', 'Build to order', 'Internal combustion engine cooling', 'Seafloor mapping', 'Second strike', 'Weapon of mass destruction', 'Infranet', 'Knowledge transfer', 'Module pattern', 'Real mode', 'MEMS testing', 'Gait analysis', 'Resistin', 'Strategic defence', 'Layout', 'Binary logarithm', 'Recursive join', 'Rotary actuator', 'Robotic mapping', 'Flyby anomaly', 'Atacama Large Millimeter Array', 'Industrial ecology', 'Throughput', 'Ferrimagnetism', 'Design technology', 'Active vision', 'Martian', 'Nickel', 'Ammonia volatilization from urea', 'Industrial computed tomography', 'Forward converter', 'Crossover switch', 'Lean project management', 'Traffic flow', 'Flight control surfaces', 'Large-signal model', 'Channel use', 'Certificate of origin', 'Wi-Fi', 'Traffic station', 'Distributed manufacturing', 'Ettringite', 'Product Labelling', 'Scalable TCP', 'C-type natriuretic peptide', 'Enabling', 'Electric vehicle', 'Industrial design', 'Nuclear cross section', 'Leaf expansion', 'Electric motor', 'Technological change', 'Level activity', 'g factor', 'Normal face', 'Bilingual lexicon', 'Shares outstanding', 'Burgers vortex', 'Large segment offload', 'Pressure gradient', 'Reynolds stress', 'Military logistics', 'Space exposure', 'Industrial technology', 'Corporate sustainability', 'Coati', 'Combat Disorders', '6to4', 'Gate dielectric', '10G-EPON', 'Language technology', 'Sustainable urban infrastructure', 'Manufacturing operations', 'Laser-induced incandescence', 'Surface science', 'Geostationary orbit', 'Nanoelectromechanical systems', 'Aerodynamic heating', 'Network allocation vector', 'Material properties of diamond', 'Spatial multiplexing', 'Pursuit guidance', 'Simulation language', 'Modern warfare', 'Impressment', 'While loop', 'Plastics industry', 'Internal fan-cooled electric motor', 'Policy mix', 'Gastronomy', 'Tiered service', 'Mildly context-sensitive grammar formalism', 'Affix grammar', 'Human leg', 'Reflective array antenna', 'Lyocell', 'Acoustic radiation force', 'Molecular wire', 'Motorcycle tyre', 'Cotransformation', 'Sauter mean diameter', 'Globular cluster', 'Routing control plane', 'Carbofuran', 'Reservoir bag', 'Atmospheric entry', 'Polar', 'Development environment', 'Diesel fuel', 'Recognition heuristic', 'Aluminium', 'Solar cycle 22', 'Adsorption', 'Nitrogen-vacancy center', 'Regional innovation system', 'Atrazine', 'Graphi</t>
+          <t>['Bus rapid transit', 'Local parameter', 'General/global', 'Stanton number', 'Human spaceflight', 'Availability heuristic', 'Multidisciplinary design optimization', 'Application-specific integrated circuit', 'Copper binding', 'Tola', 'Increasing process', 'Life-cycle assessment', 'Y-factor', 'Surface states', 'Metis people', 'Order of battle', 'Aircraft flight control system', 'Random optimization', 'Engine control unit', 'Biomanufacturing', 'Hand mirror', 'Lean project management', 'Value added', 'Interferometric visibility', 'Biofortification', 'Battlespace', 'Microfabrication', 'Active antenna', 'Native-language identification', 'Compact tension specimen', 'Physical acoustics', 'Virtual product development', 'Military Pay', 'Galaxy', 'Unleaded petrol', 'Demosponge', 'Life expectancy', 'Reconfigurable Manufacturing System', 'Link grammar', 'Scanning Force Microscopy', 'Gold leaf', 'Ammonium dihydrogen phosphate', 'Innovative financing', 'Laser-induced incandescence', 'Space colonization', 'Inpainting', 'Emirp', 'Permethrin', 'B type natriuretic peptides', 'Machine Age', 'Twyman–Green interferometer', 'Layout Versus Schematic', 'Access to finance', 'Vibration treatment', 'Hot pressing', 'Potassium bisulfate', 'Flight control modes', 'Radio spectrum', 'Noise floor', 'Q factor', 'Economic sector', 'Chlorpyrifos', 'Flying debris', 'Algorithmic skeleton', 'Weaving', 'Oxygen-free copper', 'Alef', 'Binary logarithm', 'Emergent grammar', 'Micro-Opto-Electro-Mechanical Systems', 'Cerebellar disorder', 'Acoustic homing', 'Hydration reaction', 'Γ-convergence', 'Mars Exploration Program', 'Manufacturing operations', 'Single-mode optical fiber', 'Memory virtualization', 'Commodity market', 'CLs upper limits', 'Space Shuttle', 'Pellicle mirror', 'Enzyme Commission', 'Ambiguity function', 'Packet-switching node', 'Submarine navigation', 'Power electronic substrate', 'Environmental technology', 'Saturnia', 'Complex geometry', 'Photomixing', 'Network intelligence', 'Sheet metal', 'Local economic development', 'Diazinon', 'Crossover switch', 'Neutron bomb', 'Loop fission', 'High tech', 'Social venture', 'In situ resource utilization', 'Selective chemistry of single-walled nanotubes', 'Interstellar travel', 'Discrete manufacturing', 'Spacecraft', 'Material Crack', 'Funding of science', 'Geocentric orbit', 'Test script', 'Tool wear', 'Potassium pyrosulfate', 'Policy-based routing', 'Free flight', 'Mean opinion score', 'Linear network coding', 'Vibrational energy relaxation', 'Ballistic missile', 'Acoustic microscopy', 'Cargo spacecraft', 'Biopesticide', 'Naval warfare', 'Rate gyro', 'Iron powder', 'Loop tiling', 'K band', 'Throughput', 'Launch window', 'Wireless site survey', 'Vibrational temperature', 'Thermal analysis', 'Asymmetric warfare', 'Time-Slot Interchange', 'Heterojunction bipolar transistor', 'Fantom', 'Vibrating structure gyroscope', 'Polygraph', 'Intersymbol interference', 'Military logistics', 'Real mode', 'Fiber to the x', 'International Space Station', 'Saturation diving', 'Fresh coconut', 'Scanning thermal microscopy', 'Scan chain', 'Bonfire', 'Virtual network', 'Nanotube', 'Observatory', 'Solution process', 'Deep cerebellar nuclei', "Sylvester's law of inertia", 'Scalar projection', 'Atmospheric entry', 'Textile', '3D single-object recognition', 'Active duty', 'In situ polymerization', 'Bag-in-box', 'MIL-STD-188', 'Rake angle', 'TCP Friendly Rate Control', 'Erlang distribution', 'Copper plating', 'Scalable TCP', 'Self-organizing network', 'Orbiter', 'Six Sigma', 'Network congestion', 'Inspired gas', 'Exploration of Saturn', 'Holding tank', 'Molecular wire', 'Collaboratory', 'Coated paper', 'Injection molding machine', 'Extrusion moulding', 'More language', 'Pharmaceutical drug', 'Entire foot', 'Surgical extraction', 'Selective adsorption', 'Ibuprofen', 'Forced convection', 'Hilling', 'Economic transformation', 'Magnetic separation', 'Universe', 'Development ethics', 'Turbulence modeling', 'Reserved IP addresses', 'Electrochemical machining', 'Scanning probe microscopy', 'Pulse compression', 'iSight', 'Ecotechnology', 'Mesohyl', 'Semiconductor process simulation', 'L band', 'Compression molding', 'Calcium silicate hydrate', 'Recognition heuristic', 'Planetary Data System', 'Named graph', 'Null-move heuristic', 'Monopotassium phosphate', 'Microbial consortium', 'Sheet moulding compound', 'Head movements', 'Space Shuttle thermal protection system', 'Intersection', 'Technology governance', 'Tetrachloroethylene', 'Motor testing', 'Parking orbit', 'Strain gauge', 'Air data inertial reference unit', 'Small hand', 'Trite', 'Luminosity', 'Bufferbloat', 'Continuous optimization', 'Original report', 'Document retrieval', 'Burgers vortex', 'Large segment offload', 'ZAP File', 'Ejection charge', 'Non-line-of-sight propagation', 'Lindane', 'Military operation', 'Agricultural value chain', 'Ku band', 'Hybrid positioning system', 'Satellite system', 'F region', 'Process output', 'Brand architecture', 'Product innovation', 'Islands of automation', 'Boundary scan', 'Networking hardware', 'Continuous simulation', 'Local analysis', 'Aerospace engineering', 'Aerobot', 'Memory ordering', 'X-Ray Fluorescence Spectroscopy', 'SPHERES', 'sFlow', 'University spin-off', 'Mission control center', 'Randomized algorithm', 'Ionic potential', 'Transportation planning', 'Layout', 'Sorption isotherm', 'Joins', 'Mode coupling', 'Planetary science', 'Innovation intermediary', 'Combat exposure', 'Clef', 'Autofluorescence', 'Shares outstanding', 'Interface position', 'Food coating', 'Router', '10G-PON', 'Pipeline burst cache', 'Business sector', 'FPGA prototype', 'Hand region', 'While loop', 'Battle', 'Convergence tests', 'Routing control plane', 'Mildly context-sensitive grammar formalism', 'Unconventional computing', 'RINEX', 'Acaricide', 'Astronomical interferometer', 'Metal matrix composite', 'Creditor', 'Nusselt number', 'Named-entity recognition', 'Economic underdevelopment', 'Flamethrower', 'Design paradigm', 'Insect disease', 'Fact table', 'Mode scrambler', 'Fertilizer', 'Reaction injection molding', 'Transient erythroblastopenia of childhood', 'Location awareness', 'Artificial general intelligence', 'Carbofuran', 'Scanning tunneling microscope', 'Millennium Development Goals', 'Network packet', 'Cross-language information retrieval', 'Passivity', 'Sprue', 'Anti-ship missile', 'Object Class', 'Z-DNA', 'Cutting fluid', 'Pressure exchanger', 'Wireless network', 'Bilateral investment treaty', 'Military sociology', 'Motor test', 'Retrorocket', 'Nuclear weapon', 'Satellite', 'Leaf size', 'Radar tracker', 'Resist', 'Foreign Intelligence Surveillance Act', 'Motor oil', 'Electron-beam lithography', 'Hybrid-pi model', 'Composite joint', 'Phylum Porifera', 'Wavelength switched optical network', 'Cellulose biosynthesis', 'Calcium magnesium phosphate', 'Collinear antenna array', 'Friction welding', 'Thermal fluids', 'PipeRench', 'Cypermethrin', 'Diethyl aminoethyl hexanoate', 'Epoxy', 'Flow show', 'Scientific research on the International Space Station', 'Simulation heuristic', 'N-Methylmorpholine N-oxide', 'Terahertz gap', 'Biomolecule', 'Solar cycle 11', 'Noise', 'Exascale computing', 'Marker gene', 'Shape optimization', 'Nuclear pasta', 'Life-cycle cost analysis', 'Silumin', '10G-EPON', 'Impact pressure', 'Embarrassingly parallel', 'Sample return mission', 'Alloy', 'IEEE 802.11ax', 'Full virtualization', 'Graphics processing unit', 'Flash ADC', 'Rate integrating gyroscope', 'Globular cluster', 'Face perception', 'Cosmic ray', 'Ferrimagnetism', 'Effective microorganism', 'Tape hiss', 'Standard Charge', 'Regional innovation system', 'Geostationary orbit', 'Vertical-cavity surface-emitting laser', 'Willow bark', 'Web indexing', 'Industrial computed tomography', 'Dairy farming', 'Mirror box', 'Organic memory', 'Antiwear additive', 'Leg moving', 'Surface science', 'Development environment', '3D interaction', 'Heuristic', 'Network on a chip', 'Tariff', 'Mode field diameter', 'Page layout', 'Local property', 'Female entrepreneurs', 'Colonic Polyp', 'Fluorescence', 'Surface pressure', 'Mobile data offloading', 'Vacuum forming', 'Surgical action', 'Seismic metamaterials', 'Hot stamping', 'Control flow', 'Biotechnology', 'Inconel', 'Cellulose synthesis', 'Adsorption', 'Cascade', 'Just-in-time manufacturing', 'Thermophoresis', 'Rule-based machine translation', 'Design technology', 'Ellipsometry', 'Web of Things', 'Therapeutic inertia', 'Neutron star', 'Nuclear ethics', 'Network allocation vector', 'Thermal grease', 'Innovation management', 'Laser dye', 'Communications satellite', 'Synthetic oil', 'Relaxation length', 'Selenium salt', 'Design flow', 'Franck–Condon principle', 'Colorectal polyposis', 'Plasmonic lens', 'Code division multiple access', 'Machining time', 'Exchange bias', 'Tank locomotive', 'Location-based service', 'Rotating tank', 'Decompression illness', 'Defence in depth', 'Logarithmic mean temperature difference', 'Painting', 'Intelligence cycle', 'Cockpit display system', 'Solar cycle 22', 'g factor', 'Forward converter', 'Diamond dust', 'Internetwork protocol', 'Tax incentive', 'Network economics', 'IEEE 802.11u', 'Mashing', 'Polyatomic ion', 'Memory map', 'P-factor', 'Digital manufacturing', 'Electric motor', 'Join point', 'Radar', 'Heuristic function', 'Melting tank', 'Corporate social responsibility', 'Pulsar', 'Static secondary-ion mass spectrometry', 'Manufacturing engineering', 'Missile', 'Bermuda Atlantic Time-series Study', 'Space logistics', 'Non-renewable resource', 'Son of man', 'Flow velocity', 'Scanning probe lithography', 'Internet protocol suite', 'AIDS dementia complex', 'Living lab', 'Launch escape system', 'Multipath TCP', 'Long mode', 'Polar', 'Ammonium molybdate', 'Mechanical metamaterial', 'Inertial Upper Stage', 'Steel design', 'Hardware virtualization', 'Molecular biophysics', 'Fiscal policy', 'Supply chain risk management', 'Military personnel', 'Loop fusion', 'Distributed manufacturing', 'Two-electron atom', 'Facial motion capture', 'European Geostationary Navigation Overlay Service', 'Naval Tactical Data System', 'Leaf mold', 'Market access', 'Interband cascade laser', 'Submarine warfare', 'Light infantry', 'Solar cycle 10', 'Submarine', 'Life Cycle Engineering', 'Fertigation', 'Three point flexural test', 'Service set', 'Transfer station', 'Inside plant', 'Exclosure', 'Plasma pencil', 'Leg mechanism', 'Rite', 'Hand problems', 'Zero Defects', 'Plane mirror', 'Electrical tuning', 'Local positioning system', 'Mobilome', 'Product Labelling', 'Technology strategy', 'Packet processing', 'Forming processes', 'Heat flux', 'route', 'Time complexity', 'Milling cutter', 'Computational linguistics', 'Physical vapor deposition', 'Die casting', 'Dehydration reaction', 'Metal leaf', 'Tricalcium aluminate', 'Terminology extraction', 'Titanium aluminium nitride', 'Dispersity', 'Fosmid', 'Network virtualization', 'Radio telescope', 'Star tracker', 'Asteroid', 'Deep Web', 'Military technology', 'Normal convergence', 'Emerging markets', 'National Energy Modeling System', 'Engineering optimization', 'Solar cycle 19', 'Optical modulator', 'Industrialisation', 'Adventure education', 'Module pattern', 'Integrated circuit design', 'Sensitive skin', 'Industrial ecology', 'Hydraulic diameter', 'Virtual metrology', 'On the fly', 'Technological convergence', 'Bill of materials', 'Heat transfer enhancement', 'Fluorescence cross-correlation spectroscopy', 'Atkinson cycle', 'Secondary ion mass spectrometry', 'Polymer clay', 'DNA transport', 'Diatomic molecule', 'Reverse innovation', 'Deindustrialization', 'Surface charge', 'Open standard', 'Hybrid array', 'Carrier grade', 'Diving physics', 'Two-phase flow', 'Reaction bonded silicon carbide', 'Verilog-A', 'Pressure coefficient', 'Text annotation', 'Loop inversion', 'Human leg', 'Portlandite', 'Stars', 'Lateral thinking', 'Synthetic diamond', 'Thermal transmittance', 'Modern language', 'Solar cycle 21', 'AVM Navigator', 'Gyroscope', 'Short legs', 'Traffic station', 'Scanning capacitance microscopy', 'Imidacloprid', '128-bit', 'Memory bandwidth', 'Slosh dynamics', 'Food labelling', 'Cognitive module', 'Wave soldering', 'End-to-end delay', 'Explicit Congestion Notification', 'Mixed finite element method', 'Autonomic networking', 'Constellation program', 'Parathion', 'Strain energy release rate', 'Cracking', 'Induced high electron mobility transistor', 'Potassium sulfate', 'Cosmology', 'Videotelephony', 'Diamond turning', 'Hand structure', 'Flight test instrumentation', 'Virtualization', 'Wearable technology', 'Rail freight transport', 'Market economy', 'Reindustrialization', 'Evidence of water on Mars from Mars Odyssey', 'Dysbaric osteonecrosis', 'Golay cell', 'Gray iron', 'Waveguide', 'Design layout record', 'Military threat', 'Q-analysis', 'Coat', 'Protein surface', 'Crew', 'Eco-industrial development', 'Robotic spacecraft', 'Competitive intelligence', 'Cost reduction', 'Global financial system', 'Thermocouple', 'Loop dependence analysis', 'Industrial design', 'Molecular memory', 'Charge density', 'Material properties of diamond', 'Machinability', 'Ammonia volatilization from urea', 'Lead(II) iodide', 'Clutter', 'Agile manufacturing', 'Default-free zone', 'Real-time communication', 'MEMS testing', 'Photon entanglement', 'Expansion tunnel', 'Knowledge transfer', 'Wireless mesh network', 'Modified cellulose', 'Tank truck', 'F-factor', 'Cotransformation', 'Calcium aluminate cements', 'Guerrilla warfare', 'Hot band', 'Cost Comparisons', 'Strategic goal', 'Lexical grammar', 'E band', 'Normal surface', 'Spectacle', 'Nickel', 'Suberites domuncula', 'Carbon fiber reinforced polymer', 'Sun sensor', 'Diamond blade', 'Common-path interferometer', 'Metis', 'Probable prime', 'Safe prime', 'Epiwafer', 'Comet', 'Concurrent engineering', 'Pressure decrease', 'Convective storm detection', 'Ammunition', 'Astrobiology Science and Technology for Exploring Planets', 'Electric charge', 'Dark matter', 'Horizontal scan rate', 'Martian', 'Surface-to-air missile', 'Robust control', 'Informal sector', 'No first use', 'Parting line', 'Malabsorption', 'Nuclear thermal rocket', 'Post-perovskite', 'Electric vehicle', 'Toolchain', 'Combined operations', 'Buck–boost converter', 'Maneuver warfare', 'Channel spacing', 'Bulbous bow', 'Terahertz metamaterials', 'Spacecraft design', 'Hemadsorption', 'MIMO-OFDM', 'RISC-V', 'Diamond cubic', 'Innovation competition', 'Efficiency factor', 'Missile defense', 'Science policy', 'Flight envelope', 'Space exposure', 'Numerical control', 'End mill', 'Joints anatomy', 'Financial market', 'Metal fabrication', 'Software-defined data center', 'Public infrastructure', 'Collaborative network', 'Adaptive strategies', 'Ground segment', 'Antiferromagnetism', 'Internal combustion engine cooling', '1s Slater-type function', 'Flight dynamics', 'Vibrational partition function', 'Healing Touch', 'Cost engineering', 'Spatial multiplexing', 'Factor analysis', 'Rule of mixtures', 'Static routing', 'S band', 'Temperature measurement', 'Online machine learning', 'Spin-exchange interaction', 'Turbulence kinetic energy', 'Stable fly', 'Emissions trading', 'Xylanase', 'Many antennas', 'Military intelligence', 'Robotic mapping', 'Production control', 'Pyrethroid', 'Halite', 'Electrode potential', 'Observations and explorations of Venus', 'Occupancy sensor', 'Interfacial thermal resistance', 'Exploration of Mercury', 'Saw (device)', 'Nanomanufacturing', 'Radiation mode', 'Potash', 'Plastic welding', 'Construction management', 'Ion beam deposition', 'Military psychology', 'Computer-integrated manufacturing', 'Information and communication technologies for development', 'Emerging market debt', 'Machining', 'Gasoline', 'Hash join', 'Ammonium dimolybdate', 'Embedded intelligence', 'Knowledge broker', 'Nanobiotechnology', 'Tetrafluoroborate', 'FCAPS', 'Green marketing', 'Copra', 'Drop tank', 'Orbit', 'Programmable metallization cell', 'Green infrastructure', 'Pesticide resistance', 'Counter-scanning', 'Regulator', 'Baseflow', 'Resource Provider', 'Nuclear fission', 'Primary mirror', 'Diammonium phosphate', 'Fire support', 'Socioeconomic development', 'Interlingual machine translation', 'Thermal conductivity measurement', 'Induction motor', 'Space rendezvous', 'Overlay network', 'Need for cognition', 'Lean manufacturing', 'Optical burst switching', 'Gate dielectric', 'Lubricant', 'Space Launch System', 'Intelligent environment', 'Nitroxyl', 'Venus', 'Surgical Sponges', 'Nanofluid', 'Manufacturing execution system', 'Bandwidth-delay product', 'Integrated circuit layout', 'Child-resistant packaging', 'Resistin', 'Combat Disorders', 'Vision problem', 'R Plasmids', 'Electric machine', 'Mobile cloud computing', 'Fair trade', 'Nano manufacturing', 'Management agent', 'Composite construction', 'Crew resource management', 'Social entrepreneurship', 'Friction stir welding', 'Supply chain management', 'Convective heat transfer', 'Integrated Computer-Aided Manufacturing', 'Solar cycle 14', 'Worsted', 'Hybrid plasmid', 'Alloy wheel', 'Mean flow', 'Nanophotonics', 'Gravitational wave', 'Social marketing', 'Molecular self-assembly', 'Ideal surface', 'Wire speed', 'Perovskite solar cell', 'Mischmetal', 'Technological revolution', 'Microbial agent', 'Nuclear strategy', 'Nickel Chromium Alloys', 'Mirror galvanometer', 'Injection moulding', 'Viola–Jones object detection framework', 'Nuclear cross section', 'Technological evolution', 'Surgical errors', 'Rifle', 'Civil defense', 'Supply chain sustainability', 'Seafloor mapping', 'Lagrangian point', 'Vector operator', 'TCP congestion-avoidance algorithm', 'Mobility management', 'Smart contract', 'Dot product', 'Ka band', 'Memory hierarchy', 'Paraphrase', 'Radar cross-section', 'Automated Transfer Vehicle', 'Organophosphate', 'Access network discovery and selection function', 'Myelin-associated glycoprotein', 'Native copper', 'Titanium', 'Impressment', 'Russian literature', 'Surface integrity', 'Process variation', 'Pediatrics', 'Metamaterial cloaking', 'Dieldrin', 'ISM band', 'Early adopter', 'Kinetic theory', 'Calcium superphosphate', 'Submariner', 'N-Ethylmaleimide', 'Space research', 'Network architecture', 'Telescope', 'Class implementation file', 'Industrial robot', 'Lime-nitrogen', 'Humic acid', 'Stencil lithography', 'Waveguide flange', 'Synthetic geometry', 'Multiprotocol Label Switching', 'Total productive maintenance', 'Motion control', 'Sauter mean diameter', 'Retread', 'Thermal contact conductance', 'LIDA', 'Plastics industry', 'Environmental biotechnology', 'Solar cycle 16', 'Weather radar', 'POWDERED CELLULOSE', 'Public key infrastructure', 'Musca autumnalis', 'Planetary surface', 'Planetary protection', 'Golgi cell', 'International Electron Devices Meeting', 'Hobbing', 'Adventure', 'Demobilization', 'Orbital plane', 'Exploratory search', 'Trade and development', 'Military theory', 'Open innovation', 'Artillery', 'Fortification', 'Grippers', 'Alloy Analyzer', 'Proton conductor', 'Bilingual lexicon', 'Partial charge', 'Induced innovation', 'Advertising campaign', 'CELLULAR SHEET', 'Aerodynamic potential-flow code', 'Nowcasting', 'Transmon', 'State secrets privilege', 'Industrial district', 'Saturated calomel electrode', 'Loop splitting', 'Auxiliary memory', 'Castability', 'Investment banking', 'Formability', 'Magnetic Bead Separation', 'V band', 'Prehensile tail', 'Flyby anomaly', 'Network Convergence', 'Reynolds stress', 'Control reconfiguration', 'Cyclic prefix', 'Solar cycle 12', 'Exploration of Mars', 'Microfiltration', 'Motorcycle tyre', 'Regenerated cellulose', 'Research development', 'Network traffic control', 'Nitrate test', 'Plant identification', 'Financial sector development', 'Defense Satellite Communications System', 'Urea phosphate', 'Virtex', 'IEEE 802.11', 'Cognitive closure', 'Fallout shelter', 'Process development execution system', 'Akadama', 'Charge number', 'Language technology', 'Elastomer', 'Intensity interferometer', 'Military recruitment', 'Artificial intelligence', 'Ionic bonding', 'Mamba', 'Magnetoresistive random-access memory', 'Nuclear fallout', 'Microbial cellulose', 'Entity linking', 'Network management application', 'Reflective array antenna', 'Military deployment', 'Solar cycle', 'Explosives safety', 'Amphibious warfare', 'Routing Information Protocol', 'Ammonium phosphate', 'Secondary mirror', 'Azasteroid', 'Aerial video', 'Environmental economics', 'Second strike', 'First-order reliability method', 'Colon polyps', 'Dot gain', 'Verilog', 'Incremental sheet forming', 'Interstimulus interval', 'Investment casting', 'Deltamethrin', 'Aerodynamic heating', 'Shared disk architecture', 'Semiconductor device fabrication', 'Heterostructure barrier varactor', 'Network topology', 'Strong electrolyte', 'Solar architecture', 'Diesel fuel', 'Mantra', 'Slow flight', 'Japanese post-war economic miracle', 'Non-rocket spacelaunch', 'Mushroom bodies', 'Reinforced solid', 'File Control Block', 'Semiconductor optical gain', 'Two-stage-to-orbit', 'CUDA', 'Motor control', 'Orbital elements', 'Nanoarchitectonics', 'Enabling', 'Strategy pattern', 'Infrared homing', 'Reflection mapping', 'Adaptive value', 'BiCMOS', 'DNA field-effect transistor', 'Relative intensity noise', 'Ductile iron', 'Hot runner', 'Optical switch', 'Aviation safety', 'Linear Scan', 'Terminal guidance', '6to4', 'Wi-Fi array', 'Submarine cable', 'Semi-active radar homing', 'Ammonium heptamolybdate', 'Nitrogen-vacancy center', 'Paper sack', 'Powered wheelchairs', 'International security', 'Bipolar junction transistor', 'Dive computer', 'Comprehensive layout', 'Pressure Rate', 'Copper', 'Orchestration', 'End-user computing', 'Design specification', 'Standard cell', 'DIP switch', 'Gait analysis', '3G MIMO', 'Biotransformation', 'Dental alloys', 'Packaging Tank', 'Flexible manufacturing system', 'Persian gulf syndrome', 'Resistor', 'Link level', 'Communication complexity', 'Infantry', 'Hydrogen sulfide sensor', 'Cerebellum', 'Laser velocimetry', 'Rolling resistance', 'Mars landing', 'Language identification', 'Stimulus interval', 'Gastronomy', 'Electrochemical electrode', 'Transfusion associated circulatory overload', 'C-type natriuretic peptide', 'New business development', 'Scientific terminology', 'Analysis of flows', 'Slush', 'Peacebuilding', 'Nitrox', 'Leaf gap', 'Revolution in Military Affairs', 'Pyrometer', 'Nanoelectromechanical systems', 'Potassium persulfate', 'Prime k-tuple', 'Hele-Shaw flow', 'Transport document', 'Photoacoustic tomography', 'Object-class detection', 'Network protector', 'Global Innovation Index', 'Production engineering', 'National Security Area', 'Molecular models of DNA', 'Design for assembly', 'Strategic defence', 'Nuclear warfare', 'Carbaryl', 'Rotational–vibrational coupling', 'Medical robot', 'Latching switch', 'Capacity building', 'Vertical-external-cavity surface-emitting-laser', 'Social business', 'Corporate sustainability', 'Single-Walled Nanotube', 'Modern warfare', 'Signal station', 'Concurrent user', 'Rotary actuator', 'Radio Science', 'Internet Protocol', 'Foundry', 'Leaf formation', 'Cable Internet access', 'Geoengineering', 'Diamond type', 'Hybrid intelligent system', 'IDEF0', 'Process manufacturing', 'Tiered service', 'Meteorite', 'Submarine medicine', 'Ultrasonic machining', 'Adventure therapy', 'Traffic policing', 'CUDA Pinned memory', 'Paravirtualization', 'RF switch', 'Bowman–Birk protease inhibitor', 'Automatic-tracking satellite dish', 'Electronics cooling', 'Crew cut', 'Translation language', 'Air traffic management', 'Saturnus', 'Library consortium', 'Monolithic microwave integrated circuit', 'Spacefaring', 'Switch statement', 'Network traffic measurement', 'Adaptive grammar', 'Pitching moment', 'Universal Networking Language', 'Research design', 'Bronze', 'Lost-foam casting', 'Artificial Intelligence System', 'Ballistic capture', 'Shared space', 'Reservoir bag', 'Business plan', 'Ongoing reliability test', 'Scanning ion-conductance microscopy', 'Solar System', 'Internet presence management', 'Charge conservation', 'Labelling', 'K-epsilon turbulence model', 'Base flow', 'IEEE 802.11ac', 'Kanban', 'S-factor', 'Silicon carbide', 'Biosatellite', 'Scene statistics', 'Pressure gradient', 'Suberites', 'Bass diffusion model', 'Magic formula', 'Crossbar switch', 'Sack', 'Ternary tree', 'Defined process', 'Broadband', 'Desoldering', 'Radiological warfare', 'Labelling machine', 'Channel use', 'Cerebellar function', 'Switched reluctance motor', 'Optical communications repeater', 'Fitness to dive', 'Heuristics', 'Disruptive innovation', 'User innovation', 'Face space', 'Intercontinental ballistic missile', 'Mobile broadband', 'Average-case complexity', 'Sustainable urban infrastructure', 'Concurrent computing', 'Casting', 'Ant robotics', 'Steady flight', 'Sand casting', 'Blow molding', 'Cellulose phosphate', 'Metal', 'Rain gauge', 'Elongation', 'Engineering', 'Military tactics', 'Order of magnitude', 'Yarrowia', 'Static testing', 'Stratix', 'Agreed Framework', 'Content Model', 'Finite element method', 'Ground-penetrating radar', 'Loop interchange', 'REMUS', 'Functional design', 'Langmuir', 'Eco-innovation', 'Pneumatic actuator', 'Process validation', 'Resistive random-access memory', 'Healing tissues', 'Intermediate-range ballistic missile', 'Ionic compound', 'Naval Surface Warfare Center', 'Wi-Fi', 'Open economy', 'Campaniform sensilla', 'Digital ecosystem', 'Capital control', 'Successive approximation ADC', 'Clothing', 'Gain', 'Simulation language', 'Strong prime', 'Adcock antenna', 'Vision for Space Exploration', 'Meteoroid', 'Nuclear weapons testing', 'Acoustic radiation force', 'Foreign direct investment', 'Magnesium', 'Internet access', 'TOP500', 'Orbital maneuver', 'Physical design', 'Plasmid maintenance', 'Fractionated spacecraft', 'Embedded C', 'Nanofluidics', 'Ropes course', 'Power user', 'Conoscopic interference pattern', 'Endogenous growth theory', 'Trade facilitation', 'Missile injury', 'Flight control surfaces', 'Long-term experiment', 'Adaptive capacity', 'Deep space exploration', 'Flat memory model', 'Provable prime', 'Hydrographer of the Navy', 'IBM', 'Path computation element', 'Creative problem-solving', 'Modes of convergence', 'Particle tracking velocimetry', 'Astronomy', 'Gait', 'Atomic Bombs', 'Shape object', 'Metamaterial antenna', 'Wormhole switching', 'Molding sand', 'Sentiment analysis', 'Technical diving', 'Terahertz time-domain spectroscopy', 'Named entity', 'Overtone band', 'Universal Software Radio Peripheral', 'Generalised cost', 'Metropolitan area network', 'Ecodesign', 'Data retrieval', 'Affix grammar', 'Vortex stretching', 'IEEE 802.11ah', 'Signal corps', 'Leapfrogging', 'Educational institution', 'DC-to-DC converter', 'National security', 'Surface-to-surface missile', 'Missile guidance', 'Stochastic geometry models of wireless networks', 'Ethidium monoazide', 'Channel capacity', 'Ring modulation', 'Lost-wax casting', 'Inertia', 'Hardware description language', 'Wireless broadband', 'Photon polarization', 'Neurorobotics', 'Focused ion beam', 'Small Business Innovation Research', 'Spaceflight', 'Investment decisions', 'Military operations area', 'Planet', 'Expendable launch system', 'Recursive join', 'Facial recognition system', 'Steel casting', 'Optical add-drop multiplexer', 'Banyan switch', 'Omnidirectional antenna', 'Digifant engine management system', 'Electric discharge', 'Core language', 'Dictyoceratida', 'Space debris', 'C-DNA', 'Maximum flow problem', 'Minesweeping', 'Wet cleaning', 'Plasmonic metamaterials', 'Platinum', 'Level activity', 'Multiple Polyps', 'Sustainable urbanism', 'Cow dung', 'Electrospark deposition', 'Engine test stand', 'Capital formation', 'Thin-film optics', 'Leaded petrol', 'Leg stiffness', 'Dynamic Scan', 'Screw', 'IEEE 802.11s', 'Lab-on-a-chip', 'Phugoid', 'Membrane coat', 'Fast packet switching', 'Human-in-the-loop', 'Technology policy', 'Air traffic flow management', 'Propellant tank', 'Next Generation Air Transportation System', 'Paper engineering', 'Total pressure', 'Ecological economics', 'Advanced manufacturing', 'Pore pressure gradient', 'Permanent mold casting', 'Certificate of origin', 'Conventional memory', 'Ion beam lithography', 'Mode 2', 'Flow conditions', 'Endosulfan', 'Meridiani Planum', 'Grammar', 'Interactive systems engineering', 'Financial innovation', 'Diamond', 'Memory module', 'Body temperature measurement', 'Design Error', 'Subtitle', 'Sigma', 'Commodity computing', 'Data control language', 'Langmuir adsorption model', 'GLONASS', 'Phoenicopteridae', 'Panopticon', 'Technological change', "Simon's problem", 'Formamidinium', 'Diamond tool', 'Life cycle thinking', 'Pursuit guidance', 'GPU cluster', 'Wireless WAN', 'Lidar', 'X-ray lithography', 'Motor controller', 'IC layout editor', 'Consistent heuristic', 'Aluminium-27', 'IEEE 802.11p', 'Web mapping', 'Join dependency', 'Crew scheduling', 'Upset welding', 'Flow map', 'Automaton', 'Trench warfare', 'Almost prime', 'Solar cycle 24', 'A share', 'Tactical nuclear weapon', 'Method of image charges', 'Methylammonium lead halide', 'Exchange interaction', 'Naval Science', 'EMPA', 'Micropipe', 'Accelerating change', 'Data-intensive computing', 'Pace', 'Planet V', 'Toyota Production System', 'Colorectal Polyp', 'Continuous casting', 'Leaf morphogenesis', 'Embedding', 'Mobile phone', 'Roll program', 'Stable gait', 'Surface modification', 'Cryotank', 'Artificial intelligence and law', 'Leaf angle distribution', 'Differential item functioning', 'Connectivity', 'Design and Technology', 'Military science', 'Terminology', 'Fluorescence spectroscopy', 'Remanufacturing', 'Malathion', 'Chicken manure', 'Linea', 'Gamma-ray burst', 'Molecular physics', 'Test functions for optimization', 'Acoustic radiation', 'Cruise missile', 'Particle image velocimetry', 'Cloning', 'MicroBlaze', 'Reprojection error', 'Symbolic convergence theory', 'Carausius morosus', 'Interferometric synthetic aperture radar', 'Knowledge-based engineering', 'Co-creation', 'Future proof', 'Distributed Bragg reflector laser', 'Plug-in', 'Traffic flow', 'Submarine landslide', 'Dexibuprofen', 'Number One Crossbar Switching System', 'Incoherent scatter', 'Leaf expansion', 'Next-generation lithography', 'Tactile sensor', 'Limit switch', 'Modular design', 'Sheet metal forming simulation', 'Solar cycle 20', 'Military strategy', 'DSRFLOW', 'Group technology', 'Military branch', 'Nuclear explosive', 'Machine vision', 'Ensign', 'TO-18', 'Packet loss', 'Multilayer switch', 'Gas porosity', 'Satellite bus', 'Interferometry', 'Internal fan-cooled electric motor', 'Mobilization', 'Mirror image', 'Parallel Extensions', 'Dead reckoning', 'Product design', 'Carbon nanotube supported catalyst', 'Dipole antenna', 'Water-Lilies', 'Transmitter station', 'Hardware acceleration', 'Transformation optics', 'Thermoforming', 'Adaptive optimization', 'Paradigm shift', 'Flow visualization', 'Cell determination', 'Nonlinear metamaterials', 'Charge type', 'Analyte', 'Plain weave', 'Lithography', 'Open network architecture', 'Musical tuning', 'Split-ring resonator', 'Muscidae', 'Swarm robotics', 'Dielectric barrier discharge', 'Infranet', 'Near field communication', 'Hexachlorobenzene', 'Charging order', 'Face hallucination', 'Alite', 'Commercialization', 'Linear actuator', 'Trident', 'RF power amplifier', 'Public transport', 'Data mapping', 'Solar cycle 23', 'I/O virtualization', 'Electrochemical scanning tunneling microscope', 'Aerobraking', 'Policy mix', 'Polymer characterization', 'Chicken droppings', 'Coati', 'Exploratory research', 'Pioneer anomaly', 'Primary station', 'Packet switching', 'Active vision', 'Trade barrier', 'Block nested loop', 'Casting defect', 'Robot leg', 'Atacama Large Millimeter Array', 'Corona', 'Soldering', 'Ball-and-stick model', 'Tricalcium silicate', 'Trimix', 'Castalia', 'Flight inspection', 'Intestinal polyp', 'T-DNA Binary system', 'Electrical discharge machining', 'Microphotonics', 'Build to order', 'ID/LP grammar', 'Saturation velocity', 'Black hole', 'Artillery shell', 'RAMP3', 'Fluorescence correlation spectroscopy', 'Tank container', 'Gummel–Poon model', 'Channel allocation schemes', 'Relative fluorescence units', 'Technology assessment', 'Multiple patterning', 'Trichoderma reesei', 'Satellite imagery', '12-bit', 'Air traffic control', 'Atrazine', 'Chiller boiler system', 'Atom interferometer', 'Plasma torch', 'Entrepreneurship ecosystem', 'Xylobiose', 'Vortex lattice method', 'Nuclear terrorism', 'Packaging engineering', 'Mars Orbiter Laser Altimeter', 'Compact convergence', 'Vortex Formation', 'Forming limit diagram', 'Rho factor', 'Trimethylene carbonate', 'Constructed language', 'Lunar orbit', 'Aerocapture', 'Immunomagnetic separation', 'Graphite', 'Shared Risk Resource Group', 'W band', 'Tiss</t>
         </is>
       </c>
     </row>
@@ -724,12 +724,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['2777146892', '2909000370', '134215751', '2781160424', '557691694', '2779183276', '2781304125', '821917', '63805789', '160333310', '34560132', '121017731', '2780615719', '2909257116', '2779795779', '2776060655', '134659438', '2778004815', '2779735493', '2781372952', '4162061', '2777433830', '2777807558', '2779997400', '2781313914', '2777201701', '2779490853', '155202549', '104151175', '2777626329', '179709323', '2780903623', '86615163', '55986821', '2779206190', '2778968930', '2779233565', '48891531', '129603779', '76485209', '2780761588', '2778660980', '2777111884', '2779625216', '2776845425', '2781386606', '2776572088', '10688316', '83864248', '19244329', '2909439219', '2778055162', '2777917351', '2780479094', '19159745', '67921825', '160443848', '2776206778', '2781196610', '2778716609', '506295513', '25810664', '37129596', '45355965', '519300510', '2776237081', '70036468', '2909064151', '516990006', '2909635936', '2776592576', '139719470', '173145845', '2779282124', '2908525900', '116019233', '2775848949', '551499885', '2778212065', '109051061', '2779845407', '51067260', '77357849', '2777147431', '176564469', '190973436', '182299520', '2779310246', '55447825', '2777129469', '2910442575', '2910645313', '2779251847', '73283319', '2777209669', '163836022', '2780962165', '2779119184', '2780459134', '106159729', '2909025839', '2776758949', '2778459265', '2778566306', '140816417', '119857082', '176445938', '32437296', '510755694', '2781190941', '78780426', '2910181401', '177309310', '2781426361', '97713585', '2909492420', '2910289302', '2776572589', '2776327045', '2780623907', '2909647022', '2780535194', '2776354556', '146406624', '2776636807', '2909342271', '75218677', '2780892066', '2776554220', '111141941', '91093795', '2909549571', '194477218', '162725370', '162324750', '191953296', '2780155792', '161407221', '15107229', '2779201187', '188116033', '2776825616', '2778462305', '540791928', '77352025', '53001019', '35532855', '71909290', '2777686490', '2908821035', '201915964', '150432175', '27564746', '2776942536', '159176650', '2779601481', '2778527208', '2911052175', '2908766468', '2778764706', '2776369677', '2776344727', '2909801347', '2776310010', '2780899237', '2910013236', '166052673', '2777288899', '84945661', '44171179', '42298096', '178283979', '180872759', '2780031633', '2781216606', '2780569737', '126285488', '168622376', '50549864', '2777263331', '2909400753', '100607858', '128963836', '2780950746', '2780037060']</t>
+          <t>['2910013236', '111141941', '2909342271', '506295513', '557691694', '10688316', '2910181401', '2909000370', '34560132', '129603779', '551499885', '2780761588', '2777129469', '2777146892', '83864248', '2909801347', '160333310', '121017731', '51067260', '510755694', '2776369677', '2910289302', '2777147431', '2776354556', '2779183276', '2778660980', '2779206190', '821917', '2776310010', '109051061', '194477218', '2779795779', '106159729', '116019233', '176445938', '2908525900', '162725370', '67921825', '2776592576', '2780615719', '2909647022', '2909257116', '2776845425', '2777288899', '32437296', '2781160424', '2909064151', '2777626329', '2776344727', '2776206778', '155202549', '71909290', '182299520', '19244329', '4162061', '540791928', '163836022', '2777111884', '50549864', '2778716609', '2910645313', '2909492420', '2781313914', '2779282124', '191953296', '78780426', '2780962165', '15107229', '190973436', '2908821035', '48891531', '2777433830', '2779233565', '134659438', '134215751', '91093795', '2779490853', '139719470', '179709323', '2909400753', '160443848', '75218677', '519300510', '2776554220', '2780459134', '2777201701', '97713585', '2780031633', '86615163', '2778566306', '128963836', '2909025839', '2779735493', '2781426361', '2780037060', '2779119184', '2780903623', '2778462305', '173145845', '201915964', '140816417', '45355965', '84945661', '2779251847', '180872759', '2777917351', '2909635936', '44171179', '2910442575', '2777686490', '176564469', '2908766468', '73283319', '77357849', '42298096', '2776942536', '2775848949', '27564746', '70036468', '2776758949', '168622376', '2776825616', '2779997400', '188116033', '2781372952', '2776237081', '2780623907', '2776572589', '2778212065', '19159745', '2780892066', '2781190941', '2781196610', '2780950746', '126285488', '63805789', '146406624', '2780479094', '77352025', '2779625216', '2781216606', '55986821', '104151175', '516990006', '2777807558', '119857082', '37129596', '166052673', '2776636807', '150432175', '2776572088', '35532855', '2776060655', '2779845407', '55447825', '2781386606', '2778055162', '76485209', '2777263331', '2777209669', '100607858', '2781304125', '2779601481', '2911052175', '2778764706', '177309310', '2780569737', '2909549571', '161407221', '2776327045', '2778459265', '53001019', '162324750', '2779310246', '2778004815', '2778968930', '2780899237', '25810664', '2909439219', '159176650', '2779201187', '2778527208', '178283979', '2780155792', '2780535194']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Pension Credit', 'Work women', 'Professional association', 'Social integration', 'Remote control', 'Disability benefits', 'Social risk management', 'Capital outflow', 'Net national income', 'Key distribution', 'Steady state', 'Information technology', 'Financial integration', 'Retirement pensions', 'Payroll tax', 'Tariff', 'Social exclusion', 'Defined contribution plan', 'Human Development Index', 'Visual impairment', 'F-distribution', 'Social protection', 'Biodistribution', 'Irreligion', 'International Action', 'Means test', 'Conditional cash transfer', 'International trade', 'Emigration', 'International trade law', 'Lévy distribution', 'Cross-border cooperation', 'International human rights law', 'Macroeconomic model', 'Gini coefficient', 'Social disintegration', 'Middle class', 'Marketing research', 'Welfare state', 'Life annuity', 'Median income', 'Bank regulation', 'Social security', 'Physical disability', 'Stereotype threat', 'Longevity risk', 'Microaggression', 'New Keynesian economics', 'Developing country', 'Financial market', 'Cognitive stimulation', 'Financial accelerator', 'Internal migration', 'Third-Worldism', 'Social policy', 'Distribution law', 'Per capita income', 'Special needs', 'Co-development', 'Minimum wage', 'Economic integration', 'Ontology', 'Social mobility', 'Socioeconomics', 'Income distribution', 'Income Support', 'Immigration', 'Less-Developed Nations', 'Organizational economics', 'Old age assistance', 'Social Security Act', 'Macroeconomics', 'Refugee', 'Social insurance', 'Kin discrimination', 'Food energy', 'Regulation Q', 'Intellectual disability', 'Invisible disability', 'Biomonitoring', 'World Development Indicators', 'Professional development', 'Origin', 'Green Information Technology', 'Total personal income', 'Informal education', 'Total cost', 'Least Developed Countries', 'International law', 'Trade agreement', 'Supplementary benefit', 'Monitoring ph', 'Financial inclusion', 'Financial system', 'IAS 19', 'Markov model', 'Remittance', 'ALARM', 'Right to social security', 'Financial economics', 'Ph regulation', 'Stigmata', 'South–South cooperation', 'Personal income', 'Zero population growth', 'Machine learning', 'Ecological economics', 'Life chances', 'Financial regulation', 'Minimum wage law', 'Deregulation', 'Ethnic discrimination', 'Information technology audit', 'Earnings', 'Mark to model', 'A physical disability', 'Bp monitoring', 'Lower middle class', 'Professional boundaries', 'Disadvantaged', 'Working Woman', 'Open data', 'Health information technology', 'Unearned income', 'Mutual aid', 'Sickness benefit', 'Inflation', 'Household income', 'Prosperity', 'Immigration policy', 'Information Age', 'Retirement Benefit', 'Income in kind', 'Daytime', 'Economics', 'Young professional', 'Redevelopment', 'Cognitive model', 'Learning disability', 'Information leakage', 'Q-learning', 'Private pension', "Women's work", 'Professional studies', 'Population growth', 'Social issues', 'Free trade', 'Actuarial reserves', 'Border enforcement', 'Job discrimination', 'AP Macroeconomics', 'Chi distribution', 'Market research', 'Women in the workforce', 'Horizon', 'Financial institution', 'PAYGO', 'Intersectoral Cooperation', 'Consent Forms', 'Global value chain', 'Human Development Report', 'Disability insurance', 'Cognitive Intervention', 'Maldevelopment', 'Pension', 'Benefit eligibility', 'Empirical evidence', 'Retirement age', 'Root cause', 'External debt', 'Socioeconomic development', 'Public finance', 'Social group', 'Irregular migration', 'Ecological debt', 'Disinflation', 'Monetary policy', 'Ecological Debt Day', 'S.M.A.R.T.', 'Co-regulation', 'Hue discrimination', 'Meontology', 'K-distribution', 'Social pension', 'Cross-border region']</t>
+          <t>['Benefit eligibility', 'Immigration policy', 'Sickness benefit', 'Economic integration', 'Remote control', 'New Keynesian economics', 'Ethnic discrimination', 'Work women', 'Steady state', 'Welfare state', 'Intellectual disability', 'Median income', 'Trade agreement', 'Pension Credit', 'Developing country', 'Cognitive Intervention', 'Key distribution', 'Information technology', 'Professional development', 'Financial regulation', 'Human Development Report', 'Bp monitoring', 'Green Information Technology', 'Health information technology', 'Disability benefits', 'Bank regulation', 'Gini coefficient', 'Capital outflow', 'Maldevelopment', 'Biomonitoring', 'Income in kind', 'Payroll tax', 'Financial economics', 'Food energy', 'Ecological economics', 'Kin discrimination', 'Daytime', 'Distribution law', 'Social Security Act', 'Financial integration', 'Working Woman', 'Retirement pensions', 'Stereotype threat', 'Retirement age', 'Life chances', 'Social integration', 'Less-Developed Nations', 'International trade law', 'Disability insurance', 'Special needs', 'International trade', 'Actuarial reserves', 'Total cost', 'Financial market', 'F-distribution', 'Professional studies', 'Markov model', 'Social security', 'S.M.A.R.T.', 'Minimum wage', 'Monitoring ph', 'A physical disability', 'International Action', 'Social insurance', 'Young professional', 'Deregulation', 'Remittance', 'Learning disability', 'Informal education', 'Job discrimination', 'Marketing research', 'Social protection', 'Middle class', 'Social exclusion', 'Professional association', 'Information Age', 'Conditional cash transfer', 'Macroeconomics', 'Lévy distribution', 'Hue discrimination', 'Per capita income', 'Inflation', 'Income distribution', 'Prosperity', 'Right to social security', 'Means test', 'Mark to model', 'Irregular migration', 'International human rights law', 'Personal income', 'K-distribution', 'Ph regulation', 'Human Development Index', 'Earnings', 'Cross-border region', 'ALARM', 'Cross-border cooperation', "Women's work", 'Refugee', 'AP Macroeconomics', 'Zero population growth', 'Socioeconomics', 'Root cause', 'Financial inclusion', 'Social group', 'Internal migration', 'Old age assistance', 'External debt', 'Supplementary benefit', 'Border enforcement', 'Total personal income', 'Consent Forms', 'Financial system', 'Origin', 'Socioeconomic development', 'Women in the workforce', 'Regulation Q', 'Market research', 'Immigration', 'Stigmata', 'Ecological Debt Day', 'Private pension', 'Irreligion', 'Q-learning', 'Visual impairment', 'Income Support', 'Disadvantaged', 'Lower middle class', 'Invisible disability', 'Social policy', 'Household income', 'Minimum wage law', 'Co-development', 'Social pension', 'Monetary policy', 'Net national income', 'Unearned income', 'Third-Worldism', 'Population growth', 'Physical disability', 'Ecological debt', 'Macroeconomic model', 'Emigration', 'Organizational economics', 'Biodistribution', 'Machine learning', 'Social mobility', 'Empirical evidence', 'Mutual aid', 'Chi distribution', 'Microaggression', 'Free trade', 'Tariff', 'World Development Indicators', 'International law', 'Longevity risk', 'Financial accelerator', 'Life annuity', 'Co-regulation', 'IAS 19', 'Meontology', 'Social risk management', 'Financial institution', 'Intersectoral Cooperation', 'Global value chain', 'Information technology audit', 'Disinflation', 'Retirement Benefit', 'Cognitive model', 'Professional boundaries', 'South–South cooperation', 'Social issues', 'Economics', 'Least Developed Countries', 'Defined contribution plan', 'Social disintegration', 'Pension', 'Ontology', 'Cognitive stimulation', 'Horizon', 'Information leakage', 'PAYGO', 'Public finance', 'Redevelopment', 'Open data']</t>
         </is>
       </c>
     </row>
@@ -757,12 +757,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['2777228553', '2780591428', '116081451', '203299862', '71760877', '2775991983', '537935012', '195251586', '162044005', '157181609', '2780871342', '198211336', '541743481', '522453465', '2910945715', '2777800518', '2776952685', '2778554111', '182358397', '83091593', '125109622', '2776663400', '2780997931', '2777855027', '2781039245', '2781188222', '2911003279', '2781261322', '521449643', '151807755', '70970002', '2780512908', '74294582', '82447923', '115901376', '168703024', '2778399496', '2779236963', '48580701', '2780048828', '68643176', '129603779', '115051666', '113145756', '168630323', '1975866', '2778289769', '101336846', '2780948093', '122156500', '2776756561', '2776310101', '88477975', '90327742', '2781007418', '2780188654', '2777257828', '175668461', '19165224', '198104137', '2780521143', '2776045127', '535247945', '2780210451', '45051096', '2778787886', '179056299', '2776941537', '2781323617', '84703498', '128570904', '2777362114', '22590252', '60943498', '202372285', '155632674', '70036468', '142600807', '2781440851', '2778844933', '2778603423', '2780918802', '2781119000', '2781098347', '2780035574', '2779434045', '76251814', '168500671', '18065371', '2776974504', '26834231', '178895491', '2776018353', '2777579922', '2780746032', '60075419', '2780723490', '2776906386', '78390623', '205300905', '2779331490', '2780153333', '185656870', '166957645', '20664614', '2910447950', '2778192778', '83874454', '158739034', '54956558', '2777874013', '159607974', '94915269', '42045870', '10708705', '88732821', '140816417', '118519418', '48777230', '96455323', '196313609', '184978287', '2779850767', '2909248125', '107179328', '198766705', '160159729', '108115952', '2777534865', '2778674798', '2779622097', '13184196', '120177712', '2779589656', '2910057652', '2778379900', '2908558976', '539828613', '2777075199', '64004221', '179428456', '205507351', '2909338199', '184568831', '161840515', '2779560216', '2781123702', '2777939785', '28519872', '62908951', '206182792', '153823671', '2776027161', '59742305', '35219183', '2778448659', '2909564673', '111141941', '43472768', '2776508417', '2776061582', '2779128587', '2917558', '2776862752', '179454799', '542948173', '83854009', '182664415', '2910974233', '2777212017', '2780124536', '193415008', '22212356', '200925200', '2777908580', '174378899', '1511901', '79416576', '173560066', '2780811172', '2780524430', '150513403', '102017705', '107993555', '2910182162', '76344452', '86565373', '2909225797', '2909330249', '2777006239', '20625102', '558565934', '129216166', '2778348292', '79420006', '2779794841', '2777275194', '2778711553', '85502023', '141392084', '144024400', '100339178', '2776129789', '104304963', '2780805606', '2779611286', '2779973342', '2910590855', '115314567', '2779888511', '2777867213', '17005505', '2909959731', '156996364', '523173360', '2779910686', '186633575', '2781353297', '2781360730', '2779367526', '2777060902', '2781175455', '2775859345', '176205827', '91724965', '2778583747', '109332788', '2780049196', '2776702403', '2778611045', '2777874752', '2776386368', '2775944049', '130858481', '2780957641', '2780974818', '2780840815', '2776358401', '2779593531', '2778765059', '134698397', '178405089', '176165272', '2780304933', '2781409727', '126408429', '29595303', '45262634', '2780037060', '2781051360', '7991579', '93907247', '5455396', '2910577671', '2908570603', '2779578543', '2781428518', '2909148179', '2777087718', '2775910013', '2778259003', '2776325102', '2778351437', '92545706', '557252395', '2779016933', '2777426340', '75058329', '2780166988', '2778587875', '2909047701', '24992206', '66251956', '138660444', '159032367', '167272206', '183195422', '140096630', '2777638134', '2779534186', '69828861', '60229501', '2781065775', '542344755', '146847282', '2781194246', '2777420705', '2778896325', '2778066700', '2780903623', '2781115785', '46890581', '501299471', '41376638', '168110828', '2776150259', '313442', '2777958785', '112950240', '2780858551', '181588539', '2776121688', '2779442796', '115225779', '89836073', '108865711', '45012715', '2778825863', '60671577', '2781396848', '7131667', '106982986', '31555180', '2780054715', '2780642392', '139997677', '94625758', '2777130432', '19417346', '2778152846', '189764856', '2909682003', '2779725038', '46295352', '2909452073', '4590074', '535291247', '2776044436', '121850381', '2776576667', '2779980673', '2778880830', '103189561', '49545453', '141321718', '38976095', '195358072', '2780836893', '2909120509', '147176958', '192360978', '2776114235', '139228662', '96756911', '137471899', '111852164', '2780481019', '174577910', '2779892437', '137270730', '2776834102', '2776814445', '121658072', '2909603817', '87616379', '192465680', '75007070', '24027999', '2780248506', '533735693', '2910478969', '520944541', '120417685', '2777175953', '126182222', '157150851', '2779204379', '2779548549', '555944384', '147446459', '29760336', '139838865', '148803439', '156945495', '199733313', '207141826', '170154142', '957061', '36375443', '2780400498', '2780433478', '25197100', '2778679906', '15708023', '2776202055', '2778647138', '2780943443', '2778744706', '148383697', '2776109892', '2779679337', '2910721061', '2777397581', '29852176', '2776001114', '2776619914', '135121143', '2777427512', '2776443958', '145985676', '2908584064', '2780302720', '2781190202', '521259446', '2776825979', '547727832', '129404179', '2779015675', '181290262', '2780113678', '25906391', '198428699', '187109078', '2777932401', '2909838491', '2779715073', '2781451986', '70789860', '34863106', '98528937', '69752020', '519517224', '2779888377', '2779240695', '2778307483', '190839683', '556340858', '137403100', '545464746', '39853841', '2909365296', '2780155792', '178021490', '20429076', '2781153986', '539955404', '110069353', '2776432587', '2777463520', '86811826', '2777301445', '77352025', '2779192218', '118817725', '144468803', '2779872411', '150486481', '143389717', '2778473898', '2780661145', '7879346', '2908779215', '2908581758', '2779276850', '2909982710', '190974861', '2910658325', '151043444', '2780434240', '2779028185', '1813318', '88743934', '2777137744', '2779470537', '2780039742', '17206440', '124363303', '2778444522', '81307892', '52069626', '2775889553', '2780783439', '2778289140', '82834280', '3090818', '86085837', '2777690665', '2909151537', '24845683', '2779529814', '2778664945', '89862778', '153606108', '2776689826', '87801611', '39118121', '143700406', '487182', '102690226', '2780028911', '202889954', '2778682666', '78175975', '2780039695', '2776280689', '2777080691', '2909555395', '2776217029', '181536285', '2777305159', '46312422', '2778368647', '152781226', '2777967642', '197487636', '2779154964', '134387633', '71043370', '2778788726', '2778073708', '190253527', '2778495208', '2909765031', '2777380792', '202976495', '70673446', '95389739', '93419950', '2776693075', '66098623', '411171', '2779286702', '2776100843', '2777570903', '76155785', '2780648208', '2779372316', '184386139', '112788895', '196927870', '79841651', '2776489436', '2779382934', '99546132', '2778222686', '202746551', '2781143826', '2779369318', '2781233791', '2908658969', '2779821363', '31168002', '2779322298', '80055088', '2776878354', '2778501065', '2777543776', '2776497017', '70135194', '90508534', '2781462389', '2778632908', '31858485', '171675602', '143392562', '2780300654', '2777788812', '107053488', '61470247', '2778747861', '2778416130', '534859617', '507571656', '2781448223', '2910321540', '2910432382', '2778021871', '2777341207', '2780831121', '129047720', '2779449393', '2779422429', '511192102', '151405878', '2778842010', '19185018', '2909715940', '179933525', '105636585', '152068911', '2781243023', '2777663346', '62555980', '7576483', '2776720842', '2777152325', '10187730', '2776081408', '2780401329', '2908983889', '66862320', '24351657', '71343576', '151915780', '19275194', '4792198', '141354745', '105297191', '2781283787', '80502414', '2781112155', '162127614', '178001088', '2775905063', '196187386', '184603391', '522562087', '47654990', '83931994', '2780886216', '2909332087', '2775987171', '2780185008', '2775923278', '2780136137', '115038398', '129727815', '2910524034', '2780849931', '511693568', '91649852', '190714865', '93371752', '2779548288', '2776724182', '110158866', '30407753', '90296322', '2780492012', '2780105985', '2780884937', '205059728', '2776777543', '73484699', '89505729', '17744445', '520049643', '6405874', '43126263', '504623915', '87210426', '2909933726', '2777636896', '6514731', '190475667', '2778206830', '192126672', '2910740281', '29944414', '2777853934', '2777071753', '16678853', '126053111', '2780290438', '2776300232', '2778444957', '59361812', '2776431611', '2781077476', '122783720', '52121051', '2780237831', '2777881528', '171710264', '2778904306', '2778407155', '203458295', '2779509574', '160331591', '2780822005', '135628077', '2779676996', '2777084153', '531593650', '57097009', '122445209', '514689293', '2777819797', '39014021', '2778099469', '2778512005', '2777294933', '2549261', '101765175', '143845886', '536315585', '518914266', '2777434770', '509933004', '164913051', '109717640', '34355311', '2910093468', '2776618947', '2780750338', '2908647359', '87427459', '158049464', '2779507241', '183373512', '2779126505', '2776568704', '2776786559', '2779833838', '2776668771', '2778407992', '2780086982', '2776692393', '203404855', '39323472', '2776985863', '2777564511', '2779808665', '79581498', '144348335', '2781101838', '153646914', '91802169', '189807693', '199491958', '2780499841', '162084716', '2777856039', '533584247', '33285361', '535899295', '2780781376', '199033989', '122302079', '2775896111', '2777966427', '162446236', '541528975', '71197132', '40319758', '2777404476', '2779152076', '107245137', '75779659', '149039472', '2778330403', '2776931063', '195092306', '2777388718', '53143962', '18533594', '199540501', '202702835', '532444271', '2780132705', '2776732289', '189261614', '13951911', '71839028', '2778226110', '21955270', '186764553', '2777735972', '6385141', '97053079', '2779449021', '2910645917', '2780278329', '15970080', '2776648845', '134512083', '2776873955', '2909978109', '2778580826', '67805463', '2776526686', '185671874', '9664280', '2780743171', '2780933944', '2777805627', '2780545837', '2776114971', '201662476', '198394728', '27017288', '2779265402', '130367717', '2776118319', '2776774022', '54726253', '132943942', '123253695', '2776136241', '2780000280', '37680443', '2910195350', '538383745', '29598333', '2909294104', '2777412237', '45011657', '88764893', '136591941', '51575053', '2778165684', '190414344', '2775953033', '2779610281', '2777408017', '2776506782', '2909124907', '2776930917', '104151175', '16310917', '2778531465', '139450603', '42222113', '2778680390', '2779488668', '2780656496', '136325355', '157085824', '2780784464', '2779534744', '2779679713', '109157449', '125209513', '2909261609', '2778343834', '540269800', '184047640', '2777812597', '2781063802', '120144228', '82685317', '110269972', '533363959', '2778506879', '526067405', '2775867413', '2779319121', '2779567914', '67203356', '94128814', '153683151', '179708759', '2780934355', '2779095084', '2778924504', '2776614217', '2780771206', '2781180020', '33441834', '2780273121', '2910149960', '111943024', '2778437332', '2779838221', '141108527', '133437341', '76775654', '185554395', '61703769', '2910765183', '142932270', '186229450', '2779462738', '1631582', '523419034', '2780399737', '2778170267', '158007255', '2909984675', '18483071', '2775835988', '182377489', '2778166243', '162462552', '2779184092', '83260615', '74819829', '2780620191', '49304495', '2780015235', '2776682078', '2777408600', '2781036520', '138921699', '2779979769', '519580073', '2776547389', '2779781407', '2777944934', '2777384549', '112124176', '2778652117', '2778304562', '2781337099', '122341333', '510578393', '101351245', '2776743756', '519458232', '65059942', '554144382', '117110933', '127145964', '151873908', '2777790407', '2781328080', '514928085', '2777887517', '2776757670', '2777891301', '2777952150', '2777933884', '76458491', '47796450', '4238864', '2780210587', '2776809989', '2910001868', '2779707719', '145788326', '2776407761', '100363876', '2777068528', '2780400262', '2776371253', '201960208', '2778258037', '2777060688', '24890656', '2778203884', '2909426805', '146419311', '2780310989', '2777404366', '2780147423', '89648432', '2777268604', '98940541', '2778215892', '167290972', '2778240362', '2777371558', '2779220109', '2779948615', '2910395587', '105776082', '2780612607', '158071213', '144543869', '12429862', '16160715', '2778906150', '96089941', '2780165032', '555826173', '116822448', '190831278', '13553968', '2777747429', '10118631', '2778309149', '66938386', '2776323365', '39077098', '2777103469', '94602187', '49876356', '2780936489', '172614296', '2776867882', '93377909', '2777113093', '75795011', '154108245', '99484651', '2777550018', '26623033', '200070095', '92025527', '86532276', '17084088', '51413319', '2779533120', '537397655', '2777773042', '196687647', '163428354', '58276294', '2777861868', '2780978496', '512170562', '149923435', '19096712', '2780032489', '28539199', '55958113', '152754458', '2775838644', '2778944020', '91021667', '160487506', '513891491', '2778537189', '2778625738', '2778207038', '152232337', '152192407', '2779387731', '2777162435', '2780018693', '108257041', '98375054', '2778924419', '2781469121', '2910252045', '47798520']</t>
+          <t>['2779128587', '147446459', '957061', '2776682078', '39853841', '2775859345', '7576483', '54726253', '2780032489', '203404855', '120144228', '73484699', '2779220109', '190414344', '2776100843', '2778348292', '2780147423', '526067405', '2781101838', '69752020', '2780492012', '185671874', '2779910686', '2776506782', '2910447950', '90508534', '554144382', '185656870', '2776325102', '55958113', '159032367', '2779015675', '2778258037', '151873908', '2781323617', '195358072', '2909124907', '2778680390', '2778206830', '2776576667', '98528937', '2780836893', '2781261322', '201960208', '2780049196', '2781353297', '174378899', '129216166', '171675602', '2910974233', '2776668771', '2778416130', '2780840815', '198211336', '2778944020', '94625758', '2777103469', '31858485', '190839683', '2777371558', '2910524034', '2779892437', '116822448', '107053488', '92545706', '2909151537', '13553968', '2778226110', '2777305159', '49304495', '66098623', '2777408600', '75058329', '2780831121', '18065371', '115038398', '130858481', '69828861', '83260615', '512170562', '186633575', '206182792', '107993555', '2777638134', '7991579', '2777212017', '42045870', '2776114235', '111943024', '123253695', '184603391', '159607974', '196927870', '116081451', '2917558', '160331591', '2781462389', '19096712', '2908647359', '487182', '171710264', '2909982710', '97053079', '148803439', '2779529814', '2778625738', '2777800518', '2778842010', '2780997931', '132943942', '184568831', '2777887517', '2910093468', '2777636896', '78390623', '108257041', '2778896325', '71839028', '2777735972', '40319758', '2777939785', '82685317', '2780015235', '76344452', '101351245', '2781115785', '2777570903', '186229450', '2780903623', '86811826', '2778611045', '135121143', '2779850767', '96455323', '45051096', '203299862', '126182222', '160159729', '534859617', '507571656', '39323472', '17084088', '2777294933', '2780018693', '2778351437', '520049643', '2778747861', '120177712', '178001088', '2779833838', '33441834', '2777268604', '29944414', '124363303', '2779676996', '118519418', '144543869', '2781175455', '2777408017', '2909838491', '2778368647', '2780400498', '2775923278', '174577910', '2781409727', '1631582', '2909261609', '196313609', '2779610281', '2777404366', '99546132', '557252395', '105636585', '153683151', '2776497017', '80055088', '2781098347', '2777412237', '2909426805', '160487506', '2780545837', '24890656', '2778744706', '101336846', '202746551', '2779808665', '109332788', '2778906150', '2909120509', '2776724182', '77352025', '2909933726', '2776001114', '2777071753', '2778437332', '2778215892', '2776568704', '2778307483', '2909294104', '2780811172', '153823671', '33285361', '2781051360', '2776150259', '2776931063', '2776941537', '2778711553', '521449643', '2781188222', '2776136241', '134698397', '2777773042', '2778537189', '148383697', '82447923', '542344755', '2781440851', '2779152076', '510578393', '2777384549', '2777932401', '71760877', '187109078', '2781283787', '198766705', '2909765031', '137471899', '176165272', '129404179', '2776825979', '89505729', '74294582', '2776873955', '178405089', '20625102', '83854009', '2776044436', '2779434045', '136591941', '2778407992', '2777113093', '2780858551', '167272206', '54956558', '2778664945', '7879346', '118817725', '2779470537', '2779794841', '2780612607', '2780155792', '163428354', '6405874', '150513403', '2775889553', '151915780', '532444271', '2778924419', '184386139', '79841651', '129603779', '514689293', '2779622097', '2778880830', '161840515', '181536285', '20664614', '2779509574', '2910478969', '205059728', '156996364', '2909452073', '60229501', '25906391', '158739034', '2778788726', '202372285', '182664415', '6514731', '62908951', '139838865', '2780300654', '168110828', '2776689826', '2776547389', '2781065775', '39077098', '2777427512', '39118121', '76251814', '2776952685', '96756911', '2777690665', '2776618947', '185554395', '2778021871', '535291247', '91724965', '162044005', '190831278', '547727832', '9664280', '2776777543', '2776508417', '2777397581', '2775896111', '2776489436', '2780399737', '152232337', '31555180', '2780166988', '147176958', '99484651', '2777362114', '2780278329', '198104137', '111852164', '2779154964', '2777060902', '60943498', '2776027161', '34863106', '2780918802', '2780302720', '2781119000', '2780591428', '2911003279', '66251956', '83091593', '100363876', '2777579922', '126053111', '2778844933', '1511901', '130367717', '535899295', '68643176', '94128814', '509933004', '143700406', '66938386', '2777819797', '59361812', '2779980673', '2778554111', '2910195350', '2778501065', '87427459', '70789860', '537935012', '2778495208', '2780481019', '2780512908', '195092306', '18483071', '122302079', '181290262', '2778674798', '2781112155', '518914266', '48777230', '17206440', '2780054715', '2776720842', '29595303', '2780037060', '2776906386', '122341333', '2778343834', '2781428518', '112124176', '2781469121', '183373512', '2780648208', '74819829', '105776082', '127145964', '135628077', '192360978', '2779948615', '2778066700', '152781226', '57097009', '2777130432', '2775991983', '66862320', '2777952150', '2780290438', '125209513', '2778444957', '2777228553', '19165224', '136325355', '29852176', '2779567914', '198394728', '2778192778', '151405878', '83874454', '2775944049', '2776834102', '179933525', '2781360730', '2778580826', '37680443', '162084716', '2780746032', '533363959', '46890581', '2776809989', '95389739', '2781039245', '157181609', '411171', '2910721061', '5455396', '80502414', '42222113', '2908983889', '2777747429', '75007070', '35219183', '143392562', '2776045127', '182377489', '2776202055', '2910577671', '190714865', '2777175953', '523419034', '2781063802', '2780743171', '2776407761', '139997677', '522562087', '2776114971', '2779534186', '29598333', '2780886216', '2777275194', '2777463520', '10187730', '520944541', '2776619914', '2777967642', '189764856', '2780048828', '141321718', '108865711', '2780620191', '205300905', '2778309149', '98940541', '170154142', '146419311', '539955404', '531593650', '2777855027', '2780642392', '2777788812', '150486481', '2777404476', '2776648845', '115051666', '2780113678', '2779589656', '65059942', '24992206', '2778587875', '76775654', '2778240362', '2779319121', '52121051', '2779382934', '2779331490', '24351657', '2779387731', '46312422', '129727815', '110069353', '60075419', '2776109892', '2779286702', '38976095', '2777550018', '2778787886', '2909959731', '2777434770', '2779095084', '521259446', '2776121688', '2781190202', '2780400262', '538383745', '2778506879', '537397655', '2779979769', '2779707719', '2779442796', '201662476', '2779679337', '29760336', '28519872', '2780783439', '168703024', '110158866', '178021490', '24027999', '103189561', '15708023', '49545453', '2780310989', '2778652117', '179056299', '2776985863', '93371752', '71043370', '2779028185', '60671577', '2908558976', '2777257828', '24845683', '2780434240', '2779560216', '162127614', '2777881528', '26623033', '2779533120', '2778679906', '2777663346', '2909555395', '47798520', '2549261', '87210426', '2781328080', '13184196', '45012715', '2779462738', '109717640', '2780723490', '27017288', '511192102', '51575053', '101765175', '175668461', '2780188654', '70135194', '2780401329', '87801611', '128570904', '138660444', '2781451986', '2780086982', '2777420705', '2780771206', '82834280', '2778203884', '2777856039', '2910590855', '511693568', '2778304562', '186764553', '108115952', '2776443958', '19275194', '2777068528', '555944384', '2908584064', '88743934', '152068911', '52069626', '2779016933', '173560066', '2779240695', '2779449393', '4238864', '2909564673', '16678853', '199491958', '81307892', '2778407155', '88764893', '2777853934', '199033989', '2778904306', '47654990', '2909338199', '158049464', '83931994', '110269972', '141108527', '152754458', '2780978496', '2780304933', '2779548288', '2910001868', '189261614', '94602187', '2776930917', '2779888377', '2776431611', '195251586', '2777426340', '4792198', '2779821363', '2776300232', '142932270', '522453465', '93907247', '89862778', '140816417', '172614296', '2777084153', '12429862', '2780039695', '513891491', '96089941', '89836073', '91021667', '16310917', '541743481', '2778924504', '2780849931', '112788895', '86085837', '2780884937', '2778473898', '79581498', '92025527', '2909365296', '16160715', '109157449', '2776323365', '190475667', '134387633', '140096630', '2776526686', '2779715073', '2780936489', '2779322298', '31168002', '143845886', '2777152325', '2779488668', '556340858', '2776732289', '115225779', '202889954', '504623915', '2909978109', '2778222686', '2775835988', '70036468', '126408429', '3090818', '2781396848', '2780871342', '89648432', '13951911', '129047720', '133437341', '2779593531', '545464746', '43126263', '53143962', '70673446', '2780248506', '2780750338', '2780822005', '1975866', '2909603817', '2775987171', '90327742', '2779548549', '2779184092', '2778073708', '156945495', '2779276850', '2777564511', '162446236', '115314567', '102690226', '104151175', '144468803', '2780957641', '122156500', '2780124536', '2778152846', '2779236963', '2776862752', '200070095', '122783720', '41376638', '2781077476', '2781143826', '519458232', '2910658325', '113145756', '2780105985', '179454799', '533584247', '2780035574', '121850381', '2909332087', '2777543776', '2779507241', '2908570603', '34355311', '2778289769', '145985676', '2779204379', '36375443', '313442', '17744445', '2778099469', '2779369318', '142600807', '139450603', '2779422429', '2776878354', '7131667', '199733313', '2909682003', '2777933884', '61470247', '2778512005', '49876356', '138921699', '539828613', '157150851', '541528975', '47796450', '121658072', '179428456', '6385141', '10708705', '2778259003', '149039472', '196687647', '2780524430', '2778603423', '2780805606', '2779265402', '26834231', '2776756561', '2909225797', '2777301445', '144024400', '137270730', '30407753', '152192407', '2776663400', '2781123702', '2910645917', '202702835', '2910252045', '2778531465', '2781448223', '111141941', '151043444', '2776786559', '2776702403', '18533594', '25197100', '22212356', '2909330249', '2776974504', '45011657', '106982986', '137403100', '2910182162', '2781007418', '143389717', '70970002', '2776743756', '2780165032', '90296322', '39014021', '2780521143', '501299471', '88732821', '2779367526', '2777341207', '2779725038', '139228662', '120417685', '2780273121', '100339178', '2780153333', '2775838644', '181588539', '15970080', '2777805627', '2777874752', '2777944934', '2778825863', '1813318', '2779611286', '43472768', '168500671', '51413319', '196187386', '2777075199', '2779126505', '2777874013', '76155785', '168630323', '145788326', '198428699', '514928085', '19185018', '149923435', '61703769', '2908658969', '2780132705', '2777861868', '542948173', '2909984675', '158071213', '2776432587', '558565934', '2780237831', '2780210451', '107179328', '2777958785', '2781243023', '2781337099', '2779534744', '205507351', '2780499841', '2910321540', '2778583747', '141354745', '2776692393', '2776081408', '2776061582', '2779781407', '2781233791', '2777908580', '2778647138', '203458295', '2776217029', '2779838221', '91649852', '105297191', '93377909', '2776693075', '200925200', '2780784464', '2778165684', '519580073', '2776867882', '48580701', '2781036520', '2778207038', '155632674', '2780943443', '2910432382', '85502023', '2777080691', '2779192218', '144348335', '98375054', '2777087718', '183195422', '117110933', '107245137', '2778170267', '87616379', '519517224', '2909715940', '17005505', '151807755', '2910395587', '2781194246', '134512083', '84703498', '157085824', '176205827', '189807693', '166957645', '153646914', '184978287', '2908581758', '86565373', '2776371253', '2779888511', '79420006', '88477975', '2777137744', '153606108', '2778166243', '2780933944', '2775905063', '102017705', '158007255', '20429076', '79416576', '62555980', '164913051', '2775867413', '2778448659', '78175975', '67805463', '2781153986', '2780934355', '2778765059', '2778289140', '2776118319', '45262634', '2777388718', '2780136137', '91802169', '2780028911', '2776757670', '71343576', '2909148179', '141392084', '536315585', '2777966427', '182358397', '178895491', '71197132', '555826173', '46295352', '86532276', '75779659', '2777891301', '2777162435', '167290972', '75795011', '2909248125', '59742305', '2780781376', '2775953033', '2780000280', '192126672', '2777790407', '2908779215', '190253527', '2776774022', '535247945', '2778632908', '2777812597', '2910149960', '2777380792', '2778444522', '2780661145', '2910765183', '4590074', '2780656496', '122445209', '64004221', '2776386368', '2909047701', '2778682666', '112950240', '179708759', '10118631', '67203356', '2776129789', '2780974818', '2778379900', '2776310101', '2781180020', '2777006239', '19417346', '115901376', '197487636', '2779872411', '2910740281', '154108245', '125109622', '2780433478', '207141826', '199540501', '2776614217', '2910945715', '2776358401', '2779973342', '93419950', '2779578543', '2777867213', '2780039742', '2775910013', '192465680', '2780185008', '2776018353', '22590252', '2780948093', '2779679713', '2776814445', '2778330403', '21955270', '2779449021', '28539199', '533735693', '190974861', '162462552', '2777534865', '540269800', '2776280689', '202976495', '2779372316', '2777060688', '184047640', '2780210587', '58276294', '104304963', '2910057652', '2778399496', '94915269', '523173360', '146847282', '76458491', '193415008']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Reign', 'Accident analysis', 'Language transfer', 'Shotcrete', 'Cultural identity', 'Asset-based community development', 'Urban decay', 'Demodulation', 'Bioarchaeology', 'Sustainable transport', 'Underpinning', 'Fortification', 'Archaeological science', 'Social research', 'Pollutant transport', 'Mineral wool', 'Building management', 'Sound level meter', 'Seismic analysis', 'Biocommunication', 'Social history', 'Publics', 'Laser drilling', 'Preliminary ruling', 'Severance', 'Grassroots', 'Recreational facility', 'Home advantage', 'Nationalism', 'Ecotourism', 'Multiplexer', 'TA Luft', 'Urban sociology', 'Sagebrush Rebellion', 'Automation', 'Major stationary source', 'Transit-oriented development', 'Microeconomic reform', 'French', 'Public bad', 'Cultural studies', 'Welfare state', 'Ranging', 'Dipole antenna', 'Directional drilling', 'Level crossing', 'Bedroom', 'Optical switch', 'International Geosphere-Biosphere Programme', 'Fire protection', 'Xeriscaping', 'Global governance', 'Broadbanding', 'Insertion loss', 'Capacity planning', 'Ecovillage', 'Virtual archaeology', 'Active fire protection', 'Anthropology', 'Communication source', 'State highway', 'Irish theatre', 'Vehicle emissions control', 'Climate risk', 'Single market', 'Positive train control', 'Landscape contracting', 'Banking union', 'Pedestrian zone', 'Free boundary condition', 'Building', 'Advocate General', 'Shortest path problem', 'Water resource policy', 'Human resource management', 'Convection heater', 'Immigration', 'Open network architecture', 'Parliament', 'Interlocking', 'City region', 'Repopulation', 'Conditioners', 'Green roof', 'Multilingualism', 'Driveway', 'Recreational therapy', 'Transport economics', 'Geoarchaeology', 'Bicultural identity', 'Political sociology', 'Social structure', 'Rural community development', 'Rush hour', 'Economic partnership agreement', 'Fire damper', 'Nitrogen dioxide', 'Urban consolidation', 'Totally integrated automation', 'Urban design', 'Flat roof', 'Europeanisation', 'Technocracy', 'Archaeology', 'Urban ecosystem', 'Basketball court', 'Groundwater pollution', 'Terraced house', 'Metropolitan area', 'Modulation', 'Urban politics', 'Flood pulse concept', 'Detector', 'Mixed boundary condition', 'Africana studies', "Newell's car-following model", 'Zero population growth', 'Reinforced solid', 'Abutment', 'Arabic', 'Land improvement', 'Zero-energy building', 'E-democracy', 'Bathing Beaches', 'Sustainable Drainage System', 'Infantry', 'Class conflict', 'Comparative research', 'Land consolidation', 'Digital preservation', 'Capacity building', 'Dialectic', 'Transportation geography', 'Water supply network', 'Entity identifier', 'Good engineering practice', 'Leaded petrol', 'Public transport', 'Cosmopolitanism', 'T-beam', 'Biosemiotics', 'Drilling and blasting', 'Tunnel under construction', 'Socially optimal firm size', 'Terrain', 'Portal axle', 'Governing Council', 'Economic Partnership Agreements', 'Sociolinguistics', 'Central government', 'Civil engineering software', 'Water resources', 'Forest dieback', 'General election', 'Portuguese', 'Overtaking', 'Fatigue Problem', 'Immigration policy', 'Turn-by-turn navigation', 'Belite', 'Mobile edge computing', 'Language Management', 'Ligne', 'Political communications', 'Ethnography', 'Communism', 'Environmental design', 'Coil spring', 'Unleaded petrol', 'Building code', 'Air Transport Network', 'Network architecture', 'Transport engineering', 'STRIPS', 'Recreation ecology', 'Sustainable community', 'Geomatics engineering', 'African studies', 'Interior design', 'Excommunication', 'Hasta', 'Effluent guidelines', 'Delimiter', 'Gender studies', 'Trucking industry', 'Fibre-reinforced plastic', 'Social anthropology', 'Derealisation', 'Zebra crossing', 'Geosteering', 'Corrosion', 'Musical', 'Natural landscape', 'Identity politics', 'Thrust', 'Historical ecology', 'European Arrest Warrant', 'Transport network', 'Renting', 'Excavator', 'Sociology', 'Collective behavior', 'Presidential election', 'Durability', 'Tank truck', 'L-number', 'Environmental Performance Index', 'Sustained exercise', 'European Union law', 'Traffic congestion', 'European Spatial Development Perspective', 'Energy recovery ventilation', 'Recreation therapy', 'Communication channel', 'Dissent', 'Reappropriation', 'Maxima and minima', 'Traffic noise', 'Aerotropolis', 'Hybridity', 'Air pollution episode', 'World energy consumption', 'Virtual heritage', 'Farm water', 'Biopower', 'Upcycling', 'Economic efficiency', 'Provenance', 'Mud pump', 'Diaspora', 'Outburst flood', 'Logging while drilling', 'Strategic urban planning', 'Noise pollution', 'Spell', 'Oral history', 'Pseudevernia furfuracea', 'Eco-cities', 'Design speed', 'Concrete pump', 'Public opinion', 'Flexural strength', 'Human resource management system', 'Cultural pluralism', 'Stationary engine', 'Soil health', 'Media studies', 'Conditioning', 'Cross-border region', 'Knowledge City', 'Criticism', 'Geotechnics', 'Aristocracy', 'Bed extension', 'Project Officer', 'Technical progress', 'Natural building', 'Visual reinforcement audiometry', 'Radiant cooling', 'Nation state', 'Building inspection', 'Water-use efficiency', 'Metacomprehension', 'Radio spectrum', 'Diplomacy', 'Fiber-reinforced concrete', 'Demographic surveillance system', 'Leisure studies', 'Transatlantic Trade and Investment Partnership', 'Predistortion', 'Disaster nursing', 'Roadway noise', 'Sensor array', 'Telecommunications link', 'Sociology of language', 'Traffic intensity', 'Flood forecasting', 'Damper', 'University system', 'Cycle track', 'Austerity', 'Global Positioning System', 'Cohousing', 'Looted art', 'Subsidiarity', 'FM transmitter', 'Flood mitigation', 'Lisbon Strategy', 'Convention for the Safeguarding of the Intangible Cultural Heritage', 'Cross-border cooperation', 'Silence', 'Scientific drilling', 'Socialism', 'Flight simulator', 'Spectral density', 'Automobile dependency', 'Persona', 'Resource efficiency', 'Ultimate tensile strength', 'Misappropriation', 'Physical exercise', 'Virtual water', 'Communications-based train control', 'Distortion', 'Electrical conduit', 'Landscape design', 'Studio', 'Fire extinguisher', 'Cultural heritage', 'Social infrastructure', 'Delamination', 'Noise barrier', 'Material properties', 'Drilling rig', 'Idle reduction', 'Semiotics', 'Politics', 'Framework decision', 'Pedagogy', 'R-symmetry', 'Atmospheric dispersion modeling', 'Pollution water', 'Biodemography', 'Legitimacy', 'Euro currency', 'Community', 'Amazon rainforest', 'Persistent organic pollutant', 'Certified wood', 'Biofortification', 'Fitness to dive', 'Homeland', 'Basketball', 'Urban planning', 'Zooarchaeology', 'Asymmetry', 'Telephony', 'Fire detection', 'Transport medium', 'Civil engineering', 'Nomenclature of Territorial Units for Statistics', 'Digital Single Market', 'Comparative historical research', 'Political science of religion', 'Local area network', 'Handover', 'Kuznets curve', 'Instrument meteorological conditions', 'Plastic pollution', 'Detection theory', 'Land consumption', 'Common commercial policy', 'Neoliberalism', 'Dam Collapse', 'International development', 'Precondition', 'Return period', 'Omnidirectional antenna', 'Community management', 'Federalism', 'Ground Level Ozone', 'Zoning', 'Flash flood', 'Green exercise', 'Splice joint', 'Feminist theory', 'Farmland protection', 'Punctuality', 'Wireless', 'Dance', 'Site plan', 'Racism', 'Built environment', 'Earthworks', 'Population density', 'Urbanism', 'Architectural engineering', 'Noise regulation', 'Rational planning model', 'Retranslation', 'European social model', 'Drilling', 'Dublin Regulation', 'Humanities', 'Automatic train operation', 'Salary cap', 'Telecommunications cable', 'Europeanism', 'Regional science', 'Economic and monetary union', 'International airport', 'Recreational Parks', 'Flavoparmelia caperata', 'Critical infrastructure', 'Indigenous rights', 'Fire suppression system', 'Hegemony', 'Parking lot', 'ESPACE', 'Performance-based navigation', 'Leisure Skills', 'GSM-R', 'Bottom hole assembly', 'Pollution', 'Residential area', 'Liberalism', 'Optical communication', 'Breakage', 'Ekistics', 'Facade', 'Hop (telecommunications)', 'Environmental degradation', 'Non-revenue water', 'Collective action', 'Telephone Hotline', 'Fortress Europe', 'Cross-docking', 'The arts', 'Linguistic demography', 'Social conflict', 'Building science', 'Mythology', 'Open method of coordination', 'Headway', 'Colored', 'Train', 'Language policy', 'Ethnic group', 'Military communications', 'Urbanization', 'Temperature control mode', 'Redevelopment', 'Cultural analysis', 'Public choice', 'Emancipation', 'Flood control', 'Slope stability', 'Tapered element oscillating microbalance', 'Porter hypothesis', 'Wing configuration', 'Neocolonialism', 'Population growth', 'Elaboration', 'Place identity', 'Mixed finite element method', 'International community', 'Lift coefficient', 'Prime farmland', 'Repertoire', 'Top drive', 'Hydraulic engineering', 'Lead pollution', 'Immunity Testing', 'Compact city', 'Recommendations or guidelines', 'European integration', 'Flood water', 'Lane departure warning system', 'Urban rail transit', 'Directional well', 'Language industry', 'Hydraulic structure', 'Blowout preventer', 'Urban studies', 'Urban resilience', 'Land development', 'Fire test', 'Football', 'Political culture', 'The Renaissance', 'Satellite Image Time Series', 'Heritage interpretation', 'Textile-reinforced concrete', 'Comparative politics', 'General Data Protection Regulation', 'Site analysis', 'New political economy', 'Disaster Victims', 'Interview', 'European Single Market', 'Pollution haven hypothesis', 'Air rights', 'Humanism', 'Convention on Long-Range Transboundary Air Pollution', 'C-number', 'Transportation planning', 'Maritime archaeology', 'Urban sprawl', 'Cultural anthropology', 'Building material', 'Subjectivity', 'Modernity', 'Design for the Environment', 'Cultural exception', 'Community of practice', 'Emergency operations center', 'Preservation solutions', 'Football hooliganism', 'Chronology', 'Fleet management', 'Communication', 'Urban area', 'Sound transmission class', 'Eurobarometer', 'Presidential system', 'Semi-trailer', 'Domestication', 'Jurisprudence', 'Air cargo', 'Language development', 'Law and economics', 'Empire', 'Hypogymnia physodes', 'Exclusionary zoning', 'Planning', 'Bending moment', 'Social order', 'Nutrient pollution', 'Match fixing', 'Inflatable', 'Habitus', 'Ukrainian crisis', 'Community-based care', 'Air Pollution Index', 'Telecommunications', 'Land cover', 'Stiffness', 'Bourgeoisie', 'Control communications', 'International relations theory', 'Political philosophy', 'Sliding glass door', 'Local Development', 'Peak water', 'Feminist film theory', 'Geochronology', 'Offshore drilling', 'UrbanSim', 'Well drilling', 'Private public', 'Containerization', 'International political economy', 'River engineering', 'Propeller', 'Roof garden', 'Floodplain restoration', 'Subsidiary protection', 'Rate of penetration', 'Last mile', 'Political communication', 'Referendum', 'Enhanced cooperation', 'Excavation', 'Drilling riser', 'Subdivision', 'Emergency vehicle', 'Community mobilization', 'Construction engineering', 'Population study', 'New Home Economics', 'Porch', 'Fantasy', 'Home automation', 'Collar', 'Football field', 'Basketball games', 'Footprinting', 'Sustainable land management', 'Hobby', 'Rural area', 'Human security', 'Guiding Principles', 'Comprehension', 'Noise', 'Solar chimney', 'Devolution', 'Bowel control', 'Cryopreservation', 'Dosimeter', 'Drilling fluid', 'Presidency', 'Affordable housing', 'Emergency management', 'Environmental tests', 'Emission inventory', 'Proposition', 'Cultural history', 'Suburbanization', 'Microplastics', 'Amateur sports', 'Building information modeling', 'Digital humanities', 'Community development', 'Collective identity', 'Multiplexing', 'Land use', 'Cantilever', 'Folklore', 'Right of way', 'Global shipping network', 'Capacity development', 'Ambivalence', 'Wind triangle', 'Road traffic control', 'Sociocultural evolution', 'Land-use planning', 'Politics of the United States', 'Conventional pollutant', 'Building automation', 'Prestressed concrete', 'DNA Content Analysis', 'Elite', 'Land-use conflict', 'Civil liberties', 'Geocriticism', 'Levee', 'Axle', 'Plastic object', 'House of Representatives', 'Feudalism', 'Constructability', 'Sanitary sewer', 'Cultural heritage management', 'Airshed', 'Database Directive', 'Water conservation', 'Compressive strength', 'Concentric', 'Marine pollution', 'Built-up area', 'Bicycle commuting', 'Integrally closed', 'Air traffic management', 'Criminology', 'Smart lighting', 'Political science', 'Voting', 'Route planning software', 'Source code', 'Air navigation', 'Bending', 'Communication aid', 'Road traffic safety', 'National Hydrography Dataset', 'Political radicalism', 'Near abroad', 'Telecommunications network', 'Ozone exposure', 'Erosion corrosion of copper water tubes', 'Paratransit', 'Urban structure', 'Human settlement', 'Separation of powers', 'Shelter in place', 'Modified Compression Field Theory', 'Community youth development', 'Caster', 'Civic engagement', 'European Train Control System', 'Interpreter', 'Truck', 'National Development Plan', 'Common Security and Defence Policy', 'Pelite', 'Well control', 'National identity', 'Monarchy', 'Caste', 'Occupancy', 'Particulate pollution', 'Finite element method', 'European Employment Strategy', 'Polluter pays principle', 'Colonialism', 'Page table', 'Ethnocentrism', 'American political science', 'Pedestrian crossing', 'Precision approach radar', 'Language politics', 'H bridge', 'Mixed-use development', 'Ethnology', 'Communications system', 'Demographic transition', 'Temperature control', 'Romance', 'Water pricing', 'Broadband', 'Poetry', 'Biological pollution', 'International relations', 'Transport facility', 'Landfill Directive', 'Disaster risk reduction', 'Population', 'Human geography', 'Urban climate', 'Climate resilience', 'Taxis', 'Transport law', 'Comprehensive Economic and Trade Agreement', 'Patriotism', 'Dam failure', 'Displacement ventilation', 'Public water system', 'Community-driven development', 'In-flight entertainment', 'Environmentalism', 'Language shift', 'Sustainable urbanism', 'Water conflict', 'Militant', 'Suite', 'Kinship', 'Formation evaluation', 'Cellular network', 'Ecocriticism', 'American studies', 'Global change', 'Polycentrism', 'Right triangle', 'Entertainment law', 'Public housing', 'Culture of the United States', 'Masonry', 'Citizenship', 'Narrative', 'Civilization', 'Router', 'Pallet jack', 'Content analysis', 'Cycling', 'Zoosemiotics', 'Geometric design', 'Clean Air Act', 'Smart growth', 'Spectral flux density', 'Municipal solid waste', 'Passive solar building design', 'Agricultural pollution', 'Appropriation', 'Deficit irrigation', 'Waste framework directive', 'Silicon on insulator', 'Direct numerical simulation', 'Bobbin', 'Embodied energy', 'Traffic management', 'Urban spatial structure', 'New Deal', 'Multi-level governance', 'Traffic flow', 'Washout', 'Trip generation', 'Greywater', 'Free market', 'Platoon', 'Coring', 'Water supply', 'Peak power output', 'Drinking water pollution', 'Project finance', 'Teletraffic engineering', 'Flood insurance', 'Seismic risk', 'Central place theory', 'Time series study', 'Life-cycle cost analysis', 'Sculpture', 'Oppression', 'E number', 'Sociocultural anthropology', 'Executive summary', 'Infill wall', 'Stereotype', 'European Neighbourhood Policy', 'Waterborne diseases', 'Track and field athletics', 'Vibration', 'Visual meteorological conditions', 'Apartment', 'Diagonal', 'Flight director', 'Development plan', 'Social contract', 'Footprint', 'Industrial heritage', 'Concrete cover', 'Gap Analysis Program', 'Oswald efficiency number', 'Urban dweller', 'Global politics', 'Historiography', 'Transportation Facility', 'Sustainable regional development', 'Limiter', 'Ground plane', 'Superinsulation', 'Bureaucracy', 'Online community', 'Silencer', 'Digital curation', 'Public sphere', 'Governmentality', 'Information display systems', 'Trailer truck', 'Urban revolution', 'Emigration', 'Wide area multilateration', 'Exercise-induced asthma', 'Railway engineering', 'Measurement while drilling', 'Population projection', 'Community resilience', 'Building life cycle', 'Low-flow irrigation systems', 'TRIPS architecture', 'Knowledge society', 'Reinforced concrete column', 'Native-language instruction', 'Roundabout', 'Doors', 'Man-Made Disasters', 'Slum upgrading', 'Postcolonialism', 'Illusion', 'Assimilative capacity', 'Town centre', 'Centralized government', 'Pollutant', 'Recreation', 'Water industry', 'Land Values', 'New Urbanism', 'Pigovian tax', 'Moment-resisting frame', 'Mode of transport', 'Reinforcement', 'Right angle', 'Essentialism', 'Sound baffle', 'Land transport', 'Piping', 'Branded entertainment', 'Transnationalism', 'Safeguard', 'European Public Prosecutor', 'Transmission line', 'Curse', 'Public drinking', 'Telephone line', 'Setback', 'Turnout', 'Leaky feeder', 'Marxist philosophy', 'East Asia', 'Human evolution', 'Land information system', 'Aid communication', 'Literary criticism', 'Sovereignty', 'Realisation', 'Regional planning', 'Drama', 'Road texture', 'Land-use forecasting', 'Spectrum analyzer', 'Private well', 'Anchoring', 'Grassland', 'Subgrade', 'Diversity training', 'Portrait', 'Carriageway', 'Mars Exploration Program', 'Demultiplexer', 'Tilting train', 'Projectile', 'Microsimulation', 'Farmland preservation', 'Summer smog', 'Infiltration gallery', 'Political economy', 'Watershed Central', 'Movie theater', 'Notational analysis', 'Free throw', 'Northern Dimension', 'Visual flight rules', 'Airfoil', 'Water banking', 'Pollution in China', 'Bike lane', 'Water trading', 'Insurgency', 'Sociological imagination', 'Safeguarding', 'Rail freight transport', 'Argumentation theory', 'Performance art', 'Construction management', 'Heat recovery ventilation', 'Two-way communication', 'Flight training', 'Turban', 'Capitalism', 'New media studies', 'Brownfield', 'Navigation system', 'Noise dosimeter', 'Daylight factor', 'Social organization', 'Intelligent transportation system', 'Urban density', 'Speed limit', 'Adaptive reuse', 'European union', 'Polity', 'CASTEP', 'Route assignment', 'Nonprobability sampling', 'National language', 'Public debate', 'Alley', 'Geopolitics', 'Pollution prevention', 'Natural heritage', 'Acoustics', 'National Resources Inventory', 'Building renovation', 'Area navigation', 'Time trial', 'Mobile news', 'Social dumping', 'Ecological design', 'Incident Command System', 'Environmental design and planning', 'Post-occupancy evaluation', 'Thermal pollution', 'Hole drilling method', 'Council of Ministers', 'Victory', 'Water right', 'Transport Pathway', 'Likert scale', 'Community practice', 'Ideology', 'Mobile computing', 'Cultural landscape', 'Traffic engineering', 'Tunnel construction', 'Popular culture', 'Energy consumption', 'Democracy', 'Noise control', 'Building design', 'Music education', 'Airport city', 'Tactical communications system', 'Emergency evacuation', 'Structural engineering', 'Taboo', 'Biosurvey', 'Smart city', 'route', 'Neuroscience of multilingualism', 'Carbon footprint', 'Independent suspension', 'Biochronology', 'Foreign policy', 'Pedestrian', 'Typology', 'Surge', 'Water year', 'Endurability', 'High-lift device', 'Structural material', 'Thrust-to-weight ratio', 'Delegation', 'Civil Emergency Message', 'Pallet', 'Information society', 'Urban geography', 'Traffic calming', 'Technical management', 'Cash flow', 'Sustainable landscaping', 'Member state', 'Visual flight', 'Entertainment', 'Demography', 'Single-family detached home', 'Sustainable city', 'Stress concentration', 'Indigenous', 'T-symmetry', 'Radiant heating', 'Domestic robot', 'Active traffic management', 'Highway engineering', 'Civil society', 'Biopreservation', 'Street network', 'Vehicle miles of travel', 'Total maximum daily load', 'Political history', 'Community-based management', 'Political violence', 'Entertainment technology', 'Robin boundary condition', 'Enclosure', 'Flood warning', 'Demolition', 'Vehicular Emissions', 'Transmitter']</t>
+          <t>['Language Management', 'Dance', 'Noise regulation', 'Farmland preservation', 'Urbanization', 'Virtual heritage', 'Environmental tests', 'Social contract', 'Sustainable city', 'Environmentalism', 'Centralized government', 'Criminology', 'Victory', 'Silencer', 'Community-based care', 'Identity politics', 'Social dumping', 'New Urbanism', 'Formation evaluation', 'Building science', 'Marine pollution', 'E number', 'Reappropriation', 'Information display systems', 'Basketball court', 'Political communication', 'Performance art', 'Technocracy', 'Water-use efficiency', 'Indigenous', 'Sociology of language', 'Breakage', 'Pollution prevention', 'Two-way communication', 'Pedestrian zone', 'Telephony', 'Trailer truck', 'Population projection', 'Near abroad', 'Biofortification', 'Social conflict', 'Fire detection', 'Home advantage', 'Geopolitics', 'Provenance', 'Traffic noise', 'Sustainable community', 'Natural landscape', 'Drilling riser', 'Unleaded petrol', 'Displacement ventilation', 'Porch', 'Pseudevernia furfuracea', 'Fortification', 'Domestic robot', 'Politics', 'Smart city', 'Excavation', 'Train', 'Council of Ministers', 'Plastic object', 'Plastic pollution', 'Noise control', 'Construction engineering', 'Radio spectrum', 'Disaster Victims', 'Music education', 'Trip generation', 'Fleet management', 'Projectile', 'Inflatable', 'Summer smog', 'Leisure studies', 'Hobby', 'Geoarchaeology', 'Levee', 'Noise pollution', 'Austerity', 'Mars Exploration Program', 'Entertainment', 'Maxima and minima', 'Civil engineering software', 'Gender studies', 'University system', 'Criticism', 'Building code', 'Mixed boundary condition', 'Digital Single Market', 'Telephone line', 'Industrial heritage', 'Land-use planning', 'Flood pulse concept', 'International relations theory', 'Language transfer', 'Ligne', 'Occupancy', 'Referendum', 'Single-family detached home', 'Population', 'Urban sprawl', 'Pelite', 'Recommendations or guidelines', 'Water supply', 'Built environment', 'European Single Market', 'Street network', 'Mineral wool', 'Solar chimney', 'Laser drilling', 'Footprint', 'Socially optimal firm size', 'New media studies', 'Transport facility', 'Road traffic safety', 'Totally integrated automation', 'Robin boundary condition', 'Lisbon Strategy', 'Washout', 'Platoon', 'Geometric design', 'Economic Partnership Agreements', 'Pollutant', 'Microsimulation', 'Fibre-reinforced plastic', 'Sociological imagination', 'Silence', 'Air Pollution Index', 'Sovereignty', 'Cross-border cooperation', 'Wing configuration', 'Diaspora', 'Hegemony', 'E-democracy', 'Arabic', 'Single market', 'Shotcrete', 'Splice joint', 'Class conflict', 'Fantasy', 'Home automation', 'Language shift', 'Civil Emergency Message', 'Mixed-use development', 'Entertainment technology', 'Metacomprehension', 'Voting', 'New Home Economics', 'Transportation geography', 'Wind triangle', 'Dam failure', 'Transmission line', 'Incident Command System', 'Erosion corrosion of copper water tubes', 'Fire test', 'European Employment Strategy', 'Reinforced solid', 'Mobile computing', 'World energy consumption', 'Governmentality', 'Telephone Hotline', 'Urban area', 'Retranslation', 'Civil liberties', 'Instrument meteorological conditions', 'Stationary engine', 'Regional planning', 'Man-Made Disasters', 'Land improvement', 'Public sphere', 'Mobile news', 'Peak water', 'Diplomacy', 'Dosimeter', 'Essentialism', 'Rate of penetration', 'Propeller', 'Green roof', 'Sustainable regional development', 'Building renovation', 'Highway engineering', 'European Neighbourhood Policy', 'Acoustics', 'Europeanism', 'Optical switch', 'Geochronology', 'Militant', 'Economic efficiency', 'Tunnel construction', 'Transport medium', 'Database Directive', 'Population growth', 'Communication aid', 'Indigenous rights', 'Urban structure', 'Setback', 'Post-occupancy evaluation', 'Comprehensive Economic and Trade Agreement', 'Colored', 'Transportation Facility', 'Excommunication', 'Water resources', 'Culture of the United States', 'Knowledge City', 'Automobile dependency', 'Appropriation', 'Banking union', 'Transport network', 'Nationalism', 'Grassroots', 'Concrete cover', 'Public opinion', 'Traffic calming', 'Biopreservation', 'Regional science', 'Sagebrush Rebellion', 'Looted art', 'Parliament', 'Smart growth', 'Insurgency', 'Visual flight rules', 'Collective action', 'Cultural identity', 'Non-revenue water', 'Right of way', 'Infantry', 'Hypogymnia physodes', 'Local area network', 'Human resource management system', 'Optical communication', 'Residential area', 'Smart lighting', 'Urban sociology', 'Central place theory', 'Flexural strength', 'Corrosion', 'Environmental design', 'Persistent organic pollutant', 'Driveway', 'Superinsulation', 'Public water system', 'Pedestrian', 'Misappropriation', 'Traffic intensity', 'Modulation', 'Pollution haven hypothesis', 'Hydraulic engineering', 'Place identity', 'Urban studies', 'Historical ecology', 'Community practice', 'Redevelopment', 'Cash flow', 'Route planning software', 'Effluent guidelines', 'Satellite Image Time Series', 'Collective identity', 'Traffic management', 'Flood warning', 'Bourgeoisie', 'Political philosophy', 'Welfare state', 'American political science', 'Capacity building', 'Homeland', 'Terrain', 'Chronology', 'Urban ecosystem', 'Caste', 'Ground Level Ozone', 'Integrally closed', 'Communication channel', 'Euro currency', 'Global Positioning System', 'Hop (telecommunications)', 'Metropolitan area', 'Air cargo', 'Human resource management', 'Coil spring', 'National Hydrography Dataset', 'Central government', 'Racism', 'Emergency vehicle', 'Spectral density', 'Convention on Long-Range Transboundary Air Pollution', 'Notational analysis', 'Cohousing', 'Biosurvey', 'Parking lot', 'Transportation planning', 'Recreational therapy', 'Building management', 'Political science of religion', 'New political economy', 'Landfill Directive', 'Human evolution', 'Footprinting', 'Amazon rainforest', 'Biopower', 'Bioarchaeology', 'Building design', 'Liberalism', 'Sociocultural anthropology', 'Air traffic management', 'Belite', 'Flavoparmelia caperata', 'Router', 'Sliding glass door', 'Road texture', 'Total maximum daily load', 'Material properties', 'Transatlantic Trade and Investment Partnership', 'Civil engineering', 'Water year', 'Advocate General', 'Project finance', 'Communication source', 'Handover', 'Semi-trailer', 'Air pollution episode', 'Water resource policy', 'Forest dieback', 'Linguistic demography', 'Repopulation', 'GSM-R', 'Conditioners', 'Accident analysis', 'Recreational facility', 'Sensor array', 'Biocommunication', 'Nonprobability sampling', 'Rush hour', 'Separation of powers', 'Interlocking', 'Geomatics engineering', 'Diagonal', 'Masonry', 'Cultural studies', 'Right angle', 'Broadband', 'Maritime archaeology', 'Structural engineering', 'Pedestrian crossing', 'Caster', 'Fitness to dive', 'Sound level meter', 'Urban dweller', 'Floodplain restoration', 'Human geography', 'The arts', 'Urban decay', 'Empire', 'Kuznets curve', 'TA Luft', 'Deficit irrigation', 'Anchoring', 'Civilization', 'Ekistics', 'Digital preservation', 'Capacity development', 'Romance', 'Abutment', 'Land development', 'Drilling rig', 'Emission inventory', 'Media studies', 'Cross-border region', 'Urban consolidation', 'Water trading', 'Slum upgrading', 'Natural building', 'Airfoil', 'Demolition', 'Taxis', 'Land cover', 'Demultiplexer', 'Likert scale', 'Heat recovery ventilation', 'Finite element method', 'Nomenclature of Territorial Units for Statistics', 'Water right', 'Convention for the Safeguarding of the Intangible Cultural Heritage', 'Sound transmission class', 'Page table', 'Framework decision', 'Asset-based community development', 'Building information modeling', 'Noise dosimeter', 'Shelter in place', 'Doors', 'Community youth development', 'Reign', 'Anthropology', 'Low-flow irrigation systems', 'Critical infrastructure', 'Mode of transport', 'Vibration', 'Groundwater pollution', 'Noise', 'Terraced house', 'Strategic urban planning', 'Land consumption', 'Cryopreservation', 'Aerotropolis', 'Life-cycle cost analysis', 'Oswald efficiency number', 'Right triangle', 'Economic partnership agreement', 'Water industry', 'Scientific drilling', 'Adaptive reuse', 'Social order', 'Severance', 'Sustainable transport', 'Habitus', 'Recreational Parks', 'Aristocracy', 'Global shipping network', 'Measurement while drilling', 'Amateur sports', 'Airport city', 'Return period', 'Portuguese', 'Subdivision', 'Irish theatre', 'Subgrade', 'Automatic train operation', 'Bed extension', 'Sanitary sewer', 'Green exercise', 'Drama', 'Town centre', 'Executive summary', 'Route assignment', 'Semiotics', 'Politics of the United States', 'Waterborne diseases', 'Cycle track', 'Historiography', 'Prestressed concrete', 'European Arrest Warrant', 'Porter hypothesis', 'Cultural history', 'Zoning', 'Fire suppression system', 'Eurobarometer', 'Atmospheric dispersion modeling', 'Public bad', 'Zooarchaeology', 'Landscape design', 'Tilting train', 'Urban design', 'Emergency evacuation', 'Environmental design and planning', 'Architectural engineering', 'Area navigation', 'Flood control', 'Colonialism', 'Preliminary ruling', 'Idle reduction', 'Community mobilization', 'Lift coefficient', 'Clean Air Act', 'Flood insurance', 'Ranging', 'Facade', 'Water supply network', 'Argumentation theory', 'Roadway noise', 'Predistortion', 'East Asia', 'Hole drilling method', 'Moment-resisting frame', 'Truck', 'Local Development', 'Flat roof', 'Digital humanities', 'Community-based management', 'Communication', 'Axle', 'Slope stability', 'Fire damper', 'Economic and monetary union', 'Ukrainian crisis', 'Asymmetry', 'Endurability', 'Positive train control', 'Recreation therapy', 'Water pricing', 'Piping', 'Pollution', 'Virtual water', 'Bottom hole assembly', 'Public debate', 'Global politics', 'Land Values', 'Urban geography', 'Watershed Central', 'Polity', 'Communications-based train control', 'Track and field athletics', 'International airport', 'Site plan', 'Sociolinguistics', 'Heritage interpretation', 'Major stationary source', 'Water conservation', 'Cultural analysis', 'Omnidirectional antenna', 'Basketball', 'Humanities', 'Urban planning', 'Time trial', 'Water banking', 'Landscape contracting', 'Sustainable urbanism', 'Cultural heritage management', 'Jurisprudence', 'Directional well', 'Cultural heritage', 'Leaded petrol', 'Virtual archaeology', 'Interview', 'Urban rail transit', 'Portal axle', 'Ambivalence', 'Common Security and Defence Policy', 'High-lift device', 'Information society', 'Dublin Regulation', 'Affordable housing', 'Preservation solutions', 'Transmitter', 'Ethnology', 'Bending', 'Turban', 'Dialectic', 'Studio', 'Realisation', 'Biological pollution', 'Nitrogen dioxide', 'Visual meteorological conditions', 'Comprehension', 'Bureaucracy', 'Communications system', 'Active fire protection', 'Ecovillage', 'Last mile', 'Microplastics', 'C-number', 'Building', 'Telecommunications link', 'Cross-docking', 'Community-driven development', 'Flood mitigation', 'Safeguard', 'Comparative politics', 'National Resources Inventory', 'Entertainment law', 'Sustained exercise', 'Feudalism', 'Pollution in China', 'Free market', 'Comparative research', 'ESPACE', 'Multiplexing', 'National language', 'Wireless', 'Leisure Skills', 'Hydraulic structure', 'Drilling fluid', 'The Renaissance', 'Fiber-reinforced concrete', 'Interior design', 'Headway', 'Human security', 'Urban density', 'Fatigue Problem', 'Human settlement', 'Global change', 'Political culture', 'National identity', 'Ground plane', 'Paratransit', 'Narrative', 'Well control', 'Conventional pollutant', 'Tunnel under construction', 'Urban climate', 'Building automation', 'Recreation', 'Leaky feeder', 'T-symmetry', 'Visual flight', 'Cultural pluralism', 'Airshed', 'European union', 'Multi-level governance', 'route', 'Urban revolution', 'Open method of coordination', 'Civic engagement', 'Demodulation', 'Demographic surveillance system', 'Land use', 'Containerization', 'Modified Compression Field Theory', 'Literary criticism', 'Social research', 'Geotechnics', 'Air rights', 'Zero population growth', 'Independent suspension', 'Polluter pays principle', 'Cultural landscape', 'Cultural exception', 'Civil society', 'Popular culture', 'Electrical conduit', 'Active traffic management', 'Wide area multilateration', 'Archaeological science', 'Branded entertainment', 'House of Representatives', 'Control communications', 'Site analysis', 'Bicycle commuting', 'Repertoire', 'Suite', 'Thrust-to-weight ratio', 'Temperature control mode', 'Traffic engineering', 'Roundabout', 'Taboo', 'Political radicalism', 'Domestication', 'Damper', 'Oppression', 'Fortress Europe', 'Carbon footprint', 'River engineering', 'International political economy', 'Demographic transition', 'Proposition', 'Community resilience', 'Language policy', 'New Deal', 'Distortion', 'Subjectivity', 'Air navigation', 'Time series study', 'Feminist film theory', 'Grassland', 'Immigration', 'Soil health', 'General Data Protection Regulation', 'Social infrastructure', 'Underpinning', 'Ecological design', 'Traffic flow', 'Rural area', 'Marxist philosophy', 'Design speed', 'Military communications', 'Source code', 'Silicon on insulator', 'Bending moment', 'Community management', 'Disaster risk reduction', 'Particulate pollution', 'Level crossing', 'Dam Collapse', 'Elite', 'Insertion loss', 'Punctuality', 'Carriageway', 'Language development', 'Earthworks', 'Compact city', 'Water conflict', 'Content analysis', 'European Union law', 'Cultural anthropology', 'Emigration', 'Mixed finite element method', 'Spell', 'Fire protection', 'Air Transport Network', 'R-symmetry', 'Microeconomic reform', 'Political communications', 'Structural material', 'Interpreter', 'Flight simulator', 'European Train Control System', 'Offshore drilling', 'Rail freight transport', 'Flood water', 'Dipole antenna', 'Built-up area', 'Ethnography', 'Public housing', 'Multilingualism', 'Certified wood', 'DNA Content Analysis', 'Subsidiary protection', 'Climate resilience', 'Project Officer', 'International relations', 'Bedroom', 'Performance-based navigation', 'Farmland protection', 'Rational planning model', 'Persona', 'Political science', 'Language politics', 'UrbanSim', 'Open network architecture', 'Railway engineering', 'Guiding Principles', 'Roof garden', 'Delamination', 'Population density', 'Pollution water', 'Daylight factor', 'Population study', 'H bridge', 'Neuroscience of multilingualism', 'Political economy', 'Public transport', 'Feminist theory', 'Cycling', 'Intelligent transportation system', 'Neoliberalism', 'Biosemiotics', 'Coring', 'Africana studies', 'Building inspection', 'Passive solar building design', 'Technical management', 'Hasta', 'City region', 'Tank truck', 'Apartment', 'Political sociology', 'Xeriscaping', 'Derealisation', 'Neocolonialism', 'Sociology', 'Detection theory', 'Compressive strength', 'Political history', 'Publics', 'Governing Council', 'Drinking water pollution', 'Embodied energy', 'Vehicular Emissions', 'Exercise-induced asthma', 'Collar', 'Immigration policy', 'Lane departure warning system', 'Patriotism', 'Mud pump', 'Direct numerical simulation', 'Drilling', 'Transport engineering', 'Zebra crossing', 'Bicultural identity', 'Limiter', 'Noise barrier', 'Ethnic group', 'Trucking industry', 'Capacity planning', 'Prime farmland', 'Multiplexer', 'Safeguarding', 'Energy consumption', 'Concentric', 'Precision approach radar', 'State highway', 'Socialism', "Newell's car-following model", 'Hybridity', 'Sustainable land management', 'Biodemography', 'Comparative historical research', 'Flash flood', 'Curse', 'Collective behavior', 'Europeanisation', 'Radiant heating', 'Physical exercise', 'Teletraffic engineering', 'Stereotype', 'Outburst flood', 'Northern Dimension', 'Fire extinguisher', 'Language industry', 'L-number', 'Turn-by-turn navigation', 'Transport economics', 'Pallet', 'Sociocultural evolution', 'Cosmopolitanism', 'Transport law', 'Urban politics', 'Telecommunications', 'Directional drilling', 'CASTEP', 'Environmental degradation', 'Capitalism', 'Devolution', 'Demography', 'Land information system', 'Private public', 'Urban spatial structure', 'Member state', 'Communism', 'Private well', 'Ideology', 'Tapered element oscillating microbalance', 'Musical', 'National Development Plan', 'Climate risk', 'Sustainable Drainage System', 'Resource efficiency', 'Presidency', 'Bike lane', 'Reinforced concrete column', 'Drilling and blasting', 'Polycentrism', 'Football field', 'Upcycling', 'Cantilever', 'In-flight entertainment', 'Suburbanization', 'Mobile edge computing', 'Free throw', 'Well drilling', 'Recreation ecology', 'Salary cap', 'Monarchy', 'Football hooliganism', 'Turnout', 'Constructability', 'Folklore', 'Foreign policy', 'Match fixing', 'STRIPS', 'Knowledge society', 'Online community', 'Movie theater', 'Biochronology', 'French', 'Infiltration gallery', 'Vehicle miles of travel', 'Convection heater', 'Telecommunications cable', 'Basketball games', 'Renting', 'Emergency operations center', 'Elaboration', 'Kinship', 'Enclosure', 'Radiant cooling', 'Flood forecasting', 'Construction management', 'Spectral flux density', 'Land-use forecasting', 'International development', 'Mythology', 'Bowel control', 'Energy recovery ventilation', 'Ecotourism', 'Transport Pathway', 'FM transmitter', 'Seismic risk', 'Free boundary condition', 'TRIPS architecture', 'Farm water', 'American studies', 'Archaeology', 'Cellular network', 'Zero-energy building', 'Immunity Testing', 'Social anthropology', 'Alley', 'Traffic congestion', 'Thrust', 'Broadbanding', 'Blowout preventer', 'Humanism', 'Diversity training', 'Infill wall', 'Road traffic control', 'Delimiter', 'Spectrum analyzer', 'Public choice', 'African studies', 'Emergency management', 'Poetry', 'Pigovian tax', 'Overtaking', 'Design for the Environment', 'Sculpture', 'Emancipation', 'Land transport', 'Concrete pump', 'Textile-reinforced concrete', 'Flight director', 'Conditioning', 'Waste framework directive', 'Geocriticism', 'Ecocriticism', 'Building material', 'Brownfield', 'Community development', 'Visual reinforcement audiometry', 'Excavator', 'Temperature control', 'Pallet jack', 'Seismic analysis', 'Social structure', 'Zoosemiotics', 'Democracy', 'Legitimacy', 'Delegation', 'Municipal solid waste', 'Navigation system', 'Political violence', 'Thermal pollution', 'Typology', 'Bathing Beaches', 'General election', 'Citizenship', 'Digital curation', 'Gap Analysis Program', 'Telecommunications network', 'Flight training', 'Lead pollution', 'Law and economics', 'Development plan', 'Vehicle emissions control', 'Enhanced cooperation', 'Assimilative capacity', 'Public drinking', 'Exclusionary zoning', 'Football', 'Top drive', 'Aid communication', 'Community', 'Building life cycle', 'Ethnocentrism', 'T-beam', 'Logging while drilling', 'Disaster nursing', 'Modernity', 'Ultimate tensile strength', 'Sound baffle', 'Tactical communications system', 'Reinforcement', 'Presidential election', 'Oral history', 'Good engineering practice', 'Global governance', 'European Public Prosecutor', 'Geosteering', 'Pedagogy', 'Automation', 'Presidential system', 'International community', 'Ozone exposure', 'Surge', 'Social history', 'European social model', 'Urbanism', 'Bobbin', 'Transnationalism', 'Pollutant transport', 'Eco-cities', 'Environmental Performance Index', 'Nutrient pollution', 'Technical progress', 'European Spatial Development Perspective', 'Urban resilience', 'Nation state', 'Precondition', 'Land-use conflict', 'Rural community development', 'Shortest path problem', 'International Geosphere-Biosphere Programme', 'Native-language instruction', 'Common commercial policy', 'Agricultural pollution', 'Greywater', 'Peak power output', 'Stress concentration', 'Federalism', 'European integration', 'Portrait', 'Land consolidation', 'Postcolonialism', 'Community of practice', 'Planning', 'Stiffness', 'Natural heritage', 'Illusion', 'Speed limit', 'Sustainable landscaping', 'Durability', 'Entity identifier', 'Transit-oriented development', 'Detector', 'Dissent', 'Subsidiarity', 'Social organization', 'Network architecture']</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
         <v>445</v>
       </c>
       <c r="C13" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -790,12 +790,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['2775953691', '2780556867', '196781063', '2776648574', '192639820', '21790881', '502701156', '2777342055', '3963096', '2776092195', '89702864', '2779299574', '2777276756', '2781156216', '202976495', '156328458', '31972630', '28613373', '24649204', '2779151549', '2779167034', '53657456', '2778202820', '176239081', '2780680069', '29140674', '188284582', '2779485152', '2777908453', '2779719771', '2775886207', '2910251023', '2776236083', '197685441', '182566', '59158912', '116197896', '2778291008', '160565873', '2776830933', '2779958842', '2776649597', '2777566824', '202132683', '2780518120', '49284225', '206139338', '2775989791', '537773303', '177738377', '560292', '55627697', '186673887', '517489662', '2779539549', '2779872728', '147490202', '2777341207', '164495641', '2779764123', '2781426840', '2779570065', '2779491486', '2779544189', '162416716', '2910476649', '161097018', '2776770324', '2781219749', '33199155', '538221381', '2908744621', '88959737', '74814400', '2779436609', '15098985', '2781419769', '200630231', '2779451145', '2780210451', '2778157034', '25796384', '2780385446', '2777826014', '2780668729', '2778137661', '92244383', '2776182711', '62114133', '30305156', '2781041046', '2778353377', '204217086', '146778888', '2776791387', '2908975095', '2910235963', '2911193860', '2909541772', '2780797831', '166566181', '58640550', '204431084', '2780252369', '5035944', '30658544', '2777298481', '2779229598', '52637938', '2777612826', '12718152', '2777191596', '2776843555', '2778714813', '2781198434', '169824061', '96966460', '2909913919', '2780748813', '2779585013', '2909208472', '104002121', '2908818896', '2781331233', '2776323388', '2780789714', '2776633946', '80646779', '22507642', '2780757305', '183287310', '28864654', '2778206830', '2780473208', '2779711381', '147598955', '2779293432', '2777637287', '2776253312', '2779048638', '2780261490', '2776985865', '2778640053', '18975541', '2779301550', '176049440', '110240116', '2779242930', '2781420532', '141371185', '52121051', '117185709', '38000114', '38070178', '204983608', '189708586', '143020374', '37965861', '29985473', '203663800', '32571094', '2781385186', '183682340', '2781400479', '2776314458', '2908977417', '552854447', '2778733479', '2776618947', '2775893736', '2779507241', '191555408', '127045886', '2780739461', '2778126675', '73916439', '2910842875', '2910206359', '20533482', '2778271084', '2910237699', '509746633', '2776208129', '2779726014', '2780569836', '30795975', '141675481', '175700187', '2779044675', '144992956', '2775841215', '70746108', '2777339832', '2776192393', '2781211949', '2910018721', '12858262', '199491958', '2777547266', '41826821', '2778738845', '2777499484', '28328180', '2908544300', '30543370', '2742236', '35861506', '2778509883', '2909963963', '2778426384', '201903717', '121112783', '156342284', '2777539864', '2778153913', '197656079', '2908940802', '2777388718', '2778804209', '2777121799', '2778213206', '164822548', '2776671222', '2781175455', '2778192726', '7591567', '49802076', '69029970', '2777326885', '2781051052', '88182573', '82320026', '2908890554', '2780871101', '2780001536', '2777382958', '2777856171', '2778580826', '2776600559', '18750672', '2776422217', '2778734332', '173366509', '44877443', '131652615', '201958364', '2776512361', '2778128610', '192045728', '187460315', '175349315', '23213167', '2776815640', '2909633619', '131046424', '167740415', '116401354', '2776667712', '2778385950', '95810393', '46312889', '107694188', '123703457', '2776952539', '124062932', '45292766', '2777074724', '2780564743', '2778746772', '2778035492', '2779676326', '2779212423', '2910096992', '7083945', '2776917082', '2908895416', '2776908094', '105306849', '89690796', '536799390', '19994219', '2778242978', '2909827026', '548081761', '59659247', '2776467361', '69991583', '2776710992', '2776002898', '21553396', '39143791', '503285160', '2778076428', '79795727', '170828538', '2776822698', '187949908', '2777930111', '196213036', '2779190830', '97615858', '2910338039', '190618007', '2778477904', '2780660359', '521786372', '2776943663', '2781260606', '2776441814', '94866938', '2777730692', '49326732', '2781010802', '162205778', '79119010', '194304873', '2777540987', '67203356', '2778844797', '181697308', '6907630', '176289848', '2778555391', '2909402770', '36259021', '2777569206', '16284718', '58479451', '2779370158', '2778011512', '2778252594', '2779963790', '2780919596', '185903656', '82753439', '77136645', '171988757', '122173349', '164794517', '2780034618', '154261466', '174634509', '157351795', '65545243', '31487907', '2777167514', '76893819', '44104985', '47187476', '64548403', '2779635666', '2910337999', '62683194', '2908895405', '2779816311', '2776172590', '2779407671', '190362163', '2776936074', '2778323372', '77171524', '2777686624', '170405466', '54016721', '2781106820', '2776443958', '62960913', '2778851808', '2777174110', '206588197', '137851953', '2777916278', '2911027326', '2778380070', '2779173918', '528261146', '32198211', '2777867642', '198628655', '2778555274', '117009084', '2778552509', '193254401', '2776125615', '2723826', '130497676', '2778917124', '2778706031', '88463166', '2779851234', '21338462', '76022803', '128712008', '99578197', '189123395', '38264464', '2910127915', '2777798390', '169791255', '39665741', '2777448596', '2781164615', '2780342986', '159821036', '21177189', '2775973758', '205537798', '2780663759', '198571295', '2910656936', '2778578824', '78285338', '27983359', '2777323119', '2779046794', '141261163', '199310239', '2777707892', '81751973', '2779035916', '2779227428', '2778706760', '198118469', '2778364132', '2780848231', '39177556', '2778091559', '2775895549', '111643386', '108713360', '181199279', '103474955', '150839157', '2779023109', '551662922', '2777480716', '47737302', '2778919316', '54276265', '43073704', '2776192439', '9121194', '12839126', '2781469121', '2779027077']</t>
+          <t>['2779963790', '77171524', '2777298481', '2779167034', '88959737', '128712008', '22507642', '2776172590', '2777908453', '147490202', '170405466', '2775886207', '122173349', '12839126', '2909963963', '2777074724', '2778706760', '6907630', '95810393', '38070178', '49284225', '80646779', '521786372', '2780919596', '150839157', '2778153913', '536799390', '2777382958', '2779719771', '2775893736', '2910842875', '196781063', '2776633946', '2780252369', '2910235963', '28864654', '64548403', '2778206830', '15098985', '2777174110', '2777540987', '2776182711', '2908975095', '141261163', '552854447', '2777276756', '123703457', '551662922', '2908890554', '62683194', '2777326885', '2777612826', '2780739461', '2781331233', '49326732', '175349315', '201958364', '2781156216', '548081761', '88182573', '2778919316', '2780385446', '192045728', '43073704', '2779958842', '2778917124', '2777916278', '2909402770', '81751973', '2776649597', '2776943663', '70746108', '39143791', '127045886', '192639820', '7591567', '2779816311', '2776443958', '2778706031', '2779301550', '2776770324', '2778734332', '2909913919', '49802076', '2780034618', '2780556867', '199491958', '156342284', '2778555274', '185903656', '104002121', '107694188', '96966460', '2778555391', '2780680069', '205537798', '2778157034', '79119010', '206139338', '2779212423', '41826821', '2775841215', '2776092195', '144992956', '35861506', '137851953', '171988757', '23213167', '188284582', '30305156', '2778552509', '103474955', '131652615', '2777637287', '2781419769', '2777121799', '2780748813', '206588197', '154261466', '2776002898', '76022803', '2779370158', '2778076428', '2781010802', '189123395', '2781426840', '503285160', '2777499484', '2779229598', '509746633', '78285338', '54276265', '2780789714', '2778477904', '193254401', '2778804209', '54016721', '2779242930', '2779227428', '2778192726', '2778364132', '2723826', '2778738845', '2781175455', '2779544189', '19994219', '2777707892', '27983359', '5035944', '116197896', '2778213206', '2778353377', '187460315', '2779872728', '2781400479', '164794517', '111643386', '176239081', '77136645', '2781041046', '175700187', '2778578824', '2778509883', '141371185', '2908818896', '2776125615', '198628655', '2776441814', '30795975', '2779027077', '2909541772', '9121194', '131046424', '116401354', '2776815640', '183287310', '2777566824', '502701156', '197656079', '160565873', '2779539549', '2910096992', '560292', '202132683', '161097018', '2780518120', '538221381', '105306849', '3963096', '59158912', '2777480716', '2909633619', '2779485152', '2777930111', '2779507241', '79795727', '31487907', '2779726014', '2779451145', '2776600559', '121112783', '190362163', '2778640053', '169791255', '58640550', '2908940802', '29140674', '2909208472', '2777339832', '2780757305', '2777191596', '2777826014', '2779585013', '2778126675', '204431084', '2775895549', '65545243', '2781420532', '164495641', '2777569206', '2776710992', '200630231', '2776917082', '2778011512', '37965861', '2909827026', '2778291008', '2779151549', '2780871101', '141675481', '2779676326', '2776667712', '164822548', '2778426384', '2779570065', '28613373', '2776952539', '528261146', '170828538', '2776192439', '16284718', '2780660359', '21177189', '176049440', '2778714813', '32571094', '2779491486', '2778091559', '39665741', '2776467361', '537773303', '2908977417', '52637938', '166566181', '2910018721', '89702864', '2777341207', '2776618947', '2780569836', '157351795', '2910656936', '53657456', '199310239', '33199155', '2777730692', '2776192393', '2776422217', '2776323388', '2776936074', '2777167514', '2781219749', '194304873', '82753439', '204983608', '18750672', '69029970', '55627697', '2775973758', '2777856171', '183682340', '2777448596', '97615858', '177738377', '110240116', '2777798390', '21553396', '2781051052', '2776314458', '146778888', '7083945', '2779711381', '2780210451', '58479451', '2775953691', '2780342986', '190618007', '74814400', '169824061', '173366509', '12858262', '2777547266', '82320026', '2910337999', '2776208129', '2908895405', '2777686624', '92244383', '198118469', '124062932', '2778137661', '2776843555', '2777867642', '2778733479', '31972630', '203663800', '69991583', '62114133', '46312889', '2911027326', '47187476', '2780797831', '181697308', '76893819', '186673887', '2780663759', '2781385186', '2776908094', '99578197', '2781469121', '2778380070', '88463166', '162416716', '2778844797', '2781260606', '2779173918', '2780001536', '2908544300', '2908744621', '196213036', '18975541', '25796384', '2778851808', '2779436609', '38264464', '2778323372', '162205778', '2779035916', '30658544', '2781106820', '45292766', '28328180', '159821036', '2781164615', '2778252594', '2778385950', '44877443', '2777539864', '2910338039', '2780848231', '517489662', '2779293432', '2910251023', '2742236', '89690796', '2778128610', '94866938', '2777323119', '2776985865', '181199279', '2778580826', '117009084', '2776236083', '174634509', '2777388718', '24649204', '201903717', '2779851234', '2910237699', '2779044675', '189708586', '39177556', '2778242978', '2778035492', '21790881', '2779299574', '29985473', '21338462', '2778202820', '130497676', '108713360', '2776253312', '2776822698', '2775989791', '147598955', '47737302', '2776830933', '2781211949', '32198211', '2779048638', '30543370', '44104985', '2910206359', '191555408', '59659247', '2779190830', '36259021', '2778271084', '2908895416', '2910476649', '2776512361', '12718152', '67203356', '2776791387', '2778746772', '2911193860', '2910127915', '20533482', '2780473208', '2777342055', '2776671222', '156328458', '187949908', '204217086', '38000114', '62960913', '2779764123', '73916439', '198571295', '2779635666', '52121051', '2779023109', '2780668729', '176289848', '2776648574', '182566', '197685441', '202976495', '167740415', '2781198434', '2780564743', '143020374', '117185709', '2780261490', '2779046794', '2779407671']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['CRFS', 'Thermal depolymerization', 'Maglev', 'Social collaboration', 'Supply chain risk management', 'Deep sea', 'Biomedical sciences', 'Tryptone', 'Official cash rate', 'Waste minimisation', 'Technology assessment', 'Brookite', 'Customer base', 'Rubber technology', 'Planning', 'Diffuse reflectance infrared fourier transform', 'Computer vision', 'Parent company', 'Capital deepening', 'Landfill liner', 'Phoenix', 'Peat', 'Substitution effect', 'Stakeholder theory', 'Low-level waste', 'Computer cluster', 'Means of production', 'Convention on Biological Diversity', 'By-product', 'Social business model', 'Energy-efficient driving', 'O2 consumption', 'Sustainable procurement', 'PSPACE', 'Organizational structure', 'Electromagnetic propulsion', 'Hall effect thruster', 'Rate of exploitation', 'Cyclone', 'Climate change denial', 'Mixed waste', 'Climate ethics', 'Third order', 'Molecular nanotechnology', 'Ruta', 'EDAS', 'Raw material', 'Scientific communication', 'Geoengineering', 'Tangle', 'Fixed capital', 'Space-based architecture', 'Limited company', 'Petroleum politics', 'Hevea brasiliensis', 'Gross value added', 'Food spoilage', 'Sustainable land management', 'Solar cycle 23', 'Wasting', 'Carbon leakage', 'Leading edge', 'X-parameters', 'Manual labour', 'Moving target indication', 'PH reduction', 'Process substitution', 'Sustainable consumption', 'Waste-to-energy plant', 'Sharing economy', 'Vedas', 'Road grading', 'Strategy', 'Gas cracker', 'Savannah River Site', 'Permafrost', 'Carbon-to-nitrogen ratio', 'Cleaner production', 'Rural tourism', 'Climate risk', 'Sorghum', 'Metagaming', 'Industrial symbiosis', 'Biodrying', 'Social finance', 'Parthenium argentatum', 'Discontinuous Galerkin method', 'Creative industries', 'L-reduction', 'Zeta-TCP', 'Succinic acid', 'Zirconolite', 'Strength of materials', 'Installation', 'Waste Isolation Pilot Plant', 'Industrial/Organizational Psychology', 'Parasite Control', 'Toxicogenetics', 'Radioactive Pollutants', 'Fish stocking', 'Natural disaster', 'Phase-contrast imaging', 'Radioecology', 'Q-machine', 'Apse', 'Mobile collaboration', 'Distributed collaboration', 'Resource nationalism', 'Waste converter', 'Insect', 'Fuel saving device', 'Waste characterisation', 'Reinforced rubber', 'Wage labour', 'Amortization', 'Book value', 'Shutdown of thermohaline circulation', 'Food Consumption Patterns', 'Sustainable management', 'Order condition', 'Raw rubber', 'Joint-stock company', 'Product substitution', 'Minor actinide', 'Energy tax', 'Taraxacum kok-saghyz', 'Bulky waste', 'Game art design', 'Hazardous waste', 'Certified Emission Reduction', 'Thermal energy storage', 'Consumer', 'Near abroad', 'Sustainability reporting', 'Yucca', 'Social responsibility', 'Solvolysis', 'Companies Act', 'Construction waste', 'Atomic Energy Act', 'Minerals Yearbook', 'Reducer', 'Surplus product', 'Refuse-derived fuel', 'Working fluid', 'Public awareness of science', 'Ecological engineering', 'Global temperature', 'Carbon accounting', 'Mobile incinerator', 'Truck', 'Aeroelasticity', 'Mineral rights', 'Bank rate', 'Productivity', 'Systematic review', 'Coral', 'Carbon credit', 'Natural resource', 'Citizen journalism', 'Landfill gas', 'Consumerism', 'Solar physics', 'Outreach', 'Betulina', 'Insect identification', 'Sustainable development', 'Jatropha', 'Landfill Directive', 'Biomanufacturing', 'Climate resilience', 'Mechanical biological treatment', 'Glacier mass balance', 'Compost', 'ISO 26000', 'Energy storage', 'Life spans', 'Adverse Outcome Pathway', 'Overconsumption', 'European Capital of Culture', 'Device Approval', 'Climate change mitigation', 'Methane emissions', 'Rapeseed', 'Nanoindenter', 'Obsolescence', 'Energy recovery', 'Manufacturing', 'Flat rate', 'Solar cycle 24', 'Sustainable forest management', 'Naturally occurring radioactive material', 'Planetary Data System', 'Waste compaction', 'Surplus value', 'Protein processing', 'Continuous gusts', 'Global change', 'Creative services', 'Game Developer', 'Remanufacturing', 'Food waste', 'Stem cell', 'Recycled products', 'Phase-contrast X-ray imaging', 'Efficient energy use', 'Stereo cameras', 'Betulin', 'Parasite Egg Count', 'Exploitation of labour', 'Cohort study', 'Reduction of order', 'Spent fuel pool', 'Hybrid seed', 'Plastic recycling', 'Polynomial chaos', 'Product base', 'Waste framework directive', 'Insect collecting', 'Hermetia illucens', 'Deinking', 'Transuranic waste', 'Integral fast reactor', 'World energy consumption', 'Hanford Site', 'Game testing', 'Degranulation', 'In-vessel composting', 'Geotourism', 'Ground segment', 'High voltage', 'Reinforcement theory', 'PK Parameters', 'Paper recycling', 'Space architecture', 'Reverse logistics', 'Fasciola hepatica', 'Life-cycle cost analysis', 'Material efficiency', 'Installation art', 'Electric vehicle', 'Research development', 'Reductionism', 'Science education', 'Synroc', 'NSPACE', 'Power purchase agreement', 'Carbon dioxide flooding', 'DRMAA', 'Severe weather', 'Nuclear decommissioning', 'Scientific progress', 'Waste treatment technologies', 'Cesium Isotopes', 'Energy policy', 'Aerospace', 'Landfill gas utilization', 'Corporate sustainability', 'Insect physiology', 'Underground storage tank', 'Nanomanufacturing', 'Growth accounting', 'Methanation', 'Landfill diversion', 'Conspicuous consumption', 'Bark', 'Schoepite', 'Social CRM', 'Coproduction', 'Research program', 'Pay as you throw', 'Underconsumption', 'Adult insect', 'Spent nuclear fuel', 'Plant secondary metabolism', 'Body Temperature Changes', 'Anthelmintic', 'Storm', 'Radioactive waste', 'Plastics industry', 'Thorium fuel cycle', 'Rubber cement', 'Cesium Radioisotopes', 'Waste management', 'Reproduction', 'Open design', 'Candidate gene', 'Waste hierarchy', 'Rhodamine B', 'High-level waste', 'Substitution method', 'Game design', 'Demolition waste', 'Passive cooling', 'Game mechanics', 'Green consumption', 'Air source heat pumps', 'Nuclear fuel cycle', 'Waste-to-energy', 'Green New Deal', 'Energy intensity', 'Trichostrongylus axei', 'Submarine canyon', 'Dynamic shear rheometer', 'Market distortion', 'Waste collection', 'Human capital', 'Rate of reinforcement', 'Sustainable product development', 'Bank run', 'Activated sludge', 'Nanoindentation', 'Scientific collaboration network', 'Biproduct', 'Resource productivity', 'Product lifecycle', 'Hotbed', 'Reinforcement', 'Aquifer thermal energy storage', 'Ocean disposal of radioactive waste', 'Game design document', 'Die (manufacturing)', 'Trichostrongylus', 'Soy product', 'Coproduct', 'Resource recovery', 'Landfill tax', 'Fish stock', 'Virtual collaboration', 'Deep geological repository', 'Commercial waste', 'Exhaust heat recovery system', 'Growth medium', 'Glass recycling', 'Industrial production', 'Fuel element failure', 'Camera interface', 'Uranium-233', 'Stem cell niche', 'Hevea', 'Coastal erosion', 'Industrial production index', 'Insect ecology', 'Waste treatment', 'Polygon mesh', 'Environmental compliance', 'Rut', 'Supply chain management', 'Video game design', 'Planned obsolescence', 'Pyroprocessing', 'Tumor Stem Cells', 'Use value', 'Insect Proteins', 'Press cake', 'Style analysis', 'Gordon Research Conferences', 'TCP hole punching', 'Knowledge spillover', 'Personal carbon trading', 'Waste', 'Faecal egg count reduction test', 'High-level radioactive waste management', 'Nuclear reprocessing', 'Spongia officinalis', 'ESPACE', 'Layer by layer', 'Climate change adaptation', 'Bar product', 'Reuse', 'Greenhouse effect', 'Entomophagy', 'Nursing conference', 'Intangible asset', 'Deep borehole disposal', 'Carbon finance', 'Greenhouse', 'Robust decision-making', 'Flat rated', 'Science outreach', 'Facility management', 'Peak oil', 'Robust optimization', 'Economic evaluation', 'Game studies', 'Industrial and organizational psychology', 'Regulatory science', 'Landfill mining', 'Granulation', 'Oxide', 'Information model', 'Ozone cracking', 'Deconstruction', 'Radiative forcing', 'Political economy of climate change', 'DSPACE', 'X-Ray Phase-Contrast Imaging', 'Climate security', 'Materials recovery facility', 'New production', 'Circular economy', 'Climate justice', 'Economic impacts of climate change', 'Mobile deep linking', 'Bioreactor landfill', 'Collaboration tool', 'Extreme weather', 'Paper cup', 'Transuranium element', 'Mastic asphalt', 'Waste sorting', 'Materials management', 'Zeolitic imidazolate framework', 'Energy recycling', 'Magnetic sail', 'Corporate social responsibility', 'Impact', 'Mass collaboration', 'Capital accumulation', 'Climate engineering', 'Bioproduction', 'Life-cycle assessment', 'Hydrolyzed protein', 'Molten salt oxidation', 'Sweet sorghum', 'Order of accuracy', 'Carbonyl reduction', 'Corporate behaviour', 'UV degradation', 'Supply chain', 'Enzyme', 'Coral bleaching', 'Software design document', 'Succinic acid fermentation', 'Tax reform', 'Resource consumption', 'Greenhouse gas', 'Industrial PC', 'Video game development', 'Dirty bomb', 'Automotive shredder residue', 'Energy efficient transformer', 'Dynamic load testing', 'Demolition', 'Electric energy consumption']</t>
+          <t>['Exhaust heat recovery system', 'Waste', 'Distributed collaboration', 'Phoenix', 'Strategy', 'Deconstruction', 'Hazardous waste', 'Style analysis', 'By-product', 'Food spoilage', 'High-level radioactive waste management', 'Energy-efficient driving', 'Uranium-233', 'Dynamic load testing', 'Parasite Egg Count', 'Schoepite', 'Life-cycle assessment', 'Game design document', 'Underground storage tank', 'Bank rate', 'EDAS', 'Game art design', 'Waste collection', 'Growth medium', 'Software design document', 'Plastic recycling', 'Plastics industry', 'Reverse logistics', 'Social business model', 'Biomanufacturing', 'Life spans', 'Maglev', 'Bulky waste', 'Q-machine', 'Parasite Control', 'Consumer', 'Planned obsolescence', 'Near abroad', 'Permafrost', 'Bar product', 'Hotbed', 'Creative industries', 'Industrial/Organizational Psychology', 'Corporate social responsibility', 'Sustainable development', 'Customer base', 'Methanation', 'Tax reform', 'PK Parameters', 'Use value', 'Geotourism', 'Insect', 'Compost', 'Minor actinide', 'Nanoindentation', 'Nuclear decommissioning', 'NSPACE', 'Rubber technology', 'Waste management', 'High voltage', 'Industrial PC', 'Industrial symbiosis', 'DRMAA', 'Dirty bomb', 'Mixed waste', 'Regulatory science', 'Entomophagy', 'Soy product', 'Capital accumulation', 'Climate ethics', 'Human capital', 'Naturally occurring radioactive material', 'Substitution method', 'Glacier mass balance', 'Supply chain risk management', 'Game testing', 'Press cake', 'ESPACE', 'Landfill mining', 'Working fluid', 'Sustainable consumption', 'Research development', 'Food Consumption Patterns', 'Degranulation', 'Hevea', 'Thermal depolymerization', 'Global change', 'Spent fuel pool', 'Science outreach', 'Glass recycling', 'Joint-stock company', 'Growth accounting', 'Shutdown of thermohaline circulation', 'Trichostrongylus', 'Low-level waste', 'Extreme weather', 'Sorghum', 'Resource productivity', 'Raw material', 'Underconsumption', 'Game Developer', 'Sustainable forest management', 'Waste minimisation', 'Solar cycle 24', 'Stereo cameras', 'Greenhouse effect', 'Camera interface', 'Scientific progress', 'Means of production', 'Zeta-TCP', 'Peak oil', 'Coral bleaching', 'Synroc', 'Companies Act', 'Carbon-to-nitrogen ratio', 'Hermetia illucens', 'Sustainable management', 'Reuse', 'Coastal erosion', 'Rhodamine B', 'Ozone cracking', 'Virtual collaboration', 'Demolition waste', 'Scientific collaboration network', 'Political economy of climate change', 'Carbon leakage', 'Game design', 'Food waste', 'Resource nationalism', 'Climate change mitigation', 'Materials management', 'Video game development', 'Taraxacum kok-saghyz', 'Dynamic shear rheometer', 'Robust optimization', 'Insect collecting', 'Nuclear reprocessing', 'Global temperature', 'Bioproduction', 'Hanford Site', 'Molten salt oxidation', 'Game studies', 'Remanufacturing', 'World energy consumption', 'Manual labour', 'Thorium fuel cycle', 'Mass collaboration', 'Zeolitic imidazolate framework', 'Apse', 'Hall effect thruster', 'Deinking', 'Zirconolite', 'Severe weather', 'Gross value added', 'Outreach', 'Stem cell niche', 'UV degradation', 'Stakeholder theory', 'Fuel element failure', 'Succinic acid', 'Manufacturing', 'Waste sorting', 'Betulin', 'Mobile incinerator', 'Product substitution', 'Economic evaluation', 'Flat rated', 'Sustainable product development', 'Obsolescence', 'Electric energy consumption', 'Radioactive Pollutants', 'Energy efficient transformer', 'Energy policy', 'Landfill gas utilization', 'Waste treatment technologies', 'Thermal energy storage', 'Third order', 'Biomedical sciences', 'Polynomial chaos', 'Cyclone', 'Hevea brasiliensis', 'Adult insect', 'Fixed capital', 'Molecular nanotechnology', 'Process substitution', 'Ruta', 'Vedas', 'Storm', 'Official cash rate', 'Electromagnetic propulsion', 'Resource consumption', 'Cesium Isotopes', 'Convention on Biological Diversity', 'Nuclear fuel cycle', 'Climate resilience', 'Passive cooling', 'Polygon mesh', 'Rapeseed', 'Rural tourism', 'Material efficiency', 'Reduction of order', 'TCP hole punching', 'Surplus product', 'Materials recovery facility', 'Phase-contrast imaging', 'Product base', 'Computer cluster', 'Raw rubber', 'Planetary Data System', 'Certified Emission Reduction', 'Waste characterisation', 'Biodrying', 'Order condition', 'ISO 26000', 'Radioecology', 'Corporate behaviour', 'Waste treatment', 'Carbon accounting', 'Solar cycle 23', 'Resource recovery', 'Waste hierarchy', 'Cleaner production', 'Plant secondary metabolism', 'Deep geological repository', 'Carbon credit', 'Cesium Radioisotopes', 'Rate of exploitation', 'Landfill liner', 'Paper recycling', 'Energy recovery', 'Pay as you throw', 'Corporate sustainability', 'Transuranic waste', 'Exploitation of labour', 'Leading edge', 'Parent company', 'Landfill diversion', 'Carbon finance', 'Game mechanics', 'Automotive shredder residue', 'Landfill tax', 'Market distortion', 'Bioreactor landfill', 'Public awareness of science', 'Wage labour', 'Landfill gas', 'X-parameters', 'Carbonyl reduction', 'New production', 'Open design', 'Geoengineering', 'Insect identification', 'Waste converter', 'Natural disaster', 'Protein processing', 'Technology assessment', 'Sustainable land management', 'Landfill Directive', 'Nanoindenter', 'Insect ecology', 'Mastic asphalt', 'Peat', 'Impact', 'Sharing economy', 'Activated sludge', 'Waste compaction', 'Electric vehicle', 'Energy tax', 'Knowledge spillover', 'Environmental compliance', 'Waste-to-energy plant', 'Product lifecycle', 'Industrial production', 'Productivity', 'Installation art', 'In-vessel composting', 'Space-based architecture', 'Collaboration tool', 'Fasciola hepatica', 'Solar physics', 'Circular economy', 'Energy intensity', 'Tangle', 'Ecological engineering', 'Climate security', 'High-level waste', 'Ground segment', 'Betulina', 'Installation', 'Spent nuclear fuel', 'Yucca', 'Climate risk', 'Fish stock', 'CRFS', 'Economic impacts of climate change', 'Submarine canyon', 'Gas cracker', 'Book value', 'Reductionism', 'Continuous gusts', 'Creative services', 'Reinforcement theory', 'Tumor Stem Cells', 'Methane emissions', 'Insect Proteins', 'Faecal egg count reduction test', 'Discontinuous Galerkin method', 'Hydrolyzed protein', 'Conspicuous consumption', 'Parthenium argentatum', 'Reinforced rubber', 'Robust decision-making', 'Jatropha', 'Computer vision', 'Citizen journalism', 'Candidate gene', 'L-reduction', 'Nanomanufacturing', 'Nursing conference', 'Video game design', 'Fish stocking', 'Ocean disposal of radioactive waste', 'Rut', 'Limited company', 'Paper cup', 'Consumerism', 'Anthelmintic', 'Radiative forcing', 'Demolition', 'Intangible asset', 'Granulation', 'Moving target indication', 'Aquifer thermal energy storage', 'Rate of reinforcement', 'Deep borehole disposal', 'Space architecture', 'Recycled products', 'Road grading', 'Waste-to-energy', 'Refuse-derived fuel', 'Metagaming', 'Climate change adaptation', 'Savannah River Site', 'DSPACE', 'Personal carbon trading', 'Biproduct', 'Climate engineering', 'Mobile collaboration', 'Spongia officinalis', 'Bark', 'Stem cell', 'Mobile deep linking', 'Climate justice', 'Commercial waste', 'Insect physiology', 'Science education', 'Hybrid seed', 'Trichostrongylus axei', 'Sweet sorghum', 'Petroleum politics', 'Solvolysis', 'O2 consumption', 'Efficient energy use', 'Radioactive waste', 'Carbon dioxide flooding', 'Bank run', 'Energy recycling', 'Reducer', 'Enzyme', 'Life-cycle cost analysis', 'Facility management', 'Sustainable procurement', 'Industrial production index', 'Waste framework directive', 'Capital deepening', 'Cohort study', 'Oxide', 'Device Approval', 'Flat rate', 'Systematic review', 'Order of accuracy', 'Rubber cement', 'Research program', 'Deep sea', 'Brookite', 'Natural resource', 'Information model', 'Substitution effect', 'Industrial and organizational psychology', 'Supply chain', 'Construction waste', 'Green consumption', 'Scientific communication', 'Social responsibility', 'Greenhouse gas', 'Climate change denial', 'Surplus value', 'Greenhouse', 'Atomic Energy Act', 'Phase-contrast X-ray imaging', 'Supply chain management', 'Adverse Outcome Pathway', 'Mechanical biological treatment', 'Reproduction', 'Green New Deal', 'Coproduct', 'European Capital of Culture', 'Body Temperature Changes', 'PH reduction', 'Power purchase agreement', 'Fuel saving device', 'Reinforcement', 'Waste Isolation Pilot Plant', 'Coproduction', 'Toxicogenetics', 'X-Ray Phase-Contrast Imaging', 'Overconsumption', 'Sustainability reporting', 'Tryptone', 'Integral fast reactor', 'Diffuse reflectance infrared fourier transform', 'Air source heat pumps', 'Strength of materials', 'Mineral rights', 'Layer by layer', 'Wasting', 'Energy storage', 'Transuranium element', 'Pyroprocessing', 'Truck', 'Succinic acid fermentation', 'Social finance', 'Die (manufacturing)', 'Social collaboration', 'Organizational structure', 'PSPACE', 'Planning', 'Aerospace', 'Amortization', 'Social CRM', 'Coral', 'Aeroelasticity', 'Minerals Yearbook', 'Magnetic sail', 'Gordon Research Conferences']</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
         <v>350</v>
       </c>
       <c r="C14" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -823,12 +823,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['9075549', '2780471494', '63562587', '103215972', '64396926', '203017698', '33683781', '2780406490', '18757010', '2780756839', '2777994876', '2909303214', '2779278563', '18629457', '2775904931', '106199856', '20992447', '112867187', '158984102', '2780723968', '11308688', '2781067393', '169969230', '163861444', '96240277', '2777647863', '72319357', '96793861', '35647692', '2776830933', '78091846', '156008332', '92033742', '2776538475', '2776744078', '537773303', '2778136073', '39463204', '101638190', '2780948093', '508106653', '2781426840', '2780805685', '146159881', '2780231331', '152798702', '15098985', '2780210451', '62279395', '193436682', '2780021526', '6792957', '39464130', '53603896', '61562682', '196875640', '95070492', '2780797831', '166566181', '183472899', '119288801', '195853485', '188818383', '2779258914', '143742823', '2909483067', '108107089', '89463210', '2780899440', '96966460', '2778736949', '2776349674', '96650669', '2779417324', '143299363', '2777774347', '537208039', '89295123', '69131732', '2778539042', '85675897', '2780223605', '75633850', '2777401303', '193945104', '163379243', '2779242930', '2781420532', '181060458', '2776445388', '2910459661', '2780789708', '2776620235', '39410599', '139212797', '207074971', '2779345524', '2776027161', '6582778', '136856113', '3810323', '37965861', '144199811', '2775984431', '2780258550', '100405246', '126026641', '65748596', '174252726', '2780750338', '125405218', '2778329665', '2779507241', '2908869550', '139679275', '2778106714', '2776793327', '133517878', '509746633', '83227832', '108352090', '190930322', '115343472', '2776290281', '2777564511', '188364345', '66337317', '2776929312', '131980223', '139029146', '199491958', '165479943', '2777351703', '199390426', '156034889', '155372631', '33332676', '186699998', '74501621', '2781415582', '2780155556', '18870495', '2777586272', '177229130', '122629976', '501529594', '83621551', '151406439', '46304622', '65557974', '2778372335', '2910907392', '2780713269', '177707082', '134097258', '146233495', '111761213', '81447805', '93707483', '32334204', '169752599', '54464151', '130047971', '2778270655', '134906952', '518008717', '2778329001', '86714428', '47279414', '30878456', '200479807', '105923489', '2775938548', '21405408', '29141058', '41156917', '2780181841', '127454912', '187460315', '136020623', '68753075', '2778145313', '559400886', '11693305', '173651095', '2778856288', '2778951896', '49204034', '142619676', '54308172', '205251833', '112115583', '168754636', '116543080', '524244815', '71756627', '183195422', '2909068970', '60757611', '638126', '2779547961', '24474704', '11472968', '94061648', '2778822299', '2780621122', '66295139', '2779345167', '141452985', '46068172', '2777034083', '106933524', '2909176644', '181634566', '123961466', '112964050', '2910882656', '44881016', '2779257452', '2910645160', '2777460376', '173253207', '2909261609', '11039648', '2781284990', '535291247', '2776044436', '93941228', '2778976125', '513535597', '2780862826', '96305052', '25022447', '114990195', '58479451', '49999975', '2779169777', '2780656184', '2776229149', '73849760', '2780883738', '89298926', '97302686', '2910483091', '96941661', '108469399', '2778300782', '30033324', '2779200991', '530467964', '189692780', '20985327', '205325660', '2909373799', '2777068471', '2779155178', '76934896', '196267783', '77044568', '2908604550', '2909067155', '2776703984', '23069438', '2910895638', '6964187', '13468771', '30236105', '94490329', '120128738', '2778851808', '28475054', '197435368', '137851953', '521259446', '66472031', '528261146', '125460053', '2777804095', '2779611803', '99743013', '71502557', '2779910436', '83516724', '2779994751', '50094484', '2776780212', '2778552509', '81820708', '2910057517', '2781281996', '186816422', '76882436', '99578197', '2908827874', '114203453', '186966370', '2775855162', '2777798390', '189109488', '2778760939', '19369268', '38870921', '2778595733', '106935595', '102561126', '135558025', '187415303', '2779553627', '2781164615', '41873427', '92546971', '54513816', '123750103', '143510601', '87547467', '47665787', '183191521', '205537798', '79367842', '2780936489', '39820584', '172461840', '2777006462', '2780153765', '2776573159', '2780039742', '2779035916', '545622115', '17278756', '150484471', '122424190', '2779039943', '132651083', '2908711065', '1489048', '2780919918', '103474955', '171547485', '2777634575', '143906210', '2781383829', '2779413794', '47737302', '13763315', '134790666', '16989226', '126172416', '2777746431', '42952880', '149677717']</t>
+          <t>['23069438', '2780155556', '2777994876', '92546971', '2777351703', '2910057517', '79367842', '42952880', '2908711065', '168754636', '173253207', '2780862826', '126172416', '2779345524', '134097258', '508106653', '2781415582', '158984102', '146159881', '2778145313', '15098985', '2779039943', '3810323', '116543080', '207074971', '2780713269', '106933524', '21405408', '49204034', '2778856288', '62279395', '119288801', '186699998', '29141058', '183191521', '66295139', '2778329665', '77044568', '205325660', '2775984431', '143906210', '143299363', '41873427', '46068172', '151406439', '83621551', '11472968', '2780805685', '9075549', '139029146', '189109488', '47665787', '81447805', '20992447', '199491958', '2778136073', '2778822299', '108107089', '96966460', '50094484', '2909303214', '205537798', '559400886', '2780919918', '2776538475', '137851953', '112115583', '24474704', '518008717', '2775904931', '2778552509', '163379243', '169752599', '171547485', '103474955', '2908827874', '2781383829', '2780231331', '139212797', '2910459661', '2779258914', '13763315', '2777804095', '199390426', '112964050', '181634566', '2909483067', '2909373799', '2781426840', '83227832', '142619676', '101638190', '509746633', '87547467', '135558025', '16989226', '2777774347', '2779910436', '2780936489', '108352090', '2776929312', '2779242930', '106935595', '2909067155', '54513816', '75633850', '152798702', '105923489', '2778106714', '89298926', '177229130', '93707483', '2909261609', '187460315', '2778270655', '125460053', '2778539042', '2779547961', '65557974', '18629457', '72319357', '2780750338', '186966370', '2776290281', '99743013', '6964187', '2780656184', '545622115', '2777564511', '1489048', '96240277', '33683781', '73849760', '2778760939', '46304622', '111761213', '172461840', '2780899440', '183472899', '134790666', '200479807', '2910882656', '2779994751', '186816422', '96305052', '30033324', '2779507241', '2780223605', '2780621122', '69131732', '11693305', '146233495', '169969230', '28475054', '65748596', '94061648', '2777460376', '30236105', '2778951896', '2776044436', '6582778', '2909068970', '2779417324', '86714428', '74501621', '89463210', '2781420532', '53603896', '2910483091', '2778372335', '2780153765', '2779553627', '39464130', '37965861', '49999975', '130047971', '39820584', '203017698', '66337317', '96650669', '2780021526', '133517878', '2775855162', '2779169777', '528261146', '61562682', '2778329001', '2777068471', '2777401303', '2777746431', '2776573159', '103215972', '149677717', '81820708', '92033742', '2778736949', '537773303', '2776445388', '2779257452', '193436682', '524244815', '166566181', '2776703984', '2781067393', '64396926', '535291247', '501529594', '196267783', '17278756', '127454912', '11308688', '155372631', '78091846', '54464151', '39410599', '2777634575', '32334204', '25022447', '190930322', '94490329', '2779278563', '2780723968', '125405218', '18757010', '30878456', '638126', '174252726', '2910645160', '2776027161', '115343472', '13468771', '96793861', '66472031', '132651083', '530467964', '193945104', '2780789708', '2776780212', '205251833', '2780756839', '197435368', '2780258550', '2777798390', '76882436', '2777034083', '2908604550', '76934896', '2780210451', '102561126', '58479451', '20985327', '173651095', '2776793327', '177707082', '181060458', '188364345', '123961466', '196875640', '136856113', '123750103', '33332676', '100405246', '131980223', '97302686', '139679275', '2779611803', '11039648', '2781284990', '2780797831', '68753075', '183195422', '99578197', '2778300782', '108469399', '44881016', '2781281996', '2778851808', '114203453', '144199811', '2776229149', '165479943', '2779035916', '2781164615', '189692780', '2780883738', '537208039', '143510601', '136020623', '38870921', '2780406490', '122424190', '120128738', '2780181841', '513535597', '6792957', '156034889', '163861444', '122629976', '187415303', '2908869550', '2776620235', '60757611', '156008332', '71502557', '2777647863', '2777586272', '106199856', '93941228', '2776830933', '47737302', '18870495', '39463204', '41156917', '2777006462', '95070492', '89295123', '19369268', '2776744078', '141452985', '150484471', '188818383', '2779155178', '54308172', '2780039742', '195853485', '85675897', '96941661', '2910895638', '2778976125', '114990195', '2778595733', '63562587', '71756627', '2780948093', '2779200991', '2779345167', '83516724', '2910907392', '2780471494', '2779413794', '112867187', '143742823', '134906952', '47279414', '521259446', '2776349674', '2909176644', '2775938548', '35647692', '126026641']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Troposphere', 'Solvent', 'Typhoon Tip', 'Environmental niche modelling', 'Atmospheric sounding', 'Modified atmosphere', 'Paleoclimatology', 'Greenhouse gas inventory', 'Lifted index', 'WEAP', 'Pacific Plate', 'Sensory Adaptation', 'Talik', 'Hadley cell', 'Past sea level', 'Parametrization', 'Atmospheric escape', 'Cottrell atmosphere', 'Tropical wave', 'Outgoing longwave radiation', 'Atlantic multidecadal oscillation', 'Trend surface analysis', 'Sea salt aerosol', 'Stratosphere', 'Ecological forecasting', 'Climate change in China', 'Extratropical cyclone', 'Polar seas', 'Atlantic hurricane', 'Climate change denial', 'Thermohaline circulation', 'Precipitable water', 'Arctic front', 'Climate legislation', 'Early Earth', 'Geoengineering', 'Eocene Thermal Maximum 2', 'Coastal hazards', 'Stellar atmosphere', 'International Geosphere-Biosphere Programme', 'Ozone', 'Carbon leakage', 'Teacher education', 'Norwegian cyclone model', 'CGS-21680', 'Atmosphere of Earth', 'Permafrost', 'Climate risk', 'Atmospheric models', 'Tropical cyclone scales', 'Greenland ice sheet', 'Twomey effect', 'Soil carbon', 'Black carbon', 'Tropical cyclogenesis', 'Diffuse sky radiation', 'Metres above sea level', 'Fish stocking', 'Natural disaster', 'Attribution of recent climate change', 'Global-warming potential', 'Tholin', 'Fugitive emissions', 'Carbon emission trading', 'GCM transcription factors', 'Application site', 'Oxygen plant', 'Coral reef organizations', 'Special Report on Emissions Scenarios', 'Shutdown of thermohaline circulation', 'Pacific Solution', 'Tropospheric ozone', 'Biosphere model', 'Climate governance', 'Attribution', 'Sea level rise', 'Nitrogen', 'Forest pathology', 'Abrupt climate change', 'United Nations Framework Convention on Climate Change', 'Soil management', 'Antarctic ice sheet', 'Ocean fertilization', 'CGS-8216', 'Bolide', 'Landfall', 'Global temperature', 'Carbon accounting', 'Aridification', 'MODTRAN', 'Prevention campaign', 'Yedoma', 'DICE model', 'Natural hazard', 'Global warming hiatus', 'Environmental issues with coral reefs', 'Replantation', 'Forest dieback', 'North Atlantic Deep Water', 'Tide gauge', 'Integrated assessment modelling', 'Carbon credit', 'Dropsonde', 'Global Change Biology', 'Ozone depletion potential', 'Emissions trading', 'Hydrosphere', 'Ice field', 'Ice divide', 'Disaster risk reduction', 'Polar vortex', 'IPCC Fourth Assessment Report', 'Climate resilience', 'Pacific Area', 'Oceanic climate', 'Cataclysme', 'Carbon Pollution Reduction Scheme', 'Extended producer responsibility', 'Climate change mitigation', 'Carbon offset', 'Catchment hydrology', 'Tornado', 'Global warming', 'Enhanced weathering', 'Water conflict', 'Global dimming', 'Sustainability and environmental management', 'Atmospheric lidar', 'Thermosphere', 'Subtropical cyclone', 'Global change', 'Rainband', 'Low-carbon fuel standard', 'Atmospheric radiative transfer codes', 'Airglow', 'Arctic geoengineering', 'Cloud condensation nuclei', 'Eutrophication', 'Sea level', 'Performance attribution', 'Thermokarst', 'Historical climatology', 'Copenhagen Accord', 'Monroney sticker', 'Fringing reef', 'Carbon', 'Limb darkening', 'Time series', 'Certification', 'African easterly jet', 'Climate change scenario', 'Arctic climate', 'Mars general circulation model', 'Atmospheric wave', 'Sea surface temperature', 'Future sea level', 'Polar amplification', 'Subarctic climate', 'Bioclimatology', 'Planetary boundaries', 'Recovery', 'Climate sensitivity', 'Trace gas', 'Marine stratocumulus', 'Soil plant atmosphere continuum', 'Arctic', 'Atmospheric correction', 'Atmospheric methane', 'Atmospheric electricity', 'Arctic vegetation', 'Biological pump', 'Combustion', 'Thematic Mapper', 'Pacific Islands Families Study', 'Tropical cyclone', 'Downscaling', 'Green paradox', 'Cost–benefit analysis', 'Severe weather', 'Invasive species', 'Dendroclimatology', 'Solar radiation management', 'Land management', 'Coastal flood', 'Introduced species', 'European Union Emission Trading Scheme', 'Rangeland management', 'Climatology', 'Arctic ecology', 'Atmospheric optics', 'Climate classification', 'Change management', 'Climate model', 'Post-tropical cyclone', 'Pacific studies', 'Microbarom', 'Flood forecasting', 'Low carbon dioxide', 'Atmospheric thermodynamics', 'Fundamental attribution error', 'Tropical Atlantic', 'Ice tongue', 'Tropical cyclone rainfall forecasting', 'Wastewater', 'Integrated catchment management', 'Global and Planetary Change', 'C change', 'Aerosol', 'General Circulation Model', 'Assisted colonization', 'Radio occultation', 'Chromosphere', 'Risk-benefit analysis', 'Realized niche width', 'Change management (ITSM)', 'Livestock', 'Aerosol generator', 'Carbon cycle re-balancing', 'Common But Differentiated Responsibilities', 'Climatic Processes', 'Fuel tax', 'Polar ecology', 'Man-Made Disasters', 'Tornado intensity and damage', 'Centrostephanus rodgersii', 'Amazon rainforest', 'Persistent organic pollutant', 'Enhanced Fujita scale', 'Carbon tax', 'Low-carbon economy', 'Tropical Atlantic Variability', 'Effects of global warming on oceans', 'Coupled model intercomparison project', 'Effects of global warming', 'Fish stock', 'Atmospheric chemistry', 'DayCent', 'Ruppia cirrhosa', 'Eco-innovation', 'Coral reef protection', 'Secondary organic aerosols', 'Atmospheric instability', 'Cyclogenesis', 'Permafrost Zone', 'Community Climate System Model', 'Plankton', 'Polar meteorology', 'Carbon respiration', 'Carbon price', 'Carbon dioxide', 'Sponge reef', 'Thaw depth', 'Ice core', 'Increased carbon dioxide', 'Sea surface microlayer', 'Longwave', 'HadCM3', 'Resolvent', 'Reef', 'Central Site', 'Arctic environment', 'Deforestation and climate change', 'Wave flume', 'Cook island', 'Indirect costs', 'Atmospheric refraction', 'Sustainability and systemic change resistance', 'Atmosphere of Venus', 'Atmosphere of Titan', 'Climate change adaptation', 'Thermal wind', 'Cryosphere', 'Greenhouse effect', 'Pollution', 'Prediction and Research Moored Array in the Atlantic', 'Carbon finance', 'Resilience of coral reefs', 'Flexible Mechanisms', 'Hydrothermal carbonization', 'Kyoto Protocol', 'Tree line', 'Ocean deoxygenation', 'Ecological footprint', 'ECHAM', 'Attribution bias', 'Marginal abatement cost', 'Peak oil', 'Ice stream', 'Pacific States', 'Ocean general circulation model', 'Lapse rate', 'Site manager', 'Radiative forcing', 'Pressure Atmosphere', 'Cloud forcing', 'Reducing atmosphere', 'GNSS radio occultation', 'Climate security', 'Small Island Developing States', 'Representative Concentration Pathways', 'Shortwave radiation', 'Environmental impact of aviation', 'Enteric fermentation', 'Greenhouse gas removal', 'Tropical cyclone forecast model', 'Wind shear', 'Permafrost carbon cycle', 'Arctic studies', 'Climate justice', 'International Standard Atmosphere', 'Controlled atmosphere', 'Managed retreat', 'Ice sheet', 'Arctic sea ice decline', 'Ice shelf', 'Transient climate simulation', 'Aeronomy', 'Extreme weather', 'Coral reef', 'Carbon footprint', 'Climate pattern', 'Angstrom exponent', 'Adaptive capacity', 'Low-carbon emission', 'Solar zenith angle', 'Urban resilience', 'Climate engineering', 'Microphysics', 'Palsa', 'Climate oscillation', 'Typhon', 'Scientific consensus', 'Climate change', 'Antarctic climate', 'Scale height', 'Climate Finance', 'Coral bleaching', 'Atmospheric physics', 'AERONET', 'Atmosphere', 'CLOUD experiment', 'Aerosol mass spectrometry', 'Greenhouse gas', 'Alternative fuel vehicle', 'Atmospheric Model Intercomparison Project', 'Environmental change', 'Carbon neutrality', 'Earth System Grid', 'Cloud feedback', 'Carbon sink']</t>
+          <t>['Wave flume', 'Thermokarst', 'Pacific Plate', 'Controlled atmosphere', 'Low-carbon fuel standard', 'Pacific States', 'Coral reef', 'Cloud feedback', 'Antarctic climate', 'Climate model', 'Polar ecology', 'Tropical Atlantic Variability', 'Carbon neutrality', 'Replantation', 'Sea surface temperature', 'Ozone', 'Performance attribution', 'Tropical wave', 'Norwegian cyclone model', 'Solar radiation management', 'Permafrost', 'Scientific consensus', 'Integrated assessment modelling', 'Post-tropical cyclone', 'Environmental issues with coral reefs', 'Mars general circulation model', 'Chromosphere', 'Pacific Islands Families Study', 'Climatology', 'European Union Emission Trading Scheme', 'Atmospheric models', 'Global-warming potential', 'Eutrophication', 'Tropical cyclone', 'Aeronomy', 'C change', 'IPCC Fourth Assessment Report', 'Reef', 'Ice core', 'Global Change Biology', 'Atmosphere', 'Attribution', 'International Standard Atmosphere', 'Assisted colonization', 'Time series', 'Limb darkening', 'Tropical cyclone rainfall forecasting', 'Teacher education', 'Troposphere', 'Subtropical cyclone', 'Small Island Developing States', 'Transient climate simulation', 'Subarctic climate', 'Atmospheric escape', 'Global change', 'Eocene Thermal Maximum 2', 'Integrated catchment management', 'Oxygen plant', 'Shutdown of thermohaline circulation', 'Attribution bias', 'Sensory Adaptation', 'Extreme weather', 'Land management', 'Climate Finance', 'Climate legislation', 'Greenhouse effect', 'Change management', 'Ice tongue', 'Arctic', 'Past sea level', 'Peak oil', 'Landfall', 'Recovery', 'Atmospheric physics', 'Coral bleaching', 'Pressure Atmosphere', 'CLOUD experiment', 'CGS-21680', 'Global warming hiatus', 'Prevention campaign', 'Carbon emission trading', 'Alternative fuel vehicle', 'Flexible Mechanisms', 'Atmospheric radiative transfer codes', 'Livestock', 'Realized niche width', 'Application site', 'Increased carbon dioxide', 'Carbon leakage', 'Carbon offset', 'Arctic ecology', 'Stellar atmosphere', 'Climate change mitigation', 'Ice shelf', 'Wind shear', 'Environmental change', 'Sea level rise', 'Ocean deoxygenation', 'Carbon footprint', 'Catchment hydrology', 'Atmospheric lidar', 'Global temperature', 'Greenhouse gas removal', 'Arctic environment', 'Managed retreat', 'Ocean fertilization', 'Atmosphere of Earth', 'Combustion', 'Cataclysme', 'Atmospheric instability', 'Monroney sticker', 'Bioclimatology', 'Man-Made Disasters', 'Severe weather', 'Marine stratocumulus', 'Resilience of coral reefs', 'United Nations Framework Convention on Climate Change', 'Tropical Atlantic', 'African easterly jet', 'Hadley cell', 'Extratropical cyclone', 'Disaster risk reduction', 'Reducing atmosphere', 'Enhanced weathering', 'Kyoto Protocol', 'Indirect costs', 'Ruppia cirrhosa', 'Microphysics', 'Water conflict', 'Scale height', 'Ecological forecasting', 'Paleoclimatology', 'Coral reef protection', 'Representative Concentration Pathways', 'Certification', 'Polar amplification', 'Angstrom exponent', 'Special Report on Emissions Scenarios', 'Attribution of recent climate change', 'Atmospheric Model Intercomparison Project', 'Biological pump', 'Aerosol generator', 'ECHAM', 'Lapse rate', 'Effects of global warming on oceans', 'Carbon respiration', 'Climate resilience', 'Antarctic ice sheet', 'Global and Planetary Change', 'Abrupt climate change', 'Coastal flood', 'Future sea level', 'Sea salt aerosol', 'Thermal wind', 'Ice field', 'Wastewater', 'Fuel tax', 'Sustainability and systemic change resistance', 'Rangeland management', 'Persistent organic pollutant', 'North Atlantic Deep Water', 'Low carbon dioxide', 'Climate governance', 'Atmospheric methane', 'Sea level', 'Coral reef organizations', 'Carbon accounting', 'Black carbon', 'Permafrost Zone', 'Climate change scenario', 'Low-carbon emission', 'Arctic studies', 'Soil carbon', 'Carbon credit', 'Atmospheric chemistry', 'Trace gas', 'Climate pattern', 'Modified atmosphere', 'Sustainability and environmental management', 'Biosphere model', 'Greenland ice sheet', 'Extended producer responsibility', 'GNSS radio occultation', 'DayCent', 'Carbon finance', 'Tropical cyclogenesis', 'Atmospheric correction', 'Sea surface microlayer', 'CGS-8216', 'Earth System Grid', 'Solar zenith angle', 'Environmental niche modelling', 'Carbon sink', 'Ice stream', 'Arctic front', 'Pacific Solution', 'Geoengineering', 'MODTRAN', 'Common But Differentiated Responsibilities', 'Tropical cyclone scales', 'Pacific studies', 'Natural disaster', 'Deforestation and climate change', 'Trend surface analysis', 'Atmospheric sounding', 'Amazon rainforest', 'Carbon', 'Resolvent', 'Palsa', 'Cost–benefit analysis', 'Atlantic multidecadal oscillation', 'Arctic geoengineering', 'Thermohaline circulation', 'Climate sensitivity', 'Natural hazard', 'AERONET', 'Planetary boundaries', 'Coupled model intercomparison project', 'Tornado', 'Atmosphere of Venus', 'Talik', 'Outgoing longwave radiation', 'Polar vortex', 'Lifted index', 'Arctic vegetation', 'Fundamental attribution error', 'Ice divide', 'Climatic Processes', 'Forest dieback', 'Global warming', 'Atmospheric refraction', 'Polar seas', 'Prediction and Research Moored Array in the Atlantic', 'Climate change', 'Carbon dioxide', 'Bolide', 'Yedoma', 'Marginal abatement cost', 'Climate classification', 'WEAP', 'Cryosphere', 'Ozone depletion potential', 'Climate security', 'Site manager', 'Radio occultation', 'Central Site', 'HadCM3', 'Climate risk', 'Tropical cyclone forecast model', 'Fish stock', 'Thaw depth', 'Introduced species', 'Carbon Pollution Reduction Scheme', 'Atmospheric wave', 'Aridification', 'Global dimming', 'Change management (ITSM)', 'Diffuse sky radiation', 'Tide gauge', 'Ice sheet', 'Cloud condensation nuclei', 'Emissions trading', 'Thermosphere', 'Cyclogenesis', 'Oceanic climate', 'Hydrothermal carbonization', 'Tornado intensity and damage', 'Centrostephanus rodgersii', 'Fish stocking', 'Dendroclimatology', 'Flood forecasting', 'Radiative forcing', 'Polar meteorology', 'Plankton', 'Carbon cycle re-balancing', 'Ocean general circulation model', 'Climate change adaptation', 'Cloud forcing', 'Dropsonde', 'Eco-innovation', 'Rainband', 'Climate engineering', 'Climate justice', 'Sponge reef', 'Secondary organic aerosols', 'Nitrogen', 'Arctic sea ice decline', 'Invasive species', 'Environmental impact of aviation', 'Greenhouse gas inventory', 'Typhon', 'Atmosphere of Titan', 'Green paradox', 'Low-carbon economy', 'Twomey effect', 'Airglow', 'Stratosphere', 'Fringing reef', 'Permafrost carbon cycle', 'Pacific Area', 'DICE model', 'Atmospheric thermodynamics', 'Precipitable water', 'Tree line', 'Climate change in China', 'Copenhagen Accord', 'Parametrization', 'Enhanced Fujita scale', 'Climate change denial', 'Greenhouse gas', 'Historical climatology', 'Coastal hazards', 'Downscaling', 'Adaptive capacity', 'Metres above sea level', 'Forest pathology', 'Shortwave radiation', 'Early Earth', 'General Circulation Model', 'Climate oscillation', 'Fugitive emissions', 'Longwave', 'Atmospheric optics', 'Urban resilience', 'Tholin', 'Soil management', 'Community Climate System Model', 'Cook island', 'Carbon tax', 'Effects of global warming', 'Enteric fermentation', 'Typhoon Tip', 'Microbarom', 'International Geosphere-Biosphere Programme', 'Carbon price', 'Aerosol', 'Ecological footprint', 'Arctic climate', 'Solvent', 'Aerosol mass spectrometry', 'Cottrell atmosphere', 'GCM transcription factors', 'Soil plant atmosphere continuum', 'Atmospheric electricity', 'Pollution', 'Tropospheric ozone', 'Risk-benefit analysis', 'Thematic Mapper', 'Atlantic hurricane', 'Hydrosphere']</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
         <v>377</v>
       </c>
       <c r="C15" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -856,12 +856,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['57615671', '21790881', '2778586117', '19829342', '14849681', '2776831678', '2780433915', '63398376', '2776139558', '2781193452', '2776265578', '2909868111', '2777803996', '2781206490', '2781094106', '192536144', '3641667', '119128265', '2776082207', '508466165', '107674354', '148809924', '20992447', '2776115401', '31954745', '2779987062', '2779290800', '2778391067', '199535368', '2779140988', '197248824', '2780860784', '190791664', '2778291008', '136571751', '159750122', '78091846', '14362708', '2778771466', '2779071118', '46576788', '2779298159', '82161046', '2780143158', '2909168288', '2780737616', '502230775', '23531484', '2776023875', '2778160301', '2779363728', '2777845105', '2778658382', '204676250', '68701300', '113513581', '2776445371', '2776364969', '2776093933', '2776660552', '2780401329', '2779950014', '173917561', '680168', '2777626579', '141896089', '201490090', '2778390475', '81662871', '2780466853', '2777605225', '2781288472', '34824556', '83419821', '132000320', '2780797831', '2779958227', '2779310246', '2910880568', '2910224097', '2779708862', '510239367', '2777704720', '186348155', '122120755', '105442212', '150320492', '2776711594', '111368507', '2780072470', '2778098436', '62329434', '101677414', '2777183552', '2780727990', '2777774347', '2775870103', '2780492012', '2779429622', '152382732', '2780041246', '2779215912', '2778316768', '2908904675', '2776856712', '2777981335', '130094819', '14080524', '2910167436', '149340888', '67467970', '149348798', '2911123808', '2776263494', '2908583363', '2909007308', '95803793', '97832226', '2777022838', '2780429984', '2779427263', '2911073633', '2779000468', '2778902744', '11864286', '153279818', '2777833858', '2775936106', '2780513199', '84766238', '2778484786', '2781352123', '2776840061', '553184892', '2777492549', '143020374', '22372391', '139369640', '2776841996', '2779926843', '2910276620', '76256466', '2780182046', '172269249', '2776665667', '88862950', '139679275', '5465852', '151152651', '129513315', '2780417240', '143517461', '2775897068', '2910628358', '197531578', '509746633', '2779735984', '544153396', '94386200', '514101110', '2780623117', '2779656528', '2776036478', '2779000830', '2779282177', '2780853707', '2777590139', '2777751868', '2776384079', '2776654248', '2778502483', '2780313869', '186699998', '2780277248', '115314567', '74501621', '2777677976', '135310875', '106978037', '77942228', '122629976', '2781102901', '2776236458', '145818215', '2910560996', '186632785', '2777138484', '172567333', '134097258', '164958353', '559758991', '2911128794', '152453397', '117773394', '113516966', '189047708', '72634772', '42088612', '2910011389', '95628711', '158836135', '153102810', '111874474', '2779991348', '14429324', '2780127386', '2776620890', '117480383', '65193109', '2780097091', '2776982523', '165082838', '2776824459', '2780111930', '2779267909', '2781257293', '2908713750', '2779409326', '2778662190', '2779909984', '2779623515', '134486438', '187457775', '2778753582', '68874143', '18918823', '2778945231', '74126248', '2781118390', '2780008901', '154098486', '173764188', '156380964', '2779325724', '24061886', '2777550468', '168857316', '113416529', '81077568', '52881836', '76177295', '2776675269', '2909786488', '2781279111', '2781348932', '165107724', '81855063', '207177822', '2779321494', '2779873548', '146864707', '62648534', '2777883778', '2910075364', '2779590308', '2776911068', '505870484', '2908811810', '2776362581', '2777768678', '110175623', '58479451', '202041845', '2778939721', '2776499504', '2779814588', '134037308', '14918906', '2779944326', '2780559241', '73849760', '72958200', '115961737', '2777187009', '2780384893', '2777267482', '2909931160', '98083399', '144492951', '2778896599', '108469399', '2909678590', '187599188', '2780498771', '2781032902', '33275205', '2779522410', '120221134', '83873828', '2909961269', '2778900803', '88160329', '2779164741', '162284963', '132543647', '2778867918', '85721925', '2777542811', '2780040469', '2776538778', '2908556935', '514928085', '2910221061', '77867282', '2910188331', '36516193', '2778851755', '22070199', '2777784394', '207769581', '2777246098', '2910001868', '68553557', '2909574991', '68800169', '2777526573', '49427245', '123281439', '2910958197', '2780756971', '140302290', '13474642', '116003164', '2779042980', '2780532849', '2777798493', '190157891', '2780982499', '130066347', '2910800256', '2777403171', '152613627', '2777631861', '82988372', '2909168245', '2776874447', '123750103', '2908979931', '2778018375', '2909885882', '2909580760', '39077098', '79367842', '120441037', '2776056526', '150418976', '2780002354', '2777587947', '2780351957', '2777306872', '2777676849', '2778478447', '2777406646', '2909377626', '2910466017', '2780446934', '2908969040', '63460653', '2776367567', '2778525234', '2779421218', '2776590149', '86839594', '145151356', '60500638', '129934472', '2779427562', '136894858', '2780495617', '16989226', '33613203', '2777110004', '2778327988', '2776415932', '135895429', '47161852', '154283680']</t>
+          <t>['113516966', '2777022838', '2776236458', '79367842', '2780143158', '190791664', '113416529', '2780727990', '2780492012', '502230775', '2777590139', '2776139558', '97832226', '22070199', '207177822', '2779298159', '197531578', '152613627', '134097258', '514101110', '2779267909', '14362708', '2780737616', '2777138484', '34824556', '2776364969', '2780351957', '49427245', '81077568', '2910560996', '152453397', '113513581', '129934472', '2778753582', '65193109', '2777631861', '2777704720', '2776538778', '2777784394', '145151356', '186699998', '152382732', '201490090', '2778018375', '2781193452', '2776665667', '2780498771', '63460653', '2780401329', '14429324', '2778391067', '72634772', '508466165', '2779282177', '2776874447', '130094819', '68800169', '154283680', '2776367567', '83873828', '153279818', '81855063', '2909961269', '199535368', '46576788', '2777587947', '62648534', '2775936106', '18918823', '680168', '2780559241', '20992447', '144492951', '2780513199', '2779735984', '88862950', '2779944326', '74126248', '2909868111', '132000320', '150418976', '2910001868', '2778160301', '2778502483', '2777492549', '117480383', '2777187009', '2778327988', '68553557', '42088612', '77942228', '81662871', '2908556935', '149340888', '2775897068', '2778484786', '150320492', '116003164', '2909580760', '2776911068', '162284963', '2780041246', '2776660552', '2777676849', '2776082207', '2780182046', '2910958197', '509746633', '2777751868', '2778478447', '186348155', '16989226', '136571751', '14080524', '2777774347', '86839594', '62329434', '85721925', '110175623', '168857316', '2776824459', '2910880568', '2780417240', '2778896599', '2779987062', '2779363728', '106978037', '67467970', '2908904675', '2910466017', '33275205', '2780756971', '63398376', '115314567', '2909885882', '141896089', '76177295', '187457775', '2779873548', '2776362581', '2778390475', '19829342', '120221134', '73849760', '111368507', '2779814588', '2779000468', '2779958227', '510239367', '189047708', '120441037', '2780466853', '192536144', '2776056526', '2909786488', '2780040469', '187599188', '2910224097', '2776415932', '2780853707', '2780111930', '2779950014', '107674354', '111874474', '2908811810', '2781288472', '2777403171', '165082838', '2779708862', '145818215', '2777833858', '2777406646', '31954745', '2777803996', '2779310246', '2779042980', '2779623515', '2781348932', '74501621', '2909678590', '2911128794', '24061886', '2777677976', '154098486', '197248824', '186632785', '2781094106', '57615671', '2779427263', '136894858', '2780127386', '2909007308', '2778939721', '2778291008', '2779656528', '2908583363', '2776265578', '2778662190', '2911073633', '2778867918', '172269249', '2909377626', '2779164741', '151152651', '2779140988', '82161046', '84766238', '2781352123', '2779421218', '2777550468', '2779429622', '172567333', '39077098', '2778658382', '2777981335', '2910221061', '36516193', '158836135', '2779215912', '2778851755', '2779522410', '553184892', '2909931160', '78091846', '2910628358', '140302290', '2779427562', '2778098436', '2780277248', '2779926843', '3641667', '82988372', '2780623117', '2777246098', '514928085', '2780429984', '148809924', '156380964', '2779909984', '2780982499', '76256466', '2778900803', '119128265', '47161852', '58479451', '2779290800', '2779991348', '2780532849', '123750103', '68874143', '130066347', '164958353', '5465852', '23531484', '2777542811', '11864286', '2776384079', '139679275', '95628711', '2779321494', '14849681', '2777798493', '544153396', '2779071118', '2780313869', '2780797831', '2780072470', '135310875', '98083399', '14918906', '165107724', '52881836', '2776711594', '149348798', '2781257293', '2776263494', '153102810', '2909168245', '108469399', '190157891', '2776620890', '2780008901', '2777267482', '129513315', '2910188331', '2777110004', '2781032902', '22372391', '505870484', '2777526573', '122120755', '2776499504', '2908969040', '2777768678', '2777845105', '2909574991', '2776445371', '2777605225', '2781279111', '134037308', '2778316768', '122629976', '132543647', '21790881', '146864707', '139369640', '2780446934', '2780433915', '2780002354', '159750122', '135895429', '2908713750', '77867282', '2778945231', '2776036478', '2910011389', '2779409326', '173764188', '95803793', '2780384893', '2778902744', '134486438', '2780860784', '2781118390', '2777883778', '94386200', '2778525234', '2776115401', '68701300', '2911123808', '13474642', '2910167436', '2777183552', '2779325724', '115961737', '2777306872', '33613203', '117773394', '143517461', '2780495617', '2776590149', '207769581', '559758991', '123281439', '101677414', '2776654248', '2775870103', '2779000830', '2776840061', '2776023875', '2909168288', '2776093933', '72958200', '88160329', '83419821', '173917561', '2776982523', '105442212', '2778586117', '2780097091', '2777626579', '2776841996', '202041845', '60500638', '2781102901', '2781206490', '2910800256', '204676250', '2910075364', '2779590308', '2776856712', '143020374', '2778771466', '2910276620', '2908979931', '2776675269', '2776831678']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Genetic monitoring', 'Deep sea', 'Fishing line', 'Ocean acidification', 'Shrimp farming', 'Orange roughy', 'Pocillopora', 'SWEAT', 'Shrimp fishery', 'Longline fishing', 'Clothing technology', 'Silky shark', 'Cetacea', 'Stakeholder management', 'Commercial fishing', 'Sexual maturity', 'Effective population size', 'Detection limit', 'Perciformes', 'Fishing industry', 'Estuarine water circulation', 'Wave setup', 'Atmospheric escape', 'Prawn', 'Skipjack', 'Mussel', 'Herring', 'Trawling', 'Coarse fishing', 'Oncorhynchus', 'Seawater', 'Tiger shark', 'Infragravity wave', 'Rate of exploitation', 'Morpholino', 'Soil water', 'Thermohaline circulation', 'Iterative deepening depth-first search', 'Fish as food', 'Ecosystem approach', 'Genetic structure', 'Sustainable fishery', 'Arboreal locomotion', 'Porites', 'Tissue calcification', 'Conservation status', 'Arsenic', 'Calibration curve', 'Debris', 'Penaeus monodon', 'Trout', 'Deep scattering layer', 'Oreochromis', 'Morphant', 'Polyculture', 'Exclusive economic zone', 'Dicentrarchus', 'Oyster', 'Sea cucumber', 'Smoked fish', 'Microplastics', 'Flatfish', 'Catch and release', 'Pharyngula', 'Anthozoa', 'Fish farming', 'Stock assessment', 'E-research', 'Hydrobiology', 'Porcupine Abyssal Plain', 'Dried fish', 'Coral Triangle', 'Underwater glider', 'Rainwater harvesting', 'Macrophyte', 'Fish stocking', 'Hatchery', 'Least Developed Countries', 'Dietary fish oil', 'Lunar Cycle', 'Robot fish', 'Fisheries law', 'Whale', 'Waves and shallow water', 'Mixed layer', 'Feed-in tariff', 'Ocean surface topography', 'Lamniformes', 'Oceanography', 'Cyprinodontiformes', 'Demersal fish', 'Marine debris', 'Surface pressure', 'Ocean acoustic tomography', 'Onchocerciasis', 'Sea level rise', 'Commoner', 'Marine pollution', 'Litter', 'Shore', 'Otolith', 'Sardine', 'Menhaden', 'Search - action', 'Shortfin mako shark', 'Seabird', 'Ecosystem management', 'Wave–current interaction', 'Gilthead Seabream', 'Bycatch', 'Underwater acoustics', 'Upwelling', 'Th1 immune response', 'Gillnetting', 'Human population genetics', 'Spiny dogfish', 'CITES', 'Spring bloom', 'Maximum sustainable yield', 'Fish reproduction', 'Fish marketing', 'Immune response gene', 'Sprat', 'Diatom', 'Paleoceanography', 'Stocking', 'Anchoa', 'Aphanizomenon', 'Electrofishing', 'Crustacean', 'Striped trumpeter', 'Bottom trawling', 'Bottlenose dolphin', 'Flow cytometry', 'Krill', 'Coral', 'Marine technology', 'Amperometry', 'Shrimp', 'Organic form', 'Anisakis simplex', 'Hydrography', 'Wave power', 'Marine invertebrates', 'Ocean fisheries', 'Irrigation', 'Oceanic climate', 'Red tide', 'Marine ecosystem', 'Salinity', 'Lamprey', 'Renewable resource', 'Milkfish', 'Increased body temperature', 'Cabled observatory', 'Climate change mitigation', 'Jellyfish', 'Metal', 'Fish mortality', 'Fishing', 'Destructive fishing practices', 'Yellowfin tuna', 'Anabaena circinalis', 'Anisakidae', 'Turbot', 'Deep-water coral', 'Live food', 'Carcharhinus', 'Marine mammal', 'Freshwater fish', 'Scallop', 'Sparidae', 'Eutrophication', 'Coastal Zone Management Act', 'European Union law', 'Sea level', 'Epizootic ulcerative syndrome', 'Fjord', 'Panmixia', 'Pelagic zone', 'Fringing reef', 'Hydroacoustics', 'Bioirrigation', 'Aphotic zone', 'Blood Screening', 'Littoral zone', 'Subirrigation', 'Game fish', 'Sea surface temperature', 'Fish measurement', 'Algae', 'Prepared fish', 'Drip irrigation', 'Fish migration', 'Fish hatchery', 'Limnology', 'Data integration', 'Lake ecosystem', 'Dietary Fish', 'Protolith', 'Zooplankton', 'Diel vertical migration', 'Impact assessment', 'Skipjack tuna', 'Mariculture', 'Swordfish', 'Macrobrachium', 'Atoll', 'Groundfish', 'Halimeda', 'Amberjack', 'Wind wave', 'Fishing net', 'Artisanal fishing', 'Marxan', 'Grass carp', 'PH decrease', 'King mackerel', 'Common sole', 'Mytilus', 'Coralline algae', 'Forward genetics', 'Bottom fishing', 'Aureococcus anophagefferens', 'Mangrove', 'Tourism', 'Smith–Magenis syndrome', 'Shoaling and schooling', 'Integrated coastal zone management', 'Sea bass', 'Big-game fishing', 'Bioreporter', 'Bioenergy', 'Anguillidae', 'Overfishing', 'Antarctic toothfish', 'Commercial fish feed', 'Marine conservation', 'Escape response', 'Marine energy', 'Groundwater', 'Serranidae', 'Sea herring', 'Dredging', 'Anatidae', 'International waters', 'Large marine ecosystem', 'Genetic screen', 'Whiteleg shrimp', 'Crab fisheries', 'Internal wave', 'Species diversity', 'Gadus', 'Solea senegalensis', 'Acropora', 'Sea louse', 'Fishery', 'Papua New Guinean', 'Essential fish habitat', 'Fish trap', 'Broodstock', 'Fish stock', 'Fisheries management', 'Oyster farming', 'Artificial reef', 'Cyprinidae', 'Marine habitats', 'Virtual population analysis', 'Bigeye tuna', 'Seine fishing', 'Coral reef protection', 'Trophic level', 'Juvenile', 'Intermagnet', 'Danio', 'Fish aggregating device', 'Literature reviewing', 'Underwater', 'Coral reef fish', 'Fish products', 'Plankton', 'Sprattus sprattus', 'Ocean current', 'Pocillopora damicornis', 'Fisheries Research', 'Mesopelagic zone', 'Scratchpad memory', 'Gulf Stream', 'Coarse woody debris', 'Anisakis sp.', 'Coastal management', 'Estuary', 'Bycatch reduction device', 'Submarine pipeline', 'Electrochemical cell', 'Incidental catch', 'Population genetics', 'Sailfish', 'Catch per unit effort', 'SensorML', 'Stock Recovery', 'Capitalism', 'Blue marlin', 'Great Pacific garbage patch', 'American shad', 'Cod fisheries', 'Fisheries Act', 'Vaccination', 'Sturgeon', 'Marine reserve', 'Condition index', 'European union', 'Demersal zone', 'New Guinean', 'Marine protected area', 'Freshwater inflow', 'Commons', 'Fishing down the food web', 'Argyrosomus regius', 'Management fad', 'Water mass', 'Invertebrate', 'Fish physiology', 'Ecosystem-based management', 'Tuna', 'Perch', 'Hermatypic coral', 'Abalone', 'Spectroradiometer', 'Bottlenosed dolphin', 'Splitter', 'Overexploitation', 'Poeciliidae', 'H5N1 genetic structure', 'Autoimmune responses', 'Anglerfish', 'Ice sheet', 'Simple sample', 'Fisheries co-management', 'External parasites', 'Prionace glauca', 'Biosurvey', 'Coral reef', 'Primary energy', 'Limacina helicina', 'Stock management', 'Fish preservation', 'Ocean Observatories Initiative', 'Teleostei', 'Shorea', 'Glitter', 'Mercury in fish', 'Mackerel', 'Artificial feeds', 'Hippoglossus hippoglossus', 'Wild fisheries', 'Reference Document', 'Fish locomotion', 'Flounder', 'Anchovy', 'Bonefish', 'Hydrodynamic escape', 'Photic zone', 'Rossby wave', 'Physical oceanography', 'River ecosystem', 'Chondrichthyes', 'Sea ice', 'Marine life', 'Environmental change', 'Seabed', 'Vessel monitoring system', 'Albacore', 'Western blot', 'Fisheries science', 'Forage fish', 'Organic base']</t>
+          <t>['Fish hatchery', 'Maximum sustainable yield', 'Bioirrigation', 'Coral reef', 'Porites', 'Infragravity wave', 'Marine conservation', 'Onchocerciasis', 'Marine pollution', 'Arsenic', 'Live food', 'Shrimp fishery', 'Spring bloom', 'Vaccination', 'Genetic screen', 'Sustainable fishery', 'Cabled observatory', 'Overexploitation', 'Sea surface temperature', 'Fishing', 'Marxan', 'Iterative deepening depth-first search', 'Conservation status', 'Subirrigation', 'Underwater glider', 'Oyster', 'Teleostei', 'Commons', 'Escape response', 'Blood Screening', 'Drip irrigation', 'Exclusive economic zone', 'River ecosystem', 'Aureococcus anophagefferens', 'Groundfish', 'Poeciliidae', 'Whale', 'SensorML', 'Sturgeon', 'Rossby wave', 'Eutrophication', 'Shore', 'Stock assessment', 'Fisheries co-management', 'Longline fishing', 'Ocean fisheries', 'Pocillopora damicornis', 'Fish locomotion', 'Microplastics', 'Mariculture', 'Trawling', 'Data integration', 'Fishing industry', 'Turbot', 'Anglerfish', 'Ecosystem management', 'Marine protected area', 'Organic base', 'Flounder', 'Coarse woody debris', 'Stocking', 'Large marine ecosystem', 'Anisakis sp.', 'Coarse fishing', 'Genetic structure', 'Ocean Observatories Initiative', 'Species diversity', 'Aphanizomenon', 'Tourism', 'Pharyngula', 'Seine fishing', 'Atmospheric escape', 'Coral reef fish', 'Electrofishing', 'Jellyfish', 'Irrigation', 'Bigeye tuna', 'Shoaling and schooling', 'Silky shark', 'Macrophyte', 'Stock management', 'European union', 'Penaeus monodon', 'Scallop', 'Krill', 'Atoll', 'Intermagnet', 'Albacore', 'Demersal zone', 'Lake ecosystem', 'Pelagic zone', 'Hydrobiology', 'Stock Recovery', 'Bycatch', 'Milkfish', 'Striped trumpeter', 'Ocean surface topography', 'Fish physiology', 'Prionace glauca', 'Sea louse', 'Submarine pipeline', 'Otolith', 'Smoked fish', 'Glitter', 'Perciformes', 'Wave power', 'Argyrosomus regius', 'Climate change mitigation', 'Carcharhinus', 'Mercury in fish', 'Waves and shallow water', 'Environmental change', 'Morpholino', 'Wave–current interaction', 'Sea level rise', 'Photic zone', 'Marine debris', 'Population genetics', 'Broodstock', 'Commercial fish feed', 'Fishing net', 'Dietary fish oil', 'Lamprey', 'Fish products', 'Mussel', 'Trout', 'Panmixia', 'Underwater acoustics', 'Search - action', 'Hippoglossus hippoglossus', 'Mesopelagic zone', 'Management fad', 'SWEAT', 'European Union law', 'External parasites', 'Fish farming', 'Groundwater', 'Bottom fishing', 'Crab fisheries', 'Essential fish habitat', 'E-research', 'Ocean acidification', 'Gulf Stream', 'Coral reef protection', 'Oceanography', 'Cyprinidae', 'Sprat', 'Hatchery', 'Fisheries law', 'Limnology', 'Primary energy', 'Porcupine Abyssal Plain', 'Sexual maturity', 'Limacina helicina', 'Sea herring', 'Catch per unit effort', 'Ocean current', 'Lunar Cycle', 'Western blot', 'Deep-water coral', 'Artisanal fishing', 'Flatfish', 'Estuarine water circulation', 'Impact assessment', 'Papua New Guinean', 'Coral Triangle', 'Splitter', 'Wind wave', 'Robot fish', 'Aphotic zone', 'Anchoa', 'Mackerel', 'Skipjack', 'Cetacea', 'Least Developed Countries', 'Ecosystem-based management', 'Coralline algae', 'Anatidae', 'Sea level', 'Sprattus sprattus', 'Prepared fish', 'Overfishing', 'Epizootic ulcerative syndrome', 'Big-game fishing', 'Seawater', 'Littoral zone', 'Commercial fishing', 'Genetic monitoring', 'Fish marketing', 'Sea ice', 'Swordfish', 'Spiny dogfish', 'Oyster farming', 'Rate of exploitation', 'Yellowfin tuna', 'Human population genetics', 'Clothing technology', 'Common sole', 'Immune response gene', 'Incidental catch', 'Marine invertebrates', 'Artificial feeds', 'Bycatch reduction device', 'Marine ecosystem', 'Oncorhynchus', 'Arboreal locomotion', 'Crustacean', 'Bottom trawling', 'Bonefish', 'Antarctic toothfish', 'Litter', 'Game fish', 'Biosurvey', 'Oreochromis', 'Seabird', 'Blue marlin', 'Cod fisheries', 'Zooplankton', 'Sardine', 'Fisheries Act', 'Scratchpad memory', 'Flow cytometry', 'Literature reviewing', 'Thermohaline circulation', 'Increased body temperature', 'Water mass', 'Chondrichthyes', 'Demersal fish', 'Coastal Zone Management Act', 'Organic form', 'Effective population size', 'H5N1 genetic structure', 'Destructive fishing practices', 'Condition index', 'Capitalism', 'Fish reproduction', 'Wave setup', 'Bioenergy', 'Mytilus', 'Abalone', 'Hydrography', 'Coastal management', 'Detection limit', 'Forage fish', 'Fish stock', 'Herring', 'Skipjack tuna', 'Tuna', 'Ice sheet', 'Mangrove', 'Spectroradiometer', 'Fish measurement', 'Red tide', 'Calibration curve', 'Sailfish', 'Paleoceanography', 'Marine mammal', 'Oceanic climate', 'Protolith', 'Whiteleg shrimp', 'Shrimp farming', 'Perch', 'Metal', 'Ecosystem approach', 'Sparidae', 'Fish stocking', 'Cyprinodontiformes', 'Fjord', 'Underwater', 'Virtual population analysis', 'International waters', 'Marine energy', 'Lamniformes', 'Upwelling', 'Grass carp', 'Gillnetting', 'Diel vertical migration', 'Autoimmune responses', 'Plankton', 'Hermatypic coral', 'Macrobrachium', 'Sea bass', 'Fish aggregating device', 'Salinity', 'American shad', 'Vessel monitoring system', 'Fisheries Research', 'Marine technology', 'Fishery', 'Freshwater inflow', 'Mixed layer', 'Artificial reef', 'Reference Document', 'Fish trap', 'Deep scattering layer', 'New Guinean', 'Dicentrarchus', 'Dried fish', 'Dredging', 'Marine habitats', 'Menhaden', 'Fringing reef', 'Electrochemical cell', 'Deep sea', 'Internal wave', 'Amperometry', 'Wild fisheries', 'Pocillopora', 'Fish preservation', 'Soil water', 'Fisheries science', 'PH decrease', 'Great Pacific garbage patch', 'Smith–Magenis syndrome', 'Anabaena circinalis', 'Dietary Fish', 'King mackerel', 'Bioreporter', 'CITES', 'Danio', 'Diatom', 'Forward genetics', 'Tiger shark', 'Integrated coastal zone management', 'Gadus', 'Fish mortality', 'Anchovy', 'Prawn', 'Polyculture', 'Th1 immune response', 'Invertebrate', 'Gilthead Seabream', 'Ocean acoustic tomography', 'Anguillidae', 'Juvenile', 'Shorea', 'Seabed', 'Fish migration', 'Renewable resource', 'Marine life', 'Hydrodynamic escape', 'Marine reserve', 'Algae', 'Fishing down the food web', 'Surface pressure', 'Freshwater fish', 'Commoner', 'Anisakidae', 'Bottlenose dolphin', 'Debris', 'Tissue calcification', 'Sea cucumber', 'Trophic level', 'Estuary', 'Rainwater harvesting', 'Catch and release', 'Amberjack', 'Feed-in tariff', 'Fishing line', 'Halimeda', 'Anthozoa', 'Shrimp', 'Fisheries management', 'Physical oceanography', 'Hydroacoustics', 'Stakeholder management', 'Bottlenosed dolphin', 'Morphant', 'Solea senegalensis', 'Acropora', 'Shortfin mako shark', 'Coral', 'Fish as food', 'Anisakis simplex', 'Simple sample', 'Serranidae', 'Orange roughy']</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['173795300', '192241223', '112077630', '2776285232', '2780505049', '2778673487', '2779146456', '2778091200', '189569837', '2780998164', '202216756', '2780606388', '20450499', '78458016', '2910587469', '59898753', '2779860289', '2776042228', '2778425908', '40667233', '156086215', '82447923', '2780775713', '2776278397', '2777480484', '2778399496', '2908641340', '6330744', '22344907', '2780086105', '81860439', '173979980', '112058002', '97854310', '2776978901', '2776335591', '2778157034', '2776054349', '66782513', '2776687813', '186493943', '2776500793', '2778788904', '2909351924', '2777707638', '119249163', '2780066083', '62569174', '45152089', '502990516', '203174812', '32120771', '28631016', '2780235837', '20664614', '2780671300', '172427765', '63651461', '84927040', '48743137', '2776857380', '2781353100', '196313609', '130094819', '154440439', '2777534865', '51244244', '2781198671', '194691359', '141185391', '91354502', '85675897', '172817999', '203731517', '23119410', '181060458', '153823671', '2775929138', '2016182', '2775832765', '144027150', '2780540120', '89920630', '2777472530', '122748992', '2778617593', '147103442', '2776248522', '2777658277', '2778148510', '2779223538', '2779848557', '121412344', '2777380357', '2779004245', '2778830712', '2778364563', '31262351', '2781181605', '2910297771', '73593433', '126343540', '2781168613', '2779081038', '205400985', '186632785', '2779179000', '139496715', '2779867007', '25598563', '2777575642', '62158283', '120806208', '2779350201', '179345059', '2779732188', '2777952078', '2780871101', '2778358892', '67268981', '2777253967', '126408429', '2779128174', '2908870468', '2777549804', '197011783', '189307558', '2779779727', '136020623', '173651095', '147366489', '2781172998', '2776159474', '105234605', '2776325102', '40141808', '2781131740', '2910062542', '74250896', '116607704', '2778728749', '2778205388', '2779442720', '93944068', '180395843', '2779381216', '2778017510', '2776150259', '2775966360', '2910069184', '2776121688', '2779796875', '2781275782', '118694661', '2781166178', '187651312', '97094461', '181634566', '49461877', '2779249804', '191440113', '2776421481', '38838508', '2778361644', '2779562855', '188117511', '2910374867', '2779179816', '125069764', '4590074', '535291247', '56095865', '121850381', '2781208722', '71482194', '2777890039', '145097563', '169684477', '14624660', '195330766', '108216600', '2776834102', '91770344', '514011633', '2780189059', '2777084958', '2778580364', '118592710', '188442384', '63797996', '2779204379', '29760336', '68775195', '2776824989', '2778718584', '2777758229', '38774213', '116370137', '155987862', '2780900284', '78991832', '2777132354', '51832835', '15147509', '2778625682', '125620115', '2777796192', '151788092', '2909659530', '162980758', '99743013', '161189057', '176585087', '132124917', '2779679852', '13558536', '139669111', '162501224', '2776678335', '150381032', '16884802', '88776829', '2776217272', '70666977', '31568149', '149207113', '2776654049', '141005173', '64015301', '2780816530', '123917164', '2780339060', '16397148', '25382069', '143389717', '2776426263', '2780993040', '176943803', '43003075', '120217122', '33411773', '17206440', '2777106113', '111643386', '167296696', '192392207', '155015343', '64551749', '42731165', '2908538994', '89862778', '2775874878', '30968088', '94598645', '114260506', '154575652', '73872442', '102720910', '2778899818', '2780948830', '74948603', '157021035', '487182', '182124840', '2775999090', '2780713402', '65857100', '73580989', '26785111', '2780167305', '2777256092', '25147867', '103215972', '2781436638', '2780397596', '130217890', '2777380792', '2776388979', '199877563', '2780648208', '2777299372', '2776316369', '157460569', '204513146', '2779485152', '2779369318', '2780267512', '2780876601', '2780394310', '2775838554', '2777642157', '127937792', '2776892409', '2777944067', '2776565828', '158215666', '198979508', '2777350553', '198150046', '65680412', '2776070465', '126914827', '2777701676', '92494378', '2777341207', '2909743892', '2779007161', '2909898454', '2776026763', '22215628', '2776562576', '60989497', '202552767', '196687554', '2777051234', '2779455803', '156858999', '2781231445', '2776492830', '4792198', '2776142123', '28665490', '184603391', '2777635537', '39571515', '2910586351', '141151480', '2780185008', '2776554196', '20535997', '2778568511', '2777007095', '532801124', '2778208748', '2780748813', '2778376790', '2780051358', '2780074531', '2777061799', '2780105985', '173727605', '89295123', '194187813', '68189081', '2777802595', '6514731', '2778152828', '2779691961', '133382796', '64229544', '2776623689', '2778049214', '53208351', '521815418', '113052830', '2909358641', '2776958554', '167393769', '2780001261', '2909590276', '194229684', '13112181', '89236255', '52896960', '2777253841', '2777294933', '2777893444', '127634017', '2777904157', '2777434770', '2777189468', '152491559', '109717640', '47936110', '28362043', '24717449', '2910552428', '2780815956', '96313414', '2776321234', '8328733', '128058477', '2776724825', '112149622', '2780590845', '2775841215', '2776402519', '57664001', '2779142801', '2777111047', '53565203', '18832751', '2776259809', '2777042369', '2776331030', '2779152076', '97137747', '187604713', '93707483', '2777154535', '93765907', '153427425', '56685638', '112939947', '35306142', '2778055474', '168368505', '2778885274', '2778433175', '2775938548', '185933670', '2776853598', '2781206450', '175760724', '34070608', '2781303777', '2780179066', '2778551664', '79339454', '2619416', '198815454', '559400886', '1549246', '2778951896', '69514717', '2780946806', '87621631', '33283694', '189797535', '2779658209', '41478065', '2777988102', '71762439', '72286879', '179768671', '2779562289', '2779043415', '2780638564', '2777498119', '2776385305', '139019045', '73952413', '2781061397', '2779329624', '109902934', '67715294', '71827079', '2780110543', '95869378', '64966480', '135935922', '108738950', '112276597', '33559203', '2781168966', '2778898053', '169282265', '154702282', '43827410', '201920390', '36727532', '2909575586', '2779720641', '2911181876', '2779287364', '2778506879', '62648534', '513535597', '137607661', '202682190', '2780977904', '176933379', '2776191655', '2778870400', '61703769', '2776057494', '2776107028', '20529654', '53002841', '2777707811', '31377225', '2778170267', '2779869275', '2775835988', '2780328347', '2776682078', '23519681', '123336316', '201401522', '124886560', '2776596991', '2779979769', '162012527', '171205284', '151107107', '180440007', '2910945474', '2780004239', '2777387638', '2779294082', '197320908', '2775891814', '166548495', '183889291', '91067096', '2780354846', '2777399377', '53571324', '2909135477', '7435765', '2780696901', '2777589951', '2781397391', '2776096895', '46685645', '555313981', '2778203884', '2780528068', '189518720', '24518262', '2781182717', '129225989', '155461473', '513806601', '98940541', '2780500427', '60359462', '150436541', '2908658503', '2776709785', '2779042980', '139518226', '2781003712', '25989453', '12429862', '2778348119', '55347375', '2777989319', '2776801807', '58941895', '2777938942', '161272170', '2777249847', '42435023', '2779895041', '12064787', '146188434', '2780297341', '2780848231', '54625482', '54286561', '2777692458', '92274894', '86409407', '2778483809', '126589399', '2780057273', '59804570', '2910086784', '147273371', '24037442', '67961754', '105462344', '2778226232', '45920995', '2780473643']</t>
+          <t>['25598563', '2776682078', '2909659530', '28665490', '2776824989', '2776853598', '2778551664', '112058002', '153427425', '67961754', '2776325102', '78458016', '14624660', '2778568511', '2777890039', '2781168966', '33411773', '189518720', '2776042228', '1549246', '2778205388', '127634017', '121412344', '2778017510', '150381032', '521815418', '2778580364', '2778483809', '55347375', '156858999', '120217122', '2778376790', '130094819', '198979508', '128058477', '152491559', '62648534', '176943803', '2780339060', '2779691961', '2777707811', '180395843', '2781206450', '184603391', '31568149', '13112181', '2910069184', '487182', '2780066083', '53002841', '559400886', '49461877', '2775841215', '162012527', '2910552428', '2777692458', '2777635537', '2909575586', '2779287364', '181634566', '2781182717', '2779869275', '2778433175', '31377225', '2779381216', '2777294933', '2775891814', '2910586351', '2776892409', '68775195', '15147509', '141185391', '65857100', '33559203', '2780086105', '176585087', '72286879', '196313609', '2780354846', '2776278397', '2781198671', '199877563', '111643386', '156086215', '2776402519', '2777893444', '2780590845', '2778673487', '36727532', '63651461', '24717449', '71827079', '2775874878', '99743013', '16884802', '2776687813', '73593433', '112077630', '2910374867', '71482194', '153823671', '112276597', '2776150259', '23119410', '155015343', '205400985', '2779081038', '2778348119', '130217890', '82447923', '2780638564', '2777106113', '24037442', '2909358641', '2779152076', '2779485152', '204513146', '79339454', '2776107028', '2777253967', '2910062542', '2777952078', '53571324', '2777642157', '43003075', '2779042980', '2781436638', '2776492830', '139019045', '2780900284', '2778091200', '22215628', '65680412', '155987862', '188117511', '186632785', '125620115', '2778788904', '2776554196', '105462344', '73580989', '2780946806', '2776191655', '60989497', '2780871101', '2908641340', '2780397596', '20664614', '514011633', '173795300', '2776285232', '532801124', '2781166178', '2908870468', '154702282', '6514731', '123917164', '103215972', '78991832', '191440113', '13558536', '118694661', '2780297341', '187651312', '192392207', '38774213', '127937792', '535291247', '2781397391', '502990516', '198150046', '2781181605', '2781303777', '91354502', '2910587469', '2776958554', '2781231445', '146188434', '2781172998', '64229544', '42731165', '155461473', '2780876601', '28631016', '2779179000', '20535997', '2777480484', '52896960', '172817999', '141005173', '2778364563', '2780696901', '194691359', '2779679852', '2779796875', '2780998164', '59804570', '2776335591', '173651095', '2776248522', '2780671300', '181060458', '56095865', '2776562576', '157021035', '62158283', '147273371', '53565203', '17206440', '116370137', '2777549804', '2777249847', '2779848557', '54286561', '202552767', '2780648208', '126914827', '201920390', '2777989319', '2780815956', '182124840', '2776565828', '2776596991', '2775832765', '39571515', '149207113', '151788092', '20529654', '2778898053', '203731517', '179345059', '2778870400', '172427765', '108216600', '2777944067', '2776834102', '2777802595', '2776057494', '91067096', '67268981', '102720910', '198815454', '188442384', '119249163', '2775929138', '2779562289', '133382796', '2778885274', '69514717', '2780074531', '2779867007', '89236255', '2776709785', '98940541', '137607661', '2777701676', '2775966360', '169684477', '22344907', '2910086784', '139496715', '2779249804', '2779294082', '2779562855', '70666977', '2777938942', '40141808', '85675897', '2619416', '2780110543', '67715294', '2779179816', '2777658277', '23519681', '195330766', '31262351', '123336316', '2776678335', '2779779727', '126343540', '2775838554', '2776217272', '2777434770', '2780528068', '2776121688', '2777084958', '2778506879', '2779979769', '151107107', '51244244', '197320908', '29760336', '94598645', '173979980', '26785111', '2777256092', '48743137', '2780713402', '129225989', '105234605', '154440439', '2776096895', '2780977904', '43827410', '2908658503', '64015301', '30968088', '2911181876', '2776857380', '45920995', '93765907', '2778152828', '2780948830', '109717640', '189569837', '202682190', '6330744', '118592710', '180440007', '2779043415', '87621631', '62569174', '40667233', '2778203884', '2780189059', '2780816530', '2778049214', '2910945474', '189797535', '2776801807', '2909898454', '92494378', '132124917', '38838508', '25382069', '144027150', '113052830', '196687554', '194187813', '2780179066', '2908538994', '2016182', '2780505049', '167296696', '2780051358', '2777796192', '73872442', '202216756', '96313414', '112939947', '187604713', '2778157034', '2779004245', '158215666', '2776388979', '4792198', '2776159474', '147103442', '2780167305', '97854310', '89862778', '89920630', '74250896', '2780748813', '12429862', '145097563', '2776623689', '2778728749', '139669111', '116607704', '2777399377', '63797996', '194229684', '91770344', '66782513', '54625482', '2909743892', '2775835988', '126408429', '197011783', '2777589951', '93707483', '47936110', '51832835', '2779223538', '120806208', '95869378', '53208351', '555313981', '2777350553', '150436541', '88776829', '2777380357', '68189081', '2779658209', '2909135477', '183889291', '157460569', '35306142', '57664001', '2776026763', '2777387638', '2780267512', '2780105985', '121850381', '2777498119', '58941895', '2909590276', '2776142123', '2780473643', '2779204379', '2777007095', '24518262', '2778208748', '2778055474', '2779350201', '2776316369', '2779369318', '2778951896', '2779442720', '2778425908', '173727605', '2777253841', '2777758229', '64966480', '108738950', '2779329624', '16397148', '2776259809', '2779455803', '8328733', '2778625682', '169282265', '2779732188', '2776978901', '2780235837', '2779007161', '143389717', '33283694', '109902934', '2780775713', '2778899818', '2777341207', '2781003712', '125069764', '2777988102', '175760724', '2778226232', '59898753', '189307558', '97137747', '186493943', '64551749', '2780328347', '2781275782', '2779720641', '28362043', '2779860289', '97094461', '201401522', '167393769', '61703769', '2777042369', '2781061397', '2776426263', '2776321234', '192241223', '25989453', '2777154535', '41478065', '2779142801', '2776654049', '2780394310', '185933670', '2776421481', '124886560', '2777132354', '161189057', '168368505', '2777061799', '2778358892', '2781168613', '162501224', '203174812', '2776385305', '139518226', '2910297771', '45152089', '2778718584', '2778361644', '42435023', '2778617593', '114260506', '135935922', '84927040', '162980758', '2778170267', '2779128174', '176933379', '2777051234', '2777472530', '141151480', '32120771', '2781131740', '46685645', '2777904157', '60359462', '2776724825', '2780057273', '2777707638', '7435765', '56685638', '161272170', '20450499', '2780848231', '2776500793', '112149622', '126589399', '2777575642', '2778830712', '136020623', '2776054349', '25147867', '513535597', '2779895041', '2777299372', '81860439', '513806601', '2776070465', '2780004239', '179768671', '12064787', '2909351924', '171205284', '2779146456', '89295123', '2777380792', '2776331030', '2780606388', '4590074', '166548495', '71762439', '73952413', '2777111047', '2777189468', '2781208722', '34070608', '93944068', '122748992', '2780993040', '2780185008', '2775999090', '74948603', '86409407', '2777534865', '2780500427', '92274894', '147366489', '2781353100', '2780001261', '2780540120', '18832751', '2778399496', '2778148510', '154575652', '2775938548']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Salvage logging', 'Volcanic rock', 'Irrigation management', 'Tropical forest', 'Tamarix', 'Moisture stress', 'Sustained yield', 'Shrub', 'Metapopulation', 'Safe Drinking Water Act', 'Ethnobotany', 'Protection forest', 'Detrended correspondence analysis', 'Evolutionary biology', 'Panicum miliaceum', 'Shrubland', 'Population decline', 'Asthma', 'Forest genetic resources', 'Agroecological restoration', 'Soil ecology', 'Sagebrush Rebellion', 'Iliana', 'Revegetation', 'Advanced very-high-resolution radiometer', 'Transit-oriented development', 'Induced malaria', 'Habitat conservation', 'Agricultural diversification', 'Forest product', 'Internet of Things', 'Metasearch engine', 'Hardwood timber production', 'Search engine', 'Tree breeding', 'Forest Vegetation Simulator', 'Sorghum', 'Vegetation classification', 'Biomedicine', 'Brachypodium pinnatum', 'Conservation grazing', 'Beech', 'Bactris', 'Annual Weeds', 'Vascular plant', 'Felling', 'Repartition', 'Tropical and subtropical grasslands, savannas, and shrublands', 'Floristics', 'Agricultural land', 'Woodland', 'Ecosystem engineer', 'Forest management', 'Nothofagus', 'Urban ecosystem', 'Mixed grass prairie', 'Vegetation', 'Tropical agriculture', 'Interval tree', 'Organic matter', 'Xylophilus', 'Thinning', 'Land improvement', 'Ecosystem management', 'Indigenous and community conserved area', 'Land consolidation', 'Planet', 'Aphelenchoididae', 'Liana', 'Soil retrogression and degradation', 'Basal area', 'Soil management', 'Soil functions', 'n-vector', 'Six Sigma', 'Aridification', 'Water resources', 'Coffea', 'Animal breeding', 'Striga', 'Horticulture', 'Wetland conservation', 'Biome', 'Catch crop', 'Gradient analysis', 'Biocultural diversity', 'Forest inventory', 'Conservation Plan', 'Urban growth boundary', 'Bioeconomics', 'Protected area', 'Copayment', 'Pulpwood', 'Rainfed agriculture', 'Tilth', 'Nematode', 'Luxembourgish', 'Foundation species', 'Soil solarization', 'Bioindicator Species', 'Denitrification', 'Crop yield', 'Conservation development', 'Grazing pressure', 'DMAIC', 'Littoral zone', 'Grassland degradation', 'Deforestation', 'Ex situ conservation', 'Plant life-form', 'Sesbania', 'Species translocation', 'Volcano', 'Rhabditidae', 'Endangered species', 'Tax exemption', 'Nature Conservation', 'Paper recycling', 'Ruminantia', 'Marsh', 'Sphagnum', 'Soil health', 'Scots pine', 'Fire forest', 'Ratooning', 'Denitrifying bacteria', 'Great Green Wall', 'Agrostis capillaris', 'Invasive species', 'Introduced species', 'Wildlife conservation', 'Attalea', 'Wetland methane emissions', 'Keystone species', 'Water-use efficiency', 'Niche segregation', 'Pinus pinaster', 'Monochamus alternatus', 'Planet V', 'Population viability analysis', 'Molinia caerulea', 'Extinction probability', 'Bursaphelenchus xylophilus', 'Phytogeography', 'Rare species', 'Stipa tenacissima', 'Land grabbing', 'Automobile dependency', 'Silviculture', 'Right palm', 'Virtual water', 'Lupinus angustifolius', 'Biodiversity offsetting', 'Climax community', 'Stump harvesting', 'Kenya', 'Forest farming', 'Realized niche width', 'Mixed farming', 'Staple food', 'DNS root zone', 'Monodominance', 'Local extinction', 'Yield gap', 'Insect biodiversity', 'Biological integrity', 'Heterorhabditis megidis', 'pH indicator', 'Tundra', 'Community', 'Amazon rainforest', 'Afforestation', 'Certified wood', 'Intercropping', 'Dryland salinity', 'Weed science', 'Payment', 'Minimum tillage', 'Pilotage', 'Fire ecology', 'Tropical and subtropical dry broadleaf forests', 'Land consumption', 'Overgrazing', 'Traditional knowledge', 'Soil stabilization', 'POWER8', 'SIPOC', 'OLE for Process Control', 'Temperate forest', 'Phytoremediation', 'Farmland protection', 'Site plan', 'Range tree', 'Metavolcanic rock', 'Environment Protection and Biodiversity Conservation Act 1999', 'Coryphoideae', 'Soil fertility', 'No-till farming', 'Selection cutting', 'Nardus stricta', 'Niche differentiation', 'Shelterwood cutting', 'Environmental management system', 'Conservation reliant species', 'High forest', 'Logging', 'Exclosure', 'Moorland', 'Motorized vehicle', 'Ignition SCADA', 'Kyoto Protocol', 'Coulee', 'Bioindicator', 'Species distribution', 'Land titling', 'Cropping', 'Understory', 'Palynology', 'Wilt disease', 'Special Area of Conservation', 'Secondary succession', 'Tussock', 'Poaching', 'Line of greatest slope', 'Near-threatened species', 'Water use', 'Conservation finance', 'Shifting cultivation', 'Genome Biology', 'Forest protection', 'Bumper crop', 'Subsoiler', 'Tillage', 'Seral community', 'Prime farmland', 'Urban forest', 'National park', 'Vulcanian eruption', 'Socialist economics', 'Precision agriculture', 'Bulk soil', 'Land development', 'Crop simulation model', 'UV degradation', 'Fertigation', 'Clearcutting', 'Plant breeding', 'Volcanic ash', 'Environmental soil science', 'Vascular implant', 'Air rights', 'Marginal land', 'Diversity index', 'Palm', 'Hyperaccumulator', 'Reforestation', 'Land restoration', 'Canonical correspondence analysis', 'Metacommunity', 'Stubble-mulching', 'Calcareous grassland', 'Biodegradation', 'Urban sprawl', 'Soil organic matter', 'Joint Forest Management', 'Acacia', 'Conservation psychology', 'Biodiversity action plan', 'Soybean management practices', 'Agrometeorology', "People's Republic", 'Beta diversity', 'Environmental niche modelling', 'Whitefly', 'Distinct population segment', 'Biodiversity', 'Exclusionary zoning', 'Red edge', 'Ecotone', 'Land cover', 'Glucuronoxylan', 'United Nations Convention to Combat Desertification', 'Synergy', 'Indicator plant', 'Convention on Biological Diversity', 'UrbanSim', 'Nestedness', 'Rhabditida', 'Bouteloua gracilis', 'Consumptive water use', 'Phoenix canariensis', 'Species evenness', 'Brassica carinata', 'Crop weed', 'Tree inventory', 'Formant', 'Forest fragmentation', 'Product marketing', 'Biogeomorphology', 'Terrestrial ecosystem', 'Heterorhabditis', 'Flagship species', 'Bursaphelenchus', 'Temperate rainforest', 'Sustainable land management', 'Brazil nut', 'Forest degradation', 'Plant Weeds', 'Sanjiang Plain', 'Indicator species', 'Plant strategies', 'Red List Index', 'Market value', 'De-extinction', 'POWER5', 'Local community', 'Gallery forest', 'Asynergy', 'Dipterocarpaceae', 'Land use', 'Species at Risk Act', 'Lowland semi-natural grassland', 'Land-use planning', 'Landscape-scale conservation', 'Undergrowth', 'Orange Tree', 'Agricultural biodiversity', 'Land-use conflict', 'Evergreen forest', 'Tree rotation', 'Monogastric', 'Moderate-resolution imaging spectroradiometer', 'Crop protection', 'Ungulate', 'Sustainable management', 'Habitat Conservation Plan', 'Astrocaryum', 'Public land', 'Crop wild relative', 'Built-up area', 'Ruderal species', 'Forest pathology', 'Genetic erosion', 'Fossil fuel', 'Crop insurance', 'National Hydrography Dataset', 'Clogging', 'Artemisia annua', 'Secondary forest', 'Habitat destruction', 'Yield mapping', 'Sigma', 'Tree rearrangement', 'Web search engine', 'Land degradation', 'Cherimoyas', 'Plant nursery', 'Adaptive strategies', 'Amazonian', 'UV resistance', 'Values', 'Ecological release', 'Traditional knowledge GIS', 'Biodiesel', 'Evidence-based conservation', 'Mixed-use development', 'Land administration', 'h-vector', 'Grazing', 'Water pricing', 'Anthracology', 'Macroecology', 'Biological pollution', 'Natural farming', 'Hydric soil', 'Primary production', 'Pinewood nematode', 'Natura 2000', 'Primary succession', 'Common land', 'Tree planting', 'Contour plowing', 'Stillage', 'Biotope', 'Iriartea', 'Sustainable forest management', 'OPC Unified Architecture', 'Agroecosystem', 'Q value', 'Forestal', 'Species richness', 'Ecological genetics', 'Ammophila arenaria', 'Mechanical weed control', 'Forester', 'Smart growth', 'Forestry', 'Global biodiversity', 'Bioclimatology', 'Controlled traffic farming', 'Phytoextraction process', 'Biodiversity hotspot', 'Power control', 'Green Revolution', 'Extinction event', 'Tree farm', 'OPC Historical Data Access', 'Oenocarpus bataua', 'Brazilin', 'Thematic Mapper', 'Habitat', 'Stand development', 'Multiple use', 'Crop rotation', 'Cover crop', 'Assembly rules', 'Disc harrow', 'Larch', 'Regional Red List', 'Rainforest', 'Soil seed bank', 'Land management', 'Normalized Difference Vegetation Index', 'Rangeland management', 'Ecohydrology', 'Plant functional type', 'Taiga', 'Deciduous', 'Drought tolerance', 'Monochamus', 'Surface irrigation', 'Pratylenchus', 'Arable land', 'Prescribed burn', 'Ecosystem diversity', 'Continuous cover forestry', 'Mediterranean sea', 'Bird conservation', 'Fire prevention', 'Industrial fire', 'Viticulture', 'OPC Data Access', 'Trifolium subterraneum', 'Important Bird Area', 'Volcanology', 'Wetland', 'Acid rain', 'Arecaceae', 'Pyroclastic rock', 'Edaphology', 'Bivector', 'Summer fallow', 'Measurement of biodiversity', 'Desertification', 'In situ conservation', 'Vegetation type', 'Molecular breeding', 'Temperate deciduous forest', 'IUCN Red List', 'Home range', 'Educational research', 'Steinernema carpocapsae', 'Ecological resilience', 'Heterorhabditis sp.', 'Statistical database', 'Land Values', 'Species diversity', 'Low-carbon economy', 'Land tenure', 'Insular biogeography', 'Urban forestry', 'Natural rubber', 'Ecoregion', 'Mitigation banking', 'Land information system', 'Monochamus galloprovincialis', 'Forest dynamics', 'Topsoil', 'Plant community', 'Chaparral', 'Defects per million opportunities', 'Land-use forecasting', 'Calluna', 'Grassland', 'Science policy', 'Farmland preservation', 'Montane ecology', 'Product market', 'Plant cover', 'Habitat fragmentation', 'Cultural methods', 'Watershed Central', 'Natural capital', 'Plant reproduction', 'Terroir', 'Novel ecosystem', 'Gooseberries', 'Heterorhabditis bacteriophora', 'Forestry law', 'Lolium rigidum', 'Pioneer species', 'Weed', 'Wildlife management', 'Crop residue', 'Megafauna', 'Local adaptation', 'DSSAT', 'Nature reserve', 'Cluster beans', 'Test Management Approach', 'Conventional tillage', 'Irrigation scheduling', 'Raphanus raphanistrum', 'Seedling', 'Freshwater ecosystem', 'Tropical rainforest', 'National Resources Inventory', 'Plant nutrition', 'EDGE species', 'Threatened species', 'Deschampsia flexuosa', 'Cash crop', 'Critically endangered', 'Applied ecology', 'Environmental design and planning', 'Stover', 'Extinction', 'Forb', 'Workshop building', 'Dryland farming', 'Ecosystem-based management', 'Sclerophyll', 'Ruminant', 'Leaf area index', 'Cultural landscape', 'Wood industry', 'Cultural control', 'Illegal logging', 'Pinus radiata', 'Ecosystem services', 'Wildlife refuge', 'Design for Six Sigma', 'Forest produce', 'Animal nutrition', 'Land footprint', 'Alternative stable state', 'Tropical savanna climate', 'Ramsar site', 'Sweet sorghum', 'Community forestry', 'Agroforestry', 'Relative growth rate', 'Sympatry', 'Dendrometry', 'Pinus thunbergii', 'Umbrella species', 'Green infrastructure', 'Soil governance', 'Wild Fires', 'Weed control', 'Forest restoration', 'Arboriculture', 'Nutrient management', 'Pesticide application', 'Intraspecific breeding', 'Entomopathogenic nematode']</t>
+          <t>['Plant life-form', 'Farmland preservation', 'Motorized vehicle', 'Lowland semi-natural grassland', 'Metavolcanic rock', 'Stand development', 'Larch', 'Hardwood timber production', 'Biodiversity hotspot', 'Arboriculture', 'Water-use efficiency', 'Evolutionary biology', 'Pilotage', 'Monogastric', 'Weed science', 'In situ conservation', 'Bulk soil', 'EDGE species', 'Asthma', 'Normalized Difference Vegetation Index', 'Extinction probability', 'h-vector', 'Pulpwood', 'Land grabbing', 'Special Area of Conservation', 'Web search engine', 'SIPOC', 'Pinus thunbergii', 'Cultural control', 'Gallery forest', 'Precision agriculture', 'Habitat Conservation Plan', 'Ecosystem management', 'Forest fragmentation', 'Contour plowing', 'Macroecology', 'Species diversity', 'Vulcanian eruption', 'Subsoiler', 'Artemisia annua', 'Chaparral', 'Rare species', 'Multiple use', 'Land-use planning', 'Near-threatened species', 'Ecological release', 'Right palm', 'Urban sprawl', 'Repartition', 'Plant community', 'Land management', 'Mixed farming', 'Sustainable forest management', 'Natural capital', 'Pinewood nematode', 'Relative growth rate', 'Landscape-scale conservation', 'Steinernema carpocapsae', 'Statistical database', 'Realized niche width', 'Deschampsia flexuosa', 'Calluna', 'Brazilin', 'Defects per million opportunities', 'Stipa tenacissima', 'Mixed-use development', 'Weed', 'Orange Tree', 'Brassica carinata', 'Range tree', 'Conservation reliant species', 'Soil retrogression and degradation', 'Conservation psychology', 'Desertification', 'Forest product', 'Bioindicator', 'Prescribed burn', 'Land improvement', 'Local adaptation', 'Revegetation', 'Aphelenchoididae', 'Ecotone', 'UV degradation', 'Soil ecology', 'OPC Unified Architecture', 'Land administration', 'Iriartea', 'Moisture stress', 'Educational research', 'Tropical agriculture', 'Primary production', 'Acid rain', 'Marginal land', 'Kyoto Protocol', 'Secondary succession', 'Brachypodium pinnatum', 'Denitrification', 'Irrigation management', 'Heterorhabditis megidis', 'Dryland salinity', 'Water resources', 'Measurement of biodiversity', 'Automobile dependency', 'Six Sigma', 'Plant breeding', 'DMAIC', 'Grazing pressure', 'Wood industry', 'Biodiversity', 'Sagebrush Rebellion', 'Bird conservation', 'Crop simulation model', 'Forest restoration', 'Cherimoyas', 'Smart growth', 'Convention on Biological Diversity', 'Indicator plant', 'Regional Red List', 'Forest dynamics', 'Sphagnum', 'Monochamus alternatus', 'Nature Conservation', 'Nature reserve', 'Phoenix canariensis', 'Socialist economics', 'Ecosystem-based management', 'Whitefly', 'Dipterocarpaceae', 'Viticulture', 'Nardus stricta', 'Shrub', 'Indicator species', 'Terrestrial ecosystem', 'Selection cutting', 'Biological integrity', 'Littoral zone', 'Logging', 'Bactris', 'Evergreen forest', 'Nutrient management', 'Biodiversity action plan', 'Plant functional type', 'Ecoregion', 'Red List Index', 'Paper recycling', 'Induced malaria', 'Distinct population segment', 'Urban ecosystem', 'Traditional knowledge', 'Salvage logging', 'Tropical forest', 'Crop protection', 'Stump harvesting', 'Fire forest', 'Temperate deciduous forest', 'National Hydrography Dataset', 'Bumper crop', 'Environmental niche modelling', 'Niche differentiation', 'DNS root zone', 'Cropping', 'Climax community', 'Ramsar site', 'Kenya', 'Clearcutting', 'Soil fertility', 'Species evenness', 'Amazon rainforest', 'Raphanus raphanistrum', 'Agricultural land', 'Biogeomorphology', 'Soil solarization', 'Assembly rules', 'Basal area', 'Panicum miliaceum', 'Plant nursery', 'Asynergy', 'Tropical savanna climate', 'Attalea', 'Habitat destruction', 'Environmental soil science', 'Critically endangered', 'Rhabditida', 'Forest management', 'Grassland degradation', 'Tree rotation', 'Advanced very-high-resolution radiometer', 'Biodiesel', 'Soil functions', 'Shifting cultivation', 'Luxembourgish', 'Conventional tillage', 'Liana', 'Land titling', 'Lupinus angustifolius', 'Safe Drinking Water Act', 'Soil governance', 'Forest Vegetation Simulator', 'Introduced species', 'Conservation Plan', 'Mixed grass prairie', 'Aridification', 'Afforestation', 'Plant strategies', 'Biodegradation', 'Species translocation', 'Weed control', 'Species richness', 'Land development', 'No-till farming', 'Ratooning', 'Forest produce', 'Copayment', 'Agroforestry', 'Market value', 'Land cover', 'Flagship species', 'Home range', 'Illegal logging', 'Natura 2000', 'Soil organic matter', 'Tree inventory', 'Cultural methods', 'Striga', 'Undergrowth', 'Water use', 'Moorland', 'Topsoil', 'Vegetation type', 'n-vector', 'Endangered species', 'Mitigation banking', 'Vegetation', 'Tropical and subtropical dry broadleaf forests', 'Crop weed', 'Land consumption', 'Crop insurance', 'Monochamus galloprovincialis', 'Megafauna', 'Marsh', 'Canonical correspondence analysis', 'Soil seed bank', 'Temperate forest', 'Felling', 'Coffea', 'Continuous cover forestry', 'Secondary forest', 'Oenocarpus bataua', 'Ecohydrology', 'Public land', 'Ex situ conservation', 'Traditional knowledge GIS', 'Dryland farming', 'Environmental design and planning', 'Land tenure', 'Bursaphelenchus', 'Silviculture', 'Minimum tillage', 'Agricultural diversification', 'Wild Fires', 'Deforestation', 'Staple food', 'Lolium rigidum', 'Insect biodiversity', 'Line of greatest slope', 'Wildlife refuge', 'Niche segregation', 'Soil management', 'Rainforest', 'Arecaceae', 'Wetland', 'pH indicator', 'Urban growth boundary', 'Montane ecology', 'Fire ecology', 'Foundation species', 'Product market', 'Wilt disease', 'Agrostis capillaris', 'Crop yield', 'Consumptive water use', 'Poaching', 'Water pricing', 'Plant nutrition', 'Virtual water', 'POWER8', 'Land Values', 'Watershed Central', 'Terroir', 'Planet', 'Pioneer species', 'Site plan', 'Palm', 'Metasearch engine', 'Soybean management practices', "People's Republic", 'Organic matter', 'Acacia', 'Cash crop', 'Keystone species', 'Indigenous and community conserved area', 'Seedling', 'Urban forestry', 'IUCN Red List', 'Workshop building', 'Genome Biology', 'Diversity index', 'Heterorhabditis sp.', 'Xylophilus', 'Intraspecific breeding', 'Phytoextraction process', 'Clogging', 'Stubble-mulching', 'Biological pollution', 'Metapopulation', 'Insular biogeography', 'Habitat conservation', 'OLE for Process Control', 'Novel ecosystem', 'Mediterranean sea', 'Taiga', 'Tropical and subtropical grasslands, savannas, and shrublands', 'Agroecological restoration', 'National Resources Inventory', 'Soil stabilization', 'Forest protection', 'Sigma', 'Gooseberries', 'Drought tolerance', 'Pinus radiata', 'Plant Weeds', 'Temperate rainforest', 'Species distribution', 'Local extinction', 'Seral community', 'Horticulture', 'Land degradation', 'De-extinction', 'Genetic erosion', 'Disc harrow', 'Vascular implant', 'Animal breeding', 'Tamarix', 'Fertigation', 'Astrocaryum', 'Exclosure', 'Land restoration', 'Ethnobotany', 'Primary succession', 'Green Revolution', 'Global biodiversity', 'Sorghum', 'Tilth', 'Formant', 'Red edge', 'Land use', 'Wetland methane emissions', 'Forest inventory', 'Agrometeorology', 'Search engine', 'Air rights', 'Biome', 'Planet V', 'Sustainable management', 'Cultural landscape', 'Payment', 'Yield mapping', 'Molinia caerulea', 'Understory', 'Population viability analysis', 'DSSAT', 'Phytoremediation', 'Values', 'Overgrazing', 'Biomedicine', 'Community forestry', 'Brazil nut', 'Grassland', 'Soil health', 'Denitrifying bacteria', 'Irrigation scheduling', 'Bioclimatology', 'Natural farming', 'Environmental management system', 'Protected area', 'Volcano', 'Pyroclastic rock', 'Tree rearrangement', 'Tropical rainforest', 'Product marketing', 'Forb', 'Tussock', 'Rainfed agriculture', 'Fossil fuel', 'Monochamus', 'Cluster beans', 'Crop residue', 'Synergy', 'Extinction event', 'Agroecosystem', 'Sanjiang Plain', 'Forestry law', 'Nestedness', 'Built-up area', 'Certified wood', 'Fire prevention', 'Ecosystem services', 'UV resistance', 'Species at Risk Act', 'Entomopathogenic nematode', 'Farmland protection', 'Moderate-resolution imaging spectroradiometer', 'Threatened species', 'Ungulate', 'Tree farm', 'Rhabditidae', 'United Nations Convention to Combat Desertification', 'UrbanSim', 'Rangeland management', 'Bursaphelenchus xylophilus', 'Forest genetic resources', 'Ruderal species', 'Evidence-based conservation', 'Coryphoideae', 'Edaphology', 'Summer fallow', 'Important Bird Area', 'Tillage', 'Ammophila arenaria', 'Local community', 'Tree planting', 'High forest', 'Molecular breeding', 'Tax exemption', 'Tree breeding', 'Nothofagus', 'Forest degradation', 'Prime farmland', 'Deciduous', 'Volcanology', 'Iliana', 'Metacommunity', 'Sustainable land management', 'Ruminant', 'Tundra', 'Pratylenchus', 'Crop rotation', 'Pesticide application', 'Shrubland', 'Great Green Wall', 'Forestry', 'Conservation grazing', 'Volcanic ash', 'Science policy', 'Biodiversity offsetting', 'Ecological resilience', 'Hydric soil', 'Population decline', 'Forest farming', 'Plant cover', 'Adaptive strategies', 'Land information system', 'Mechanical weed control', 'Trifolium subterraneum', 'Urban forest', 'Common land', 'Volcanic rock', 'Leaf area index', 'Controlled traffic farming', 'Surface irrigation', 'Q value', 'Conservation finance', 'Bouteloua gracilis', 'Habitat', 'Monodominance', 'Habitat fragmentation', 'Shelterwood cutting', 'Coulee', 'OPC Historical Data Access', 'Crop wild relative', 'Ruminantia', 'Conservation development', 'Palynology', 'Woodland', 'Industrial fire', 'Sclerophyll', 'Bioindicator Species', 'Floristics', 'Environment Protection and Biodiversity Conservation Act 1999', 'Yield gap', 'Animal nutrition', 'Biocultural diversity', 'Hyperaccumulator', 'Bivector', 'Interval tree', 'Ignition SCADA', 'Land-use forecasting', 'Scots pine', 'Natural rubber', 'POWER5', 'Catch crop', 'Agricultural biodiversity', 'Ecosystem engineer', 'Pinus pinaster', 'Freshwater ecosystem', 'Grazing', 'Extinction', 'Stillage', 'Green infrastructure', 'Vascular plant', 'Test Management Approach', 'Power control', 'Design for Six Sigma', 'Detrended correspondence analysis', 'Sweet sorghum', 'Beech', 'Biotope', 'Umbrella species', 'Sesbania', 'Nematode', 'Invasive species', 'Vegetation classification', 'Beta diversity', 'Low-carbon economy', 'Land footprint', 'Glucuronoxylan', 'Internet of Things', 'Applied ecology', 'Heterorhabditis', 'Heterorhabditis bacteriophora', 'Ecosystem diversity', 'Alternative stable state', 'Annual Weeds', 'Plant reproduction', 'Sustained yield', 'Forest pathology', 'Exclusionary zoning', 'Forester', 'Protection forest', 'Community', 'Wildlife management', 'Arable land', 'OPC Data Access', 'Forestal', 'Anthracology', 'Intercropping', 'Cover crop', 'Phytogeography', 'Gradient analysis', 'National park', 'Land-use conflict', 'Joint Forest Management', 'Calcareous grassland', 'Dendrometry', 'Land consolidation', 'Stover', 'Sympatry', 'Wildlife conservation', 'Thinning', 'Amazonian', 'Wetland conservation', 'Ecological genetics', 'Transit-oriented development', 'Bioeconomics', 'Reforestation', 'Thematic Mapper']</t>
         </is>
       </c>
     </row>
@@ -922,12 +922,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['2779455057', '62100270', '140311038', '2779455174', '2780111994', '522453465', '36289849', '125109622', '2779889875', '2776663400', '538473155', '195755200', '2776325125', '34372108', '522695570', '2777785829', '2780862976', '11473988', '22111027', '2777221391', '2777838212', '2780142257', '22299250', '149209484', '2778122203', '136810230', '2776475305', '68643176', '78606420', '129603779', '142546437', '3116431', '2775907854', '131158328', '14587133', '2776310101', '88477975', '2776581254', '2908634787', '2778249305', '2776325419', '2777608298', '160443848', '2777963317', '2778029865', '205112559', '2781067771', '37129596', '2776393157', '2777671340', '202372285', '47344431', '2777234305', '2779508350', '528167355', '2777522198', '2780940336', '113706210', '2775935494', '2780700307', '2777367318', '2779184190', '70587473', '200797679', '2776018353', '2781365798', '2778215748', '2776417498', '46355384', '2779177650', '2781093426', '2776363604', '142947238', '2778618534', '2779850767', '2777244724', '2777339001', '2776934989', '2776949292', '2778479971', '2778062554', '13184196', '2777596936', '163877629', '2780005421', '2779318504', '2777705106', '2910414234', '189105814', '130064352', '202611063', '2779415726', '112299071', '2779910420', '2776373247', '111141941', '110888244', '179454799', '555379026', '525541732', '2778103768', '2776348852', '2775982628', '2780723106', '2779759067', '135342440', '162324750', '85973986', '34447519', '2778995842', '2778617593', '147103442', '2780481577', '53001019', '2778348292', '509133132', '42648095', '17319257', '2778148510', '110099512', '2776374800', '84389358', '153701036', '2778524814', '2777826127', '115314567', '74501621', '2780559051', '138238384', '2781168613', '178283979', '2777543875', '147887874', '75398335', '2778099626', '2778868856', '2778611045', '9701087', '2777132994', '122308676', '133462117', '155631102', '2779336638', '529740132', '28718268', '2911045616', '105639569', '2781078320', '2776417341', '2778299913', '2775906420', '97460637', '182448111', '2777672627', '2910956745', '2777720028', '142077812', '147366489', '131046424', '2778072170', '116166054', '557252395', '99574664', '157120061', '2779777834', '506615639', '2779448434', '509929229', '2778136243', '13934251', '22467394', '38671928', '2777351259', '169437150', '47768531', '2781406855', '538833194', '2775884135', '2779209633', '2777821299', '2779304910', '25148115', '80217655', '2779421777', '18414002', '2777854444', '2776324910', '94625758', '128194758', '46295352', '2780526558', '2780617971', '2776612076', '2777996642', '70999106', '21711469', '2778809458', '529147693', '2780813246', '2778880830', '2910948674', '48798503', '203133693', '2909257685', '2775938067', '64848388', '502529886', '2775842811', '110952447', '2780967403', '2777006572', '2780851881', '10558101', '535567245', '44249647', '2776019780', '2776271424', '2776841582', '102587632', '117364978', '2778719427', '148834064', '7340896', '121242521', '2776060186', '2909996731', '2777098093', '164429055', '2778116529', '2781213906', '39358052', '2776001114', '2908836863', '51832835', '98447023', '2780894974', '157298493', '2779390178', '2780188385', '2779683958', '98528937', '2910283248', '2910901024', '9765861', '2910871427', '2776240701', '710854', '2779677289', '2776143374', '556340858', '162718105', '35278167', '2779332937', '2779010840', '2909764464', '2780155792', '2780224667', '2778064668', '2778061430', '158561935', '2777782036', '2909735440', '82823613', '162466561', '36566018', '200314049', '49135098', '2779534595', '2781402087', '2780497665', '10511746', '2778204415', '2776855904', '204434341', '2775994463', '2778706760', '3981223', '100505606', '42298096', '524211801', '180872759', '2781035477', '2777690665', '2778736898', '2780919918', '17058734', '2778573023', '508889258', '31196326', '153606108', '2910834063', '2779999868', '2777309835', '2781012612', '2780110086', '2778682666', '2781171240', '8795937', '41150092', '2778652015', '2781051322', '2777199996', '522325796', '2780597233', '2776598948', '2776454469', '2776686254', '2777704498', '2911194376', '2781413609', '2776243541', '2780888467', '134659438', '2780808987', '58583792', '2780789983', '196927870', '2776301878', '2777386858', '2776393383', '18650270', '123587114', '2779755066', '2780826866', '2779361081', '2780300654', '184196243', '142806620', '2777341207', '35525427', '2778733213', '200457426', '104267543', '2775854416', '2777688943', '2908852235', '19159745', '168646138', '2777663346', '2780128953', '110346835', '2777503682', '48764862', '71343576', '2775905979', '62760934', '179755657', '42027317', '2776301168', '199776023', '184603391', '49504249', '2778140607', '43658493', '2910791680', '58399598', '2909332087', '71156930', '2775923278', '2778843087', '2780208563', '17520342', '2910949744', '195732255', '2780459134', '2779131519', '62657170', '73484699', '2777019632', '2776254110', '2777825026', '56404659', '2778815591', '2778348171', '2777367657', '48295401', '67141207', '20780181', '2778560467', '156460124', '2778444957', '175576395', '2778488155', '521897407', '2776576545', '2777682447', '2909566307', '2778431023', '2779363069', '2779149932', '2780495726', '158129432', '2780093650', '170007233', '2777452579', '509933004', '2779541081', '2781417087', '2779903281', '34355311', '102938260', '87427459', '2908892503', '544040105', '183135511', '14224292', '2779997466', '125209646', '171289174', '2778373993', '2781163912', '159926677', '78302928', '47822265', '191049221', '2780086982', '5570062', '39462953', '192015692', '2781233147', '533584247', '2909549230', '2780781376', '543595228', '527648132', '162446236', '2778736484', '2777546454', '2778568292', '538168058', '2777029895', '2777732099', '2776007630', '79528506', '2775833480', '2777395600', '2778391922', '2780745107', '2779423641', '189261614', '37497375', '111874474', '2779279438', '2776321090', '2780326160', '2777113782', '84515885', '83009810', '2777351106', '146032754', '2777666786', '179133015', '106818632', '2779864127', '2777749871', '542530943', '2777408017', '196697905', '2780641677', '183988256', '167595553', '199568422', '2777266375', '2910283986', '524765639', '2778719706', '2780921165', '185874996', '43827410', '36727532', '2776862595', '2909732843', '2781395907', '2778799533', '511723319', '2777360664', '184297639', '2777821203', '39389867', '2775975177', '1370556', '17022365', '2780443626', '2779453331', '2908779519', '59785166', '2779345233', '2777593458', '522003407', '55447825', '170706310', '2775908996', '202565627', '2778272461', '539944628', '2780339416', '2781402524', '27219730', '207035908', '56617239', '2780893092', '177986884', '2776594853', '138921699', '2777976496', '2776445043', '2780747039', '2778605688', '86256295', '2781118332', '159517358', '47110469', '76458491', '58823610', '2778698251', '101173714', '201960208', '2778724510', '201342494', '2909494222', '2909245448', '546784017', '2778553114', '2780608745', '2778958867', '206836424', '2776512386', '2779144152', '2778281468', '139475501', '2778767757', '2776937921', '2778698365', '555826173', '2779413435', '2778832215', '150710463', '207096701', '135721240', '2777103469', '2775854623', '138816342', '2776849891', '2779294571', '84247811', '183761623', '109986646', '48185193', '147859227', '103268943', '2777861868', '170692843', '204342414', '130881749', '2779170139', '2779878133', '2776478993', '2779655753', '2778489266', '157424077', '95691615', '165062768']</t>
+          <t>['2777608298', '2778116529', '2909549230', '2775982628', '2778799533', '2775854623', '156460124', '73484699', '2776243541', '2778348292', '2778706760', '2778348171', '2780497665', '200457426', '41150092', '2779755066', '2776841582', '191049221', '2781078320', '1370556', '2778843087', '2780128953', '2778736898', '86256295', '98528937', '201960208', '31196326', '502529886', '130064352', '142806620', '2777221391', '2778719427', '94625758', '2777103469', '136810230', '2778524814', '2779149932', '2777452579', '2779415726', '521897407', '2778122203', '2910949744', '17520342', '38671928', '2780224667', '2777546454', '201342494', '22467394', '184603391', '58823610', '102938260', '196927870', '106818632', '2781163912', '160443848', '2778958867', '2779508350', '2781118332', '2776060186', '2777593458', '2779903281', '2780888467', '112299071', '2778560467', '169437150', '2776417341', '2779878133', '180872759', '2778611045', '164429055', '2779850767', '2781093426', '2775938067', '2777749871', '2781402524', '2908892503', '35278167', '2776348852', '2777732099', '110099512', '95691615', '2777408017', '17022365', '2775923278', '2776393383', '170007233', '157298493', '139475501', '117364978', '557252395', '2777671340', '2776301878', '168646138', '36727532', '78302928', '27219730', '2780111994', '48798503', '2776001114', '2780789983', '2909735440', '509929229', '2780851881', '2777395600', '131046424', '123587114', '158129432', '204342414', '2780641677', '2781012612', '555379026', '162718105', '148834064', '111874474', '2776393157', '163877629', '538168058', '2911194376', '2777854444', '195755200', '2776475305', '2781395907', '2776934989', '2776019780', '147887874', '149209484', '2911045616', '82823613', '102587632', '2780155792', '2910901024', '70999106', '2779541081', '62760934', '48185193', '48295401', '2778553114', '146032754', '2908634787', '9701087', '2777234305', '2777351106', '129603779', '21711469', '2778880830', '542530943', '2779413435', '37497375', '2777309835', '2778431023', '71156930', '36566018', '202372285', '165062768', '2778868856', '2780300654', '2779910420', '167595553', '162466561', '2781051322', '2776373247', '2777690665', '36289849', '101173714', '18414002', '2778249305', '39462953', '2780481577', '2775975177', '529147693', '2779304910', '199776023', '2779318504', '2776849891', '525541732', '34372108', '522695570', '2910871427', '2908852235', '2778652015', '2780921165', '8795937', '2780339416', '58583792', '2779453331', '2778140607', '2776855904', '2779423641', '2779655753', '2776949292', '68643176', '509933004', '2779455174', '2779390178', '87427459', '2910791680', '2777543875', '2780459134', '2779279438', '183761623', '199568422', '2781213906', '2777503682', '14224292', '142077812', '2779131519', '185874996', '177986884', '147859227', '2778391922', '544040105', '2779170139', '2775842811', '2778444957', '2778103768', '2777825026', '2776478993', '179133015', '2780526558', '2778272461', '189105814', '47768531', '59785166', '142546437', '2779997466', '2780747039', '150710463', '110888244', '56617239', '175576395', '2780443626', '84515885', '128194758', '2778719706', '109986646', '2778733213', '184196243', '98447023', '179755657', '153701036', '207035908', '2779889875', '2909245448', '2780617971', '158561935', '2778479971', '84247811', '2776512386', '13934251', '2779361081', '2776862595', '70587473', '75398335', '2777132994', '171289174', '17319257', '28718268', '2780142257', '528167355', '62657170', '2776598948', '2778815591', '135342440', '2778698251', '2779759067', '142947238', '2779534595', '2776240701', '2777113782', '2780808987', '2776445043', '105639569', '178283979', '58399598', '2777596936', '184297639', '2779999868', '2775854416', '138238384', '2776007630', '2776454469', '2776581254', '538473155', '2779448434', '2777705106', '2778568292', '2775905979', '2779455057', '2779683958', '2910414234', '2777785829', '509133132', '110952447', '43827410', '2780005421', '2777663346', '2780723106', '10558101', '13184196', '2778072170', '2778489266', '183988256', '2776417498', '2776321090', '159926677', '2780086982', '2780893092', '535567245', '2776594853', '35525427', '2777666786', '2778488155', '2775833480', '2777688943', '2778767757', '2780862976', '140311038', '134659438', '2780745107', '2777720028', '39358052', '2777386858', '189261614', '2777199996', '2780919918', '79528506', '2778995842', '10511746', '2779345233', '113706210', '2779294571', '133462117', '2777351259', '2781171240', '2777339001', '200797679', '147103442', '2778573023', '522453465', '49135098', '7340896', '2777522198', '204434341', '2777826127', '2778832215', '556340858', '2778299913', '2779421777', '2779010840', '17058734', '2909996731', '64848388', '2781067771', '18650270', '2776363604', '51832835', '22299250', '19159745', '121242521', '115314567', '162446236', '2909566307', '2778281468', '2779177650', '37129596', '2777244724', '48764862', '170706310', '46355384', '3981223', '2909764464', '205112559', '34447519', '2779209633', '55447825', '2776937921', '179454799', '78606420', '533584247', '56404659', '2778809458', '2909332087', '2777029895', '2780208563', '34355311', '2775884135', '511723319', '2780597233', '2777704498', '2775908996', '2781035477', '2777266375', '2780608745', '99574664', '14587133', '2777367657', '162324750', '138816342', '527648132', '2781417087', '138921699', '74501621', '9765861', '84389358', '195732255', '131158328', '2777360664', '2779864127', '2776143374', '2778698365', '2776663400', '85973986', '2776576545', '2777006572', '111141941', '2779363069', '157424077', '2780495726', '183135511', '538833194', '2781413609', '524211801', '3116431', '196697905', '2777838212', '202611063', '2910283248', '522325796', '2779332937', '157120061', '2909257685', '2777341207', '2776325125', '104267543', '2779144152', '2776374800', '2777019632', '122308676', '25148115', '2910834063', '2910283986', '155631102', '5570062', '2780967403', '2778136243', '2778062554', '47110469', '2910948674', '2777672627', '522003407', '125209646', '524765639', '2777861868', '2908779519', '2780894974', '202565627', '2778029865', '206836424', '192015692', '2780110086', '2777367318', '2778099626', '2776612076', '100505606', '2781168613', '2779336638', '2910956745', '2909732843', '2780326160', '42027317', '49504249', '2775907854', '2776324910', '2781365798', '39389867', '2778617593', '20780181', '116166054', '2779184190', '2778064668', '506615639', '2781233147', '2778215748', '2781406855', '2780700307', '539944628', '2775935494', '44249647', '2779777834', '2778605688', '2781402087', '62100270', '182448111', '2777821299', '88477975', '2777976496', '2780813246', '153606108', '42298096', '67141207', '22111027', '207096701', '2780559051', '2777098093', '83009810', '2777996642', '71343576', '2776686254', '2778736484', '2777821203', '47822265', '555826173', '46295352', '11473988', '2775994463', '170692843', '2780781376', '508889258', '2776271424', '2776254110', '2775906420', '2780826866', '110346835', '710854', '2777963317', '546784017', '130881749', '2777782036', '2778682666', '43658493', '2779677289', '2780093650', '2776310101', '200314049', '2776301168', '2778618534', '125109622', '2777682447', '2778061430', '47344431', '2776325419', '42648095', '203133693', '2778373993', '529740132', '2780188385', '2778204415', '135721240', '103268943', '2776018353', '2778724510', '2908836863', '80217655', '53001019', '97460637', '543595228', '147366489', '159517358', '2778148510', '2780940336', '2909494222', '76458491']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Environmental security', 'Conflict of laws', 'Social position', 'Information policy', 'Electoral fraud', 'Social research', 'Social science', 'Social history', 'Device fingerprint', 'Publics', 'Media management', 'Social identity approach', 'Religious terrorism', 'High Resolution Melt', 'Legal research', 'Targeted surveillance', 'Conflict transformation', 'History of the United States', 'Internet security', 'Open government', 'World government', 'Metropolitan police', 'Right to property', 'Comparative law', 'Crime mapping', 'Decentralization', 'Public interest', 'Cultural studies', 'Police science', 'Welfare state', 'Descriptive research', 'Public administration', 'Security forces', 'Social influence', 'The Right to Privacy', 'Global governance', 'Broadbanding', 'Social Right', 'Pre-Registration', 'Mobbing', 'Intellectual freedom', 'Right to food', 'Per capita income', 'Competition model', 'Patent analysis', 'Public engagement', 'National DNA database', 'Social mobility', 'Digital rights', 'Social rights', 'Human resource management', 'Health policy', 'Ramsar Convention', 'Institutional analysis', 'National security', 'Universal suffrage', 'Attribute-based access control', 'Critical theory', 'Search and rescue', 'Independent living', 'Administrative law judge', 'Amendment', 'Transformative learning', 'Fingerprint', 'Rural community development', 'Online politics', 'Work–life balance', 'Transatlantic relations', 'Compromise', 'International education', 'Deliberative democracy', 'Paradata', 'Social technology', 'Preventive detention', 'E-democracy', 'Racial politics', 'Neopatrimonialism', 'Global justice', 'Jurisdiction', 'M-government', 'Security community', 'Dialectic', 'Charter', 'Social constructionism', 'Money laundering', 'Research design', 'Collaborative governance', 'Postneonatal Mortality', 'Attack', 'Social relation', 'Social pedagogy', 'Child protection', 'Infant mortality', 'Gerrymandering', 'Great Divergence', 'Immigration policy', 'Social class', 'Ethnography', 'Identity management', 'Homicide', 'Right of return', 'Crime prevention', 'Geoeconomics', 'Self-governance', 'Freedom of thought', 'Scenario', 'Economics', 'Exploratory research', 'Market economy', 'Terrorism financing', 'Biocultural diversity', 'Forest inventory', 'Small Arms and Light Weapons', 'Social issues', 'Identity politics', 'Community organization', 'State of the Environment', 'Statute', 'Bioeconomics', 'Philosophy of science', 'Reproductive coercion', 'Discourse analysis', 'Trustworthiness', 'Civil registration', 'Commonwealth', 'European Union law', 'Sea level', 'Cultural sustainability', 'Key authentication', 'Conservation development', 'Public finance', 'Waiver', 'Institutional theory', 'Collective security', 'Right to be forgotten', 'Threat assessment', 'Diaspora', 'Social engagement', 'Boundary-work', 'Decision-making', 'Data collection', 'Peace economics', 'Market abuse', 'Civil defense', 'Needs assessment', 'Civil rights law', 'Economic policy', 'Insider trading', 'Freedom of education', 'Peace movement', 'Registration fee', 'Plaintiff', 'Radio resource management', 'Domestic terrorism', 'Neonatal Deaths', 'Responsible Research and Innovation', 'Standard of living', 'Wildlife conservation', 'Energy policy', 'Dataveillance', 'Political spectrum', 'Diplomacy', 'New media', 'Social development theory', 'Enforcement', 'Command and control', 'Just society', 'International security', 'School choice', 'Internally displaced person', 'Multidisciplinary approach', 'Habeas corpus', 'Regulatory reform', 'Human rights', 'Development economics', 'Trusted system', 'Civil procedure', 'Mandate', 'Birth order', 'Developmental state', 'Academic freedom', 'Social competence', 'Realistic conflict theory', 'Administration of justice', 'Right to privacy', 'Higher education policy', 'Territorial integrity', 'Politics', 'Development anthropology', 'Legitimacy', 'Good governance', 'Hatred', 'Language-based security', 'Sexual violence', 'Constitutionalism', 'Conflict resolution', 'Political class', 'News media', 'Police Act', 'Homeland', 'Vital Status', 'Reputation', 'Terrorism', 'Biological terrorism', 'Ableism', 'Futures studies', 'Citizen media', 'Peacemaking', 'Communication for social change', 'Bilateral trade', 'Federal law', 'Crisis management', 'Smart grid', 'Social philosophy', 'Confidence interval', 'Opinion evidence', 'Discrimination in education', 'Law reform', 'Criminal justice', 'Information Framework', 'Patent Cooperation Treaty', 'Government', 'Theory of change', 'Philosophy of medicine', 'Local economic development', 'Child prostitution', 'World economy', 'Institutionalisation', 'Freedom from discrimination', 'National Policy', 'Information security audit', 'Indigenous rights', 'Legal evidence', 'Environmental management system', 'Social identity theory', 'C corporation', 'Ethical leadership', 'Cybercrime', 'E-Administration', 'Conflict management', 'Social conflict', 'Economics policy', 'Drug legislation', 'Resource management', 'Economic underdevelopment', 'Right to housing', 'Hybrid mass spectrometer', 'Policy advocacy', 'Neosaxitoxin', 'Language policy', 'Public administration theory', 'International finance', 'Election monitoring', 'Treaty', 'Postneonatal death', 'Redevelopment', 'Impunity', 'Intelligence studies', 'Scholarship', 'Peace and conflict studies', 'Inbreeding', 'Drug marketing', 'Bare trust', 'Input/output (C++)', 'Rights of Nature', 'Representative APR', 'Economic expansion', 'Social model of disability', 'Risk-based inspection', 'Police accountability', 'Data security', 'Maritime security', 'Security sector reform', 'Adjudication', 'Social data analysis', 'Life-cycle assessment', 'Guard (information security)', 'Judicial opinion', 'Socioeconomic development', 'Legal education', 'Social group', 'Clientelism', 'New political economy', 'Patent valuation', 'Climate Finance', 'Democratization', 'International humanitarian law', 'Political corruption', 'Public institution', 'Humanism', 'Exercise history', 'Fiscal year', 'Critical terrorism studies', 'Mixed government', 'Public service', 'Modernity', 'Convention on the Rights of the Child', 'Discipline', 'Link Control Protocol', 'Security awareness', 'Convention on Cybercrime', 'Political movement', 'Identity theft', 'Deference', 'History of social work', 'Right to work', 'Protocol I', 'Asylum seeker', 'Sociocultural values', 'Regimen', 'Universal jurisdiction', 'Family centered care', 'Social exclusion', 'Repeal', 'Administrative law', 'Fundamentalism', 'International relations theory', 'Freedom of association', 'Maladministration', 'Institutional complementarity', 'Constitutional law', 'Policy analysis', 'Diaspora politics', 'Crew resource management', 'Desegregation', 'Emergency vehicle', 'Philosophy of social science', 'Social status', 'Sustainable land management', 'Intrusion detection system', 'Social injustice', 'Authority', 'Signal processing', 'Freedom of religion', 'Feminism', 'Patient Consent', 'Social policy', 'Cross-cultural', 'Affordable housing', 'Inner peace', 'Precedent', 'Evidence-based policy', 'Judicial review', 'Community development', 'Critical race theory', 'Social transformation', 'Mortality rate', 'Principle of legality', 'Police action', 'Negotiation', 'Land-use planning', 'Military intelligence', 'e-social science', 'European debt crisis', 'Drug market', 'Police state', 'DNA Content Analysis', 'Internal communications', 'Civil liberties', 'Freedom of assembly', 'Corrupt practices', 'Threat', 'Legislation as Topic', 'Sociology of scientific knowledge', 'Right to social security', 'Critical social work', 'Social value orientations', 'Criminology', 'Customary international humanitarian law', 'Gender &amp; Development', 'Public trust', 'Public participation GIS', 'Freedom from fear', 'Corporation', 'Toxin', 'Flexible intermediate bulk container', 'Education policy', 'National Strategy to Secure Cyberspace', 'Environmental justice', 'Median', 'Community youth development', 'Consensus theory', 'Double standard', 'Humanitarian aid', 'Resulting trust', 'Environmental governance', 'Perinatal Deaths', 'Alliance', 'Food policy', 'Social conflict theory', 'Estate', 'Statutory law', 'Regime change', 'E-Government', 'New Public Administration', 'Broadband', 'Patent Act', 'Evidence-based policing', 'Modalities', 'International relations', 'Privacy policy', 'Human geography', 'Maternal death', 'Torture', 'Natural resource management', 'Conceptual framework', 'Sexual and reproductive health and rights', 'Cultural diversity', 'Authentication', 'Document imaging', 'Right to die', 'Admissible evidence', 'Crisis', 'Complex system', 'Collective dose', 'Community-driven development', 'Behavioural sciences', 'Argument', 'Intermediate bulk container', 'Governor', 'Public housing', 'Radiation Accidents', 'Citizenship', 'Linguistic rights', 'Information security', 'Content analysis', 'Friendship', 'Odious debt', 'The Conceptual Framework', 'Arms control', 'Public Health Act', 'Affirmative action', 'Accountability', 'Problem-oriented policing', 'Freedom of information', 'Local Government Act', 'Physical punishment', 'New Economic Policy', 'Democracy promotion', 'Multi-level governance', 'Social control', 'Impact assessment', 'Managerialism', 'Agent detection', 'Enlightenment', 'Political freedom', 'Free migration', 'Legislature', 'Legislation', 'National Security Area', 'Gender Development Index', 'Social system', 'Social inertia', 'Public interest law', 'Reproductive rights', 'Multiculturalism', 'Governmentality', 'Input/output', 'Solidarity', 'United Nations Convention on the Law of the Sea', 'Book burning', 'Voluntary association', 'Injustice', 'Violent behaviour', 'Water resource management', 'Local government', 'Communication rights', 'Interdependence', 'IUCN Red List', 'Educational research', 'High Court', 'Early Neonatal Mortality', 'Peacebuilding', 'Illicit financial flows', 'Philosophy education', 'Nationality law', 'Biometrics', 'Electoral integrity', 'Corporate governance', 'E-governance', 'Rhetoric', 'Individualism', 'Borough', 'State police', 'Relief Work', 'Political ecology', 'Toxic anterior segment syndrome', 'Ethnic conflict', 'Criminal justice ethics', 'International law', 'Common law', 'Trade restriction', 'Criminal law', 'Supreme court', 'Community building', 'Cultural rights', 'Kleptocracy', 'Organised crime', 'Institutional model theory', 'Dissenting opinion', 'Right to health', 'Public law', 'Civil Conflict', 'Political economy', 'Public participation', 'LPWAN', 'Debt crisis', 'Freedom of movement', 'Social network', 'Capability approach', 'Communications management', 'Trusted service manager', 'Social organization', 'Liberalization', 'Human rights movement', 'Retrenchment', 'Geopolitics', 'TIMIT', 'Corruption', 'DNA Contamination', 'Police investigation', 'Egalitarianism', 'Database security', 'Convention', 'Decree', 'Social change', 'Constitutionality', 'Chemical terrorism', 'Local government area', 'Social heuristics', 'Gender and development', 'Right to petition', 'General assembly', 'Democracy', 'Institutional System', 'Nepotism', 'Social studies', 'Philosophy of education', 'Ciphertext-only attack', 'Smart city', 'Community design', 'Public health', 'Right of asylum', 'Public health law', 'Unattended ground sensor', 'Peacekeeping', 'Public policy', 'Media', 'Public sector', 'Forensic profiling', 'Member state', 'Legal profession', 'Genocide', 'Security association', 'Radiation monitoring', 'Presumption of innocence', 'Sex trafficking', 'Power politics', 'Color management', 'Web of trust', 'Fundamental rights', 'Biomimetics']</t>
+          <t>['Right to food', 'Freedom from discrimination', 'Radiation Accidents', 'Geoeconomics', 'Illicit financial flows', 'Community design', 'Median', 'Criminology', 'Universal jurisdiction', 'Identity politics', 'Life-cycle assessment', 'Corporation', 'Police accountability', 'Authority', 'Link Control Protocol', 'Diaspora politics', 'Law reform', 'Collective dose', 'Insider trading', 'Rhetoric', 'Freedom of assembly', 'Inner peace', 'Patent valuation', 'Social network', 'Social conflict', 'Geopolitics', 'Public institution', 'Citizen media', 'Social relation', 'Social status', 'Open government', 'Patent Cooperation Treaty', 'Politics', 'Smart city', 'Decentralization', 'Civil registration', 'Social conflict theory', 'New Public Administration', 'Child protection', 'Humanitarian aid', 'Crime mapping', 'Legislation as Topic', 'Threat', 'Habeas corpus', 'Impunity', 'Odious debt', 'Corruption', 'Multidisciplinary approach', 'Land-use planning', 'Liberalization', 'Privacy policy', 'International relations theory', 'Social inertia', 'Right to die', 'Per capita income', 'Decree', 'Institutional analysis', 'Capability approach', 'Local economic development', 'Ethnic conflict', 'Modalities', 'Family centered care', 'Infant mortality', 'Environmental justice', 'Human rights', 'Freedom of education', 'Presumption of innocence', 'Social group', 'Diaspora', 'Institutionalisation', 'E-democracy', 'Deliberative democracy', 'Ableism', 'Reproductive rights', 'Kleptocracy', 'Maternal death', 'International finance', 'Crime prevention', 'Affirmative action', 'Philosophy of science', 'Fundamental rights', 'Governmentality', 'Individualism', 'Civil liberties', 'Institutional complementarity', 'E-Government', 'Ethical leadership', 'Social heuristics', 'Information Framework', 'Diplomacy', 'Social rights', 'Freedom of association', 'Cross-cultural', 'Educational research', 'Crisis', 'Organised crime', 'Electoral fraud', 'Reputation', 'Indigenous rights', 'Fundamentalism', 'Drug marketing', 'International security', 'Crisis management', 'Local Government Act', 'Energy policy', 'Policy analysis', 'Statutory law', 'Genocide', 'Solidarity', 'Mixed government', 'Identity management', 'Public administration theory', 'Government', 'Impact assessment', 'Digital rights', 'Social constructionism', 'Arms control', 'Sociocultural values', 'Higher education policy', 'Social identity approach', 'Public interest', 'Peacebuilding', 'Global justice', 'Opinion evidence', 'Institutional theory', 'Comparative law', 'Civil rights law', 'Bare trust', 'Criminal justice', 'Redevelopment', 'Drug legislation', 'Constitutionalism', 'Patent Act', 'Social transformation', 'Media', 'Flexible intermediate bulk container', 'Database security', 'National Security Area', 'Pre-Registration', 'Social engagement', 'Ramsar Convention', 'Legislation', 'Welfare state', 'Conflict resolution', 'Homeland', 'Multiculturalism', 'Institutional System', 'Social control', 'Critical terrorism studies', 'Alliance', 'Internal communications', 'Rights of Nature', 'Human resource management', 'Biomimetics', 'Threat assessment', 'Emergency vehicle', 'Gerrymandering', 'Book burning', 'Input/output (C++)', 'Convention on Cybercrime', 'Great Divergence', 'New political economy', 'Social science', 'Retrenchment', 'Right to privacy', 'Mobbing', 'Argument', 'Small Arms and Light Weapons', 'E-governance', 'News media', 'Academic freedom', 'Negotiation', 'Research design', 'Right of asylum', 'Homicide', 'High Resolution Melt', 'Legal research', 'Economic underdevelopment', 'Patient Consent', 'Security awareness', 'Communication rights', 'Discipline', 'Cultural rights', 'Administrative law', 'State police', 'e-social science', 'Security sector reform', 'Democracy promotion', 'Power politics', 'Jurisdiction', 'Cultural studies', 'Broadband', 'Information policy', 'Cybercrime', 'Human geography', 'Drug market', 'Waiver', 'Right to social security', 'Managerialism', 'Peacekeeping', 'Voluntary association', 'National Policy', 'Evidence-based policy', 'Conceptual framework', 'Standard of living', 'Critical social work', 'Interdependence', 'Public law', 'Public sector', 'Physical punishment', 'Torture', 'Radiation monitoring', 'Peacemaking', 'Community youth development', 'Right of return', 'Public trust', 'Sex trafficking', 'Social system', 'Good governance', 'Supreme court', 'Attack', 'Development economics', 'Political ecology', 'Descriptive research', 'Sexual and reproductive health and rights', 'Debt crisis', 'Social studies', 'Social class', 'Dissenting opinion', 'Consensus theory', 'Borough', 'Free migration', 'Development anthropology', 'Local government', 'Public policy', 'Social injustice', 'Philosophy of social science', 'Social identity theory', 'Mortality rate', 'Trustworthiness', 'Institutional model theory', 'Device fingerprint', 'Police investigation', 'Hatred', 'Peace and conflict studies', 'M-government', 'Unattended ground sensor', 'Constitutionality', 'Internally displaced person', 'Desegregation', 'High Court', 'Transformative learning', 'Collective security', 'Boundary-work', 'Authentication', 'Statute', 'Needs assessment', 'Metropolitan police', 'National security', 'Social value orientations', 'History of social work', 'Freedom from fear', 'Scenario', 'Human rights movement', 'Freedom of thought', 'Social technology', 'Social model of disability', 'Right to housing', 'Political freedom', 'Repeal', 'LPWAN', 'Economic policy', 'Public finance', 'Police state', 'Charter', 'Biometrics', 'Fiscal year', 'Freedom of religion', 'Key authentication', 'Accountability', 'Right to work', 'Social Right', 'Media management', 'Just society', 'Collaborative governance', 'The Conceptual Framework', 'Critical race theory', 'Environmental security', 'Conflict management', 'Postneonatal Mortality', 'Targeted surveillance', 'Community organization', 'Communication for social change', 'IUCN Red List', 'Money laundering', 'Affordable housing', 'Self-governance', 'Smart grid', 'Dialectic', 'Dataveillance', 'Color management', 'United Nations Convention on the Law of the Sea', 'Transatlantic relations', 'Agent detection', 'Admissible evidence', 'Community-driven development', 'Right to health', 'Social philosophy', 'Civil Conflict', 'Intrusion detection system', 'Gender Development Index', 'Double standard', 'Freedom of information', 'Feminism', 'Gender and development', 'Conflict transformation', 'Social position', 'Social exclusion', 'New Economic Policy', 'Responsible Research and Innovation', 'Information security audit', 'Maladministration', 'Multi-level governance', 'Political movement', 'Climate Finance', 'Problem-oriented policing', 'Terrorism financing', 'Data security', 'Toxic anterior segment syndrome', 'Critical theory', 'Public health law', 'Data collection', 'Regulatory reform', 'Convention on the Rights of the Child', 'Neopatrimonialism', 'Fingerprint', 'Forest inventory', 'International humanitarian law', 'Social research', 'Economic expansion', 'Theory of change', 'Universal suffrage', 'Adjudication', 'Commonwealth', 'Nepotism', 'Language policy', 'Peace movement', 'Administration of justice', 'Treaty', 'Democratization', 'Child prostitution', 'Futures studies', 'National DNA database', 'Constitutional law', 'Paradata', 'Environmental management system', 'Right to property', 'Social policy', 'Philosophy of medicine', 'European Union law', 'Content analysis', 'Perinatal Deaths', 'Local government area', 'International education', 'Social mobility', 'Racial politics', 'Judicial review', 'Common law', 'Compromise', 'Guard (information security)', 'Postneonatal death', 'Public engagement', 'Market economy', 'Birth order', 'International law', 'Right to petition', 'Ethnography', 'Police science', 'Public housing', 'Public participation GIS', 'Political class', 'DNA Content Analysis', 'Public Health Act', 'Corrupt practices', 'International relations', 'Mandate', 'Philosophy education', 'Deference', 'Asylum seeker', 'Trade restriction', 'Clientelism', 'Injustice', 'Convention', 'New media', 'The Right to Privacy', 'Toxin', 'Economics', 'Public health', 'Information security', 'Evidence-based policing', 'Political economy', 'Sea level', 'Resource management', 'Discourse analysis', 'Sociology of scientific knowledge', 'Social influence', 'Nationality law', 'Public interest law', 'Neosaxitoxin', 'General assembly', 'Publics', 'Exploratory research', 'Resulting trust', 'Federal law', 'Immigration policy', 'Food policy', 'Web of trust', 'Estate', 'Natural resource management', 'Civil procedure', 'Regimen', 'Legal education', 'Public administration', 'Input/output', 'World government', 'Social pedagogy', 'Economics policy', 'Identity theft', 'Election monitoring', 'Social development theory', 'Biological terrorism', 'Sustainable land management', 'Religious terrorism', 'Signal processing', 'Chemical terrorism', 'Reproductive coercion', 'Customary international humanitarian law', 'Decision-making', 'Social competence', 'Exercise history', 'Violent behaviour', 'Peace economics', 'Behavioural sciences', 'Bilateral trade', 'School choice', 'Security community', 'Trusted service manager', 'Vital Status', 'Domestic terrorism', 'Criminal justice ethics', 'Cultural diversity', 'Water resource management', 'Member state', 'Relief Work', 'C corporation', 'Criminal law', 'Patent analysis', 'Social change', 'Intermediate bulk container', 'Public service', 'Administrative law judge', 'Right to be forgotten', 'Language-based security', 'Judicial opinion', 'Conservation development', 'Market abuse', 'Neonatal Deaths', 'Early Neonatal Mortality', 'Enlightenment', 'Principle of legality', 'Military intelligence', 'Security forces', 'Territorial integrity', 'Online politics', 'Corporate governance', 'Biocultural diversity', 'National Strategy to Secure Cyberspace', 'Political spectrum', 'Amendment', 'Intelligence studies', 'Command and control', 'Governor', 'Work–life balance', 'Trusted system', 'Independent living', 'Community building', 'Search and rescue', 'Confidence interval', 'Enforcement', 'Freedom of movement', 'Risk-based inspection', 'Conflict of laws', 'Radio resource management', 'Developmental state', 'Broadbanding', 'Public participation', 'Police Act', 'Humanism', 'Socioeconomic development', 'Education policy', 'Internet security', 'Philosophy of education', 'Cultural sustainability', 'World economy', 'Legislature', 'Sexual violence', 'Community development', 'Protocol I', 'Friendship', 'Electoral integrity', 'Complex system', 'Democracy', 'Legitimacy', 'History of the United States', 'Social data analysis', 'Legal profession', 'Citizenship', 'Political corruption', 'Discrimination in education', 'Gender &amp; Development', 'Registration fee', 'Crew resource management', 'Precedent', 'Hybrid mass spectrometer', 'Competition model', 'Egalitarianism', 'Security association', 'Inbreeding', 'Modernity', 'European debt crisis', 'Policy advocacy', 'Regime change', 'Global governance', 'Representative APR', 'Police action', 'Preventive detention', 'Social history', 'Environmental governance', 'Scholarship', 'Health policy', 'Intellectual freedom', 'State of the Environment', 'Terrorism', 'Document imaging', 'Civil defense', 'E-Administration', 'Maritime security', 'Ciphertext-only attack', 'Forensic profiling', 'Rural community development', 'TIMIT', 'Legal evidence', 'Realistic conflict theory', 'Social issues', 'Plaintiff', 'Linguistic rights', 'Wildlife conservation', 'Communications management', 'Bioeconomics', 'Attribute-based access control', 'DNA Contamination', 'Social organization']</t>
         </is>
       </c>
     </row>
@@ -955,12 +955,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['2909744077', '66204764', '15845906', '2778449271', '2778459265', '191935318', '2776553905', '2780479094', '160354207', '134632028', '158041659', '70455891', '68307924', '56739046', '2778711553', '199491958', '2776060655', '171250308', '530175646', '2776561884', '2777113093', '47344431', '159317903', '115314567', '190960625', '2781328080', '206103860', '44171179', '2777836882', '138368954', '2910001868', '2779783285', '2777481183', '99743013', '186229450', '2776604539', '552089266', '164767435', '2779503283', '2780903623', '87616379', '129275984', '520434653', '2780124536', '2779015535', '198891747', '2777953023', '28718268', '2776577793', '190539079', '2778300220', '2910910449', '2780575108', '134560507']</t>
+          <t>['56739046', '68307924', '2780124536', '2909744077', '206103860', '129275984', '44171179', '2776060655', '2776577793', '190960625', '158041659', '2778711553', '2776561884', '2777836882', '134632028', '159317903', '134560507', '2910910449', '191935318', '2777481183', '2777953023', '171250308', '2779503283', '2776604539', '47344431', '199491958', '530175646', '138368954', '2780575108', '28718268', '2910001868', '2779015535', '2779783285', '520434653', '2778300220', '15845906', '2778459265', '70455891', '2777113093', '552089266', '2781328080', '160354207', '66204764', '2780479094', '186229450', '99743013', '115314567', '2778449271', '2780903623', '198891747', '190539079', '87616379', '164767435', '2776553905']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['Public-Private Sector Partnership', 'Sustainability', 'Data exchange', 'Development aid', 'South–South cooperation', 'China', 'Public–private partnership', 'Third-Worldism', 'Bicoherence', 'Sustainable growth rate', 'Determinant', 'Devaluation', 'Global commons', 'Knowledge management', 'Transport network', 'Global change', 'Tariff', 'Nanotechnology', 'Clothing', 'IR evaluation', 'Pedestrian', 'Health policy', 'Photon', 'European Union law', 'Water treatment', 'Turban', 'Global strategy', 'External debt', 'Pretargeting', 'Peer review', 'European union', 'Washington Consensus', 'Market access', 'Kyoto Protocol', 'Sovereignty', 'Knowledge sharing', 'Voice', 'Textile', 'Millennium Development Goals', 'Cross-border cooperation', 'International development', 'DNA nanotechnology', 'Laser', 'Air Transport Network', 'Regional integration', 'Systemics', 'Heart rate', 'Needs assessment', 'Non-communicable disease', 'Revaluation', 'Financial crisis', 'Postnatal Care', 'Retargeting', 'Environmental economics']</t>
+          <t>['Knowledge management', 'Global commons', 'Air Transport Network', 'Public-Private Sector Partnership', 'Global strategy', 'DNA nanotechnology', 'External debt', 'Tariff', 'Non-communicable disease', 'Water treatment', 'Determinant', 'Transport network', 'IR evaluation', 'Pretargeting', 'Sustainable growth rate', 'Photon', 'Environmental economics', 'Postnatal Care', 'China', 'Market access', 'Heart rate', 'Nanotechnology', 'Millennium Development Goals', 'Knowledge sharing', 'Health policy', 'Global change', 'Clothing', 'Peer review', 'Retargeting', 'Needs assessment', 'European union', 'Regional integration', 'Washington Consensus', 'Laser', 'Financial crisis', 'Data exchange', 'South–South cooperation', 'Devaluation', 'Pedestrian', 'Voice', 'Turban', 'Bicoherence', 'Sustainability', 'Third-Worldism', 'Sovereignty', 'Kyoto Protocol', 'European Union law', 'Development aid', 'Cross-border cooperation', 'Systemics', 'Revaluation', 'International development', 'Textile', 'Public–private partnership']</t>
         </is>
       </c>
     </row>

--- a/UPDATE_INFO.xlsx
+++ b/UPDATE_INFO.xlsx
@@ -427,12 +427,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['2777608298', '2781061807', '2780393519', '2778430866', '2775868463', '178511221', '2775950104', '2781116641', '2908737072', '2779363069', '2779501705', '2776905528', '2778661615', '2779597210', '2780761588', '2777553175', '2778890030', '189326681', '2776615708', '20555606', '82341920', '15553842', '28129649', '2776572681', '2778408412', '2777262119', '43609274', '2776672683', '2910997320', '2779957034', '2779206190', '527821871', '2778151340', '129047720', '2776237081', '36289849', '2778727652', '2780623907', '2778976928', '549605437', '2776922509', '2779653078', '2778882308', '2781384209', '133925201', '2776094956', '2909895442', '2778054917', '2780750338', '78302928', '2781044819', '2908621740', '2776605987', '2909647022', '2778754916', '2776893239', '2778502840', '2776751285', '2777533032', '2781069661', '553381038', '2779566690', '2779584631', '2780290423', '2909509366', '2909852078', '2910993519', '2778561184', '2908684656', '2778216598', '2779282124', '2778140607', '2781094592', '68062652', '2781304125', '2778096659', '2777433830', '186191158', '2781436281', '2778452349', '2779575352', '2779490853', '196777733', '2776465305', '519300510', '2776554220', '2780899237', '2911219547', '204208750', '2781426361', '178377140', '2778343834', '142077812', '2910435018', '2911189839', '2778516963', '2780456498']</t>
+          <t>['2779584631', '82341920', '2781384209', '142077812', '2778561184', '2909647022', '2777533032', '2778216598', '2779501705', '28129649', '2781426361', '2778343834', '2776465305', '2908621740', '2910435018', '2780290423', '2778452349', '2780761588', '2909895442', '2780623907', '2780456498', '2777262119', '196777733', '2776672683', '527821871', '2779363069', '2781069661', '549605437', '2778890030', '186191158', '129047720', '2778727652', '2910997320', '178377140', '78302928', '2781094592', '2909509366', '2781304125', '2779206190', '2911219547', '178511221', '2778430866', '2778502840', '15553842', '2780393519', '2776094956', '2778054917', '2778408412', '553381038', '2777553175', '36289849', '2779566690', '2778754916', '2781061807', '2777608298', '2778151340', '2781436281', '2908737072', '2779490853', '2778096659', '2910993519', '2775950104', '2780899237', '2776605987', '2778140607', '2778882308', '189326681', '2776572681', '2781044819', '68062652', '519300510', '2776615708', '2776893239', '2779957034', '2776905528', '2779282124', '204208750', '2779597210', '2781116641', '2908684656', '2776554220', '43609274', '133925201', '20555606', '2776237081', '2777433830', '2778661615', '2778516963', '2909852078', '2779653078', '2775868463', '2780750338', '2776751285', '2779575352', '2776922509', '2911189839', '2778976928']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Right to food', 'Universalism', 'Tent city', 'Unbanked', 'Poverty threshold', 'Basic service', 'Measuring poverty', 'Guaranteed minimum income', 'Concentrated Disadvantage', 'Food policy', 'Disability and poverty', 'Poverty law', 'Multidimensional Poverty Index', 'Begging', 'Median income', 'Head of Household', 'Head count ratio', 'Poverty', 'Inclusive growth', 'Empowerment', 'Lumpenproletariat', 'Proletariat', 'Microfinance', 'Working poor', 'Underbanked', 'Microinsurance', 'Disinvestment', 'Poverty trap', 'Food Assistance Programs', 'Food prices', 'Gini coefficient', 'Access control', 'Asset poverty', 'Rural area', 'Income Support', 'Social science', 'Poverty gap index', 'Disadvantaged', 'Welfare dependency', 'Food security', 'Trade and development', 'Rural housing', 'Feminization of poverty', 'Cycle of poverty', 'Life expectancy', 'Chronic poverty', 'Food relief', 'Lump sum', 'Disaster risk reduction', 'Crisis', 'Child poverty', 'Food Stamp Program', 'Diseases of poverty', 'Working Woman', 'Concentrated poverty', 'Social isolation', 'Cash transfers', 'Public distribution system', 'Moving to Opportunity', 'Vulnerability index', 'Extreme poverty', 'Economic mobility', 'Pauperism', 'Poverty map', 'Economic deprivation', 'Fat redistribution', 'Poverty Areas', 'Shanty town', 'Poverty status', 'Safety net', 'Social insurance', 'e-social science', 'Frugal innovation', 'Social capital', 'Social risk management', 'Distribution of wealth', 'Social protection', 'Vulnerability', 'HOPE VI', 'Rural poverty', 'Bottom of the pyramid', 'Conditional cash transfer', 'Basic needs', 'Underclass', 'Income distribution', 'Prosperity', 'Pension', 'Welfare program', 'Short run', 'Earnings', 'Culture of poverty', 'Slum upgrading', 'Standard of living', 'Food stamps', 'Active labour', 'Relative deprivation', 'Poor relief']</t>
+          <t>['Pauperism', 'Lumpenproletariat', 'Cycle of poverty', 'Standard of living', 'Shanty town', 'Working Woman', 'Moving to Opportunity', 'Safety net', 'Disability and poverty', 'Microfinance', 'Earnings', 'Slum upgrading', 'Underclass', 'Food Stamp Program', 'Food stamps', 'Poverty map', 'Rural poverty', 'Median income', 'Food relief', 'Disadvantaged', 'Poor relief', 'Microinsurance', 'Basic needs', 'Poverty trap', 'Access control', 'Food policy', 'Vulnerability index', 'Food security', 'Head count ratio', 'Vulnerability', 'Rural area', 'Poverty gap index', 'Food Assistance Programs', 'Culture of poverty', 'Crisis', 'Frugal innovation', 'Economic deprivation', 'Social risk management', 'Gini coefficient', 'Welfare program', 'Basic service', 'Unbanked', 'Cash transfers', 'Proletariat', 'Tent city', 'Chronic poverty', 'Lump sum', 'Underbanked', 'Extreme poverty', 'Head of Household', 'Social science', 'Economic mobility', 'Concentrated poverty', 'Universalism', 'Right to food', 'Asset poverty', 'HOPE VI', 'Concentrated Disadvantage', 'Conditional cash transfer', 'Distribution of wealth', 'Poverty Areas', 'Measuring poverty', 'Pension', 'Diseases of poverty', 'e-social science', 'Feminization of poverty', 'Poverty', 'Working poor', 'Child poverty', 'Social capital', 'Income distribution', 'Inclusive growth', 'Social isolation', 'Food prices', 'Poverty law', 'Social insurance', 'Short run', 'Begging', 'Guaranteed minimum income', 'Poverty status', 'Prosperity', 'Disinvestment', 'Life expectancy', 'Empowerment', 'Income Support', 'Social protection', 'Multidimensional Poverty Index', 'Relative deprivation', 'Fat redistribution', 'Rural housing', 'Poverty threshold', 'Disaster risk reduction', 'Public distribution system', 'Bottom of the pyramid', 'Trade and development', 'Active labour', 'Welfare dependency']</t>
         </is>
       </c>
     </row>
@@ -460,12 +460,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['2909991231', '2777022838', '2775868463', '2909753820', '118643609', '64112148', '2778173381', '2778661615', '2776824989', '2776853598', '147490202', '2779613291', '88199923', '155739000', '2778551664', '113416529', '2780143158', '112058002', '153427425', '2779298159', '2776325102', '2779529612', '2780238508', '14624660', '152613627', '514101110', '2778568511', '2777890039', '123244313', '2776364969', '2780351957', '2909327039', '2776779347', '1549246', '2909216340', '2909409184', '9927688', '113513581', '2778205388', '121412344', '139326070', '65193109', '2777631861', '2778329027', '2777704720', '2780174665', '2777784394', '159879943', '74893574', '2910137147', '55347375', '201490090', '156858999', '2781193452', '128383755', '2780498771', '2778018375', '68800169', '198979508', '189109488', '128058477', '152491559', '3987366', '2778036281', '176943803', '2780339060', '2909068147', '2778003962', '2778368945', '2777707811', '2781206450', '140413371', '2779944326', '2910855215', '73495956', '2779023244', '132000320', '31568149', '139145706', '2775992197', '2911152419', '53002841', '2780066083', '2909609276', '49461877', '2777492549', '2775841215', '2778327988', '2911039760', '2908556935', '103474955', '2778733383', '2777635537', '2779885280', '2910218496', '173145845', '2779287364', '2910254177', '155373166', '14522933', '115930662', '2781182717', '507981020', '2778554304', '2779869275', '2909580760', '2776082207', '2779381216', '30455989', '2776892409', '15147509', '84699730', '163588314', '2910708160', '33559203', '2776824459', '2777416314', '2780417240', '2780086105', '2909807485', '17857428', '72286879', '2776278397', '69907114', '2909506248', '199877563', '2778896754', '2779501324', '2778673487', '63651461', '118733760', '24717449', '2775874878', '2778200843', '16884802', '2909590382', '2776687813', '73593433', '2777953396', '2908542670', '100544194', '2778402112', '177701732', '112276597', '2910264974', '2911108994', '2779814588', '2779000468', '155015343', '2779958227', '510239367', '2779081038', '2778348119', '130217890', '2780040469', '2777106113', '2909358641', '2911036004', '156663261', '2780246931', '2911025827', '2779485152', '2780111930', '107674354', '34881761', '2910406661', '79339454', '2778312390', '2776107028', '2777253967', '2777952078', '2777833858', '53571324', '129360787', '31954745', '2777803996', '2909380268', '2779425982', '2909463689', '2781436638', '2776492830', '139019045', '2780900284', '84199377', '2778091200', '141732470', '2781348932', '155987862', '93990901', '2776111823', '2776725572', '24061886', '154098486', '2779427263', '125620115', '2776554196', '73580989', '2780946806', '2778724459', '2780127386', '2776191655', '2778939721', '2778291008', '2779656528', '2910375186', '2780467133', '60989497', '35378473', '2780343512', '201116201', '2778867918', '96650669', '2780397596', '173795300', '2780907584', '2776285232', '2779140988', '2777129469', '2776420369', '2778596745', '532801124', '47924181', '154702282', '123917164', '2776672683', '2779421218', '2776841711', '2779234561', '191440113', '118694661', '1924315', '192392207', '38774213', '36516193', '2910152589', '535291247', '2781397391', '2779215912', '516717267', '198150046', '2779587474', '2779427562', '37884843', '2781181605', '2778098436', '134643618', '2909296374', '91354502', '2778896901', '2910587469', '146188434', '64229544', '2909116410', '2781227287', '28781525', '2778484053', '2780429984', '2778165219', '28631016', '2779179000', '33824837', '2779909984', '2777480484', '2780982499', '2780523633', '2776708618', '194691359', '2780696901', '2910206840', '2779796875', '43272882', '58479451', '2910611143', '2779483572', '2776335591', '26291073', '2780671300', '2779824757', '2779991348', '2780065859', '107888415', '56095865', '164958353', '2776562576', '2776384079', '29376679', '195092306', '147273371', '62158283', '2777549804', '116370137', '14849681', '2777798493', '181268634', '2780797831', '2780072470', '165107724', '2781257293', '2776263494', '2779687958', '126914827', '2776596991', '2775832765', '39571515', '2777267482', '149207113', '2909529903', '2777110004', '151788092', '2778359420', '38739810', '2778962194', '118817206', '30481170', '2777206602', '2778898053', '2776499504', '2780871851', '172427765', '108216600', '2909999035', '2777617796', '181607587', '2780781704', '134068817', '2777802595', '2776176627', '2910212593', '122629976', '91067096', '2777278459', '2908993845', '2780717550', '102720910', '135895429', '2908572884', '550263199', '198815454', '2780067489', '119249163', '2779409326', '2910206990', '2775929138', '95803793', '2779562289', '71502557', '133382796', '2909499532', '2777438402', '69514717', '2778525234', '2776115401', '2910326811', '2779325724', '503900551', '115961737', '2777306872', '2775966360', '169684477', '22344907', '2776654248', '118518473', '2779249804', '2779294082', '2908544876', '2779562855', '2775991992', '70899900', '2781364378', '2776093933', '85675897', '93066458', '2911033078', '2619416', '23519681', '67031304', '195330766', '2778586117', '2909396454', '2776841996', '2781218492', '2910800256', '123336316', '105639569', '126343540', '2775838554', '2777434770', '2780528068', '2776121688', '135704130', '2779852692', '2776675269', '2776946213', '151107107', '197320908', '174553679', '130491866', '26785111', '2780556605', '2775980262', '2776139558', '2910174702', '16281581', '2780584575', '51926234', '112625547', '2779267909', '2910525245', '2780977904', '2779957034', '2779139258', '529335014', '2778333957', '505241676', '45920995', '2777476143', '2777176278', '2776574334', '2778152828', '2780948830', '2909598931', '189569837', '202682190', '152382732', '2776665667', '2779823546', '2778391067', '87621631', '508466165', '2779282177', '40667233', '2776367567', '153279818', '2780816530', '2910653396', '2910945474', '2776801807', '112892834', '2779457888', '74139830', '199535368', '38838508', '25382069', '2778852317', '196687554', '144492951', '2780179066', '2908538994', '2016182', '2779735984', '2780505049', '167296696', '2780745107', '2777796192', '96313414', '2779843069', '157777378', '112939947', '2779004245', '2778502483', '2911118914', '2779697819', '2780488879', '117480383', '165237769', '158215666', '2910321686', '68553557', '2777794352', '2776388979', '4792198', '77942228', '2777131864', '2910848602', '2780167305', '147103442', '2910933275', '149340888', '89920630', '2780748813', '2909101193', '2911208417', '81977670', '35158069', '2776998673', '116003164', '157717039', '2778134537', '2776623689', '2776660552', '2778728749', '2777499484', '139669111', '116607704', '2777399377', '2910579474', '91770344', '54625482', '2909743892', '110175623', '2910226413', '168857316', '126408429', '197011783', '105152847', '2778823544', '2778896599', '2779987062', '2910357638', '2779363728', '2777589951', '93707483', '87976508', '2778452849', '54924851', '2779564620', '14171219', '549605437', '2780774944', '173419221', '2780367213', '95869378', '120806208', '2910840360', '33275205', '91447561', '555313981', '2777350553', '88776829', '140327455', '2910706634', '2777380357', '141896089', '2778944361', '187457775', '2779873548', '535046627', '54815482', '2909135477', '8313540', '35306142', '73849760', '2776733808', '2777014122', '2777387638', '2780267512', '2781462481', '24144980', '94487597', '192536144', '2780756937', '121850381', '2910224097', '2776142123', '2909725152', '2780853707', '2780003869', '2779950014', '2777007095', '2781288472', '24518262', '120009192', '513059894', '2779096019', '2780191829', '2908631853', '551997983', '2777406646', '96105989', '2776336767', '2780589914', '2779310246', '2779623515', '2778597767', '2781094106', '98722961', '2910606548', '203017698', '2780655333', '2779979797', '108738950', '2779363069', '2779329624', '177658893', '2777900319', '2776259809', '172269249', '2778625682', '2779164741', '2909639017', '183135511', '169282265', '149817419', '2776978901', '82639676', '2780235837', '2777897731', '150194340', '2776890026', '33283694', '2910283248', '109902934', '2780775713', '197321923', '2776007641', '2777762679', '2777341207', '2781003712', '125069764', '2777981335', '2777988102', '2910221061', '165007447', '175760724', '2778851755', '2778226232', '2909420048', '59898753', '189307558', '132964779', '195973872', '97137747', '2780192938', '64551749', '2910491720', '2781275782', '147252523', '2779032678', '2780309462', '23837897', '2778589402', '2781121325', '2780623117', '2777246098', '201401522', '2777108408', '167393769', '2909512196', '2777858656', '14641543', '2781061397', '2776426263', '192241223', '25989453', '2777154535', '41478065', '2780289900', '2776654049', '2780394310', '2776421481', '162889289', '2777132354', '161189057', '2909524676', '2778358892', '2779290800', '162501224', '511355011', '203174812', '139518226', '68874143', '45152089', '5465852', '8673954', '2777542811', '2781168071', '2778718584', '2778361644', '2780077345', '42435023', '2778617593', '189775405', '2908797517', '2777589964', '2908942569', '2776953683', '79355281', '2909399481', '14918906', '2776876274', '2910294407', '2779128174', '153102810', '2910668823', '130693829', '190157891', '2777472530', '141151480', '32120771', '2781131740', '60359462', '2910188331', '153911025', '2777707638', '137555145', '2909152114', '2780492159', '20450499', '2780848231', '505870484', '2776500793', '199724614', '2777526573', '112149622', '126589399', '2780106736', '2777575642', '2777845105', '59582021', '2777768678', '2780221984', '2776054349', '2780527838', '2909532361', '16643866', '140130429', '2779895041', '2909857543', '45622825', '2910584990', '2910069897', '513806601', '192039558', '2775892496', '81993482', '12064787', '171205284', '2779146456', '89295123', '31903555', '509243982', '2777782036', '166548495', '207769581', '2779316989', '2781208722', '123281439', '2777189468', '2775831186', '34070608', '93944068', '134215735', '57269778', '2776840061', '77088390', '2910493534', '122748992', '72958200', '2778452349', '173917561', '2779764123', '2775999090', '2776962008', '1670747', '98108635', '74948603', '2780097091', '86409407', '202041845', '2781102901', '2911219547', '2909066392', '2780500427', '2781353100', '2780001261', '2779590308', '143020374', '2910182614', '2778148510', '154575652', '2778449271', '2775938548', '2776831678']</t>
+          <t>['30455989', '2780367213', '63651461', '29376679', '2779215912', '2776421481', '2779814588', '2780556605', '2776687813', '146188434', '167393769', '2780488879', '14641543', '2777399377', '161189057', '2910264974', '2777267482', '2776259809', '31903555', '2778452349', '123244313', '79355281', '2778327988', '28781525', '96313414', '135895429', '2776672683', '77088390', '14171219', '2777542811', '2779895041', '107888415', '2909463689', '72958200', '129360787', '2777858656', '2909590382', '2781182717', '201490090', '40667233', '151788092', '93990901', '2776492830', '2780774944', '123917164', '2780492159', '2908797517', '91354502', '2778551664', '2776654049', '505870484', '84199377', '2779873548', '147103442', '2779310246', '2776107028', '201401522', '38838508', '152491559', '2775980262', '2777380357', '197011783', '2776708618', '2781218492', '177701732', '2911025827', '2780086105', '113513581', '181268634', '2780077345', '20450499', '2779824757', '175760724', '2780528068', '2780797831', '159879943', '130693829', '165007447', '16643866', '2777129469', '2779885280', '2776841711', '117480383', '2777387638', '2778962194', '2781275782', '2776325102', '25382069', '112892834', '154575652', '2780498771', '2775868463', '2779329624', '2779164741', '2911033078', '2779843069', '155987862', '2777631861', '89295123', '2909857543', '198150046', '2908556935', '2780500427', '189109488', '2779004245', '2778724459', '110175623', '2780191829', '2780781704', '2909066392', '119249163', '130491866', '116003164', '2908544876', '105152847', '2779282177', '2779179000', '133382796', '26291073', '73849760', '2777782036', '2781257293', '115961737', '2781168071', '2777635537', '152613627', '8313540', '89920630', '158215666', '503900551', '2779823546', '162889289', '2910406661', '2779483572', '2910525245', '2780065859', '535046627', '2780748813', '2779081038', '118643609', '2779234561', '192392207', '2776831678', '2779587474', '53571324', '108738950', '2910224097', '189569837', '24518262', '2780948830', '2778718584', '23837897', '2909296374', '81977670', '2778728749', '2780072470', '2909101193', '2777132354', '41478065', '2778586117', '2779381216', '2778568511', '2776139558', '2780429984', '162501224', '35158069', '514101110', '172427765', '3987366', '2778368945', '2778823544', '2910375186', '2777416314', '2777900319', '2778152828', '141896089', '152382732', '191440113', '139019045', '2779427263', '2778484053', '2778348119', '197320908', '73580989', '60989497', '112058002', '2780671300', '2778851755', '2910493534', '2775874878', '2909807485', '116607704', '176943803', '24717449', '2781193452', '2909991231', '2779950014', '2910579474', '2779427562', '2780221984', '2780343512', '1549246', '64229544', '197321923', '2777707811', '2779023244', '2781102901', '2780982499', '2780040469', '2780696901', '2779501324', '28631016', '181607587', '2780001261', '126914827', '74139830', '2780143158', '2779409326', '2909580760', '2775838554', '132000320', '2776121688', '2780235837', '2777350553', '195092306', '2779290800', '82639676', '2778898053', '2776998673', '532801124', '141151480', '67031304', '2776946213', '2781436638', '2778617593', '2778452849', '2776384079', '2775992197', '166548495', '2909725152', '2777794352', '113416529', '2777707638', '511355011', '2778525234', '2776420369', '49461877', '153102810', '2777189468', '2778589402', '2780127386', '192039558', '153427425', '2778003962', '2780067489', '2777988102', '2776665667', '156663261', '2780523633', '2777007095', '2778896901', '2910840360', '122629976', '96105989', '2779287364', '2779096019', '59898753', '156858999', '135704130', '187457775', '73593433', '141732470', '510239367', '2779140988', '2779425982', '2910708160', '2910933275', '69907114', '2777981335', '2909499532', '2910212593', '2779298159', '169684477', '2909532361', '196687554', '2777341207', '2776336767', '2778036281', '39571515', '2777476143', '2777953396', '118694661', '2777438402', '2780853707', '55347375', '2911118914', '2776660552', '2777796192', '2781206450', '2780192938', '2781462481', '8673954', '2778291008', '2780977904', '2909753820', '171205284', '2780623117', '2778673487', '2778939721', '2780816530', '69514717', '2779249804', '2777131864', '2775991992', '2776890026', '2776426263', '2909506248', '150194340', '2776054349', '2909529903', '2910706634', '36516193', '2776962008', '143020374', '88776829', '2780309462', '93944068', '2777014122', '2780289900', '98108635', '2777253967', '2778733383', '81993482', '25989453', '149207113', '2908631853', '68553557', '550263199', '2777499484', '123336316', '2778391067', '202041845', '2775929138', '2908942569', '2780179066', '2777802595', '137555145', '513059894', '2780946806', '508466165', '2779623515', '2781208722', '93707483', '2781348932', '140413371', '103474955', '34070608', '2776733808', '2781094106', '149817419', '14849681', '149340888', '132964779', '70899900', '73495956', '2909380268', '14624660', '2776500793', '2779764123', '91447561', '97137747', '2910611143', '134643618', '2910182614', '144492951', '2777108408', '2777492549', '2777106113', '2776840061', '2910326811', '2778852317', '2778361644', '54924851', '100544194', '2777472530', '2779735984', '2777768678', '2910855215', '201116201', '199724614', '2780775713', '2777704720', '2910218496', '57269778', '195330766', '2908572884', '2910945474', '2779294082', '2779529612', '72286879', '2910653396', '2779363069', '14918906', '16281581', '2780848231', '549605437', '157777378', '2910174702', '87621631', '2016182', '2778333957', '2780907584', '125620115', '2781003712', '2908542670', '88199923', '2777845105', '53002841', '2780394310', '509243982', '2780717550', '60359462', '2779457888', '35378473', '2909598931', '42435023', '112276597', '59582021', '2777246098', '2780397596', '24144980', '2778896754', '2781353100', '2779421218', '177658893', '2779562855', '154098486', '2776093933', '2776111823', '2779697819', '74893574', '2776191655', '505241676', '516717267', '2780267512', '112939947', '2777176278', '2776725572', '2775966360', '2780238508', '2910206840', '551997983', '33283694', '2778896599', '65193109', '16884802', '183135511', '2779958227', '2781227287', '2779944326', '2779852692', '9927688', '2776388979', '2776364969', '167296696', '30481170', '2776574334', '2779562289', '24061886', '555313981', '126343540', '2778359420', '116370137', '2909396454', '207769581', '139669111', '120806208', '172269249', '2909116410', '2910137147', '2779564620', '2778173381', '2781131740', '115930662', '2780655333', '2778165219', '2780417240', '2910206990', '2778358892', '2780351957', '2779325724', '2909399481', '121850381', '2776285232', '2910321686', '126589399', '15147509', '2909358641', '87976508', '31954745', '2776654248', '168857316', '2909609276', '17857428', '2776278397', '54815482', '2780467133', '33824837', '2776953683', '2777784394', '26785111', '2779316989', '94487597', '2781121325', '2910491720', '173795300', '2776007641', '2775938548', '2781364378', '2776082207', '513806601', '2779909984', '2778502483', '2911208417', '2780246931', '2909524676', '2777480484', '128383755', '2776978901', '86409407', '121412344', '128058477', '2778597767', '2778312390', '2909327039', '2908538994', '2780505049', '51926234', '2776824989', '529335014', '2777803996', '157717039', '2909068147', '139326070', '98722961', '2909420048', '192241223', '2775892496', '102720910', '2777206602', '2777952078', '2908993845', '2909639017', '2779991348', '45920995', '147273371', '4792198', '155373166', '165237769', '2777306872', '192536144', '91770344', '2777549804', '12064787', '5465852', '2911039760', '93066458', '105639569', '34881761', '2777589951', '173419221', '112625547', '2776562576', '56095865', '2778226232', '203017698', '2910587469', '122748992', '2777526573', '107674354', '2778449271', '2777890039', '154702282', '38739810', '2779869275', '2910606548', '2777833858', '173145845', '199535368', '2780756937', '140327455', '139145706', '2779656528', '1670747', '126408429', '2777589964', '2777022838', '2776853598', '2911036004', '2910848602', '35306142', '77942228', '2776623689', '2778402112', '2909216340', '118518473', '2780111930', '47924181', '2910152589', '2777575642', '95803793', '2780066083', '174553679', '2781181605', '2911108994', '37884843', '38774213', '134215735', '147252523', '189775405', '2780745107', '2779139258', '2776779347', '2909999035', '2909512196', '169282265', '165107724', '2779000468', '2910357638', '153279818', '2779128174', '535291247', '2780003869', '2911219547', '22344907', '2910188331', '130217890', '2778205388', '2778625682', '2910283248', '198979508', '203174812', '202682190', '14522933', '2781288472', '125069764', '33275205', '2910226413', '2910221061', '2779957034', '151107107', '62158283', '2909743892', '2779363728', '2909135477', '155015343', '147490202', '74948603', '2779590308', '2779267909', '2776675269', '2909152114', '2781397391', '64551749', '1924315', '2776554196', '2910668823', '2777154535', '163588314', '2778329027', '2776892409', '2910584990', '112149622', '2776596991', '173917561', '108216600', '195973872', '199877563', '109902934', '43272882', '2910254177', '2777278459', '2776499504', '2619416', '2778091200', '2776841996', '164958353', '123281439', '2780527838', '54625482', '2776115401', '45152089', '2777406646', '79339454', '2780589914', '64112148', '2776142123', '134068817', '2778554304', '2780871851', '45622825', '96650669', '33559203', '2780174665', '2780106736', '2777434770', '2780339060', '2776801807', '120009192', '71502557', '2775999090', '2777110004', '140130429', '31568149', '2776335591', '2776263494', '2779146456', '2776367567', '2778596745', '190157891', '194691359', '2778867918', '2775841215', '2779796875', '2909409184', '2777897731', '153911025', '2780097091', '32120771', '118733760', '2780167305', '95869378', '91067096', '2778018375', '84699730', '23519681', '2779613291', '2777798493', '2779485152', '2778200843', '139518226', '2910800256', '2778134537', '2778944361', '2779987062', '85675897', '198815454', '2777617796', '2780584575', '2910069897', '507981020', '58479451', '2779032678', '2776176627', '2780900284', '2779979797', '2910294407', '2775831186', '2778148510', '2779687958', '155739000', '2778098436', '2776876274', '2776824459', '2775832765', '2778661615', '189307558', '2911152419', '2781061397', '68874143', '118817206', '2777762679', '68800169']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Fresh Tissue', 'Maximum sustainable yield', 'Poverty threshold', 'Z chromosome', 'Web application', 'Market price', 'Galactose', 'Multidimensional Poverty Index', 'Metavolcanic rock', 'Stand development', 'Food spoilage', 'Protein–energy malnutrition', 'Food processing', 'Market structure', 'Larch', 'Marine conservation', 'Porites', 'Hardwood timber production', 'Biodiversity hotspot', 'Sustainable fishery', 'Water-use efficiency', 'Dioscoreales', 'Chromosome 9', 'Pilotage', 'Overexploitation', 'Fishing', 'Monogastric', 'Weed science', 'Molecular microbiology', 'Oyster', 'Teleostei', 'Body Fat Measurement', 'Sorbitol', 'Normalized Difference Vegetation Index', 'Chronic malnutrition', 'Ice Creams', 'Biological pathway', 'Exclusive economic zone', 'Extinction probability', 'Pulpwood', '5:2 diet', 'Groundfish', 'Poeciliidae', 'Poverty Reduction Strategy Paper', 'Whale', 'Traditionalism', 'Sturgeon', 'Fertilisation', 'Food systems', 'Pineapple extract', 'Cultural control', 'Stock assessment', 'Gallery forest', 'Longline fishing', 'Agricultural productivity', 'Pocillopora damicornis', 'Fisheries co-management', 'Marine protected area', 'Forest fragmentation', 'Small Island Developing States', 'Contour plowing', 'Macroecology', 'Livelihood', 'Phytic acid', 'Vulcanian eruption', 'Subsoiler', 'Red Meat Consumption', 'Cytochrome c oxidase subunit II', 'Agreement on Agriculture', 'Chaparral', 'Multiple use', 'Commercial policy', 'Bigeye tuna', 'Low body mass index', 'Self-sufficiency', 'Steaming', 'Macrophyte', 'Near-threatened species', 'Food additive', 'Raw milk', 'Pediatric nutrition', 'Plant community', 'Repartition', 'D-Sorbitol', 'Mixed farming', 'Krill', 'Sustainable forest management', 'Albacore', 'Salt sodium', 'Stock Recovery', 'Coral bleaching', 'Brown Swiss', 'Landscape-scale conservation', 'Soybean oil', 'Tinned food', 'Refugee', 'Statistical database', 'Plant Immunity', 'Food chain', 'Micronutrient', 'Shelf life', 'Deschampsia flexuosa', 'Agricultural education', 'Welfare rights', 'Calluna', 'Prionace glauca', 'Perciformes', 'Stipa tenacissima', 'Domestic market', 'Brassica carinata', 'Conservation reliant species', 'Mycotoxin', 'Chromosome 16', 'Bacterial Physiological Phenomena', 'Desertification', 'Fishing net', 'Energy poverty', 'Lamprey', 'Forest product', 'Cytochrome C Oxidase Subunit 1', 'Nutraceutical', 'Prescribed burn', 'Revegetation', 'Refrigeration', 'West Africans', 'Ecotone', 'Stunted growth', 'Social vulnerability', 'Moisture stress', 'Tropical agriculture', 'Purified water', 'Primary production', 'Marginal land', 'Cytochrome c oxidase subunit I', 'Secondary succession', 'Protein-calorie malnutrition', 'Brachypodium pinnatum', 'Denitrification', 'Nail patella syndrome', 'Sus scrofa domestica', 'Fermentation', 'Agricultural extension', 'Organic horticulture', 'Measurement of biodiversity', 'Fish allergy', 'Nutritious food', 'Cyprinidae', 'Sprat', 'Plant breeding', 'Hatchery', 'Fisheries law', 'Grazing pressure', 'Wood industry', 'Biodiversity', 'Catch per unit effort', 'Crop simulation model', 'Cherimoyas', 'Child Nutrition Disorders', 'Agroecology', 'Y chromosome', 'Water salt', 'Convention on Biological Diversity', 'Artisanal fishing', 'Estuarine water circulation', 'Price level', 'Pre pregnancy', 'Regional Red List', 'Growth rate', 'Forest dynamics', 'Sphagnum', 'Nature Conservation', 'Anchoa', 'Nature reserve', 'Total dissolved solids', 'Skipjack', 'Cetacea', 'African swine fever', 'Generation R', 'Food intakes', 'Whitefly', 'Dipterocarpaceae', 'Viticulture', 'Nardus stricta', 'Freeze-drying', 'Shrub', 'DNA barcoding', 'Anatidae', 'Selection cutting', 'Multiple cropping', 'Theileria', 'Guar gum', 'Overfishing', 'Big-game fishing', 'Fish marketing', 'Logging', 'Evergreen forest', 'Biodiversity action plan', 'Plant functional type', 'Lactose', 'Swordfish', 'Ecoregion', 'Oyster farming', 'Rate of exploitation', 'Yellowfin tuna', 'M2 Macrophage', 'Dutch elm disease', 'Red List Index', 'Maillard reaction', 'Skin care', 'Food chemistry', 'Incidental catch', 'Biosphere model', 'Distinct population segment', 'Salvage logging', 'Chromosome 13', 'Tropical forest', 'Oncorhynchus', 'Trade agreement', 'Sodium bicarbonate', 'Micronutrient deficiency', 'Crop protection', 'Chromosome 3', 'Temperate deciduous forest', 'Bumper crop', 'Poverty trap', 'Bonefish', 'Barcode', 'Pregnancy', 'DNS root zone', 'Climax community', 'Crop diversity', 'Clearcutting', 'Soil fertility', 'Cod fisheries', 'Nutritional monitoring', 'Amazon rainforest', 'Raphanus raphanistrum', 'Sardine', 'Food safety', 'Biogeomorphology', 'Spray drying', 'Chondrichthyes', 'Ecotope', 'Soil solarization', 'Demersal fish', 'Bagasse', 'Regular diet', 'Basal area', 'Distillers grains', 'Panicum miliaceum', 'Tropical savanna climate', 'Habitat destruction', 'Unbalanced diet', 'Carrageenan', 'Carotenoid', 'Egg white', 'Fish reproduction', 'Botanical drug', 'Forest management', 'Grassland degradation', 'Rank-size distribution', 'Mytilus', 'Advanced very-high-resolution radiometer', 'Abalone', 'Labelling', 'Oenococcus', 'Liana', 'Conventional tillage', 'Feed analysis', 'Lupinus angustifolius', 'Statistical data type', 'Fish stock', 'Controlled diets', 'Dementia', 'Forest Vegetation Simulator', 'Ex vivo', 'Mixed grass prairie', 'Fat substitute', 'Skipjack tuna', 'Feed additive', 'Salt pan', 'Afforestation', 'Fish measurement', 'Plant strategies', 'Marine mammal', 'Wildlife', 'Deficit irrigation', 'Weed control', 'Species translocation', 'Ratooning', 'No-till farming', 'Shrimp farming', 'Perch', 'Aseptic processing', 'Fish stocking', 'Cyprinodontiformes', 'International waters', 'Grass carp', 'Gillnetting', 'Glutenin', 'Flagship species', 'Cultural methods', 'Striga', 'Undergrowth', 'Fish aggregating device', 'Water use', '1-hydroxypyrene', 'Vessel monitoring system', 'Moorland', 'African swine fever virus', 'Ecological farming', 'Mediterranean diet', 'Organic farming', 'Chromosome', 'Food sampling', 'Vegetation type', 'Artificial reef', 'Sulfatase', 'Vegetation', 'Tropical and subtropical dry broadleaf forests', 'Dietary change', 'Health effect', 'Generation', 'Short food supply chains', 'Chromosome 4', 'Crop insurance', 'Child survival', 'Special diet', 'Fringing reef', 'Megafauna', 'Essential oil', 'Infant Malnutrition', 'Hypoallergenic', 'Canonical correspondence analysis', 'Fisheries science', 'Poor nutrition', 'Permaculture', 'Soil seed bank', 'Isocitric acid', 'Felling', 'King mackerel', 'Nutritional care', 'Coffea', 'CITES', 'Continuous cover forestry', 'Tree line', 'Secondary forest', 'Domestic pigeon', 'Location transparency', 'Ecohydrology', 'Anchovy', 'Prawn', 'Nutrition Monitoring', 'Anguillidae', 'Urban agriculture', 'Juvenile', 'Shorea', 'Silviculture', 'Minimum tillage', 'Agricultural diversification', 'Freshwater fish', 'Agriculture', 'Staple food', 'Lolium rigidum', 'Nutrition Disorders', 'Insect biodiversity', 'Lactobacillus hilgardii', 'Polyphenol', 'Seed saving', 'Sea cucumber', 'Soil management', 'Salting', 'Severe malnutrition', 'Rainforest', 'Montane ecology', 'Preservative', 'Fire ecology', 'Fishing line', 'BMI - Body mass index', 'Shrimp', 'Wildlife crossing', 'Bottlenosed dolphin', 'Product market', 'Economic policy', 'Crop yield', 'Consumptive water use', 'Water pricing', 'Plant nutrition', 'Virtual water', 'Food preservation', 'Melon', 'Serranidae', 'Indigestion', 'Terroir', 'Pioneer species', 'Gene map', 'Brining', 'Soybean management practices', 'Sunflower oil', 'Prebiotic', 'Shrimp fishery', 'Ground food', 'Flavour', 'Isobutyric acid', 'Market microstructure', 'Food composition data', 'Marxan', 'N-Butyric acid', 'Urban forestry', 'Food prices', 'E-agriculture', 'Starch', 'Baby food', 'Chlorine', 'Intraspecific breeding', 'Nutrition analysis', 'Starter', 'Agricultural robot', 'Clogging', 'Stubble-mulching', 'Severe Acute Malnutrition', 'Metapopulation', 'Insular biogeography', 'Shore', 'Ocean fisheries', 'Nutritionist', 'Trawling', 'Taiga', 'Fishing industry', 'Turbot', 'Agroecological restoration', 'Flounder', 'Stocking', 'Forest protection', 'Followup study', 'Gooseberries', 'Pinus radiata', 'Low residue diet', 'Food defense', 'Food packaging', 'Coarse fishing', 'Local extinction', 'Seral community', 'Agricultural policy', 'De-extinction', 'Coral reef fish', 'Disc harrow', 'Vascular implant', 'Animal breeding', 'Jellyfish', 'Tamarix', 'Fertigation', 'New Economic Policy', 'Exclosure', 'Primary succession', 'Butyric acid', 'Boiling', 'Green Revolution', 'Tilth', 'Scallop', 'Product Labelling', 'Biosignature', 'Propolis', 'Atoll', 'Chromosome 15', 'Formant', 'Nutrition care', 'Demersal zone', 'Dioscorea rotundata', 'Red edge', 'Land use', 'Pelagic zone', 'Equine nutrition', 'Nutrition outcomes', 'Agrometeorology', 'Forest inventory', 'Product Labeling', 'Bycatch', 'Biome', 'Sustainable management', 'Food label', 'Pregnancy 2', 'Genetic diversity', 'X chromosome', 'Carotene', 'Fish physiology', 'Chromosome 20', 'Domestic pig', 'Yield mapping', 'Smoked fish', 'Molinia caerulea', 'Food waste', 'Understory', 'Population viability analysis', 'DSSAT', 'Fruit intake', 'Overgrazing', 'Community forestry', 'Brazil nut', 'Broodstock', 'Convenience food', 'Commercial fish feed', 'Soil health', 'Denitrifying bacteria', 'Call to action', 'nutritionDay', 'Fish products', 'Mussel', 'During feed', 'Trout', 'Irrigation scheduling', 'Bioclimatology', 'Microstructure', 'Trehalose', 'Sustainable agriculture', 'Lecithin', 'Agricultural soil science', 'Food security', 'Salt substitute', 'Crossbreed', 'Agricultural biotechnology', 'Pyroclastic rock', 'Volcano', 'Theileriasis', 'Mesopelagic zone', 'Photosynthesis system', 'Tropical rainforest', 'Product marketing', 'Tussock', 'Roasting', 'Food labelling', 'Rainfed agriculture', 'Fish farming', 'Dioscorea', 'Bottom fishing', 'Crab fisheries', 'Clinical trial', 'Chromosome 22', 'Cluster beans', 'B chromosome', 'Extinction event', 'Coral reef protection', 'Food sovereignty', 'Soy protein', 'Forestry law', 'Nestedness', 'Fumonisin B2', 'Chromosome 18', 'Sensory system', 'Sexual maturity', 'Pectin', 'Certified wood', 'Lunar Cycle', 'Species at Risk Act', 'Holstein Cattle', 'Deep-water coral', 'Tenderness', 'Flatfish', 'Moderate-resolution imaging spectroradiometer', 'Coral Triangle', 'Threatened species', 'Total factor productivity', 'Food industry', 'Vegetable oil', 'Food distribution', 'Vitamin D supplement', 'Malnutrition', 'Mackerel', 'Guideline Daily Amount', 'Gluten', 'Ingredient', 'Least Developed Countries', 'Coralline algae', 'Sucrose', 'Commercial fishing', 'Phylogenetic diversity', 'Multifunctional Enzymes', 'Modified atmosphere', 'Weaning', 'Tyrosine decarboxylase', 'Summer fallow', 'Food policy', 'Important Bird Area', 'Chromosome 12', 'Food fortification', 'Ammophila arenaria', 'Marine invertebrates', 'High forest', 'Bycatch reduction device', 'Food shortage', 'Natural resource management', 'Molecular breeding', 'Ecoagriculture', 'Tree breeding', 'Tornado family', 'Nothofagus', 'Whey protein', 'Gene expression', 'Nutrition Education', 'Deciduous', 'Economics policy', 'Volcanology', 'Iliana', 'Cultivar', 'Price band', 'Food contact materials', 'Sustainable land management', 'Ruminant', 'Tundra', 'Seabird', 'Pratylenchus', 'Blue marlin', 'Nutritional science', 'Crop rotation', 'Fisheries Act', 'Pesticide application', 'Green teas', 'Shrubland', 'Great Green Wall', 'Raw data', 'Eggshell', 'Forestry', 'Diet-induced obese', 'Volcanic ash', 'Consumer Product Safety', 'Biodiversity offsetting', 'Purebred', 'Citric acid', 'Tannin', 'Genetic engineering', 'Famine', 'Underweight', 'Destructive fishing practices', 'Condition index', 'Plant cover', 'Sugar', 'Adaptive strategies', 'Vitamin D intake', 'Campylobacteriosis', 'Group cohesiveness', 'Trifolium subterraneum', 'Urban forest', 'Volcanic rock', 'Leaf area index', 'Controlled traffic farming', 'Surface irrigation', 'Broiler', 'Conservation finance', 'Bouteloua gracilis', 'Monodominance', 'Mid price', 'Shelterwood cutting', 'Coulee', 'W chromosome', 'Ruminantia', 'Herring', 'Palynology', 'Obesity', 'Woodland', 'Sclerophyll', 'Mangrove', 'Floristics', 'Red tide', 'Microfluidics', 'Sailfish', 'Peri-urban agriculture', 'Environment Protection and Biodiversity Conservation Act 1999', 'Yield gap', 'Spice', 'Animal nutrition', 'Biocultural diversity', 'Titratable acid', 'Fat Measurement', 'Co-fermentation', 'B-Carotene', 'Prune belly syndrome', 'Dutch disease', 'Mycotoxicosis', 'Virtual population analysis', 'Food poisoning', 'Apple extract', 'Scots pine', 'Diel vertical migration', 'Nutritional analysis', 'Chromosome 19', 'Hermatypic coral', 'Catch crop', 'Agricultural biodiversity', 'Ecosystem engineer', 'Pinus pinaster', 'Extinction', 'American shad', 'Molecular biology', 'Vascular plant', 'Chromosome 21', 'Dioscorea cayenensis', 'Animal feeding operation', 'Detrended correspondence analysis', 'Sweet sorghum', 'Fishery', 'Beech', 'Prices of production', 'Freshwater inflow', 'Biotope', 'Umbrella species', 'Cholecalciferol', 'Sesbania', 'Deep scattering layer', 'Contig', 'Fish trap', 'Body mass index', 'Vegetation classification', 'Residual feed intake', 'High air pressure', 'Digestion', 'Conservation agriculture', 'Land footprint', 'Fat bodies', 'Factor price', 'Risks benefits', 'Nutrition Labeling', 'Applied ecology', 'Biofertilizer', 'Apocarotenoid', 'Integrated farming', 'Alternative stable state', 'Plant reproduction', 'Sustained yield', 'Forest pathology', 'Food science', 'Animal feed', 'Inbreeding', 'Wildlife management', 'Marine reserve', 'Cytochrome c oxidase subunit III', 'Intercropping', 'Fishing down the food web', 'Anthracology', 'Small farm', 'Cover crop', 'Phytogeography', 'Flock', 'Isochromosome', 'Bottlenose dolphin', 'Database', 'Campylobacter species', 'Gradient analysis', 'Trophic level', 'Rural poverty', 'Catch and release', 'Wasting', 'Joint Forest Management', 'Infant nutrition', 'Agribusiness', 'Phenomics', 'Calcareous grassland', 'Halimeda', 'Dendrometry', 'Fisheries management', 'Hydroacoustics', 'Welfare program', 'Biological Stress', 'Stover', 'Thinning', 'Amazonian', 'Acropora', 'Coral', 'Product Label', 'Bioeconomics', 'Reforestation', 'Development aid', 'Thematic Mapper', 'Orange roughy']</t>
+          <t>['Domestic market', 'Agricultural biotechnology', 'Tropical agriculture', 'Wildlife', 'Sardine', 'Monodominance', 'Cyprinidae', 'Sunflower oil', 'Brachypodium pinnatum', 'Tropical savanna climate', 'Adaptive strategies', 'Propolis', 'Group cohesiveness', 'DSSAT', 'Coulee', 'Fish allergy', 'Fish aggregating device', 'Ammophila arenaria', 'Food science', 'Rural poverty', 'Molecular microbiology', 'Dutch disease', 'Albacore', 'Carotenoid', 'Primary succession', 'Fisheries science', 'Poverty trap', 'Database', 'Agricultural soil science', 'Sailfish', 'Land footprint', 'Salt pan', 'Food intakes', 'Trophic level', 'Total dissolved solids', 'Campylobacteriosis', 'Protein-calorie malnutrition', 'Deschampsia flexuosa', 'Stock assessment', 'Agroecological restoration', 'Moorland', 'Multiple cropping', 'Dipterocarpaceae', 'Salt substitute', 'Bumper crop', 'Animal feeding operation', 'Fat Measurement', 'Basal area', 'Larch', 'Conservation finance', 'Fishery', 'Freeze-drying', 'Crab fisheries', 'Forest inventory', 'Least Developed Countries', 'Forest dynamics', 'Plant cover', 'Local extinction', 'Macroecology', 'Prebiotic', 'Rainfed agriculture', 'Denitrifying bacteria', 'Oenococcus', 'Wildlife crossing', 'Organic horticulture', 'Water salt', 'Forest product', 'Exclusive economic zone', 'Aseptic processing', 'Spice', 'Detrended correspondence analysis', 'Fat substitute', 'Crop rotation', 'Plant nutrition', 'Fish stocking', 'Fertilisation', 'Chromosome 19', 'Nutritional science', 'Digestion', 'Trade agreement', 'Soybean oil', 'Barcode', 'Atoll', 'Forestry law', 'Mediterranean diet', 'Biodiversity offsetting', 'Water-use efficiency', 'Seral community', 'Low residue diet', 'Reforestation', 'Pocillopora damicornis', 'Poverty threshold', 'Important Bird Area', 'Bycatch reduction device', 'Severe malnutrition', 'Butyric acid', 'Selection cutting', 'Poeciliidae', 'Forest pathology', 'Fat bodies', 'Biogeomorphology', 'Stock Recovery', 'Stover', 'Small Island Developing States', 'Tilth', 'Lactose', 'Broodstock', 'Food distribution', 'Short food supply chains', 'Biological Stress', 'Felling', 'Brining', 'Fish physiology', 'Nutrition Disorders', 'Call to action', 'Turbot', 'Grassland degradation', 'Secondary forest', 'Ex vivo', 'Coral reef protection', 'Inbreeding', 'Grass carp', 'Juvenile', 'Peri-urban agriculture', 'Landscape-scale conservation', 'Overexploitation', 'B chromosome', 'Biome', 'Formant', 'Urban agriculture', 'Nutritionist', 'Mid price', 'Pre pregnancy', 'Dementia', 'N-Butyric acid', 'Feed additive', 'Clinical trial', 'Sustainable management', 'Grazing pressure', 'Web application', 'Pregnancy', 'Clearcutting', 'Orange roughy', 'Spray drying', 'Nature reserve', 'Summer fallow', 'Lunar Cycle', 'Metapopulation', 'Threatened species', 'Stubble-mulching', 'Environment Protection and Biodiversity Conservation Act 1999', 'Genetic engineering', 'Regular diet', 'Genetic diversity', 'Molinia caerulea', 'Cyprinodontiformes', 'Food label', 'Shelterwood cutting', 'Surface irrigation', 'Fishing line', 'Stipa tenacissima', 'Monogastric', 'Shrimp fishery', 'Fish reproduction', 'Palynology', 'X chromosome', 'Fishing', 'Vegetation', 'Livelihood', 'Agreement on Agriculture', 'nutritionDay', 'M2 Macrophage', 'Energy poverty', 'Food fortification', 'Clogging', 'Fish farming', 'Shore', 'DNS root zone', 'Viticulture', 'Fish marketing', 'Egg white', 'Wood industry', 'Pioneer species', 'Biodiversity action plan', 'Red List Index', 'Hardwood timber production', 'Mixed grass prairie', 'Fisheries Act', 'Campylobacter species', 'Marginal land', 'Cytochrome C Oxidase Subunit 1', 'Population viability analysis', 'Vulcanian eruption', 'Primary production', 'Longline fishing', 'Fresh Tissue', 'Flatfish', 'Fruit intake', 'Chondrichthyes', 'Body mass index', 'Skin care', 'Normalized Difference Vegetation Index', 'Habitat destruction', 'Cultivar', 'Chaparral', 'Steaming', 'Hydroacoustics', 'Abalone', 'Catch per unit effort', 'Conventional tillage', 'Social vulnerability', 'Forest management', 'Generation', 'Amazonian', 'Flagship species', 'Food packaging', 'Porites', 'King mackerel', 'Prionace glauca', 'Consumptive water use', 'Macrophyte', 'Virtual water', 'Nothofagus', 'Product marketing', 'Deficit irrigation', 'Herring', 'Tornado family', 'Vegetation type', 'Carotene', 'Crop protection', 'Agricultural biodiversity', 'Preservative', 'Indigestion', 'Whitefly', 'Biocultural diversity', 'Trehalose', 'Marine mammal', 'Raw milk', 'Wildlife management', 'Holstein Cattle', 'Dioscorea rotundata', 'Marine conservation', 'Vascular plant', 'Obesity', 'Anchovy', 'Sodium bicarbonate', 'Mixed farming', 'Diel vertical migration', 'Anthracology', 'Famine', 'Swordfish', 'Biofertilizer', 'Biodiversity hotspot', 'Cytochrome c oxidase subunit II', 'Isocitric acid', 'Pratylenchus', 'Ocean fisheries', 'Agroecology', 'Labelling', 'Moderate-resolution imaging spectroradiometer', 'Distillers grains', 'Theileriasis', 'Fringing reef', 'Guideline Daily Amount', 'Statistical database', 'Vegetable oil', 'Shrubland', 'Gallery forest', 'Food preservation', 'Bottom fishing', 'Denitrification', 'DNA barcoding', 'Fisheries law', 'Oncorhynchus', 'Generation R', 'Bacterial Physiological Phenomena', 'Product Labeling', 'Refrigeration', 'Seabird', 'Domestic pigeon', 'Special diet', 'Sustainable fishery', 'Minimum tillage', 'High air pressure', 'De-extinction', 'Sustainable land management', 'Gluten', 'Phytic acid', 'Undergrowth', 'Nutrition analysis', 'Nail patella syndrome', 'Climax community', 'Location transparency', 'Deep-water coral', 'Cultural control', 'Product Labelling', 'Smoked fish', 'Exclosure', 'Multiple use', 'Diet-induced obese', 'Fumonisin B2', 'Microfluidics', 'Rate of exploitation', 'Urban forestry', 'Z chromosome', 'Plant reproduction', 'Destructive fishing practices', 'Moisture stress', 'Oyster farming', 'Forest protection', 'Ecohydrology', 'Staple food', 'Equine nutrition', 'Lactobacillus hilgardii', 'Nutrition Education', 'Urban forest', 'West Africans', 'Gene expression', 'Vegetation classification', '1-hydroxypyrene', 'Food labelling', 'Cod fisheries', 'Infant nutrition', 'Coral', 'Tussock', 'Tannin', 'Phytogeography', 'Soy protein', 'Broiler', 'Phenomics', 'Sphagnum', 'Brown Swiss', 'Integrated farming', 'Leaf area index', 'Water use', 'Vitamin D supplement', 'Demersal zone', 'Permaculture', 'Food waste', 'Product market', 'Trawling', 'Fisheries management', 'Coffea', 'B-Carotene', 'Disc harrow', 'Crop insurance', 'Chromosome 21', 'Food industry', 'Plant functional type', 'Fishing industry', 'Coralline algae', 'Intercropping', 'Bioclimatology', 'Anatidae', 'Commercial policy', 'Coral bleaching', 'Cover crop', 'Food sovereignty', 'Commercial fishing', 'Ecoagriculture', 'Shrimp farming', 'Bycatch', 'Raw data', 'Polyphenol', 'Self-sufficiency', 'African swine fever', 'Pilotage', 'Beech', 'Wasting', 'Photosynthesis system', 'Forestry', 'Controlled diets', 'Bagasse', 'Product Label', 'Coral reef fish', 'Sugar', 'Krill', 'Crop simulation model', 'Bottlenose dolphin', 'Nutrition Monitoring', 'Agricultural policy', 'Yield gap', 'Sustainable agriculture', 'Fermentation', 'Catch crop', 'Jellyfish', 'Fish trap', 'Low body mass index', 'Food chemistry', 'Prices of production', 'Iliana', 'Whale', 'Tinned food', 'Isochromosome', 'Fire ecology', 'Poor nutrition', 'Gooseberries', 'Lolium rigidum', 'Dioscoreales', 'Prescribed burn', 'Followup study', 'Food policy', 'Virtual population analysis', 'Flavour', 'Sweet sorghum', 'Food security', 'Boiling', 'Ground food', 'Taiga', 'Animal breeding', 'Baby food', 'Chromosome 13', 'Logging', 'Ruminant', 'Sus scrofa domestica', 'Food processing', 'Deep scattering layer', 'Plant community', 'Bouteloua gracilis', 'Animal feed', 'Hypoallergenic', 'Extinction', 'Food defense', 'Maillard reaction', 'Severe Acute Malnutrition', 'Animal nutrition', 'Measurement of biodiversity', 'Contig', 'Condition index', 'Distinct population segment', 'Chromosome 18', 'Stunted growth', 'Thinning', 'Bonefish', 'Chromosome 12', 'Insect biodiversity', 'Big-game fishing', 'Sea cucumber', 'Theileria', 'Biosignature', 'Food systems', 'Ecoregion', 'Chlorine', 'Food safety', 'Nestedness', 'Green Revolution', 'Starter', 'Guar gum', 'Silviculture', 'Chromosome 9', 'Feed analysis', 'Malnutrition', 'Deciduous', 'Fish products', 'Groundfish', 'Secondary succession', 'Natural resource management', 'Hatchery', 'Carrageenan', 'Bigeye tuna', 'Melon', 'Biological pathway', 'Red edge', 'Oyster', 'Fertigation', 'Chromosome', 'Agricultural robot', 'Continuous cover forestry', 'Overfishing', 'Tropical rainforest', 'Crop yield', 'African swine fever virus', 'No-till farming', 'BMI - Body mass index', 'Marine reserve', 'Understory', 'Volcano', 'Marine invertebrates', 'Unbalanced diet', 'Pineapple extract', 'Lecithin', 'Galactose', 'Pinus pinaster', 'Shelf life', 'Weaning', 'Botanical drug', 'Lamprey', 'Nutritional care', 'Ruminantia', 'Teleostei', 'Anguillidae', 'Mycotoxicosis', 'Certified wood', 'Tropical forest', 'Nutrition care', 'Umbrella species', 'Conservation reliant species', 'Cherimoyas', 'Microstructure', 'Skipjack', 'Freshwater fish', 'Commercial fish feed', 'D-Sorbitol', 'Nutraceutical', 'Revegetation', 'Chromosome 22', 'Dutch elm disease', 'Rank-size distribution', 'Prune belly syndrome', 'Sturgeon', 'Soybean management practices', 'Cytochrome c oxidase subunit III', 'Sensory system', 'Underweight', 'Consumer Product Safety', 'Salvage logging', 'Price band', 'Thematic Mapper', 'Seed saving', 'Perciformes', 'Applied ecology', 'Mytilus', 'Scallop', 'Pregnancy 2', 'Y chromosome', 'W chromosome', 'Advanced very-high-resolution radiometer', 'Agricultural productivity', 'Tree breeding', 'Dendrometry', 'Pulpwood', 'Contour plowing', 'Sucrose', 'Growth rate', 'Body Fat Measurement', 'Vascular implant', 'Tamarix', 'Market microstructure', 'Metavolcanic rock', 'Starch', 'Cetacea', 'Chromosome 20', 'Red Meat Consumption', '5:2 diet', 'Phylogenetic diversity', 'Green teas', 'Volcanic rock', 'Apocarotenoid', 'Canonical correspondence analysis', 'Food sampling', 'Nature Conservation', 'Infant Malnutrition', 'Food shortage', 'Skipjack tuna', 'Intraspecific breeding', 'Weed control', 'Land use', 'Food chain', 'Chromosome 15', 'Shorea', 'Sexual maturity', 'Overgrazing', 'Ratooning', 'Alternative stable state', 'Red tide', 'Salt sodium', 'Salting', 'Economic policy', 'Price level', 'Irrigation scheduling', 'Crossbreed', 'Food composition data', 'Plant strategies', 'Afforestation', 'Pesticide application', 'Modified atmosphere', 'Panicum miliaceum', 'Gradient analysis', 'Freshwater inflow', 'Estuarine water circulation', 'Development aid', 'Weed science', 'Temperate deciduous forest', 'Ecological farming', 'Calluna', 'Multifunctional Enzymes', 'Anchoa', 'Refugee', 'Coarse fishing', 'Pectin', 'Roasting', 'Food additive', 'Yellowfin tuna', 'Agribusiness', 'Soil health', 'Co-fermentation', 'Maximum sustainable yield', 'Stand development', 'Child Nutrition Disorders', 'Nutrition outcomes', 'Extinction event', 'Pelagic zone', 'Yield mapping', 'Agricultural extension', 'Chronic malnutrition', 'Agriculture', 'Artisanal fishing', 'Chromosome 3', 'Nutritional monitoring', 'Sesbania', 'CITES', 'Repartition', 'Gene map', 'Soil solarization', 'Nutritious food', 'Ecotope', 'Soil fertility', 'Flock', 'Purebred', 'Titratable acid', 'New Economic Policy', 'E-agriculture', 'Sorbitol', 'Dietary change', 'Vitamin D intake', 'Molecular breeding', 'International waters', 'Sprat', 'During feed', 'Stocking', 'Scots pine', 'Amazon rainforest', 'Tenderness', 'Welfare program', 'Agricultural diversification', 'American shad', 'Biodiversity', 'Extinction probability', 'High forest', 'Economics policy', 'Forest fragmentation', 'Woodland', 'Insular biogeography', 'Micronutrient', 'Coral Triangle', 'Tundra', 'Mesopelagic zone', 'Convenience food', 'Blue marlin', 'Food prices', 'Terroir', 'Species translocation', 'Brazil nut', 'Trout', 'Cluster beans', 'Plant breeding', 'Food spoilage', 'Calcareous grassland', 'Acropora', 'Marxan', 'Serranidae', 'Dioscorea cayenensis', 'Raphanus raphanistrum', 'Volcanic ash', 'Crop diversity', 'Evergreen forest', 'Nutritional analysis', 'Controlled traffic farming', 'Chromosome 16', 'Poverty Reduction Strategy Paper', 'Brassica carinata', 'Risks benefits', 'Biotope', 'Cultural methods', 'Catch and release', 'Tropical and subtropical dry broadleaf forests', 'Eggshell', 'Ecotone', 'Volcanology', 'Statistical data type', 'Plant Immunity', 'Essential oil', 'Artificial reef', 'Rainforest', 'Shrub', 'Shrimp', 'Fish measurement', 'Fishing down the food web', 'Residual feed intake', 'Community forestry', 'Prawn', 'Floristics', 'Mackerel', 'Regional Red List', 'Ingredient', 'Market price', 'Species at Risk Act', 'Chromosome 4', 'Welfare rights', 'Sulfatase', 'Factor price', 'Biosphere model', 'Desertification', 'Traditionalism', 'Cholecalciferol', 'Water pricing', 'Subsoiler', 'Pinus radiata', 'Total factor productivity', 'Tree line', 'Joint Forest Management', 'Vessel monitoring system', 'Conservation agriculture', 'Near-threatened species', 'Forest Vegetation Simulator', 'Gillnetting', 'Sustained yield', 'Flounder', 'Micronutrient deficiency', 'Hermatypic coral', 'Liana', 'Incidental catch', 'Sustainable forest management', 'Lupinus angustifolius', 'Ice Creams', 'Whey protein', 'Molecular biology', 'Halimeda', 'Ecosystem engineer', 'Purified water', 'Agrometeorology', 'Pyroclastic rock', 'Megafauna', 'Fisheries co-management', 'Mycotoxin', 'Montane ecology', 'Protein–energy malnutrition', 'Perch', 'Convention on Biological Diversity', 'Cytochrome c oxidase subunit I', 'Sclerophyll', 'Bottlenosed dolphin', 'Domestic pig', 'Dioscorea', 'Mussel', 'Soil management', 'Soil seed bank', 'Health effect', 'Isobutyric acid', 'Nutrition Labeling', 'Agricultural education', 'Fish stock', 'Citric acid', 'Child survival', 'Nardus stricta', 'Tyrosine decarboxylase', 'Apple extract', 'Small farm', 'Bioeconomics', 'Glutenin', 'Market structure', 'Demersal fish', 'Food poisoning', 'Fishing net', 'Striga', 'Multidimensional Poverty Index', 'Great Green Wall', 'Pediatric nutrition', 'Trifolium subterraneum', 'Mangrove', 'Organic farming', 'Food contact materials', 'Marine protected area']</t>
         </is>
       </c>
     </row>
@@ -493,12 +493,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['2778399959', '2777953354', '2777975874', '2776063141', '2910465242', '2910972258', '2909372251', '2779420972', '2781460105', '2909963963', '187507357', '2909589967', '183469790', '2909408758', '156662089', '2780297037', '68760520', '2909576165', '2779675166', '2911146124', '2910730351', '159973064', '2777698361', '14218858', '2778722691', '2909600631', '2776576667', '2780571441', '2909466675', '2909189701', '2776188179', '2779246250', '2780265253', '2777076305', '2776052360', '2777425892', '2775866039', '99322962', '2910856221', '2910535204', '2779820218', '2909078269', '67359045', '158951850', '2777390754', '2780368226', '2780797203', '2780846426', '2910442062', '47056694', '81877008', '2909717218', '2909233451', '95057490', '152724338', '2780640149', '2778373884', '2778484150', '100837961', '2781056747', '2780144520', '192989942', '2910162420', '164585084', '2777537440', '2910759140', '2776535644', '2776964284', '178278151', '161937551', '2778199330', '2911009407', '2780350682', '2911158559', '2778820342', '2910007037', '2776273225', '2777217371', '2775992197', '2909491377', '2909606595', '2778678623', '2777977757', '2777417762', '2910291054', '2778641792', '151956035', '74167732', '2909717553', '2777160814', '2776459540', '2777343712', '2779832703', '2777154038', '2910584685', '2909869565', '2780073355', '2777691041', '2781087989', '512399662', '2779339292', '2776478399', '2780534909', '37080517', '2909636024', '2778356392', '2909469847', '2778359929', '2909419136', '2781468244', '2781377487', '2777000465', '2778239845', '153074725', '2781406297', '4051589', '2779837120', '2908872766', '2910962159', '2779830541', '31697123', '2777814797', '2781233496', '2909289205', '27101514', '190104652', '2778409475', '97664909', '193842886', '2780194963', '2776956477', '2776813713', '2910036229', '2780888721', '2778177356', '2908934917', '2780487920', '2911163904', '2776513736', '2778334829', '187541742', '43060935', '2778730409', '2779229956', '146998594', '2777306413', '2776266639', '2776188103', '160735492', '2779946112', '132351222', '2911023157', '130211564', '2780455818', '2908570994', '51915194', '22615655', '2776317666', '2779881493', '2908835861', '2779708716', '2776664896', '114115404', '2776504411', '2908914191', '2780819817', '2777585455', '2908626413', '2908688687', '2910172056', '2776356578', '2780307688', '545542383', '2909932690', '2909474349', '2778097013', '88667222', '2908741780', '2779544376', '2909894915', '2779310008', '113362759', '2909086583', '95293801', '2909860376', '154253233', '2775893642', '2777056410', '2909888880', '2909435783', '40986600', '2779902710', '2908817639', '2780612607', '2910450373', '2777508537', '2777271380', '2910341085', '2777530519', '2910077937', '2777043721', '2911164631', '2779307360', '2776639339', '2780985857', '2908889796', '2908916285', '97749175', '8840205', '2909083626', '50952357', '31995883', '40808061', '2780001606', '2776615572', '2909476064', '2777028646', '2775895618', '2781056559', '2777165109', '2776808119', '2780576314', '1862650', '2910936492', '181401712', '2778698291', '2909497934', '2780789458', '2780842079', '2776514915', '96781048', '2908957110', '2778580320', '112392421', '2777991916', '2781284789', '2910370000', '196843134', '2775847163', '16613235', '2910996002', '159382316', '2909608569', '2911129431', '2778302498', '66538056', '2910933853', '44695244', '2909677198', '2776471321', '2777096672', '40442364', '2909801250', '2779546753', '2781123077', '2910667942', '2910389800', '2911065597', '56366318', '59166482', '2780539906', '2910646903', '150008808', '2910727132', '2910824023', '2777747896', '2909484270', '2910277799', '2776166849', '2781301203', '2777956591', '2908571974', '2909640657', '2776805002', '2781053155', '2909663705', '2776430567', '2778208532', '2779327488', '166888038', '2779117399', '82736064', '2908807201', '2909800390', '2909146933', '2781151446', '2910341556', '2777871504', '2908956463', '2780764133', '2780559512', '2910247243', '2909466535', '2910398102', '2910607126', '2780935168', '2776151748', '2777177465', '24530287', '2778692027', '58415070', '2781088518', '2778897966', '2909158238', '2910678782', '43563269', '2909527422', '2780959883', '2909551178', '201903717', '2909941344', '2909680498', '189708586', '2778316768', '2780482068', '48556533', '2910830690', '2776988256', '2129178', '2780483514', '2776093070', '182676581', '2781057395', '2910009925', '2910654894', '2780348253', '2910663240', '2771230', '193699699', '2908564923', '60172819', '2778129406', '2911202200', '2909801038', '2910090174', '2909331411', '2777335581', '70508372', '112592302', '2908619610', '2780113767', '2778335811', '2909212245', '2908953109', '43018099', '2779408582', '12722491', '2909321672', '2780689927', '199360897', '2775860198', '2909010983', '2910426550', '2779254829', '2910127076', '2909535362', '175193931', '2776392104', '16587737', '58793620', '2908849193', '2776683971', '2780796293', '2777416452', '2780761556', '2909459615', '2779983491', '2908786790', '2778448707', '2777625098', '2776070282', '113775271', '2777346155', '2780476085', '2775978019', '2777006689', '2909780825', '2910531384', '2777972467', '2908626826', '2908707517', '2909663337', '118646709', '2909579892', '2776894844', '2910500838', '109317608', '2776682811', '2911100837', '2910974163', '2909118936', '2909683868', '2775965924', '2776992908', '2775854910', '2910404347', '2910305673', '45516822', '45827449', '2776035513', '204779464', '2908646064', '2778583881', '2776112390', '2778015638', '2911180711', '2779825392', '2910380316', '90924648', '2781234862', '44403221', '104397207', '2910450773', '2776443989', '2779960720', '2908561979', '2909697991', '96307122', '2778877834', '2778236061', '2776379505', '2910076441', '2909984949', '2780941728', '3409486', '103790658', '2910969103', '2911073662', '2778720886', '2780365284', '2777432695', '2781001490', '2911043454', '2908785520', '2909925444', '2910236268', '549673821', '121446783', '2779736190', '2779318932', '2779823546', '2781099131', '2908787063', '2910769085', '2776194053', '2910944628', '2909897528', '2775855016', '2779415522', '86257020', '2909886946', '2908523243', '2781087480', '2908882759', '53601487', '2776309818', '5284366', '2911174253', '2778164554', '2777398673', '2780914630', '2776214540', '2777646271', '2910185763', '2910731194', '2908522608', '2909601030', '2779287101', '2780535078', '2776501357', '2778812778', '2909082692', '20860254', '78795084', '170964787', '2779504368', '2781263782', '2911184074', '2909400059', '2910335277', '2909237324', '2778897197', '2778132481', '2779294709', '95190672', '2780287645', '2777133385', '2910210001', '2910428653', '101864126', '2911092792', '2910472162', '2779395532', '2780657872', '2909232720', '2908613175', '2778117643', '2909664645', '2781380102', '2776159415', '19052677', '2776206344', '2779961880', '2778051828', '2911062063', '2776193999', '2779763456', '2910477827', '2909113873', '2908594466', '2780566141', '2908774751', '2909560645', '2781236523', '2776821674', '2778420804', '90423213', '2776814716', '2780196416', '2908801081', '152198750', '2909327461', '2779078858', '188394188', '12125453', '2909885882', '2780535462', '2910961719', '501734568', '2778019847', '2910753976', '2777608072', '2909388778', '2910932248', '2777528758', '2778837869', '2777446050', '147583825', '2780189389', '44778022', '2777227250', '2910120708', '2910906864', '2780851604', '103000137', '49651878', '2779806549', '2910095249', '2780478335', '2776953283', '107433012', '36076068', '2910977130', '2776193436', '2910584544', '2777055891', '2908923426', '2908853348', '2779891985', '34737976', '14564219', '2780477327', '2909096955', '29323129', '551997983', '190857496', '2779117999', '2911100080', '2908657616', '2909397744', '2776827821', '2909017603', '2776145723', '2779715522', '2780135496', '2775935104', '2777203538', '2776553844', '2780676250', '2910225729', '77076574', '2780101865', '2910960421', '2909999518', '2779147130', '2779615886', '2778064476', '2909461408', '2776841403', '149532602', '2909225943', '2909966814', '2781053850', '117354338', '2780752271', '2781333626', '2909365210', '2778083979', '2779458634', '86007234', '2781457826', '2776808056', '172399796', '2776816829', '2780101021', '2909635684', '2910539084', '2781038880', '2776622691', '2779077069', '2910000002', '2779134260', '2778199621', '201780435', '97928714', '123576220', '2778662690', '2780865859', '2909132851', '2778941218', '2776964564', '2775885956', '2780145008', '2909069315', '2776941976', '2909831978', '2781183990', '2909770972', '2910780630', '2909453773', '2781433018', '2910283986', '2781005915', '2909666568', '2910626431', '95730909', '2778255263', '2777675387', '2910299298', '2910934447', '108625454', '2776409635', '2778963024', '44980441', '2777890820', '2909145594', '2910429138', '2911101950', '2778801244', '2777343278', '2911179607', '7182335', '2776834367', '14372207', '2779777945', '2776998989', '2777132076', '2908571571', '2776978879', '2778709874', '2910246410', '2909371084', '2781142959', '2909843942', '2909774845', '2777730150', '2776888042', '2779284873', '2778295384', '2911139892', '2776874759', '2908824208', '2909562708', '2911171335', '2779314966', '2908792780', '2780589465', '2781027925', '2778714489', '2778110834', '2780948618', '2780930249', '2779746161', '2780775027', '2779185355', '2776172268', '2778542873', '2910509766', '2910916536', '529618451', '2777015399', '2910384166', '2908575377', '2776310896', '2780657994', '116856471', '2909742758', '530470458', '2779564212', '2911066865', '2778988552', '2910192197', '2779728475', '2909781388', '2909719624', '2776089418', '2777429807', '545706735', '2777515774', '2778803959', '2779562246', '2778256703', '2776754145', '2910488691', '2778176773', '2779760629', '2777417524', '2775933685', '2911079008', '195521686', '136357698', '2778195246', '2908685445', '132096540', '2909039468', '25834368', '71527416', '2777987278', '2909853988', '2780760662', '2910453370', '2910778100', '2777280662', '2780433948', '2778420026', '2908523384', '2777754422', '2777315031', '2908569227', '2779960253', '2778446825', '155392382', '2779067128', '68731436', '2776660947', '2780927675', '2779124032', '2778279177', '2778279454', '2776847746', '2778519648', '2909815946', '2910515535', '2776141087', '2777879506', '161188086', '2777952488', '2777202849', '2777063393', '2777205943', '2778010489', '2781171867', '518773536', '2778607413', '2908842871', '2910521759', '2776591724', '79636183', '2780430637', '2909702156', '2776090121', '2777176818', '2779014961', '2778927644', '71928629', '2909156430', '2776957994', '2909570084', '178352248', '2909331172', '2779611823', '2780148517', '2911049572', '2911022636', '56940625', '2780567184', '2909682719', '31532488', '123584848', '46973012', '2775944032', '143647101', '2776362844', '2775832928', '196347352', '2780760462', '2777746085', '2778242859', '2908655827', '2781050511', '2910918403', '527108885', '114373084', '95150158', '195855529', '2781244666', '2908733782', '2909823619', '2909028682', '2775998654', '2777704247', '2910246402', '2910993415', '159674089', '2778672379', '2910949744', '2779033964', '68239362', '63103864', '100207259', '2781455916', '103191249', '2781036514', '2910734998', '2778075232', '2909056068', '143733281', '2780860654', '2779126167', '2909905686', '8290200', '2778227567', '2777545730', '2777226075', '2910419188', '2780092233', '3075310', '2775847253', '2911096375', '2909192171', '162264550', '2776260442', '10590036', '2781352674', '2910675177', '2779812711', '2910805231', '2909059089', '2909127511', '2778048899', '2908705917', '2781011581', '2778384578', '136193539', '2777407796', '87520248', '2779256223', '2779216453', '2778922544', '2778967368', '2781281211', '2777330947', '2780451725', '2910574371', '2780019924', '186697258', '2777921445', '2777939402', '2779018223', '2779770810', '2910732721', '2776649359', '2776867765', '99432707', '2780688631', '2778236407', '2909290400', '2776687281', '2909063161', '2780833581', '2777175894', '2780975770', '2778767360', '2909959974', '2909933723', '2909345156', '2780454388', '2909394687', '2910466267', '2776016174', '161039048', '2909827854', '2776976047', '2779714439', '2778946701', '2780965833', '2776625714', '2777160784', '2777700019', '2779671804', '2780122209', '2909616078', '2776248978', '2909974469', '2779018177', '2909160644', '2780347916', '2909735440', '2910724458', '2911100317', '2776009832', '2780381907', '2910902742', '2910793512', '2780644872', '2908848679', '17954761', '2781121460', '2777650959', '198454886', '2910032273', '2780522931', '85030129', '2780972224', '2780994212', '2781217586', '104428545', '2910031431', '2780393724', '2778013878', '2780647781', '122245378', '2779399491', '2908907863', '2777768864', '2776004912', '2910644452', '2911052160', '2777918570', '2779534489', '112144039', '2908868296', '2780540183', '2910504710', '2780942278', '182025440', '2778506969', '2779075527', '2780713498', '2778609137', '2778944870', '112224295', '2777334348', '2777823863', '2909771165', '2909700134', '40956017', '166029249', '2910951957', '2781074409', '2778951934', '2908534919', '2778976402', '2908634787', '2776924286', '117958382', '2911019706', '2778623998', '2908941940', '2909549470', '2909798980', '2779488543', '18033762', '153050134', '89484641', '2909455342', '2777767828', '2909161740', '2909004547', '2780240888', '2777437443', '44221107', '2779588740', '2780144141', '2781432083', '2778794311', '2780471426', '2910105704', '2776298325', '2909997509', '2911172176', '2779794483', '2780415110', '2777689261', '2778160350', '2909157853', '2908668323', '2779026464', '2911192443', '2778108375', '2778635641', '2780035688', '35138650', '2908891590', '2777548347', '150594956', '2777974785', '2780133158', '2778409180', '2780577055', '2777270591', '2779790309', '48424934', '2908545147', '2910814840', '2909061476', '2777445420', '2909824962', '2909347786', '2780790343', '2909585089', '2780708007', '2777452171', '525541732', '2776289866', '2780427545', '2910210000', '2779314293', '2777945365', '2909503172', '2780545995', '2908726200', '2776778849', '2781087925', '2778643307', '2910243004', '2780898380', '2776091944', '2910862628', '2780045663', '2909143790', '2780844640', '2908603949', '2910982019', '2777251271', '21833749', '2780561475', '2778338367', '2910380369', '2776572282', '5140985', '2781305912', '2780664029', '168444539', '2777581317', '2780416715', '2780458105', '2778081958', '2781030672', '159483092', '2776881634', '203857694', '2909205543', '177504595', '99971728', '2909445175', '2777851258', '2780502008', '24047667', '2778944715', '2778586271', '2780940807', '2781064340', '2776848118', '2779821038', '2909835301', '2908959886', '2777790613', '2775860004', '2777122282', '2778098279', '2911012991', '2909082607', '131783052', '2777756408', '2910955920', '2776662205', '2781325599', '2909095640', '2908918659', '2909190889', '18150654', '35785553', '2779868778', '29719523', '2910824264', '2909931398', '2776305115', '2780884295', '23036609', '145059251', '2776748497', '2776333679', '2910357078', '2776134451', '2778571141', '2777508679', '2778492647', '160284661', '51738704', '2779964219', '2910599447', '2910742204', '2909216229', '195598365', '2909711689', '2776134090', '2778455285', '33511622', '22723013', '116114238', '2775992772', '2781163603', '2781335228', '2781249495', '2911047819', '2780905385', '2910323103', '2909726849', '2780695664', '84787856', '2779072444', '2779399171', '2910047555', '187150481', '2909101151', '2909226329', '125046197', '2780113510', '2910173995', '2909452553', '2910043293', '2780934452', '2778652608', '2911082567', '2909406799', '2908731928', '2776996728', '2910825776', '2779913722', '167704817', '2908766111', '2910616052', '2909676883', '2911064607', '205679159', '2780955279', '2777151030', '2779435821', '2777582894', '2909171998', '2776385097', '2777370841', '38643226', '2776884468', '2778904691', '2780250439', '2778434417', '2910919162', '191560914', '2909560678', '2909041971', '2777932276', '105698618', '2776452501', '2908688558', '2777333352', '2909440198', '2776998901', '2778828131', '2779457091', '2778638198', '2779198267', '2910448010', '2781254305', '2910931359', '2777968807', '2781362533', '30352789', '2778805089', '2777052087', '2778941581', '2780814781', '175894554', '2779100257', '58772458', '2780848204', '2910922878', '2779022940', '2908567798', '2780053885', '135139957', '2781188250', '2910311221', '2779234475', '2777313579', '2777507495', '2778815084', '2780806966', '2909124324', '2780319870', '8330315', '2776244541', '2777590997', '2775859210', '2909312755', '2777198256', '2910454146', '2910515819', '2780807236', '2777982226', '2910794258', '156399914', '2781432121', '2781335186', '183521366', '2781178804', '24245907', '2779279117', '2779963736', '2910604149', '2778648961', '130959647', '2780957178', '2777341132', '536435272', '2778464334', '2910877098', '145065098', '2776379899', '2779920387', '2777143102', '2910632525', '2909746993', '2909060831', '129235324', '2781395839', '2909581452', '197902417', '2776256026', '2910267521', '2780739625', '2909960190', '2910274054', '2780165273', '2909182395', '2910893417', '2781335528', '2910126395', '2780225090', '2910907916', '2780211496', '2780168142', '27081682', '2911162902', '14568323', '2910684466', '24223341', '2909843733', '55775858', '2778398512', '34981463', '2910710179', '2778933494', '129374314', '2776666601', '2909620887', '2780180277', '2910364982', '2777034029', '2778549279', '2780252810', '2779812621', '2777311785', '2776747576', '2909403559', '2910217441', '2779317333', '2908894394', '2911044087', '2910279700', '2775895833', '2779200603', '4951695', '2779018908', '2780377017', '2777166712', '2909897056', '2779213384', '2910461042', '2909751219', '2908819134', '2778928357', '2908944216', '2780504720', '32268604', '2909795662', '96739231', '2909278008', '514090530', '2908945509', '2776116199', '189812789', '15490471', '2910581506', '2778891273', '2778751422', '2909358959', '2910209214', '2910480946', '2910040365', '2777929075', '2781185574', '2908701176', '2909007587', '2909219627', '2909352924', '2777177866', '2909656692', '2776880894', '2910669998', '2777215511', '2776313812', '2910224416', '2910352305', '161681244', '174884520', '2909181948', '2776603314', '62826618', '112423150', '2908987861', '2777411675', '2777892068', '2909942728', '2780130679', '2781095222', '2778095195', '2780269388', '2778030639', '2909565469', '2908611931', '2909682785', '2909359390', '2910254342', '2778001906', '2909637203', '2910230878', '513090587', '2778750487', '2780329011', '2909974199', '2910585295', '2776664737', '2910131554', '2778038603', '150966472', '2778015747', '2777807888', '2777482430', '2780344330', '2909798345', '28774466', '2779769559', '2778065167', '2908752488', '2780762869', '2776678776', '2780737065', '2910870021', '2778514029', '2778602366', '32611913', '2909937042', '2908616789', '2779341817', '2911198927', '2909273432', '2910183347', '2779033913', '2909799195', '2776559941', '2778140631', '2909459800', '4892016', '2910602479', '2908711114', '2777582095', '2780075904', '2910019571', '2909287173', '2910400954', '2780283655', '2778807442', '158457848', '139059822', '2779357504', '2910710802', '2776289493', '2908805280', '2780561598', '2778613593', '2909946173', '42084846', '2779710473', '2780229479', '77281830', '2911000433', '2779519742', '2909187439', '2781168792', '2776610909', '2780052202', '2780656811', '2780231208', '2911189494', '2776692505', '2777692091', '44249647', '2910220699', '8051207', '2779214519', '2910802627', '157481446', '2908689992', '2778528637', '2777615887', '2777371436', '2781179364', '2908682257', '2780662894', '2781094116', '2776041477', '2910754541', '2780929364', '2910048620', '2908531242', '2781328992', '2910282157', '2776709541', '2781313946', '2909088125', '2779717584', '2777965375', '2910348288', '2911105077', '2909513626', '2778934254', '111926329', '2781446524', '2779010597', '2778814963', '176685330', '162967406', '2908694303', '2776700747', '2780127125', '2777538368', '2780533449', '2780057945', '2909958923', '2777209535', '2780867798', '2781031023', '2911057444', '2910885888', '2911006864', '2777183552', '2910675294', '2781196997', '2910834664', '2777026814', '2910653213', '2910054325', '2909311223', '191608507', '2777538456', '2910886357', '147656717', '2910017599', '2910082707', '203014093', '2778670441', '190712762', '2909134871', '2910465471', '2909294874', '2909047091', '2778775820', '6505270', '2776652256', '2910810009', '2776784659', '2776258884', '97425143', '79061702', '2908993668', '2779054126', '2909021529', '45505151', '2781430460', '174483455', '2780744026', '2910760457', '2776546559', '2776337968', '2909670896', '2779916348', '163716698', '38829236', '2780227034', '2778880498', '2780390057', '2776883082', '2777195935', '2908638431', '2909243863', '2777557582', '2777257067', '2779188306', '2909991231', '2909168046', '34935008', '2776474662', '2779356665', '53927964', '2781367151', '2780303919', '2909974400', '2909673367', '2776428644', '2779328685', '72404758', '48261664', '2776096205', '128544194', '2779747150', '2777075493', '29390026', '2910198379', '2909971043', '2779192497', '2779717098', '2779751288', '2777938653', '2909289745', '2776341189', '2909939529', '2778681053', '2778638681', '2778580959', '2779533435', '2908770081', '2778902264', '2909608312', '2908868585', '188945261', '2778749371', '2776235749', '2909794420', '2909986567', '2777802829', '2776290861', '152236973', '2778917124', '2780404832', '137132547', '142054583', '2779640190', '2910619355', '2776045273', '2909088828', '2779452902', '2780835470', '2779130552', '2909561987', '2778329239', '2779098763', '2777057672', '2910478701', '2778275680', '2779560602', '2780954891', '2910102116', '2777862052', '2779646400', '2910650385', '66972969', '2777457466', '2910818726', '2909603797', '2779673892', '2776207728', '2779835638', '2778690381', '112641889', '2909720742', '2909823427', '109156525', '2777615459', '2910520875', '2781033279', '2776266264', '2909147877', '2909297007', '2909091063', '2909770347', '2781333164', '2910171990', '151666851', '2780661987', '2908707692', '2909718394', '2780873365', '86282344', '198867934', '2908687608', '2909135458', '2777016536', '2776194525', '75150742', '2910979876', '2911216512', '2910545766', '110387660', '2780692415', '2778214642', '2910920450', '2909437798', '2776561140', '2780750233', '2911172444', '2910568072', '2910426116', '2777445226', '2781410774', '2909734619', '2909403623', '2909829953', '2777393122', '2780203217', '2909413335', '2910923817', '44315111', '2908644067', '2780417240', '2908707063', '2779558481', '2908755113', '17093226', '2778471422', '2909026906', '14430832', '2776311326', '2779537928', '104314149', '2777028498', '6742658', '2908678506', '2776940978', '2910353821', '25311885', '2909848915', '2780226346', '2777543607', '130010870', '2911015291', '2778740236', '184538305', '2909622525', '2909011058', '2909875689', '2910568048', '2910010793', '2910053701', '163864487', '2780355799', '2778986146', '2779127605', '2777930144', '2781019087', '111998727', '2777382798', '2781471045', '2779890911', '2908861538', '2910994418', '2909113056', '2777649267', '2779695342', '2909611190', '2780356878', '2908591018', '2910511042', '2779140760', '2910433760', '2910367453', '2911204043', '2778319317', '2781309135', '2777542384', '2909926780', '2910160605', '2909217002', '2908984972', '2908619299', '2911221801', '2781138129', '2779634917', '2780542314', '2781000923', '31734879', '2910319392', '2910445844', '2910882873', '2778806077', '2908973738', '2779293866', '2779419017', '114538912', '2777529286', '2909135397', '2779496938', '2777402515', '2909287870', '84815855', '2777621572', '2778452426', '2910614109', '88532467', '2780366628', '2908814426', '2908915170', '2909111395', '2776938444', '2910616045', '2909299586', '2781058234', '2777479973', '2780235182', '2780732545', '2910360725', '2779506587', '2778596745', '2909462486', '2780056126', '2779863674', '46111723', '2910617863', '2777546739', '41443022', '2908951638', '2780217633', '2910367472', '2777671420', '2775961468', '2778005785', '2781443149', '2777153553', '2908872746', '2910211553', '2777459323', '2910584931', '2781092032', '2781430139', '2909448170', '63405582', '2908964528', '2910842200', '2776397665', '2909218482', '2778830639', '2776241388', '2780835546', '2778348428', '2776970978', '2909021095', '2776343132', '34425596', '2909137948', '2909620273', '2779801569', '2910587157', '2778040916', '2775882903', '2778161530', '2910336839', '2778236049', '2780480104', '2778347918', '2910940345', '2909989789', '2909733438', '2778993773', '2778432232', '2910405283', '2779941686', '2778840127', '2779372652', '2780053029', '2779171459', '127801297', '2909744209', '2776733727', '29993825', '2778159538', '2910777914', '2779578232', '2781441883', '2777552930', '2909642817', '2909872244', '2909939291', '2777358149', '2910508087', '66949984', '2778270857', '2909322270', '2779029879', '2776979040', '181268634', '2779656172', '2777396833', '2780764818', '2909505099', '2778324535', '522857546', '2780559468', '2909257975', '2781460226', '171089720', '2908988598', '2909616470', '114565086', '2778836808', '2776604044', '2910285059', '2909962599', '2908829762', '41727105', '2909200558', '2908626632', '2780848588', '78245214', '2778155611', '2780067814', '2909623057', '2777042810', '2908624950', '2780255948', '2909184305', '2781399573', '196762363', '107400117', '2908623503', '2775877586', '2778478650', '2776844884', '2779982054', '38137600', '2778350249', '20463939', '90642696', '2777636852', '2909807062', '2778242392', '2779140873', '2781240919', '2775872116', '2777819096', '181612422', '2780504541', '2780283014', '2908572884', '2908602901', '2909575379', '2777216955', '2778653282', '2908788405', '104211972', '2910988456', '2910662323', '2908781503', '2777813720', '2910733088', '2909200035', '2778230176', '2911202535', '2780864610', '2776114971', '2910491948', '2780775834', '2909774446', '2777547430', '58865670', '2777185836', '2778485902', '2778313021', '2909450026', '68784500', '2909531777', '2908921747', '2908781282', '24998067', '2777575956', '2781083702', '2780977457', '2779789940', '2909957015', '2780554921', '2780373117', '170320452', '2777023796', '2909044596', '2778934081', '67761136', '2911049907', '2909880635', '2777113529', '2775952470', '2780656570', '2909524538', '2777363262', '2780683386', '2779066535', '2776067312', '2780051777', '2908883545', '2909022959', '2909829934', '2911019494', '160941953', '2781323092', '2778808290', '2776796639', '2778058069', '2781362769', '111023892', '2911064531', '2910946668', '2779165098', '2777472119', '2781003276', '2781223058', '199217515', '2780962921', '7876069', '3060791', '2910207546', '2781465214', '202953179', '2777888504', '2776387214', '202636595', '2775946041', '2775886723', '5041914', '2779168441', '148737382', '2911024752', '2777851494', '2777786686', '2909457707', '4507703', '2776408163', '2909267907', '2910602578', '2777960172', '2779473686', '2910107048', '106825092', '2780959517', '2910045204', '2908758235', '2779488553', '2909286685', '2776727336', '2779196318', '2779516188', '2778260499', '2776755627', '2780200183', '2909579140', '2777922258', '2781468836', '2778677841', '2908920599', '2777655228', '2778710640', '2780300509', '33235085', '2909021283', '2909660725', '2908681542', '2908873319', '2909568678', '2910264766', '2778966966', '2776541429', '2910260090', '2776040883', '2778758220', '2909232226', '37225329', '2778523567', '2780675426', '2776674806', '180361614', '156407911', '2909427789', '2910693993', '7243750', '2910766733', '2776449402', '2909638883', '55359608', '2777578945', '2776933761', '2779835222', '2777338322', '2909423636', '2909363567', '156293190', '2777626661', '2776328245', '2777489803', '29537977', '2781443798', '2909993419', '2908963026', '2777943302', '2909648573', '2776955481', '66442614', '2777980614', '2776178378', '7033854', '152662350', '2909240200', '2778050454', '2779338263', '2779407169', '2910166804', '2780608848', '102107297', '2778173252', '112570445', '2909709311', '2909986810', '2909225826', '2780005051', '34320192', '2910686401', '2910517311', '2910979460', '2778836221', '170193765', '2778409550', '2778680573', '2909357195', '2909235696', '159399396', '2779299482', '2780764554', '2779690883', '2909489265', '167552308', '2911218010', '2909597701', '2910934819', '2777736543', '2910959326', '2779097696', '2779305415', '2776866189', '99752389', '2910168157', '2779138974', '2777954177', '2910355629', '2908799931', '2776343214', '2780566971', '153939273', '106285112', '2909442410', '42251903', '2776663553', '128534915', '2777007179', '2910928352', '2779435489', '190960625', '111425858', '2776263479', '2781161787', '94561458', '2909705586', '2776828318', '2909074800', '2910564362', '2911015175', '2909433017', '2780882860', '2781371782', '2910804505', '23416140', '2908845642', '2780613262', '2908949413', '2779925090', '2780757305', '2778712213', '2780577388', '2780442968', '2780329156', '2779683556', '122129578', '2910592416', '10708705', '2777043484', '2777596629', '2781244292', '2910098535', '2777289228', '2779704270', '101083039', '2780657110', '2911077705', '2778899366', '2781100537', '2908565423', '2777707475', '164491936', '168763156', '2911212829', '2780022331', '2910802169', '100480397', '2910015671', '2776540679', '2776278343', '2780425889', '2911042930', '2776981409', '2910412466', '2778996910', '2776349684', '194575858', '2781158288', '2911127567', '2778940316', '2778176471', '2778606649', '2910442187', '2779796075', '2779644819', '2781028063', '118742737', '2910040962', '2776928572', '2777483942', '2779000936', '2781093762', '2781162121', '2776855637', '2910646857', '83674893', '2778177303', '2911104824', '2781200033', '2779357283', '2781101655', '2909454188', '2776752467', '2910531579', '2778680817', '2908998664', '2908594456', '2780375630', '2779186577', '2779152698', '2779967523', '2779740467', '2780342937', '107459253', '170774537', '2779217266', '11966187', '2910296299', '2911204201', '2776443654', '116227048', '2910599151', '2909973708', '2776885722', '2909125492', '2779728849', '2910125345', '2908623884', '204335518', '2910720111', '2779662324', '2776461080', '2781151714', '2780199430', '2780075673', '88606150', '2910470696', '2908860468', '2910936068', '14858245', '2909015863', '2780335518', '2781312054', '2776634624', '2779117456', '2908745861', '2776512019', '10515644', '2776946255', '2776611563', '2909265136', '2779037185', '2778891214', '2778120723', '2780534256', '2780325254', '2909410006', '2778524067', '2775980177', '2776445023', '2779487296', '113062710', '2910957042', '2781134285', '2776422140', '2778500651', '2777148671', '2780557958', '2779778602', '2776388928', '2781184683', '27415008', '2780955941', '2911049392', '2908792066', '178195510', '33410366', '2777821979', '2910717282', '2778175462', '2909520295', '2777172399', '2779752389', '2775882741', '90157343', '2777456892', '2776140610', '2910216054', '77318859', '2777842550', '2910876649', '12590561', '185967709', '14029885', '2780361610', '2909705220', '2781005279', '2910670426', '2908628012', '124320809', '2908662865', '2776093513', '2778930362', '8305913', '2909957245', '2909870366', '2909460093', '2910095232', '2777239080', '539274931', '2777003273', '2778593092', '2910390209', '2777910687', '2777868816', '2779219270', '2910992061', '159110408', '2910661677', '2910106207', '2908849872', '2908752721', '2910262250', '2910449711', '2778403493', '2778334751', '2909097316', '2779416561', '20220851', '2911170226', '2778548629', '38533456', '2910134620', '2776509667', '2910531687', '2780734605', '2776291823', '2778048844', '2780962315', '2910379458', '2777490116', '2909955805', '2777896836', '178125196', '2779004600', '551499885', '2911002200', '2777046141', '2776866151', '2909070644', '2779024559', '2775895862', '2908770327', '2909184621', '2781427258', '159894899', '2776372842', '2909303247', '2909038310', '2779639602', '2779621917', '118303440', '2778697850', '2781425848', '22830521', '2777660648', '2776735402', '2778987478', '2910891085', '2776370673', '2779247111', '2778518303', '2910011555', '2778784831', '2910202354', '2778128430', '2780040984', '152443987', '2909013848', '2909306498', '2910343153', '91999924', '2778426790', '2909641611', '2776653193', '2780830986', '2909833499', '2778552304', '2909476650', '2909731001', '2780642338', '2781228260', '2777762789', '2910610636', '2779005926', '2781006323', '2781406822', '2908548915', '2781295650', '2909195468', '2776313096', '2909537983', '119195557', '2775938904'</t>
+          <t>['2908762067', '2777134132', '2776472838', '2908868075', '2780742577', '2910861083', '2778340925', '2777159539', '2778234038', '2779075594', '2777003663', '2779131611', '2908952752', '2909390131', '2780340127', '194058213', '16741180', '2776074789', '2779348387', '2776795407', '2909042678', '150582083', '2779482186', '2908626413', '2909028767', '2909829736', '2777752580', '154269507', '2778164203', '2778107364', '2909321517', '84737542', '2777820669', '2910715105', '2779952775', '2778582513', '2778181951', '2777610700', '2908542373', '2777890820', '2908519926', '2909380428', '2909780069', '2911009288', '2776985738', '2781456731', '35552991', '2780555902', '2910115945', '2778970670', '2910372474', '2777372248', '2910120378', '2781231445', '2777722682', '18987944', '202033177', '2777618700', '2778415016', '2778223703', '2781085983', '2777453868', '2777690519', '2775958869', '2778207064', '2909419913', '2910813628', '2780996943', '2780766565', '103697762', '2909637497', '2777005246', '2776232661', '2776739411', '2777611552', '2778452426', '2908529257', '2777413408', '110894328', '2779651244', '2908693899', '6439246', '2775984225', '2909292367', '94030615', '2778504769', '186382791', '2911139223', '2778132581', '161176658', '2909091998', '2778670691', '2909345990', '2908603626', '2781032171', '2781146222', '2778282284', '2778570541', '2908567798', '112446052', '2776442470', '2909222553', '95862172', '2908971778', '2910105704', '2777437443', '2779989193', '2776873876', '2778188524', '173417002', '2776954865', '100564792', '2910189572', '43554185', '2909123556', '31897792', '2777457466', '2780469793', '2780534909', '204243189', '2910702235', '2779736190', '2910131554', '2776516907', '2778350249', '2909050532', '2910256814', '2781308992', '2909079782', '2908704644', '2778691079', '97928714', '2776688999', '2779234561', '2780210213', '2778956427', '37752577', '2781004633', '2910834449', '2909104202', '2909250980', '2778311097', '179264091', '2779328510', '2780567839', '2778914232', '2776027960', '2776459250', '2776565077', '2909495386', '66442614', '2777545159', '2779335628', '66921392', '2777857975', '2780965494', '2778222283', '2779863674', '2910355629', '2777674756', '2909203465', '2909795069', '2776187077', '2910137039', '150008808', '2910658734', '2779609425', '2910830475', '2910811333', '2779411790', '2777923404', '61470247', '12770488', '2776187983', '2777087348', '2777479583', '187120659', '2908835861', '2781185837', '2780287791', '2776309230', '5140985', '2777362633', '2779832356', '2910414856', '2909758599', '2910863469', '2777661713', '2910257667', '2908767890', '2910587157', '2909505099', '2908798960', '2909603615', '259533', '2909270706', '59665967', '2909137285', '2777333188', '2910486168', '2779524853', '74514225', '11988809', '2910951957', '2780382662', '2909260932', '2776706491', '2908534650', '2908561938', '2779186577', '109591128', '2780799662', '2909399845', '526805850', '2776941171', '2909305330', '2780616385', '2910316244', '2778709411', '2778364623', '57477423', '2777891184', '2910499496', '2777150564', '2777534427', '2776379591', '117287731', '2910072439', '143733281', '2909789815', '2781385326', '2780813555', '2776496032', '195121873', '2778996579', '2910374215', '2909221823', '2777379352', '2910002462', '2780722889', '37413474', '2911010818', '2776791281', '139275648', '133229898', '2909534933', '2909844803', '2778195246', '2777570183', '2908890225', '31288803', '2781121194', '2909492782', '2911195619', '25834368', '2778674190', '2778842199', '2779465792', '2910009925', '2781075409', '2780038259', '2908899526', '2910920450', '2777385986', '2909600360', '2780404050', '2778836808', '159894899', '2780063514', '2910640749', '2777650959', '2779930540', '2775956919', '2779864613', '17318760', '2780499131', '2780768220', '2778377861', '2776874909', '2780727368', '2780399684', '146638467', '2776025840', '2776839831', '2910414618', '2776172332', '2910606283', '2779108703', '2911115607', '2911058083', '2909420454', '2776620869', '2776473794', '2779018604', '2777376946', '2908624353', '2776724271', '2777364306', '2908954928', '2909484048', '2777106319', '2778367962', '2909490922', '2910457979', '2909298252', '2776553924', '2780419840', '2779758228', '2910925693', '2910453370', '2909447261', '91096171', '54808283', '2909408758', '2781439815', '2780636500', '2910021071', '2780906641', '2780931586', '2777452171', '2910040087', '104471311', '2911094114', '2910396643', '2779535233', '2909553342', '2778840127', '70289976', '17954761', '2778165163', '2775960720', '16851059', '131253125', '2777478502', '2780495277', '2777386880', '2781291160', '2776652256', '2910414234', '99631742', '2910223938', '177129845', '2777278314', '2911067425', '8193761', '2910726425', '2910442829', '2780348253', '2777590123', '2910812759', '2908970061', '2779518551', '2778702241', '2777318445', '2908946886', '2777207853', '2908813964', '2909331969', '2777842799', '2909356532', '2777179404', '60291530', '2910393070', '2909177772', '2909506313', '2778888523', '2781108600', '102003337', '2780615674', '27518888', '2778257484', '2779491988', '2779456721', '2780868729', '55759595', '2776771800', '2777334864', '2910921727', '2777621362', '2910605048', '2781467325', '2909467164', '40956017', '2910171990', '2779537366', '2909410314', '2910658799', '2910099435', '144980905', '2780194577', '2908603061', '2909400315', '2910449239', '14314382', '2778951191', '2781310810', '180675623', '197695756', '11181451', '2910787933', '25642318', '2780304057', '2780070761', '2778773781', '149172746', '2910344450', '2777104659', '2780319870', '2780939464', '2910920332', '2909410510', '2910328414', '2778620141', '2776709828', '2780376393', '60748783', '2910031431', '180838311', '2777386794', '2910485483', '2775871022', '2777938653', '2909045427', '61943457', '2780945303', '2776671928', '2909731388', '31033888', '2781058065', '2911017463', '2909128952', '2780639636', '516717267', '2910950719', '2780847584', '2779761351', '173172909', '2780023029', '44752575', '2778316768', '2910314168', '2909531771', '2777413986', '2910948145', '2777017193', '2910713002', '116558999', '2777942821', '2780829607', '50171091', '34558173', '2780485590', '2780404665', '112224295', '2778899366', '2776525901', '2776737378', '2776667417', '2778661064', '2779657890', '97664909', '2777068322', '2909743922', '2909982194', '156321', '2778496887', '2777859817', '2909999176', '134052142', '2776422140', '151484617', '2779558481', '2909418356', '2911176998', '2781453537', '2780968178', '98086919', '2780997015', '2778424085', '2779931626', '2910727860', '2777968807', '123584848', '2909974400', '2909985417', '34343649', '187382586', '2776361769', '2910107233', '2781464450', '2780198649', '142104173', '2909423837', '36964233', '2777419892', '2910959060', '2910972258', '201934248', '2779698884', '2777575235', '2910161803', '2908953109', '2908934132', '2776417830', '2910550451', '2910090174', '2909824537', '2775939850', '2908815305', '2909171518', '2910515535', '2779359454', '178697064', '82585178', '2779289229', '70508372', '2910044550', '68000369', '164749973', '51936186', '2908994709', '2781341109', '2910976320', '2778023920', '2910820320', '2780905194', '2775949068', '2778942571', '103072069', '2908685445', '196594336', '2908829209', '2909852227', '2778801244', '2908741519', '2777621412', '2910433113', '2778196487', '2910055257', '2909375385', '74187038', '2909113873', '122522123', '92375311', '2781203188', '2910460592', '16884060', '2777654461', '91394840', '2910686401', '2779954235', '109650736', '2909617120', '2779426884', '59493245', '2776539398', '2776179171', '2775885956', '152365676', '2778911562', '2779281278', '2776517480', '2780637512', '103879163', '2909243696', '2777252815', '2780508388', '2910179354', '2776191035', '2780069284', '99545290', '2910166510', '2776558808', '2909353902', '2910580931', '2777373120', '2908744105', '2776353914', '2779664077', '158424129', '2910602479', '2777767108', '2910486910', '2779094376', '2910348395', '2780668389', '2778372188', '2911139979', '2776694393', '2780258809', '2780454893', '2780802667', '83743174', '2910954651', '2780091936', '2911018649', '2776334974', '2777516009', '2908691452', '2776434589', '2778108375', '2778983183', '2909535956', '2910889960', '2908701176', '191597335', '2910357638', '2780779891', '115346097', '2909190895', '2909337333', '2910427616', '2778674591', '2776553819', '2775845787', '2908782040', '2778702967', '2910490598', '2911225337', '2909866369', '2780868196', '2909015974', '2780754355', '2776825266', '2909461552', '2777767877', '2775862345', '113062710', '2778824757', '100406419', '2908800471', '2776046087', '2781393001', '2909622525', '2777001087', '186807665', '2776596748', '190409667', '2908643959', '2779526774', '2910795018', '2909156323', '2908602901', '2777905771', '2778976249', '2776285725', '2780864736', '2780908675', '2779141489', '2909911338', '2779249487', '89798072', '38533456', '2781462264', '150489694', '2779438767', '2910564016', '2910241243', '2779194965', '2779718618', '2780329553', '2910982439', '2780093864', '2778786252', '2909730981', '2910901367', '2779625216', '2779734523', '2776335557', '78150878', '2909023373', '2777835155', '2779440204', '34981463', '9756297', '2779406938', '2778226939', '2909841986', '2909693402', '2780140890', '138100754', '2908785597', '2908737749', '2909042832', '158457848', '2780952370', '2910025311', '2909421369', '2778237340', '2780930544', '2777466421', '2776777027', '2910763605', '2909719895', '108905452', '2909152676', '2908832260', '2908733169', '2781138976', '177752829', '2776260265', '2779954635', '163432668', '2779694073', '87052748', '180899940', '2909394993', '2777235844', '2780734495', '2779147656', '2910826258', '2911117477', '2909807147', '2776236792', '2776635150', '187092789', '2780806966', '2911114841', '2910168979', '2779868719', '2778198919', '2909394687', '2778662690', '2779534489', '2776548049', '2777276199', '29316995', '2911118861', '2779583389', '2779935385', '2776337186', '112365835', '2777284639', '2777750529', '2776600448', '2775917601', '2780568436', '143661069', '2910540545', '2909109107', '2909840331', '194108754', '2909469847', '2779987062', '2778510232', '33515925', '2776807875', '2778589756', '71635504', '2780410691', '2910849172', '70219777', '2910391657', '107888121', '2780777367', '2780259992', '2910717222', '2908647737', '2909885387', '2909819433', '97124661', '2909780928', '2779321416', '2779320873', '2910477059', '73286259', '2780943621', '52173716', '2910715078', '2776657025', '2911103869', '2777425428', '2910794258', '2910316136', '2910141139', '2780013240', '2777184939', '2780626423', '2778750056', '2779183389', '2781167329', '2910171731', '2908596604', '2909786779', '2910095232', '2909560266', '2776882568', '2910882047', '2910099480', '2781362769', '2779005926', '119709500', '2779837120', '2776321320', '2777734354', '2776317618', '2776210078', '2780985703', '2910875562', '2779812711', '2908899542', '2780333948', '2910548655', '2908776467', '2778524067', '2911179607', '2780712732', '2909960190', '2776892390', '2909954419', '2780506209', '2909422849', '2777375854', '2776210450', '2777425892', '2780664492', '2779609443', '2779559532', '61879462', '2911116868', '2780797419', '2908630598', '2779080674', '2908996603', '56302369', '2909301603', '2908623891', '2910253164', '2779980732', '2909268736', '2780685469', '2778972612', '2780159080', '190362976', '2776057878', '2776207728', '2778705571', '2776560790', '2909408797', '2909587973', '510490043', '2911020856', '2908613125', '2776046644', '2910080358', '2910538560', '2778647338', '2780329156', '2909441351', '179464577', '2779277107', '2778405929', '2910261060', '181268634', '2776347271', '2776810377', '2779543035', '2777501473', '2778113962', '2910850107', '145642194', '2777237215', '2910296409', '2780797203', '2778222838', '2777604421', '2910168157', '2908814104', '2781144210', '2779589923', '2780954326', '2779160388', '2776378700', '540533750', '2910246087', '2778200158', '163515075', '2911080447', '85051948', '2781035948', '2777490116', '2910953903', '2909640657', '164735488', '2910834742', '2909433643', '2908741605', '2909322605', '2910381955', '2778754067', '2779878957', '77350462', '2908823279', '2777795800', '2910269064', '2776214598', '440869', '2908786681', '2779773560', '2910080321', '2776379505', '2911001199', '2777877232', '2908886839', '505512924', '2775997484', '2909633097', '2775906123', '2909665077', '2776513736', '161721461', '2909363567', '20463939', '2780763056', '2911055534', '2780601333', '2777607188', '2780411336', '2908841938', '2911019706', '2910710179', '2779184299', '2778460930', '138873322', '2777639224', '2781047374', '2911093041', '2910988112', '2908775446', '2910198599', '2777333352', '172832842', '2910493334', '2908931765', '2780084704', '2780081974', '2778616617', '2776855637', '2778524098', '2909333082', '2908758470', '2777090975', '2777428918', '2910181907', '2909747577', '2910318506', '2908619571', '6675166', '2778191210', '2909965934', '2781323092', '118552586', '2909233980', '2778388502', '2776763702', '2779408567', '2776834966', '2779822750', '2910900425', '2780576536', '2909878339', '2776551883', '2778012502', '2778314733', '2776872704', '2780413690', '2778615406', '2776388485', '2908961019', '2779727114', '2909335078', '101980400', '2777506213', '2908590181', '2909903013', '146562846', '2909176522', '2780560023', '2908743583', '41407105', '2779548094', '2911042575', '2909156430', '146957229', '148001335', '2910802169', '2777580990', '2780772644', '118963712', '2778345452', '2777706214', '170193765', '2779491700', '2780550438', '2909181948', '2780261098', '2909202170', '2779709957', '2909131395', '160110348', '2776841986', '2780873365', '2776188179', '2910731786', '2910674763', '2781273459', '2909229839', '2778022131', '2910432461', '2776411483', '2778579378', '189135053', '2778587949', '2910029113', '2776067312', '99726746', '37590093', '2910873538', '2781020410', '2910585295', '2778965852', '101819947', '61535369', '2910870926', '2778144972', '2910862319', '165637930', '2909340425', '134801348', '11713176', '46821324', '2909585977', '2777407727', '2909675724', '2909625468', '2779665388', '2910530570', '61367390', '2776297342', '13002179', '2911162902', '2776740260', '2909278555', '2910508087', '2908883558', '2779492760', '2777131851', '191364105', '2779983491', '2911144082', '2780901121', '2780408722', '72077909', '2909732843', '121731113', '2910756308', '140985366', '946728', '2909065698', '2910707420', '2908909779', '2910325231', '2909919940', '2909065063', '2908979906', '2910512610', '2910912886', '2776802502', '513476851', '2778282304', '179226034', '2908926047', '2781455916', '2911049763', '2910513268', '2777195788', '2779745803', '2781399841', '2910435483', '2780237300', '2780375110', '2909968983', '86370654', '33263850', '2776392104', '2908713814', '2777950166', '2777459323', '2779438470', '2779303187', '2779788018', '2776452501', '2911078484', '2778524551', '14029885', '90582226', '136496925', '2775922563', '86282344', '2777992533', '2777719403', '2776326521', '2779842363', '2779881847', '2910946431', '2776890026', '2777369424', '2778914577', '2780700022', '2779862638', '106207104', '2781132042', '2777301948', '2779488543', '2908929049', '2777837123', '2909184621', '2910767843', '98490376', '43349283', '2778847519', '2776045599', '2781435738', '2777037550', '7207316', '2777325121', '2780374423', '2910257930', '2778716859', '180915046', '2779085531', '2909284606', '28328180', '50440223', '129692064', '2780507900', '2908814852', '2909907743', '2909410209', '2776664568', '2780831840', '2778461778', '2909670936', '68784500', '2909908890', '2908954234', '2777803847', '2778741295', '2910808931', '2908922695', '2910347904', '2910068868', '2780042274', '2780529513', '2777620950', '129930760', '2910418358', '2780404832', '2777108446', '2780472235', '2909833148', '2910745176', '2779557769', '2778917026', '2780054614', '2778171419', '2909449226', '2778715190', '2776034619', '2910523756', '2778501154', '2777173762', '2780366471', '2777383412', '2778582115', '2780659158', '2910323011', '2777089681', '2779560670', '94734110', '83898325', '2910099602', '2778046553', '2777179188', '181588539', '67662055', '2777908615', '84302363', '2780835420', '2777208983', '2909956288', '2778542873', '2909761671', '2778080469', '2778281416', '2779125066', '2910540508', '2776804676', '155520015', '2780636983', '2776674566', '2776292323', '2909389395', '2778453392', '2778355491', '2775998707', '2909342225', '2910357314', '2910521719', '2776970978', '2780139565', '2908919616', '2909580350', '196405362', '92759361', '2777603835', '2779357283', '2776231130', '2911049572', '2780002838', '70818257', '2781095467', '2780236928', '2910892998', '2908663871', '109986877', '2781276381', '2779577794', '2910778944', '543890873', '2910444366', '2910674483', '2909794420', '2776193487', '142923127', '2780100140', '2778028898', '2779178101', '2909605871', '2779560602', '2908568173', '2779736392', '2911103978', '2779562191', '2780012534', '2910960278', '2909297913', '2779717382', '2910216234', '2776808056', '2909813778', '2780780548', '2909010401', '158951850', '2908561979', '2910065304', '40479148', '2777940629', '182601333', '2780945536', '2911047166', '2778648961', '2910170040', '2777310793', '2779293907', '519513126', '86380466', '4134927', '2908975881', '2779309180', '35264366', '2909751219', '2909587467', '147990577', '111850983', '2910662323', '2908824208', '2778341716', '205167067', '2910353275', '182594692', '2908597655', '2911099678', '2910654473', '2779838083', '2777511904', '2779502394', '2781308076', '2779915019', '2911025821', '2781176699', '2776462017', '88812974', '2908751799', '2909773952', '2909495771', '2909185493', '501593827', '2781430139', '508975757', '529278444', '2781179364', '8243546', '2779324764', '2778831791', '2779470629', '2776410896', '2908525698', '2777289358', '2779398211', '2909052318', '2776366702', '2779209236', '2780758796', '2780590625', '2776683971', '2778495493', '2780092750', '2909665247', '2908801081', '2781149074', '2909717120', '110913234', '2776376669', '2776368665', '2778950892', '2908694163', '26064473', '2776664216', '2776989520', '2911089020', '2910238925', '2909092427', '2776135003', '2909813250', '2776767379', '2779925090', '2779182219', '2778678127', '2780521448', '18978916', '27924281', '2909391215', '2776394524', '2777771985', '2910637783', '2776479810', '2909762448', '2777902051', '2776232647', '109317608', '2776988256', '2776993930', '2780550299', '2910231319', '2910018496', '192196715', '98335778', '2909408234', '2780170424', '2909946173', '2780829020', '2909360308', '2777143589', '2908859980', '2779831896', '2776213234', '2778499207', '2779740913', '2909240849', '2777622974', '2780229479', '2910918403', '2777228722', '2910895244', '2778007619', '2909709259', '2776156815', '2775950024', '2780398090', '2779551797', '2909648505', '100094513', '207583985', '154559735', '2909237917', '111684460', '2910030976', '2779874844', '116030530', '2776667177', '2776572759', '2778894326', '2908705917', '2780796126', '2779766741', '2780788601', '107400117', '2910433760', '107539642', '2909097389', '10165471', '2909888318', '2777244249', '2779810223', '2778910314', '2909988172', '2779177420', '2910943566', '2777879506', '2781107259', '2776989580', '2776273561', '2909640154', '2909451466', '2910292458', '2909064685', '2909054062', '2776376305', '2910590758', '25274449', '2780416715', '2776088058', '2777689423', '2779935178', '2780596822', '2909137183', '2909946219', '2778248108', '2777735490', '2778293109', '2776420229', '2910030863', '2909094124', '2909626780', '2910782172', '2778010927', '2777334352', '2910122819', '2909987724', '2777726029', '2909549721', '175347309', '2779341262', '2911122627', '2910929621', '2908999202', '2777771302', '66972969', '157767197', '2778294826', '2776643646', '2909851952', '2775967434', '2778853074', '174106267', '2909397744', '59214195', '2781325599', '2776464000', '2777449187', '2910851616', '2777188771', '2777907074', '2776787830', '2909536188', '2776672898', '189976730', '2779178840', '2777300911', '2910342173', '2909583127', '2779281540', '2910665320', '2779770810', '2776052360', '2780487699', '2910582733', '2779177932', '2909892865', '2780895475', '2777884830', '2909549470', '2910445449', '2779749349', '33313701', '2910599151', '2911060314', '2908814224', '2910369898', '2780012436', '2780687700', '28718268', '51603380', '2777077138', '2908920599', '2909175668', '2779751288', '2780830986', '2910006448', '2778596372', '2781142479', '2779919695', '6084040', '202695956', '2776705957', '2909656692', '2910797910', '150670458', '2777131390', '2778458888', '2776394216', '2780445612', '2779545397', '2776976630', '2781159505', '164953862', '2908917876', '2909514791', '2778474501', '2777548347', '2778534509', '2779711729', '2751546', '181628713', '2779745421', '37701844', '2910800852', '156833797', '2910561717', '2910716684', '2780949636', '2910660891', '2778286254', '135110736', '169435470', '2777921265', '2777832160', '2909070106', '113480226', '2778013117', '2910999542', '2776809841', '2780329765', '2910649156', '49059817', '2779229579', '2776385636', '2780909651', '2778592135', '122356138', '2776913082', '2779989375', '123576220', '2779528694', '2780998478', '2776214593', '2910020066', '2777522676', '2911065597', '2779518617', '2777387790', '2780951447', '206631613', '2910600865', '2911154194', '2908585928', '2778426790', '182890174', '2776231280', '2777152909', '2780317758', '2910571213', '2909042477', '2781060271', '41623484', '2779846462', '2777213586', '2781419344', '2776946954', '2779510070', '2776195251', '2910912111', '2780813765', '2909187439', '2775891158', '2908910509', '2910052784', '91754966', '2910485762', '2910900620', '2909238857', '2779956388', '2780285341', '102803821', '2776073210', '2780495618', '2909791600', '2779920096', '2909511222', '2910942381', '2909790656', '2909519461', '2778963718', '2910483977', '130211564', '43729271', '2779922434', '2776442814', '2815619', '2777461070', '125838542', '2778996794', '2777003408', '2910717882', '2778275096', '2908766468', '2776225656', '2778454346', '2910054830', '2908922657', '2776581183', '2777693730', '2910423217', '2909026873', '60172819', '2909786963', '2778517091', '2910386195', '2779372575', '2779487296', '2778264664', '2777538456', '2781288345', '83330619', '2910866903', '2908991726', '2909909245', '2779395824', '2777843201', '2909877105', '2776679619', '2910632749', '2909016868', '2779363559', '2779693010', '2778395058', '2779051738', '2776063141', '2909616078', '2909572012', '112012222', '2780056395', '2781467025', '2777682441', '2910908731', '2776131784', '2777006632', '2780753045', '29730261', '2776738503', '2910979460', '2776046275', '2780276229', '2779037185', '2910265338', '2781161309', '2781278898', '2910821874', '2908924201', '2909057118', '2909735642', '2778594232', '2908949392', '2776974648', '2779783999', '2781316180', '2781101105', '2910677887', '2779457091', '2780660378', '70471684', '2777780933', '2910851391', '2776407475', '2909234406', '2910097660', '2781101014', '2781017270', '41650920', '2908670167', '2779929075', '2779649809', '206044474', '178853913', '2776079296', '2780345532', '2909504672', '2777014482', '2910465471', '2778597717', '2780133432', '2780954659', '2777428134', '2910696605', '2777023991', '2908810772', '2776828364', '80782408', '2909603225', '196013638', '2910501321', '2780554537', '2778256017', '2778119558', '2779422640', '116914575', '2778902805', '2777141885', '2908618397', '2776935745', '2908731928', '2778670693', '2779726098', '2780941728', '2909897797', '2908959352', '2776861996', '2910730026', '2910212514', '43310041', '2776193825', '2777683338', '2779078736', '2776685179', '2779421357', '2910303385', '2778431760', '2908845185', '2776682811', '2779497356', '2909070644', '2911214630', '2779033913', '2910280729', '17991360', '2776510742', '2908639170', '2778109456', '2910837944', '2777641907', '2909060831', '2776777198', '2779363807', '2776339750', '2911148338', '2910160605', '2779685842', '2909347662', '2777844070', '2776236459', '2911028214', '2779762690', '128526571', '2776153500', '2779681694', '2780938799', '2775955145', '2910965198', '2910587726', '2776244541', '2909765174', '2908787063', '2776984510', '2777888124', '206836424', '2779198410', '2777339539', '2780778865', '2777463368', '2909104581', '2781199814', '2909863526', '2910141352', '2779508121', '2909532979', '2776663553', '2911182112', '2776525413', '2909189366', '2777965375', '2779132545', '2778162197', '2777420699', '2911034735', '2908896767', '2910704929', '2777944498', '2910173922', '2910142535', '2777578945', '2781444488', '2910326592', '2909814679', '2779822564', '2776901443', '2778298596', '2909883200', '19702531', '2909986810', '2909322649', '2910353576', '10324989', '2909428395', '2778674827', '2778263291', '20417620', '2909938836', '2777760171', '2777714996', '2909400753', '2779849941', '2911166024', '2776521243', '2909856697', '2780770173', '2780879997', '2909829953', '544855455', '2781195455', '2776312033', '2776672725', '25194021', '2778419347', '2778373776', '2909046181', '2779317211', '2780999109', '2779402116', '2910824549', '2776789287', '2909247378', '2780214079', '2777058707', '2777384484', '2777056448', '2781047461', '2910949778', '2777996791', '2909795905', '2778842783', '2775883008', '2910520778', '153899047', '2909429260', '64136018', '2777917747', '2780186313', '68863886', '193641492', '2909158981', '2911142274', '6162580', '2779804854', '2908904771', '2909943900', '2911164177', '2909191862', '2779714222', '2779207274', '2909778144', '2779377764', '2778393845', '2910567016', '2777346155', '2911038589', '2909888727', '193842886', '2909664645', '2777199703', '25532541', '2781468244', '2909320318', '2781400533', '2776780712', '2909022798', '2779717322', '2910644763', '177580304', '2776737905', '2910899779', '2778086073', '2781329793', '2778648733', '2776668983', '106192422', '2908807708', '2781249495', '2776517583', '2908856696', '2910726106', '2776944266', '2777456213', '2909962599', '2781309813', '2776666601', '2909477290', '2779633676', '2911041505', '2908631822', '2776927880', '2910132651', '35035537', '2776332859', '2909546527', '2908996419', '2909275681', '2778428886', '2778951934', '146926590', '2909935809', '2778486448', '114009990', '2776954043', '2910274039', '110754006', '2779544216', '2908586218', '2911075164', '2780931571', '2779386548', '2779237081', '2777365487', '2777387769', '2909124115', '2910831396', '2780749935', '2911032719', '2779640714', '187954543', '2781148688', '165069038', '2776463394', '177658893', '104148171', '2909264309', '2910958757', '2909347448', '2776280935', '2908730403', '2780325254', '2777833472', '2908783082', '2777693549', '2778957662', '2910925091', '2777793004', '2778703144', '2776239313', '2909756144', '2778434524', '2909926029', '196978929', '2910546260', '2910875725', '2911044087', '134786416', '2776085618', '2781312054', '2909053340', '2776968687', '2778680333', '1060249', '2776554866', '2779058063', '21784809', '2777473361', '2910455041', '2909384467', '2776531937', '2777918589', '2776350393', '2908879540', '2780571441', '2911146523', '2777129432', '2909420118', '2910676833', '2777843972', '546784017', '2909505405', '2911099471', '136502266', '2781419290', '2779911313', '2781075526', '2777170512', '65245452', '113657865', '2908570994', '2776732713', '2779650520', '2776123653', '2777846895', '92899778', '2778024200', '2775998654', '2910351209', '2781249456', '2909767253', '2779263046', '2776367607', '2776731943', '2910566018', '2910012107', '2911018730', '2779176196', '2777215511', '2908877073', '2776859179', '2909965491', '8330315', '91158637', '2908833640', '2107291', '2776712918', '2778077071', '2909372251', '2781321989', '2778415529', '2909242990', '2909063161', '2909905348', '2780977457', '2778674544', '2909177053', '2780931799', '2776032170', '2778558090', '2908622116', '2910897633', '2909542999', '2777190341', '2780993443', '2776735236', '2776502132', '2781121325', '2909063479', '2910002668', '2908785520', '107433012', '149892131', '40334797', '2778939556', '2909382565', '2910465712', '2779317333', '149574134', '44519122', '2910368303', '2908566023', '2909146395', '2778232793', '2911137236', '2911059390', '2910003842', '103607123', '2434490', '2779900937', '2910791478', '2908648857', '2910074950', '2778438532', '2776258884', '2909280258', '2910259328', '2910455336', '2909293501', '2910412466', '2909149047', '2909593445', '2777789768', '17567262', '2910732065', '2780553850', '167661972', '2909941752', '2776523773', '2908776979', '2908883545', '2909132384', '2776509080', '2778400160', '2779778607', '2777510210', '2780153765', '2909669586', '2778017598', '2780105995', '2776549057', '2778529815', '2910467327', '194346485', '75603125', '2776882386', '2778426112', '2781264644', '133397671', '2777902675', '2780321258', '2909947724', '2908826070', '2779066697', '2911019673', '2909104441', '2780119762', '2910670426', '2779447285', '76334062', '2910958021', '2910758520', '10885799', '2776715498', '2776417487', '2909892930', '2777845685', '2909901944', '2910602998', '2909456546', '2910238016', '2910341085', '2909038842', '2909048256', '122816508', '2776576699', '2909931398', '2776791232', '2909445193', '2776408679', '2778403493', '2909082478', '2908710734', '184151982', '2910171994', '2780043718', '2777608072', '2910492473', '2909166641', '2909867262', '163430725', '2910867814', '2908590371', '2909781270', '2777547206', '2778432500', '2777621752', '2777560926', '2777537440', '75934600', '2778203143', '122635869', '2776376514', '544519230', '39133596', '2776239663', '2777329042', '2779052582', '2909774845', '2910790459', '179833586', '2776986892', '2910061196', '2779607992', '2910612865', '2778870864', '2780548643', '2909300633', '2910118531', '2780057945', '2776258039', '201033657', '2781028063', '2780625556', '155781438', '2780802913', '122229402', '2778385053', '2908622003', '2775873362', '2779423483', '2910234893', '2910590975', '2909021529', '2777551103', '2779012798', '2778805329', '2776370673', '165268517', '2909204269', '2909050714', '2777577063', '15227285', '2777302536', '2777524492', '2781295983', '2781424195', '2778356210', '2910572500', '203966977', '2908892503', '2911103506', '2910422901', '29456083', '2910942233', '2909840458', '2777393561', '2911202200', '81603835', '2910057488', '166587010', '2776625791', '2908778166', '2781438807', '136302470', '2779053233', '2778022545', '2780910289', '2908624440', '2777288759', '2777914111', '2779880248', '2909204789', '2779519742', '114565086', '2780372985', '2781460901', '2780340399', '2777629866', '2909491145', '121157162', '37307934', '2909404852', '2775960820', '106977388', '2908949014', '2779800615', '2780046296', '2910616564', '2776663719', '2908958330', '2781446404', '2777125728', '2780984734', '2777595160', '2780594696', '2779917531', '112190416', '163895629', '2910102926', '2779083432', '2780010015', '2910774642', '2911133705', '2909815946', '2908765366', '2781140480', '95628711', '2777550702', '74864618', '2777389519', '2779390809', '2780291845', '2911049392', '2911048386', '2909970832', '207673951', '2909686289', '183529106', '2776153627', '179786068', '2776619914', '2910337320', '2780235077', '2780496750', '2781107747', '2780578515', '2910581496', '2910711121', '2776748497', '2777576356', '2910877072', '2909034616', '2777399126', '2777374081', '2780572646', '2908688687', '2910902742', '2777066137', '2909902889', '2778997737', '2776867765', '2778402494', '121013533', '2775901119', '129802253', '2910299752', '2776077123', '2776556288', '2777204175', '2776343214', '2780754648', '78254988', '2777668474', '114874019', '2780753645', '2778491484', '2778040916', '2777090595', '2776674182', '2777052854', '29390026', '2778937882', '2779778235', '2778435480', '2778176773', '141071460', '122245378', '2776002628', '2909635826', '2796436', '2777251235', '2778222187', '2781233496', '7643261', '2778271848', '2908646843', '542138692', '2778536324', '2780957178', '2781395839', '2910053781', '2779185020', '2778945448', '2776034591', '2778334475', '2777261913', '152110520', '2778094187', '2776373090', '2910897329', '2778279030', '2775940340', '2776216936', '167168088', '2911115350', '2911011838', '2910102994', '2776419806', '2911129431', '2780470880', '197261262', '2910604149', '2776195699', '2910443605', '2910236214', '2775915353', '2780434050', '2910962159', '2776217453', '2776470705', '2776663378', '2908533162', '2777361909', '2779892169', '2775844698', '89138240', '108657112', '2909253166', '2911139833', '2779637723', '2777905831', '2910703660', '2908660592</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Technostress', 'Superior vena cava syndrome', 'Head injury', 'Lenalidomide', 'Lobar lung transplantation', 'Cutaneous Vasculitis', 'Diabetes status', 'Haemaphysalis longicornis', 'Autoimmune encephalitis', 'Parasite Egg Count', 'Histamine N-methyltransferase', 'Intraventricular conduction delay', 'Crash', 'Turbinates', 'Mucocutaneous zone', 'Posterior pituitary', 'Blastomere', 'Dietary Copper', 'Allergic inflammation', 'Antibiotic Stewardship', 'Complex partial seizures', 'Platelet factor 4', 'Sacrococcygeal teratoma', 'Stem cell theory of aging', 'Acetaminophen', 'Neural Pathway', 'Biofortification', 'Ketotifen', 'Myocardial necrosis', 'Catheter hub', 'GLUT4', 'Metabolic acidosis', 'Managed care', 'Posterior interosseous nerve', 'Glycogen storage disease type V', 'Renin inhibitor', 'HLA-A', 'Vascular remodelling in the embryo', 'Coronary artery calcium score', 'Adolescent Obesity', 'Fetal viability', 'Cervical spondylopathy', 'Event-related potential', 'Carrier testing', 'Smoke inhalation', 'Frontal eye fields', 'Zotarolimus', 'Cowden syndrome', 'Tangerine Peel', 'Chronotype', 'Sperm bank', 'Mental deterioration', 'Microinjections', 'Mixed logit', 'KEGG', 'Extracorporeal cardiopulmonary resuscitation', 'Rutter', 'Ichthyosis vulgaris', 'Voltage clamp', 'Oligohydramnios', 'Synthetic vaccine', 'Metabolic pathway', 'Pulmonary fat embolism', 'Nephelometry', 'Benzoylecgonine', 'Pyrilamine', 'Atosiban', 'Polyethylene glycol', 'Visual memory', 'Rouleaux', 'BK virus', 'Trauma ICU', 'Echoencephalography', 'NFATC Transcription Factors', 'Tyrosine-kinase inhibitor', 'Corticosteroid use', 'German cockroach', 'Gait training', 'Raw milk', 'Tension-Type Headaches', 'Cutaneous Mastocytosis', 'Half-logistic distribution', 'Tubular proteinuria', 'Joint replacement', 'Video-Assisted Surgery', 'Clomifene', 'Logistic regression', 'Chromatophore', 'Tosylmethyl isocyanide', 'Arthrotomy', 'Paragonimus', 'Terror management theory', 'Alligator', 'Perineural invasion', 'Pediatric hematology', 'Nasopharyngeal airway', 'Carpometacarpal joint', 'Middle East respiratory syndrome coronavirus', 'Monocytosis', 'Family medicine', 'Melorheostosis', 'ADAMTS4', 'Nizatidine', 'Epigenetics of physical exercise', 'Airways disease', 'Puerarin', 'Hemilaryngectomy', 'Trematoda', 'Lipid-lowering therapy', 'Gastropexy', 'International Classification of Headache Disorders', 'Parapneumonic effusion', 'Cisplatin', 'Glycosaminoglycan', 'Prostate-specific antigen', 'Mental image', 'Prostaglandin E1', 'Lower anterior', 'Thiopental Sodium', 'Microglia', 'Pronephros', 'Spinal fracture', 'Adenitis', "Valsalva's maneuver", 'Lung volumes', 'Military psychiatry', 'Flumazenil', 'Myotoxin', 'Arthropod mouthparts', 'Mesylate', 'Lateral reticular nucleus', 'External fixation', 'Ginsenoside Rg1', 'Interstitial nephritis', 'Dinitrophenyl', 'Vena cava filters', 'Eustachian tube', 'Functional Brain Imaging', 'Dichlorodifluoromethane', 'Mohs surgery', 'Postsynaptic density', 'RPTOR', 'Working memory training', 'Depersonalization', 'Viral tegument', 'Pancreatic stellate cell', 'Autosomal dominant polycystic kidney disease', 'Negative priming', 'Health care', 'Cordotomy', 'Serial passage', 'Distal third', 'Type three secretion system', 'Dexamethasone suppression test', 'Uveal Neoplasm', 'Point of care', 'Small interfering RNA', 'Fetal hemoglobin', 'Dihydrotestosterone', 'Cytoplasmic antibody', 'Tumor necrosis factor receptor 1', 'Common peroneal nerve', 'Divergent thinking', 'Rauwolscine', 'Molecular Profile', 'Nephrin', 'Krabbe disease', 'Factor VIIa', 'Perioperative care', 'Stapes surgery', 'Neuromuscular disease', 'Spondylolysis', 'Medical emergency', 'X-ray treatment', 'Fluorodeoxyglucose PET', 'Palsy', 'Assay', 'Surgical extraction', 'Hypromellose', 'CHLAMYDIAL INFECTIONS', 'Interpenetrating polymer network', 'Optical radiation', 'Pharyngeal flap', 'Synaptic augmentation', 'Horizontal diameter', 'Differentially methylated regions', 'Heart rate monitor', 'Neurokinin A', 'Papio anubis', 'Selective laser trabeculoplasty', 'Social information processing', 'Scintigraphy', 'EGFR Gene Mutation', 'Community practice', 'Pcp prophylaxis', 'Visual reasoning', 'Behavioral addiction', 'Nadroparin', 'Pentamidine', 'Parental anxiety', 'Yolk sac', 'Asthma attack', 'Trimetrexate', 'Sotalol', 'Meconium', 'Cardiovascular malformations', 'Pulse Wave Analysis', 'Retinol binding protein', 'Streptamer', 'Ephedrine hydrochloride', 'Sodium channel', 'Exogenous bacteria', 'Unconscious thought theory', 'Multisystemic therapy', 'Oxazepam', 'DNA Mutational Analysis', 'Prasugrel', 'Datura stramonium', 'Eptifibatide', 'Malar rash', 'Kisspeptin', 'Acanthamoeba keratitis', 'Physical therapy', 'Wolfberries', 'Isocenter', 'Oral thrush', 'Calcium Oxalate Crystals', 'Neurasthenia', 'Laryngospasm', 'Continuous passive motion', 'Magnetic resonance spectroscopic imaging', 'Thymic Tissue', 'International Standards on Auditing', 'Janus kinase', 'Eculizumab', 'Intracavernous injection', 'Suburethral Sling', 'Embryo', 'Calmodulin-binding proteins', 'Endogeny', 'Intranuclear Inclusions', 'Mean circulatory filling pressure', 'Kangaroo-Mother Care Method', 'Right-Sided', 'Tremolite', 'Torpor', 'Intraocular Pressure Rise', 'Searching the conformational space for docking', 'Serum lipid levels', 'Peptide library', 'Spinal decompression', 'Cam', 'Venous Obstruction', 'Apelin', 'Hemoperfusion', 'Cerebrospinal meningitis', 'Small intestinal mucosa', 'Induced Hypotension', 'Vitellogenesis', 'Complement component 5a', 'Insular cortex', 'Ovarian Endometriosis', 'Somatostatin receptor 2', 'Hepatic portal vein', 'Vascular structure', 'Typhus', 'Liver Lobe', 'Deoxycoformycin', 'Nornicotine', 'Atrioventricular canal', 'Ethinylestradiol', 'Auditory nuclei', 'Cartilage degeneration', 'Fluoroscopy', 'Deferasirox', 'Skin hypersensitivity', 'Frontal sinus', 'Arylsulfatase B', 'Financing cost', 'Infection control', 'Historical trauma', 'Basal metabolic rate', 'Periareolar', 'Dendropanax morbifera', 'Sialorrhea', 'Brachial plexus', 'Antibiotic combinations', 'Chancroid', 'Anticoagulant Agent', 'Job-exposure matrix', 'Fibrosis', 'Blood protein disorder', 'Mental well-being', 'Bilobectomy', 'Multiparametric MRI', 'Delivery point', 'Extractable nuclear antigens', 'EDTMP', 'Transmembrane protein', 'Substance abuse prevention', 'Osmoregulation', 'Esthesioneuroblastoma', 'Fosfomycin', 'Hamstring muscles', 'Postpartum haemorrhage', 'Methylenetetrahydrofolate reductase', 'N-Myc Proto-Oncogene Protein', 'Hematocrit', 'Associate degree - Nursing', 'Cohort study', 'Electric stimulation therapy', 'Fascial flap', 'Systematic review', 'Menhaden', 'Fulvestrant', 'Minor histocompatibility antigen', 'Arterial trunk', 'Hepatorenal syndrome', 'Metabotropic glutamate receptor 8', 'Hairy cell leukemia', 'Route of administration', 'CD49b', 'Intermittent pneumatic compression', 'Zinc Transporter 8', 'Annual physical examination', 'Soft tissue injury', 'Spine injury', 'Blinding', 'Parathyroid chief cell', 'Antirheumatic drugs', 'Canthus', 'Adrenal insufficiency', 'Hollow viscus', 'Neutrophil gelatinase-associated lipocalin', 'Dental malocclusion', 'Rheumatic Heart Diseases', 'Estriol', 'Langhans giant cell', 'Excitatory postsynaptic potential', 'Anaplastic Lymphoma Kinase Positive', 'Veterinary surgery', 'Xenodiagnosis', 'Antiseptic Agent', 'Small teeth', 'Auer rod', 'Hypothenar eminence', 'Microcirculation', 'Pleurectomy', 'Insulin-like growth factor', 'Programming language', 'Public hospital', 'IgM Monoclonal Gammopathy', 'Biological therapies', "Mirizzi's syndrome", 'Pro-Brain Natriuretic Peptide', 'Stage I Non-Small Cell Lung Cancer', 'DNA replication factor CDT1', 'Suspensory ligament', 'Adenosine A2B receptor', 'HDAC4', 'Laryngeal Stenosis', 'Androstenedione', 'Hyoscyamine', 'Brachytherapy', 'Coomassie Brilliant Blue', 'Ganglionic blocking agent', 'Bare-metal stent', 'Intellectual impairment', 'Sonodynamic therapy', 'Hematinic', 'Phlebovirus', 'Dyscrasia', 'Cockroach', 'Catalepsy', 'Hypoxic hypoxia', 'Sobriety', 'Prostaglandin-Endoperoxide Synthases', 'Tympanic Membrane Perforation', 'Lobar pneumonia', 'UV Radiation Exposure', 'Single patch', 'Urethral pressure', 'CA15-3', 'Urinary obstruction', 'Fissipedia', 'Trimethylene glycol', 'Biological target', 'Porphobilinogen', 'Ultrasound Radiation', 'Bone biopsy', 'Live donor', 'Nicotine Addiction', 'Ascidiacea', 'Dehydroepiandrosterone', 'Femoral neck', 'Unintentional injury', 'Pneumococcal Diseases', 'KcsA potassium channel', 'Diagnosis code', 'Bone cancer', 'Glycogen phosphorylase', 'Immunologic Factors', 'Stent', 'Anemarrhena asphodeloides', 'Premenstrual dysphoric disorder', 'Testicular Germ Cell Tumor', 'Carlavirus', 'Familial predisposition', 'Gastroenterology', 'Licensure', 'Industrial wastewater treatment', 'Electrical conduction system of the heart', 'Myxofibrosarcoma', 'Tetrafluoromethane', 'Pancreatic duct', 'Military nursing', 'N-3 fatty acids', 'Estrogen receptor beta', 'Saltatory conduction', 'Dematiaceous', 'Spironolactone', 'Tongue movement', 'Metastasis Gene', 'Cleanser', 'Pentose phosphate pathway', 'Protoplasm', 'Spirochaetales', 'Sleep apnea syndromes', 'Vagotomy', 'Gelatinase B', 'Leukostasis', 'Ionotropic glutamate receptor', 'Sudden sensorineural hearing loss', 'Panendoscopy', 'Left Testis', 'American tobacco', 'Anatomical pathology', 'Circadian rhythm', 'Dens invaginatus', 'Atheroma', 'Nutritionist', 'Temporal lobe', 'Dentin Sensitivity', 'Selenoprotein S', 'Uveitis', 'Recurrent infections', 'Cineradiography', 'Diffuse axonal injury', 'Ear tag', 'Base excess', 'Plasmodium vivax infection', 'Mechanotherapy', 'Sperm', 'Tissue Preservation', 'Molecular virology', 'ATP-sensitive potassium channel', '5-HTTLPR', 'Laryngeal Obstruction', 'Myometrium', 'Cyanovirin-N', 'Cord blood', 'Etoricoxib', 'Sympathetic ganglion', 'Follicular carcinoma', 'Creutzfeldt-Jakob Syndrome', 'Sebum secretion', 'Sympathomimetic Amines', 'Acoustic rhinometry', 'Sugar phosphates', 'Thiouracil', 'Pierre Robin syndrome', 'Adrenergic beta-Agonists', 'Optical instrument', 'Chromophobe cell', 'Stepwise regression', 'Zusanli', 'Famotidine', 'Involuntary movements', 'General Fatigue', 'Chondroitin sulphate', 'Disease Presentation', 'First aid', 'Resection margin', 'Urodynamic testing', 'Meta-analysis', 'Dental floss', 'Sleep paralysis', 'Anterior Eye Segment', 'Sodium pentobarbital', 'Prescription costs', 'Visual symptoms', 'Heat Stress Disorders', 'Vascular smooth muscle', 'Measles vaccine', 'Platelet Engraftment', 'Fat emulsions', 'Pes cavus', 'Cochlear function', 'Lacerta', 'Varicella zoster virus', 'Scatchard plot', 'Carcinosis', 'Vasoconstriction', 'Terminalia', 'Platelet Membrane Glycoprotein IIb', 'Pectus excavatum', 'Pancreatic pseudocyst', 'Nasal decongestant', 'Spore coat', 'Mandibular molar', 'Cognitive disorder', 'Vaginal canal', 'Chronic hepatitis E', 'Natural history of disease', 'Nickel allergy', 'Cold urticaria', 'Enterochromaffin cell', 'Sedation', 'Health human resources', 'Open Resection', 'Neurogenetics', 'Pharmacologic therapy', 'Juxtaglomerular apparatus', 'Sleep medicine', 'Compound heterozygosity', 'External parasites', 'Alpha 1-antitrypsin deficiency', 'Positional vertigo', 'Mutation', 'Dactylitis', 'Perineal pain', 'Thyrotropin receptor', 'Limb amputation', 'Lymphocytic lymphoma', 'Ullrich congenital muscular dystrophy', 'Catharanthine', 'Multiple Sleep Latency Test', 'Body weight', 'Ferrous Fumarate', 'Wechsler Preschool and Primary Scale of Intelligence', 'Rotavirus vaccine', 'Protein antigen', 'Need treatment', 'S100 protein', 'Medical model', 'Radial immunodiffusion', 'Air embolism', 'Fuchs Endothelial Dystrophy', 'Anopheles stephensi', 'Surfactant therapy', 'Septum secundum', 'Galanin receptor', 'Recessive dystrophic epidermolysis bullosa', 'Waist', 'Prophylactic Surgery', 'Cardiopulmonary resuscitation', 'Foetal death', 'Smoke-Free Policy', 'Telemedicine', 'Depurination', 'Social cognitive theory', 'Psychoeducation', 'Interleukin 1B', 'Hypoxic pulmonary vasoconstriction', 'Malnutrition', 'Hospital pharmacy', 'High-functioning autism', 'Visual changes', 'Antibody-Producing Cells', 'Vaginal speculum', 'Ataxin', 'BK Virus Infection', 'Paneth cell', 'Forebrain', 'Conduct disorder', 'Planarian', 'Granulosa cell', 'Immunoglobulin M', 'Cobalamin', 'Heart bypass', 'Giant cell', 'Thyroid storm', 'Early Cancer Detection', 'GASTRIC CARDIA', 'Nephritic syndrome', 'Thymectomy', 'Keratoconjunctivitis', 'Sympatholytics', 'Selenoprotein', 'Interleukin 12', 'NADPH oxidation', 'Angiotensin Receptor Antagonists', 'Sleep onset latency', 'Singleton', 'Trabectedin', 'Janani Suraksha Yojana', 'Mycobacterium paratuberculosis', 'Sneeze', 'Debiasing', 'Multifunction cardiogram', 'Apolipoprotein D', 'Sudan Black B', 'Medical model of disability', 'Resveratrol', 'Myxedema', 'Pulse Wave Transit Time', 'Doppler device', 'Precordium', 'Cervical dilation', 'Centella', 'Extra-Adrenal', 'Disease', 'Apicoectomy', 'Health geography', 'Protective factor', 'Teleconnection', 'Spatial ability', 'Myocardial contusion', 'Chronic skin disease', 'Overactive bladder', 'Mastopexy', 'Supraspinatus muscle', 'Prolotherapy', 'Exploratory behaviour', 'Calcifediol', 'Temporalis muscle flap', 'Uncaria tomentosa', 'Motor Endplate', 'Soluble Tumor Necrosis Factor Receptor', 'TUMOUR DETECTION', 'Pseudomonadales', 'Violent behaviour', 'Alloxan', 'Gluten intolerance', 'Acidulated Phosphate Fluoride', 'Disenfranchised grief', 'Monoarthritis', 'MF59', 'Surgical Intensive Care', 'Antigen-antibody reactions', 'Glycoprotein', 'Helicobacter pylori', 'Neutrophil to lymphocyte ratio', 'Computation of cyclic redundancy checks', 'Phosphodiesterase 2', 'Asian Indian', 'Paget Disease', 'Median Line', 'Ovarian artery', 'Annelid', 'Copper acetoarsenite', 'Target peptide', 'Methyl isocyanide', 'Leptin receptor', 'Bile duct', 'Gastrin-releasing peptide', 'Sulcus', 'Unresected', 'Fluphenazine', 'Hydrocortisone', 'Shoulder injury', 'Prion Proteins', 'Inhibitor protein', 'Renal clear cell carcinoma', 'Neuromuscular Nondepolarizing Agents', 'Calcar', 'Steroid hormone', 'Sitagliptin', 'Drug court', 'Tissue Banking', 'Development communication', 'Umbilical Cord Blood Transplantation', 'Descemet Stripping Endothelial Keratoplasty', 'Main Bronchus', 'Frataxin', 'Pediatric nuclear medicine', 'Acral lentiginous melanoma', 'Pelvic exenteration', 'Aggregatibacter actinomycetemcomitans', 'Fenofibrate', 'Extended amygdala', 'Factor VII', 'Androsterone', 'Salvage therapy', 'Capsulitis', 'Burning mouth syndrome', 'Sinoatrial node', 'Mucopolysaccharidosis type I', 'Left ventricular dilatation', 'Ultrasonography', 'Antithrombotic', 'Sitting height', 'Radiculopathies', 'Malignant histiocytosis', 'Toothpick', 'Toponymy', 'Well child', 'Breast cancer', 'Nitrofen', 'Bovine leukosis', 'Carbachol', 'Mirizzi Syndrome', 'Chronic wasting disease', 'Abusive relationship', 'Oropharyngeal Carcinoma', 'Malas', 'NOPAT', 'Nervous system', 'Crankcase ventilation system', 'Tunica', 'Prophylactic cranial irradiation', 'Syntaxin', 'Carbidopa', 'Ventilation mode', 'Drug class', 'Resistin', 'Precision Medicine Initiative', 'Donation', 'Perianal Abscess', 'Liver cytology', 'Free nerve ending', 'Physical dependence', 'Eye Movement Desensitization Reprocessing', 'Elephant trunks', 'Kanamycin B', 'Dermoepidermal junction', 'Cathartic', 'Activated clotting time', 'Illegal drug use', 'Survey of Health, Ageing and Retirement in Europe', 'Alpha ketoglutarate', 'PROTEIN KINASE D', 'Lafora disease', 'Bacopa monnieri', 'Ceramidase', 'Pathology Report', 'Social marketing', 'Tympanostomy tube', 'Pseudoexfoliation', 'Reflex arc', 'Ketorolac', 'Steroid 11-beta-hydroxylase', 'HLA-DR', 'Sarcomere', 'Upper limb', 'Stretch marks', 'Abdominal distension', 'IGFBP3', 'Child abandonment', 'Prenatal development', 'Accessory spleen', 'Lateral femoral condyle', 'Bone Infection', 'Watchful waiting', 'Systematic desensitization', 'Putative gene', 'Diphosphenes', 'Syndactyly', 'Irritation', 'Contagious Diseases Acts', 'Vitallium', 'Abdominoperineal resection', 'Nursing research', 'Vulvitis', 'Chronic disorders', 'Benign Essential Hypertension', 'Flip', 'GABA receptor antagonist', 'Galanin receptor 1', 'Standing Positions', 'T cell', 'Tamoxifen', 'Ionophore', 'Trans fat', 'Parasite hosting', 'Disgerminoma', 'Cordectomy', 'Pure gonadal dysgenesis', 'Fluid extract', 'Cross-sectional imaging', 'Phytanic acid', 'Premorbidity', 'Peripheral Nerve Sheath Tumors', 'QTC PROLONGATION', 'Metabotropic glutamate receptor 6', 'Transvenous pacing', 'Trypanosoma rhodesiense', 'Ketone bodies', 'Organic anion transporter 1', 'Gestation', 'Patient satisfaction', 'Sleep spindle', 'Inguinal ligament', 'Expanded access', 'SH3 domain', 'Video modeling', 'Pannus', 'Aryldialkylphosphatase', 'Central compartment', 'Telehealth', 'Gravid uterus', 'Physical examination', 'Chemical synthesis', 'Transepidermal water loss', 'Integumentary system', 'Pulmonary fibrosis', 'Estrogen binding', 'Mitral valvuloplasty', 'Right Renal Artery', 'Oswestry Disability Index', 'Sexual coercion', 'Biliary Intraepithelial Neoplasia', 'Acoustic Startle Reflex', 'Immunotoxicology', 'Venule', 'Legislation as Topic', 'Polycyclic aromatic hydrocarbon', 'Interleukin 18', 'Fructolysis', 'Commissure', 'Acquired immunodeficiency syndrome (AIDS)', 'In vivo magnetic resonance spectroscopy', 'Membranoproliferative glomerulonephritis', 'Underrepresented Minority', 'Macular telangiectasia', 'Plantar surface', 'Bipedalism', 'Patient-centered care', 'Multiple endocrine neoplasia type 2b', 'Impacted tooth', 'California Verbal Learning Test', 'Uterine horns', 'Melarsoprol', 'Diphosphorus', 'Work Schedule Tolerance', 'Betamethasone valerate', 'Energy charge', 'Spontaneous alternation', 'Drug overdoses', 'Hemosorption', 'Translational medicine', '2-Methoxyestradiol', 'Exome', 'Ross River virus', 'Type I interferon production', 'Dysgenesis', 'Recurrent acute', 'Radiologic examination', 'Leukotriene B', 'Goldenhar syndrome', 'Cardiovascular Physiological Phenomena', 'Felbamate', 'Therapeutic approach', 'Functional magnetic resonance spectroscopy of the brain', 'Rupture of membranes', 'Atrial action potential', 'Phage therapy', 'Bleeding time', 'Cryoglobulinemia', 'Nitisinone', 'Repaglinide', 'Popliteal fossa', 'Basolateral amygdala', 'Hydroureter', 'PPADS', 'Traction power network', 'Nervous tissue', 'Hyperacusis', 'Glycogen storage disease type I', 'Sirius Red', 'Hypospadias repair', 'Thrombogenicity', 'Job strain', 'Reproductive toxicity', 'Aedes', 'Generally recognized as safe', 'Carotid angiography', 'Rapid plasma reagin', 'Pulmonary Diffusing Capacity', 'Ascending colon', 'Factor V Leiden', 'Sleep hygiene', 'Methadone', 'Proximal phalanx', 'Teratozoospermia', 'BETA THALASSEMIA MAJOR', 'TRIPS Agreement', 'Isoamyl nitrite', 'Drug-drug interaction', 'Vascular access', 'Barbel', 'Menotropins', 'Skin flora', 'Cilnidipine', 'Hair disease', 'Ursodeoxycholic acid', 'Erythromelalgia', 'Interstitial keratitis', 'Medical writing', 'Protoporphyrin IX', 'Chlamydia', 'Parental monitoring', 'Regorafenib', 'PROTHROMBIN COMPLEX', 'Traditional Korean medicine', 'Surgical Gloves', 'Macular edema', 'Drug marketing', 'Esophageal Fistula', 'Initial sample', 'Metacarpal bones', 'Ponatinib', 'Every Six Months', 'Foot surgery', 'Type I collagen', 'Intravenous sedation', 'Harem', 'Ectopia lentis', 'Left ventricular thrombus', 'Climacteric', 'Platelet Distribution Width', 'Moniezia', 'Psychological dependence', 'Brain atlas', 'Cyclic guanosine monophosphate', 'Hemoglobin E', 'Biopanning', 'Iliac Aneurysm', 'Pseudotyping', 'Grey matter', 'Intervention mapping', 'Phosphofructokinase', '5-Hydroxytryptophan', 'Colorectal anastomosis', 'Culture conversion', 'Hypertensive retinopathy', 'Endovascular interventions', 'Adult growth hormone deficiency', 'Axon terminal', 'Premotor cortex', 'K-complex', 'Helicobacter pylori infection', 'Nervous system disease', 'Cell Cycle Kinetics', 'Eosinophilic pneumonia', 'Maladaptation', 'Legalization', 'n-back', 'Dyskeratosis', 'Myelin', 'Yankee', 'Rejuvenation', 'Carriage return', 'Myofascial trigger point', 'Three dimensional conformal radiotherapy', 'Capillary Leak Syndrome', 'Cough reflex', 'Negative stain', 'Vibration disease', 'Rectum', 'Craniofacial abnormality', 'Hearing disability', 'Coronary thrombosis', 'Pre-Registration', 'Protein losing enteropathy', 'Magnetoresistance', 'Right Lateral Decubitus Position', 'Retroperitoneal space', 'Partial Hydatidiform Mole', 'Cervical approach', 'Repeat Surgery', 'Propionic acidemia', 'Framework region', 'Eye movement', 'Standardized rate', 'Venous Plasma', 'Palmitoylethanolamide', 'Impulse Oscillometry', 'Vestibular nystagmus', 'International Prognostic Scoring System', 'Prototheca', 'Spin wave', 'Epenthesis', 'Alpha-1 blocker', 'Efavirenz', 'Allelic exclusion', 'Pancreatic injury', 'Glutamate binding', 'Childhood schizophrenia', 'Chest circumference', 'Right lower lobe', 'Health risk assessment', 'Lipoxin', 'Endometrial hyperplasia', 'Wearable cardioverter defibrillator', 'NF-kappa B p50 Subunit', 'Weight lifting', 'Fanconi syndrome', 'Entry into host', 'Pancreatic polypeptide', 'Ectopic pancreas', 'Anal canal', 'X-ray microscope', 'Sigmoid volvulus', 'Flagging', 'Wearable computer', 'Rhabdoviridae', 'Piperine', 'Resummation', 'Penumbra', 'Kanger', 'Neuroligin', 'Coupling reaction', 'Dental technician', 'Pediatric unit', 'Dengue shock syndrome', 'Sick role', 'Increased hdl', 'Narcotic drugs', 'Chemoimmunotherapy', 'Forensic autopsy', 'Angiotensin II receptor antagonist', 'Ossification center', 'Homicide', 'Clivus', 'Thyroid lymphoma', 'Giving Up Smoking', 'Endothelin B receptor', 'Convalescence', 'Cardiac Valves', 'PDGFB', 'Forty Nine', 'Metrizamide', 'Chloroethane', 'Optic canal', 'Pituitary-Adrenal Function Tests', 'Nipple discharge', 'Eicosapentaenoic acid', 'True Precocious Puberty', 'Comedo', 'Ventral hernia repair', 'History of depression', 'Suicide mortality', 'Intraocular fluid', 'Bioastronautics', 'Viral phylodynamics', 'Chronic gastritis', 'Leishmania tropica', 'Syphilis serology', 'Tissue plasminogen activator', 'Anaerobic exercise', 'Digital radiography', 'Disease burden', 'Organ transplantation', 'Trichinella', 'Physical abuse', 'Ractopamine', 'Eosinophil peroxidase', 'Mitral valve prolapse', 'Medical anthropology', 'Vicryl', 'Concentric hypertrophy', 'Hepatitis B virus HBV', 'Microphthalmia-associated transcription factor', 'Respiratory burst', 'Retinaldehyde', 'Relationship education', 'Sotos syndrome', 'Pharyngeal groove', 'Porencephaly', 'Secondary somatosensory cortex', 'Lovastatin', 'ESAT-6', 'Pediatric gastroenterology', 'Methylmalonic acid', 'Mental condition', 'Local Reaction', 'Cerebral amyloid angiopathy', 'Pneumoencephalography', 'Fetal surgery', 'Tay-Sachs disease', 'Child Nutritional Physiological Phenomena', 'Herpes simplex virus DNA', 'Righting reflex', 'Extracorporeal shock wave lithotripsy', 'Esophageal Obstruction', 'Tumor antigen', 'Acoustic radiation force', 'Ultrasound elastography', 'Blood Glucose Self-Monitoring', 'Viral Myocarditis', 'Nanocarriers', 'Ambulatory', 'Vestibular nerve', 'Social epidemiology', 'Primary spontaneous pneumothorax', 'Primary Fibrosarcoma', 'Discoidin domain', 'Antiemetic', 'Parasternal line', 'microRNA', 'Trypanosoma vivax', 'Angiomatosis', 'Pathology diagnosis', 'Fluoxetine', 'Syringe', 'Language and thought', 'Isosorbide mononitrate', 'Life review', 'Hindlimb', 'Palatoplasty', 'BROWN NORWAY', "Turner's syndrome", 'Interobserver Variation', 'Nuclear receptor coactivator 1', 'Coturnix coturnix', 'Selegiline', 'Transcatheter arterial chemoembolization', 'Morphometrics', 'Samara', 'Methylated DNA immunoprecipitation', 'Hantavirus', 'Epineurium', 'Circulating tumor DNA', 'Rasagiline', 'S100 Calcium Binding Protein G', 'Mucolipidosis', 'Auricular cartilage', 'Biomechanical Phenomena', 'Tripterygium wilfordii', 'Tractography', 'Desmin', 'Malignancy', 'Hearing Impaired Persons', 'Allostatic load', 'Dark-adapted', 'Sagittal Split Ramus Osteotomy', 'Hippocratic Oath', 'Epicondylitis', 'Craniospinal Irradiation', 'Periodic syndrome', 'Likely outcome', 'Micromixing', 'Salutogenesis', 'Dose Length Product', 'Cartilage transplantation', 'Both atria', 'Synovial osteochondromatosis', 'Deutetrabenazine', 'Acupuncture point', 'Rate ratio', 'Tumor Cell Migration', 'Perivascular Epithelioid Cell Neoplasms', 'Hyperkinesis', 'Gamma hydroxybutyrate', 'Transdermal', 'Daidzein', 'Current clamp', 'Cushing syndrome', 'Bordetella pertussis', 'Cartilaginous Tissue', 'Calcium hydride', 'Tennis elbow', 'Activin type 2 receptors', 'Common bile duct', 'Sympathetic ophthalmia', 'Desipramine', 'Rickettsiosis', 'Family Cancer History', 'SKBR3', 'Elderly parents', 'Intracranial Thrombosis', 'Elastic bandage', 'Blunt', 'Leukotriene', 'Emergency Stop Button', 'Nucleoside analogue', 'Remove blood', 'Hair washing', 'Parathyroid hormone-related protein', 'Pharmacist', 'Interferon tau', 'Mycoplasma bovis', 'Delivery location', 'Epididymis', 'Biopsy sample', 'Bleeding on probing', 'Fibrous dysplasia', 'Bone morphogenetic protein 2', 'Jaw claudication', 'Polyradiculoneuropathy', 'Sonographer', 'Familial adenomatous polyposis', 'Stem cell lineage database', 'Femoral head', 'Capacitive micromachined ultrasonic transducers', 'Fixative', 'Intravenous use', 'Androgen replacement therapy', 'Low high-density lipoprotein cholesterol', 'Brain-reading', 'Telepathy', 'Therapeutic angiogenesis', 'Calf muscles', 'CD154', 'Glycosylation', 'Cecum', 'Guinea pig', 'Sulpiride', 'Polish population', 'Sanguisorba', 'Vasoactive intestinal peptide', 'Pinellia', 'Doxazosin', 'Atropine', 'Nucleated cell', 'Prostaglandin E', 'Rat Urinary Bladder', 'MULTI-SLICE SPIRAL CT', 'Basilar membrane', 'Dental arch', 'Aortic Diseases', 'Secretory protein', 'Lacrimal sac', 'Schistocerca', 'Psychology of reasoning', 'Exoglycosidase', 'Particulates', 'Rhinomanometry', 'Self-regulation theory', 'Fibrinolytic therapy', 'Keratosis', 'Olfactory memory', 'Bronchiole', 'Medical library', 'Projectional radiography', 'Lobeline', 'Blood coagulation factors', 'Whisking in animals', 'Tibialis anterior muscle', 'Insulin glargine', 'Amniotic fluid embolism', 'FDG-Positron Emission Tomography', 'Thigh part', 'Pilomatrixoma', 'Complex systems biology', 'Enchondromatosis', 'Glycopyrrolate', 'IRS2', 'Lung cancer', 'Allergen extract', 'Portable toilet', 'Metastasis Suppressor Gene', 'Neurologic status', 'Prolamin', 'Sigmoid mesocolon', 'Reagent strip', 'Ras superfamily', 'Preimplantation Embryos', 'Ventricular outflow tract obstruction', 'Cognitive problems', 'Aripiprazole', 'Cerebellar vermis', 'Placebo', 'Anti-Androgen', 'Perioperative nursing', 'All fingers', 'Sensory analysis', 'Disease Notification', 'Pharmacogenetics', 'Orientation and Mobility', 'Suicide gene', 'Unilateral neglect', 'Bulinus', 'Interleukin 21', 'Resistome', 'Childhood Neuroblastoma', 'Polyuria', 'Sleep Stages', 'Trachoma', 'Cervical lymph nodes', 'Immunosuppression', 'Ear canal', 'Thecoma', 'Craniate', 'Posterior margin', 'Mechanical heart', 'Inverted papilloma', 'Definitive Therapy', 'Cerebral neocortex', 'Orthopedics surgery', 'Lophatherum', 'Perindopril', 'HDAC11', 'Doramectin', 'Biperiden', 'Selective IgA deficiency', 'Upper digestive tract', 'Rapid eye movement sleep', 'Beta-Arrestins', 'Insulin-like growth factor-II', 'Antipsychotic Medications', 'Cumulus oophorus', 'Ileal Perforation', 'Ambrosia artemisiifolia', 'Self-justification', 'Pedicled Flap', 'Binding selectivity', 'Thromboxanes', 'Medical malpractice', 'Tooth hypersensitivity', 'Trapezius muscle', 'Facility information model', 'Nociception', 'Pulmonary Langerhans cell histiocytosis', 'Clitoridectomy', '2-Imidazoline', '13C urea breath test', 'Hormonal activity', 'Ataxic Gait', 'Reticulum Cell Sarcoma', 'Echinoderm', 'Immune privilege', 'Biological drugs', 'AMBROXOL HYDROCHLORIDE', 'Decreased Sensitivity', 'Posterolateral approach', 'Post-concussion syndrome', 'Injury mechanisms', 'Antihistamine', 'Heart insufficiency', 'Lost to follow-up', 'Mucinous cystadenoma', 'Cerebral dysfunction', 'Glycoprotein complex', 'Curative care', 'Dendritic spine', 'Right posterior', 'Neopterin', 'Phosphodiesterase', 'Michael reaction', 'Epicardial fat', 'Umbilical vein', 'Toothbrush', 'PANMYELOPATHY', 'Witch hazel', 'Suicide intervention', 'Theophylline', 'Tuberculum sellae', 'Stalking', 'Blood transfusion reactions', 'F2-Isoprostanes', 'Rotavirus Antigen', 'Hard Capsule', 'Prostatic adenocarcinoma', 'Estradiol valerate', 'Phorbol Myristate Acetate', 'Intestinal Hemorrhage', 'Interventional radiology', 'Aortoiliac occlusive disease', 'Rickettsia prowazekii', 'Pterygoid Muscles', 'Colonoscopic Polypectomy', 'Ureter', 'EEG Findings', 'Callitrichidae', 'Psychosocial', 'Intercostal muscle', 'Right gastroepiploic artery', 'Peripheral edema', 'Fournier gangrene', 'Mineral balance', 'Transmethylation', 'Melanocyte', 'ACTH stimulation test', 'Keratocystic Odontogenic Tumor', 'Plasma osmolality', 'S9 fraction', 'Radium-223', 'Surgical Drape', 'Ossicles', 'Murine norovirus', 'Titer', 'Every Four Weeks', 'Cyclophilin D', 'Follicular thyroid cancer', 'Upper teeth', 'Auditory thresholds', 'EBSTEIN ANOMALY', 'Hui nationality', 'Co-Culture', 'Lynch syndrome', 'Opiate', 'Veterinary Nurses', 'Package insert', 'Febrile neutrophilic dermatosis', 'Digitalis Toxicity', 'Multifocal intraocular lens', 'Percutaneous endoscopic gastrostomy', 'IV injection', 'Ureteroscopes', 'General activity', 'Tympanometry', 'Treatment of lung cancer', 'Scanning gate microscopy', 'Balloon', 'Neospora', 'Screening mammography', 'Flu season', 'Life Pattern', 'Marfan syndrome', 'Myeloid sarcoma', 'Lumbar Nerve', 'Pulsed-field gel electrophoresis', 'Pseudobulbar palsy', 'Renal papillary necrosis', 'Dosage form', 'Lipid particle', 'D-dimer', 'Stoma care', 'Pethidine', 'Stromal cell-derived factor 1', 'Almitrine', 'Developmental profile', 'Hemopneumothorax', 'Duodenal mucosa', 'Pitavastatin', 'Brucella melitensis', 'Confidence interval', 'Esophageal pressure', 'Monoacylglycerol lipase', 'Maple syrup urine disease', 'Single Embryo Transfer', 'Diagnostic odds ratio', 'Biparietal diameter', 'Brief Psychiatric Rating Scale', 'SOD1', 'Leukapheresis', 'Intercostal arteries', 'Attenuated Live Vaccine', 'Ophthalmic artery', 'Peer support', 'Locust', 'Pre-Analytical Phase', 'Ranavirus', 'Pulmonary Valve Insufficiency', 'Central precocious puberty', 'Bupivacaine', 'Pneumococcal vaccination', 'Sambucus nigra', 'Alphavirus infection', 'Psychological therapy', 'Loranthus', 'Ganciclovir', 'Congenital glaucoma', 'Ornithine carbamyl transferase', 'Reduced bone mineral density', 'Cutis', 'Axillary lines', 'Pyrrosia lingua', 'Convoluted tubule', 'Rhytidectomy', 'Radioimmunoassay', 'Stroop effect', 'Congenital megacolon', 'Spinal trigeminal nucleus', 'Alcohol septal ablation', 'Convergence insufficiency', 'Exenatide', 'Risperidone', 'Hashimoto Disease', 'Synaptophysin', 'Rifabutin', 'H1 antagonist', 'Cellular aspects', 'Anorectal Fistula', 'Microscopic Anatomy', 'Ocean acoustic tomography', 'Invasive Procedure', 'Herpes simplex virus', 'Foreign-Body Migration', 'Tourette syndrome', 'Tissue Dissection', 'Leishmania sp', 'Magnetic field exposure', 'ChIP-on-chip', 'Glycated hemoglobin', 'Factor IXa', 'Clinomics', 'Premature Closure', 'Lumbar disc degeneration', 'Immunology', 'Gemfibrozil', 'Ryanodine receptor 2', 'Chicken Pox', 'Vascular supply', 'Entire gastrointestinal tract', 'Arthritis therapy', 'Chlorpromazine', 'Multistate Pharmacy Jurisprudence Examination', 'Pterygopalatine fossa', 'Helminth infections', 'Human T-lymphotropic virus 2', 'Enterocolitis', '1000 Genomes Project', 'Syntaxin 3', 'Transglutaminase activity', 'Meal replacement', 'Ambulatory ECG', 'Cholesterylester transfer protein', 'Chromoblastomycosis', 'Fragment-based lead discovery', 'Ketoprofen', 'Dose-Limiting', 'Dumbbell', 'Bone grafting', 'Watery diarrhea', 'Polyostotic fibrous dysplasia', 'Tomography', 'Euphoriant', 'Longissimus', 'Total body irradiation', 'Cerebritis', 'Dry eyes', 'Fat pad', 'ErbB Receptors', 'Endogenous opioids', 'Heparin', 'Reproductive justice', 'Sideroblastic anemia', 'Fresh Tissue', 'Burn shock', 'EVH1 domain', 'Magnetic resonance cholangiopancreatography', "Leber's congenital amaurosis", 'Environmental enrichment', 'Rotavirus', 'Elephantiasis', 'Aggravating Factor', 'Dibenzazepines', 'Radiosensitizer', 'Patient safety', 'Addition polymer', 'Gliogenesis', 'Valeriana', 'Translational research', 'Regional hospital', 'Hindbrain', 'Follicle-stimulating hormone receptor', 'Expectant mothers', 'Chronic uremia', 'Fat necrosis', 'Cosmetics', 'Eosin', 'Chronic lymphocytic leukemia', 'Urological oncology', 'Fistula', 'Chemosensitization', 'Glial tumor', 'Anter</t>
+          <t>['THIRTY-DAY', 'Mood disorders', 'Heparin-induced thrombocytopenia', 'Fundus camera', 'Cervical conization', 'Bone tumours', 'Diiodotyrosine', 'Boceprevir', 'Megalencephaly', 'Autoimmune disease', 'STAT1', 'Yellow fever', 'Fetal Alcohol Spectrum Disorder', 'Gastroesophageal varices', 'Metacestode', 'Polarity in embryogenesis', 'Suicide methods', 'Prevention of dementia', 'Penicillamine', 'Liver regeneration', 'Eclipta alba', 'EPH receptor A2', 'Echinococcus', 'Factor VIIa', 'Under anaesthesia', 'Peptide Metabolism', 'Egg allergy', 'Maternal-fetal medicine', 'Mucinous cystadenocarcinoma', 'Adeno-associated virus', 'Care Transitions', 'Luminescent bacteria', 'Single-domain antibody', 'Factor VIII deficiency', 'Growth hormone deficiency', 'Pneumatosis intestinalis', 'Thiomersal', 'Epidural administration', 'Spinocerebellar Ataxia Type 1', 'Phosphodiesterase 2', 'Vasoconstrictor Agents', 'Cesarean Birth', 'Chronic hepatic', 'Peptic Ulcer Perforation', 'Oxyresveratrol', 'Intestinal villus', 'Nerve growth factor IB', 'Juxta', 'Hair mercury', 'Acute kidney failure', 'Hepatitis G', 'Autonomic nervous system', 'Problem behaviour', 'Asynergy', 'Tension headache', 'Chronaxie', 'Rhodopsin', 'Anterior clinoid process', 'Biocytin', 'Intra-aortic balloon pump', 'Dermal papillae', 'Ropinirole', 'Hemihydrate', 'Matrix metalloproteinase inhibitor', 'College application', 'Positive pressure breathing', 'Cyclic nucleotide phosphodiesterases', 'Chondritis', 'Patellar ligament', 'Virtual screening', "Fabry's disease", 'Insemination', 'Gelatinase', 'Bronchiolitis obliterans', 'Berg Balance Scale', 'Cuscuta chinensis', 'Bone scanning', 'Optical tomography', 'Biomedical technology', 'Croup', 'Respiratory Physiological Phenomena', 'Aviation medicine', 'Pinacidil', 'Mesenchymal stem cell migration', 'Necroptosis', 'Aromatase inhibitor', 'CCL21', 'Carrier status', 'Iranian South Medical Journal', 'Pesticide', 'Drug side effects', 'Tau protein', 'Sensory polyneuropathy', 'Dwarfism pituitary', 'Aldrin', 'Obestatin', 'Pain assessment', 'Endothelial lipase', 'Low high-density lipoprotein cholesterol', 'Insulin receptor', 'Mustelidae', 'Protoporphyrins', 'Myelopoiesis', 'Dental Models', 'Glutamate binding', 'Prototheca', 'Pramipexole', 'Tendon sheath', 'Stefania', 'Electrolarynx', 'Nonalcoholic fatty liver disease', 'Thermoregulation', 'High intraocular pressure', 'LDL receptor', 'Platelet Factor 3', 'Plyometrics', 'Tibolone', 'Ornithine transcarbamylase deficiency', 'Nizatidine', 'Randomization', 'Older child', 'Dens invaginatus', 'EEG Findings', 'Fall prevention', 'Sorting nexin', 'Scopolamine Hydrobromide', 'Methylmalonic aciduria', 'Liraglutide', 'Human menopausal gonadotrophin', 'Adrenal Cortex Carcinoma', 'Cervical pregnancy', 'Protective factor', 'Transrectal biopsy', 'Pregnancy', 'Pancreatic cancer', 'Crude drug', 'Project risk management', 'Natalizumab', 'Therapeutic processes', 'Immune Stimulation', 'Osteoporosis treatment', 'Hormonal therapy', 'Mucin', 'Acute disseminated encephalomyelitis', 'Elevated transaminases', 'Adrenal adenoma', 'Food allergy', 'Area postrema', 'Dermatobia hominis', 'Gut Epithelium', 'Oculocardiac reflex', 'Hericium erinaceus', 'Asplenia', 'Dichromatism', 'Lymphangioma', 'Lymphatic vessel', 'Heterophyidae', 'Urethrotomy', 'Aging parents', 'Hydrops fetalis', 'Cystadenofibroma', 'Protein kinase II', 'Mammary tumor', 'Renal dysplasia', 'Somatostatin receptor 2', 'Vascular smooth muscle cell migration', 'Perfluorocarbon tracer', 'Intervention trials', 'Whole blood sample', 'Iberiotoxin', 'Blood meal', 'Population study', 'Neurosurgery', 'Merkel cell polyomavirus', 'Index finger', 'Anaplasma', 'Countercurrent exchange', 'Cytoplasmic antibody', 'Double-contrast barium enema', 'Odontogenic myxoma', 'Splenectomy', 'Anaerobic exercise', 'Episiotomy', 'Pirfenidone', 'Lateral Decubitus Position', 'RESPIRATORY DISTRESS SYNDROME ADULT', 'Central pain', 'Low-protein diet', 'Juvenile neuronal ceroid lipofuscinosis', 'Cerebral damage', 'Chronic Migraine', 'Portion Sizes', 'Primary Angiosarcoma', 'Arterial grafts', 'Dioptre', 'Nutrition Interventions', 'Co-adaptation', 'Fasciocutaneous flap', 'Nocturia', 'Skull Base Neoplasm', 'Pneumonitis', 'Relative risk reduction', 'Interleukin 6', 'Vibration disease', 'Piriform cortex', 'Liver lesion', 'Tissue typing', 'Necrotic Change', 'Abuse drugs', 'Botulism', 'STAT5A', 'Catheter-associated urinary tract infection', 'Testosterone level', 'Colorectal cancer', 'Fatty acid synthesis', 'Sabin vaccine', 'Extrapyramidal symptoms', 'Prosthetic graft', 'Plasmacytosis', 'Media-independent handover', 'Fluorescence-lifetime imaging microscopy', 'Peripheral T-cell lymphoma', 'Oral cancer screening', 'Flaccid paralysis', 'Interstitial cell', 'Blood stasis', 'Antivenom', 'Seed Implantation', 'Bipedalism', 'Heart septum', 'Chorionic villi', 'Paramyxoviridae', 'Caenorhabditis', 'Medullary cavity', 'Cardiac muscle', 'Bioartificial Organ', 'Cephalalgia', 'Cathelicidin', "Still's disease", 'Cholera', 'Liberal arts education', 'RNA Aptamers', 'Translocator protein', 'SNP', 'Precipitin', 'Silent myocardial ischemia', 'Bacterial polysaccharide', 'Physical dependence', 'Enteric coating', 'Acute mesenteric ischemia', 'Systems neuroscience', 'Fainting', 'Rectal Adenocarcinoma', 'Bicarbonate Ion', 'Dermoepidermal junction', 'Sleepwalking', 'Electrosurgery', 'Cephalogram', 'Zinc Transporter 8', 'Platy', 'Enterostomy', 'Mammoplasty', 'Known Coronary Artery Disease', 'Tophus', 'Gastroesophageal Junction', 'Pentoxifylline', 'Moxifloxacin', 'Social inhibition', 'Paraneoplastic pemphigus', 'Physiological Aging', 'Left ventricular thrombus', 'Multiple treatments', 'Respiratory compensation', 'Percutaneous ethanol injection', 'Force of mortality', 'Calcium nitrate', 'Parafollicular cell', 'Biogenic amine', 'Radical surgery', 'Viral disease', 'Drug education', 'Hyperintensity', 'Active living', 'CD117', 'Right ventricular failure', 'Hormonal contraception', 'Right chest', 'Ciliary arteries', 'Lipid translocation', 'Vaginal dilator', 'Congenital tuberculosis', 'Cimicifuga', 'Acupressure', 'Somite', 'Halo sign', 'Chronic thyroiditis', 'Foscarnet', 'Ascaris lumbricoides', 'Radiation Pneumonitis', 'Imaging Tool', 'Institutional review board', 'Body contouring', 'Traumatic Aneurysm', 'Fatty acid biosynthesis', 'Intracranial Hypotension', 'Diabetic cardiomyopathy', 'Very long chain fatty acid', 'DNA virus', 'Cardio-pulmonary resuscitation', 'Alpha ketoglutarate', 'Smoking Reduction', 'Caspase 7', 'Motor imagery', 'Turbinates', 'Safety behaviors', 'Lymphocytic pleocytosis', 'Bladder Transitional Cell Carcinoma', 'Ataxia', 'Ragweed', 'Ossification center', 'Stool examination', 'Oncotic pressure', 'Glycated hemoglobin-A1c', 'Bone Lengthening', 'Pharmaceutical drug', 'Family distress', 'Thyroid function tests', 'Oxygenation', 'Harem', 'Pancreatic neuroendocrine tumor', 'Propylthiouracil', 'Attributable risk', 'Antrum', 'Lymphoblastic lymphoma', 'Glial fibrillary acidic protein', 'Chain of survival', 'Macrocytosis', 'Pterygopalatine fossa', 'Postneonatal Mortality', 'Reuptake', 'Omentectomy', 'Tooth mobility', 'Aminocaproic acid', 'Vesicoureteric reflux', 'Magical thinking', 'Sesbania grandiflora', 'Direct assay', 'Soft tissue injury', 'Uterine sarcoma', 'Mucocutaneous Lymph Node Syndrome', 'Cholestatic Jaundice', 'Genu varum', 'Desmopressin', 'Midline shift', 'Positional Nystagmus', 'Nitrazepam', 'Parathyroid tumors', 'Dental stone', 'Adenomyomatosis', 'Oral hypoglycemic', 'Doxycycline', 'Tuberous sclerosis protein', 'DBS - Deep brain stimulation', 'Hydrophobia', 'Clostridium sp', 'Granule cell', 'Nottingham Health Profile', 'Care work', 'Tolvaptan', 'Business informatics', 'Visual acuity', 'Cyclopia', 'Dental fear', 'Thrombosis', 'Acceptance and commitment therapy', 'Coenzyme Q10 deficiency', 'Staphylococcal infections', 'GCS - Glasgow coma scale', 'Hypereosinophilic syndrome', 'Androgen Excess', 'Progressive myoclonus epilepsy', 'Warm ischemia', 'Cough reflex', 'Topoisomerase-II Inhibitor', 'Ventricular remodeling', 'Erythema Infectiosum', 'Body cooling', 'Secondary tumors', 'Endothelin receptor', 'Hypophysitis', 'Sensory neuropathy', 'Pharyngeal Neoplasm', 'Medicare Part B', 'Molecular Pharmacology', 'Aphrodisiac', 'Neurogenic claudication', 'Tartrate-resistant acid phosphatase', 'MHC restriction', 'Spectrochemical series', 'Craniospinal', 'Incubation', 'Myotonia', 'Hyrax', 'Eimeria maxima', 'Efficacy', 'Bradykinin B2 Receptor', 'Obstructive lung disease', 'Sanguisorba', 'Trypanosoma evansi', 'Protein Databases', 'Anopheles gambiae S', 'Benzothiadiazines', 'Ovotestis', 'Toll-like receptor', 'Methamphetamine', 'DNA mismatch repair', 'Iliac Aneurysm', 'Maternal effect', 'Joubert syndrome', 'Prostate neoplasm', 'Sexual function', 'Chronic lymphocytic leukemia', 'Knee region', 'Interim analysis', 'Primary systemic amyloidosis', 'Microsomal epoxide hydrolase', 'Loop electrosurgical excision procedure', 'Malignant transformation', 'Long-term care insurance', 'Feeding Regimen', 'Lateral rotation', 'Spermatogonium', 'Food safety', 'Subacute care', 'Thoracic aortic aneurysm', 'Uvulopalatopharyngoplasty', 'Motor unit recruitment', 'Dichloroethane', 'Morris water navigation task', 'Menhaden', 'Intermediary Metabolism', 'Risk Estimate', 'Nilotinib', 'Intraventricular pressure', 'Dystrophy', 'Chronic kidney failure', 'Reconstructive surgery', 'Cluster headache', 'Linaclotide', 'EZH2', 'Telomerase RNA component', 'Hip arthroscopy', 'Raltegravir', 'Rejuvenation', 'Maraviroc', 'Atenolol', 'Stress fractures', 'Mugwort', 'Orchiopexy', 'Ruthenium red', 'Myotoxin', 'Elvitegravir', 'Complete adjuvant', 'Bone fragility', 'Sensorimotor rhythm', 'Acitretin', 'Panton–Valentine leukocidin', 'Chronic Active', 'Cognitive dimensions of notations', 'Chronic mucocutaneous candidiasis', 'BACE1-AS', 'Stress hormone', 'Venous Valves', 'Renal lithiasis', 'Operating microscope', 'Policosanol', 'Eukaryotic DNA replication', 'Red eye', 'Vertical dimension of occlusion', 'Peroxiredoxin 1', 'Synaptopodin', 'Bleeding on probing', 'Organic anion transporter 1', 'Aggravating Factor', 'Diffusion-Weighted MR Imaging', 'Hemagglutination', 'McDonald criteria', 'Public health surveillance', 'Prescription drug abuse', 'Treadmill', 'Dose-volume histogram', 'Self-medication', 'Pediatric Surgeon', 'Verbal reasoning', 'Odontoma', 'Virtual Reality Exposure Therapy', 'Cutaneous Vasculitis', 'Neuroimmunology', 'D-Glucose', 'Alcoholic liver disease', 'Localized Cancer', 'Small teeth', 'Serum folate', 'Methimazole', 'ANCA-Associated Vasculitides', 'Dental malocclusion', 'Valved conduit', 'Computerized physician order entry', 'Conjunctival Neoplasm', 'Scyliorhinus canicula', 'Bone Infection', 'Microfilaria', 'PR interval', 'Salt gland', 'Chemotherapy-induced peripheral neuropathy', 'Langhans giant cell', 'Acute diverticulitis', 'Reciprocal inhibition', 'Procedural memory', 'Glass ionomer cement', 'Plasminogen Activator Inhibitor Type 1', 'Blattidae', 'Word association test', 'Low level laser therapy', 'Amantadine Hydrochloride', 'Evidence-based nursing', 'Health facility', 'Efference copy', 'Cellular neuroscience', 'Eye Movement Desensitization Reprocessing', 'Antibody-dependent enhancement', 'Arterial aneurysms', 'Major Histocompatibility Complex Class II', 'Ovarian artery', 'Do Not Resuscitate Order', 'Leu-enkephalin', 'Greater Tuberosity', 'Inguinal hernia surgery', 'Mixed urinary incontinence', 'Intercellular Adhesion Molecule-1', 'Drug discovery', 'Spore coat', 'Vagal escape', 'Epiboly', 'Microalbuminuria', 'Cercopithecus aethiops', 'MAP3K7', 'Polymer ratio', 'Double negative', 'Thrombelastography', 'Uncaria rhynchophylla', 'CYP3A4', 'Uterine Neoplasm', 'Clonazepam', 'Glucocorticoid receptor', 'Ginsenoside', 'Zoster vaccine', 'Supraspinatus muscle', 'Pigtail', 'Tendinopathy', 'SCN1B', 'Mycetoma', 'Deltoid ligament', 'Mental age', 'Pyridoxine Hydrochloride', 'Stanozolol', 'SN-38', 'Leishmania species', 'Hyperesthesia', 'Cyclase', 'Leucine-rich repeat', 'Parietal region', 'Barley yellow dwarf', 'Iron levels', 'Purified protein derivative', 'Astrovirus', 'Adverse Childhood Experiences', 'Lumbriculus variegatus', 'Liebowitz social anxiety scale', 'Adenosine A3 receptor', 'Febrile neutrophilic dermatosis', 'Spinous process', 'Unnecessary Procedure', 'Diguanylate cyclase', 'Vesicular Stomatitis', 'Apatinib', 'Acrylonitrile', 'Gastric band', 'Choroid', 'Gemcitabine', 'Meningococcal vaccine', 'Labor induction', 'Potassium channel', 'Somatropin', 'T-stage', 'Sustained Release Tablet', 'Lymphogranuloma venereum', 'Ethylene glycol', 'Insulin Analogue', 'Formyl peptide receptor 2', 'Pancreatic polypeptide', 'Syndrome of inappropriate antidiuretic hormone secretion', 'Chimeric Antigen Receptor T-Cell Therapy', 'Brain electrical activity', 'Biological drugs', 'Bulk endocytosis', 'During feed', 'Pulmonary rehabilitation', 'Ecotoxicology', 'Transversus Abdominis Plane Block', 'Internal dimension', 'Uncoupling protein 2', 'Epiglottis', 'Periventricular nucleus', 'Deep cerebellar nuclei', 'Fab Fragments', 'Cutaneous leishmaniasis', 'Plasma Substitutes', 'Chemical abuse', 'Mucinous Tumor', 'Hemicentrotus', 'Intracardiac echocardiography', 'Polyvinyl acetate', 'Fibrinolysis', 'Submaxillary gland', 'Granulocyte colony-stimulating factor', 'Porcine epidemic diarrhea virus', 'Motor coordination', 'Oxotremorine', 'Formulary', 'Incisional hernia repair', 'Ventromedial nucleus of the hypothalamus', 'Ommaya reservoir', 'Psychometric testing', 'Muscle architecture', 'Photosensitivity', 'Mean airway pressure', 'Decoction', 'Compulsory treatment', 'Median sternotomy', 'Oral hygiene status', 'Chronic posttraumatic stress disorder', 'Platelet production', 'Sorbitol dehydrogenase', 'Bone health', 'Isotretinoin', 'Mitral valve annuloplasty', 'Crackles', 'Group home', 'Psoas Muscles', 'Iranian traditional medicine', 'Wechsler Adult Intelligence Scale', 'Intrinsic activity', 'CD16', 'Interstitial space', 'Congenital myopathy', 'Transfusion transmission', 'Growth hormone levels', 'Ixabepilone', 'Emotional well-being', 'Flunixin', 'Patient Acuity', 'Neogenesis', 'Tobamovirus', 'Critical lower limb ischemia', 'Spinal Puncture', 'Physical disability', 'Cerebellar hemisphere', 'Tirofiban', 'FKBP5', 'Right forearm', 'Perineal hernia', 'Hepatosplenomegaly', 'Suicide gene', 'Immunological synapse', 'Uncoupling protein', 'Warming up', 'Pregnancy+hypertension', 'Right Thigh', 'Granuloma', 'Cancer Genome Project', 'Peritoneal dialysis fluid', 'Longissimus dorsi muscle', 'Ganetespib', 'Scanning gate microscopy', 'Venous leg ulcer', 'Left Ventricular Failure', 'Multidrug-Resistant Mycobacterium tuberculosis', 'Adenomatous polyposis coli', 'Hypnotic', 'Vascular disease', 'Distal convoluted tubule', 'Tertiary referral centre', 'Psychotomimetic drug', 'History of Africa', 'Ketotifene', 'Urinary tract disorder', 'Cardiac disorders', 'Posterior inferior cerebellar artery', 'Bovine somatotropin', 'Psoriatic arthritis', 'Influenza-like illness', 'Primary health care', 'Scleral buckle', 'Space medicine', 'Lipid signaling', 'Histocytochemistry', 'Endophthalmitis', 'Loratadine', 'Dysfunctional uterine bleeding', 'Ornithosis', 'AIR/CARBON MONOXIDE', 'Endocytic vesicle', 'Hematometra', 'Uremia', 'ATG16L1', 'Sulpiride', 'Bone Marrow Aplasia', 'Latissimus dorsi muscle flap', 'Isovolumic relaxation time', 'Oesophagostomum', 'Isoamyl nitrite', 'Spatial ability', 'Premotor cortex', 'Humoral immunity', 'Tuohy needle', 'Photoreceptor protein', 'Pruritus Ani', 'Butyrophenone', 'Hookworm vaccine', 'Actinic cheilitis', 'Surgical nursing', 'Damage control surgery', 'Skin grafting', 'Endemic goitre', 'Sclerodactyly', 'Flavivirus', 'Reward system', 'Dermatology clinic', 'Myopic choroidal neovascularization', 'Immunoglobulin G1', 'Surfactant protein A', 'Hemilaryngectomy', 'Mussel', 'High resolution manometry', 'Right gastric vein', 'Extraocular muscles', 'Rational emotive behavior therapy', 'Heart rate variability', 'Morina', 'Vaginal mucosa', 'Nonsense-mediated decay', 'Rotavirus disease', 'Anaphase-promoting complex', 'Hepatitis E virus', 'Africanization', 'Mycoplasma pneumoniae pneumonia', 'Proximal third', 'Cardiac Vein', 'Simplified Acute Physiology Score', 'Tropomyosin receptor kinase B', 'SWISS WEBSTER', 'Preproinsulin', 'Megestrol', 'Electronarcosis', 'Relaxometry', 'Monocytic leukemia', 'Air pollutant concentrations', 'Neurotransmitter Agents', 'Tolerable daily intake', 'Uterine Inertia', 'Constraint-induced movement therapy', 'Aortic Diseases', 'Left ventricular myocardium', 'Beta2-Glycoprotein I', 'Henoch-Schonlein purpura', 'Ventilator-associated pneumonia', 'Giardia lamblia', 'mdx mouse', 'General strain theory', 'Parathyroid neoplasm', 'Early Recurrence', 'Whole Bone Marrow', 'Anal Region', 'Sexual aggression', 'Ejaculate volume', 'Edinburgh Postnatal Depression Scale', 'Puerperal Infection', 'Leg exercise', 'Therapeutic touch', 'Honeysuckle', 'Exposome', 'Prostaglandin E1', 'Annotation', 'Nodular melanoma', 'Anxiety disorder', 'Reproductive medicine', 'Unguent', 'Influenza C Virus', 'Dysgenesis', 'Raised intraocular pressure', 'Spirometry', 'Lead Placement', 'Factor Xa Inhibitor', 'rs4680', 'Copper acetoarsenite', 'Panic', 'Metastasis Suppressor Gene', 'Urokinase', 'Corpus Callosum Agenesis', 'Basophilia', 'Faecal microbiota transplantation', 'Interventional neuroradiology', 'Tetanus vaccine', 'Renin inhibitor', 'Prostaglandin', 'Liver transplantation', 'Cytokine storm', 'Lymphotoxin', 'Vertical diameter', 'Hyoid bone', 'Subtotal Resection', 'Urethral diverticulum', 'Urinary symptoms', 'Cementoblast', 'Prenatal Nutritional Physiological Phenomena', 'Acute necrotizing pancreatitis', 'Mycoplasmal pneumonia', 'Olfactory receptor', 'Curcuma xanthorrhiza', 'Epithelioid hemangioendothelioma', 'Pulmonary alveolar proteinosis', 'Intraperitoneal injection', 'Caloric theory', 'Teratoma', 'Vedolizumab', 'Maxillary sinus', 'Bismuth subsalicylate', 'Osteochondrosis dissecans', 'Heart Fatty Acid-Binding Protein', 'Asbestos', 'Myocardial Reperfusion Injury', 'Labor presentation', 'Factor V', 'Oestrogen receptor', 'Transcobalamins', 'Nicotine dependence', 'Acinic cell carcinoma', 'Para-aminosalicylic acid', 'Jurkat cells', 'Oncogenomics', 'Calculus bovis', 'Screening colonoscopy', 'Aseptic processing', 'Felis', 'Bovine coronavirus', 'Dysautonomia', 'Body surface area', 'Slit lamp', 'Tissue Polypeptide Antigen', 'Health informatics', 'Plasmodium berghei', 'Growth delay', 'Zotarolimus', 'Spinothalamic tract', 'Myelopathy', 'Chronic granulocytic leukemia', 'Femoral Neoplasms', 'Chloroform', 'Pulmonary shunt', 'Intracranial pressure', 'Bali cattle', 'Distraction', 'Otology', 'Urethral Diseases', 'Cisterna magna', 'Psychological testing', 'Cardiovascular pharmacology', 'Sterol regulatory element-binding protein', 'Forensic psychiatry', 'Amblyomma', 'Macrophage differentiation', 'Cartilage degeneration', 'Panomics', 'Aortic Arch Syndrome', 'Juvenile Polyp', 'Hematologic disorders', 'Extrapyramidal disorder', 'A serotype', 'Abdominal wall', 'Ibrutinib', 'Confounding', 'Epithelial proliferation', 'Leiomyoma', 'Myelosuppressive Chemotherapy', 'Eating Disorder Inventory', 'RNA integrity number', 'Growth plates', 'Mandibular nerve', 'Acute left ventricular failure', 'Spironolactone', 'Regional chemotherapy', 'Immunogenic cell death', 'Group A rotaviruses', 'Anti-social behaviour', 'Toxaphene', 'Endometrial Polyp', 'Amoebic dysentery', 'Dental auxiliary', 'Dichlorodifluoromethane', 'Peristome', 'Fluvastatina', 'Diaphragmatic breathing', 'Potassium superoxide', 'Whiplash injury', 'PART1', 'Cardiac amyloidosis', 'Plasma cell dyscrasia', 'Abdomen surgery', 'Right Lateral Decubitus Position', 'Unilateral neglect', 'Soluble fms-like tyrosine kinase-1', 'Seizure threshold', 'Complement control protein', 'Bronchogenic cyst', 'Pulmonary toxicity', 'Her Disease', 'Communicative Disorders', 'Notophthalmus viridescens', 'Inspiratory flow', 'Nucleoside analogue', 'Cognitive musicology', 'Adrenal cortex insufficiency', 'Lymphatic mapping', 'Turbinectomy', 'Midodrine', 'Pirenzepine', 'Serum protein electrophoresis', 'Retinite', 'Benazeprilat', 'Kidney transplant rejection', 'Mineral trioxide aggregate', 'Health assessment', 'Dexamethasone Sodium Phosphate', 'Brachial Plexus Neuritis', 'Retinal blood vessels', 'Adult intensive care unit', 'Phosphoproteomics', 'X-linked lymphoproliferative disease', 'Vaginal epithelium', 'Photodynamic therapy', 'Psychiatry', 'Moderate-Dose', 'Muscle imbalance', 'Eleutherococcus senticosus', 'Anxiety sensitivity', 'Fatty acid-binding protein', 'RNA transfection', 'Mesenchymal Tumor', 'Sensitive skin', 'N-terminal pro-Brain Natriuretic Peptide', 'Enzalutamide', 'Pylorus', 'Pneumonia severity index', 'Sporotrichosis', 'Maxillary artery', 'Amnesia', 'Diffuse panbronchiolitis', 'Life Support Care', 'Psychosis', 'Chromatin Remodeling Factor', 'Ski complex', 'Tubifex', 'Whipple Procedure', 'Oxytocin secretion', 'Resorption', 'Methylenetetrahydrofolate reductase deficiency', 'Prilocaine', 'Topoisomerase-I Inhibitor', 'Eye tracking on the ISS', 'Skink', 'Mediastinal Neoplasm', 'Disgerminoma', 'Perfusion', 'Cannabinoid receptor', 'Anterior Horn Cell', 'Centrin', 'Shea butter', 'Fungal prion', 'Cycle of violence', 'Lightheadedness', 'Sex allocation', 'Scrotum', 'Mood stabilizer', 'Right posterior', 'Allopurinol', 'Neuronal Nitric Oxide Synthase', 'Median follow-up', 'Round Ligament', 'Casein kinase 1', 'Kynurenic acid', 'Leukopenia', 'GLUT4', 'Environmental intervention', 'Facial wrinkles', 'Chytridiomycosis', 'Hearing examination', 'Episodic-like memory', 'Oral mucosal lesions', 'Piaractus mesopotamicus', 'Panca', 'Mineralocorticoid receptor', 'Integrative medicine', 'Afibrinogenemia', 'Antiestrogen', 'Chemical space', 'Intraflagellar transport', 'N-Acetylgalactosamine-4-Sulfatase', 'Tolterodine', 'Colonoscopic Polypectomy', 'Toltrazuril', 'Epoxide hydrolase', 'Biological psychiatry', 'Terminal patient care', 'Diabetic foot ulcer', 'Splenic artery aneurysm', 'Mathematical anxiety', 'CADMIUM EXPOSURE', 'Non-response bias', 'PDE1', 'Onset of action', 'Corneal scarring', 'Enactivism', 'Tacrolimus', 'Stomach neoplasm', 'Androgen deficiency', 'Pimonidazole', 'Androgen receptor', 'Clofazimine', 'Monooxygenase', 'Anti-Androgen', 'Latanoprost', 'Skeletal muscle cell', 'Skeletal disorder', 'Intravenous Patient-Controlled Analgesia', 'Hysterosalpingography', 'Mineralized tissues', 'Magneto-optic Kerr effect', 'Bare-metal stent', 'Bone fragment', 'Lordosis', 'Reality testing', 'Clinical Physiology', 'Early Neonatal Mortality', 'Parvocellular cell', 'Prohormone convertase', 'Lipolysis', 'Cross-tolerance', 'Phellodendron amurense Rupr.', 'Diabetic Autonomic Neuropathy', 'Acute myocarditis', 'Connective Tissue Disorder', 'Left atrial pressure', 'Thioredoxin Reductase 1', 'Cystic dilatation', 'Antiemetic Agent', 'Recurrent bladder cancer', 'Anthracycline', 'Dopamine', 'Negativity bias', 'Short-term memory', 'Polybrominated Biphenyls', 'Acquired immunodeficiency syndrome (AIDS)', 'Tongue tip', 'Intradermal test', 'Thecal sac', 'Myxoma virus', 'Interleukin 28B', 'Codeine Phosphate', 'Bis(2-ethylhexyl) phthalate', 'Spinal fusion', 'Tissue section', 'Limb development', 'Baby hamster kidney cell', 'Suspensory ligament', 'Autoantibody production', 'Lithotripsy', 'Human skin', 'Epidermal growth factor receptor', 'Necrotizing enterocolitis', 'Eye movement desensitization and reprocessing', 'Leukotriene', 'Sex Determination Analysis', 'Pomalidomide', 'Dissolution testing', 'Anaphylatoxin', 'Densitometry', 'Phenacetin', 'Antigenic shift', 'Tocainide', 'Oculopharyngeal muscular dystrophy', 'Cyclophilin', 'Cucumovirus', 'Type II secretion system', 'Retention Cyst', 'Nutrition Education', 'Civil disorder', 'Tricuspid insufficiency', 'Ball and socket joint', 'Blast injury', 'Fibula', 'Benzazepine', 'Cytisine', 'Propionic acidemia', 'Angiotensin II', 'Rectus sheath', 'Umbilical blood', 'Human papillomavirus DNA', 'mTORC1', 'Military medical ethics', 'Papulopustular', 'Levodopa-induced dyskinesia', 'X-ray generator', 'Hypercapnia', 'Polydendrocytes', 'T wave alternans', 'Emergency exit', 'Adrenal Hemorrhage', 'Intubation', 'Original antigenic sin', 'Zolmitriptan', 'Farsi language', 'Stem cell', 'Risk factor', 'Clinical neurophysiology', 'Resuscitator', 'Immunologic Deficiency Syndromes', 'Opiate addiction', 'Pulmonary cryptococcosis', 'Insulin analog', 'Erysipelothrix', 'Leigh disease', 'Head impulse test', 'Adaptive behavior', 'Prevention trials', 'Completion thyroidectomy', 'Enkephalin', 'Gestation period', 'Frontal regions', 'Macroglobulins', 'Cerebrovascular disorder', 'Anterior Communicating Artery Aneurysm', 'Oxymetazoline', 'Feather pecking', 'Cell lineage', 'Pharmaceutical care', 'Bronchoscopy with Bronchoalveolar Lavage', 'Radical mastectomy', 'Carney complex', 'Mammography', 'Gross tumor volume', 'Pelvic pain syndrome', 'Alcohol education', 'Hemoglobin', 'Intervertebral foramen', 'Taurodontism', 'Laparoscopic adjustable gastric banding', 'Apert syndrome', 'Cardiac resynchronization therapy', 'Veratrum alkaloid', 'Histaminergic', 'Mercaptopurine', 'Primary biliary cirrhosis', 'Antagonism', 'Rofecoxib', 'Immunochemistry', 'Four-Dimensional Computed Tomography', 'Young Mania Rating Scale', 'Self-assembling peptide', 'Cyclin-dependent kinase 7', 'Kelvin probe force microscope', 'Reactive Depression', 'Occipital lobe', 'Osteoma', 'Physical exercise', 'Antigen-presenting cell', 'Dissociative disorders', 'Biological clock', 'Norethisterone acetate', 'Viral meningitis', 'Total ankle arthroplasty', 'Sinoatrial node', 'JC Virus Infection', 'Gastrointestinal bleeding', 'Methanosarcinales', 'International Affective Picture System', 'Lower extremity amputation', 'Fossa ovalis', 'TRPV6', 'Afferent arterioles', 'Anterior communicating artery', 'Ichthyosis', 'Prosthesis Implantation', 'Superior thyroid artery', 'Tobacco smoke', 'Declaration of Helsinki', 'Prognostic score', 'Escherichia coli Vaccines', 'C4 photosynthesis', 'Electronic cigarette', 'Endoanal ultrasound', 'Anxiety states', 'Diet reducing', 'Marine fungi', 'Homologous desensitization', 'Neurturin', 'Congener', 'Cognitive bias modification', 'Peripheral Nerve Sheath Tumors', 'Transrectal ultrasonography', 'Metabolic control analysis', 'CHARGE syndrome', 'Posterior cranial fossa', 'Chemiluminescence immunoassay', 'Anabolic-Androgenic Steroids', 'Differential interference contrast microscopy', 'Eclampsia', 'GABA transporter 1', 'Nasal dorsum', 'Suicide and the Internet', 'Asthma action plan', 'Rh Isoimmunization', 'United Network for Organ Sharing', 'Basement membrane', 'Neutron imaging', '2-Arachidonoylglycerol', 'Pseudoxanthoma elasticum', 'Negative transfer', 'Laboratory Infection', 'Theory of mind', 'Chromatin binding', 'Nystagmus', 'Swine Erysipelas', 'Murine leukemia virus', 'Femoral fracture', 'Molecular Docking Simulation', 'Abnormal skin', 'Cysticercus', 'Acute flaccid paralysis', 'Sudan Black B', 'Vestibular pathway', 'Orlistat', 'Prunella vulgaris', 'Carrier testing', 'Military nursing', 'Cannabinoid Receptor Agonists', 'Syncytium', 'Biorhythm', 'CHD4', 'Life satisfaction', 'Salivary flow rate', 'Keratosis', 'Excessive weight loss', 'Lamina propria', 'Osteochondritis dissecans', 'Psychological abuse', 'Drug action', 'TRH stimulation test', 'Hematologic tests', 'Accessory nerve', 'Opacifier', 'Insulin-like growth factor-II', 'Physical deconditioning', 'Glycation', 'Precocial', 'Deciduous dentition', 'Umbilical Cord Blood Transplantation', 'Idiopathic pulmonary fibrosis', 'Interval estimation', 'High-Throughput Screening Assays', 'CAS Registry Number', 'Caesarean delivery', 'Capsular Invasion', 'Caudal epidural', 'Aliskiren', 'Taxane', 'Solifenacin', 'P22phox', 'Hyperkeratosis', 'Ultrasound-Guided Biopsy', 'Subgranular zone', 'Orthotics', 'Continuous noninvasive arterial pressure', 'Image Series', 'Neutrophil chemotaxis', 'Persistent Fetal Circulation Syndrome', 'Operative report', 'Antibiotics', 'Anterior cervical discectomy and fusion', 'Propoxyphene', 'Central nervous system', 'Intercostal arteries', 'Very low-density lipoprotein', 'Picrotoxin', 'Follistatin', 'Shoulder dystocia', 'Whole body imaging', 'Eccrine gland', 'Oryzias', 'Audiometer', 'Heroin addiction', 'Jejunum', 'Hypoglossal nerve', 'Pentosidine', 'Photophobia', 'Androstenedione', 'Gynura procumbens', 'Niacin', 'Vein thrombosis', 'Open Resection', 'Salpingitis', 'Laryngeal Diseases', 'Classical pharmacology', 'Intensive care unit', 'Retroperitoneal fibrosis', 'Aggressive driving', 'Venous thromboembolic disease', 'Reticular fiber', 'Nanocomposite hydrogels', 'Respiratory acidosis', 'Small airways disease', 'SOUND STIMULATION', 'Glucosaminidase', 'Lymphomatoid granulomatosis', 'Herpes Genitalis', 'Dynamic hip screw', 'CD134', 'Darunavir', 'Agoraphobia', 'Parotid duct', 'Ampullae of Lorenzini', 'Maintenance dose', 'Brenner Tumor', 'Straight sinus', 'gamma-Aminobutyric acid', 'Circuit training', 'Zygomycosis', 'Island Flaps', 'Amoebic liver abscess', 'Rheumatoid factor', 'Biological target', 'Hepatorenal syndrome', 'Stereology', 'Job description', 'HIV envelope protein', 'Truncal vagotomy', 'GATA1', 'Glucokinase', 'Histone H3 Lysine 4', '3D ultrasound', 'Lumbar Nerve', 'Anagrelide', 'Esophageal stenting', 'Hydrocele', 'Tumor-Derived', 'CLN3', 'Axial spondyloarthritis', 'Pindolol', 'Cresyl violet', 'Intestinal Disorder', 'Triamterene', 'Renal papillary necrosis', 'Gravid uterus', 'CDC25A', 'Urinary elimination', 'Intraocular lymphoma', 'Lepidium meyenii', 'Ostariophysi', 'Drugs in pregnancy', 'Revalidation', 'AL amyloidosis', 'Acute Intestinal Ischemia', 'Cilium', 'Wild type', 'Silent synapse', 'Gd-EOB-DTPA', 'Complement system', 'Mucoproteins', 'National Health and Nutrition Examination Survey', 'Bus mastering', 'Colectomy', 'Nocturnal penile tumescence', 'Caseous lymphadenitis', 'Cardiovascular Physiological Phenomena', 'Peptide YY', 'Percutaneous vertebroplasty', 'Intrahepatic bile ducts', 'Esophageal speech', 'Neural degeneration', 'Cholecystokinin B receptor', 'Pericardial constriction', 'Localized surface plasmon', 'Guiding catheter', 'Jugular foramen', 'Diagnosis of malaria', 'Microscopic polyangiitis', 'Astragalus Root', 'Nicotine withdrawal', 'Right cerebral hemisphere', 'Systematic desensitization', 'Fulminant', 'Ionomycin', 'Pseudohypoaldosteronism', 'Mesothelial Cell', 'Extensor Carpi Radialis Brevis', 'Streptolysin o', 'Low testosterone levels', 'Human immunoglobulins', 'Deflazacort', 'GP practice', 'Long-term potentiation', 'Physical abuse', 'Elafin', 'Parvovirus infection', 'Urotensin-II', 'Dysphagia', 'Glycosylated haemoglobin', 'CAM Therapy', 'Anemia', 'Metabolic disorder', 'Clear-cell adenocarcinoma', 'Well-being', 'Central vision', 'Sunbathing', 'Left ventricular outflow obstruction', 'Patient Handoff', 'Galvanic vestibular stimulation', 'Musculocutaneous nerve', 'Male sexual function', 'Sunscreening Agents', 'Complement-dependent cytotoxicity', 'Renal Artery Obstruction', 'Developmental psychopathology', 'Immunity', 'Transcranial doppler sonography', 'Adenosine 5 monophosphate', 'Toll-Like Receptor 9', 'Exercise therapy', 'Organocatalysis', 'Cerebral blood flow', 'Bupleurum chinense', 'Splenium', 'Nasal passages', 'Ankle replacement', 'Monochorionic twins', 'Azurophilic granule', 'Vaginal speculum', 'Disconnection syndrome', 'Acoustic radiation force', 'Dentate gyrus', 'Hyperventilation', 'Technetium Tc 99m Sestamibi', 'Bench press', 'Voiding cystourethrogram', 'Dracunculiasis', 'Optic papilla', 'Ureaplasma urealyticum', 'Splenocyte', 'Diabetic neuropathy', 'Myopathy', 'Serum cholesterol level', 'Hormone analog', 'Central nervous system disease', 'Housing for the Elderly', 'Sirius Red', 'Glycogen storage disease type V', 'Ectromelia virus', 'Thrombopenic purpura', 'Ranolazine', 'Skeletal muscle cell differentiation', 'Hepatic veno-occlusive disease', 'Cold agglutinin disease', 'Cervical approach', 'Cell-Derived Microparticles', 'Body cavity', 'Sports science', 'Hepatic Complication', 'Laboratory Animal Science', 'Abnormal labor', 'Uterine corpus', 'Vomer', 'Abstinence', 'Needs assessment', 'Thromboxane receptor', 'Meconium peritonitis', 'Yoga Therapy', 'Exercise duration', 'Eosin', 'Inferior longitudinal fasciculus', 'Well nourished', 'Membranous labyrinth', 'Sauria', 'CD11c', 'Ocular dominance', 'Debriefing', 'Chest physiotherapy', 'Injury mechanisms', 'Anticonvulsant drugs', 'Data transformation', 'Pneumomediastinum', 'Neisseria meningitidis', 'Eating disorders', 'Iliohypogastric nerve', 'Hypoplastic left heart syndrome', 'Doxapram', 'Cystamine', 'Psychomotor learning', 'Myocardial bridging', 'Intrauterine infection', 'Neck dissection', 'Flagging', 'Overtraini</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['2781422250', '5395021', '109260823', '193919354', '2775977231', '2775905979', '2777389919', '2910609075', '55958113', '8077954', '2776380714', '521786372', '51067260', '108583219', '48164120', '2780003333', '56423290', '20574239', '2781418458', '2780319001', '2776454994', '2909358322', '2910108987', '2780909375', '103208741', '187667220', '533356498', '2776622967', '2776893095', '12298181', '164449429', '2779905815', '2779018934', '2776603611', '2777841733', '2780805685', '25032326', '13553968', '53537400', '97082442', '2909423638', '2779923759', '182325601', '2776503146', '2781206393', '140988679', '2781051278', '2777638134', '190973436', '53173841', '2777646416', '2777227597', '159456220', '2777082460', '113706210', '2776734470', '2776291881', '76188268', '522453465', '2910150694', '134819137', '2777538862', '194519906', '167055898', '2910655040', '2777410049', '2781390853', '43141900', '177291462', '2778243571', '38014559', '507981020', '136287216', '2776526686', '2910083013', '110131835', '2777929519', '2777189325', '33923547', '2779297142', '138296749', '2778526452', '2779132545', '154482161', '2777861003', '549090830', '188116033', '123960582', '164403151', '2909284606', '2780623907', '2780118692', '2779063172', '2777394604', '2781071349', '2779089611', '11012388', '2779106483', '168646138', '36727532', '205545832', '136418573', '2910745670', '2776613822', '107806365', '538133343', '192531217', '552535540', '71406770', '15500210', '2779177650', '2779363792', '22156102', '2778197446', '2777244724', '2781285556', '2780198215', '920782', '114010052', '2777776026', '45504901', '2780035574', '204814006', '42525527', '188167160', '120912362', '80205793', '2780674924', '37413474', '147077947', '511723319', '2780266753', '111366508', '37228920', '2779100972', '86637286', '2776934989', '2778968930', '49876356', '2778403301', '2778825498', '84389358', '2778740177', '2778498718', '2777603413', '2909619517', '2776585938', '194943564', '2777626052', '2780491831', '542530943', '2779447296', '175801342', '2780144881', '15122004', '2780732545', '2777247013', '2909807104', '2776890026', '197676734', '88610354', '2778903259', '2777022483', '85597727', '2778728124', '2780468074', '2909931160', '2909116566', '169536714', '2781160424', '171041071', '2776751993', '2779304910', '2777075199', '79416737', '2778712577', '2910006436', '125209646', '166007726', '2779687131', '8795937', '2777597347', '47177190', '2910661131', '2778365744', '15107229', '2778325511', '2780997200', '2779963164', '165364887', '523056402', '2781463719', '181575753', '19352297', '108771440', '28858896', '180614257', '2778617593', '23588892', '501001295', '203151758', '509550671', '668760', '98545295', '2777278836', '105776082', '2776429199', '130148452', '2778780117', '113807197', '2779614053', '2778908029', '44877443', '2777161012', '106432739', '67141207', '503872463', '134290984', '26258499', '2778782981', '2776900795', '2779961193', '207096701', '134895398', '177766495', '2781405653', '150710463', '2781240919', '2778011250', '2781349114', '2777080206', '2776509339', '84653758', '2776020796', '2780623789', '2778742788', '2776907558', '2776304142', '2909286781', '2778733213', '124208396', '92393732', '547764534', '2776716048', '2779379842', '178229462', '19417346', '51672120', '2780020723', '70587473', '2779025965', '2777765802', '2779791860', '150394285', '28718268', '188231857', '2781209966', '2777993278', '62657170', '2910249166', '184356942', '148324565', '81369262', '2909933943', '44493715', '10050518', '16443162', '2778742815', '2778511055', '2780493508', '2780438764', '2780117764', '136908173']</t>
+          <t>['207096701', '97082442', '49876356', '43141900', '2780909375', '2780732545', '2777603413', '2777389919', '2779304910', '2777082460', '2776622967', '2777626052', '204814006', '15122004', '10050518', '2777765802', '194943564', '178229462', '2781071349', '62657170', '2779106483', '2778243571', '2779089611', '511723319', '2776585938', '2780623789', '2778197446', '70587473', '166007726', '2780468074', '197676734', '2777227597', '2777993278', '2909619517', '501001295', '150710463', '552535540', '44493715', '2779363792', '2775905979', '84653758', '113706210', '2909286781', '2778728124', '45504901', '2778780117', '2777538862', '92393732', '108771440', '521786372', '150394285', '23588892', '2780805685', '668760', '2778740177', '2777022483', '103208741', '180614257', '2777410049', '136908173', '2779791860', '2781209966', '2909807104', '503872463', '2779100972', '51672120', '177291462', '106432739', '2777244724', '2779025965', '2780266753', '2779963164', '79416737', '98545295', '2779063172', '542530943', '123960582', '2781349114', '2778968930', '2910609075', '2909423638', '188231857', '2779297142', '2776429199', '2777247013', '22156102', '164449429', '2779923759', '2781390853', '2778511055', '522453465', '2777841733', '8077954', '80205793', '2776291881', '148324565', '187667220', '2776304142', '2776893095', '154482161', '136418573', '2780144881', '134290984', '2776907558', '523056402', '47177190', '920782', '55958113', '2778908029', '28858896', '25032326', '2779961193', '53173841', '194519906', '20574239', '169536714', '184356942', '2779614053', '2780035574', '2778498718', '2777638134', '2781160424', '2778325511', '2778365744', '88610354', '188167160', '2910249166', '2781051278', '86637286', '2776020796', '81369262', '2778403301', '2909933943', '5395021', '51067260', '2910108987', '2778526452', '2776751993', '2910661131', '2909931160', '2781240919', '2781405653', '15107229', '2910083013', '2777394604', '2780020723', '19417346', '2777278836', '2776934989', '2781463719', '165364887', '2777075199', '2780623907', '2781422250', '2777189325', '48164120', '42525527', '147077947', '2779177650', '2909116566', '549090830', '2778617593', '2776716048', '2777597347', '167055898', '2777929519', '2780674924', '105776082', '2778742788', '2780118692', '37413474', '2778903259', '2778011250', '159456220', '113807197', '15500210', '2779447296', '2910745670', '36727532', '33923547', '2777776026', '181575753', '2910006436', '2779687131', '85597727', '114010052', '110131835', '2777646416', '2780003333', '2778825498', '13553968', '2779132545', '192531217', '2776503146', '67141207', '2778742815', '124208396', '2910150694', '509550671', '107806365', '2776613822', '26258499', '71406770', '2779018934', '205545832', '175801342', '2777161012', '2779379842', '125209646', '2780997200', '140988679', '2780198215', '2776734470', '2781285556', '547764534', '16443162', '136287216', '2781418458', '188116033', '138296749', '190973436', '37228920', '2776900795', '2776890026', '130148452', '120912362', '2776526686', '28718268', '12298181', '84389358', '2780493508', '2776603611', '11012388', '111366508', '182325601', '2775977231', '108583219', '2778733213', '2780491831', '177766495', '2909284606', '134819137', '2910655040', '2776454994', '2777080206', '2781206393', '134895398', '193919354', '171041071', '2780319001', '2909358322', '38014559', '76188268', '56423290', '19352297', '203151758', '507981020', '164403151', '2779905815', '44877443', '533356498', '2778782981', '2776380714', '2777861003', '8795937', '2778712577', '538133343', '2776509339', '2780438764', '53537400', '168646138', '109260823', '2780117764']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Constructive alignment', 'Program evaluation', 'Child development', 'General Certificate of Education', 'Education for sustainable development', 'Critical race theory', 'Historically black colleges and universities', 'SOCIOECONOMICALLY DISADVANTAGED', 'Indigenous', 'Miscue analysis', 'Academic Training', 'Waste collection', 'Professional development', 'Deep learning', 'Concept learning', 'Extended School Year', 'Counselor education', 'Transferable skills analysis', 'World language', 'Work experience', 'Alternative teacher certification', 'Moderate learning difficulties', 'Student attendance', 'Problem-based learning', 'Service life', 'Preparatory school', 'Critical thinking', 'Social criticism', 'Faculty development', 'Proactive learning', 'Geomathematics', 'Social progress', 'Everyday life', 'Academic dishonesty', 'Pregnancy Discrimination Act', 'Teacher education', 'Socialization', 'Music education', 'Numeracy', 'Skills management', 'Montessori method', 'Classroom management', 'Learner autonomy', 'Academic mobility', 'Academic achievement', 'Participatory action research', 'Market integration', 'University system', 'Informal education', 'Action research', 'Digital literacy', 'Student loan', 'Instructional design', 'Early childhood', 'Critical theory', 'Adult learner', 'Knowledge level', 'Context effect', 'Social research', 'On work experience', 'Comparative education', 'Gross enrolment ratio', 'Student engagement', 'Applied linguistics', 'Student aid', 'Self-concept', 'Challenging behaviour', 'Environmental education', 'Active listening', 'Academic probation', 'Education theory', 'Agricultural education', 'Academic standards', 'Oppression', 'Baccalaureate Degree', 'Self-efficacy', 'Patient education', 'Officer', 'Mathematics', 'Educational attainment', 'Global citizenship', 'Open educational resources', 'Person-centred planning', 'Mainstreaming', 'Research Assessment Exercise', 'Attitude change', 'Q-learning', 'Language education', 'Risk management framework', 'Farsi language', 'Disadvantaged', 'Universal preschool', 'Family child care', 'Pupil', 'Gender Parity Index', 'Rhetorical criticism', 'Creativity', 'M-learning', 'Cross-cultural', 'Educational research', 'Young adult', 'Microteaching', 'Primary student', 'Adult educator', 'Apprenticeship', 'Economics education', 'Computer literacy', 'Education reform', 'Physical education', 'Inclusion (education)', 'International education', 'Coaching', 'Educational measurement', 'Capital I', 'Racial politics', 'Learning styles', 'Informal learning', 'Team learning', 'Foreign language', 'Peer learning', 'Syllabus', 'Multilingualism', 'PU learning', 'Formative assessment', 'Experiential education', 'Higher education', 'Environmental adult education', 'Academic capital', 'Liberal arts education', 'Socioeconomic status', 'Philosophy education', 'Teacher induction', 'Educational leadership', 'Experiential learning', 'Human rights education', 'Rate of return', 'Global justice', 'Social disintegration', 'Neuroscience of multilingualism', 'Student-centred learning', 'Humanistic education', 'Discourse analysis', 'Cross-cultural competence', 'Long-range planning', 'Phonics', 'Specific learning disability', 'Student teaching', 'Participant observation', 'Bachelor', 'Elementary and Secondary Education Act', 'Multiculturalism', 'Senior secondary education', 'Data analysis', 'Adult Learning', 'Open learning', 'Response to intervention', 'Career development', 'Computer-Assisted Instruction', 'Nutrition Education', 'Developmentally Appropriate Practice', 'Teaching method', 'Enrollment management', 'Basic writing', 'Tivoli Management Framework', 'Student debt', 'Digital learning', 'Literature reviewing', 'Hemadsorption', 'Cultural competence', 'Social integration', 'First language', 'Intercultural competence', 'Academic freedom', 'Cosmopolitanism', 'Social learning', 'Retraining', 'Early childhood program', 'Cultural diversity', 'Language assessment', 'School-to-work transition', 'Discipline', 'Access to Higher Education', 'Curriculum', 'Training skills', 'Learning environment', 'Learning disability', 'White supremacy', 'Initial Teaching Alphabet', 'Family literacy', 'Whole language', 'Business education', 'Grade inflation', 'Further education', 'Religious education', 'Lifelong learning', 'Special education', 'Aliteracy', 'Biocultural diversity', 'Surveyor', 'Life skills', 'Standardized test', 'Medical education', 'Vocational education', 'Technical writing', 'Reggio Emilia approach', 'Likert scale', 'Peace education', 'Cooperative education', 'Reading comprehension', 'Health education', 'Education Act', 'Twice exceptional', 'Science education', 'Institutional research', 'Education', 'Education policy', 'Distance education', 'Cognitive skill', 'Active learning', 'Resource room', 'Global citizenship education', 'Biobased economy', 'Philosophy of education', 'Educational psychology', 'AP Biology', 'Student affairs', 'Social studies', 'Dyscalculia', 'Internationalization of Higher Education', 'Wage curve', 'Lifewide learning', 'Academic advising', 'Goal orientation', 'Shiksha', 'Basic skills', 'Teacher leadership', 'Categorical imperative', 'Grantsmanship', 'Vocational evaluation', 'Social injustice', 'Class rank', 'Learning theory', 'Literacy', 'Interactive Learning', 'Nonformal learning', 'Early childhood education', 'Pedagogy', 'Cooperative learning', 'College athletics', 'Transformative learning', 'Student approaches to learning', 'Andragogy', 'Compulsory education', 'Adsorption', 'Needs assessment', 'Educational assessment', 'Educational institution', 'Popular education', 'Social value orientations', 'Minimal Brain Dysfunction', 'Best practice', 'Rote learning', 'Achievement test', 'Student promotion', 'Adult education', 'Primary education', 'Educational technology', 'Student–teacher ratio', 'Free education', 'Academic administration', 'Youth unemployment', 'Work-based learning', 'Resocialization']</t>
+          <t>['Philosophy of education', 'Skills management', 'Neuroscience of multilingualism', 'Environmental education', 'Problem-based learning', 'Response to intervention', 'Phonics', 'Historically black colleges and universities', 'Academic freedom', 'Early childhood', 'Social criticism', 'Bachelor', 'PU learning', 'Open learning', 'Primary education', 'Andragogy', 'Participant observation', 'Early childhood education', 'Gender Parity Index', 'Social value orientations', 'M-learning', 'Academic probation', 'Rhetorical criticism', 'Philosophy education', 'Student teaching', 'Basic skills', 'Capital I', 'Transformative learning', 'Language assessment', 'Digital learning', 'Developmentally Appropriate Practice', 'Student loan', 'Popular education', 'Specific learning disability', 'Life skills', 'Social studies', 'Education reform', 'Adult education', 'Coaching', 'Critical race theory', 'Goal orientation', 'Critical theory', 'Vocational evaluation', 'Student debt', 'Syllabus', 'Reading comprehension', 'Gross enrolment ratio', 'Learning theory', 'Lifelong learning', 'Waste collection', 'Adsorption', 'Surveyor', 'Teacher education', 'Vocational education', 'Cross-cultural competence', 'Basic writing', 'Service life', 'Aliteracy', 'Self-concept', 'Resocialization', 'Compulsory education', 'Educational institution', 'Computer-Assisted Instruction', 'Distance education', 'Human rights education', 'Cooperative learning', 'Active listening', 'Education', 'Racial politics', 'Student approaches to learning', 'Teacher induction', 'Family literacy', 'Social learning', 'Technical writing', 'Family child care', 'Multiculturalism', 'Language education', 'Wage curve', 'Social disintegration', 'SOCIOECONOMICALLY DISADVANTAGED', 'Montessori method', 'Educational assessment', 'Educational attainment', 'Peace education', 'Career development', 'Educational measurement', 'Geomathematics', 'Classroom management', 'Challenging behaviour', 'Free education', 'Social research', 'Pregnancy Discrimination Act', 'Miscue analysis', 'Environmental adult education', 'Knowledge level', 'Rote learning', 'Preparatory school', 'Grantsmanship', 'Faculty development', 'Mainstreaming', 'Microteaching', 'Adult Learning', 'Cognitive skill', 'Categorical imperative', 'Business education', 'Curriculum', 'Team learning', 'Indigenous', 'Twice exceptional', 'Special education', 'Socialization', 'Biobased economy', 'Action research', 'Student engagement', 'Transferable skills analysis', 'Cultural competence', 'Best practice', 'Education Act', 'Multilingualism', 'Long-range planning', 'University system', 'Social integration', 'White supremacy', 'Learning environment', 'Teaching method', 'Experiential education', 'Minimal Brain Dysfunction', 'Market integration', 'Rate of return', 'Shiksha', 'Achievement test', 'Student-centred learning', 'Student promotion', 'Program evaluation', 'Professional development', 'Student attendance', 'Open educational resources', 'Intercultural competence', 'Training skills', 'Literature reviewing', 'Dyscalculia', 'Student affairs', 'Learning disability', 'Baccalaureate Degree', 'Pupil', 'College athletics', 'Pedagogy', 'Reggio Emilia approach', 'Global justice', 'Grade inflation', 'Whole language', 'Cosmopolitanism', 'Disadvantaged', 'Constructive alignment', 'Officer', 'Concept learning', 'Formative assessment', 'Socioeconomic status', 'International education', 'Hemadsorption', 'Attitude change', 'Biocultural diversity', 'Interactive Learning', 'Access to Higher Education', 'Applied linguistics', 'Patient education', 'Academic capital', 'Likert scale', 'Teacher leadership', 'Universal preschool', 'Liberal arts education', 'Enrollment management', 'Internationalization of Higher Education', 'Instructional design', 'Health education', 'Inclusion (education)', 'Senior secondary education', 'Primary student', 'Educational research', 'Mathematics', 'Peer learning', 'Further education', 'Early childhood program', 'School-to-work transition', 'Tivoli Management Framework', 'Foreign language', 'Self-efficacy', 'Digital literacy', 'Extended School Year', 'Humanistic education', 'Music education', 'Person-centred planning', 'Computer literacy', 'Academic mobility', 'Education policy', 'Student–teacher ratio', 'Class rank', 'On work experience', 'Medical education', 'Apprenticeship', 'Adult educator', 'Active learning', 'Physical education', 'Everyday life', 'Young adult', 'Data analysis', 'Institutional research', 'Nonformal learning', 'Cultural diversity', 'Initial Teaching Alphabet', 'Participatory action research', 'Informal learning', 'Adult learner', 'Learning styles', 'Literacy', 'Educational technology', 'Academic standards', 'World language', 'Q-learning', 'Global citizenship', 'Informal education', 'Experiential learning', 'Global citizenship education', 'Nutrition Education', 'Cooperative education', 'Higher education', 'Oppression', 'Needs assessment', 'Proactive learning', 'Discourse analysis', 'Academic administration', 'Academic dishonesty', 'Creativity', 'Educational leadership', 'Learner autonomy', 'Education for sustainable development', 'Deep learning', 'Social injustice', 'Elementary and Secondary Education Act', 'AP Biology', 'Farsi language', 'Comparative education', 'Student aid', 'Alternative teacher certification', 'Lifewide learning', 'Academic achievement', 'Educational psychology', 'General Certificate of Education', 'First language', 'Work experience', 'Moderate learning difficulties', 'Education theory', 'Context effect', 'Counselor education', 'Religious education', 'Standardized test', 'Agricultural education', 'Risk management framework', 'Social progress', 'Science education', 'Critical thinking', 'Resource room', 'Academic Training', 'Research Assessment Exercise', 'Discipline', 'Retraining', 'Economics education', 'Academic advising', 'Youth unemployment', 'Numeracy', 'Cross-cultural', 'Child development', 'Work-based learning']</t>
         </is>
       </c>
     </row>
@@ -559,12 +559,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['2779648811', '2778014560', '2780227697', '2777723842', '2780303468', '2909731803', '2910181401', '2909613729', '2910877355', '2778780663', '2777941463', '2775982641', '2776430950', '2779865128', '2910252733', '2777755331', '2777656388', '2780742699', '2776491508', '2778397978', '2781049881', '2910429700', '2909790936', '2910225196', '2909934819', '2781173052', '2781216213', '2778595151', '542059537', '2908521967', '994546', '2778272532', '97917381', '2778692471', '2775906418', '2779630429', '2911049916', '2909942645', '46578552', '2777057682', '2780090376', '53596535', '121752807', '122251271', '2909462804', '2776656214', '2777666786', '2777457567', '2778055648', '26147285', '119693030', '2777688943', '2778517334', '153651392', '2775850206', '2779503283', '2778767757', '2779256933', '2776331549', '47122089', '2779500161', '2909567481', '2780977596', '2776778975', '2778354389', '2781403550', '2776053703', '2908678251', '48057960', '2780183969', '2781087576', '21279758', '2776422986', '2776492025', '2781097296', '191700502', '2910825703', '2775880612', '119588120', '2781253738', '2777961764', '2780416715', '2776990493', '140816417', '2778952541', '169437150', '102003337', '2909245243', '2908568261', '162077342', '2777877159', '2777385265', '2780122648', '131932780', '2778269006', '2779076696', '2777749871', '17632256', '2779266529', '2780673001', '2776689383', '20555606', '70036468', '2780765865', '2909781388', '2776051313', '170806853', '2777996642', '2780233487', '2909987495', '2779119250', '2779937378', '2908750998', '2781071349', '2777866547', '2777688143', '77352025', '2908580512', '2776254110', '104151175', '519513126', '2781051968', '2779881493', '2779213278', '2778808915', '2777177043', '2909366255', '2777360386', '2778720315', '55447825', '2777973936', '2776290222', '2910036154', '2778642596', '2781037291', '2910095232', '2778768284', '2777667586', '37512671', '2778919917', '2778071103', '2779674044', '2777957789', '2780438625', '518429986', '2779909026', '102587632', '165611974', '2779018073', '2911047369']</t>
+          <t>['2777057682', '2780742699', '542059537', '2909245243', '2776051313', '2778692471', '2779119250', '2908750998', '2910225196', '2777961764', '2908568261', '2776778975', '2910095232', '2776422986', '2776254110', '119588120', '2781071349', '47122089', '2779648811', '2781253738', '2780233487', '2777667586', '55447825', '2781049881', '2775982641', '2779256933', '2909781388', '102587632', '518429986', '2776492025', '2779630429', '2780090376', '2778808915', '2778595151', '2777688943', '2909731803', '121752807', '2778272532', '2780416715', '2778952541', '2776430950', '2780977596', '2777973936', '2781037291', '2780438625', '2910825703', '2776331549', '2781051968', '2911047369', '46578552', '2778055648', '2779266529', '37512671', '2777749871', '26147285', '2778071103', '70036468', '48057960', '2909462804', '2909567481', '2909987495', '2909366255', '2776990493', '2778642596', '2777385265', '2909613729', '97917381', '2780183969', '165611974', '20555606', '2779937378', '17632256', '2778768284', '2778780663', '2779674044', '2777656388', '2777996642', '2908678251', '2777723842', '2777177043', '2779881493', '2781087576', '519513126', '2779018073', '119693030', '2779909026', '140816417', '2781097296', '2779213278', '2779865128', '122251271', '2778397978', '2910429700', '162077342', '2775880612', '2777666786', '2780303468', '2910252733', '2778014560', '2776053703', '2909790936', '2777877159', '53596535', '2781403550', '2779076696', '2778269006', '2908521967', '2777866547', '21279758', '2911049916', '104151175', '2777755331', '2777457567', '2778720315', '2908580512', '153651392', '2778517334', '2775906418', '2775850206', '2777360386', '2910877355', '2776491508', '2778354389', '2781216213', '131932780', '2909942645', '2780765865', '2780122648', '170806853', '2778767757', '2777688143', '2910036154', '994546', '2777941463', '77352025', '2780227697', '2781173052', '2909934819', '2780673001', '2779500161', '2777957789', '2779503283', '191700502', '169437150', '102003337', '2776656214', '2776689383', '2776290222', '2778919917', '2910181401']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Gender empowerment', 'Covenant marriage', 'Gender-blind', 'Male privilege', 'Forced prostitution', 'Early Pregnancy Loss', 'Ethnic discrimination', 'Sexual assaults', 'Fertility Preferences', 'Sisterhood method', 'Financial literacy', "Women's empowerment", 'Ancillary relief', 'Digital Life', 'Sexual harrassment', 'Rape culture', 'Gender dysphoria', 'Sexual partner', 'Reverse discrimination', 'Gender diversity', 'Sex in advertising', 'Sexual discrimination', 'Sexual offense', 'Sexual molestation', 'Marital violence', 'Marital rape', 'Remarriage', 'Doing gender', 'Domestic violence', 'Fertility Study', 'Division of labour', 'Liberal feminism', 'Sub-replacement fertility', 'State feminism', 'Precarious work', 'Gender neutrality', 'Unsafe Sex', 'Maternal risk factors', 'Global health', 'Hegemonic masculinity', 'Objectification', 'Discrimination testing', 'Reproductive health', 'Ex-ante', 'Sex offense', 'Anti-discrimination law', 'Gender Development Index', 'Motherhood penalty', 'Joint custody', 'Age and female fertility', 'Economic model', 'Feminism', 'Parental leave', 'Gender history', 'Conflict tactics scale', 'Millennium Development Goals', 'Gender and development', 'Castration', 'Defeminization', 'Total fertility rate', 'Femicide', 'Wife abuse', 'Gender pay gap', 'Natural fertility', 'Forced marriage', 'Gender role', 'No-fault divorce', 'Contraceptive Devices', 'Bargaining power', 'Child support', 'Gender systems', 'Venture capital', 'Sex and Relationships Education', 'Third-party reproduction', 'Bem Sex-Role Inventory', 'Gender psychology', 'Safety water', 'Luganda', 'Proportional representation', 'Women in development', 'Hague Convention on the Civil Aspects of International Child Abduction', 'Physical abuse', 'Gender budgeting', 'Zero population growth', 'Self-objectification', 'Human rights', 'Care work', 'Below Replacement Fertility', 'Battered woman syndrome', 'Tax credit', 'Working time', 'Abolitionism', 'Glass cliff', 'Family law', 'Gender binary', 'Family planning', 'Reproductive rights', 'Digital media', 'Unpaid work', 'Child marriage', 'Labour supply', 'Empowerment', 'Immigration', 'Gender mainstreaming', 'Abusive relationship', 'Comprehensive sex education', 'Gemma', 'Sexual violence', 'Long-term care', 'Maternal Ages', 'Gender analysis', 'Shared parenting', 'Laws regulations', 'Gender Parity Index', 'Sexual misconduct', 'Infertility', 'Population growth', 'Sexual abuses', 'Gender &amp; Development', 'Emigration', 'Psychological abuse', 'Infibulation', 'Dihydrotestosterone', 'Domestic relations', 'Common-law marriage', 'Migrant education', "Women's Status", 'Maternal near miss', 'Female entrepreneurs', 'International law', 'Small business', 'Sex change', 'Fertility Determinants', 'Abortion', 'Disorders of sex development', 'Sexual aggression', 'Teen dating violence', 'Wright', 'Birth rate', 'Gender sensitization', 'Precarity', 'Glass ceiling', 'Violence Against Women Act', 'Global Health Initiatives', 'Fertility', 'Wrongful birth', 'Criminal justice', 'Gender schema theory', 'Patriarchalism', 'Differential Fertility']</t>
+          <t>['Hegemonic masculinity', 'Sexual partner', 'Domestic violence', 'Below Replacement Fertility', 'Comprehensive sex education', 'State feminism', 'Gender analysis', 'Laws regulations', 'Sexual molestation', 'Hague Convention on the Civil Aspects of International Child Abduction', 'Battered woman syndrome', 'Natural fertility', 'Sexual aggression', 'Sex and Relationships Education', 'Gender &amp; Development', 'Proportional representation', 'Gender Parity Index', 'Total fertility rate', 'Gender empowerment', 'Women in development', 'Long-term care', 'Wright', 'International law', 'Sex in advertising', "Women's empowerment", 'Castration', 'Abusive relationship', 'Criminal justice', 'Fertility', 'Third-party reproduction', 'Gender neutrality', 'Objectification', 'Common-law marriage', 'Doing gender', 'Feminism', 'Early Pregnancy Loss', 'Reproductive health', 'Liberal feminism', 'Physical abuse', 'Self-objectification', 'Ancillary relief', 'Gender pay gap', 'Small business', 'Disorders of sex development', 'Global Health Initiatives', 'Safety water', 'Defeminization', 'Infibulation', 'Differential Fertility', 'Global health', 'Joint custody', 'Unpaid work', 'Birth rate', 'Reproductive rights', 'Age and female fertility', 'Precarity', 'Immigration', 'Bargaining power', 'Sex offense', 'Wife abuse', 'Maternal Ages', "Women's Status", 'Gender budgeting', 'Abortion', 'Abolitionism', 'Sexual assaults', 'Sub-replacement fertility', 'Child support', 'Gender schema theory', 'Empowerment', 'Shared parenting', 'Digital media', 'Teen dating violence', 'Sisterhood method', 'Glass ceiling', 'Gender dysphoria', 'Sexual violence', 'Contraceptive Devices', 'Male privilege', 'Migrant education', 'Dihydrotestosterone', 'Gender systems', 'Psychological abuse', 'Patriarchalism', 'Economic model', 'Wrongful birth', 'Zero population growth', 'Bem Sex-Role Inventory', 'Domestic relations', 'Digital Life', 'Ex-ante', 'Gender diversity', 'Sexual discrimination', 'Tax credit', 'Luganda', 'Gender Development Index', 'Forced prostitution', 'Sexual harrassment', 'Covenant marriage', 'No-fault divorce', 'Sexual offense', 'Working time', 'Discrimination testing', 'Gender role', 'Family planning', 'Gender binary', 'Fertility Study', 'Sexual misconduct', 'Venture capital', 'Unsafe Sex', 'Emigration', 'Rape culture', 'Motherhood penalty', 'Female entrepreneurs', 'Sexual abuses', 'Gender history', 'Parental leave', 'Precarious work', 'Conflict tactics scale', 'Maternal near miss', 'Fertility Preferences', 'Reverse discrimination', 'Forced marriage', 'Remarriage', 'Family law', 'Maternal risk factors', 'Gender mainstreaming', 'Glass cliff', 'Gemma', 'Gender and development', 'Infertility', 'Fertility Determinants', 'Division of labour', 'Financial literacy', 'Population growth', 'Gender-blind', 'Marital rape', 'Marital violence', 'Child marriage', 'Femicide', 'Violence Against Women Act', 'Millennium Development Goals', 'Gender psychology', 'Human rights', 'Care work', 'Anti-discrimination law', 'Labour supply', 'Sex change', 'Gender sensitization', 'Ethnic discrimination']</t>
         </is>
       </c>
     </row>
@@ -592,12 +592,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['2909326202', '2777106384', '2777554443', '2777383712', '2776236458', '9777977', '2816523', '41625074', '110158866', '49545453', '2776087716', '118416809', '2778652117', '162602672', '61270487', '2909902889', '44403221', '2776325102', '1814991', '2778902904', '2780797762', '135009316', '148815931', '15098985', '2777138484', '547231352', '78302586', '2910009623', '2908711435', '195154425', '108797546', '2778934327', '97920779', '2780989708', '66465714', '70455891', '2778602707', '156858999', '40496375', '2780401329', '33556824', '2779920756', '107836204', '2778553890', '2777679823', '132594454', '2780513399', '2778652552', '2780367215', '2776301198', '2910897755', '103783831', '88743934', '2777599230', '2781117298', '2776334353', '2778674365', '115240124', '2779099003', '115038398', '147455438', '2777129128', '97156103', '2780573285', '2910654379', '88862950', '207006810', '123157820', '186295008', '47654990', '2777015086', '205537798', '2776849215', '97053079', '2776053758', '157174567', '2778999818', '177964011', '39769621', '140188727', '499616599', '2779429693', '4891672', '2777434392', '2776266027', '2910825703', '116537', '2779794448', '126645576', '2668921', '2776256026', '81632477', '147852310', '2780739625', '2780408538', '120305227', '528615729', '182348080', '102579867', '58790150', '180087314', '186348155', '2781421531', '123700513', '2779322298', '56858530', '2780531901', '132165134', '174091901', '179113317', '2779833838', '49671963', '125572338', '128410448', '33559203', '137527640', '16828302', '157062255', '197743484', '2781399283', '2778395396', '2778618992', '99546132', '51832835', '2779678948', '45145499', '2778893359', '2778570914', '2909805430', '12129029', '2777317380', '17538187', '150547873', '118733760', '2779928684', '162222271', '2776757554', '2777399949', '2909603817', '165895018', '69661492', '185515318', '131227075', '2777076574', '2777564511', '2781427571', '76177295', '96306036', '2777489503', '131046424', '153823671', '3128022', '2780012196', '100187453', '181843262', '2779508860', '189047708', '2780151969', '190960625', '2780165224', '65340099', '2777875673', '2778708356', '40675005', '2779835370', '2779940597', '105306849', '2781364496', '2780521934', '94562577', '2776342442', '187109078', '2780588113', '2776628701', '2776256148', '2909415995', '94061648', '129360787', '2780833732', '2779283343', '147990551', '2778213469', '2778407992', '138921699', '7879346', '2776870568', '2777493420', '190539079', '150513403', '145162277', '2776756561', '2776176531', '93983250', '2910645917', '2781143366', '152913119', '2777333993', '2780965534', '43632280', '2781360137', '107708555', '8625798', '4292930', '2779712367', '2777364431', '2779090549', '2781028066', '96124884', '1284942', '84250820', '39077098', '2777427512', '130797344', '2777690665', '19570952', '2777730692', '167110946', '2778722473', '81842627', '2776361503', '78244369', '502990516', '39410599', '2776812703', '195729132', '2777550478', '152232337', '2778099575', '99484651', '61661205', '176650113', '60943498', '2910053955', '175568690', '28362043', '28631016', '2779547435', '2780987889', '114993203', '2909984675', '2778597325', '49057587', '2776991799', '2780998164', '63358688', '48663136', '2781357674', '75255083', '146763847', '2909937950', '2779506560', '2778110159', '81446008', '2778247438', '523546767', '2778217819', '54005896', '2776799952', '195092306', '2780616974', '155681218', '2778491029', '2781036520', '2777184272', '122341333', '2776165558', '47291792', '2781113848', '167710798', '203380394', '2778668878', '2778632158', '105859001', '45020621', '547646559', '2779948615', '129513315', '149207113', '2779112213', '38626664', '46685645', '19835438', '51193700', '2776299736', '176205827', '40241539', '2778720231', '2776137031', '136325355', '198302294', '2776275385', '37992848', '53163501', '81599089', '108497213', '133214962', '2778192778', '184947814', '2776069950', '2778082681', '2777388718', '2778357586', '533363959', '188287460', '130309983', '2779386820', '67268981', '94042126', '124056412', '2777610350', '94747663', '187606762', '2909248125', '190714865', '161382645', '2776332401', '81692654', '69514717', '88024347', '2776306026', '2778211487', '2779202806', '2776695260', '2778666693', '2776849319', '2777812597', '2777919664', '162663994', '126933887', '2776572357', '144993055', '16145799', '57442070', '2777272942', '2860155', '2776952799', '79303471', '112570922', '81637046', '24939127', '93419950', '68359772', '200890946', '37037264', '83419821', '2778788645', '34667930', '2777910687', '21955270', '169488363', '2778330403', '67715294', '90195498', '186636678', '2777493711', '128168118', '88802367', '178254436', '2776897705', '42938798', '2775838554', '2777434770', '2776573520', '521259446', '2910692151', '2776121688', '2909494222', '2778583955', '64016661']</t>
+          <t>['188287460', '2777129128', '120305227', '65340099', '2909902889', '116537', '78244369', '157062255', '2910053955', '68359772', '61661205', '2776870568', '99546132', '16828302', '2777730692', '152913119', '46685645', '2860155', '186636678', '90195498', '153823671', '167110946', '2778666693', '2778247438', '150513403', '4292930', '2778893359', '67268981', '205537798', '162602672', '129360787', '2777383712', '185515318', '33556824', '2780012196', '96306036', '198302294', '2779940597', '186348155', '2778652552', '2780513399', '9777977', '200890946', '2909805430', '2778553890', '2778618992', '2910009623', '2909326202', '2778099575', '2776991799', '2777138484', '2816523', '190539079', '37992848', '2778110159', '523546767', '2777554443', '2776849215', '124056412', '2910825703', '528615729', '34667930', '2910692151', '40675005', '2779322298', '2778720231', '138921699', '47291792', '2777434392', '56858530', '43632280', '2781427571', '2778082681', '2778902904', '7879346', '88802367', '2776137031', '2778217819', '2776325102', '2779678948', '115038398', '126645576', '60943498', '4891672', '131227075', '2777910687', '49671963', '140188727', '135009316', '12129029', '147990551', '45145499', '2779547435', '182348080', '2909494222', '54005896', '84250820', '40241539', '122341333', '165895018', '64016661', '2777919664', '128168118', '2780151969', '2780573285', '502990516', '147852310', '2777317380', '47654990', '2778357586', '66465714', '499616599', '547646559', '94747663', '70455891', '1814991', '2779112213', '2777690665', '2780401329', '2776069950', '186295008', '2780833732', '76177295', '112570922', '2776756561', '2778213469', '130309983', '131046424', '2779948615', '150547873', '521259446', '99484651', '2781036520', '2779090549', '2776236458', '97920779', '161382645', '2781028066', '169488363', '175568690', '2778192778', '2779099003', '2779712367', '2776176531', '2776812703', '123157820', '2779202806', '162222271', '2777610350', '108797546', '2781143366', '2780521934', '2780797762', '2780987889', '2776256148', '2781364496', '136325355', '51832835', '2778570914', '2778491029', '15098985', '2780998164', '2780165224', '207006810', '2778597325', '152232337', '2777679823', '179113317', '2777875673', '2909415995', '547231352', '19835438', '145162277', '2777812597', '2780739625', '2778668878', '2780965534', '8625798', '2777184272', '2780408538', '45020621', '63358688', '39077098', '100187453', '2776266027', '2777493711', '2668921', '39769621', '177964011', '2776897705', '187606762', '2778999818', '2779833838', '28362043', '110158866', '2910897755', '2778632158', '97156103', '167710798', '2776053758', '137527640', '178254436', '2777015086', '37037264', '58790150', '2777493420', '2776334353', '126933887', '130797344', '2776256026', '2777564511', '2779429693', '41625074', '28631016', '176205827', '148815931', '115240124', '2778934327', '2775838554', '2777399949', '24939127', '2776121688', '195092306', '155681218', '67715294', '128410448', '2776952799', '2777076574', '93419950', '81446008', '189047708', '75255083', '102579867', '17538187', '3128022', '2776757554', '180087314', '2778602707', '162663994', '2780588113', '42938798', '107836204', '2776306026', '2776301198', '2776799952', '2776332401', '181843262', '2776275385', '2779283343', '2777272942', '2776087716', '57442070', '132594454', '2779794448', '156858999', '190960625', '2779508860', '21955270', '78302586', '129513315', '49545453', '94042126', '114993203', '51193700', '195729132', '2778788645', '2777427512', '69661492', '2781357674', '2778583955', '2779386820', '2910654379', '2910645917', '123700513', '2777333993', '147455438', '2776573520', '2779920756', '2909603817', '16145799', '2776165558', '107708555', '1284942', '533363959', '83419821', '2776849319', '2780367215', '2781113848', '2779928684', '2778330403', '19570952', '2778674365', '195154425', '146763847', '105306849', '2781399283', '81692654', '40496375', '2776572357', '2909984675', '174091901', '2778708356', '81632477', '94061648', '2779506560', '61270487', '2778407992', '33559203', '93983250', '69514717', '2777106384', '2776628701', '157174567', '184947814', '2777434770', '79303471', '2780531901', '96124884', '97053079', '2778395396', '2776361503', '2909937950', '49057587', '48663136', '2781421531', '203380394', '176650113', '39410599', '2777599230', '2779835370', '2777388718', '2777364431', '2781117298', '2781360137', '81599089', '2776695260', '2778722473', '144993055', '38626664', '44403221', '149207113', '118733760', '2776342442', '2778652117', '2777550478', '118416809', '2778211487', '133214962', '187109078', '2909248125', '88024347', '81842627', '2780616974', '103783831', '125572338', '2776299736', '88743934', '53163501', '2780989708', '108497213', '94562577', '132165134', '81637046', '2777489503', '105859001', '190714865', '2908711435', '197743484', '88862950']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Natural Springs', 'Cadmium poisoning', 'Coastal engineering', 'Aerobic digestion', 'Bioirrigation', 'Dry season', 'Sediment', 'Membrane', 'Water conservation', 'Urban planning', 'Permeable reactive barrier', 'Water well', 'Water banking', 'Molecularly imprinted polymer', 'Interception', 'Water-related Diseases', 'Industrial wastewater treatment', 'Water-use efficiency', 'Multi-stage flash distillation', 'Dissolved air flotation', 'Septage', 'Colored dissolved organic matter', 'Flocculation', 'Permafrost', 'Subirrigation', 'Technology education', 'MODFLOW', 'Textile dye', 'Head measurements', 'Cesspit', 'Defecation', 'Dry toilet', 'Aerobic treatment system', 'Fluvial terrace', 'Water balance', 'Devaluation', 'Water chlorination', 'Gallery forest', 'Well drainage', 'Microplastics', 'Hydrogeology', 'Ecological sanitation', 'Fossil water', 'Drinking water directive', 'Megadrought', 'Saltwater intrusion', 'Electrodeionization', 'Aerobic granulation', 'Constructed wetland', 'Extended aeration', 'Toilet Facility', 'Point source', 'Hydraulic structure', 'Rhizofiltration', 'Public toilet', 'Air sparging', 'Sustainable sanitation', 'Earth remote sensing', 'Stream restoration', 'Levee', 'Effluent', 'Water stagnation', 'Open defecation', 'Clarifying agent', 'Magnesium ammonium phosphate', 'Irrigation', 'Improved water source', 'Erosion', 'Landslide', 'Conventional pollutant', 'High water mark', 'Extreme weather', 'Chloramination', 'Water supply', 'Heavy metals', 'Overdrafting', 'Struvite', 'Nanotechnology education', 'Water table', 'Piper diagram', 'Anaerobic digestion', 'Distilled water', 'Total suspended solids', 'Effluent limitation', 'Membrane bioreactor', 'Safety water', 'Service provider', 'Ethylene glycol dimethacrylate', 'Drainage basin', 'Impervious surface', 'Lung cancer', 'Water testing', 'Environmental impact of pharmaceuticals and personal care products', 'Portable toilet', 'Ancillary data', 'Algal bloom', 'Appropriate technology', 'Karst', 'Pore water pressure', 'Sewage', 'Phreatic', 'Waves and shallow water', 'Urine diversion', 'Culvert', 'River engineering', 'Reduction strategy', 'Sphaerotilus natans', 'Arsenic contamination of groundwater', 'Groundwater recharge', 'Trickling filter', 'Dam failure', 'Biofilter', 'Geostatistics', 'Coliform index', 'Desertification', 'Bedrock', 'Tributary', 'Capital cost', 'Latrine', 'Community-led total sanitation', 'Solar water disinfection', 'Revetment', 'Peak water', 'Environmental management system', 'Drinking water quality standards', 'Buffer strip', 'Water cycle management', 'Water security', 'Biological Oxygen Demand Analysis', 'Groundwater discharge', 'Backswamp', 'Tap water', 'Watershed', 'Purified water', 'Destratification', 'Public good', 'Hydrogeomorphology', 'Technology dynamics', 'Dam Collapse', 'Sewerage', 'Transect', 'Loess', 'Groundwater flow', 'Carbonate hardness', 'Water conflict', 'Biosand filter', 'Groundwater', 'Integrated water resources management', 'Temporal scales', 'Energy policy', 'Water resources', 'Electrodialysis', 'Netpath', 'Subsurface flow', 'Digital elevation model', 'Ductile iron pipe', 'Limnology', 'Sanitation', 'Water treatment', 'Potentiometric surface', 'Ravine', 'Clean Water Act', 'Sustainable Services', 'Hydropower', 'Dam removal', 'Composting toilet', 'Storm', 'River source', 'Integrationism', 'Segmented filamentous bacteria', 'Stygofauna', 'Non-revenue water', 'Urban stream', 'Seasonal thermal energy storage', 'ERA-40', 'Water pollutants', 'Wastewater', 'Total dissolved solids', 'Erosion control', 'Stabilization pond', 'Lime softening', 'Water tariff', 'Public water system', 'Political economy', 'Hydraulic engineering', 'Desalination', 'Reclaimed water', 'Revaluation', 'Effluent guidelines', 'Cointegration', 'Xeriscaping', 'Biometal', 'Cost estimate', 'Drinking water pollution', 'Human waste', 'Trophic state index', 'Hyporheic zone', 'Pit latrine', 'Watershed management', 'River basin management plans', 'Hydraulic tomography', 'Surface water', 'Distributed element model', 'Water wheel', 'Willingness to pay', 'Chemcatcher', 'Stormwater harvesting', 'Infiltration basin', 'Water level', 'Hydraulic retention time', 'Biosurvey', 'Parking lot', 'Reverse osmosis', 'New political economy', 'Suspended solids', 'Activated sludge', 'Sand dune stabilization', 'Source water protection', 'Forward osmosis', 'Integrated urban water management', 'Added value', 'Agricultural land', 'Natural hazard', 'Biosorption', 'Specific storage', 'Pesticide drift', 'Total maximum daily load', 'Consumption distribution', 'Water year', 'Land reclamation', 'Groundwater model', 'Water resource policy', 'Municipal well', 'Dye tracing', 'Hydric soil', 'Forest management', 'Directive', 'Capacitive deionization', 'Detention basin', 'Private well', 'Water damage', 'Piezometer', 'Groundwater-dependent ecosystems', 'Safe Drinking Water Act', 'Limnic eruption', 'Geochemical modeling', 'PERSIANN', 'Water point mapping', 'Nanofiltration', 'Chlorinated solvents', 'Hand pump', 'Karst spring', 'Capillary fringe', 'Conjunctive use', 'Bacteria', 'Advanced oxidation process', 'Urban heat island', 'Water efficiency', 'Deficit irrigation', "Fenton's reagent", 'Floodplain', 'Bioprecipitation', 'Infiltration gallery', 'National Water Policy', 'Water trading', 'Emission standard', 'Slug test', 'Geological survey', 'Wet oxidation', 'Multiple-effect humidification', 'Reservoir simulation', 'Bottled water', 'Hypolimnion', 'Soil salinity control', 'Hygiene', 'Water right', 'Salinity', 'Water use', 'Sluice', 'Volatile suspended solids', 'Freshwater ecosystem', 'Interbasin transfer', 'Water scarcity', 'Wastewater engineering', 'Farm water', 'Base metal', 'Hydrogeophysics', 'Air stripping', 'Low-flow irrigation systems', 'Biochemical oxygen demand', 'Sludge volume index', 'Groundwater remediation', 'Cross-flow filtration', 'Rotating biological contactor', 'Landform', 'Aerial photography', 'Groundwater pollution', 'Water chemistry analysis', 'Pit water', 'Ammoniacal nitrogen', 'Waste framework directive', 'Toilet', 'Water industry', 'Chemical oxygen demand', 'Biogeochemistry', 'Water safety', 'Marsh', 'Index of biological integrity', 'Scientific evidence', 'Water Framework Directive', 'Spatial variability', 'Depression-focused recharge', 'Bathing Beaches', 'Sanitary sewer', 'Environmental isotopes', 'Sodium adsorption ratio', 'Kriging', 'Ecohydrology', 'Redintegration', 'Secondary treatment', 'Tube well', 'Dumping', 'Maximum Contaminant Level', 'Fog collection', 'Water reclamation', 'Assimilative capacity', 'Hand washing', 'Cone of depression', 'Urban runoff', 'Groundwater sapping', 'Shelf ice', 'GIS and hydrology', 'Sewage treatment', 'Zoogloea', 'Enhanced biological phosphorus removal', 'Lead and Copper Rule', 'Agricultural wastewater treatment', 'Contamination', 'Multiple-effect distillation', 'Water content', 'Nutrient pollution', 'Opportunity cost', 'Autonomous consumption', 'Hydrology', 'Rainwater harvesting', 'Coliform bacteria', 'Profundal zone', 'Improved sanitation', 'Greywater', 'Consumption function', 'Agricultural pollution', 'Wetland', 'Water pollution', 'Dry lake', 'Submarine groundwater discharge', 'Aerated lagoon', 'Lake-effect snow', 'Solar humidification', 'Activated sludge model', 'Water remote sensing', 'Consumptive water use', 'Water pricing', 'Legal instrument', 'Pollution', 'Diarrhoeal diseases', 'Virtual water', 'DNA Contamination', 'Combined sewer', 'Turbidity']</t>
+          <t>['Chemical oxygen demand', 'Water stagnation', 'Algal bloom', 'Ravine', 'Water-related Diseases', 'Service provider', 'Added value', 'Capital cost', 'Municipal well', 'Opportunity cost', 'Land reclamation', 'Desalination', 'Peak water', 'Tributary', 'Activated sludge', 'Trophic state index', 'Freshwater ecosystem', 'Enhanced biological phosphorus removal', 'Dry lake', 'Water pollution', 'Water resources', 'Sand dune stabilization', 'Fog collection', 'Conjunctive use', 'Effluent guidelines', 'Distributed element model', 'Water cycle management', 'Marsh', 'Extreme weather', 'Molecularly imprinted polymer', 'Total dissolved solids', 'Aerobic digestion', 'Loess', 'Hydrogeology', 'Netpath', 'Integrated water resources management', 'Biochemical oxygen demand', 'Composting toilet', 'Waves and shallow water', 'Aerobic granulation', 'Electrodeionization', 'Dry season', 'Autonomous consumption', 'Biological Oxygen Demand Analysis', 'Drinking water directive', 'Revetment', 'Textile dye', 'Natural Springs', 'Consumption distribution', 'Groundwater-dependent ecosystems', 'Subirrigation', 'Sediment', 'Revaluation', 'Groundwater remediation', 'Karst spring', 'Bacteria', 'Coastal engineering', 'Chloramination', 'Scientific evidence', 'Safety water', 'Appropriate technology', 'Profundal zone', 'Diarrhoeal diseases', 'Hydropower', 'River engineering', 'Hydrogeophysics', 'Political economy', 'Slug test', 'Effluent limitation', 'Reduction strategy', 'Watershed management', 'Biosand filter', 'Ammoniacal nitrogen', 'Dissolved air flotation', 'Hydraulic engineering', 'Lake-effect snow', 'Air stripping', 'Advanced oxidation process', 'Water-use efficiency', 'Drinking water quality standards', 'Levee', 'Drainage basin', 'Water resource policy', 'Total suspended solids', 'Groundwater flow', 'Improved sanitation', 'Biofilter', 'Piper diagram', 'Colored dissolved organic matter', 'Groundwater discharge', 'Lime softening', 'Buffer strip', 'Directive', 'Karst', 'DNA Contamination', 'Urban heat island', 'Hydraulic retention time', 'Base metal', 'Water trading', 'Sewerage', 'Turbidity', 'Hand washing', 'Aerated lagoon', 'Sanitation', 'Clarifying agent', 'Agricultural land', 'Environmental impact of pharmaceuticals and personal care products', 'Backswamp', 'Conventional pollutant', 'Toilet', 'Water balance', 'Anaerobic digestion', 'Hygiene', 'Spatial variability', 'Devaluation', 'Multi-stage flash distillation', 'Sluice', 'New political economy', 'Microplastics', 'Pit water', 'Landslide', 'Erosion control', 'Groundwater', 'Contamination', 'Xeriscaping', 'Water tariff', 'Biogeochemistry', 'Energy policy', 'Water right', 'Watershed', 'Pollution', 'Water year', 'Infiltration gallery', 'Chemcatcher', 'Bioirrigation', 'Aerobic treatment system', 'Environmental isotopes', 'Stormwater harvesting', 'Consumption function', 'Dye tracing', 'Groundwater pollution', 'Stream restoration', 'Water wheel', 'Biometal', 'Biosorption', 'Erosion', 'Dumping', 'Public good', 'Water Framework Directive', 'Defecation', 'Human waste', 'Integrationism', 'Septage', 'Capacitive deionization', 'ERA-40', 'River source', 'Low-flow irrigation systems', 'Environmental management system', 'Water security', 'Bioprecipitation', 'Permafrost', 'Safe Drinking Water Act', 'Potentiometric surface', 'Improved water source', 'Water damage', 'Total maximum daily load', 'Megadrought', 'Trickling filter', 'Clean Water Act', 'Water pollutants', 'Technology education', 'Interbasin transfer', 'Cointegration', 'Assimilative capacity', 'Portable toilet', 'Reservoir simulation', 'Pit latrine', 'Surface water', 'National Water Policy', 'Ancillary data', 'Soil salinity control', 'Limnic eruption', 'Biosurvey', 'Subsurface flow', 'Membrane bioreactor', 'Submarine groundwater discharge', 'Impervious surface', 'Water table', 'Nanotechnology education', 'Activated sludge model', 'Depression-focused recharge', 'Struvite', 'Dam failure', 'Hydric soil', 'Water conservation', 'Toilet Facility', 'Bottled water', 'Open defecation', 'Wet oxidation', 'Heavy metals', 'Bedrock', 'Solar humidification', 'High water mark', 'Hydrology', 'Sewage', 'Reclaimed water', 'Air sparging', 'Urban runoff', 'Reverse osmosis', 'Lung cancer', 'Water conflict', 'Distilled water', 'Membrane', 'Forest management', 'Farm water', 'Flocculation', 'Earth remote sensing', 'Dry toilet', 'Consumptive water use', 'Technology dynamics', 'Water content', 'Virtual water', 'Deficit irrigation', 'Floodplain', 'Wetland', 'Coliform index', 'Lead and Copper Rule', 'Carbonate hardness', 'Nutrient pollution', 'Capillary fringe', 'Limnology', 'Water point mapping', 'Pore water pressure', 'Tap water', 'Electrodialysis', 'Hydrogeomorphology', 'Phreatic', 'Water chlorination', 'Cone of depression', 'Urban stream', 'Water remote sensing', 'Fossil water', 'Secondary treatment', 'Extended aeration', 'Water efficiency', 'Sodium adsorption ratio', 'Digital elevation model', 'Sludge volume index', 'Stabilization pond', 'Zoogloea', 'Permeable reactive barrier', 'Sewage treatment', 'Saltwater intrusion', 'Ethylene glycol dimethacrylate', 'Gallery forest', 'Water treatment', 'Ductile iron pipe', 'Greywater', 'MODFLOW', 'Salinity', 'Urban planning', 'Index of biological integrity', 'Detention basin', 'Water scarcity', 'Specific storage', 'Coliform bacteria', 'Parking lot', 'Transect', 'PERSIANN', 'Combined sewer', 'Water safety', 'Magnesium ammonium phosphate', 'Drinking water pollution', 'Culvert', 'Hyporheic zone', 'Effluent', 'Legal instrument', 'Ecological sanitation', 'Dam Collapse', 'GIS and hydrology', 'Emission standard', 'Hydraulic tomography', 'Water level', 'Water industry', 'Rainwater harvesting', 'Water reclamation', 'Constructed wetland', 'Geological survey', 'Destratification', 'Agricultural pollution', 'Suspended solids', 'Sustainable sanitation', 'Cesspit', 'Nanofiltration', 'Storm', 'Community-led total sanitation', 'Kriging', 'Well drainage', 'Groundwater sapping', 'Private well', 'Groundwater recharge', 'Sustainable Services', 'Water testing', 'Wastewater', 'Hand pump', 'Interception', 'Public water system', 'Desertification', 'Cost estimate', 'Ecohydrology', 'Cadmium poisoning', 'Seasonal thermal energy storage', 'Overdrafting', 'Water chemistry analysis', 'Water pricing', 'Agricultural wastewater treatment', 'Sphaerotilus natans', 'Infiltration basin', 'Water supply', 'Solar water disinfection', 'Integrated urban water management', 'Chlorinated solvents', 'Piezometer', 'Geochemical modeling', 'Urine diversion', 'Multiple-effect humidification', 'Groundwater model', 'Natural hazard', 'Rhizofiltration', 'Dam removal', 'Waste framework directive', 'Willingness to pay', 'Public toilet', 'River basin management plans', 'Rotating biological contactor', 'Maximum Contaminant Level', 'Source water protection', 'Shelf ice', 'Volatile suspended solids', 'Industrial wastewater treatment', 'Water use', 'Purified water', 'Stygofauna', 'Water banking', 'Pesticide drift', 'Water well', 'Tube well', 'Aerial photography', 'Non-revenue water', 'Bathing Beaches', 'Redintegration', 'Forward osmosis', "Fenton's reagent", 'Point source', 'Geostatistics', 'Wastewater engineering', 'Hydraulic structure', 'Cross-flow filtration', 'Fluvial terrace', 'Landform', 'Segmented filamentous bacteria', 'Arsenic contamination of groundwater', 'Multiple-effect distillation', 'Temporal scales', 'Hypolimnion', 'Sanitary sewer', 'Head measurements', 'Latrine', 'Irrigation']</t>
         </is>
       </c>
     </row>
@@ -625,12 +625,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['2780068603', '176481572', '91812121', '20744434', '2777351703', '123197309', '2779172400', '175365462', '19473024', '2776886032', '2776417682', '2780115483', '2775886207', '2777031842', '2776756539', '137886200', '2779877863', '140846259', '159403789', '2910220436', '86155754', '91112408', '126172416', '2777618391', '101518730', '78635371', '2778153913', '2909690246', '207768971', '154414509', '38677869', '2778417203', '53914812', '2781335544', '2779430688', '59622614', '2778829423', '2776576667', '2777325068', '176871988', '119338728', '37415627', '7453809', '2780572083', '89505385', '2780761721', '2778258436', '16941374', '2778040493', '2780322740', '108722225', '2779968128', '75825664', '2778856288', '161829187', '160363772', '551020850', '10558101', '2780113879', '2781327496', '2779677415', '111766609', '52957995', '2779431981', '175461058', '204312592', '203094288', '8744930', '64298129', '2781374625', '2777315079', '2780427980', '55037315', '2777466363', '513653683', '2779279529', '2776058518', '56085101', '2777512574', '59427239', '2777141785', '2778013412', '2781150358', '59167565', '151406439', '2778219479', '2776128071', '206991015', '2779814830', '2780242610', '2777888664', '2777811329', '2780978964', '2780902009', '31419778', '2775888423', '2779796603', '39996523', '2780088643', '2777563595', '542482507', '2779715735', '2776073808', '196261454', '2776782565', '2776849302', '43785746', '135881395', '2777796192', '92311004', '2780066083', '174306757', '2777622855', '13119800', '122039914', '2776538475', '42060753', '2778842010', '2909570586', '2778787560', '2781341389', '137851953', '2777008186', '2910979819', '2777692458', '2781309322', '119494637', '72080964', '2779258914', '95950515', '184235594', '2777804095', '155373166', '194945478', '2779813444', '95926084', '1715860', '2781426840', '83227832', '2780182046', '542589376', '2781465288', '2777429066', '509746633', '45882903', '1034443', '171666300', '2780936489', '27037042', '142804171', '106935595', '2776127450', '146231206', '108869833', '2780039422', '2778040704', '2780059578', '141713623', '185220729', '105923489', '520301825', '2777036795', '2781175455', '2777416314', '182501304', '134537524', '2778324724', '2776190866', '2776325313', '2777001187', '2780814765', '29682386', '2778539042', '544738498', '24717449', '2780243441', '2781184898', '2779252636', '2777596722', '99743013', '144717724', '38940224', '526406351', '68189081', '2776078904', '2779473208', '2778381653', '40293303', '131046424', '186503672', '2776036445', '183287310', '183739832', '2780331013', '2779848691', '120441037', '2779081038', '2778032857', '2778234585', '40675005', '2780991303', '90509273', '2779969000', '2779745812', '2776469828', '2778676262', '135802936', '2777348173', '90530108', '2777930111', '2776628701', '2910697279', '99881593', '80845027', '162857116', '66910140', '30236105', '2779019381', '2776970089', '38864968', '78600449', '117537405', '29592376', '86714428', '175706755', '1124016', '2778330180', '103017160', '2777215464', '2781420532', '105994980', '149039472', '113740612', '2909699456', '2780153765', '544956773', '2781008468', '200630231', '31395832', '29267209', '40018170', '37965861', '149982382', '151174772', '129456180', '2776660518', '53991642', '2776615292', '2777661767', '108225325', '68476402', '159559250', '559228080', '2777027713', '2780520809', '2780430855', '2778156585', '528261146', '2778834244', '174493833', '2779769944', '2909203356', '108655655', '2779748257', '98716924', '2780824857', '2780229964', '2781084341', '423512', '47651138', '2776645009', '2780165032', '2780894989', '46465826', '52208190', '2778309119', '2777092252', '2777890234', '518406490', '2779257452', '118493204', '180553826', '2779371384', '2778656736', '2779765720', '2778869765', '2778998722', '32866371', '2780415358', '2780050931', '37107799', '57467194', '2777172336', '2780148753', '2776741288', '501529594', '2908830279', '163652712', '139315637', '173372375', '50551742', '2779550995', '78244369', '83544830', '202417442', '183762234', '2779973532', '2778245977', '2777210892', '107645774', '187414654', '2776205842', '188573790', '97615858', '2776780212', '2776867696', '79870159', '2776169166', '2911192195', '206255140', '8735168', '156380964', '2776609911', '2779610122', '2781300650', '33039251', '19065316', '2780394310', '107861326', '76047896', '2908529875', '2776442348', '2777821729', '2780345752', '2776793327', '59633683', '2778742260', '68801617', '2776208129', '2781393684', '100405246', '2779862270', '2776461528', '2779961549', '540793156', '2777423268', '2778733479', '154718420', '24345647', '520343842', '9132272', '75684735', '121119573', '2778032680', '52881836', '2775903348', '2778844797', '104988666', '134178815', '41291067', '206658404', '2776033628', '127145964', '2779868350', '165998758', '85924503', '2776726243', '2965452', '2781264327', '2778722790', '88417058', '2781352779', '2778323372', '189289785', '184978287', '34153902', '15229330', '2776784348', '2778163838', '56685638', '2778217648', '2778970885', '2777217638', '150870023', '2909203570', '103689191', '2780604391', '17485501', '2742236', '2909574085', '2780406490', '38870921', '2779607880', '196340769', '2777908284', '2779961193', '2780181841', '513535597', '186977519', '2780301381', '2779434388', '2777598616', '132853815', '2777479337', '157181609', '2779895041', '2776499299', '2779265950', '174503800', '2776705095', '2910385868', '74078090', '2781217054', '2776546366', '24671956', '2780789856', '146733006', '2778675665', '2777586272', '39380314', '47737302', '17648541', '160798176', '181916410', '541104983', '2777028372', '2779048638', '2779710395', '178065520', '2780536370', '44044945', '144179057', '2779683600', '2779803109', '135436540', '2780331096', '2776512361', '143517461', '2778449969', '7817414', '2779990392', '190168584', '9682599', '123153844', '188818383', '2781249646', '174575960', '2779173739', '128396106', '2776327409', '75027835', '17626397', '61980418', '2911135383', '17130696', '2776781735', '2776867037', '2778474792', '187949908', '197551870', '2779533125', '2778959709', '2776494654', '206888370', '2778976125', '183237670', '2779141992', '117127486', '73916439', '2779200991', '105442212', '196513747', '149768029', '143559376', '65183824', '2779867701', '2777682434', '2780004717', '2776740001', '104708988', '2779623529', '2778636636', '2780059494', '20788544', '2780165552', '2781036252']</t>
+          <t>['2776512361', '2910220436', '9132272', '2780789856', '2778323372', '52957995', '137851953', '2777821729', '182501304', '176871988', '2778842010', '2776782565', '2780331096', '78244369', '2780165032', '105923489', '59427239', '40018170', '42060753', '2776705095', '2780148753', '176481572', '103689191', '53914812', '2777622855', '2780824857', '2781341389', '2776886032', '181916410', '119494637', '2779715735', '29682386', '24671956', '2780181841', '2778163838', '189289785', '19473024', '2778675665', '2965452', '2781036252', '2780894989', '206888370', '122039914', '2779895041', '149982382', '161829187', '2777423268', '137886200', '20788544', '2777210892', '154414509', '100405246', '37965861', '108225325', '56085101', '2776741288', '2776128071', '2780394310', '2780902009', '2777092252', '103017160', '2777315079', '113740612', '2777215464', '2778829423', '2781217054', '2778676262', '2780301381', '509746633', '2778976125', '2778998722', '2776325313', '175461058', '2776036445', '2778309119', '2776784348', '2780182046', '47737302', '2909699456', '2779533125', '2778449969', '121119573', '53991642', '173372375', '2779814830', '197551870', '2781184898', '55037315', '140846259', '2909203570', '2776576667', '117127486', '2776442348', '2777586272', '40675005', '2776780212', '2779550995', '64298129', '2742236', '2780345752', '2778032680', '78600449', '200630231', '526406351', '423512', '2777479337', '2777429066', '105442212', '2776169166', '2908529875', '518406490', '24345647', '143559376', '542589376', '38677869', '2779745812', '174503800', '30236105', '2777217638', '2780050931', '43785746', '2778217648', '123197309', '544738498', '2776756539', '2778869765', '2778539042', '76047896', '2777512574', '2780322740', '88417058', '2909570586', '68476402', '2780761721', '2776494654', '174575960', '2777008186', '2780088643', '2779257452', '2777351703', '528261146', '17626397', '2908830279', '2779683600', '2780243441', '2781150358', '120441037', '2779867701', '2778474792', '45882903', '2779048638', '188573790', '68801617', '104708988', '2776058518', '183739832', '2780520809', '2778324724', '2778742260', '2780113879', '19065316', '2911135383', '2778032857', '520343842', '106935595', '143517461', '2778219479', '2779252636', '144179057', '2777172336', '29267209', '174306757', '163652712', '75027835', '2779173739', '2779765720', '2781393684', '2776740001', '131046424', '91812121', '196513747', '17648541', '513535597', '2779081038', '2776208129', '2777348173', '59622614', '2780536370', '68189081', '105994980', '41291067', '61980418', '206658404', '2777682434', '128396106', '2781426840', '108655655', '178065520', '2779430688', '90530108', '10558101', '29592376', '2778844797', '2780430855', '175365462', '2910979819', '2778381653', '2778722790', '2780115483', '171666300', '2777930111', '2910385868', '2776538475', '85924503', '135881395', '2778330180', '7453809', '2910697279', '2779961193', '160798176', '107861326', '129456180', '15229330', '2777416314', '39380314', '46465826', '7817414', '8735168', '2776073808', '2779473208', '144717724', '155373166', '162857116', '38940224', '2777804095', '2776190866', '135802936', '2779371384', '99743013', '2780814765', '38864968', '2778787560', '2780153765', '2779172400', '132853815', '1124016', '59167565', '2778040493', '157181609', '24717449', '2776609911', '2780004717', '2779868350', '2909203356', '2778245977', '146231206', '2779848691', '2778013412', '2779968128', '2778417203', '2781335544', '2778258436', '2780068603', '2776867696', '2909574085', '118493204', '2777031842', '2781008468', '108722225', '160363772', '2778656736', '184978287', '2781300650', '2776793327', '196261454', '2779862270', '38870921', '204312592', '149039472', '544956773', '57467194', '2777001187', '2776970089', '2780572083', '65183824', '2777036795', '141713623', '2777028372', '40293303', '78635371', '2776469828', '185220729', '2777811329', '2777692458', '33039251', '2780066083', '80845027', '97615858', '1715860', '2909690246', '99881593', '183237670', '2777618391', '207768971', '108869833', '2778156585', '66910140', '2780165552', '2779710395', '52881836', '501529594', '2780406490', '2776726243', '107645774', '134537524', '2779610122', '34153902', '2777563595', '104988666', '2780039422', '156380964', '2775886207', '17130696', '39996523', '2779677415', '2781352779', '2778153913', '150870023', '165998758', '13119800', '2776849302', '2779961549', '2777027713', '187949908', '2779019381', '2778959709', '2779769944', '2777888664', '52208190', '2777890234', '2776781735', '101518730', '47651138', '542482507', '2779813444', '2780059578', '95926084', '119338728', '190168584', '2779431981', '32866371', '2777325068', '180553826', '2776499299', '2779434388', '2911192195', '75684735', '174493833', '59633683', '2781465288', '91112408', '2776127450', '2777466363', '196340769', '74078090', '31395832', '2776033628', '127145964', '186503672', '2779623529', '2780059494', '183762234', '520301825', '203094288', '2777796192', '2779748257', '8744930', '2780242610', '188818383', '175706755', '2781374625', '151174772', '2778040704', '2781249646', '2775888423', '2780978964', '2779258914', '2779796603', '2778733479', '2778636636', '2781175455', '111766609', '2779265950', '146733006', '2778234585', '2776417682', '2780991303', '2777661767', '117537405', '2780415358', '126172416', '2780331013', '79870159', '2776628701', '187414654', '86155754', '44044945', '2781327496', '73916439', '159559250', '2780936489', '2777141785', '134178815', '37107799', '2776660518', '95950515', '50551742', '1034443', '2776615292', '2780427980', '17485501', '123153844', '2779877863', '2781084341', '2776327409', '27037042', '159403789', '2777598616', '186977519', '2778856288', '2778970885', '2779969000', '2779990392', '2779200991', '83544830', '151406439', '2777596722', '89505385', '2778834244', '551020850', '92311004', '184235594', '2779279529', '2780229964', '154718420', '540793156', '142804171', '56685638', '202417442', '2781309322', '31419778', '2776461528', '37415627', '183287310', '9682599', '2776078904', '2779607880', '2779141992', '2775903348', '2776867037', '206991015', '2776205842', '135436540', '16941374', '2776645009', '72080964', '2781264327', '149768029', '559228080', '541104983', '513653683', '206255140', '75825664', '2779973532', '2776546366', '2781420532', '98716924', '139315637', '20744434', '194945478', '2777908284', '2780604391', '83227832', '2779803109', '86714428', '90509273']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Vehicle-to-grid', 'Natural gasoline', 'Regenerative fuel cell', 'Photoelectrochemical cell', 'Low-carbon fuel standard', 'Multi-armed bandit', 'Renewable Energy Certificate', 'Methanol fuel', 'Reversed electrodialysis', 'Roboty', 'Low-carbon power', 'Chlorococcum', 'Energy-efficient driving', 'Solar water heating', 'Cogeneration', 'Biopsychosocial model', 'Carbon project', 'United States Hydrogen Policy', 'Algae fuel', 'Thermal Problem', 'Hybrid power', 'Nuclear energy policy', 'Carbon neutrality', 'Solar power', 'Energy harvesting', 'Energy subsidies', 'Plastic recycling', 'Prepared Material', 'Self-shrinking generator', 'Soil respiration', 'Petri net', 'Salix viminalis', 'Geothermal heating', 'Magnesium battery', 'Energy Policy and Conservation Act', 'SuperGrid', 'Solar access', 'Biofortification', 'Market transformation', 'Electric motor', 'Solar tracker', 'Capacity factor', 'Energy carrier', 'Nuclear Knowledge Management', 'User interface', 'Organosolv', 'Outage probability', 'Epact', 'Peak gas', 'Passive house', 'Alcohol fuel', 'Energy conservation measure', 'Transcritical cycle', 'European Union Emission Trading Scheme', 'LEED for Neighborhood Development', 'Non-renewable resource', 'Energy development', 'Smart grid', 'Compressed air energy storage', 'Partially premixed combustion', 'Ulva prolifera', 'Geothermal gradient', 'Conservation of energy', 'Luminescent solar concentrator', 'Vegetable oil refining', 'Storage heater', 'Ramp generator', 'Aluminium recycling', 'Ram air turbine', 'Energy-Efficient Ethernet', 'Natural-gas condensate', 'Carpool', 'Experimental data', 'Design tool', 'Nuclear power', 'Fossil fuel divestment', 'Solar still', 'Biochar', 'Tip-speed ratio', 'Natural gas', 'Nannochloropsis', 'Enhanced geothermal system', 'Acinonyx', 'Periphyton', 'Time series', 'Scenedesmus', 'BREEAM', 'Energy conversion efficiency', 'Energy Policy Act of 1992', 'Public Utility Regulatory Policies Act', 'Energy and environmental engineering', 'Hydrogen infrastructure', 'Nuclear safety and security', 'Bothriochloa ischaemum', 'Trickle charging', 'Natural refrigerant', 'Performance per watt', 'Renewable energy credit', 'Clean Power Plan', 'Inertial response', 'Hydrogen technologies', 'Ducted propeller', 'Hemicellulose', 'Cold filter plugging point', 'Greenhouse gas accounting', 'Energy market', 'API gravity', 'Environmental impact of electricity generation', 'Exclosure', 'Hydroelectricity', 'Repartition', 'Geothermal exploration', 'User information', 'Coefficient of performance', 'G-network', 'Climate legislation', 'Biomass partitioning', 'Solar chimney', 'Nannochloropsis oculata', 'Power-system automation', 'Energy system', 'Greenhouse effect', 'Wind atlas', 'Pontoscolex corethrurus', 'Relative growth rate', 'Cardiorenal syndrome', 'Projective representation', 'Meker-Fisher burner', 'Carbon emission trading', 'Shale oil', 'Waste heat', 'Flexible Mechanisms', 'Food chain', 'Heat capacity rate', 'Proven reserves', 'Life-cycle greenhouse-gas emissions of energy sources', 'Recuperator', 'Carbon leakage', 'Carbon offset', 'Wave power', 'Photovoltaics', 'Solar-pumped laser', 'Conference of the parties', 'Climate change mitigation', 'Fuel efficiency', 'Propulsion', 'Small hydro', 'Carbon footprint', 'Natural gas vehicle', 'Blue carbon', 'Greenhouse gas removal', 'High-altitude wind power', 'Solar cell research', 'Nuclear renaissance', 'Floating wind turbine', 'Solar architecture', 'Levoglucosan', 'Heat pump and refrigeration cycle', 'Algae bioreactor', 'Combustion', 'Energy conservation', 'Leymus', 'World energy consumption', 'Energy poverty', 'Seasonal energy efficiency ratio', 'Photobioreactor', 'Electrification', 'Energy supply', 'Zinc–air battery', 'Schizachyrium scoparium', 'Vuilleumier cycle', 'Geothermal desalination', 'United Nations Framework Convention on Climate Change', 'Distributed generation', 'Primary production', 'Thermal response test', 'Fluorinated gases', 'Mailing list', 'Vertical axis wind turbine', 'Kyoto Protocol', 'Osmotic power', 'Load bank', 'Charcoal', 'Fossil fuel', 'RT middleware', 'Concentrated solar power', 'Energy efficiency gap', 'Electric power', 'Energy policy', 'Grid parity', 'Pellet fuel', 'Thermal energy storage', 'Pumped-storage hydroelectricity', 'Carbon lock-in', 'Solar charger', 'Primary energy', 'Grazing pressure', 'Solar pond', 'Lignocellulosic biomass', 'Hydropower', 'Photoactive layer', 'Robot', 'Manure management', 'Energy Independence and Security Act of 2007', 'Coalbed methane', 'Solar Resource', 'Middleware', 'Solar furnace', 'Low-energy house', 'Nuclear fuel cycle', 'Seasonal thermal energy storage', 'Cardio-Renal Syndrome', 'Power usage effectiveness', 'Continuous spectrum', 'Torrefaction', 'Biodiesel production', 'Sustainability and systemic change resistance', 'Relocation', 'Ethics committee', 'Grid energy storage', 'Wind power', 'Thermophotovoltaic', 'Electric energy', 'Atmospheric methane', 'Rooftop photovoltaic power station', 'Biohydrogen', 'Pitch control', 'Coppicing', 'Formic acid fuel cell', 'Carbon accounting', 'Waste heat recovery unit', 'Passive solar building design', 'Natural gas field', 'Absolute Change', 'Low-carbon emission', 'Silicon', 'Nuclear law', 'Cleaner production', 'Testbed', 'Wind hybrid power systems', 'Tidal power', 'Carbon credit', 'Typical meteorological year', 'Propulsor', 'PH partition', 'Solar power forecasting', 'Biofuel', 'Specific leaf area', 'Miscanthus sinensis', 'Semiconductor', 'Table of contents', 'Nitrogen rejection unit', 'Energy statistics', 'Soil gas', 'Clean technology', 'Bioproducts', 'Relay', 'Carbon finance', 'Energy planning', 'Thermophotonics', 'Silicone', 'Nannochloropsis sp.', 'Solar fuel', 'Solar thermal collector', 'Induction generator', 'Solar cell', 'Trombe wall', 'Wind power forecasting', 'Electricity generation', 'Concentrated photovoltaics', 'Higher Power', 'Energy consumption', 'Polarization-division multiplexing', 'Biophotonics', 'Renewable fuels', 'Circuit reliability', 'Green certificate', 'Energy transition', 'Geothermal energy', 'Common But Differentiated Responsibilities', 'Bacterivore', 'Mesocosm', 'Biomass', 'Measurement and Verification', 'C-RAN', 'Inefficiency', 'Solar car', 'Discrete event dynamic system', 'Natural gas storage', 'Energy forecasting', 'Regasification', 'Power system simulator for engineering', 'Energy security', 'National Energy Act', 'Ground heat exchanger', 'Carbon', 'Copper indium diselenide', 'Carbon dioxide scrubber', 'Tidal barrage', 'Cokernel', 'Divisia index', 'Fuel poverty', 'Added value', 'Industrial gas', 'Synthetic fuel', 'Standing crop', 'Solar dryer', 'Photovoltaic power station', 'Wood fuel', 'Human resources', 'Cofiring', 'Electrical grid', 'Renewable energy', 'Energy intensity', 'Marginal abatement cost', 'Telmatology', 'Solar shingle', 'Green River Formation', 'Energy pathways', 'Sour gas', 'Offshore wind power', 'Bioenergy', 'Energy management software', 'Biogasoline', 'Renewable energy in China', 'Content management', 'Hydrogen vehicle', 'Bouteloua gracilis', 'Thermal energy', 'Powertrain', 'Biofuel Cells', '100% renewable energy', 'Energy Policy Act of 2005', 'Wind resource assessment', 'Carbon Pollution Reduction Scheme', 'Weatherization', 'Green star', 'Electrolyte', 'Methane emissions', 'Solar combisystem', 'Emissions trading', 'Small wind turbine', 'Heat pump', 'Net metering', 'Solar vehicle', 'Energy balance', 'Jatropha', 'Wind profile power law', 'Unconventional oil', 'Energy engineering', 'IEC 62700', 'Big data', 'Intermittent energy source', 'Solar-assisted heat pump', 'Marine energy', 'Home energy rating', 'Aquifer thermal energy storage', 'Alternative energy', 'Cryogenic energy storage', 'Photovoltaic system', 'Electricity', 'Virtual power plant', 'Heat recovery ventilation', 'Polycaprolactone', 'Imaging technology', 'Dispatchable generation', 'Corn stover', 'Energy crop', 'Geothermal heat pump', 'CASBEE', 'Solar sail', 'Thermal profiling', 'Personal carbon trading', 'Hydrocarbon dew point', 'Zero-energy building', 'Tree allometry', 'Wood gas generator', 'Microgrid', 'Geothermal power', 'Power control', 'Micro combined heat and power', 'Rural electrification', 'Emergency power system', 'Associated petroleum gas', 'Local-Regional', 'Unitized regenerative fuel cell', 'Levulinic acid', 'Thermal engineering', 'Efficient energy use', 'Geothermal Springs', 'Greenhouse gas inventory', 'Environmental impact of aviation', 'Charging station', 'Temporal difference learning', 'LNG storage tank', 'Biobased economy', 'Green paradox', 'Low-carbon economy', 'Wave farm', 'Biorefinery', 'Active Network Management', 'Solar desalination', 'Energy accounting', 'Uranium market', 'Sustainable transport', 'Land footprint', 'Production sharing agreement', 'Absolute scale', 'Environmental impact of the energy industry', 'Maintenance respiration', 'Low body temperature', 'Natural-gas processing', 'Rhinanthus minor', 'Energy tower', 'Fusion power', 'Variable renewable energy', 'Electricity market', 'Islanding', 'Copenhagen Accord', 'Hydrogen economy', 'Greenhouse gas', 'Efficiency', 'Solar air conditioning', 'Hydrogen station', 'Solar energy', 'Adsorption refrigeration', 'Atomic Energy Act', 'Alkaline fuel cell', 'Miller cycle', 'Pyrolysis oil', 'Hybrid heat', 'Renewable heat', 'Distributed key generation', 'World Energy Outlook', 'Heliostat', 'Energy modeling', 'Power purchase agreement', 'Renewable resource', 'Turbine', 'Energy management', 'Energy independence', 'Solar cell efficiency', 'Hydrogen fuel', 'Base load power plant', 'Fugitive emissions', 'Parabolic trough', 'Renewable natural gas', 'Renewable portfolio standard', 'LED stage lighting', 'Arundo donax', 'Green computing', 'Automatic test pattern generation', 'Location', 'Rescue vehicle', 'Photoelectrolysis', 'Climate Change Agreement', 'Follow-the-sun', 'Nuclear option', 'Air source heat pumps', 'Stochastic Petri net', 'Advanced Fuel Cycle Initiative', 'Woodchips', 'Ocean thermal energy conversion', 'Electric power distribution', 'Carbon tax', 'Clean coal technology', 'Solar updraft tower', 'Thermoelectric generator', 'Energy storage', 'Carbon price', 'Feed-in tariff', 'Remedial action', 'Power budget', 'Plane partition', 'Ethanol fuel', 'Secondary reference', 'Energy mix', 'Binary cycle', 'Project Independence', 'Stand-alone power system', 'Renewable energy law', 'Reactor protection system', 'Boswellia sacra', 'Photonics', 'Absorption heat pump', 'Approximate computing']</t>
+          <t>['Power purchase agreement', 'Thermal Problem', 'IEC 62700', 'Variable renewable energy', 'Personal carbon trading', 'Conservation of energy', 'Greenhouse effect', 'Energy Policy Act of 2005', 'Seasonal energy efficiency ratio', 'Electric motor', 'Solar chimney', 'Greenhouse gas accounting', 'Energy modeling', 'Added value', 'Energy consumption', 'Combustion', 'Natural gas', 'Tidal power', 'Biomass partitioning', 'Maintenance respiration', 'National Energy Act', 'Natural gasoline', 'Unitized regenerative fuel cell', 'Geothermal heating', 'User information', 'Solar cell', 'Energy system', 'Roboty', 'Hydrogen station', 'Projective representation', 'Ducted propeller', 'Geothermal desalination', 'Fusion power', 'Green paradox', 'Geothermal power', 'Hydrocarbon dew point', 'Reversed electrodialysis', 'Islanding', 'Energy crop', 'Approximate computing', 'Polarization-division multiplexing', 'Electric power distribution', 'G-network', 'Land footprint', 'Typical meteorological year', 'LEED for Neighborhood Development', 'Energy balance', 'Biopsychosocial model', 'Photonics', 'Wood fuel', 'Soil respiration', 'Emissions trading', 'Carbon credit', 'Semiconductor', 'Biochar', 'Ground heat exchanger', 'BREEAM', 'Bouteloua gracilis', 'Bothriochloa ischaemum', 'Green certificate', 'Coppicing', 'Natural-gas condensate', 'Natural gas field', 'Formic acid fuel cell', 'Solar access', 'Rhinanthus minor', 'Solar Resource', 'Biorefinery', 'Climate change mitigation', 'Carbon tax', 'Solar car', 'Zinc–air battery', 'Vegetable oil refining', 'Pellet fuel', 'Circuit reliability', 'Microgrid', 'Wave power', 'Greenhouse gas', 'Absolute Change', 'Advanced Fuel Cycle Initiative', 'Turbine', 'Intermittent energy source', 'Biofuel', 'Cokernel', 'Energy Policy Act of 1992', 'Stochastic Petri net', 'Fluorinated gases', 'Experimental data', 'United States Hydrogen Policy', 'Local-Regional', 'Biofortification', 'Thermoelectric generator', '100% renewable energy', 'Copenhagen Accord', 'Hydropower', 'Marginal abatement cost', 'Fuel poverty', 'Ram air turbine', 'Efficient energy use', 'Wind resource assessment', 'Solar-assisted heat pump', 'Wind power', 'Cleaner production', 'Charcoal', 'Electricity generation', 'Uranium market', 'Conference of the parties', 'Feed-in tariff', 'Green River Formation', 'Biofuel Cells', 'Geothermal energy', 'Unconventional oil', 'Plane partition', 'Photovoltaics', 'Petri net', 'Energy Independence and Security Act of 2007', 'Environmental impact of the energy industry', 'Sustainability and systemic change resistance', 'Emergency power system', 'Energy forecasting', 'API gravity', 'Micro combined heat and power', 'Multi-armed bandit', 'Distributed generation', 'Cogeneration', 'Inefficiency', 'United Nations Framework Convention on Climate Change', 'Powertrain', 'Tip-speed ratio', 'Passive house', 'Solar sail', 'Nannochloropsis oculata', 'Table of contents', 'Organosolv', 'Ocean thermal energy conversion', 'Renewable natural gas', 'Wind atlas', 'Clean Power Plan', 'Common But Differentiated Responsibilities', 'Low-carbon fuel standard', 'Carbon finance', 'Automatic test pattern generation', 'Copper indium diselenide', 'Distributed key generation', 'Thermal response test', 'Acinonyx', 'Primary energy', 'Secondary reference', 'Nuclear option', 'Fuel efficiency', 'Atomic Energy Act', 'Renewable energy', 'Electrolyte', 'Stand-alone power system', 'Solar still', 'Pumped-storage hydroelectricity', 'Clean technology', 'Electrification', 'Green star', 'Compressed air energy storage', 'Hydrogen vehicle', 'Rescue vehicle', 'Solar pond', 'Energy engineering', 'Greenhouse gas removal', 'Renewable resource', 'Scenedesmus', 'Mailing list', 'Renewable heat', 'Energy security', 'Wind hybrid power systems', 'Geothermal exploration', 'Carbon dioxide scrubber', 'Green computing', 'Renewable portfolio standard', 'C-RAN', 'Solar combisystem', 'Project Independence', 'Energy policy', 'Regenerative fuel cell', 'Remedial action', 'Efficiency', 'Low-carbon economy', 'Grazing pressure', 'Methane emissions', 'Solar furnace', 'SuperGrid', 'Pyrolysis oil', 'Fossil fuel', 'Waste heat recovery unit', 'Photovoltaic system', 'Location', 'Electricity', 'Energy mix', 'LED stage lighting', 'Carbon leakage', 'Solar fuel', 'Miller cycle', 'Energy Policy and Conservation Act', 'Low-energy house', 'Smart grid', 'Electric energy', 'Aquifer thermal energy storage', 'Bioproducts', 'Methanol fuel', 'Pontoscolex corethrurus', 'Energy efficiency gap', 'CASBEE', 'Chlorococcum', 'Small hydro', 'Nuclear fuel cycle', 'Low body temperature', 'Climate legislation', 'Dispatchable generation', 'Environmental impact of electricity generation', 'Pitch control', 'Energy carrier', 'Cardio-Renal Syndrome', 'Biobased economy', 'Solar air conditioning', 'Thermal energy', 'PH partition', 'Wood gas generator', 'Energy poverty', 'Hydrogen economy', 'Biophotonics', 'Energy management', 'Offshore wind power', 'Hemicellulose', 'Concentrated solar power', 'Osmotic power', 'Food chain', 'Torrefaction', 'Load bank', 'Flexible Mechanisms', 'Energy supply', 'Middleware', 'Biomass', 'Kyoto Protocol', 'Vuilleumier cycle', 'Grid energy storage', 'Power-system automation', 'Low-carbon emission', 'Renewable Energy Certificate', 'Energy accounting', 'Biohydrogen', 'Periphyton', 'Peak gas', 'Sustainable transport', 'Primary production', 'Energy management software', 'Binary cycle', 'Polycaprolactone', 'Nannochloropsis sp.', 'Photovoltaic power station', 'Solar cell research', 'Solar charger', 'Enhanced geothermal system', 'Energy conservation measure', 'Salix viminalis', 'Magnesium battery', 'Outage probability', 'Vehicle-to-grid', 'Telmatology', 'Geothermal Springs', 'Bacterivore', 'Solar water heating', 'Nuclear law', 'Alcohol fuel', 'Non-renewable resource', 'Measurement and Verification', 'Zero-energy building', 'Renewable energy in China', 'Carbon Pollution Reduction Scheme', 'Cold filter plugging point', 'Small wind turbine', 'Environmental impact of aviation', 'Storage heater', 'Passive solar building design', 'Silicon', 'Power system simulator for engineering', 'Schizachyrium scoparium', 'Ethics committee', 'Nuclear Knowledge Management', 'Ethanol fuel', 'Leymus', 'Heat pump and refrigeration cycle', 'Adsorption refrigeration', 'Electric power', 'Energy subsidies', 'Coalbed methane', 'Algae bioreactor', 'Hydrogen infrastructure', 'Relative growth rate', 'Content management', 'Repartition', 'Continuous spectrum', 'Energy intensity', 'Recuperator', 'Prepared Material', 'Power usage effectiveness', 'Clean coal technology', 'Solar power', 'Self-shrinking generator', 'Nuclear renaissance', 'Relay', 'Biodiesel production', 'Absorption heat pump', 'Alkaline fuel cell', 'Marine energy', 'Carbon', 'Greenhouse gas inventory', 'Corn stover', 'Human resources', 'Photobioreactor', 'Biogasoline', 'Tree allometry', 'Inertial response', 'Alternative energy', 'Floating wind turbine', 'Bioenergy', 'Energy-efficient driving', 'Photoelectrolysis', 'Renewable energy credit', 'Ulva prolifera', 'Thermal profiling', 'Plastic recycling', 'Associated petroleum gas', 'Imaging technology', 'Coefficient of performance', 'Energy market', 'Net metering', 'Soil gas', 'Air source heat pumps', 'Relocation', 'Woodchips', 'Silicone', 'Energy and environmental engineering', 'Renewable fuels', 'Energy transition', 'Climate Change Agreement', 'Energy harvesting', 'Concentrated photovoltaics', 'Hydrogen technologies', 'Proven reserves', 'Levoglucosan', 'Life-cycle greenhouse-gas emissions of energy sources', 'Solar tracker', 'Solar cell efficiency', 'Luminescent solar concentrator', 'Discrete event dynamic system', 'Market transformation', 'Mesocosm', 'Production sharing agreement', 'Active Network Management', 'Energy pathways', 'Big data', 'Thermophotonics', 'Weatherization', 'Solar-pumped laser', 'Nuclear energy policy', 'High-altitude wind power', 'Design tool', 'Temporal difference learning', 'Natural-gas processing', 'Testbed', 'Virtual power plant', 'Heat recovery ventilation', 'Grid parity', 'Renewable energy law', 'Boswellia sacra', 'Standing crop', 'Energy conservation', 'Ramp generator', 'Exclosure', 'Solar thermal collector', 'Aluminium recycling', 'Public Utility Regulatory Policies Act', 'Fugitive emissions', 'Rooftop photovoltaic power station', 'Energy-Efficient Ethernet', 'Propulsor', 'Solar architecture', 'Parabolic trough', 'Natural refrigerant', 'Nuclear safety and security', 'Carbon emission trading', 'Performance per watt', 'Jatropha', 'Reactor protection system', 'World energy consumption', 'Geothermal gradient', 'Absolute scale', 'Electricity market', 'Lignocellulosic biomass', 'Low-carbon power', 'Photoactive layer', 'Miscanthus sinensis', 'Thermophotovoltaic', 'Natural gas storage', 'Carbon neutrality', 'Carbon lock-in', 'Solar shingle', 'Seasonal thermal energy storage', 'Cofiring', 'Hybrid power', 'Hybrid heat', 'Partially premixed combustion', 'Energy storage', 'Nitrogen rejection unit', 'Carbon footprint', 'Nannochloropsis', 'Cryogenic energy storage', 'Regasification', 'Solar power forecasting', 'Shale oil', 'Divisia index', 'Propulsion', 'Specific leaf area', 'Carpool', 'Thermal engineering', 'Base load power plant', 'Carbon project', 'Wind power forecasting', 'Arundo donax', 'Natural gas vehicle', 'Algae fuel', 'Solar desalination', 'Wave farm', 'European Union Emission Trading Scheme', 'Rural electrification', 'Manure management', 'Energy independence', 'Carbon price', 'Industrial gas', 'Time series', 'Vertical axis wind turbine', 'User interface', 'Energy planning', 'Energy development', 'Hydroelectricity', 'Waste heat', 'Fossil fuel divestment', 'Trombe wall', 'Wind profile power law', 'Solar vehicle', 'Blue carbon', 'Power control', 'Synthetic fuel', 'Cardiorenal syndrome', 'Trickle charging', 'Heat pump', 'Capacity factor', 'Thermal energy storage', 'Hydrogen fuel', 'RT middleware', 'Charging station', 'Solar updraft tower', 'Home energy rating', 'Follow-the-sun', 'Energy conversion efficiency', 'Electrical grid', 'Heliostat', 'Epact', 'Higher Power', 'Meker-Fisher burner', 'Geothermal heat pump', 'Power budget', 'Energy statistics', 'Solar energy', 'Nuclear power', 'Sour gas', 'Transcritical cycle', 'Solar dryer', 'Energy tower', 'Carbon accounting', 'Induction generator', 'Tidal barrage', 'Photoelectrochemical cell', 'Heat capacity rate', 'LNG storage tank', 'Levulinic acid', 'Carbon offset', 'World Energy Outlook', 'Atmospheric methane', 'Robot']</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['2908823330', '510346563', '2908562352', '2775982628', '2776581254', '34099160', '10144844', '2776245402', '78597825', '63545947', '2910181414', '38104776', '2781455901', '2780870317', '2778431023', '2775876557', '2910887555', '2781096511', '2779723664', '2780289447', '23925645', '2777439000', '2910283248', '51067260', '2775893736', '2909538334', '2778597803', '2777211311', '2778395451', '2780618658', '2775965751', '50522688', '41708089', '2778000738', '2909644561', '64089585', '2776737852', '30228293', '2780763229', '2776332928', '2910547974', '2779795779', '2776988154', '2909148432', '2778021871', '2910941953', '2781257228', '2911089958', '105578763', '2776358859', '2778734068', '2775844827', '2778038044', '2910004771', '9778290', '2909274781', '2775969135', '204983608', '6927289', '158886217', '2777288899', '2775906418', '2780082420', '107645774', '2778139618', '206713868', '2779290559', '2780431834', '2778712577', '145236788', '2776943663', '2776665811', '40800819', '2781188878', '2778716609', '2777950934', '2781441816', '18918823', '15302153', '93236110', '2780536516', '2778517334', '2776498708', '155109394', '2779011557', '2777747085', '2909916548', '2780977596', '2910343112', '134659438', '2776849302', '2780745107', '2779739803', '84309077', '2780625504', '48057960', '87980944', '72614640', '2780370025', '2780836627', '2777358941', '79119010', '49906088', '39389867', '2778300220', '2780638295', '132943942', '136264566', '2909356555', '2776255816', '46312889', '2778566306', '2776698172', '2779783368', '48879800', '2781426361', '2781005894', '2778215748', '2910471639', '2776167287', '22541086', '155508913', '2911189839', '2780931059', '139203340', '81502235', '2780516171', '139043278', '2778126366', '121087249', '2777581918', '2776544115', '2777877159', '76073288', '2780946114', '111226992', '2911183331', '2778556080', '2778970885', '134827381', '2779266529', '2776689383', '2778738845', '2778581803', '2908822358', '26595155', '2778002999', '2778116346', '2776942536', '2781068852', '2778762746', '68286588', '2778774626', '2779257778', '80984254', '2776237081', '202063016', '95389739', '2781349114', '2780000394', '2781190941', '2777671340', '536738050', '175700187', '29985473', '2909045595', '56995899', '107806365', '2776125615', '2778806149', '2776805697', '68189081', '109986646', '2778381653', '2775867934', '2778837545', '2780085806', '142323842', '135335626', '2908915227', '54750564', '2775963177', '147583825', '2779719641', '2780127002', '2779014257', '2777731549', '2778576984', '195742910', '43071985', '527784420', '2779687257', '2779986911', '2779152076', '6968784', '2909899567', '2775865179', '2777540445', '110458093', '23032112', '2909732560', '2910578545', '2779264144', '2777885895', '2780498437', '2780407378', '506796395', '2776465609', '190175210', '176289848', '2776883808', '181230689', '21839126', '162324750', '2779674044', '2777464741', '105639569', '2780286488', '67886934', '2776888587', '2909201987', '2776325488', '10138342', '2910129406', '2778148510', '187212893', '2780438764', '2779443769', '2780695613', '2776880170', '11092464']</t>
+          <t>['2778126366', '145236788', '2778716609', '2775876557', '2909045595', '2779443769', '51067260', '2781426361', '2781096511', '2775865179', '155109394', '2778000738', '2779014257', '2776125615', '110458093', '2780431834', '2780625504', '195742910', '2779257778', '2780638295', '134827381', '2776737852', '2776988154', '2777747085', '2780516171', '2779719641', '2909356555', '72614640', '2781068852', '2776332928', '136264566', '109986646', '204983608', '181230689', '2910578545', '202063016', '2778116346', '2776880170', '2776698172', '2909644561', '2778566306', '2779687257', '2780745107', '41708089', '2778038044', '48879800', '2780931059', '63545947', '26595155', '107645774', '506796395', '2780289447', '2910941953', '80984254', '2778395451', '95389739', '2780695613', '2779290559', '81502235', '2909274781', '46312889', '2780618658', '2910004771', '2910283248', '121087249', '2778581803', '2781188878', '2780977596', '2780127002', '158886217', '2777885895', '2776849302', '139203340', '206713868', '6968784', '2776805697', '40800819', '147583825', '2778002999', '2775965751', '2778597803', '2779266529', '111226992', '2779011557', '2780370025', '2775893736', '132943942', '64089585', '76073288', '48057960', '2909899567', '2779795779', '2776943663', '2780085806', '30228293', '107806365', '190175210', '2776237081', '10138342', '2776255816', '2776544115', '2910887555', '527784420', '2780763229', '2779674044', '2778806149', '105578763', '2777540445', '2778556080', '2778021871', '50522688', '2777358941', '2909732560', '2779723664', '54750564', '162324750', '34099160', '2778738845', '9778290', '2778734068', '2776167287', '135335626', '536738050', '2908822358', '11092464', '2778837545', '2781349114', '2777731549', '23925645', '2908562352', '2781190941', '29985473', '39389867', '2781257228', '2781455901', '2776942536', '2779152076', '2777439000', '2911089958', '56995899', '142323842', '2775844827', '2777877159', '2776465609', '510346563', '2780407378', '2775969135', '2780870317', '2779264144', '2910471639', '2778139618', '2780836627', '84309077', '2777950934', '2908823330', '2778215748', '2777671340', '79119010', '2776888587', '2775982628', '2910181414', '2776665811', '87980944', '2777464741', '18918823', '2778576984', '23032112', '68189081', '38104776', '2778970885', '2910547974', '2777288899', '2778517334', '2775906418', '67886934', '187212893', '2780536516', '2909148432', '22541086', '2780082420', '2910343112', '78597825', '2775963177', '49906088', '2780498437', '43071985', '2781441816', '2909916548', '2780946114', '2776581254', '176289848', '68286588', '2778381653', '2779986911', '2778431023', '2777211311', '2778762746', '2776325488', '2779739803', '2781005894', '10144844', '2780000394', '2780286488', '175700187', '139043278', '2911183331', '15302153', '21839126', '2909538334', '2910129406', '93236110', '134659438', '2776883808', '2778148510', '6927289', '2908915227', '2777581918', '105639569', '2779783368', '155508913', '2909201987', '2776358859', '2776498708', '2778712577', '2778300220', '2778774626', '2911189839', '2780438764', '2776689383', '2775867934', '2776245402']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Full-time employment', 'United States labor law', 'Current employment', 'Geoeconomics', 'Social Right', 'Kickoff meeting', 'Labour law', 'Playoffs', 'E-commerce', 'Individual capital', 'Job losses', 'Industrial relations', 'Eurosclerosis', 'Equal employment opportunity', 'Alliance', 'T-commerce', 'Occupational mobility', 'Mandatory retirement', 'Household economics', 'Disability pension', 'Financial modeling', 'Housing tenure', 'Economics policy', 'Professional development', 'Biomanufacturing', 'Industrial conflict', 'Labour power', 'Graduate unemployment', 'Occupational segregation', 'Annual growth rate', 'Active labour market policies', 'Economic growth', 'GDF7', 'Self-employment', 'Active Labor', 'Informal sector', 'Sick leave', 'Stagflation', 'Occupational injury', 'Termination of employment', 'Insurance benefit', 'Payroll tax', 'Exchange rate', 'Employment problem', 'Footprinting', 'Employment history', 'Labor disputes', 'Precarious Employment', 'Age grade', 'Structural unemployment', 'Sustainable tourism', 'Financial independence', 'Living wage', 'Collective labor agreements', 'Market value added', 'Fringe Benefit', 'NAIRU', 'Productivity', 'Present value', 'Latin Americans', 'Retirement age', 'Precarious work', 'Access to finance', 'Human resources', 'Workforce', 'Near miss', 'Jobless recovery', 'Flexicurity', 'Retraining', 'Labour economics', 'Human capital', 'Collective bargaining', 'Population pyramid', 'Degrowth', 'Minimum wage', 'Skilled worker', 'Occupational lung disease', 'Tourism', 'Employability', 'Club deal', 'Displaced workers', 'Parental leave', 'Demining', 'Organizational studies', 'Curriculum development', 'Financial sector development', 'Marginal Employment', 'Gender pay gap', 'Obstetric Labor', 'Social exclusion', 'Energy market', 'New Economic Policy', 'Labor demand', 'Entrepreneurship', 'Structural estimation', 'Bargaining power', 'Industrial policy', 'Secondary labor market', 'Labor mobility', 'Technological fix', 'Temporary work', 'Resource productivity', 'Latin American art', 'Corporate governance', 'Financial crisis', 'Occupational disease', 'Footprint', 'Economy', 'Part-time employment', 'Employment protection legislation', 'Nanomanufacturing', 'Personal income', 'Underemployment', 'Marriage market', 'Small and medium-sized enterprises', 'Earnings', 'Occupational skin diseases', 'Work–life balance', 'Family Leave', 'Trade promotion', 'Dependency ratio', 'Misery index', 'Active labour', 'Child benefit', 'Monopsony', 'Precession', 'Public employment service', 'Financial services', 'Unemployment', 'Emerging markets', 'Job security', 'Involuntary unemployment', 'Working time', 'Financial risk', 'Dual labour market', 'Teamwork', 'Hourly wage', 'Green growth', 'Rural electrification', 'Social venture capital', 'Unpaid work', 'Labour supply', 'Remanufacturing', 'Unfair labor practice', 'Organizational Case Studies', 'Constructive dismissal', 'Retirement planning', 'Labor shortage', 'Women in the workforce', 'Union density', 'Consumption smoothing', 'Full employment', 'Phillips curve', 'Working age', 'Labor relations', 'Income Support', 'Marginal product', 'Social order', 'Wage curve', 'Family economics', 'Minimum wage law', 'Social rights', 'Social Welfare', 'Manufacturing', 'Natural resource', 'Migrant labor', 'Focus group', 'Apprenticeship', 'Economic evaluation', 'International labour law', 'Tax policy', 'Fossil fuel', 'Public policy', 'Energy efficiency gap', 'Disparate treatment', 'Core Labor Standards', 'Layoff', 'Weighted network', 'Discouraged worker', 'Grievance procedures', 'Commerce', 'Labour code', 'Body weight', 'Work motivation', 'Frictional unemployment', 'Natural rate of unemployment', 'Consumer Protection Act', 'Outplacement', 'Recession', 'Financial risk management', 'Market socialism', 'Occupational fatality', 'Environmental issue', 'Smart growth', 'Efficiency wage', 'Work injury', 'Technological innovation system', 'Collective agreement', 'Redistribution of income and wealth', 'Enterprise value', 'Chronic unemployment', 'Occupational activity', 'Basic income', 'Real wages', 'Labour market flexibility', 'Overtime', 'Financial management', 'Labor market segmentation', 'Beveridge curve', 'Die (manufacturing)', 'Added worker effect', 'Net present value', 'Green economy', 'Economics', 'Glass ceiling', 'Child labour', 'Economic policy', 'Works council', 'Marginal product of labor', 'Unemployment in the United States', 'Labor Forces', 'Employment contract', 'Finance', 'Seeking work', 'Bioeconomics', 'Pediatrics', 'Youth unemployment', 'Foreign worker', 'Reservation wage', 'Enterprise 2.0', 'The labor problem']</t>
+          <t>['Unemployment', 'Labour economics', 'Minimum wage', 'T-commerce', 'Migrant labor', 'Foreign worker', 'Professional development', 'Earnings', 'Mandatory retirement', 'Technological innovation system', 'Organizational studies', 'Self-employment', 'Natural rate of unemployment', 'Economic evaluation', 'Redistribution of income and wealth', 'Flexicurity', 'Structural estimation', 'Recession', 'Working age', 'Occupational disease', 'Social venture capital', 'Sick leave', 'Exchange rate', 'Financial sector development', 'Public employment service', 'Work motivation', 'Part-time employment', 'Secondary labor market', 'Union density', 'Termination of employment', 'Economy', 'Public policy', 'Productivity', 'Net present value', 'Occupational activity', 'Marginal product', 'Labor shortage', 'Enterprise 2.0', 'Underemployment', 'Active Labor', 'Personal income', 'Occupational fatality', 'New Economic Policy', 'GDF7', 'Living wage', 'Small and medium-sized enterprises', 'Child benefit', 'Individual capital', 'Constructive dismissal', 'Human resources', 'Financial management', 'Disability pension', 'Employment history', 'Labor relations', 'Occupational segregation', 'Social order', 'Reservation wage', 'Jobless recovery', 'Precession', 'Fringe Benefit', 'Nanomanufacturing', 'Annual growth rate', 'Collective labor agreements', 'Economics policy', 'Emerging markets', 'Unfair labor practice', 'Degrowth', 'Gender pay gap', 'Frictional unemployment', 'Latin Americans', 'Real wages', 'Energy market', 'Monopsony', 'Near miss', 'Efficiency wage', 'Tax policy', 'Population pyramid', 'Body weight', 'Retirement planning', 'Active labour market policies', 'Labour power', 'Unpaid work', 'Teamwork', 'Curriculum development', 'Labor mobility', 'Biomanufacturing', 'Footprint', 'Informal sector', 'Financial risk', 'Bargaining power', 'Work injury', 'Payroll tax', 'Human capital', 'Layoff', 'Stagflation', 'Apprenticeship', 'Beveridge curve', 'Income Support', 'Finance', 'Employment protection legislation', 'Involuntary unemployment', 'Occupational mobility', 'Market socialism', 'Occupational injury', 'Glass ceiling', 'International labour law', 'Age grade', 'Collective agreement', 'Green growth', 'Footprinting', 'Economic growth', 'Temporary work', 'Chronic unemployment', 'Household economics', 'Commerce', 'Economics', 'Kickoff meeting', 'Remanufacturing', 'Market value added', 'Sustainable tourism', 'Trade promotion', 'Discouraged worker', 'Social Welfare', 'Organizational Case Studies', 'The labor problem', 'Core Labor Standards', 'Wage curve', 'Consumer Protection Act', 'Financial modeling', 'Current employment', 'Minimum wage law', 'Natural resource', 'Corporate governance', 'Labor disputes', 'Eurosclerosis', 'Women in the workforce', 'Smart growth', 'Housing tenure', 'Precarious Employment', 'Focus group', 'Weighted network', 'Financial independence', 'Working time', 'Labor market segmentation', 'United States labor law', 'Overtime', 'NAIRU', 'Equal employment opportunity', 'Basic income', 'Family Leave', 'Workforce', 'Technological fix', 'Entrepreneurship', 'Skilled worker', 'Full-time employment', 'Work–life balance', 'Social rights', 'Resource productivity', 'Unemployment in the United States', 'Geoeconomics', 'Job losses', 'Collective bargaining', 'Industrial policy', 'Child labour', 'Tourism', 'Outplacement', 'Enterprise value', 'Fossil fuel', 'Industrial relations', 'Rural electrification', 'Insurance benefit', 'Retirement age', 'Parental leave', 'Precarious work', 'Marginal product of labor', 'Pediatrics', 'Displaced workers', 'Employment problem', 'Dependency ratio', 'Access to finance', 'Obstetric Labor', 'E-commerce', 'Labour code', 'Latin American art', 'Labour market flexibility', 'Financial risk management', 'Occupational lung disease', 'Marginal Employment', 'Dual labour market', 'Social Right', 'Die (manufacturing)', 'Full employment', 'Energy efficiency gap', 'Environmental issue', 'Alliance', 'Graduate unemployment', 'Consumption smoothing', 'Employment contract', 'Labor demand', 'Occupational skin diseases', 'Labour law', 'Family economics', 'Works council', 'Manufacturing', 'Financial services', 'Hourly wage', 'Employability', 'Green economy', 'Industrial conflict', 'Seeking work', 'Club deal', 'Social exclusion', 'Added worker effect', 'Bioeconomics', 'Present value', 'Grievance procedures', 'Job security', 'Economic policy', 'Marriage market', 'Misery index', 'Labor Forces', 'Structural unemployment', 'Demining', 'Retraining', 'Financial crisis', 'Phillips curve', 'Active labour', 'Youth unemployment', 'Labour supply', 'Disparate treatment', 'Playoffs']</t>
         </is>
       </c>
     </row>
@@ -691,12 +691,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['2779697334', '2781367577', '2910841016', '107166191', '534819032', '186150311', '28442783', '77390884', '2909344626', '202542152', '2781399071', '2778706760', '166576357', '79689650', '2909928070', '172630978', '2777132090', '109578324', '47659340', '2775893736', '2910556911', '82740854', '80323366', '95418871', '2776576667', '2781438671', '527607', '2777562361', '2778255315', '30467622', '164062900', '2780635410', '2780667210', '98444146', '2910974233', '2779855849', '133925201', '2779095429', '957247', '2909055331', '2778397825', '2777751223', '2777058048', '2779017103', '121058817', '11727466', '62402440', '2779752676', '2909305023', '2776354922', '148798159', '54971619', '2780082420', '2910983087', '2776578615', '2777563242', '190774637', '92545706', '187612029', '187725362', '154193497', '2776304672', '2910897919', '97121743', '54525549', '2776778800', '2776164336', '63553672', '69298649', '175097422', '2909816863', '2777327484', '2776775114', '2781373936', '83260615', '154742593', '180861198', '2777783080', '2776667075', '190729725', '106125477', '160894760', '2910122108', '50878840', '2776023280', '2780667421', '95478058', '2777963174', '2777590503', '158843486', '116659846', '196923211', '2779747408', '2776060186', '2779842916', '12334850', '38008478', '134718785', '191920346', '2777865929', '118541297', '106597312', '90638607', '2780720960', '29829512', '2910412189', '2778794710', '154978347', '109086967', '2776450708', '2778156880', '196423136', '149947181', '62897895', '138293262', '84662259', '122136912', '2781117724', '2780889106', '120835403', '532361734', '15476841', '2779391383', '11799548', '118121272', '157764524', '171367847', '13021490', '2776077392', '129446986', '203715995', '178859891', '173408217', '2780036518', '72768775', '37428701', '97812054', '519688237', '131739630', '170290021', '520752033', '2780678602', '2908681449', '2776907800', '150012182', '206477279', '2776874963', '2777619693', '2779919027', '2778357024', '2775845787', '56828936', '113878180', '6405472', '164767435', '14551309', '2776822914', '2781241367', '2781024063', '73413767', '2779571069', '30838235', '145437242', '29216876', '105030818', '179618828', '2776481522', '23119410', '195563490', '2909544240', '42222760', '2781385195', '174920882', '2776787376', '2778435127', '110120631', '21538904', '2910741372', '2779535233', '2910475472', '2908741780', '2777895876', '2779944601', '24561367', '2777166562', '2780690664', '2779833257', '84999194', '2776697088', '204573209', '137641188', '2777887233', '36628996', '145995521', '2780873938', '74872398', '2965921', '65601320', '133969743', '186867162', '2779850335', '175285421', '2777339832', '110893760', '114290370', '2780626102', '2777306163', '121518397', '2909251282', '9761082', '20060776', '2776104920', '2780371127', '2909009270', '134240934', '60584519', '19582560', '2909830505', '2776199826', '12287442', '126300421', '92995354', '2910905531', '161156560', '56751440', '98906903', '37025074', '24722842', '154910267', '2780120631', '2779608769', '2779303621', '2779383134', '187394410', '2778027091', '58300830', '2910222011', '2779241781', '75434695', '154587522', '992767', '159631557', '138721006', '2776138580', '146978453', '139744980', '133482787', '2909475385', '72422203', '2779026181', '2777709473', '25761169', '128669082', '198054911', '39118121', '504039657', '54936624', '2778692605', '185254563', '152551177', '2780431167', '2908703028', '107763842', '179687394', '101252448', '2780355671', '2778285946', '2775896111', '178260956', '157547923', '137757676', '203864433', '2909240815', '134224410', '2778627824', '538505008', '145595949', '172265290', '23375383', '134428707', '74714110', '23576306', '2777925586', '159091798', '130230704', '2779135771', '2910871427', '50291824', '2780267684', '2910512453', '2776136876', '8442714', '2780560099', '2778398154', '2780625085', '2776104089', '162027153', '2780862241', '6518042', '2779503283', '158379750', '2778842860', '2778809601', '2778776759', '2779501970', '2910677061', '77122620', '2777731942', '160394919', '108037233', '2777246536', '503427281', '2910323515', '16710848', '194110935', '19269812', '2779303498', '32283439', '53524968', '2779269999', '2781130449', '200274948', '146345970', '2910061995', '2908865798', '2777343860', '2910733581', '2909082439', '16686006', '62352918', '184782024', '204911340', '2779437720', '2910342993', '166595027', '2776994558', '4345497', '132983000', '2778488525', '170563983', '49853544', '61218518', '151405878', '2778837361', '130403756', '29513896', '2780642438', '2778580826', '201784641', '19023663', '73225119', '126909462', '18051801', '2780026712', '2776923346', '47878483', '2779851693', '164862427', '46724921', '113461152', '161657702', '111309251', '779372', '2778972723', '41243669', '2911128630', '2781086688', '16405173', '106246969', '2909896708', '2779893281', '116321358', '2778691696', '2779306247', '2778101592', '2777862630', '2910242987', '139378739', '139968098', '2776977519', '173801870', '128519102', '2776060655', '130574115', '188985296', '2777588356', '2778720315', '2908935387', '91881484', '101677414', '2777710951', '51456978', '2910157646', '46754376', '2779771641', '160191386', '150903083', '2778703219', '2911217838', '150394285', '34146451', '2777635934', '15401063', '53893814', '179737136', '18293161', '95349148', '2778928165', '192887742', '545171759', '643704', '200657195', '186037533', '60595047', '121308736', '2780643059', '67862953', '2908952454', '37135326', '22837933', '2911064832', '141131685', '47696715', '2780766832', '95914496', '159549609', '155292070', '2777980634', '2776102385', '2781376611', '73412179', '205783811', '40046163', '104205377', '110619738', '206530858', '55118286', '2775849312', '200185824', '2777738643', '2777926032', '21651964', '2780985968', '66594872', '74426580', '33296510', '2780841897', '176871988', '2776915473', '554190296', '34521246', '2779473651', '141261163', '110363677', '187529661', '117671659', '2778857364', '98535783', '2778702902', '160363772', '2779770443', '166693061', '2778499088', '65567647', '2908614855', '3503070', '40630565', '2779166880', '50720040', '29705727', '2780013003', '2778798718', '2780437230', '2778761393', '68793194', '70636015', '524878704', '192639820', '2779072820', '82653869', '2780530572', '181573087', '98907195', '186834915', '2776080111', '2777341996', '2777481183', '2778344433', '2777925978', '2780865476', '172123370', '121327165', '2776593022', '167296696', '86060186', '31910662', '2775936651', '89309335', '2777796192', '77667144', '2776192736', '2778529423', '2911112108', '172750839', '63655563', '2778233930', '107316180', '2776602342', '2911118914', '544072693', '2779581428', '139321929', '159188206', '94602187', '311688', '2776100724', '155092808', '51576277', '2776624666', '2776339268', '2776405685', '2778284051', '2781183675', '2777107361', '11432220', '127196793', '2779898492', '161813005', '2777805442', '58142911', '46721378', '541019422', '14928880', '121087249', '2780066276', '110850998', '32258923', '193690875', '41866144', '2776184083', '118168178', '74524168', '2780576536', '70401792', '16644385', '2779376387', '2781020372', '118916094', '2779799902', '2777777821', '36038061', '102871797', '77671233', '2777835026', '2910216150', '111806078', '2778571651', '2780083220', '2780358262', '67936045', '2778049420', '178365465', '36770926', '144308804', '2781148867', '2781381157', '41994538', '2776584721', '181236821', '2776278144', '2775899781', '150846664', '162100613', '2778583532', '115816120', '40586070', '2777680864', '138481207', '158488048', '2908643474', '2910463473', '99752389', '2776784398', '95548782', '188045654', '142784634', '2910706634', '2776440744', '97850793', '37624559', '61298376', '144468803', '2776894995', '2777089626', '2777565064', '32860805', '58396970', '132882038', '2781042210', '26405456', '540522513', '2776074547', '2908666506', '2780403918', '513985346', '54290928', '519458232', '34447519', '2781110076', '39400828', '2780892144', '2777215697', '2776258540', '200687136', '179145894', '110956428', '2781300000', '2777817576', '2910060944', '2780179797', '2779432455', '26355699', '103423482', '2778820799', '2779015050', '168068576', '99874240', '134535237', '206826598', '150708132', '162882748', '2775926494', '54285103', '2779424011', '132094186', '2780615885', '101396714', '2780626145', '2776736150', '104434177', '119474132', '2776960227', '31548570', '2910765841', '2780805606', '2781027376', '149265406', '2780029314', '2778920187', '57061188', '2908850610', '183735805', '23230815', '84967159', '182173840', '2779742141', '504270822', '2779817440', '2777178879', '2779689694', '2779738552', '2776698388', '2780705272', '50406972', '183208416', '25074200', '94081185', '78382760', '2909042360', '192932206', '554616519', '18419278', '40937832', '159249277', '40834362', '2778600265', '139353612', '31531917', '64089585', '2776500315', '2778370875', '2780439177', '2778447519', '8898347', '2776422217', '2777062904', '71832216', '42043438', '68386048', '2778812306', '51936796', '112184408', '551646850', '2909116566', '130946814', '2777230600', '153015087', '2779284651', '160088933', '559253537', '2780328347', '72898154', '2778770744', '175457265', '2779952096', '2910631570', '19244329', '2778452465', '160730041', '2776330005', '2779606945', '167393769', '2781051052', '155355069', '132646400', '185705118', '206923515', '5829439', '2909707298', '96814336', '85884896', '10879293', '135377553', '204948658', '2777592538', '72293138', '115903097', '2776936202', '15476950', '2778022221', '100405246', '2775859485', '2776030121', '49504249', '149835862', '2780682718', '2776035571', '2781113784', '18787249', '166634970', '2779937201', '38653338', '153553885', '2911190354', '46312889', '141112555', '12534583', '203582535', '117110933', '93106096', '541182425', '53688548', '2780338368', '2778459932', '523214423', '103697071', '188805328', '2775838418', '2777661930', '2778228685', '26926545', '2780872544', '43653141', '59345209', '2777276890', '144408495', '148554410', '68183290', '2780057273', '2778693464', '14914868', '6929976', '76856003', '2910818388', '36091686', '143588538', '2776899970', '2779208285', '42298096', '104453602', '102232406', '80962145', '125616564', '169851745', '53371666', '137335462', '197417287', '166972891', '2780874159', '119498932', '2778895906', '2776142628', '2779900269', '2909944768', '21946209', '7923174', '58817359', '2765594', '119751540', '2779760629', '2910364823', '2910050528', '2909179353', '2777672618', '2779191767', '528626486', '2779951582', '2779104393', '2776445639', '2780826866', '2779082914', '40367268', '44104985', '41231900', '150256626', '118314422', '178570572', '2780242733', '2778832859', '205904022', '27289702', '190330329', '2777754422', '96709497', '2780308056', '46788351', '2780089039', '2778329844', '2777314014', '2909427711', '2780188227', '2910833221', '138224501', '2778993590', '182521987', '94200605', '104745612', '2909316267', '2777051993', '529740132', '2778058665', '2775981511', '140619461', '148221864', '12248821', '2778555145', '2779950589', '32900221', '2777720951', '2778100165', '2780922921', '101457746', '2776457032', '2776588719', '38639735', '8162170', '2776979432', '506065880', '2780466208', '131100506', '2776363543', '93389723', '187212893', '73859625', '2776640376', '2780652538', '125502', '19979193', '2909175755', '2908853934', '2777646807', '92851284', '193415008', '2780848835', '166690567', '2776126113', '2908723665', '2780965034', '70520399', '2775916975', '133347240', '129880937', '3285680', '145565327', '2779917225', '2780814149', '45058047', '15655602', '536799390', '186795189', '17993994', '92237259', '2908629581', '72648740', '2780027527', '138774019', '131923401', '2777830566', '2777969390', '63401691', '42133412', '27462124', '63436455', '2777866876', '2776922509', '541409800', '148415826', '74478641', '198211336', '2775960376', '193237570', '2776456419', '2780689689', '12892243', '2780903246', '110350745', '2911124959', '125550954', '2781013037', '2776222033', '2777277180', '2777551599', '99541287', '117670421', '82687282', '2778516001', '15241564', '79127381', '2910845796', '2780298425', '136380597', '170674324', '143616835', '147196274', '119701452', '2778775284', '44079730', '68702407', '48314217', '124511130', '2776321517', '2778734332', '201100257', '2778831993', '2776091240', '2777747085', '139213188', '2776194824', '2777674469', '185298936', '2779158102', '2779511760', '201547687', '2775919224', '2779073270', '14919245', '38052585', '184454961', '2779610630', '154945302', '2182769', '2776663509', '46891859', '2780383739', '39518161', '96711827', '89094514', '169466946', '2778080089', '43867161', '2776698168', '2776395564', '7573999', '2778197767', '2780556460', '2910908761', '2780373723', '134560507', '75254596', '2778275008', '2779686855', '138868233', '2779030575', '2777190053', '138370407', '2778086310', '2777553912', '156975606', '94267665', '66018809', '2777425764', '199845137', '198621165', '2778040704', '138171918', '2778171436', '104407772', '126230835', '520409616', '2776038537', '118519418', '180500224', '60511073', '171900002', '2778119891', '137813230', '97784730', '27267504', '22607594', '41132950', '2778240782', '34612862', '88654294', '62427370', '67656411', '204517386', '2779260511', '2779282880', '101336846', '538199239', '2909155221', '2777047555', '2777024025', '152153834', '2778617657', '131055897', '2779097976', '116696211', '2780541193', '2910396183', '509929229', '23061349', '2779081050', '85260623', '2910680965', '544778455', '199168358', '135642988', '2778793053', '78401558', '61742228', '173906292', '165650700', '27881333', '2909446438', '2909195514', '2777869240', '2908879008', '137488568', '2779609627', '179145077', '198766705', '171142967', '2779652256', '2909631073', '77624028', '78949437', '129792486', '2910859387', '38693133', '2910569055', '2779839180', '2910445219', '34630208', '9593695', '146270425', '127732161', '2781395907', '137126227', '152146699', '189326492', '32993116', '173409883', '2781127917', '11067248', '45502583', '2779073172', '109592283', '71681937', '18595123', '2778435994', '101826366', '146032754', '41056977', '113378356', '196351127', '11982227', '2776051353', '71515424', '2776782996', '123566451', '2779622097', '134816702', '2780725026', '2776667712', '2910485920', '2781023928', '101273638', '2780832955', '110682481', '2779959790', '35341882', '2781087836', '2910732896', '158523808', '537773303', '39173455', '186579879', '14740148', '2776916405', '57814208', '130635790', '2910633225', '2780330172', '2778779970', '12303254', '78687567', '2780285038', '2781283035', '2781164033', '166556878', '2778952998', '140604960', '2910156419', '2776777543', '2779224189', '2780537718', '128450285', '156336011', '151543262', '2779135357', '121017423', '46820840', '83479923', '2779318504', '2778478046', '2776797291', '30112582', '2780782035', '2777311342', '2910950043', '2778320157', '106809287', '16777580', '539450922', '541491724', '164866673', '2780523633', '150711758', '2776740192', '2778223847', '2775914053', '2778965516', '2780722187', '2780936238', '197654239', '98156149', '2780972165', '2777109904', '2780170866', '29984679', '2781338159', '22550940', '134215040', '509933004', '178669061', '2779989747', '2910618856', '2779271213', '2909472621', '12090584', '3866505', '2779980673', '127705205', '2777785971', '2777347882', '2780187858', '203833370', '78834623', '24604422', '2780368237', '150495011', '16635281', '44832474', '2779826969', '2778944269', '31081114', '2910755285', '544153396', '120961793', '33947775', '127413603', '190989730', '140551693', '2779490540', '207190284', '2776277307', '2777426639', '2910470413', '135628077', '71813955', '20977289', '88005923', '64346931', '115958267', '2776229149', '170401851', '2777789335', '182019814', '2910989632', '139078358', '2779782174', '2777159256', '508800617', '2778135664', '86504812', '2777527080', '2776811073', '60154766', '530175646', '166566249', '141218545', '6268609', '158258876', '2779498771', '10393806', '2779073454', '2781325599', '33842695', '543218039', '83849155', '202798467', '136319028', '188817802', '2910450386', '2779199053', '2778552832', '57527310', '205379176', '2777496290', '75100901', '190430219', '2780469320', '2909866401', '197231348', '2777191329', '2777006462', '61776360', '57863822', '204329753', '31163007', '70388272', '2780516175', '166667406', '100087112', '177274176', '1276947', '151800584', '2911004254', '2909435489', '129828019', '2777820359', '2779245141', '66402592', '2776326889', '205817836', '2777889803', '124806180', '192220659', '2779998766', '13263538', '2779439448', '551230270', '80364944', '91432469', '2780352317', '2776895459', '2779816654', '2781209966', '2778869280', '528167355', '71800255', '522053795', '27819379', '2910275393', '97744766', '175966412', '159554100', '110407247', '42143788', '85608190', '96473913', '130391077', '161866238', '2778231660', '103888896', '2778865806', '157846364', '51244244', '169915972', '196713837', '31510193', '2778358729', '49113467', '88105052', '24027999', '143066371', '89508514', '184422994', '2776244466', '18949120', '144820252', '157469704', '2776676641', '2780710336', '45293964', '518104683', '2910319113', '2911061381', '2776985863', '2341566', '2778561511', '2778360186', '58202505', '555048382', '2908558976', '2909709171', '2908907010', '185051836', '31533079', '138942068', '140016664', '2911051535', '115023222', '2780626000', '2779576378', '2779606561', '2779664251', '2780962792', '99970624', '44740213', '176445938', '77854861', '12703456', '2779006324', '2780471320', '53838383', '2781048479', '45859991', '2781424430', '2779680598', '30471927', '26022165', '40458791', '2777064627', '2776921476', '2777905004', '2909333728', '2910522325', '2780364048', '2778049214', '2777215911', '32977378', '12143843', '102451475', '2779933583', '138569888', '137996800', '39084254', '2775959666', '2778827957', '2777232610', '2780366299', '2781335571', '87379069', '51399673', '41794268', '4848560', '5546195', '200246849', '2909802026', '2778206073', '24733836', '182731298', '2776986690', '32243926', '25902001', '112505250', '2777623114', '163540240', '144992956', '2781027520', '108326461', '145073311', '2781101175', '174771821', '2908828389', '2780652884', '79381805', '2779586902', '76831024', '2777526511', '74250896', '2780729894', '2910564736', '2779684419', '2910731964', '41608201', '2777421447', '117089332', '2909065553', '115537861', '22495355', '2777200204', '72981366', '181447626', '76444178', '202986899', '451841', '547195049', '158711907', '2778738845', '2776638905', '2780119549', '169715780', '17599544', '41999313', '150185637', '2777223244', '28849524', '207857233', '202662744', '2777575374', '23903533', '64980692', '2779525993', '22286887', '2778142872', '2781155252', '2779630230', '2780662705', '4924752', '13951911', '175115632', '2776054589', '56919463', '35777598', '2775906366', '163581340', '46722567', '202992132', '101468663', '2781283277', '2777571838', '118813454', '193794138', '2780443747', '59061988', '2776205647', '5339829', '2780500733', '2776299913', '54108766', '52761205', '2779436495', '2780204815', '166689943', '164468515', '156708679', '37482258', '46352929', '106165642', '120823896', '72045907', '113145756', '2909921707', '2777796589', '13164978', '87161607', '26593445', '149672232', '43540301', '83893533', '2909332535', '161352937', '2909386086', '10390740', '2779978421', '204223013', '142600807', '171562612', '73862843', '2780039072', '169337768', '89448510', '200947169', '175604262', '2779423988', '139345896', '54654163', '2781129822', '2780625559', '1486788', '2777909563', '196054291', '539828613', '137314826', '164495641', '2776445415', '5408304', '2591305', '2779962586', '5903713', '2910681755', '2776642717', '85973986', '203542878', '2777662197', '113508815', '193611912', '182769425', '119781247', '2779559744', '2780663833', '2779817378', '186072955', '50296614', '143977109', '2910199060', '9671652', '94921317', '41972984', '2910035481', '80343103', '140075996', '206521022', '142000545', '122196380', '151431374', '98851261', '2910889294', '2781013843', '144618238', '2780788825', '118572532', '114237682', '15535662', '89702864', '177409738', '2776125036', '2778102629', '2776310492', '166961238', '2779595939', '24463637', '184551789', '1700975', '2778778939', '2779920640', '2778715912', '511782119', '193149544', '181932105', '5871375', '2909575431', '2777959984', '2780193958', '2781042915', '94922259', '155334826', '2777799566', '2781053203', '2779698641', '138108440', '2781183794', '2910166139', '33271190', '2779687700', '158550234', '2776212561', '120302604', '2781298581', '2776509796', '2779145874', '2778420160', '44435123', '11189877', '165537544', '33039251', '40160088', '2908850654', '2779868332', '107756529', '182891698', '162096220', '130143024', '98528093', '185172162', '141603559', '2910545671', '2778025062', '108572070', '71376005', '2778479235', '163952510', '199726164', '2780052205', '2776881904', '96191372', '172860338', '98375054', '10929652', '50630238', '58074150', '2780820837', '23898865', '16671190', '64671776', '2909288663', '2779492575', '149672775', '137364921', '88417058', '202802212', '2777098202', '2778140759', '105600410', '2910073301', '102458011', '88477975', '2909071395', '2777007952', '2779542357', '2909942976', '190834728', '20885615', '2777937549', '2776052592', '159391843', '155296804', '205899878', '2776166442', '511503438', '2777564445', '3720319', '513153333', '26466937', '2777445446', '2777089699', '33588617', '2778372311', '4166634', '2781366932', '127592171', '2779727067', '144534570', '2910017386', '102180281', '67427781', '2778559676', '2778464233', '88001094', '2779769603', '192039558', '160919093', '2778183165', '2776810648', '2911180396', '184896649', '127210992', '2777138346', '106848363', '143517461', '203570394', '159951928', '150818752', '162005631', '2779150755', '183847335', '81376181', '1781132', '37696544', '136336744', '2909712328', '2777450992', '2778386843', '2775865179', '2908912629', '56906281', '2777537072', '2780198632', '2776440409', '109932267', '43091971', '39399123', '2910381287', '163849874', '2909685383', '2780655307', '156696300', '76969082', '2779936157', '186967261', '27142793', '12965471', '2779478308', '144836735', '2780365336', '35096461', '198667719', '131232501', '2777765789', '42411736', '26915998', '2780634410', '131043120', '2778937263']</t>
+          <t>['68183290', '26355699', '2779868332', '2910364823', '57527310', '45859991', '186867162', '2776874963', '51936796', '2778571651', '167393769', '49113467', '102458011', '2910060944', '2908558976', '88654294', '2777783080', '2779437720', '120823896', '2780029314', '2779199053', '125502', '2779817440', '40586070', '163581340', '2909928070', '2777865929', '2780298425', '118168178', '541409800', '138171918', '130230704', '2777191329', '179145894', '160088933', '2781129822', '992767', '184422994', '2776184083', '171367847', '151543262', '2779318504', '106848363', '16777580', '36038061', '2779303621', '2781338159', '2781399071', '19269812', '166667406', '2777327484', '2911004254', '198211336', '198621165', '108326461', '170674324', '537773303', '2908912629', '113145756', '131232501', '2779073454', '2781130449', '2779936157', '541182425', '128450285', '451841', '2776576667', '182173840', '150818752', '2911180396', '2781395907', '2776784398', '199168358', '152146699', '150394285', '2776787376', '110850998', '530175646', '2775960376', '555048382', '2778398154', '30467622', '131100506', '26022165', '58202505', '37696544', '2780204815', '178570572', '40046163', '197417287', '2780652538', '133482787', '2780036518', '37428701', '2777777821', '2777138346', '149835862', '204573209', '2778561511', '2778025062', '166972891', '2780922921', '24722842', '179145077', '2777937549', '2776663509', '152551177', '524878704', '73412179', '55118286', '142000545', '2781155252', '2779006324', '203864433', '2776736150', '2778842860', '80962145', '107316180', '504039657', '19979193', '185254563', '2780841897', '137314826', '143517461', '196423136', '2777481183', '2778559676', '149947181', '2776960227', '2778233930', '2909175755', '162882748', '70636015', '2776212561', '2777817576', '77122620', '2779478308', '2778049214', '2780626102', '2778809601', '43540301', '2781164033', '538199239', '101457746', '2776126113', '2777959984', '2777178879', '25902001', '184551789', '2776244466', '2781335571', '98528093', '2776921476', '60511073', '41994538', '2776740192', '2778357024', '38653338', '30838235', '166689943', '2780179797', '2780082420', '2780705272', '2910035481', '141131685', '177274176', '2776104920', '53371666', '192887742', '2776775114', '159951928', '102871797', '2910871427', '80364944', '181573087', '3503070', '2780625559', '2776422217', '154193497', '83893533', '2777062904', '156975606', '94602187', '2779241781', '118314422', '2776194824', '2776192736', '2778049420', '161156560', '92995354', '2780725026', '85608190', '2779727067', '2778101592', '2778386843', '2779752676', '2778255315', '2778993590', '131923401', '2779376387', '2776450708', '2777051993', '2777805442', '110956428', '2776445415', '43653141', '75100901', '2965921', '2779606945', '2781101175', '197654239', '110363677', '2779622097', '131739630', '160363772', '2775865179', '119751540', '52761205', '2777925978', '2780865476', '2776697088', '155292070', '2908952454', '11432220', '2778156880', '2779306247', '2779900269', '2776667075', '136336744', '2779166880', '146032754', '155296804', '529740132', '36770926', '175285421', '511782119', '94921317', '2776797291', '95914496', '527607', '51244244', '539828613', '30471927', '2777799566', '76856003', '62352918', '48314217', '2776077392', '2776321517', '166690567', '126230835', '2776222033', '2778171436', '159091798', '2910569055', '190774637', '141261163', '121327165', '77854861', '2910681755', '46820840', '125616564', '2910512453', '200947169', '2780523633', '97784730', '2779081050', '11727466', '2778240782', '107763842', '2780848835', '2780089039', '2911061381', '64089585', '186579879', '87379069', '2910755285', '40367268', '175966412', '173409883', '2780874159', '161866238', '171142967', '145565327', '78687567', '2776977519', '2779989747', '163849874', '31081114', '2778928165', '2778206073', '2909195514', '2775916975', '166693061', '120835403', '2911118914', '24604422', '99874240', '2775919224', '28849524', '2777796192', '72293138', '2780198632', '2777862630', '138481207', '205817836', '29829512', '511503438', '128669082', '188805328', '2779917225', '2780805606', '2779423988', '38052585', '67936045', '62897895', '2777347882', '2778058665', '2779998766', '92545706', '2779073270', '2779747408', '98375054', '519458232', '2909240815', '29513896', '12287442', '204911340', '2776310492', '2778285946', '2776936202', '102451475', '109086967', '71376005', '2779535233', '7923174', '2779559744', '2780083220', '2910412189', '2778119891', '131043120', '162100613', '28442783', '2778617657', '2909921707', '72768775', '146345970', '528626486', '150012182', '2777527080', '2777592538', '166961238', '32993116', '2776509796', '122136912', '2780642438', '180861198', '41608201', '2777751223', '2908723665', '144534570', '643704', '42222760', '2909830505', '166634970', '137757676', '87161607', '2781051052', '18419278', '2776100724', '2778776759', '2779630230', '117670421', '46788351', '13951911', '32977378', '2909816863', '117089332', '22286887', '62402440', '86060186', '2780667210', '150903083', '181932105', '174771821', '54290928', '2776915473', '2779424011', '150185637', '2779833257', '520409616', '57863822', '2776602342', '2775859485', '1781132', '2910889294', '2780431167', '2776104089', '193149544', '185705118', '2777190053', '2777869240', '2778865806', '176871988', '29216876', '24463637', '2777215697', '2780689689', '2779269999', '203582535', '134535237', '157846364', '78401558', '2776899970', '144618238', '2779799902', '2777796589', '188817802', '2780469320', '185172162', '2779383134', '26915998', '98906903', '2777789335', '2911190354', '2910122108', '47659340', '138721006', '520752033', '2779135357', '2776698388', '2765594', '202798467', '44104985', '101677414', '157764524', '74478641', '2910050528', '94267665', '538505008', '100405246', '172123370', '2908879008', '2778140759', '2909155221', '163540240', '31548570', '153015087', '2779770443', '2779511760', '2776676641', '96709497', '2781183794', '53838383', '150256626', '2777963174', '126300421', '187394410', '11189877', '129446986', '151431374', '2776363543', '155355069', '46312889', '78834623', '88005923', '2781048479', '2781241367', '2910222011', '2909333728', '2780678602', '157547923', '2781381157', '2910859387', '2779771641', '136319028', '23903533', '2910545671', '2909009270', '2779072820', '160730041', '540522513', '130391077', '13021490', '188985296', '118572532', '2910275393', '2780437230', '164468515', '2910522325', '205899878', '173801870', '4166634', '10879293', '2775893736', '94081185', '2780328347', '41972984', '2779684419', '56828936', '45058047', '2779952096', '12334850', '22837933', '2778831993', '42043438', '176445938', '2910633225', '23061349', '2775914053', '2781183675', '179737136', '23375383', '164062900', '174920882', '70401792', '2778706760', '2910741372', '44435123', '183208416', '2910396183', '536799390', '61776360', '51399673', '2779816654', '141218545', '141112555', '2780439177', '2776994558', '2908865798', '518104683', '134816702', '2909446438', '74872398', '137335462', '7573999', '56919463', '11067248', '193237570', '119701452', '111309251', '139353612', '2779742141', '25074200', '32243926', '128519102', '2777425764', '63401691', '2908703028', '2778920187', '2778435994', '21946209', '62427370', '96191372', '2776593022', '203715995', '2779271213', '198054911', '148221864', '186834915', '186037533', '2776304672', '22607594', '2778447519', '2777590503', '2776986690', '74426580', '554616519', '2777564445', '2778798718', '156696300', '2777006462', '172750839', '551230270', '63553672', '18949120', '2780537718', '58142911', '2780383739', '47878483', '76969082', '110619738', '2781283277', '122196380', '26405456', '172630978', '193690875', '2778223847', '60154766', '21651964', '106165642', '2778197767', '6929976', '95548782', '109578324', '2779490540', '206477279', '2779595939', '2779439448', '89702864', '34521246', '68793194', '2781367577', '2778420160', '2778499088', '34447519', '81376181', '40458791', '101826366', '2779145874', '2777230600', '129792486', '2780663833', '196713837', '183735805', '2777662197', '2780667421', '2778529423', '166595027', '2777166562', '2780814149', '2910450386', '522053795', '200185824', '2779850335', '143616835', '181236821', '184896649', '2779919027', '102180281', '50720040', '172860338', '2780722187', '2776229149', '186795189', '2781298581', '105030818', '202662744', '77624028', '18595123', '2778435127', '519688237', '2776481522', '105600410', '2777450992', '154587522', '2777619693', '2780766832', '170401851', '50291824', '59061988', '58817359', '126909462', '523214423', '2778812306', '88105052', '67427781', '33039251', '2910841016', '528167355', '106125477', '2781042915', '513985346', '2780662705', '31163007', '9671652', '54285103', '2778329844', '2908850610', '89094514', '2780720960', '178859891', '2777731942', '142600807', '2779687700', '96814336', '159249277', '2775845787', '14919245', '31510193', '137996800', '2910733581', '204517386', '160894760', '2780556460', '67656411', '200687136', '513153333', '20977289', '125550954', '2779576378', '144468803', '2780626000', '159188206', '85884896', '27267504', '184782024', '101396714', '175457265', '183847335', '504270822', '2780039072', '51576277', '2910845796', '169337768', '2781020372', '2776051353', '89309335', '8898347', '121518397', '2777058048', '2779680598', '2779082914', '2781053203', '29705727', '82653869', '2780338368', '193794138', '2910319113', '93106096', '544072693', '38008478', '2911124959', '2779697334', '2777565064', '85260623', '158523808', '2776166442', '104745612', '2781424430', '138370407', '15401063', '2780365336', '166556878', '2780541193', '9761082', '2909942976', '2779158102', '157469704', '2777314014', '2910556911', '2778738845', '2778583532', '162027153', '27819379', '182769425', '2777909563', '2778040704', '2777551599', '160394919', '2779937201', '2777720951', '559253537', '2778937263', '2780729894', '2776030121', '2777109904', '8442714', '2778080089', '506065880', '2777341996', '2776698168', '2779842916', '104407772', '140619461', '46721378', '24733836', '2776052592', '2778627824', '541019422', '33296510', '84662259', '2777306163', '42298096', '42411736', '79381805', '77671233', '2781027376', '2781300000', '69298649', '2777277180', '19582560', '22495355', '2778857364', '2776500315', '2777635934', '508800617', '2779610630', '2779135771', '2780119549', '2778720315', '137813230', '135377553', '67862953', '153553885', '2910242987', '132882038', '2779282880', '134560507', '2779839180', '2779664251', '2911064832', '2910631570', '41999313', '190834728', '2778869280', '2777895876', '2909055331', '2910680965', '2776278144', '71800255', '147196274', '5546195', '12534583', '40937832', '2775849312', '158258876', '14914868', '2776102385', '2779473651', '2778142872', '71681937', '193415008', '132094186', '15241564', '33588617', '133925201', '61298376', '2779492575', '27142793', '2779855849', '2908666506', '2776440744', '29984679', '94922259', '2776326889', '2779503283', '32860805', '2778715912', '106597312', '120961793', '41132950', '115903097', '76444178', '107756529', '178260956', '5903713', '63655563', '131055897', '2780530572', '2776142628', '2909435489', '206826598', '2775906366', '202802212', '54525549', '140551693', '2779826969', '2779920640', '88001094', '136380597', '2779260511', '201547687', '2182769', '71832216', '72898154', '2778778939', '207190284', '100087112', '194110935', '34612862', '2776164336', '2778972723', '2780872544', '10390740', '186150311', '2776782996', '51456978', '2779782174', '2778734332', '173408217', '2779571069', '178365465', '134224410', '545171759', '129828019', '2778320157', '58300830', '27289702', '118541297', '3720319', '2779760629', '159549609', '39118121', '83260615', '115958267', '2910950043', '2779950589', '137488568', '77667144', '11799548', '2781024063', '2909575431', '2780170866', '74524168', '110407247', '190430219', '2781013037', '180500224', '99541287', '150495011', '2780366299', '2780466208', '24027999', '2776091240', '42143788', '2777646807', '106246969', '31531917', '2779609627', '91432469', '2775959666', '118519418', '2776922509', '138224501', '56751440', '2777925586', '203542878', '88477975', '54971619', '2777889803', '2908935387', '2341566', '2910983087', '2778344433', '2779245141', '124806180', '46722567', '206530858', '165650700', '61742228', '2777537072', '145073311', '2777200204', '2776895459', '2910463473', '2777785971', '2779303498', '2779015050', '64671776', '159554100', '2908828389', '204329753', '2781110076', '135642988', '133969743', '2776205647', '43867161', '2781042210', '104453602', '957247', '547195049', '197231348', '171562612', '554190296', '2909082439', '2779652256', '206521022', '2776822914', '2777571838', '86504812', '2777830566', '2910974233', '2778086310', '2776916405', '2777835026', '83479923', '27881333', '2779606561', '179618828', '127732161', '148554410', '2909631073', '2780500733', '2910156419', '74714110', '140016664', '2910897919', '2777339832', '2777159256', '2910342993', '2779980673', '2780832955', '31533079', '2780889106', '2778779970', '127592171', '158711907', '116696211', '2777866876', '2911112108', '98851261', '43091971', '130143024', '2777680864', '150708132', '139968098', '40834362', '119474132', '58396970', '2777623114', '143066371', '2780364048', '2780368237', '98535783', '2780892144', '311688', '144992956', '2780052205', '53524968', '152153834', '2779525993', '23898865', '541491724', '2778555145', '192639820', '33271190', '2780576536', '2910908761', '185298936', '204223013', '2778102629', '23119410', '2778775284', '2910485920', '80343103', '26593445', '39173455', '2779432455', '186072955', '2910475472', '2777215911', '2779026181', '2777107361', '64980692', '2781127917', '110893760', '113378356', '12703456', '2778965516', '2778693464', '2910017386', '2781148867', '135628077', '2775981511', '82740854', '2780862241', '2778022221', '41243669', '22550940', '2776138580', '2780965034', '2910564736', '2910989632', '101273638', '2778692605', '54936624', '102232406', '156336011', '181447626', '53688548', '106809287', '2777747085', '154742593', '104434177', '145437242', '16686006', '2780936238', '151800584', '199726164', '8162170', '2909866401', '2780443747', '38693133', '154945302', '110350745', '2781013843', '12143843', '2778703219', '39399123', '76831024', '139321929', '65567647', '130635790', '2777232610', '117110933', '156708679', '41231900', '114290370', '2776440409', '161352937', '191920346', '164862427', '16635281', '2780066276', '192039558', '2777426639', '2779944601', '193611912', '121087249', '2910732896', '2909944768', '2777089699', '2776199826', '36628996', '139078358', '2779689694', '57814208', '2777820359', '532361734', '80323366', '2775899781', '2780242733', '151405878', '2909712328', '19244329', '2778832859', '2909065553', '119781247', '30112582', '2777246536', '2910166139', '5829439', '14740148', '101468663', '205904022', '2776258540', '11982227', '2777047555', '82687282', '2908629581', '2777588356', '161657702', '509933004', '77390884', '164767435', '150711758', '2779959790', '2776907800', '72422203', '12892243', '20885615', '32283439', '111806078', '107166191', '98156149', '182891698', '150846664', '5408304', '2775838418', '1276947', '2776395564', '75254596', '73413767', '2776330005', '72045907', '109592283', '199845137', '35096461', '2780690664', '2908907010', '112505250', '2779769603', '2780371127', '2909707298', '2779208285', '26926545', '170563983', '4924752', '94200605', '2910445219', '139213188', '10929652', '2781283035', '154978347', '2910381287', '2780027527', '2910323515', '190989730', '49504249', '2909472621', '158488048', '2779017103', '2780358262', '2781087836', '159631557', '2777089626', '92237259', '72648740', '2910706634', '192220659', '2910073301', '78949437', '187612029', '2776777543', '2776339268', '2776038537', '171900002', '110682481', '2781376611', '2780373723', '97850793', '45293964', '202542152', '57061188', '113878180', '187212893', '2779030575', '2780193958', '3285680', '44079730', '45502583', '9593695', '85973986', '169915972', '138868233', '2780820837', '2776811073', '203833370', '119498932', '2777553912', '2778231660', '2778488525', '779372', '188045654', '12303254', '103423482', '2908741780', '99970624', '2778552832', '2781366932', '186967261', '2777024025', '130946814', '2779097976', '196351127', '132983000', '3866505', '2779962586', '2776035571', '97744766', '15655602', '2776810648', '2780652884', '15535662', '40630565', '116659846', '2781385195', '112184408', '75434695', '2778702902', '2779191767', '2779698641', '144836735', '2780962792', '2776578615', '127210992', '79127381', '70388272', '139378739', '66018809', '2776667712', '2909305023', '195563490', '206923515', '1486788', '2781373936', '99752389', '182731298', '121308736', '2781086688', '175097422', '2908643474', '2776979432', '2910677061', '2776584721', '2780710336', '2777223244', '160919093', '25761169', '14551309', '190330329', '2776457032', '83849155', '2779150755', '149265406', '96711827', '155334826', '2778372311', '39400828', '2780782035', '140604960', '2777926032', '2776125036', '2909896708', '160191386', '2778952998', '2776778800', '2777710951', '6405472', '205783811', '15476950', '108037233', '17993994', '19023663', '2909288663', '49853544', '137364921', '134718785', '71515424', '2910905531', '2779501970', '2780615885', '110120631', '2780985968', '34630208', '159391843', '2910216150', '2780120631', '190729725', '2910199060', '2777311342', '2909709171', '182521987', '2778600265', '187725362', '37025074', '2910765841', '44832474', '196923211', '37624559', '44740213', '162005631', '172265290', '2776894995', '2909802026', '2909071395', '149672775', '201100257', '2778837361', '2778761393', '21538904', '2909475385', '137126227', '2777575374', '167296696', '2776060186', '127705205', '544153396', '168068576', '40160088', '60584519', '204948658', '138774019', '2911051535', '2779095429', '16710848', '2778027091', '164495641', '93389723', '61218518', '503427281', '2780267684', '2778100165', '2910618856', '71813955', '2780187858', '2781209966', '46724921', '89448510', '2778580826', '18051801', '2778478046', '97121743', '2779978421', '2780013003', '2781438671', '2909427711', '88417058', '137641188', '2777674469', '74250896', '2776456419', '166566249', '2778895906', '207857233', '2780516175', '54654163', '2780643059', '2776923346', '103888896', '46754376', '134428707', '36091686', '2779073172', '165537544', '2909179353', '73225119', '2777421447', '2779933583', '144820252', '2910833221', '5871375', '202986899', '202992132', '2776054589', '116321358', '2776881904', '42133412', '2777709473', '18787249', '173906292', '2780188227', '200246849', '63436455', '169851745', '132646400', '2778360186', '16405173', '534819032', '2909544240', '2779898492', '158550234', '32900221', '101336846', '118121272', '149672232', '2910470413', '33947775', '12090584', '2777343860', '139744980', '2778183165', '109932267', '196054291', '2777887233', '2780560099', '154910267', '155092808', '2779686855', '2778820799', '148415826', '60595047', '5339829', '2778275008', '2909251282', '104205377', '95349148', '143588538', '138108440', '123566451', '2908853934', '2780352317', '41866144', '24561367', '2778135664', '145595949', '2780903246', '134240934', '113461152', '2778358729', '2778770744', '2777969390', '2777064627', '13263538', '2909386086', '2910818388', '2777905004', '117671659', '33842695', '6518042', '170290021', '2776638905', '108572070', '2776642717', '18293161', '50406972', '143977109', '20060776', '2777672618', '2778793053', '205379176', '145995521', '2776985863', '2778459932', '2777276890', '2779391383', '2908614855', '2778452465', '1700975', '2779851693', '2779586902', '2778479235', '2777765789', '144408495', '39518161', '2909332535', '23576306', '138942068', '2778464233', '198667719', '115023222', '73859625', '68386048', '50878840', '127196793', '2778827957', '121058817', '2776060655', '2779581428', '73862843', '142784634', '2778944269', '2909116566', '138293262', '2776588719', '187529661', '58074150', '2910731964', '539450922', '178669061', '2780626145', '201784641', '185051836', '56906281', '2777661930', '2909344626', '2781113784', '2776080111', '95418871', '134215040', '2776624666', '47696715', '84999194', '32258923', '70520399', '130574115', '96473913', '78382760', '2780403918', '162096220', '121017423', '166576357', '2775936651', '113508815', '31910662', '192932206', '146978453', '2780682718', '2779893281', '2909685383', '2910157646', '2779951582', '2777980634', '2778284051', '2776277307', '2780026712', '2780471320', '169715780', '14928880', '2777132090', '38639735', '34146451', '6268609', '23230815', '146270425', '91881484', '2777445446', '200657195', '59345209', '158843486', '89508514', '141603559', '2776299913', '2780285038', '2779817378', '2781117724', '2778228685', '2780057273', '2776405685', '2781325599', '39084254', '114237682', '2776354922', '148798159', '66594872', '35777598', '118916094', '200274948', '65601320', '41056977', '2780634410', '2779284651', '95478058', '26466937', '17599544', '115537861', '138569888', '2780635410', '68702407', '13164978', '97812054', '2780873938', '2778370875', '179687394', '2780355671', '16644385', '92851284', '2779608769', '98444146', '2777562361', '2780330172', '2776023280', '118813454', '72981366', '2777007952', '27462124', '144308804', '2780788825', '177409738', '509929229', '84967159', '37135326', '2910061995', '2776074547', '130403756', '2780308056', '46352929', '2780625085', '2908681449', '2591305', '129880937', '2779738552', '35341882', '175604262', '50630238', '2780972165', '2777563242', '12965471', '2781027520', '79689650', '124511130', '16671190', '50296614', '12248821', '2779224189', '2778397825', '115816120', '2779498771', '2775896111', '2911128630', '4345497', '37482258', '41794268', '189326492', '544778455', '2777526511', '90638607', '2779436495', '10393806', '184454961', '2909042360', '64346931', '2776136876', '2909316267', '4848560', '46891859', '158379750', '2777496290', '2778691696', '175115632', '551646850', '2908850654', '203570394', '2780826866', '66402592', '163952510', '98907195', '2777738643', '2911217838', '101252448', '2779542357', '2780655307', '182019814', '169466946', '2776640376', '198766705', '2778794710', '2779104393', '140075996', '2776445639', '103697071', '543218039', '2778516001', '139345896', '2781023928', '53893814', '164866673', '2777754422', '127413603', '2775926494', '133347240', '54108766', '161813005', '120302604', '2777098202', '15476841']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Bus rapid transit', 'Local parameter', 'General/global', 'Stanton number', 'Human spaceflight', 'Availability heuristic', 'Multidisciplinary design optimization', 'Application-specific integrated circuit', 'Copper binding', 'Tola', 'Increasing process', 'Life-cycle assessment', 'Y-factor', 'Surface states', 'Metis people', 'Order of battle', 'Aircraft flight control system', 'Random optimization', 'Engine control unit', 'Biomanufacturing', 'Hand mirror', 'Lean project management', 'Value added', 'Interferometric visibility', 'Biofortification', 'Battlespace', 'Microfabrication', 'Active antenna', 'Native-language identification', 'Compact tension specimen', 'Physical acoustics', 'Virtual product development', 'Military Pay', 'Galaxy', 'Unleaded petrol', 'Demosponge', 'Life expectancy', 'Reconfigurable Manufacturing System', 'Link grammar', 'Scanning Force Microscopy', 'Gold leaf', 'Ammonium dihydrogen phosphate', 'Innovative financing', 'Laser-induced incandescence', 'Space colonization', 'Inpainting', 'Emirp', 'Permethrin', 'B type natriuretic peptides', 'Machine Age', 'Twyman–Green interferometer', 'Layout Versus Schematic', 'Access to finance', 'Vibration treatment', 'Hot pressing', 'Potassium bisulfate', 'Flight control modes', 'Radio spectrum', 'Noise floor', 'Q factor', 'Economic sector', 'Chlorpyrifos', 'Flying debris', 'Algorithmic skeleton', 'Weaving', 'Oxygen-free copper', 'Alef', 'Binary logarithm', 'Emergent grammar', 'Micro-Opto-Electro-Mechanical Systems', 'Cerebellar disorder', 'Acoustic homing', 'Hydration reaction', 'Γ-convergence', 'Mars Exploration Program', 'Manufacturing operations', 'Single-mode optical fiber', 'Memory virtualization', 'Commodity market', 'CLs upper limits', 'Space Shuttle', 'Pellicle mirror', 'Enzyme Commission', 'Ambiguity function', 'Packet-switching node', 'Submarine navigation', 'Power electronic substrate', 'Environmental technology', 'Saturnia', 'Complex geometry', 'Photomixing', 'Network intelligence', 'Sheet metal', 'Local economic development', 'Diazinon', 'Crossover switch', 'Neutron bomb', 'Loop fission', 'High tech', 'Social venture', 'In situ resource utilization', 'Selective chemistry of single-walled nanotubes', 'Interstellar travel', 'Discrete manufacturing', 'Spacecraft', 'Material Crack', 'Funding of science', 'Geocentric orbit', 'Test script', 'Tool wear', 'Potassium pyrosulfate', 'Policy-based routing', 'Free flight', 'Mean opinion score', 'Linear network coding', 'Vibrational energy relaxation', 'Ballistic missile', 'Acoustic microscopy', 'Cargo spacecraft', 'Biopesticide', 'Naval warfare', 'Rate gyro', 'Iron powder', 'Loop tiling', 'K band', 'Throughput', 'Launch window', 'Wireless site survey', 'Vibrational temperature', 'Thermal analysis', 'Asymmetric warfare', 'Time-Slot Interchange', 'Heterojunction bipolar transistor', 'Fantom', 'Vibrating structure gyroscope', 'Polygraph', 'Intersymbol interference', 'Military logistics', 'Real mode', 'Fiber to the x', 'International Space Station', 'Saturation diving', 'Fresh coconut', 'Scanning thermal microscopy', 'Scan chain', 'Bonfire', 'Virtual network', 'Nanotube', 'Observatory', 'Solution process', 'Deep cerebellar nuclei', "Sylvester's law of inertia", 'Scalar projection', 'Atmospheric entry', 'Textile', '3D single-object recognition', 'Active duty', 'In situ polymerization', 'Bag-in-box', 'MIL-STD-188', 'Rake angle', 'TCP Friendly Rate Control', 'Erlang distribution', 'Copper plating', 'Scalable TCP', 'Self-organizing network', 'Orbiter', 'Six Sigma', 'Network congestion', 'Inspired gas', 'Exploration of Saturn', 'Holding tank', 'Molecular wire', 'Collaboratory', 'Coated paper', 'Injection molding machine', 'Extrusion moulding', 'More language', 'Pharmaceutical drug', 'Entire foot', 'Surgical extraction', 'Selective adsorption', 'Ibuprofen', 'Forced convection', 'Hilling', 'Economic transformation', 'Magnetic separation', 'Universe', 'Development ethics', 'Turbulence modeling', 'Reserved IP addresses', 'Electrochemical machining', 'Scanning probe microscopy', 'Pulse compression', 'iSight', 'Ecotechnology', 'Mesohyl', 'Semiconductor process simulation', 'L band', 'Compression molding', 'Calcium silicate hydrate', 'Recognition heuristic', 'Planetary Data System', 'Named graph', 'Null-move heuristic', 'Monopotassium phosphate', 'Microbial consortium', 'Sheet moulding compound', 'Head movements', 'Space Shuttle thermal protection system', 'Intersection', 'Technology governance', 'Tetrachloroethylene', 'Motor testing', 'Parking orbit', 'Strain gauge', 'Air data inertial reference unit', 'Small hand', 'Trite', 'Luminosity', 'Bufferbloat', 'Continuous optimization', 'Original report', 'Document retrieval', 'Burgers vortex', 'Large segment offload', 'ZAP File', 'Ejection charge', 'Non-line-of-sight propagation', 'Lindane', 'Military operation', 'Agricultural value chain', 'Ku band', 'Hybrid positioning system', 'Satellite system', 'F region', 'Process output', 'Brand architecture', 'Product innovation', 'Islands of automation', 'Boundary scan', 'Networking hardware', 'Continuous simulation', 'Local analysis', 'Aerospace engineering', 'Aerobot', 'Memory ordering', 'X-Ray Fluorescence Spectroscopy', 'SPHERES', 'sFlow', 'University spin-off', 'Mission control center', 'Randomized algorithm', 'Ionic potential', 'Transportation planning', 'Layout', 'Sorption isotherm', 'Joins', 'Mode coupling', 'Planetary science', 'Innovation intermediary', 'Combat exposure', 'Clef', 'Autofluorescence', 'Shares outstanding', 'Interface position', 'Food coating', 'Router', '10G-PON', 'Pipeline burst cache', 'Business sector', 'FPGA prototype', 'Hand region', 'While loop', 'Battle', 'Convergence tests', 'Routing control plane', 'Mildly context-sensitive grammar formalism', 'Unconventional computing', 'RINEX', 'Acaricide', 'Astronomical interferometer', 'Metal matrix composite', 'Creditor', 'Nusselt number', 'Named-entity recognition', 'Economic underdevelopment', 'Flamethrower', 'Design paradigm', 'Insect disease', 'Fact table', 'Mode scrambler', 'Fertilizer', 'Reaction injection molding', 'Transient erythroblastopenia of childhood', 'Location awareness', 'Artificial general intelligence', 'Carbofuran', 'Scanning tunneling microscope', 'Millennium Development Goals', 'Network packet', 'Cross-language information retrieval', 'Passivity', 'Sprue', 'Anti-ship missile', 'Object Class', 'Z-DNA', 'Cutting fluid', 'Pressure exchanger', 'Wireless network', 'Bilateral investment treaty', 'Military sociology', 'Motor test', 'Retrorocket', 'Nuclear weapon', 'Satellite', 'Leaf size', 'Radar tracker', 'Resist', 'Foreign Intelligence Surveillance Act', 'Motor oil', 'Electron-beam lithography', 'Hybrid-pi model', 'Composite joint', 'Phylum Porifera', 'Wavelength switched optical network', 'Cellulose biosynthesis', 'Calcium magnesium phosphate', 'Collinear antenna array', 'Friction welding', 'Thermal fluids', 'PipeRench', 'Cypermethrin', 'Diethyl aminoethyl hexanoate', 'Epoxy', 'Flow show', 'Scientific research on the International Space Station', 'Simulation heuristic', 'N-Methylmorpholine N-oxide', 'Terahertz gap', 'Biomolecule', 'Solar cycle 11', 'Noise', 'Exascale computing', 'Marker gene', 'Shape optimization', 'Nuclear pasta', 'Life-cycle cost analysis', 'Silumin', '10G-EPON', 'Impact pressure', 'Embarrassingly parallel', 'Sample return mission', 'Alloy', 'IEEE 802.11ax', 'Full virtualization', 'Graphics processing unit', 'Flash ADC', 'Rate integrating gyroscope', 'Globular cluster', 'Face perception', 'Cosmic ray', 'Ferrimagnetism', 'Effective microorganism', 'Tape hiss', 'Standard Charge', 'Regional innovation system', 'Geostationary orbit', 'Vertical-cavity surface-emitting laser', 'Willow bark', 'Web indexing', 'Industrial computed tomography', 'Dairy farming', 'Mirror box', 'Organic memory', 'Antiwear additive', 'Leg moving', 'Surface science', 'Development environment', '3D interaction', 'Heuristic', 'Network on a chip', 'Tariff', 'Mode field diameter', 'Page layout', 'Local property', 'Female entrepreneurs', 'Colonic Polyp', 'Fluorescence', 'Surface pressure', 'Mobile data offloading', 'Vacuum forming', 'Surgical action', 'Seismic metamaterials', 'Hot stamping', 'Control flow', 'Biotechnology', 'Inconel', 'Cellulose synthesis', 'Adsorption', 'Cascade', 'Just-in-time manufacturing', 'Thermophoresis', 'Rule-based machine translation', 'Design technology', 'Ellipsometry', 'Web of Things', 'Therapeutic inertia', 'Neutron star', 'Nuclear ethics', 'Network allocation vector', 'Thermal grease', 'Innovation management', 'Laser dye', 'Communications satellite', 'Synthetic oil', 'Relaxation length', 'Selenium salt', 'Design flow', 'Franck–Condon principle', 'Colorectal polyposis', 'Plasmonic lens', 'Code division multiple access', 'Machining time', 'Exchange bias', 'Tank locomotive', 'Location-based service', 'Rotating tank', 'Decompression illness', 'Defence in depth', 'Logarithmic mean temperature difference', 'Painting', 'Intelligence cycle', 'Cockpit display system', 'Solar cycle 22', 'g factor', 'Forward converter', 'Diamond dust', 'Internetwork protocol', 'Tax incentive', 'Network economics', 'IEEE 802.11u', 'Mashing', 'Polyatomic ion', 'Memory map', 'P-factor', 'Digital manufacturing', 'Electric motor', 'Join point', 'Radar', 'Heuristic function', 'Melting tank', 'Corporate social responsibility', 'Pulsar', 'Static secondary-ion mass spectrometry', 'Manufacturing engineering', 'Missile', 'Bermuda Atlantic Time-series Study', 'Space logistics', 'Non-renewable resource', 'Son of man', 'Flow velocity', 'Scanning probe lithography', 'Internet protocol suite', 'AIDS dementia complex', 'Living lab', 'Launch escape system', 'Multipath TCP', 'Long mode', 'Polar', 'Ammonium molybdate', 'Mechanical metamaterial', 'Inertial Upper Stage', 'Steel design', 'Hardware virtualization', 'Molecular biophysics', 'Fiscal policy', 'Supply chain risk management', 'Military personnel', 'Loop fusion', 'Distributed manufacturing', 'Two-electron atom', 'Facial motion capture', 'European Geostationary Navigation Overlay Service', 'Naval Tactical Data System', 'Leaf mold', 'Market access', 'Interband cascade laser', 'Submarine warfare', 'Light infantry', 'Solar cycle 10', 'Submarine', 'Life Cycle Engineering', 'Fertigation', 'Three point flexural test', 'Service set', 'Transfer station', 'Inside plant', 'Exclosure', 'Plasma pencil', 'Leg mechanism', 'Rite', 'Hand problems', 'Zero Defects', 'Plane mirror', 'Electrical tuning', 'Local positioning system', 'Mobilome', 'Product Labelling', 'Technology strategy', 'Packet processing', 'Forming processes', 'Heat flux', 'route', 'Time complexity', 'Milling cutter', 'Computational linguistics', 'Physical vapor deposition', 'Die casting', 'Dehydration reaction', 'Metal leaf', 'Tricalcium aluminate', 'Terminology extraction', 'Titanium aluminium nitride', 'Dispersity', 'Fosmid', 'Network virtualization', 'Radio telescope', 'Star tracker', 'Asteroid', 'Deep Web', 'Military technology', 'Normal convergence', 'Emerging markets', 'National Energy Modeling System', 'Engineering optimization', 'Solar cycle 19', 'Optical modulator', 'Industrialisation', 'Adventure education', 'Module pattern', 'Integrated circuit design', 'Sensitive skin', 'Industrial ecology', 'Hydraulic diameter', 'Virtual metrology', 'On the fly', 'Technological convergence', 'Bill of materials', 'Heat transfer enhancement', 'Fluorescence cross-correlation spectroscopy', 'Atkinson cycle', 'Secondary ion mass spectrometry', 'Polymer clay', 'DNA transport', 'Diatomic molecule', 'Reverse innovation', 'Deindustrialization', 'Surface charge', 'Open standard', 'Hybrid array', 'Carrier grade', 'Diving physics', 'Two-phase flow', 'Reaction bonded silicon carbide', 'Verilog-A', 'Pressure coefficient', 'Text annotation', 'Loop inversion', 'Human leg', 'Portlandite', 'Stars', 'Lateral thinking', 'Synthetic diamond', 'Thermal transmittance', 'Modern language', 'Solar cycle 21', 'AVM Navigator', 'Gyroscope', 'Short legs', 'Traffic station', 'Scanning capacitance microscopy', 'Imidacloprid', '128-bit', 'Memory bandwidth', 'Slosh dynamics', 'Food labelling', 'Cognitive module', 'Wave soldering', 'End-to-end delay', 'Explicit Congestion Notification', 'Mixed finite element method', 'Autonomic networking', 'Constellation program', 'Parathion', 'Strain energy release rate', 'Cracking', 'Induced high electron mobility transistor', 'Potassium sulfate', 'Cosmology', 'Videotelephony', 'Diamond turning', 'Hand structure', 'Flight test instrumentation', 'Virtualization', 'Wearable technology', 'Rail freight transport', 'Market economy', 'Reindustrialization', 'Evidence of water on Mars from Mars Odyssey', 'Dysbaric osteonecrosis', 'Golay cell', 'Gray iron', 'Waveguide', 'Design layout record', 'Military threat', 'Q-analysis', 'Coat', 'Protein surface', 'Crew', 'Eco-industrial development', 'Robotic spacecraft', 'Competitive intelligence', 'Cost reduction', 'Global financial system', 'Thermocouple', 'Loop dependence analysis', 'Industrial design', 'Molecular memory', 'Charge density', 'Material properties of diamond', 'Machinability', 'Ammonia volatilization from urea', 'Lead(II) iodide', 'Clutter', 'Agile manufacturing', 'Default-free zone', 'Real-time communication', 'MEMS testing', 'Photon entanglement', 'Expansion tunnel', 'Knowledge transfer', 'Wireless mesh network', 'Modified cellulose', 'Tank truck', 'F-factor', 'Cotransformation', 'Calcium aluminate cements', 'Guerrilla warfare', 'Hot band', 'Cost Comparisons', 'Strategic goal', 'Lexical grammar', 'E band', 'Normal surface', 'Spectacle', 'Nickel', 'Suberites domuncula', 'Carbon fiber reinforced polymer', 'Sun sensor', 'Diamond blade', 'Common-path interferometer', 'Metis', 'Probable prime', 'Safe prime', 'Epiwafer', 'Comet', 'Concurrent engineering', 'Pressure decrease', 'Convective storm detection', 'Ammunition', 'Astrobiology Science and Technology for Exploring Planets', 'Electric charge', 'Dark matter', 'Horizontal scan rate', 'Martian', 'Surface-to-air missile', 'Robust control', 'Informal sector', 'No first use', 'Parting line', 'Malabsorption', 'Nuclear thermal rocket', 'Post-perovskite', 'Electric vehicle', 'Toolchain', 'Combined operations', 'Buck–boost converter', 'Maneuver warfare', 'Channel spacing', 'Bulbous bow', 'Terahertz metamaterials', 'Spacecraft design', 'Hemadsorption', 'MIMO-OFDM', 'RISC-V', 'Diamond cubic', 'Innovation competition', 'Efficiency factor', 'Missile defense', 'Science policy', 'Flight envelope', 'Space exposure', 'Numerical control', 'End mill', 'Joints anatomy', 'Financial market', 'Metal fabrication', 'Software-defined data center', 'Public infrastructure', 'Collaborative network', 'Adaptive strategies', 'Ground segment', 'Antiferromagnetism', 'Internal combustion engine cooling', '1s Slater-type function', 'Flight dynamics', 'Vibrational partition function', 'Healing Touch', 'Cost engineering', 'Spatial multiplexing', 'Factor analysis', 'Rule of mixtures', 'Static routing', 'S band', 'Temperature measurement', 'Online machine learning', 'Spin-exchange interaction', 'Turbulence kinetic energy', 'Stable fly', 'Emissions trading', 'Xylanase', 'Many antennas', 'Military intelligence', 'Robotic mapping', 'Production control', 'Pyrethroid', 'Halite', 'Electrode potential', 'Observations and explorations of Venus', 'Occupancy sensor', 'Interfacial thermal resistance', 'Exploration of Mercury', 'Saw (device)', 'Nanomanufacturing', 'Radiation mode', 'Potash', 'Plastic welding', 'Construction management', 'Ion beam deposition', 'Military psychology', 'Computer-integrated manufacturing', 'Information and communication technologies for development', 'Emerging market debt', 'Machining', 'Gasoline', 'Hash join', 'Ammonium dimolybdate', 'Embedded intelligence', 'Knowledge broker', 'Nanobiotechnology', 'Tetrafluoroborate', 'FCAPS', 'Green marketing', 'Copra', 'Drop tank', 'Orbit', 'Programmable metallization cell', 'Green infrastructure', 'Pesticide resistance', 'Counter-scanning', 'Regulator', 'Baseflow', 'Resource Provider', 'Nuclear fission', 'Primary mirror', 'Diammonium phosphate', 'Fire support', 'Socioeconomic development', 'Interlingual machine translation', 'Thermal conductivity measurement', 'Induction motor', 'Space rendezvous', 'Overlay network', 'Need for cognition', 'Lean manufacturing', 'Optical burst switching', 'Gate dielectric', 'Lubricant', 'Space Launch System', 'Intelligent environment', 'Nitroxyl', 'Venus', 'Surgical Sponges', 'Nanofluid', 'Manufacturing execution system', 'Bandwidth-delay product', 'Integrated circuit layout', 'Child-resistant packaging', 'Resistin', 'Combat Disorders', 'Vision problem', 'R Plasmids', 'Electric machine', 'Mobile cloud computing', 'Fair trade', 'Nano manufacturing', 'Management agent', 'Composite construction', 'Crew resource management', 'Social entrepreneurship', 'Friction stir welding', 'Supply chain management', 'Convective heat transfer', 'Integrated Computer-Aided Manufacturing', 'Solar cycle 14', 'Worsted', 'Hybrid plasmid', 'Alloy wheel', 'Mean flow', 'Nanophotonics', 'Gravitational wave', 'Social marketing', 'Molecular self-assembly', 'Ideal surface', 'Wire speed', 'Perovskite solar cell', 'Mischmetal', 'Technological revolution', 'Microbial agent', 'Nuclear strategy', 'Nickel Chromium Alloys', 'Mirror galvanometer', 'Injection moulding', 'Viola–Jones object detection framework', 'Nuclear cross section', 'Technological evolution', 'Surgical errors', 'Rifle', 'Civil defense', 'Supply chain sustainability', 'Seafloor mapping', 'Lagrangian point', 'Vector operator', 'TCP congestion-avoidance algorithm', 'Mobility management', 'Smart contract', 'Dot product', 'Ka band', 'Memory hierarchy', 'Paraphrase', 'Radar cross-section', 'Automated Transfer Vehicle', 'Organophosphate', 'Access network discovery and selection function', 'Myelin-associated glycoprotein', 'Native copper', 'Titanium', 'Impressment', 'Russian literature', 'Surface integrity', 'Process variation', 'Pediatrics', 'Metamaterial cloaking', 'Dieldrin', 'ISM band', 'Early adopter', 'Kinetic theory', 'Calcium superphosphate', 'Submariner', 'N-Ethylmaleimide', 'Space research', 'Network architecture', 'Telescope', 'Class implementation file', 'Industrial robot', 'Lime-nitrogen', 'Humic acid', 'Stencil lithography', 'Waveguide flange', 'Synthetic geometry', 'Multiprotocol Label Switching', 'Total productive maintenance', 'Motion control', 'Sauter mean diameter', 'Retread', 'Thermal contact conductance', 'LIDA', 'Plastics industry', 'Environmental biotechnology', 'Solar cycle 16', 'Weather radar', 'POWDERED CELLULOSE', 'Public key infrastructure', 'Musca autumnalis', 'Planetary surface', 'Planetary protection', 'Golgi cell', 'International Electron Devices Meeting', 'Hobbing', 'Adventure', 'Demobilization', 'Orbital plane', 'Exploratory search', 'Trade and development', 'Military theory', 'Open innovation', 'Artillery', 'Fortification', 'Grippers', 'Alloy Analyzer', 'Proton conductor', 'Bilingual lexicon', 'Partial charge', 'Induced innovation', 'Advertising campaign', 'CELLULAR SHEET', 'Aerodynamic potential-flow code', 'Nowcasting', 'Transmon', 'State secrets privilege', 'Industrial district', 'Saturated calomel electrode', 'Loop splitting', 'Auxiliary memory', 'Castability', 'Investment banking', 'Formability', 'Magnetic Bead Separation', 'V band', 'Prehensile tail', 'Flyby anomaly', 'Network Convergence', 'Reynolds stress', 'Control reconfiguration', 'Cyclic prefix', 'Solar cycle 12', 'Exploration of Mars', 'Microfiltration', 'Motorcycle tyre', 'Regenerated cellulose', 'Research development', 'Network traffic control', 'Nitrate test', 'Plant identification', 'Financial sector development', 'Defense Satellite Communications System', 'Urea phosphate', 'Virtex', 'IEEE 802.11', 'Cognitive closure', 'Fallout shelter', 'Process development execution system', 'Akadama', 'Charge number', 'Language technology', 'Elastomer', 'Intensity interferometer', 'Military recruitment', 'Artificial intelligence', 'Ionic bonding', 'Mamba', 'Magnetoresistive random-access memory', 'Nuclear fallout', 'Microbial cellulose', 'Entity linking', 'Network management application', 'Reflective array antenna', 'Military deployment', 'Solar cycle', 'Explosives safety', 'Amphibious warfare', 'Routing Information Protocol', 'Ammonium phosphate', 'Secondary mirror', 'Azasteroid', 'Aerial video', 'Environmental economics', 'Second strike', 'First-order reliability method', 'Colon polyps', 'Dot gain', 'Verilog', 'Incremental sheet forming', 'Interstimulus interval', 'Investment casting', 'Deltamethrin', 'Aerodynamic heating', 'Shared disk architecture', 'Semiconductor device fabrication', 'Heterostructure barrier varactor', 'Network topology', 'Strong electrolyte', 'Solar architecture', 'Diesel fuel', 'Mantra', 'Slow flight', 'Japanese post-war economic miracle', 'Non-rocket spacelaunch', 'Mushroom bodies', 'Reinforced solid', 'File Control Block', 'Semiconductor optical gain', 'Two-stage-to-orbit', 'CUDA', 'Motor control', 'Orbital elements', 'Nanoarchitectonics', 'Enabling', 'Strategy pattern', 'Infrared homing', 'Reflection mapping', 'Adaptive value', 'BiCMOS', 'DNA field-effect transistor', 'Relative intensity noise', 'Ductile iron', 'Hot runner', 'Optical switch', 'Aviation safety', 'Linear Scan', 'Terminal guidance', '6to4', 'Wi-Fi array', 'Submarine cable', 'Semi-active radar homing', 'Ammonium heptamolybdate', 'Nitrogen-vacancy center', 'Paper sack', 'Powered wheelchairs', 'International security', 'Bipolar junction transistor', 'Dive computer', 'Comprehensive layout', 'Pressure Rate', 'Copper', 'Orchestration', 'End-user computing', 'Design specification', 'Standard cell', 'DIP switch', 'Gait analysis', '3G MIMO', 'Biotransformation', 'Dental alloys', 'Packaging Tank', 'Flexible manufacturing system', 'Persian gulf syndrome', 'Resistor', 'Link level', 'Communication complexity', 'Infantry', 'Hydrogen sulfide sensor', 'Cerebellum', 'Laser velocimetry', 'Rolling resistance', 'Mars landing', 'Language identification', 'Stimulus interval', 'Gastronomy', 'Electrochemical electrode', 'Transfusion associated circulatory overload', 'C-type natriuretic peptide', 'New business development', 'Scientific terminology', 'Analysis of flows', 'Slush', 'Peacebuilding', 'Nitrox', 'Leaf gap', 'Revolution in Military Affairs', 'Pyrometer', 'Nanoelectromechanical systems', 'Potassium persulfate', 'Prime k-tuple', 'Hele-Shaw flow', 'Transport document', 'Photoacoustic tomography', 'Object-class detection', 'Network protector', 'Global Innovation Index', 'Production engineering', 'National Security Area', 'Molecular models of DNA', 'Design for assembly', 'Strategic defence', 'Nuclear warfare', 'Carbaryl', 'Rotational–vibrational coupling', 'Medical robot', 'Latching switch', 'Capacity building', 'Vertical-external-cavity surface-emitting-laser', 'Social business', 'Corporate sustainability', 'Single-Walled Nanotube', 'Modern warfare', 'Signal station', 'Concurrent user', 'Rotary actuator', 'Radio Science', 'Internet Protocol', 'Foundry', 'Leaf formation', 'Cable Internet access', 'Geoengineering', 'Diamond type', 'Hybrid intelligent system', 'IDEF0', 'Process manufacturing', 'Tiered service', 'Meteorite', 'Submarine medicine', 'Ultrasonic machining', 'Adventure therapy', 'Traffic policing', 'CUDA Pinned memory', 'Paravirtualization', 'RF switch', 'Bowman–Birk protease inhibitor', 'Automatic-tracking satellite dish', 'Electronics cooling', 'Crew cut', 'Translation language', 'Air traffic management', 'Saturnus', 'Library consortium', 'Monolithic microwave integrated circuit', 'Spacefaring', 'Switch statement', 'Network traffic measurement', 'Adaptive grammar', 'Pitching moment', 'Universal Networking Language', 'Research design', 'Bronze', 'Lost-foam casting', 'Artificial Intelligence System', 'Ballistic capture', 'Shared space', 'Reservoir bag', 'Business plan', 'Ongoing reliability test', 'Scanning ion-conductance microscopy', 'Solar System', 'Internet presence management', 'Charge conservation', 'Labelling', 'K-epsilon turbulence model', 'Base flow', 'IEEE 802.11ac', 'Kanban', 'S-factor', 'Silicon carbide', 'Biosatellite', 'Scene statistics', 'Pressure gradient', 'Suberites', 'Bass diffusion model', 'Magic formula', 'Crossbar switch', 'Sack', 'Ternary tree', 'Defined process', 'Broadband', 'Desoldering', 'Radiological warfare', 'Labelling machine', 'Channel use', 'Cerebellar function', 'Switched reluctance motor', 'Optical communications repeater', 'Fitness to dive', 'Heuristics', 'Disruptive innovation', 'User innovation', 'Face space', 'Intercontinental ballistic missile', 'Mobile broadband', 'Average-case complexity', 'Sustainable urban infrastructure', 'Concurrent computing', 'Casting', 'Ant robotics', 'Steady flight', 'Sand casting', 'Blow molding', 'Cellulose phosphate', 'Metal', 'Rain gauge', 'Elongation', 'Engineering', 'Military tactics', 'Order of magnitude', 'Yarrowia', 'Static testing', 'Stratix', 'Agreed Framework', 'Content Model', 'Finite element method', 'Ground-penetrating radar', 'Loop interchange', 'REMUS', 'Functional design', 'Langmuir', 'Eco-innovation', 'Pneumatic actuator', 'Process validation', 'Resistive random-access memory', 'Healing tissues', 'Intermediate-range ballistic missile', 'Ionic compound', 'Naval Surface Warfare Center', 'Wi-Fi', 'Open economy', 'Campaniform sensilla', 'Digital ecosystem', 'Capital control', 'Successive approximation ADC', 'Clothing', 'Gain', 'Simulation language', 'Strong prime', 'Adcock antenna', 'Vision for Space Exploration', 'Meteoroid', 'Nuclear weapons testing', 'Acoustic radiation force', 'Foreign direct investment', 'Magnesium', 'Internet access', 'TOP500', 'Orbital maneuver', 'Physical design', 'Plasmid maintenance', 'Fractionated spacecraft', 'Embedded C', 'Nanofluidics', 'Ropes course', 'Power user', 'Conoscopic interference pattern', 'Endogenous growth theory', 'Trade facilitation', 'Missile injury', 'Flight control surfaces', 'Long-term experiment', 'Adaptive capacity', 'Deep space exploration', 'Flat memory model', 'Provable prime', 'Hydrographer of the Navy', 'IBM', 'Path computation element', 'Creative problem-solving', 'Modes of convergence', 'Particle tracking velocimetry', 'Astronomy', 'Gait', 'Atomic Bombs', 'Shape object', 'Metamaterial antenna', 'Wormhole switching', 'Molding sand', 'Sentiment analysis', 'Technical diving', 'Terahertz time-domain spectroscopy', 'Named entity', 'Overtone band', 'Universal Software Radio Peripheral', 'Generalised cost', 'Metropolitan area network', 'Ecodesign', 'Data retrieval', 'Affix grammar', 'Vortex stretching', 'IEEE 802.11ah', 'Signal corps', 'Leapfrogging', 'Educational institution', 'DC-to-DC converter', 'National security', 'Surface-to-surface missile', 'Missile guidance', 'Stochastic geometry models of wireless networks', 'Ethidium monoazide', 'Channel capacity', 'Ring modulation', 'Lost-wax casting', 'Inertia', 'Hardware description language', 'Wireless broadband', 'Photon polarization', 'Neurorobotics', 'Focused ion beam', 'Small Business Innovation Research', 'Spaceflight', 'Investment decisions', 'Military operations area', 'Planet', 'Expendable launch system', 'Recursive join', 'Facial recognition system', 'Steel casting', 'Optical add-drop multiplexer', 'Banyan switch', 'Omnidirectional antenna', 'Digifant engine management system', 'Electric discharge', 'Core language', 'Dictyoceratida', 'Space debris', 'C-DNA', 'Maximum flow problem', 'Minesweeping', 'Wet cleaning', 'Plasmonic metamaterials', 'Platinum', 'Level activity', 'Multiple Polyps', 'Sustainable urbanism', 'Cow dung', 'Electrospark deposition', 'Engine test stand', 'Capital formation', 'Thin-film optics', 'Leaded petrol', 'Leg stiffness', 'Dynamic Scan', 'Screw', 'IEEE 802.11s', 'Lab-on-a-chip', 'Phugoid', 'Membrane coat', 'Fast packet switching', 'Human-in-the-loop', 'Technology policy', 'Air traffic flow management', 'Propellant tank', 'Next Generation Air Transportation System', 'Paper engineering', 'Total pressure', 'Ecological economics', 'Advanced manufacturing', 'Pore pressure gradient', 'Permanent mold casting', 'Certificate of origin', 'Conventional memory', 'Ion beam lithography', 'Mode 2', 'Flow conditions', 'Endosulfan', 'Meridiani Planum', 'Grammar', 'Interactive systems engineering', 'Financial innovation', 'Diamond', 'Memory module', 'Body temperature measurement', 'Design Error', 'Subtitle', 'Sigma', 'Commodity computing', 'Data control language', 'Langmuir adsorption model', 'GLONASS', 'Phoenicopteridae', 'Panopticon', 'Technological change', "Simon's problem", 'Formamidinium', 'Diamond tool', 'Life cycle thinking', 'Pursuit guidance', 'GPU cluster', 'Wireless WAN', 'Lidar', 'X-ray lithography', 'Motor controller', 'IC layout editor', 'Consistent heuristic', 'Aluminium-27', 'IEEE 802.11p', 'Web mapping', 'Join dependency', 'Crew scheduling', 'Upset welding', 'Flow map', 'Automaton', 'Trench warfare', 'Almost prime', 'Solar cycle 24', 'A share', 'Tactical nuclear weapon', 'Method of image charges', 'Methylammonium lead halide', 'Exchange interaction', 'Naval Science', 'EMPA', 'Micropipe', 'Accelerating change', 'Data-intensive computing', 'Pace', 'Planet V', 'Toyota Production System', 'Colorectal Polyp', 'Continuous casting', 'Leaf morphogenesis', 'Embedding', 'Mobile phone', 'Roll program', 'Stable gait', 'Surface modification', 'Cryotank', 'Artificial intelligence and law', 'Leaf angle distribution', 'Differential item functioning', 'Connectivity', 'Design and Technology', 'Military science', 'Terminology', 'Fluorescence spectroscopy', 'Remanufacturing', 'Malathion', 'Chicken manure', 'Linea', 'Gamma-ray burst', 'Molecular physics', 'Test functions for optimization', 'Acoustic radiation', 'Cruise missile', 'Particle image velocimetry', 'Cloning', 'MicroBlaze', 'Reprojection error', 'Symbolic convergence theory', 'Carausius morosus', 'Interferometric synthetic aperture radar', 'Knowledge-based engineering', 'Co-creation', 'Future proof', 'Distributed Bragg reflector laser', 'Plug-in', 'Traffic flow', 'Submarine landslide', 'Dexibuprofen', 'Number One Crossbar Switching System', 'Incoherent scatter', 'Leaf expansion', 'Next-generation lithography', 'Tactile sensor', 'Limit switch', 'Modular design', 'Sheet metal forming simulation', 'Solar cycle 20', 'Military strategy', 'DSRFLOW', 'Group technology', 'Military branch', 'Nuclear explosive', 'Machine vision', 'Ensign', 'TO-18', 'Packet loss', 'Multilayer switch', 'Gas porosity', 'Satellite bus', 'Interferometry', 'Internal fan-cooled electric motor', 'Mobilization', 'Mirror image', 'Parallel Extensions', 'Dead reckoning', 'Product design', 'Carbon nanotube supported catalyst', 'Dipole antenna', 'Water-Lilies', 'Transmitter station', 'Hardware acceleration', 'Transformation optics', 'Thermoforming', 'Adaptive optimization', 'Paradigm shift', 'Flow visualization', 'Cell determination', 'Nonlinear metamaterials', 'Charge type', 'Analyte', 'Plain weave', 'Lithography', 'Open network architecture', 'Musical tuning', 'Split-ring resonator', 'Muscidae', 'Swarm robotics', 'Dielectric barrier discharge', 'Infranet', 'Near field communication', 'Hexachlorobenzene', 'Charging order', 'Face hallucination', 'Alite', 'Commercialization', 'Linear actuator', 'Trident', 'RF power amplifier', 'Public transport', 'Data mapping', 'Solar cycle 23', 'I/O virtualization', 'Electrochemical scanning tunneling microscope', 'Aerobraking', 'Policy mix', 'Polymer characterization', 'Chicken droppings', 'Coati', 'Exploratory research', 'Pioneer anomaly', 'Primary station', 'Packet switching', 'Active vision', 'Trade barrier', 'Block nested loop', 'Casting defect', 'Robot leg', 'Atacama Large Millimeter Array', 'Corona', 'Soldering', 'Ball-and-stick model', 'Tricalcium silicate', 'Trimix', 'Castalia', 'Flight inspection', 'Intestinal polyp', 'T-DNA Binary system', 'Electrical discharge machining', 'Microphotonics', 'Build to order', 'ID/LP grammar', 'Saturation velocity', 'Black hole', 'Artillery shell', 'RAMP3', 'Fluorescence correlation spectroscopy', 'Tank container', 'Gummel–Poon model', 'Channel allocation schemes', 'Relative fluorescence units', 'Technology assessment', 'Multiple patterning', 'Trichoderma reesei', 'Satellite imagery', '12-bit', 'Air traffic control', 'Atrazine', 'Chiller boiler system', 'Atom interferometer', 'Plasma torch', 'Entrepreneurship ecosystem', 'Xylobiose', 'Vortex lattice method', 'Nuclear terrorism', 'Packaging engineering', 'Mars Orbiter Laser Altimeter', 'Compact convergence', 'Vortex Formation', 'Forming limit diagram', 'Rho factor', 'Trimethylene carbonate', 'Constructed language', 'Lunar orbit', 'Aerocapture', 'Immunomagnetic separation', 'Graphite', 'Shared Risk Resource Group', 'W band', 'Tiss</t>
+          <t>['Programmable metallization cell', 'Robotic spacecraft', 'Super-channel', 'Combat Disorders', 'Nanofluidics', 'Mode 2', 'Compression molding', 'Virtual network', 'Bulbous bow', 'Reverse innovation', 'Adaptive strategies', 'Optical add-drop multiplexer', 'Deep hole drilling', 'Protein surface', 'Leaded petrol', 'Adaptive value', 'Memory virtualization', 'Cypermethrin', 'Product design', 'Calcium aluminate cements', 'Fractionated spacecraft', 'Early adopter', 'Suberites domuncula', 'Modern language', 'Next-generation lithography', 'Metis people', 'Social venture', 'V band', 'Module pattern', 'Military theory', 'Diesel fuel', 'Nusselt number', 'Long-term experiment', 'Design layout record', 'Efficiency factor', 'Alite', 'Boundary scan', 'Core language', 'Adventure education', 'Launch window', 'Switch statement', 'Research design', 'Pesticide residue', 'Scanning ion-conductance microscopy', 'Fluorescence cross-correlation spectroscopy', 'Agricultural value chain', 'Sack', 'Increasing process', 'Satellite', 'Creative problem-solving', 'Acoustic homing', 'Atomic Bombs', 'Fortification', 'Strong electrolyte', 'Tactical nuclear weapon', 'Flyby anomaly', 'Geoengineering', 'Dental casting', 'Dipole antenna', 'Operator-precedence grammar', 'Nuclear weapons testing', 'Motor oil', 'Base oil', 'Military psychology', 'Monolithic microwave integrated circuit', 'Military science', 'Biofortification', 'Normal surface', 'Buck converter', 'Intestinal Polyposis', 'Peacebuilding', 'Imidacloprid', 'Orchestration', 'Leaf gap', 'Adsorption', 'Collaboratory', 'Engineering optimization', 'Clothing', 'Grippers', 'Thin-film optics', 'Reaction injection molding', 'Compact tension specimen', 'Russian literature', 'Grammar', 'Capital formation', 'Transfer molding', 'Satellite bus', 'Worsted', 'Intelligence cycle', 'Optical burst switching', 'ISM band', 'Memory ordering', 'Fantom', 'Polygraph', 'Heat transfer enhancement', 'Performance tuning', 'Robotic mapping', 'Turbulence modeling', 'Electrospark deposition', 'Fixed–mobile convergence', 'Gate dielectric', 'Paraphrase', 'Ejection charge', 'Communication complexity', 'Folding endurance', 'Mamba', 'Planetary science', 'Fiscal policy', 'Logarithmic mean temperature difference', 'Forward converter', 'Build to order', 'Co-creation', 'Permanent mold casting', 'FPGA prototype', 'MEMS testing', 'Cross-language information retrieval', 'Induction motor', 'Local positioning system', 'Layout', 'Kinetic theory', 'Mode coupling', 'Digital manufacturing', 'Data mapping', 'Renewable resource', 'Policy-based routing', 'Market access', 'Doppler radar', 'Free flight', 'Knowledge transfer', 'Electrical tuning', 'Calcium superphosphate', 'Material properties of diamond', 'Molecular biophysics', 'Scatterometer', 'Coat', 'Z-DNA', 'Location-based routing', 'Sigma', 'Monopotassium phosphate', 'Passivity', 'Paradigm shift', 'Bowman–Birk protease inhibitor', 'Aviation safety', 'Radar cross-section', 'Industrial robot', 'Forming limit diagram', 'Carbon fiber reinforced polymer', 'Flow map', 'Atom interferometer', 'Dictyoceratida', 'GPU cluster', 'Probabilistic-based design optimization', 'Diamond', 'Semiconductor optical gain', 'Pressure coefficient', 'Base flow', 'Solution process', 'Interfacial thermal resistance', 'TCP Friendly Rate Control', 'Interferometry', 'Crew', 'Access to finance', 'Metis', 'Intestinal polyp', 'Plasmonic lens', 'Particle tracking velocimetry', 'Technology governance', 'Need for cognition', 'Neutron star', 'Hydration reaction', 'Nanoengineering', 'Atkinson cycle', 'Economic underdevelopment', 'Affix grammar', 'Two-electron atom', 'Living lab', 'Commercialization', 'Electric vehicle', 'Economic sector', 'Flow visualization', 'Toolchain', 'Aerodynamic heating', 'route', 'Brand architecture', 'Solar cycle 14', 'Urea phosphate', 'Leg mechanism', 'Hybrid array', 'Document retrieval', 'Continuous optimization', 'Social business', 'Wireless broadband', 'RF modulator', 'Organic memory', 'Laser beam machining', 'Permethrin', 'Native-language identification', 'Injection moulding', 'Planetary protection', 'Virtual metrology', 'Tool wear', 'Rifle', 'Star tracker', 'Military threat', 'I/O virtualization', 'FCAPS', 'Conoscopic interference pattern', 'Mesohyl', 'Collaborative network', 'Methylammonium lead halide', 'Scene statistics', 'Pulsar', 'Capacity building', 'Real mode', 'Non-renewable resource', 'Technological innovation system', 'Child-resistant packaging', 'Multilayer switch', 'Submarine warfare', 'Light infantry', 'Development ethics', 'Location-based service', 'Selenium salt', 'Dispersity', 'Potassium pyrosulfate', 'Mirror box', 'Venus', 'Commodity market', 'Halo orbit', 'Multipath TCP', 'National Security Area', 'Tread', 'Civil defense', 'Diving physics', 'Recognition heuristic', 'Nuclear terrorism', 'Castalia', 'Lost-foam casting', 'Exchange bias', 'Microfabrication', 'Planet', 'Public transport', 'Meridiani Planum', 'Aerocapture', 'Baseflow', 'Friction welding', 'Microfiltration', 'Vibrational temperature', 'Regenerated cellulose', 'Class implementation file', 'Japanese post-war economic miracle', 'Transmon', 'Mantra', 'Creditor', 'Electrochemical electrode', 'Flight control modes', 'Corporate social responsibility', 'Submarine', 'Advanced manufacturing', 'Chicken droppings', 'Pitching moment', 'Space rendezvous', 'Insect disease', 'Infranet', 'Labelling', 'Orbital elements', 'Dive computer', 'Inpainting', 'Infrared homing', 'Clef', 'Telescope', 'Perovskite solar cell', 'Multiple Polyps', 'Informal sector', 'Hybrid intelligent system', 'Wireless WAN', 'Cellulose phosphate', 'Friction stir welding', 'Ring modulation', 'Nanoelectromechanical systems', 'Lubricant', 'Focused ion beam', 'Hydrogen sulfide sensor', 'Motion control', 'CUDA Pinned memory', '3D interaction', 'Radiological warfare', 'Artificial dielectrics', 'Blow molding', 'Therapeutic inertia', 'IEEE 802.11p', 'Packaging Tank', 'Waveguide flange', 'Flow velocity', 'Biopesticide', 'Product Labelling', 'Average-case complexity', 'Loop dependence analysis', 'Akadama', 'Cruise missile', 'Exclosure', 'Temperature measurement', 'Diamond cutting', 'Antiwear additive', 'AVM Navigator', 'Terahertz time-domain spectroscopy', 'Spacecraft', 'Saturn', 'Randomized algorithm', 'Hash join', 'Sauter mean diameter', 'Tank truck', 'Hexachlorobenzene', 'Elastomer', 'Open standard', 'Mean opinion score', 'User innovation', 'Supply chain sustainability', 'Generalised cost', 'Radio spectrum', 'Charge number', 'Sheet metal', 'Enclosure', 'Rail freight transport', 'Hand region', 'Shape optimization', 'Luminosity', 'PipeRench', '12-bit', 'Food coating', 'Spin-exchange interaction', 'GLONASS', 'Test script', 'Synchronous motor', 'Pharmaceutical drug', 'Manufacturing execution system', 'Casting defect', 'Deindustrialization', 'Material Crack', 'CUDA', 'Potential flow', 'Lateral thinking', 'Multidisciplinary design optimization', 'Submarine cable', 'Water-Lilies', 'Vibrating structure gyroscope', 'Hybrid-pi model', 'Fair trade', 'Scan chain', 'Digital ecosystem', 'S band', 'Air traffic control', 'Pyrometer', 'Content creation', 'Ballistic missile', 'Nuclear pasta', 'Single-mode optical fiber', 'Embedding', 'Ammonium dihydrogen phosphate', 'Lime-nitrogen', 'Inductor', 'Network allocation vector', 'Exploration of Saturn', 'Small hand', 'Observations and explorations of Venus', 'Business sector', 'Transformation optics', 'Ground segment', 'Astrobiology Science and Technology for Exploring Planets', 'Milling cutter', 'Sprue', 'Future proof', 'Loop splitting', 'Wire speed', 'Traffic flow', 'Data control language', 'Cerebellar disorder', 'Roll program', 'Interferometric synthetic aperture radar', 'Emirp', 'Three point flexural test', 'Military Pay', 'Biotechnology', 'Mars Orbiter Laser Altimeter', 'Exchange interaction', 'Wearable technology', 'Join point', 'Lead(II) iodide', 'Test functions for optimization', 'Magnetic separation', 'Non-rocket spacelaunch', 'Flat memory model', 'Mobilome', 'Xylanase', 'Optical rectification', 'Artillery shell', 'Innovation intermediary', 'Location awareness', 'Packaging engineering', '1s Slater-type function', 'Incremental sheet forming', 'Flexible manufacturing system', 'Investment decisions', 'Electric motor', 'Copper plating', 'Chiller boiler system', 'Golay cell', 'Bilingual lexicon', 'Foreign Intelligence Surveillance Act', 'Plastic welding', 'Industrial design', 'Military operations area', 'Standard cell', 'Diammonium phosphate', 'Fluorescence correlation spectroscopy', 'Bill of materials', 'Transmitter station', 'Physical design', 'Trade facilitation', 'Soft goal', 'Ku band', 'Industrial technology', 'Large segment offload', 'Process validation', 'Saw (device)', 'Enzyme Commission', 'Engine control unit', 'Continuous simulation', 'I